--- a/GenderClassification/GenderClassification/data/test_data.xlsx
+++ b/GenderClassification/GenderClassification/data/test_data.xlsx
@@ -16,934 +16,1760 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
-    <t>In_IN one_CD room_NN ,_, Meade_NNP Esposito_NNP ,_, the_DT Democratic_JJ boss_NN from_IN Brooklyn_NNP ,_, was_VBD tightening_VBG his_PRP$ grip_NN on_IN the_DT Brooklyn_NNP waterfront_NN ._. Next_JJ door_NN ,_, New_NNP York_NNP ’_NNP s_VBD former_JJ mayor_NN ,_, John_NNP V._NNP Lindsay_NNP ,_, was_VBD struggling_VBG with_IN the_DT teachers_NNS strike_NN of_IN 1968_CD ._. And_CC in_IN the_DT third_JJ room_NN ,_, an_DT idealistic_JJ young_JJ woman_NN from_IN the_DT Midwest_NNP was_VBD trying_VBG to_TO teach_VB poetry_NN at_IN Rikers_NNP Island_NNP ._. It_PRP was_VBD just_RB another_DT day_NN at_IN a_DT recording_NN studio_NN in_IN Manhattan_NNP where_WRB New_NNP York_NNP stories_NNS are_VBP lifted_VBN off_IN the_DT printed_JJ page_NN and_CC into_IN the_DT spoken_JJ word_NN for_IN blind_JJ New_NNP Yorkers_NNPS seeking_VBG audio_JJ versions_NNS of_IN books_NNS about_IN their_PRP$ city_NN ._. The_DT little-known_JJ service_NN is_VBZ run_VBN by_IN the_DT New_NNP York_NNP Public_NNP Library_NNP out_IN of_IN the_DT Andrew_NNP Heiskell_NNP Braille_NNP and_CC Talking_NNP Book_NNP Library_NNP on_IN West_NNP 20th_JJ Street_NNP ._. “_VB A_DT lot_NN of_IN the_DT books_NNS we_PRP record_VBP fall_VB into_IN that_DT ‘_VBZ New_NNP Yorkana_NNP ’_NNP category_NN ,_, ”_NNP said_VBD Susan_NNP Mosakowski_NNP ,_, a_DT playwright_NN and_CC theater_NN producer_NN who_WP runs_VBZ the_DT program_NN ,_, which_WDT puts_VBZ out_RP up_RB to_TO 50_CD titles_NNS a_DT year_NN ,_, many_JJ of_IN them_PRP New_NNP York-related_JJ books_NNS that_WDT have_VBP not_RB had_VBN wide_JJ enough_RB appeal_NN to_TO have_VB been_VBN recorded_VBN by_IN a_DT publisher_NN ._. “_NN We_PRP have_VBP a_DT lot_NN of_IN readers_NNS asking_VBG for_IN books_NNS with_IN a_DT local_JJ interest_NN ,_, a_DT local_JJ focus_NN ,_, ”_NNP she_PRP said_VBD ._. Dozens_NNS of_IN New_NNP York-related_JJ books_NNS are_VBP displayed_VBN here_RB :_: “_JJ NYPD_NNP :_: A_DT City_NNP and_CC Its_PRP$ Police_NNP ,_, ”_NN by_IN James_NNP Lardner_NNP and_CC Thomas_NNP Reppetto_NNP ;_: ”_NNP “_VBZ The_DT Seltzer_NNP Man_NNP ”_NNP by_IN Ken_NNP Rush_NNP ,_, about_IN a_DT veteran_JJ Brooklyn_NNP seltzer-schlepper_NN ;_: “_CC Upper_NNP West_NNP Side_NNP Story_NNP ,_, ”_NN by_IN Peter_NNP Salwen_NNP ._. A_DT federal_JJ regulation_NN enacted_VBN in_IN the_DT 1990s_CD allows_VBZ the_DT library_NN to_TO record_VB audio_JJ versions_NNS of_IN books_NNS without_IN having_VBG to_TO secure_VB publishing_NN rights_NNS ._. Ms._NNP Mosakowski_NNP has_VBZ the_DT luxury_NN of_IN being_VBG able_JJ to_TO draw_VB on_IN New_NNP York_NNP City_NNP ’_NNP s_VBD deep_JJ pool_NN of_IN vocal_JJ talent_NN ._. Readers_NNS have_VBP included_VBN the_DT Broadway_NNP actor_NN Jeffrey_NNP Kuhn_NNP and_CC Julie_NNP Pasqual_NNP ,_, a_DT storyteller_NN ,_, dancer_NN and_CC circus_NN clown_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP dont_VBP know_JJ why_WRB its_PRP$ taken_VBN me_PRP so_RB long_RB to_TO realize_VB most_JJS people_NNS don_VBP ’_JJ t_NNS live_VBP with_IN principles_NNS in_IN their_PRP$ lives_NNS ?_. I_PRP guess_VBP since_IN I_PRP was_VBD raised_VBN to_TO carry_VB myself_PRP with_IN some_DT integrity_NN ..._: I_PRP figured_VBD others_NNS did_VBD the_DT same_JJ ._. No_DT good_JJ deed_NN goes_VBZ unpunished_JJ ._. This_DT I_PRP learned_VBD the_DT hard_JJ way_NN ._. Humans_NNS do_VBP not_RB realize_VB they_PRP are_VBP the_DT very_RB cause_NN of_IN their_PRP$ own_JJ demise_NN ._. In_IN this_DT myriad_NN of_IN complexities_NNS we_PRP call_VBP the_DT matrix_NN or_CC cyber_VB world_NN ._. People_CC become_VBP lost_VBN ._. Hiding_VBG behind_IN their_PRP$ pc_NN or_CC phone_NN screen_NN ._. Playing_VBG dress-up_NN for_IN their_PRP$ webcam_NN or_CC camphone_NN ._. No_DT real_JJ friends_NNS or_CC relationships_NNS ._. Nothing_NN tangible_JJ ._. Me_NNP ?_. I_PRP like_VBP to_TO be_VB able_JJ to_TO reach_VB out_RP n_RB touch_JJ someone_NN ._. Whether_IN it_PRP be_VB to_TO show_VB love_VB or_CC put_VB tips_NNS on_IN em_NN ._. Old_NNP skool_NN stilo_NN ._. Just_RB know_VBP in_IN my_PRP$ life..Integrity_NN exists_VBZ ._. Dignity_NNP is_VBZ honored_VBN ._. Principles_NNS matter_RBR ._. When_WRB I_PRP leave_VBP Gods_NNS green_JJ Earth_NNP I_PRP can_MD take_VB those_DT with_IN me_PRP ._. The_DT matrix_NN is_VBZ all_DT an_DT illusion_NN so_RB doesn_JJ ’_NN t_NN be_VB mislead_VBN ._.</t>
-  </si>
-  <si>
-    <t>Outfitted_VBN with_IN burly_JJ outsoles_NNS ,_, waterproof_JJ materials_NNS ,_, and_CC big_JJ toe_NN guards_NNS ,_, trail_NN shoes_NNS are_VBP built_VBN to_TO bring_VB you_PRP closer_JJR to_TO nature_VB ._. As_IN the_DT following_JJ reviews_NNS indicate_VBP ,_, not_RB every_DT trail_NN shoe_NN is_VBZ perfect_JJ for_IN every_DT off-road_JJ outing_NN ._. Some_DT are_VBP built_VBN low_JJ and_CC feature_NN sticky_JJ treads_NNS that_WDT grip_VBP mucky_JJ footpaths_NNS and_CC shale-strewn_JJ climbs_NNS ._. Others_NNS have_VBP smaller_JJR treads_NNS and_CC thicker_NN cushioning_VBG more_JJR appropriate_JJ for_IN less-rugged_JJ terrain_NN ._. To_TO determine_VB how_WRB they_PRP measure_VBP up_RP ,_, we_PRP analyzed_VBD each_DT shoe_NN at_IN the_DT RW_NNP Shoe_NNP Lab_NNP and_CC tested_VBD them_PRP on_IN the_DT feet_NNS of_IN more_JJR than_IN 200_CD runners_NNS ._. We_PRP found_VBD these_DT nine_CD shoes_NNS to_TO be_VB the_DT best_JJS for_IN tackling_VBG the_DT trails_NNS ._. WE_NNP SAY_NNP This_DT is_VBZ one_CD of_IN the_DT few_JJ trail_NN shoes_NNS with_IN enough_JJ cushioning_NN to_TO handle_VB long_JJ stretches_NNS of_IN road_NN and_CC still_RB provide_VB sure_JJ footing_NN on_IN loose_JJ terrain_NN and_CC mud_NN ,_, thanks_NNS to_TO its_PRP$ deep_JJ lugs_NN ._. It_PRP also_RB features_VBZ a_DT grippy_JJ edge_NN in_IN the_DT heel_NN that_WDT helps_VBZ maintain_VB traction_NN going_VBG downhill_NN ._. RW_NNP Shoe_NNP Lab_NNP tests_VBZ show_VBP the_DT shoe_NN 's_POS heel_NN and_CC forefoot_NN to_TO be_VB among_IN the_DT softest_JJS in_IN this_DT guide_NN ._. All_PDT this_DT cushioning_VBG results_NNS in_IN a_DT bulkier-than_JJ average_JJ midsole_NN that_IN some_DT testers_NNS felt_VBD lifted_VBD them_PRP too_RB high_JJ off_IN the_DT ground_NN ._. Recommended_VBN for_IN trail_NN runners_NNS who_WP frequently_RB mix_VBP in_IN some_DT roads_NNS and_CC do_VBP n't_RB want_VB to_TO sacrifice_VB off-road_JJ traction_NN ._. WEAR-TESTER_NNP SAYS_NNP ``_`` I_PRP liked_VBD the_DT traction_NN ,_, but_CC the_DT heel_NN felt_VBD high_JJ ._. ``_`` —Jenna_JJ Druver_NNP ,_, 32_CD ,_, East_NNP Lansing_NNP</t>
-  </si>
-  <si>
-    <t>Jason_NNP Segel_NNP has_VBZ found_VBN his_PRP$ rainbow_JJ connection_NN with_IN Disney_NNP 's_POS Muppets_NNP movie_NN ,_, signing_VBG to_TO star_VB as_IN the_DT human_JJ lead_NN ._. He_PRP also_RB will_MD join_VB David_NNP Hoberman_NNP and_CC Todd_NNP Lieberman_NNP of_IN Mandeville_NNP Films/TV_NNP ,_, the_DT studio-based_JJ shingle_NN behind_IN last_JJ year_NN 's_POS ``_`` The_DT Proposal_NNP ,_, ''_'' as_IN a_DT producer_NN on_IN the_DT project_NN ._.</t>
-  </si>
-  <si>
-    <t>The_DT big_JJ star_NN of_IN today_NN 's_POS Apple_NNP event_NN in_IN San_NNP Francisco_NNP had_VBD to_TO be_VB the_DT latest_JJS version_NN of_IN the_DT iPod_JJ Nano_NNP ._. Chief_NNP amongst_IN the_DT music_NN player_NN 's_POS new_JJ features_NNS is_VBZ a_DT video_NN camera_NN placed_VBN on_IN the_DT bottom_JJ rear_NN of_IN the_DT device.After_NN the_DT presentation_NN ,_, out_IN editor-in-chief_JJ Lance_NNP Ulanoff_NNP managed_VBD to_TO get_VB some_DT hands-on_JJ time_NN with_IN the_DT new_JJ device_NN on_IN the_DT show_NN room_NN floor_NN ._. Check_VB out_RP some_DT more_RBR exclusive_JJ images_NNS of_IN the_DT new_JJ iPod_NN Nano_NNP after_IN the_DT jump_NN ._.</t>
-  </si>
-  <si>
-    <t>All_DT facials_NNS follow_VBP the_DT same_JJ basic_JJ structure_NN and_CC order_NN ._. They_PRP will_MD begin_VB with_IN makeup_NN removal_NN and_CC cleansing_NN ._. The_DT cleansing_NN is_VBZ normally_RB repeated_VBN twice_RB to_TO ensure_VB it_PRP is_VBZ thorough_JJ ._. Then_RB comes_VBZ some_DT method_NN of_IN exfoliation_NN to_TO remove_VB dead_JJ skin_NN cells_NNS and_CC smooth_VB the_DT surface_NN of_IN the_DT skin_NN ._. A_DT massage_NN is_VBZ then_RB performed_VBN that_IN can_MD include_VB all_DT or_CC some_DT of_IN the_DT scalp_NN ,_, face_NN ,_, neck_NN ,_, shoulders_NNS ,_, back_RB and_CC even_RB the_DT hands_NNS or_CC feet_NNS ._. Next_IN a_DT mask_NN is_VBZ applied_VBN ,_, chosen_VBN according_VBG to_TO the_DT client_NN ’_NNP s_NN specific_JJ skin_NN type_NN ._. Once_IN the_DT mask_NN has_VBZ been_VBN removed_VBN the_DT skin_NN is_VBZ toned_VBN and_CC the_DT final_JJ eye_NN ,_, neck_NN and_CC face_NN creams_NNS are_VBP applied_VBN ._.</t>
-  </si>
-  <si>
-    <t>You_PRP would_MD n't_RB expect_VB to_TO find_VB ``_`` We_PRP 've_VBP tightened_VBN up_RP the_DT graphics_NNS on_IN Episode_NNP Three_NNP ''_'' among_IN the_DT usual_JJ list_NN of_IN noted_JJ improvements_NNS between_IN Telltale_NNP 's_POS episodic_JJ releases_NNS ._. After_IN all_DT ,_, with_IN endearing_NN ,_, demented_VBD characters_NNS like_IN Sam_NNP and_CC Max_NNP taking_VBG up_RP quite_RB a_DT bit_NN of_IN the_DT screen_NN ,_, who_WP cares_VBZ how_WRB many_JJ polygons_NNS are_VBP left_VBN for_IN that_DT pot_NN plant_NN in_IN the_DT corner_NN ?_. ``_`` We_PRP wanted_VBD to_TO bump_VB everything_NN up_RP presentation-wise_NN for_IN this_DT season_NN ,_, ''_'' said_VBD designer_NN Chuck_NNP Jordan_NNP ,_, drawing_VBG attention_NN to_TO the_DT Telltale_NNP engine_NN 's_POS impressive_JJ --_: nay_NN ,_, tight_NN --_: visual_JJ enhancements_NNS ._. The_DT Penal_NNP Zone_NNP ,_, the_DT first_JJ of_IN five_CD monthly_JJ episodes_NNS comprising_VBG Sam_NNP &amp;_CC Max_NNP :_: The_DT Devil_NNP 's_POS Playhouse_NNP ,_, features_VBZ noticeably_RB improved_VBN lighting_NN ,_, real-time_JJ shadows_NNS and_CC more_RBR expressive_JJ facial_JJ animation_NN ._. As_IN Jordan_NNP pointed_VBD out_RP ,_, ``_`` an_DT expression_NN can_MD sell_VB a_DT joke_NN for_IN the_DT first_JJ time_NN ._. ''_'' Based_VBN on_IN the_DT demo_NN I_PRP saw_VBD at_IN the_DT Game_NNP Developers_NNP Conference_NNP ,_, it_PRP 's_VBZ also_RB apparent_JJ that_IN the_DT improved_JJ graphics_NNS do_VBP make_VB a_DT difference_NN to_TO that_DT pot_NN plant_NN ._. Because_IN you_PRP transform_VBP into_IN one_CD ._. ``_`` When_WRB you_PRP finally_RB get_VB to_TO control_VB Max_NNP ,_, ''_'' Jordan_NNP said_VBD ,_, ``_`` it_PRP 's_VBZ really_RB weird_JJ ._. ''_'' Like_IN ,_, really_RB really_RB weird_JJ ._. Gallery_NN :_: Sam_NNP &amp;_CC Max_NNP :_: Devil_NNP 's_POS Playhouse_NNP One_CD of_IN Max_NNP 's_POS newly_RB acquired_VBN psychic_JJ abilities_NNS (_( accessed_VBN from_IN a_DT bizarre_JJ first-person_JJ viewpoint_NN )_) allows_VBZ him_PRP to_TO transform_VB into_IN any_DT physical_JJ object_NN --_: provided_VBD he_PRP 's_VBZ seen_VBN it_PRP in_IN the_DT form_NN of_IN a_DT picture_NN or_CC a_DT painting_NN somewhere_RB in_IN the_DT environment_NN (_( obviously_RB )_) ._. It_PRP 's_VBZ an_DT interesting_JJ puzzle-solving_JJ device_NN that_WDT introduces_VBZ an_DT ability-driven_JJ approach_NN to_TO complement_VB the_DT traditional_JJ reliance_NN on_IN inventory_NN item_NN ..._: and_CC since_IN it_PRP lets_VBZ Max_NNP turn_VB into_IN stuff_NN like_IN pot_NN plants_NNS and_CC bazookas_NN ,_, it_PRP 's_VBZ also_RB super_JJ funny_NN ._. More_JJR psychic_JJ abilities_NNS will_MD be_VB unlocked_VBN as_IN the_DT season_NN continues_VBZ --_: can_MD they_PRP really_RB get_VBP stranger_JJR than_IN pictorial_JJ transformation_NN or_CC telephonic_JJ teleportation_NN ?_. --_: but_CC the_DT first_JJ few_JJ already_RB show_VBP that_IN Telltale_NNP is_VBZ cognizant_NN of_IN the_DT formulaic_NN fallbacks_NNS in_IN a_DT few_JJ of_IN its_PRP$ games_NNS ._. Inventory_NN manipulation_NN has_VBZ also_RB been_VBN inverted_VBN ,_, prompting_VBG you_PRP to_TO select_VB an_DT object_NN in_IN the_DT environment_NN first_RB and_CC then_RB pick_VB an_DT item_NN to_TO use_VB from_IN a_DT redesigned_JJ interface_NN ._. Those_DT changes_NNS seem_VBP to_TO benefit_VB the_DT PlayStation_NNP 3_CD version_NN of_IN The_DT Devil_NNP 's_POS Playhouse_NNP ,_, which_WDT also_RB abandons_VBZ the_DT point-and-click_JJ interface_NN in_IN favor_NN of_IN direct_JJ control_NN over_IN the_DT demented_JJ duo_NN on_IN the_DT left_JJ analogue_NN stick_NN ._. Of_IN course_NN ,_, it_PRP 's_VBZ also_RB worth_JJ pointing_VBG out_RP that_IN Telltale_NNP 's_POS excellent_NN ,_, unhinged_JJ humor_NN still_RB plays_VBZ a_DT crucial_JJ role_NN in_IN Sam_NNP &amp;_CC Max_NNP :_: The_DT Devil_NNP 's_POS Playhouse_NNP ._. I_PRP do_VBP n't_RB think_VB fans_NNS will_MD be_VB disappointed_VBN by_IN the_DT delightful_JJ B-movie_NNP trappings_NNS ,_, not_RB when_WRB there_EX 's_VBZ a_DT talking_VBG brain_NN ,_, a_DT megalomaniacal_JJ ape_NN and_CC a_DT host_NN of_IN unanswered_JJ mysteries_NNS right_RB from_IN the_DT start_NN ._. Only_RB an_DT enigmatic_JJ narrator_NN (_( Criswell_NNP 's_POS cousin_NN ?_. )_) hints_NNS at_IN an_DT explanation_NN ,_, but_CC it_PRP 's_VBZ clear_JJ that_IN the_DT inevitably_RB absurd_JJ answers_NNS will_MD gradually_RB be_VB exposed_VBN as_IN the_DT season_NN continues_VBZ from_IN its_PRP$ potent_NN opener_NN ._.</t>
-  </si>
-  <si>
-    <t>Where_WRB I_PRP come_VBP from_IN it_PRP ’_VBZ s…_NN ._. A_DT small_JJ island_NN of_IN the_DT coast_NN of_IN North_NNP Carolina_NNP called_VBD “_NNP Cape_NNP Hatteras_NNP Island_NNP ,_, ”_NNP known_VBN for_IN the_DT tallest_JJS Lighthouse_NN in_IN our_PRP$ nation_NN ._. It_PRP ’_VBD s_NN also_RB known_VBN for_IN its_PRP$ beaches_NNS ,_, white_JJ sands_NNS ,_, surfing_VBG waves_NNS ,_, and_CC it_PRP ’_NNP s_VBZ treacherous_JJ Diamond_NNP Shoals_NNP ._. It_PRP has_VBZ a_DT very_RB rich_JJ ,_, full_JJ history_NN in_IN many_JJ areas_NNS of_IN our_PRP$ past_NN ;_: wars_NNS ,_, pirates_NNS ,_, and_CC tourism_NN ._. Many_JJ stories_NNS fill_VBP my_PRP$ head_NN and_CC my_PRP$ heart_NN over_IN flows_NNS with_IN the_DT memories_NNS I_PRP myself_PRP have_VBP on_IN that_DT little_JJ sandy_JJ beach_NN I_PRP called_VBD home_NN for_IN most_JJS of_IN my_PRP$ life_NN ._. My_PRP$ family_NN moved_VBD to_TO Cape_NNP Hatteras_NNP when_WRB I_PRP was_VBD a_DT very_RB young_JJ girl_NN ,_, I_PRP believe_VBP I_PRP began_VBD the_DT 3rd_CD grade_NN there_RB on_IN the_DT island_NN ._. We_PRP moved_VBD across_IN the_DT states_NNS from_IN Bremerton_NNP Washington_NNP with_IN my_PRP$ father_NN ’_NN s_JJ job_NN in_IN the_DT US_NNP Navy_NNP ._. Of_IN course_NN moving_VBG to_TO the_DT island_NN at_IN that_DT time_NN brought_VBD great_JJ change_NN in_IN my_PRP$ life_NN and_CC back_RB then_RB it_PRP truly_RB was_VBD just_RB a_DT little_JJ island_NN ,_, full_JJ of_IN mom_NN and_CC pop_NN shops_NNS and_CC restaurants_NNS ,_, little_JJ tourism_NN ,_, and_CC 1_CD full_JJ military_JJ base_NN ._. As_IN a_DT child_JJ our_PRP$ days_NNS were_VBD spent_VBN ;_: playing_VBG with_IN the_DT neighboring_JJ children_NNS ,_, playing_VBG in_IN the_DT park_NN ,_, or_CC making_VBG a_DT trip_NN over_IN the_DT dunes_NNS to_TO play_VB at_IN the_DT beach_NN ._. In_IN many_JJ ways_NNS it_PRP was_VBD ideal_JJ yet_RB in_IN today_NN ’_NNP s_NN society_NN by_IN many_JJ standards_NNS it_PRP would_MD be_VB considered_VBN lacking_VBG on_IN so_RB many_JJ levels_NNS ._.</t>
-  </si>
-  <si>
-    <t>Every_DT day_NN or_CC so_RB I_PRP shall_MD give_VB insight_NN upon_IN what_WP I_PRP Brandon_VBP Rogers_NNPS am_VBP thinking_VBG ._. I_PRP will_MD not_RB as_IN most_JJS state_NN what_WP I_PRP am_VBP doing_VBG or_CC feeling_VBG but_CC the_DT thoughts_NNS and_CC stories_NNS of_IN my_PRP$ mind_NN ._. All_DT things_NNS may_MD not_RB be_VB as_IN they_PRP seem_VBP ._. I_PRP may_MD stray_VB from_IN the_DT truth_NN and_CC bring_VB out_RP my_PRP$ most_RBS creative_JJ muse_NN to_TO entertain_VB you_PRP ._. If_IN this_DT however_RB comes_VBZ to_TO be_VB please_JJ be_VB aware_JJ that_IN i_NN will_MD eventually_RB tell_VB you.One_JJR hand_NN shake_NN is_VBZ a_DT simple_JJ greating_NN ._. Two_CD is_VBZ still_RB okay_VBN if_IN they_PRP are_VBP at_IN the_DT begining_NN and_CC end_NN of_IN a_DT meeting_NN of_IN some_DT sort_NN ._. Three_CD is_VBZ awkward_RB but_CC aceptable_JJ ._. My_PRP$ only_JJ issue_NN is_VBZ when_WRB people_NNS are_VBP so_RB nervus_JJ that_IN they_PRP keep_VBP shakeing_VBG your_PRP$ hand_NN throught_VBD out_RP the_DT meeting_NN or_CC what_WP not_RB ._. I_PRP have_VBP no_DT problem_NN with_IN shakeing_VBG someones_NNS hand_NN but_CC I_PRP have_VBP noticed_VBN something_NN odd_JJ ._. Most_JJS of_IN my_PRP$ friends_NNS are_VBP female_JJ and_CC most_JJS of_IN there_EX boy_JJ friends_NNS when_WRB they_PRP meet_VBP me_PRP they_PRP get_VBP nervous_JJ and_CC so_RB on_IN to_TO actualy_VB shaking_VBG hands_NNS seven_CD or_CC eight_CD times_NNS with_IN me_PRP ._. Are_VBP they_PRP looking_VBG for_IN my_PRP$ approval_NN ?_. Are_VBP they_PRP treating_VBG me_PRP like_IN there_EX only_RB chance_NN to_TO get_VB layed_VBN ?_. Just_NNP an_DT odd_JJ thing_NN in_IN life_NN that_IN I_PRP noticed_VBD ._. ohh_RB well_RB ._.</t>
-  </si>
-  <si>
-    <t>After_IN a_DT fantastic_JJ three_CD weeks_NNS of_IN roadtripping_VBG across_IN Texas_NNP and_CC into_IN New_NNP Mexico_NNP with_IN Andrew_NNP ,_, we_PRP got_VBD thrown_RP the_DT biggest_JJS curveball_NN yet_RB !_. Having_VBG decided_VBD to_TO set_VB up_RP shop_NN in_IN Austin_NNP ,_, I_PRP did_VBD not_RB expect_VB to_TO get_VB a_DT call_NN back_RB from_IN a_DT company_NN who_WP had_VBD originally_RB passed_VBN me_PRP over_IN for_IN a_DT great_JJ job_NN ._. Here_RB 's_VBZ the_DT time_NN table_NN on_IN this_DT one_NN :_: Last_JJ week_NN ,_, they_PRP call_VBP while_IN Andrew_NNP is_VBZ napping_VBG in_IN the_DT car_NN in_IN Spring_NN to_TO tell_VB me_PRP nix_JJ ._. I_PRP turn_VBP to_TO him_PRP and_CC say_VB ,_, no_DT need_NN to_TO apply_VB to_TO a_DT Houston_NNP school_NN ,_, 'We_'' 're_VBP moving_VBG to_TO Austin_NNP !_. '_'' April_NNP 1_CD Andrew_NNP flies_NNS back_RB to_TO London_NNP to_TO prepare_VB his_PRP$ apartment_NN ,_, visa_NN ,_, etc_FW ._. for_IN his_PRP$ August_NNP move_NN ._. Consequently_RB ,_, April_NNP 1_CD was_VBD also_RB the_DT deadline_NN for_IN UH_NNP April_NNP 2_CD The_DT company_NN calls_VBZ me_PRP to_TO tell_VB me_PRP they_PRP liked_VBD me_PRP so_RB much_RB they_PRP created_VBD a_DT new_JJ role_NN for_IN me_PRP !_. Phew_NNP ._. Ugh_NNP ._. Wow_NNP ._. So_IN the_DT money_NN is_VBZ in_IN Houston_NNP ._. The_DT career_NN building_NN job_NN is_VBZ in_IN Houston_NNP ._. But_CC Andrew_NNP ca_MD n't_RB go_VB to_TO school_NN in_IN Houston_NNP ._. And_CC building_VBG a_DT lif_NN together_RB was_VBD the_DT whole_JJ point_NN ._. A_DT late_JJ night_NN (_( for_IN him_PRP )_) call_NN last_JJ night_NN brought_VBD a_DT lot_NN of_IN comfort_NN ._. 'We_CC can_MD handle_VB curve_NN balls_NNS ._. It_PRP 's_VBZ what_WP we_PRP 've_VBP been_VBN doing_VBG all_DT along_IN ._. And_CC we_PRP 'll_MD hit_VB this_DT one_CD out_NN of_IN the_DT park_NN ,_, too_RB ._. '_'' What_WP a_DT fantastic_JJ person_NN I_PRP 've_VBP found_VBN !_.</t>
-  </si>
-  <si>
-    <t>To_TO all_DT my_PRP$ friends_NNS ,_, I_PRP 'm_VBP sorry_JJ ._. I_PRP think_VBP about_IN this_DT blog_NN often_RB ,_, but_CC can_MD never_RB find_VB the_DT time_NN to_TO write_VB on_IN it_PRP ._. I_PRP have_VBP 3_CD of_IN the_DT 4_CD kids_NNS sleeping_VBG ._. My_PRP$ 23_CD month_NN old_JJ was_VBD taken_VBN to_TO the_DT hospital_NN to_TO get_VB play_VB dough_RB taken_VBN out_RP of_IN his_PRP$ ear_NN ._. Yup_UH ,_, the_DT reason_NN I_PRP have_VBP time_NN to_TO write_VB is_VBZ because_IN my_PRP$ goofy_JJ son_NN wanted_VBD to_TO see_VB what_WP having_VBG play_NN dough_NN in_IN his_PRP$ ear_NN was_VBD like_IN ._. My_NNP wife_NN just_RB called_VBN and_CC it_PRP 's_VBZ out_RP ._. They_PRP 'll_MD be_VB home_VBN in_IN 5_CD minutes_NNS ._. All_DT is_VBZ well_RB at_IN casa_NN de_FW la_FW insano_NN ._. PS_NNP ._. Robin_NNP is_VBZ expecting_VBG again_RB ._. This_DT will_MD be_VB number_NN 5_CD ..._: ..._: ..._: ..._: ..._: ..._: ..._: ..._: ..._: .god_VB help_VB us_PRP ;_: )_) Time_NN to_TO get_VB neutered_JJ I_PRP guess_VBP ._.</t>
-  </si>
-  <si>
-    <t>Hearty_NNP Congratulations_NNP on_IN your_PRP$ first_JJ book_NN !_. !_. My_PRP$ kids_NNS and_CC I_PRP are_VBP just_RB waiting_VBG to_TO grab_VB a_DT copy_NN of_IN your_PRP$ interesting_NN and_CC colourful_JJ story_NN book_NN ._. I_PRP must_MD say_VB that_IN you_PRP are_VBP blessed_VBN with_IN such_PDT a_DT supportive_JJ and_CC encouraging_JJ parents_NNS who_WP have_VBP carved_VBN a_DT niche_NN for_IN themselves_PRP in_IN their_PRP$ own_JJ fields_NNS ._. I_PRP am_VBP sure_RB ,_, as_IN a_DT writer_NN ,_, you_PRP too_RB will_MD go_VB a_DT long_JJ way_NN and_CC contribute_VB many_JJ more_JJR such_JJ wonderful_JJ books_NNS to_TO avid_VB readers_NNS across_IN the_DT globe_NN ._. God_NNP bless_NN you_PRP ._. Hope_VBP to_TO see_VB you_PRP tomorrow_NN Love_NNP ,_, Priya_NNP aunty_NN</t>
-  </si>
-  <si>
-    <t>A_DT driver_NN 's_POS license_NN gives_VBZ you_PRP a_DT certain_JJ level_NN of_IN freedom_NN ,_, but_CC it_PRP also_RB gives_VBZ you_PRP an_DT enormous_JJ amount_NN of_IN responsibility_NN ._. When_WRB behind_IN the_DT wheel_NN this_DT responsibility_NN comes_VBZ in_IN many_JJ forms_NNS :_: -_: Wearing_VBG seat_NN belts_NNS -_: Driving_VBG sober_VB -_: Focusing_VBG on_IN the_DT road_NN -_: Driving_VBG defensively_RB In_IN Jan._NNP 2009_CD ,_, NSC_NNP called_VBD for_IN a_DT nationwide_JJ ban_NN on_IN all_DT cell_NN phone_NN use_NN while_IN driving_VBG ._. This_DT comes_VBZ after_IN NSC_NNP researchers_NNS and_CC statisticians_NNS reviewed_VBD more_JJR than_IN 50_CD peer-reviewed_JJ research_NN reports_NNS ,_, many_JJ drawing_VBG the_DT same_JJ conclusion_NN ._. Drivers_NNS who_WP use_VBP their_PRP$ cell_NN phones_NNS have_VBP a_DT significantly_RB increased_VBN chance_NN of_IN getting_VBG into_IN a_DT car_NN accident_NN ._. MAKING_NNP OUR_NNP WORLD_NNP SAFER_NNP ..._: NATIONAL_NNP SAFETY_NNP COUNCIL_NNP SALT_NNP LAKE_NNP CRIMINAL_NNP JUSTICE_NNP 145_CD E._NNP 1300_CD SO_NNP ._. starts_VBZ 6:30PM_CD come_JJ early_JJ to_TO sign_VB in_IN ._. (_( Freeway_NNP Watch_NNP )_) January_NNP 4_CD February_NNP 1_CD March_NNP 1_CD April_NNP 5_CD May_NNP 3_CD June_NNP 7_CD July_NNP 12_CD August_NNP 2_CD September_NNP 13_CD October_NNP 4_CD November_NNP 1_CD December_NNP 6_CD Driving_NNP drunk_NN is_VBZ a_DT major_JJ public_JJ safety_NN threat_NN that_WDT claims_VBZ thousands_NNS of_IN lives_NNS year_NN after_IN year_NN ._. Both_DT alcohol_NN and_CC drugs_NNS impair_JJ perception_NN ,_, judgement_NN ,_, motor_NN skills_NNS ,_, and_CC memory_NN ._. If_IN you_PRP drink_VBP -_: do_VBP n't_RB drive_VB ._. Take_VB a_DT cab_NN ,_, or_CC have_VBP someone_NN sober_NN bring_NN you_PRP home_VBP ..._: ..._: ..._: Drunk_NNP Driving_NNP ._. Over_IN the_DT Limit_NNP ._. Under_IN Arrest_NNP ._. (_( NHTSA_NNP )_) In_IN an_DT ironic_JJ turn_NN of_IN events_NNS ,_, a_DT man_NN wearing_VBG a_DT breathalyzer_NN costume_NN was_VBD arrested_VBN Sunday_NNP in_IN Oxford_NNP ,_, Ohio_NNP on_IN suspicion_NN of_IN driving_VBG drunk_NN ._. He_PRP was_VBD celebrating_VBG Halloween_NNP and_CC driving_VBG with_IN a_DT blood_NN alcohol_NN level_NN of_IN .158_NNP ,_, far_RB above_IN his_PRP$ state_NN 's_POS legal_JJ limit_NN ._. For_IN more_JJR details_NNS on_IN this_DT story_NN ,_, including_VBG pictures_NNS ,_, visit_NN NBC4i_NNP ._. Although_IN no_DT one_NN was_VBD harmed_VBN ,_, this_DT young_JJ man_NN is_VBZ now_RB internet_JJ famous_JJ for_IN his_PRP$ antics_NNS ._. Do_VBP n't_RB drink_VB and_CC drive_VB ._. It_PRP 's_VBZ not_RB worth_JJ the_DT risk_NN ._. Here_RB is_VBZ a_DT resource_NN to_TO help_VB parents_NNS ,_, teachers_NNS ,_, and_CC other_JJ social_JJ sources_NNS to_TO stop_VB easy_JJ access_NN of_IN alcohol_NN to_TO teens_NNS ._. It_PRP 's_VBZ unsafe_JJ ._. It_PRP 's_VBZ illegal_JJ ._. It_PRP 's_VBZ irresponsible_JJ ._. http_NN :_: //www.dontserveteens.gov_JJ DUIhope_NNP ,_, then_RB called_VBD Freeway_NNP Watch_NNP ,_, was_VBD founded_VBN on_IN March_NNP 1_CD ,_, 1994_CD after_IN a_DT drunk_NN driver_NN killed_VBD a_DT local_JJ teenager_NN who_WP was_VBD fixing_VBG a_DT flat_JJ tire_NN in_IN the_DT emergency_NN lane_NN ._. We_PRP produced_VBD this_DT video_NN a_DT few_JJ years_NNS later_RB as_IN a_DT public_JJ service_NN message_NN ._. We_PRP are_VBP hoping_VBG you_PRP will_MD learn_VB how_WRB to_TO recognize_VB and_CC report_VB DUI_NNP drivers_NNS by_IN WATCHing_VBG ._. Please_VB feel_VB free_JJ to_TO share_NN this_DT video_NN and_CC show_VB it_PRP to_TO your_PRP$ students_NNS and_CC loved_JJ ones_NNS ._. Together_IN we_PRP can_MD make_VB a_DT difference_NN ._. This_DT video_NN was_VBD produced_VBN by_IN 3M_CD Company_NN ,_, in_IN cooperation_NN with_IN the_DT National_NNP Highway_NNP Transportation_NNP Safety_NNP Association_NNP (_( NHTSA_NNP )_) ,_, the_DT National_NNP Association_NNP of_IN Governors_NNP '_POS Highway_NNP Safety_NNP Representatives_NNP ,_, Operation_NNP C.A.R.E_NNP ,_, and_CC DUIhope_NNP ._. For_IN the_DT past_JJ year_NN duihope.org_NN &amp;_CC amp_NN ;_: freewaywatch.org_NNS have_VBP been_VBN at_IN their_PRP$ new_JJ home_NN at_IN dui-hope.org_NN ._. &amp;_CC nbsp_NN ;_: Both_DT sites_NNS have_VBP been_VBN consolidated_VBN into_IN one_CD site_NN to_TO better_JJR serve_VB the_DT community_NN ,_, and_CC now_RB with_IN our_PRP$ new_JJ site_NN design_NN they_PRP are_VBP streamlined_VBN for_IN up_IN to_TO date_NN information_NN ._. Dui-hope.org_NNP &amp;_CC nbsp_NN ;_: continues_VBZ its_PRP$ 15_CD year_NN mission_NN to_TO combat_VB DUIs_NNP in_IN our_PRP$ state_NN of_IN Utah_NNP ._. Drunk_NNP driving_VBG endangers_NNS us_PRP all_DT ._. Impaired_NNP driving_VBG endangers_NNS as_RB well_RB ._. We_PRP invite_VBP you_PRP to_TO join_VB us_PRP in_IN our_PRP$ work_NN with_IN drug_NN courts_NNS and_CC victim_JJ impact_NN panels_NNS to_TO affect_VB real_JJ change_NN on_IN Utah_NNP highways_NNS and_CC roads_NNS ,_, making_VBG driving_VBG safe_JJ for_IN all_DT of_IN us_PRP ._. We_PRP 've_VBP been_VBN under_IN construction_NN ,_, and_CC very_RB glad_JJ to_TO be_VB back_RB online_NN ._. Help_VB us_PRP put_VB a_DT stop_NN to_TO Driving_NNP Under_IN the_DT Influence_NNP ._. Together_IN we_PRP can_MD make_VB a_DT difference_NN ._.</t>
-  </si>
-  <si>
-    <t>his_PRP$ is_VBZ the_DT only_JJ food_NN I_PRP have_VBP purchased_VBN for_IN my_PRP$ bully_RB since_IN he_PRP was_VBD ten_JJ months_NNS old_JJ ._. It_PRP was_VBD highly_RB recommended_VBN in_IN my_PRP$ online_NN bully_RB groups_NNS ;_: so_RB thought_IN I_PRP would_MD try_VB it_PRP ._. And_CC I_PRP have_VBP never_RB been_VBN disappointed_VBN for_IN a_DT minute_NN !_. I_PRP have_VBP noticed_VBN how_WRB much_RB easier_JJR it_PRP is_VBZ for_IN my_PRP$ dog_NN to_TO eat_VB this_DT than_IN the_DT puppy_JJ food_NN he_PRP was_VBD on_IN ;_: as_RB well_RB as_IN the_DT fact_NN that_IN his_PRP$ flatulence_NN is_VBZ now_RB virtually_RB non-existant_JJ ._. I_PRP ca_MD n't_RB vouch_VB for_IN the_DT flavor_NN as_IN my_PRP$ dog_NN will_MD eat_VB anything_NN ;_: but_CC I_PRP do_VBP believe_VB in_IN this_DT product_NN !_. I_PRP buy_VBP mine_JJ at_IN Petco_NNP ;_: and_CC a_DT bag_NN at_IN a_DT cost_NN of_IN approximately_RB $_$ 35_CD will_MD last_JJ me_PRP about_IN a_DT month_NN ;_: and_CC every_DT tenth_NN bag_NN is_VBZ free_JJ !_.</t>
-  </si>
-  <si>
-    <t>A_DT trial_NN separation_NN may_MD allow_VB the_DT spouse_NN who_WP wants_VBZ the_DT divorce_NN to_TO experience_VB some_DT of_IN the_DT feelings_NNS of_IN being_VBG separated_VBN without_IN making_VBG a_DT final_JJ decision_NN to_TO divorce_VB ._. The_DT main_JJ advantage_NN of_IN a_DT trial_NN separation_NN ,_, of_IN course_NN ,_, is_VBZ that_IN it_PRP 's_VBZ easily_RB reversible_JJ ._. You_PRP can_MD try_VB it_PRP for_IN a_DT while_NN ,_, go_VBP through_IN counseling_NN ,_, and_CC then_RB reconcile_VB ,_, or_CC you_PRP can_MD try_VB separation_NN for_IN a_DT while_NN ,_, decide_VBP you_PRP like_IN it_PRP -_: and_CC then_RB proceed_VB with_IN divorce_NN ._.</t>
-  </si>
-  <si>
-    <t>..._: ..._: ..._: ..._: ..._: .When_VBP I_PRP woke_VBD up_RP in_IN the_DT morning_NN I_PRP always_RB become_VBP aware_JJ of_IN my_PRP$ thoughts_NNS and_CC feelings_NNS and_CC work_NN to_TO 'shift_VB '_'' whatever_WDT it_PRP is_VBZ that_DT may_MD not_RB be_VB what_WP it_PRP is_VBZ that_IN I_PRP am_VBP wanting_VBG to_TO attract_VB ._. Usually_NNP it_PRP just_RB takes_VBZ a_DT sec_NN and_CC the_DT beautiful_JJ thoughts_NNS arrive_VBP as_IN I_PRP hold_VBP onto_IN them_PRP and_CC go_VB about_IN my_PRP$ day_NN ._. This_DT morning_NN my_PRP$ mind_NN was_VBD going_VBG a_DT million_CD miles_NNS an_DT hour_NN and_CC it_PRP was_VBD not_RB comfortable_JJ !_. as_IN I_PRP laid_VBP there_EX the_DT ugly_RB thoughts_NNS kept_VBD showing_VBG up_RP !_. Frustrated_VBN I_PRP pulled_VBD the_DT covers_NNS over_IN my_PRP$ head_NN ,_, closed_VBD my_PRP$ eyes_NNS real_JJ hard_JJ and_CC tried_VBD to_TO focus_VB on_IN something_NN good_JJ ._. Still_RB the_DT sickness_NN feeling_NN was_VBD there_EX and_CC I_PRP began_VBD to_TO get_VB annoyed_RP that_IN it_PRP was_VBD more_RBR difficult_JJ than_IN normal_JJ ._. Then_RB it_PRP hit_VBD me_PRP as_IN I_PRP thought_VBD of_IN my_PRP$ friend_NN Kat_NNP 's_POS birthday_NN today_NN then_RB realized_VBD what_WP day_NN it_PRP is_VBZ !_. !_. !_. A_DT Year_NN ago_RB today_NN my_PRP$ life_NN was_VBD changed_VBN forever_RB !_. !_. A_DT year_NN ago_IN today_NN I_PRP felt_VBD terror_NN like_IN i_NNS have_VBP never_RB experienced_VBN before_IN or_CC after_IN ._. A_DT year_NN ago_RB today_NN was_VBD the_DT best_JJS and_CC worse_JJR day_NN of_IN my_PRP$ life_NN ._. A_DT year_NN ago_RB today_NN my_PRP$ husband_NN shot_NN himself_PRP after_IN trying_VBG to_TO kill_VB us_PRP both_DT ._. A_DT year_NN ago_RB today_NN my_PRP$ Husband_NNP gave_VBD me_PRP the_DT greatest_JJS gift_NN ever_RB ._. My_PRP$ freedom_NN !_. !_. !_. !_. A_DT year_NN ago_IN today_NN I_PRP gave_VBD my_PRP$ word_NN to_TO Tony_NNP (_( the_DT sheriff_NN )_) that_IN I_PRP would_MD make_VB good_JJ out_IN of_IN the_DT bad_JJ and_CC I_PRP have_VBP !_. !_. !_.</t>
-  </si>
-  <si>
-    <t>A_DT number_NN of_IN years_NNS ago_RB ,_, I_PRP talked_VBD some_DT of_IN my_PRP$ friends_NNS into_IN participating_VBG in_IN an_DT urban_JJ adventure_NN race_NN with_IN me_PRP ._. The_DT Denver_NNP Oyster_NNP is_VBZ a_DT fantastic_JJ event_NN ~_NNP lots_NNS of_IN fun_NN ,_, great_JJ atmosphere_NN ,_, fantastic_JJ camaraderie_NN ~_NN and_CC I_PRP 'm_VBP excited_JJ to_TO be_VB doing_VBG it_PRP again_RB this_DT year_NN ._.</t>
-  </si>
-  <si>
-    <t>Ginger_NNP ,_, my_PRP$ daughter-in-law_NN ,_, just_RB sent_VBN me_PRP this_DT photo_NN of_IN my_PRP$ grandbabies_NNS ..._: Ben_NNP and_CC Charlie_NNP ._. Ben_NNP is_VBZ a_DT bit_NN over_IN 3_CD years_NNS and_CC Charlie_NNP 's_POS 7_CD months_NNS old_JJ ._. My_PRP$ cousin_NN saw_VBD this_DT photo_NN ..._: wrote_VBD me_PRP telling_VBG me_PRP it_PRP would_MD be_VB a_DT good_JJ advertisement_NN for_IN Cosco_NNP !_. Are_VBP n't_RB they_PRP so_RB cute_JJ and_CC sweet_JJ ..._: it_PRP 's_VBZ about_IN time_NN for_IN me_PRP to_TO go_VB for_IN another_DT visit_NN !_.</t>
-  </si>
-  <si>
-    <t>Shaggy_NNP as_IN i_NN would_MD like_VB u_JJ to_TO him_PRP is_VBZ one_CD i_NN would_MD easily_RB compare_VB with_IN one_CD of_IN my_PRP$ greatest_JJS friends_NNS ,_, let_VB me_PRP tell_VB you_PRP he_PRP knows_VBZ how_WRB to_TO be_VB himself_PRP though_IN he_PRP tends_VBZ to_TO break_VB up_RP sometimes_RB ._. he_PRP has_VBZ been_VBN there_RB as_IN my_PRP$ locker_NN .mostly_RB cool_JJ and_CC calm.you_JJ 'll_MD not_RB realise_VB he_PRP 's_VBZ there_RB with_IN u_JJ untill_NN he_PRP breaks_VBZ his_PRP$ silence_NN with_IN his_PRP$ good_JJ mokais_NN ._. he_PRP pretty_RB much_JJ knows_NNS everything_NN abt_IN me_PRP .and_VBP wow_WRB a_DT great_JJ dude_NN to_TO hang_VB out_RP with.._JJ macha_NN u_JJ rock.._NN and_CC almost_RB forgot_VBD to_TO tell_VB u_JJ ppl_NN ..we_NNP share_NN the_DT twin_NN passion_NN .._NNP BIKES_NNP and_CC SPEED_NNP ..._: roll_NN on_IN buddy_NN</t>
-  </si>
-  <si>
-    <t>The_DT weather_NN in_IN this_DT part_NN of_IN the_DT globe_NN is_VBZ once_RB again_RB changing_VBG ._. The_DT slight_JJ chill_NN in_IN the_DT air_NN has_VBZ ebbed_VBN away_RB and_CC Philippine_NNP summer_NN seems_VBZ to_TO be_VB entering_VBG earlier_JJR than_IN expected_VBN ._. It_PRP ’_VBD s_PRP not_RB really_RB a_DT sudden_JJ shift_NN because_IN in_IN our_PRP$ tropical_JJ country_NN ,_, weather_JJR conditions_NNS could_MD be_VB rainy_JJ ,_, normal_JJ (_( dry_JJ and_CC warm_JJ )_) ,_, and_CC warmer_NN ._. Most_JJS of_IN the_DT time_NN ,_, the_DT sun_NN would_MD be_VB out_RP ._.</t>
-  </si>
-  <si>
-    <t>EU_NNP Commissioner_NNP alive_JJ on_IN video_NN Do_NNP you_PRP ,_, like_IN me_PRP ,_, sometimes_RB feel_VB that_IN the_DT EU_NNP is_VBZ a_DT faceless_JJ colossus_NN with_IN innumerable_JJ bureaucrats_NNS that_IN you_PRP have_VBP no_DT idea_NN what_WP they_PRP are_VBP up_RB to_TO ?_. Well_NNP ,_, some_DT commissioners_NNS have_VBP now_RB understood_VBP the_DT power_NN of_IN online_JJ video_NN ._. Just_RB check_VB out_RP this_DT weekly_JJ video_NN from_IN the_DT EU_NNP Commissioner_NNP Viviane_NNP Reding_NNP ._. “_NN I_PRP want_VBP all_DT Europeans_NNPS to_TO be_VB able_JJ to_TO switch_VB their_PRP$ phone_NN operator_NN â€_NNP “_NNP whether_IN mobile_NN or_CC fixed_VBN â€_JJ “_NN within_IN one_CD single_JJ day_NN ”_VBD A_NNP worthy_JJ cause_NN indeed_RB !_. Here_RB you_PRP see_VBP a_DT very_RB human_JJ EU_NNP Commissioner_NNP and_CC you_PRP feel_VBP her_PRP$ enthusiasm_NN and_CC drive_NN for_IN the_DT issue_NN she_PRP is_VBZ presenting_VBG ._. The_DT video_NN is_VBZ simple_JJ ,_, but_CC professionally_RB done_VBN ,_, she_PRP is_VBZ reading_VBG well_RB from_IN a_DT teleprompter_NN ._. What_WP a_DT difference_NN compared_VBN to_TO just_RB reading_VBG her_PRP$ press_NN release_NN !_. Why_WRB are_VBP not_RB more_RBR leaders_NNS using_VBG online_JJ video_NN like_IN this_DT ?_. So_RB I_PRP think_VBP this_DT way_NN of_IN communication_NN is_VBZ exemplary_JJ ,_, but_CC there_EX are_VBP someÂ_JJ things_NNS that_WDT can_MD be_VB improved_VBN :_: The_DT video_NN player_NN should_MD have_VB an_DT indication_NN on_IN how_WRB long_JJ the_DT video_NN is_VBZ ._. This_DT is_VBZ essential_JJ ,_, I_PRP want_VBP to_TO know_VB if_IN I_PRP have_VBP the_DT time_NN or_CC not_RB available_JJ ._. The_DT video_NN player_NN should_MD have_VB an_DT embed-button_NN ,_, so_IN that_IN it_PRP is_VBZ easy_JJ to_TO embed_VB the_DT video_NN in_IN blogs_NNS and_CC other_JJ web_NN sites_NNS ._. This_DT creates_VBZ viral_JJ spreading_NN ._. The_DT text_NN of_IN her_PRP$ speech_NN is_VBZ downloadable_JJ as_IN a_DT PDF_NNP with_IN a_DT link_NN next_IN to_TO the_DT video_NN ._. It_PRP would_MD have_VB been_VBN better_JJR to_TO be_VB able_JJ to_TO read_VB the_DT text_NN beside_IN the_DT video_NN ._. Ideally_RB the_DT text_NN should_MD be_VB navigable_JJ so_IN that_IN you_PRP can_MD click_VB on_IN it_PRP to_TO make_VB the_DT video_NN jump_NN to_TO that_DT part_NN ,_, like_IN New_NNP York_NNP Times_NNP is_VBZ doing_VBG ._. There_EX should_MD be_VB an_DT RSS_NNP feed_NN so_IN that_IN I_PRP can_MD subscribe_VB to_TO these_DT videos_NNS in_IN my_PRP$ RSS_NNP reader_NN ._. It_PRP would_MD have_VB been_VBN nice_JJ to_TO enable_VB some_DT form_NN of_IN viewer_JJR interaction_NN ._. For_IN example_NN ,_, have_VBP a_DT poll_NN about_IN the_DT issue_NN mentioned_VBD ,_, or_CC allow_VB comments_NNS to_TO the_DT video_NN ._. What_WP do_VBP you_PRP think_VB ?_. Please_NNP comment_NN !_. Update_NNP April_NNP 3_CD :_: I_PRP just_RB received_VBD an_DT email_NN from_IN an_DT assistant_NN to_TO Ms_NNP Reding_NNP ,_, thanking_VBG me_PRP for_IN my_PRP$ email_NN where_WRB I_PRP praised_VBD her_PRP for_IN using_VBG video_NN like_IN this_DT ._. I_PRP had_VBD not_RB expected_VBN any_DT reply_NN ,_, except_IN maybe_RB a_DT short_JJ standard_NN email_NN response_NN ._. So_IN I_PRP was_VBD surprised_VBN to_TO see_VB that_IN the_DT email_NN contained_VBD this_DT image_NN of_IN a_DT scanned_JJ letter_NN :_:</t>
-  </si>
-  <si>
-    <t>It_PRP 's_VBZ no_DT secret_JJ that_IN I_PRP hate_VBP Thomas_NNP the_DT Tank_NNP Engine_NNP ._. I_PRP hate_VBP most_RBS moralising_JJ children_NNS 's_POS shows_NNS but_CC I_PRP reserve_VBP particular_JJ venom_NN for_IN Thomas_NNP despite_IN the_DT fact_NN I_PRP loved_VBD the_DT stories_NNS when_WRB younger_JJR and_CC have_VBP seen_VBN a_DT marvelous_JJ stage_NN show_NN ._. Thomas_NNP and_CC his_PRP$ friends_NNS are_VBP a_DT whiny_JJ bunch_NN of_IN disobedient_JJ brats_NNS ;_: everything_NN about_IN them_PRP is_VBZ gloomy_JJ and_CC miserable_JJ and_CC tedious_JJ ._. There_EX is_VBZ no_DT joy_NN and_CC to_TO top_VB it_PRP off_RP ,_, every_DT new_JJ series_NN has_VBZ half-a-dozen_JJ pointless_JJ new_JJ characters_NNS crow-barred_JJ in_IN solely_RB for_IN the_DT merchandising_NN opportunity_NN ._. I_PRP hate_VBP Thomas_NNP which_WDT is_VBZ not_RB to_TO say_VB that_IN we_PRP do_VBP n't_RB own_VB quite_RB a_DT lot_NN of_IN Thomas_NNP kit_NN ._. It_PRP 's_VBZ unavoidable_JJ and_CC part_NN of_IN the_DT reason_NN why_WRB I_PRP have_VBP a_DT particularly_RB soft_JJ spot_NN for_IN other_JJ ,_, less_RBR overtly_RB commercial_JJ offerings_NNS ;_: 'Pingu_NNP '_POS ,_, for_IN example_NN ,_, 'Miu_'' Mao_NNP '_POS the_DT fabulous_JJ Italian_JJ claymation_NN cats_NNS ;_: and_CC Peppa_NNP Pig_NNP ._. Years_NNS ago_IN a_DT friend_NN of_IN mine_NN informed_VBN me_PRP that_IN her_PRP$ three-year-old_JJ son_NN loved_VBD Peppa_NNP Pig_NNP and_CC I_PRP was_VBD slightly_RB bemused_VBN as_IN to_TO why_WRB a_DT boy_NN would_MD like_VB a_DT show_NN focused_VBN on_IN a_DT pink_JJ girl-pig_NN but_CC the_DT moment_NN the_DT spud_NN was_VBD old_JJ enough_RB to_TO watch_VB TV_NN I_PRP understood_VBD ._. Peppa_NNP ,_, like_IN Pingu_NNP and_CC the_DT cats_NNS ,_, is_VBZ all_DT about_IN fun_NN ;_: there_EX is_VBZ no_DT harsh_JJ moral_NN ._. Sometimes_NNP someone_NN might_MD be_VB a_DT little_JJ bit_NN naughty_JJ ,_, often_RB things_NNS go_VBP a_DT bit_NN wrong_JJ but_CC there_EX 's_VBZ no_DT breast-beating_NN ;_: only_RB kindness_NN and_CC funny_JJ and_CC pigs_NNS falling_VBG about_IN laughing_VBG ._. I_PRP love_VBP Peppa_NNP Pig_NNP ._. In_IN fact_NN ,_, I_PRP may_MD possibly_RB have_VB just_RB the_DT teeniest_JJS tiniest_NN crush_NN on_IN Daddy_NNP Pig_NNP ,_, as_IN it_PRP happens_VBZ ._. We_PRP already_RB have_VBP two_CD Peppa_NNP DVDs_NNP -_: it_PRP was_VBD Peppa_NNP who_WP informed_VBD my_PRP$ spud_NN that_IN Santa_NNP comes_VBZ down_RP the_DT chimney_NN ;_: Peppa_NNP who_WP showed_VBD him_PRP that_IN it_PRP is_VBZ OK_JJ to_TO jump_VB into_IN a_DT muddy_JJ puddle_NN and_CC Peppa_NNP who_WP makes_VBZ him_PRP laugh_NN at_IN me_PRP every_DT time_NN we_PRP hear_VBP that_IN Peppa_NNP 's_POS Mummy_NNP loves_VBZ her_PRP$ computer_NN ._. We_PRP probably_RB would_MD n't_RB have_VB bought_VBN the_DT latest_JJS DVD_NNP however_RB having_VBG been_VBN given_VBN it_PRP for_IN review_NN ,_, I_PRP have_VBP to_TO say_VB that_IN if_IN you_PRP have_VBP a_DT boy_NN who_WP loves_VBZ Peppa_NNP or_CC who_WP has_VBZ n't_RB met_VBN her_PRP$ yet_RB ,_, this_DT is_VBZ officially_RB your_PRP$ DVD_NNP ._. It_PRP 's_VBZ called_VBN '_'' Peppa_NNP Pig_NNP :_: The_DT Fire_NNP Engine_NNP and_CC other_JJ stories_NNS '_POS and_CC in_IN it_PRP ,_, Peppa_NNP goes_VBZ on_IN a_DT train_NN ,_, a_DT fire_NN engine_NN ,_, a_DT rocket_NN and_CC there_EX 's_VBZ even_RB a_DT pirate_NN episode_NN ._. Seriously_RB ,_, all_DT she_PRP needs_VBZ to_TO do_VB now_RB is_VBZ to_TO go_VB on_IN a_DT bus_NN and_CC an_DT airplane_NN and_CC the_DT spud_NN might_MD never_RB watch_VB anything_NN again_RB ._. Until_IN he_PRP 's_VBZ buying_VBG porn_VBN on_IN the_DT internet_NN in_IN 10_CD years_NNS time_NN ,_, that_DT is_VBZ ._. Oh_UH ,_, and_CC by_IN the_DT way_NN ,_, the_DT nice_JJ Peppa_NNP Pig_NNP folks_NNS have_VBP given_VBN me_PRP an_DT extra_JJ copy_NN of_IN ``_`` Peppa_NNP Pig_NNP :_: The_DT Fire_NNP Engine_NNP ``_`` to_TO pass_VB on_IN to_TO one_CD of_IN you_PRP if_IN you_PRP can_MD tell_VB me_PRP in_IN 20_CD words_NNS or_CC so_RB why_WRB you_PRP love_VBP Peppa_NNP (_( or_CC hate_VB Thomas_NNP )_) and_CC make_VB me_PRP laugh_IN in_IN the_DT process_NN -_: UK_NN format_NN only_RB ,_, I_PRP believe_VBP ._. I_PRP only_RB have_VBP one_CD copy_NN to_TO give_VB away_RP though_IN so_RB funniest_JJS wins_NNS ,_, as_IN judged_VBN by_IN me_PRP and_CC a_DT team_NN of_IN Mummy_NNP mates_NNS ,_, next_JJ Friday_NNP ._. Well_NNP that_WDT was_VBD a_DT long_JJ time_NN to_TO leave_VB you_PRP with_IN a_DT nauseating_JJ post_NN ._. Turns_VBZ out_RP that_IN staying_VBG up_RP and_CC working_VBG to_TO 2am_CD 5_CD or_CC 6_CD days_NNS a_DT week_NN do_VBP n't_RB leave_VB much_JJ time_NN for_IN ..._: er_NN ..._: anything_NN really_RB ._. I_PRP was_VBD going_VBG to_TO write_VB about_IN the_DT little_JJ opening_JJ ceremony_NN we_PRP went_VBD to_TO for_IN Brixton_NNP 's_POS fancy_JJ new_JJ square_NN but_CC I_PRP lack_VBP the_DT motivation_NN to_TO get_VB the_DT pictures_NNS off_IN my_PRP$ camera_NN ._. Instead_RB ,_, I_PRP am_VBP going_VBG to_TO write_VB about_IN the_DT flip-side_NN of_IN parenting_NN ,_, the_DT dark_JJ side_NN of_IN my_PRP$ little_JJ spud-u-like_JJ ,_, the_DT side_NN we_PRP 've_VBP been_VBN seeing_VBG for_IN a_DT few_JJ days_NNS now_RB ._. It_PRP starts_VBZ ,_, this_DT slide_NN into_IN the_DT netherworld_NN ,_, with_IN a_DT bad_JJ night_NN ._. Perhaps_RB he_PRP had_VBD a_DT nightmare_NN ,_, perhaps_RB a_DT cough_NN ..._: whatever_WDT it_PRP is_VBZ ,_, if_IN he_PRP has_VBZ to_TO get_VB up_RP early_RB the_DT next_JJ day_NN ,_, he_PRP 's_VBZ guaranteed_VBN to_TO be_VB in_IN the_DT sort_NN of_IN mood_NN which_WDT involves_VBZ the_DT phrase_NN 'I_NNP do_VBP n't_RB want_VB to_TO '_POS ;_: as_IN in_IN 'I_NNP do_VBP n't_RB want_VB to_TO get_VB up_RP '_POS ;_: 'I_NNS do_VBP n't_RB want_VB to_TO get_VB dressed_VBN '_POS ;_: 'I_NNS do_VBP n't_RB want_VB to_TO eat_VB breakfast_NN '_'' ;_: 'I_NNS do_VBP n't_RB want_VB to_TO go_VB to_TO nursery_DT '_'' ._. Eventually_RB of_IN course_NN ,_, he_PRP does_VBZ all_PDT those_DT things_NNS ._. Recently_RB he_PRP 's_VBZ taken_VBN to_TO wanting_VBG me_PRP to_TO pull_VB him_PRP home_NN from_IN nursery_NN on_IN his_PRP$ scooter_NN which_WDT does_VBZ my_PRP$ back_NN in_IN ._. On_IN a_DT bad_JJ day_NN ,_, if_IN I_PRP refuse_VBP he_PRP whinges_VBZ all_PDT the_DT way_NN home_NN ._. 'It_PRP 's_VBZ too_RB difficult_JJ '_'' ;_: 'I_CC 'm_VBP too_RB heavy_JJ '_'' ;_: 'I_NNS do_VBP n't_RB want_VB to_TO '_'' or_CC more_RBR accurately_RB 'I_JJ 'm_VBP too_RB difficult_JJ !_. '_'' Today_NN was_VBD bad_JJ ._. He_PRP screamed_VBD blue_JJ murder_NN all_PDT the_DT way_NN up_IN our_PRP$ quiet_JJ street_NN ._. I_PRP offered_VBD to_TO carry_VB his_PRP$ scooter_NN ,_, I_PRP held_VBD his_PRP$ hand_NN ,_, I_PRP walked_VBD 3_CD feet_NNS in_IN front_JJ encouraging_VBG him_PRP to_TO follow_VB ,_, I_PRP stopped_VBD ,_, I_PRP pushed_VBD him_PRP gently_RB from_IN behind_IN thinking_VBG it_PRP would_MD be_VB fun_NN ..._: this_DT is_VBZ what_WP it_PRP sounded_VBD like_IN to_TO the_DT neighbours_NNS :_: 'No_CD ,_, Mummy_NNP !_. No_NNP ,_, Mummy_NNP !_. Not_RB like_IN that_DT !_. Do_VBP n't_RB go_VB far_RB away_RB Mummy_NNP !_. Do_VBP n't_RB leave_VB me_PRP !_. Do_VBP n't_RB Stop_VB !_. You_PRP 're_VBP pushing_VBG me_PRP down_RP !_. You_PRP 're_VBP pushing_VBG me_PRP down_RP !_. '_'' We_PRP got_VBD to_TO our_PRP$ front_JJ steps_NNS and_CC he_PRP refused_VBD to_TO walk_VB up_RP ,_, instead_RB lying_VBG down_RP on_IN the_DT wet_JJ pavement_NN ,_, sobbing_VBG at_IN the_DT top_NN of_IN his_PRP$ lungs_NNS ._. I_PRP tried_VBD to_TO pick_VB him_PRP up_RB and_CC he_PRP flopped_VBD ._. I_PRP practically_RB had_VBD to_TO stuff_VB him_PRP into_IN the_DT house_NN ._. Within_IN seconds_NNS of_IN getting_VBG inside_IN he_PRP was_VBD happily_RB demanding_VBG pasta_NN and_CC turning_VBG on_IN the_DT Wii_NNP ._. I_PRP was_VBD at_IN the_DT window_NN ,_, nervously_RB waiting_VBG for_IN child_NN services_NNS to_TO show_VB up_RP ._. Inevitably_RB the_DT day_NN closed_VBD to_TO a_DT familiar_JJ sound-track_NN :_: 'I_NNS do_VBP n't_RB want_VB to_TO habba_VB bath_NN '_'' ;_: 'I_NNS do_VBP n't_RB want_VB to_TO wear_VB my_PRP$ jamas_NN '_'' ;_: '_POS 'I_NNS do_VBP n't_RB want_VB to_TO go_VB to_TO bed_DT '_'' ._. Eventually_RB ,_, of_IN course_NN ,_, he_PRP did_VBD all_PDT those_DT things_NNS ._. The_DT key_JJ word_NN here_RB is_VBZ 'eventually_RB '_'' as_IN it_PRP takes_VBZ a_DT lot_NN of_IN negotiation_NN to_TO get_VB him_PRP to_TO stay_VB in_IN bed_NN and_CC even_RB then_RB he_PRP can_MD remain_VB defiant_JJ until_IN the_DT last_JJ :_: Crap_NN ._. Seriously_RB help_VB me_PRP here_RB ,_, I_PRP 'm_VBP about_IN to_TO commit_VB a_DT proper_JJ blogging_NN crime_NN ._. A_DT cardinal_JJ sin_NN ,_, if_IN you_PRP like_VBP ._. I_PRP am_VBP about_IN to_TO get_VB irrationally_RB gooey_JJ ._. I_PRP am_VBP about_IN to_TO vomit_VB saccharine_JJ emotion_NN all_DT over_IN your_PRP$ screen_NN ._. You_PRP can_MD stop_VB reading_NN ._. It_PRP 's_VBZ ok._IN You_PRP can_MD navigate_VB away_RB right_RB now_RB ,_, read_VB no_DT further_JJ ,_, I_PRP wo_MD n't_RB mind_VB ._. If_IN one_CD of_IN you_PRP can_MD stop_VB and_CC hold_VB my_PRP$ forehead_NN and_CC rub_VB my_PRP$ back_NN for_IN a_DT second_JJ it_PRP might_MD make_VB it_PRP easier_JJR but_CC you_PRP do_VBP n't_RB have_VB to_TO ._. Seriously_RB ,_, you_PRP go_VBP ._. Right_RB ._. Let_VB 's_POS get_VB this_DT mess_NN started_VBD ._. So_RB ,_, tonight_NN ,_, the_DT spud_NN decided_VBD to_TO go_VB to_TO sleep_VB in_IN our_PRP$ bed_NN and_CC ,_, since_IN I_PRP was_VBD tired_VBN too_RB ,_, we_PRP both_DT had_VBD a_DT bath_NN and_CC got_VBD into_IN our_PRP$ jammies_NNS and_CC lay_VBD down_RB in_IN bed_NN ._. I_PRP read_VBD him_PRP 3_CD Dr._NNP Seuss_NNP books_NNS ._. He_PRP had_VBD some_DT warm_JJ milk_NN ._. We_PRP pulled_VBD up_RP the_DT duvet_NN ._. He_PRP snaked_VBD a_DT little_JJ arm_NN under_IN my_PRP$ head_NN and_CC pulled_VBD me_PRP to_TO his_PRP$ cheek_NN ._. I_PRP was_VBD feeling_VBG ,_, I_PRP have_VBP to_TO tell_VB you_PRP ,_, pretty_RB relaxed_VBN at_IN that_DT point_NN ._. Then_RB ,_, the_DT frog_NN came_VBD home_NN and_CC picked_VBD up_RP a_DT guitar_NN and_CC immediately_RB the_DT spud_NN wanted_VBD to_TO ``_`` play_VB your_PRP$ tar_NN ?_. ''_'' The_DT frog_NN put_VBD the_DT guitar_NN on_IN the_DT bed_NN and_CC we_PRP played_VBD ,_, then_RB he_PRP left_VBD to_TO have_VB his_PRP$ own_JJ bath_NN and_CC I_PRP made_VBD the_DT two_CD chords_NNS that_IN I_PRP know_VBP while_IN the_DT spud_NN strummed_VBD ._. OK_CC here_RB it_PRP comes_VBZ ._. I_PRP showed_VBD my_PRP$ boy_NN a_DT little_JJ tune_NN and_CC we_PRP lazed_VBD about_IN having_VBG fun_NN with_IN it_PRP and_CC not_RB talking_VBG and_CC then_RB out_IN of_IN the_DT blue_NN he_PRP turned_VBD to_TO me_PRP ,_, looked_VBD at_IN me_PRP levelly_RB for_IN a_DT second_JJ and_CC said_VBD 'I_MD love_VB you_PRP ..._: really_RB big_JJ '_POS and_CC he_PRP smiled_VBD beatifically_RB ,_, as_IN though_IN he_PRP had_VBD just_RB given_VBN me_PRP a_DT holy_JJ benediction_NN ._. Then_RB he_PRP turned_VBD and_CC went_VBD back_RB to_TO the_DT guitar_NN ._. You_PRP see_VBP ._. Very_RB very_RB very_RB sweet_JJ ._. Pretty_RB much_JJ enough_RB to_TO hoist_VB your_PRP$ pancreas_NNS into_IN overdrive_JJ ._. Thanks_NNS for_IN letting_VBG me_PRP spew_VB that_IN one_CD out_IN ._. I_PRP 'll_MD get_VB me_PRP coat_NN ._. We_PRP had_VBD one_CD of_IN the_DT Spud_NNP 's_POS best_JJS friends_NNS over_IN for_IN a_DT playdate_NN yesterday_NN ._. They_PRP see_VBP each_DT other_JJ infrequently_RB now_RB that_IN the_DT Spud_NNP has_VBZ left_VBN the_DT wonderful-but-far-away_JJ Montessori_NNP nursery_NN where_WRB they_PRP both_DT went_VBD and_CC is_VBZ now_RB at_IN the_DT less-than-wonderful-but-close_JJ local_JJ nursery_NN ,_, but_CC they_PRP are_VBP still_RB great_JJ mates_NNS and_CC I_PRP am_VBP very_RB fond_NN of_IN his_PRP$ Mum_NNP ,_, which_WDT is_VBZ always_RB a_DT bonus_NN ._. There_EX 's_VBZ always_RB a_DT sting_NN in_IN the_DT tail_NN when_WRB we_PRP see_VBP this_DT particular_JJ friend_NN because_IN ,_, although_IN he_PRP is_VBZ lovely_RB and_CC gentle_JJ and_CC funny_JJ and_CC bright_JJ ,_, having_VBG continued_VBN with_IN Montessori_NNP ,_, he_PRP can_MD write_VB his_PRP$ own_JJ name_NN now_RB ._. Yes_UH ,_, I_PRP know_VBP ._. No_DT no_DT ,_, same_JJ age_NN ._. Exactly_RB yes_RB ,_, born_VBN on_IN the_DT same_JJ day_NN even_RB ._. Sigh_NNP ._. Anyway_NNP so_RB on_IN Saturday_NNP during_IN lunch_NN he_PRP was_VBD lecturing_VBG the_DT spud_NN on_IN what_WP was_VBD going_VBG to_TO happen_VB to_TO his_PRP$ fish_JJ fingers_NNS ,_, because_IN he_PRP now_RB knows_VBZ that_IN food_NN goes_VBZ into_IN the_DT mouth_NN ,_, down_IN the_DT gullet_NN ,_, then_RB into_IN the_DT stomach_NN ,_, through_IN to_TO the_DT little_JJ intestine_NN ,_, into_IN the_DT big_JJ intestine_NN and_CC then_RB comes_VBZ out_RP as_IN poo_NN ._. The_DT spud_NN was_VBD fascinated_VBN ._. I_PRP nearly_RB ate_VBP my_PRP$ hand_NN in_IN envy_NN (_( it_PRP would_MD n't_RB fit_VB down_RP my_PRP$ gullet_NN ..._: )_) ._. I_PRP have_VBP never_RB wanted_VBN to_TO be_VB one_CD of_IN those_DT pushy_JJ parents_NNS that_WDT force_VBP information_NN into_IN their_PRP$ offspring_NN but_CC ,_, er_RB ,_, it_PRP is_VBZ quite_RB cool_JJ to_TO ,_, you_PRP know_VBP ,_, watch_VBP kids_NNS learn_VBP stuff_NN ._. And_CC stuff_NN ._. So_RB ,_, today_NN when_WRB he_PRP was_VBD complaining_VBG that_IN his_PRP$ tummy_JJ hurt_NN I_PRP took_VBD the_DT opportunity_NN to_TO remind_VB my_PRP$ Spud_NNP of_IN those_DT things_NNS his_PRP$ friend_NN had_VBD told_VBN him_PRP ._. I_PRP reminded_VBD him_PRP that_IN he_PRP had_VBD a_DT full_JJ tummy_NN AND_CC a_DT full_JJ intestine_NN and_CC he_PRP might_MD need_VB to_TO do_VB a_DT poo_NN ,_, something_NN he_PRP 's_VBZ managed_VBN to_TO avoid_VB for_IN a_DT couple_NN of_IN days_NNS ._. This_DT resulted_VBD in_IN him_PRP doing_VBG a_DT series_NN of_IN fairly_RB alarming_VBG stomach_NN contractions_NNS ._. Thinking_VBG he_PRP was_VBD going_VBG to_TO make_VB himself_PRP ill_VB I_PRP asked_VBD him_PRP what_WP was_VBD wrong_JJ and_CC he_PRP said_VBD ``_`` Nuffin_NNP ._. I_PRP 'm_VBP trying_VBG to_TO make_VB my_PRP$ poo_NN flat_JJ so_IN my_PRP$ tummy_NN does_VBZ n't_RB hurt_VB ._. ''_'' A_DT little_JJ information_NN ._. A_DT dangerous_JJ thing_NN ._. We_PRP had_VBD an_DT accidental_JJ playdate_NN on_IN Tuesday_NNP ._. We_PRP were_VBD leaving_VBG the_DT nursery_NN when_WRB the_DT very_RB brave_VBP mother_NN of_IN one_CD of_IN his_PRP$ friends_NNS invited_VBD us_PRP around_IN for_IN pancakes_NNS as_IN she_PRP was_VBD already_RB having_VBG a_DT few_JJ people_NNS over_IN ._. It_PRP was_VBD pouring_VBG with_IN rain_NN and_CC I_PRP left_VBD the_DT house_NN under_IN the_DT shelter_NN of_IN my_PRP$ new_JJ umbrella_NN ,_, an_DT item_NN I_PRP am_VBP capable_JJ of_IN losing_VBG in_IN seconds_NNS as_IN witnessed_VBN by_IN the_DT fact_NN that_IN I_PRP lost_VBD it_PRP twice_RB the_DT day_NN I_PRP bought_VBD it_PRP ._. This_DT is_VBZ normal_JJ umbrella_JJ etiquette_NN for_IN me_PRP ,_, 10_CD years_NNS ago_RB I_PRP lost_VBD 3_CD of_IN them_PRP in_IN two_CD days_NNS and_CC until_IN this_DT recent_JJ purchase_NN ,_, I_PRP have_VBP n't_RB owned_VBN one_CD since_IN ._. I_PRP also_RB packed_VBD a_DT pocket_NN umbrella_NN for_IN the_DT Spud_NNP ,_, an_DT item_NN which_WDT has_VBZ survived_VBN for_IN the_DT entirety_NN of_IN my_PRP$ marriage_NN to_TO the_DT Frog_NNP purely_RB because_IN I_PRP made_VBD a_DT pact_NN never_RB to_TO use_VB it_PRP ._. We_PRP headed_VBD out_RP from_IN nursery_NN ,_, a_DT little_JJ pack_NN of_IN bedraggled_JJ humans_NNS under_IN various_JJ hoods_NNS and_CC brollies_NNS ._. We_PRP arrived_VBD and_CC immediately_RB the_DT children_NNS formed_VBD a_DT pack_NN and_CC started_VBD pulling_VBG the_DT house_NN to_TO pieces_NNS while_IN us_PRP Mums_NNP formed_VBD a_DT second_JJ pack_NN and_CC destroyed_VBD a_DT bottle_NN of_IN wine_NN ._. Pancakes_NNS were_VBD made_VBN ._. Pancakes_NNS were_VBD eaten_VBN ._. Bedtime_NNP passed_VBD ._. Nobody_NN noticed_VBD for_IN at_IN least_JJS an_DT hour_NN ._. By_IN the_DT time_NN we_PRP left_VBD it_PRP was_VBD quarter_NN past_JJ nine_CD and_CC pouring_VBG with_IN rain_NN ._. The_DT spud_NN insisted_VBD on_IN riding_VBG his_PRP$ scooter_NN so_RB I_PRP carried_VBD his_PRP$ bag_NN ,_, my_PRP$ bag_NN ,_, and_CC ,_, triumphantly_RB ,_, both_DT of_IN our_PRP$ umbrellas_NNS ._. We_PRP walked_VBD along_RB ,_, him_PRP scooting_VBG next_JJ to_TO me_PRP under_IN my_PRP$ shelter_NN and_CC me_PRP feeling_VBG incredibly_RB ,_, unbelievably_RB smug_NN for_IN not_RB having_VBG left_VBN our_PRP$ brollies_NNS at_IN either_CC the_DT nursery_NN or_CC with_IN our_PRP$ friends_NNS ._. I_PRP thought_VBD ,_, as_IN we_PRP walked_VBD through_IN the_DT rain-dark_JJ streets_NNS ,_, happily_RB talking_VBG about_IN how_WRB deep_JJ the_DT puddles_NNS were_VBD and_CC what_WP a_DT fun_NN evening_NN we_PRP had_VBD ,_, that_IN perhaps_RB I_PRP am_VBP finally_RB to_TO be_VB trusted_VBN with_IN an_DT umbrella_NN ._. Perhaps_RB ,_, I_PRP thought_VBD ,_, my_PRP$ native_JJ forgetfullness_NN has_VBZ been_VBN cured_VBN by_IN the_DT added_JJ need_NN for_IN attention_NN that_IN motherhood_NN brings_NNS ,_, and_CC that_IN perhaps_RB -_: just_RB perhaps_RB -_: this_DT one_NN might_MD be_VB for_IN keepsies_NNS ._. I_PRP was_VBD smug_VBG all_PDT the_DT way_NN home_NN ,_, until_IN I_PRP realised_VBD I_PRP was_VBD wearing_VBG only_RB my_PRP$ jacket_NN and_CC that_IN my_PRP$ coat_NN ,_, with_IN my_PRP$ house-keys_NNS still_RB in_IN its_PRP$ pocket_NN ,_, was_VBD hanging_VBG ,_, forgotten_RB ,_, over_IN our_PRP$ host_NN 's_POS balustrade_NN ._. Ah_NNP me_PRP ._. One_CD of_IN the_DT things_NNS I_PRP felt_VBD the_DT lack_NN of_IN when_WRB I_PRP was_VBD pregnant_JJ was_VBD a_DT sense_NN of_IN continuity_NN for_IN my_PRP$ child_NN ._. My_PRP$ husband_NN and_CC I_PRP live_VBP ages_NNS from_IN our_PRP$ families_NNS ,_, neither_DT of_IN us_PRP have_VBP a_DT family_NN home_NN or_CC church_NN or_CC school_NN that_IN we_PRP can_MD hope_VB our_PRP$ child_NN will_MD go_VB to_TO ;_: there_EX is_VBZ no_DT family_NN christening_VBG gown_NN or_CC aged_VBN rocking_JJ horse_NN ..._: I_PRP thought_VBD everything_NN was_VBD going_VBG to_TO have_VB to_TO be_VB new_JJ ._. About_IN a_DT year_NN ago_RB however_RB ,_, I_PRP loaded_VBD onto_IN the_DT record_NN player_NN in_IN his_PRP$ room_NN a_DT Dr._NNP Seuss_NNP album_NN from_IN the_DT 1960s_CD which_WDT I_PRP have_VBP been_VBN toting_VBG around_IN with_IN me_PRP since_IN ..._: well_RB ,_, since_IN the_DT 1960s_CD frankly_RB ._. It_PRP was_VBD The_DT Sleep_NNP Book_NNP (_( b-side_JJ :_: If_IN I_PRP ran_VBD the_DT Zoo_NNP )_) ._. He_PRP loves_VBZ it_PRP ,_, but_CC he_PRP likes_VBZ 'Green_CC Eggs_NNP and_CC Ham_NNP '_POS even_RB more_RBR which_WDT we_PRP read_VBP along_IN with_IN the_DT record_NN ._. Shortly_RB afterwards_IN I_PRP went_VBD to_TO visit_VB my_PRP$ parents_NNS and_CC discovered_VBD a_DT box_NN of_IN wonders_NNS in_IN their_PRP$ cellar_NN ._. Now_RB he_PRP drifts_VBZ off_IN to_TO sleep_VB under_IN a_DT Winnie_NNP The_DT Pooh_NNP blanket_NN made_VBD for_IN me_PRP when_WRB I_PRP was_VBD his_PRP$ age_NN by_IN some_DT unidentified_JJ aunt_NN ,_, perhaps_RB ,_, or_CC family_NN friend_NN ;_: he_PRP plays_VBZ with_IN my_PRP$ ancient_NN building_NN blocks_NNS and_CC eats_VB his_PRP$ pasta_NN from_IN my_PRP$ old_JJ Bunnykins_NNP bowl_NN (_( which_WDT the_DT frog_NN hates_VBZ ;_: too_RB twee_JJ and_CC bourgeois_NN and_CC covered_VBN in_IN bunnies_NNS )_) and_CC he_PRP plays_VBZ with_IN some_DT of_IN my_PRP$ old_JJ cars_NNS ,_, including_VBG a_DT tiny_JJ London_NNP bus_NN I_PRP 've_VBP had_VBN for_IN at_IN least_JJS 35_CD years_NNS which_WDT he_PRP refers_VBZ to_TO as_IN 'your_CD special_JJ bus_NN ,_, Mummy_NNP '_POS ._. It_PRP 's_VBZ cool_JJ ,_, I_PRP 'm_VBP remembering_VBG more_JJR and_CC more_JJR things_NNS from_IN my_PRP$ early_JJ years_NNS ._. We_PRP 're_VBP singing_VBG songs_NNS from_IN 'Little_JJ Toot_NNP '_POS while_IN he_PRP 's_VBZ in_IN the_DT bath_NN ,_, a_DT title_NN which_WDT I_PRP have_VBP to_TO say_VB always_RB makes_VBZ me_PRP chuckle_VB and_CC go_VB 'la_NNP la_NNP la_NNP '_POS a_DT lot_NN -_: because_IN what_WP girl_NN can_MD remember_VB all_PDT the_DT words_NNS to_TO a_DT song_NN about_IN a_DT tugboat_NN 40_CD years_NNS after_IN the_DT fact_NN ?_. I_PRP 'm_VBP enjoying_VBG handing_VBG these_DT pieces_NNS of_IN my_PRP$ childhood_NN on_IN to_TO my_PRP$ own_JJ child_NN and_CC am_VBP very_RB conscious_JJ that_IN this_DT sharp_JJ and_CC often_RB wearisome_JJ thing_NN we_PRP call_VBP the_DT present_NN is_VBZ actually_RB his_PRP$ past_NN and_CC the_DT most_RBS important_JJ thing_NN we_PRP can_MD give_VB him_PRP ._. There_EX are_VBP a_DT few_JJ more_JJR things_NNS in_IN the_DT mystery_NN box_NN that_IN he_PRP will_MD inherit_VB as_IN the_DT years_NNS go_VBP by_IN but_CC the_DT most_RBS important_JJ thing_NN is_VBZ ,_, of_IN course_NN ,_, a_DT sense_NN of_IN family_NN ;_: a_DT sense_NN of_IN continuity_NN ._. Something_VBG that_IN I_PRP hope_VBP ultimately_RB will_MD hold_VB me_PRP in_IN good_JJ stead_NN when_WRB I_PRP am_VBP old_JJ and_CC frail_NN and_CC in_IN need_NN of_IN a_DT real_JJ special_JJ bus_NN ;_: or_CC at_IN least_JJS ,_, a_DT son_NN with_IN enough_JJ charity_NN to_TO keep_VB an_DT eye_NN out_RP for_IN his_PRP$ old_JJ Ma_NNP and_CC perhaps_RB wrap_VB her_PRP$ knees_NNS with_IN a_DT Pooh_NNP blanket_NN on_IN a_DT cold_JJ afternoon_NN ._. Well_NNP ,_, just_RB what_WP I_PRP always_RB wanted_VBD ,_, having_VBG to_TO take_VB a_DT holiday_NN day_NN because_IN Charlie_NNP has_VBZ been_VBN excluded_VBN from_IN nursery_NN for_IN having_VBG a_DT runny_JJ tummy_NN ._. I_PRP 'm_VBP not_RB sure_JJ what_WP 's_VBZ worse_JJR ,_, him_PRP being_VBG ill_NN (_( which_WDT judging_NN by_IN his_PRP$ performance_NN today_NN ,_, he_PRP is_VBZ n't_RB )_) or_CC me_PRP having_VBG to_TO waste_VB a_DT holiday_JJ day_NN during_IN an_DT exceedingly_RB busy_JJ period_NN at_IN work_NN ._. I_PRP 'm_VBP still_RB not_RB feeling_VBG tippy_JJ top_NN after_IN a_DT few_JJ days_NNS of_IN illness_NN ,_, although_IN have_VBP managed_VBN popcorn_NNS and_CC a_DT banana_NN today_NN (_( soooooo_JJ healthy_JJ ..._: .._NN )_) but_CC given_VBN I_PRP do_VBP n't_RB have_VB to_TO struggle_VB into_IN a_DT desk_NN through_IN cold_JJ weather_NN and_CC rush_VB hour_NN traffic_NN I_PRP could_MD easily_RB put_VB in_IN a_DT day_NN 's_POS work_NN so_RB really_RB can_MD not_RB justify_VB a_DT sickie_NN ._. What_WP 's_VBZ lovely_JJ however_RB is_VBZ us_PRP hanging_VBG low_JJ together_RB ._. I_PRP 'm_VBP getting_VBG some_DT work_NN done_VBN and_CC we_PRP 're_VBP being_VBG very_RB very_RB lazy_JJ ._. So_RB far_RB today_NN he_PRP 's_VBZ painted_VBN a_DT picture_NN ,_, eaten_RB copiously_RB ,_, watched_VBD 'Shrek_NNP '_POS ,_, played_VBD computer_NN games_NNS and_CC ,_, er_VBP ..._: lordy_NN I_PRP think_VBP that_DT 's_VBZ it_PRP ._. Currently_NNP he_PRP 's_VBZ playing_VBG 'Shrekcart_NNP '_POS on_IN my_PRP$ iPhone_NN ,_, a_DT device_NN which_WDT is_VBZ possibly_RB under-rated_JJ as_IN a_DT babysitter_NN ;_: although_IN earlier_JJR on_IN he_PRP took_VBD a_DT picture_NN of_IN me_PRP in_IN all_DT my_PRP$ morning_NN glory_NN and_CC I_PRP caught_VBD him_PRP right_RB in_IN the_DT act_NN of_IN posting_VBG it_PRP onto_IN Twitter_NNP so_IN I_PRP admit_VBP to_TO the_DT possibility_NN of_IN being_VBG wrong_JJ on_IN that_DT one_CD ._. Shortly_RB we_PRP 're_VBP going_VBG to_TO head_VB to_TO the_DT park_NN to_TO get_VB some_DT air_NN which_WDT will_MD probably_RB do_VB us_PRP both_VB some_DT good_JJ ._. Today_NN has_VBZ all_PDT the_DT redolence_NN of_IN a_DT day_NN off_RP school_NN when_WRB I_PRP was_VBD young_JJ and_CC I_PRP 've_VBP realised_VBN why_WRB -_: because_IN that_DT 's_VBZ exactly_RB what_WP it_PRP is_VBZ ,_, only_RB this_DT time_NN I_PRP am_VBP in_IN the_DT place_NN of_IN my_PRP$ own_JJ Mum_NNP ;_: trying_VBG to_TO get_VB some_DT work_NN done_VBN while_IN amusing_VBG my_PRP$ bored_JJ offspring_NN who_WP is_VBZ well_RB enough_RB to_TO feel_VB restless_RB but_CC not_RB quite_RB well_RB enough_RB to_TO be_VB insistent_JJ ._. He_PRP 's_VBZ cuddly_RB and_CC funny_JJ and_CC sweet_JJ and_CC is_VBZ playing_VBG by_IN himself_PRP the_DT best_JJS he_PRP can_MD ,_, given_VBN that_IN he_PRP is_VBZ only_RB 3_CD ._. It_PRP 's_VBZ cold_JJ outside_NN ,_, warm_JJ inside_NN and_CC I_PRP see_VBP a_DT lovely_JJ warm_JJ bath_NN and_CC an_DT early_JJ bed_NN in_IN our_PRP$ future_NN ..._: and_CC a_DT weekend_NN of_IN work_NN ;_: but_CC that_DT 's_VBZ a_DT few_JJ days_NNS away_RB and_CC for_IN now_RB ,_, we_PRP 'll_MD just_RB eat_VB our_PRP$ cheese_JJ toasties_NNS ,_, get_VB into_IN our_PRP$ warm_JJ clothes_NNS and_CC go_VB and_CC feed_VB some_DT ducks_NNS ._. anon_NN ._. The_DT last_JJ few_JJ days_NNS the_DT Frog_NNP and_CC I_PRP have_VBP been_VBN fighting_VBG off_RP nausea_NN and_CC a_DT general_JJ sense_NN that_IN we_PRP feel_VBP ill_RB ._. The_DT spud_NN has_VBZ been_VBN his_PRP$ high-stepping_JJ self_NN until_IN this_DT morning_NN when_WRB ,_, halfway_RB to_TO an_DT out-of-town_JJ visit_NN ,_, about_IN 45_CD minutes_NNS from_IN home_NN ,_, he_PRP threw_VBD up_RP his_PRP$ breakfast_NN all_DT over_IN himself_PRP ._. Nothing_VBG like_IN negotiating_VBG the_DT entry_NN to_TO the_DT M4_NNP whilst_NN listening_VBG to_TO one_CD 's_POS offspring_VBG redecorate_NN the_DT back_NN of_IN the_DT car_NN ._. I_PRP need_VBP here_RB to_TO leave_VB a_DT word_NN of_IN thanks_NNS to_TO the_DT goddess_NN as_IN right_NN at_IN the_DT entrance_NN ramp_NN there_EX is_VBZ a_DT petrol_NN station_NN ;_: so_RB just_RB as_IN he_PRP was_VBD heaving_VBG his_PRP$ last_JJ and_CC seconds_NNS before_IN we_PRP got_VBD sucked_VBN into_IN the_DT vortex_NN of_IN the_DT motorway_NN I_PRP was_VBD able_JJ to_TO stop_VB and_CC get_VB the_DT poor_JJ kid_NN cleaned_VBD and_CC changed_VBD ._. We_PRP turned_VBD for_IN the_DT journey_NN home_NN ,_, 45_CD minutes_NNS of_IN auditory_NN and_CC other_JJ sensory_JJ delights_NNS as_IN the_DT spud_NN 's_POS stomach_NN proved_VBD it_PRP was_VBD n't_RB just_RB fooling_VBG around_RB ._. Once_NNP back_RB ,_, bathed_VBD ,_, reclothed_VBD ,_, cuddled_VBD and_CC tucked_VBD onto_IN the_DT sofa_NN with_IN ``_`` Ice_NNP Age_NNP ''_'' while_IN I_PRP washed_VBD various_JJ car-related_JJ items_NNS (_( and_CC two_CD sets_NNS of_IN his_PRP$ clothes_NNS )_) he_PRP felt_VBD well_RB enough_RB to_TO ask_VB for_IN a_DT little_JJ warm_JJ chocolate_NN milk_NN and_CC once_RB that_DT had_VBD been_VBN down_RB for_IN half_PDT an_DT hour_NN with_IN no_DT ill_JJ effects_NNS ,_, I_PRP offered_VBD him_PRP a_DT dry_JJ biscuit_NN ._. I_PRP have_VBP very_RB bland_JJ taste_NN in_IN biscuits_NNS ._. My_PRP$ favourites_NNS are_VBP Digestives_NNS and_CC if_IN given_VBN a_DT choice_NN between_IN say_NN ,_, a_DT Bourbon_NNP vs_NN a_DT Rich_JJ Tea_NNP I_PRP 'll_MD take_VB the_DT Rich_NNP Tea_NNP every_DT time_NN ._. Recently_RB I_PRP discovered_VBD these_DT cheapo_NNS ,_, very_RB plain_RB ,_, very_RB lo-calorie_JJ biscuits_NNS which_WDT are_VBP ,_, I_PRP believe_VBP the_DT acme_JJ -_: or_CC perhaps_RB it_PRP should_MD be_VB the_DT nadir_JJ -_: of_IN how_WRB plain_VB a_DT biscuit_NN can_MD possibly_RB be_VB ._. I_PRP love_VBP them_PRP and_CC I_PRP gave_VBD one_CD to_TO the_DT spud_NN an_DT hour_NN ago_RB ._. He_PRP took_VBD it_PRP ._. He_PRP looked_VBD at_IN it_PRP ._. ``_`` Is_VBZ this_DT for_IN Elsie_NNP ?_. ''_'' he_PRP said_VBD ,_, holding_VBG it_PRP up_RP and_CC talking_VBG about_IN our_PRP$ elderly_JJ next_JJ door_NN neighbour_NN ._. ``_`` Or_CC for_IN Papi_NNP Georges_NNP ?_. ''_'' his_PRP$ 81_CD year_NN old_JJ Grandfather_NNP ._. ``_`` It_PRP 's_VBZ a_DT Papi_NNP Georges_NNP biscuit_NN !_. ''_'' Only_RB 3_CD and_CC already_RB he_PRP 's_VBZ assigning_VBG food_NN into_IN age-appropriate_JJ brackets_NNS ._. It_PRP stayed_VBD down_RP by_IN the_DT way_NN and_CC now_RB he_PRP 's_VBZ demolishing_VBG cheerios_NNS ._. We_PRP may_MD have_VB to_TO conclude_VB that_IN he_PRP is_VBZ simply_RB be_VB car_NN sick_JJ ._. I_PRP know_VBP that_IN right_RB now_RB I_PRP ,_, personally_RB ,_, am_VBP sick_NN of_IN the_DT car_NN ._. ._.</t>
-  </si>
-  <si>
-    <t>..._: .to_VBZ the_DT teacher_NN !_. !_. ``_`` He_PRP will_MD have_VB to_TO learn_VB ,_, I_PRP know_VBP ,_, that_IN all_DT men_NNS are_VBP not_RB just_RB and_CC are_VBP not_RB true_JJ ._. But_CC teach_VBP him_PRP if_IN you_PRP can_MD the_DT wonder_NN of_IN books_NNS ..._: but_CC also_RB give_VBP him_PRP quiet_JJ time_NN to_TO ponder_VB the_DT eternal_JJ mystery_NN of_IN birds_NNS in_IN the_DT sky_NN ,_, bees_NNS in_IN the_DT sun_NN and_CC flowers_NNS on_IN a_DT green_JJ hillside_NN ._. In_IN school_NN ,_, teach_VBP him_PRP it_PRP is_VBZ far_RB more_RBR honourable_JJ to_TO fall_VB than_IN to_TO cheat_VB ..._: Teach_NNP to_TO have_VB faith_VBN in_IN his_PRP$ own_JJ ideas_NNS ,_, even_RB if_IN everyone_NN tells_VBZ him_PRP he_PRP is_VBZ wrong_JJ ._. Teach_VB him_PRP to_TO be_VB gentle_JJ with_IN gentlepeople_NN and_CC tough_JJ with_IN the_DT tough_JJ ._. Try_VB to_TO give_VB my_PRP$ son_NN the_DT strength_NN not_RB to_TO follow_VB the_DT crowd_NN when_WRB everyone_NN getting_VBG on_IN the_DT bandwagon_NN ..._: Teach_NNP him_PRP to_TO listen_VB to_TO all_DT men_NNS ;_: but_CC teach_VBP him_PRP also_RB to_TO filter_VB all_DT he_PRP hears_VBZ on_IN a_DT screen_NN of_IN truth_NN ,_, and_CC take_VB only_RB the_DT good_JJ that_WDT comes_VBZ through_IN ._. Teach_NNP him_PRP ,_, if_IN you_PRP can_MD how_WRB to_TO laugh_VB when_WRB he_PRP is_VBZ sad_JJ ..._: Teach_VBP him_PRP there_EX is_VBZ no_DT shame_NN in_IN tears_NNS ._. Teach_VB him_PRP to_TO scoff_VB at_IN cynics_NNS and_CC to_TO be_VB aware_JJ of_IN too_RB much_JJ sweetness_NN ._. Teach_VB him_PRP to_TO sell_VB his_PRP$ brawn_NN and_CC brain_NN to_TO highest_JJS bidders_NNS ,_, but_CC never_RB to_TO put_VB a_DT price_NN on_IN his_PRP$ heart_NN and_CC soul_NN ._. Teach_VB him_PRP to_TO close_VB his_PRP$ ears_NNS to_TO a_DT howling_NN mob_NN ..._: and_CC stand_VB and_CC fight_VB if_IN thinks_NNS he_PRP is_VBZ right_JJ ._. Treat_NNP him_PRP gently_RB ,_, but_CC do_VBP not_RB cuddle_VB him_PRP ,_, because_IN only_RB the_DT test_NN of_IN fire_NN makes_VBZ fine_JJ steel_NN ._. Let_VB him_PRP have_VB the_DT courage_NN to_TO be_VB impatient_JJ ._. Let_VB him_PRP have_VB the_DT patience_NN to_TO be_VB brave_VBN ._. Teach_NNP him_PRP always_RB to_TO have_VB sublime_JJ faith_NN in_IN himself_PRP ,_, because_IN then_RB he_PRP will_MD have_VB faith_VBN in_IN humankind_NN ._. This_DT is_VBZ a_DT big_JJ order_NN ,_, but_CC see_VBP what_WP you_PRP can_MD do_VB ._. He_PRP is_VBZ such_JJ a_DT fine_JJ little_JJ fellow_JJ my_PRP$ son_NN !_. ``_`` -_: abraham_NN lincon_NN POSTED_NNP BY_NNP SHAIL_NNP AT_NNP 4:55_CD PM_NNP 0_CD COMMENTS_NNP LABELS_NNP :_: GREAT_JJ PEOPLE_NNP GREAT_NNP VALUES_NNP WEDNESDAY_NNP ,_, AUGUST_NNP 26_CD ,_, 2009_CD Important.._NNP undertaking_NN or_CC undertaker_NN !_. !_. Even_RB great_JJ plans_NNS and_CC initiatives_NNS involving_VBG foolish_JJ people_NNS ,_, ..._: ..becomes_VBZ trivial_JJ and_CC worthless_JJ !_. !_. !_. while_IN a_DT small_JJ ordinary_JJ undertaking_NN by_IN keen_JJ and_CC devoted_VBN men_NNS ,_, turns_VBZ out_RP to_TO be_VB the_DT work_NN of_IN times_NNS ,_, great_JJ admiration_NN ..._: POSTED_VBN BY_NNP SHAIL_NNP AT_NNP 10:58_CD AM_NNP 0_CD COMMENTS_NNP LABELS_NNP :_: RANDOM_NNP THOUGHTS.._NNP TUESDAY_NNP ,_, AUGUST_NNP 25_CD ,_, 2009_CD The_DT Last_JJ Chance.._NNP Its_PRP$ funny_NN how_WRB life_NN throws_VBZ it_PRP upon_IN us.._JJ but.._NN everytime_NN we_PRP are_VBP left_VBN with_IN no_DT hopes_NNS and_CC only_RB darkness_JJ around.._NN there_EX is_VBZ always_RB a_DT still_RB waiting.._VBZ one_CD last_JJ chance.._NN !_. !_.</t>
-  </si>
-  <si>
-    <t>After_IN a_DT year_NN and_CC a_DT half_NN off_IN from_IN racing_VBG ,_, it_PRP was_VBD time_NN to_TO think_VB about_IN doing_VBG another_DT tri_NN ._. But_CC since_IN I_PRP ’_VBP m_NNS still_RB dealing_VBG with_IN some_DT atrophy_NN in_IN my_PRP$ left_JJ leg_NN ,_, the_DT idea_NN of_IN doing_VBG much_JJ running_VBG didn_JJ ’_NNP t_NN appeal_NN –_NNP even_RB though_IN I_PRP ’_VBP m_VB a_DT runner_NN ._. I_PRP was_VBD just_RB enjoying_VBG getting_VBG back_RB into_IN a_DT more_JJR regular_JJ routine_NN of_IN training_NN ._. I_PRP swear_VBP I_PRP missed_VBD my_PRP$ friends_NNS and_CC the_DT lifestyle_NN more_JJR than_IN the_DT races_NNS –_VBD even_RB though_IN the_DT races_NNS act_NN as_IN a_DT big_JJ giant_NN carrot_NN to_TO motivate_VB me_PRP to_TO train_VB ._. In_IN January_NNP ,_, I_PRP had_VBD an_DT epiphany_NN on_IN the_DT way_NN home_NN from_IN my_PRP$ Master_NNP ’_NNP s_VBD Swim_NNP workout_NN ._. ‘_NN Hey_NNP ,_, if_IN I_PRP can_MD swim_VB 3,000_CD yards_NNS now_RB ,_, maybe_RB I_PRP can_MD swim_VB 2.4_CD miles_NNS by_IN the_DT summer._NN ’_NN I_PRP kept_VBD that_IN thought_NN to_TO myself_VB for_IN a_DT couple_NN of_IN weeks_NNS ._. Then_RB I_PRP confessed_VBD my_PRP$ crazy_JJ thought-slash-pipe_JJ dream_NN to_TO Sharkbait_NNP ._. And_CC later_RB that_IN week_NN ,_, I_PRP asked_VBD my_PRP$ trail_JJ patrol_NN partner_NN ,_, The_DT Governor_NNP ,_, if_IN he_PRP thought_VBD I_PRP could_MD ride_VB my_PRP$ bike_NN 112_CD miles_NNS by_IN the_DT summer_NN ._. (_( He_PRP knows_VBZ I_PRP ’_VBP m_VBG out_IN of_IN shape_NN and_CC I_PRP ’_VBP ve_RB never_RB done_VBN a_DT century_NN in_IN my_PRP$ life_NN ._. )_) And_CC since_IN ,_, I_PRP can_MD be_VB really_RB insecure_JJ sometimes_RB I_PRP got_VBD three_CD more_JJR second_JJ opinions_NNS ._. I_PRP asked_VBD my_PRP$ swim_JJ coach_NN ,_, Mary_NNP ,_, 734_CD ’_NN s_NN Dad_NNP ,_, and_CC my_PRP$ rehab_JJ therapist_NN ,_, Quinn_NNP ,_, if_IN they_PRP thought_VBD I_PRP could_MD go_VB those_DT distances_NNS ._. No_DT one_NN hesitated_VBD –_NNP except_IN me_PRP ._. ‘_VB Should_MD I_PRP do_VB it_PRP ?_. Should_MD I_PRP do_VB it_PRP ?_. ’_'' After_IN thinking_VBG about_IN it_PRP another_DT day_NN ,_, I_PRP finally_RB hit_VBD the_DT ‘_NNP Submit_NNP ’_NNP button_NN ._. Game_NNP on_IN ._. I_PRP ’_VBP m_JJ doing_VBG the_DT Full_NNP Vineman_NNP Aquabike_NNP on_IN July_NNP 31st_CD ._. It_PRP ’_VBD ll_JJ be_VB just_RB like_IN doing_VBG an_DT Ironman_NNP without_IN the_DT 26-mile_JJ run-walk-_JJ ‘_JJ til-I-drop_NN ._. It_PRP will_MD give_VB me_PRP a_DT chance_NN to_TO really_RB work_VB on_IN my_PRP$ triathlon_NN weaknesses_NNS ._. And_CC it_PRP will_MD give_VB me_PRP time_NN to_TO gain_VB back_RB all_PDT that_IN quad_JJ muscle_NN strength_NN before_IN I_PRP do_VBP some_DT serious_JJ running_NN and_CC racing_NN again_RB ._. I_PRP ’_VBP m_RB going_VBG long_RB with_IN the_DT goal_NN of_IN getting_VBG strong_JJ ._. Last_JJ year_NN ,_, I_PRP saw_VBD an_DT older_JJR woman_NN with_IN a_DT walker_NN enter_NN the_DT rehab_NN pool_NN ._. She_PRP had_VBD a_DT t-shirt_NN with_IN big_JJ letters_NNS bedazzled_VBD in_IN silver_NN dots_NNS that_WDT said_VBD ,_, “_NNP FIERCE._NNP ”_NNP That_IN pretty_RB much_JJ described_VBD the_DT weather_NN out_RP here_RB in_IN the_DT past_JJ couple_NN of_IN weeks_NNS ._. The_DT music_NN in_IN our_PRP$ pilates_NNS class_NN was_VBD interrupted_VBN by_IN a_DT tornado_NN warning_VBG issued_VBN by_IN the_DT National_NNP Weather_NNP Service_NNP ._. We_PRP were_VBD dumbfounded_VBN ._. That_DT doesn_VBZ ’_JJ t_NN happen_VB in_IN Southern_NNP California_NNP ._. If_IN anything_NN ,_, we_PRP get_VBP waterspouts_JJ offshore_RB ._. We_PRP used_VBD levity_NN to_TO hide_VB our_PRP$ concern_NN and_CC joked_VBD about_IN taking_VBG shelter_NN under_IN the_DT reformer_NN ._. When_WRB I_PRP got_VBD out_RB to_TO my_PRP$ car_NN ,_, there_EX were_VBD two_CD messages_NNS from_IN 734_CD ’_NNS s_JJ Dad_NNP ._. And_CC by_IN the_DT time_NN I_PRP got_VBD home_RB ,_, the_DT phone_NN rang_NN again_RB and_CC this_DT time_NN it_PRP was_VBD my_PRP$ dad_NN in_IN Boston_NNP ,_, sounding_VBG a_DT tad_NN agitated_VBN because_IN he_PRP saw_VBD my_PRP$ neighborhood_NN on_IN the_DT news_NN ._. Turns_VBZ out_RP the_DT tornado_NN touched_VBD down_RB two_CD miles_NNS from_IN my_PRP$ place_NN ._. I_PRP had_VBD no_DT idea_NN ._. I_PRP downplayed_VBD the_DT whole_JJ thing_NN and_CC said_VBD the_DT news_NN trucks_NNS always_RB hang_VBP out_RP for_IN the_DT waves_NNS and_CC the_DT puddles_NNS in_IN January_NNP ._. Ha_NNP ,_, I_PRP had_VBD NO_NNP idea_NN a_DT truck_NN and_CC two_CD boats_NNS had_VBD been_VBN flipped_VBN nearby_RB ._. Roofs_NNP had_VBD been_VBN torn_VBN off_RP and_CC windows_VBZ broken_VBN ._. I_PRP live_VBP near_IN the_DT beach_NN with_IN an_DT ocean_JJ view_NN ._. Watching_VBG the_DT waves_NNS come_VBP in_IN was_VBD like_IN watching_VBG fireworks_NNS ._. I_PRP couldn_VBP ’_JJ t_NN stop_NN gawking_NN at_IN them_PRP ._. And_CC in_IN the_DT middle_NN of_IN the_DT night_NN ,_, if_IN the_DT wind_NN howled_VBD a_DT little_JJ too_RB much_JJ ,_, I_PRP ran_VBD into_IN the_DT living_NN room_NN –_VBZ away_RB from_IN the_DT windows_NNS ._. We_PRP had_VBD tons_NNS of_IN people_NNS who_WP came_VBD by_IN our_PRP$ pier_NN to_TO assess_VB the_DT damage_NN to_TO the_DT beach_NN and_CC take_VB pictures_NNS of_IN the_DT ocean_NN ._. Pictures_VBZ that_IN only_RB told_VBD half_PDT the_DT story_NN ._. Because_IN the_DT sound_NN that_IN they_PRP made_VBD ,_, the_DT smell_NN ,_, and_CC the_DT way_NN they_PRP shook_VBP the_DT shore_NN and_CC the_DT pier_NN was_VBD nothing_NN short_JJ of_IN FIERCE_NNP ._. After_IN only_RB a_DT half_JJ dozen_NN Master_NNP ’_NNP s_VBD swimming_VBG workouts_NNS ,_, I_PRP ’_VBP m_RB starting_VBG to_TO notice_VB a_DT few_JJ distinct_JJ changes_NNS ._. 1_CD ._. I_PRP can_MD swim_VB a_DT lot_NN farther_JJR than_IN I_PRP thought_VBD ._. Last_JJ night_NN my_PRP$ training_NN log_NN calculated_VBD 7.59_CD miles_NNS so_RB far_RB this_DT year_NN ._. (_( In_IN a_DT perfect_JJ world_NN ,_, it_PRP would_MD ’_VB ve_RB been_VBN 7.34_CD ,_, but_CC Coach_NNP Mary_NNP pushed_VBD me_PRP to_TO go_VB longer_RB ._. )_) 2_CD ._. I_PRP ’_VBP m_RB learning_VBG how_WRB to_TO do_VB swim_VB strokes_NNS that_IN I_PRP ’_VBP ve_JJ never_RB really_RB attempted_VBN before_IN because_IN no_DT one_NN ever_RB made_VBD me_PRP or_CC showed_VBD me_PRP how_WRB to_TO do_VB them_PRP ._. My_PRP$ backstroke_NN isn_NN ’_NNP t_NN pretty_RB ,_, but_CC I_PRP haven_VBP ’_JJ t_NN caused_VBD any_DT damage_NN to_TO my_PRP$ training_VBG partners_NNS yet_RB ._. 3_CD ._. I_PRP ’_VBP m_JJ cramping_VBG so_RB badly_RB during_IN workouts_NNS that_IN my_PRP$ body_NN feels_NNS possessed_VBN after_IN 1,500-2,000_CD yards_NNS ._. I_PRP figure_VBP my_PRP$ toes_NNS and_CC calves_NNS are_VBP going_VBG through_IN an_DT adaptation_NN phase_NN ._. Or_CC maybe_RB it_PRP should_MD be_VB classified_VBN as_IN hazing_VBG since_IN this_DT Master_NNP ’_NNP s_NN group_NN feels_VBZ a_DT bit_NN like_IN a_DT sorority_NN when_WRB we_PRP ’_VBP re_JJ laughing_VBG about_IN our_PRP$ workouts_NNS in_IN the_DT locker_NN room_NN ._. 4_CD ._. My_PRP$ laundry_JJ hamper_NN is_VBZ piling_VBG up_RP a_DT lot_NN faster_RBR with_IN big_JJ towels_NNS ._. 5_CD ._. I_PRP ’_VBP m_RB frequently_RB reaching_VBG for_IN those_DT Swimmer_NNP ’_NNP s_NN eardrops_NNS ._. 6_CD ._. I_PRP ’_VBP m_JJ positively_RB giddy_JJ with_IN endorphins_NNS after_IN each_DT workout_NN ._. 7_CD ._. My_PRP$ happiness_NN quotient_NN has_VBZ gone_VBN way_NN up_RB ._. Sharkbait_NNP noticed_VBD a_DT difference_NN too_RB ._. Near_IN the_DT end_NN of_IN Wednesday_NNP ’_NNP s_NN workout_NN ,_, she_PRP called_VBD out_RP to_TO me_PRP from_IN a_DT couple_NN of_IN lanes_NNS away_RB with_IN a_DT smile_NN and_CC a_DT nod_NN of_IN approval_NN ,_, “_NNP You_PRP ’_VBP re_JJ gliding_NN !_. ”_NN “_VBD What_WP ?_. ”_NN I_PRP replied_VBD ._. “_VB You_PRP ’_VBP re_JJ gliding_NN !_. !_. ”_JJ “_NNP Oh_NNP ,_, ”_NNP I_PRP answered_VBD ._. A_DT compliment_NN on_IN my_PRP$ swimming_NN definitely_RB takes_VBZ a_DT little_RB while_IN to_TO register_VB ._. I_PRP wondered_VBD ,_, ‘_FW Have_VBP I_PRP ever_RB glided_VBD before_IN ?_. And_CC if_IN so_RB ,_, when_WRB ?_. ’_IN There_EX I_PRP go_VBP overanalyzing_VBG things_NNS again_RB ._. Who_WP cares_VBZ ?_. For_IN one_CD length_NN of_IN the_DT pool_NN ,_, it_PRP happened_VBD ._. I_PRP had_VBD a_DT witness_NN ._. I_PRP ’_VBP m_RB ending_VBG this_DT post_NN with_IN a_DT shout_NN out_RP to_TO some_DT of_IN my_PRP$ favorite_JJ bloggers_NNS ._. This_DT week_NN ’_FW s_NN Six_NNP ’_NNP s_NN Picks_NNP include_VBP the_DT new_JJ Mr_NNP ._. and_CC Mrs._NNP James_NNP Walsh_NNP ,_, Running_NNP is_VBZ Funny_NNP ,_, TriTawn_NNP ,_, Steve_NNP in_IN a_DT Speedo_NNP ?_. !_. Gross_NN !_. (_( and_CC his_PRP$ lovely_JJ wife_NN Pharmie_NNP )_) ._. Last_JJ year_NN ,_, I_PRP reluctantly_RB kept_VBD track_NN of_IN my_PRP$ workout_NN log_NN ._. I_PRP found_VBD myself_PRP filling_VBG in_IN some_DT of_IN the_DT blanks_NNS at_IN the_DT end_NN of_IN ’_$ 09_CD like_IN it_PRP was_VBD the_DT week_NN before_IN taxes_NNS ._. I_PRP pieced_VBD things_NNS together_RB by_IN asking_VBG for_IN copies_NNS of_IN my_PRP$ workout_NN log_NN at_IN the_DT gym_NN and_CC scanning_VBG my_PRP$ Garmin_NNP data_NN ._. Sadly_RB ,_, most_JJS of_IN my_PRP$ swim_NN workouts_VBZ never_RB got_VBN recorded_VBN ._. I_PRP know_VBP I_PRP did_VBD a_DT bunch_NN of_IN them_PRP with_IN a_DT pull_NN buoy_NN at_IN the_DT local_JJ school_NN ’_NNP s_NN pool_NN ._. Enter_VB the_DT New_NNP Year_NNP ’_NNP s_JJ Resolution_NN :_: be_VB more_RBR consistent_JJ ._. That_DT applies_VBZ to_TO everything_NN from_IN filling_VBG out_RP my_PRP$ log_NN on_IN Fitness_NNP Journal.com_NNP to_TO cleaning_VBG out_RP the_DT fridge_NN ._. And_CC with_IN this_DT resolution_NN comes_VBZ another_DT (_( which_WDT I_PRP ’_VBP ve_RB been_VBN working_VBG on_IN for_IN a_DT few_JJ months_NNS )_) ,_, don_JJ ’_NNP t_NN fret_NN ,_, worry_VBP or_CC feel_VB guilty_JJ about_IN all_PDT the_DT stuff_NN that_WDT didn_VBZ ’_NNP t_NN get_NN done_VBN ._. I_PRP ’_VBP m_RB trying_VBG to_TO focus_VB more_RBR on_IN the_DT doing_VBG and_CC less_RBR on_IN the_DT angst_NN of_IN what_WP I_PRP ’_VBP m_RB not_RB getting_VBG done_VBN ._. I_PRP know_VBP I_PRP may_MD slip_VB from_IN time_NN to_TO time_NN on_IN this_DT one_CD ,_, but_CC I_PRP ’_VBP ll_JJ keep_VB plugging_VBG away_RB at_IN it_PRP ._. I_PRP ’_VBP m_RB happy_JJ to_TO report_VB that_IN 2010_CD is_VBZ off_IN to_TO a_DT great_JJ start_NN ._. In_IN the_DT first_JJ 10_CD days_NNS of_IN the_DT year_NN ,_, I_PRP ’_VBP ve_RB worked_VBN out_RP on_IN 7_CD days_NNS doing_VBG 7_CD different_JJ activities_NNS ._. And_CC this_DT afternoon_NN ,_, I_PRP think_VBP I_PRP rinsed_VBD out_RP 7_CD old_JJ condiment_NN jars_NNS and_CC put_VB them_PRP in_IN the_DT recycling_NN bin_NN ._. Seven_NNP (_( aka_JJ 734_CD ,_, the_DT cat_NN )_) will_MD be_VB so_RB proud_JJ ._. Actually_RB ,_, he_PRP won_VBD ’_NNP t_NN care_NN as_RB long_RB as_IN I_PRP hide_VBP 7_CD treats_NNS around_IN the_DT house_NN to_TO keep_VB him_PRP occupied_JJ ._. I_PRP ’_VBP m_JJ savoring_VBG the_DT holidays_NNS as_RB much_RB as_IN possible_JJ ._. I_PRP know_VBP ,_, I_PRP know_VBP ,_, time_NN to_TO move_VB on_IN to_TO the_DT resolutions_NNS ._. I_PRP ’_VBP m_JJ stalling_VBG big_JJ time_NN ._. I_PRP don_VBP ’_JJ t_NNS even_RB want_VBP to_TO take_VB my_PRP$ tree_JJ down_RB ,_, but_CC I_PRP will_MD this_DT afternoon_NN ._. Suffice_VB it_PRP to_TO say_VB ,_, the_DT holidays_NNS were_VBD just_RB what_WP I_PRP needed_VBD this_DT year_NN ._. Perhaps_RB they_PRP should_MD add_VB another_DT Christmas_NNP in_IN July_NNP just_RB to_TO stimulate_VB the_DT economy_NN and_CC raise_VB morale_NN ._. I_PRP don_VBP ’_JJ t_NN think_VBP it_PRP ’_VBZ s_NN just_RB me_PRP ._. Everyone_NN seems_VBZ to_TO be_VB in_IN a_DT better_JJR mood_NN ._. I_PRP had_VBD a_DT great_JJ time_NN kicking_VBG back_RB with_IN my_PRP$ loved_JJ ones_NNS ,_, finding_VBG gifts_NNS ,_, wrapping_VBG them_PRP and_CC all_DT of_IN that_DT good_JJ stuff_NN ._. And_CC while_IN I_PRP had_VBD to_TO use_VB more_JJR restraint_NN than_IN I_PRP would_MD have_VB liked_VBN this_DT year_NN ,_, it_PRP was_VBD the_DT thought_NN that_WDT counted_VBD –_NNP both_DT on_IN the_DT giving_VBG and_CC receiving_VBG end_NN ._. One_CD of_IN my_PRP$ favorite_JJ gifts_NNS came_VBD with_IN this_DT custom_NN tag_NN created_VBN by_IN 734_CD ’_NNS s_JJ Dad_NNP ’_NNP s_VBZ brother_RB Ken_NNP ._. How_WRB cool_JJ ._. It_PRP was_VBD attached_VBN to_TO some_DT tempo_JJ music_NN ,_, The_DT Gorillaz_NNP Demon_NNP Days_NNP CD_NNP ._. My_NNP family_NN ,_, 734_CD ’_NN s_NN Dad_NNP ,_, and_CC my_PRP$ training_NN partners_NNS came_VBD through_IN with_IN some_DT awesome_JJ gifts_NNS to_TO get_VB me_PRP in_IN the_DT mood_NN to_TO train_VB ._. More_RBR importantly_RB ,_, they_PRP made_VBD me_PRP feel_VB like_IN an_DT athlete_NN again_RB ._. Sharkbait_NNP gave_VBD me_PRP some_DT cycling_NN socks_NNS with_IN autumn_NN leaves_NNS to_TO remind_VB me_PRP of_IN home_NN and_CC an_DT assortment_NN of_IN gels_NNS and_CC electrolyte_JJ drink_NN mixes_NNS ._. TriDiver_NNP gave_VBD me_PRP some_DT Pearl_NNP Izumi_NNP running_VBG gloves_NNS and_CC a_DT Triathlete_NNP license_NN plate_NN holder_NN ._. My_PRP$ marathoner_NN sister_NN ,_, Jane_NNP ,_, gave_VBD me_PRP a_DT nice_JJ running_NN jacket_NN ._. Ryan_NNP surprised_VBD me_PRP with_IN a_DT text_NN ,_, “_NNP Hey_NNP ,_, don_NN ’_NNP t_NN do_VBP anything_NN stupid_JJ like_IN renewing_VBG your_PRP$ subscription_NN to_TO Triathlete_NNP Magazine_NNP ._. Merry_NNP Christmas_NNP !_. ”_NN And_CC 734_CD ’_NN s_NN Dad_NNP gave_VBD me_PRP everything_NN on_IN my_PRP$ wish_JJ list_NN ._. Wow_NNP ,_, how_WRB did_VBD he_PRP ever_RB know_VB ?_. (_( That_IN ’_VBP s_JJ right_NN ,_, I_PRP hinted_VBD big_JJ time_NN ._. )_) When_WRB I_PRP opened_VBD the_DT Finis_NNP Hydro_NNP Hip_NNP training_VBG tool_NN ,_, he_PRP said_VBD ,_, “_NNP Hey_NNP ,_, I_PRP thought_VBD only_RB maxi_JJ pads_NNS had_VBD wings_NNS !_. ”_NN I_PRP know_VBP he_PRP secretly_RB gets_VBZ a_DT kick_NN out_IN of_IN seeing_VBG all_PDT the_DT idiosyncrasies_NNS that_WDT go_VBP along_RB triathlon_RB training_NN ._. 734_CD ’_JJ s_NN Dad_NNP ’_NNP s_VBD parents_NNS gave_VBD me_PRP a_DT very_RB generous_JJ check_NN to_TO pass_VB onto_IN the_DT Challenged_NNP Athletes_NNP Foundation_NNP ._. They_PRP knew_VBD I_PRP would_MD have_VB liked_VBN to_TO do_VB Operation_NNP Rebound_NNP again_RB last_JJ year_NN at_IN Oceanside_NNP ._. I_PRP was_VBD quite_RB touched_VBN by_IN that_DT gesture_NN ._. And_CC one_CD of_IN my_PRP$ all-time_JJ favorite_JJ gifts_NNS came_VBD from_IN Nikki_NNP ,_, Sharkbait_NNP ’_NNP s_NN daughter_NN ._. Since_IN the_DT kid_NN recently_RB went_VBD through_IN quite_RB a_DT growth_NN spurt_NN ,_, I_PRP received_VBD her_PRP old_JJ TYR_NNP split_NN fins_NNS ._. I_PRP heard_VBD good_JJ things_NNS about_IN these_DT fins_NNS ._. I_PRP ’_VBP m_JJ hoping_VBG they_PRP really_RB improve_VB my_PRP$ swim_NN ._. I_PRP ’_VBP m_NNS also_RB hoping_VBG that_IN osmosis_NN takes_VBZ affect_RB because_IN this_DT girl_NN can_MD swim_VB 100_CD yards_NNS in_IN 1:15_CD ._. Yeah_UH ,_, I_PRP wan_VBP na_JJ swim_NN like_IN her_PRP$ !_. Hmm_NNP ,_, okay_NN I_PRP just_RB don_VB ’_JJ t_NN want_VBP to_TO be_VB lapped_VBN by_IN her_PRP ._. ‘_VB Cause_NNP that_IN wouldn_VBD ’_NNP t_NN be_VB very_RB nice_JJ to_TO do_VB to_TO “_VB Mealie_NNP Minnow_NNP ”_NNP would_MD it_PRP ?_. Uh-oh_JJ ,_, I_PRP think_VBP I_PRP just_RB signed_VBD up_RP for_IN my_PRP$ first_JJ swim_JJ race_NN ._. Rumor_NNP has_VBZ it_PRP ,_, the_DT kid_NN reads_VBZ my_PRP$ blog_NN ._. When_WRB I_PRP arrived_VBD at_IN the_DT pool_NN last_JJ night_NN ,_, it_PRP was_VBD about_RB 45_CD degrees_NNS ._. If_IN this_DT steam_NN and_CC fog_NN came_VBD off_RP a_DT big_JJ black_JJ caldron_NN ,_, you_PRP ’_VBP d_JJ swear_VBP it_PRP was_VBD some_DT sort_NN of_IN witch_NN ’_NNP s_NN brew_NN ._. A_DT cold_JJ and_CC holiday_JJ festivities_NNS kept_VBD me_PRP out_IN of_IN the_DT pool_NN for_IN a_DT couple_NN of_IN weeks_NNS ._. I_PRP was_VBD excited_VBN to_TO get_VB back_RB in_IN there_RB ._. Coach_NNP Mary_NNP gave_VBD me_PRP some_DT instructions_NNS for_IN a_DT set_NN ,_, “_NNP Okay_NNP ,_, I_PRP want_VBP you_PRP to_TO leave_VB on_IN the_DT :40._NNP ”_NNP I_PRP suspect_VBP I_PRP wasn_VBP ’_JJ t_NN quite_RB that_DT punctual_JJ ,_, but_CC I_PRP really_RB have_VBP no_DT idea_NN ._. I_PRP was_VBD having_VBG a_DT Lucy/Miss_JJ Magoo_NNP moment_NN out_IN there_RB ._. I_PRP couldn_VBP ’_JJ t_NN see_VBP the_DT clock_NN through_IN the_DT fog_NN at_IN the_DT other_JJ end_NN of_IN the_DT pool_NN ._. I_PRP couldn_VBP ’_JJ t_NN see_VB how_WRB much_JJ time_NN elapsed_VBN on_IN my_PRP$ lap_JJ counter_NN ._. And_CC I_PRP was_VBD fumbling_VBG with_IN my_PRP$ Polar_NN to_TO get_VB it_PRP to_TO stopwatch_VB mode_NN because_IN I_PRP couldn_VBP ’_JJ t_NN see_VBP the_DT numbers_NNS on_IN that_DT either_DT ._. Rather_JJR than_IN draw_VB attention_NN to_TO my_PRP$ inability_NN to_TO see_VB ,_, I_PRP just_RB swam_VBD as_RB fast_JJ as_IN I_PRP could_MD and_CC tried_VBD not_RB to_TO dawdle_VB too_RB much_JJ in_IN between_IN ._. I_PRP swam_VBP until_IN I_PRP had_VBD goose_JJ bumps_NNS on_IN my_PRP$ goose_JJ bumps_NNS and_CC my_PRP$ left_JJ calf_NN and_CC right_NN toes_NNS cramped_VBD ._. Mary_NNP still_RB made_VBD me_PRP do_VB a_DT cool_VB down_RP with_IN a_DT pull_NN buoy_NN ._. I_PRP knew_VBD she_PRP was_VBD right_JJ ,_, but_CC it_PRP sure_JJ didn_JJ ’_NN t_NN feel_VBP like_IN I_PRP needed_VBD a_DT cool_JJ down_RP with_IN the_DT onset_NN of_IN hypothermia_NN ._. I_PRP managed_VBD to_TO go_VB 2,050_CD yards_NNS ._. After_IN a_DT nice_JJ hot_JJ shower_NN ,_, Sharkbait_NNP invited_VBD me_PRP over_IN to_TO her_PRP$ house_NN for_IN some_DT ham-and-split_JJ pea_NN soup_NN ._. Is_VBZ there_RB anything_NN better_RBR on_IN a_DT cold_JJ night_NN ?_. It_PRP reminded_VBD me_PRP of_IN snow_JJ days_NNS in_IN Massachusetts_NNP ,_, when_WRB school_NN was_VBD cancelled_VBN and_CC I_PRP could_MD sled_VB for_IN hours_NNS in_IN the_DT backyard_NN ._. When_WRB I_PRP arrived_VBD at_IN her_PRP house_NN ,_, Sharkbait_NNP lamented_VBD ,_, “_FW I_PRP couldn_VBP ’_JJ t_NN see_VBP anything_NN in_IN that_DT fog_NN !_. I_PRP couldn_VBP ’_JJ t_NNS make_VBP out_RP the_DT clock_NN or_CC see_VB the_DT numbers_NNS on_IN my_PRP$ watch._JJ ”_NN I_PRP felt_VBD so_RB relieved_VBN that_IN it_PRP was_VBD n't_RB just_RB me_PRP ._. Now_RB ,_, if_IN Barracuda_NNP could_MD just_RB come_VB out_RP with_IN foggy_JJ night-vision_JJ goggles_NNS next_IN ._. Aside_NNP from_IN all_PDT the_DT fun_NN holiday_NN celebrations_NNS ,_, my_PRP$ absolute_JJ favorite_JJ thing_NN this_DT past_JJ week_NN was_VBD getting_VBG back_RB to_TO the_DT dirt_NN ._. Some_DT women_NNS like_IN perfume_NN ._. I_PRP like_IN the_DT smell_NN of_IN dirt_NN ._. The_DT sting_NN of_IN the_DT crisp_NN ,_, cool_JJ air_NN ._. And_CC the_DT sound_NN of_IN the_DT reeds_NNS rustling_VBG in_IN the_DT wind_NN ._. I_PRP got_VBD it_PRP all_DT when_WRB I_PRP went_VBD for_IN a_DT trail_NN run_NN on_IN the_DT afternoon_NN before_IN Christmas_NNP Eve_NNP ._. It_PRP turned_VBD out_RP to_TO be_VB 4.33_CD miles_NNS and_CC it_PRP felt_VBD just_RB right_RB ._. I_PRP had_VBD to_TO walk_VB it_PRP in_IN a_DT couple_NN of_IN the_DT steep_JJ spots_NNS ,_, but_CC overall_JJ I_PRP was_VBD able_JJ to_TO run_VB ._. And_CC I_PRP ’_VBP m_JJ very_RB happy_JJ to_TO report_VB that_IN it_PRP didn_VBZ ’_JJ t_JJ feel_NN like_IN I_PRP needed_VBD to_TO borrow_VB a_DT lung_NN ._. I_PRP was_VBD truly_RB surprised_JJ that_IN it_PRP felt_VBD that_IN good_JJ ._. I_PRP did_VBD not_RB expect_VB that_DT YET_NNP ._. So_IN the_DT day_NN after_IN Christmas_NNP ,_, I_PRP did_VBD it_PRP all_DT over_RB again_RB ._. Both_DT days_NNS ,_, I_PRP went_VBD out_RP in_IN my_PRP$ new_JJ XTERRA_NNP XR_NNP 1.0_CD shoes_NNS ._. They_PRP felt_VBD super-comfortable_JJ out_IN there_RB ._. No_UH complaints_NNS whatsoever_RB ._. On_IN Sunday_NNP ,_, I_PRP had_VBD my_PRP$ monthly_JJ trail_NN patrol_NN for_IN the_DT California_NNP State_NNP Parks_NNP ._. My_PRP$ third_JJ time_NN back_RB ._. Keith_NNP ,_, the_DT Governor_NNP ,_, lead_VBD the_DT way_NN ._. I_PRP started_VBD out_RP great_JJ and_CC made_VBD it_PRP up_RP a_DT mile_NN climb_NN without_IN too_RB much_JJ trouble_NN ,_, although_IN I_PRP ’_VBP m_JJ sure_JJ I_PRP was_VBD quite_RB slow_JJ ._. When_WRB we_PRP hit_VBD “_JJ No_NNP Dogs_NNP ”_NNP I_PRP couldn_VBP ’_JJ t_NNS make_VBP it_PRP up_RP the_DT second_JJ hill_NN ,_, and_CC I_PRP didn_VBP ’_JJ t_NN clip_NN out_IN fast_RB enough_JJ ._. I_PRP didn_VBP ’_JJ t_NN want_VBP to_TO land_VB on_IN my_PRP$ knee_NN and_CC instead_RB I_PRP kind_NN of_IN hyper-extended_JJ my_PRP$ left_JJ leg_NN and_CC fell_VBD backwards_NNS ._. Next_JJ thing_NN I_PRP knew_VBD I_PRP was_VBD on_IN the_DT ground_NN on_IN my_PRP$ back_NN with_IN my_PRP$ Santa_NNP Cruz_NNP Blur_NNP stuck_VBD between_IN my_PRP$ legs_NNS at_IN an_DT awkward_JJ angle_NN ._. A_DT little_JJ embarrassing_VBG trying_VBG to_TO extricate_VB myself_PRP and_CC get_VB back_RB up_RP ,_, except_IN no_DT one_NN witnessed_VBD it_PRP ._. Ha_NNP !_. Keith_NNP and_CC Dan_NNP were_VBD already_RB waiting_VBG at_IN the_DT top_NN ._. Falling_NNP is_VBZ just_RB part_NN of_IN mountain_NN biking_NN ._. But_CC I_PRP could_MD feel_VB the_DT disparity_NN in_IN my_PRP$ quad_JJ muscle_NN strength_NN as_IN I_PRP attempted_VBD the_DT climb_NN ._. It_PRP ’_VBZ s_VBZ a_DT little_JJ bit_NN of_IN a_DT bummer_NN ,_, but_CC I_PRP know_VBP it_PRP will_MD get_VB better_RB ._. It_PRP messed_VBD with_IN my_PRP$ head_NN for_IN the_DT rest_NN of_IN the_DT ride_NN though_IN ._. We_PRP went_VBD on_IN a_DT new_JJ singletrack_NN trail_NN that_WDT was_VBD built_VBN with_IN Keith_NNP ’_NNP s_VBD help_NN while_IN I_PRP was_VBD away_RB –_JJ Ticketron_NNP ._. Normally_RB ,_, it_PRP would_MD ’_VB ve_RB been_VBN no_DT problem_NN ._. Okay_NNP ,_, maybe_RB I_PRP would_MD have_VB popped_VBN off_RP the_DT bike_NN in_IN a_DT couple_NN of_IN places_NNS ._. Instead_RB ,_, I_PRP walked_VBD a_DT lot_NN of_IN it_PRP with_IN my_PRP$ bike_NN ._. The_DT steep_JJ climb_NN out_IN of_IN Deer_NNP Canyon_NNP usually_RB called_VBD for_IN some_DT hike-a-biking_JJ ,_, but_CC I_PRP was_VBD doin_VBN ’_JJ way_NN more_RBR hikin_JJ ’_NN than_IN bikin_JJ ’_NN ._. When_WRB we_PRP arrived_VBD at_IN the_DT first_JJ stretch_NN of_IN single_JJ track_NN on_IN Fenceline_NNP ,_, it_PRP was_VBD no_DT problem_NN ,_, but_CC the_DT second_JJ stretch_NN ,_, I_PRP had_VBD to_TO clip_VB out_RP so_RB quickly_RB and_CC so_RB often_RB that_IN I_PRP gave_VBD up_RB and_CC walked_VBD the_DT rest_NN of_IN the_DT way_NN ._. My_PRP$ knee_NN ached_VBD a_DT little_JJ –_JJ enough_RB to_TO give_VB up_RP on_IN the_DT idea_NN of_IN doing_VBG a_DT brick_NN workout_NN with_IN a_DT little_JJ run_NN afterwards_NNS ._. I_PRP got_VBD through_IN it_PRP ._. I_PRP went_VBD to_TO places_NNS I_PRP haven_VBP ’_JJ t_NN been_VBN to_TO in_IN a_DT long_JJ time_NN on_IN my_PRP$ mountain_NN bike_NN ._. And_CC I_PRP had_VBD a_DT lot_NN of_IN fun_NN hanging_VBG out_RP with_IN the_DT guys_NNS ._. Dan_NNP thought_VBD for_IN sure_JJ that_IN he_PRP would_MD slow_VB us_PRP down_RP ._. Nope_NN ,_, it_PRP was_VBD me_PRP ._. When_WRB we_PRP stopped_VBD for_IN some_DT nutrition_NN ,_, I_PRP mentioned_VBD that_IN I_PRP really_RB liked_VBD the_DT Hammer_NNP Gel_NNP Apple_NNP Cinnamon_NNP flavor_NN ._. I_PRP said_VBD ,_, “_NNP Wow_NNP ,_, this_DT tastes_VBZ just_RB like_IN apple_NN pie._NN ”_NNP Dan_NNP replied_VBD right_JJ back_RB ,_, “_NNP Oh_NNP ,_, I_PRP ’_VBP d_JJ need_NN ice_NN cream_NN with_IN that…_NN ”_NN Which_NNP pretty_RB much_JJ gives_VBZ you_PRP the_DT flavor_NN of_IN the_DT conversation_NN that_WDT went_VBD back_RB and_CC forth_NN between_IN three_CD immature_NN trail_NN patrol_NN volunteers_NNS ._. When_WRB we_PRP arrived_VBD back_RB in_IN the_DT parking_NN lot_NN ,_, we_PRP had_VBD a_DT visit_NN from_IN 734_CD ’_NNS s_JJ Dad_NNP who_WP rode_VBD across_IN a_DT couple_NN of_IN mountain_NN ranges_NNS to_TO meet_VB up_RP with_IN us_PRP and_CC say_VB “_JJ Hi_NNP !_. ”_VB What_WP a_DT guy_NN !_. Next_JJ week_NN ,_, I_PRP get_VBP to_TO do_VB it_PRP all_DT over_RB again_RB ._. Hmmm_NNP ,_, maybe_RB I_PRP ’_VBP ll_JJ take_VBP a_DT different_JJ route_NN ._. Would_MD you_PRP believe_VB Slow_NNP ‘_NNP n_IN Easy_NNP ?_. Yup_NNP ,_, that_IN ’_NNP s_VBD a_DT trail_NN ._. A_DT winding_VBG mile-and-a-quarter_NN fire_NN road_NN ._. I_PRP wasn_VBP ’_JJ t_NN really_RB sure_JJ what_WP I_PRP ’_VBP d_JJ write_NN about_IN here_RB after_IN my_PRP$ knee_NN surgery_NN last_JJ winter_NN ._. I_PRP knew_VBD I_PRP wouldn_VBP ’_JJ t_NNS have_VBP a_DT triathlon_NN season_NN ._. I_PRP wanted_VBD to_TO talk_VB to_TO others_NNS who_WP came_VBD back_RB strong_JJ after_IN being_VBG sidelined_VBN ._. It_PRP was_VBD an_DT idea_NN that_WDT was_VBD kickin_JJ ’_NN around_IN in_IN my_PRP$ head_NN for_IN a_DT few_JJ weeks_NNS when_WRB the_DT unthinkable_JJ happened_VBN ._. A_DT dear_JJ friend_NN of_IN mine_NN was_VBD in_IN a_DT serious_JJ ski_JJ accident_NN and_CC suffered_VBD a_DT spinal_JJ cord_NN injury_NN ,_, and_CC a_DT few_JJ days_NNS later_RB a_DT stroke_NN ._. I_PRP felt_VBD helpless_NN to_TO do_VB anything_NN for_IN him_PRP as_IN he_PRP lay_VBD in_IN the_DT hospital_NN ._. I_PRP decided_VBD to_TO start_VB a_DT new_JJ series_NN :_: Comeback_NNP Kids_NNP ._. I_PRP ’_VBP d_RB do_VBP a_DT new_JJ story_NN every_DT Friday_NNP for_IN him_PRP ,_, his_PRP$ family_NN ,_, and_CC his_PRP$ closest_NN buddies_NNS –_VBP for_IN as_RB long_RB as_IN he_PRP was_VBD in_IN the_DT hospital_NN ._. That_DT was_VBD the_DT plan_NN ._. I_PRP had_VBD no_DT idea_NN how_WRB I_PRP ’_VBP d_JJ pull_NN it_PRP off_RP ._. I_PRP put_VBD it_PRP out_IN there_RB and_CC hoped_VBD for_IN the_DT best_JJS ._. And_CC I_PRP truly_RB met_VBD the_DT best_JJS in_IN the_DT process_NN ._. Friends_NNS ,_, friends_NNS of_IN friends_NNS ,_, acquaintances_NNS ,_, and_CC complete_JJ strangers_NNS who_WP were_VBD more_JJR than_IN willing_JJ to_TO do_VB the_DT phone_NN interviews_NNS ,_, email_VB me_PRP pictures_NNS ,_, and_CC review_VB their_PRP$ story_NN drafts_NNS prior_RB to_TO posting_VBG on_IN the_DT big_JJ Friday_NNP deadline_NN ._. They_PRP divulged_VBD some_DT pretty_JJ personal_JJ stuff_NN ,_, some_DT pearls_NNS of_IN wisdom_NN ,_, and_CC always_RB some_DT kind_NN words_NNS for_IN my_PRP$ buddy_NN ._. I_PRP ’_VBP d_NNS like_IN to_TO thank_VB each_DT every_DT one_CD of_IN them_PRP once_RB again_RB ._. Hall_NNP of_IN Fame_NNP Triathlete_NNP Karen_NNP Smyers_NNPS who_WP called_VBD me_PRP from_IN a_DT yellow_JJ cab_NN in_IN New_NNP York_NNP City_NNP on_IN a_DT business_NN trip_NN ._. Pro_NNP triathlete_JJ Joanna_NNP Zeiger_NNP who_WP said_VBD ,_, “_NNP Don_NNP ’_NNP t_VBD quit_NN with_IN your_PRP$ rehab_NN until_IN you_PRP are_VBP satisfied_VBN with_IN the_DT results._NN ”_NNP Yes_NNP ,_, she_PRP spent_VBD five_CD hours_NNS a_DT day_NN doing_VBG rehab_NN for_IN her_PRP$ back_JJ injury_NN ._. (_( She_PRP inspires_VBZ me_PRP to_TO keep_VB doing_VBG two_CD or_CC three-hour_JJ workouts_NNS at_IN my_PRP$ rehab_NN gym_NN ._. )_) My_PRP$ physical_JJ therapy_NN aide_NN and_CC former_JJ NFL_NNP player_NN ,_, Erroll_NNP Tucker_NNP ,_, who_WP still_RB encourages_VBZ me_PRP during_IN every_DT weight_NN workout_NN ._. I_PRP ’_VBP d_JJ venture_NN to_TO say_VB that_IN every_DT single_JJ one_CD of_IN these_DT Comeback_NNP Kids_NNP has_VBZ a_DT lot_NN of_IN heart_NN ,_, but_CC Dwight_NNP Kroening_NNP completed_VBD Ironman_NNP Canada_NNP after_IN receiving_VBG a_DT heart_NN transplant_NN and_CC Wayne_NNP “_VBP The_DT Dead_NNP Guy_NNP ”_NNP Wright_NNP completed_VBD 50_CD Marathons_NNS in_IN 50_CD U.S._NNP States_NNPS this_DT October_NNP after_IN undergoing_VBG a_DT quadruple_JJ bypass_NN ._. Dennis_NNP Tapp_NNP found_VBD a_DT way_NN to_TO ride_VB his_PRP$ bike_NN across_IN the_DT country_NN with_IN the_DT partial_JJ paralysis_NN caused_VBN by_IN five_CD gunshots_NNS ._. Sterling_NN Kwong_NNP completed_VBD Ironman_NNP Arizona_NNP after_IN battling_VBG testicular_JJ cancer_NN ._. Casey_NNP Kammel_NNP completed_VBD Ironman_NNP Coeur_NNP d'Alene_NN in_IN unique_JJ style_NN after_IN being_VBG told_VBD he_PRP ’_NNP d_VBD never_RB walk_NN again_RB ._. Andy_NNP Bailey_NNP came_VBD back_RB from_IN a_DT life-threatening_JJ MRSA_NNP infection_NN and_CC amputation_NN to_TO compete_VB in_IN triathlons_NNS again_RB (_( at_IN the_DT age_NN of_IN 70_CD )_) ._. Pitcher_CC Kara_NNP Nilan_NNP returned_VBD to_TO collegiate_VB play_NN after_IN suffering_VBG a_DT traumatic_JJ brain_NN injury_NN on_IN the_DT mound_NN ._. My_PRP$ fellow_JJ rehab_NN patient_NN ,_, Lydia_NNP ,_, continues_VBZ to_TO bravely_RB fight_JJ cancer_NN on_IN top_NN of_IN the_DT severe_JJ back_RB pain_NN from_IN her_PRP$ paragliding_JJ accident_NN ._. And_CC my_PRP$ dear_JJ coach_NN ,_, Beth_NNP Hibbard_NNP ,_, became_VBD a_DT pro_JJ triathlete_NN after_IN breaking_VBG her_PRP$ neck_NN ._. Tawnee_NNP Prazak_NNP and_CC Kevin_NNP Quadrozzi_NNP ,_, I_PRP have_VBP little_JJ doubt_NN that_IN you_PRP ’_VBP ll_JJ both_DT make_VBP it_PRP to_TO Kona_NNP some_DT day_NN ._. My_PRP$ fellow_JJ trail_NN patrol_NN mountain_NN biker_NN ,_, Jane_NNP ,_, continues_VBZ to_TO inspire_VB me_PRP as_IN I_PRP hit_VBP the_DT trails_NNS with_IN a_DT little_JJ trepidation_NN these_DT days_NNS ._. My_PRP$ friend_NN Laurie_NNP shattered_VBD some_DT bones_NNS in_IN her_PRP$ foot_NN doing_VBG an_DT Irish_JJ jig_NN ,_, and_CC completed_VBD an_DT ultra-marathon_JJ less_JJR than_IN a_DT year_NN later_RB ._. Ken_NNP Stephenson_NNP helped_VBD me_PRP start_VB this_DT series_NN off_IN with_IN a_DT bang_NN and_CC his_PRP$ brother_NN Brad_NNP helped_VBD me_PRP keep_VB the_DT streak_NN alive_JJ ._. (_( Yes_UH ,_, there_EX will_MD be_VB something_NN nice_JJ for_IN you_PRP under_IN the_DT tree_NN ,_, I_PRP mean_VBP in_IN the_DT fridge_NN ,_, this_DT Christmas_NNP !_. )_) Some_DT thought_VBD their_PRP$ stories_NNS and_CC their_PRP$ injuries_NNS weren_VBP ’_JJ t_NN that_IN special_JJ ._. From_IN where_WRB I_PRP sit_VBP ,_, they_PRP were_VBD all_DT special_JJ ._. Every_DT day_NN someone_NN finds_VBZ this_DT blog_NN because_IN they_PRP searched_VBD Google_NNP for_IN words_NNS like_IN “_NNP plica_FW syndrome_NN ,_, ”_NNP “_NNP broken_VBD collarbone_NN ,_, ”_'' or_CC “_VB tibial_JJ plateau_NN fracture._NN ”_NN I_PRP ’_VBP ve_JJ received_VBN thank-you_JJ notes_NNS from_IN readers_NNS –_VBP from_IN Colorado_NNP to_TO France_NNP to_TO South_NNP Africa_NNP –_NNP who_WP have_VBP said_VBD they_PRP were_VBD inspired_VBN by_IN your_PRP$ stories_NNS ._. You_PRP helped_VBD me_PRP immensely_RB ._. You_PRP helped_VBD my_PRP$ friend_NN and_CC his_PRP$ loved_JJ ones_NNS ._. You_PRP helped_VBD keep_VB this_DT magical_JJ thing_NN going_VBG for_IN 18_CD weeks_NNS until_IN my_PRP$ buddy_NN was_VBD discharged_VBN from_IN the_DT hospital_NN ._. Last_JJ week_NN ,_, he_PRP started_VBD walking_VBG again_RB with_IN assistance_NN ._. I_PRP look_VBP forward_RB to_TO the_DT day_NN when_WRB I_PRP can_MD write_VB his_PRP$ Comeback_NNP Kid_NNP story_NN ._. Until_IN then_RB ,_, I_PRP plan_VBP to_TO write_VB a_DT few_JJ more_JJR of_IN these_DT stories_NNS in_IN the_DT year_NN ahead_RB ._. And_CC I_PRP thank_VBP you_PRP for_IN making_VBG all_DT of_IN these_DT stories_NNS possible_JJ ._. Happy_JJ holidays_NNS !_.</t>
-  </si>
-  <si>
-    <t>Here_RB we_PRP go_VBP ..._: the_DT testi_NN of_IN my_PRP$ friend_NN from_IN 7th_CD standard_NN ..._: .AN_NNP ABSOLUTE_NNP GEM_NNP OF_IN A_NNP GIRL_NNP ..._: .very_NN kind_NN hearted_VBD ,_, a_DT great_JJ friend_NN to_TO have_VB ..._: people_NNS think_VBP she_PRP is_VBZ a_DT very_RB soft_JJ character_NN but_CC she_PRP isnt..we_VBZ only_RB know_VBP about_IN it_PRP ..._: ppl_RB watch_VB out_RP ..._: lolz_NN ..._: But_CC when_WRB you_PRP are_VBP close_JJ to_TO her_PRP$ she_PRP is_VBZ the_DT BEST_NNP i_NN tell_VBP you_PRP ..._: ALL_PDT THE_DT BEST_NNP ..._:</t>
-  </si>
-  <si>
-    <t>How_WRB could_MD God_VB deal_VB with_IN all_DT His_PRP$ billions_NNS and_CC billions_NNS of_IN children_NNS at_IN a_DT time_NN ?_. ?_. We_PRP find_VBP it_PRP difficult_JJ to_TO multitask_VB few_JJ of_IN our_PRP$ activities_NNS ..._: How_NNP can_MD God_VB possibly_RB be_VB noting_VBG us_PRP evvvery_JJ millisecond.._NN and_CC decide_VB what_WP we_PRP deserve_VBP .._PDT the_DT law_NN of_IN Karma_NNP as_IN they_PRP call_VBP it.._JJ Whom_NNP will_MD he_PRP watch_VB !_. !_. How_WRB many_JJ eyes_NNS could_MD He_PRP have_VB !_. !_. Then_RB i_RB started_VBD thinking-_JJ ok_NN ,_, if_IN God_NNP can_MD make_VB such_JJ complicated_VBN human_JJ beings_NNS ,_, each_DT having_VBG different_JJ DNA.._NNP and_CC hence_RB different_JJ characters_NNS ,_, write_JJ unique_JJ algorithms_NN for_IN each_DT individual.._NN how_WRB easily_RB he_PRP would_MD have_VB made_VBN a_DT dummy_NN box_NN called_VBD the_DT computer_NN !_. !_. the_DT sooper_JJ computer.._NN artificial_JJ intelligence_NN et_NN al_NN !_. !_. and_CC servers_NNS with_IN giga_JJ tera_NN square_JJ memory_NN .._NN He_PRP probabaly_RB would_MD have_VB a_DT random_JJ number_NN generator_NN (_( RNG_NNP )_) continuously_RB stirring_VBG out_RP numers.._RB and_CC each_DT of_IN us_PRP would_MD be_VB assigned_VBN one_CD ._. Then_RB there_EX would_MD be_VB an_DT algo_NN which_WDT randomly_RB assigns_VBZ each_DT of_IN us_PRP a_DT time_NN of_IN birth_NN (_( that_WDT would_MD be_VB linked_VBN to_TO another_DT 2_CD numbers_NNS dad_JJ n_JJ mom_NN immediatly_RB -_: these_DT three_CD will_MD be_VB our_PRP$ primary_JJ key_NN :_: )_) -_: )_)</t>
-  </si>
-  <si>
-    <t>He_PRP is_VBZ one_CD of_IN the_DT most_RBS interesting_JJ ppl_NN in_IN my_PRP$ life_NN ..._: well_RB we_PRP met_VBD at_IN a_DT tech_JJ symposium_NN Aarush-SRM_NNP univ_NN ,_, but_CC it_PRP seemed_VBD we_PRP had_VBD been_VBN friends_NNS for_IN life_NN ,_, he_PRP could_MD have_VB been_VBN the_DT better_JJR judge_NN for_IN the_DT events_NNS sparing_VBG the_DT SRM_NNP staff_NN with_IN his_PRP$ impeccable_JJ knowledge_NN on_IN a_DT diverse_JJ range_NN of_IN topics_NNS ,_, and_CC flabbergasted_VBD everyone_NN with_IN his_PRP$ tech-trivia_NN !_. Lol_NNP .._VBD a_DT prodigy_NN i_NN wud_VBP say_VBP ..._: ..this_JJ word_NN sums_VBZ up_RP this_DT good_JJ friend_NN of_IN mine_NN ,_, ten_CD years_NNS down_RB the_DT lane_NN ,_, u_JJ wud_NN be_VB a_DT gr8_JJ prof_NN (_( swear_JJ my_PRP$ head_NN upon_IN it_PRP !_. )_) ,_, and_CC ur_JJ zeal_NN for_IN knowledge_NN will_MD take_VB u_NN to_TO greater_JJR zeniths_NNS !_. All_PDT the_DT best_JJS dood_NN ,_, i_NN know_VBP u_NN are_VBP one_CD of_IN the_DT best_JJS in_IN my_PRP$ journey_NN !_. Rock_NN on_IN ..._:</t>
-  </si>
-  <si>
-    <t>Welcome_UH to_TO my_PRP$ review_NN of_IN the_DT above_JJ product_NN ._. I_PRP hope_VBP this_DT helps_VBZ someone_NN out_IN there_RB ._. First_NNP of_IN all_RB ,_, this_DT product_NN 's_POS name_NN is_VBZ way_NN too_RB long_RB ._. However_RB ,_, in_IN its_PRP$ defense_NN ,_, it_PRP is_VBZ in_IN no_DT way_NN a_DT marketing_NN ploy_NN and_CC is_VBZ pretty_JJ spot-on_JJ about_IN what_WP it_PRP does_VBZ ._. For_IN example_NN ,_, a_DT ``_`` spot_NN corrector_NN ''_'' could_MD be_VB a_DT great_JJ concealer_NN ,_, a_DT pimple_NN buster_NN ,_, a_DT bleaching_NN agent_NN ,_, some_DT to_TO remove_VB unsightly_RB blood_NN stains_NNS with_IN ,_, a_DT dog-killing_JJ agent_NN (_( but_CC only_RB for_IN dogs_NNS names_NNS ``_`` spot_NN ''_'' )_) etc_FW ._. But_CC no_DT ,_, this_DT product_NN is_VBZ an_DT Overnight_JJ Whitening_VBG Peeling_VBG Cream_NNP ._.</t>
-  </si>
-  <si>
-    <t>Bleach_NNP is_VBZ a_DT form_NN of_IN chlorine_NN and_CC sodium_NN hydroxide_NN (_( lye_JJ water_NN )_) ._. These_DT two_CD substances_NNS will_MD kill_VB your_PRP$ intestinal_JJ flora_NN that_WDT is_VBZ 3/4_CD of_IN your_PRP$ immune_NN system_NN ._. Just_RB drinking_VBG chlorinated_VBN tap_JJ water_NN or_CC even_RB worse_JJR ,_, fluoridated_VBD tap_JJ water_NN ,_, you_PRP will_MD greatly_RB harm_VB your_PRP$ immune_NN system_NN ._. It_PRP will_MD have_VB the_DT opposite_JJ effect_NN of_IN what_WP you_PRP are_VBP trying_VBG to_TO do_VB ._. Allopathic_NNP medicine_NN has_VBZ put_VBN us_PRP all_DT in_IN great_JJ harm_NN by_IN following_VBG the_DT kill_NN the_DT germ_NN idea_NN to_TO make_VB us_PRP healthy_JJ ._. To_TO properly_JJ cleanse_VB your_PRP$ body_NN ,_, you_PRP should_MD find_VB a_DT good_JJ certified_JJ nutritional_JJ therapist_NN that_IN understands_VBZ QRA_NNP to_TO help_VB you_PRP ._.</t>
-  </si>
-  <si>
-    <t>Holiday_NNP Sneer_NNP It_PRP 's_VBZ always_RB funny_JJ to_TO me_PRP when_WRB people_NNS wish_VBP me_PRP a_DT merry_NN Christmas_NNP ._. I_PRP mean_VBP ,_, I_PRP can_MD understand_VB the_DT whole_JJ holiday_NN spirit_NN and_CC cheer_NN and_CC whatever_NN ,_, but_CC the_DT whole_JJ thing_NN means_VBZ nil_JJ to_TO me_PRP ._. However_RB ,_, I_PRP did_VBD watch_VB so_RB many_JJ hours_NNS on_IN the_DT Discovery_NNP Channel_NNP about_IN the_DT life_NN of_IN Jesus_NNP ,_, Mary_NNP ,_, and_CC everything_NN else_RB surrounding_VBG the_DT New_NNP Testament_NNP that_IN the_DT Disocovery_NNP Channel_NNP could_MD muster_VB ._. I_PRP watched_VBD so_RB many_JJ hours_NNS ,_, in_IN fact_NN ,_, that_IN I_PRP had_VBD a_DT dream_NN last_JJ night_NN that_IN I_PRP was_VBD Mary_NNP ,_, Noah_NNP (_( of_IN the_DT Arc_NNP )_) ,_, and_CC Jesus_NNP rolled_VBD into_IN one_CD ._. For_IN Xmas_NNP eve_VBP I_PRP went_VBD over_IN to_TO my_PRP$ friend_NN Ridge_NNP 's_POS house_NN in_IN Queens_NNP ._. We_PRP watched_VBD Peanuts_NNP cartoons_NNS ,_, Edward_NNP Scissorhands_NNP ,_, and_CC ate_VB Jumbalya_NNP or_CC whatever_VB it_PRP 's_VBZ called/spelled_VBN ._. Afterwards_NNS I_PRP headed_VBD back_RB into_IN the_DT city_NN a_DT little_JJ earlier_JJR than_IN planned_VBN and_CC had_VBD a_DT quick_JJ drink_NN with_IN Marc_NNP ._. I_PRP also_RB tried_VBD to_TO climb_VB into_IN his_PRP$ suitcase_NN so_RB he_PRP could_MD take_VB me_PRP to_TO Australia_NNP with_IN him_PRP for_IN when_WRB he_PRP goes_VBZ to_TO interview_NN the_DT Vines_NNP ._. As_IN I_PRP was_VBD heading_VBG back_RB home_NN ,_, my_PRP$ brother_NN Lawrence_NNP called_VBD me_PRP just_RB as_IN I_PRP was_VBD driving_VBG past_IN him_PRP on_IN the_DT street_NN in_IN my_PRP$ cab_NN ._. I_PRP jumped_VBD out_RP and_CC joined_VBD him_PRP for_IN a_DT drink_NN at_IN some_DT cheesy_NN club_NN that_WDT was_VBD hosting_VBG a_DT Matzoh_NNP Ball_NNP ._. It_PRP was_VBD so_RB incredibly_RB lame_NN (_( I_PRP yelled_VBD out_RP ``_`` Sausage_JJ Fest_JJS !_. ''_'' as_IN i_NN walked_VBD in_IN and_CC got_VBD shot_VBN with_IN dirty_JJ looks_NNS all_DT around_RB )_) that_IN we_PRP left_VBD after_IN 20_CD minutes_NNS ._. He_PRP headed_VBD off_RB to_TO the_DT new_JJ Crobar_NNP and_CC I_PRP went_VBD home_NN ._. Apparently_RB the_DT Lubuvatch_NNP Organization_NNP were_VBD in_IN their_PRP$ Mitzvah_NNP Mobile_NNP outside_IN of_IN Crobar_NNP trying_VBG to_TO recruit_VB new_JJ followers_NNS of_IN the_DT ultra-orthodox_JJ jewish_JJ cult-like_NN group_NN ._. When_WRB I_PRP was_VBD little_JJ my_PRP$ mom_NN used_VBN to_TO take_VB me_PRP to_TO visit_VB Rabbi_NNP Schneerson_NNP (_( sp_VB ?_. )_) who_WP is_VBZ the_DT person_NN the_DT Lubuvatch_NNP 's_POS look_NN up_RB to_TO as_IN a_DT sort_NN of_IN profit_NN ._. We_PRP 'd_MD wait_VB in_IN a_DT long_JJ line_NN in_IN Brooklyn_NNP for_IN hours_NNS and_CC hours_NNS and_CC walk_VB up_RB to_TO him_PRP ,_, hand_NN him_PRP a_DT dollar_NN ,_, he_PRP 'd_MD give_VB us_PRP a_DT blessed_JJ dollar_NN in_IN return_NN ,_, mumble_JJ something_NN or_CC another_DT ,_, and_CC then_RB we_PRP 'd_MD go_VB off_RP on_IN our_PRP$ way_NN ._. I_PRP was_VBD about_IN 8_CD years_NNS old_JJ when_WRB we_PRP did_VBD this_DT ,_, so_IN my_PRP$ memory_NN is_VBZ a_DT bit_NN cloudy_NN ..._: however_RB ,_, I_PRP 'm_VBP sure_JJ he_PRP brought_VBD happiness_NN to_TO a_DT lot_NN of_IN people_NNS ._. I_PRP 'm_VBP just_RB confused_VBN by_IN what_WP the_DT Lubuvatch_NNP community_NN is_VBZ trying_VBG to_TO do_VB with_IN their_PRP$ Mitzvah_NNP Mobiles_NNPS ..._: i_NN should_MD do_VB some_DT research_NN ._. Speaking_NN of_IN Lawrence_NNP ,_, he_PRP changed_VBD his_PRP$ friendster_NN photo_NN to_TO images_NNS from_IN high_JJ school_NN ._. He_PRP was_VBD so_RB fucking_JJ cute_NN and_CC new_JJ wave_NN ._. Look_VB !_. ._. Yesterday_NN ,_, for_IN Xmas_NNP Day_NNP ,_, Nate_NNP the_DT fabulous_JJ Roommate_NNP ,_, cooked_VBD an_DT amazing_JJ meal_NN for_IN his_PRP$ bandmates_NNS ._. It_PRP looked_VBD amazing_VBG ..._: I_PRP could_MD n't_RB eat_VB it_PRP cause_VB it_PRP was_VBD n't_RB kosher_RB ,_, but_CC basically_RB it_PRP was_VBD chicken_VBN rolled_VBN with_IN ricotta_NN and_CC feta_NN cheese_NN ,_, mashed_VBD potatoes_NNS ,_, and_CC asparagus_RB ._. Nate_NNP cooks_NN !_. He_PRP 's_VBZ like_IN the_DT best_JJS boy_NN in_IN the_DT whole_JJ world_NN ._. He_PRP also_RB got_VBD a_DT Christmas_NNP tree_NN for_IN the_DT apartment_NN which_WDT he_PRP decorated_VBD with_IN white_JJ lights_NNS and_CC blue_JJ balls_NNS (_( to_TO pay_VB respect_NN to_TO Hannukah_NNP )_) ,_, and_CC we_PRP made_VBD an_DT angle_NN for_IN the_DT top_JJ using_VBG an_DT image_NN of_IN Thom_NNP Yorke_NNP i_NN found_VBD in_IN Blender_NNP magazine_NN ._. After_IN dinner_NN I_PRP went_VBD to_TO the_DT movies_NNS with_IN Karen_NNP and_CC Jordan_NNP to_TO see_VB ``_`` Big_JJ Fish_NN ''_'' (_( I_PRP was_VBD crying_VBG like_IN a_DT pms-ing_JJ girl_NN who_WP has_VBZ just_RB watched_VBN a_DT Sally_NNP Struthers_NNP ``_`` kids_NNS in_IN africa_JJ need_VBP your_PRP$ money_NN ''_'' commercial_JJ at_IN the_DT end_NN ..._: not_RB to_TO mention_VB squealing_VBG everytime_JJ Ewan_NNP came_VBD on_IN screen_NN )_) ._. We_PRP all_DT noticed_VBD Drew_NNP and_CC Fab_NNP in_IN line_NN for_IN popcorn_NN behind_IN us_PRP and_CC so_RB this_DT prompted_JJ Jordan_NNP to_TO ask_VB quite_RB loudly_RB while_IN we_PRP were_VBD sitting_VBG down_IN ``_`` I_PRP THOUGHT_VBP DREW_NNP AND_CC FAB_NNP WERE_NNP OVER_NNP ?_. ''_'' not_RB noticing_VBG them_PRP sitting_VBG two_CD rows_NNS directly_RB in_IN front_NN of_IN us_PRP ._. God_NNP Bless_NNP Jordan_NNP for_IN delivering_VBG the_DT quote_NN of_IN the_DT night_NN ._. So_CC Drew_NNP and_CC Fab_NNP are_VBP back_RB on_IN !_. When_WRB I_PRP got_VBD home_NN ,_, after_IN going_VBG to_TO Lit_NNP ,_, I_PRP watched_VBD the_DT World_NNP Idol_NNP competition_NN that_IN i_NN had_VBD taped_VBN while_IN at_IN the_DT movies_NNS ._. I_PRP 'm_VBP totally_RB in_IN love_NN with_IN Kurt_NNP from_IN Norway_NNP 's_POS performance_NN ._. He_PRP was_VBD so_RB utterly_JJ amazing_NN ._. He_PRP sounded_VBD a_DT lot_NN like_IN the_DT singer_NN of_IN Kent_NNP ._. I_PRP think_VBP i_JJ 'm_VBP gon_VBG na_TO buy_VB his_PRP$ album_NN ._. Free_JJ Jack_NNP White_NNP items_NNS are_VBP for_IN sale_NN just_RB in_IN time_NN for_IN belated_VBN holiday_NN gifts_NNS ._. Incase_NNP anyone_NN is_VBZ interested_JJ ,_, i_JJ 'm_VBP a_DT women_NNS 's_POS medium_NN ._. Thanks_NNS to_TO Rachel_VB for_IN that_DT link_NN ._. Finally_RB --_: I_PRP 'm_VBP DJing_VBG at_IN Don_NNP Hills_NNP on_IN New_NNP Years_NNP Eve_NNP ._. The_DT party_NN is_VBZ apparently_RB gon_VBN na_RB be_VB really_RB great_JJ ,_, so_RB if_IN anyone_NN reading_NN this_DT needs_VBZ something_NN to_TO do_VB that_DT night_NN ,_, you_PRP should_MD go_VB ._. Come_NNP and_CC say_VB hi_NN to_TO me_PRP if_IN you_PRP do_VBP !_. I_PRP will_MD probably_RB be_VB very_RB drunk_JJ and_CC possibly_RB try_VB to_TO make_VB out_RP with_IN you_PRP and_CC then_RB you_PRP 'll_MD also_RB discover_VB my_PRP$ inability_NN to_TO remember_VB anything_NN and_CC total_JJ need_NN to_TO document_VB everything_NN with_IN my_PRP$ digital_JJ camera_NN as_IN a_DT result_NN ._. I_PRP promise_VBP to_TO also_RB play_VB ``_`` Ice_NNP Ice_NNP Baby_NNP ._. ''_''</t>
-  </si>
-  <si>
-    <t>This_DT post_NN was_VBD very_RB interesting_JJ because_IN it_PRP explained_VBD both_CC the_DT positive_JJ and_CC negative_JJ side_NN of_IN Sickle_NNP Cell_NNP Anemia_NNP ._. The_DT question_NN at_IN the_DT end_NN encouraged_VBD me_PRP to_TO do_VB further_JJ research_NN and_CC try_VB to_TO find_VB other_JJ diseases_NNS that_WDT have_VBP the_DT same_JJ heterozygote_NN advantage_NN ._. After_IN looking_VBG on_IN many_JJ websites_NNS I_PRP found_VBD the_DT same_JJ disease_NN that_WDT was_VBD posted_VBN above_IN ,_, Thalassemia_NNP ._. This_DT disease_NN is_VBZ similar_JJ to_TO sickle_VB cell_NN anemia_RB because_IN it_PRP is_VBZ a_DT malfunction_NN with_IN the_DT red_JJ blood_NN cells_NNS ._. Either_CC there_EX are_VBP not_RB enough_RB red_JJ blood_NN cells_NNS or_CC there_EX is_VBZ n't_RB enough_JJ hemoglobin_NN in_IN the_DT red_JJ blood_NN cells_NNS which_WDT effects_NNS the_DT oxygen_NN flow_NN ._. This_DT disease_NN is_VBZ inherited_VBN from_IN the_DT parents_NNS of_IN the_DT offspring_NN ._. There_EX are_VBP four_CD forms_NNS of_IN this_DT disease_NN called_VBD Silent_NNP Carrier_NNP State_NNP ,_, Alpha_NNP Thalassemia_NNP Trait_NNP ,_, Hemoglobin_NNP H_NNP Disease_NNP ,_, Alpha_NNP Thalassemia_NNP Major_NNP ._. The_DT first_JJ listed_VBN had_VBD one_CD affected_VBN gene_NN ,_, the_DT second_JJ has_VBZ two_CD affected_VBN genes_NNS ,_, the_DT third_NN has_VBZ three_CD affected_VBN genes_NNS and_CC the_DT fourth_JJ has_VBZ four_CD affected_VBN genes_NNS ._.</t>
-  </si>
-  <si>
-    <t>STEFFI-My_JJ sweetheart_NN my_PRP$ best_JJS friend_NN a_DT person_NN whom_WP i_NN have_VBP never_RB met_VBN but_CC still_RB feel_VB got_VBD ta_NNS have_VBP some_DT karmic_JJ connection_NN with_IN her_PRP$ ..._: ..._: I_PRP met_VBD her_PRP in_IN Nagercoil_NNP community_NN n_NN we_PRP both_DT hit_VBD off_RP from_IN day_NN one_CD itself_PRP ..._: cos_NN i_NN was_VBD her_PRP$ saviour_NN he_PRP he_PRP he_PRP ..._: ..jokes_VBZ apart_RB ..._: .never_RB met_VBD her_PRP just_RB talked_VBD wit_RP her_PRP$ on_IN the_DT phone_NN ..._: a_DT very_RB very_RB very_RB sweet_JJ cute_NN lovable_JJ bubbly_RB girl_NN who_WP enjoys_VBZ n_JJ lives_VBZ her_PRP$ life_NN to_TO the_DT fullest_JJS ..._: ..hanging_VBG out_RP with_IN friends_NNS is_VBZ her_PRP$ favourite_JJ hobby_NN (_( her_PRP$ photos_NN itself_PRP speak_VBP )_) ..._: studies_NNS a_DT lot_NN thats_NNS y_VBP she_PRP is_VBZ now_RB in_IN USA_NNP ..._: loves_VBZ her_PRP$ USA_NNP chitthi_NN n_NN ..._: ._. a_DT lot_NN (_( u_JJ only_RB fill_VBZ up_RP the_DT ..._: da_NN he_PRP he_PRP he_PRP )_) ..._: I_PRP shld_VBP really_RB thank_JJ orkut_NN for_IN giving_VBG me_PRP such_JJ a_DT good_JJ friend_NN like_IN steffi_NN who_WP even_RB though_IN miles_NNS apart_RB has_VBZ always_RB been_VBN supportive_JJ n_NN encouraging_NN ..._: A_DT very_RB lively_RB girl_NN with_IN a_DT constant_JJ smile_NN on_IN her_PRP$ face_NN ..._: .her_CC scraps_NNS n_JJ msgs_NN in_IN orkut_JJ itself_PRP gives_VBZ me_PRP the_DT feeling_NN she_PRP is_VBZ always_RB smiling..she_VBN has_VBZ a_DT heart_NN of_IN gold/silver/diamond_NN dese_NNS have_VBP prices_NNS but_CC ur_JJ heart_NN is_VBZ priceless_JJ ..._: contd_NN ..._: ._.</t>
-  </si>
-  <si>
-    <t>Sebastian_NN has_VBZ Down_VBN Syndrome_NNP and_CC requires_VBZ more_JJR attention_NN than_IN most_JJS babies_NNS ._. Among_IN other_JJ things_NNS ,_, he_PRP has_VBZ to_TO be_VB fed_VBN every_DT 1_CD 1/2_CD to_TO 2_CD hours_NNS ,_, even_RB through_IN the_DT night_NN ._. Mindy_NNP knew_VBD his_PRP$ parents_NNS could_MD use_VB a_DT break_NN ._. So_IN she_PRP volunteered_VBD to_TO hold_VB him_PRP for_IN a_DT while_NN ._. She_PRP sang_VBD him_PRP to_TO sleep_VB ._. Mindy_NNP would_MD be_VB the_DT first_JJ to_TO tell_VB you_PRP it_PRP 's_VBZ a_DT God_NNP thing_NN ._. Yep_UH !_. I_PRP think_VBP it_PRP 's_VBZ just_RB beautiful_JJ !_. And_CC so_RB does_VBZ little_JJ Sebastian_JJ !_.</t>
-  </si>
-  <si>
-    <t>(_( beavertail_NN cactus_NN in_IN bloom_NN )_) ``_`` i_JJ hold_VBP no_DT preference_NN among_IN flowers_NNS ,_, so_RB long_RB as_IN they_PRP are_VBP wild_JJ ,_, free_JJ and_CC spontaneous_JJ ''_'' ~desert_NN solitaire~_FW edward_NN abbey_NN (_( ocotillo_JJ blossoms_NNS )_) we_PRP found_VBD very_RB few_JJ wildflowers_NNS ,_, beautiful_JJ ,_, but_CC few_JJ ._. it_PRP seems_VBZ the_DT daily_JJ reports_NNS we_PRP 'd_MD read_VB were_VBD not_RB all_PDT that_DT accurate_NN ._. (_( desert_JJ sunflower_NN &amp;_CC amp_NN ;_: lupine_CC )_) we_PRP were_VBD n't_RB alone_RB in_IN that_DT thinking_NN either_RB ,_, there_EX were_VBD droves_NNS of_IN people_NNS that_WDT came_VBD for_IN the_DT predicted_JJ event_NN ._. everyone_NN asking_VBG ``_`` where_WRB are_VBP the_DT flowers_NNS ?_. ''_'' the_DT epic_NN wildflower_NN bloom_NN ,_, ah_RB well_RB ,_, mother_PRP nature_VBP surely_RB decides_IN these_DT things_NNS ,_, not_RB us_PRP ,_, does_VBZ n't_RB she_PRP ?_. (_( cholla_NN (_( choy-ya_JJ )_) cactus_NN )_) so_IN we_PRP set_VBP about_IN enjoying_VBG all_PDT the_DT many_JJ other_JJ treasures_NNS the_DT desert_NN has_VBZ to_TO offer_VB ..._: in_IN the_DT desert_NN the_DT best_JJS way_NN to_TO see_VB is_VBZ to_TO get_VB quiet_JJ ..._: get_VB away_RB from_IN the_DT crowds_NN ..._: get_VBP down_RP on_IN your_PRP$ knees_NNS for_IN a_DT closer_JJR look_NN ..._: find_VBP hearts_NNS and_CC think_NN of_IN all_DT your_PRP$ friends_NNS ♥_JJ and_CC take_VB some_DT hikes_NNS ..._: we_PRP went_VBD from_IN this_DT to_TO ..._: this_DT !_. we_PRP hiked_VBD six_CD miles_NNS to_TO an_DT oasis_NN ,_, you_PRP would_MD not_RB guess_VB by_IN looking_VBG at_IN these_DT photos_NNS that_IN this_DT place_NN is_VBZ called_VBN hell_NN hole_NN canyon_NN !_. can_MD you_PRP see_VB the_DT small_JJ waterfall_NN we_PRP cooled_VBD off_RP in_IN ?_. (_( blooming_VBG agave_RB )_) this_DT photo_NN shows_VBZ the_DT way_NN we_PRP hiked_VBD to_TO the_DT palm_NN covered_VBD oasis_NN ,_, it_PRP was_VBD over_RB 80_CD degrees_NNS out_IN !_. i_NN seem_VBP to_TO have_VB picked_VBN up_RP a_DT few_JJ stragglers_NNS ._. when_WRB chuck_NN pointed_VBD out_RP a_DT blooming_NN barrel_NN cactus_NN i_NN got_VBD so_RB excited_JJ i_NN hurried_VBD off_IN the_DT trail_NN to_TO see_VB it_PRP ._. i_JJ forgot_VBD to_TO look_VB where_WRB i_NN was_VBD stepping_VBG ._. :_: )_) we_PRP went_VBD on_IN another_DT hike_NN to_TO the_DT breathtaking_NN badlands_NNS ..._: in_IN one_CD day_NN we_PRP did_VBD three_CD hikes_NNS ,_, and_CC covered_VBD sixteen_JJ miles_NNS ._. i_NN think_VBP i_NN counted_VBD just_RB as_IN many_JJ blisters_NNS !_. in_IN anza_JJ -_: borrego_NN desert_NN it_PRP 's_VBZ okay_JJ to_TO camp_VB anywhere_RB ..._: we_PRP found_VBD a_DT beautiful_JJ spot_NN but_CC it_PRP was_VBD so_RB windy_JJ we_PRP could_MD n't_RB put_VB up_RP our_PRP$ tent_NN ._. instead_RB we_PRP spread_VBP out_RP our_PRP$ sleeping_VBG pads_NNS and_CC bags_NNS in_IN the_DT truck_NN bed_NN and_CC slept_NN there_RB !_. it_PRP was_VBD fun_RB even_RB if_IN we_PRP did_VBD n't_RB get_VB much_JJ sleep_NN ._. we_PRP listened_VBD to_TO the_DT wind_NN and_CC coyotes_VBZ all_DT night_NN ._. and_CC yes_RB !_. there_EX were_VBD stars_NNS ,_, millions_NNS ,_, i_JJ think_VBP we_PRP could_MD see_VB every_DT single_JJ one_NN ._. we_PRP decided_VBD to_TO go_VB exploring_VBG more_JJR of_IN this_DT thousand_CD square_NN mile_NN wilderness_NN ,_, we_PRP were_VBD looking_VBG for_IN a_DT place_NN where_WRB we_PRP read_VBP you_PRP could_MD see_VB native_JJ american_JJ rock_NN art_NN ,_, and_CC an_DT ancient_JJ village_NN ..._: we_PRP drove_VBD and_CC drove_VB and_CC and_CC then_RB hiked_VBD and_CC hiked_VBD ..._: there_EX it_PRP is_VBZ !_. incredible_JJ !_. i_NN love_VBP this_DT art_NN form_NN ,_, pictographs_NN ,_, and_CC especially_RB love_VB to_TO imagine_VB the_DT native_JJ tribe_NN that_WDT painted_VBD this_DT ._. driving_NN and_CC hiking_VBG a_DT little_RB more_RBR we_PRP found_VBD the_DT kumeyaay_NN morteros_NN ..._: here_RB it_PRP is_VBZ !_. we_PRP are_VBP at_IN a_DT native_JJ american_JJ village_NN site_NN ._. the_DT kumeyaay_NN (_( ku-may-eye_JJ )_) people_NNS used_VBN this_DT site_NN on_IN a_DT seasonal_JJ basis_NN ._. they_PRP gathered_VBD pinon_NN nuts_NNS ,_, mesquite_JJ beans_NNS and_CC desert_NN agave_VBP ._. nuts_NNS and_CC seeds_NNS were_VBD pounded_VBN into_IN meal_NN in_IN ``_`` morteros_NNS ''_'' ,_, the_DT large_JJ depressions_NNS in_IN the_DT granite_JJ boulders_NNS ._. the_DT informative_JJ sign_NN said_VBD to_TO sit_VB quietly_RB and_CC imagine_VB yourself_PRP working_VBG along_RB side_RB the_DT kumeyaay_NN women_NNS ,_, pounding_VBG large_JJ rock_NN pestles_NNS into_IN the_DT morteros_NN ,_, grinding_VBG seeds_NNS and_CC talking_VBG over_IN the_DT news_NN of_IN the_DT day_NN ._. we_PRP did_VBD just_RB that_IN ,_, grateful_NN for_IN the_DT experience_NN ._. (_( desert_JJ lily_RB )_) on_IN our_PRP$ third_JJ day_NN in_IN the_DT desert_NN i_NN was_VBD feeling_VBG not_RB quite_RB as_RB fresh_JJ as_IN this_DT flower_NN ._. but_CC roughing_VBG it_PRP is_VBZ part_NN of_IN the_DT fun_NN ._. i_VB do_VBP love_VB to_TO camp_VB ._. while_IN out_RP on_IN a_DT drive_NN we_PRP passed_VBD through_IN the_DT small_JJ town_NN of_IN borrego_NN springs_NNS ,_, chuck_NN told_VBD me_PRP we_PRP needed_VBD gas_NN ._. instead_RB he_PRP drove_VBD up_RB to_TO one_CD of_IN the_DT resorts_NNS and_CC he_PRP told_VBD me_PRP we_PRP were_VBD getting_VBG a_DT room_NN for_IN the_DT night_NN !_. he_PRP wanted_VBD to_TO surprise_VB me_PRP !_. for_IN being_VBG a_DT good_JJ sport_NN he_PRP said_VBD ._. then_RB we_PRP went_VBD out_RP to_TO a_DT lovely_JJ dinner_NN ._. sometimes_RB camping_VBG is_VBZ overrated_VBN ._. :_: )_) (_( sandverbena_NN )_) we_PRP may_MD not_RB have_VB gotten_VBN to_TO see_VB an_DT epic_NN flower_NN show_NN ,_, this_DT may_MD not_RB be_VB the_DT year_NN for_IN anza-borrego_NN after_IN all_DT ._. but_CC we_PRP did_VBD have_VB a_DT wonderful_JJ time_NN ,_, we_PRP gazed_VBD at_IN stars_NNS ,_, splashed_VBN in_IN a_DT desert_NN waterfall_NN ,_, talked_VBD long_JJ talks_NNS while_IN taking_VBG long_JJ walks_NNS ._. we_PRP saw_VBD a_DT coyote_NN (_( and_CC heard_VB them_PRP every_DT night_NN )_) a_DT roadrunner_NN ,_, quail_NN ,_, cactus_NN wrens_NNS and_CC hummingbirds_NNS ._. we_PRP saw_VBD jackrabbits_NNS ,_, honeybee_NN 's_POS and_CC blister_NN beetles_NNS ._. and_CC on_IN our_PRP$ way_NN out_IN of_IN the_DT park_NN ,_, in_IN the_DT high_JJ desert_NN i_NN saw_VBD a_DT nest_NN with_IN a_DT large_JJ bird_NN ._. i_NN told_VBD chuck_NN ,_, i_JJ 'd_MD never_RB seen_VBN a_DT nest_JJS like_IN this_DT before_NN ._. in_IN a_DT tree_NN by_IN the_DT side_NN of_IN the_DT road_NN ._. so_IN he_PRP turned_VBD around_RP to_TO get_VB a_DT better_JJR look.it_NN was_VBD an_DT eagle_NN !_. we_PRP did_VBD n't_RB want_VB to_TO stress_VB the_DT mama_NN so_IN we_PRP watched_VBD for_IN just_RB a_DT moment_NN and_CC then_RB left_VBD ._. i_VB loved_VBD this_DT trip_NN ._. (_( buggy_JJ windscreen_NN driveby_NN photo_NN of_IN home_NN )_) and_CC apparently_RB so_RB did_VBD owen_NN ._. back_RB at_IN home_NN where_WRB he_PRP and_CC hannah_VB spent_VBN the_DT last_JJ few_JJ days_NNS together_RB ,_, he_PRP went_VBD to_TO a_DT surf_NN contest_NN ,_, met_VBD lots_NNS of_IN new_JJ friends_NNS (_( dogs_NNS and_CC people_NNS )_) ,_, dug_JJ lots_NNS of_IN holes_NNS ,_, went_VBD to_TO a_DT barbeque_NN and_CC went_VBD for_IN a_DT beach_NN run_NN ._. i_NN do_VBP n't_RB think_VB he_PRP missed_VBD us_PRP very_RB much_JJ ._. but_CC we_PRP sure_VBP missed_VBD him_PRP ._. tired_VBN sore_RB happy_JJ lori_NN ♥_NNP figueroa_NN mountain_NN 2008_CD ~_IN it_PRP 's_VBZ the_DT season_NN for_IN wildflowers_NNS here_RB in_IN california_NN ._. this_DT year_NN is_VBZ predicted_VBN to_TO be_VB epic_VBN ,_, with_IN all_PDT the_DT elements_NNS necessary_JJ for_IN a_DT good_JJ year_NN of_IN blooms_NNS coming_VBG together_RB just_RB right_RB ._. we_PRP 've_VBP been_VBN checking_VBG all_PDT the_DT hotlines_NNS and_CC websites_NNS for_IN updates_NNS to_TO various_JJ places_NNS and_CC we_PRP decided_VBD to_TO head_VB south_RB to_TO a_DT desert_NN on_IN the_DT Mexican_JJ border_NN ._. here_RB is_VBZ some_DT of_IN what_WP we_PRP 'll_MD (_( hopefully_RB !_. )_) see_VBP ..._: ``_`` The_DT park_NN features_VBZ washes_NNS ,_, wildflowers_NNS ,_, palm_NN groves_NNS ,_, cacti_NN and_CC sweeping_JJ vistas_NNS ._. Visitors_NNS may_MD also_RB have_VB the_DT chance_NN to_TO see_VB roadrunner_NN ,_, golden_JJ eagles_NNS ,_, kit_NN foxes_NNS ,_, mule_NN deer_NN and_CC bighorn_JJ sheep_NN as_RB well_RB as_IN iguanas_NNS ,_, chuckwallas_NNS and_CC the_DT red_JJ diamond_NN rattlesnake_NN ''_'' ..._: hopefully_RB we_PRP 'll_MD get_VB some_DT beautiful_JJ images_NNS ,_, i_VBP really_RB wish_JJ i_NN could_MD capture_VB the_DT fragrance_NN to_TO share_NN with_IN you_PRP too_RB ._. have_VB a_DT wonderful_JJ weekend_NN everyone_NN ,_, see_VBP you_PRP next_JJ week_NN (_( i_JJ 'll_MD be_VB in_IN a_DT tent_NN with_IN no_DT internet_NN !_. but_CC it_PRP does_VBZ have_VB a_DT screen_NN so_IN we_PRP can_MD look_VB at_IN the_DT stars_NNS instead_RB ..._: :_: )_) ♥_VBP lori_FW (_( anacapa_JJ island_NN ,_, part_NN of_IN the_DT channel_NN islands_VBZ ,_, and_CC a_DT place_NN that_WDT seems_VBZ like_IN heaven_NN on_IN earth_NN to_TO me_PRP )_) Only_RB when_WRB you_PRP drink_VBP from_IN the_DT river_NN of_IN silence_NN shall_MD you_PRP indeed_RB sing_VBG ._. And_CC when_WRB you_PRP have_VBP reached_VBN the_DT mountain_NN top_NN ,_, then_RB you_PRP shall_MD begin_VB to_TO climb_VB ._. And_CC when_WRB the_DT earth_NN shall_MD claim_VB your_PRP$ limbs_NNS ,_, then_RB shall_MD you_PRP truly_RB dance_VB ._. The_DT Prophet_NNP Kahlil_NNP Gibran_NNP To_TO everyone_NN that_WDT knew_VBD and_CC loved_VBD Renee_NNP ,_, and_CC to_TO those_DT that_WDT did_VBD n't_RB ,_, (_( i_JJ want_VBP to_TO include_VB everyone_NN !_. )_) ,_, I_PRP 'm_VBP sending_VBG out_RP the_DT biggest_JJS hug_NN I_PRP can_MD and_CC all_PDT the_DT love_NN I_PRP have_VBP too_RB ._. For_IN that_DT is_VBZ the_DT most_RBS important_JJ thing_NN she_PRP showed_VBD me_PRP ,_, the_DT time_NN for_IN loving_VBG and_CC telling_VBG those_DT we_PRP do_VBP ,_, is_VBZ now_RB ._. I_PRP love_VBP you_PRP ._. Dear_VB Renee_NNP ,_, you_PRP are_VBP free_JJ ._. You_PRP are_VBP loved_VBN !_. ♥_JJ lori_JJ owen_NN finally_RB finished_VBD his_PRP$ puppy_JJ shots_NNS and_CC we_PRP could_MD start_VB introducing_VBG him_PRP to_TO the_DT wonders_NNS of_IN the_DT world_NN ._. chuck_NN and_CC i_VB both_DT knew_FW the_DT first_JJ place_NN we_PRP 'd_MD take_VB him_PRP would_MD be_VB the_DT ocean_NN ._. i_JJ think_VBP i_NN was_VBD more_RBR excited_JJ than_IN him_PRP ,_, he_PRP was_VBD cautious_JJ ._. looking_VBG at_IN it_PRP through_IN little_JJ puppy_JJ eyes_NNS i_VBP saw_VBD big_JJ birds_NNS ,_, big_JJ waves_NNS (_( well_RB ,_, when_WRB your_PRP$ only_RB inches_VBZ tall_JJ :_: )_) everythings_NNS potentially_RB frightening_VBG ._. he_PRP ran_VBD and_CC hid_NN between_IN my_PRP$ legs_NNS more_RBR than_IN once_RB ._. but_CC i_JJ think_VBP he_PRP had_VBD fun_NN ._. oh_UH owen_NN ._. i_NN recently_RB bought_VBD some_DT wool_NN made_VBN from_IN local_JJ alpacas_NN ,_, you_PRP can_MD read_VB about_IN it_PRP here_RB if_IN you_PRP like_VBP ._. i_VB knit_VBP it_PRP into_IN these_DT two_CD hats_NNS ._. the_DT pattern_NN can_MD be_VB found_VBN at_IN the_DT purl_NN bee_NN here_RB ._. this_DT wool_NN was_VBD incredibly_RB lovely_RB to_TO work_VB with_IN ,_, it_PRP 's_VBZ beyond_IN soft_JJ ._. there_EX was_VBD a_DT tiny_JJ bit_NN left_VBD so_RB i_JJ made_VBD this_DT teddy_JJ bear_NN for_IN the_DT mother_NN bear_NN project_NN ._. if_IN you_PRP 'd_MD like_VB to_TO know_VB more_JJR about_IN this_DT non-profit_JJ group_NN go_VBP here_RB ,_, these_DT are_VBP simple_JJ to_TO make_VB ,_, using_VBG only_RB the_DT knit_NN stitch_NN ._. he_PRP 's_VBZ so_RB soft_JJ and_CC warm_JJ !_. here_RB is_VBZ the_DT beginning_NN of_IN my_PRP$ international_JJ garden_NN !_. two_CD lovely_JJ blogging_VBG friends_NNS ,_, janet_NN from_IN south_JJ africa_NN and_CC natalie_NN from_IN australia_NN ,_, sent_VBD me_PRP seeds_NNS ._. they_PRP germinated_VBD and_CC this_DT week_NN i_NN see_VBP little_JJ sprouts_NNS coming_VBG up_RP through_IN the_DT potting_NN soil_NN !_. see_VB these_DT australian_JJ daisies_NNS ?_. so_RB exciting_JJ ._. i_NN have_VBP an_DT image_NN of_IN an_DT international_JJ garden_NN ,_, seeds_NNS representing_VBG friends_NNS from_IN around_IN the_DT world_NN !_. maybe_RB we_PRP can_MD figure_VB out_RP some_DT kind_NN of_IN seed_NN exchange_NN ?_. we_PRP could_MD all_DT have_VBP global_JJ gardens_NNS !_. i_NN do_VBP n't_RB have_VB a_DT photo_NN of_IN the_DT most_RBS important_JJ thing_NN that_WDT happened_VBD this_DT week_NN ,_, the_DT last_JJ of_IN my_PRP$ children_NNS got_VBD her_PRP$ drivers_NNS licence_NN ._. there_EX were_VBD a_DT few_JJ reasons_NNS why_WRB she_PRP did_VBD n't_RB get_VB it_PRP until_IN age_NN 19._CD one_CD of_IN them_PRP is_VBZ she_PRP likes_VBZ riding_VBG her_PRP$ bike_NN ._. even_RB though_IN a_DT car_NN is_VBZ handy_JJ for_IN some_DT things_NNS ,_, all_DT of_IN us_PRP (_( the_DT kids_NNS ,_, chuck_NN and_CC i_NN )_) walk_NN ,_, ride_VB bikes_NNS and_CC take_VB public_JJ transportation_NN as_RB well_RB as_IN drive_NN ._. she_PRP also_RB received_VBD an_DT acceptance_NN letter_NN from_IN the_DT college_NN she_PRP applied_VBD to_TO ._. here_RB we_PRP go_VBP again_RB ._. :_: )_) it_PRP was_VBD a_DT good_JJ week_NN ♥_NN i_VBP hope_VBP you_PRP have_VBP a_DT wonderful_JJ week_NN ahead_RB (_( we_PRP 've_VBP got_VBD a_DT small_JJ trip_NN planned_VBN !_. )_) ,_, and_CC i_JJ 'm_VBP really_RB sorry_JJ for_IN being_VBG a_DT bad_JJ blogging_NN friend_NN ,_, i_VB 'll_MD be_VB by_IN to_TO visit_VB you_PRP all_DT soon_RB !_. ♥_JJ lori_JJ thank_NN you_PRP for_IN all_PDT the_DT birthday_NN wishes_VBZ for_IN my_PRP$ son_NN ,_, they_PRP were_VBD much_RB appreciated_VBN !_. i_NN had_VBD to_TO take_VB photos_NNS of_IN the_DT treasures_NNS i_VBP found_VBN last_JJ weekend_NN and_CC of_IN course_NN share_NN them_PRP here_RB ._. see_VB the_DT three_CD little_JJ gnomes_NNS ?_. they_PRP are_VBP like_JJ little_JJ rattles_NNS ,_, someone_NN long_RB ago_RB filled_VBN them_PRP with_IN rocks_NNS or_CC seeds_NNS to_TO weigh_VB them_PRP down_RP ._. i_JJ think_VBP they_PRP 'll_MD add_VB so_RB much_JJ charm_NN to_TO my_PRP$ garden_NN !_. this_DT is_VBZ a_DT one_NN of_IN a_DT kind_NN plate_NN by_IN susan_JJ branch_NN !_. it_PRP is_VBZ a_DT series_NN of_IN three_CD ._. i_VB love_VBP the_DT soft_JJ colors_NNS and_CC the_DT little_JJ mouse_NN ._. can_MD you_PRP see_VB what_WP she_PRP 's_VBZ written_VBN ?_. it_PRP says_VBZ :_: now_RB i_VBZ see_VBP why_WRB people_NNS like_IN to_TO paint_VB these_DT adorable_JJ creatures_NNS ..._: i_NN had_VBD to_TO stop_VB myself_PRP from_IN putting_VBG little_JJ clothes_NNS on_IN them_PRP ♥_FW and_CC these_DT books_NNS by_IN sharon_NN lovejoy_NN ._. i_NN ca_MD n't_RB say_VB enough_JJ about_IN them_PRP ,_, if_IN you_PRP love_VBP nature_RB ,_, gardening_NN and_CC children_NNS ,_, you_PRP will_MD love_VB these_DT !_. there_EX is_VBZ so_RB much_JJ to_TO choose_VB from_IN ,_, projects_NNS and_CC ideas_NNS ,_, i_NNS do_VBP n't_RB know_VB where_WRB to_TO begin_VB ._. thank_VB you_PRP sharon_VBP for_IN the_DT inspiration_NN ,_, you_PRP truly_RB do_VBP spread_VB love_VB and_CC joy_NN !_. my_PRP$ finds_NNS :_: the_DT books_NNS ,_, the_DT plate_NN ,_, a_DT stack_NN of_IN old_JJ martha_JJ stewart_NN gardening_NN magazines_NNS ,_, the_DT gnomes_NNS ,_, an_DT old_JJ tablecloth_NN and_CC an_DT old_JJ victorian_JJ finial_NN with_IN old_JJ peeling_NN paint_NN ,_, and_CC the_DT color_NN ,_, pink_NN !_. and_CC more_JJR pink_NN ..._: my_PRP$ shawlette_NN ,_, all_DT blocked_VBN and_CC done_VBN ._. i_VB 'm_VBP not_RB sure_JJ this_DT is_VBZ the_DT best_JJS way_NN to_TO photograph_VB it_PRP ._. stretching_VBG it_PRP out_RP on_IN nails_NNS is_VBZ probably_RB not_RB a_DT good_JJ idea_NN ,_, but_CC lacking_VBG a_DT model_NN ,_, it_PRP 'll_MD have_VB to_TO do_VB ._. i_VB like_IN to_TO wear_VB it_PRP as_IN a_DT scarf_NN ,_, wrapped_VBD around_IN my_PRP$ neck_NN ,_, the_DT wool_NN is_VBZ so_RB soft_JJ and_CC smells_NNS so_RB good_JJ ,_, it_PRP 's_VBZ my_PRP$ favorite_JJ ._. thank_NN you_PRP sally_RB anne_VBP ,_, again_RB ,_, i_RB loved_VBD this_DT yarn_NN ._. i_VB even_RB have_VBP enough_JJ i_NN think_VBP to_TO make_VB a_DT tiny_JJ pair_NN of_IN baby_NN booties_NNS !_. here_RB is_VBZ another_DT scarf_NN i_NN made_VBD this_DT week_NN ._. it_PRP 's_VBZ a_DT scrumptiously_RB soft_JJ one_CD piece_NN scarf_NN that_IN you_PRP can_MD wear_VB long_RB like_IN this_DT or_CC ..._: like_IN this_DT ,_, wrapped_VBD twice_RB around_IN your_PRP$ neck_NN for_IN a_DT cowl_NN ._. the_DT colors_NNS do_VBP n't_RB really_RB show_VB ,_, it_PRP 's_VBZ more_JJR of_IN a_DT pinky_NN mauve_NN ._. i_NN used_VBD plymouth_NN yarns_NNS baby_VBP alpaca_JJ grande_NN yarn_NN ._. it_PRP took_VBD two_CD skeins_NNS on_IN a_DT size_NN ten_NN needle_NN ._. the_DT pattern_NN was_VBD based_VBN on_IN a_DT mobius_NN cowl_NN scarf_NN but_CC i_NN could_MD n't_RB get_VB the_DT hang_NN of_IN the_DT cast_NN on_IN for_IN that_DT so_VBZ it_PRP 's_VBZ simply_RB a_DT continuous_JJ scarf_NN instead_RB ._. i_JJ cast_VBD on_IN 150_CD stitch_NN 's_POS ,_, placed_VBD a_DT marker_NN ,_, then_RB purled_VBD for_IN 4_CD rounds_NNS knit_VBN for_IN 4_CD ,_, continuing_VBG like_IN that_DT until_IN it_PRP was_VBD about_RB 8_CD inches_NNS wide_JJ ._. that_WDT 's_VBZ it_PRP !_. so_RB cozy_JJ and_CC warm_JJ ._. photos_NNS are_VBP taken_VBN with_IN the_DT softest_JJS early_JJ morning_NN light_NN ,_, but_CC it_PRP was_VBD brief_JJ since_IN another_DT storm_NN is_VBZ on_IN the_DT way_NN ,_, let_VB 's_POS go_VB outside_JJ next_JJ ,_, owen_EX is_VBZ waiting_VBG !_. bulbs_NNS are_VBP coming_VBG up_RP !_. these_DT were_VBD here_RB when_WRB we_PRP moved_VBD in_IN ,_, what_WP a_DT fantastic_JJ discovery_NN every_DT year_NN ,_, these_DT gorgeous_JJ yellow_NN blooms_NNS !_. owen_NN likes_VBZ them_PRP too_RB ._. here_RB he_PRP looks_VBZ all_DT mild_JJ mannered_VBN ,_, smelling_VBG the_DT blossoms_NNS ._. right_RB after_IN this_DT photo_NN he_PRP shook_VBD them_PRP all_DT apart_RB ._. oh_JJ owen_NN ._. fallen_VBN camellias_NNS make_VBP a_DT pretty_NN still_RB life_NN arranged_VBN on_IN a_DT mossy_JJ stepping_NN stone_NN ..._: with_IN a_DT little_JJ help_NN from_IN me_PRP !_. and_CC our_PRP$ oranges_NNS are_VBP almost_RB ready_JJ ._. i_JJ wish_VBP you_PRP could_MD smell_VB this_DT tree_NN ._. the_DT last_JJ thing_NN i_NN want_VBP to_TO remember_VB of_IN this_DT week_NN ,_, is_VBZ the_DT thing_NN i_NN 'd_MD also_RB like_VB to_TO forget_VB !_. i_VB went_VBD to_TO see_VB my_PRP$ dentist_NN last_JJ monday_NN ._. it_PRP involved_VBD all_PDT the_DT shots_NNS ,_, drills_NNS and_CC other_JJ torture_NN devices_NNS they_PRP treat_VBP you_PRP with_IN ._. i_NN am_VBP still_RB numb_JJ from_IN one_CD of_IN the_DT shots_NNS ,_, apparently_RB there_EX was_VBD a_DT little_JJ muscle_NN or_CC nerve_NN damage_NN ,_, i_JJ hope_VBP it_PRP goes_VBZ away_RB soon_RB !_. my_PRP$ dentist_NN mentioned_VBD that_IN it_PRP might_MD help_VB me_PRP to_TO relax_VB if_IN i_NN closed_VBD my_PRP$ eyes_NNS and_CC imagined_VBD a_DT place_NN i_NN love_VBP ._. somewhere_RB i_JJ 'd_MD like_VB to_TO be_VB ._. i_VB did_VBD and_CC here_RB is_VBZ what_WP came_VBD into_IN my_PRP$ thoughts_NNS ..._: the_DT seventeen_JJ giraffe_NN i_NN saw_VBD gracefully_RB striding_VBG across_IN a_DT grassy_NN plain_NN in_IN zimbabwe_NN ._. i_JJ love_VBP giraffes_NN and_CC i_JJ love_NN africa_NN ._. this_DT image_NN played_VBD through_IN my_PRP$ head_NN making_VBG the_DT time_NN i_JJ spent_NN in_IN that_DT chair_NN not_RB so_RB bad_JJ after_IN all_DT ._. where_WRB would_MD your_PRP$ favorite_JJ place_NN be_VB ?_. have_VB a_DT lovely_JJ weekend_NN everyone_NN !_. ♥_JJ lori_JJ twenty_IN four_CD years_NNS ago_RB a_DT child_NN was_VBD born_VBN ,_, baby_NN number_NN three_CD he_PRP 'd_MD be_VB for_IN me_PRP ._. best_JJS brother_NN ,_, uncle_NN ,_, friend_NN and_CC son_NN ,_, he_PRP makes_VBZ my_PRP$ life_NN ,_, this_DT one_CD ._. happy_JJ happy_JJ birthday_NN erik_VB love_NN forever_RB ,_, mom_NN ♥_NNP p.s_NN ._. so_RB hard_JJ to_TO choose_VB photos_NNS to_TO make_VB this_DT collage_NN ,_, i_VB love_VBP all_PDT the_DT millions_NNS of_IN photos_NN i_NNS have_VBP of_IN my_PRP$ keikis_NN ._. umm_JJ ._. make_VB that_DT zillions_NNS ._. this_DT post_NN is_VBZ dedicated_VBN to_TO our_PRP$ friend_NN renee_NN ,_, who_WP loved_VBD to_TO travel_VB (_( vicariously_RB )_) with_IN me_PRP on_IN my_PRP$ adventures_NNS ._. i_NN loved_VBD her_PRP$ company_NN and_CC she_PRP 'll_MD be_VB dearly_RB missed_VBN ._. she_PRP 'll_MD be_VB leaving_VBG this_DT world_NN soon_RB as_IN this_DT life_NN as_IN she_PRP knows_VBZ it_PRP is_VBZ coming_VBG to_TO an_DT end_NN ._. bless_IN her_PRP$ beautiful_JJ heart_NN ._. safe_JJ journey_NN my_PRP$ angel_NN kindred_VBD friend_NN ._. i_NN invited_VBD my_PRP$ eldest_JJS daughter_NN to_TO come_VB with_IN me_PRP on_IN saturday_NN ,_, up_RB to_TO the_DT small_JJ town_NN of_IN arroyo_JJ grande_NN ._. there_EX was_VBD someone_NN i_NN was_VBD hoping_VBG to_TO meet_VB at_IN a_DT special_JJ antique_NN sale_NN &amp;_CC amp_NN ;_: book_NN signing_NN ._. here_RB we_PRP are_VBP ,_, at_IN branchs_JJ farm_NN ,_, i_VBP am_VBP sure_JJ the_DT weather_NN could_MD n't_RB have_VB been_VBN more_RBR beautiful_JJ ,_, the_DT sun_NN was_VBD shining_VBG ,_, the_DT birds_NNS were_VBD singing_VBG ,_, people_NNS were_VBD smiling_VBG ..._: we_PRP looked_VBD around_RB ,_, me_PRP enjoying_VBG more_RBR the_DT scenery_NN than_IN anything_NN else_RB ._. after_IN our_PRP$ recent_JJ rains_VBZ the_DT hills_NNS and_CC fields_NNS were_VBD green_JJ and_CC lush_JJ ,_, spring_JJ feels_NNS like_IN it_PRP 's_VBZ arrived_VBN ..._: this_DT pile_NN of_IN books_NNS represents_VBZ heaven_NN to_TO me_PRP ._. this_DT is_VBZ why_WRB i_NN came_VBD almost_RB two_CD hours_NNS (_( although_IN i_NN would_MD have_VB come_VBN four_CD ,_, to_TO meet_VB this_DT kindred_VBN spirit_NN ,_, author_NN and_CC illustrator_NN ..._: Sharon_NNP Lovejoy_NNP !_. what_WP a_DT thrill_NN for_IN me_PRP to_TO meet_VB her_PRP$ and_CC her_PRP$ husband_NN ,_, that_WDT 's_VBZ Jeff_NNP standing_VBG behind_IN her_PRP ._. I_PRP 've_VBP been_VBN collecting_VBG and_CC reading_VBG Sharon_NNP 's_POS books_NNS for_IN 19_CD years_NNS now_RB ._. that_DT 's_VBZ when_WRB her_PRP$ first_JJ book_NN ,_, Sunflower_NNP Houses_VBZ :_: Inspiration_NN from_IN the_DT Garden_NNP first_RB came_VBD out_RP ._. She_PRP 's_VBZ recently_RB released_VBN her_PRP$ seventh_JJ book_NN ,_, Toad_NNP Cottages_NNP &amp;_CC amp_NN ;_: Shooting_NNP Stars_NNP ._. another_DT gem_NN i_NN treasure_NN ._. there_EX is_VBZ no_DT one_NN that_WDT 's_VBZ inspired_VBN me_PRP more_RBR in_IN gardening_NN and_CC watercolors_NNS ,_, except_IN my_PRP$ own_JJ granma_NN rose_VBD ._. and_CC i_JJ am_VBP so_RB happy_JJ to_TO say_VB that_IN she_PRP was_VBD even_RB more_RBR charming_JJ in_IN person_NN and_CC i_NN did_VBD n't_RB think_VB that_DT was_VBD possible_JJ if_IN you_PRP know_VBP her_PRP$ books_NNS ._. this_DT was_VBD one_CD of_IN those_DT days_NNS that_WDT i_VBP 'll_MD never_RB ever_RB forget_VB ._. thank_VB you_PRP sharon_VBP ,_, i_NN ca_MD n't_RB wait_VB to_TO meet_VB again_RB someday_RB !_. until_IN then_RB i_NNS know_VBP we_PRP 'll_MD stay_VB in_IN touch_JJ via_IN blogging_NN ,_, if_IN you_PRP 'd_MD like_VB to_TO visit_VB her_PRP$ go_NN here_RB ._. (_( see_VB my_PRP$ new_JJ scarf_NN ?_. ,_, finished_VBD ,_, well_UH ,_, it_PRP still_RB needs_VBZ blocking_VBG !_. )_) susan_VBD branch_NN was_VBD there_RB too_RB ,_, and_CC many_JJ of_IN her_PRP$ books_NNS and_CC patterns_NNS ,_, stencils_NNS and_CC calendars_NNS ._. i_NN met_VBD her_PRP$ also_RB and_CC although_IN she_PRP was_VBD lovely_RB as_RB well_RB ,_, it_PRP was_VBD brief_JJ ,_, there_EX was_VBD a_DT long_JJ line_NN !_. we_PRP 'll_MD leave_VB the_DT farm_NN now_RB and_CC go_VB explore_RB the_DT town_NN of_IN arroyo_NN grande_NN ..._: we_PRP stopped_VBD for_IN fields_NNS of_IN blooms_NNS ..._: and_CC antique_JJ stores_NNS ..._: we_PRP walked_VBD (_( tentatively_RB )_) over_IN a_DT swinging_NN bridge_NN ,_, with_IN a_DT running_VBG creek_NN below_IN ..._: we_PRP went_VBD to_TO farmer_VB 's_POS market_NN ._. at_IN one_CD booth_DT my_PRP$ daughter_NN kimberly_RB and_CC i_VB stopped_VBD to_TO admire_VB tiny_JJ watercolor_NN paintings_NNS ,_, all_DT of_IN different_JJ scenes_NNS of_IN the_DT central_JJ coast_NN ._. a_DT couple_NN was_VBD there_RB also_RB asking_VBG the_DT artist_NN about_IN the_DT various_JJ locations_NNS ._. he_PRP said_VBD your_PRP$ not_RB from_IN around_IN here_RB are_VBP you_PRP ?_. they_PRP answered_VBD no_DT ,_, we_PRP 're_VBP from_IN winnepeg_NN ._. winnepeg_NN is_VBZ renee_NN 's_POS home_NN ._. my_PRP$ daughter_NN and_CC i_NN had_VBD just_RB had_VBN lunch_NN and_CC i_NN told_VBD her_PRP about_IN the_DT latest_JJS news_NN with_IN renee_NN and_CC her_PRP$ own_JJ daughter_NN angelique_NN ._. we_PRP both_DT had_VBD tears_NNS as_IN i_NN shared_VBD what_WP i_JJ knew_VBD ._. when_WRB not_RB an_DT hour_NN later_RB we_PRP heard_VBD this_DT couple_NN say_VBP winnepeg_NN ,_, kimberly_RB and_CC i_VB both_DT stopped_FW ._. and_CC hugged_VBD ._. and_CC i_JJ am_VBP sure_JJ i_NN saw_VBD all_PDT the_DT trees_NNS and_CC flowers_NNS sway_VBP suddenly_RB in_IN the_DT wind_NN as_IN if_IN they_PRP knew_VBD and_CC she_PRP knew_VBD she_PRP were_VBD here_RB with_IN us_PRP ._. and_CC i_VB had_VBD tears_NNS again_RB ._. after_IN we_PRP crossed_VBD the_DT bridge_NN we_PRP found_VBD yet_RB another_DT antique_NN store_NN ,_, i_NN could_MD keep_VB this_DT up_RP all_DT day_NN ,_, but_CC i_RB wanted_VBD kimberly_RB to_TO enjoy_VB it_PRP too_RB ,_, she_PRP said_VBD she_PRP was_VBD ,_, so_RB on_IN we_PRP went_VBD ..._: ``_`` be_VB careful_JJ with_IN the_DT words_NNS you_PRP use_VBP ,_, they_PRP create_VBP the_DT world_NN around_IN you_PRP ''_'' a_DT native_JJ american_JJ saying_VBG i_JJ love_NN ._. is_VBZ n't_RB this_DT a_DT sweet_JJ and_CC simple_JJ sign_NN ?_. ..._: ._. more_RBR beauty_NN everywhere_RB ,_, in_IN thoughtful_JJ displays_NNS ..._: and_CC soft_JJ fabrics_NNS nestled_VBN in_IN baskets_NNS ..._: new_JJ blossoms_NNS appearing_VBG on_IN a_DT painted_JJ sky_NN ..._: and_CC funny_JJ chickens_NNS and_CC roosters_NNS that_WDT mind_VBP your_PRP$ business_NN on_IN the_DT streets_NNS of_IN this_DT town_NN ..._: thank_NN you_PRP for_IN coming_VBG with_IN kimberly_JJ and_CC i_JJ ,_, now_RB it_PRP 's_VBZ time_NN we_PRP started_VBD making_VBG our_PRP$ way_NN home_NN ,_, safe_JJ journeys_NN to_TO all_DT of_IN us_PRP ..._: ♥_VBZ happy_JJ sad_JJ lori_NN (_( i_NN ca_MD n't_RB seem_VB to_TO leave_VB off_RP the_DT back_NN to_TO the_DT beloved_VBN ocean_NN going_VBG home_NN photo_NN ,_, however_RB blurred_VBN and_CC an_DT antenna_NN filled_VBD it_PRP is_VBZ ._. )_) last_JJ night_NN was_VBD girl_NN 's_POS night_NN out_IN !_. friends_NNS of_IN mine_NN that_IN own_VBZ a_DT gorgeous_JJ shop_NN ,_, had_VBD an_DT after_IN hours_NNS ,_, ladies_VBZ only_RB night_NN ._. the_DT invitation_NN said_VBD :_: it_PRP is_VBZ a_DT gathering_NN of_IN amazing_JJ women_NNS ,_, friends_NNS &amp;_CC amp_NN ;_: clients_NNS ,_, and_CC a_DT hand-picked_JJ group_NN of_IN talented_JJ service_NN professionals_NNS who_WP will_MD be_VB offering_VBG up_RP a_DT taste_NN of_IN their_PRP$ services_NNS to_TO each_DT of_IN our_PRP$ guests_NNS (_( you_PRP !_. )_) ._. Each_DT guest_NN will_MD have_VB the_DT opportunity_NN to_TO spend_VB 15_CD minutes_NNS at_IN 2_CD or_CC more_JJR service_NN “_NN stations_NNS ”_NNP ,_, which_WDT include_VBP a_DT fabulous_JJ facialist_NN ,_, two_CD masseuses_NNS (_( one_CD Thai_NNP and_CC one_CD Swedish_NNP )_) ,_, a_DT tarot_NN card_NN reader_NN ,_, an_DT astrologer_NN and_CC more_JJR ._. Iris_NNP de_IN Santo_NNP ,_, one_CD of_IN our_PRP$ favorite_JJ jewelers_NNS ,_, will_MD be_VB showing_VBG her_PRP$ gorgeous_JJ and_CC well-priced_JJ jewelry_NN as_IN well_RB ._. So_RB ,_, please_VB join_VB us_PRP for_IN a_DT special_JJ evening_NN -_: kind_NN of_IN a_DT mini-spa_JJ night_NN with_IN a_DT splash_NN of_IN mystery_NN &amp;_CC amp_NN ;_: fun_NN ,_, lots_NNS of_IN laughs_NNS &amp;_CC amp_NN ;_: good_JJ food_NN too_RB !_. i_NN chose_VBD the_DT thai_JJ massage_NN and_CC the_DT tarot_NN card_NN reading_NN ._. what_WP was_VBD n't_RB mentioned_VBN was_VBD all_DT the_DT flowing_VBG prosecco_NN champagne_NN ,_, hence_NN ,_, all_PDT the_DT slightly_RB (_( slight_JJ understatement_NN too_RB )_) blurred_VBD photos_NN !_. heehee_NN ,_, if_IN i_VBN had_VBD remembered_VBN to_TO take_VB photos_NNS at_IN the_DT start_NN you_PRP would_MD have_VB seen_VBN all_DT kinds_NNS of_IN happy_JJ laughing_NN faces_VBZ ,_, massage_NN tables_NNS and_CC service_NN stations_NNS ,_, lovely_RB fruit_NN and_CC cheese_JJ plates_NNS ,_, cupcakes_NNS !_. but_CC i_NN was_VBD having_VBG too_RB much_JJ fun_NN to_TO think_VB of_IN my_PRP$ camera_NN ._. thank_NN you_PRP christie_VBP and_CC diana_VBP !_. what_WP fun_NN !_. i_NN hope_VBP a_DT girl_NN 's_POS night_NN ,_, in_IN what_WP ever_RB form_NN ,_, comes_VBZ soon_RB for_IN you_PRP too_RB ,_, ♥_JJ lori_NN</t>
-  </si>
-  <si>
-    <t>Although_IN Kazakh_NNP ,_, he_PRP addresses_VBZ us_PRP in_IN Russian_NNP ,_, confirming_VBG our_PRP$ worst_JJS fears_NNS ._. Despite_IN attempts_NNS to_TO infiltrate_VB this_DT country_NN 's_POS Soviet-era_NNP bureaucratic_JJ system_NN ,_, we_PRP never_RB registered_VBD our_PRP$ passports_NNS ._. Ironically_RB ,_, it_PRP 's_VBZ only_RB now_RB we_PRP 're_VBP leaving_VBG that_IN this_DT archaic_JJ system_NN acquires_VBZ a_DT statuesque_JJ importance_NN ,_, and_CC it_PRP 's_VBZ a_DT ``_`` big_JJ problem_NN ''_'' ._. Our_PRP$ entreaties_NNS in_IN feeble_JJ Russian_JJ for_IN leniency_NN fall_NN on_IN deaf_NN ears_NNS ._. ``_`` I_PRP speak_VBP to_TO immigration_VB police_NN ,_, ''_'' comes_VBZ the_DT unyielding_JJ reply_NN ._. ``_`` Surely_RB there_EX 's_VBZ a_DT way_NN we_PRP can_MD resolve_VB this_DT now_RB ?_. ''_'' Central_JJ Asian_JJ border_NN posts_NNS are_VBP notoriously_RB corrupt_JJ ;_: here_RB 's_VBZ an_DT occasion_NN when_WRB this_DT could_MD actually_RB favour_VB us_PRP ._. ``_`` Is_VBZ there_EX a_DT fine_NN we_PRP can_MD pay_VB ?_. ''_'' The_DT angular_JJ features_NNS vacate_VBP their_PRP$ utilitarian_JJ casing_NN ._. ``_`` Wait_NNP here_RB !_. ''_'' We_PRP 're_VBP left_VBN in_IN the_DT narrow_JJ passageway_NN where_WRB foot_NN traffic_NN lurches_NNS between_IN Kazakhstan_NNP and_CC Kyrgyzstan_NNP ,_, entrusted_VBD to_TO a_DT young_JJ ,_, scrawny_JJ soldier_NN who_WP 's_VBZ eager_JJR to_TO practise_VB his_PRP$ English_NNP ._. The_DT three_CD of_IN us_PRP stand_VBP and_CC wait_VBP ,_, jostled_VBD amid_IN the_DT constant_JJ flow_NN of_IN leathery_JJ old_JJ women_NNS carting_VBG frail-looking_JJ wooden_JJ wheelbarrows_NNS of_IN watermelons_NNS and_CC jute_NN ._. In_IN the_DT chaotic_JJ sea_NN of_IN cross-border_NN traffic_NN ,_, we_PRP 've_VBP become_VBN the_DT flotsam_NN of_IN no-man_NN 's_POS land_NN ._. As_IN the_DT minutes_NNS ,_, then_RB hours_NNS ,_, pass_NN ,_, we_PRP appeal_VBP to_TO our_PRP$ chaperone_NN 's_POS humane_JJ side_NN ,_, sharing_VBG cigarettes_NNS before_IN tossing_VBG them_PRP into_IN the_DT open_JJ gulley_NN running_VBG alongside_RB us_PRP ._. We_PRP tell_VBP him_PRP where_WRB we_PRP 're_VBP from_IN ,_, where_WRB we_PRP 're_VBP going_VBG ,_, how_WRB much_JJ we_PRP 've_VBP loved_VBN Kazakhstan_NNP ._. ``_`` I_PRP think_VBP it_PRP 's_VBZ better_JJR for_IN everyone_NN if_IN we_PRP resolve_VBP this_DT problem_NN here_RB ,_, no_DT ?_. ''_'' I_PRP offer_VBP tentatively_RB ._. Yellow_JJ teeth_NN grin_NN ._. ``_`` Yes_UH ._. ''_'' ``_`` Perhaps_RB your_PRP$ boss_NN can_MD help_VB us_PRP ?_. ''_'' ``_`` Maybe_RB ._. In_IN Kazakhstan_NNP it_PRP 's_VBZ very_RB difficult_JJ ._. ''_'' He_PRP 's_VBZ eager_JJ ,_, but_CC noncommittal_JJ ._. Eventually_RB ,_, the_DT saturnine_NN boss_NN summons_NNS me_PRP into_IN an_DT office_NN ,_, warily_RB looking_VBG over_IN his_PRP$ shoulder_NN ._. He_PRP calls_VBZ in_IN our_PRP$ protector_NN ,_, but_CC insists_VBZ my_PRP$ girlfriend_NN stays_VBZ outside_RB ._. This_DT is_VBZ ``_`` man_NN stuff_NN ''_'' ._. Preliminary_JJ small-talk_JJ accompanies_NNS threats_NNS to_TO deport_VB us_PRP ._. I_PRP nod_VBP ,_, indicating_VBG my_PRP$ appreciation_NN of_IN this_DT grave_JJ situation_NN ,_, and_CC try_VB my_PRP$ luck_NN again_RB ._. ``_`` But_CC surely_RB we_PRP can_MD resolve_VB this_DT here_RB ?_. ''_'' Nervously_RB glancing_VBG at_IN the_DT door_NN ,_, the_DT boss_NN shuffles_VBZ his_PRP$ heavy_JJ frame_NN in_IN his_PRP$ inadequate_JJ chair_NN ._. ``_`` We_PRP can_MD register_VB your_PRP$ passports_NNS now_RB ._. But_CC you_PRP must_MD pay_VB big_JJ fine_NN ._. ''_'' Bingo_NNP ._. ``_`` How_WRB much_JJ ?_. ''_'' He_PRP indicates_VBZ that_IN I_PRP should_MD accompany_VB his_PRP$ acolyte_NN to_TO a_DT more_RBR secretive_JJ room_NN ._. Evidently_RB ,_, while_IN it_PRP 's_VBZ OK_JJ for_IN the_DT chief_NN to_TO profit_VB from_IN a_DT healthy_JJ bribe_NN ,_, it_PRP 's_VBZ not_RB the_DT done_VBN thing_NN for_IN him_PRP to_TO participate_VB in_IN the_DT negotiations_NNS ._. I_PRP follow_VBP my_PRP$ new_JJ friend_NN into_IN an_DT even_RB dustier_JJR office_NN ,_, littered_VBN with_IN computer_NN cadavers_NNS and_CC paperwork_NN from_IN glasnost_FW days_NNS ._. ``_`` What_WP currency_NN ?_. ''_'' I_PRP whisper_VBP conspiratorially_RB once_RB we_PRP 're_VBP alone_RB ,_, but_CC I_PRP 'm_VBP not_RB quiet_JJ enough_RB :_: ``_`` Dollars_VBZ !_. ''_'' bellows_VBZ the_DT boss_NN –_VBZ he_PRP 's_VBZ listening_VBG through_IN the_DT door_NN ._. My_PRP$ friend_NN opens_VBZ the_DT bidding_NN at_IN $_$ 100_CD ,_, I_PRP offer_VBP $_$ 20_CD ._. We_PRP soon_RB agree_VBP on_IN $_$ 50_CD ._. Fortune_NNP is_VBZ kind_NN and_CC I_PRP have_VBP the_DT right_JJ note_NN in_IN my_PRP$ wallet_NN –_IN getting_VBG change_NN would_MD be_VB inconceivable_JJ ._. ``_`` Vam_NNP spa-seeba_NN !_. ''_'' Stony_NNP features_VBZ betray_VB a_DT Machiavellian_JJ grin_NN as_IN I_PRP deposit_VBP the_DT bill_NN into_IN his_PRP$ top_JJ drawer_NN ._. Minutes_NNS later_RB ,_, we_PRP 're_VBP through_IN ._.</t>
-  </si>
-  <si>
-    <t>Well_RB ,_, as_IN you_PRP might_MD have_VB picked_VBN up_RP from_IN my_PRP$ front_JJ page_NN ,_, I_PRP 'm_VBP a_DT late-20_NN 's_POS missus_NN living_NN in_IN the_DT gorgeous_JJ Hawkesbury_NNP region_NN of_IN North-West_NNP Sydney_NNP with_IN the_DT lovely_JJ Mr.P_NNP ,_, my_PRP$ hubby_NN of_IN just_RB over_IN a_DT year_NN ._. I_PRP 've_VBP been_VBN living_VBG out_RP here_RB for_IN about_RB 6_CD years_NNS after_IN growing_VBG up_RP in_IN the_DT 'Macarthur_JJ Region_NNP '_POS ..._: which_WDT is_VBZ a_DT nice_JJ way_NN of_IN saying_VBG Campbelltown_NNP !_. I_PRP did_VBD n't_RB technically_RB live_JJ IN_NNP Campbelltown_NNP ,_, I_PRP lived_VBD about_RB 10_CD mins_NNS outside_JJ (_( the_DT Sydney-side_NNP ..._: smug_RB much_JJ ..._: .lol_RB !_. )_) ..._: in_IN the_DT lovely_JJ suburb_NN of_IN St._NNP Andrews_NNP ._. I_PRP grew_VBD up_RP there_RB with_IN 3_CD sisters_NNS and_CC a_DT brother_NN ,_, the_DT greatest_JJS siblings_NNS a_DT gal_NN could_MD ask_VB for_IN (_( although_IN my_PRP$ sibling-in-laws_JJ ..._: 2_CD sisters_NNS ,_, 2_CD brothers_NNS ..._: are_VBP pretty_RB damn_JJ cool_JJ too_RB !_. )_) ._. I_PRP love_VBP lots_NNS of_IN different_JJ things_NNS and_CC always_RB have_VB some_DT obsession_NN going_VBG ..._: be_VB it_PRP knitting_VBG ,_, scrapbooking_VBG ,_, a_DT tv_NN show_NN ,_, painting_NN ,_, colouring-in_NN (_( I_PRP LOVE_VBP colouring-in_JJ ,_, most_JJS relaxing_JJ thing_NN )_) ,_, blogging_VBG ,_, tweeting_VBG ,_, facebook-ing_JJ ,_, Sims_NNP 3_CD ,_, Wii_NNP ,_, a_DT book_NN series_NN ,_, I_PRP ca_MD n't_RB help_VB myself_PRP ._. I_PRP tend_VBP to_TO get_VB really_RB into_IN something_NN and_CC let_VB it_PRP go_VB after_IN a_DT while_NN ,_, then_RB pick_VB it_PRP up_RP again_RB ,_, but_CC one_CD thing_NN I_PRP ca_MD n't_RB stop_VB doing_VBG ,_, is_VBZ reading_VBG ._.</t>
-  </si>
-  <si>
-    <t>The_DT representation_NN put_VBD forward_RB for_IN this_DT story_NN is_VBZ something_NN like_IN :_: (_( 1_CD )_) negative-for-John_NN (_( the_DT car_NN wo_MD n't_RB start_VB )_) ,_, which_WDT leads_VBZ to_TO (_( 2_CD )_) motivation-for-John_NN (_( to_TO get_VB it_PRP started_VBD ,_, which_WDT leads_VBZ to_TO (_( 3_CD )_) positive-for-John_NN (_( it_PRP 's_VBZ started_VBN )_) ,_, when_WRB then_RB links_VBZ back_RB and_CC resolves_NNS (_( 1_CD )_) ._. You_PRP can_MD also_RB analyze_VB the_DT story_NN from_IN Paul_NNP 's_POS perspective_NN ,_, and_CC then_RB add_VB links_NNS that_WDT go_VBP between_IN the_DT two_CD characters_NNS showing_VBG how_WRB things_NNS interact_VBP ._. The_DT rest_NN of_IN the_DT paper_NN describes_VBZ how_WRB these_DT relations_NNS work_VBP ,_, and_CC how_WRB they_PRP can_MD be_VB put_VBN together_RB into_IN more_RBR complex_JJ event_NN sequences_NNS (_( such_JJ as_IN ``_`` promised_JJ request_NN bungled_VBN ''_'' )_) ._. Again_NNP ,_, a_DT high_JJ level_NN representation_NN of_IN how_WRB stories_NNS work_VBP from_IN the_DT perspective_NN of_IN the_DT characters_NNS ._. So_RB now_RB I_PRP ,_, W_NNP ,_, hope_VBP that_IN you_PRP ,_, R_NNP ,_, have_VBP an_DT increased_VBN belief_NN in_IN the_DT title_NN of_IN the_DT post_NN ._. Why_WRB do_VBP I_PRP think_VB this_DT is_VBZ interesting_VBG ?_. Because_IN at_IN this_DT point_NN ,_, we_PRP know_VBP a_DT lot_NN about_IN how_WRB to_TO deal_VB with_IN structure_NN in_IN language_NN ._. From_IN a_DT machine_NN learning_VBG perspective_NN ,_, if_IN you_PRP give_VBP me_PRP a_DT structure_NN and_CC some_DT data_NNS (_( and_CC some_DT features_NNS !_. )_) ,_, I_PRP will_MD learn_VB something_NN ._. It_PRP can_MD even_RB be_VB unsupervised_JJ if_IN it_PRP makes_VBZ you_PRP feel_VB better_RB ._. So_RB in_IN a_DT sense_NN ,_, I_PRP think_VBP we_PRP 're_VBP getting_VBG to_TO a_DT point_NN where_WRB we_PRP can_MD go_VB back_RB ,_, look_NN at_IN some_DT really_RB hard_JJ problems_NNS ,_, use_VBP the_DT deep_JJ linguistic_JJ insights_NNS from_IN two_CD decades_NNS (_( or_CC more_JJR )_) ago_RB ,_, and_CC start_VB taking_VBG a_DT crack_NN at_IN things_NNS that_WDT are_VBP really_RB deep_JJ ._. Of_IN course_NN ,_, features_NNS are_VBP a_DT big_JJ problem_NN ;_: as_IN a_DT very_RB wise_JJ man_NN once_RB said_VBD to_TO me_PRP :_: ``_`` Language_NN is_VBZ hard_JJ ._. The_DT fact_NN that_IN statistical_JJ association_NN mining_NN at_IN the_DT word_NN level_NN made_VBD it_PRP appear_VB easy_JJ for_IN the_DT past_JJ decade_NN does_VBZ n't_RB alter_VB the_DT basic_JJ truth_NN ._. :_: -_: )_) ._. ''_'' We_PRP 've_VBP got_VBD many_JJ of_IN the_DT ingredients_NNS to_TO start_VB making_VBG progress_NN ,_, but_CC it_PRP 's_VBZ not_RB going_VBG to_TO be_VB easy_JJ !_.</t>
-  </si>
-  <si>
-    <t>When_WRB I_PRP arrived_VBD at_IN my_PRP$ hotel_NN ,_, I_PRP immediately_RB called_VBD some_DT local_JJ contacts_NNS ,_, including_VBG a_DT college_NN friend_NN who_WP lived_VBD in_IN the_DT next_JJ city_NN ._. As_RB soon_RB as_IN I_PRP finished_VBD with_IN all_PDT the_DT preparations_NNS ,_, my_PRP$ friend_NN met_VBD up_RP with_IN me_PRP and_CC brought_VBD me_PRP to_TO the_DT local_JJ mall_NN ,_, LimKetKai_NNP ._. While_IN walking_VBG and_CC chatting_VBG at_IN the_DT mall_NN ,_, we_PRP bumped_VBD into_IN another_DT college_NN acquaintance_NN and_CC she_PRP was_VBD surprised_JJ to_TO see_VB us_PRP at_IN CDO_NNP since_IN my_PRP$ friend_NN and_CC I_PRP were_VBD not_RB from_IN that_DT place_NN ._.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As_IN another_DT cross_NN blog_NN venture_NN ,_, my_PRP$ good_JJ pals_NNS at_IN The_DT Philosophy_NNP of_IN Time_NNP Travel_NNP and_CC LastBestAngryMan_NNP have_VBP invited_VBN me_PRP to_TO participate_VB in_IN a_DT number_NN of_IN top_JJ 5_CD lists_NNS as_IN this_DT decade_NN draws_VBZ to_TO a_DT close_NN ._. We_PRP have_VBP very_RB different_JJ musical_JJ tastes_NNS in_IN terms_NNS of_IN our_PRP$ favorite_JJ stuff_NN ,_, but_CC I_PRP also_RB think_VBP we_PRP all_DT are_VBP willing_JJ to_TO listen_VB to_TO a_DT lot_NN of_IN different_JJ stuff_NN so_IN there_EX is_VBZ some_DT crossover_NN ._. Lists_VBZ like_IN this_DT are_VBP by_IN their_PRP$ very_JJ nature_NN completely_RB subjective_JJ ,_, but_CC the_DT point_NN has_VBZ always_RB been_VBN to_TO simply_RB tell_VB everybody_NN they_PRP are_VBP wrong_JJ about_IN everything_NN ._. 5_CD )_) Kid_VB A_DT by_IN Radiohead_NNP This_DT album_NN represents_VBZ for_IN me_PRP the_DT height_NN of_IN Radiohead_NNP 's_POS greatness_NN -_: better_JJR than_IN everything_NN that_WDT came_VBD before_IN and_CC much_RB better_JJR than_IN everything_NN that_WDT has_VBZ come_VBN since_IN ._. They_PRP take_VBP their_PRP$ first_JJ steps_NNS here_RB into_IN really_RB stretching_VBG into_IN experimentation_NN but_CC still_RB keep_VB some_DT pop_NN hooks_NNS ,_, and_CC the_DT result_NN is_VBZ just_RB tremendous_JJ ._. Everybody_NN knows_VBZ at_IN least_JJS one_CD or_CC two_CD songs_NNS by_IN Radiohead_NNP just_RB from_IN osmosis_NN ,_, but_CC what_WP is_VBZ interesting_VBG is_VBZ that_IN all_PDT these_DT years_NNS later_RB ,_, you_PRP still_RB have_VBP a_DT chance_NN of_IN hearing_VBG something_NN from_IN The_DT Bends_NNP or_CC OK_NNP Computer_NNP on_IN your_PRP$ radio_NN but_CC very_RB little_JJ chance_NN of_IN hearing_VBG anything_NN from_IN this_DT album_NN which_WDT surely_RB must_MD be_VB their_PRP$ best_JJS ._. 4_CD )_) Yankee_NNP Hotel_NNP Foxtrot_NNP by_IN Wilco_NNP This_DT album_NN is_VBZ for_IN Wilco_NNP what_WP the_DT Love_NNP Song_NNP of_IN J._NNP Alfred_NNP Prufrock_NNP must_MD have_VB been_VBN like_IN for_IN T.S_NNP ._. Eliot_NN :_: once_RB you_PRP produce_VBP something_NN this_DT good_JJ ,_, how_WRB can_MD you_PRP live_VB up_RP to_TO it_PRP again_RB ?_. Keeping_VBG with_IN that_DT analogy_NN ,_, we_PRP still_RB have_VBP n't_RB seen_VBN Wilco_NNP 's_POS equivalent_NN of_IN The_DT Waste_NNP Land_NNP ._. They_PRP are_VBP still_RB making_VBG great_JJ music_NN (_( and_CC I_PRP just_RB saw_VBD them_PRP in_IN concert_NN this_DT year_NN incidentally_RB )_) ,_, but_CC they_PRP 've_VBP never_RB been_VBN able_JJ to_TO replicate_VB the_DT heights_NNS of_IN fancy_JJ and_CC genius_NN they_PRP hit_VBP with_IN this_DT album_NN early_RB in_IN the_DT decade_NN ._. That_DT 's_VBZ not_RB a_DT knock_NN against_IN the_DT band_NN as_IN few_JJ have_VBP ever_RB hit_VBN heights_NNS like_IN this_DT ._. From_IN the_DT very_RB beginning_VBG lyrics_NNS :_: ``_`` I_PRP am_VBP an_DT American_JJ Aquarium_NN drinker_NN ''_'' you_PRP know_VBP you_PRP are_VBP going_VBG to_TO get_VB something_NN a_DT little_JJ bit_NN different_JJ -_: but_CC through_IN it_PRP all_DT it_PRP remains_VBZ a_DT coherent_NN ,_, sometimes_RB heartbreaking_VBG but_CC ultimately_RB hopeful_JJ work_NN that_WDT stands_VBZ as_IN something_NN to_TO be_VB listened_VBN to_TO from_IN beginning_VBG to_TO end_VB ._. 3_CD )_) Good_NNP Apollo_NNP ,_, I_PRP 'm_VBP Burning_VBG Star_NNP IV_NNP ,_, Vol_NNP 1_CD :_: From_CD Fear_NNP Through_IN the_DT Eyes_NNP of_IN Madness_NNP by_IN Coheed_NNP and_CC Cambria_NNP Rock_NNP Band_NNP was_VBD basically_RB the_DT greatest_JJS thing_NN to_TO happen_VB to_TO these_DT guys_NNS in_IN terms_NNS of_IN popularity_NN as_IN the_DT fantastic_JJ track_NN ``_`` Welcome_NNP Home_NNP ''_'' from_IN this_DT particular_JJ album_NN is_VBZ featured_VBN in_IN the_DT game_NN ,_, and_CC was_VBD also_RB featured_VBN in_IN the_DT preview_NN for_IN the_DT movie_NN ``_`` 9_CD ''_'' ._. But_CC more_JJR than_IN just_RB that_IN particular_JJ single_JJ ,_, this_DT is_VBZ the_DT 3rd_CD album_NN in_IN a_DT series_NN of_IN 4_CD that_WDT comprise_VBP an_DT entire_JJ sci-fi_NN rock_NN opera_NN by_IN the_DT group_NN ,_, telling_VBG a_DT singular_JJ tale_NN that_IN ,_, while_IN often_RB clumsy/impenetrable_JJ in_IN terms_NNS of_IN narrative_JJ ,_, serves_VBZ to_TO tie_VB the_DT whole_NN project_NN together_RB in_IN a_DT single_JJ thread_NN ._. This_DT 3rd_CD volume_NN is_VBZ in_IN my_PRP$ opinion_NN the_DT strongest_JJS with_IN so_RB many_JJ great_JJ tunes_NNS that_WDT stand_VBP alone_RB ,_, but_CC in_IN particular_JJ ``_`` Ten_CD Speed_NNP (_( Of_IN God_NNP 's_POS Blood_NNP and_CC Burial_NNP )_) ''_'' and_CC ``_`` Apollo_NNP I_PRP :_: The_DT Writing_NNP Writer_NNP ''_'' rise_NN to_TO such_JJ bizarre_JJ heights_NNS of_IN creativity_NN in_IN subject_JJ matter_NN while_IN at_IN the_DT same_JJ time_NN keeping_VBG coherent_JJ metal_NN hooks_VBZ -_: it_PRP 's_VBZ just_RB brilliant_JJ stuff_NN all_DT around_IN ._. All_DT 4_CD albums_NNS are_VBP terrific_JJ ,_, but_CC this_DT one_CD for_IN me_PRP is_VBZ the_DT best_JJS of_IN the_DT project_NN ._. 2_CD )_) Takk.._NN by_IN Sigur_NNP Ros_NNP Sigur_NNP Ros_NNP stands_VBZ alone_RB in_IN their_PRP$ own_JJ category_NN of_IN music_NN making_VBG right_RB now_RB for_IN me_PRP insofar_VBP as_IN I_PRP firmly_VBP believe_VBP they_PRP are_VBP the_DT most_RBS important_JJ band_NN out_IN there_RB today_NN ._. You_PRP could_MD argue_VB there_EX are_VBP other_JJ bands_NNS that_WDT are_VBP better_RB but_CC the_DT reason_NN Sigur_NNP Ros_NNP is_VBZ so_RB essential_JJ is_VBZ they_PRP are_VBP in_IN the_DT unique_JJ position_NN of_IN being_VBG legitimately_RB popular_JJ ._. How_WRB this_DT ,_, by_IN pop_NN standards_NNS ,_, weird_JJ group_NN from_IN Iceland_NNP became_VBD pop_JJ icons_NNS is_VBZ completely_RB lost_VBN on_IN me_PRP but_CC I_PRP 'm_VBP totally_RB okay_JJ with_IN it_PRP because_IN it_PRP really_RB shows_VBZ that_IN all_DT is_VBZ not_RB lost_VBN -_: people_NNS WILL_MD listen_VB to_TO truly_RB great_JJ music_NN given_VBN the_DT opportunity_NN ._. If_IN you_PRP had_VBD told_VBN me_PRP when_WRB Agaetis_NNP Byrjun_NNP was_VBD released_VBN that_IN ``_`` Svefn-g-englar_JJ ''_'' would_MD feature_VB prominently_RB on_IN an_DT episode_NN of_IN the_DT TV_NN show_NN ``_`` V_NNP ''_'' ,_, I_PRP would_MD 've_VBP told_VBN you_PRP that_IN was_VBD patently_RB absurd_JJ ._. It_PRP was_VBD very_RB difficult_JJ to_TO choose_VB between_IN this_DT album_NN and_CC (_( )_) (_( also_RB called_VBN ``_`` Two_CD Sausages_NNS Kissing_VBG ''_'' in_IN jest_NN )_) only_RB because_IN (_( )_) was_VBD probably_RB more_RBR important_JJ for_IN the_DT band_NN 's_POS development_NN ,_, but_CC I_PRP 've_VBP listened_VBN to_TO Takk.._NNP too_RB many_JJ times_NNS not_RB to_TO make_VB this_DT the_DT album_NN I_PRP choose_VBP ._. I_PRP remember_VBP hearing_VBG Glosoli_NNP for_IN the_DT first_JJ time_NN when_WRB I_PRP saw_VBD the_DT band_NN in_IN concert_NN -_: they_PRP were_VBD touring_VBG just_RB before_IN the_DT release_NN of_IN Takk.._NNP -_: and_CC having_VBG my_PRP$ mind_NN utterly_JJ blown_NN ._. When_WRB I_PRP think_VBP of_IN the_DT Platonic_NNP model_NN of_IN ``_`` hope_NN ''_'' ,_, I_PRP think_VBP of_IN that_DT song_NN ._. 1_CD )_) Lateralus_VBN by_IN Tool_NNP This_DT is_VBZ bar_NN none_NN my_PRP$ favorite_JJ band_NN ,_, and_CC this_DT is_VBZ my_PRP$ favorite_JJ album_NN by_IN that_DT band_NN ._. I_PRP get_VBP it_PRP that_IN Tool_NNP is_VBZ n't_RB for_IN everybody_NN (_( just_RB people_NNS who_WP know_VBP what_WP they_PRP 're_VBP talking_VBG about_IN )_) ,_, but_CC it_PRP is_VBZ tough_JJ to_TO find_VB a_DT musician_JJ anywhere_NN who_WP wo_MD n't_RB at_IN least_JJS admit_NN that_IN these_DT guys_NNS are_VBP all_DT absolutely_RB ridiculous_JJ when_WRB it_PRP comes_VBZ to_TO the_DT technical_JJ talent_NN on_IN display_NN at_IN every_DT instrument_NN in_IN this_DT band_NN ._. Perfect_NNP Circle_NNP is_VBZ a_DT nice_JJ project_NN for_IN Maynard_NNP and_CC I_PRP enjoy_VBP them_PRP ,_, but_CC this_DT is_VBZ where_WRB Maynard_NNP 's_POS home_NN is_VBZ ,_, and_CC this_DT is_VBZ where_WRB he_PRP does_VBZ his_PRP$ best_JJS work_NN ._. It_PRP 's_VBZ amazing_JJ that_IN this_DT album_NN came_VBD out_RB in_IN 2001_CD and_CC nothing_NN has_VBZ come_VBN out_RP that_DT has_VBZ been_VBN better_RB ,_, including_VBG Tool_NNP 's_POS own_JJ 10,000_CD Days_NNPS which_WDT ,_, while_IN awesome_JJ ,_, did_VBD n't_RB quite_RB hit_VB the_DT level_NN of_IN Lateralus_NNP simply_RB because_IN track_NN for_IN track_NN there_EX are_VBP absolutely_RB no_DT weaknesses_NNS on_IN Lateralus_NNP ._. Perhaps_RB the_DT way_NN I_PRP can_MD most_RBS easily_RB sum_VB up_RP the_DT level_NN of_IN this_DT band_NN is_VBZ to_TO relay_VB this_DT story_NN :_: after_IN seeing_VBG this_DT band_NN in_IN concert_NN with_IN one_CD of_IN my_PRP$ friends_NNS who_WP is_VBZ a_DT musician_JJ ,_, he_PRP simply_RB turned_VBD to_TO me_PRP and_CC said_VBD ``_`` Well_NNP ,_, that_WDT was_VBD intimidating_VBG ._. ''_'' Indeed_RB ._. Some_DT context_NN for_IN below_IN -_: tonight_NN the_DT local_JJ minor_NN league_NN team_NN ,_, the_DT Wilmington_NNP Blue_NNP Rocks_NNP ,_, are_VBP having_VBG ``_`` Cowboy_NNP Monkey_NNP Rodeo_NNP Night_NNP ''_'' ,_, which_WDT involves_VBZ monkeys_NNS dressed_VBN as_IN cowboys_NNS riding_VBG on_IN dogs_NNS ._. This_DT led_VBD to_TO the_DT chat_NNS below_IN with_IN a_DT good_JJ friend_NN :_: me_PRP :_: tonight_NN is_VBZ awesome_JJ &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: Cowboy_NNP Monkey_NNP Rodeo_NNP night_NN +_NNP fireworks_VBZ &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: Monkeys_NNP in_IN cowboy_JJ outfits_NNS riding_VBG dogs_NNS Friend_NN :_: shouldn_NN ;_: t_CC they_PRP be_VB called_VBN Dogboy_NNP Monkies_NNP ?_. me_PRP :_: Cowboy_NNP Monkey_NNP will_MD lasso_VB you_PRP good_JJ for_IN suggesting_VBG this_DT &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_VBP ;_: they_PRP do_VBP n't_RB round_VB up_RP dogs_NNS &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_VBP ;_: they_PRP ride_VBP them_PRP Friend_NN :_: yeah_NN true_JJ &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: what_WP do_VBP they_PRP round_VB up_RP ?_. Squirrels_NNP ?_. &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: COWS_NNP ?_. ?_. ?_. me_PRP :_: what_WP they_PRP round_VBP up_RP are_VBP good_JJ times_NNS &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: Goodtimeboy_NNP Monkeys_NNP Friend_NNP :_: now_RB that_DT would_MD be_VB illegal_JJ -_: making_VBG monkeys_NNS round_VB up_RP squirrels_NNS while_IN riding_VBG dogs_NNS &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: then_RB -_: you_PRP feed_VBP the_DT losing_NN team_NN to_TO a_DT shark_NN &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: THAT_NNP 'S_VBZ good_JJ times_NNS me_PRP :_: I_PRP do_VBP n't_RB want_VB to_TO live_VB in_IN a_DT country_NN where_WRB you_PRP ca_MD n't_RB watch_VB monkeys_NNS dressed_VBN as_IN cowboys_NNS riding_VBG dogs_NNS herding_VBG squirrels_NNS tossing_VBG them_PRP to_TO sharks_VB &amp;_CC nbsp_NNP ;_: &amp;_CC nbsp_NN ;_: and_CC you_PRP can_MD quote_VB me_PRP on_IN that_DT One_CD of_IN the_DT many_JJ things_NNS that_WDT makes_VBZ baseball_NN the_DT greatest_JJS sport_NN in_IN the_DT world_NN is_VBZ that_IN it_PRP represents_VBZ stability_NN -_: every_DT March_NNP ,_, players_NNS start_VBP training_VBG for_IN April_NNP ._. Every_NNP April_NNP ,_, thousands_NNS of_IN fans_NNS show_VBP up_RP for_IN Opening_NNP Day_NNP at_IN their_PRP$ respective_JJ ballparks_NNS ,_, filled_VBN with_IN the_DT hope_NN of_IN possibility_NN -_: even_RB if_IN their_PRP$ team_NN is_VBZ predicted_VBN to_TO lose_VB 100_CD games_NNS this_DT year_NN ,_, it_PRP has_VBZ n't_RB happened_VBN yet_RB :_: everybody_NN starts_VBZ 0-0_RB ._. As_IN the_DT oft_NN maligned_VBD former_JJ commissioner_NN Bart_NNP Giamatti_NNP said_VBD :_: It_PRP breaks_VBZ your_PRP$ heart_NN ._. It_PRP is_VBZ designed_VBN to_TO break_VB your_PRP$ heart_NN ._. The_DT game_NN begins_VBZ in_IN the_DT spring_NN ,_, when_WRB everything_NN else_RB begins_VBZ again_RB ,_, and_CC it_PRP blossoms_VBZ in_IN the_DT summer_NN ,_, filling_VBG the_DT afternoons_NNS and_CC evenings_NNS ,_, and_CC then_RB as_RB soon_RB as_IN the_DT chill_NN rains_VBZ come_VBN ,_, it_PRP stops_VBZ and_CC leaves_VBZ you_PRP to_TO face_VB the_DT fall_NN alone_RB ._. In_IN other_JJ words_NNS ,_, it_PRP appeals_NNS because_IN there_EX is_VBZ so_RB little_JJ about_IN the_DT game_NN that_WDT ever_RB changes_VBZ ._. It_PRP is_VBZ as_RB familiar_JJ as_IN the_DT spring_NN ,_, as_RB familiar_JJ as_IN the_DT sun_NN rising_NN and_CC setting_NN ._. When_WRB Harry_NNP Kalas_NNP died_VBD yesterday_NN ,_, it_PRP surprised_VBD me_PRP that_IN it_PRP hurt_VBZ ._. It_PRP did_VBD n't_RB seem_VB to_TO me_PRP at_IN first_JJ like_IN I_PRP had_VBD any_DT right_JJ to_TO really_RB be_VB affected_VBN :_: after_IN all_DT ,_, I_PRP did_VBD n't_RB know_VB Harry_NNP personally_RB ._. I_PRP never_RB met_VBD the_DT man_NN ._. I_PRP was_VBD just_RB a_DT Phillies_NNPS fan_NN ,_, one_CD that_WDT probably_RB took_VBD him_PRP for_IN granted_VBN too_RB often_RB like_IN many_JJ others_NNS ,_, so_RB used_VBN to_TO him_PRP calling_VBG the_DT games_NNS that_IN it_PRP did_VBD n't_RB even_RB cross_VB my_PRP$ mind_NN that_IN someday_NN ,_, he_PRP would_MD n't_RB be_VB around_RB to_TO do_VB it_PRP ._. Harry_NNP called_VBD every_DT Phillies_NNPS game_NN of_IN my_PRP$ entire_JJ life_NN -_: his_PRP$ presence_NN was_VBD as_RB ubiquitous_JJ as_IN the_DT Phillies_NNPS themselves_PRP ,_, as_IN baseball_NN itself_PRP ._. I_PRP stare_VBP out_RP the_DT window_NN at_IN what_WP is_VBZ a_DT gloomy_JJ day_NN here_RB in_IN Delaware_NNP ,_, and_CC I_PRP know_VBP the_DT spring_NN will_MD come_VB ._. I_PRP know_VBP that_IN everyone_NN will_MD eventually_RB move_VB on_IN ,_, myself_PRP included_VBD ,_, because_IN baseball_NN ,_, like_IN life_NN ,_, goes_VBZ on_IN ._. But_CC for_IN right_RB now_RB ,_, for_IN this_DT moment_NN ,_, Harry_NNP is_VBZ gone_VBN ,_, and_CC with_IN him_PRP the_DT spring_NN and_CC the_DT promise_NN that_IN both_DT it_PRP and_CC baseball_NN bring_NN ._. The_DT promise_NN they_PRP represent_VBP -_: that_IN there_EX are_VBP windows_NNS of_IN opportunity_NN in_IN life_NN where_WRB anything_NN seems_VBZ possible_JJ -_: for_IN now_RB seems_VBZ to_TO have_VB disappeared_VBN ._. The_DT feeling_NN will_MD pass_VB ,_, as_IN all_DT things_NNS do_VBP ,_, and_CC no_DT matter_NN how_WRB much_JJ we_PRP might_MD want_VB things_NNS to_TO stay_VB the_DT same_JJ ,_, no_DT matter_NN how_WRB much_JJ we_PRP might_MD want_VB to_TO turn_VB on_IN the_DT game_NN tomorrow_NN night_NN and_CC hear_NN Harry_NNP call_VB it_PRP ,_, comforted_VBN by_IN the_DT familiarity_NN of_IN it_PRP all_DT ,_, it_PRP wo_MD n't_RB happen_VB ._. We_PRP learn_VBP to_TO adjust_VB ._. Baseball_VB represents_VBZ that_IN too_RB ,_, you_PRP know_VBP :_: the_DT game_NN may_MD not_RB change_VB ,_, but_CC the_DT people_NNS do_VBP ._. It_PRP 's_VBZ not_RB a_DT bad_JJ thing_NN or_CC a_DT good_JJ thing_NN ,_, it_PRP just_RB is_VBZ ._. Right_RB now_RB though_IN ,_, I_PRP just_RB want_VBP it_PRP to_TO feel_VB like_IN spring_NN ,_, the_DT way_NN it_PRP did_VBD on_IN Sunday_NNP when_WRB the_DT Phillies_NNP won_VBD and_CC Harry_NNP called_VBD the_DT game_NN ,_, and_CC everything_NN was_VBD exactly_RB as_IN I_PRP thought_VBD it_PRP should_MD be_VB on_IN an_DT afternoon_NN in_IN April_NNP -_: and_CC now_RB ca_MD n't_RB ever_RB be_VB precisely_RB the_DT same_JJ again_RB ._. I_PRP absolutely_RB love_VB movies_NNS ,_, but_CC I_PRP dislike_VBP going_VBG to_TO the_DT movie_NN theater_NN ._. In_IN the_DT past_JJ 2_CD years_NNS I_PRP 've_VBP seen_VBN maybe_RB a_DT half_JJ dozen_NN movies_NNS in_IN the_DT theater_NN ,_, and_CC very_RB rarely_RB will_MD I_PRP go_VB on_IN a_DT busy_JJ movie_NN day_NN (_( like_IN a_DT Friday_NNP night_NN )_) if_IN I_PRP go_VBP at_IN all_DT ._. I_PRP like_VBP a_DT nice_JJ Sunday_NNP matinee_NN ,_, but_CC really_RB with_IN TVs_NNP and_CC DVD_NNP players_NNS being_VBG what_WP they_PRP are_VBP ,_, with_IN all_DT of_IN the_DT easy_JJ access_NN we_PRP have_VBP to_TO movies_NNS via_IN Netflix_NNP ,_, movie_NN channels_NNS ,_, TiVo_NNP ,_, Netflix_NNP on_IN TiVo_NNP ,_, etc_FW ._. it_PRP just_RB seems_VBZ kind_NN of_IN silly_JJ sometimes_NNS to_TO go_VB to_TO a_DT movie_NN theater_NN when_WRB I_PRP (_( personally_RB )_) can_MD be_VB guaranteed_VBN to_TO enjoy_VB the_DT experience_NN at_IN home_NN ._. Going_VBG to_TO the_DT movie_NN theater_NN is_VBZ not_RB a_DT sure_JJ good_JJ time_NN ,_, mostly_RB because_IN of_IN the_DT occasional_JJ rudeness_NN of_IN other_JJ movie-goers_NNS ._. But_CC sometimes_RB you_PRP just_RB ca_MD n't_RB avoid_VB the_DT hype_NN and_CC you_PRP find_VBP yourself_PRP unwilling_JJ to_TO wait_VB for_IN the_DT DVD_NNP release_NN ._. My_PRP$ buddies_NNS at_IN LastBestAngryMan_NNP and_CC The_DT Philosophy_NNP of_IN Time_NNP Travel_NNP agreed_VBD we_PRP would_MD all_DT post_VB our_PRP$ top_JJ 5_CD most_JJS anticipated_JJ films_NNS of_IN 2009_CD ._. Here_RB 's_VBZ the_DT top_JJ 5_CD movies_NNS I_PRP 'm_VBP most_RBS likely_JJ to_TO see_VB in_IN the_DT theater_NN in_IN 2009_CD ,_, which_WDT by_IN proxy_NN means_NNS they_PRP are_VBP the_DT most_RBS anticipated_JJ :_: 5_CD )_) 9_CD -_: This_DT film_NN will_MD mark_VB the_DT real_JJ feature_NN film_NN directing_VBG debut_NN for_IN Shane_NNP Acker_NNP ,_, who_WP really_RB cut_VB his_PRP$ teeth_NNS doing_VBG animation_NN with_IN Weta_NNP during_IN the_DT Lord_NNP of_IN the_DT Rings_NNP films_NNS ._. Here_RB 's_VBZ the_DT deal_NN with_IN this_DT one_CD -_: Acker_NN made_VBD a_DT 10_CD minute_NN or_CC so_RB short_JJ film_NN around_IN the_DT concept_NN a_DT few_JJ years_NNS ago_RB ._. The_DT movie_NN is_VBZ embedded_VBN below_IN ._. The_DT film_NN coming_VBG out_RP in_IN theaters_NNS this_DT year_NN is_VBZ the_DT whole_JJ story_NN ._. The_DT visual_JJ style_NN is_VBZ super_JJ cool_NN and_CC I_PRP 'm_VBP always_RB a_DT fan_NN of_IN animation_NN in_IN all_DT its_PRP$ incarnations_NNS ._. Short_NNP film_NN ``_`` 9_CD ''_'' :_: Feature_NN Film_NNP Trailer_NNP ,_, featuring_VBG a_DT terrific_NN song_NN by_IN Coheed_NNP and_CC Cambria_NNP :_: 4_CD )_) The_DT Lovely_NNP Bones_NNP -_: There_EX are_VBP two_CD big_JJ reasons_NNS I_PRP 'm_VBP looking_VBG forward_RB to_TO seeing_VBG this_DT ._. Number_NNP one_CD ,_, the_DT book_NN is_VBZ absolutely_RB terrific_JJ and_CC for_IN me_PRP exceeded_VBD the_DT critical_JJ hype_NN ._. Number_NNP two_CD ,_, Peter_NNP Jackson_NNP is_VBZ directing_VBG ,_, and_CC the_DT material_NN from_IN the_DT book_NN is_VBZ something_NN I_PRP think_VBP he_PRP could_MD prepare_VB a_DT feast_NN with_IN ._. No_DT trailer_NN available_JJ yet_RB ._. 3_CD )_) The_DT Wrestler_NNP -_: This_DT movie_NN is_VBZ technically_RB out_RP right_RB now_RB in_IN the_DT US_NNP but_CC only_RB under_IN limited_JJ release_NN ._. I_PRP check_VBP every_DT weekend_NN to_TO see_VB if_IN it_PRP is_VBZ out_RP around_IN Delaware_NNP but_CC so_RB far_RB no_DT luck_NN ._. The_DT number_NN one_CD reason_NN I_PRP want_VBP to_TO see_VB this_DT :_: I_PRP have_VBP n't_RB seen_VBN a_DT Darren_NNP Aronofsky_NNP movie_NN yet_RB that_IN I_PRP have_VBP n't_RB loved_VBN ._. I_PRP also_RB have_VBP a_DT soft_JJ spot_NN in_IN my_PRP$ heart_NN for_IN the_DT material_NN here_RB because_IN when_WRB I_PRP was_VBD a_DT kid_NN I_PRP was_VBD a_DT huge_JJ fan_NN of_IN pro_JJ wrestling_NN ._. There_EX 's_VBZ a_DT lot_NN of_IN Oscar_NNP talk_NN swirling_VBG around_RB Mickey_NNP Rourke_NNP 's_POS performance_NN in_IN this_DT one_CD ,_, if_IN that_DT kind_NN of_IN stuff_NN matters_NNS to_TO you_PRP ._. 2_CD )_) Public_NNP Enemies_NNPS -_: It_PRP 's_VBZ a_DT 1930s_CD crime_NN drama_NN starring_VBG Christian_JJ Bale_NNP and_CC Johnny_NNP Depp_NNP directed_VBN by_IN Michael_NNP Mann_NNP ._. If_IN you_PRP need_VBP any_DT more_JJR explanation_NN than_IN that_DT I_PRP have_VBP no_DT idea_NN what_WP to_TO tell_VB you_PRP ._. 1_CD )_) Watchmen_NNP -_: I_PRP 'm_VBP worried_JJ about_IN this_DT movie_NN ._. Really_RB ,_, really_RB worried_JJ ._. There_EX is_VBZ a_DT very_RB good_JJ reason_NN that_IN Watchmen_NNP is_VBZ the_DT only_JJ graphic_JJ novel_NN on_IN Time_NNP 's_POS 100_CD greatest_JJS novels_NNS list_NN :_: it_PRP is_VBZ an_DT absolute_JJ masterpiece_NN ._. It_PRP is_VBZ also_RB really_RB ,_, really_RB complex_JJ and_CC has_VBZ always_RB seemed_VBN like_IN it_PRP would_MD be_VB a_DT nightmare_NN to_TO faithfully_RB translate_VB to_TO the_DT big_JJ screen_NN ._. We_PRP already_RB know_VBP that_DT at_IN least_JJS one_CD key_JJ element_NN (_( the_DT Tales_NNP of_IN the_DT Black_NNP Freighter_NNP framing_VBG device_NN )_) will_MD not_RB be_VB in_IN the_DT movie_NN ._. There_EX are_VBP more_JJR and_CC more_JJR reports_NNS suggesting_VBG that_IN the_DT ending_VBG has_VBZ been_VBN changed_VBN ._. The_DT director_NN 's_POS original_JJ 3_CD hour_NN cut_NN was_VBD apparently_RB loathed_VBN by_IN the_DT studio_NN and_CC who_WP knows_VBZ if_IN it_PRP will_MD survive_VB tampering_NN ._. The_DT whole_JJ thing_NN is_VBZ a_DT recipe_NN for_IN a_DT colossal_JJ disaster_NN ._. But_CC I_PRP had_VBD a_DT lot_NN of_IN the_DT same_JJ skepticism_NN with_IN Lord_NNP of_IN the_DT Rings_NNP ,_, and_CC boy_NN was_VBD I_PRP completely_RB wrong_IN there_RB ._. This_DT easily_RB gets_VBZ #_# 1_CD because_IN it_PRP is_VBZ probably_RB the_DT only_JJ movie_NN I_PRP will_MD definitely_RB see_VB this_DT year_NN in_IN the_DT theater_NN ,_, and_CC that_DT 's_VBZ because_IN there_EX 's_VBZ no_DT way_NN I_PRP 'll_MD be_VB able_JJ to_TO avoid_VB it_PRP ._. A_NNP great_JJ deal_NN of_IN my_PRP$ friends_NNS love_VBP the_DT graphic_JJ novel_NN as_RB much_JJ as_IN I_PRP do_VBP ,_, and_CC I_PRP 'll_MD be_VB unable_JJ to_TO avoid_VB discussions_NNS of_IN this_DT movie_NN when_WRB it_PRP is_VBZ finally_RB out_RP ._. Hopefully_NNP they_PRP will_MD be_VB discussions_NNS about_IN how_WRB we_PRP were_VBD totally_RB wrong_JJ about_IN all_DT our_PRP$ concerns_NNS over_IN the_DT movie_NN ._. You_PRP do_VBP n't_RB need_VB to_TO know_VB the_DT ins_NNS and_CC outs_NNS of_IN the_DT Israeli-Palestinian_JJ conflict_NN to_TO know_VB that_IN it_PRP 's_VBZ bad_JJ ._. In_IN fact_NN ,_, it_PRP has_VBZ been_VBN so_RB bad_JJ for_IN so_RB long_JJ that_IN whenever_WRB another_DT bombing_NN or_CC act_NN of_IN terrorism_NN is_VBZ reported_VBN ,_, it_PRP just_RB seems_VBZ to_TO roll_VB like_IN water_NN off_IN a_DT duck_NN 's_POS back_NN for_IN most_JJS folks_NNS ._. It_PRP says_VBZ something_NN when_WRB a_DT story_NN of_IN cooperation_NN is_VBZ more_RBR unexpected_JJ and_CC surprising_JJ than_IN a_DT story_NN of_IN people_NNS blowing_VBG each_DT other_JJ up_RB ._. It_PRP says_VBZ something_NN sad_JJ about_IN the_DT way_NN things_NNS are_VBP there_RB ._. But_CC it_PRP also_RB says_VBZ something_NN awe_JJ inspiring_NN at_IN just_RB how_WRB far_RB some_DT people_NNS will_MD go_VB to_TO try_VB to_TO change_VB things_NNS ,_, even_RB on_IN the_DT tiniest_NN of_IN levels_NNS ._. --_: --_: --_: -_: When_WRB you_PRP say_VBP ``_`` football_NN ''_'' ,_, people_NNS from_IN different_JJ parts_NNS of_IN the_DT world_NN will_MD think_VB of_IN different_JJ things_NNS ._. Most_JJS ,_, of_IN course_NN ,_, will_MD think_VB of_IN what_WP we_PRP call_VBP in_IN America_NNP ``_`` soccer_NN ''_'' ._. In_IN Australia_NNP though_IN ,_, they_PRP think_VBP of_IN their_PRP$ own_JJ variation_NN of_IN ``_`` rugby_NN ''_'' -_: Australian_JJ rules_NNS football_NN ._. In_IN 2002_CD ,_, Australia_NNP hosted_VBD the_DT first_JJ ever_RB Australian_NNP Football_NNP International_NNP Cup_NNP ._. The_DT idea_NN was_VBD to_TO promote_VB interest_NN in_IN the_DT sport_NN in_IN other_JJ countries_NNS by_IN hosting_VBG a_DT tournament_NN that_WDT Australia_NNP itself_PRP would_MD not_RB participate_VB in_IN ._. It_PRP 's_VBZ the_DT kind_NN of_IN thing_NN I_PRP ca_MD n't_RB imagine_VB America_NNP bothering_VBG to_TO host_VB -_: we_PRP 'd_MD want_VB to_TO win_VB our_PRP$ own_JJ tournament_NN ,_, after_IN all_DT ._. But_CC since_IN Australia_NNP has_VBZ the_DT only_JJ professional_JJ league_NN for_IN their_PRP$ unique_JJ sport_NN ,_, it_PRP made_VBD sense_NN to_TO sit_VB out_RP this_DT tournament_NN because_IN winning_VBG was_VBD almost_RB guaranteed_VBN ._. Why_WRB not_RB give_VB other_JJ teams_NNS playing_VBG their_PRP$ sport_NN in_IN other_JJ countries_NNS a_DT chance_NN to_TO compete_VB and_CC measure_VB their_PRP$ talents_NNS ?_. The_DT tournament_NN was_VBD enough_RB of_IN a_DT success_NN that_IN it_PRP was_VBD hosted_VBN again_RB in_IN 2005_CD ,_, and_CC now_RB it_PRP will_MD happen_VB a_DT third_JJ time_NN here_RB in_IN 2008_CD ._. This_DT year_NN 16_CD teams_NNS from_IN around_IN the_DT world_NN will_MD compete_VB for_IN the_DT trophy_NN ,_, the_DT most_RBS since_IN the_DT tournament_NN started_VBD ._. When_WRB you_PRP look_VBP at_IN the_DT list_NN of_IN teams_NNS competing_VBG ,_, one_CD jumps_VBZ out_RP at_IN you_PRP :_: Peace_NN Team_NNP ._. A_NNP strange_JJ name_NN for_IN a_DT side_NN participating_VBG in_IN a_DT rough_JJ and_CC tumble_JJ game_NN ._. --_: --_: --_: -_: In_IN January_NNP of_IN 2008_CD ,_, Australian_JJ football_NN legend_NN Robert_NNP ``_`` Dipper_NNP ''_'' Dipierdomenico_NNP ,_, along_IN with_IN some_DT other_JJ league_NN representatives_NNS ,_, presented_VBD the_DT rules_NNS of_IN the_DT game_NN to_TO a_DT room_NN full_JJ of_IN 100_CD young_JJ men_NNS ._. Out_IN of_IN that_DT 100_CD ,_, 40_CD were_VBD selected_VBN to_TO participate_VB in_IN a_DT 3_CD day_NN clinic_NN to_TO learn_VB the_DT basics_NNS of_IN the_DT game_NN ._. The_DT unusual_JJ part_NN of_IN the_DT story_NN :_: these_DT young_JJ men_NNS were_VBD a_DT mix_NN of_IN Israelis_NNP and_CC Palestinians_NNPS ,_, and_CC the_DT clinic_NN was_VBD in_IN Jerusalem_NNP ._. Perhaps_RB crazy_JJ enough_RB was_VBD the_DT idea_NN of_IN getting_VBG a_DT team_NN of_IN men_NNS completely_RB unfamiliar_JJ with_IN the_DT sport_NN ready_JJ to_TO compete_VB internationally_RB in_IN just_RB under_IN 8_CD months_NNS ._. But_CC even_RB crazier_JJR was_VBD the_DT idea_NN of_IN trying_VBG to_TO do_VB it_PRP here_RB ,_, with_IN these_DT men_NNS ._. The_DT team_NN faced_VBD complications_NNS trying_VBG to_TO train_VB that_DT would_MD be_VB completely_RB unheard_JJ of_IN elsewhere_RB ._. The_DT coach_NN 's_POS instructions_NNS needed_VBD to_TO be_VB translated_VBN to_TO both_DT Hebrew_NNP and_CC Arabic_NNP ._. The_DT team_NN was_VBD shut_VBN out_IN of_IN their_PRP$ Israeli_JJ training_NN facility_NN for_IN 4_CD days_NNS during_IN a_DT visit_NN by_IN President_NNP Bush_NNP when_WRB all_DT Palestinians_NNPS were_VBD denied_JJ access_NN ,_, including_VBG Palestinian_JJ members_NNS of_IN the_DT team_NN ._. Team_NN members_NNS received_VBD threats_NNS from_IN both_DT sides_NNS of_IN the_DT conflict_NN ,_, either_CC enduring_VBG the_DT usual_JJ hate_NN from_IN one_CD side_NN or_CC being_VBG called_VBN ``_`` traitor_NN ''_'' by_IN the_DT other_JJ ._. Palestinian_JJ team_NN members_NNS needed_VBN to_TO obtain_VB work_NN permits_NNS for_IN every_DT training_NN session_NN ,_, sometimes_RB traveling_VBG upwards_NNS of_IN 4_CD hours_NNS through_IN various_JJ security_NN checkpoints_NNS ._. The_DT pressure_NN was_VBD too_RB much_JJ for_IN a_DT number_NN of_IN the_DT players_NNS ._. Some_DT of_IN them_PRP ,_, facing_VBG threats_NNS from_IN their_PRP$ own_JJ friends_NNS and_CC neighbors_NNS ,_, left_VBD the_DT team_NN ._. In_IN spite_NN of_IN all_DT of_IN this_DT ,_, a_DT few_JJ kept_NN practicing_VBG ._. A_DT few_JJ kept_NN playing_VBG ._. In_IN spite_NN of_IN the_DT lack_NN of_IN a_DT proper_JJ field_NN (_( they_PRP played_VBP on_IN soccer_NN fields_NNS )_) with_IN proper_JJ goalposts_NNS (_( they_PRP had_VBD none_NN )_) ,_, they_PRP kept_VBD learning_VBG ._. The_DT first_JJ time_NN the_DT team_NN had_VBD seen_VBN real_JJ goal_NN posts_NNS was_VBD when_WRB they_PRP arrived_VBD in_IN Australia_NNP a_DT week_NN ago_RB ._. They_PRP play_VBP their_PRP$ first_JJ match_NN of_IN the_DT tournament_NN today_NN against_IN Great_NNP Britain_NNP ._. --_: --_: --_: -_: New_NNP Zealand_NNP and_CC Ireland_NNP will_MD be_VB the_DT favorites_NNS going_VBG into_IN the_DT tournament_NN ._. The_DT Peace_NNP Team_NNP will_MD probably_RB be_VB lucky_JJ to_TO win_VB a_DT single_JJ match_NN ._. But_CC win_VBP or_CC lose_VBP ,_, they_PRP will_MD do_VB it_PRP together_RB ._. ``_`` Everyone_NN knows_VBZ the_DT story_NN in_IN Israel_NNP and_CC Palestine_NNP ,_, the_DT occupation_NN ,_, the_DT killings_NNS ,_, bombings_NNS ,_, we_PRP came_VBD here_RB to_TO show_VB the_DT people_NNS ,_, we_PRP came_VBD for_IN the_DT peace_NN ,_, we_PRP need_VBP the_DT peace_NN ,_, ''_'' says_VBZ Palestinian_NNP ruckman_NN Fares_NNP Switte_NNP ._. In_IN January_NNP ,_, it_PRP 's_VBZ not_RB likely_JJ Fares_NNP Switte_NNP knew_VBD what_WP a_DT ruckman_NN was_VBD ._. But_CC then_RB again_RB ,_, in_IN January_NNP ,_, the_DT whole_JJ notion_NN of_IN a_DT team_NN like_IN this_DT was_VBD pretty_RB unlikely_JJ too_RB ._. --_: --_: --_: -_: After_IN the_DT tournament_NN is_VBZ over_IN ,_, the_DT players_NNS on_IN the_DT Peace_NNP Team_NNP will_MD return_VB to_TO their_PRP$ normal_JJ lives_NNS ._. They_PRP will_MD return_VB to_TO face_VB the_DT same_JJ strife_NN and_CC conflict_NN they_PRP faced_VBD before_IN they_PRP started_VBD playing_VBG together_RB ._. They_PRP might_MD even_RB return_VB to_TO find_VB themselves_PRP reviled_VBN in_IN their_PRP$ own_JJ homes_NNS ._. But_CC they_PRP 'll_MD return_VB changed_VBN in_IN this_DT small_JJ way_NN ,_, knowing_VBG this_DT simple_JJ thing_NN :_: if_IN we_PRP can_MD play_VB together_RB ,_, we_PRP can_MD live_VB together_RB ._. --_: --_: --_: -_: Note_NN :_: For_IN a_DT tremendous_JJ introduction_NN to_TO the_DT various_JJ factions_NNS and_CC pieces_NNS in_IN play_NN in_IN the_DT Israeli-Palestinian_JJ conflict_NN ,_, I_PRP ca_MD n't_RB recommend_VB the_DT game_NN Peacemaker_NNP enough_RB ._. It_PRP is_VBZ easily_RB the_DT most_RBS engaging_JJ introduction_NN I_PRP 've_VBP ever_RB seen_VBN ,_, better_JJR even_RB than_IN any_DT book_NN I_PRP have_VBP read_VBN on_IN the_DT topic_NN ._. And_CC yes_UH ,_, it_PRP has_VBZ a_DT Mac_NNP version_NN ._. It_PRP 's_VBZ an_DT ever_RB shrinking_JJ world_NN ._. On_IN the_DT one_CD hand_NN it_PRP means_VBZ we_PRP tend_VBP to_TO fight_VB a_DT little_RB more_JJR over_IN resources_NNS that_IN we_PRP all_DT need_VBP ._. On_IN the_DT other_JJ hand_NN ,_, it_PRP means_VBZ we_PRP have_VBP a_DT better_JJR opportunity_NN than_IN ever_RB to_TO learn_VB to_TO live_VB with_IN each_DT other_JJ ._. I_PRP 'm_VBP a_DT big_JJ fan_NN of_IN the_DT Olympics_NNPS ._. I_PRP 'm_VBP talking_VBG about_IN an_DT event_NN where_WRB we_PRP get_VBP to_TO see_VB sports_NNS that_IN we_PRP probably_RB wo_MD n't_RB see_VB for_IN another_DT 4_CD years_NNS ,_, but_CC with_IN a_DT built_VBN in_IN rooting_VBG interest_NN ._. We_PRP root_VBP for_IN our_PRP$ country_NN ._. We_PRP root_VBP for_IN the_DT human_JJ interest_NN stories_NNS ._. We_PRP root_VBP for_IN the_DT ideal_NN that_IN we_PRP can_MD all_DT ,_, just_RB maybe_RB ,_, get_VB along_IN for_IN a_DT couple_JJ weeks_NNS ._. Of_IN course_NN the_DT ideal_NN is_VBZ not_RB reality_NN ._. The_DT Olympics_NNPS are_VBP bringing_VBG some_DT of_IN China_NNP 's_POS questionable_JJ government_NN practices_NNS out_RP into_IN the_DT world_NN spotlight_NN ._. The_DT games_NNS are_VBP sometimes_RB overshadowed_VBN by_IN stories_NNS of_IN the_DT conflict_NN in_IN Georgia_NNP ._. In_IN spite_NN of_IN these_DT things_NNS ,_, sport_NN goes_VBZ on_IN ._. The_DT beauty_NN of_IN sport_NN as_IN a_DT fan_NN is_VBZ that_IN ,_, for_IN the_DT duration_NN of_IN the_DT match_NN ,_, game_NN ,_, whatever_RB ,_, you_PRP are_VBP n't_RB thinking_VBG about_IN those_DT things_NNS ._. It_PRP is_VBZ not_RB a_DT good_JJ idea_NN to_TO ignore_VB what_WP goes_VBZ on_IN in_IN this_DT world_NN ._. But_CC it_PRP 's_VBZ not_RB a_DT bad_JJ thing_NN to_TO set_VB it_PRP aside_JJ once_RB in_IN awhile_NN ._. --_: --_: -_: Imagine_NN you_PRP 've_VBP got_VBN a_DT tumor_NN in_IN your_PRP$ belly_RB growing_VBG so_RB large_JJ that_IN it_PRP begins_VBZ to_TO push_VB all_DT of_IN your_PRP$ internal_JJ organs_NNS ,_, liver_NN ,_, intestine_NN ,_, kidneys_NNS ..._: all_DT to_TO the_DT sides_NNS of_IN your_PRP$ body_NN ._. Imagine_NNP that_IN the_DT hospital_NN that_WDT is_VBZ trying_VBG to_TO treat_VB you_PRP has_VBZ just_RB been_VBN taken_VBN over_RP by_IN a_DT group_NN that_WDT is_VBZ likely_JJ to_TO kill_VB you_PRP if_IN they_PRP see_VBP you_PRP ._. Imagine_VB that_IN it_PRP does_VBZ n't_RB matter_VB anyway_RB ,_, since_IN the_DT doctors_NNS have_VBP told_VBN you_PRP there_EX is_VBZ nothing_NN they_PRP can_MD do_VB to_TO save_VB you_PRP ._. Imagine_VB you_PRP are_VBP two_CD years_NNS old_JJ ._. This_DT boy_NN exists_VBZ ,_, and_CC he_PRP lives_VBZ in_IN Iraq_NNP ,_, the_DT child_NN of_IN a_DT Sunni_NNP family_NN whose_WP$ hospital_NN had_VBD been_VBN taken_VBN </t>
-  </si>
-  <si>
-    <t>If_IN you_PRP lined_VBD up_RP all_PDT the_DT teachers_NNS and_CC staff_NN in_IN my_PRP$ school_NN in_IN a_DT search_NN for_IN who_WP might_MD possibly_RB write_VB a_DT blog_NN like_IN this_DT ,_, I_PRP would_MD be_VB one_CD of_IN the_DT last_JJ chosen_NN ._. In_IN my_PRP$ professional_JJ life_NN ,_, I_PRP do_VBP n't_RB make_VB waves_NNS ._. I_PRP avoid_VBP conflict_NN ._. I_PRP 'm_VBP a_DT ``_`` yes_NN ''_'' man_NN ._. I_PRP do_VBP what_WP I_PRP 'm_VBP told_JJ ,_, but_CC I_PRP love_VBP my_PRP$ job_NN so_IN it_PRP 's_VBZ not_RB hard_JJ ._. In_IN my_PRP$ personal_JJ life_NN ,_, I_PRP 'm_VBP more_RBR opinionated_JJ and_CC although_IN I_PRP 'm_VBP a_DT deeply_NN private_JJ person_NN ,_, I_PRP tell_VBP my_PRP$ friends_NNS and_CC family_NN exactly_RB how_WRB I_PRP feel_VBP ._. Few_JJ coworkers_NNS have_VBP crossed_VBN over_IN into_IN the_DT actual_JJ ``_`` real_JJ life_NN friend_NN ''_'' category_NN ._. So_IN it_PRP 's_VBZ very_RB easy_JJ for_IN me_PRP to_TO compartmentalize_VB ._. Before_IN this_DT project_NN happened_VBD ._. Now_RB I_PRP 'm_VBP feeling_VBG majorly_RB exposed_VBN ._. I_PRP could_MD absolutely_RB lose_VB my_PRP$ job_NN over_IN this_DT ._. In_IN just_RB the_DT first_JJ ten_JJ days_NNS of_IN school_NN lunches_NNS I_PRP 've_VBP gotten_VBN a_DT bigger_JJR response_NN than_IN I_PRP expected_VBD ._. It_PRP makes_VBZ me_PRP nervous_JJ ._. Most_JJS teachers_NNS do_VBP feel_VB the_DT same_JJ way_NN that_IN I_PRP do_VBP about_IN the_DT lunches_NNS served_VBD in_IN the_DT building_NN ._. So_IN that_DT 's_VBZ reassuring_VBG ._. We_PRP 've_VBP all_DT discussed_VBD the_DT lunches_NNS and_CC how_WRB bad_JJ they_PRP are_VBP in_IN passing_VBG ._. Then_RB we_PRP go_VBP back_RB to_TO teaching_VBG ._. No_DT one_NN has_VBZ done_VBN much_RB ._. I_PRP 'm_VBP not_RB a_DT hero_NN ,_, but_CC I_PRP am_VBP a_DT whistleblower_NN ._. But_CC instead_RB of_IN calling_VBG a_DT ``_`` tip_JJ line_NN ,_, ''_'' I_PRP 've_VBP shouted_VBN it_PRP to_TO thousands_NNS of_IN people_NNS ._. Oops_NNP ._.</t>
-  </si>
-  <si>
-    <t>The_DT Invention_NNP of_IN Hugo_NNP Cabret_NNP was_VBD one_CD of_IN the_DT most_RBS amazing_JJ children_NNS ’_VBP s_JJ books_NNS of_IN the_DT last_JJ 10_CD years_NNS ._. A_DT beautifully_RB illustrated_JJ book_NN ,_, told_VBD as_IN much_JJ through_IN its_PRP$ imagery_NN as_IN its_PRP$ narrative_JJ ,_, it_PRP is_VBZ also_RB a_DT book_NN with_IN a_DT love_NN for_IN the_DT early_JJ days_NNS of_IN film_NN ,_, particularly_RB French_JJ filmmakers_NNS ._. The_DT book_NN won_VBD the_DT Caldecott_NNP Medal_NNP for_IN “_NNP Best_NNP Illustrated_VBD Children_NNP ’_NNP s_NN Book_NNP ,_, ”_NNP but_CC I_PRP don_VBP ’_JJ t_NN know_VBP which_WDT Scorsese_NNP will_MD make_VB the_DT movie_NN ._. Will_VB it_PRP be_VB the_DT visual_JJ master_NN of_IN “_NNP Raging_NNP Bull_NNP ”_NNP or_CC the_DT talented_JJ hack_NN who_WP made_VBD “_NNP Shutter_NNP Island_NNP ”_NNP ?_.</t>
-  </si>
-  <si>
-    <t>I_PRP have_VBP some_DT photos_NNS I_PRP 've_VBP been_VBN meaning_VBG to_TO post_VB from_IN David_NNP Reid_NNP who_WP went_VBD to_TO Lola_VB a_DT few_JJ months_NNS ago_RB ._. I_PRP 've_VBP post_VBN them_PRP all_DT over_IN the_DT next_JJ few_JJ weeks_NNS !_. This_DT is_VBZ Makali_NNP ,_, a_DT bonobo_NN rescued_VBN from_IN a_DT biomedical_JJ centre_NN ._. He_PRP has_VBZ somethign_VBN to_TO say_VB !_. Noki_NNP and_CC her_PRP$ baby_NN are_VBP in_IN wonderful_JJ health_NN !_. they_PRP 've_VBP been_VBN released_VBN into_IN the_DT enclosures_NNS ._. Noki_NNP is_VBZ nursing_VBG her_PRP$ baby_NN well_RB and_CC protecting_VBG her_PRP$ from_IN slapping_VBG branches_NNS and_CC the_DT sun_NN ._. but_CC she_PRP is_VBZ also_RB very_RB proud_JJ and_CC loves_VBZ to_TO show_VB the_DT baby_NN to_TO the_DT other_JJ bonobos_NN !_. ooo_IN -_: i_NN got_VBD this_DT photo_NN from_IN Val_NNP when_WRB Noki_NNP just_RB arrived_VBD at_IN Lola_NNP ._. Val_NNP is_VBZ a_DT volunteer_NN at_IN Lola_NNP -_: and_CC has_VBZ been_VBN for_IN 15_CD years_NNS ._. She_PRP works_VBZ practically_RB full_JJ time_NN handling_VBG Lola_NNP 's_POS accounts_NNS -_: the_DT sanctuary_NN would_MD n't_RB run_VB without_IN her_PRP ._. She_PRP comes_VBZ in_IN to_TO Lola_NNP almost_RB every_DT day_NN ,_, for_IN no_DT recognition_NN or_CC reward_NN other_JJ than_IN helping_VBG the_DT bonobos_NN ._. We_PRP love_VBP you_PRP Val_VBP !_. and_CC look_VB at_IN little_JJ Noki_NNP and_CC those_DT huge_JJ black_JJ eyes.and_NN then_RB here_RB is_VBZ Val_NNP helping_VBG Noki_NNP give_VB birth_NN -_: 10_CD years_NNS later_RB !_. we_PRP share_NN so_RB much_RB with_IN these_DT bonobos_NNS ,_, they_PRP become_VBP so_RB much_JJ a_DT part_NN of_IN our_PRP$ lives_NNS ._. Val_NNP has_VBZ been_VBN sending_VBG photos_NNS like_IN crazy_JJ -_: she_PRP is_VBZ a_DT very_RB proud_JJ grandmother_NN ._. Ok_CC back_RB to_TO Lola_NNP now_RB and_CC I_PRP 'm_VBP a_DT little_JJ behind_NN on_IN all_PDT the_DT news_NN -_: but_CC Noki_NNP had_VBD a_DT baby_NN !_. !_. Noki_NNP is_VBZ one_CD of_IN the_DT cat_NN burglers_NNS at_IN Lola_NNP -_: she_PRP is_VBZ also_RB a_DT prolific_JJ tool_NN user_SYM -_: which_WDT bonobos_NNS have_VBP n't_RB been_VBN seen_VBN to_TO do_VB in_IN the_DT wild_JJ ,_, fyi_NN ._. once_IN she_PRP used_VBD a_DT long_JJ stick_NN to_TO steal_VB my_PRP$ camera_NN bag_NN ._. noki_NN is_VBZ also_RB one_CD of_IN the_DT smartest_JJS bonobos_NN in_IN all_PDT the_DT experiments_NNS we_PRP do_VBP -_: she_PRP is_VBZ so_RB wildly_RB interested_JJ in_IN all_PDT the_DT tests_NNS and_CC sometimes_RB we_PRP have_VBP trouble_NN getting_VBG her_PRP out_IN of_IN the_DT testing_NN room_NN !_. now_RB she_PRP has_VBZ a_DT baby_NN !_. !_. Fanny_IN the_DT vet_NN was_VBD there_RB for_IN the_DT whole_JJ thing_NN ,_, and_CC so_RB was_VBD Valerie_NNP ,_, who_WP was_VBD there_RB when_WRB Noki_NNP was_VBD first_JJ rescued_VBD ..._:</t>
-  </si>
-  <si>
-    <t>This_DT was_VBD the_DT scene_NN as_IN we_PRP gathered_VBD together_RB to_TO meet_VB in_IN the_DT Annual_NNP meeting_NN of_IN Des_NNP Moines_NNP Preceptory_NNP of_IN Legion_NNP of_IN Honor_NNP for_IN DeMolay_NNP ._. The_DT meeting_NN always_RB takes_VBZ place_NN on_IN March_NNP 18_CD and_CC it_PRP is_VBZ a_DT great_JJ group_NN of_IN men_NNS who_WP have_VBP been_VBN honored_VBN by_IN the_DT Order_NNP of_IN DeMolay.I_NNP am_VBP the_DT Secretary_NNP -Treasurer_NN of_IN the_DT group_NN so_RB I_PRP had_VBD to_TO be_VB there_EX a_DT little_JJ early_JJ ._. I_PRP stopped_VBD and_CC picked_VBD up_RP my_PRP$ new_JJ suit_NN on_IN the_DT way_NN out_IN to_TO the_DT Willow_NNP Creek_NNP Golf_NNP Club_NNP ._. It_PRP was_VBD a_DT good_JJ Iowa_NNP Pork_NNP Chop_NNP dinner_NN and_CC the_DT meeting_NN went_VBD very_RB well_RB ._. When_WRB I_PRP got_VBD home_NN I_PRP started_VBD a_DT Facebook_NNP group_NN for_IN the_DT Preceptory_NNP ._. Miles_NNP in_IN on_IN my_PRP$ S_NNP &amp;_CC *T_NNP list_NN ._. He_PRP pulled_VBD my_PRP$ Rosicrucian_JJ 's_POS necktie_NN off_IN the_DT table_NN and_CC chewed_VBD it_PRP in_IN half_NN ._. I_PRP should_MD have_VB taken_VBN if_IN off_RB and_CC put_VBD it_PRP on_IN the_DT rack_NN ._. Oh_UH well_RB he_PRP is_VBZ just_RB being_VBG a_DT puppy.And_NN he_PRP is_VBZ still_RB a_DT puppy_JJ ._. Just_VB a_DT big_JJ one.Then_NN a_DT real_JJ treat_NN I_PRP got_VBD to_TO watch_VB the_DT group_NN Straight_NNP No_NNP Chaser_NNP on_IN Iowa_NNP Public_NNP Television_NNP ._. And_CC that_IN reminded_VBD me_PRP that_IN I_PRP needed_VBD to_TO make_VB my_PRP$ pledge_NN so_RB I_PRP took_VBD care_NN of_IN that_DT ._. I_PRP support_VBP Iowa_NNP Public_NNP Television_NNP and_CC Iowa_NNP Public_NNP Radio_NNP ._. They_PRP enrich_VBP my_PRP$ life_NN immeasurably_RB ._. I_PRP am_VBP tired_VBN so_RB I_PRP think_VBP I_PRP shall_MD close_VB this_DT ._. The_DT Jokes_NNPS are_VBP ready_JJ and_CC they_PRP will_MD be_VB posted_VBN at_IN 7:00_CD AM_NNP ._. Thanks_NNS for_IN stopping_VBG by_IN ._. Hugs_NNP ._.</t>
-  </si>
-  <si>
-    <t>We_PRP recently_RB reported_VBD child-actor_NN Corey_NNP Haim_NNP had_VBD obtained_VBN a_DT large_JJ quantity_NN of_IN prescription_NN drugs_NNS just_RB prior_RB to_TO his_PRP$ death_NN earlier_RBR this_DT week.Despite_JJ early_JJ reports_NNS suggesting_VBG Haim_NNP died_VBD of_IN an_DT enlarged_JJ heart_NN ,_, the_DT coroner_NN 's_POS office_NN has_VBZ stated_VBN the_DT final_JJ cause_NN of_IN death_NN wo_MD n't_RB be_VB available_JJ for_IN another_DT six_CD weeks_NNS when_WRB toxicology_NN reports_NNS are_VBP completed_VBN ._. They_PRP have_VBP also_RB begun_VBN investigating_VBG how_WRB Haim_NNP was_VBD able_JJ to_TO get_VB access_NN to_TO such_JJ powerful_JJ medications_NNS ,_, including_VBG Oxycontin_NNP ,_, Vicodin_NNP and_CC Valium.According_NNP to_TO the_DT NYT_NNP ,_, one_CD of_IN the_DT prescriptions_NNS used_VBN to_TO obtain_VB these_DT drugs_NNS was_VBD a_DT forgery_NN and_CC investigators_NNS are_VBP looking_VBG into_IN a_DT larger_JJR issue_NN with_IN drug_NN rings_NNS stealing_VBG legitimate_JJ script_NN pads_NNS from_IN doctors_NNS and_CC forging_VBG prescriptions_NNS which_WDT are_VBP then_RB sold_VBN illegally_RB ._. But_CC it_PRP goes_VBZ even_RB further_RBR than_IN that_DT ._. Here_RB 's_VBZ what_WP California_NNP Attorney_NNP General_NNP Jerry_NNP Brown_NNP had_VBD to_TO say_VB :_: “_NN They_PRP get_VBP prescription_JJ drug_NN pads_NNS ,_, get_VB illegal_JJ drugs_NNS ,_, then_RB sell_VB them_PRP on_IN the_DT street_NN ._. You_PRP have_VBP doctors_NNS doing_VBG wrong_JJ ,_, people_NNS pretending_VBG to_TO be_VB doctors_NNS ,_, and_CC all_PDT the_DT criminal_JJ intermediaries_NNS making_VBG the_DT process_NN work._NN ”_NNP Initial_NNP police_NNS reports_NNS into_IN Haim_NNP 's_POS death_NN stated_VBD no_DT illegal_JJ or_CC illicit_JJ drugs_NNS were_VBD found_VBN in_IN his_PRP$ possession_NN however_RB ,_, as_IN we_PRP 've_VBP learned_VBN with_IN high_JJ profile_NN cases_NNS like_IN Heath_NNP Ledger_NNP ,_, Anna_NNP Nicole_NNP Smith_NNP ,_, Michael_NNP Jackson_NNP ,_, and_CC Brittany_NNP Murphy_NNP ,_, prescription_NN drugs_NNS used_VBD improperly_RB can_MD have_VB just_RB as_IN deadly_JJ consequences.Haim_NN 's_POS agent_NN ,_, who_WP also_RB represents_VBZ his_PRP$ long-time_JJ friend_NN Corey_NNP Feldman_NNP ,_, Mark_NNP Heaslip_NNP said_VBD Corey_NNP was_VBD making_VBG great_JJ strides_NNS to_TO wean_VB himself_PRP off_IN of_IN drugs_NNS ,_, which_WDT may_MD have_VB been_VBN as_RB many_JJ as_IN 50_CD pills_NNS a_DT day_NN ._. He_PRP also_RB said_VBD the_DT actor_NN had_VBD just_RB begun_VBN work_NN with_IN an_DT addiction_NN specialist_NN ._. In_IN the_DT days_NNS leading_VBG up_RP to_TO Corey_NNP 's_POS death_NN he_PRP had_VBD complained_VBN of_IN having_VBG trouble_NN breathing_NN and_CC had_VBD a_DT fever_NN between_IN 99_CD and_CC 101_CD ._. His_PRP$ mother_NN had_VBD thought_VBN he_PRP was_VBD fighting_VBG off_RP a_DT cold_NN or_CC flu_NN ,_, but_CC as_IN it_PRP turns_VBZ out_RP these_DT may_MD have_VB been_VBN symptoms_NNS of_IN his_PRP$ enlargdheart_NN ._.</t>
-  </si>
-  <si>
-    <t>Ya_NNP true_JJ that_IN she_PRP doesnt_VBZ spend_VBP a_DT lot_NN of_IN time_NN with_IN me_PRP talking_VBG but_CC there_EX was_VBD this_DT magical_JJ time_NN in_IN the_DT bus_NN ride_NN from_IN kulu_NN to_TO simla_VB ,_, wen_IN we_PRP actually_RB started_VBD talking_VBG ,_, ill_JJ vote_NN it_PRP as_IN my_PRP$ best_JJS moment_NN with_IN her_PRP$ can_MD not_RB forget_VB that_IN never_RB ever_RB ,_, Really_NNP got_VBD to_TO know_VB her_PRP as_IN a_DT mature_NN ,_, a_DT bit_NN more_RBR stable_JJ and_CC strong_JJ head_NN dudette_NN then_RB from_IN the_DT rather_RB clumsy_NN ,_, always_RB cheering_VBG ,_, gleeful_JJ self_NN that_IN she_PRP seems_VBZ the_DT rest_NN of_IN the_DT time_NN ..._: Beware_NNP she_PRP is_VBZ nothing_NN as_IN she_PRP projects_NNS herself_PRP to_TO be_VB the_DT beautifull_NN dimpled_VBD smile_NN can_MD have_VB a_DT lot_NN of_IN meaning_VBG he_PRP he_PRP he_PRP ._. She_PRP 's_VBZ got_VBD a_DT lot_NN of_IN policies_NNS governing_VBG herlself_NN but_CC that_IN doesnt_JJ keep_VB her_PRP$ from_IN enjoyin_JJ life_NN to_TO max_VB ..._: seriously_RB !_. !_. she_PRP is_VBZ one_CD whose_WP$ absense_NN will_MD dampen_VB any_DT group_NN 's_POS mood.And_NN as_IN for_IN ur_JJ warning_NN against_IN me_PRP not_RB keeping_VBG in_IN touch_NN u_JJ don_NN have_VBP to_TO worry_VB abt_IN it_PRP i_VBZ aint_NN gon_NN na_TO do_VB the_DT same_JJ mistake_NN of_IN letting_VBG time_NN wit_NN u_JJ slip_NN away_RB as_IN i_NN did_VBD earlier_RB ._. Keep_VB smiling_VBG u_JJ will_MD always_RB be_VB same_JJ jayashree_JJ tat_NN i_NN know_VBP ,_, cos_VBP there_EX is_VBZ nothing_NN where_WRB u_NN can_MD improve_VB u_JJ 're_VBP so_RB perfect_JJ ..._: ._. Keep_VB smiling_VBG Rok_NNP on_IN ..._: U_NNP better_JJR keep_NN in_IN touch_NN :_: )_)</t>
-  </si>
-  <si>
-    <t>Today_NN Jordan_NNP and_CC I_PRP went_VBD to_TO a_DT bull_JJ sale_NN ._. I_PRP could_MD n't_RB stop_VB laughing_VBG during_IN the_DT auction_NN ;_: the_DT auctioneer_NN was_VBD hilarious_JJ and_CC it_PRP was_VBD just_RB like_IN a_DT movie_NN ._. Jordan_NNP 's_POS mom_NN was_VBD there_RB ,_, which_WDT is_VBZ why_WRB we_PRP went_VBD ._. We_PRP both_DT tried_VBD to_TO make_VB Jordan_NNP smile_NN for_IN a_DT picture_NN ,_, but_CC he_PRP really_RB did_VBD n't_RB want_VB to_TO ._. He_PRP likes_VBZ to_TO pretend_VB he_PRP 's_VBZ a_DT serious_JJ ,_, grumpy_JJ guy_NN ._. Also_RB ,_, I_PRP was_VBD definitely_RB the_DT only_JJ person_NN there_EX wearing_VBG floral_JJ ballet_NN flats_NNS ._. This_DT weekend_NN was_VBD full_JJ of_IN comfort_NN food_NN ._. I_PRP got_VBD a_DT cold_JJ ,_, so_IN I_PRP made_VBD lots_NNS of_IN food_NN to_TO make_VB myself_PRP feel_VB better_RB ._. The_DT homemade_NN macaroni_NN and_CC cheese_NN was_VBD my_PRP$ favorite_JJ ._. Hello_NNP ,_, perfect_JJ start_NN to_TO my_PRP$ weekend_NN !_. I_PRP get_VBP to_TO spend_VB so_RB much_JJ time_NN with_IN Jordan_NNP now_RB because_IN his_PRP$ spring_NN break_NN starts_VBZ today_NN ._. :_: )_) Hope_VBP you_PRP all_DT have_VBP a_DT beautiful_JJ weekend_NN ._. Hello_NNP my_PRP$ sweets_NNS !_. I_PRP have_VBP exciting_VBG news_NN !_. I_PRP 'm_VBP opening_VBG a_DT vintage_NN housewares_VBZ shop_NN on_IN Etsy_NNP soon_RB !_. I_PRP 've_VBP always_RB been_VBN in_IN love_NN with_IN things_NNS that_WDT are_VBP sweet_JJ and_CC a_DT little_JJ bit_NN country_NN ,_, like_IN they_PRP 'd_MD belong_VB in_IN a_DT cabin_NN ,_, and_CC now_RB I_PRP 'm_VBP doing_VBG what_WP I_PRP love_VBP and_CC opening_VBG a_DT shop_NN ._. Hopefully_RB by_IN the_DT middle_NN of_IN next_JJ week_NN my_PRP$ shop_NN will_MD be_VB as_IN full_JJ and_CC perfect_JJ as_IN I_PRP 'm_VBP dreaming_VBG ,_, so_IN I_PRP 'll_MD share_NN the_DT link_NN with_IN you_PRP then._VBP &amp;_CC nbsp_VBP ;_: In_IN the_DT meantime_NN ,_, here_RB is_VBZ a_DT sneak_JJ peak_NN of_IN some_DT items_NNS I_PRP love_VBP ._. My_NNP sweet_JJ Danny_NNP cat_NN got_VBD sick_JJ yesterday_NN ,_, so_IN we_PRP spent_VBD many_JJ hours_NNS at_IN the_DT vet_NN 's_POS office_NN last_JJ night_NN ._. &amp;_CC nbsp_NN ;_: Since_IN she_PRP already_RB had_VBD surgery_VBN two_CD years_NNS ago_RB ,_, I_PRP pretty_RB much_RB lost_VBN it_PRP when_WRB the_DT same_JJ problems_NNS happened_VBD yesterday_NN ._. &amp;_CC nbsp_NN ;_: Thankfully_NNP ,_, the_DT vet_NN does_VBZ n't_RB think_VB she_PRP needs_VBZ surgery_NN this_DT time_NN ,_, just_RB antibiotics_NNS and_CC prescription_NN food_NN ._. &amp;_CC nbsp_JJ ;_: So_CC my_PRP$ poor_JJ fat_JJ kitty_NN is_VBZ very_RB tired_JJ and_CC sad_JJ today_NN ,_, but_CC hopefully_RB will_MD be_VB better_RB soon_RB ._. Update_VB I_PRP got_VBD this_DT text_NN this_DT afternoon_NN ._. It_PRP seems_VBZ like_IN she_PRP 's_VBZ doing_VBG better_JJR !_. Hi_NNP mom_NN ._. I_PRP 'm_VBP doin_JJ good_JJ ._. Today_NN is_VBZ my_PRP$ turn_NN to_TO take_VB turn_NN in_IN the_DT Blog_NNP It_PRP Forward_NNP Mashup_NNP ._. The_DT idea_NN is_VBZ to_TO write_VB about_IN what_WP inspires_VBZ us_PRP the_DT most_RBS ,_, and_CC for_IN me_PRP that_DT is_VBZ planning_VBG ._. I_PRP plan_VBP where_WRB I_PRP will_MD live_VB ..._: ..._: what_WP my_PRP$ house_NN will_MD look_VB like_IN ..._: ..._: where_WRB I_PRP want_VBP to_TO travel_VB ..._: ..._: my_PRP$ wedding_NN someday_NN ..._: ..._: drives_VBZ I_PRP want_VBP to_TO take_VB ..._: ..._: adventures_VBZ I_PRP will_MD have_VB ..._: ..._: and_CC the_DT life_NN I_PRP want_VBP to_TO live_VB ._. click_VB on_IN photos_NNS for_IN image_NN sources_NNS &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: Yesterday_NN 's_POS post_NN was_VBD by_IN &amp;_CC nbsp_NNS ;_: oh_UH ,_, hey_JJ great_JJ !_. &amp;_CC nbsp_NN ;_: and_CC tomorrow_NN 's_POS post_NN will_MD be_VB by_IN &amp;_CC nbsp_NNS ;_: Oh_NNP So_NNP Beautiful_NNP Paper_NNP ._. Please_NNP be_VB sure_JJ to_TO go_VB check_VB out_RP both_DT of_IN their_PRP$ inspiring_JJ posts_NNS !_. Since_IN the_DT weather_NN has_VBZ been_VBN so_RB nice_JJ ,_, Jordan_NNP and_CC I_PRP went_VBD down_RB to_TO the_DT river_NN by_IN his_PRP$ house_NN Sunday_NNP morning_NN ._. There_EX is_VBZ hardly_RB any_DT ice_NN left_VBD on_IN the_DT river_NN ,_, which_WDT is_VBZ amazing_JJ because_IN it_PRP was_VBD completely_RB covered_VBN when_WRB we_PRP were_VBD there_RB for_IN Christmas_NNP ._. I_PRP ca_MD n't_RB wait_VB for_IN spring_NN so_IN we_PRP can_MD finally_RB spend_VB days_NNS outside_IN ._. I_PRP took_VBD so_RB many_JJ pictures_NNS of_IN Parker_NNP this_DT weekend_NN !_. My_PRP$ favorites_NNS were_VBD of_IN him_PRP drinking_VBG water_NN during_IN lunch_NN ;_: first_RB he_PRP loved_VBD it_PRP ,_, then_RB he_PRP really_RB hated_VBD it_PRP ._. P.S_NNP ._. Are_VBP n't_RB his_PRP$ cheeks_NNS so_RB adorable_JJ ?_. !_. I_PRP just_RB wanted_VBD to_TO cuddle_VB him_PRP all_DT day_NN ._. P.P.S_NNP ._. I_PRP may_MD have_VB been_VBN a_DT little_JJ selfish_JJ and_CC held_VBD him_PRP way_NN more_JJR than_IN everyone_NN else_RB ._. Sorry_NN !_. (_( I_PRP 'm_VBP not_RB really_RB that_IN sorry_NN ,_, though_RB ._. )_)</t>
-  </si>
-  <si>
-    <t>New_NNP Zealand_NNP batsman_NN Brendon_NNP McCullum_NNP is_VBZ keen_JJ to_TO put_VB the_DT lessons_NNS learned_VBD from_IN a_DT difficult_JJ 2009_CD IPL_NNP into_IN practice_NN during_IN this_DT year_NN 's_POS tournament_NN ._. McCullum_NNP is_VBZ in_IN the_DT middle_NN of_IN a_DT home_NN series_NN against_IN Australia_NNP ._. New_NNP Zealand_NNP lost_VBD the_DT Chapell-Hadlee_JJ series_NN 3-2_CD and_CC the_DT teams_NNS will_MD meet_VB in_IN Wellington_NNP on_IN Friday_NNP for_IN the_DT first_JJ of_IN two_CD Test_NNP matches_NNS ._. With_IN the_DT 2010_CD IPL_NNP successfully_RB underway_RB amongst_JJ security_NN fears_NNS ,_, McCullum_NNP is_VBZ still_RB waiting_VBG on_IN clearance_NN before_IN confirming_VBG his_PRP$ involvement_NN but_CC was_VBD eager_JJ to_TO participate_VB in_IN the_DT competition_NN because_IN of_IN its_PRP$ massive_JJ impact_NN on_IN the_DT cricketing_NN world_NN ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ husband_NN and_CC I_PRP love_VBP watching_VBG ``_`` Arrested_VBN Development_NNP ''_'' on_IN DVD_NNP ._. We_PRP need_VBP to_TO buy_VB the_DT series_NN already_RB !_. !_. We_PRP have_VBP rented_VBN the_DT entire_JJ 3_CD seasons_NNS from_IN Netflix_NNP too_RB many_JJ times_NNS to_TO count_VB ._. What_WP I_PRP really_RB want_VBP to_TO know_VB is_VBZ who_WP made_VBD the_DT decision_NN to_TO take_VB this_DT series_NN off_IN the_DT air_NN ?_. I_PRP mean_VBP seriously_RB ,_, are_VBP they_PRP still_RB employed_VBD at_IN Fox_NNP or_CC what_WP ?_. I_PRP would_MD love_VB to_TO hear_VB your_PRP$ comments_NNS if_IN you_PRP know_VBP the_DT answer_NN or_CC even_RB want_VBP to_TO rant_VB ._.</t>
-  </si>
-  <si>
-    <t>Does_VBZ this_DT make_VB sense_NN to_TO you_PRP ?_. Your_PRP$ mother_NN does_VBZ n't_RB let_VB anybody_NN harm_JJ animals_NNS ,_, and_CC you_PRP surprise_VBP everyone_NN by_IN those_DT statements_NNS !_. ..I_NN dont_JJ buy_VB your_PRP$ shit_NN that_IN you_PRP didnt_VBP say_VBP any_DT of_IN it_PRP and_CC the_DT cd_NN is_VBZ doctored..I_JJ dont_JJ think_VBP im_JJ jumping_VBG the_DT gun_NN either_CC ,_, you_PRP did_VBD that_IN probably_RB and_CC are_VBP paying_VBG the_DT price_NN of_IN it.._JJ Why_WRB is_VBZ Shashi_NNP Tharoor_NNP contesting_VBG elections_NNS from_IN Trivandrum_NNP ?_. ..I_NN just_RB saw_VBD a_DT flash_JJ news_NN of_IN the_DT same_JJ ,_, dont_RB know_VB if_IN he_PRP has_VBZ some_DT ancestral_JJ connections_NNS with_IN that_DT place..If_NN he_PRP does_VBZ n't_RB ,_, then_RB why_WRB !_. I_PRP have_VBP all_PDT the_DT respect_NN for_IN Sanjay_NNP Dutt_NNP ._. That_DT is_VBZ ,_, if_IN I_PRP ignore_VBP his_PRP$ failed_JJ marriage_NN ,_, a_DT controversial_JJ 2nd_CD marriage_NN (_( or_CC third_RB ,_, srry_VBP ive_JJ lost_VBN track_NN )_) ,_, his_PRP$ involvement_NN (_( rather_RB ,_, his_PRP$ conviction_NN )_) in_IN the_DT mumbai_NN blasts_NNS ,_, and_CC the_DT fact_NN that_IN all_DT he_PRP 'll_MD utter_VB in_IN his_PRP$ campaigns_NN is_VBZ 'Gandhigiri_VBN '_'' (_( a_DT term_NN thats_VBZ not_RB his_PRP$ )_) .._VBP The_DT next_JJ time_NN you_PRP stand_VBP up_RB and_CC question_NN Sachin_NNP 's_POS honesty_NN I_PRP 'll_MD take_VB it_PRP as_IN a_DT personal_JJ insult..and_NN none_NN of_IN you_PRP would_MD want_VB that..coz_NN I_PRP 'am_VBP '_'' the_DT cricket_NN crazy_JJ indian_JJ public.._NN Is_VBZ Austria_NNP gone_VBN crazy_JJ ?_. ..A_JJ man_NN gets_VBZ convicted_VBN for_IN 14_CD years_NNS ,_, even_RB though_IN the_DT duration_NN of_IN his_PRP$ offense_NN in_IN itself_PRP was_VBD 25years_CD !_. ..cmon_NN !_. .._NN TATA_NNP sends_VBZ me_PRP an_DT email_NN telling_VBG me_PRP about_IN this_DT wonderful_JJ broadband_NN connection_NN that_WDT has_VBZ 'not_VBN much_RB hidden_JJ charges_NNS '_POS !_. !_. ..its_NNS written_VBN right_RB across_IN the_DT middle..Should_NN I_PRP just_RB laugh_NN ,_, or_CC sympathise_VB ?_. Mira_NNP Nair_NNP re-releasing_JJ Salaam_NNP Bombay..Woman_NNP are_VBP you_PRP out_IN of_IN your_PRP$ mind_NN ?_. ?_. ..The_'' then_RB child_JJ artist_NN would_MD still_RB be_VB driving_VBG an_DT autorickshaw_NN in_IN bangalore..and_NN if_IN his_PRP$ condition_NN doesnt_NN improve_VB then_RB whats_VBZ the_DT point_NN ?_. ?_. No_DT multiplex_NN releases_VBZ for_IN movies_NNS after_IN april_NN 3_CD ?_. ..Producers_NNS digging_VBG their_PRP$ own_JJ graves..Atleast_NN wait_NN for_IN the_DT recession_NN to_TO get_VB over_IN with..So_NN that_IN you_PRP can_MD recover_VB some_DT dough_NN from_IN the_DT stock_NN markets..You_NN 've_VBP ruled_VBN the_DT industry_NN for_IN a_DT long_JJ time_NN ,_, let_VB someone_NN else_RB call_VB the_DT shots_NNS now..the_JJ end_NN audience_NN will_MD still_RB pay_VB the_DT same_JJ if_IN not_RB more.._VB Why.._NNP Why.._NNP Why.._NNP Why.._NNP I_PRP ask_VBP ._.</t>
-  </si>
-  <si>
-    <t>hiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii_NN this_DT is_VBZ poo_JJ /////////////////////////_NNP ok_NN i_NN m_VBP gfoinng_NN to_TO tell_VB some_DT thing_NN about_IN jaya_NN (_( gayathiri_NN )_) ok_NN let_VB me_PRP say_VB sum_JJ lies_NNS abt_VBP her_PRP$ 1.she_CD is_VBZ a_DT very_RB good_JJ gal_NN !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. 2.quite_CD gal_JJ !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. 3._CD very_RB bad_JJ in_IN dancing_VBG then_RB etc_FW etc_FW ..._: ..._: ..._: ..._: ..._: ..._: ..._: okkkkkkkkkkkkkkk_IN okkkk_IN i_JJ think_VBP u_JJ feel_NN like_IN slaping_VBG me_PRP nw_JJ ..._: ..._: ..._: ..._: ..._: ..._: ._. to_TO say_VB abt_NN jaya_NN she_PRP is_VBZ a_DT very_RB good_JJ dancer_NN who_WP always_RB teach_VBP me_PRP the_DT new_JJ dances_NNS which_WDT i_VBP dont_VBP knw_NN and_CC help_VB me_PRP by_IN clearing_VBG my_PRP$ douts_NNS ..._: ..._: ..._: ..._: ist_NN nt_JJ dddddddddddddd_NN ..._: ..._: ..._: ._. she_PRP is_VBZ a_DT good_JJ friend_NN for_IN all_DT of_IN us_PRP but_CC she_PRP like_IN to_TO talk_VB a_DT lot_NN with_IN my_PRP$ sister_NN than_IN meeeeeeeeeeee_NN she_PRP is_VBZ one_CD of_IN the_DT rowdy_NN in_IN my_PRP$ dancing_NN class_NN ..._: ..._: ._. i_VB just_RB love_VB her_PRP$ eyes_NNS a_DT lot_NN ..._: ..._: ..._: .._VBP i_NNS like_IN her_PRP$ attitude_NN tat_NN she_PRP is_VBZ always_RB frist_JJ and_CC i_JJ admire_VBP her_PRP$ way_NN of_IN dancing_VBG !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. !_. i_NN like_IN her_PRP$ soooooooooooooo_NN much_JJ when_WRB she_PRP fight_VBD with_IN person_NN i_JJ dont_VBP like_IN (_( i_JJ knw_VBP i_JJ m_VBP selfish_NN )_) she_PRP loves_VBZ to_TO take_VB photos_NNS wen_WRB ever_RB v_RB go_VB out_RP ..._: ..._: ..._: ..._: ..._: last_JJ but_CC nt_VBD the_DT least_JJS she_PRP is_VBZ a_DT multi_NN talented_VBN gallllllllllllll_NN</t>
-  </si>
-  <si>
-    <t>So_RB ..._: .I_NN still_RB come_VBN around_IN here_RB once_RB in_IN a_DT while_NN ._. I_PRP read_VBD a_DT blog_NN or_CC two_CD ._. I_PRP rarely_RB leave_VBP comments_NNS anymore_RB ._. It_PRP 's_VBZ because_IN I_PRP am_VBP real_JJ busy_JJ and_CC self-important_JJ ,_, dontchya_NN know_VBP !_. I_PRP have_VBP just_RB been_VBN swimming_VBG in_IN busy'ness_NN ._. Treading_NN may_MD be_VB more_JJR accurate_JJ ._. OK_CC ..._: .swimming_VBG sounds_NNS like_IN I_PRP 'm_VBP going_VBG somewhere_RB ._. Treading_VBG might_MD not_RB be_VB progressive_JJ ,_, but_CC still_RB sounds_VBZ athletic_JJ ._. I_PRP guess_VBP bobbing_VBG in_IN busy'ness_NN would_MD be_VB more_JJR apt_JJ ._. My_PRP$ job_NN has_VBZ taken_VBN over_RP my_PRP$ life_NN ._. Do_VBP n't_RB get_VB me_PRP wrong_JJ ._. I_PRP love_VBP my_PRP$ job_NN ._. Egotistically_RB ,_, I_PRP even_RB sometimes_RB think_VBP I_PRP 'm_VBP kinda_JJ good_NN at_IN it_PRP ._. I_PRP did_VBD n't_RB acknowledge_VB it_PRP (_( I_PRP think_VBP I_PRP realized_VBD it_PRP a_DT while_IN ago_RB )_) until_IN tonight_NN ._. I_PRP read_VBP Misha_NNP 's_POS blog_NN about_IN her_PRP$ daughter_NN and_CC her_PRP$ sense_NN of_IN wonderment_NN ._. It_PRP made_VBD me_PRP smile_JJ ._. I_PRP remember_VBP some_DT of_IN the_DT conversations_NNS that_IN I_PRP have_VBP had_VBN with_IN Misha_NNP and_CC some_DT of_IN the_DT blogs_NNS those_DT conversations_NNS birthed_VBD ._. I_PRP look_VBP back_RB ,_, and_CC compared_VBN to_TO now_RB ,_, my_PRP$ life_NN was_VBD shit_VBN ._. We_PRP talked_VBD about_IN bridges_NNS ,_, and_CC love_VB ,_, and_CC Terebithia_NNP and_CC I_PRP wrote_VBD about_IN Hank_NNP and_CC Phil_NNP ,_, and_CC HER_NNP and_CC kicking_VBG dirt_NN with_IN my_PRP$ bare_NN feet_NNS ,_, and_CC about_IN boobs_NN and_CC poop_NN and_CC such_JJ ._. I_PRP guess_VBP I_PRP post_VBP blogs_NNS when_WRB I_PRP need_VBP the_DT catharsis_NN of_IN producing_VBG a_DT gigantic_JJ mass_NN of_IN emotion_NN ,_, turmoil_NN ,_, angst_NN ,_, wonderment_NN ,_, joy_NN ,_, anger_NN and_CC the_DT like_JJ ._. I_PRP felt_VBD that_IN urge_NN tonight_NN ..._: .then_VBZ the_DT kids_NNS started_VBD fighting_VBG ..._: ..and_VBP all_PDT that_IN I_PRP could_MD produce_VB was_VBD a_DT proverbial_JJ wet_JJ fart_NN ._. Today_NN ,_, as_IN I_PRP said_VBD ,_, life_NN is_VBZ busy_JJ ,_, and_CC from_IN other_JJ 's_POS expectations_NNS good_JJ ._. There_EX are_VBP the_DT daily_JJ grind_NN headaches_NNS ._. And_CC no_DT time_NN for_IN the_DT heartaches_NNS ._. I_PRP kinda_VBP miss_PDT the_DT heartaches_NNS ,_, and_CC the_DT wonderment_NN that_IN they_PRP brought_VBD ._. This_DT made_VBD no_DT sense_NN whatsoever_RB ..._: ..._: Anyway_RB ..._: ..have_VB a_DT good_JJ night_NN ._. The_DT headaches_NNS come_VBP early_RB when_WRB they_PRP start_VBP at_IN 530_CD ..._: ._. Later_NNP Deaner_NNP</t>
-  </si>
-  <si>
-    <t>And_CC here_RB is_VBZ all_DT put_VBN together_RB ._. I_PRP was_VBD happy_JJ ._. And_CC loved_VBD the_DT table_JJ settings_NNS and_CC the_DT flowers_NNS arrangements_NNS -_: green_NN is_VBZ not_RB appreciated_VBN as_IN a_DT flower_JJR colour_NN ._. Great_NNP wedding_VBG -_: the_DT bride_NN sang_NN to_TO the_DT groom_NN ._. Tired_NNP feet_NNS ._. Sleep_RB now_RB ._. Baking_VBG again_RB soon_RB ._. I_PRP decided_VBD to_TO do_VB a_DT cutting_VBG cake_NN for_IN the_DT happy_JJ couple_NN ._. I_PRP had_VBD no_DT idea_NN how_WRB I_PRP was_VBD going_VBG to_TO decorate_VB the_DT cake_NN as_IN the_DT florist_NN had_VBD told_VBN me_PRP that_IN green_JJ cymbidiums_NNS are_VBP not_RB in_IN season_NN until_IN June_NNP ._. It_PRP was_VBD pure_JJ luck_NN that_IN these_DT orchids_NNS were_VBD at_IN the_DT florist_NN on_IN my_PRP$ way_NN home_NN last_JJ night_NN !_. !_. !_. (_( Side_NNP note_VBP -_: I_PRP have_VBP an_DT exciting_NN project_NN in_IN the_DT works_NNS ._. Hopefuly_VBP it_PRP will_MD come_VB together_RB !_. )_) The_DT cutting_VBG cake_NN it_PRP also_RB carrot_VBZ passion_NN cake_NN ._. Had_VBD to_TO be_VB ._. I_PRP wanted_VBD to_TO make_VB a_DT carrot_NN cake_NN befitting_NN for_IN a_DT passionate_JJ couple_NN ._. This_DT is_VBZ soooooooooo_JJ good_JJ ._. I_PRP figured_VBD adding_VBG two_CD p_NN 's_POS -_: pomegranate_NN and_CC pistachio_NN would_MD up_VB the_DT passion_NN in_IN the_DT carrot_NN cake_NN ._. I_PRP soaked_VBD the_DT currants_NNS in_IN orange_NN juice_NN ._. The_DT carrot_NN cake_VB itself_PRP is_VBZ really_RB really_RB (_( it_PRP is_VBZ not_RB your_PRP$ 'healthy_NNS '_POS carrot_NNS cake_VBP )_) ._. But_CC totally_RB fitting_JJ to_TO have_VB on_IN a_DT special_JJ occassion_NN -_: like_IN a_DT wedding_NN ._. I_PRP want_VBP to_TO say_VB it_PRP again_RB ._. So_RB good_JJ ._. I_PRP played_VBD around_RP with_IN my_PRP$ Love_NNP Chai_NNP tea_NN ._. This_DT was_VBD a_DT mud_JJ cake_NN ._. Not_RB sure_JJ chai_NN works_VBZ as_IN a_DT mud_NN cake_NN ._. Filled_VBN with_IN Dulce_NNP de_FW leche_FW ._. Yes_UH I_PRP made_VBD the_DT obligatory_JJ chocolate_NN cupcakes_NNS ._. Flavour_CD number_NN two_CD for_IN the_DT wedding_NN -_: custard_NN passionfruit_NN cupcakes_NNS with_IN white_JJ chocolate_NN buttercream_NN ._. Custard_NNP ._. Passionfruit_NNP ._. Nuff_NNP said_VBD ._. Ay_NNP yai_JJ yai_NN ._. A_DT couple_NN of_IN burnt_JJ finger_NN tips_NNS and_CC numerous_JJ cans_NNS of_IN spray_NN paint_NN later_RB the_DT day_NN my_PRP$ girlfriend_NN 's_POS wedding_NN finally_RB happened_VBD ._. The_DT theme_NN was_VBD lime_JJ green_JJ and_CC silver_NN ._. I_PRP think_VBP I_PRP managed_VBD to_TO coordinate_VB everything_NN well_RB ._. The_DT cupcake_NN stand_NN ?_. Made_NNP (_( thanks_NNS dad_RB !_. )_) ._. The_DT organza_JJ flowers_NNS ?_. Made_VBN !_. Cupcake_VB flavours_NNS ?_. Decided_VBD !_. Five_CD flavours_NNS ._. I_PRP do_VBP n't_RB care_VB what_WP anyone_NN else_RB says_VBZ ,_, baking_VBG in_IN these_DT 'cupcake_NNP '_POS cups_NNS is_VBZ hard_JJ ._. Not_RB a_DT big_JJ fan_NN ._. I_PRP mean_VBP ,_, yes_UH they_PRP look_VBP good_JJ ._. But_CC it_PRP is_VBZ so_RB much_JJ easier_JJR and_CC I_PRP think_VBP the_DT cupcakes_NNS cook_NN and_CC look_VB so_RB much_JJ better_RBR in_IN the_DT traditional_JJ paper_NN liners_NNS ._. These_DT are_VBP gluten_JJ free_JJ lemon_NN cupcakes_NNS ._. Fantastic_JJ cupcake_NN ._. Not_RB so_RB great_JJ photo_NN or_CC presentation_NN ._. I_PRP made_VBD the_DT peanut_NN butter_NN dulce_NN de_IN leche_FW myself_PRP ._. So_RB good_JJ ._. All_PDT the_DT flavours_NNS complimented_VBN each_DT other_JJ ._. Need_VBP to_TO make_VB this_DT again_RB ._. Next_JJ time_NN I_PRP will_MD get_VB rid_JJ of_IN the_DT raspberry_NN seeds_NNS so_IN the_DT ganache_NN is_VBZ smooth_RB ._. Having_VBG said_VBD that_IN ,_, no_DT one_NN complained_VBD about_IN having_VBG raspberry_NN seeds_NNS in_IN the_DT ganache_NN ._.</t>
-  </si>
-  <si>
-    <t>.flickr-photo_JJ {_( border_NN :_: solid_JJ 2px_CD #_# 000000_CD ;_: }_) .flickr-yourcomment_JJ {_( }_) .flickr-frame_JJ {_( text-align_NN :_: left_NN ;_: padding_NN :_: 3px_CD ;_: }_) .flickr-caption_NN {_( font-size_JJ :_: 0.8em_CD ;_: margin-top_JJ :_: 0px_CD ;_: }_) Exposition_NNP &amp;_CC quot_NN ;_: Lettre_NNP hébraïque_NN &amp;_CC quot_NN ;_: Paris_NNP Novembre_NNP 2008_CD ,_, originally_RB uploaded_VBN by_IN Danas_NNP paris_NN ._. Exposition_NN ``_`` Lettre_NNP hébraïque_NN ''_'' Paris_NNP Novembre_NNP 2008_CD Re-sharing_VBG the_DT information_NN for_IN a_DT friend_NN 's_POS exhibition_NN coming_VBG up_RP in_IN Paris_NNP ._. He_PRP 's_VBZ extremely_RB talented_JJ and_CC was_VBD a_DT great_JJ host_NN for_IN an_DT evening_NN when_WRB I_PRP met_VBD up_RP with_IN him_PRP last_JJ year_NN ._. If_IN you_PRP are_VBP in_IN the_DT area_NN ,_, check_VB it_PRP out_RP ._. Here_RB 's_VBZ his_PRP$ flickr_NN and_CC his_PRP$ website_NN ._. Exposition_NN :_: Michel_NNP D_NNP ’_NNP anastasio_VBZ du_JJ 6_CD au_JJ 30_CD novembre_JJ 2008_CD lundi_NN au_JJ vendredi_NN de_IN 14h_CD à_JJ 18h_CD vernissage_NN le_NN jeudi_NN 6_CD novembre_JJ à_NNP partir_NN de_IN 18_CD h_NN Lettres_NNP hébraïques_VBZ calligraphies_NNS modernes_NNS :_: œuvres_NNS originales_NNS ,_, sur_NN toile_NN ,_, papier_JJR et_FW photographie_FW à_FW LA_NNP MAISON_NNP DES_NNP MICI_NNP –_NNP AFA_NNP 78_CD ,_, quai_FW de_FW jemmapes_FW 75010_CD paris_NN www.afa.asso.fr_NN Métro_NNP République_NNP ,_, Jacques_NNP Bonsergent_NNP Bus_NNP Ligne_NNP 75_CD arrêt_NN Allibert_NNP --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_NNP Gallagher_NNP Fans_NNPS of_IN this_DT blog_NN will_MD ,_, for_IN many_JJ reasons_NNS ,_, enjoy_VB this_DT documentary_NN :_: Which_NNP is_VBZ actually_RB viewable_JJ online_NN ,_, apparently_RB this_DT weekend_NN only_RB in_IN association_NN with_IN the_DT Hamptons_NNP International_NNP Film_NNP Festival_NNP &amp;_CC Snag_NNP Films_NNP ._. Watch_VB it_PRP ._. Be_VB inspired_VBN ._. Share_NN ._. http_NN :_: //snagfilms.com/films/title/between_the_folds/_NN --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_JJ Gallagher_NNP Now_RB that_IN Collaboration_NNP #_# 2_CD is_VBZ upon_IN us_PRP ,_, finally_RB taking_VBG the_DT time_NN to_TO post_VB some_DT of_IN the_DT results_NNS people_NNS created_VBD using_VBG the_DT source_NN from_IN Collaboration_NNP #_# 1_CD ._. Here_RB is_VBZ a_DT sampling_NN of_IN the_DT result_NN ,_, the_DT theme_NN however_RB is_VBZ still_RB open_JJ for_IN participation_NN and_CC you_PRP can_MD view_VB all_DT results_NNS on_IN flickr_NN ._. Some_DT interesting_JJ variety_NN ,_, as_IN expected_VBN ,_, was_VBD produced_VBN depending_VBG on_IN the_DT properties_NNS of_IN the_DT monitor/display_NN that_WDT people_NNS used_VBD to_TO project_VB the_DT source_NN image_NN ..._: Attributions_NNS :_: Top_NN :_: David_NNP Hull_NNP ,_, Jens_NNP Ludwig_NNP ._. 2nd_CD Row_NN :_: David_NNP Hull_NNP ,_, Ryan_NNP Gallagher_NNP ._. 3rd_CD Row_NN :_: Jens_NNS Ludwig_NNP ,_, Nathan_NNP Barrow_NNP ._. 4th_CD Row_NN :_: John_NNP ,_, Crista_NNP ._. Bottom_NNP :_: Stephan_NNP Lehmann_NNP ,_, Mick_NNP Logan_NNP These_DT photos_NNS was_VBD created_VBN as_IN part_NN of_IN a_DT multi-photographer_JJ Camera_NNP Toss_NNP Group_NNP collaboration_NN ._. The_DT pattern_NN primitive_JJ image_NN used_VBN with_IN permission_NN and_CC under_IN the_DT terms_NNS of_IN the_DT Creative_JJ Commons_NNPS ;_: Attribution_NNP ,_, Non-Commercial_NNP ,_, Share-Alike_NNP 2.0_CD license_NN ._. See_VB Shared_NNP Source_NNP Collaboration_NNP #_# 1_CD and_CC results_NNS ._. See_NNP also_RB all_DT results_NNS of_IN such_JJ themes_NNS ._. If_IN you_PRP are_VBP eager_JJ to_TO get_VB participating_JJ ,_, Collaboration_NNP #_# 2_CD theme_NN has_VBZ already_RB been_VBN posted_VBN ._. Please_NNP pay_VB special_JJ attention_NN to_TO the_DT tag_NN ,_, licensing_NN ,_, and_CC attribution_NN requirements_NNS of_IN the_DT project_NN ._. Here_RB is_VBZ a_DT taste_NN ..._: originally_RB uploaded_VBN by_IN John_NNP (_( InF_NNP !_. )_) --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_JJ Gallagher_NNP .flickr-photo_NN {_( border_NN :_: solid_JJ 2px_CD #_# 000000_CD ;_: }_) .flickr-yourcomment_JJ {_( }_) .flickr-frame_JJ {_( text-align_NN :_: left_NN ;_: padding_NN :_: 3px_CD ;_: }_) .flickr-caption_NN {_( font-size_JJ :_: 0.8em_CD ;_: margin-top_JJ :_: 0px_CD ;_: }_) DSC00919_NNP ,_, originally_RB uploaded_VBN by_IN QuakkauQ_NNP ._. This_DT photo_NN was_VBD created_VBN as_IN part_NN of_IN a_DT multi-photographer_JJ Camera_NNP Toss_NNP Group_NNP collaboration_NN ._. The_DT pattern_NN primitive_JJ image_NN used_VBN with_IN permission_NN and_CC under_IN the_DT terms_NNS of_IN the_DT Creative_JJ Commons_NNPS ;_: Attribution_NNP ,_, Non-Commercial_NNP ,_, Share-Alike_NNP 2.0_CD license_NN ._. See_VB Shared_NNP Source_NNP Collaboration_NNP #_# 1_CD and_CC results_NNS ._. See_NNP also_RB all_DT results_NNS of_IN such_JJ themes_NNS ._. Our_PRP$ first_JJ collaboration_NN theme_NN (_( #_# 1_CD )_) was_VBD posted_VBN to_TO the_DT group_NN today_NN by_IN Jens_NNP ._. The_DT image_NN above_NN is_VBZ a_DT result_NN from_IN working_VBG with_IN a_DT graphical_JJ source_NN displayed_VBN on_IN their_PRP$ computer_NN monitor_NN ,_, we_PRP are_VBP encouraging_VBG everyone_NN to_TO try_VB out_RP this_DT same_JJ primitive_JJ source_NN image_NN and_CC share_NN their_PRP$ results_NNS ,_, hence_RB the_DT ``_`` shared_VBD source_NN ''_'' of_IN this_DT little_JJ project_NN ._. More_JJR to_TO come_VB as_IN more_JJR results_NNS are_VBP shared_VBN and_CC new_JJ themes_NNS are_VBP posted_VBN ._. --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_JJ Gallagher_NNP ..._: to_TO a_DT flickr_NN community_NN near_IN you_PRP ._. Something_VBG new_JJ ,_, a_DT project_NN ,_, a_DT theme_NN ,_, a_DT chance_NN to_TO collaborate_VB ,_, a_DT chance_NN to_TO create_VB something_NN that_WDT is_VBZ ``_`` bigger_JJR ''_'' than_IN just_RB one_CD photographer_NN !_. Teaser_NNP by_IN QuakkauQ_NNP Teaser_NNP by_IN mtnrockdhh_NNP Teaser_NNP by_IN tossthecam_NNP Teaser_NNP by_IN clickykbd_NN Teaser_NNP by_IN eastofnorth_NN Teaser_NNP by_IN lehmio_NN Teaser_NNP by_IN Right_NNP Brain_NNP Teaser_NNP by_IN Beer30_NNP Stay_NNP tuned_VBD to_TO the_DT forum_NN thread_NN to_TO get_VB the_DT details_NNS on_IN how_WRB to_TO participate_VB ._. --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_JJ Gallagher_NNP .flickr-photo_NN {_( border_NN :_: solid_JJ 2px_CD #_# 000000_CD ;_: }_) .flickr-yourcomment_JJ {_( }_) .flickr-frame_JJ {_( text-align_NN :_: left_NN ;_: padding_NN :_: 3px_CD ;_: }_) .flickr-caption_NN {_( font-size_JJ :_: 0.8em_CD ;_: margin-top_JJ :_: 0px_CD ;_: }_) DSC08276_NNP ,_, originally_RB uploaded_VBN by_IN QuakkauQ_NNP ._. Hi_NNP internets_NNS ._. Just_RB writing_VBG to_TO introduce_VB you_PRP to_TO the_DT newest_JJS ``_`` moderator_NN ''_'' for_IN the_DT Camera_NNP Toss_NNP Group_NNP on_IN flickr_NN ._. Jens_NNP Ludwig_NNP aka_NN QuakkauQ_NNP ,_, hailing_VBG from_IN Germany_NNP ,_, has_VBZ been_VBN a_DT long_JJ time_NN member_NN and_CC you_PRP 've_VBP seen_VBN his_PRP$ excellent_JJ images_NNS all_DT over_IN this_DT blog_NN ._. Now_RB he_PRP 's_VBZ joined_VBN David_NNP Hull_NNP aka_NN mtnrockdhh_NN to_TO help_VB keep_VB the_DT photo_NN pool_NN on_IN topic_NN and_CC help_VB ease_VB new_JJ members_NNS into_IN the_DT idea_NN of_IN Camera_NNP Tossing_NNP ._. The_DT photo_NN in_IN this_DT post_NN was_VBD created_VBN by_IN Jens_NNP and_CC shared_VBN with_IN the_DT group_NN yesterday_NN ._. Very_RB fitting_VBG for_IN an_DT introduction_NN post_NN I_PRP thought_VBD ._. Jens_NNP also_RB maintains_VBZ his_PRP$ own_JJ site/domain_NN about_IN camera_NN tossing_NN ,_, www.cameratossing.de_NN ,_, where_WRB he_PRP posts_VBZ some_DT of_IN his_PRP$ photos_NNS and_CC experiments_NNS ,_, news_NN ,_, yet_RB ANOTHER_NNP Camera_NNP Tossing_NNP ,_, HOWTO_NNP ,_, and_CC hosts_VBZ an_DT invited_JJ 'friend_NN 's_POS gallery_NN '_'' for_IN other_JJ camera_NN tossers_NNS he_PRP knows_VBZ well_RB ._. Jens_NNS is_VBZ also_RB the_DT instigator_NN of_IN a_DT collaborative_JJ project_NN we_PRP are_VBP introducing_VBG to_TO the_DT community_NN ._. I_PRP 'll_MD post_VB more_JJR on_IN that_DT topic_NN very_RB soon_RB ._. ;_: -_: )_) --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_JJ Gallagher_NNP I_PRP guess_VBP one_CD of_IN the_DT behaviors_NNS of_IN the_DT new_JJ genre_NN of_IN subscriber/reader_NN driven_VBN content_JJ and_CC publishing_NN in_IN the_DT magazine_NN industry_NN is_VBZ the_DT inevitability_NN of_IN covering_VBG the_DT same_JJ topic_NN more_RBR than_IN once_RB ._. ;_: -_: )_) JPG_NNP Magazine_NNP ,_, which_WDT did_VBD a_DT story_NN (_( including_VBG interviews_NNS )_) on_IN Camera_NN Tossing_NN in_IN it_PRP 's_VBZ formative_JJ youth_NN (_( Issue_NNP 6_CD )_) ,_, has_VBZ pushed_VBN another_DT Camera_NNP Toss_NNP article_NN amusingly_RB titled_VBN Get_NNP Fresh_NNP With_IN Us_NNP :_: ``_`` Toss_IN Your_PRP$ Camera_NN ''_'' in_IN Issue_NNP 16_CD ._. Apparently_RB JPG_NNP thinks_VBZ seconds_NNS are_VBP fresher_RB than_IN firsts_NNS ?_. This_DT one_CD however_RB takes_VBZ the_DT form_NN of_IN a_DT very_RB brief_JJ photo_NN challenge_NN posed_VBD to_TO it_PRP 's_VBZ readers/photographers_NNS online_JJ ,_, and_CC a_DT selection_NN of_IN voted/edited_JJ picks_NNS of_IN the_DT result_NN ._. Basically_NNP it_PRP 's_VBZ the_DT magazine_NN version_NN of_IN my_PRP$ ``_`` Pool_NNP Picks_NNP ''_'' postings_NNS except_IN with_IN JPG_NNP contributers_NNS being_VBG the_DT ``_`` pool_NN ''_'' ,_, and_CC without_IN really_RB providing_VBG any_DT instructive_JJ context_NN ,_, history_NN ,_, or_CC origins_NNS for_IN the_DT readers_NNS and_CC contributors_NNS ._. Ironically_RB there_EX was_VBD a_DT user_NN contributed_VBD howto_JJ article_NN on_IN the_DT subject_NN linked_VBN from_IN the_DT challenge_NN pages_NNS ,_, but_CC all_PDT that_DT content_NN was_VBD left_VBN unpublished_JJ in_IN the_DT printed_JJ article_NN ._. In_IN it_PRP 's_VBZ original_JJ posted_JJ form_NN ,_, their_PRP$ challenge_NN did_VBD n't_RB even_RB get_VB the_DT concept/definition_NN of_IN a_DT Camera_NNP Toss_NNP correct_NN ._. I_PRP mean_VBP really_RB folks_NNS ,_, it_PRP 's_VBZ not_RB that_DT complicated_VBD ._. A_DT couple_NN of_IN senior_JJ members_NNS in_IN our_PRP$ community_NN took_VBD it_PRP upon_VBZ themselves_PRP to_TO get_VB them_PRP to_TO at_IN least_JJS honor_VB the_DT original_JJ concept_NN and_CC change_VB the_DT challenge_NN criteria_NNS ._. Viewing_VBG the_DT incoming_NN submissions_NNS it_PRP became_VBD clear_JJ that_IN many_JJ of_IN their_PRP$ contributors_NNS were_VBD also_RB missing_VBG the_DT point_NN ,_, so_IN a_DT handful_NN of_IN our_PRP$ 5,000+_CD community_NN members_NNS took_VBD it_PRP upon_VBZ themselves_PRP to_TO submit_VB high_JJ quality_NN camera_NN tosses_VBZ in_IN an_DT effort_NN to_TO notch_VB up_RP the_DT presentation_NN of_IN the_DT concept_NN ._. Even_RB still_RB ,_, the_DT final_JJ published_VBN selection_NN included_VBD some_DT that_WDT were_VBD obviously_RB not_RB a_DT thrown_JJ camera_NN ._. But_CC ,_, almost_RB all_DT who_WP submitted_VBD from_IN our_PRP$ community_NN made_VBD the_DT published_JJ version_NN ._. Congrats_NNPS to_TO them_PRP and_CC way_NN to_TO show_VB solidarity_NN ,_, something_NN this_DT labor_NN union_NN member/advocate_NN certainly_RB appreciates_VBZ !_. ;_: -_: )_) (_( Left_VBN :_: by_IN David_NNP Hull_NNP ,_, Right_NNP :_: by_IN Christian_NNP Kinzler_NNP ,_, Lower_NNP :_: by_IN Marce_NNP Garal_NNP )_) Please_NNP do_VBP n't_RB read_VB this_DT post_NN as_IN a_DT criticism_NN of_IN the_DT photos/photographers_NNS actually_RB published_VBN ._. Most_JJS were_VBD indeed_RB camera_JJ tosses_NNS and_CC many_JJ quite_RB interesting_VBG to_TO look_VB at_IN ._. I_PRP just_RB feel_VB the_DT methodology_NN for_IN coming_VBG up_RP with_IN the_DT content_NN in_IN the_DT first_JJ place_NN left_VBD a_DT little_JJ bit_NN to_TO be_VB desired_VBN in_IN the_DT way_NN of_IN substance_NN and_CC professionalism_NN ._. Many_JJ JPG_NNP articles_NNS were_VBD great_JJ back_RB in_IN the_DT days_NNS before_IN they_PRP restructured_VBD ,_, and_CC some_DT of_IN them_PRP continue_VBP to_TO be_VB quite_RB good_JJ ,_, but_CC I_PRP came_VBD away_RB from_IN this_DT feeling_VBG like_IN they_PRP just_RB needed_VBD some_DT space_NN filler_NN ?_. Which_NNP ,_, in_IN itself_PRP is_VBZ fine_JJ ,_, but_CC if_IN you_PRP wish_VBP to_TO showcase_VB a_DT technique_NN ,_, you_PRP should_MD either_VB give_VB some_DT great_JJ instructions_NNS or_CC display_VB some_DT top_JJ quality_NN work_NN (_( ideally_RB both_DT ?_. )_) ._. Why_WRB else_RB would_MD you_PRP publish_VB it_PRP ,_, unless_IN ,_, perhaps_RB your_PRP$ only_JJ aim_NN is_VBZ to_TO make_VB your_PRP$ own_JJ contributors_NNS (_( a.k.a_NN ._. paying_VBG subscribers_NNS )_) feel_VBP good_JJ about_IN themselves_PRP ?_. So_RB three_CD cheers_NNS to_TO Derek_NNP and_CC Heather_NNP for_IN honoring_VBG our_PRP$ little_JJ niche_NN of_IN the_DT photography_NN universe_NN with_IN their_PRP$ original_JJ article_NN ,_, instructions_NNS ,_, and_CC interviews_NNS !_. (_( View_NNP online_VBP here_RB )_) This_DT second_JJ time_NN around_RP ?_. Not_RB so_RB much_RB ._. As_IN for_IN the_DT current_JJ editorial_JJ staff_NN of_IN JPG_NNP Magazine_NNP ._. If_IN you_PRP wish_VBP to_TO produce_VB ``_`` fresh_JJ ''_'' content_NN ._. Figure_NN out_RP a_DT way_NN to_TO get_VB your_PRP$ article/theme_NN contributors_NNS to_TO do_VB their_PRP$ homework_NN ._. A_DT little_JJ tried_JJ and_CC true_JJ journalism_NN would_MD n't_RB hurt_VB either_RB ._. I_PRP 'm_VBP sure_JJ you_PRP would_MD have_VB had_VBD an_DT amazing_JJ spread_NN if_IN you_PRP popped_VBD into_IN our_PRP$ forums_NNS and_CC solicited_VBD the_DT community_NN to_TO contribute_VB (_( exactly_RB what_WP was_VBD done_VBN for_IN the_DT Issue_NN 6_CD article_NN )_) ._. How_WRB 's_VBZ that_IN for_IN ``_`` getting_VBG fresh_JJ with_IN you_PRP ''_'' ?_. ;_: -_: )_) Maybe_RB by_IN fresh_JJ you_PRP did_VBD n't_RB mean_VB ``_`` snarky_JJ ''_'' ._. Oh_NNP well_RB ._. ;_: -_: )_) Links_VBZ Related_VBN to_TO this_DT Posting_NN :_: Photo_NN Challenge_NN :_: Camera_NN Toss_NNP (_( and_CC all_DT submissions_NNS )_) Photo_NNP Challenge_NNP :_: Camera_NN Toss_NNP (_( published_VBN contact-sheet_NN )_) JPG_NNP Magazine_NNP Issue_NNP 16_CD Unpublished_NNP JPG_NNP user_RB contributed_VBD HOWTO_NNP JPG_NNP Magazine_NNP Issue_NNP 6_CD Article_NNP (_( instructions_NNS ,_, interviews_NNS ,_, commentary_NN )_) Camera_NNP Toss_NNP Group_NNP on_IN Flickr_NNP --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_NNP Gallagher_NNP And_CC now_RB for_IN a_DT long_JJ ..._: long_RB ..._: LONG_NNP overdue_JJ selection_NN of_IN photos_NNS from_IN the_DT Camera_NNP Toss_NNP Photo_NNP Pool_NNP over_IN at_IN flickr_NN ._. I_PRP realize_VBP this_DT blog_NN has_VBZ been_VBN sorely_RB out_IN of_IN date_NN ,_, and_CC sorely_RB off_IN topic_NN ,_, for_IN months_NNS now_RB ..._: and_CC for_IN that_DT I_PRP apologize_VBP ._. That_DT does_VBZ n't_RB deter_VB the_DT great_JJ camera_NN tossing_VBG experimenters_NNS and_CC the_DT submissions_NNS to_TO the_DT pool_NN just_RB keep_VB coming_VBG ._. Congratulations_NNS especially_RB to_TO those_DT new_JJ members_NNS shown_VBN here_RB ._. Authors_NNS :_: Hover_NNP to_TO view_VB author_NN screen_NN name_NN ,_, or_CC click_NN to_TO visit_VB their_PRP$ photo_NN on_IN flickr_NN ._. Copyright_NN :_: All_DT photographs_NNS are_VBP copyright_VBN the_DT respective_JJ authors_NNS ._. To_TO view_VB individual_JJ copyright_NN notices_NNS click_VBP the_DT photo_NN and_CC proceed_VB to_TO the_DT photo_NN 's_POS page_NN at_IN flickr_NN ._. --_: -_: Camera_NN Toss_NNP (_( The_DT Blog_NNP )_) Feed_NNP Source_NNP http_NN :_: //cameratoss.blogspot.com_NN Created_NNP and_CC maintained_VBN by_IN :_: Ryan_NNP Gallagher_NNP</t>
-  </si>
-  <si>
-    <t>Meg_NNP 's_POS recent_JJ post_NN on_IN fears_NNS and_CC dreams_NNS in_IN partnership_NN inspired_VBD me_PRP to_TO make_VB public_JJ my_PRP$ own_JJ ._. This_DT wont_NN be_VB a_DT comprehensive_JJ entry_NN ._. It_PRP will_MD be_VB an_DT expression_NN of_IN pain_NN and_CC hope_NN ._. I_PRP will_MD be_VB back_RB soon_RB to_TO write_VB a_DT real_JJ game_NN plan_NN ,_, a_DT real_JJ inspiring_NN post_NN ._. My_PRP$ partner_NN and_CC I_PRP live_VBP 3_CD hours_NNS from_IN one_CD another_DT ._. He_PRP is_VBZ in_IN grad_JJ school_NN ,_, I_PRP work_VBP to_TO support_VB us_PRP ._. He_PRP 's_VBZ come_VB a_DT long_JJ way_NN and_CC put_VB in_IN a_DT lot_NN of_IN time_NN ,_, effort_NN and_CC money_NN to_TO make_VB our_PRP$ partnership_NN possible_JJ ._. We_PRP are_VBP both_DT sacrificing_VBG and_CC risking_VBG a_DT lot_NN ,_, but_CC we_PRP do_VBP so_RB with_IN great_JJ enthusiasm_NN and_CC trust_NN that_IN our_PRP$ dream_NN of_IN spending_VBG our_PRP$ lives_NNS together_RB -_: supporting_NN and_CC challenging_VBG one_CD another_DT -_: will_MD be_VB realized_VBN ._. As_IN it_PRP stands_VBZ it_PRP is_VBZ difficult_JJ not_RB to_TO be_VB focused_VBN on_IN Destination_NNP Happiness_NNP ._. I_PRP wrote_VBD an_DT ode_NN to_TO August_NNP 2010_CD last_JJ night_NN ._. That_DT 's_VBZ the_DT month_NN where_WRB we_PRP start_VBP breathing_VBG easy_JJ or_CC at_IN least_JJS in_IN a_DT more_RBR reliable_JJ rhythm_NN ._. He_PRP 'll_MD be_VB working_VBG ,_, and_CC we_PRP 'll_MD be_VB living_VBG in_IN the_DT same_JJ city_NN ,_, under_IN the_DT same_JJ roof_NN ._. My_PRP$ fear_NN is_VBZ that_IN I_PRP 'll_MD get_VB more_JJR entrenched_VBN in_IN this_DT habit_NN of_IN thinking_NN of_IN the_DT next_JJ step_NN instead_RB of_IN loving_VBG where_WRB we_PRP are_VBP now_RB ._. When_WRB I_PRP lived_VBD in_IN London_NNP I_PRP was_VBD very_RB much_JJ in_IN the_DT moment_NN ._. Because_IN the_DT moments_NNS were_VBD so_RB fantastic_JJ probably_RB ._. I_PRP 've_VBP been_VBN thinking_VBG often_RB about_IN the_DT first_JJ time_NN I_PRP ever_RB cooked_VBD for_IN him_PRP ._. We_PRP sat_VBD cross-legged_VBN on_IN 2_CD meters_NNS of_IN floor_NN in_IN my_PRP$ small_JJ flat_JJ ,_, eating_VBG a_DT homemade_NN steak_NN dinner_NN off_IN an_DT overturned_JJ cardboard_NN box_NN for_IN a_DT table_JJ -_: I_PRP thought_VBD not_RB of_IN my_PRP$ microscopic_NN bank_NN account_NN ._. We_PRP were_VBD so_RB present_JJ in_IN that_DT moment_NN ._. We_PRP glowed_VBD ,_, we_PRP gazed_VBD at_IN one_CD another_DT from_IN across_IN the_DT 'table_JJ '_POS ._. What_WP fun_NN it_PRP is_VBZ to_TO be_VB broke_VBN and_CC in_IN love_NN !_. Someday_NNP soon_RB ,_, I_PRP will_MD see_VB the_DT distance_NN from_IN his_PRP$ front_JJ door_NN to_TO mine_VB as_IN equivalent_JJ to_TO that_DT cardboard_NN box_NN ._. Something_VBG we_PRP had_VBD to_TO do_VB for_IN the_DT time_NN being_VBG ,_, something_NN that_WDT makes_VBZ us_PRP stronger_JJR ._. In_IN the_DT meantime_NN I_PRP will_MD try_VB and_CC glow_VB and_CC gaze_VB from_IN across_IN the_DT the_DT highway_NN ._.</t>
-  </si>
-  <si>
-    <t>my_PRP$ friend_NN jus_NN told_VBD me_PRP that_IN she_PRP went_VBD to_TO central_JJ market_NN (_( thats_NNS in_IN malaysia_NN )_) and_CC she_PRP saw_VBD the_DT bag_NN that_IN she_PRP bought_VBD in_IN indonesia_NN is_VBZ being_VBG sold_VBN thre_NN (_( i_JJ hv_VBP another_DT frend_NN that_WDT has_VBZ tat_JJR similar_JJ bag_NN ,_, she_PRP bought_VBD it_PRP in_IN ,_, obviously_RB ,_, indonesia_NN )_) ,_, it_PRP ’_VBZ s_VBZ a_DT batik_NN textured_VBN bag.._NN and_CC she_PRP said_VBD that_IN they_PRP said_VBD it_PRP was_VBD made_VBN in_IN malaysia_NN (_( im_JJ not_RB trying_VBG to_TO argue_VB over_IN whats_PDT the_DT origin_NN of_IN batik_NN coz_NN theyre_NN shared_VBD cultures_NNS in_IN many_JJ countries_NNS )_) ._. anyway_RB ,_, my_PRP$ friend_NN ’_VBZ s_JJ bag_NN looks_VBZ like_IN that_DT in_IN the_DT pic_NN ._. it_PRP has_VBZ indonesian_JJ batik_NN textures_NNS ,_, earth_NN tone_NN ,_, weird_NN patterns_NNS ,_, blablabla_NN ,_, thats_EX definitely_RB an_DT indonesian_JJ batik_NN ._. BCOZ_NNP malaysian_JJ batik_NN doesn_JJ look_NN like_IN tat_NN ,_, it_PRP has_VBZ different_JJ patterns_NNS and_CC colors_NNS ,_, theyre_RB more_RBR colorful_JJ n_JJ brighter_NN ._. Indonesian_JJ batik_NN Malaysian_JJ batik_NN check_VB out_IN the_DT link_NN to_TO prove_VB it_PRP urself_PRP ._. and_CC one_CD more_JJR thing_NN ,_, if_IN it_PRP ’_VBZ s_JJ really_RB made_VBN in_IN malaysia_NN then_RB why_WRB is_VBZ it_PRP priced_VBN at_IN 39rm_CD which_WDT she_PRP only_RB bought_VBD for_IN 35000rupiah_CD (_( 13rm_CD )_) ._. yeah_UH im_VBZ a_DT bitch_NN of_IN bothering_VBG bout_IN this_DT thing_NN ,_, bcoz_NN i_NN love_VBP my_PRP$ country_NN thats_NNS y_VBP</t>
-  </si>
-  <si>
-    <t>For_IN those_DT of_IN you_PRP joining_VBG us_PRP for_IN the_DT first_JJ time_NN ,_, please_VB go_VB back_RB and_CC start_VB reading_NN from_IN the_DT beginning_NN (_( back_RB in_IN August_NNP 2005_CD )_) ._. Otherwise_UH ,_, the_DT blog_NN may_MD not_RB make_VB much_JJ sense_NN to_TO you_PRP ._. 2009_CD UPDATE_NN :_: This_DT blog_NN authors_NNS are_VBP using_VBG the_DT assistance_NN of_IN LANDOLT_NNP &amp;_CC amp_NN ;_: ASSOCIATES_NNP in_IN Fort_NNP Worth_NNP ,_, Texas_NNP ,_, for_IN advice_NN on_IN this_DT blog_NN ._. Please_NNP contact_VB them_PRP if_IN you_PRP have_VBP any_DT questions_NNS or_CC inquiries_NNS :_: contact_NN @_NNP landoltlawoffice.com_NN Hi_NNP ,_, this_DT is_VBZ Traci_NNP ,_, the_DT Blog_NNP Administrator_NNP ..._: The_DT twins_NNS are_VBP trying_VBG to_TO decide_VB what_WP should_MD be_VB posted_VBN here_RB and_CC what_WP should_MD n't_RB ._. I_PRP apologize_VBP for_IN the_DT delay_NN ._. I_PRP was_VBD reading_VBG back_RB over_IN the_DT posts_NNS and_CC some_DT of_IN the_DT emails_NNS ,_, and_CC some_DT of_IN them_PRP are_VBP really_RB interesting_VBG about_IN twins_NNS switching_VBG places_NNS ._. I_PRP thought_VBD maybe_RB we_PRP could_MD open_VB up_RP a_DT discussion_NN about_IN that_DT while_IN we_PRP wait_VBP ..._: If_IN you_PRP are_VBP a_DT twin_NN or_CC know_VB a_DT twin_NN who_WP has_VBZ switched_VBN places_NNS ,_, please_VB email_VB your_PRP$ stories_NNS to_TO me_PRP ._. We_PRP 'll_MD try_VB to_TO put_VB together_RB a_DT posting_NN with_IN everyone_NN 's_POS comments_NNS ,_, so_RB be_VB sure_JJ to_TO indicate_VB if_IN it_PRP 's_VBZ okay_JJ to_TO post_VB it_PRP on_IN the_DT blog_NN ._. You_PRP are_VBP also_RB welcome_JJ to_TO send_VB in_IN your_PRP$ impression_NN of_IN identical_JJ twins_NNS overall_JJ ..._: and_CC how_WRB this_DT blog_NN has_VBZ or_CC has_VBZ n't_RB changed_VBN your_PRP$ view_NN of_IN twins_NNS ._. And_CC ,_, of_IN course_NN ,_, if_IN you_PRP do_VBP send_VB in_IN your_PRP$ comment_NN or_CC email_NN ,_, we_PRP will_MD send_VB you_PRP a_DT totally_RB imaginary_JJ Twinkie_NNP Experiment_NNP T-shirt_NN !_. Thanks_NNS to_TO all_DT you_PRP loyal_VBP Twinkie_CD Fans_NNS out_IN there_RB !_. Time_NN to_TO go_VB buy_VB a_DT box_NN and_CC eat_VB some_DT while_IN we_PRP 're_VBP waiting_VBG ._. Traci_NNP Email_NNP inquiries_NNS :_: contact_NN @_NNP landoltlawoffice.com_VBZ Happy_NNP New_NNP Year_NNP ,_, Ya_NNP 'll_MD !_. !_. While_IN Ashley_NNP has_VBZ been_VBN portraying_VBG me_PRP down_IN here_RB at_IN the_DT coast_NN ,_, I_PRP was_VBD up_RB north_JJ living_NN in_IN her_PRP$ condo_NN ._. Yes_UH ,_, while_IN she_PRP was_VBD on_IN the_DT beach_NN and_CC enjoying_VBG the_DT ocean_NN ,_, I_PRP was_VBD ``_`` enjoying_VBG ''_'' the_DT lovely_JJ white_JJ fluffy_NN stuff_NN ._. I_PRP took_VBD this_DT picture_NN of_IN the_DT view_NN behind_IN Ashley_NNP 's_POS condo_NN ._. Talk_VB about_IN a_DT contrast_NN to_TO the_DT view_NN outside_IN my_PRP$ house_NN !_. Sorry_NNP about_IN the_DT delay_NN in_IN the_DT blog_NN posts_NNS ._. Ashley_NNP and_CC I_PRP have_VBP been_VBN having_VBG ``_`` creative_JJ differences_NNS ''_'' about_IN this_DT blog_NN ._. To_TO make_VB a_DT long_JJ story_NN short_JJ ,_, Ashley_NNP read_VBD my_PRP$ comment_NN about_IN her_PRP$ and_CC Tarkington_NNP and_CC said_VBD :_: I_PRP CA_VBP N'T_NNP BELIEVE_NNP YOU_NNP TOLD_VBD THEM_NNP THAT_NNP !_. The_DT way_NN I_PRP see_VBP it_PRP ,_, Professor_NNP Tarkington_NNP is_VBZ MY_NNP professor_NN ._. MINE_NNP ._. What_WP happens_VBZ at_IN the_DT law_NN school_NN is_VBZ my_PRP$ business_NN because_IN these_DT people_NNS think_VBP that_IN was_VBD ME_NNP doing_VBG all_PDT that_DT stuff_NN ._. So_RB why_WRB ca_MD n't_RB I_PRP talk_VBP about_IN it_PRP ?_. Ashley_NNP really_RB loves_VBZ all_DT of_IN you_PRP out_IN there_RB and_CC appreciates_VBZ your_PRP$ support_NN ._. I_PRP understand_VBP that_IN ,_, and_CC I_PRP think_VBP that_DT 's_VBZ great_JJ ._. But_CC ,_, it_PRP does_VBZ n't_RB mean_VB that_IN you_PRP should_MD have_VB the_DT details_NNS glossed_VBN over_IN or_CC sugar-coated_JJ ._. I_PRP 'll_MD try_VB to_TO give_VB you_PRP hints_NNS about_IN Tarkington_NNP when_WRB I_PRP can_MD --_: until_IN I_PRP can_MD figure_VB out_RP a_DT way_NN to_TO give_VB you_PRP the_DT whole_JJ story_NN ..._: How_WRB embarrassing_JJ that_DT Ashley_NNP and_CC I_PRP are_VBP having_VBG a_DT fight_NN on_IN the_DT world_NN 's_POS stage_NN ._. This_DT has_VBZ to_TO be_VB my_PRP$ mom_NN 's_POS worst_JJS nightmare_NN ..._: Back_RB to_TO what_WP happened_VBD to_TO me_PRP ..._: As_IN one_CD of_IN the_DT Commentors_NNP pointed_VBD out_RP (_( and_CC made_VBN me_PRP laugh_IN )_) ,_, the_DT Twinkie_NNP Experiment_NNP was_VBD n't_RB exactly_RB fair_JJ --_: at_IN least_JJS at_IN the_DT beginning_NN ,_, because_IN Ashley_NNP got_VBD a_DT nude_JJ beach_NN ,_, and_CC what_WP did_VBD I_PRP get_VB ?_. Altitude_NNP sickness_NN !_. Overall_JJ ,_, I_PRP have_VBP to_TO admit_VB ,_, I_PRP probably_RB did_VBD have_VB an_DT easier_JJR time_NN with_IN the_DT whole_JJ school_NN thing_NN ._. Dr._NNP Lyle_NNP was_VBD in_IN on_IN the_DT Twin_NNP Switch_NNP ,_, so_IN I_PRP did_VBD n't_RB have_VB to_TO go_VB into_IN an_DT academic_JJ program_NN alone_RB ._. I_PRP ca_MD n't_RB imagine_VB for_IN my_PRP$ life_NN walking_VBG into_IN a_DT law_NN school_NN program_NN like_IN Ashley_NNP did_VBD ._. I_PRP feel_VBP bad_JJ about_IN laughing_VBG ,_, but_CC I_PRP ca_MD n't_RB help_VB it_PRP ._. She_PRP probably_RB was_VBD able_JJ to_TO do_VB it_PRP because_IN she_PRP has_VBZ this_DT mentality_NN that_IN she_PRP can_MD handle_VB anything_NN ._. I_PRP do_VBP n't_RB think_VB she_PRP knows_VBZ even_RB now_RB what_WP a_DT lion_NN 's_POS den_NN she_PRP was_VBD walking_VBG into_IN ._. I_PRP had_VBD the_DT opposite_JJ problem_NN ._. Instead_RB of_IN walking_VBG into_IN a_DT room_NN full_JJ of_IN law_NN students_NNS who_WP practically_RB pee_VBP around_IN the_DT room_NN to_TO mark_VB their_PRP$ territory_NN ,_, I_PRP had_VBD the_DT ``_`` huggers_NNS ._. ''_'' You_PRP know_VBP who_WP I_PRP 'm_VBP talking_VBG about_IN ._. Those_DT people_NNS who_WP have_VBP to_TO hug_VB you_PRP like_IN they_PRP have_VBP n't_RB seen_VBN you_PRP in_IN years_NNS ,_, and_CC you_PRP are_VBP a_DT long-lost_JJ dear_NN friend_NN ._. I_PRP 'm_VBP not_RB a_DT big_JJ touchy-feely_JJ type_NN person_NN ,_, unless_IN it_PRP 's_VBZ a_DT really_RB hot_JJ guy_NN who_WP 's_VBZ doing_VBG the_DT touching_NN and_CC feeling_NN (_( haha_NN )_) ._. It_PRP 's_VBZ probably_RB inherent_JJ to_TO the_DT whole_JJ psychology_NN thing_NN to_TO have_VB them_PRP be_VB so_RB tactile_JJ ._. Probably_RB something_NN Freudian_JJ ._. As_IN I_PRP mentioned_VBD in_IN an_DT earlier_JJR post_NN ,_, the_DT party_NN Dr._NNP Lyle_NNP had_VBD at_IN the_DT start_NN of_IN the_DT semester_NN was_VBD especially_RB humorous_JJ because_IN Ashley_NNP did_VBD n't_RB give_VB me_PRP a_DT physical_JJ description_NN of_IN Robert_NNP ._. (_( She_PRP told_VBD me_PRP she_PRP did_VBD n't_RB think_VB I_PRP 'd_MD run_VB into_IN him_PRP ._. )_) So_IN the_DT problem_NN ended_VBD up_RP being_VBG :_: How_WRB do_VBP you_PRP stay_VB away_RB from_IN someone_NN when_WRB you_PRP do_VBP n't_RB know_VB what_WP they_PRP look_VBP like_IN ?_. One_CD of_IN these_DT days_NNS ,_, I_PRP 'm_VBP going_VBG to_TO ask_VB Robert_NNP if_IN I_PRP actually_RB spoke_VBD to_TO him_PRP at_IN the_DT party_NN before_IN I_PRP knew_VBD who_WP he_PRP was_VBD ..._: Have_VBP I_PRP mentioned_VBD that_IN Dr._NNP Lyle_NNP 's_POS husband_NN is_VBZ hot_JJ ?_. He_PRP is_VBZ ._. Totally_RB ._. Of_IN course_NN ,_, he_PRP 's_VBZ a_DT little_JJ old_JJ and_CC MARRIED_NNP ,_, but_CC I_PRP thought_VBD he_PRP was_VBD really_RB nice_JJ looking_VBG in_IN a_DT Kevin_NNP Costner_NNP kind_NN of_IN way_NN ._. (_( Man_NNP ,_, I_PRP might_MD as_RB well_RB delete_VB this_DT paragraph_NN now_RB ,_, because_IN I_PRP 'm_VBP sure_JJ Ashley_NNP will_MD have_VB a_DT fit_NN that_IN I_PRP said_VBD that_IN !_. )_) He_PRP was_VBD also_RB really_RB sweet_JJ and_CC funny_JJ ._. He_PRP walked_VBD around_IN helping_VBG the_DT caterers_NNS and_CC stuff_NN at_IN the_DT party_NN ,_, and_CC every_DT time_NN he_PRP 'd_MD see_VB me_PRP ,_, he_PRP 'd_MD say_VB ,_, ``_`` So_RB ,_, are_VBP you_PRP caught_VBN yet_RB ?_. ''_'' Dr._NNP Lyle_NNP 's_POS husband_NN is_VBZ a_DT psychologist_NN ,_, too_RB ._. Can_MD you_PRP imagine_VB what_WP their_PRP$ kids_NNS must_MD be_VB like_IN ?_. ?_. ?_. ?_. The_DT first_JJ day_NN of_IN school_NN was_VBD pretty_RB anxiety-driven_JJ ._. The_DT lack_NN of_IN humidity_NN in_IN the_DT air_NN made_VBD my_PRP$ hair_NN have_VBP more_JJR body_NN --_: -something_VBG I_PRP 'm_VBP definitely_RB not_RB used_VBN to_TO since_IN I_PRP 've_VBP been_VBN living_VBG at_IN the_DT beach_NN ._. We_PRP 're_VBP talking_VBG flat-head_JJ city_NN ._. I_PRP have_VBP a_DT flippy_JJ haircut_NN that_WDT is_VBZ (_( I_PRP think_VBP )_) darling_NN ,_, and_CC the_DT multi-layers_NNS and_CC flips_NNS make_VBP it_PRP look_VBZ not_RB so_RB flat_JJ in_IN the_DT humidity_NN ._. But_CC when_WRB you_PRP take_VBP me_PRP from_IN a_DT place_NN with_IN 95_CD percent_NN humidity_NN and_CC drop_VB me_PRP into_IN a_DT place_NN with_IN 18_CD percent_NN humidity_NN ,_, well_RB ,_, you_PRP can_MD imagine_VB what_WP happened_VBD ._. The_DT flippiness_NN with_IN a_DT small_JJ ``_`` f_NN ''_'' turned_VBD into_IN flippiness_NN with_IN a_DT big_JJ fat_NN ``_`` F_NNP ''_'' ._. And_CC Ashley_NNP is_VBZ not_RB a_DT flippy_JJ kind_NN of_IN person_NN ._. She_PRP warned_VBD me_PRP the_DT people_NNS up_IN north_JJ may_MD not_RB take_VB kindly_RB to_TO a_DT flippy_JJ haircut_NN on_IN her_PRP ._. I_PRP tried_VBD to_TO get_VB rid_JJ of_IN it_PRP ._. Believe_VB me_PRP ,_, I_PRP tried_VBD ._. I_PRP used_VBD water_NN on_IN it_PRP after_IN it_PRP was_VBD dry_JJ ._. I_PRP used_VBD hair_NN spray_NN ._. I_PRP curled_VBD it_PRP under_IN ..._: ._. But_CC when_WRB I_PRP arrived_VBD on_IN that_DT huge_JJ campus_NN and_CC walked_VBD through_IN the_DT wind_NN up_RP hill_NN (_( both_DT ways_NNS )_) ,_, the_DT hair_NN took_VBD on_IN a_DT life_NN of_IN its_PRP$ own_JJ ._. And_CC it_PRP decided_VBD to_TO be_VB flippy_JJ ._. And_CC I_PRP think_VBP I_PRP told_VBD you_PRP last_JJ time_NN ,_, that_IN when_WRB I_PRP ran_VBD into_IN Paige_NNP ,_, Ashley_NNP 's_POS best_JJS friend_NN (_( who_WP I_PRP 've_VBP met_VBN a_DT few_JJ times_NNS when_WRB I_PRP 've_VBP visited_VBN Ashley_NNP in_IN the_DT past_NN )_) the_DT very_RB first_JJ thing_NN out_IN of_IN her_PRP$ mouth_NN was_VBD WHAT_WP IS_VBZ THE_DT DEAL_NNP WITH_NNP YOUR_NNP HAIR_NNP ?_. ?_. ?_. Not_RB ``_`` Hi_NNP ,_, how_WRB are_VBP you_PRP ,_, ''_'' or_CC ``_`` how_WRB was_VBD your_PRP$ summer_NN ''_'' ,_, but_CC a_DT rude_JJ announcement_NN that_WDT might_MD as_RB well_RB have_VBP said_VBD ,_, ``_`` Hey_UH !_. Everyone_NN !_. Look_NN over_IN here_RB at_IN this_DT ugly_RB hair_NN !_. ''_'' It_PRP 's_VBZ no_DT secret_JJ that_IN I_PRP am_VBP not_RB a_DT big_JJ fan_NN of_IN Paige_NNP ._. As_IN this_DT blog_NN goes_VBZ on_IN ,_, I_PRP think_VBP you_PRP 'll_MD understand_VB why_WRB ._. The_DT hair_JJ thing_NN started_VBD it_PRP ,_, though_RB ._. So_RB much_JJ for_IN integrating_VBG quietly_RB into_IN the_DT crowd_NN ._. Everyone_NN had_VBD to_TO notice_VB me_PRP and_CC my_PRP$ hair_NN ._. Which_NNP only_RB brought_VBD on_IN more_RBR hugging_NN ,_, since_IN that_DT 's_VBZ what_WP psych_JJ students_NNS do_VBP ._. What_WP a_DT big_JJ difference_NN class_NN was_VBD compared_VBN to_TO law_NN school_NN ._. The_DT psych_NN seminar_NN actually_RB had_VBD donuts_NNS and_CC coffee_NN for_IN the_DT students_NNS !_. And_CC the_DT first_JJ day_NN was_VBD spent_VBN going_VBG around_IN the_DT room_NN introducing_VBG ourselves_PRP ._. Students_NNS actually_RB talked_VBD amongst_JJ themselves_PRP WHILE_IN Dr._NNP Lyle_NNP was_VBD talking_VBG ._. And_CC she_PRP did_VBD n't_RB kill_VB them_PRP ._. Not_RB to_TO mention_VB how_WRB nice_JJ everyone_NN was_VBD to_TO each_DT other_JJ ._. We_PRP also_RB did_VBD n't_RB have_VB to_TO read_VB for_IN the_DT first_JJ day_NN ,_, which_WDT was_VBD weird_NN ._. Some_DT people_NNS did_VBD n't_RB even_RB have_VB their_PRP$ textbooks_NNS yet_RB ._. I_PRP was_VBD in_IN shock_NN ._. The_DT most_RBS fun_NN on_IN the_DT first_JJ day_NN was_VBD finally_RB seeing_VBG who_WP the_DT notorious_JJ Robert_NNP was_VBD ._. He_PRP was_VBD n't_RB anything_NN like_IN I_PRP had_VBD imagined_VBN him_PRP from_IN Ashley_NNP 's_POS comments_NNS ._. And_CC I_PRP do_VBP n't_RB remember_VB seeing_VBG him_PRP at_IN Dr._NNP Lyle_NNP 's_POS party_NN ._. He_PRP 's_VBZ tall_NN --_: almost_RB 6_CD feet_NNS ,_, slim_NN ,_, but_CC not_RB skinny_JJ or_CC fat_JJ ._. Dresses_VBZ pretty_JJ nice_JJ ._. Dark_NNP hair_NN and_CC dark_JJ warm_JJ eyes_NNS with_IN wire-rim_JJ glasses_NNS ._. I_PRP usually_RB do_VBP n't_RB like_VB guys_NNS with_IN glasses_NNS ,_, but_CC he_PRP was_VBD an_DT exception_NN ._. Okay_NNP ,_, I_PRP admit_VBP it_PRP ,_, I_PRP thought_VBD Robert_NNP was_VBD cute_NN from_IN the_DT very_RB first_JJ day_NN ._. But_CC it_PRP 's_VBZ not_RB like_IN I_PRP hit_VBP on_IN him_PRP or_CC anything_NN ._. I_PRP intended_VBD to_TO keep_VB my_PRP$ distance_NN and_CC not_RB even_RB speak_VB to_TO him_PRP ._. He_PRP sat_VBD in_IN the_DT row_NN in_IN front_NN of_IN us_PRP ,_, and_CC Paige_NNP leaned_VBD over_IN to_TO me_PRP and_CC said_VBD ,_, ``_`` I_PRP guess_VBP he_PRP wants_VBZ to_TO make_VB sure_JJ you_PRP 've_VBP seen_VBN him_PRP ._. ''_'' And_CC in_IN typical_JJ Paige-fashion_NN ,_, she_PRP said_VBD it_PRP loudly_RB enough_RB for_IN him_PRP to_TO hear_VB ._. The_DT girl_NN sitting_VBG on_IN the_DT other_JJ side_NN of_IN me_PRP ,_, who_WP I_PRP called_VBD ``_`` The_DT Screamer_NNP ''_'' for_IN awhile_JJ since_IN I_PRP did_VBD n't_RB know_VB her_PRP$ name_NN ,_, of_IN course_NN had_VBD to_TO say_VB hi_NN to_TO Robert_NNP ._. She_PRP was_VBD like_IN leaning_VBG forward_RB with_IN her_PRP$ desk_NN (_( they_PRP are_VBP the_DT individual_JJ desks_NNS ,_, not_RB like_IN the_DT rows_NNS of_IN tables_NNS in_IN law_NN school_NN )_) ,_, in_IN front_NN of_IN me_PRP to_TO ask_VB Robert_NNP how_WRB his_PRP$ summer_NN was_VBD ._. When_WRB he_PRP turned_VBD around_RB ,_, he_PRP just_RB kind_NN of_IN looked_NN at_IN me_PRP for_IN a_DT second_JJ and_CC then_RB said_VBD ,_, ``_`` Fine_NNP ._. ''_'' Real_JJ big_JJ conversationalist_NN ._. The_DT first_JJ day_NN of_IN class_NN left_VBD me_PRP with_IN one_CD major_JJ question_NN :_: WHAT_WP THE_NNP HELL_NNP HAPPENED_NNP TO_NNP PSYCHOLOGY_NNP ?_. ?_. I_PRP took_VBD a_DT few_JJ courses_NNS in_IN college_NN ,_, and_CC I_PRP 've_VBP read_VBN stuff_NN through_IN the_DT years_NNS ._. But_CC somehow_RB ,_, they_PRP changed_VBD it_PRP ._. It_PRP 's_VBZ no_RB longer_RB the_DT common_JJ sense_NN intuitive_NN ,_, get_VB in_IN touch_JJ with_IN your_PRP$ inner-child_NN 's_POS feelings_NNS ,_, bring_VBG memories_NNS to_TO the_DT surface_NN ,_, bells_NNS ringing_VBG ,_, dogs_NNS salivating_VBG ,_, penis_NN envying_NN ,_, human_JJ behavior_NN study_NN that_IN I_PRP thought_VBD it_PRP was_VBD ._. Dr._NNP Lyle_NNP gave_VBD an_DT overview_NN lecture_NN about_IN the_DT topics_NNS we_PRP would_MD be_VB covering_VBG in_IN the_DT course_NN ,_, and_CC I_PRP was_VBD really_RB amazed_VBN ._. It_PRP 's_VBZ now_RB a_DT complicated_JJ mixture_NN of_IN theories_NNS ,_, statistics_NNS ,_, philosophies_NNS ,_, medicine_NN ,_, and_CC science_NN ._. I_PRP guess_VBD it_PRP was_VBD pretty_RB arrogant_JJ of_IN me_PRP to_TO walk_VB in_IN there_RB thinking_VBG I_PRP was_VBD up_RB to_TO par_NN with_IN the_DT other_JJ students_NNS ._. Boy_NNP ,_, did_VBD I_PRP learn_VBP that_IN lesson_VBZ the_DT hard_JJ way_NN ..._: Here_RB 's_VBZ a_DT picture_NN of_IN what_WP Christmas_NNP time_NN looks_VBZ like_IN on_IN the_DT coast_NN ._. Ashley_NNP took_VBD this_DT picture_NN from_IN the_DT upper_JJ deck_NN of_IN the_DT Ferry_NNP on_IN her_PRP$ way_NN back_RB home_NN from_IN law_NN school_NN on_IN her_PRP$ last_JJ day_NN as_IN ``_`` Amy_NNP ._. ''_'' This_DT is_VBZ Traci_NNP ,_, the_DT blog_NN administrator_NN ,_, and_CC I_PRP have_VBP a_DT message_NN for_IN you_PRP from_IN the_DT whole_JJ gang_NN ._. Apparently_RB ,_, almost_RB everyone_NN (_( except_IN the_DT professors_NNS ?_. )_) knows_VBZ about_IN this_DT blog_NN now_RB ._. (_( Talk_VB about_IN pressure_NN ..._: ;_: )_) )_) We_PRP Wish_VBP You_PRP ,_, Your_'' Family_NNP ,_, and_CC Friends_NNS ..._: A_DT Very_NNP Merry_NNP Christmas_NNP &amp;_CC amp_NN ;_: Happy_NNP New_NNP Year_NN !_. !_. from_IN Ashley_NNP &amp;_CC amp_NN ;_: Amy_NNP Traci_NNP Drs_NNP ._. Miriam_NNP and_CC William_NNP Lyle_NNP Joyce_NNP (_( Mom_NNP )_) Martin_NNP (_( Dad_NNP )_) Robert_NNP Peevy_NNP Paige_NNP Fowler_NNP Charlie_NNP and_CC his_PRP$ flock_NN :_: Rose_JJ Ricky_NNP Haylie_NNP Giny_NNP Billy_NNP Emma_NNP Lee_NNP Duane_NNP Libby_NNP Sammy_NNP Regan_NNP &amp;_CC amp_NN ;_: Booger_NNP Welcome_NNP to_TO the_DT Real-Life_NNP Twinkie_NNP Experiment_NNP Part_NNP Two_CD !_. I_PRP 'm_VBP Amy_JJ Morrighan_NNP ,_, and_CC my_PRP$ twin_JJ sister_NN 's_POS name_NN is_VBZ Ashley_NNP --_: who_WP most_JJS of_IN you_PRP already_RB know_VB ._. Just_VB a_DT brief_JJ background_NN in_IN case_NN you_PRP are_VBP just_RB joining_VBG us_PRP ..._: Ashley_NNP and_CC I_PRP are_VBP twenty-seven_JJ year_NN old_JJ identical_JJ twins_NNS ._. Ashley_NNP is_VBZ in_IN her_PRP$ third_JJ year_NN of_IN graduate_NN school_NN ,_, working_VBG towards_IN her_PRP$ Doctorate_NNP in_IN Psychology_NNP ._. Her_PRP$ emphasis_NN is_VBZ on_IN Twin_NNP Studies_NNP at_IN the_DT University_NNP of_IN _______NNP ._. (_( I_PRP still_RB ca_MD n't_RB put_VB the_DT name_NN of_IN her_PRP$ school_NN ._. )_) She_PRP lives_VBZ up_RP North_NNP where_WRB it_PRP snows_VBZ more_JJR than_IN I_PRP would_MD like_VB ,_, but_CC otherwise_VBP it_PRP 's_VBZ beautiful_JJ ._. Ashley_NNP 's_POS best_JJS friend_NN is_VBZ named_VBN Paige_NNP ._. Ashley_NNP used_VBD to_TO like_VB a_DT guy_NN named_VBN Robert_NNP until_IN the_DT great_JJ AC/DC_NNP Concert_NNP Incident_NNP last_JJ summer_NN ._. Robert_NNP and_CC Paige_NNP are_VBP also_RB psych_JJ doctoral_JJ students_NNS ._. Although_IN Paige_NNP is_VBZ more_RBR into_IN Abnorrmal_NNP Psychology_NNP ..._: which_WDT is_VBZ understandable_JJ if_IN you_PRP 've_VBP ever_RB met_VBN her_PRP ._. Sorry_NNP ,_, that_WDT was_VBD petty_RB ._. Bad_NNP Amy_NNP ,_, bad_JJ ._. While_IN Ashley_NNP is_VBZ in_IN grad_JJ school_NN ,_, I_PRP am_VBP in_IN my_PRP$ second_JJ year_NN (_( a_DT ``_`` 2L_CD ''_'' )_) in_IN law_NN school_NN ._. I_PRP ca_MD n't_RB give_VB my_PRP$ exact_JJ location_NN ,_, but_CC I_PRP can_MD tell_VB you_PRP I_PRP live_VBP on_IN the_DT coast_NN ._. My_PRP$ interest_NN in_IN law_NN has_VBZ primarily_RB been_VBN in_IN the_DT area_NN of_IN Intellectual_NNP Property_NNP ._. But_CC I_PRP also_RB am_VBP interested_JJ in_IN other_JJ areas_NNS which_WDT span_VBP across_IN the_DT board_NN ._. They_PRP say_VBP the_DT first_JJ year_NN of_IN law_NN school_NN is_VBZ the_DT worst_JJS ,_, and_CC mine_NN was_VBD no_DT exception_NN ._. In_IN fact_NN ,_, I_PRP can_MD honestly_RB say_VB ,_, last_JJ year_NN was_VBD the_DT worst_JJS year_NN I_PRP 've_VBP ever_RB had_VBN ._. The_DT coursework_NN itself_PRP is_VBZ challenging_VBG ,_, but_CC not_RB as_RB hard_JJ as_IN they_PRP make_VBP it_PRP out_IN to_TO be_VB ._. It_PRP was_VBD n't_RB the_DT work_NN itself_PRP I_PRP found_VBD challenging_VBG since_IN I_PRP actually_RB like_IN studying_VBG the_DT law_NN ._. The_DT people_NNS in_IN my_PRP$ life_NN you_PRP 've_VBP probably_RB heard_VBN the_DT most_RBS about_IN are_VBP my_PRP$ professors_NNS for_IN this_DT past_JJ semester_NN who_WP Ashley_NNP encountered_VBD :_: Professor_NNP Rogerson_NNP ,_, Professor_NNP Tarkington_NNP ,_, and_CC Professor_NNP Mathews_NNP ._. My_PRP$ two_CD closest_JJS friends_NNS (_( or_CC at_IN least_JJS they_PRP were_VBD up_RB until_IN the_DT Twin_NNP Switch_NNP )_) are_VBP Vicki_NNP and_CC Beth_NNP ._. I_PRP am_VBP probably_RB closest_JJS to_TO my_PRP$ next-door_JJ neighbor_NN ,_, Charlie_NNP ,_, who_WP has_VBZ taken_VBN in_IN a_DT whole_JJ lot_NN of_IN his_PRP$ kids_NNS and_CC grandkids_NNS to_TO live_VB with_IN him_PRP ._. He_PRP basically_RB has_VBZ a_DT big_JJ ol_NN '_POS heart_NN and_CC loves_VBZ to_TO feed_VB and_CC take_VB care_NN of_IN people_NNS ._. And_CC dogs_NNS ._. He_PRP has_VBZ a_DT beach_NN house_NN right_VBD next_JJ to_TO mine_VB ,_, and_CC actually_RB owns_VBZ mine_NN too_RB ,_, though_IN he_PRP rents_VBZ it_PRP out_RP to_TO me_PRP ._. Ashley_NNP and_CC I_PRP are_VBP the_DT only_JJ kids_NNS in_IN our_PRP$ family_NN ._. Our_PRP$ parents_NNS live_VBP in_IN (_( can_MD I_PRP say_VBP where_WRB they_PRP live_VBP ?_. No_DT ?_. Okay_NNP ._. )_) They_PRP live_VBP in_IN a_DT place_NN that_WDT 's_VBZ cold_JJ ,_, too_RB ._. We_PRP have_VBP great_JJ parents_NNS who_WP support_VBP us_PRP financially_RB (_( and_CC emotionally_RB )_) while_IN we_PRP are_VBP in_IN school_NN ._. Neither_CC of_IN our_PRP$ parents_NNS were_VBD supposed_VBN to_TO know_VB about_IN the_DT Twin_NNP Switch_NNP ,_, but_CC that_IN changed_VBD when_WRB Ashley_NNP told_VBD Mom_NNP ._. More_JJR details_NNS about_IN that_DT later_RB ._. We_PRP ultimately_RB decided_VBD to_TO do_VB the_DT Twin_NNP Switch_NNP for_IN several_JJ reasons_NNS ..._: 1_CD ._. Everyone_NN always_RB asks_VBZ us_PRP if_IN we_PRP ever_RB switch_VB places_NNS ,_, and_CC we_PRP wanted_VBD to_TO see_VB if_IN we_PRP could_MD pull_VB it_PRP off_RP now_RB that_IN we_PRP 're_VBP adults_NNS ._. 2_CD ._. Ashley_NNP is_VBZ working_VBG on_IN her_PRP$ dissertation_NN involving_VBG twins_NNS ,_, and_CC she_PRP wanted_VBD to_TO see_VB if_IN her_PRP$ advisor_NN would_MD let_VB her_PRP incorporate_VB the_DT data_NN from_IN the_DT switch_NN somehow_NN ._. Her_PRP$ advisor_NN ,_, Dr._NNP Lyle_NNP ,_, said_VBD she_PRP would_MD review_VB Ashley_NNP 's_POS and_CC my_PRP$ data_NNS at_IN the_DT end_NN of_IN the_DT switch_NN to_TO see_VB if_IN there_EX was_VBD anything_NN workable_JJ for_IN the_DT dissertation_NN ._. I_PRP am_VBP sure_JJ Ashley_NNP will_MD give_VB you_PRP the_DT scoop_NN on_IN that_DT ._. 3_CD ._. As_IN mentioned_VBN above_IN ,_, I_PRP had_VBD a_DT hard_JJ time_NN with_IN law_NN school_NN ,_, and_CC was_VBD about_IN to_TO give_VB up_RP on_IN it_PRP ,_, and_CC I_PRP wanted_VBD to_TO see_VB if_IN there_EX was_VBD anything_NN Ashley_NNP could_MD do_VB while_IN she_PRP was_VBD there_RB as_IN me_PRP ._. Of_IN course_NN ,_, I_PRP did_VBD n't_RB -exactly-_VB tell_VB Ashley_NNP how_WRB bad_JJ things_NNS were_VBD or_CC how_WRB much_JJ I_PRP was_VBD relying_VBG on_IN her_PRP$ for_IN help_NN ..._: But_CC that_DT 's_VBZ because_IN I_PRP did_VBD n't_RB know_VB how_WRB things_NNS would_MD be_VB for_IN her_PRP$ ._. And_CC she_PRP told_VBD me_PRP over_IN and_CC over_IN not_RB to_TO say_VB anything_NN that_WDT would_MD alter_VB her_PRP$ behavior_NN during_IN the_DT twin_JJ switch_NN ._. Ashley_NNP and_CC I_PRP also_RB started_VBD off_RP trying_VBG to_TO think_VB of_IN a_DT bet_NN ..._: I_PRP would_MD bet_VB we_PRP could_MD pull_VB off_RP the_DT switch_NN (_( because_IN I_PRP always_RB knew_VBD we_PRP could_MD )_) ,_, and_CC Ashley_NNP would_MD bet_VB we_PRP could_MD n't_RB ._. Unfortunately_RB ,_, we_PRP could_MD n't_RB ever_RB agree_VB on_IN what_WP we_PRP would_MD put_VB for_IN the_DT wager_NN ._. Looking_VBG back_RB on_IN it_PRP ,_, I_PRP guess_VBP we_PRP could_MD have_VB used_VBN Robert_NNP ..._: (_( Just_NNP kidding_VBG )_) The_DT whole_JJ thing_NN seemed_VBD pretty_RB funny_JJ at_IN first_JJ ,_, and_CC we_PRP both_DT had_VBD our_PRP$ doubts_NNS as_IN to_TO if_IN we_PRP would_MD actually_RB even_RB give_VB it_PRP a_DT try_NN ._. Then_RB Ashley_NNP flew_VBD down_RB to_TO visit_VB me_PRP ,_, and_CC we_PRP started_VBD getting_VBG our_PRP$ hair_NN and_CC nails_VBZ done_VBN to_TO match_VB each_DT other_JJ ._. I_PRP thought_VBD Ashley_NNP was_VBD going_VBG to_TO catch_VB the_DT first_JJ flight_NN out_IN when_WRB I_PRP gave_VBD her_PRP a_DT tour_NN of_IN the_DT law_NN school_NN ,_, showed_VBD her_PRP$ where_WRB everything_NN was_VBD ,_, where_WRB to_TO sit_VB ,_, etc_FW ._. I_PRP think_VBP that_DT 's_VBZ when_WRB reality_NN set_VBN in_IN for_IN her_PRP$ ._. I_PRP had_VBD no_DT idea_NN how_WRB freaked_VBD out_RP she_PRP was_VBD until_IN after_IN the_DT switch_NN was_VBD over_IN and_CC she_PRP admitted_VBD what_WP she_PRP did_VBD the_DT weekend_NN right_NN before_IN school_NN started_VBD ..._: Ashley_NNP told_VBD me_PRP I_PRP should_MD n't_RB mention_VB anything_NN about_IN it_PRP ,_, but_CC I_PRP 'll_MD see_VB if_IN I_PRP can_MD put_VB the_DT details_NNS in_IN ._. Let_NNP 's_POS just_RB say_VB ,_, Ashley_NNP did_VBD n't_RB tell_VB you_PRP EVERYTHING_IN she_PRP did_VBD during_IN the_DT switch_NN ._. I_PRP think_VBP many_JJ of_IN you_PRP would_MD be_VB surprised_VBN and_CC amused_VBN if_IN you_PRP heard_VBP it_PRP all_DT ._. As_IN for_IN me_PRP ,_, you_PRP have_VBP n't_RB heard_VBN everything_NN that_IN I_PRP went_VBD through_IN ,_, either_DT ._. Ash_NNP and_CC I_PRP have_VBP agreed_VBN to_TO keep_VB this_DT Rated_VBN G_NNP or_CC PG_NNP since_IN we_PRP have_VBP no_DT idea_NN how_WRB old_JJ our_PRP$ readers_NNS are_VBP ._. Sorry_NNP ,_, that_WDT means_VBZ no_DT graphic_JJ details_NNS about_IN what_WP went_VBD on_IN between_IN Ashley_NNP and_CC Professor_NNP Tarkington_NNP (_( Can_MD I_PRP mention_VB that_IN ,_, Ashley_NNP ?_. No_NNP ?_. Okay_NNP ._. )_) You_PRP did_VBD n't_RB hear_VB that_IN from_IN me_PRP ..._: I_PRP left_VBD for_IN Ashley_NNP 's_POS condo_NN up_RB North_NNP on_IN the_DT weekend_NN right_NN before_IN school_NN started_VBD ._. Leaving_VBG the_DT ocean_NN was_VBD a_DT lot_NN harder_JJR than_IN I_PRP thought_VBD it_PRP would_MD be_VB ._. I_PRP really_RB felt_VBD a_DT loss_NN for_IN some_DT reason_NN ,_, and_CC it_PRP was_VBD n't_RB until_IN much_JJ later_JJR that_IN I_PRP figured_VBD out_RP why_WRB (_( with_IN Robert_NNP 's_POS and_CC Ashley_NNP 's_POS help_NN )_) ._. It_PRP felt_VBD like_IN I_PRP was_VBD leaving_VBG my_PRP$ swingset_NN or_CC something_NN ._. When_WRB we_PRP were_VBD little_JJ ,_, Ashley_NNP and_CC I_PRP had_VBD the_DT coolest_JJS swingset_NN in_IN our_PRP$ back_RB yard_NN ,_, with_IN the_DT monkeybars_NNS along_IN the_DT top_JJ ,_, with_IN a_DT swing_NN ,_, the_DT rings_NNS ,_, glider_NN ,_, etc_FW ._. It_PRP was_VBD awesome_RB ._. Then_RB ,_, my_PRP$ dad_NN took_VBD a_DT job_NN in_IN another_DT state_NN ,_, and_CC we_PRP had_VBD to_TO move_VB ._. Without_IN the_DT swingset_NN ._. Ash_NNP and_CC I_PRP were_VBD mortified_VBN and_CC actually_RB grieved_VBN for_IN our_PRP$ swingset_NN ._. Anyway_NNP ,_, that_WDT 's_VBZ the_DT same_JJ grief_NN I_PRP felt_VBD when_WRB I_PRP left_VBD the_DT coast_NN ,_, and_CC it_PRP was_VBD haunting_VBG for_IN me_PRP ._. I_PRP could_MD n't_RB understand_VB it_PRP because_IN I_PRP figured_VBD the_DT Twin_NNP Switch_NNP would_MD n't_RB last_JJ THAT_NNP long_VBD ,_, and_CC I_PRP could_MD go_VB back_RB anytime_RB I_PRP wanted_VBD thanks_NNS to_TO frequent_VB flier_JJR miles_NNS ._. When_WRB the_DT switch_NN ended_VBN ,_, and_CC Ashley_NNP and_CC I_PRP were_VBD able_JJ to_TO sit_VB down_RP and_CC go_VB over_IN everything_NN ,_, it_PRP was_VBD then_RB Ashley_NNP told_VBD me_PRP what_WP she_PRP had_VBD discovered_VBN regarding_VBG identity_NN issues_NNS for_IN twins_NNS during_IN our_PRP$ twin_JJ switch_NN ._. It_PRP feels_VBZ like_IN you_PRP are_VBP leaving_VBG yourself_PRP behind_IN when_WRB you_PRP switch_VBP places_NNS with_IN your_PRP$ twin_NN ._. Anything_NN that_WDT is_VBZ not_RB exactly_RB like_IN your_PRP$ twin_NN ,_, you_PRP have_VBP to_TO cut_VB off_RP ._. Completely_RB ._. Otherwise_RB people_NNS who_WP knew_VBD Ashley_NNP would_MD never_RB believe_VB I_PRP was_VBD her_PRP ._. It_PRP 's_VBZ not_RB just_RB leaving_VBG my_PRP$ ``_`` life_NN ''_'' that_WDT was_VBD hard_RB ..._: It_PRP was_VBD leaving_VBG ME_NNP ..._: all_PDT the_DT things_NNS about_IN me_PRP that_IN I_PRP like_VBP (_( fish_JJ ,_, crabs_NNS ,_, etc_NN )_) ,_, and_CC having_VBG to_TO mentally_RB train_VB myself_PRP to_TO like_VB what_WP Ashley_NNP likes_VBZ or_CC Ashley_NNP does_VBZ ._. Mentally_RB ,_, it_PRP has_VBZ more_JJR of_IN an_DT effect_NN on_IN you_PRP that_IN you_PRP might_MD think_VB ._. I_PRP could_MD never_RB have_VB anticipated_VBN how_WRB much_JJ it_PRP would_MD effect_NN me_PRP ._. So_RB ,_, I_PRP arrive_VBP up_RB north_RB ,_, and_CC (_( I_PRP hope_VBP I_PRP can_MD tell_VB you_PRP this_DT part_NN )_) I_PRP had_VBD Altitude_NNP Sickness_NNP for_IN awhile_NN because_IN her_PRP$ condo_NN is_VBZ near_IN the_DT mountains_NNS ._. Going_VBG from_IN sea-level_JJ to_TO the_DT mountains_NNS took_VBD some_DT getting_VBG used_VBN to_TO ._. I_PRP had_VBD migraine-like_JJ headaches_NNS for_IN awhile_NN ._. Other_JJ than_IN that_DT ,_, escaping_VBG the_DT 98_CD degree_NN temperatures_NNS and_CC 95_CD %_NN humidity_NN was_VBD fabulous_JJ !_. !_. My_NNP hair_NN just_RB seemed_VBD to_TO come_VB alive_JJ for_IN some_DT reason_NN ._. This_DT ,_, of_IN course_NN ,_, meant_NN I_PRP had_VBD to_TO deal_VB with_IN the_DT flippiness_NN of_IN my_PRP$ haircut_NN ._. I_PRP have_VBP a_DT medium_NN length_NN shorter-cut_NN which_WDT is_VBZ cut_VBN to_TO flip_VB in_IN the_DT back_NN ._. Ashley_NNP said_VBD ``_`` no_DT way_NN ''_'' would_MD Paige_VB or_CC anyone_NN believe_VBP she_PRP would_MD ever_RB have_VB a_DT flippy_JJ cut_NN ._. It_PRP was_VBD a_DT constant_JJ battle_NN between_IN me_PRP and_CC my_PRP$ hair_NN there_RB for_IN awhile_NN ._. And_CC on_IN my_PRP$ first_JJ day_NN of_IN class_NN ,_, the_DT first_JJ words_NNS out_IN of_IN Paige_NNP 's_POS mouth_NN when_WRB she_PRP saw_VBD me_PRP was_VBD :_: ``_`` WHAT_WP IS_VBZ UP_RP WITH_NNP YOUR_NNP HAIR_NNP ?_. ''_'' I_PRP met_VBD with_IN Dr._NNP Lyle_NNP the_DT Saturday_NNP before_IN school_NN started_VBD ._. Ashley_NNP thinks_VBZ this_DT woman_NN is_VBZ so_RB great_JJ ,_, but_CC to_TO be_VB honest_JJS ,_, she_PRP did_VBD n't_RB make_VB that_DT great_JJ of_IN a_DT first_JJ impression_NN on_IN me_PRP ._. She_PRP came_VBD across_RB very_RB ``_`` snooty_NN ''_'' almost_RB --_: not_RB very_RB friendly_JJ to_TO me_PRP at_IN all_DT ._. Ash_NNP says_VBZ it_PRP 's_VBZ because_IN she_PRP 's_VBZ from_IN the_DT North_NNP and_CC ``_`` that_DT 's_VBZ how_WRB some_DT Northerners_NNS are_VBP ,_, ''_'' but_CC I_PRP do_VBP n't_RB buy_VB it_PRP ._. Everyone_NN else_RB was_VBD really_RB nice_JJ ._. I_PRP also_RB think_VBP Dr._NNP Lyle_NNP had_VBD her_PRP$ own_JJ agenda_NN with_IN the_DT twin_NN switch_NN ._. There_EX were_VBD times_NNS when_WRB I_PRP definitely_RB thought_VBD she_PRP purposely_RB set_VBD me_PRP up_IN to_TO fail_VB so_IN she_PRP could_MD see_VB if_IN anyone_NN could_MD tell_VB I_PRP was_VBD n't_RB really_RB Ashley_NNP ._. Dr._NNP Lyle_NNP had_VBD a_DT student_NN reception_NN at_IN her_PRP$ house_NN that_IN night_NN ,_, which_WDT gave_VBD me_PRP a_DT chance_NN to_TO be_VB around_IN the_DT Psych_NNP people_NNS before_IN classes_NNS started_VBD ._. Of_IN course_NN ,_, Ashley_NNP did_VBD n't_RB describe_VB Robert_NNP for_IN me_PRP ,_, so_RB I_PRP did_VBD n't_RB know_VB what_WP he_PRP looked_VBD like_IN ._. She_PRP told_VBD me_PRP just_RB to_TO ignore_VB him_PRP anyway_RB ,_, since_IN I_PRP was_VBD supposed_VBN to_TO be_VB her_PRP$ ._. Ashley_NNP was_VBD mad_VBN at_IN Robert_NNP because_IN he_PRP never_RB called_VBD her_PRP after_IN their_PRP$ one_CD date_NN they_PRP had_VBD (_( that_IN ended_VBN in_IN disaster_NN )_) ._. So_IN the_DT plan_NN was_VBD for_IN me_PRP to_TO just_RB stay_VB away_RB from_IN him_PRP ._. I_PRP do_VBP n't_RB think_VB Ashley_NNP realized_VBD that_IN Robert_NNP was_VBD signed_VBN up_RP to_TO be_VB in_IN the_DT same_JJ seminar_NN as_IN I_PRP was_VBD ._. It_PRP was_VBD just_RB a_DT matter_NN of_IN time_NN before_IN I_PRP ran_VBP into_IN him_PRP ._. At_IN Dr._NNP Lyle_NNP 's_POS party_NN ,_, however_RB ,_, I_PRP tried_VBD to_TO avoid_VB him_PRP ._. But_CC how_WRB do_VBP you_PRP avoid_VB someone_NN when_WRB you_PRP do_VBP n't_RB know_VB what_WP that_IN person_NN looks_VBZ like_IN ?_. ?_. ?_. There_EX was_VBD a_DT girl_NN at_IN the_DT party_NN named_VBN Jamie_NNP who_WP walked_VBD over_IN to_TO me_PRP first_JJ thing_NN and_CC wanted_VBD to_TO know_VB how_WRB my_PRP$ ``_`` date_NN with_IN Robert_NNP ''_'' went_VBD ._. I_PRP told_VBD her_PRP I_PRP did_VBD n't_RB want_VB to_TO talk_VB about_IN it_PRP ,_, and_CC she_PRP said_VBD ,_, ``_`` Oh_UH ,_, that_DT 's_VBZ because_IN he_PRP 's_VBZ HERE_NNP ,_, is_VBZ n't_RB he_PRP ?_. ''_'' I_PRP almost_RB freaked_VBD out_RP right_RB then_RB because_IN for_IN all_DT I_PRP knew_VBD ,_, I_PRP had_VBD already_RB been_VBN talking_VBG to_TO him_PRP and_CC been_VBN sickly-sweet_JJ and_CC nice_JJ ,_, like_IN I_PRP was_VBD trying_VBG to_TO be_VB to_TO everyone_NN I_PRP encountered_VBD ._. Later_NNP during_IN the_DT party_NN ,_</t>
-  </si>
-  <si>
-    <t>clues_NNS to_TO gonzo_VB marketing_NN ._. ..a_JJ list_JJ apart_RB ._. We_PRP 're_VBP going_VBG Closed_VBD Source_NNP ._. It_PRP 's_VBZ super_JJ secure_NN ,_, low_JJ risk_NN ,_, and_CC controlled_VBD ._. And_CC Quality_NNP 's_POS built_VBN in_IN ._. --_: -_: Yes_UH ,_, Gonzo_NNP 2.0_CD ._. -_: Nothing_NN new_JJ because_IN Gonzo_NNP Marketing_NNP was_VBD always_RB about_IN that_DT ._. As_IN you_PRP see_VBP this_DT YouTube_NNP ,_, do_VBP n't_RB you_PRP think_VB Poetry_NNP ?_. The_DT Solution_NN is_VBZ Poetry_NNP ._. And_CC maybe_RB Poetry_NNP 2.0_CD -_: whatever_NN ,_, whatever_WDT ,_, whatever_WDT ..._: ._. props_NNS ,_, just_RB props_NNS but_CC useful_JJ props_NNS ,_, no_DT ?_. When_WRB did_VBD you_PRP forget_VB that_IN this_DT is_VBZ your_PRP$ world_NN ?_. And_CC yes_UH ,_, Web_NNP 2.0_CD ,_, Poetry_NNP 2.0_CD -_: we_PRP are_VBP no_RB longer_RBR ``_`` writing_VBG ourselves_PRP into_IN existence_NN ''_'' ._. -_: We_PRP are_VBP now_RB teaching_VBG the_DT Machines_NNPS how_WRB to_TO write_VB Existence_NNP so_IN we_PRP can_MD write_VB ourselves_PRP into_IN Being_VBG ..._: That_DT 's_VBZ what_WP this_DT is_VBZ all_DT about_IN ._. You_PRP want_VBP to_TO know_VB who_WP you_PRP are_VBP ?_. Ask_IN the_DT machine_NN !_. We_PRP are_VBP teaching_VBG the_DT Machines_NNPS to_TO write_VB Structures_NNS from_IN which_WDT our_PRP$ Being_NNP is_VBZ generated_VBN ._. We_PRP are_VBP no_RB longer_RB The_DT Web_NNP ._. Separation_NN of_IN content_NN and_CC structure_NN ._. We_PRP are_VBP not_RB our_PRP$ Blogs_NNS any_DT more_JJR ._. There_EX are_VBP no_DT more_RBR blogs_NNS !_. There_EX is_VBZ no_DT more_JJR information_NN !_. There_EX is_VBZ no_DT more_RBR you_PRP !_. There_EX is_VBZ no_DT more_RBR there_RB there_RB !_. What_WP is_VBZ is_VBZ Your_JJ Voice_NNP as_IN a_DT Network_NNP of_IN Conversations_NNP generated_VBN by_IN the_DT Machines_NNPS we_PRP teach_VBP to_TO regenerate_VB us_PRP ,_, our_PRP$ Being_NNP of_IN the_DT Conversation_NNP of_IN the_DT Web_NNP ._. -_: There_EX !_. you_PRP want_VBP to_TO know_VB how_WRB you_PRP are_VBP ?_. Ask_IN the_DT Machines_NNPS to_TO regenerate_VB the_DT You_PRP as_IN You_PRP of_IN The_DT Web_NNP ._. Ask_VB the_DT machines_NNS !_. Does_VBZ that_IN Blow_VB your_PRP$ Mind_NNP ?_. Do_VBP n't_RB worry_VB ._. It_PRP will_MD only_RB blow_VB your_PRP$ Mind_NN if_IN it_PRP blows_VBZ the_DT Mind_NNP of_IN the_DT Web_NNP of_IN Conversations_NNP where_WRB Your_PRP$ Mind_NNP really_RB is_VBZ anyway_RB ._. There_EX is_VBZ no_DT you_PRP unless_IN you_PRP are_VBP connected_VBN ._. You_PRP show_VBP up_RP as_IN You_PRP only_RB in_IN the_DT Web_NNP of_IN Us_NNP ._. The_DT machines_NNS generate_VBP the_DT structures_NNS of_IN conversations_NNS ._. We_PRP teach_VBP The_DT Machines_NNP how_WRB to_TO do_VB that_DT ._. The_DT machines_NNS teach_VBP us_PRP who_WP we_PRP are_VBP by_IN knowing_VBG who_WP we_PRP are_VBP connected_VBN to_TO ..._: Cool_NNP ._. Let_NNP 's_POS do_VB some_DT more_JJR of_IN that_DT ._. Yiippii_NNP ._. Bada_NNP Bing_NNP !_. Tudum_NNP Tudum_NNP !_. YouTube_NNP link_VBP via_IN FortyMedia_NNP Sandy_NNP ’_NNP s_VBD 65th_CD birthday_NN was_VBD approaching_VBG and_CC she_PRP was_VBD planning_VBG a_DT party_NN ._. The_DT people_NNS at_IN Birch_NNP Point_NNP Resort_NNP in_IN Hayward_NNP spoiled_VBD those_DT plans_NNS and_CC appear_VBP to_TO have_VB cheated_VBN her_PRP out_IN of_IN a_DT substantial_JJ sum_NN of_IN money_NN ._. To_TO find_VB out_RP more_RBR about_IN Sandy_NNP 's_POS situation_NN ,_, click_NN here_RB ._. To_TO add_VB the_DT power_NN of_IN the_DT almighty_JJ word_NN of_IN mouth_NN to_TO balance_VB out_RP the_DT tourist_NN industry_NN astro-turf_NN ,_, link-up_JJ and_CC shine_VB the_DT light_NN of_IN conversation_NN on_IN these_DT shady_JJ practices_NNS ._. it_PRP has_VBZ to_TO really_RB suck_VB to_TO be_VB a_DT bulldog_JJ bitch_NN on_IN the_DT rag_NN --_: in_IN spider_NN man_NN boxers_NNS especially_RB ._. Tags_NNS :_: bitches+in+heat_NN Powered_VBN by_IN Qumana_NNP Laptop_NNP for_IN sale_NN ._. Pictures_NNS of_IN laptop_NN for_IN sale_NN New_NNP flickr_NN guidelines_NNS say_VBP :_: DO_VBP N'T_NNP Sell_NNP stuff_NN (_( including_VBG yourself_PRP )_) Flickr_NNP is_VBZ for_IN personal_JJ use_NN only_RB ._. If_IN you_PRP sell_VBP products_NNS or_CC services_NNS through_IN your_PRP$ photostream_NN ,_, we_PRP will_MD terminate_VB your_PRP$ account_NN ._. of_IN course_NN ,_, if_IN you_PRP send_VBP them_PRP to_TO ebay_VB to_TO bid_VB ,_, i_VB guess_VBP it_PRP 's_VBZ okay_JJ ._. I_PRP do_VBP n't_RB know_VB --_: we_PRP may_MD need_VB an_DT update_NN to_TO the_DT guidelines_NNS ..._: Powered_VBN by_IN Qumana_NNP the_DT big_JJ thang_NN tonight_NN --_: 1000tags.com_CD is_VBZ offering_VBG a_DT free_JJ tag_NN if_IN you_PRP post_VBP and_CC link_VBP ._. Thank_NNP you_PRP ,_, I_PRP 'll_MD take_VB one_CD !_. Although_IN my_PRP$ name_NN and_CC bio_NN currently_RB appear_VBP on_IN the_DT site_NN ,_, I_PRP am_VBP no_RB longer_RB associated_VBN with_IN The_DT Content_NNP Factor_NNP ._. As_IN I_PRP 've_VBP indicated_VBN previously_RB ,_, information_NN relative_NN to_TO my_PRP$ business_NN can_MD be_VB found_VBN on_IN my_PRP$ current_JJ sites_NNS :_: www.jsessum.com_NN and_CC www.sessum.com_NN ,_, and_CC the_DT number_NN of_IN blogs_NNS and_CC other_JJ publications_NNS I_PRP write_VBP for_IN ._. Thank_NNP you_PRP ._. Now_RB ,_, back_RB to_TO your_PRP$ regularly_RB scheduled_VBN programming_NN ..._: (_( Disclosure++_NNP :_: I_PRP may_MD delete_VB this_DT post_NN when_WRB the_DT requested_VBN information_NN is_VBZ removed_VBN from_IN that_DT site_NN ._. )_) &amp;_CC nbsp_$ ;_: &amp;_CC nbsp_NN ;_: Technorati_NNP Tags_NNP :_: The+Content+Factor_NN ,_, Content+Factor_NNP ,_, JeneaneSessum_NNP ,_, Sessum_NNP ,_, Atlanta_NNP ,_, Atlanta+Copywriting_NNP ,_, Discontent_NNP &amp;_CC nbsp_NN ;_: //_CC Powered_VBN By_IN Qumana_NNP</t>
-  </si>
-  <si>
-    <t>We_PRP finished_VBD the_DT Century_NNP ride_NN last_JJ month_NN with_IN no_DT problems_NNS ._. Since_IN then_RB ,_, we_PRP 've_VBP been_VBN doing_VBG 60-_JJ to_TO 90-_CD mile_NN rides_NNS almost_RB every_DT weekend_NN in_IN addition_NN to_TO a_DT 15-mile_JJ ride_NN every_DT weekday_NN morning_NN ._. And_CC ,_, I_PRP 'm_VBP signed_VBN up_RP for_IN an_DT Olympic_NNP distance_NN triathlon_NN in_IN September_NNP ,_, which_WDT is_VBZ a_DT 1500-meter_JJ swim_NN ,_, 40K_CD hilly_RB bike_JJ ride_NN ,_, and_CC a_DT 10K_CD run_NN ._. I_PRP 've_VBP done_VBN triathlons_NNS in_IN the_DT past_JJ ,_, but_CC not_RB for_IN a_DT few_JJ years_NNS and_CC never_RB this_DT long_JJ ._. Ultimately_RB I_PRP hope_VBP to_TO do_VB a_DT half_NN Ironman_NNP in_IN 2011_CD ._. The_DT new_JJ painting_NN series_NN is_VBZ still_RB in_IN a_DT conceptual_JJ stage_NN ,_, though_IN I_PRP did_VBD actually_RB get_VB some_DT paint_NN on_IN canvas_NN recently_RB ._. It_PRP does_VBZ n't_RB feel_VB as_IN important_JJ right_NN now_RB as_IN the_DT internal_JJ and_CC physical_JJ work_NN ._. Reclaiming_VBG the_DT health_NN that_IN I_PRP lost_VBD last_JJ year_NN has_VBZ taken_VBN on_IN monumental_JJ importance_NN to_TO me_PRP ._. Having_VBG always_RB been_VBN prone_NN to_TO depression_NN ,_, I_PRP know_VBP what_WP matters_VBZ most_JJS to_TO me_PRP right_RB now_RB ,_, and_CC this_DT is_VBZ it_PRP ._. But_CC it_PRP 's_VBZ also_RB about_IN renewing_VBG my_PRP$ relationship_NN to_TO this_DT place_NN ,_, which_WDT is_VBZ the_DT only_JJ geographical_JJ location_NN that_WDT has_VBZ ever_RB truly_RB felt_VBD like_JJ home_NN to_TO me_PRP ._. My_PRP$ new_JJ series_NN will_MD be_VB about_IN that_DT :_: a_DT sense_NN of_IN place_NN ._. I_PRP also_RB want_VBP to_TO reclaim_VB the_DT vegan_JJ lifestyle_NN that_IN we_PRP were_VBD essentially_RB forced_VBN to_TO give_VB up_RP in_IN northern_JJ Italy_NNP ,_, where_WRB we_PRP reverted_VBD to_TO unprincipled_JJ vegetarianism_NN ._. Everything_NN is_VBZ affected_VBN by_IN what_WP we_PRP put_VBD into_IN our_PRP$ bodies_NNS ,_, everything_NN ._. And_CC now_RB ,_, some_DT photos_NNS from_IN the_DT century_NN and_CC our_PRP$ recent_JJ rides_NNS ._.</t>
-  </si>
-  <si>
-    <t>The_DT Xphone_NN IIm_NNP takes_VBZ the_DT existing_VBG form_NN factor_NN of_IN the_DT Xphone_NNP II_NNP and_CC gives_VBZ it_PRP an_DT iPod-style_JJ makeover_NN ._. Depending_VBG on_IN your_PRP$ personal_JJ preferences_NNS ,_, that_DT 's_VBZ either_CC a_DT canny_JJ marketing_NN decision_NN or_CC a_DT cynical_JJ bit_NN of_IN cheap_JJ design_NN trickery_NN ._. The_DT silver_NN and_CC grey_JJ styling_NN of_IN the_DT buttons_NNS and_CC sides_NNS of_IN the_DT phone_NN do_VBP n't_RB sit_VB quite_RB as_RB well_RB with_IN the_DT otherwise_RB glossy_JJ white_JJ colour_JJ scheme_NN of_IN the_DT phone_NN ,_, although_IN again_RB that_DT 's_VBZ a_DT matter_NN of_IN personal_JJ preference_NN ._. The_DT Xphone_NN IIm_NNP is_VBZ a_DT candybar_NN form_NN factor_NN smartphone_NN that_WDT 's_VBZ fairly_RB reminiscent_JJ of_IN most_JJS of_IN Sony_NNP Ericsson_NNP 's_POS designs_NNS ,_, right_RB down_RB to_TO the_DT largish_JJ 2.2_CD inch_NN screen_NN and_CC small_JJ button_NN array_NN ._. Most_JJS functions_NNS are_VBP controlled_VBN via_IN the_DT tiny_JJ directional_JJ joystick_NN that_WDT sits_VBZ in_IN the_DT middle_NN of_IN the_DT phone_NN ,_, in_IN the_DT same_JJ style_NN as_IN the_DT Xphone_NN II_NNP itself_PRP ._. The_DT major_JJ button_NN difference_NN between_IN the_DT IIm_NNP and_CC II_NNP is_VBZ the_DT addition_NN of_IN four_CD dedicated_JJ function_NN buttons_NNS ._. These_DT are_VBP mapped_VBN to_TO Internet_NNP Explorer_NNP and_CC Windows_NNP Media_NNP Player_NNP functions_NNS ._. The_DT Xphone_NN IIm_NNP weighs_VBZ in_IN at_IN 106.5g_CD with_IN battery_NN and_CC measures_VBZ 46.83_CD x_NN 107.76_CD x_JJ 19.58_CD mm_NN ._. The_DT real_JJ advantage_NN with_IN this_DT style_NN of_IN smartphone_NN over_IN the_DT massed_JJ army_NN of_IN iPaq_JJ form_NN factor_NN clones_NNS is_VBZ that_IN they_PRP 'll_MD fit_VB comfortably_RB in_IN any_DT pocket_NN and_CC do_VBP n't_RB immediately_RB look_VB like_IN a_DT PDA_NNP -_: although_IN that_DT 's_VBZ an_DT approach_NN that_WDT does_VBZ have_VB its_PRP$ drawbacks_NNS ,_, which_WDT we_PRP 'll_MD get_VB to_TO shortly_RB ._. Features_NNS As_IN a_DT phone_NN ,_, the_DT Xphone_NN IIm_NNP is_VBZ a_DT tri-band_JJ GSM_NNP phone_NN with_IN GPRS_NNP capabilities_NNS and_CC Bluetooth_NNP connectivity_NN ._. The_DT whole_JJ platform_NN 's_POS running_NN on_IN the_DT somewhat_RB aging_VBG Microsoft_NNP Windows_NNP Mobile_NNP 2003_CD Smartphone_NNP Edition_NNP software_NN ,_, which_WDT both_DT manages_NNS usual_VBP phone_NN functionality_NN as_RB well_RB as_IN PDA-style_JJ applications_NNS ._. The_DT IIm_NNP also_RB features_VBZ an_DT integrated_JJ VGA_NNP camera_NN located_VBN on_IN the_DT back_NN of_IN the_DT phone_NN ._. The_DT supplied_JJ application_NN package_NN -_: predominantly_RB Pocket_NNP Outlook_NNP and_CC Internet_NNP Explorer_NNP -_: is_VBZ n't_RB that_IN exciting_VBG in_IN PDA_NNP terms_NNS ,_, although_IN at_IN least_JJS running_VBG on_IN the_DT Windows_NNP Mobile_NNP 2003_CD platform_NN means_VBZ that_IN there_EX 's_VBZ plenty_NN of_IN potential_JJ add-on_JJ software_NN out_IN there_RB to_TO bolster_VB the_DT phone_NN 's_POS capabilities_NNS ._. The_DT trick_NN there_RB ,_, however_RB ,_, will_MD be_VB making_VBG sure_JJ that_IN you_PRP can_MD control_VB said_VBD software_NN via_IN the_DT tiny_JJ joystick_NN ,_, as_IN the_DT IIm_NNP offers_VBZ no_DT touchscreen_NN capabilities_NNS ,_, unlike_IN larger_JJR PDA-style_JJ smartphones_NNS ._. Performance_NNP There_EX 's_VBZ not_RB too_RB much_JJ that_IN can_MD be_VB said_VBD about_IN the_DT IIm_NNP 's_POS phone_NN performance_NN ,_, as_IN it_PRP worked_VBD well_RB enough_RB during_IN our_PRP$ testing_VBG for_IN both_DT phone_NN calls_NNS and_CC SMS/MMS_NNP messaging_NN ._. Our_PRP$ one_CD complaint_NN is_VBZ a_DT relatively_RB minor_JJ one_CD ,_, in_IN that_DT while_IN the_DT phone_NN itself_PRP supports_VBZ Windows_NNP Media_NNP player_NN ,_, it_PRP does_VBZ n't_RB support_VB MP3_NNP ring_VBG tones_NNS ;_: quite_VB how_WRB annoying_VBG you_PRP 'll_MD find_VB that_DT is_VBZ up_RP to_TO you_PRP ._. As_IN a_DT PDA_NNP ,_, the_DT IIm_NNP has_VBZ some_DT distinct_JJ drawbacks_NNS ,_, centred_VBD mainly_RB around_IN the_DT mandatory_JJ use_NN of_IN the_DT joystick_NN ._. It_PRP takes_VBZ quite_RB a_DT bit_NN of_IN use_NN to_TO get_VB accustomed_VBN to_TO using_VBG the_DT joystick_NN for_IN menu_NN navigation_NN ,_, especially_RB if_IN you_PRP 're_VBP used_VBN to_TO touchscreen_VB smartphones_NNS ._. If_IN you_PRP 're_VBP in_IN possession_NN of_IN small_JJ and_CC nimble_JJ fingers_NNS you_PRP 'll_MD have_VB no_DT problems_NNS with_IN the_DT IIm_NNP 's_POS joystick_NN ,_, but_CC our_PRP$ rather_RB meatier_NN digits_NNS found_VBD it_PRP irksome_VB ,_, especially_RB as_IN it_PRP 's_VBZ all_DT too_RB easy_JJ to_TO hit_VB the_DT function_NN buttons_NNS above_IN it_PRP by_IN accident_NN when_WRB scrolling_NN upwards_NNS ._. There_EX are_VBP also_RB some_DT applications_NNS ,_, such_JJ as_IN the_DT normally_RB highly_RB addictive_JJ Jawbreaker_NNP ,_, that_WDT work_VBP very_RB poorly_RB through_IN a_DT joystick_JJ interface_NN ._.</t>
-  </si>
-  <si>
-    <t>No_DT blog_NN post_NN yesterday_NN because_IN I_PRP was_VBD preoccupied_VBN with_IN getting_VBG ready_JJ for_IN the_DT show_NN this_DT weekend_NN ._. I_PRP got_VBD to_TO stop_VB off_RP in_IN Tigard_NNP to_TO visit_VB Mia_NNP and_CC help_VB get_VB her_PRP$ face_NN trimmed_VBD up_RB for_IN the_DT show_NN ._. She_PRP was_VBD actually_RB quite_RB good_JJ ._. She_PRP was_VBD n't_RB thrilled_VBN about_IN me_PRP trimming_VBG her_PRP$ face_NN during_IN the_DT time_NN that_IN she_PRP stayed_VBD with_IN us_PRP ._. But_CC then_RB again_RB ,_, she_PRP was_VBD much_RB younger_JJR ._. I_PRP also_RB practiced_VBD stacking_VBG her_PRP$ rear_NN ._. Every_DT dog_NN is_VBZ different_JJ and_CC I_PRP 'm_VBP so_RB used_VBN to_TO Bess_NNP who_WP is_VBZ pretty_RB much_JJ fine_NN with_IN whatever_NN I_PRP do_VBP to_TO her_VB ._. Mia_NNP takes_VBZ a_DT lighter_JJR touch_NN to_TO maneuver_VB her_PRP$ rear_JJ feet_NNS into_IN the_DT ideal_JJ position_NN ._. Otherwise_VB she_PRP likes_VBZ to_TO lift_VB the_DT leg_NN WAY_NNP up_RB into_IN the_DT air_NN ._. And_CC then_RB it_PRP 's_VBZ much_RB more_RBR difficult_JJ to_TO place_VB it_PRP where_WRB it_PRP should_MD be_VB ._. And_CC it_PRP looks_VBZ pretty_JJ funny_JJ !_.</t>
-  </si>
-  <si>
-    <t>TV_NN 's_POS master_NN chef_NN Jacques_NNP Pépin_NNP has_VBZ gone_VBN from_IN La_NNP Technique_NNP to_TO le_VB fast_RB food_NN ._. By_IN Bruce_NNP Cole_NNP ._. Published_VBN February_NNP 2005_CD ._. ©_VB 7x7_CD Magazine/Hartle_NNP Media_NNP ._. All_NNP rights_NNS reserved_VBN ._. If_IN ,_, when_WRB cleaning_VBG a_DT leek_NN or_CC dismembering_VBG a_DT chicken_NN ,_, you_PRP hear_VBP a_DT distinctive_JJ ,_, French-accented_JJ voice_NN in_IN your_PRP$ head_NN telling_VBG you_PRP precisely_RB what_WP to_TO do_VB next_RB ,_, do_VBP n't_RB be_VB alarmed_VBN ._. It_PRP 's_VBZ just_RB Jacques_NNP Pépin-or_NNP ,_, rather_RB ,_, one_CD of_IN his_PRP$ many_JJ tips_NNS you_PRP 've_VBP absorbed_VBN from_IN years_NNS of_IN watching_VBG him_PRP on_IN TV-floating_NN to_TO the_DT surface_NN ._. Starting_VBG in_IN 1991_CD with_IN Today_NNP 's_POS Gourmet_NNP ,_, he_PRP 's_VBZ hosted_JJ 11_CD series_NN for_IN KQED_NNP ;_: his_PRP$ latest_JJS ,_, Fast_NNP Food_NNP My_NNP Way_NNP ,_, premiered_VBD in_IN October_NNP 2004_CD ._. But_CC the_DT 69-year-old_JJ Pépin_NNP is_VBZ also_RB quite_RB the_DT Renaissance_NNP man_NN (_( with_IN an_DT MA_NNP in_IN French_NNP lit_NN from_IN Columbia_NNP University_NNP ,_, no_RB less_JJR )_) who_WP ,_, despite_IN his_PRP$ Gallic_NNP upbringing_NN and_CC heritage_NN ,_, has_VBZ an_DT astute_JJ take_NN on_IN today_NN 's_POS American_JJ culture-as_NN we_PRP found_VBD out_RP when_WRB we_PRP spoke_VBD to_TO him_PRP by_IN phone_NN from_IN his_PRP$ home_NN in_IN Connecticut_NNP ._. Foie_NNP gras_NN has_VBZ been_VBN in_IN the_DT news_NN ,_, especially_RB here_RB in_IN California_NNP ,_, where_WRB a_DT law_NN was_VBD just_RB passed_VBN to_TO ban_VB ,_, eventually_RB ,_, its_PRP$ production_NN ._. What_WP do_VBP you_PRP think_VB of_IN all_PDT the_DT hoopla_NN ?_. It_PRP 's_VBZ a_DT tempest_NN in_IN a_DT teacup_NN ,_, you_PRP know_VBP ._. Most_JJS of_IN the_DT people_NNS against_IN foie_JJ gras_NNS have_VBP never_RB even_RB been_VBN on_IN a_DT farm_NN ._. If_IN it_PRP was_VBD traumatizing_VBG in_IN any_DT way_NN ,_, it_PRP would_MD do_VB a_DT lot_NN of_IN damage_NN to_TO the_DT animal_NN and_CC to_TO the_DT liver_NN ,_, which_WDT would_MD make_VB in_IN inedible_JJ ._. If_IN you_PRP want_VBP to_TO talk_VB about_IN torturing_VBG animas_NN ,_, go_VB see_VBP the_DT way_NN they_PRP raise_VBP chickens_NNS ._. They_PRP blind_VBP them_PRP and_CC cut_VB off_RP their_PRP$ beaks_NNS so_IN they_PRP ca_MD n't_RB fight_VB ._. The_DT noise_NN in_IN a_DT factory_NN chicken_NN farm_NN is_VBZ atrocious-this_JJ is_VBZ why_WRB eggs_NNS have_VBP such_PDT a_DT high_JJ level_NN of_IN cholesterol_NN ._. They_PRP found_VBD out_RP years_NNS ago_RB that_IN putting_VBG acoustic_JJ tiles_NNS in_IN the_DT room_NN to_TO lower_VB the_DT noise_NN cut_VBD the_DT cholesterol_NN level_NN by_IN 10_CD to_TO 15_CD percent_NN ._. You_PRP 've_VBP been_VBN a_DT proponent_NN of_IN sustainable_JJ cuisine-have_NN you_PRP ever_RB considered_VBD doing_VBG a_DT cookbook_NN or_CC a_DT TV_NN show_NN that_IN features_VBZ sustainable_JJ methods_NNS of_IN raising_VBG food_NN ?_. No_UH ,_, because_IN for_IN me_PRP that_DT is_VBZ just_RB part_NN of_IN the_DT equation_NN ._. I_PRP use_VBP organic_JJ food_NN when_WRB I_PRP can_MD ,_, but_CC I_PRP 'm_VBP not_RB going_VBG to_TO stop_VB eating_VBG when_WRB there_EX is_VBZ n't_RB any_DT ._. I_PRP would_MD have_VB an_DT argument_NN with_IN Alice_NNP [_NNP Waters_NNP ]_NNP because_IN if_IN an_DT ingredient_NN is_VBZ not_RB organic_JJ ,_, she_PRP does_VBZ n't_RB want_VB it_PRP ._. Me_NNP ,_, I_PRP 'll_MD take_VB a_DT tomato_NN if_IN it_PRP 's_VBZ an_DT extraordinary_JJ tomato_NN ,_, even_RB if_IN it_PRP 's_VBZ not_RB organic_JJ ,_, over_IN an_DT organic_JJ tomato_NN that_WDT has_VBZ no_DT taste_NN whatever_RB ._. People_NNS think_VBP that_IN because_IN [_NNP something_NN 's_POS ]_NNP organic_NN ,_, it_PRP 's_VBZ extraordinary_JJ ._. I_PRP 've_VBP had_VBD lousy_JJ organic_JJ food_NN ._. For_IN years_NNS you_PRP 've_VBP taught_VBN at_IN the_DT French_JJ Culinary_NNP Institute_NNP in_IN New_NNP York_NNP and_CC at_IN Boston_NNP University_NNP ._. Are_VBP students_NNS these_DT days_NNS more_RBR concerned_JJ with_IN fame_NN and_CC fortune_NN than_IN with_IN just_RB learning_VBG the_DT basics_NNS ?_. Oh_UH ,_, yes-probably_RB one_CD out_IN of_IN two_CD are_VBP at_IN school_NN because_IN they_PRP want_VBP to_TO be_VB a_DT celebrity_NN chef_NN ._. They_PRP will_MD come_VB in_IN for_IN an_DT interview_NN and_CC say_VB ,_, “_NNP Well_NNP ,_, I_PRP 'd_MD like_VB to_TO do_VB a_DT book_NN like_IN you_PRP and_CC a_DT television_NN show_NN like_IN you_PRP ,_, so_RB who_WP do_VBP you_PRP think_VB I_PRP should_MD call_VB ?_. ”_NN like_IN there_EX is_VBZ some_DT secret_JJ number_NN ._. It_PRP still_RB gives_VBZ me_PRP a_DT shot_NN in_IN the_DT arm_NN ,_, though_RB ,_, to_TO work_VB with_IN students_NNS ._.</t>
-  </si>
-  <si>
-    <t>I_PRP know_VBP its_PRP$ been_VBN forever_RB and_CC I_PRP keep_VBP saying_VBG I_PRP 'll_MD update_VB soon_RB ..._: ahhh_NN !_. Anyway_RB ,_, this_DT new_JJ year_NN has_VBZ definietly_RB been_VBN better_RBR for_IN the_DT Rast_NNP Family_NNP ._. I_PRP was_VBD happy_JJ to_TO see_VB 2009_CD go_VB and_CC welcome_VB in_IN 2010_CD ._. Which_IN we_PRP did_VBD with_IN my_PRP$ BFF_NNP and_CC her_PRP$ family_NN ._. It_PRP was_VBD a_DT blast_NN ,_, and_CC I_PRP loved_VBD having_VBG them_PRP here_RB with_IN us_PRP :_: )_) Baby_NNP S_NNP did_VBD not_RB go_VB home_NN as_IN planned_VBN ,_, that_WDT has_VBZ been_VBN put_VBN on_IN hold_NN until_IN May_NNP now_RB ._. In_IN the_DT meantime_NN we_PRP received_VBD 3_CD busy_JJ ,_, busy_JJ ,_, blue_JJ eyed_VBN ,_, blond_NN children_NNS ,_, that_WDT are_VBP keeping_VBG us_PRP hopping_VBG ._. They_PRP are_VBP 4_CD ,_, 3_CD ,_, and_CC 8_CD months_NNS ._. Whew_NNP !_. Lots_NNP of_IN fun_NN but_CC lots_NNS of_IN work_NN too_RB ._. My_PRP$ big_JJ kids_NNS are_VBP doing_VBG awesome_JJ ,_, with_IN school_NN ,_, TKD_NNP ,_, and_CC dance_NN ._. They_PRP are_VBP a_DT HUGE_NNP help_NN to_TO me_PRP at_IN home_NN with_IN the_DT littles_NNS ._. They_PRP take_VBP them_PRP out_RP to_TO play_VB ,_, ride_VB bikes_NNS with_IN them_PRP and_CC go_VB to_TO the_DT park_NN ._. We_PRP have_VBP a_DT few_JJ fun_NN trips_NNS planned_VBD this_DT year_NN ._. Summer_NNP we_PRP will_MD go_VB with_IN our_PRP$ ``_`` group_NN ''_'' to_TO Boulder_NNP Beach_NNP in_IN Idaho_NNP ._. The_DT fall_NN we_PRP will_MD head_VB to_TO San_NNP Diego_NNP to_TO celebrate_VB our_PRP$ youngest_NN as_IN a_DT teenager_NN ,_, wow_NN !_. So_RB thats_VBZ the_DT update_NN for_IN now_RB ._.</t>
-  </si>
-  <si>
-    <t>Cooling_VBG down_RP with_IN a_DT little_JJ fun_NN ._. If_IN you_PRP need_VBP a_DT break_NN from_IN the_DT mayhem_NN ,_, head_NN across_IN the_DT street_NN to_TO Bugis_NNP Junction_NNP and_CC relax_VBN by_IN the_DT fountain_NN ._. If_IN you_PRP ’_VBP re_JJ feeling_NN hot_JJ join_NN the_DT kids_NNS and_CC frolic_NN in_IN the_DT impeccably_NN timed_VBD water_NN dancing_VBG about_RB ._.</t>
-  </si>
-  <si>
-    <t>About_IN three_CD things_NNS I_PRP was_VBD absolutely_RB positive_JJ ._. First_NNP ,_, Stephenie_NNP Meyer_NNP was_VBD going_VBG to_TO be_VB in_IN Tempe_NNP ,_, AZ_NNP at_IN an_DT address_NN I_PRP knew_VBD ._. Second_NNP ,_, there_EX was_VBD a_DT dress_NN there_EX that_IN I_PRP wanted_VBD ..._: and_CC it_PRP was_VBD n't_RB going_VBG to_TO be_VB cheap_JJ ._. And_CC third_JJ ,_, I_PRP was_VBD intently_RB and_CC tenaciously_RB going_VBG to_TO fight_VB for_IN it_PRP I_PRP woke_VBD up_RP so_RB excited_JJ to_TO be_VB in_IN the_DT vicinity_NN of_IN Stephenie_NNP Meyer_NNP that_IN day_NN ._. I_PRP call_VBP her_PRP$ OZ_NNP ._. Not_RB because_IN she_PRP is_VBZ small_JJ behind_IN a_DT curtain_NN but_CC because_IN she_PRP is_VBZ the_DT gatekeeper_NN of_IN the_DT wonderful_JJ land_NN of_IN Twilight_NNP ._. She_PRP created_VBD it_PRP ,_, she_PRP got_VBD it_PRP published_VBD ,_, and_CC she_PRP made_VBD more_JJR of_IN it_PRP for_IN us_PRP ._. Thank_VB you_PRP Stephenie_NNP for_IN being_VBG our_PRP$ greatest_JJS mentor_NN ._. A_DT strong_JJ ,_, talented_VBN ,_, mother_NN and_CC wife_NN ,_, who_WP has_VBZ crazy_VBN boy_JJ dreams_NNS just_RB like_IN us_PRP !_. I_PRP set_VBD off_RP that_DT day_NN determined_VBD to_TO get_VB the_DT lunch_NN ._. If_IN you_PRP guys_VBP remember_VB I_PRP blogged_VBN about_IN lunch_NN and_CC ‘_VB Forever_NNP Dawn_NNP ’_NNP being_VBG exactly_RB what_WP I_PRP was_VBD throwing_VBG my_PRP$ money_NN at_IN ._. Somehow_VB it_PRP changed_VBD along_IN the_DT way_NN ._. The_DT auction_NN started_VBD and_CC the_DT dress_NN somehow_NN became_VBD the_DT focus_NN after_IN the_DT lunch_NN went_VBD nuts_NNS ._. And_CC when_WRB I_PRP say_VBP nuts_NNS ..._: watch_NN this_DT video_NN to_TO see_VB ._. Lunch_NN to_TO me_PRP was_VBD something_NN that_WDT could_MD not_RB be_VB duplicated_VBN ._. Well_UH ,_, she_PRP could_MD have_VB lunch_VBN everyday_JJ with_IN someone_NN but_CC to_TO pick_VB her_PRP$ brain_NN on_IN anything_NN Twilight_NNP you_PRP could_MD think_VB of_IN would_MD be_VB priceless_JJ ._. Kudos_NNP to_TO Carol_NNP for_IN getting_VBG it_PRP !_. I_PRP decided_VBD at_IN one_CD point_NN that_WDT there_EX could_MD be_VB more_JJR 'Forever_JJ Dawn_NNP '_POS Epilogues_NNS printed_VBD out_RP ._. Making_VBG the_DT one_CD item_NN that_WDT could_MD not_RB be_VB duplicated_VBN the_DT Eclipse_NNP prom_NN dress_NN ._. There_EX will_MD never_RB be_VB another_DT worn_VBN by_IN Stephenie_NNP ,_, for_IN an_DT event_NN she_PRP created_VBD around_IN her_PRP$ book_NN coming_VBG out_RB ._. To_TO me_PRP this_DT became_VBD the_DT item_NN I_PRP had_VBD to_TO have_VB ._. Now_RB me_PRP being_VBG competitive_JJ might_MD have_VB something_NN to_TO do_VB with_IN it_PRP ._. Two_CD ladies_NNS came_VBD running_VBG up_RB to_TO the_DT front_NN of_IN the_DT room_NN ._. This_DT was_VBD two_CD rows_NNS ,_, directly_RB in_IN front_NN of_IN me_PRP ._. I_PRP looked_VBD at_IN Jason_NNP (_( my_PRP$ husband_NN )_) and_CC gave_VBD him_PRP a_DT smirk_NN ..._: maybe_RB with_IN a_DT little_JJ bit_NN of_IN snark_NN which_WDT he_PRP took_VBD as_IN a_DT let_NN 's_POS get_VB em_NN '_'' look_NN ._. Everything_NN that_IN day_NN had_VBD gone_VBN into_IN the_DT thousands_NNS of_IN dollars_NNS ._. Eclipse_NNP Manuscript_NNP $_$ 1300.00_CD Host_NNP Skateboard_NNP $_$ 1100.00_CD Lunches_NNP $_$ 6500.00_CD X_NNP 2_CD Forever_NNP Dawn_NNP epilogue_VBD $_$ 5100.00_CD I_PRP knew_VBD the_DT dress_NN was_VBD going_VBG to_TO be_VB insane_VBN with_IN all_PDT the_DT hype_NN ._. I_PRP sat_VBD next_JJ to_TO a_DT reporter_NN who_WP kept_VBD asking_VBG me_PRP ,_, ``_`` how_WRB much_JJ you_PRP think_VBP this_DT will_MD go_VB for_IN ''_'' ._. It_PRP was_VBD fun_RB as_IN we_PRP predicted_VBD the_DT numbers_NNS ._. The_DT two_CD ladies_NNS were_VBD Laura_NNP from_IN Twilight_NNP Lexicon_NNP and_CC Kara_NNP from_IN Twilight_NNP Moms_NNP ._. So_RB here_RB they_PRP are_VBP ,_, two_CD rows_NNS ahead_RB ,_, bickering_VBG back_RB and_CC forth_NN on_IN the_DT figures_NNS $_$ 5,000_CD to_TO $_$ 5,300_CD ._. J.S_NNP ._. Lewis_NNP says_VBZ ,_, ``_`` you_PRP have_VBP a_DT sparkle_JJ Twilight_NNP Mom_NNP shirt_NN --_: you_PRP have_VBP money_NN ''_'' ._. I_PRP started_VBD dying_VBG laughing_VBG ._. It_PRP was_VBD funny_JJ !_. He_PRP was_VBD good_JJ at_IN egging_VBG them_PRP on_IN ._. Finally_NNP Jason_NNP says_VBZ loudly_RB ,_, ``_`` $_$ 5,300_CD ''_'' and_CC the_DT ladies_NNS start_VBP to_TO scramble_VB ._. They_PRP actually_RB tried_VBD to_TO pull_VB their_PRP$ money_NN together_RB or_CC help_VB each_DT other_JJ somehow_NN ._. I_PRP thought_VBD okay_RB here_RB is_VBZ big_JJ dog_NN twilight_VBD site_NN and_CC another_DT big_JJ dog_NN twilight_VBD site_NN ganging_VBG up_RP on_IN me_PRP ,_, the_DT little_JJ Twilight_NNP site_NN ._. I_PRP looked_VBD at_IN Jason_NNP and_CC said_VBD ,_, ``_`` Get_VB it_PRP ''_'' ._. Jason_NNP yelled_VBD out_RP ``_`` $_$ 5,500_CD ''_'' ._. Kara_NNP and_CC Laura_NNP were_VBD a_DT little_JJ stunned_JJ and_CC I_PRP think_VBP they_PRP knew_VBD we_PRP did_VBD n't_RB look_VB like_IN we_PRP were_VBD giving_VBG up_RP anytime_RB soon_RB and_CC conceded_VBD ._. I_PRP could_MD hardly_RB contain_VB my_PRP$ excitement_NN !_. I_PRP ran_VBD up_RB to_TO them_PRP and_CC said_VBD ,_, ``_`` Twifans.com_NNP will_MD take_VB good_JJ care_NN of_IN the_DT dress_NN ladies_NNS ''_'' and_CC almost_RB sprinted_VBN to_TO meet_VB Stephenie_NNP Meyer_NNP for_IN the_DT first_JJ time_NN that_DT day_NN ._.</t>
-  </si>
-  <si>
-    <t>Long_NNP has_VBZ mankind_VBN battled_VBN and_CC suffered_VBN ,_, demons_NNS within_IN and_CC demons_NNS without_IN ._. Demons_NNS of_IN their_PRP$ own_JJ creation_NN sometimes_RB in_IN the_DT name_NN of_IN war_NN ,_, sometimes_RB in_IN the_DT name_NN of_IN recreation_NN ,_, sometimes_RB by_IN an_DT insatiable_JJ lust_NN for_IN power_NN and_CC other_JJ times_NNS for_IN wealth_NN ,_, men_NNS or_CC women_NNS ._. How_WRB can_MD this_DT list_JJ exclude_NN battles_NNS for_IN honour_NN ?_. Indeed_RB it_PRP can_MD not_RB ._. It_PRP does_VBZ not_RB ._. Demons_NNS unleashed_VBN by_IN forces_NNS beyond_IN our_PRP$ comprehenshion_NN ,_, storms_VBZ that_IN rip_NN apart_RB a_DT mans_JJ life_NN and_CC storms_NNS that_WDT decimate_VBP the_DT collective_JJ life_NN of_IN mankind_NN ._. I_PRP have_VBP spoken_VBN of_IN war_NN now_RB in_IN a_DT generic_JJ sense_NN ,_, for_IN I_PRP wish_VBP to_TO deal_VB with_IN the_DT specific_NN ,_, in_IN the_DT context_NN of_IN the_DT generic_JJ ._. Long_NNP are_VBP the_DT hours_NNS that_IN I_PRP have_VBP spent_VBN decrying_VBG that_IN mankinds_VBZ fundamental_JJ nature_NN is_VBZ evil_JJ and_CC chaotic_JJ and_CC yet_RB my_PRP$ heart_NN tells_VBZ me_PRP to_TO keep_VB faith_NN that_IN mankind_NN is_VBZ true_JJ and_CC good_JJ ._. Reality_NNP often_RB lies_VBZ between_IN the_DT extremes_NNS of_IN our_PRP$ rosiest_JJ dreams_NN and_CC our_PRP$ worst_JJ nightmares_NNS ._. And_CC so_RB again_RB ,_, has_VBZ human_JJ nature_NN continued_VBD to_TO remain_VB fickle_JJ and_CC dynamic_JJ ,_, eluding_VBG all_DT attempts_NNS to_TO classify_VB it_PRP as_IN good_JJ or_CC bad_JJ ._. Indeed_RB ,_, now_RB an_DT attempt_NN for_IN such_PDT a_DT classification_NN seems_VBZ naive_JJ ._.</t>
-  </si>
-  <si>
-    <t>I_PRP wondered_VBD whether_IN you_PRP may_MD be_VB able_JJ to_TO offer_VB some_DT advice_NN ._. I_PRP 'm_VBP an_DT Occupational_NNP Therapist_NNP working_VBG for_IN the_DT NHS_NNP in_IN Sheffield_NNP ;_: UK_NNP ._. A_NNP group_NN of_IN professionals_NNS have_VBP started_VBN to_TO plan_VB an_DT ADHD_NNP group_NN for_IN Adults_NNP and_CC we_PRP are_VBP generally_RB involved_VBN in_IN developing_VBG a_DT service_NN for_IN this_DT client_NN group_NN (_( very_RB little_JJ support_NN available_JJ currently_RB )_) ._. We_PRP are_VBP struggling_VBG to_TO find_VB information_NN /_NNP research_NN /_NNP examples_VBZ of_IN groups_NNS which_WDT we_PRP can_MD learn_VB from_IN ._. We_PRP have_VBP a_DT number_NN of_IN ideas_NNS including_VBG using_VBG psychosocial_JJ and_CC behavioural_JJ interventions_NNS and_CC have_VBP flirted_VBN with_IN the_DT idea_NN of_IN incorporating_VBG a_DT sensory_JJ integration_NN approach_NN ._. However_RB we_PRP are_VBP concerned_VBN about_IN the_DT little_JJ evidence_NN on_IN sensory_JJ integration_NN and_CC ADHD_NNP ._. My_PRP$ question_NN to_TO you_PRP is_VBZ this_DT :_: Can_MD you_PRP point_VB me_PRP in_IN the_DT direction_NN of_IN any_DT evidence_NN /_NNP journal_NN name_NN or_CC particular_JJ paper_NN /examples_NNS of_IN good_JJ practise_NN /_NNP contact_NN name_NN /_NNP ….etc_NNP for_IN Adult_NNP support_NN groups_NNS and_CC Sensory_NNP Integration_NNP ._. If_IN you_PRP do_VBP –_VB I_PRP 'll_MD think_VB yer_NN amazing_VBG and_CC tell_VB all_DT my_PRP$ colleagues_NNS about_IN how_WRB wonderful_JJ you_PRP are_VBP !_. !_. !_. Does_VBZ this_DT encourage_NN you_PRP ?_. !_. *_JJ Anyway_NNP thanks_NNS for_IN the_DT website_JJ –_NN it_PRP 's_VBZ already_RB proved_VBN very_RB useful_JJ and_CC I_PRP look_VBP forward_RB to_TO reading_VBG the_DT updates_NNS ,_, Liz_NNP ._.</t>
-  </si>
-  <si>
-    <t>OK_IN I_PRP thought_VBD the_DT first_JJ post_NN was_VBD long_RB enough_RB as_IN it_PRP is_VBZ ,_, so_RB here_RB is_VBZ the_DT second_JJ part_NN of_IN my_PRP$ rig_NN building_NN process_NN ._. The_DT next_JJ component_NN in_IN question_NN is_VBZ the_DT Power_NNP Supply_NNP a.k.a_JJ PSU_NNP ._. I_PRP never_RB really_RB thought_VBN I_PRP have_VBP to_TO invest_VB in_IN something_NN like_IN a_DT PSU_NNP ._. I_PRP did_VBD n't_RB quite_RB expect_VB the_DT choice_NN of_IN PSU_NNP to_TO be_VB of_IN high_JJ importance_NN and_CC now_RB after_IN enough_JJ enlightenment_NN from_IN my_PRP$ fellow_JJ PC_NN assemblers_NNS ,_, I_PRP have_VBP learned_VBN to_TO respect_VB them_PRP ._. The_DT choice_NN of_IN the_DT PSU_NNP can_MD either_VB power_NN your_PRP$ system_NN or_CC can_MD blow_VB your_PRP$ rig_NN sky_JJ high_JJ or_CC it_PRP can_MD melt_VB your_PRP$ motherboards_NNS beyond_IN recognition_NN ._. Power_NNP Supply_NNP Unit_NNP Corsair_NNP VX450W_NNP My_NNP New_NNP System_NNP ,_, originally_RB uploaded_VBN by_IN Rakesh_NNP Ashok_NNP ._. As_IN I_PRP was_VBD saying_VBG above_IN the_DT PSU_NNP is_VBZ also_RB a_DT very_RB important_JJ part_NN of_IN any_DT rig_NN ._. This_DT was_VBD n't_RB the_DT first_JJ choice_NN that_WDT came_VBD to_TO the_DT mind_NN of_IN TE_NNP members_NNS when_WRB I_PRP asked_VBD for_IN suggestions_NNS for_IN PSU_NNP ._. The_DT first_JJ was_VBD the_DT Gigabyte_NNP Superb_NNP 460W_CD and_CC the_DT second_NN was_VBD Seasonic_JJ S12II-380W_NNP ._. Both_NNP these_DT were_VBD really_RB good_JJ products_NNS from_IN what_WP I_PRP read_VBP from_IN reviews_NNS elsewhere_RB ._. Then_RB after_IN assessing_VBG that_IN the_DT Seasonic_NNP was_VBD better_JJR than_IN the_DT Gigabyte_NNP product_NN I_PRP decided_VBD to_TO go_VB with_IN it_PRP ._. But_CC unfortunately_RB the_DT place_NN where_WRB I_PRP went_VBD to_TO seek_VB out_RP this_DT product_NN have_VBP n't_RB even_RB of_IN the_DT name_NN Seasonic_NNP ._. One_CD guy_NN even_RB took_VBD and_CC gave_VBD me_PRP a_DT zebronics_NNS PSU_NNP ._. Zebronic_NNP and_CC Seasonic_NNP does_VBZ sound_VB a_DT lot_NN similar_JJ do_VBP n't_RB they_PRP ._. Again_VBP I_PRP had_VBD to_TO look_VB out_RP for_IN alternatives_NNS ._. Thus_RB I_PRP came_VBD upon_IN the_DT Corsair_NNP VX_NNP 450W_CD ._. Well_VB it_PRP was_VBD a_DT bit_NN too_RB costly_JJ for_IN me_PRP though_IN ._. Nevertheless_VB it_PRP is_VBZ the_DT perfect_JJ fit_NN ._. Best_JJS features_NNS of_IN this_DT PSU_NNP are_VBP really_RB quite_RB fan_NN and_CC nylon_NN sleeved_VBD wires_NNS for_IN better_JJR wire_NN management_NN in_IN your_PRP$ cabinet_NN ._. Bought_VBD this_DT PSU_NNP for_IN a_DT princely_RB sum_NN of_IN 4050Rs_CD in_IN Richie_NNP Street_NNP ._. Though_IN right_RB now_RB its_PRP$ an_DT overkill_NN for_IN my_PRP$ current_JJ config_NN without_IN a_DT GPU_NNP ._. But_CC it_PRP definitely_RB is_VBZ a_DT good_JJ choice_NN considering_VBG the_DT fact_NN that_IN I_PRP would_MD definitely_RB get_VB myself_PRP a_DT GPU_NNP probably_RB the_DT ATI_NNP Radeon_NNP HD5770_NNP or_CC the_DT 5750_CD ._. Here_RB are_VBP some_DT reviews_NNS to_TO help_VB you_PRP along_IN with_IN your_PRP$ decision_NN ._. Corsair_NNP VX450W_NNP :_: Quiet_JJ Value_NNP PSU_NNP Corsair_NNP VX450W_NNP power_NN supply_NN review_NN Will_NNP be_VB continued_VBN ..._: &lt;_NN !_. --_: Just_RB finished_VBN adding_VBG the_DT motherboard_NN section_NN in_IN the_DT review_NN of_IN My_NNP New_NNP System_NNP ._. &lt;_NN !_. --_: This_DT is_VBZ the_DT song_NN which_WDT I_PRP just_RB ca_MD n't_RB seem_VB to_TO stop_VB listening_NN ._. I_PRP slept_VBP while_IN hearing_VBG this_DT and_CC it_PRP was_VBD playing_VBG till_JJ morning_NN :_: )_) ._. The_DT song_NN lyrics_NNS are_VBP too_RB good_JJ even_RB though_IN I_PRP had_VBD a_DT hard_JJ time_NN understanding_VBG most_JJS of_IN the_DT words_NNS since_IN they_PRP do_VBP n't_RB seem_VB to_TO be_VB the_DT regular_JJ hindi_NN words_NNS which_WDT I_PRP usually_RB hear_VBP or_CC some_DT other_JJ kind_NN of_IN dialect_NN ,_, not_RB really_RB sure_JJ which_WDT one_NN ._. But_CC I_PRP love_VBP this_DT song_NN ._. Just_RB this_DT song_NN alone_RB has_VBZ made_VBN me_PRP want_VB to_TO see_VB this_DT movie_NN ._. So_IN I_PRP 'm_VBP definitely_RB watching_VBG this_DT movie_NN ._. Also_RB the_DT picturization_NN of_IN the_DT song_NN is_VBZ also_RB too_RB good_JJ plus_CC the_DT voice_NN of_IN Rahat_NNP Fateh_NNP Ali_NNP Khan_NNP and_CC the_DT laid_NN back_RB nature_RB all_DT makes_VBZ this_DT a_DT song_NN a_DT super_NN hit_NN ._. Have_VBP to_TO thank_VB Vishal_NNP Bharadwaj_NNP for_IN this_DT beautiful_JJ music_NN ._. Enjoy_VB the_DT song_NN Dil_NNP To_TO Bachcha_NNP Hai_NNP ._. I_PRP do_VBP n't_RB ever_RB remember_VB writing_VBG a_DT post_NN for_IN a_DT single_JJ song_NN ._. But_CC I_PRP have_VBP n't_RB written_VBN about_IN that_DT many_JJ things_NNS either_CC he_PRP he_PRP ..._: &lt;_NN !_. --_: My_PRP$ New_NNP System_NNP ,_, originally_RB uploaded_VBN by_IN Rakesh_NNP Ashok_NNP ._. After_IN nearly_RB 9_CD years_NNS I_PRP have_VBP finally_RB upgraded_VBN my_PRP$ system_NN ._. Till_NNP now_RB I_PRP was_VBD using_VBG a_DT Pentium_NN III_NNP computer_NN which_WDT has_VBZ survived_VBN well_RB past_IN its_PRP$ shelf_NN life_NN ._. I_PRP was_VBD also_RB getting_VBG annoyed_VBN using_VBG that_IN system_NN since_IN I_PRP ca_MD n't_RB watch_VB HD_NNP video_NN in_IN it_PRP ,_, I_PRP ca_MD n't_RB play_VB some_DT games_NNS if_IN I_PRP get_VBP bored_VBN ,_, I_PRP ca_MD n't_RB even_RB multitask_VB since_IN it_PRP hangs_VBZ if_IN I_PRP do_VBP so_RB ._. So_IN I_PRP decided_VBD it_PRP is_VBZ finally_RB time_NN to_TO upgrade_VB my_PRP$ system_NN ._. And_CC this_DT is_VBZ it_PRP ._. I_PRP assembled_VBD the_DT entire_JJ rig_NN on_IN my_PRP$ own_JJ ._. I_PRP took_VBD liberal_JJ advice_NN from_IN my_PRP$ Tech_NNP Enclave_NNP friends_VBZ to_TO decide_VB upon_IN the_DT components_NNS ._. Here_RB are_VBP the_DT individual_JJ components_NNS ._. Processor_NNP AMD_NNP Athlon_NNP II_NNP X4_NNP 620_CD Quad_NNP Core_NNP Image_NNP Source_NN :_: bit-tech.net_NN I_PRP remember_VBP myself_PRP hating_VBG AMD_NNP in_IN the_DT early_JJ days_NNS since_IN it_PRP was_VBD dead_JJ slow_JJ and_CC never_RB performed_VBN as_IN advertised_JJ (_( experience_NN from_IN using_VBG my_PRP$ friends_NNS computer_NN )_) ._. But_CC what_WP I_PRP had_VBD n't_RB realized_VBN is_VBZ that_IN AMD_NNP put_VBD away_RP all_PDT those_DT things_NNS behind_IN them_PRP and_CC have_VB started_VBN delivering_VBG better_JJR goods_NNS for_IN cheap_JJ and_CC is_VBZ right_JJ now_RB giving_VBG Intel_NNP a_DT run_NN for_IN its_PRP$ money_NN ._. Now_RB my_PRP$ CPU_NNP i.e_NN ._. the_DT Athlon_NNP II_NNP X4_NNP is_VBZ a_DT Quadcore_NNP processor_NN meaning_VBG it_PRP has_VBZ four_CD processors_NNS built_VBN in_IN one_CD chip_NN ._. This_DT is_VBZ the_DT first_JJ Quadcore_NN in_IN the_DT market_NN that_WDT sells_VBZ at_IN around_IN 5K_CD ._. The_DT Intel_NNP Quadcore_NNP is_VBZ nearly_RB double_JJ or_CC more_RBR ._. I_PRP was_VBD initially_RB planning_VBG on_IN a_DT Intel_NNP based_VBN system_NN but_CC was_VBD blown_VBN away_RB by_IN the_DT AMD_NNP offering_NN ._. Here_RB are_VBP some_DT reviews_NNS about_IN this_DT CPU_NNP ._. AMD_NNP Athlon_NNP II_NNP X4_VBD 620_CD :_: Quad_NN Core_NN For_IN The_DT Masses_NNP At_IN $_$ 100_CD AMD_NNP Athlon_NNP II_NNP X4_NNP 620_CD &amp;_CC amp_NN ;_: 630_CD :_: The_DT First_NNP $_$ 99_CD Quad_NNP Core_NNP CPU_NNP AMD_NNP Athlon_NNP II_NNP X4_NNP 620_CD CPU_NNP Review_NNP After_IN reading_VBG all_PDT that_IN review_NN I_PRP 'm_VBP sure_JJ you_PRP can_MD imagine_VB why_WRB I_PRP switched_VBD to_TO AMD_NNP ._. I_PRP got_VBD it_PRP for_IN 5200Rs_CD in_IN Chennai_NNP ._. The_DT CPU_NNP does_VBZ n't_RB get_VB very_RB hot_JJ so_IN the_DT stock_NN CPU_NNP fan_NN is_VBZ enough_JJ for_IN cooling_VBG it_PRP ._. It_PRP 's_VBZ totally_RB unnecessary_JJ to_TO waste_VB money_NN on_IN CPU_NNP coolers_NNS for_IN this_DT CPU_NNP ._. The_DT maximum_JJ temperature_NN I_PRP have_VBP seen_VBN is_VBZ around_RB 40_CD degree_NNS but_CC usually_RB runs_VBZ at_IN around_IN 32-34_JJ degrees_NNS ._. Motherboard_NNP Asus_NNP M4A785TD-V_NNP EVO_NNP Image_NNP Source_NNP :_: unitycorp.co.jp_JJ Choosing_VBG the_DT motherboard_NN was_VBD the_DT toughest_JJS decision_NN I_PRP took_VBD while_IN building_VBG my_PRP$ rig_NN ._. For_IN starters_NNS I_PRP had_VBD absolutely_RB no_DT idea_NN about_IN the_DT various_JJ technologies_NNS involved_VBN ._. The_DT brands_NNS ,_, features_NNS it_PRP was_VBD mind_RB numbing_JJ ._. So_RB after_IN hearing_VBG the_DT first_JJ two_CD or_CC three_CD suggestions_NNS from_IN the_DT TE_NNP gang_NN ,_, I_PRP started_VBD exploring_VBG those_DT motherboards_NNS and_CC their_PRP$ features_NNS ._. Almost_NNP all_DT suggested_VBD the_DT Gigabyte_NNP board_NN ,_, Gigabyte_NNP 785GMT-UD2H_NNP ._. This_DT is_VBZ a_DT micro_NN ATX_NNP board_NN meaning_VBG a_DT smaller_JJR sized_JJ board_NN ._. I_PRP had_VBD decided_VBN to_TO go_VB with_IN this_DT board_NN ._. When_WRB I_PRP reached_VBD Richie_NNP Street_NNP I_PRP was_VBD not_RB able_JJ to_TO find_VB this_DT board_NN ._. Since_IN I_PRP was_VBD at_IN that_DT time_NN impatient_NN I_PRP decided_VBD to_TO go_VB with_IN an_DT alternative_JJ having_VBG the_DT exact_JJ same_JJ features_NNS ._. Thus_RB I_PRP bought_VBD the_DT Asus_NNP M4A785TD-V_NNP EVO_NNP ._. Well_NNP the_DT name_NN Asus_NNP is_VBZ not_RB new_JJ in_IN the_DT motherboard_NN ,_, infact_VB it_PRP is_VBZ among_IN the_DT top_JJ contenders_NNS in_IN the_DT market_NN ._. The_DT highlights_NNS of_IN the_DT board_NN are_VBP Full_NNP ATX_NNP board_NN supporting_VBG AM3_NNP CPUs_NNP ,_, DDR3_NNP ,_, IGP_NNP (_( ATI_NNP HD4200_NNP )_) ,_, 128MB_CD of_IN DDR3_NNP sideport_NN memory_NN ,_, two_CD PCI-e_JJ 2.0_CD slots_JJ lots_NNS of_IN USB_NNP slots_NNS and_CC lots_NNS more_RBR ._. The_DT real_JJ plus_CC point_NN is_VBZ that_IN I_PRP can_MD fit_VB bigger_JJR GPUs_NNP in_IN the_DT future_NN when_WRB I_PRP buy_VBP one_CD ._. :_: )_) This_DT board_NN is_VBZ quite_RB heavy_JJ and_CC it_PRP fills_VBZ your_PRP$ Cabinet_NNP ,_, so_RB make_JJ sure_NN you_PRP buy_VBP a_DT bigger_JJR cabinet_NN for_IN this_DT one_NN ._. This_DT is_VBZ also_RB the_DT costliest_JJS component_NN in_IN my_PRP$ Rig_NNP excluding_VBG my_PRP$ monitor_NN of_IN course_NN ._. It_PRP cost_VBD me_PRP 6600Rs_CD ._. bit-tech.net_NN Review_NNP -_: Asus_NNP M4A785TD-V_NNP Evo_NNP review_NN Overclock3D_NNP :_: :_: Review_NN :_: :_: Asus_DT M4A785TD-V_NNP EVO_NNP 785G_CD ATX_NNP Preview_NNP Read_VBD the_DT second_JJ part_NN of_IN my_PRP$ rig_NN building_NN process_NN &lt;_NN !_. --_: Its_PRP$ hard_JJ to_TO come_VB by_IN wallpapers_NNS for_IN my_PRP$ E51_NNP ._. So_RB I_PRP have_VBP started_VBN downloading_VBG photos_NN and_CC making_VBG wallpapers_NNS by_IN cropping_VBG them_PRP and_CC editing_VBG to_TO suit_VB the_DT looks_NNS ._. This_DT one_CD is_VBZ actually_RB a_DT picture_NN of_IN Trisha_NNP from_IN her_PRP$ upcoming_JJ movie_NN Vinnaithandi_NNP Varuvaya_NNP ._. You_PRP can_MD use_VB this_DT wallpaper_NN for_IN other_JJ Mobiles_NNP with_IN 240_CD x_NNS 320_CD resolution_NN too_RB ._. &lt;_NN !_. --_: Good|SAM_NNP :_: a_DT short_JJ film_NN by_IN Anthony_NNP Pierce_NNP and_CC Hunter_NNP Richards_NNP from_IN Hunter_NNP H._NNP Richards_NNP on_IN Vimeo_NNP ._. Voted_VBD Best_JJS short_JJ at_IN the_DT 2008_CD Salem_NNP Film_NNP Festival_NNP in_IN the_DT NW_NNP Shorts_NNP Category_NNP ,_, winner_NN if_IN the_DT The_DT Northwest_NNP Emerging_NNP Artist_NNP Award_NNP ._. Good|SAM_NNP takes_VBZ us_PRP to_TO the_DT long_JJ forgotten_JJ place_NN of_IN childhood_NN innocence_NN ._. This_DT film_NN reminds_VBZ us_PRP that_IN the_DT ability_NN to_TO rise_VB above_IN circumstance_NN is_VBZ simply_RB a_DT matter_NN of_IN perspective_NN ._. Written_NNP and_CC Directed_VBN by_IN Anthony_NNP Pierce_NNP Cinematography_NNP by_IN Hunter_NNP Richards_NNP www.HunterHRichards.com_NN Produced_VBN by_IN Minimalist_NNP Films_NNP Features_NNP an_DT Original_NNP Score_NN by_IN Andrew_NNP Michael_NNP Kangas_NNP &amp;_CC amp_NN ;_: Bloodworth_NNP A_NNP really_RB beautiful_JJ short_JJ film_NN ._. I_PRP know_VBP For_IN the_DT last_JJ two_CD months_NNS I_PRP have_VBP n't_RB blogged_VBN at_IN all_DT ._. So_IN here_RB I_PRP am_VBP back_RB from_IN the_DT so_RB called_VBN busy_JJ life_NN ._. &lt;_NN !_. --_: I_PRP am_VBP a_DT big_JJ time_NN fan_NN of_IN movie_NN posters_NNS ,_, that_IN anyone_NN could_MD guess_VB seeing_VBG my_PRP$ many_JJ posts_NNS on_IN movie_NN posters_NNS ._. They_PRP are_VBP the_DT first_JJ thing_NN which_WDT either_CC attracts/repels_NNS you_PRP to/from_VBP the_DT movie_NN ._. So_IN far_RB I_PRP had_VBD been_VBN posting_VBG all_DT international_JJ movie_NN poster_NN ._. Well_NNP I_PRP guess_VBD its_PRP$ time_NN to_TO showcase_VB some_DT of_IN the_DT local_JJ talents_NNS here_RB as_RB well_RB ._. This_DT poster_NN to_TO certain_JJ extent_NN represents_VBZ the_DT movie_NN 's_POS theme_NN ._. We_PRP have_VBP a_DT geeky_NN looking_VBG Uday_NNP Chopra_NNP and_CC an_DT apparently_RB ravishing_VBG Priyanka_NNP Chopra_NNP and_CC there_EX is_VBZ this_DT distance_NN between_IN the_DT two_CD characters_NNS ,_, probably_RB to_TO suggest_VB the_DT difference_NN in_IN nature_NN of_IN the_DT two_CD characters_NNS ._. This_DT movie_NN probably_RB takes_VBZ place_NN abroad_RB which_WDT we_PRP can_MD assume_VB from_IN the_DT skyscrapers_NNS in_IN the_DT background_NN ._. The_DT butterfly_NN and_CC the_DT flowers_NNS are_VBP just_RB extras_NNS and_CC does_VBZ n't_RB add_VB any_DT meaning_NN to_TO the_DT poster_NN ._. I_PRP think_VBP this_DT is_VBZ my_PRP$ first_JJ movie_NN poster_NN review_NN :_: )_) ._. YAY_UH !_. The_DT poster_NN does_VBZ n't_RB seem_VB to_TO inspire_VB me_PRP to_TO go_VB see_VB the_DT movie_NN if_IN it_PRP ever_RB releases_VBZ in_IN Chennai_NNP ;_: )_) ._. Let_VB the_DT movie_NN release_NN then_RB we_PRP will_MD come_VB to_TO know_VB ._. &lt;_NN !_. --_: Well_RB this_DT is_VBZ the_DT song_NN I_PRP sometimes_RB hear_VBP when_WRB I_PRP drive_VBP ._. Really_NNP gets_VBZ you_PRP going_VBG :_: )_) ._. This_DT song_NN is_VBZ from_IN Nickelback_NNP 's_POS 2008_CD Album_NNP ``_`` Darkhorse_NNP ``_`` ._. &lt;_NN !_. --_:</t>
-  </si>
-  <si>
-    <t>I_PRP love_VBP Continental_NNP Airlines_NNPS !_. They_PRP never_RB disappoint_VBP me_PRP and_CC I_PRP am_VBP so_RB thrilled_JJ with_IN their_PRP$ service_NN ._. I_PRP travel_VBP a_DT lot_NN and_CC I_PRP just_RB have_VBP thumbs_VBN up_RP for_IN this_DT outstanding_JJ airline_NN ._. I_PRP recommend_VBP all_DT travelers_NNS to_TO go_VB through_IN Continental_NNP Airlines_NNPS ._. They_PRP have_VBP great_JJ employees_NNS that_WDT are_VBP so_RB professional_JJ and_CC so_RB caring_VBG for_IN us_PRP travelers_NNS ._. I_PRP feel_VBP special_JJ and_CC great_JJ traveling_VBG all_PDT the_DT time_NN through_IN them_PRP ._. If_IN I_PRP would_MD use_VB another_DT airline_NN ,_, it_PRP would_MD be_VB because_IN I_PRP am_VBP forced_VBN to_TO if_IN Continental_NNP Airlines_NNPS did_VBD n't_RB take_VB me_PRP to_TO my_PRP$ destination_NN ._. There_EX are_VBP many_JJ different_JJ ways_NNS to_TO earn_VB mileage_NN in_IN this_DT airlines_NNS ._.</t>
-  </si>
-  <si>
-    <t>Maybe_RB Thomson_NNP Reuters_NNP was_VBD feeling_VBG nostalgic_JJ about_IN the_DT flurry_NN of_IN negative_JJ attention_NN that_IN both_DT the_DT New_NNP York_NNP Times_NNP and_CC the_DT Washington_NNP Post_NNP got_VBD last_JJ year_NN when_WRB they_PRP came_VBD out_RP with_IN policies_NNS on_IN the_DT use_NN of_IN social_JJ media_NNS tools_NNS such_JJ as_IN Twitter_NNP and_CC Facebook_NNP ._. For_IN whatever_WDT reason_NN ,_, the_DT wire_NN service_NN recently_RB issued_VBD new_JJ guidelines_NNS for_IN its_PRP$ staff_NN ,_, and_CC they_PRP suffer_VBP from_IN many_JJ of_IN the_DT same_JJ problems_NNS that_WDT both_VBP the_DT NYT_NNP and_CC WaPo_NNP policies_NNS did_VBD ._. All_DT of_IN these_DT flaws_NNS boil_VBP down_IN to_TO one_CD thing_NN :_: A_DT desire_NN to_TO control_VB something_NN that_WDT fundamentally_RB can_MD ’_VB t_RB be_VB controlled_VBN ,_, and_CC a_DT fear_NN of_IN what_WP happens_VBZ when_WRB that_DT control_NN is_VBZ lost_VBN ._. Without_IN even_RB bothering_VBG to_TO enumerate_VB the_DT positive_JJ aspects_NNS of_IN social_JJ media_NNS use_NN ,_, the_DT policy_NN starts_VBZ in_IN with_IN the_DT warnings_NNS right_RB away_RB :_: We_PRP want_VBP to_TO encourage_VB you_PRP to_TO use_VB social_JJ media_NNS approaches_NNS in_IN your_PRP$ journalism_NN but_CC we_PRP also_RB need_VBP to_TO make_VB sure_JJ that_IN you_PRP are_VBP fully_RB aware_JJ of_IN the_DT risks_NNS —_NNP especially_RB those_DT that_IN threaten_VB our_PRP$ hard-earned_JJ reputation_NN for_IN independence_NN and_CC freedom_NN from_IN bias_NN or_CC our_PRP$ brand_NN ._. The_DT risks_NNS ,_, of_IN course_NN ,_, are_VBP everywhere_RB —_NNP someone_NN might_MD say_VB something_NN embarrassing_JJ ,_, or_CC post_VB a_DT tweet_NN that_IN others_NNS could_MD twist_VB to_TO disparage_VB Reuters_NNS :_: The_DT advent_NN of_IN social_JJ media_NNS does_VBZ not_RB change_VB your_PRP$ relationship_NN with_IN the_DT company_NN that_WDT employs_VBZ you_PRP —_VBP do_VB not_RB use_VB social_JJ media_NNS to_TO embarrass_VB or_CC disparage_VB Thomson_NNP Reuters_NNPS ._. Our_PRP$ company_NN ’_VBZ s_JJ brands_NNS are_VBP important_JJ ;_: so_RB ,_, too_RB ,_, is_VBZ your_PRP$ personal_JJ brand_NN ._. Think_VB carefully_RB about_IN how_WRB what_WP you_PRP do_VBP reflects_VBZ upon_RB you_PRP as_IN a_DT professional_JJ and_CC upon_JJ us_PRP as_IN an_DT employer_NN of_IN professionals_NNS ._.</t>
-  </si>
-  <si>
-    <t>Life_NNP ,_, ok_NN ,_, has_VBZ its_PRP$ ups_NNS and_CC downs_NNS ._. But_CC can_MD be_VB truly_RB amazing_JJ ._. Im_NNP sat_VBD in_IN my_PRP$ room_NN drinking_NN good_JJ ole_NN Sprite_NNP ,_, and_CC munching_VBG on_IN galaxy_NN cookie_NN (_( :_: nom_DT nom_NN ._. But_CC yehh_PRP ,_, recently_RB i_NNS have_VBP n't_RB been_VBN feeling_VBG my_PRP$ usual_JJ happy_JJ self_NN ._. The_DT other_JJ night_NN i_NN sorta_NN had_VBD a_DT ``_`` breakdown_NN ''_'' as_IN such_JJ ._. And_CC the_DT people_NNS that_WDT helped_VBD me_PRP through_IN it_PRP ,_, were_VBD the_DT people_NNS i_VBP would_MD atleast_VB expect_VB ._. They_PRP helped_VBD me_PRP alot_NN ._. They_PRP made_VBD me_PRP see_VB the_DT light_NN again_RB ._. Cus_NNP tbh_IN they_PRP were_VBD right_JJ ,_, I_PRP have_VBP the_DT most_RBS amazing_JJ friends_NNS ever_RB ,_, ok_IN they_PRP 're_VBP will_MD always_RB be_VB some_DT people_NNS to_TO put_VB me_PRP down_RP ,_, most_JJS times_NNS ,_, its_PRP$ for_IN no_DT good_JJ reason_NN ._. Only_RB to_TO make_VB themselves_PRP feel_VB better_RB ,_, carry_NN on_IN ,_, cus_NN you_PRP ai_VBP n't_RB bringing_VBG me_PRP down_IN ._. I_PRP know_VBP if_IN i_JJ am_VBP ever_RB down_RB ,_, my_PRP$ friends_NNS ,_, are_VBP always_RB there_RB to_TO pick_VB me_PRP back_RP up_IN ._. I_PRP have_VBP a_DT good_JJ bunch_NN ._. My_NNP family_NN ,_, are_VBP my_PRP$ rocks_NNS tbqh_VBP ._. They_PRP are_VBP defo_JJ there_RB for_IN me_PRP through_IN thick_NN and_CC thin_JJ (_( :_: Life_NN can_MD be_VB cruel_VBN at_IN times_NNS ,_, and_CC theres_NNS always_RB something_NN to_TO make_VB you_PRP feel_VB like_IN shit_NN ,_, but_CC you_PRP gota_VBP remember_VB ,_, your_PRP$ never_RB alone_RB ._. They_PRP 're_VBP are_VBP people_NNS out_IN there_EX who_WP have_VBP no-one_NN to_TO turn_VB to_TO ._. So_RB i_JJ guess_NN im_NN saying_VBG ,_, im_JJ glad_NN i_NN do_VBP ._. I_PRP would_MD n't_RB be_VB anything_NN without_IN you_PRP guys_VBP ._. I_PRP owe_VBP you_PRP everything_NN ._. I_PRP love_VBP you_PRP ._.</t>
-  </si>
-  <si>
-    <t>had_VBD a_DT very_RB enjoyable_JJ debate_NN with_IN Avner_NNP Rosen_NNP of_IN Boxee_NNP yesterday_NN at_IN SXSW_NNP ._. We_PRP tended_VBD to_TO go_VB around_RP in_IN circles_NNS defending_VBG our_PRP$ positions_NNS ._. His_PRP$ (_( to_TO paraphase_VB )_) :_: the_DT internet_NN will_MD do_VB what_WP cable_NN and_CC satellite_NN do_VBP ,_, but_CC it_PRP will_MD do_VB it_PRP better_RBR ._. That_DT MicroSoft_NNP and_CC Apple_NNP among_IN others_NNS will_MD in_IN the_DT future_NN come_VB up_RP with_IN new_JJ ways_NNS to_TO do_VB it_PRP all_DT better_JJR than_IN we_PRP can_MD now_RB ._. Mine_NN :_: Of_IN course_NN the_DT internet_NN can_MD support_VB video_NN ,_, but_CC it_PRP cant_VBZ do_VB it_PRP as_RB well_RB as_IN the_DT current_JJ digital_NN cable_NN and_CC satellite_NN distributors_NNS can_MD ,_, nor_CC is_VBZ there_EX a_DT profit_NN model_NN that_WDT would_MD ever_RB incent_VB content_NN providers_NNS to_TO switch_VB their_PRP$ content_NN from_IN the_DT internet_NN to_TO TV_NN ._. I_PRP wont_VBP rehash_VB it_PRP all_DT here_RB ,_, but_CC the_DT most_RBS salient_JJ comment_NN came_VBD from_IN the_DT audience_NN when_WRB someone_NN asked_VBD “_JJ Whats_NNP the_DT difference_NN if_IN the_DT gatekeeper_NN MicroSoft/Google/Apple_NNP rather_RB than_IN Comcast/Time_NNP Warner/Directv/Dish_NNP ?_. ”_NN Of_IN course_NN the_DT questioner_NN was_VBD right_RB ._. Bits_NNS are_VBP bits_NNS ._. The_DT economics_NNS of_IN content_NN are_VBP going_VBG to_TO search_VB for_IN the_DT best_JJS place_NN to_TO be_VB monetized_VBN ,_, regardless_RB of_IN the_DT delivery_NN platform_NN ._. I_PRP think_VBP the_DT current_JJ model_NN will_MD be_VB the_DT place_NN content_NN finds_NNS ,_, Avner_NNP seemed_VBD to_TO feel_VB it_PRP would_MD be_VB some_DT future_JJ internet_NN ._. It_PRP shouldn_VBD ’_NNP t_JJ matter_NN ._. We_PRP both_DT seemed_VBD to_TO agree_VB that_IN one_CD of_IN the_DT biggest_JJS future_NN changes_NNS for_IN the_DT internet_NN will_MD be_VB an_DT increase_NN in_IN bandwidth_NN ._. The_DT question_NN the_DT needs_NNS to_TO be_VB answered_VBN is_VBZ “_JJ how_WRB will_MD all_VB the_DT new_JJ bandwidth_NN ,_, both_DT on_IN the_DT backbone_NN and_CC in_IN the_DT last_JJ mile_NN be_VB used_VBN ?_. ”_NN</t>
-  </si>
-  <si>
-    <t>What_WP else_RB ?_. Hmmmmm_NNP ..._: .oh_NN ,_, I_PRP had_VBD an_DT interesting_JJ string_NN of_IN conversations_NNS with_IN Alyssa_NNP recently_RB ._. Apparently_RB my_PRP$ aunt_NN snapped_VBD a_DT couple_NN weeks_NNS ago_RB and_CC sent_VBD Aly_NNP the_DT longest_JJS email_NN ever_RB as_IN an_DT attempt_NN to_TO make_VB amends_NNS with_IN her_PRP$ ._. They_PRP have_VBP n't_RB gotten_VBN along_IN for_IN years_NNS and_CC years_NNS ._. Alyssa_NNP was_VBD so_RB upset_JJ by_IN the_DT email_NN that_IN she_PRP sent_VBD it_PRP to_TO me_PRP for_IN some_DT advice_NN ._. It_PRP was_VBD such_JJ a_DT slap_NN in_IN the_DT face_NN ._. I_PRP talked_VBD on_IN the_DT phone_NN with_IN her_PRP$ for_IN over_IN an_DT hour_NN ,_, two_CD different_JJ days_NNS ._. Actually_RB ,_, both_DT days_NNS I_PRP ended_VBD up_RP sitting_VBG out_RP in_IN my_PRP$ car_NN in_IN the_DT driveway_NN ._. That_DT is_VBZ my_PRP$ weird_JJ solution_NN to_TO preventing_VBG myself_PRP from_IN pacing_VBG when_WRB I_PRP 'm_VBP on_IN the_DT phone_NN for_IN a_DT long_JJ time_NN ._. Eventually_RB our_PRP$ conversation_NN got_VBD away_RB from_IN the_DT bullshit_NN with_IN her_PRP$ mom_NN and_CC we_PRP caught_VBD up_RP about_IN everything_NN else_RB ._. Alyssa_NNP is_VBZ yet_RB another_DT person_NN that_IN I_PRP can_MD talk_VB to_TO about_IN anything_NN ._. I_PRP guess_VBP I_PRP 'm_VBP really_RB lucky_JJ in_IN that_DT way_NN ._. Why_WRB is_VBZ it_PRP that_IN so_RB many_JJ great_JJ conversations_NNS take_VBP place_NN while_IN in_IN the_DT car_NN ?_. Maybe_VBP it_PRP 's_VBZ just_RB me_PRP ,_, but_CC I_PRP 've_VBP had_VBD some_DT friendship-changing_JJ conversations_NNS on_IN a_DT late-night_JJ drive_NN on_IN a_DT long_JJ road_NN ._. I_PRP have_VBP a_DT really_RB fun_JJ week_NN ahead_RB of_IN me_PRP ._. I_PRP 'm_VBP seeing_VBG my_PRP$ very_RB first_JJ Broadway_NNP show_NN ,_, and_CC I_PRP 'm_VBP taking_VBG a_DT roadtrip_NN to_TO a_DT place_NN I_PRP 've_VBP never_RB been_VBN before_RB ._. Hopefully_NNP some_DT of_IN the_DT things_NNS that_WDT I_PRP 've_VBP ordered_VBN as_IN Christmas_NNP and_CC Birthday_NNP (_( and_CC baby_VB shower_JJR )_) gifts_NNS will_MD start_VB showing_VBG up_RP in_IN the_DT mail_NN ._. I_PRP want_VBP a_DT better_JJR idea_NN of_IN the_DT dent_NN I_PRP 've_VBP made_VBN in_IN my_PRP$ holiday_NN shopping_NN ._. Ok_UH ,_, soooooo_JJ ,_, yeah_UH ._. I_PRP guess_VBP that_DT 's_VBZ all_DT for_IN now_RB ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ time_NN in_IN Oman_NNP also_RB made_VBD me_PRP aware_JJ of_IN how_WRB quickly_RB globalisation_NN is_VBZ making_VBG the_DT world_NN smaller_JJR ,_, less_RBR varied_JJ and_CC less_RBR wild_JJ ._. By_IN age_NN 13_CD ,_, villages_NNS I_PRP had_VBD visited_VBN aged_VBN 11_CD had_VBD telegraph_NN poles_NNS running_VBG to_TO them_PRP ,_, one_CD quaint_NN fishing_NN community_NN had_VBD sprouted_VBN a_DT giant_JJ stone_NN harbour_NN and_CC the_DT dirt_NN track_NN that_WDT had_VBD served_VBN as_IN the_DT main_JJ coast_NN road_NN had_VBD a_DT new_JJ tarmac_JJ highway_NN under_IN construction_NN next_IN to_TO it_PRP ._. They_PRP were_VBD all_DT changes_NNS for_IN the_DT better_JJR but_CC they_PRP gave_VBD me_PRP the_DT idea_NN that_IN in_IN my_PRP$ lifetime_NN there_EX would_MD be_VB no_RB more_JJR opportunities_NNS to_TO explore_VB or_CC meet_VB people_NNS who_WP lived_VBD in_IN a_DT radically_RB different_JJ way_NN from_IN me_PRP ._.</t>
-  </si>
-  <si>
-    <t>hy_NN does_VBZ this_DT happen_VB ?_. Because_IN ,_, men_NNS do_VBP n't_RB cry_VB or_CC break_VB down_RP ._. Instead_RB ,_, the_DT more_JJR upset_JJ they_PRP are_VBP ,_, the_DT more_RBR they_PRP frown_VBP or_CC the_DT angrier_NN they_PRP appear_VBP ._. Now_RB ,_, we_PRP all_DT know_VBP women_NNS are_VBP more_RBR attractive_JJ than_IN most_JJS men_NNS ._. And_CC ,_, nobody_NN feels_NNS sorry_VBP for_IN an_DT angry_JJ man_NN ._. In_IN fact_NN ,_, the_DT angrier_NN he_PRP gets_VBZ ,_, the_DT uglier_NN he_PRP looks_VBZ ,_, the_DT more_RBR despicable_JJ he_PRP appears_VBZ ._. What_WP choice_NN does_VBZ he_PRP have_VB really_RB ?_. If_IN he_PRP cries_VBZ ,_, they_PRP 'll_MD call_VB him_PRP sissy_JJ ._. They_PRP 'll_MD say_VB he_PRP 's_VBZ wuss_NN ._. And_CC it_PRP 's_VBZ not_RB really_RB macho_JJ ._. So_RB he_PRP does_VBZ what_WP he_PRP has_VBZ to_TO ._. Pretend_VB he_PRP 's_VBZ got_VBD buffalo-skin_JJ ._.</t>
-  </si>
-  <si>
-    <t>Before_IN reading_VBG any_DT of_IN the_DT ``_`` reviews_NN ''_'' ,_, you_PRP should_MD read_VB the_DT intro_NN ,_, the_DT FAQ_NNP ,_, the_DT MOVIES_NNP I_PRP HAVE_VBP ALREADY_NNP SEEN_NNP list_NN ,_, and_CC if_IN you_PRP want_VBP ,_, the_DT glossary_NN of_IN genre_NN terms_NNS and_CC ``_`` What_WP is_VBZ Horror_NNP ?_. ``_`` ,_, which_WDT explains_VBZ some_DT of_IN the_DT ``_`` that_DT 's_VBZ not_RB horror_JJ !_. ''_'' entries_NNS ._. There_EX is_VBZ also_RB a_DT handy_JJ recommendation_NN thread_NN that_IN you_PRP can_MD use_VB to_TO post_VB suggestions_NNS for_IN movies_NNS ._. And_CC to_TO keep_VB things_NNS clean_JJ ,_, all_DT off_RP topic_NN posts_NNS are_VBP re-dated_JJ to_TO be_VB in_IN JANUARY_NNP 2007_CD (_( which_WDT was_VBD before_IN I_PRP began_VBD doing_VBG this_DT little_JJ project_NN )_) once_RB they_PRP have_VBP 'expired_VBN '_'' (_( i.e_NN ._. are_VBP 10_CD days_NNS old_JJ )_) ._. Due_NNP to_TO many_JJ people_NNS commenting_VBG ``_`` I_PRP have_VBP to_TO see_VB this_DT movie_NN !_. ''_'' after_IN a_DT review_NN ,_, I_PRP have_VBP decided_VBN to_TO add_VB Amazon_NNP links_NNS within_IN the_DT reviews_NNS (_( they_PRP are_VBP located_VBN at_IN the_DT bottom_NN )_) ,_, as_RB well_RB as_IN a_DT few_JJ links_NNS to_TO the_DT Horror_NNP Movie_NNP A_NNP Day_NNP Store_NNP around_IN the_DT page_NN ,_, hopefully_RB non-obstructively_RB ._. Amazon_NNP will_MD also_RB automatically_RB link_VBP things_NNS they_PRP find_VBP relevant_JJ ,_, so_RB there_EX might_MD be_VB a_DT few_JJ random_JJ links_NNS in_IN a_DT review_NN as_RB well_RB ._. If_IN they_PRP become_VBP annoying_VBG ,_, I_PRP 'll_MD remove_VB the_DT functionality_NN ._. Right_RB now_RB I_PRP 'm_VBP just_RB kind_NN of_IN amused_VBN what_WP they_PRP come_VBP up_RP with_IN (_( for_IN example_NN ,_, they_PRP highlighted_VBD 'a_'' horror_NN movie_NN '_'' in_IN the_DT middle_NN of_IN one_CD review_NN and_CC it_PRP links_VBZ to_TO ,_, of_IN all_DT things_NNS ,_, the_DT 50_CD Chilling_NNP Movies_NNPS Budget_NNP Pack_NN !_. !_. !_. )_) ._. Last_JJ but_CC not_RB least_JJS ,_, some_DT reviews_NNS contain_VBP spoilers_NNS (_( NOTE_NNP -_: With_IN a_DT few_JJ exceptions_NNS ,_, anything_NN written_VBN on_IN the_DT back_NN of_IN the_DT DVD_NNP or_CC that_IN occurs_VBZ less_JJR than_IN halfway_RB through_IN the_DT movie_NN I_PRP do_VBP NOT_RB consider_VB a_DT spoiler_NN )_) ._. I_PRP will_MD be_VB adding_VBG 'spoiler_PRP alerts_NNS '_POS for_IN these_DT reviews_NNS as_IN I_PRP go_VBP through_IN and_CC re-do_VB the_DT older_JJR reviews_NNS (_( longtime_JJ readers_NNS may_MD notice_VB that_IN there_EX is_VBZ now_RB a_DT 'show_NN more_RBR '_POS which_WDT cleaned_VBD up_RP the_DT main_JJ page_NN ,_, as_RB well_RB as_IN listing_VBG the_DT source_NN of_IN the_DT movie_NN I_PRP watched_VBD ,_, i.e_NN ._. Theaters_NNS ,_, DVD_NNP ,_, TV_NN )_) to_TO reflect_VB the_DT new_JJ format_NN ._. This_DT is_VBZ time_NN consuming_VBG ,_, so_RB bear_JJ with_IN me_PRP ._. Thanks_NNS for_IN coming_JJ by_IN and_CC be_VB sure_JJ to_TO leave_VB comments_NNS ,_, play_NN nice_RB ,_, and_CC as_IN always_RB ,_, watch_VBP Cathy_NNP 's_POS Curse_NNP ._. MARCH_NNP 16_CD ,_, 2010_CD GENRE_NNP :_: PREDATOR_NN ,_, SURVIVAL_NNP SOURCE_NNP :_: DVD_NNP (_( ONLINE_NNP RENTAL_NNP )_) I_PRP was_VBD surprised_VBN to_TO learn_VB that_IN William_NNP Girdler_NNP was_VBD only_RB my_PRP$ age_NN when_WRB he_PRP died_VBD (_( in_IN a_DT helicopter_NN crash_NN )_) ,_, shortly_RB after_IN the_DT release_NN of_IN his_PRP$ epic_NN The_DT Manitou_NNP ._. I_PRP had_VBD figured_VBN he_PRP was_VBD in_IN his_PRP$ 50s_CD or_CC something_NN ,_, especially_RB since_IN that_DT and_CC his_PRP$ previous_JJ film_NN ,_, Day_NNP Of_IN The_DT Animals_NNP (_( aka_IN Something_NNP Is_VBZ Out_NNP There_EX )_) ,_, featured_VBN mostly_RB middle_JJ aged_VBN characters_NNS ._. It_PRP ’_VBD s_PRP rare_JJ to_TO see_VB someone_NN write/direct_VB a_DT film_NN populated_VBN primarily_RB with_IN characters_NNS that_WDT are_VBP far_RB older_JJR than_IN they_PRP are_VBP ._. It_PRP ’_VBD s_PRP really_RB a_DT damn_NN shame_NN that_IN he_PRP died_VBD so_RB young_JJ ;_: in_IN just_RB seven_CD years_NNS he_PRP made_VBD NINE_NNP features_NNS ,_, all_DT of_IN which_WDT have_VBP a_DT cult_NN following_VBG (_( and_CC are_VBP quite_RB entertaining_JJ ,_, at_IN least_JJS of_IN the_DT ones_NNS I_PRP have_VBP seen_VBN )_) ._. I_PRP wonder_VBP what_WP he_PRP would_MD have_VB done_VBN in_IN the_DT 80s_CD ..._: Anyway_RB ,_, Animals_NNP is_VBZ a_DT treat_NN ._. It_PRP ’_VBD s_PRP apparently_RB a_DT “_NN but_CC with_IN more_JJR animals_NNS ”_JJ version_NN of_IN his_PRP$ previous_JJ film_NN Grizzly_NNP (_( which_WDT itself_PRP was_VBD a_DT Jaws_NNP knockoff_NN )_) ,_, so_RB I_PRP hope_VBP I_PRP haven_VBP ’_JJ t_NN spoiled_VBD that_IN film_NN for_IN myself_NN ,_, but_CC if_IN its_PRP$ even_RB half_NN as_IN much_JJ fun_NN as_IN this_DT ,_, I_PRP ’_VBP m_JJ sure_JJ I_PRP ’_VBP ll_NNS still_RB have_VBP a_DT damn_NN good_JJ time_NN ._. Like_IN Frogs_NNS or_CC Long_NNP Weekend_NNP ,_, the_DT film_NN is_VBZ about_IN animals_NNS taking_VBG revenge_NN on_IN the_DT humans_NNS that_WDT have_VBP ruined_VBN their_PRP$ habitat_NN ,_, but_CC it_PRP ’_VBZ s_JJ far_RB more_RBR entertainment-minded_JJ than_IN those_DT films_NNS ._. And_CC by_IN that_DT I_PRP mean_VBP I_PRP laughed_VBD at_IN pretty_RB much_JJ every_DT death_NN scene_NN ._. The_DT key_JJ one_NN is_VBZ when_WRB Jon_NNP Cedar_NNP ’_NNP s_NN character_NN is_VBZ killed_VBN by_IN snakes_NNS AND_CC a_DT dog_NN (_( odd_JJ team_NN up_RB )_) as_IN he_PRP tries_VBZ to_TO get_VB into_IN a_DT car_NN that_WDT will_MD allow_VB him_PRP to_TO rescue_VB a_DT little_JJ girl_NN ._. Stupidly_RB backing_VBG into_IN his_PRP$ snake-filled_JJ car_NN ,_, he_PRP is_VBZ first_RB bitten_VBN a_DT few_JJ times_NNS by_IN the_DT rattlers_NNS and_CC such_JJ ,_, and_CC then_RB the_DT dog_NN leaps_NNS on_IN him_PRP and_CC tears_VBZ him_PRP apart_RB ._. Not_RB only_RB is_VBZ his_PRP$ death_NN a_DT bit_NN of_IN a_DT surprise_NN (_( since_IN he_PRP was_VBD a_DT pretty_JJ decent_JJ guy_NN and_CC had_VBD been_VBN more_RBR or_CC less_RBR set_VBN up_RP as_IN a_DT hero_NN )_) ,_, but_CC it_PRP ’_NNP s_VBZ also_RB a_DT bit_NN of_IN a_DT hilarious_JJ “_NN bummer_NN ”_NN ,_, since_IN it_PRP seems_VBZ likely_JJ that_IN the_DT little_JJ girl_JJ isn_NN ’_NNP t_NN going_VBG to_TO get_VB rescued_VBN either_DT (_( but_CC she_PRP does_VBZ ,_, much_RB later_RBR )_) ._. I_PRP just_RB wish_VB there_EX was_VBD some_DT more_JJR variety_NN ,_, or_CC at_IN least_JJS fewer_JJR dog_NN attacks_NNS ._. The_DT film_NN ’_NNP s_NN poster_NN suggests_VBZ an_DT entire_JJ Wildlife_NNP Treasury_NNP box_NN of_IN antagonists_NNS ,_, but_CC it_PRP ’_VBZ s_JJ primarily_RB dogs_NNS for_IN the_DT film_NN ’_NNP s_VBD final_JJ half_NN hour_NN ,_, which_WDT is_VBZ odd_JJ as_IN they_PRP aren_VBP ’_JJ t_NN exactly_RB forest_JJS dwelling_VBG animals_NNS ._. They_PRP also_RB prolong_VBP one_CD of_IN the_DT dog_NN attacks_NNS (_( at_IN the_DT helicopter_NN )_) by_IN obviously_RB re-using_JJ shots_NNS ;_: I_PRP ’_VBP d_RB rather_RB the_DT attack_NN was_VBD just_RB shortened_VBN and_CC then_RB maybe_RB a_DT lion_NN or_CC some_DT rabbits_NNS show_VBP up_RP and_CC make_VB things_NNS worse_JJR ._. Can_MD ’_VB t_NN go_VB wrong_JJ with_IN the_DT cast_NN though_IN ._. You_PRP got_VBD one_CD of_IN the_DT many_JJ Christopher_NNP and_CC Linda_NNP George_NNP (_( real_JJ life_NN husband_NN and_CC wife_NN )_) team_NN ups_RB ,_, although_IN their_PRP$ characters_NNS oddly_RB rarely_RB speak_JJ to_TO each_DT other_JJ despite_IN being_VBG in_IN the_DT same_JJ location_NN for_IN the_DT bulk_NN of_IN the_DT film_NN ._. Like_IN Girdler_NNP ,_, George_NNP died_VBD way_NN too_RB young_JJ ;_: his_PRP$ performances_NNS are_VBP usually_RB the_DT highlight_NN of_IN the_DT numerous_JJ horror_NN films_NNS in_IN which_WDT he_PRP starred_VBD during_IN the_DT late_JJ 70s/early_CD 80s_CD ._. But_CC even_RB better_JJR :_: Leslie_NNP Nielsen_NNP in_IN a_DT rare_JJ villainous_JJ role_NN ._. He_PRP plays_VBZ the_DT requisite_JJ asshole_NN of_IN the_DT group_NN (_( a_DT la_NN NOTLD_NNP ’_NNP s_VBD Mr._NNP Cooper_NNP )_) ,_, and_CC turns_VBZ from_IN mildly_RB abrasive_JJ to_TO full_JJ blown_NN crazy_NN over_IN the_DT course_NN of_IN the_DT film_NN ,_, ultimately_RB attempting_VBG to_TO rape_VB one_CD of_IN the_DT female_JJ members_NNS of_IN the_DT ill-fated_JJ hiking_NN group_NN (_( after_IN knocking_VBG around_IN a_DT woman_NN AND_CC her_PRP$ 10_CD year_NN old_JJ son_NN )_) ._. Even_RB scarier_JJR -_: he_PRP plays_VBZ his_PRP$ final_JJ scenes_NNS without_IN a_DT shirt_NN ._. If_IN you_PRP ’_VBP ve_VBG only_RB seen_VBN him_PRP in_IN his_PRP$ spoof_NN comedies_NNS ,_, this_DT shit_NN will_MD blow_VB your_PRP$ mind_NN (_( it_PRP ’_VBZ s_NNS still_RB not_RB as_RB disturbing_VBG as_IN his_PRP$ sleazy_NN john_NN character_NN in_IN Nuts_NNP ,_, however_RB )_) ._. Incidentally_RB ,_, one_CD of_IN his_PRP$ Airplane_NN !_. co-stars_NNS also_RB shows_VBZ up_RP -_: the_DT little_JJ girl_NN who_WP takes_VBZ her_PRP$ coffee_NN “_NN black_JJ ,_, like_IN her_PRP$ men_NNS ”_VBP ._. RIP_NNP Peter_NNP Graves_NNP ,_, by_IN the_DT way_NN ._. It_PRP also_RB has_VBZ enough_JJ characters_NNS to_TO keep_VB it_PRP from_IN getting_VBG boring_NN ,_, and_CC refrains_NNS from_IN killing_VBG them_PRP too_RB quickly_RB ,_, which_WDT allows_VBZ for_IN more_JJR suspense_NN ._. As_IN with_IN Tremors_NNS ,_, they_PRP repeatedly_RB put_VBD supporting_VBG characters_NNS in_IN danger_NN ,_, but_CC allow_VB them_PRP to_TO escape_VB with_IN minor_JJ injuries_NNS ._. A_DT movie_NN like_IN Rogue_NNP sort_NN of_IN weakens_NNS itself_PRP by_IN keeping_VBG the_DT supporting_VBG cast_VBD out_IN of_IN it_PRP for_IN the_DT entire_JJ last_JJ third_NN of_IN the_DT film_NN ,_, but_CC this_DT one_CD keeps_VBZ everyone_NN around_RB ._. And_CC Girdler_NNP split_VBD them_PRP into_IN three_CD groups_NNS ,_, so_IN we_PRP get_VBP different_JJ settings_NNS ,_, different_JJ group_NN dynamics_NNS ,_, and_CC yes_UH ,_, different_JJ animals_NNS (_( though_IN again_RB ,_, dogs_NNS seem_VBP to_TO be_VB everywhere_RB )_) ._. And_CC as_IN this_DT is_VBZ a_DT 70s_CD disaster_NN film_NN ,_, you_PRP get_VBP a_DT wide_JJ variety_NN of_IN characters_NNS -_: a_DT cancer_NN stricken_NN football_NN pro_FW ,_, a_DT journalist_NN ,_, a_DT young_JJ couple_NN ,_, Nielsen_NNP ’_NNP s_VBP bitter_JJ businessman_NN ,_, the_DT mother_NN and_CC son_NN ,_, etc_FW ._. Some_DT faces_VBZ may_MD be_VB more_JJR familiar_JJ than_IN others_NNS ,_, but_CC it_PRP really_RB is_VBZ an_DT ensemble_JJ piece_NN ;_: even_RB the_DT Georges_NNP don_NN ’_NN t_NN have_VBP noticeably_RB more_RBR screen_JJ time_NN than_IN the_DT others_NNS ._. And_CC it_PRP stays_VBZ with_IN them_PRP -_: there_EX are_VBP some_DT haz-mat_JJ guys_NNS wandering_VBG around_RB at_IN the_DT end_NN ,_, but_CC it_PRP 's_VBZ not_RB like_IN The_DT Crazies_NNPS where_WRB we_PRP keep_VBP cutting_VBG away_RB from_IN the_DT action_NN to_TO show_VB government_NN and_CC scientist_NN types_NNS yammering_VBG about_IN the_DT problem_NN and_CC how_WRB to_TO solve_VB it_PRP ._. I_PRP just_RB wish_JJ Media_NNP Blasters/Shriek_NNP Show_NNP had_VBD given_VBN the_DT film_NN more_RBR respect_NN in_IN the_DT AV_NNP department_NN ._. The_DT transfer_NN itself_PRP is_VBZ fine_JJ -_: in_IN that_IN it_PRP ’_VBZ s_JJ anamorphic_JJ and_CC doesn_JJ ’_NNP t_NN seem_VBP to_TO be_VB washed_VBN out_RP ._. But_CC they_PRP were_VBD using_VBG a_DT terrible_JJ print_NN as_IN the_DT source_NN ,_, the_DT entire_JJ film_NN is_VBZ covered_VBN with_IN scratches_NNS ,_, color_NN artifacts_NNS (_( the_DT woods_NNS are_VBP purple_JJ during_IN a_DT big_JJ chunk_NN of_IN the_DT climax_NN )_) ,_, and_CC even_RB skips_NNS !_. At_IN one_CD point_NN Nielsen_NNP is_VBZ walking_VBG along_RB with_IN George_NNP ,_, talking_VBG about_IN food_NN ,_, and_CC then_RB suddenly_RB he_PRP is_VBZ stopped_VBN ,_, talking_VBG to_TO one_CD of_IN the_DT other_JJ characters_NNS about_IN something_NN else_RB entirely_RB ._. The_DT sound_NN is_VBZ pretty_JJ lousy_JJ too_RB ,_, it_PRP sounds_VBZ like_IN a_DT record_NN playing_NN from_IN the_DT next_JJ room_NN ._. Basically_NNP it_PRP looks_VBZ like_IN the_DT stuff_NN you_PRP get_VBP on_IN Mill_NNP Creek_NNP releases_NNS ,_, except_IN you_PRP ’_VBP re_VB paying_VBG 20_CD bucks_NNS instead_RB of_IN 20_CD cents_NNS ._. The_DT “_JJ TV_NN Version_NNP ”_NNP is_VBZ also_RB included_VBN ,_, and_CC it_PRP ’_NNP s_VBZ taken_VBN from_IN a_DT much_JJ cleaner_JJR source_NN (_( no_DT major_JJ print_NN damage_NN )_) ,_, but_CC it_PRP ’_NNP s_VBZ also_RB washed_VBN out_RP and_CC horribly_RB cropped_VBD -_: they_PRP seemingly_RB matted_VBD the_DT (_( cropped_VBN )_) 1.33_CD TV_NN ratio_NN to_TO 16:9_CD ,_, which_WDT means_VBZ you_PRP ’_VBP re_VB missing_VBG the_DT sides_NNS AND_CC the_DT top_JJ and_CC bottom_NN of_IN the_DT image_NN !_. Examples_NNS below_IN :_: No_DT idea_NN why_WRB they_PRP did_VBD this_DT (_( and_CC ,_, obviously_RB ,_, both_DT versions_NNS are_VBP more_RBR compressed_JJ than_IN they_PRP should_MD be_VB in_IN order_NN to_TO fit_VB what_WP is_VBZ essentially_RB two_CD films_NNS on_IN one_CD side_NN of_IN the_DT disc_NN )_) ,_, but_CC I_PRP wish_VBP they_PRP had_VBD looked_VBN for_IN a_DT better_JJR print_NN ,_, or_CC at_IN least_JJS tried_JJ to_TO clean_VB up_RP the_DT one_NN they_PRP had_VBD ._. The_DT technical_JJ issues_NNS carry_VBP over_IN to_TO the_DT commentary_NN too_RB ;_: Lynda_NNP George_NNP is_VBZ muffled_VBN ,_, Cedar_NNP sounds_VBZ hollow_JJ ,_, and_CC Scott_NNP Spiegel_NNP sounds_VBZ like_IN he_PRP ’_VBZ s_JJ outside_IN of_IN the_DT recording_VBG booth_DT entirely_RB ._. Spiegel_NNP is_VBZ there_RB to_TO moderate_VB ,_, presumably_RB ,_, but_CC he_PRP does_VBZ a_DT lousy_JJ job_NN of_IN keeping_VBG them_PRP on_IN track_NN ._. For_IN every_DT story_NN about_IN the_DT film_NN itself_PRP ,_, there_EX are_VBP about_IN five_CD about_IN other_JJ movies/people/subjects_NNS entirely_RB ._. Some_DT of_IN them_PRP are_VBP amusing_VBG -_: George_NNP talks_NNS about_IN Pieces_NNS !_. -_: but_CC others_NNS are_VBP extraneous_JJ at_IN best_JJS ;_: I_PRP must_MD admit_VB I_PRP don_VBP ’_JJ t_NN really_RB care_VB to_TO hear_VB their_PRP$ thoughts_NNS on_IN the_DT merits_NNS of_IN Gigli_NNP ,_, the_DT Mission_NN :_: Impossible_JJ movies_NNS ,_, or_CC random_JJ Bill_NNP Shatner_NNP anecdotes_VBZ ,_, especially_RB when_WRB the_DT audio_NN is_VBZ so_RB all_RB over_IN the_DT place_NN ._. The_DT retrospective_JJ interviews_NNS are_VBP better_RB ,_, especially_RB as_IN they_PRP include_VBP animal_JJ wrangler/co-star_JJ Susan_NNP Backlinie_NNP (_( best_JJS known_VBN as_IN the_DT girl_NN who_WP gets_VBZ killed_VBN in_IN the_DT opening_JJ scene_NN of_IN Jaws_NNP )_) ,_, though_IN George_NNP is_VBZ absent_JJ for_IN some_DT reason_NN (_( they_PRP had_VBD her_PRP for_IN the_DT commentary_NN ,_, they_PRP didn_VBP ’_JJ t_NN grab_VBD an_DT interview_NN ?_. )_) ._. Basically_RB ,_, it_PRP SOUNDS_VBZ like_IN a_DT really_RB great_JJ package_NN on_IN paper_NN ,_, but_CC the_DT actual_JJ presentation_NN is_VBZ largely_RB shoddy_JJ and_CC ,_, frankly_RB ,_, amateurish_JJ ._. Make_VB sure_JJ you_PRP pick_VBP this_DT up_RP dirt_NN cheap_NNS ._. Now_RB ,_, on_IN to_TO Grizzly_NNP !_. Or_CC Abby_NNP ,_, Girdler_NNP ’_NNP s_VBP infamous_JJ “_NNP Black_NNP Exorcist_NNP ”_NNP that_WDT was_VBD pulled_VBN after_IN Warner_NNP Bros._NNP threatened_VBD to_TO sue_VB ._. Anyone_NNP have_VBP a_DT copy_NN of_IN that_DT one_CD ?_. What_WP say_VBP you_PRP ?_. MARCH_'' 15_CD ,_, 2010_CD GENRE_NNP :_: THRILLER_NNP SOURCE_NNP :_: DVD_NNP (_( STORE_NNP RENTAL_NNP )_) Remember_NNP the_DT good_JJ ol_NN ’_NNP days_NNS ,_, when_WRB legit_JJ horror_NN movies_NNS were_VBD billed_VBN as_IN “_JJ psychological_JJ thrillers_NNS ”_VBP or_CC whatever_WDT by_IN horror-fearing_VBG producers_NNS ?_. Nowadays_NNPS ,_, it_PRP ’_VBZ s_PDT the_DT other_JJ way_NN around_IN ;_: standard_JJ thrillers_NNS like_IN Possession_NNP are_VBP sold_VBN as_IN full_JJ blown_IN horror_NN movies_NNS ._. The_DT DVD_NNP and_CC trailers_NNS proudly_RB point_VBP out_RP that_IN the_DT film_NN is_VBZ from_IN the_DT producers_NNS of_IN The_DT Ring_NNP and_CC The_DT Grudge_NNP ,_, and_CC the_DT cover_NN showed_VBD a_DT ghostly_RB ,_, Feardotcom_NNP -y_NNP figure_NN that_WDT has_VBZ fuck_VBN all_DT to_TO do_VB with_IN the_DT film_NN ._. And_CC the_DT title_NN was_VBD changed_VBN from_IN Addicted_VBN to_TO Possession_NNP ,_, apparently_RB in_IN an_DT attempt_NN to_TO get_VB it_PRP to_TO join_VB Alien_NNP ,_, Monster_NNP ,_, Werewolf_NNP ,_, and_CC several_JJ other_JJ films_NNS where_WRB the_DT title_NN shares_NNS a_DT name_NN with_IN its_PRP$ would-be_JJ HMAD_NNP genre_NN tagging_VBG ._. Spoilers_NNS ahead_RB !_. If_IN you_PRP notice_VBP ,_, I_PRP have_VBP not_RB listed_VBN this_DT as_IN a_DT Possession_NNP movie_NN ._. But_CC if_IN you_PRP ’_VBP ve_JJ seen_VBN the_DT trailers_NNS or_CC read_VB a_DT synopsis_NN ,_, you_PRP know_VBP the_DT basic_JJ premise_NN behind_IN the_DT film_NN -_: two_CD brothers_NNS ,_, one_CD an_DT asshole_NN (_( Lee_NNP Pace_NNP -_: surprisingly_RB effective_JJ as_IN a_DT hardass_NN )_) and_CC the_DT other_JJ a_DT perfect_JJ man_NN (_( Michael_NNP Landes_NNP )_) ,_, get_VB into_IN a_DT car_NN accident_NN that_WDT leaves_VBZ them_PRP both_DT comatose_VBP ._. Pace_NN wakes_VBZ up_RP and_CC claims_NNS he_PRP ’_VBD s_VB his_PRP$ brother_NN ,_, having_VBG all_DT of_IN his_PRP$ memories_NNS and_CC very_RB much_RB in_IN love_NN with_IN the_DT guy_NN ’_NNP s_VBZ wife_NN (_( Sarah_NNP Michelle_NNP Gellar_NNP )_) ._. Is_VBZ he_PRP possessed_VBD ?_. Did_NNP they_PRP switch_VB bodies_NNS ?_. Or_CC ,_, is_VBZ the_DT asshole_JJ just_RB putting_VBG on_IN the_DT most_RBS gloriously_RB complicated_VBN act_NN in_IN history_NN so_IN he_PRP can_MD nail_VB his_PRP$ sister_NN in_IN law_NN ?_. I_PRP ’_VBP ll_JJ let_NN you_PRP double_JJ check_VB the_DT genre_NN tagging_NN and_CC make_VB your_PRP$ decision_NN ._. Now_RB ,_, to_TO be_VB fair_JJ ,_, at_IN least_JJS it_PRP grounds_VBZ the_DT movie_NN in_IN some_DT sort_NN of_IN reality_NN ,_, in_IN that_DT there_EX ’_VBZ s_NN nothing_NN supernatural_JJ or_CC metaphysical_JJ about_IN it_PRP -_: the_DT dude_NN is_VBZ simply_RB lying_VBG ._. But_CC in_IN order_NN to_TO work_VB ,_, we_PRP have_VBP to_TO suspend_VB far_RB too_RB much_JJ disbelief_NN ;_: in_IN fact_NN ,_, even_RB more_JJR than_IN we_PRP would_MD had_VBD there_EX actually_RB been_VBN a_DT supernatural_JJ explanation_NN ._. Not_RB only_RB does_VBZ he_PRP have_VB to_TO take_VB on_IN all_DT of_IN his_PRP$ brother_NN ’_NNP s_NN mannerisms_NN ,_, but_CC he_PRP has_VBZ to_TO learn_VB how_WRB to_TO sculpt_VB ,_, garden_NN ,_, etc_FW ._. as_IN his_PRP$ brother_NN did_VBD (_( whereas_IN he_PRP seemed_VBD to_TO be_VB some_DT sort_NN of_IN electrician_NN in_IN his_PRP$ asshole_JJ life_NN )_) ._. He_PRP also_RB has_VBZ to_TO hope_VB that_IN Gellar_NNP never_RB asks_VBZ him_PRP anything_NN he_PRP can_MD ’_VB t_JJ answer_NN ,_, such_JJ as_IN ,_, I_PRP dunno_VBP ,_, one_CD of_IN the_DT presumably_JJ millions_NNS of_IN things_NNS they_PRP did_VBD together_RB that_IN the_DT brother_NN DIDN_NNP ’_NNP T_NNP take_VB a_DT photo_NN of_IN or_CC write_VB about_IN in_IN a_DT love_NN letter_NN ._. See_VB ,_, Gellar_NNP finally_RB figures_VBZ out_RP the_DT ruse_NN when_WRB she_PRP goes_VBZ through_IN her_PRP$ letters_NNS and_CC photos_NNS and_CC sees_NNS that_IN her_PRP$ husband_NN had_VBD written_VBN about_IN every_DT single_JJ thing_NN that_WDT Pace_NNP had_VBD used_VBN to_TO “_VB prove_VB ”_NN he_PRP was_VBD Landes_NNP ._. It_PRP takes_VBZ a_DT full_JJ year_NN for_IN this_DT to_TO dawn_VB on_IN her_PRP ,_, which_WDT is_VBZ stupid_JJ enough_RB (_( did_VBD she_PRP not_RB READ_VBD the_DT letters_NNS when_WRB they_PRP were_VBD given_VBN to_TO her_PRP$ ?_. )_) ,_, but_CC again_RB -_: did_VBD she_PRP restrict_VB her_PRP$ inquiries_NNS to_TO only_RB the_DT most_RBS memorable_JJ moments_NNS in_IN their_PRP$ relationship_NN ?_. I_PRP suppose_VBP we_PRP are_VBP to_TO believe_VB that_IN the_DT part_NN of_IN her_PRP$ that_WDT wanted_VBD her_PRP husband_NN back_RB allowed_VBD her_PRP to_TO sort_VB of_IN live_JJ in_IN denial_JJ a_DT bit_NN ._. In_IN fact_NN ,_, that_WDT IS_VBZ the_DT point_NN of_IN the_DT film_NN ’_NNP s_VBD original_JJ ending_VBG ,_, which_WDT is_VBZ available_JJ on_IN the_DT DVD_NNP ._. It_PRP makes_VBZ the_DT film_NN even_RB less_JJR of_IN a_DT “_JJ horror_NN ”_NNP movie_NN ,_, but_CC it_PRP ’_VBZ s_NN at_IN least_JJS more_JJR interesting_JJ ._. Originally_RB ,_, she_PRP realized_VBD he_PRP was_VBD lying_VBG and_CC just_RB let_VB it_PRP slide_VB ,_, because_IN I_PRP guess_VBP she_PRP figured_VBD a_DT guy_NN pretending_NN to_TO be_VB her_PRP$ husband_NN was_VBD better_JJR than_IN nothing_NN ._. In_IN the_DT ending_VBG on_IN the_DT film_NN itself_PRP ,_, she_PRP confronts_VBZ him_PRP and_CC they_PRP have_VBP a_DT typical_JJ “_NN chase_NN through_IN the_DT house_NN on_IN a_DT rainy_JJ night_NN ”_NNP battle_NN ,_, killing_VBG him_PRP in_IN the_DT process_NN ._. Her_PRP$ real_JJ husband_NN remains_VBZ comatose_JJ (_( in_IN the_DT original_JJ ending_VBG they_PRP took_VBD him_PRP off_RP life_NN support_NN )_) ._. There_EX ’_JJ s_NN a_DT bit_NN too_RB much_RB repeated_VBN footage_NN on_IN the_DT alternate_NN ending_VBG (_( it_PRP ’_VBZ s_PRP literally_RB the_DT entire_JJ last_JJ half_NN hour_NN of_IN the_DT movie_NN ,_, but_CC only_RB about_IN 5-10_JJ minutes_NNS are_VBP different_JJ )_) ,_, and_CC again_RB it_PRP makes_VBZ its_PRP$ horror_NN connection_NN even_RB flimsier_RBR ,_, but_CC its_PRP$ definitely_RB preferable_JJ to_TO the_DT one_NN that_WDT ended_VBD up_RB in_IN the_DT film_NN from_IN a_DT creative/storytelling_VBG point_NN of_IN view_NN ._. If_IN you_PRP are_VBP still_RB interested_JJ in_IN watching_VBG it_PRP after_IN I_PRP ’_VBP ve_JJ just_RB spoiled_VBN BOTH_NNP endings_NNS ,_, switch_NN to_TO the_DT alternate_NN after_IN Gellar_NNP and_CC Pace_NNP make_VBP love_NN in_IN the_DT theatrical_JJ ._. I_PRP also_RB think_VBP they_PRP go_VBP a_DT bit_RB overboard_JJ with_IN trying_VBG to_TO make_VB Landes_NNP seem_VBP like_IN the_DT perfect_JJ man_NN ._. He_PRP brings_VBZ her_PRP$ flowers_NNS (_( twice_RB !_. )_) ,_, makes_VBZ her_PRP a_DT cake_NN ,_, decorates_VBZ the_DT outside_NN of_IN their_PRP$ house_NN with_IN lights_NNS ,_, lights_NNS a_DT bunch_NN of_IN candles_NNS ,_, doesn_NN ’_NNP t_NN mind_NN when_WRB she_PRP forgets_VBZ their_PRP$ anniversary_JJ ,_, fixes_VB her_PRP$ grandmother_NN ’_NN s_JJ necklace_NN ..._: ._. OK_JJ buddy_NN ,_, you_PRP ’_VBP re_VB a_DT god_NN and_CC it_PRP would_MD be_VB a_DT real_JJ shame_NN if_IN something_NN bad_JJ happened_VBD to_TO you_PRP ._. WE_VB GET_VBP IT_NNP ._. The_DT movie_NN could_MD have_VB benefited_VBN from_IN possibly_RB not_RB painting_VBG the_DT brothers_NNS as_IN such_JJ polar_JJ opposites_NNS -_: it_PRP would_MD make_VB the_DT concept_NN a_DT bit_NN easier_JJR to_TO swallow_VB ,_, and_CC they_PRP could_MD use_VB that_DT screentime_NN to_TO develop_VB Pace_NNP ’_NNP s_VBP character_NN a_DT bit_NN more_RBR ._. Why_WRB is_VBZ he_PRP such_PDT a_DT scumbag_NN ?_. And_CC where_WRB did_VBD he_PRP acquire_VB such_JJ fantastic_JJ mimic_NN skills_NNS ?_. Interestingly_RB ,_, if_IN you_PRP go_VBP back_RB and_CC watch_VB the_DT film_NN a_DT 2nd_CD time_NN (_( or_CC watch_VB it_PRP knowing_VBG the_DT ending_VBG )_) ,_, you_PRP can_MD see_VB him_PRP “_VB learning_VBG ”_IN his_PRP$ brother_NN ’_NNP s_NN styles_NNS by_IN watching_VBG him_PRP garden_NN ,_, make_VBP love_NN ,_, etc_FW ._. So_IN he_PRP wasn_VBZ ’_JJ t_NN just_RB being_VBG a_DT creepy_NN perv_NN ,_, he_PRP was_VBD doing_VBG ``_`` impersonate_VB my_PRP$ brother_NN ''_'' research_NN !_. You_PRP know_VBP ,_, JUST_NNP IN_NNP CASE_NNP they_PRP both_DT went_VBD comatose_JJ someday_NN ._. The_DT DVD_NNP also_RB has_VBZ some_DT other_JJ deleted_JJ scenes_NNS ,_, including_VBG one_CD where_WRB William_NNP B._NNP Davis_NNP ’_NNP hypnotist_VBP character_NN more_RBR or_CC less_RBR spoils_VBZ the_DT ending_VBG ,_, which_WDT I_PRP assume_VBP is_VBZ why_WRB it_PRP was_VBD cut_VBN ._. The_DT trailer_NN is_VBZ also_RB included_VBN ,_, but_CC you_PRP don_VBP ’_JJ t_NNS need_VBP it_PRP because_IN the_DT featurette_NN is_VBZ essentially_RB just_RB the_DT trailer_NN mixed_JJ with_IN brief_JJ interview_NN snippets_NNS with_IN the_DT stars_NNS and_CC directors_NNS Joel_NNP Bergvall_NNP and_CC Simon_NNP Sandquist_NNP ,_, who_WP wear_VBP matching_VBG jackets_NNS ._. Not_RB very_RB insightful_JJ stuff_NN ;_: they_PRP basically_RB reiterate_VBP the_DT plot_NN and_CC try_NN to_TO make_VB you_PRP think_VB the_DT movie_NN is_VBZ far_RB more_RBR twisty-turny_JJ than_IN it_PRP actually_RB is_VBZ ._. You_PRP want_VBP a_DT good_JJ version_NN of_IN the_DT car_NN accident/amnesia_NN plot_NN ?_. Watch_NNP Wolfgang_NNP Petersen_NNP ’_NNP s_NN 1991_CD thriller_NN Shattered_NNP ,_, with_IN Tom_NNP Berenger_NNP ._. Good_NNP stuff_NN ,_, GREAT_NNP twist_NN ._. And_CC if_IN you_PRP want_VBP to_TO see_VB Gellar_JJ deal_NN with_IN unexplained_JJ memory_NN problems_NNS in_IN an_DT only-sort-of-horror_JJ setting_NN ,_, watch_VBP The_DT Return_NNP ,_, which_WDT is_VBZ far_RB more_RBR interesting_JJ than_IN this_DT movie_NN (_( and_CC inches_VBZ closer_JJR to_TO horror_VB territory_NN to_TO boot_NN )_) ._. What_WP say_VBP you_PRP ?_. P.S_NNP ._. I_PRP learned_VBD later_RBR that_IN the_DT film_NN is_VBZ (_( sigh_JJ )_) a_DT remake_NN of_IN an_DT Asian_JJ film_NN ._. Anyone_NN seen_VBN it_PRP ?_. Actually_RB horror_VB ?_. Many_JJ folks_NNS will_MD mistakenly_RB ,_, but_CC understandably_RB ,_, refer_VBP to_TO Hatchet_NNP as_IN Adam_NNP Green_NNP 's_POS debut_NN film_NN ,_, but_CC it_PRP 's_VBZ actually_RB his_PRP$ second_JJ ._. His_PRP$ FIRST_JJ film_NN was_VBD Coffee_NNP &amp;_CC amp_NN ;_: Donuts_NNP ,_, which_WDT was_VBD shot_VBN for_IN 400_CD dollars_NNS using_VBG ``_`` borrowed_VBN ''_'' equipment_NN from_IN the_DT cable_NN company_NN that_IN he_PRP and_CC trusty_JJ DP_NNP Will_NNP Barratt_NNP (_( who_WP has_VBZ shot_VBN all_DT of_IN Green_NNP 's_POS films_NNS )_) made_VBN in_IN 1999_CD ._. The_DT film_NN showed_VBD at_IN a_DT single_JJ film_NN festival_NN (_( where_WRB it_PRP won_VBD Best_NNP Picture_NN )_) and_CC fell_VBD through_IN the_DT cracks_NNS as_IN a_DT result_NN of_IN (_( sadly_RB aborted_VBN )_) attempts_NNS to_TO turn_VB it_PRP into_IN a_DT sitcom_NN ._. Thus_RB ,_, the_DT film_NN has_VBZ n't_RB been_VBN shown_VBN since_IN ,_, but_CC that_DT is_VBZ about_IN to_TO change_VB ._. This_DT Thursday_NNP ,_, March_NNP 18th_CD ,_, the_DT (_( where_WRB else_RB ?_. )_) New_NNP Beverly_NNP Cinema_NNP will_MD be_VB showing_VBG Coffee_NNP &amp;_CC amp_NN ;_: Donuts_NNP for_IN the_DT first_JJ time_NN in_IN a_DT movie_NN theater_NN (_( or_CC at_IN all_DT ,_, really_RB )_) in_IN over_IN a_DT decade-_JJ ._. But_CC first_JJ ,_, Green_NNP will_MD present_VB his_PRP$ excellent_JJ new_JJ film_NN Frozen_NNP in_IN glorious_JJ 35mm_CD ,_, complete_JJ with_IN a_DT Q_NNP &amp;_CC amp_NN ;_: A_DT with_IN the_DT cast_NN (_( all_DT three_CD of_IN the_DT chair-bound_NN heroes_NNS ,_, as_RB well_RB as_IN Kane_NNP Hodder_NNP )_) ._. He_PRP will_MD also_RB be_VB showing_VBG a_DT few_JJ of_IN his_PRP$ legendary_JJ Halloween_NNP short_JJ films_NNS ._. And_CC if_IN we_PRP bug_VBP him_PRP enough_RB ,_, maybe_RB he_PRP 'll_MD talk_VB a_DT bit_NN about_IN Hatchet_NNP 2_CD (_( which_WDT is_VBZ now_RB in_IN post-production_NN !_. )_) ._. The_DT whole_JJ shebang_NN costs_NNS 7_CD measly_RB bucks_NNS ,_, and_CC you_PRP can_MD buy_VB your_PRP$ tickets_NNS online_VBP HERE_NNP (_( which_WDT is_VBZ a_DT good_JJ idea_NN since_IN it_PRP 's_VBZ very_RB likely_JJ that_IN the_DT show_NN will_MD sell_VB out_RP )_) ._. See_VB you_PRP there_RB !_. -Please_NN note_NN that_IN C_NNP &amp;_CC amp_NN ;_: D_NNP will_MD be_VB a_DT digital_JJ projection_NN ,_, as_IN it_PRP was_VBD shot_VBN digitally_RB in_IN the_DT first_JJ place_NN ._. Again_NNP though_IN ,_, Frozen_NNP will_MD be_VB a_DT 35mm_CD print_NN ._. MARCH_NNP 12_CD ,_, 2010_CD GENRE_NNP :_: GHOST_NNP SOURCE_NNP :_: THEATRICAL_NNP (_( PRESS_NNP SCREENING_NNP )_) Now_RB THIS_NNP is_VBZ a_DT good_JJ romantic_JJ horror_NN movie_NN !_. Unlike_IN yesterday_NN 's_POS To_TO Die_NNP For_IN ,_, Conor_NNP McPherson_NNP 's_POS The_DT Eclipse_NNP takes_VBZ time_NN to_TO develop_VB its_PRP$ characters_NNS ,_, which_WDT not_RB only_RB makes_VBZ the_DT story_NN far_RB more_RBR interesting_JJ ,_, but_CC also_RB allows_VBZ for_IN the_DT scares_NNS (_( which_WDT ,_, to_TO be_VB fair_JJ ,_, are_VBP fairly_RB limited_JJ -_: more_RBR on_IN that_IN later_RB )_) to_TO really_RB work_VB ;_: I_PRP must_MD admit_VB I_PRP got_VBD jolted_JJ twice_RB ,_, whereas_IN I_PRP 'm_VBP usually_RB amazed_VBN if_IN they_PRP can_MD get_VB me_PRP once_RB ._. The_DT film_NN concerns_VBZ a_DT would-be_JJ writer_NN (_( Ciarán_NNP Hinds_NNP )_) who_WP volunteers_VBZ for_IN the_DT annual_JJ literature_NN festival_NN in_IN a_DT seaside_JJ town_NN in_IN Ireland_NNP ._. He_PRP gets_VBZ directly_RB involved_VBN with_IN two_CD of_IN the_DT authors_NNS :_: a_DT celebrity_NN novelist_NN played_VBN by_IN Aidan_NNP Quinn_NNP ,_, and_CC a_DT horror_NN novelist_NN (_( Iben_NNP Hjejle_NNP )_) ,_, with_IN whom_WP Quinn_NNP had_VBD a_DT one_CD night_NN stand_NN with_IN some_DT time_NN before_IN (_( and_CC wants_VBZ to_TO continue_VB the_DT affair_NN )_) ._. So_RB yeah_JJ -_: it_PRP does_VBZ n't_RB exactly_RB scream_JJ horror_NN ,_, but_CC that_DT 's_VBZ actually_RB what_WP makes_VBZ it_PRP work_NN ._. There_EX are_VBP only_RB five_CD attempts_NNS at_IN scares_NNS in_IN the_DT entire_JJ movie_NN ,_, two_CD of_IN which_WDT made_VBD me_PRP jump_NN and_CC one_CD (_( the_DT first_RB )_) just_RB plain_NN creeped_VBD me_PRP out_RP ._. And_CC the_DT reason_NN they_PRP work_VBP so_RB good_JJ is_VBZ that_IN the_DT love_NN triangle_NN plot_NN was_VBD compelling_VBG enough_RB for_IN me_PRP to_TO keep_VB forgetting_NN that_IN there_EX was_VBD a_DT horror_NN element_NN to_TO the_DT proceedings_NNS ,_, catching_VBG me_PRP off_RP guard_NN ._. Now_RB ,_, because_IN the_DT focus_NN is_VBZ on_IN the_DT romance/character_NN study_NN ,_, ``_`` horror_NN and_CC nothing_NN else_RB ''_'' fans_NNS will_MD probably_RB hate_VB the_DT film_NN (_( expect_VB to_TO see_VB the_DT word_NN ``_`` boring_JJ ''_'' thrown_VBN around_IN a_DT lot_NN if_IN you_PRP read_VBP any_DT reviews_NNS )_) ._. The_DT horror_NN elements_NNS are_VBP never_RB really_RB expanded_VBN upon_IN -_: do_VBP n't_RB look_VB for_IN a_DT scene_NN where_WRB Hinds_NNP fights_VBZ the_DT ghost_NN or_CC digs_VB up_RP town_NN records_NNS in_IN order_NN to_TO find_VB a_DT bunch_NN of_IN exposition_NN ,_, because_IN it_PRP 's_VBZ not_RB there_RB ._. All_DT of_IN the_DT ghost_NN appearances_NNS are_VBP the_DT result_NN of_IN his_PRP$ character_NN 's_POS guilt_NN manifesting_VBG itself_PRP ._. For_IN example_NN ,_, the_DT first_JJ couple_NN of_IN ``_`` appearances_NNS ''_'' seem_VBP to_TO be_VB of_IN his_PRP$ (_( still_RB living_VBG )_) father-in-law_NN ,_, who_WP is_VBZ in_IN a_DT nursing_NN home_NN and_CC was_VBD left_VBN behind_RP when_WRB the_DT festival_NN began_VBD (_( Hinds_NNP forgot_VBD to_TO pick_VB him_PRP up_RP )_) ._. Most_JJS movies_NNS would_MD just_RB have_VB this_DT sort_NN of_IN character_NN flaw_NN play_NN out_RP in_IN a_DT normal_JJ way_NN -_: Hinds_NNS would_MD realize_VB his_PRP$ error_NN and_CC call_VB the_DT guy_NN to_TO apologize_VB ,_, or_CC drink_VB ,_, or_CC whatever_WDT ._. In_IN this_DT movie_NN he_PRP gets_VBZ pulled_VBD into_IN the_DT ground_NN by_IN a_DT bloodied_JJ arm_NN (_( whether_IN the_DT apparitions_NNS are_VBP real_JJ or_CC psychological_JJ is_VBZ never_RB explained_VBN ,_, nor_CC does_VBZ it_PRP matter_NN )_) ._. But_CC they_PRP never_RB go_VBP beyond_IN that_DT -_: brief_NN but_CC largely_RB successful_JJ scares_NNS that_WDT help_VBP reflect_VB the_DT character_NN 's_POS state_NN of_IN mind_NN ._. Hinds_NNP is_VBZ terrific_VBN in_IN the_DT film_NN ._. He_PRP 's_VBZ in_IN all_DT but_CC one_CD or_CC two_CD scenes_NNS ,_, and_CC those_DT non-Hinds_JJ scenes_NNS suggest_VBP that_IN the_DT film_NN will_MD be_VB a_DT complete_JJ study_NN of_IN all_DT three_CD characters_NNS ,_, but_CC ultimately_RB the_DT film_NN is_VBZ solely_RB about_IN his_PRP$ character_NN 's_POS grief_NN (_( his_PRP$ wife_NN died_VBD before_IN the_DT film_NN began_VBD -_: hence_NN why_WRB he_PRP is_VBZ in_IN charge_NN of_IN looking_VBG after_IN his_PRP$ father-in-law_NN )_) and_CC how_WRB he_PRP tries_VBZ to_TO put_VB himself_PRP out_IN there_RB after_IN living_NN in_IN borderline_JJ seclusion_NN for_IN so_RB long_RB ._. It_PRP 's_VBZ a_DT sad_JJ portrait_NN (_( Quinn_</t>
-  </si>
-  <si>
-    <t>Shown_NNP here_RB in_IN Offerings_NNP to_TO Horus_NNP are_VBP more_RBR items_NNS to_TO be_VB offered_VBN to_TO the_DT gods_NNS such_JJ as_IN were_VBD found_VBN in_IN the_DT tombs_NN of_IN the_DT deceased_VBN ._. Some_DT of_IN these_DT offering_NN lists_NNS describe_VBD many_JJ kinds_NNS of_IN breads_NNS and_CC cakes_NNS and_CC one_CD in_IN particular_JJ called_VBN ,_, shat-cake_NN ,_, is_VBZ very_RB interesting_JJ ._. This_DT cake_NN was_VBD an_DT unusual_JJ isosceles_NNS triangle_VBP shape_NN and_CC because_IN of_IN its_PRP$ height_NN had_VBD to_TO be_VB laid_VBN on_IN its_PRP$ side_NN ,_, creating_VBG heads_NNS and_CC tails_NNS in_IN a_DT pile_NN ._. In_IN a_DT tomb_NN from_IN the_DT 18th_CD dynasty_NN an_DT entire_JJ kitchen_NN scene_NN depicts_VBZ shat-cakes_NNS being_VBG made_VBN ,_, date_NN flour_NNS being_VBG sifted_VBN ,_, and_CC others_NNS frying_VBG and_CC stacking_VBG the_DT cakes_NNS ._. Grapes_NNS were_VBD common_JJ since_IN antiquity_NN but_CC peaches_NNS were_VBD not_RB introduced_VBN to_TO Egypt_NNP until_IN the_DT Ptolemaic_NNP period.Any_NN offering_NN to_TO Horus_NNP would_MD have_VB been_VBN of_IN great_JJ importance_NN because_IN he_PRP played_VBD a_DT crucial_JJ role_NN in_IN the_DT life_NN of_IN the_DT pharaoh_NN ._. Fruits_NNS ,_, meats_NNS ,_, cakes_NNS ,_, wines_NNS ,_, and_CC many_JJ other_JJ varieties_NNS of_IN foods_NNS would_MD have_VB been_VBN on_IN the_DT lists_NNS ._. Other_JJ items_NNS were_VBD jewelry_NN ,_, coins_NNS ,_, art_NN objects_NNS ,_, and_CC precious_JJ metals_NNS ,_, each_DT an_DT offering_NN to_TO ensure_VB everlasting_VBG life_NN ._. This_DT painting_NN was_VBD done_VBN on_IN a_DT wood_NN panel_NN which_WDT will_MD create_VB a_DT different_JJ appearance_NN from_IN linen_NN ._. Because_IN of_IN the_DT hard_JJ texture-less_JJ surface_NN the_DT paint_NN sits_VBZ on_IN the_DT surface_NN and_CC creates_VBZ splendid_JJ impasto_NN ._.</t>
-  </si>
-  <si>
-    <t>That_DT would_MD be_VB Sadie_NNP ,_, the_DT chinchilla_NN ._. So_RB adorable_JJ ,_, and_CC soooo_JJ soft_NN ._. She_PRP was_VBD a_DT little_JJ ball_NN of_IN crazy_JJ energy_NN ._. Sunday_NNP morning_NN Robb_NNP and_CC I_PRP planned_VBD to_TO go_VB to_TO church_VB ,_, so_IN we_PRP got_VBD up_RB at_IN 8:30_CD ,_, realized_VBD it_PRP was_VBD actually_RB 9:30_CD ,_, and_CC went_VBD back_RB to_TO bed_NN ._. I_PRP hate_VBP rushing_VBG to_TO get_VB ready_JJ in_IN the_DT morning_NN ._. It_PRP puts_VBZ me_PRP in_IN a_DT bad_JJ mood_NN ._. So_IN I_PRP just_RB decided_VBD we_PRP would_MD skip_VB church_NN entirely_RB ._. Well_RB ..._: we_PRP slept_VBD until_IN 11:45_CD ._. I_PRP had_VBD n't_RB slept_VBN well_RB in_IN almost_RB a_DT week_NN ,_, so_IN it_PRP was_VBD a_DT nice_JJ change_NN ._. And_CC then_RB I_PRP rushed_VBD to_TO get_VB ready_JJ for_IN my_PRP$ writer_NN 's_POS group_NN ,_, which_WDT was_VBD having_VBG a_DT special_JJ meeting_NN ._. I_PRP drew_VBD this_DT confused_JJ cat_NN bird_NN ..._: sort_NN of_IN a_DT way_NN for_IN me_PRP to_TO sort_VB out_RP my_PRP$ feelings_NNS about_IN a_DT friend_NN of_IN mine_NN who_WP is_VBZ newly_RB transgendered_VBN ._. It_PRP 's_VBZ really_RB hard_JJ to_TO stop_VB calling_VBG him_PRP Ian_NNP and_CC start_VB calling_VBG her_PRP$ Elaine_NN ..._: and_CC the_DT pronouns_NNS ..._: oh_UH ,_, the_DT pronouns_NN !_. I_PRP 'll_MD get_VB it_PRP right_JJ one_CD day_NN ._. So_CC ..._: after_IN a_DT full_JJ day_NN ,_, Robb_NNP and_CC I_PRP ordered_VBD pizza_NN ._. I_PRP had_VBD n't_RB eaten_VBN all_DT day_NN ,_, so_IN we_PRP finished_VBD the_DT whole_JJ thing_NN ._. That_DT night_NN ,_, I_PRP had_VBD the_DT happiest_JJS dream_NN ever_RB !_. I_PRP got_VBD a_DT pygmy_NN hippo_NN as_IN a_DT pet_NN ,_, and_CC he_PRP LOVED_NNP cat_VBD food_NN and_CC potatoes_NNS ._. So_RB freaking_JJ adorable_JJ I_PRP could_MD spit_VB !_. And_CC this_DT morning_NN ?_.</t>
-  </si>
-  <si>
-    <t>Arriving_VBG at_IN noon_NN ,_, we_PRP were_VBD instantly_RB mesmerized_VBN by_IN the_DT rustic_JJ garden_NN at_IN its_PRP$ front_JJ yard_NN ,_, as_RB well_RB as_IN the_DT sounds_NNS of_IN the_DT birds_NNS at_IN the_DT mini-aviary_JJ ._. The_DT gravel_NN pathway_NN led_VBD us_PRP to_TO a_DT an_DT archway_NN of_IN vines_NNS and_CC tree_JJ branches_NNS hanging_VBG over_IN the_DT front_JJ door_NN of_IN the_DT restaurant_NN ,_, which_WDT evoked_VBD a_DT mysterious_JJ appeal_NN to_TO us_PRP ._. Wood_NNP carvings_NNS ,_, antique_NN and_CC art_NN pieces_NNS ,_, and_CC dolls_NNS ,_, caught_VBD our_PRP$ roving_VBG eyes_NNS ._.</t>
-  </si>
-  <si>
-    <t>Umami_JJ Nation_NN :_: Kombu_NNP Dashi_NNP Smackdown_NNP January_NNP 19th_CD ,_, 2010_CD ·_NNP Uncategorized_NNP posted_VBN by_IN Dave_NNP Arnold_NNP Kombu_NNP ,_, a_DT variety_NN of_IN giant_JJ kelp_NN (_( seaweed_NN )_) ,_, is_VBZ a_DT cornerstone_NN of_IN Japanese_JJ cooking_NN ._. Kombu_NNP is_VBZ particularly_RB high_JJ in_IN free_JJ glutamic_JJ acid—the_NN umami_NN maker—but_VBD its_PRP$ flavor_NN is_VBZ otherwise_RB rather_RB delicate_NN ,_, so_IN it_PRP is_VBZ an_DT excellent_JJ source_NN of_IN MSG_NNP ._. By_IN the_DT way_NN ,_, glutamic_JJ acid_NN +_NNP sodium_NN =_NNP MSG_NNP ._. (_( You_PRP ’_VBP ll_JJ get_VB much_RB more_RBR on_IN MSG_NNP and_CC umami_NN in_IN our_PRP$ upcoming_JJ post_NN :_: Umami_JJ Nation_NN :_: MSG_NNP the_DT Superspice—the_NNP Headache_NNP is_VBZ in_IN Your_PRP$ Head_NNP ._. )_) This_DT post_NN is_VBZ about_IN kombu_JJ broth_NN ._. Several_JJ types_NNS of_IN Kombu_NNP are_VBP used_VBN in_IN Japanese_JJ cooking_NN ._. For_IN a_DT discussion_NN of_IN kombu_NN ,_, I_PRP refer_VBP you_PRP to_TO this_DT website_NN or_CC this_DT book_NN ._. We_PRP used_VBD ma_NN kombu_NN which_WDT was_VBD harvested—as_RB many_JJ good_JJ things_NNS are—in_VBP the_DT cold_JJ waters_NNS off_IN Hokkaido_NNP ,_, Japan_NNP ’_NNP s_VBD northernmost_RB main_JJ island_NN ._. Yuji_NNP Haraguchi_NNP of_IN True_NNP World_NNP Foods_NNP ,_, a_DT premier_JJR supplier_NN of_IN fish_JJ and_CC Japanese_JJ products_NNS (_( we_PRP buy_VBP our_PRP$ fish_NN for_IN ike-jime_NN from_IN them_PRP )_) ,_, brought_VBD us_PRP the_DT kombu_NN ._. Ma_NNP kombu_NN ._. High_JJ quality_NN stuff_NN from_IN Hokkaido_NNP ._. Brought_NNP to_TO us_PRP by_IN True_NNP World_NNP Foods_NNP ._. Most_JJS traditional_JJ books_NNS will_MD instruct_VB you_PRP to_TO place_VB a_DT piece_NN of_IN kombu_NN in_IN cold_JJ water_NN and_CC then_RB heat_VB that_IN water_NN until_IN it_PRP just_RB begins_VBZ to_TO bubble_VB ,_, upon_IN which_WDT you_PRP immediately_RB remove_VB the_DT kombu_NN ._. But_CC recent_JJ work_NN in_IN Japan_NNP has_VBZ shown_VBN that_IN optimal_JJ glutamate_NN extraction_NN is_VBZ actually_RB obtained_VBN by_IN steeping_VBG kombu_NN in_IN 65°_CD C_NNP water_NN for_IN about_IN an_DT hour_NN ._. Several_JJ years_NNS ago_RB ,_, when_WRB we_PRP first_RB heard_VBD about_IN temperature_NN regulating_VBG kombu_JJ stocks_NNS ,_, we_PRP told_VBD a_DT group_NN of_IN Kaseiki_NNP chefs_NNS that_IN they_PRP might_MD want_VB to_TO use_VB an_DT immersion_NN circulator_NN ._. They_PRP looked_VBD at_IN us_PRP like_IN we_PRP had_VBD three_CD heads_NNS (_( in_IN fact_NN we_PRP had_VBD only_RB two_CD )_) ._. Undaunted_VBN ,_, we_PRP vowed_VBD to_TO thoroughly_VB test_NN kombu_NN stocks_NNS in_IN the_DT circulator_NN ._. Two_CD and_CC a_DT half_NN years_NNS later_RB ,_, we_PRP finally_RB got_VBD around_IN to_TO it_PRP ._. Setting_VBG up_RP the_DT tasting_NN ._. Setting_VBG Up_RP the_DT Test_NNP The_DT tests_NNS :_: we_PRP would_MD make_VB one_CD broth_DT traditionally_RB ,_, and_CC one_CD like_IN the_DT Kaiseki_NNP do—by_NN attempting_VBG to_TO regulate_VB water_NN temperature_NN to_TO 65°_CD C_NNP on_IN a_DT typical_JJ stove_NN ._. After_IN carefully_RB reading_VBG the_DT dashi_JJ sections_NNS of_IN some_DT our_PRP$ favorite_JJ books_NNS ,_, we_PRP settled_VBD on_IN 10_CD grams_NNS of_IN kombu_NN per_IN liter_NN of_IN liquid—though_NN intuitively_RB this_DT seemed_VBD low_JJ to_TO us_PRP ._. For_IN a_DT third_JJ test_NN we_PRP would_MD circulate_VB the_DT kombu_NN in_IN water_NN at_IN 65°_CD C._NNP We_PRP could_MD think_VB of_IN two_CD possible_JJ reasons_NNS the_DT circulated_VBN broth_NN wouldn_NN ’_NNP t_RB be_VB as_RB good_JJ (_( or_CC better_JJR )_) than_IN other_JJ techniques_NNS :_: 1_CD )_) if_IN the_DT air_NN churned_VBN in_IN by_IN circulation_NN had_VBD a_DT negative_JJ effect_NN ,_, or_CC 2_CD )_) if_IN the_DT crappy_JJ heat_NN control_NN of_IN the_DT stovetop_NN was_VBD actually_RB a_DT benefit_NN ;_: i.e._NN ,_, if_IN temperature_JJ fluctuation_NN somehow_RB made_VBD the_DT stock_NN better_RBR ._. To_TO control_VB for_IN the_DT air_NN problem_NN we_PRP added_VBD a_DT test_NN of_IN some_DT kombu_NN circulated_VBN in_IN a_DT vacuum_NN bag_NN ._. It_PRP didn_VBZ ’_JJ t_NNS take_VBP long_RB for_IN Nils_NNP and_CC I_PRP to_TO realize_VB the_DT bag_NN was_VBD probably_RB a_DT good_JJ idea_NN anyway_RB ,_, because_IN we_PRP would_MD get_VB some_DT vacuum-infusion_NN benefits_NNS ._. Yuji_CC from_IN True_NNP World_NNP also_RB suggested_VBD we_PRP try_VB some_DT cold_JJ infusion_NN ,_, so_IN we_PRP added_VBD a_DT 10_CD gram/liter_NN overnight_JJ infusion_NN to_TO our_PRP$ test_NN ,_, a_DT 10_CD gram/liter_NN overnight_JJ vacuum_NN infusion_NN ,_, and_CC a_DT 20_CD gram/liter_NN overnight_JJ vacuum_NN infusion_NN ._. We_PRP never_RB heated_VBD these_DT infusions_NNS with_IN the_DT kombu_NN in_IN them_PRP ._. As_IN a_DT final_JJ test_NN ,_, Yuji_NNP suggested_VBD we_PRP heat_VBP the_DT regular_JJ overnight_JJ infusion_NN in_IN the_DT traditional_JJ way_NN (_( until_IN bubbles_NNS start_VBP to_TO form_VB )_) ,_, with_IN the_DT kombu_NN in_IN it_PRP ._. We_PRP ended_VBD up_RP with_IN 8_CD different_JJ kombu_NNS broths_NNS ,_, and_CC we_PRP tasted_VBD them_PRP blind_VB ._. What_WP We_PRP Didn_VBP ’_JJ t_JJ Test_NNP We_PRP didn_VBP ’_JJ t_JJ test_NN a_DT temperature_NN range_NN ._. We_PRP didn_VBP ’_JJ t_NN do_VBP 60°_CD versus_NN 65°_CD versus_NN 70°_CD C._NNP Next_NNP test_NN ._. We_PRP didn_VBP ’_JJ t_JJ test_NN the_DT level_NN of_IN free_JJ glutamate_NN in_IN the_DT broth_NN ._. Most_JJS literature_NN will_MD tell_VB you_PRP this_DT number_NN is_VBZ important_JJ ._. But_CC we_PRP can_MD ’_VB t_JJ measure_NN free_JJ glutamate_NN here_RB ,_, and_CC we_PRP thought_VBD it_PRP much_RB more_RBR important_JJ to_TO judge_VB the_DT broths_NNS on_IN taste_NN alone_RB ._. We_PRP didn_VBP ’_JJ t_JJ test_NN the_DT interaction_NN of_IN the_DT kombu_JJ broths_NNS with_IN other_JJ umami-producing_JJ ingredients_NNS like_IN bonito_NN flakes_NNS (_( katsuobushi_NN )_) or_CC shitake_VB mushrooms_NNS ._. Bonito_NNP flakes_NNS have_VBP inosinic_JJ acid_NN ,_, and_CC shitakes_NNS have_VBP guanylate_NN ,_, both_DT of_IN which_WDT act_NN synergistically_RB with_IN the_DT glutamic_JJ acid_NN in_IN kombu_NN to_TO create_VB a_DT lot_NN more_JJR umami_JJ than_IN kombu_VB alone_JJ ._. Often_VB a_DT kombu_NN is_VBZ re-used_JJ to_TO make_VB a_DT secondary_JJ dashi_NN after_IN the_DT primary_JJ broth_NN is_VBZ made_VBN ._. Some_DT of_IN the_DT extraction_NN methods_NNS we_PRP used_VBD rendered_VBD the_DT leftover_NN kombu_VBZ virtually_RB tasteless_JJ ,_, which_WDT would_MD make_VB a_DT secondary_JJ dashi_NN impossible_JJ ._. So_IN we_PRP didn_VBP ’_JJ t_JJ test_NN secondary_JJ dashis_NN ._. The_DT Results_NNP Kombu_NNP Tasting_NNP Results_NNP ._. We_PRP tested_VBD three_CD different_JJ groups_NNS (_( red_JJ ,_, blue_JJ ,_, and_CC green_JJ )_) ,_, and_CC then_RB pitted_VBD the_DT winners_NNS of_IN each_DT group_NN against_IN each_DT other_JJ to_TO figure_VB out_RP which_WDT kombu_VBP dashi_NN reigned_VBD supreme_NN ._. The_DT red_JJ block_NN tested_VBD methods_NNS of_IN making_VBG kombu_JJ dashi_NN at_IN 65°_CD C_NN :_: directly_RB in_IN a_DT circulator_NN ,_, in_IN a_DT vacuum_NN bag_NN in_IN a_DT circulator_NN ,_, and_CC by_IN trying_VBG to_TO maintain_VB 65°_CD C_NNP on_IN a_DT stovetop_NN ._. The_DT blue_JJ block_NN tested_VBD cold_JJ infusion_NN techniques_NNS :_: in_IN a_DT vacuum_NN bag_NN at_IN 20_CD grams_NNS kombu_VBP per_IN liter_NN ,_, in_IN a_DT vacuum_NN bag_NN at_IN 10_CD grams_NNS kombu_VBP per_IN liter_NN (_( traditional_JJ amount_NN )_) ,_, and_CC 10_CD grams_NNS of_IN kombu_NN in_IN a_DT liter_NN of_IN water_NN without_IN a_DT bag_NN ._. The_DT green_JJ group_NN pitted_VBD traditional_JJ kombu_NN dashi_NN --_: 10_CD grams_NNS per_IN liter_NN started_VBD cold_JJ and_CC just_RB brought_VBN to_TO the_DT bubble_JJ and_CC strained_VBD ,_, versus_NN cold_NN infused_VBN then_RB heated_VBN dashi_NN also_RB at_IN 10g/liter_CD without_IN a_DT vacuum_NN bag_NN ._. Vacuum_NNP bagged_VBD 65°_CD C_NNP circulated_VBD kombu_JJ stock_NN reigned_VBD supreme_NN !_. The_DT verdict_NN was_VBD decisive_JJ ._. Unanimous_JJ and_CC unequivocal_JJ ._. In_IN the_DT future_NN ,_, we_PRP will_MD test_VB vacuum_NN bagged_VBD 65°_CD C_NNP kombu_NN at_IN 15_CD g/liter_NN and_CC at_IN 20_CD g/liter_NN ,_, because_IN 20g/liter_CD won_VBD the_DT cold_JJ infusion_NN category_NN ._. We_PRP should_MD also_RB try_VB cold-vacuum-infused-then-heated_JJ broth_NNS ._. We_PRP think_VBP it_PRP would_MD win_VB ._.</t>
-  </si>
-  <si>
-    <t>So_RB today_NN 's_POS been_VBN somewhat_RB of_IN a_DT lovely_JJ forecast_NN outside_IN ,_, the_DT suns_NN beaming_NN ,_, and_CC theres_VBZ a_DT slight_JJ wind_NN ,_, but_CC comparing_VBG to_TO the_DT amount_NN of_IN snow_NN we_PRP 've_VBP gotten_VBN this_DT year_NN ,_, this_DT weathers_NNS brilliant_VBP ._. And_CC yes_UH ,_, im_JJ stuck_VBD inside_IN rehearsing_VBG my_PRP$ song_NN for_IN the_DT competition_NN which_WDT is_VBZ 3_CD days_NNS away_RB oh_JJ joy_NN ._. Well_NNP i_JJ 've_VBP had_VBD some_DT what_WP a_DT productive_JJ day_NN to_TO say_VB the_DT least_JJS ,_, i_JJ arose_VBP at_IN 6_CD o_JJ clock_NN to_TO find_VB the_DT sun_NN would_MD like_VB to_TO come_VB out_RP at_IN this_DT time_NN ,_, and_CC as_IN i_NN was_VBD staying_VBG at_IN my_PRP$ dads_NNS ,_, my_PRP$ sisters_NNS curtains_VBZ arent_NN at_IN all_PDT that_DT thick_NN ,_, so_IN i_NN was_VBD kept_VBN awake_RB from_IN that_DT moment_NN on_IN ,_, around_IN 9ish_CD i_NN decided_VBD to_TO drag_VB myself_PRP out_IN of_IN the_DT pit_NN (_( Y_NNP )_) ._. I_PRP took_VBD a_DT lovely_JJ stroll_NN to_TO the_DT shops_NNS with_IN my_PRP$ father_NN to_TO take_VB the_DT only_JJ advantage_NN i_NN could_MD of_IN this_DT weather_NN ,_, cus_NN god_NNS only_RB knows_VBZ what_WP its_PRP$ forecast_NN tomorrow_NN !_. I_PRP 've_VBP decided_VBN to_TO give_VB the_DT kitchen_NN a_DT new_JJ look_NN as_IN i_NN seemed_VBD to_TO drop_VB bolognese_JJ sauce_NN everywhere_RB ,_, i_JJ guess_NN i_NN thought_VBD i_NNS could_MD multi-task_VB whilst_JJ holding_VBG hot_JJ food_NN ,_, turns_VBZ out_RP ..._: i_NN ca_MD n't_RB !_. I_PRP also_RB helped_VBD Jes_NNP with_IN her_PRP$ little_JJ issue_NN on_IN blogger_NN ,_, so_IN i_JJ feel_VBP accoplished_IN that_DT i_NN helped_VBD someone_NN today_NN without_IN even_RB leaving_VBG the_DT house_NN (_( Y_NNP )_) score_NN ._. So_RB yeh_JJ ,_, now_RB im_VBZ sat_NN ,_, writing_VBG out_RP all_PDT the_DT lyrics_NNS to_TO the_DT song_NN that_WDT must_MD be_VB learnt_JJ to_TO take_VB to_TO rehearsals_NNS later_RB on_IN with_IN my_PRP$ mentor_NN ,_, and_CC not_RB having_VBG a_DT printer_NN actually_RB sucks_VBZ ._. And_CC to_TO top_VB it_PRP all_DT off_RB ,_, my_PRP$ college_NN prospectus_NN '_POS have_VBP arrived_VBN now_RB i_VBP need_VBP to_TO actually_RB choose_VB which_WDT one_NN i_NN wana_VBP go_VB to_TO ._. I_PRP have_VBP no_DT idea_NN ._. Tbqh_NNP ,_, im_NN happy_JJ not_RB being_VBG at_IN college_NN oh_RB well_RB :_: (_( pub_VB tonight_NN ?_. much_JJ deserved_VBD i_JJ say_VBP ;_: D_NNP</t>
-  </si>
-  <si>
-    <t>Mahesh_NNP is_VBZ a_DT very_RB nice_JJ guy_NN and_CC he_PRP is_VBZ very_RB sincere_RB not_RB only_RB to_TO his_PRP$ work_NN but_CC to_TO everyone.He_VB will_MD do_VB anything_NN for_IN u_JJ if_IN ur_JJ his_PRP$ frnd_NN ._. He_PRP is_VBZ a_DT gem_NN of_IN a_DT person_NN i_JJ m_VBP very_RB happy_JJ to_TO hv_VB him_PRP as_IN ma_NN frnd_NN ._. He_PRP gives_VBZ u_JJ confidence_NN and_CC never_RB lets_VBZ u_JJ down_RB ._. He_PRP is_VBZ very_RB sensitive_JJ so_RB be_VB careful_JJ while_IN talking_VBG to_TO him_PRP because_IN i_NN dont_VBP want_VBP anyone_NN to_TO hurt_VB him_PRP as_IN he_PRP thinks_VBZ abt_JJ others_NNS ._. ``_`` Mahesh_NNP fell_VBD pannadha_RB da_NN ''_'' thats_NNS wat_VBP we_PRP say_VBP usually_RB to_TO him_PRP ._. I_PRP tell_VBP u_JJ whoever_NN is_VBZ his_PRP$ frnd_JJ u_JJ r_NN very_RB very_RB lucky_JJ ._.</t>
-  </si>
-  <si>
-    <t>I_PRP realized_VBD that_IN the_DT best_JJS time_NN to_TO start_VB potty_JJ training_NN is_VBZ when_WRB the_DT kid_NN is_VBZ around_IN 5_CD months_NNS old_JJ ._. When_WRB the_DT head_NN does_VBZ n't_RB need_VB support_NN and_CC the_DT neck_NN is_VBZ firm_NN ._. At_IN that_DT age_NN ,_, they_PRP do_VBP n't_RB run_VB around_RB and_CC it_PRP is_VBZ easier_JJR to_TO put_VB them_PRP on_IN the_DT potty_NN ._. You_PRP will_MD be_VB able_JJ to_TO identify_VB when_WRB they_PRP want_VBP to_TO ``_`` go_VB ''_'' so_RB you_PRP start_VBP putting_VBG them_PRP on_IN the_DT small_JJ potty_NN ._. For_IN my_PRP$ son_NN that_DT 's_VBZ what_WP my_PRP$ mom_NN did_VBD -_: that_IN habit_NN continued_VBD and_CC he_PRP kind_NN of_IN started_JJ knowing_VBG that_IN ``_`` If_IN I_PRP am_VBP put_VBN on_IN the_DT potty_NN I_PRP must_MD sort-of_VB push_NN ``_`` ._. Now_RB my_PRP$ son_NN is_VBZ a_DT year_NN old_JJ and_CC quite_RB recently_RB I_PRP started_VBD the_DT habit_NN of_IN taking_VBG him_PRP to_TO the_DT bathroom_NN and_CC putting_VBG him_PRP on_IN the_DT regular_JJ potty_NN ._. So_RB now_RB he_PRP knows_VBZ to_TO say_VB ``_`` baa_JJ ''_'' (_( bathroom_NN )_) when_WRB we_PRP wants_VBZ to_TO ``_`` go_VB ''_'' ._. I_PRP see_VBP that_IN some_DT parents_NNS (_( new_JJ of_IN course_NN !_. )_) are_VBP finding_VBG it_PRP difficult_JJ to_TO potty_VB train_NN kids_NNS after_IN they_PRP reach_VBP the_DT walking_NN age_NN ._. Kids_NNP just_RB get_VB used_VBN to_TO the_DT diaper_NN and_CC refuse_NN to_TO sit_VB in_IN one_CD place_NN ._. Of_IN course_NN ,_, this_DT does_VBZ n't_RB come_VB with_IN the_DT side_NN effects_NNS of_IN other_JJ ``_`` settais_NN ''_'' (_( I_PRP think_VBP vaguley_JJ translates_NNS to_TO naughty_VB behavior_NN )_) -These_JJ days_NNS he_PRP loves_VBZ to_TO go_VB to_TO the_DT bathroom_NN and_CC play_NN with_IN the_DT water_NN ._. So_IN he_PRP will_MD make_VB that_IN ``_`` I_PRP have_VBP to_TO go_VB ''_'' face_NN ._. I_PRP tried_VBD putting_VBG him_PRP on_IN the_DT smaller_JJR potty_JJ -_: he_PRP sat_VBD there_EX for_IN 2_CD seconds_NNS and_CC started_VBD pointing_VBG to_TO the_DT door_NN and_CC he_PRP says_VBZ ``_`` baa_JJ ''_'' ._. I_PRP took_VBD him_PRP to_TO the_DT bathroom_NN and_CC he_PRP immediately_RB ran_VBD to_TO the_DT bucket_NN to_TO play_VB with_IN the_DT water_NN !_. So_RB I_PRP am_VBP as_RB usual_JJ running_VBG behind_IN him_PRP !_.</t>
-  </si>
-  <si>
-    <t>http_NN :_: //www.edutopia.org/louisville-sel-morning-meetings-video_JJ #_# comment-74554_JJ I_PRP think_VBP this_DT video_NN is_VBZ well_RB worth_JJ your_PRP$ viewing_VBG whether_IN you_PRP are_VBP an_DT educator_NN or_CC parent_NN ._. I_PRP am_VBP going_VBG to_TO implement_VB this_DT into_IN our_PRP$ routine_NN in_IN the_DT morning_NN in_IN hopes_NNS for_IN better_JJR cooperation_NN between_IN my_PRP$ children_NNS ._. Bringing_VBG movement_NN into_IN the_DT routine_NN will_MD help_VB start_VB their_PRP$ busy_JJ day_NN !_. Dear_NNP Blog_NNP ..._: .Forgive_VBP me_PRP for_IN neglecting_VBG you_PRP for_IN I_PRP forgot_VBP my_PRP$ password_NN ._. It_PRP happens_VBZ when_WRB you_PRP get_VBP older_JJR for_IN we_PRP are_VBP only_RB human_JJ you_PRP see_VBP ._. I_PRP will_MD make_VB my_PRP$ promise_NN to_TO you_PRP to_TO update_VB my_PRP$ photos_NNS and_CC write_VB a_DT few_JJ words_NNS ._. Tonight_NNP I_PRP am_VBP afraid_JJ I_PRP 'm_VBP not_RB in_IN the_DT creative_JJ mood_NN for_IN I_PRP 've_VBP blown_VBN my_PRP$ brain_NN cells_NNS on_IN my_PRP$ school_NN exams_NNS ._. See_VB you_PRP soon_RB ._. ``_`` Desert_NNP Rose_NNP ''_'' I_PRP dream_VBP of_IN rain_NN I_PRP dream_VBP of_IN gardens_NNS in_IN the_DT desert_NN sand_NN I_PRP wake_VBP in_IN vain_NN I_PRP dream_VBP of_IN love_NN as_IN time_NN runs_VBZ through_IN my_PRP$ hand_NN I_PRP dream_NN of_IN fire_NN Those_DT dreams_NNS are_VBP tied_VBN to_TO a_DT horse_NN that_WDT will_MD never_RB tire_VB And_CC in_IN the_DT flames_NNS Her_NNP shadows_NNS play_VBP in_IN the_DT shape_NN of_IN a_DT man_NN 's_POS desire_NN This_DT desert_NN rose_VBD Each_DT of_IN her_PRP$ veils_NNS ,_, a_DT secret_JJ promise_NN This_DT desert_NN flower_VBZ No_NNP sweet_NN perfume_RB ever_RB tortured_VBD me_PRP more_JJR than_IN this_DT And_CC as_IN she_PRP turns_VBZ This_DT way_NN she_PRP moves_VBZ in_IN the_DT logic_NN of_IN all_DT my_PRP$ dreams_NNS This_DT fire_NN burns_VBZ I_PRP realize_VBP that_IN nothing_NN 's_POS as_IN it_PRP seems_VBZ I_PRP dream_NN of_IN rain_NN I_PRP dream_VBP of_IN gardens_NNS in_IN the_DT desert_NN sand_NN I_PRP wake_VBP in_IN vain_NN I_PRP dream_VBP of_IN love_NN as_IN time_NN runs_VBZ through_IN my_PRP$ hand_NN I_PRP dream_NN of_IN rain_NN I_PRP lift_VBP my_PRP$ gaze_NN to_TO empty_VB skies_NNS above_IN I_PRP close_VBP my_PRP$ eyes_NNS This_DT rare_JJ perfume_NN is_VBZ the_DT sweet_JJ intoxication_NN of_IN her_PRP$ love_NN I_PRP dream_VBP of_IN rain_NN I_PRP dream_VBP of_IN gardens_NNS in_IN the_DT desert_NN sand_NN I_PRP wake_VBP in_IN vain_NN I_PRP dream_VBP of_IN love_NN as_IN time_NN runs_VBZ through_IN my_PRP$ hand_NN Sweet_NNP desert_NN rose_VBD Each_DT of_IN her_PRP$ veils_NNS ,_, a_DT secret_JJ promise_NN This_DT desert_NN flower_VBZ No_NNP sweet_NN perfume_RB ever_RB tortured_VBD me_PRP more_JJR than_IN this_DT Sweet_NNP desert_NN rose_VBD This_DT memory_NN of_IN Eden_NNP haunts_NNS us_PRP all_PDT This_DT desert_NN flower_NN This_DT rare_JJ perfume_NN ,_, is_VBZ the_DT sweet_JJ intoxication_NN of_IN the_DT fall_NN --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: HE_NNP MEETS_NNP A_NNP BEAUTIFUL_NNP WOMAN_NNP AND_NNP FALLS_NNP IN_NNP LOVE_NNP SHE_NNP HAS_NNP MANY_NNP PROBLEMS_NNP AND_NNP TOILS_NNP IN_NNP LIFE_NNP HE_NNP LOVES_NNP HER_NNP SO_NNP AND_NNP TRIES_NNP TO_NNP MEND_NNP THE_NNP TORN_NNP EDGES_NNP BUT_NNP HE_NNP CAN_NNP NOT_NNP The_DT Law_NNP of_IN Karma_NNP is_VBZ the_DT Law_NNP of_IN Cause_NNP and_CC Effect_NNP ._. This_DT concept_NN comes_VBZ to_TO us_PRP in_IN many_JJ forms_NNS ._. As_IN you_PRP sow_VBP ;_: so_RB shall_MD you_PRP reap_VB ._. What_WP goes_VBZ around_RB comes_VBZ around_RP ._. You_PRP get_VBP what_WP you_PRP give_VBP ._. An_DT eye_NN for_IN an_DT eye_NN ;_: a_DT tooth_NN for_IN a_DT tooth_NN In_IN simple_JJ terms_NNS ,_, when_WRB we_PRP chose_VBD to_TO do_VB or_CC think_VB good_JJ things_NNS ,_, good_JJ things_NNS come_VBP back_RB to_TO us_PRP (_( good_JJ karma_NN )_) ._. When_WRB we_PRP chose_VBD to_TO do_VB or_CC think_VB bad_JJ things_NNS ,_, bad_JJ things_NNS come_VBP back_RB to_TO us_PRP (_( bad_JJ karma_NN )_) ._. Karma_NNP is_VBZ the_DT condition_NN created_VBN by_IN the_DT choice_NN ._. It_PRP ’_VBZ s_JJ important_JJ to_TO remember_VB :_: The_DT choices_NNS we_PRP make_VBP in_IN every_DT moment_NN will_MD determine_VB the_DT kind_NN of_IN opportunities_NNS and_CC experiences_VBZ we_PRP will_MD have_VB in_IN the_DT future_NN ._. If_IN someone_NN treats_VBZ us_PRP badly_RB we_PRP must_MD respond_VB with_IN kindness_NN and_CC understanding_NN (_( turn_VBP the_DT other_JJ cheek_NN ,_, as_IN Jesus_NNP suggested_VBD )_) in_IN order_NN to_TO generate_VB good_JJ karma_NN for_IN the_DT future_NN ._. If_IN we_PRP retaliate_VBP and_CC do_VBP something_NN unkind_VB in_IN return_NN ,_, the_DT cycle_NN of_IN negative_JJ karma_NN will_MD continue_VB and_CC even_RB escalate_VB ._. “_VB An_DT eye_NN for_IN an_DT eye_NN makes_VBZ the_DT whole_JJ world_NN blind_NN ”_NN ,_, as_IN Gandhi_NNP said_VBD ._. --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: -_: A_DT tingling_NN in_IN the_DT air_NN What_WP is_VBZ this_DT feeling_NN ?_. Static_JJ electricity_NN all_DT about_IN me_PRP It_PRP has_VBZ a_DT fresh_JJ air_NN smell_NN to_TO it_PRP Ah_NNP ..._: I_PRP believe_VBP I_PRP read_VBP about_IN this_DT This_DT thing_NN called_VBD Karma_NNP I_PRP am_VBP not_RB concentrating_VBG on_IN anyone_NN noticing_NN ,_, but_CC me_PRP ..._: Other_JJ 's_POS and_CC they_PRP know_VBP who_WP they_PRP are_VBP will_MD soon_RB see_VB if_IN not_RB already_RB Truth_NNP is_VBZ in_IN the_DT eye_NN of_IN the_DT beholder_NN Actions_NNP speek_NN louder_NN than_IN words_NNS All_PDT these_DT phrases_NNS written_VBN by_IN people_NNS whom_WP personally_RB experience_VBP them_PRP I_PRP wonder_VBP what_WP I_PRP will_MD write_VB ?_. I_PRP 'll_MD stick_VB to_TO Karma_NNP comes_VBZ a_DT callin_NN '_POS Right_NNP now_RB ,_, I_PRP look_VBP upon_IN my_PRP$ sleeping_VBG babes_NNS with_IN a_DT smile_NN on_IN my_PRP$ face_NN They_PRP are_VBP beautiful_JJ A_NNP huge_JJ slice_NN of_IN my_PRP$ soul_NN There_EX is_VBZ it_PRP again_RB this_DT tingling_VBG feeling_VBG the_DT smell_NN of_IN peacefulness_NN The_DT knowledge_NN of_IN knowing_VBG my_PRP$ truths_NNS and_CC convictions_NNS I_PRP know_VBP what_WP is_VBZ important_JJ Keep_NNP my_PRP$ course_NN Everything_NN that_WDT goes_VBZ around_RB comes_VBZ around_IN Those_DT that_WDT choose_VBP to_TO do_VB good_JJ to_TO better_RBR themselves_PRP for_IN others_NNS to_TO remove_VB oneself_PRP from_IN negative_JJ surroundings_NNS Well_RB ,_, they_PRP will_MD find_VB peace_NN and_CC happiness_NN Those_DT that_WDT fail_VBP to_TO recognize_VB their_PRP$ weaknesses_NNS their_PRP$ mistakes_NNS ,_, Well_NNP ,_, the_DT cycle_NN is_VBZ a_DT vicious_JJ one_CD Namaste_NN ,_, Jen_NNP http_NN :_: //www.nameyourdreamassignment.com/the-ideas/Sadandbeautiful/for-our-daughters/_JJ Please_NNP copy_NN and_CC paste_NN this_DT link_NN to_TO your_PRP$ browser_NN ..._: log_NN in_IN and_CC vote_NN for_IN this_DT wonderful_JJ photographer_NN ._. She_PRP chose_VBD an_DT amazing_JJ topic_NN of_IN much_JJ importance_NN ._. Thank_NNP you_PRP !_. Peace_NN ,_, Jen_NNP Works_NNP and_CC creations_NNS by_IN Irma_NNP Seabury_NNP ,_, Wilmington_NNP ,_, DE_NNP ._. Poet_NNP and_CC Artist_NNP of_IN Oil/Acrylic/Charcoal_NNP ._. She_PRP combines_VBZ fine_JJ objects_NNS and_CC uses_VBZ her_PRP$ creativity_NN to_TO an_DT unusual_JJ estetic_JJ form_NN that_WDT is_VBZ related_VBN to_TO her_PRP$ life_NN experience_NN ._. Location_NN :_: Made_VBN By_IN Hand_NNP Gallery_NNP 112_CD South_NNP Street_NNP Philadelphia_NNP ,_, PA_NNP Society_NNP Hill_NNP ,_, 100_CD Block_NNP of_IN South_NNP Street_NNP Date/Time_NNP :_: May_NNP 8_CD ,_, 2009_CD 7-9_JJ PM_NNP Poetry_NNP ,_, Live_NNP Music_NNP and_CC Art_NNP He_PRP is_VBZ a_DT mirror_NN you_PRP see_VBP in_IN the_DT fun_NN house_NN or_CC the_DT museum_NN the_DT one_CD you_PRP stand_VBP in_IN front_NN of_IN and_CC see_VB more_JJR than_IN one_CD image_NN the_DT first_JJ image_NN you_PRP see_VBP is_VBZ beautiful_JJ stand_NN there_EX for_IN awhile_NN and_CC you_PRP see_VBP another_DT distorted_JJ picture_NN How_WRB can_MD such_VB a_DT kindhearted_JJ person_NN deceive_NN you_PRP ?_. What_WP has_VBZ he_PRP suffered_VBD to_TO make_VB this_DT monster_NN appear_VB before_IN you_PRP ?_. How_WRB can_MD you_PRP know_VB ?_. He_PRP hides_VBZ behind_IN his_PRP$ ghosts_NNS every_DT second_NN of_IN his_PRP$ existence_NN After_IN some_DT prodding_VBG it_PRP becomes_VBZ more_RBR c_JJ l_NN e_VBZ a_DT r_NN pressure_NN to_TO be_VB someone_NN you_PRP are_VBP not_RB on_IN the_DT inside_NN moving_VBG from_IN place_NN to_TO place_VB when_WRB you_PRP need_VBP solid_JJ ground_NN to_TO grow_VB out_RP at_IN sea_NN for_IN months_NNS on_IN end_NN was_VBD that_IN man_NN on_IN the_DT gurney_NN screaming_VBG out_RP in_IN pain_NN going_VBG to_TO be_VB okay_VBN ?_. how_WRB did_VBD that_DT happen_VB ?_. go_VB child_NN this_DT is_VBZ not_RB your_PRP$ place_NN to_TO be_VB find_VB a_DT hiding_JJ place_NN escaping_VBG to_TO my_PRP$ canvas_NN ..._: subject_JJ ANYTHING_NN ;_: a_DT bird_NN landed_VBN on_IN the_DT deck_NN what_WP is_VBZ in_IN its_PRP$ '_POS mouth_NN ?_. is_VBZ that_IN a_DT fish_NN ?_. Immersed_VBN into_IN a_DT place_NN of_IN your_PRP$ birth_NN at_IN a_DT time_NN of_IN instability_NN and_CC confusion_NN How_NNP old_JJ am_VBP I_PRP today_NN ?_. Traveling_VBG on_IN a_DT bus_NN full_JJ of_IN dreams_NNS Where_NNP is_VBZ my_PRP$ pencil_NN and_CC paper_NN ?_. Why_WRB did_VBD we_PRP stop_VB ?_. ?_. ?_. ?_. Who_WP are_VBP these_DT angry_JJ men_NNS in_IN uniforms_JJ Let_VB me_PRP go_VB I_PRP do_VBP not_RB belong_VB among_IN you_PRP ..._: I_PRP am_VBP not_RB of_IN the_DT age_NN ..._: see_VB my_PRP$ papers_NNS Falling_VBG in_IN daldrums_NNS of_IN chaos_NN and_CC forced_VBD to_TO fight_VB in_IN a_DT conflict_NN that_WDT I_PRP do_VBP not_RB fully_RB understand_VB ._. Months_NNS of_IN war_NN and_CC death_NN ,_, images_NNS like_IN slow_JJ clicks_NNS of_IN a_DT camera_NN ._. Images_VBZ I_PRP wish_VBP can_MD be_VB erased_VBN from_IN my_PRP$ mind_NN Is_VBZ this_DT man_NN I_PRP am_VBP sleeping_VBG next_JJ to_TO breathing_VB ?_. Are_NNP you_PRP alive_VBP ..._: ..._: ..._: close_JJ my_PRP$ eyes_NNS I_PRP am_VBP not_RB here_RB ..._: .._PRP Woke_VBD up_RP in_IN a_DT military_JJ hospital_NN with_IN a_DT bullet_NN in_IN my_PRP$ leg_NN I_PRP have_VBP to_TO go_VB back_RB ..._: ..what_WP do_VBP you_PRP mean_VB I_PRP have_VBP satisfied_VBN my_PRP$ duty_NN ?_. Returning_VBG to_TO the_DT states_NNS ._. America_NNP ..._: ..the_NN land_NN where_WRB they_PRP take_VBP everyting_VBG for_IN granted_VBN ._. Do_VBP they_PRP even_RB know_VBP what_WP is_VBZ going_VBG on_IN just_RB south_VBN of_IN them_PRP ?_. Fighting_VBG back_RB my_PRP$ ghosts_NNS everyday_VBP ..._: .I_JJ find_VB my_PRP$ true_JJ love_NN only_RB to_TO be_VB deceived_VBN ..._: ._. I_PRP 've_VBP given_VBN you_PRP everything_NN ..._: ._. Who_WP is_VBZ this_DT man_NN ?_. What_WP about_IN our_PRP$ child_NN ?_. A_DT burning_VBG passion_NN deep_JJ inside_IN ._. I_PRP have_VBP to_TO exalt_VB the_DT pain_NN ,_, the_DT memories_NNS Where_NNP is_VBZ my_PRP$ brush_NN ?_. Where_WRB is_VBZ my_PRP$ bottle_NN ?_. e_JJ m_NN p_NN t_NN y_RB Test_NNP it_PRP anyway_RB ..._: .got_VBD a_DT taste_NN When_WRB did_VBD I_PRP drink_VB that_IN ?_. Days_NNPS merge_VB into_IN weeks_NNS ..._: Weeks_NNP merge_VB into_IN months_NNS My_NNP trials_NNS of_IN normality_NN ,_, responsibility_NN ,_, PuRpOsE_NNP Failing_VBG with_IN each_DT tilt_NN of_IN the_DT head_NN ..._: .burning_VBG in_IN my_PRP$ throat_NN and_CC belly_RB Ca_NNP n't_RB drive_VBD anymore_RB Ca_NNP n't_RB pay_VB my_PRP$ bills_NNS Who_NNP was_VBD that_IN girl_NN ?_. Surrounding_VBG myself_PRP with_IN soul_NN sappers_NNS People_VBP like_IN me_PRP ..._: ._. looking_VBG for_IN purpose_NN and_CC not_RB finding_VBG it_PRP Drowning_VBG in_IN sadness_NN Spinning_VBG in_IN this_DT vicious_JJ circle_NN ..._: round_NN round_NN round_NN He_PRP needs_VBZ to_TO get_VB out_IN of_IN here_RB Ca_NNP n't_RB you_PRP hear_VB him_PRP ?_. H_NNP E_NNP L_NNP P_NNP To_TO be_VB continued_VBN ..._: .._NN</t>
-  </si>
-  <si>
-    <t>Got_NNP an_DT email_NN yesterday_NN from_IN a_DT friend_NN ,_, with_IN a_DT link_NN to_TO an_DT article_NN about_IN recent_JJ changes_NNS over_IN at_IN Google_NNP ._. Seems_VBZ the_DT search_NN giant_NN has_VBZ yet_RB again_RB tweaked_VBD its_PRP$ search_NN functionality_NN ._. Such_JJ news_NN always_RB alarms_VBZ me_PRP ,_, as_IN I_PRP teach_VBP Internet_JJ search_NN and_CC this_DT usually_RB means_VBZ extra_JJ work_NN ._. This_DT time_NN ,_, though_RB ,_, the_DT change_NN is_VBZ a_DT small_JJ one_NN ._. According_VBG to_TO CBC_NNP News_NNP ,_, Google_NNP is_VBZ combining_VBG its_PRP$ multiple_JJ search_NN offerings_NNS (_( web_NN ,_, images_NNS ,_, blogs_NNS ,_, etc_FW ._. )_) into_IN a_DT single_JJ ``_`` universal_JJ search_NN ''_'' ._. The_DT change_NN is_VBZ only_RB evident_JJ at_IN Google.com_NNP (_( not_RB the_DT various_JJ international_JJ flavours_NNS of_IN Google_NNP )_) and_CC pretty_JJ superficial_JJ ,_, from_IN the_DT user_NN 's_POS perspective_JJ anyway_RB ._. A_NNP few_JJ sample_NN images_NNS and_CC news_NN search_NN results_NNS —_VBP if_IN there_EX are_VBP any_DT —_NNS have_VBP been_VBN rolled_VBN into_IN the_DT web_JJ search_NN results_NNS list_NN ._. Google_NNP also_RB now_RB offers_VBZ the_DT ability_NN to_TO narrow_VB by_IN related_JJ search_NN ._. The_DT various_JJ search_NN types_NNS (_( which_WDT were_VBD displayed_VBN immediately_RB above_IN the_DT search_NN field_NN )_) are_VBP now_RB at_IN the_DT top_JJ left_NN of_IN your_PRP$ screen_NN ._. Additional_NNP search_NN types_NNS are_VBP available_JJ through_IN a_DT dropdown_JJ instead_RB of_IN a_DT link_NN to_TO a_DT separate_JJ page_NN and_CC they_PRP are_VBP reduced_VBN in_IN number_NN ._. Compare_NNP for_IN yourself_PRP ._. Here_RB 's_POS Google.com_NNP and_CC here_RB 's_VBZ the_DT Canadian_JJ variant_NN ._. I_PRP ca_MD n't_RB quite_VB see_VB the_DT point_NN of_IN this_DT ._. But_CC oh_RB well_RB ._. It_PRP 's_VBZ not_RB earth-shattering_JJ ._.</t>
-  </si>
-  <si>
-    <t>If_IN anyone_NN was_VBD looking_VBG for_IN a_DT self-righteous_JJ extreme_JJ feminist_NN ,_, they_PRP found_VBD one_CD in_IN Angie_NNP Jackson_NNP ._. This_DT is_VBZ a_DT woman_NN who_WP was_VBD so_RB proud_JJ she_PRP was_VBD aborting_VBG her_PRP$ baby_NN that_IN she_PRP announced_VBD she_PRP would_MD ``_`` tweet_VB ''_'' her_PRP$ chemical-cocktail_JJ abortion_NN live_NN ,_, as_IN it_PRP happened_VBD ,_, on_IN Twitter_NNP ._. The_DT liberal_JJ media_NNS found_VBD this_DT made-for-TV_JJ slaughter_NN fascinating_NN ,_, and_CC not_RB at_IN all_PDT a_DT controversy_NN worthy_NN of_IN discussing_VBG with_IN two_CD sides_NNS ._. Newsweek_NNP ’_NNP s_VBD Sarah_NNP Kliff_NNP proclaimed_VBD :_: ``_`` One_CD hundred_CD thousand_NN people_NNS have_VBP watched_VBN Angie_NNP Jackson_NNP 's_POS abortion_NN ._. Late_JJ last_JJ month_NN ,_, Jackson_NNP posted_VBD a_DT video_NN of_IN herself_NN to_TO YouTube_NNP ,_, recorded_VBD after_IN she_PRP took_VBD RU-486_NNP ,_, a_DT medication_NN used_VBN to_TO end_VB pregnancies_NNS ._. ''_'' Kliff_NNP asked_VBD only_RB ``_`` why_WRB shame_NN remains_VBZ ''_'' about_IN the_DT act_NN of_IN killing_VBG one_CD ’_NN s_NN baby_NN ._. Jackson_NNP was_VBD honored_VBN for_IN her_PRP$ courage_NN in_IN ``_`` demystifying_NN ''_'' and_CC ``_`` destigmatizing_NN ''_'' the_DT procedure_NN :_: ``_`` We_PRP need_VBP 10,000_CD more_JJR of_IN her_PRP ,_, ''_'' proclaimed_VBD Peg_NNP Johnston_NNP ,_, chair_NN of_IN something_NN called_VBN the_DT Abortion_NNP Care_NNP Network_NNP ._. This_DT desire_NN for_IN 10,000_CD more_JJR unashamed_JJ abortions_NNS is_VBZ what_WP ``_`` pro-choice_JJ ''_'' is_VBZ all_DT about_IN ._. Overall_JJ ,_, this_DT was_VBD just_RB another_DT classic_JJ tale_NN from_IN the_DT ``_`` news_NN ''_'' magazine_NN that_WDT lamented_VBD 20_CD years_NNS ago_RB that_IN ``_`` Sadly_RB ,_, many_JJ home_NN [_NNP abortion_NN ]_NNP remedies_NNS could_MD damage_VB a_DT fetus_NN instead_RB of_IN kill_NN it_PRP ._. ''_'' What_WP about_IN the_DT pro-life_JJ side_NN ?_. Read_VBN more_RBR :_: http_NN :_: //newsbusters.org/blogs/brent-bozell/2010/03/10/bozell-column-shameless-abortion-carnival_JJ #_# ixzz0iPK9N1ID_NN</t>
-  </si>
-  <si>
-    <t>W_NNP elcome_NN to_TO the_DT February_NNP 28_CD ,_, 2010_CD edition_NN of_IN Easy_NNP Street_NNP Carnival_NNP of_IN Writing_NNP and_CC Art_NNP ._. There_EX was_VBD an_DT electronic_JJ mountain_NN of_IN submissions_NNS this_DT month_NN ._. Sadly_RB ,_, most_JJS of_IN them_PRP had_VBD little_JJ to_TO do_VB with_IN original_JJ writing_NN and_CC art_NN ._. What_WP kept_VBD me_PRP going_VBG were_VBD the_DT lovely_JJ submissions_NNS that_WDT did_VBD follow_VB the_DT guidelines_NNS and_CC here_RB they_PRP are_VBP ._. Do_NNP stop_VB by_IN their_PRP$ blogs_NNS to_TO offer_VB congratulations_NNS and_CC encouragement_NN ._. Creative_JJ Nonfiction_NNP Sarah_NNP Clark_NNP presents_VBZ Sarah_NNP ..._: Phenomenally_RB :_: Divorce_NN and_CC Metamorphosis_NNP posted_VBD at_IN Sarah_NNP ..._: Phenomenally_RB ._. Yvaine_JJ presents_NNS Too_RB Much_RB Snow_NNP posted_VBD at_IN My_NNP Vanilla_NNP Nook_NNP ,_, saying_VBG ,_, ``_`` Snow_NNP is_VBZ good_JJ ,_, but_CC you_PRP can_MD only_RB take_VB so_RB much_JJ ._. ''_'' Fiction_NNP MaxwellDB_NNP presents_NNS Lake_NNP Ontario_NNP posted_VBD at_IN MaxwellDB_NNP ,_, saying_VBG ,_, ``_`` Lake_NNP Ontario_NNP is_VBZ a_DT short_JJ science_NN fiction_NN story_NN ._. It_PRP 's_VBZ an_DT objectively-written_JJ piece_NN about_IN a_DT man_NN alone_RB on_IN Titan_NNP ,_, one_CD of_IN Saturn_NNP 's_POS moon_NN ._. He_PRP is_VBZ a_DT cog_NN in_IN an_DT automated_JJ research_NN machine_NN --_: something_NN that_WDT causes_VBZ him_PRP great_JJ difficulty_NN ._. ''_'' Tessa_NN presents_NNS my_PRP$ roommate_NN «_NNP kajoemanis_NN posted_VBD at_IN kajoemanis_NN ._. drukdude_NN presents_VBZ The_DT Fellowship_NNP of_IN the_DT Null-pointer_NNP |_NNP Story_NNP Collection_NNP posted_VBD at_IN Story_NNP Collection_NNP ,_, saying_VBG ,_, ``_`` Spontaneous_JJ Short_NNP Stories_NNS by_IN strangers_NNS gathered_VBN on_IN the_DT train_NN !_. ''_'' Genre_NNP Bender_NNP Livia_NNP Blackburne_NNP presents_VBZ A_DT 100_CD %_NN Absolutely_RB and_CC Completely_RB Realisitic_JJ Neuroscience_NNP Love_NNP Scene_NNP (_( Love_NNP At_IN First_NNP Sight_NNP Blogfest_NNP )_) posted_VBD at_IN Livia_NNP Blackburne_NNP ._. Poetry_NNP Madeleine_NNP Begun_NNP Kane_NNP presents_NNS Super_NNP Bowl_NNP Sunday_NNP Blues_NNP posted_VBD at_IN Mad_NNP Kane_NNP 's_POS Humor_NNP Blog_NNP ._. ThoughtsBlogger_NN presents_VBZ Life_NNP 's_POS Defiants_NNS posted_VBD at_IN Random_NNP Thoughts_NNP ,_, saying_VBG ,_, ``_`` A_DT poem_NN about_IN the_DT things_NNS that_WDT keep_VBP us_PRP going_VBG in_IN the_DT fight_NN that_WDT is_VBZ life_NN ._. ''_'' Robert_NNP Terrell_NNP presents_VBZ galactic_JJ dreamers_NNS ?_. haiku_NN posted_VBD at_IN the_DT existential_JJ poet_NN ,_, saying_VBG ,_, ``_`` The_DT Existential_NNP Poet_NNP Blog_NNP contains_VBZ my_PRP$ original_JJ haiku_JJ poetry_NN ._. I_PRP maintain_VBP a_DT strict_JJ form_NN ,_, the_DT 5-7-5_JJ syllable_JJ structure_NN ,_, which_WDT suits_NNS my_PRP$ poetic_JJ creativity_NN very_RB well_RB ._. I_PRP write_VBP about_IN all_DT sorts_NNS of_IN subjects_NNS ,_, with_IN an_DT existential_JJ (_( human_JJ feelings_NNS )_) attitude_VBP ._. Many_NNP of_IN my_PRP$ haiku_NN have_VBP seasonal_JJ references_NNS ,_, and_CC many_JJ focus_NN on_IN inner_JJ states_NNS of_IN being_VBG ._. And_CC ,_, I_PRP love_VBP moon_RB haiku_NN !_. ''_'' That_WDT concludes_VBZ this_DT edition_NN ._. Submit_VB your_PRP$ blog_NN article_NN to_TO the_DT next_JJ edition_NN of_IN Easy_NNP Street_NNP Carnival_NNP of_IN Writing_NNP and_CC Art_NNP using_VBG our_PRP$ carnival_NN submission_NN form_NN ._. Past_JJ posts_NNS and_CC future_JJ hosts_NNS can_MD be_VB found_VBN on_IN our_PRP$ blog_NN carnival_NN index_NN page_NN ._. surname_NN ._. eulogy_NN ._. overproductive_JJ sympathy_NN ._. coerce_NN ._. bucktoothed_VBN crackerjack_NN ._. dismiss_NN ._. designer_NN prejudice_NN ._. navigate_NN ._. vaporize_NN ._. lightheaded_VBN ._. fraction_NN ._. sanctimonious_JJ strategist_NN Be_NNP famous_JJ ._. Submit_NN to_TO the_DT Easy_NNP Street_NNP Carnival_NNP of_IN Writing_NNP and_CC Art_NNP ._. Submission_NNP Guidelines_NNPS Be_NNP famous_JJ ._. Submit_NN to_TO the_DT Easy_NNP Street_NNP Carnival_NNP of_IN Writing_NNP and_CC Art_NNP ._. Submission_NNP Guidelines_NNPS Be_NNP famous_JJ ._. Submit_NN to_TO the_DT Easy_NNP Street_NNP Carnival_NNP of_IN Writing_NNP and_CC Art_NNP ._. Submission_NNP Guidelines_NNPS Be_NNP famous_JJ ._. Submit_NN to_TO the_DT Easy_NNP Street_NNP Carnival_NNP of_IN Writing_NNP and_CC Art_NNP ._. Submission_NNP Guidelines_NNP</t>
-  </si>
-  <si>
-    <t>This_DT is_VBZ a_DT longer_JJR version_NN of_IN a_DT story_NN that_WDT will_MD appear_VB in_IN the_DT Sunday_NNP Calendar_NNP section_NN of_IN the_DT Los_NNP Angeles_NNP Times_NNP and_CC also_RB on_IN the_DT cover_NN of_IN Brand_NNP X._NNP Bryan_NNP Singer_NNP and_CC Lauren_NNP Shuler_NNP Donner_NNP Through_IN the_DT years_NNS ,_, comic-book_JJ films_NNS took_VBD audiences_NNS to_TO all_PDT the_DT predictable_JJ places_NNS ,_, including_VBG the_DT grim_JJ streets_NNS of_IN Gotham_NNP City_NNP and_CC the_DT doomed_JJ spires_NNS of_IN planet_NN Krypton_NNP ,_, but_CC ,_, a_DT decade_NN ago_RB ,_, a_DT new_JJ type_NN of_IN comic-book_NN film_NN had_VBD the_DT audacity_NN to_TO set_VB its_PRP$ opening_VBG sequence_NN in_IN a_DT truly_RB unexpected_JJ place_NN --_: the_DT gates_NNS of_IN Auschwitz_NNP ,_, where_WRB Jewish_JJ families_NNS were_VBD bring_VBG marched_VBN through_IN mud_NN on_IN their_PRP$ way_NN to_TO death_NN and_CC despair_NN ._. From_IN those_DT first_JJ moments_NNS ,_, ``_`` X-Men_JJ ''_'' set_VBN itself_PRP apart_RB from_IN the_DT entire_JJ Hollywood_NNP history_NN of_IN comic-book_NN adaptations_NNS and_CC marked_VBD the_DT beginning_NN of_IN this_DT current_JJ era_NN of_IN fanboy_NN cinema_NN ,_, which_WDT has_VBZ dominated_VBN the_DT box_NN office_NN and_CC elevated_VBD San_NNP Diego_NNP 's_POS Comic-Con_JJ International_NNP into_IN something_NN resembling_VBG a_DT Cannes_NNP for_IN capes_NNS ._. ``_`` The_DT opening_NN ,_, it_PRP really_RB was_VBD a_DT declaration_NN of_IN intent_NN ,_, ''_'' producer_NN Lauren_NNP Shuler_NNP Donner_NNP said_VBD of_IN that_DT sequence_NN ,_, which_WDT showed_VBD a_DT terrified_JJ young_JJ boy_NN exhibiting_VBG mutant_JJ powers_NNS as_IN his_PRP$ family_NN was_VBD separated_VBN by_IN German_JJ guards_NNS ._. ``_`` It_PRP said_VBD to_TO the_DT audience_NN this_DT is_VBZ a_DT serious_JJ film_NN ,_, grounded_VBN in_IN the_DT realistic_JJ and_CC the_DT historic_JJ and_CC somewhat_RB dark_JJ ._. It_PRP was_VBD so_RB smart_JJ ._. And_CC it_PRP was_VBD all_DT totally_RB Bryan_NNP ._. ''_'' That_WDT would_MD be_VB Bryan_NNP Singer_NNP ,_, the_DT director_NN of_IN ``_`` X-Men_JJ ''_'' and_CC its_PRP$ first_JJ sequel_NN ,_, who_WP was_VBD sitting_VBG next_JJ to_TO Shuler_NNP Donner_NNP in_IN her_PRP$ office_NN on_IN a_DT recent_JJ afternoon_NN ._. The_DT pair_NN both_DT had_VBD big_JJ smiles_NNS on_IN their_PRP$ faces_VBZ --_: they_PRP had_VBD been_VBN reunited_VBN by_IN an_DT invitation_NN to_TO reminisce_VB about_IN the_DT legacy_NN of_IN the_DT July_NNP 2000_CD release_NN ,_, which_WDT they_PRP were_VBD happy_JJ to_TO do_VB ,_, but_CC the_DT conversation_NN kept_VBD veering_VBG into_IN giddy_JJ plans_NNS for_IN the_DT future_NN ._. Singer_NNP is_VBZ returning_VBG to_TO the_DT ``_`` X-Men_JJ ''_'' universe_NN ,_, it_PRP 's_VBZ clear_JJ now_RB ,_, for_IN a_DT project_NN called_VBN ``_`` X-Men_NN :_: First_JJ Class_NN ''_'' ;_: it_PRP 's_VBZ all_DT just_RB a_DT matter_NN of_IN timing_NN ._.</t>
-  </si>
-  <si>
-    <t>As_IN we_PRP entered_VBD Farmerbrown_NNP ,_, the_DT place_NN was_VBD packed_VBN so_IN we_PRP had_VBD to_TO wait_VB to_TO be_VB seated_VBN ._. I_PRP scanned_VBD the_DT place_NN and_CC I_PRP could_MD tell_VB that_IN the_DT dimly_NN lit_VBD restaurant_NN was_VBD cozy_JJ enough_RB ._. It_PRP has_VBZ a_DT charm_NN that_IN I_PRP couldn_VBP ’_JJ t_NN describe_NN much_RB in_IN words_NNS ._. Jazz_NNP music_NN filled_VBD the_DT air_NN that_WDT balanced_VBD the_DT chatter_NN ,_, which_WDT could_MD be_VB heard_VBN by_IN the_DT bar_NN where_WRB friends_NNS and_CC strangers_NNS meet_VBP up_RP ._. Near_IN the_DT tall_JJ glass_NN window_NN ,_, families_NNS were_VBD having_VBG a_DT reunion_NN of_IN sort_NN ._. In_IN the_DT middle_NN and_CC at_IN the_DT other_JJ side_NN of_IN the_DT restaurant_NN ,_, the_DT ambiance_NN was_VBD a_DT bit_NN subdued_VBN ,_, where_WRB couples_NNS and_CC small_JJ groups_NNS were_VBD enjoying_VBG their_PRP$ dinner_NN quietly_RB ._.</t>
-  </si>
-  <si>
-    <t>I_PRP 'm_VBP not_RB saying_VBG that_IN America_NNP is_VBZ this_DT terrible_JJ disgusting_JJ country_NN ._. Well_NNP I_PRP 'm_VBP not_RB completely_RB saying_VBG that_DT ._. What_WP I_PRP am_VBP commenting_VBG on_IN is_VBZ the_DT the_DT patriotism_NN of_IN American_NNP 's_POS that_WDT seem_VBP to_TO always_RB offend_VB other_JJ countries_NNS when_WRB speaking_NN of_IN how_WRB great_JJ America_NNP is_VBZ ._. You_PRP do_VBP n't_RB see_VB African_NNP 's_POS saying_VBG look_NN at_IN those_DT Indonesians_NNPS starving_JJ bastards_NNS !_. No_RB because_IN it_PRP 's_VBZ almost_RB like_IN the_DT pot_NN calling_VBG the_DT kettle_NN black_JJ ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ Aunt_NNP Mary_NNP Jo_NNP passed_VBD away_RB earlier_RBR this_DT afternoon_NN ._. She_PRP has_VBZ been_VBN battling_VBG MS_NNP for_IN many_JJ years_NNS now_RB and_CC has_VBZ been_VBN in_IN a_DT nursing_NN home_NN for_IN a_DT while_NN ._. She_PRP choked_VBD on_IN some_DT food_NN Monday_NNP and_CC lost_VBN consciousness_NN ._. They_PRP did_VBD CPR_NNP on_IN her_PRP$ and_CC rushed_VBD her_PRP to_TO the_DT hospital_NN ._. She_PRP has_VBZ been_VBN in_IN ICU_NNP ever_RB since_IN ._. They_PRP decided_VBD to_TO take_VB her_PRP off_RP the_DT ventilator_NN today_NN and_CC she_PRP passed_VBD within_IN an_DT hour_NN ._. I_PRP know_VBP she_PRP is_VBZ in_IN a_DT better_JJR ,_, happier_JJR place_NN now_RB ,_, but_CC it_PRP just_RB saddens_VBZ me_PRP ._. I_PRP feel_VBP for_IN my_PRP$ cousins_NNS ,_, her_PRP$ sons_NNS ,_, and_CC her_PRP$ grandchildren_NN and_CC her_PRP$ husband_NN ,_, Uncle_NNP Jerry_NNP ._. May_NNP God_NNP watch_NN over_IN them_PRP and_CC give_VB them_PRP peace_NN during_IN this_DT time_NN ._. I_PRP will_MD always_RB remember_VB Aunt_NNP Mary_NNP Jo_NNP as_IN a_DT young_JJ woman_NN who_WP would_MD give_VB me_PRP her_PRP$ clothes_NNS ,_, and_CC give_VB me_PRP special_JJ things_NNS for_IN my_PRP$ birthday_NN and_CC Christmas_NNP ._. When_WRB I_PRP was_VBD growing_VBG up_RP ,_, we_PRP would_MD spend_VB most_RBS holidays_NNS with_IN her_PRP$ and_CC my_PRP$ cousins_NNS ._. She_PRP had_VBD always_RB been_VBN a_DT frail_JJ person_NN ,_, but_CC she_PRP was_VBD so_RB bright_JJ in_IN my_PRP$ eyes_NNS !_. I_PRP will_MD miss_VB her_PRP$ even_RB though_IN I_PRP have_VBP n't_RB seen_VBN her_PRP$ in_IN years_NNS ._. I_PRP miss_VBP you_PRP and_CC love_VB you_PRP much_JJ Aunt_NNP Mary_NNP Jo_NNP ._. RIP_NNP ._.</t>
-  </si>
-  <si>
-    <t>Three_CD years_NNS ago_RB ,_, Steve_NNP Skvara_NNP won_VBD the_DT admiration_NN of_IN many_JJ in_IN the_DT mainstream_JJ media_NNS by_IN basically_RB calling_VBG for_IN taxpayers_NNS to_TO foot_VB his_PRP$ wife_NN ’_NNP s_VBZ health_NN insurance_NN ._. Now_RB he_PRP 's_VBZ ba-a-ack_NN !_. No_RB longer_RB hailed_VBN by_IN Chris_NNP Matthews_NNP or_CC People_NNP 's_POS Weekly_JJ World_NNP ,_, he_PRP still_RB manages_VBZ favorable_JJ ,_, unquestioning_JJ coverage_NN ._. Today_NN 's_POS nwi.com_JJ Web_NNP site_NN ,_, which_WDT bills_NNS itself_PRP as_IN ``_`` the_DT largest_JJS and_CC most_RBS trusted_JJ media_NNS company_NN in_IN northern_JJ Indiana_NNP ,_, ''_'' carries_VBZ the_DT article_NN ``_`` Health_NNP care_NN spark_NN gets_VBZ a_DT checkup_NN ._. ''_'' Written_VBN by_IN editorial_JJ page_NN editor_NN Doug_NNP Ross_NNP ,_, the_DT piece_NN starts_VBZ :_: In_IN December_NNP ,_, Steve_NNP Skvara_NNP of_IN Union_NNP Township_NNP was_VBD hospitalized_VBN at_IN Northwestern_NNP Memorial_NNP Hospital_NNP for_IN 28_CD hours_NNS in_IN hopes_NNS of_IN a_DT clean_JJ bill_NN of_IN health_NN ._. He_PRP emerged_VBD with_IN a_DT bill_NN for_IN $_$ 96,000_CD ._. It_PRP was_VBD pleasant_JJ ,_, he_PRP said_VBD ,_, to_TO have_VB a_DT waiter_NN in_IN a_DT tux_NN deliver_VB his_PRP$ meal_NN ,_, but_CC was_VBD that_IN really_RB necessary_JJ ?_. His_PRP$ experience_NN is_VBZ relevant_JJ because_IN it_PRP was_VBD Skvara_NNP who_WP lighted_VBD the_DT fuse_NN on_IN the_DT health_NN care_NN debate_NN in_IN which_WDT the_DT nation_NN is_VBZ now_RB embroiled_VBN ._. It_PRP was_VBD on_IN Aug._NNP 7_CD ,_, 2007_CD ,_, that_DT Skvara_NNP asked_VBD the_DT seven_CD Democratic_JJ presidential_JJ candidates_NNS what_WP they_PRP would_MD do_VB to_TO get_VB health_NN care_NN to_TO ``_`` the_DT woman_NN I_PRP love_VBP ._. ''_'' Skvara_NNP explained_VBD that_IN he_PRP lost_VBD much_RB of_IN his_PRP$ pension_NN when_WRB LTV_NNP collapsed_VBD ,_, and_CC he_PRP was_VBD forced_VBN to_TO sit_VB across_IN from_IN his_PRP$ wife_NN at_IN the_DT kitchen_NN table_NN ,_, knowing_VBG he_PRP could_MD n't_RB afford_VB her_PRP$ health_NN care_NN ._. Read_VBN more_RBR :_: http_NN :_: //newsbusters.org/blogs/mike-bates/2010/03/12/activist-who-lighted-fuse-health-care-debate-still-getting-media-pass_JJ #_# ixzz0iPN9BfJt_NN</t>
-  </si>
-  <si>
-    <t>I_PRP attended_VBD this_DT wedding_NN created_VBN by_IN the_DT beautiful_NN and_CC talented_VBD bride_NN and_CC surrounded_VBN by_IN her_PRP$ very_RB generous_JJ and_CC creative_JJ family_NN ._. Never_RB have_VBP I_PRP seen_VBN a_DT more_RBR beautiful_JJ wedding_NN ,_, let_VB alone_RB attended_JJ one_CD ._. It_PRP was_VBD an_DT honour_NN to_TO be_VB there_RB ._. We_PRP found_VBD ourselves_PRP breathless_NN at_IN the_DT beauty_NN of_IN it_PRP ._. I_PRP spent_VBD the_DT weekend_NN in_IN Mudgee_NNP (_( c_JJ ountry_NN NSW_NNP )_) a_DT land_NN of_IN rolling_VBG green_JJ hills_NNS wearing_VBG uniforms_NNS of_IN vines_NNS and_CC trees_NNS of_IN olives_NNS backed_VBN by_IN rugged_JJ mountains_NNS ._. We_PRP finally_RB stopped_VBD for_IN lunch_NN after_IN getting_VBG lost_VBN in_IN the_DT rain_NN for_IN an_DT hour_NN trying_VBG to_TO find_VB the_DT restaurant_NN (_( which_WDT funnily_RB enough_RB is_VBZ named_VBN Solitary_NNP )_) because_IN we_PRP packed_VBD and_CC took_VBD off_RP without_IN a_DT single_JJ map_NN or_CC address_NN ._. Plain_NNP arrogance_NN I_PRP think_VBP it_PRP was_VBD ._. There_EX we_PRP were_VBD ,_, thinking_VBG we_PRP were_VBD going_VBG to_TO quiet_JJ country_NN towns_NNS and_CC assuming_VBG the_DT places_NNS we_PRP were_VBD headed_VBN should_MD be_VB obvious_JJ because_IN ,_, well_RB ,_, surely_RB there_EX was_VBD little_JJ else_RB around_IN ._. Wrong_NNP on_IN the_DT lunch_NN front_NN and_CC wrong_JJ again_RB when_WRB we_PRP tried_VBD to_TO find_VB the_DT guest_JJS house_NN ._. We_PRP did_VBD our_PRP$ research_NN on_IN the_DT scene_NN of_IN the_DT ceremony_NN though_IN because_IN we_PRP did_VBD n't_RB want_VB to_TO miss_VB a_DT minute_NN -_: when_WRB I_PRP show_VBP you_PRP the_DT wedding_NN ,_, you_PRP 'll_MD understand_VB why_WRB ._. I_PRP have_VBP been_VBN meaning_VBG to_TO tell_VB you_PRP how_WRB flattered_JJ I_PRP was_VBD when_WRB my_PRP$ heavy_NN headed_VBD rose_VBD postcards_NNS (_( hanging_VBG in_IN the_DT top_JJ right_NN hand_NN corner_NN )_) were_VBD featured_VBN in_IN a_DT beautiful_JJ NZ_NNP magazine_NN in_IN their_PRP$ Feb/Mar_NNP 10_CD issue_NN which_WDT came_VBD out_RP on_IN Australia_NNP Day_NNP featuring_VBG these_DT sweet_JJ Valentines_NNS Day_NNP gift_VBD ideas_NNS ._. I_PRP tend_VBP to_TO like_VB the_DT behind_IN the_DT scenes_NNS bits_NNS best_RB ._. The_DT part_NN when_WRB it_PRP all_DT comes_VBZ together_RB and_CC there_EX are_VBP no_DT people_NNS there_RB to_TO add_VB unwanted_JJ colours_NNS and_CC mess_NN to_TO the_DT vision_NN ._. Just_NNP artisans_VBZ -_: florists_NNS ,_, cake_NN decorators_NNS ,_, event_NN designers_NNS -_: working_VBG as_IN a_DT team_NN ._. The_DT only_JJ guests_NNS pre-party_NNS are_VBP lovers_NNS of_IN colour_NN and_CC create-as-you-go_JJ constructionists_NNS ,_, and_CC hopefully_RB some_DT strong_JJ men_NNS to_TO help_VB carry_VB the_DT 'stuff_NNP '_POS ._. Stunning_VBG board_NN by_IN super_NN talented_VBN Elena_NNP ._. Spot_NNP my_PRP$ pic_NN top_JJ middle_NN ._. More_JJR 'Things_NNS I_PRP love_VBP Thursday_NNP '_POS on_IN her_PRP$ truly_RB gorgeous_JJ blog_NN ._. Flowers_NNS enjoyed_VBD at_IN night_NN with_IN tea_NN and_CC chocolate_NN and_CC dreams_NNS of_IN faraway_JJ places_NNS ._. Sugarcoated_VBN created_VBD the_DT most_RBS amazing_JJ wedding_NN ._. Watch_VB their_PRP$ blog_NN over_IN the_DT next_JJ few_JJ weeks_NNS for_IN all_PDT the_DT stunning_VBG details_NNS ._.</t>
-  </si>
-  <si>
-    <t>Another_DT reason_NN in_IN my_PRP$ opinion_NN is_VBZ that_IN beginning_VBG in_IN the_DT fifties_NNS many_JJ people_NNS started_VBD to_TO confuse_VB Homosexuals_NNS with_IN Pedophiles_NNP ._. People_NNS not_RB only_RB got_VBD the_DT ``_`` gays_NNS are_VBP sinners_NNS ''_'' message_NN but_CC also_RB the_DT ``_`` eww_NN you_PRP disgusting_VBG perverts_NNS ''_'' message_NN ._. It_PRP also_RB didn_VBZ ’_NNP t_NN help_NN that_IN Homosexuality_NNP was_VBD listed_VBN as_IN a_DT mental_JJ health_NN disorder_NN (_( they_PRP thought_VBD it_PRP was_VBD a_DT defect_NN in_IN the_DT brain_NN like_IN schizophrenia_NN ,_, or_CC Bi_NNP polar_NN )_) till_NN like_IN sometime_RB in_IN the_DT nineties_NNS ._. so_RB up_RB until_IN the_DT middle_NN of_IN the_DT 1990s_CD we_PRP had_VBD all_DT these_DT arrogant_JJ idiots_NNS telling_VBG people_NNS to_TO hate_VB us_PRP ._. And_CC the_DT cause_NN of_IN it_PRP all_DT ?_. LACK_NNP OF_IN EDUCATION_NNP !_. !_. !_. It_PRP seems_VBZ like_IN such_PDT a_DT simple_JJ thing_NN right_RB ?_. Guess_NNP not_RB because_IN people_NNS still_RB refuse_VBP to_TO educate_VB themselves_PRP about_IN homosexuality_NN before_IN forming_VBG an_DT opinion_NN ._. Now_RB granted_VBN things_NNS are_VBP a_DT lot_NN better_RBR ,_, in_IN Canada_NNP we_PRP can_MD marry_VB ,_, there_EX are_VBP numerous_JJ programs_NNS in_IN the_DT city_NN where_WRB we_PRP can_MD get_VB help_NN ,_, counselling_NN ,_, and_CC hang_VBD out_RP with_IN others_NNS like_IN us_PRP ,_, pride_JJ celebrations_NNS are_VBP in_IN most_JJS cities_NNS now_RB a_DT days_NNS ,_, and_CC most_JJS peoples_NNS attitudes_NNS are_VBP better_JJR than_IN they_PRP used_VBD to_TO be_VB ._. It_PRP 's_VBZ just_RB that_IN the_DT people_NNS whose_WP$ attitudes_NNS have_VBP n't_RB changed_VBN that_DT is_VBZ keeping_VBG us_PRP back_RB from_IN achieving_VBG a_DT better_JJR life_NN for_IN gays_NNS everywhere_RB ._. The_DT only_JJ thing_NN it_PRP would_MD take_VB is_VBZ education_NN in_IN the_DT schools_NNS about_IN homosexuals_NNS and_CC homosexuality_NN and_CC I_PRP think_VBP that_IN slowly_RB attitudes_NNS would_MD change_VB ._. Also_RB an_DT absolute_JJ no_DT nonsense_NN policy_NN on_IN homophobic_JJ remarks_NNS and_CC bullying_VBG ._. Now_RB if_IN I_PRP have_VBP n't_RB completely_RB bored_VBN you_PRP and_CC your_PRP$ still_RB reading_VBG I_PRP hope_VBP u_JJ have_VBP enjoyed_VBN my_PRP$ rantings_NNS ._.</t>
-  </si>
-  <si>
-    <t>I_PRP went_VBD to_TO the_DT doctor_NN today_NN ._. I_PRP have_VBP gained_VBN one_CD pound_NN in_IN two_CD months_NNS ._. But_CC keep_VB in_IN mind_NN that_IN I_PRP 'm_VBP no_DT angel_NN outside_IN of_IN work_NN ._. For_IN example_NN ,_, we_PRP just_RB had_VBD Valentine_NNP 's_POS Day_NNP and_CC I_PRP ate_VBP a_DT lot_NN some_DT chocolates_NNS ._. I_PRP also_RB want_VBP to_TO let_VB you_PRP know_VB that_IN in_IN December_NNP I_PRP did_VBD have_VB blood_NN taken_VBN ,_, I_PRP did_VBD a_DT sugar_NN fast_NN ,_, and_CC the_DT basic_JJ stats_NNS were_VBD run_VBN ._. At_IN that_DT time_NN I_PRP was_VBD normal_JJ ._. I_PRP did_VBD have_VB low_JJ HDL_NNP (_( the_DT good_JJ cholesterol_NN )_) ,_, but_CC my_PRP$ overall_JJ cholesterol_NN is_VBZ fantastic_JJ ._. Why_WRB did_VBD I_PRP do_VB that_DT ?_. Well_NNP ,_, I_PRP have_VBP awesome_VBN insurance_NN that_WDT gives_VBZ healthy_JJ adults_NNS a_DT yearly_RB discount_NN if_IN I_PRP get_VBP a_DT physical_JJ and_CC basic_JJ blood_NN work_NN done_VBN (_( thereby_RB proving_VBG my_PRP$ health_NN status_NN )_) ._. I_PRP love_VBP the_DT policy_NN because_IN it_PRP 's_VBZ common_JJ sense_NN ._. Plus_CC it_PRP 's_VBZ a_DT great_JJ way_NN to_TO discover_VB a_DT problem_NN before_IN it_PRP turns_VBZ into_IN something_NN ._. Preventative_JJ versus_NN reactive_NN ._. It_PRP 's_VBZ way_NN cheaper_JJR to_TO give_VB discounts_NNS up_RP front_RB than_IN pay_NN for_IN a_DT major_JJ problem_NN five_CD years_NNS down_IN the_DT road_NN ._. When_WRB those_DT tests_NNS were_VBD run_VBN ,_, I_PRP had_VBD n't_RB even_RB fully_RB come_VBN up_RP with_IN the_DT idea_NN of_IN the_DT blog_NN so_IN it_PRP 's_VBZ really_RB fortuitous_JJ ._. Whenever_WRB this_DT project_NN ends_VBZ ,_, I_PRP 'll_MD be_VB able_JJ to_TO compare_VB pre-_JJ and_CC post-data_JJ ._. That_IN being_VBG said_VBD I_PRP have_VBP n't_RB been_VBN feeling_VBG myself_PRP recently_RB ._. I_PRP 'm_VBP having_VBG more_JJR stomachaches_NNS and_CC that_DT 's_VBZ why_WRB I_PRP visited_VBD the_DT doctor_NN ._. I_PRP 'm_VBP looking_VBG into_IN it_PRP and_CC I_PRP 'll_MD keep_VB you_PRP updated_VBN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP am_VBP becoming_VBG intense_NN ._. It_PRP is_VBZ n't_RB a_DT goal_NN ._. I_PRP do_VBP n't_RB have_VB a_DT plan_NN toward_IN achieving_VBG intensity_NN ._. It_PRP 's_VBZ an_DT observation_NN ._. I_PRP did_VBD n't_RB start_VB out_RP this_DT way_NN ._. I_PRP was_VBD laid_VBN back_RB and_CC relaxed_VB for_IN what_WP I_PRP think_VBP was_VBD most_JJS of_IN my_PRP$ life_NN ._. In_IN fact_NN ,_, there_EX was_VBD the_DT time_NN my_PRP$ golf_NN coach_NN encouraged_VBD me_PRP to_TO develop_VB a_DT temper_NN and_CC some_DT intensity_NN ._. A_DT Sr._JJ Minister_NNP with_IN whom_WP I_PRP worked_VBD said_VBD I_PRP did_VBD n't_RB take_VB my_PRP$ mistakes_NNS seriously_RB ._. A_DT lot_NN has_VBZ changed_VBN ._. I_PRP 've_VBP changed_VBN ._. I_PRP am_VBP becoming_VBG intense_NN ._. So_RB ,_, I_PRP am_VBP looking_VBG for_IN peace_NN this_DT coming_VBG week_NN ._. I_PRP am_VBP intentionally_RB seeking_VBG silence_NN and_CC peace_NN ._. I_PRP will_MD listen_VB more_RBR and_CC speak_VB less_JJR ._. I_PRP will_MD think_VB before_IN I_PRP react_VBP ._. I_PRP will_MD be_VB less_JJR intense_JJ ._. I_PRP will_MD practice_NN the_DT Divine_NNP Hours_NNP ._. I_PRP will_MD remember_VB serenity_NN ._. I_PRP will_MD look_VB to_TO be_VB more_JJR at_IN peace_NN ._. I_PRP make_VBP a_DT promise_NN to_TO myself.I_VB seem_VB to_TO march_VB into_IN quandaries_NNS ._. I_PRP do_VBP n't_RB think_VB I_PRP do_VBP it_PRP consciously_RB ,_, but_CC the_DT result_NN is_VBZ the_DT same_JJ as_IN if_IN I_PRP willfully_VBP looked_VBD for_IN trouble_NN ._. It_PRP worries_VBZ me.Tomorrow_NN is_VBZ the_DT primary_NN here_RB in_IN KY_NNP ._. It_PRP 's_VBZ irrelevant_JJ at_IN this_DT point_NN it_PRP seems_VBZ ._. The_DT DNC_NNP has_VBZ really_RB messed_VBN this_DT whole_NN process_NN up_RB to_TO the_DT point_NN to_TO where_WRB a_DT stalemate_NN was_VBD bound_VBN to_TO occur_VB ._. Still_RB ,_, I_PRP am_VBP going_VBG to_TO the_DT poll_NN tomorrow_NN and_CC I_PRP will_MD cast_VB a_DT ballot_NN ._. I_PRP ca_MD n't_RB bring_VB myself_PRP to_TO believe_VB that_IN any_DT vote_NN is_VBZ irrelevant_JJ in_IN a_DT nation_NN that_WDT depends_VBZ on_IN participation_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP forgot_VBD to_TO mention_VB something_NN and_CC instead_RB of_IN inserting_VBG it_PRP in_IN the_DT previous_JJ post_NN ,_, I_PRP decided_VBD do_VBP write_VB anew_RB ._. Dubbing_VBG for_IN Theeradha_NNP Vilayaattu_NNP Pillai_NNP and_CC Vinnaithaandi_NNP ..._: happened_VBD at_IN the_DT same_JJ time_NN and_CC the_DT hero_NN 's_POS name_NN in_IN both_DT movies_NNS is_VBZ Karthik_NNP ._. I_PRP was_VBD also_RB dubbing_VBG for_IN the_DT Telugu_NNP versions_NNS of_IN both_DT movies_NNS and_CC incidentally_RB I_PRP had_VBD probably_RB said_VBD the_DT name_NN Karthik_NNP a_DT million_CD times_NNS ._. One_CD of_IN those_DT days_NNS I_PRP had_VBD a_DT recording_NN in_IN the_DT night_NN and_CC had_VBD to_TO walk_VB into_IN the_DT next_JJ day_NN ,_, I_PRP started_VBD calling_VBG random_NN people_NNS and_CC my_PRP$ mother_NN also_RB ,_, with_IN the_DT name_NN Karthik.._NNP got_VBD up_RB in_IN the_DT morning_NN and_CC said_VBD absent_NN mindedly_RB ``_`` Karthik_NNP ..._: I_PRP want_VBP coffee_NN ''_'' to_TO Amma.._NNP If_IN I_PRP had_VBD mentioned_VBN any_DT other_JJ name_NN ,_, she_PRP would_MD have_VB been_VBN happier_JJR thinking_NN and_CC had_VBD the_DT feeble_JJ hope_NN that_IN I_PRP had_VBD finally_RB found_VBN someone_NN ,_, but_CC since_IN she_PRP knew_VBD that_DT was_VBD the_DT name_NN of_IN the_DT hero_NN in_IN two_CD movies_NNS ,_, at_IN the_DT same_JJ time_NN ,_, she_PRP new_JJ better_RBR ._. The_DT number_NN of_IN times_NNS I_PRP have_VBP said_VBD Karthik_NNP or_CC even_RB the_DT name_NN Gautham_NNP in_IN the_DT movies_NNS I_PRP have_VBP dubbed_VBN is_VBZ phenomenal_JJ ._. Karthik_NNP ..._: Gautham.._NNP Gautham_NNP ..._: Karthik.._NNP There_EX was_VBD a_DT rare_JJ Shakthi_NNP or_CC a_DT Ravi_NNP here_RB and_CC there_RB ._. Someone_NN once_RB told_VBD me_PRP that_IN naming_VBG the_DT hero_NN and_CC heroine_NN is_VBZ a_DT big_JJ issue_NN for_IN several_JJ people_NNS and_CC hence_NN they_PRP usually_RB just_RB pick_VB something_NN ..._: like_IN Prem_NNP or_CC Rahul_NNP in_IN Hindi_NNP movies.._NN they_PRP cited_VBD this_DT example_NN ._. I_PRP forget_VBP who_WP told_VBD me_PRP this.._VB Anyway_NNP that_WDT is_VBZ that_DT ._.</t>
-  </si>
-  <si>
-    <t>To_TO date_NN ,_, President_NNP Obama_NNP 's_POS nominations_NNS to_TO key_VB defense_NN postings_NNS have_VBP been_VBN mostly_RB pragmatic_JJ ,_, starting_VBG at_IN the_DT top_JJ with_IN the_DT retention_NN of_IN Secretary_NNP Gates_NNP ._. However_RB ,_, in_IN the_DT instance_NN of_IN Philip_NNP Coyle_NNP --_: nominated_VBD to_TO fill_VB the_DT associate_JJ director_NN of_IN national_JJ security_NN and_CC international_JJ affairs_NNS spot_NN in_IN the_DT Office_NNP of_IN Science_NNP and_CC Technology_NNP Policy_NNP --_: the_DT administration_NN whiffed_NN ._. Coyle_NNP ,_, a_DT long_JJ time_NN opponent_NN of_IN ballistic_JJ missile_NN defense_NN (_( dating_VBG back_RB to_TO Reagan_NNP 's_POS SDI_NNP days_NNS )_) ,_, is_VBZ an_DT ideologue_NN whose_WP$ appointment_NN could_MD prove_VB harmful_JJ to_TO U.S._NNP security_NN ._. Coyle_NNP claims_VBZ that_IN missile_NN defense_NN is_VBZ a_DT ``_`` theology_NN ,_, not_RB a_DT technology_NN ._. ''_'' He_PRP 's_VBZ argued_VBN ,_, steadily_RB ,_, that_IN BMD_NNP systems_NNS are_VBP useless_JJ against_IN countermeasures_NNS like_IN chaff_NN and_CC maneuverable_JJ warheads_NNS ,_, and_CC that_IN testing_VBG failures_NNS in_IN certain_JJ systems_NNS renders_VBZ the_DT technology_NN obsolete_NN ._. In_IN 2006_CD ,_, just_RB prior_RB to_TO North_NNP Korea_NNP test_NN firing_VBG a_DT volley_NN of_IN ballistic_JJ missiles_NNS ,_, Coyle_NNP wrote_VBD :_: The_DT ground-based_JJ system_NN has_VBZ n't_RB had_VBD a_DT successful_JJ flight_NN intercept_NN test_NN in_IN four_CD years_NNS ._. In_IN the_DT two_CD most_RBS recent_JJ attempts_NNS ,_, the_DT interceptor_NN never_RB got_VBD off_IN the_DT ground_NN and_CC failed_VBD to_TO leave_VB its_PRP$ silo_NN ._. And_CC in_IN the_DT only_RB other_JJ recent_JJ attempt_NN ,_, the_DT kill_NN vehicle_NN -_: the_DT pointy-end_NN of_IN the_DT interceptor_NN -_: failed_VBD to_TO separate_VB from_IN its_PRP$ booster_NN and_CC missed_VBD its_PRP$ target_NN ._. A_DT question_NN the_DT press_NN might_MD ask_VB President_NNP Bush_NNP is_VBZ ,_, ``_`` So_RB long_RB as_IN you_PRP resist_VBP face-to-face_JJ meetings_NNS with_IN North_NNP Korea_NNP ,_, are_VBP n't_RB you_PRP just_RB giving_VBG them_PRP more_JJR time_NN to_TO develop_VB a_DT missile_NN that_WDT can_MD reach_VB the_DT U.S._NNP ?_. ''_'' Or_CC to_TO put_VB it_PRP differently_RB ,_, ``_`` Mr._NNP President_NNP ,_, which_WDT do_VBP you_PRP think_VB will_MD take_VB longer_JJR :_: North_NNP Korea_NNP to_TO develop_VB a_DT missile_NN that_WDT can_MD reach_VB the_DT U.S._NNP ?_. Or_CC the_DT U.S._NNP to_TO develop_VB a_DT missile_NN defense_NN we_PRP can_MD rely_VB on_IN ?_. ''_'' A_DT fair_JJ question_NN ._. Despite_IN an_DT aggressive_JJ long_JJ range_NN missile_NN program_NN ,_, North_NNP Korea_NNP has_VBZ yet_RB to_TO launch_VB a_DT missile_NN that_WDT can_MD reach_VB Hawaii_NNP ,_, much_RB less_JJR the_DT continental_JJ United_NNP States_NNPS ._. Meanwhile_RB ,_, there_EX have_VBP been_VBN successful_JJ tests_NNS of_IN the_DT RIM-161_NNP SM-3_NNP interceptor_NN ,_, the_DT airborne_JJ laser_NN ,_, the_DT ground-based_JJ mid_NN course_NN interceptor_NN ,_, and_CC the_DT theater_NN high-altitude_JJ area_NN defense_NN system_NN ._. But_CC instead_RB of_IN retracting_VBG after_IN completely_RB misreading_VBG North_JJ Korean_JJ v._FW U.S._NNP development_NN capabilities_NNS ,_, he_PRP switched_VBD tactics_NNS ,_, claiming_VBG in_IN House_NNP testimony_NN that_WDT deterrence_NN assures_VBZ us_PRP that_IN North_NNP Korea_NNP would_MD never_RB attack_VB the_DT south_NN ,_, Japan_NNP ,_, or_CC the_DT United_NNP States_NNPS ._. In_IN the_DT same_JJ testimony_NN ,_, Coyle_NNP --_: despite_IN a_DT series_NN of_IN successful_JJ tests_NNS --_: clung_NN to_TO the_DT very_RB same_JJ talking_VBG point_NN he_PRP used_VBD almost_RB a_DT decade_NN earlier_RBR --_: that_IN BMD_NNP is_VBZ questionable_JJ technology_NN which_WDT is_VBZ n't_RB worth_JJ the_DT money_NN or_CC resources_NNS ._.</t>
-  </si>
-  <si>
-    <t>“_IN These_DT stories_NNS are_VBP what_WP Washington_NNP does_VBZ ,_, ”_VB Axelrod_NNP ,_, a_DT former_JJ Chicago_NNP Tribune_NNP reporter_NN ,_, said_VBD in_IN an_DT interview_NN that_WDT aired_VBD on_IN CNN_NNP ’_NNP s_VBD State_NNP of_IN the_DT Union_NNP ._. “_VB When_WRB people_NNS think_VBP there_EX are_VBP political_JJ challenges_NNS ,_, then_RB the_DT ‘_NNP palace_NN intrigue_NN ’_NNP stories_VBZ get_VBP written_VBN and_CC so_RB on_IN ._. We_PRP are_VBP a_DT tight_JJ group_NN ._. We_PRP are_VBP all_DT committed_VBN to_TO the_DT same_JJ thing_NN and_CC I_PRP would_MD discount_VB those_DT stories._JJ ”_NN On_IN a_DT more_RBR personal_JJ note_NN ,_, Axelrod_NNP also_RB spoke_VBD favorably_RB of_IN Emanuel_NNP ,_, who_WP has_VBZ a_DT reputation_NN for_IN sometimes_RB being_VBG rough_JJ around_IN the_DT edges_NNS in_IN his_PRP$ political_JJ dealings_NNS with_IN allies_NNS and_CC foes_NNS ._.</t>
-  </si>
-  <si>
-    <t>We_PRP ’_VBP ve_RB added_VBD a_DT new_JJ cartoonist_NN to_TO cagle.com_VB ,_, Omar_NNP Abdallat_NNP from_IN The_DT Addustour_NNP newspaper_NN in_IN Jordan_NNP ._. I_PRP ’_VBP m_JJ sure_JJ Omar_NNP ’_NNP s_NN cartoons_NNS will_MD make_VB some_DT of_IN our_PRP$ readers_NNS angry_JJ as_IN he_PRP often_RB draws_VBZ bloodthirsty-monster-Israel_JJ cartoons_NNS ,_, which_WDT is_VBZ common_JJ fare_NN for_IN cartoonists_NNS in_IN Arab_JJ countries_NNS -_: but_CC unlike_IN some_DT Arab_JJ cartoonists_NNS ,_, Omar_NNP draws_VBZ on_IN other_JJ subjects_NNS too_RB ,_, and_CC he_PRP has_VBZ a_DT nice_JJ style_NN that_IN our_PRP$ mostly_RB American_JJ audience_NN can_MD easily_RB understand_VB ._. (_( It_PRP isn_VBZ ’_JJ t_NN easy_JJ to_TO find_VB foreign_JJ cartoonists_NNS that_WDT our_PRP$ American_JJ audience_NN can_MD understand_VB !_. )_) I_PRP just_RB got_VBD back_RB from_IN a_DT cool_JJ editorial_NN cartoonists_NNS conference_NN in_IN Colombia_NNP last_JJ week_NN ._. I_PRP ’_VBP m_PDT an_DT editorial_NN cartooning_VBG wonk_NN and_CC it_PRP was_VBD great_JJ fun_NN to_TO go_VB to_TO a_DT conference_NN where_WRB I_PRP didn_VBP ’_JJ t_NN know_VBP the_DT cartoonists_NNS ._. In_IN fact_NN ,_, the_DT Colombian_JJ political_JJ cartoonists_NNS rarely_RB get_VBP together_RB themselves_PRP and_CC it_PRP was_VBD interesting_VBG for_IN them_PRP to_TO meet_VB each_DT other_JJ ._. Bogota_NNP is_VBZ a_DT huge_JJ city_NN of_IN about_IN 8.5_CD million_CD people_NNS ,_, full_JJ of_IN universities_NNS and_CC libraries_NNS and_CC a_DT thriving_VBG community_NN of_IN cartoonists_NNS ._. Colombian_JJ politics_NNS are_VBP crazy_JJ ,_, bloody_JJ ,_, complex_JJ and_CC difficult_JJ for_IN me_PRP to_TO digest_VB in_IN just_RB a_DT week_NN of_IN cramming_VBG ._. Colombia_NNP is_VBZ the_DT second_JJ biggest_JJS country_NN in_IN South_NNP America_NNP and_CC the_DT third_JJ largest_JJS recipient_NN in_IN the_DT world_NN of_IN US_NNP foreign_JJ aid_NN ,_, because_IN of_IN all_PDT the_DT drug_NN issues_NNS there_RB ._. The_DT US_NNP State_NNP Department_NNP brought_VBD me_PRP to_TO Colombia_NNP on_IN a_DT speaking_VBG tour_NN to_TO attend_VB the_DT conference_NN as_IN the_DT only_JJ American_JJ cartoonist_NN ._.</t>
-  </si>
-  <si>
-    <t>Looking_VBG forward_RB to_TO the_DT Travellers_NNP ’_NNP Tales_NNP Festival_NNP in_IN London_NNP this_DT week_NN ;_: an_DT excellent_JJ opportunity_NN to_TO network_NN with_IN fellow_JJ travel_NN writers_NNS and_CC photographers_NNS ._. The_DT 3-day_JJ agenda_NN seems_VBZ quite_RB mouthwatering_JJ ._. Friday_NNP ’_NNP s_JJ lineup_NN includes_VBZ photography_NN and_CC writing_VBG programmes_NNS ,_, creative_JJ tutorials_NNS ,_, panel_NN discussions_NNS with_IN editors_NNS from_IN the_DT UK_NNP National_NNP press_NN as_RB well_RB as_IN networking_NN opportunities_NNS ._. Saturday_NNP and_CC Sunday_NNP will_MD bring_VB a_DT variety_NN of_IN lectures_NNS and_CC more_JJR goodies_NNS ._. Will_MD keep_VB my_PRP$ nose_NN to_TO the_DT ground_NN for_IN stories_NNS worth_JJ telling_VBG and_CC will_MD be_VB on_IN the_DT lookout_NN for_IN those_DT photographic_JJ moments_NNS ._. Finding_VBG unique_JJ angles_NNS and_CC takes_VBZ on_IN one_CD of_IN the_DT most_RBS photographed_JJ cities_NNS and_CC sights_NNS in_IN the_DT world_NN will_MD be_VB my_PRP$ challenge_NN for_IN this_DT weekend_NN ._.</t>
-  </si>
-  <si>
-    <t>Well_RB I_PRP have_VBP been_VBN working_VBG on_IN a_DT lot_NN of_IN thing_NN ._. Finishing_VBG up_RP the_DT semester_NN and_CC trying_VBG to_TO get_VB my_PRP$ master_NN degree_NN program_NN started_VBD as_RB well_RB as_IN my_PRP$ freelance_NN ,_, but_CC i_VBP am_VBP always_RB working_VBG in_IN 3D_CD on_IN something_NN else_RB ._. Here_RB is_VBZ something_NN that_IN I_PRP made_VBD last_JJ night_NN in_IN ZBrush_NNP ._. The_DT Hair_NNP I_PRP am_VBP sure_JJ about_IN ,_, but_CC i_VBP will_MD more_RBR then_RB likely_JJ change_NN ._.</t>
-  </si>
-  <si>
-    <t>hello_NN ._. my_PRP$ name_NN is_VBZ sarah_JJ ._. i_NN used_VBD to_TO be_VB a_DT cheerleader_NN ._. i_JJ 'm_VBP depressed_JJ ._. in_IN high_JJ school_NN cheerleading_NN was_VBD AMAZING_NNP ._. it_PRP was_VBD so_RB much_JJ fun_NN ._. it_PRP gave_VBD me_PRP most_JJS of_IN the_DT friends_NNS i_VBP have_VBP today_NN ._. our_PRP$ coach_NN SUCKED_NNP every_DT year_NN ,_, well_VBP it_PRP was_VBD the_DT same_JJ lady_NN ,_, but_CC because_IN of_IN her_PRP$ we_PRP pretty_RB much_JJ sucked_VBN every_DT year_NN ._. we_PRP got_VBD basically_RB last_JJ at_IN competition_NN all_PDT the_DT time_NN ._. but_CC we_PRP still_RB had_VBD so_RB much_JJ fun_NN ,_, i_NN still_RB got_VBD to_TO compete_VB which_WDT is_VBZ a_DT rush_NN nothing_NN else_RB can_MD ever_RB equal_JJ ._. we_PRP did_VBD cool_JJ stuff_NN like_IN wore_IN our_PRP$ uniforms_NNS on_IN game_NN days_NNS and_CC had_VBD bake_VBN sales_NNS and_CC decorated_VBN together_RB and_CC dressed_VBD up_RP for_IN homecoming_VBG ._. and_CC although_IN we_PRP never_RB really_RB ``_`` went_VBD anywhere_RB ''_'' as_IN in_IN doing_VBG well_RB at_IN competition_NN and_CC stuff_NN i_NN still_RB loved_VBD it_PRP ._. cheerleading_VBG was_VBD like_IN my_PRP$ high_JJ school_NN life_NN ._. it_PRP was_VBD fun_NN ,_, even_RB when_WRB practices_NNS sucked_VBD and_CC people_NNS cried_VBD and_CC i_JJ got_VBD bloody_JJ noses_NNS ._. it_PRP was_VBD fun_RB because_IN the_DT people_NNS i_VBP did_VBD it_PRP with_IN made_VBN it_PRP fun_JJ and_CC we_PRP tried_VBD our_PRP$ best_JJS and_CC it_PRP was_VBD good_JJ ._. in_IN college_NN i_NN thought_VBD i_RB would_MD try_VB cheerleading_VBG since_IN i_NN liked_VBD it_PRP so_RB much_RB in_IN high_JJ school_NN ._. but_CC the_DT tryouts_NNS were_VBD during_IN the_DT summer_NN and_CC i_NN could_MD n't_RB make_VB them_PRP ._. i_VB thought_VBD oh_RB well_RB ,_, it_PRP was_VBD n't_RB meant_VBN to_TO be_VB ._. in_IN september_NN i_NN saw_VBD a_DT huge_JJ sign_NN for_IN cheerleading_VBG tryouts_NNS ,_, it_PRP was_VBD so_RB amazing_JJ so_IN i_JJ went_VBD to_TO them_PRP ._. turns_VBZ out_RP they_PRP did_VBD n't_RB have_VB enough_JJ people_NNS from_IN the_DT summer_NN and_CC needed_VBD a_DT bigger_JJR team_NN ._. so_RB i_JJ tried_VBD out_RP ,_, but_CC i_NN became_VBD the_DT alternate_NN ._. the_DT coach_NN assured_VBD me_PRP i_VB would_MD not_RB be_VB left_VBN out_RP and_CC i_VB would_MD definately_RB have_VB a_DT place_NN on_IN the_DT team_NN and_CC be_VB able_JJ to_TO compete_VB if_IN someone_NN got_VBD hurt_VBN or_CC something_NN happened_VBN ._. i_NN was_VBD disappointed_VBN but_CC decided_VBD it_PRP would_MD be_VB ok_JJ and_CC i_NN would_MD do_VB it_PRP ._. practices_NNS began_VBD ._. they_PRP sucked_VBD ._. they_PRP were_VBD soooo_VBN long_RB and_CC sooo_VB boring_NN and_CC i_NN did_VBD n't_RB get_VB to_TO do_VB much_RB because_IN i_NN was_VBD an_DT alternate_NN ..._: .coach_NNP lied_VBD a_DT bit_NN ._. the_DT team_NN was_VBD pretty_RB much_JJ all_DT cliquey_VBP already_RB and_CC i_VB just_RB did_VBD n't_RB fit_VB in_IN ._. it_PRP was_VBD n't_RB like_JJ high_JJ school_NN at_IN all_DT where_WRB every_DT year_NN when_WRB new_JJ people_NNS joined_VBD the_DT team_NN we_PRP accepted_VBD them_PRP and_CC eventually_RB we_PRP became_VBD a_DT big_JJ family_NN ._. they_PRP just_RB would_MD n't_RB let_VB me_PRP in_IN and_CC so_RB i_JJ was_VBD always_RB shy_JJ and_CC did_VBD n't_RB get_VB to_TO come_VB out_IN of_IN my_PRP$ shell_NN and_CC be_VB the_DT crazy_JJ person_NN i_NNS really_RB am_VBP which_WDT is_VBZ why_WRB everyone_NN loves_VBZ me_PRP ._. time_NN passed_VBD and_CC i_RB hated_VBD cheerleading_VBG more_JJR and_CC more_RBR ,_, not_RB the_DT actual_JJ sport_NN but_CC just_RB doing_VBG it_PRP at_IN keene_NN state_NN ._. then_RB one_CD night_NN someone_NN fell_VBD on_IN me_PRP and_CC i_VB sprained_VBN my_PRP$ ankle_NN ._. after_IN that_DT i_NN could_MD n't_RB do_VB anything_NN ._. i_VB just_RB sat_RB there_RB ._. i_NN had_VBD to_TO come_VB back_RB from_IN winter_NN break_NN like_IN a_DT week_NN early_RB to_TO practice_NN but_CC i_NN still_RB could_MD n't_RB do_VB much_RB ._. it_PRP was_VBD ridiculous_JJ ._. and_CC then_RB one_CD day_NN when_WRB we_PRP were_VBD about_RB to_TO leave_VB for_IN an_DT away_JJ game_NN the_DT coach_NN told_VBD me_PRP i_NN was_VBD no_RB longer_JJR on_IN the_DT team_NN (_( in_IN so_RB many_JJ words_NNS )_) i_VBP cried_VBN a_DT lot_NN but_CC i_NN was_VBD also_RB pretty_RB happy_JJ since_IN i_NN hated_VBD it_PRP so_RB much_JJ ._. today_NN i_JJ look_VBP back_RB on_IN these_DT two_CD worlds_NNS with_IN sadness_NN ._. unlike_IN the_DT people_NNS younger_JJR then_RB me_PRP in_IN high_JJ school_NN who_WP got_VBD to_TO have_VB a_DT new_JJ coach_NN and_CC really_RB make_VB something_NN of_IN themselves_PRP those_DT last_JJ two_CD years_NNS of_IN highschool_NN i_NN got_VBD nothing_NN and_CC have_VBP only_RB the_DT happy_JJ memories_NNS but_CC no_DT fulfilling_VBG cheerleading_VBG career_NN to_TO look_VB back_RB in_IN ._. in_IN college_NN i_NN am_VBP like_IN a_DT black_JJ sheep_NN of_IN the_DT team_NN ._. everyone_NN pretty_RB much_JJ thinks_NNS i_VBP 'm_VBP a_DT slacker_NN and_CC they_PRP dislike_VBP me_PRP ._. the_DT coach_NN obviously_RB dislikes_VBZ me_PRP since_IN she_PRP kicked_VBD me_PRP off_RP the_DT team_NN ._. so_IN i_NN could_MD never_RB go_VB back_RB to_TO them_PRP and_CC even_RB if_IN i_NNS wanted_VBD to_TO i_VB doubt_NN i_NN would_MD make_VB the_DT team_NN ._. i_NN lost_VBD my_PRP$ train_NN of_IN thought_NN and_CC i_NN 'm_VBP still_RB sad_JJ so_IN i_JJ 'm_VBP gon_VBG na_TO go_VB now_RB ._. i_VB 'm_VBP glad_JJ i_NN got_VBD all_DT that_DT out_RP ._. do_VBP n't_RB know_VB how_WRB much_JJ it_PRP helped_VBD however_RB ._. i_JJ think_VBP i_JJ 'm_VBP gon_VBG na_TO go_VB buy_VB a_DT cheerlading_NN handbook_NN ._.</t>
-  </si>
-  <si>
-    <t>One_CD of_IN the_DT reasons_NNS is_VBZ that_IN we_PRP are_VBP all_DT different_JJ ._. When_WRB we_PRP hear_VBP someone_NN telling_VBG us_PRP something_NN difficult_JJ they_PRP are_VBP going_VBG through_IN ,_, we_PRP usually_RB think_VBP ,_, ``_`` Well_UH ,_, I_PRP would_MD do_VB this_DT ,_, and_CC things_NNS would_MD be_VB fine_JJ ,_, ''_'' but_CC we_PRP are_VBP n't_RB the_DT other_JJ person_NN ._. It_PRP happens_VBZ alot_NN with_IN disagreements_NNS ,_, too_RB ._. We_PRP think_VBP to_TO ourselves_NNS ,_, ``_`` I_PRP would_MD never_RB do_VB that_DT to_TO someone_NN else_RB ._. ''_'' True_NNP ,_, you_PRP would_MD n't_RB but_CC they_PRP might_MD ._. Empathy_NNP is_VBZ moving_VBG our_PRP$ ``_`` self_NN ''_'' filter_NN that_IN we_PRP see_VBP life_NN through_IN aside_RB ,_, and_CC trying_VBG to_TO understand_VB where_WRB the_DT other_JJ person_NN may_MD be_VB coming_VBG from_IN ._. I_PRP admit_VBP ,_, I_PRP am_VBP the_DT worst_JJS person_NN when_WRB it_PRP comes_VBZ to_TO putting_VBG my_PRP$ emotional_JJ response_NN on_IN hold_NN ,_, and_CC trying_VBG to_TO understand_VB where_WRB the_DT other_JJ person_NN is_VBZ coming_VBG from_IN ._. Did_NNP I_PRP grow_VBP up_RP with_IN them_PRP ?_. Did_NNP I_PRP have_VBP their_PRP$ parents_NNS ?_. Their_PRP$ family_NN ?_. Did_NNP they_PRP have_VBP any_DT issues_NNS along_IN the_DT way_NN that_WDT may_MD effect_NN the_DT way_NN they_PRP deal_VBP with_IN difficulties_NNS ?_. My_PRP$ wife_NN got_VBD exasperated_VBN with_IN my_PRP$ Male_NNP ,_, ``_`` fix_VBP the_DT problem_NN ''_'' response_NN to_TO her_PRP$ issue_NN ,_, and_CC told_VBD me_PRP to_TO ,_, ``_`` Just_RB listen_VB ''_'' ._. I_PRP 'm_VBP better_JJR than_IN I_PRP used_VBD to_TO ,_, but_CC I_PRP still_RB react_VB in_IN my_PRP$ Male_NNP DNA_NNP way_NN ._. However_RB ,_, empathy_EX is_VBZ more_JJR than_IN listening_VBG -_: it_PRP is_VBZ taking_VBG a_DT step_NN or_CC two_CD to_TO understand_VB where_WRB someone_NN is_VBZ coming_VBG from_IN ._. Do_VB you_PRP have_VB a_DT friend/family/co-worker_NN that_WDT seems_VBZ to_TO be_VB constantly_RB involved_VBN in_IN the_DT same_JJ issue_NN or_CC situation_NN ._. It_PRP seems_VBZ like_IN they_PRP are_VBP on_IN a_DT racetrack_NN life_NN path_NN that_WDT takes_VBZ them_PRP around_RB and_CC around_RB through_IN the_DT same_JJ situation_NN ._. To_TO me_PRP ,_, you_PRP have_VBP two_CD ways_NNS to_TO deal_VB with_IN it_PRP ;_:</t>
-  </si>
-  <si>
-    <t>Well_RB helllloooo_NN !_. !_. Do_VBP I_PRP even_RB have_VBP friends_NNS anymore_RB ?_. LOL_VB It_PRP ’_NNP s_VBD been_VBN so_RB log_JJ ._. Well_NNP ,_, life_NN with_IN two_CD kids_NNS has_VBZ been_VBN an_DT adjustment_NN ._. My_PRP$ cooking_NN has_VBZ revolved_VBN around_RB simple_JJ casseroles_NNS and_CC incredibly_RB sweet_JJ things_NNS ._. A_DT weird_JJ thing_NN about_IN breastfeeding_NN is_VBZ that_IN you_PRP get_VBP to_TO keep_VB the_DT pregnancy_NN appetite_RB ._. Unfortunately_RB ,_, I_PRP just_RB don_VB ’_JJ t_NNS have_VBP the_DT time_NN to_TO devote_VB to_TO recipes_NNS like_IN I_PRP did_VBD ._. I_PRP have_VBP to_TO work_VB in_IN intervals_NNS before_IN the_DT baby_NN needs_VBZ me_PRP ._. I_PRP love_VBP her_PRP$ to_TO pieces_NNS ._. Awww_NNP ._. I_PRP know_VBP right_RB ?_. !_. LOL_NNP Ok_NNP ,_, so_IN last_JJ semester_NN I_PRP took_VBD an_DT Honors_NNPS Composition_NNP course_NN ._. The_DT professor_NN mixed_JJ ecology_NN in_IN with_IN the_DT class_NN and_CC focused_VBD on_IN the_DT Locavore_NNP movement_NN ._. If_IN you_PRP don_VBP ’_JJ t_NN know_VBP what_WP it_PRP is_VBZ ,_, it_PRP ’_VBZ s_VBD the_DT decision_NN to_TO eat_VB food_NN made_VBN only_RB in_IN a_DT certain_JJ radius_NN from_IN your_PRP$ own_JJ home_NN ._. We_PRP tried_VBD this_DT as_IN a_DT class_NN ._. Half_NN of_IN the_DT class_NN became_VBD locavore_RBR and_CC the_DT other_JJ half_NN remained_VBD everywhereavores_NNS LOL_NNP ._. At_IN the_DT end_NN of_IN the_DT semester_NN we_PRP all_DT got_VBD together_RB and_CC made_VBD a_DT dinner_NN ._. The_DT most_RBS interesting_JJ thing_NN happened_VBD !_. Those_DT who_WP could_MD get_VB anything_NN they_PRP wanted_VBD only_RB brought_VBN in_IN a_DT chicken_NN ,_, potatoes_NNS ,_, veggies_NNS ,_, and_CC a_DT case_NN of_IN water_NN !_. Our_PRP$ locavore_NN group_NN brought_VBD eggplant_JJ lasagna_NN ,_, fish_JJ tacos_NN ,_, guacamole_NN ,_, salads_NNS ,_, homemade_VBD honey_NN papaya_NN ice_NN cream_NN ,_, and_CC smoothies_NNS !_. We_PRP went_VBD ALL_DT out_IN and_CC it_PRP was_VBD awesome_JJ ._. I_PRP learned_VBD a_DT lot_NN from_IN that_DT class_NN ._. I_PRP try_VBP to_TO find_VB local_JJ produce_NN as_RB much_RB as_IN possible_JJ now_RB ._. So_IN what_WP better_JJR place_NN to_TO go_VB than_IN the_DT Florida_NNP Strawberry_NNP Festival_NNP ?_. !_. Ok_UH ,_, ok_JJ ,_, so_RB aside_RB from_IN the_DT strawberries_NNS ,_, nothing_NN seemed_VBD to_TO be_VB local_JJ ._. And_CC NOTHING_NN was_VBD produce_NN ._. Chocolate_NNP DIPT_NNP bacon_NN ._. Fried_NNP BUTTER_NNP ._. Donut_NNP burger_NN ._. I_PRP was_VBD in_IN foodie_JJ overload_NN ._. If_IN you_PRP want_VBP to_TO know_VB what_WP a_DT deep_JJ fried_JJ Snickers_NNP bar_NN and_CC deep_JJ fried_VBD Oreos_NNP look_NN like_IN :_: I_PRP STILL_VBP have_VBP indigestion_NN from_IN those_DT damn_JJ things_NNS and_CC we_PRP went_VBD LAST_NNP weekend_NN ._. :_: D_NNP So_IN the_DT Strawberry_NNP Festival_NNP wasn_VBD ’_NNP t_NN exactly_RB what_WP I_PRP ’_VBP d_JJ recommend_NN for_IN someone_NN looking_VBG to_TO eat_VB locally_RB ,_, but_CC I_PRP did_VBD buy_VB some_DT strawberries_NNS from_IN Plant_NNP City_NNP ,_, which_WDT is_VBZ in_IN the_DT 100_CD mile_JJ radius_NN of_IN my_PRP$ own_JJ home_NN ._.</t>
-  </si>
-  <si>
-    <t>Sair_NNP para_VBZ comer_JJR a_DT dois_NN é_NNP uma_JJ aventura_NN que_NN eu_NN rezo_NN (_( não_JJ que_NN eu_NN seja_NN religioso_NN )_) para_NN que_NN a_DT tortura_NN termine_NN ._. Não_NNP vou_IN ser_NN hipócrita_NN aqui_NN ,_, na_RB verdade_JJ eu_NN quero_NN mesmo_NN é_NNP pular_NN essa_NN parte_NN e_NN ir_NN para_VBZ a_DT cama_NN ._. Todos_NNP nós_JJ homens_NNS somos_VBP canalhas_JJ em_JJ potencial_JJ mesmo_NN !_. Clique_NNP nas_JJ tiras_NNS para_VBP melhor_NN visalização_NN :_: Via_NNP DogHouse_NNP Diaries_NNP -_: Blind_NNP Dates_NNP Eu_NNP fujo_NN de_IN encontros_FW às_NNP cegas_NN ._. Geralmente_NNP um_JJ colega_NN convida_NN para_NN sair_NN com_NN duas_NN garotas_NNS ,_, e_VBP a_DT que_NN sobra_NN para_NN mim_NN é_NNP o_VBZ horror_NN !_. Via_NNP DogHouse_NNP Diaries_NNP -_: Splitting_VBG the_DT check_NN Eu_NNP sempre_NN espero_NN que_NN ela_VBP divida_VBZ a_DT conta_NN ._. É_CC saudável_JJ para_NN ambos_NNS os_VBP bolsos_NN !_. !_. !_. Especialmente_NNP para_NN o_NN meu_NN ..._: Via_NNP DogHouse_NNP Diaries_NNP -_: Training_NN Day_NNP Isso_NNP já_NN aconteceu_NN ..._: Sempre_NNP acontece_RB comigo_NN ._. E_NNP eu_JJ não_NN consigo_NN desviar_NN o_NN olhar_NN ._. Simplesmente_NNP não_JJ dá_NN ._. Este_NNP artigo_JJ pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. Jon_NNP arranja_JJ um_JJ bigode_NN falso_NN e_VBP quem_NN faz_NN a_DT festa_JJ é_NN o_JJ Garfield_NNP ._. E_NNP quem_NN sofre_NN ?_. Jon_NNP e_NN Odie_NNP naturalmente_RB ._. As_IN tiras_JJ abaixo_JJ foram_NN publicadas_NNS em_JJ 1983_CD ,_, de_FW 14/03_CD a_DT 20/03_CD ._. Divirta-se_NN !_. Leia_NNP outras_MD tiras_VB do_VB Garfield_NNP Obs_NNP ._. :_: As_IN tiras_NNS aqui_VBP postadas_JJ são_NN tiradas_NNS direto_NN do_VBP Garfield_NNP Desktop_NNP Background_NNP ,_, que_NN vocês_NN podem_NN baixar_NN nesse_JJ link_NN ._. Este_NNP artigo_JJ pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. Não_NNP queria_NN que_NN esse_FW fosse_NN o_NN primeiro_NN post_NN com_NN o_NN novo_JJ template_NN ,_, mas_FW sinceramente_JJ ontem_NN eu_JJ não_JJ tinha_NN muito_VBD a_DT dizer_NN ,_, tamanho_EX era_VBZ a_DT tristeza_NN e_NN o_IN ódio_NNP que_NN eu_NN estava_FW sentindo_NN ao_RB ver_RB as_IN notícias_NNS do_VBP começo_NNS do_VB dia_RB ._. A_DT violência_NN gratuita_NN ,_, o_FW desprezo_FW total_VBP a_DT vida_NN humana_NN parece_NN que_NN não_JJ diminui_NN ._. A_DT cada_JJ dia_NN novos_NN detentores_VBZ desse_JJ ódio_NN nascem_NN ,_, e_NN eles_NNS podem_VBP vir_FW de_FW qualquer_FW classe_JJ social_JJ ._. Basta_NNP ter_NN uma_NN arma_IN na_JJ mão_NN ,_, invocar_NN Deus_NNP ou_VBZ o_JJ Diabo_NNP ,_, e_VBP cometer_NN seus_NN crimes_NNS hediondos_VBP ._. O_NNP assassinato_NN do_VBP cartunista_VB Glauco_NNP e_FW de_FW seu_FW filho_FW é_FW a_DT bola_NN da_NN vez_NN ._. Quem_NNP será_VBD o_JJ próximo_NN ?_. Até_NNP quando_VBD a_DT nossa_JJ sociedade_NN vai_NN permitir_NN passivamente_NN esses_VBZ acontecimentos_NNS ?_. Até_NNP quando_NN nossos_NN governantes_VBZ tomarão_JJ consciência_NN e_NN fazerem_NN o_NN que_NN deve_VBP ser_NN feito_NN ?_. Alguma_NNP coisa_NN tem_NN que_JJ ser_NN feita_NN ._. Deve-se_NNP começar_NN na_TO base_NN que_NN é_VBZ a_DT Educação_NNP ,_, para_NN não_JJ ter_NN que_NN construir_NN prisões_NN e_NN mais_NN prisões_VBZ no_DT futuro_NN ._. O_NNP gasto_NN que_NN se_JJ tem_NN com_NN esses_VBZ infratores_NNS poderia_IN ser_NN redirecionado_NN para_NN outras_IN áreas_NNP ._. O_NNP preso_NN na_TO cadeia_VB deveria_NNS trabalhar_JJ pesado_NN para_NN conseguir_NN o_NN que_NN comer_NN ._. Mas_NNP infelizmente_NN ,_, os_JJ baluartes_NNS e_VBP defensores_NNS dos_VBP Direitos_NNP Humanos_NNP os_MD tratam_VB como_NN se_JJ fossem_NN coitadinhos_NN ,_, como_NN se_NN tirar_VBD a_DT vida_NN de_IN um_JJ semelhante_NN fosse_NN apenas_NN um_JJ mero_NN detalhe_NN ._. Não_NNP vou_NN aqui_NN discutir_NN o_NN fato_NN do_VBP Glauco_NNP ser_VB um_JJ pastor_NN ou_NN de_IN que_FW seu_NN assassino_NN clama_NN ser_NN Jesus_NNP (_( minha_JJ visão_NN sobre_NN religião_NN e_NN Deus_NNP já_NN é_NNP bem_NN conhecida_NN )_) ,_, mas_FW sim_NN ,_, discutir_NN o_NN homem_NN ,_, o_JJ profissional_JJ que_NN ele_NN foi_NN ,_, uma_JJ carreira_NN que_NN num_NN ponto_IN a_DT minha_NN vida_NN eu_NN quis_NN seguir_NN ._. Tive_VB a_DT oportunidade_NN de_IN conhecê-lo_JJ numa_JJ dessas_NN convenções_NN de_IN quadrinhos_FW ou_JJ prêmios_NNS do_VBP HQMix_NNP ,_, durante_NN os_VBD anos_RB 90_CD ,_, e_FW pude_VBP perceber_VB a_DT pessoa_NN que_NN ele_VBP representava_NN apenas_NNS com_VBP um_JJ aperto_NN de_IN mão_FW ._. Você_NNP conhece_NN se_VBD a_DT pessoa_NN é_NNP boa_NN ou_NN má_NN olhando_NN em_NN seus_NN olhos_NN e_NN nas_NNS suas_VBP expressões_JJ faciais_NN ._. Sua_NNP morte_NN ao_NN lado_NN do_VBP filho_RB ,_, mostra_JJ que_NN o_IN ser_JJR humano_NN é_NNP obscuro_NN ,_, maldoso_FW e_FW mesquinho_FW ._. Um_NNP acontecimento_IN desse_NN abala_NN a_DT todos_NN ._. Ontem_NNP ,_, na_RB Devir_NNP ,_, podia_NN se_NN ver_IN a_DT tristeza_NN das_NN pessoas_NN que_NN trabalham_NN na_TO área_NN ,_, aquele_JJ sentimento_NN de_FW insegurança_FW de_FW algo_FW que_NN pode_NN acontecer_NN para_NN qualquer_NN um_NN ,_, basta_NN haver_VBD a_DT oportunidade_NN ,_, já_NN que_NN esses_VBZ assassinos_JJ estão_NN à_NNP nossa_NN volta_NN ._. Fica_NNP aqui_VBZ a_DT minha_NN revolta_NN e_VBP a_DT minha_NN homenagem_NN ao_IN profissional_JJ que_NN se_NN foi_NN ,_, mas_FW que_NN continua_NN vivo_NN em_NN seus_NN cartoons_NNS e_VBP tiras_NNS de_FW quadrinhos_FW eternizados_FW tanto_IN na_JJ mídia_NN impressa_NN quanto_NN na_JJ digital_NN ._. Dona_NNP Marta_NNP Geraldão_NNP Link_NNP para_NN o_NN vídeo_NN Você_NNP está_VBZ deixando_VB a_DT gente_NN com_NN saudades_NNS ,_, Glauco_NNP !_. 1957-2010_JJ Fonte_NNP das_NN imagens_NNS :_: Google_NNP Este_NNP artigo_VBD pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. E_NNP com_NN vocês_NN ,_, mais_FW 10_CD crazy_JJ links_NNS interessantes_VBZ embalados_JJ pelo_NN CSS3_NNP (_( No_NNP IEca_NNP não_RB irá_VBZ funcionar_NN ..._: )_) :_: 10_CD Erros_NNP que_NN Você_NNP Deve_NNP Evitar_NNP em_VBZ Seu_NNP Site_NNP -_: O_NNP Fim_NNP da_NN Várzea_NNP (_( Leia_NNP os_RB conselhos_VBZ do_VBP Mestre_NNP !_. )_) A_DT Física_NNP não_NN explica_NN como_NN recuperar_NN o_IN leite_JJ derramado_NN -_: Luz_NNP de_FW Luma_NNP (_( Explica_NNP sim_RB ,_, o_PRP que_VBP acontece_RB é_NNP que_VBD a_DT entropia_NN do_VBP sistema_VB aumentou_VB !_. )_) Incrementando_NNP o_MD seu_VB blog_SYM -_: Profissão_NN Jornalista_NNP (_( Todos_NNP nósamamos_RB o_RB Blogger_NNP !_. !_. !_. )_) A_DT diferença_NN entre_NN o_JJ correto_NN e_NN o_NN justo_NN -_: Portal_JJ Meira_NNP (_( É_JJ correto_NN ser_NN justo_NN ou_NN é_NNP justo_NN ser_NN correto_NN ?_. )_) Confira_NNP o_MD vídeo_VB clipe_NN de_IN lady_FW Gaga_NNP e_NN Beyoncè_NNP em_VBZ ``_`` Telephone_NNP ''_'' -_: In_IN Commun_NNP Séries_NNP (_( Dois_NNP pedaços_FW de_FW mau_FW caminho_NN ..._: Queria_NNP tanto_VBP ter_NN as_IN duas_NN só_NN para_NN mim_NN !_. )_) International_NNP Women_NNP 's_POS Day_NNP -_: O_NNP Legal_NNP da_NN Web_NNP (_( A_NNP minha_NN contribuição_NN está_NN lá_NN !_. !_. !_. )_) Converta_NNP arquivos_FW de_FW vídeo_FW e_FW grave_VBP em_VBN DVD_NNP -_: Usuário_NN Compulsivo_NNP (_( Dica_NNP da_VBZ musa_NN Juliana_NNP Sardinha_NNP no_DT Compulsivo_NNP )_) Paternalismo_NNP -_: Mundiota_NNP (_( Esse_NNP é_NNP um_JJ dos_NN males_NNS do_VBP nosso_RB país_VB ,_, difícil_FW de_FW mudar_FW !_. )_) O_NNP fim_NN do_VBP domínio_VB masculino_NN -_: Lino_NN Resende_NNP (_( As_IN mulheres_NNS estão_VBP tomando_JJ o_JJ poder_NN !_. !_. !_. Vai_NNP que_JJ é_NNP sua_NN Dilma_NNP !_. !_. !_. )_) Blogger_NNP in_IN Draft_NNP :_: Novidades_NNP na_TO troca_VB de_FW layouts_FW !_. -_: Sem_NN Preceito_NNP (_( Um_NNP tutorial_JJ arrasador_NN desse_NN menino_NN prodígio_NN da_NN nossa_NN blogosfera_NN da_NN nova_NN ferramenta_NN do_VBP Blogger_NNP in_IN Draft_NNP !_. CHUPA_NNP WORDPRESS_NNP !_. !_. !_. )_) Ver_NNP Crazy_NNP Links_NNP anteriores_NNS ._. Este_NNP artigo_JJ pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. Nessa_NNP semana_VBD dedicada_JJ às_NNP mulheres_NNS ,_, não_JJ poderia_NN faltar_NN aqui_NN ,_, justamente_NN nesta_NN sexta_NN ,_, piadas_JJ sobre_NN as_IN mulheres_NNS ._. Portanto_NNP ,_, meninas_NN ,_, divirtam-se_JJ e_NN não_IN me_PRP joguem_JJ pedras_NN !_. Um_NNP homem_VBD e_JJ uma_JJ mulher_NN ,_, após_JJ uma_JJ noite_JJ num_NN barzinho_NN ,_, resolvem_VB ir_NN para_IN a_DT casa_NN dele_NN para_NN ficarem_NN mais_VBD a_DT vontade_NN ..._: Uma_NNP dose_VB aqui_NN ,_, uma_JJ outra_VBP dose_JJ ali_NN e_VBZ a_DT mulher_NN resolve_NN tomar_VBD a_DT iniciativa_JJ dizendo_NN ,_, com_NN voz_NN melosa_NN :_: -_: Me_NN faz_VBZ mulher_RB !_. !_. !_. ..._: .._JJ O_NNP homem_NN ,_, então_NN ,_, diante_NN do_VBP olhar_RB sedento_VB da_NN mulher_NN ,_, tira_VB a_DT roupa_NN vagarosamente_NN ._. Uma_NNP vez_NN com_NN suas_NN roupas_NN na_TO mão_NN ,_, ele_JJ diz_NN para_NN ela_NN :_: -_: Tome_NN !_. vá_JJ lavá-las_JJ !_. Duas_NNP amigas_VBD se_JJ reencontram_NN depois_NN de_IN muito_FW tempo_NN ._. -_: Olá_NN ,_, quanto_FW tempo…_NN Como_NNP é_NNP que_NN vai_NN ?_. -_: Vou_NN bem_NN ._. E_NNP você_NN ?_. -_: Vou_NNP indo_NN ._. Como_NNP vai_JJ seu_NN marido_NN ?_. -_: Você_NNP não_MD soube_VB ?_. Ele_NNP morreu_NN faz_NN dois_NN meses_NNS ._. -_: Ah_NN ,_, eu_JJ não_FW sabia_NN !_. Que_NNP horror_NN !_. -_: É_NN ,_, um_JJ horror…_SYM -_: Mas_NNP o_MD que_VB foi_JJ que_NN aconteceu_NN ?_. -_: Foi_NNP de_IN repente_FW ._. Pedi_NNP pra_NN ele_NN ir_NN comprar_NN açúcar_NN no_DT supermercado_NN ,_, aí_JJ veio_NN um_JJ ônibus_NNP e_NN passou_NN por_NN cima_NN dele_NN ._. -_: Mas_NNP que_NN coisa_NN triste…_SYM -_: Pois_NNP é…_NNP Mas_NNP tudo_NN bem_NN ._. Tomei_NNP o_JJ café_NN sem_NN açúcar_NN mesmo_NN ._. Aquela_NNP mulher_PRP feia_NN ,_, coitada_NN ,_, tão_EX desengonçada_NN que_NN nunca_JJ tinha_NN conseguido_NN ter_NN um_JJ namorado_NN ,_, vai_FW pedir_FW auxílio_FW a_DT uma_JJ vidente_NN ._. —_CC Minha_NNP filha_NN !_. Nessa_NNP vida_NN ,_, você_FW não_FW vai_FW ser_NN muito_NN feliz_VBZ no_DT amor_NN —_VBZ prediz_VBZ a_DT mulher_NN ._. —_CC Mas_NNP na_TO próxima_VB encarnação_JJ você_NN será_NN uma_IN mulher_JJR lindíssima_NN ,_, muito_FW cobiçada_NN e_NN todos_NN os_NN homens_VBZ se_JJ arrastarão_JJ aos_NN seus_NN pés_NN ._. A_DT mulher_NN saiu_NN dali_NN muito_NN feliz_NN e_NN ao_NN passar_NN por_NN um_JJ viaduto_NN ,_, pensou_NN :_: ``_`` Quando_NNP mais_NN cedo_NN eu_NN morrer_NN ,_, mais_FW cedo_NN começa_VBP a_DT minha_NN outra_JJ vida_NN !_. ''_'' e_VBZ atirou-se_JJ lá_NN de_IN cima_NN ._. Mas_NNP ,_, por_NN essas_NN incríveis_NN coincidências_NN que_NN só_NN acontecem_NN em_NN sites_VBZ de_IN humor_NN ,_, ela_JJ não_NN morreu_NN porque_NN caiu_NN de_IN costas_NNS em_JJ cima_NN de_IN um_JJ camião_JJ carregado_NN de_IN bananas_FW e_FW perdeu_FW os_FW sentidos_NN ._. Assim_NNP que_JJ se_NN recuperou_NN ,_, ainda_IN atordoada_JJ e_NN sem_JJ saber_NN onde_NN estava_NN ,_, começou_VB a_DT apalpar_NN em_NN volta_NN de_IN si_FW e_FW quando_FW sentiu_FW a_DT protuberância_NN das_NN bananas_NN ,_, murmurou_FW com_NN um_JJ sorriso_NN nos_JJ lábios_NNS :_: —_JJ Um_NNP de_FW cada_FW vez_NN ..._: por_NN favor_NN !_. Um_NNP de_IN cada_FW vez_NN !_. Aos_$ 18_CD anos_NNS ,_, a_DT mulher_NN é_NN como_NN uma_JJ bola_NN de_IN futebol_NN :_: tem_NN 22_CD homens_NNS correndo_JJ atrás_JJ e_NN milhares_NNS de_IN homens_FW de_FW olho_FW nela_FW ._. Aos_$ 28_CD anos_NNS ,_, ela_VBP passa_VB a_DT ser_NN como_NN uma_JJ bola_NN de_IN basquete_NN :_: mais_NN rechonchuda_NN ,_, com_NN dez_NN homens_VBZ correndo_JJ atrás_NN e_NN alguns_VBZ colegas_JJ assistindo_NN ._. Aos_$ 38_CD anos_NNS ,_, ela_VBP é_JJ como_NN uma_JJ bolinha_NN de_IN golfe_NN :_: tem_NN só_VBZ um_JJ homem_NN andando_NN atrás_NN dela_NN e_NN meia_FW dúzia_NN de_IN amigos_FW olhando_NN ._. Aos_$ 48_CD anos_NNS ,_, ela_VBP passa_VB a_DT ser_NN como_NN uma_JJ bolinha_NN de_IN pingue-pongue_NN :_: um_JJ homem_NN fica_NN jogando_JJ pro_JJ outro_NN !_. Em_NNP um_JJ congresso_NN de_IN mulheres_NNS estava_VBP sendo_JJ discutido_NN quais_NN eram_NN as_IN mais_NN inteligentes_NNS :_: as_IN morenas_NNS ,_, as_IN ruivas_NN ou_NN as_IN loiras_NNS ._. Uma_NNP morena_VBD subiu_JJ ao_NN palanque_NN e_FW disse_NN :_: —_NN Nós_NNP ,_, morenas_NN ,_, fomos_NN as_IN primeiras_JJ mulheres_VBZ a_DT fabricar_NN um_JJ computador_NN !_. Todas_NNP as_IN morenas_JJ aplaudiram_NN ._. Então_NNP foi_VBD a_DT vez_NN da_NN ruiva_NN :_: —_NN Nós_NNP ,_, ruivas_NN ,_, fomos_NN as_IN primeiras_JJ mulheres_VBZ a_DT ir_NN para_NN a_DT lua_NN !_. A_DT minoria_NN ruiva_NN aplaudiu_NN ._. Até_NNP que_JJ uma_JJ loira_NN subiu_NN ao_NN palanque_NN ._. —_JJ Nós_NNP ,_, as_IN loiras_NNS ,_, ainda_NN não_JJ fizemos_NN grande_NN coisa_NN ,_, mas_FW já_NN temos_NN um_JJ projeto_NN de_FW sermos_NN as_IN primeiras_JJ mulheres_VBZ a_DT ir_JJ até_NN o_NN sol_NN !_. As_IN mulheres_NNS caem_VBP na_TO gargalhada_VB e_NN uma_JJ morena_NN grita_NN :_: —_JJ Se_NNP vocês_NN foram_NN até_NN o_NN sol_NN ,_, vão_JJ morrer_NN esturricadas_NNS ,_, suas_JJ antas_NN !_. A_DT loira_JJ chega_NN bem_NN perto_NN do_VBP microfone_CD e_VB se_JJ explica_NN :_: —_JJ Alôouuuuu_NNP !_. Mas_NNP nós_JJ vamos_NN de_IN noi-teeee_JJ !_. Três_NNP mulheres_NNS ,_, uma_JJ noiva_NN ,_, uma_JJ casada_NN e_NN uma_JJ amante_NN estava_FW conversando_NN sobre_NN seus_NN relacionamentos_NN e_NN decidiram_NN agradar_NN seus_NN homens_NNS ._. Aquela_NNP noite_JJ todas_NNS as_IN três_NN iriam_NN testar_NN a_DT sensualidade_NN e_NN o_JJ poder_NN que_NN exerciam_NN sobre_NN seus_NN companheiros_NN ,_, usando_JJ corpete_NN de_IN couro_NN ,_, máscara_FW nos_FW olhos_FW e_FW botas_FW de_FW cano_FW alto_NN ._. Após_NNP alguns_VBZ dias_NN ,_, elas_VBP tornaram_VB a_DT se_JJ encontrar_NN ._. Cada_NNP uma_JJ relatou_NN a_DT sua_NN experiência_NN ._. Disse_VB a_DT noiva_NN :_: -_: Naquela_NNP noite_RB ,_, quando_JJ meu_NN namorado_NN chegou_NN em_JJ casa_JJ encontrou-me_JJ usando_JJ o_JJ corpete_NN de_IN couro_NN ,_, botas_NNS com_VBP 12cm_CD de_IN salto_FW e_FW máscara_FW sobre_FW os_FW olhos_NN ._. Ele_VB me_PRP olhou_JJ intensamente_JJ e_NN disse_NN :_: ``_`` -_: Você_NNP é_VBZ a_DT mulher_NN da_NN minha_NN vida_NN ,_, eu_JJ te_NN amo_NN ._. ''_'' Então_NNP fizemos_VBD amor_RP a_DT noite_JJ inteira_NN ._. A_DT amante_JJ contou_NN a_DT sua_JJ versão_NN :_: -_: Ah_NN ,_, comigo_NN também_NN foi_NN parecido_NN ._. Naquela_NNP noite_JJ encontrei_NN meu_NN amante_VBZ no_DT escritório_NN ._. Estava_NNP usando_JJ um_JJ corpete_NN de_IN couro_NN ,_, mega_JJ saltos_NN ,_, máscara_NN sobre_NN os_NN olhos_NN e_NN ..._: mais_NN nada_NN !_. Usava_NNP uma_JJ capa_NN de_IN chuva_FW para_NN cobrir_NN meu_NN corpo_NN ._. Quando_NNP eu_VBZ abri_RP a_DT capa_NN ,_, ele_JJ não_FW disse_NN nada_NN ..._: seus_NN olhos_IN me_PRP devoraram_VBP ..._: me_PRP agarrou_IN e_NN tivemos_NNS sexo_VBP a_DT noite_JJ toda_NN ._. E_NNP aí_VBD a_DT casada_NN contou_NN sua_NN história_NN :_: -_: Naquela_NNP noite_JJ eu_NN mandei_NN as_IN crianças_NN para_IN a_DT casa_NN da_NN minha_NN mãe_NN ._. Arrumei-me_JJ como_NN combinado_NN :_: corpete_NN de_IN couro_NN ,_, super_JJ saltos_NN ,_, máscara_NN sobre_NN os_NN olhos_NN ._. Então_NNP resolvi_JJ incrementar_NN o_JJ visual_JJ ._. Aproveitei_NNP para_NN inaugurar_NN um_JJ perfume_NN novo_JJ e_NN um_JJ batom_NN vermelho_NN que_NN nunca_JJ tinha_NN usado_JJ antes_NNS ._. Lembrei-me_NNP de_IN um_NNP comentário_NN que_NN meu_NN marido_NN fez_NN sobre_VBD a_DT sensualidde_NN da_NN roupa_NN íntima_NNP preta_NN e_NN coloquei_VBZ a_DT que_JJ acabara_NN de_IN comprar_NN ..._: um_JJ fio_JJ dental_JJ com_NN um_JJ lacinho_NN de_IN cetim_NN em_NN ponto_IN estratégico_NN ._. Quando_NNP meu_NN marido_NN chegou_NN do_VBP trabalho_NNS ,_, abriu_VBP a_DT porta_NN e_IN me_PRP encontrou_VBP em_JJ pé_NN no_DT meio_NN do_VBP quarto_VB fazendo_VB caras_NNS e_RB bocas_VBP ._. Olhou-me_NNP de_IN cima_FW abaixo_JJ endisse_NN :_: ``_`` -_: E_NN aí_NN ,_, Batman_NNP ,_, o_NN que_NN temos_NN para_NN o_IN jantar_NN ?_. ''_'' Via_NNP Zumbi_NNP sem_VBD teto_NN Crédito_NNP das_VBZ miniaturas_NNS :_: Moda_NNP para_NN homens_NNS Este_NNP artigo_VBD pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. Mais_NNP uma_JJ novidade_VBD no_DT Blogger_NNP in_IN Draft_NNP :_: O_NNP Blogger_NNP Template_NNP Designer_NNP ou_MD o_VB Designer_NNP do_VB modelo_RB ._. Com_NNP essa_JJ nova_RB ferramenta_NN ,_, os_JJ usuários_JJ podem_NN testar_NN novos_JJ modelos_NN de_IN template_NN e_NN as_IN novas_JJ ferramentas_NNS da_NN plataforma_NN ,_, além_FW de_FW poderem_FW customizar_NN os_NN seus_NN próprios_NNS templates_NNS ._. link_NN para_NN o_NN vídeo_NN Com_NNP essa_VBZ mais_FW nova_JJ ferramenta_NN ,_, o_PRP usuario_JJ do_VBP Blogger_NNP terá_NN :_: -_: 15_CD novos_JJ modelos_NN de_IN templates_NNS totalmente_VBP customizáveis_SYM -_: Templates_VBZ com_JJ uma_NN ,_, duas_NN ou_NN três_NN colunas_NN ,_, que_JJ podem_NN ser_NN reorganizadas_NN ao_NN seu_NN bel_NN prazer_NN -_: Centenas_NNP de_IN imagens_FW e_FW padrões_FW (_( patterns_NNS )_) diretos_NNS do_VBP &amp;_CC nbsp_VBP ;_: iStockphoto_NN ,_, um_JJ site_NN que_NN possui_NN várias_NN imagens_VBZ grátis_NN ._. Essa_NNP novidade_VBD está_JJ presente_NN somente_NN no_DT Blogger_NNP in_IN Draft_NNP ._. Clique_NNP em_VBD Lay-out_NNP &amp;_CC nbsp_NN ;_: e_CC depois_VB em_JJ Designer_NNP de_FW modelo_NN :_: Atenção_NN :_: Templates_VBZ de_IN terceiros_FW não_JJ dá_NN para_NN serem_NN customizados_NN ._. Descobri_NNP isso_JJ ao_NN tentar_NN aplicar_NN algumas_NN funcionalidades_NNS neste_NN template_NN ._. Atualização_$ 14/03_CD :_: Para_NNP quem_VBZ quiser_JJR aprender_NN como_NN mexer_NN nessa_JJ nova_JJ ferramenta_NN ,_, recomendo_NN os_NN seguintes_VBZ tutoriais_NNS :_: -_: Blogger_NN in_IN Draft_NNP :_: Novidades_NNP na_TO troca_VB de_FW layouts_FW !_. -_: Sem_NN Preceito_NNP -_: C_NNP omo_MD criar_VB um_JJ template_NN para_NN Blogger_NNP /_NNP Blogspot_NNP -_: Dicas_NNP Blogger_NNP Chupa_NNP Wordpress_NNP !_. !_. !_. Este_NNP artigo_JJ pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. Opinião_NNP é_NNP que_NN nem_NN cú_NN ,_, todo_FW mundo_NN tem_NN ._. Com_NNP ou_JJ sem_NN embasamento_NN ,_, muitos_FW falam_JJ sobre_NN um_JJ determinado_NN assunto_NN ,_, pois_VBP cada_JJ um_JJ tem_NN o_JJ seu_NN ponto_NN de_IN vista_FW e_FW o_FW que_NN é_NNP melhor_NN ,_, vivemos_FW num_FW país_FW democrático_FW e_FW a_DT liberdade_NN de_IN expressão_FW é_NNP garantida_NN pela_NN constituição_NN ,_, embora_FW certos_NN setores_VBZ nem_JJ pensem_NN assim_NN ._. Quando_NNP uma_JJ pessoa_NN opina_NN ,_, ela_JJ quer_NN passar_NN o_NN seu_NN pensamento_IN a_DT respeito_NN de_IN alguma_FW coisa_NN ,_, estando_FW ela_FW certa_NN ou_IN errada_NN ,_, é_NNP um_JJ direito_NN dela_NN ,_, exclusivamente_JJ dela_NN ._. Os_NNP outros_JJ podem_NN concordar_NN ou_NN discordar_NN ,_, críticas_NN e_NN sugestões_NN sempre_NN são_NN bem_NN vindas_NN ,_, a_DT não_JJ ser_NN quando_NN querem_NN impor_NN uma_JJ verdade_NN ,_, o_JJ que_NN é_NNP discutível_NN e_NN também_NN quando_NN começam_VBZ a_DT atacar_NN o_NN autor_NN ._. Eu_NNP aqui_VBZ no_DT meu_NN blog_NN ,_, eu_JJ escrevo_NN o_NN que_NN quero_NN ,_, o_JJ que_NN penso_NN ,_, o_JJ que_NN acredito_IN ser_NN certo_NN ._. Aceito_NNP as_IN críticas_NN e_NN respeito_VBZ a_DT opinião_NN de_IN quem_FW discorda_FW de_FW mim_FW ,_, mas_FW nunca_FW aceitarei_NN que_NN me_PRP imponham_JJ algo_NN ._. Não_NNP sou_VBD o_FW dono_FW da_NN verdade_NN e_NN nem_JJ quero_NN ser_NN ,_, mas_FW eu_FW só_NN quero_NN uma_JJ palavra_NN :_: Respeito_NN !_. Respeito_NNP que_JJ muitos_NNS não_JJ tiveram_JJ com_NN o_NN autor_NN deste_NN post_NN no_DT blog_NN Nerds_NNP Somos_NNP Nozes_NNP ._. O_NNP Gabriel_NNP Radd_NNP ,_, que_NN eu_NN não_NN conheço_NN ,_, é_NNP um_JJ dos_NN colaboradores_NNS do_VBP blog_VB e_VB começou_VB a_DT ser_NN patrulhado_NN e_NN achincalhado_NN por_NN aqueles_VBZ que_JJ não_RB respeitam_VBP a_DT opinião_JJ dos_NN outros_NN ._. Tudo_NNP porque_NN ele_NN escreveu_NN que_NN a_DT literatura_NN brasileira_NN é_NNP um_JJ pé_NN no_DT saco_NN e_VBZ fez_JJ algumas_NN comparações_NN a_DT J._NNP R._NNP R._NNP Tolkien_NNP ,_, por_NN exemplo_NN ._. Os_NNP defensores_VBZ da_JJ cultura_NN nacional_JJ e_NN do_VBP politicamente_VB correto_VB cairam_JJ em_NN cima_NN e_NN o_IN Gabriel_NNP até_VBP pediu_NN para_NN que_NN o_NN seu_NN post_NN fosse_NN apagado_NN ,_, por_JJ causa_NN das_NNS proporções_VBP que_JJ chegou_NN a_DT polêmica_NN ._. Ainda_NNP bem_NN que_NN os_NN editores_NNS do_VBP Nerds_NNS Somos_NNP Nozes_NNP não_JJ apagaram_NN o_VBZ post_NN em_NN questão_NN ,_, porque_NN seria_NNS uma_JJ tremenda_NN censura_NN ,_, algo_JJ que_NN lá_NN atrás_NN lutamos_NN para_NN que_NN ela_FW fosse_NN extirpada_NN da_NN nossa_NN sociedade_NN ._. Eu_NNP não_JJ tenho_NN rabo_NN preso_NN com_NN ninguém_NN ,_, e_FW portanto_FW engrosso_FW a_DT discussão_NN concordando_NN que_NN a_DT Literatura_NNP brasileira_NN é_NNP um_JJ tremendo_NN pé_NN no_DT saco_NN mesmo_NN !_. E_NNP eu_JJ não_RB coloco_VBP a_DT culpa_NN nos_JJ professores_NNS não_RB ._. A_DT Literatura_NNP faz_NN parte_NN do_VBP currículo_VB e_VB possui_JJ um_JJ conteúdo_NN programático_NN que_NN tem_NN que_JJ ser_NN cumprido_NN ._. Infelizmente_NNP os_MD livros_VB são_JJ massantes_NNS e_VBP sem_JJ nenhum_NN apelo_NN ,_, muitos_NN retratam_NN épocas_NNP passadas_NN que_NN não_JJ interessantes_VBZ segundo_JJ o_JJ meu_NN ponto_NN de_IN vista_FW ._. Se_NNP eu_JJ tivesse_NN iniciado_NN a_DT leitura_NN a_DT partir_NN dela_NN ,_, eu_JJ não_FW teria_NN gosto_NN e_NN nenhum_JJ apreço_NN à_NNP leitura_NN ._. Tudo_NNP é_NNP desestimulante_NN ,_, desde_VB a_DT paisagem_NN até_NN o_NN português_NN arcaico_NN dos_NN séculos_NN anteriores_NNS ._. Talvez_NNP o_JJ modernismo_NN ainda_NN pareça_NN interessante_NN ,_, mas_FW é_FW só_NN ._. O_NNP meu_NN gosto_NN da_NN leitura_NN se_NN deve_VBP a_DT Stan_NNP Lee_NNP ,_, Carl_NNP Barks_NNP ,_, Richard_NNP Bach_NNP ,_, Alan_NNP Moore_NNP ,_, J._NNP R._NNP R._NNP Tolkien_NNP ,_, Peter_NNP David_NNP ,_, Maurício_NNP de_IN Souza_NNP ,_, Roy_NNP Thomas_NNP ,_, Jorge_NNP Amado_NNP (_( um_JJ brasileiro_NN !_. !_. !_. )_) ,_, Ray_NNP Bradmoore_NNP ,_, Clarice_NNP Lispector_NNP (_( uma_JJ brasileira_NN !_. !_. !_. )_) ,_, etc_FW ,_, etc_FW ._. Sim_NNP ,_, eu_JJ cresci_NN lendo_NN muitos_NN quadrinhos_NN ,_, ficção_NN científica_NN e_NN RPG_NNP ._. Se_NNP hoje_VBD a_DT leitura_NN está_NN inserida_NN e_NN latente_NN em_NN mim_NN ,_, eu_JJ não_NN agradeço_NN à_NNP Literatura_NNP Brasileira_NNP ,_, pois_NN ela_NN destruiria_NN totalmente_NN esse_FW meu_NN prazer_NN ,_, que_JJ por_NN muitas_NNS vezes_VBZ tive_JJ que_NN agüentar_NN por_NN causa_NN unica_JJ e_NN exclusivamente_NNS do_VBP vestibular_JJ ._. Espero_NNP que_NN meus_NN colegas_NN de_IN profissão_FW Bauru_NNP e_FW Jo_Angel_NNP não_FW tenham_NN se_FW assustados_NN com_NN essas_NN minhas_NN declarações_NN ,_, a_DT língua_JJ portuguesa_NN é_NNP bela_NN e_NN rica_NN ,_, reconheço_NN ,_, mas_VB a_DT sua_NN literatura_NN é_NNP mesmo_NN um_JJ pé_NN no_DT saco_NN ._. E_NNP um_JJ recado_NN para_NN os_JJ patrulheiros_NN de_IN plantão_NN :_: Eu_NNP não_MD sigo_VB a_DT porra_NN de_IN reforma_FW nenhuma_FW ,_, e_FW não_FW me_PRP venham_FW reclamar_NN que_NN o_NN trema_NN caiu_NN ._. Este_NNP artigo_JJ pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._. Quem_NNP me_PRP conhece_VBP sabe_JJ que_NN eu_JJ fujo_NN de_IN relacionamentos_FW e_FW casamentos_NNS assim_VBP como_NN o_NN Diabo_NNP foge_NN da_NN cruz_NN ._. Juro_NNP que_NN eu_NN não_NN consigo_VB me_PRP imaginar_JJ dentro_FW de_FW algo_FW que_NN acaba_NN com_VBZ a_DT sua_NN masculinidade_NN ._. Uma_NNP verdadeira_JJ prisão_NN !_. As_IN duas_JJ webcomics_NNS abaixo_VBP são_JJ engraçadas_FW para_NN não_FW dizer_NN trágicas_NN ._. Via_NNP Doghouse_NNP -_: He_PRP said_VBD She_PRP said_VBD Via_NNP Doghouse_NNP -_: The_DT Pants_NNS O_NNP pior_JJ é_NNP que_NN no_DT fim_NN elas_VBZ é_JJ quem_NN mandam_NN ._. Este_NNP artigo_JJ pertence_NN ao_NN Crazyseawolf_NNP 's_POS Blog_NNP ._. Plágio_NNP é_NNP crime_NN e_NN está_VBP previsto_NN no_DT artigo_NN 184_CD do_VBP Código_NNP Penal_NNP ._.</t>
-  </si>
-  <si>
-    <t>Woke_VBD up_RB at_IN 5.30AM_CD and_CC read_VB my_PRP$ morning_NN email_NN ,_, as_IN always_RB ._. I_PRP usually_RB have_VBP an_DT alarm_NN to_TO read_VB it_PRP at_IN 4.30AM_CD but_CC it_PRP 's_VBZ a_DT Sunday_NNP ._. Just_NNP caught_VBD the_DT husband_NN leaving_VBG for_IN an_DT offroading_NN on_IN his_PRP$ bike_NN and_CC went_VBD right_RB back_RB to_TO sleep_VB ,_, after_IN asking_VBG him_PRP to_TO take_VB care_NN ._.</t>
-  </si>
-  <si>
-    <t>e.The_NNS next_JJ part_NN of_IN the_DT problem_NN is_VBZ figuring_VBG out_RP how_WRB to_TO test_VB for_IN unbounded_JJ sequences_NNS ._. A_DT good_JJ approximation_NN can_MD be_VB reached_VBN by_IN running_VBG through_IN n_JJ iterations_NNS and_CC quitting_VBG if_IN the_DT magnitude_NN of_IN z_NN exceeds_NNS 2_CD ._. The_DT magnitude_NN of_IN a_DT complex_JJ number_NN with_IN real_JJ part_NN a_DT and_CC imaginary_JJ part_NN b_NN is_VBZ sqrt_JJ (_( a^2_JJ +_NNP b^2_NN )_) ._. For_IN simple_JJ graphs_NN ,_, a_DT reasonable_JJ value_NN for_IN n_NN is_VBZ 100.Here_CD 's_POS what_WP a_DT simple_JJ Mandelbrot_NNP set_VBD grapher_NN in_IN JavaScript_NNP looks_VBZ like_IN :_: for_IN (_( var_JJ x_NNP =_NNP 1_CD ;_: x_NN for_IN (_( var_JJ y_NN =_$ 1_CD ;_: y_CC var_FW count_NN =_VBD 0_CD ;_: var_JJ size_NN =_$ 0_CD ;_: var_NN cx_NN =_NNP xcorner_NNP +_NNP (_( (_( x_NNP *_NNP zoom_NN )_) /_NNP this.width_NN )_) ;_: var_FW cy_NN =_NNP ycorner_NN +_NN (_( (_( y_PRP *_NNP zoom_NN )_) /_NNP this.height_NN )_) ;_: var_FW zx_FW =_FW 0_CD ;_: var_NN zy_NN =_VBZ 0_CD ;_: while_IN (_( count_NN count_NN +=_VBD 1_CD ;_: temp_NN =_NN (_( zx_JJ *_NNP zx_NN )_) -_: (_( zy_JJ *_NNP zy_NN )_) ;_: zy_VBN =_NNP (_( 2_CD *_NNP zx_NN *_NNP zy_NN )_) +_VBZ cy_JJ zx_NNP =_NNP temp_NN +_NNP cx_NN ;_: size_NN =_NN (_( zx_JJ *_NNP zx_NN )_) +_NN (_( zy_JJ *_NNP zy_NN )_) ;_: }_) this.Plot_NN (_( x_UH ,_, y_JJ ,_, count_NN )_) ;_: //_CC count_NN serves_NNS as_IN a_DT good_JJ color_NN hint_NN ._. }_) }_) By_IN setting_VBG the_DT xcorner_NN ,_, ycorner_NN ,_, and_CC zoom_NN variables_NNS ,_, the_DT above_JJ code_NN allows_VBZ you_PRP to_TO pan_VB across_IN and_CC zoom_NN into_IN various_JJ points_NNS in_IN the_DT set_NN ._. To_TO accommodate_VB for_IN pretty_JJ visualizations_NNS ,_, you_PRP can_MD use_VB count_NN to_TO determine_VB the_DT color_NN of_IN the_DT pixel.A_NN barebones_NNS implementation_NN is_VBZ available_JJ here_RB :_: mandelbrot.js_NN ._. Although_IN it_PRP is_VBZ not_RB a_DT very_RB efficient_JJ implementation_NN ,_, it_PRP is_VBZ very_RB simple_JJ ,_, and_CC if_IN you_PRP squint_VBP hard_JJ enough_RB ,_, you_PRP can_MD see_VB how_WRB the_DT code_NN relates_VBZ to_TO the_DT visualization.The_NN Mandelbrot_NNP Set_NNP Generator_NNP is_VBZ a_DT harness_NN I_PRP built_VBP with_IN mandelbrot.js_NN ._. Play_VB with_IN the_DT parameters_NNS and_CC let_VB me_PRP know_VB if_IN you_PRP find_VBP anything_NN interesting_JJ ._. It_PRP also_RB turns_VBZ out_RP to_TO be_VB a_DT good_JJ br_NN</t>
-  </si>
-  <si>
-    <t>THE_DT ELEGANT_NNP WOMAN_NNP in_IN the_DT pink_NN silk_NN kimono_FW attracts_VBZ admiring_VBG glances_NNS from_IN be-suited_JJ businessmen_NNS and_CC elderly_JJ Japanese_JJ women_NNS as_IN she_PRP walks_VBZ through_IN the_DT narrow_JJ ,_, tourist-choked_JJ streets_NNS leading_VBG to_TO Tokyo_NNP 's_POS Sensoji_NNP Temple_NNP ._. The_DT locals_NNS here_RB in_IN the_DT old_JJ district_NN of_IN Asakusa_NNP know_VBP a_DT real_JJ geisha_NN when_WRB they_PRP spot_VBP one_CD —_NNP even_RB if_IN she_PRP is_VBZ a_DT tall_JJ Westerner_NNP with_IN olive-green_JJ eyes_NNS ._. From_IN her_PRP$ rounded_JJ bun_NN hairstyle_NN to_TO her_PRP$ pigeon-toed_JJ tabi_NN socks_NNS ,_, Sayuki_NNP ,_, otherwise_RB known_VBN as_IN anthropologist_NN Fiona_NNP Graham_NNP ,_, is_VBZ decked_VBN out_RP so_RB immaculately_RB in_IN true_JJ geisha_NN style_NN that_IN her_PRP$ admirers_NNS utter_VBP the_DT same_JJ compliment_NN as_IN she_PRP passes_VBZ by_IN :_: kirei_NN desu_NN ne_NN —_NNP she_PRP 's_VBZ beautiful_JJ ._. Sayuki_NNP denies_VBZ she_PRP 's_VBZ a_DT flawless_JJ example_NN of_IN Japan_NNP 's_POS ancient_JJ flower_NN and_CC willow_JJ world_NN ._. ``_`` Being_VBG a_DT geisha_NN takes_VBZ a_DT lifetime_NN to_TO perfect_VB ,_, ''_'' she_PRP deflects_VBZ ,_, as_IN she_PRP clacks_VBZ along_RB in_IN lacquer_NN sandals_NNS that_IN she_PRP wears_VBZ slightly_RB too_RB small_JJ to_TO make_VB her_PRP$ size-8_JJ feet_NNS look_VBP more_JJR petite_JJ ._. Sayuki_NNP ,_, who_WP was_VBD born_VBN in_IN Melbourne_NNP ,_, Australia_NNP ,_, became_VBD the_DT first_JJ foreign_JJ woman_NN in_IN the_DT notoriously_RB closed_JJ profession_NN 's_POS 400-year_JJ history_NN to_TO formally_RB debut_VB as_IN a_DT geisha_NN two_CD years_NNS ago_RB ,_, in_IN late_JJ 2007_CD ._. ``_`` I_PRP 've_VBP only_RB just_RB begun_VBN ,_, ''_'' she_PRP says_VBZ ._. ``_`` To_TO many_JJ of_IN my_PRP$ geisha_NN sisters_NNS ,_, I_PRP 'm_VBP still_RB a_DT walking_JJ disaster_NN ._. ''_'' It_PRP 's_VBZ all_DT relative_JJ ._. Near_IN Sensoji_NNP 's_POS majestic_JJ red_JJ gateway_NN ,_, gaggles_NNS of_IN female_JJ Japanese_JJ tourists_NNS are_VBP clad_VBN in_IN flowery_NN kimonos_NN —_VBP a_DT new_JJ retro_JJ fashion_NN trend_NN ._. Sacrilegiously_RB ,_, they_PRP 've_VBP added_VBN lace_NN and_CC frills_NNS to_TO the_DT fabric_NN and_CC wear_JJ garish_JJ costume_NN jewelry_NN ._. ``_`` Also_RB ,_, they_PRP do_VBP n't_RB wear_VB underwear_JJ ._. The_DT geisha_NN elders_NNS are_VBP scandalized_VBN ,_, ''_'' laughs_VBZ Sayuki_NNP ,_, with_IN only_RB a_DT faint_NN Aussie_NNP twang_NN in_IN her_PRP$ girlish_JJ voice_NN ._. ``_`` I_PRP 'm_VBP wearing_VBG four_CD layers_NNS of_IN lingerie_NN under_IN my_PRP$ kimono_NN ,_, so_RB at_IN least_JJS I_PRP 've_VBP got_VBD that_DT right_NN ._. ''_'' Flaunting_VBG womanly_JJ curves_NNS is_VBZ considered_VBN vulgar_NN in_IN the_DT refined_JJ geisha_NN realm_NN ;_: the_DT layered_JJ undergarments_NNS ,_, resembling_VBG silk_NN bandages_NNS ,_, ensure_VB a_DT tubular_NN ,_, demure_NN silhouette_NN ._.</t>
-  </si>
-  <si>
-    <t>Black_NNP and_CC white_JJ does_VBZ not_RB scare_VB us_PRP ._. It_PRP ’_VBZ s_PDT the_DT grey_JJ things_NNS that_WDT are_VBP scary_JJ ._. They_PRP are_VBP the_DT ones_NNS that_WDT defy_VBP classification_NN ._. They_PRP are_VBP the_DT ones_NNS you_PRP want_VBP to_TO classify_VB as_IN white_JJ ,_, yet_RB in_IN your_PRP$ heart_NN you_PRP know_VBP they_PRP could_MD as_RB well_RB be_VB black_JJ ._. What_WP happened_VBD that_DT day_NN was_VBD a_DT gray_JJ thing_NN ,_, a_DT dark_JJ gray_JJ thing_NN if_IN you_PRP will_MD ._. My_PRP$ native_JJ place_NN is_VBZ Paravaicheri_NNP which_WDT is_VBZ a_DT village_NN about_IN 50_CD Km_NNP south_NN of_IN Chennai_NNP ._. Almost_NNP every_DT weekend_NN I_PRP used_VBD to_TO take_VB a_DT bus_NN from_IN Koyambedu_NNP bus_NN stand_NN at_IN about_IN 8_CD PM_NNP ._. I_PRP would_MD reach_VB my_PRP$ village_NN at_IN about_IN 9_CD 30_CD PM_NNP ._. I_PRP had_VBD to_TO walk_VB 2_CD km_NN from_IN the_DT high_JJ way_NN to_TO reach_VB my_PRP$ house_NN ._. I_PRP had_VBD lived_VBN in_IN the_DT village_NN for_IN most_JJS of_IN my_PRP$ life_NN ,_, till_NN I_PRP came_VBD to_TO Chennai_NNP to_TO join_VB college_NN ._. I_PRP got_VBD a_DT job_NN in_IN Chennai_NNP after_IN finishing_VBG college_NN ._. So_RB effectively_RB for_IN almost_RB four_CD and_CC half_NN years_NNS I_PRP had_VBD undertaken_VBN this_DT journey_NN almost_RB every_DT weekend_NN and_CC there_EX had_VBD never_RB been_VBN any_DT event_NN of_IN significance_NN save_NN for_IN a_DT couple_NN of_IN bus_NN breakdowns_NNS ._. So_CC that_IN day_NN ,_, as_IN I_PRP boarded_VBD the_DT bus_NN late_RB at_IN 9_CD PM_NNP ,_, surprised_VBD to_TO find_VB it_PRP so_RB empty_JJ ,_, I_PRP had_VBD no_DT reason_NN to_TO doubt_VB that_IN my_PRP$ journey_NN was_VBD going_VBG to_TO be_VB any_DT different_JJ this_DT time_NN ._. There_EX were_VBD hardly_RB seven_CD people_NNS in_IN the_DT bus_NN including_VBG the_DT conductor_NN and_CC driver_NN ._. I_PRP put_VBD on_IN my_PRP$ headset_NN and_CC started_VBD listening_VBG to_TO songs_NNS on_IN my_PRP$ Sony_NNP Ericcson_NNP ._. Two_CD men_NNS who_WP were_VBD sitting_VBG two_CD rows_NNS ahead_RB of_IN me_PRP were_VBD conversing_VBG about_IN whether_IN or_CC not_RB the_DT world_NN will_MD end_VB in_IN 2012_CD ._. I_PRP increased_VBD the_DT volume_NN in_IN my_PRP$ phone_NN to_TO tune_VB out_RP their_PRP$ voices_NNS ._. I_PRP closed_VBD my_PRP$ eyes_NNS after_IN setting_VBG alarm_NN for_IN 10_CD PM_NNP ._. The_DT constant_JJ roaring_NN of_IN the_DT engine_NN served_VBD as_IN a_DT perfect_JJ lullaby_NN as_IN I_PRP dozed_VBD off_RP within_IN five_CD minutes_NNS ,_, oblivious_JJ of_IN the_DT impending_JJ nightmare_NN ._. I_PRP woke_VBD up_RP with_IN a_DT disturbed_JJ feeling_NN after_IN ten_JJ minutes_NNS ._. I_PRP blinked_VBD ._. The_DT interior_NN of_IN the_DT bus_NN was_VBD dark_JJ ._. And_CC I_PRP noticed_VBD the_DT glowing_VBG letters_NNS in_IN the_DT panel_NN behind_IN the_DT driver_NN :_: I_PRP was_VBD amused_VBN that_IN I_PRP had_VBD not_RB noticed_VBN it_PRP before_IN ._. It_PRP was_VBD pitch_VBN dark_JJ outside_IN and_CC it_PRP beat_VBD me_PRP why_WRB they_PRP would_MD want_VB to_TO switch_VB off_RP the_DT lights_NNS inside_IN the_DT bus_NN ._. I_PRP saw_VBD that_IN the_DT two_CD people_NNS in_IN the_DT seats_NNS two_CD rows_NNS ahead_RB of_IN me_PRP were_VBD still_RB ._. The_DT rhythmic_JJ sound_NN of_IN the_DT engine_NN sounded_VBD lonelier_JJR than_IN silence_NN ._. I_PRP turned_VBD back_RB to_TO see_VB the_DT conductor_NN and_CC was_VBD shocked_VBN to_TO see_VB that_IN he_PRP was_VBD in_IN the_DT seat_NN behind_IN me_PRP and_CC his_PRP$ eyes_NNS were_VBD fixed_VBN on_IN me_PRP and_CC there_EX was_VBD a_DT smile_NN pasted_VBN in_IN his_PRP$ face_NN ._. Yes_UH ,_, it_PRP was_VBD pasted_VBN because_IN it_PRP did_VBD not_RB grow_VB or_CC fade_VB in_IN intensity_NN ._. “_VB Why_WRB are_VBP the_DT lights_NNS switched_VBD off_RP ?_. ”_IN He_PRP did_VBD not_RB seem_VB to_TO have_VB heard_VBN me_PRP though_IN I_PRP spoke_VBP from_IN the_DT seat_NN in_IN front_NN of_IN his_PRP$ ._. He_PRP kept_VBD staring_VBG into_IN my_PRP$ eyes_NNS ,_, his_PRP$ lips_NNS frozen_VBP in_IN an_DT eternal_JJ smile_NN ._. There_EX were_VBD green_JJ fields_NNS on_IN either_DT side_NN of_IN the_DT road_NN for_IN as_RB far_RB as_IN I_PRP could_MD see_VB ._. The_DT green_NN was_VBD barely_RB visible_JJ in_IN the_DT moonlight_NN though_IN and_CC The_DT only_JJ light_NN in_IN the_DT road_NN was_VBD the_DT bus_NN ’_NNP s_VBZ head_NN lights_NNS and_CC the_DT highway_NN seemed_VBD to_TO be_VB deserted_VBN and_CC no_DT other_JJ vehicle_NN passed_VBN in_IN either_DT direction_NN ._. I_PRP looked_VBD out_RP through_IN the_DT window_NN and_CC noticed_VBN there_EX were_VBD no_DT lights_NNS on_IN the_DT road_NN either_DT ._. I_PRP did_VBD not_RB remember_VB such_JJ a_DT long_JJ stretch_NN in_IN the_DT road_NN without_IN lights_NNS ._. And_CC it_PRP was_VBD then_RB that_IN I_PRP noticed_VBD that_IN the_DT bus_NN was_VBD going_VBG through_IN a_DT street_NN ,_, a_DT muddy_JJ path_NN and_CC not_RB a_DT tar_NN road_NN ._. Now_RB I_PRP would_MD have_VB definitely_RB noticed_VBN it_PRP in_IN all_PDT the_DT years_NNS of_IN travel_NN ._. “_VB This_DT bus_NN goes_VBZ to_TO Thindivanam_VB right_RB ?_. ”_VB I_PRP asked_VBN in_IN panic_NN ._. And_CC I_PRP turned_VBD to_TO see_VB the_DT conductor_NN still_RB smiling_VBG at_IN me_PRP with_IN resolve_NN ._. I_PRP did_VBD not_RB understand_VB whether_IN he_PRP was_VBD trying_VBG to_TO be_VB funny_JJ or_CC something_NN was_VBD wrong_JJ ._. I_PRP simply_RB stood_VBD up_RP and_CC went_VBD up_RB to_TO the_DT two_CD people_NNS sitting_VBG two_CD rows_NNS ahead_RB of_IN me_PRP ._. In_IN the_DT darkness_NN of_IN the_DT bus_NN ,_, I_PRP could_MD not_RB see_VB their_PRP$ face_NN ._. I_PRP asked_VBD them_PRP the_DT same_JJ question_NN ._. One_CD of_IN them_PRP looked_VBD up_RB ._. I_PRP took_VBD out_RP my_PRP$ mobile_JJ phone_NN to_TO shine_VB the_DT light_NN on_IN him_PRP ,_, but_CC found_VBD it_PRP had_VBD switched_VBN off_RP ._. “_NN Tell_NNP me_PRP a_DT number_NN between_IN one_CD and_CC ten._VB ”_NN He_PRP said_VBD ._. I_PRP blinked_VBD assuming_VBG I_PRP had_VBD heard_VBN him_PRP wrong_JJ ._. “_JJ No_NNP ._. I_PRP was_VBD asking_VBG about_IN the_DT bus_NN ._. Where_WRB does_VBZ it_PRP go_VB ?_. I_PRP thought_VBD it_PRP went_VBD to_TO Thindivanam._NNP ”_NNP “_NNP Tell_NNP me_PRP a_DT number_NN between_IN one_CD and_CC ten._VB ”_NN He_PRP repeated_VBD and_CC every_DT intonation_NN in_IN the_DT sentence_NN sounded_VBD just_RB like_IN it_PRP had_VBD when_WRB he_PRP asked_VBD the_DT previous_JJ time_NN ._. I_PRP kept_VBD looking_VBG at_IN him_PRP wondering_VBG if_IN he_PRP had_VBD teamed_VBN up_RP with_IN the_DT conductor_NN to_TO play_VB a_DT prank_NN on_IN me_PRP ._. When_WRB he_PRP repeated_VBD the_DT same_JJ sentence_NN with_IN exact_JJ same_JJ intonation_NN of_IN the_DT syllables_NNS ,_, I_PRP knew_VBD this_DT wasn_NN ’_VBZ t_JJ normal_JJ ._.</t>
-  </si>
-  <si>
-    <t>OK_IN so_RB I_PRP have_VBP been_VBN really_RB enjoying_VBG all_DT of_IN the_DT creative_JJ blogs_NNS on_IN SITS_NNP and_CC Lady_NNP Blogger_NNP Society_NNP (_( Thanks_NNP Katie_NNP )_) ,_, but_CC I_PRP am_VBP finding_VBG myself_PRP lost_VBN in_IN blogs_NNS and_CC ignoring_VBG the_DT family_NN ,_, YIKES_NNP ._. Any_NNP of_IN you_PRP that_WDT have_VBP kids_NNS know_VBP what_WP happens_VBZ then_RB ._. Those_DT wonderful_JJ children_NNS know_VBP that_IN you_PRP are_VBP ignoring_VBG them_PRP and_CC reek_VB havoc_NN on_IN anything_NN and_CC everything_NN ._. So_IN I_PRP joined_VBD Lady_NNP Bloggers_NNP Society_NNP and_CC I_PRP can_MD not_RB get_VB the_DT badge_NN on_IN my_PRP$ profile_NN it_PRP keeps_VBZ telling_VBG me_PRP there_EX are_VBP invalid_JJ characters_NNS or_CC something_NN I_PRP do_VBP n't_RB know_VB ._. I_PRP will_MD try_VB again_RB ._. If_IN anyone_NN has_VBZ any_DT advice_NN please_NN let_VB me_PRP know_VB ._. So_RB last_JJ week_NN I_PRP friend_VBP requested_VBN my_PRP$ biological_JJ father_NN and_CC alas_NN he_PRP ignored_VBD ._. I_PRP know_VBP this_DT because_IN his_PRP$ wall_NN is_VBZ public_JJ and_CC he_PRP recently_RB became_VBD friends_NNS with_IN other_JJ people_NNS but_CC not_RB me_PRP ._. Does_VBZ this_DT bother_VB me_PRP ?_. I_PRP do_VBP n't_RB know_VB ,_, I_PRP am_VBP kind_NN of_IN indifferent_NN to_TO the_DT situation_NN ._. I_PRP do_VBP n't_RB know_VB him_PRP would_MD n't_RB even_RB be_VB able_JJ to_TO recognize_VB him_PRP if_IN he_PRP walked_VBD into_IN the_DT room_NN ._. I_PRP guess_VBP what_WP bothers_NNS me_PRP the_DT most_RBS is_VBZ the_DT situation_NN I_PRP am_VBP in_IN ,_, in_IN having_VBG to_TO explain_VB this_DT to_TO my_PRP$ children_NNS at_IN some_DT point_NN ._. The_DT man_NN that_WDT raised_VBD me_PRP is_VBZ my_PRP$ dad_NN ._. My_PRP$ one_CD and_CC only_RB dad_NN ,_, but_CC he_PRP has_VBZ his_PRP$ own_JJ issues_NNS and_CC baggage_NN with_IN his_PRP$ family_NN and_CC did_VBD not_RB adopt_VB me_PRP ,_, which_WDT is_VBZ fine_JJ with_IN me_PRP (_( those_DT that_WDT know_VBP them_PRP will_MD know_VB why_WRB this_DT is_VBZ fine_JJ with_IN me_PRP )_) ._. So_RB I_PRP have_VBP my_PRP$ biological_JJ fathers_NNS last_JJ name_NN but_CC that_DT should_MD have_VB left_VBN me_PRP when_WRB I_PRP got_VBD married_JJ ,_, so_IN you_PRP would_MD think_VB ._. When_WRB deciding_VBG on_IN my_PRP$ married_JJ name_NN I_PRP did_VBD not_RB like_IN the_DT sound_NN of_IN it_PRP ,_, and_CC I_PRP was_VBD not_RB ready_JJ to_TO totally_RB give_VB up_RP who_WP I_PRP thought_VBD I_PRP was_VBD of_IN it_PRP so_IN I_PRP hyphenated_VBD (_( SP_NNP ?_. )_) it_PRP ._. Consequently_RB not_RB one_CD of_IN my_PRP$ children_NNS has_VBZ truly_RB noticed_VBN that_IN my_PRP$ last_JJ name_NN is_VBZ different_JJ then_RB my_PRP$ parents_NNS ._. Even_RB my_PRP$ twelve_NN year_NN old_JJ has_VBZ n't_RB noticed_VBN but_CC I_PRP guess_VBP at_IN this_DT age_NN she_PRP is_VBZ just_RB too_RB self_JJ absorbed_VBN to_TO notice_VB anything_NN but_CC herself_PRP ._. My_PRP$ son_NN did_VBD bring_VB it_PRP up_RP in_IN the_DT car_NN one_CD day_NN and_CC I_PRP blew_VBD it_PRP off_RP cause_VB how_WRB do_VB I_PRP explain_VB this_DT ?_. He_PRP may_MD be_VB a_DT little_JJ too_RB young_JJ to_TO understand_VB ._. I_PRP should_MD probably_RB talk_VB to_TO my_PRP$ dad_NN my_PRP$ real_JJ dad_NN not_RB the_DT sperm_NN that_WDT helped_VBD to_TO create_VB me_PRP and_CC ask_VB him_PRP how_WRB he_PRP would_MD like_VB me_PRP to_TO deal_VB with_IN it_PRP when_WRB the_DT question_NN comes_VBZ up_RP again_RB ._. Just_NNP some_DT thoughts_NNS on_IN a_DT WACKY_NNP WEDNESDAY_NNP !_. !_. !_. !_. !_.</t>
-  </si>
-  <si>
-    <t>Recently_RB ,_, I_PRP was_VBD frustrated_VBN while_IN trying_VBG to_TO package_VB a_DT Java_NNP keystore_NN file_NN from_IN my_PRP$ Maven_NNP project_NN to_TO a_DT project_NN archive_NN (_( tar_NN or_CC zip_NN )_) using_VBG assembly.xml_NN ._. Somehow_NNP ,_, when_WRB I_PRP used_VBD the_DT command_NN :_: keytool_NN -keystore_NN cacerts_NNS -list_VBP on_IN the_DT certificate_NN keystore_VBD inside_IN the_DT tar/zip_NN archive_NN ,_, it_PRP would_MD just_RB say_VB that_IN the_DT keystore_NN is_VBZ invalid_JJ ._. After_IN some_DT search_NN ,_, I_PRP found_VBD that_IN there_EX is_VBZ a_DT little_JJ setting_NN in_IN the_DT pom.xml_NN which_WDT instructs_VBZ maven_RB not_RB to_TO do_VB any_DT filtering_NN tasks_NNS on_IN the_DT files_NNS you_PRP specify_VBP when_WRB you_PRP execute_VBP a_DT maven_JJ command_NN ._.</t>
-  </si>
-  <si>
-    <t>Looking_VBG to_TO add_VB to_TO your_PRP$ Classical_JJ music_NN collection_NN ?_. Amazon.com_NNP is_VBZ offering_VBG a_DT free_JJ sampler_NN of_IN five_CD Chopin_NNP songs_NNS performed_VBN by_IN Vitaly_NNP Marguilis_NNP and_CC Jura_NNP Margulis_NNP ._. The_DT sampler_NN comes_VBZ from_IN the_DT X5_NNP Music_NNP Group_NNP ,_, and_CC was_VBD released_VBN on_IN March_NNP 1_CD ,_, 2010_CD ._.</t>
-  </si>
-  <si>
-    <t>I_PRP knew_VBD the_DT USA-Canada_NNP hockey_JJ game_NN on_IN Sunday_NNP night_NN would_MD be_VB big_JJ ._. I_PRP just_RB did_VBD n't_RB know_VB how_WRB big_JJ a_DT U.S_JJ victory_NN would_MD be_VB ._. For_IN obvious_JJ reasons_NNS ,_, this_DT was_VBD Canada_NNP 's_POS game_NN to_TO win_VB ._. And_CC after_IN watching_VBG both_DT teams_NNS play_VBP their_PRP$ first_JJ few_JJ games_NNS ,_, I_PRP figured_VBD the_DT Canadians_NNPS ,_, with_IN the_DT clear_JJ advantage_NN in_IN star_NN power_NN ,_, would_MD n't_RB have_VB trouble_NN disposing_VBG of_IN a_DT much_JJ younger_JJR ,_, inexperienced_JJ American_JJ team_NN by_IN 2-3_JJ goals_NNS ._. But_CC in_IN my_PRP$ mind_NN there_EX was_VBD only_RB one_CD handicap_NN Canada_NNP could_MD have_VB given_VBN Team_NNP USA_NNP :_: Marty_NNP Brodeur_NNP ._. They_PRP played_VBD him_PRP in_IN goal_NN ,_, and_CC it_PRP cost_VBD them_PRP big-time_NN ._. Do_VBP n't_RB get_VB me_PRP wrong—there_EX 's_VBZ no_DT doubt_NN that_IN Brodeur_NNP is_VBZ one_CD of_IN the_DT best_JJS goaltenders_NNS to_TO have_VB ever_RB played_VBN the_DT game_NN ._. Here_RB 's_VBZ a_DT brief_JJ glimpse_NN of_IN his_PRP$ killer_NN resume_NN :_: The_DT NHL_NNP 's_POS all-time_JJ leader_NN in_IN regular_JJ season_NN wins_NNS ,_, shutouts_NNS ,_, and_CC games_NNS played_VBD More_JJR than_IN 30_CD franchise_NN records_NNS ,_, including_VBG most_JJS all-time_JJ regular_JJ season_NN and_CC playoff_NN wins_NNS ,_, shutouts_NNS ,_, games_NNS ,_, and_CC lowest_JJS goals-against_JJ average_JJ 3_CD Stanley_NNP Cup_NNP championships_VBZ Four-time_NNP Vezina_NNP Trophy_NNP winner_NN ,_, four-time_JJ Jennings_NNP Trophy_NNP winner_NN ,_, 10-time_JJ NHL_NNP All_NNP Star_NNP ,_, and_CC a_DT Calder_NNP Memorial_NNP Trophy_NNP winner_VBD One_CD of_IN only_RB two_CD NHL_NNP goaltenders_NNS to_TO have_VB scored_VBN goals_NNS in_IN both_DT the_DT regular_JJ season_NN and_CC the_DT playoffs_NNS ;_: the_DT only_JJ NHL_NNP goalie_NN to_TO score_VB a_DT game-winning_JJ goal_NN ._. Brodeur_NNP is_VBZ known_VBN for_IN his_PRP$ hybrid_JJ goaltending_NN style_NN by_IN standing_VBG up_RP more_RBR than_IN butterfly_NN goalies_NNS ,_, who_WP drop_VBP to_TO their_PRP$ knees_NNS often_RB ._. It_PRP 's_VBZ gotten_JJ him_PRP this_DT far_RB ,_, and_CC even_RB at_IN his_PRP$ veteran_JJ age_NN of_IN 38_CD ,_, I_PRP 'd_MD still_RB take_VB him_PRP over_IN half_PDT the_DT goalies_NNS in_IN the_DT NHL_NNP ._. But_CC when_WRB I_PRP 've_VBP watched_VBN Brodeur_NNP play_VB periodically_RB in_IN the_DT past_JJ few_JJ years_NNS ,_, he_PRP 's_VBZ given_VBN up_RP questionable_JJ goals_NNS ,_, mostly_RB as_IN a_DT result_NN of_IN his_PRP$ unconventional_JJ style_NN of_IN play_NN ._. During_IN this_DT relatively_RB new_JJ generation_NN of_IN super-athletic_JJ ,_, butterfly-sliding_JJ goalies_NNS ,_, Brodeur_NNP has_VBZ become_VBN outdated_JJ ._. But_CC do_VBP n't_RB take_VB that_RP as_IN an_DT insult_NN ,_, Marty—you_NNP 've_VBP been_VBN incredibly_RB successful_JJ as_IN New_NNP Jersey_NNP 's_POS starting_VBG netminder_NN for_IN the_DT past_JJ 19_CD seasons_NNS ._. Canada_NNP started_VBD Roberto_NNP Luongo_NNP in_IN net_NN for_IN their_PRP$ opening_NN Olympic_NNP game_NN against_IN Norway_NNP ._. Apparently_RB coach_VBP Mike_NNP Babcock_NNP planned_VBD on_IN going_VBG with_IN the_DT more-experienced_JJ Brodeur_NNP as_IN his_PRP$ No_NNP ._. 1_CD for_IN the_DT tournament_NN ,_, but_CC wanted_VBD to_TO get_VB Luongo_NNP 's_POS skates_NNS wet_VBP in_IN case_NN he_PRP needed_VBD to_TO call_VB on_IN him_PRP later_RB ._. But_CC instead_RB of_IN anticipating_VBG sub-par_JJ play_NN from_IN his_PRP$ starting_VBG goalie_NN ,_, Babcock_NNP should_MD have_VB stuck_VBN with_IN Luongo_NNP (_( an_DT All_DT Star_NN in_IN his_PRP$ own_JJ right_NN ,_, playing_VBG on_IN his_PRP$ home_NN ice_NN )_) ,_, similar_JJ to_TO how_WRB the_DT Team_NNP USA_NNP coach_NN Ron_NNP Wilson_NNP preselected_VBD Ryan_NNP Miller_NNP to_TO play_VB the_DT entire_JJ way_NN ._. Babcock_NNP handed_VBD the_DT reins_NNS over_IN to_TO Brodeur_NNP against_IN Switzerland_NNP in_IN the_DT second_JJ game_NN ._. Had_NNP Luongo_NNP played_VBN against_IN Team_NNP USA_NNP on_IN Sunday_NNP night_NN ,_, I_PRP 'm_VBP not_RB so_RB sure_JJ so_RB many_JJ Americans_NNPS would_MD have_VB been_VBN celebrating_VBG ._. I_PRP say_VBP this_DT chiefly_NN because_IN the_DT 6'3_CD ''_'' butterflyer_NN would_MD have_VB stopped_VBN the_DT goals_NNS that_WDT Brodeur_NNP let_NN in_IN ._. And_CC this_DT goes_VBZ back_RB to_TO what_WP I_PRP was_VBD saying_VBG before_IN :_: Brodeur_NN may_MD have_VB been_VBN a_DT better_JJR goalie_NN five_CD years_NNS ago_RB ,_, but_CC Luongo_NNP is_VBZ now_RB ._.</t>
-  </si>
-  <si>
-    <t>It_PRP was_VBD another_DT late_JJ arrival_NN home_NN today_NN ,_, so_IN I_PRP ended_VBD up_RP taking_VBG my_PRP$ walk_NN after_IN dinner_NN rather_RB than_IN prior_RB to_TO it_PRP ,_, grabbing_VBG the_DT camera_NN with_IN the_DT 18-55mm_JJ lens_NNS on_IN my_PRP$ way_NN out_IN the_DT door_NN ._. I_PRP wanted_VBD to_TO get_VB a_DT couple_NN of_IN photos_NN of_IN the_DT downed_JJ trees_NNS from_IN the_DT storm_NN we_PRP had_VBD over_IN the_DT weekend_NN ._. It_PRP was_VBD NOTHING_NNP like_IN the_DT bad_JJ weather_NN that_IN my_PRP$ friends_NNS in_IN CT_NNP experienced_VBD ._. We_PRP didn_VBP ’_JJ t_NN lose_JJ power_NN here_RB ._. Below_NNP is_VBZ the_DT old_JJ cherry_NN tree_NN that_WDT split_VBD the_DT lilac_NN in_IN half_NN last_JJ year_NN ._. Can_MD you_PRP tell_VB my_PRP$ heart_NN is_VBZ still_RB broken_VBN over_RP that_DT lilac_NN bush_NN ?_.</t>
-  </si>
-  <si>
-    <t>Nice_NNP little_RB workout_IN this_DT morning_NN at_IN the_DT BSC_NNP Westborough_NNP today_NN ._. After_IN getting_VBG to_TO the_DT gym_NN I_PRP hit_VBD the_DT treadmill_NN for_IN a_DT nice_JJ 3_CD mile_JJ run_NN ._. I_PRP started_VBD at_IN 7.5_CD and_CC quickly_RB upped_VBD it_PRP so_RB that_IN the_DT bulk_NN of_IN the_DT running_NN was_VBD over_IN 8.0_CD ._. I_PRP ended_VBD up_RP finishing_VBG the_DT 3_CD mile_NN run_VBN in_IN 20:59_CD for_IN an_DT average_JJ pace_NN of_IN 6:59/mile_CD with_IN 419_CD calories_NNS burned_VBN ._. After_IN the_DT run_NN I_PRP hit_VBD the_DT free_JJ weight_NN area_NN for_IN some_DT shoulder_NN exercises_NNS ._. I_PRP did_VBD standing_VBG shoulder_NN shrugs_NNS with_IN dumbbells_NNS ,_, standing_VBG shoulder_NN raises_NNS ,_, sitting_VBG long_JJ bar_NN pulldowns_NNS ,_, and_CC finished_VBD with_IN 150_CD abs_NNS ._.</t>
-  </si>
-  <si>
-    <t>Anyone_NN that_WDT ’_VBZ s_RB been_VBN in_IN any_DT branch_NN of_IN internet_JJ marketing_NN such_JJ as_IN Search_NNP ,_, SEO_NNP ,_, Social_NNP Media_NNP Marketing_NNP and_CC the_DT like_JJ will_MD fully_RB understand_VB what_WP I_PRP mean_VBP when_WRB I_PRP say_VBP that_IN Google_NNP is_VBZ always_RB changing_VBG ._. The_DT animal_NN we_PRP seek_VBP to_TO master_NN is_VBZ impossible_JJ to_TO tame_VB ,_, if_IN merely_RB for_IN the_DT fact_NN that_IN the_DT algorithm_NN behind_IN the_DT Google_NNP search_NN engine_NN is_VBZ never_RB really_RB still_RB ._. Stable_JJ ,_, arguably_RB so_RB ,_, but_CC the_DT fact_NN remains_VBZ that_IN engineer_NN upon_IN engineer_NN ,_, programmer_NN after_IN programmer_NN are_VBP spending_VBG their_PRP$ time_NN constantly_RB tweaking_VBG the_DT code_NN and_CC structure_NN of_IN Google_NNP ,_, often_RB leading_VBG to_TO unexpected_JJ twists_NNS in_IN the_DT SEO_NNP trail_NN ._. The_DT point_NN that_IN I_PRP ’_VBP m_JJ getting_VBG at_IN is_VBZ that_IN as_IN a_DT marketing_NN expert_NN ,_, Search_NNP professional_NN ,_, or_CC SEO_NNP company_NN ,_, one_CD must_MD be_VB prepared_VBN to_TO change_VB with_IN the_DT times_NNS ._. Resistant_JJ to_TO change_VB some_DT of_IN us_PRP may_MD well_RB be_VB ,_, but_CC change_NN we_PRP must_MD ,_, if_IN we_PRP are_VBP to_TO survive_VB ._. Of_IN course_NN ,_, some_DT changes_NNS are_VBP easier_JJR to_TO accommodate_VB for_IN than_IN others_NNS ,_, some_DT are_VBP small_JJ ,_, some_DT are_VBP large_JJ ,_, the_DT difficulty_NN to_TO change_VB with_IN the_DT times_NNS sometimes_RB –_VBP but_CC not_RB always_RB –_VB scales_NNS with_IN the_DT size_NN of_IN the_DT change_NN ._. However_RB ,_, once_RB in_IN a_DT while_NN comes_VBZ a_DT change_NN that_WDT is_VBZ just_RB incredibly_RB awkward_RB to_TO deal_VB with_IN ._. A_DT change_NN that_WDT is_VBZ so_RB downright_JJ frustrating_VBG that_IN it_PRP makes_VBZ you_PRP wonder_VB why_WRB you_PRP ever_RB got_VBD into_IN this_DT business_NN ._. A_DT change_NN like_IN that_DT has_VBZ happened_VBN in_IN recent_JJ days_NNS and_CC continues_VBZ to_TO still_RB happen_VB ._. That_DT change_NN is_VBZ typically_RB referred_VBN to_TO as_IN “_NNS personalised_VBN search_NN ”_NN ,_, the_DT process_NN via_IN which_WDT a_DT Google_NNP search_NN can_MD become_VB “_NNP personalised_JJ ”_NN or_CC “_NN unique_JJ ”_NN for_IN a_DT given_VBN user_NN ,_, particularly_RB when_WRB logged_VBN in_IN to_TO one_CD ’_NN s_NN own_JJ Gmail/Google_NNP account_NN ._. It_PRP works_VBZ by_IN giving_VBG alarming_VBG priority_NN to_TO popular_JJ branded_VBN sites_NNS (_( presumably_RB ones_NNS that_IN Google_NNP thinks_VBZ has_VBZ a_DT high_JJ amount_NN of_IN “_NNP trust_NN ”_NN built_VBN up_RP )_) and_CC pushes_VBZ these_DT to_TO the_DT top_NN of_IN related_JJ search_NN results_NNS ,_, so_IN you_PRP end_VBP up_RP being_VBG more_RBR likely_JJ to_TO find_VB these_DT branded_VBN sites_NNS in_IN a_DT better_JJR position_NN than_IN other_JJ ,_, smaller_JJR ,_, “_NNP less_RBR trusted_JJ ”_NN websites_NNS ._. This_DT also_RB has_VBZ a_DT literal_JJ knock-on_JJ effect_NN of_IN pushing_VBG the_DT websites_NNS that_WDT were_VBD previously_RB ranking_VBG well_RB for_IN related_VBN keywords_NNS (_( the_DT smaller_JJR sites_NNS )_) out_IN of_IN the_DT way_NN entirely_RB ,_, as_IN they_PRP ’_VBP re_VBP moved_VBN to_TO one_CD side_NN to_TO make_VB room_NN for_IN the_DT “_NNP big_JJ ones_NNS ”_NNS ._. From_IN an_DT SEO_NNP point_NN of_IN view_NN ,_, I_PRP ’_VBP m_JJ sure_JJ you_PRP can_MD understand_VB the_DT frustration_NN here_RB ._.</t>
-  </si>
-  <si>
-    <t>While_IN ABC_NNP and_CC CBS_NNP on_IN Monday_NNP night_NN focused_VBN on_IN President_NNP Barack_NNP Obama_NNP 's_POS “_JJ final_JJ push_NN ”_NN for_IN his_PRP$ health_NN care_NN bill_NN and_CC the_DT plight_NN of_IN Ohioan_NNP Natoma_NNP Canfield_NNP ,_, Obama_NNP 's_POS poster_NN woman_NN for_IN victims_NNS of_IN rising_VBG health_NN insurance_NN premiums_NNS ,_, NBC_NNP anchor_NN Brian_NNP Williams_NNP touted_VBD how_WRB at_IN “_NNP one_CD last_JJ campaign-style_JJ rally_NN ,_, ”_NN in_IN suburban_JJ Cleveland_NNP ,_, “_VBZ a_DT shout-out_NN from_IN the_DT audience_NN gave_VBD him_PRP a_DT chance_NN to_TO road_NN test_VB a_DT new_JJ catch_NN phrase_NN :_: 'We_CD need_NN courage_NN ._. '_'' ”_JJ Viewers_NNP saw_VBD a_DT clip_NN of_IN Obama_NNP bemoaning_VBG “_RP a_DT lot_NN of_IN hand-wringing_NN going_VBG on_IN ”_NN in_IN Washington_NNP ,_, DC_NNP ,_, interrupted_VBN by_IN a_DT woman_NN 's_POS voice_NN from_IN the_DT audience_NN at_IN the_DT Walter_NNP F._NNP Ehrnfelt_NNP Recreation_NNP and_CC Senior_NNP Center_NNP in_IN Strongsville_NNP :_: “_NN We_PRP need_VBP courage_JJ !_. ”_NN To_TO cheers_NNS ,_, a_DT delighted_JJ Obama_NNP picked_VBD up_RP on_IN her_PRP$ prompt_NN :_: “_NN We_PRP need_VBP courage_NN ._. That_DT 's_VBZ why_WRB I_PRP came_VBD here_RB today_NN ._. We_PRP need_VBP courage_JJ !_. ”_NN If_IN “_JJ courage_NN ”_NN as_IN a_DT catch_NN phrase_NN sounds_VBZ familiar_JJ ,_, it_PRP 's_VBZ the_DT one_CD word_NN with_IN which_WDT Dan_NNP Rather_NNP ended_VBD his_PRP$ newscasts_NNS in_IN the_DT mid-1980s_NN ,_, an_DT ending_VBG he_PRP resurrected_VBD on_IN Wednesday_NNP ,_, March_NNP 9_CD ,_, 2005_CD when_WRB he_PRP signed-off_RB forever_RB from_IN the_DT CBS_NNP Evening_NNP News_NNP ._. (_( MRC_NNP CyberAlert_NNP item_NN )_) Read_VBD more_RBR :_: http_NN :_: //newsbusters.org/blogs/brent-baker/2010/03/15/nbcs-williams-trumpets-new-catch-phrase-obama-we-need-courage_JJ #_# ixzz0iPPYS9jb_NN</t>
-  </si>
-  <si>
-    <t>Fifteen_CD years_NNS ago_RB ,_, I_PRP was_VBD on_IN my_PRP$ way_NN to_TO the_DT Austin_NNP airport_NN to_TO catch_VB a_DT flight_NN to_TO New_NNP York_NNP City_NNP when_WRB the_DT friend_NN I_PRP ’_VBP d_RB be_VB staying_VBG with_IN called_VBN and_CC said_VBD that_IN we_PRP ’_VBP d_RB be_VB attending_VBG a_DT dance_NN performance_NN that_IN evening_VBG in_IN the_DT East_NNP Village_NNP ._. Admission_NNP was_VBD free_JJ ,_, she_PRP said_VBD ,_, but_CC the_DT organizers_NNS requested_VBD a_DT donation_NN of_IN two_CD canned_JJ goods_NNS for_IN a_DT food_NN pantry_NN ._. So_CC before_IN walking_VBG out_RP the_DT door_NN ,_, I_PRP grabbed_VBD a_DT couple_NN of_IN Ranch_NNP Style_NNP Beans_NNPS as_IN my_PRP$ offering_NN ._. Ranch_JJ Style_JJ Beans_NNPS are_VBP a_DT Texan_NNP staple_NN and_CC they_PRP ’_VBP ve_RB been_VBN satisfying_VBG people_NNS since_IN 1872_CD with_IN their_PRP$ take_NN on_IN classic_JJ chuck-wagon_NN fare_NN ._. It_PRP ’_VBZ s_VBZ a_DT distinctive_JJ flavor—the_NN beans_NNS aren_VBP ’_JJ t_JJ fiery_NN but_CC they_PRP do_VBP have_VB a_DT depth_NN and_CC brightness_NN that_WDT can_MD be_VB very_RB addictive_JJ ._. When_WRB I_PRP lived_VBD in_IN Texas_NNP ,_, we_PRP ate_VBP them_PRP often—either_PRP$ topped_VBD with_IN cheese_NN and_CC rice_NN ,_, as_IN a_DT base_NN to_TO bean_VB salad_NN ,_, alongside_JJ enchiladas_NN or_CC even_RB in_IN my_PRP$ mom_NN ’_NNP s_NN King_NNP Ranch_NNP casserole_NN ._. But_CC beyond_IN the_DT deliciousness_NN and_CC versatility_NN of_IN Ranch_NNP Style_NNP Beans_NNPS ,_, there_EX ’_VBZ s_PDT the_DT appeal_NN of_IN that_DT iconic_JJ black_JJ can_MD with_IN its_PRP$ distinctive_JJ Western-style_JJ font_NN and_CC illustration_NN of_IN a_DT man_NN with_IN his_PRP$ tongue_NN sticking_VBG out_RP stating_VBG the_DT beans_NNS are_VBP Appetite_NNP Pleasin_NNP ’_NNP ._. (_( Of_IN course_NN ,_, the_DT latter_NN is_VBZ a_DT recent_JJ development_NN for_IN if_IN you_PRP ’_VBP re_VB as_RB old_JJ as_IN I_PRP am_VBP ,_, you_PRP remember_VBP when_WRB the_DT beans_NNS were_VBD Husband_NNP Pleasin_NNP ’_NNP ._. )_) I_PRP love_VBP that_WDT can_MD and_CC I_PRP ’_VBP ve_JJ read_VBP that_IN if_IN Andy_NNP Warhol_NNP had_VBD been_VBN a_DT Texan_NNP he_PRP would_MD have_VB painted_VBN Ranch_NNP Style_NNP Beans_NNPS cans_NNS instead_RB of_IN Campbell_NNP ’_NNP s_VBD Soup_NNP cans_NNS ._. I_PRP believe_VBP it_PRP ._. In_IN the_DT 15_CD years_NNS since_IN I_PRP ’_VBP ve_RB moved_VBN to_TO New_NNP York_NNP City_NNP ,_, I_PRP ’_VBP ve_RB seen_VBN this_DT city_NN become_VB more_RBR hospitable_JJ to_TO fellow_VB homesick_JJ Texans_NNPS ._. We_PRP now_RB have_VBP a_DT Texan-style_JJ barbecue_NN joint_NN selling_VBG Kreuz_NNP sausages_NNS and_CC excellent_JJ brisket_NN ;_: you_PRP can_MD find_VB Ro-Tel_JJ tomatoes_NNS at_IN several_JJ grocery_NN stores_NNS ;_: dried_VBN and_CC canned_VBN chiles_NNS are_VBP a_DT common_JJ staple_NN ;_: and_CC Austin-based_JJ Whole_NNP Foods_NNPS is_VBZ now_RB here_RB selling_VBG decent_JJ brands_NNS of_IN tortillas_NNS ,_, chips_NNS and_CC salsas_NN ._. But_CC despite_IN the_DT advances_NNS this_DT city_NN ’_NNP s_NN made_VBD ,_, there_EX ’_VBZ s_NN still_RB one_CD thing_NN missing_NN :_: my_PRP$ beloved_JJ Ranch_JJ Style_NNP Beans_NNPS ._. To_TO help_VB with_IN the_DT drought_NN ,_, every_DT time_NN I_PRP go_VBP home_NN I_PRP load_VBP up_RP on_IN a_DT few_JJ cans_NNS ._. And_CC my_PRP$ mom_NN has_VBZ even_RB been_VBN known_VBN to_TO put_VB them_PRP in_IN my_PRP$ Christmas_NNP stocking_NN ,_, which_WDT is_VBZ always_RB a_DT very_RB welcome_JJ gift_NN ._. But_CC when_WRB I_PRP recently_RB came_VBD to_TO my_PRP$ last_JJ can_MD with_IN no_DT trip_NN home_NN in_IN my_PRP$ immediate_JJ future_NN ,_, I_PRP realized_VBD that_IN I_PRP should_MD just_RB figure_VB out_RP how_WRB to_TO make_VB these_DT beans_NNS on_IN my_PRP$ own_JJ ._. The_DT recipe_NN is_VBZ a_DT closely_RB guarded_JJ secret_NN ,_, so_IN I_PRP was_VBD flummoxed_VBN on_IN what_WP to_TO do_VB ._. And_CC then_RB I_PRP read_VBP one_CD fan_NN ’_NNP s_VBZ observation_NN that_IN Ranch_NNP Style_NNP Beans_NNPS are_VBP simply_RB pintos_JJ swimming_NN in_IN a_DT chili_NN gravy_NN ._. At_IN last_JJ ,_, it_PRP all_DT made_VBD sense_NN !_. I_PRP decided_VBD I_PRP ’_VBP d_JJ cook_NN a_DT pot_NN of_IN pintos_NN in_IN a_DT chili_NN gravy_NN and_CC see_VB what_WP happened_VBD ._. When_WRB making_VBG my_PRP$ chile_NN gravy_NN ,_, I_PRP used_VBD the_DT ingredient_JJ list_NN on_IN the_DT back_NN of_IN my_PRP$ remaining_VBG can_MD as_IN my_PRP$ guide_NN ._. Sure_JJ ,_, there_EX were_VBD some_DT vague_JJ terms_NNS ,_, such_JJ as_IN “_JJ spices_NNS ”_NN and_CC “_JJ natural_JJ flavor_NN ,_, ”_NN but_CC the_DT basic_JJ building_NN blocks_NNS were_VBD in_IN the_DT open_JJ :_: tomatoes_NNS ,_, chile_NN peppers_NNS ,_, paprika_FW ,_, vinager_NN and_CC beef_NN fat_NN ._. And_CC of_IN course_NN ,_, pinto_JJ beans_NNS ._. Even_RB though_IN the_DT can_MD didn_VB ’_JJ t_NN specify_VB what_WP type_NN of_IN chile_NN ,_, I_PRP went_VBD with_IN anchos_NN as_IN they_PRP ’_VBP re_VBP the_DT base_NN of_IN your_PRP$ common_JJ chili_NN powder_NN ._. I_PRP rehydrated_VBD the_DT anchos_NN and_CC then_RB blended_VBD them_PRP with_IN some_DT tomatoes_NNS ,_, vinegar_NN ,_, cumin_NN and_CC paprika_NN ._. And_CC instead_RB of_IN beef_NN fat_NN ,_, I_PRP opted_VBD to_TO use_VB beef_NN broth_DT instead_RB ._. While_IN the_DT beans_NNS cooked_VBD ,_, the_DT house_NN smelled_VBD gorgeous_JJ and_CC the_DT broth_NN tasted_VBD right_JJ ._. But_CC it_PRP wasn_VBZ ’_JJ t_NN until_IN after_IN a_DT few_JJ hours_NNS when_WRB I_PRP ladled_VBD out_RP a_DT bowl_NN that_IN I_PRP realized_VBD that_IN this_DT bowl_NN of_IN beans_NNS far_RB exceeded_VBD my_PRP$ expectations_NNS ._. I_PRP threw_VBD in_IN some_DT sour_JJ cream_NN ,_, warmed_VBD up_RP a_DT flour_NN tortilla_NN and_CC had_VBD a_DT most_RBS satisfying_JJ meal_NN ._. And_CC even_RB though_IN it_PRP ’_VBZ s_RB been_VBN 15_CD years_NNS since_IN I_PRP gave_VBD away_RB those_DT beans_NNS ,_, I_PRP ’_VBP ve_RB often_RB wondered_VBN if_IN the_DT New_NNP Yorker_NNP who_WP ended_VBD up_RP with_IN them_PRP enjoyed_VBD them_PRP ._. I_PRP hope_VBP that_IN they_PRP did_VBD ._. Ranch_VB style_NN beans_NNS Ingredients_NNS :_: 16_CD oz_NN ._. of_IN dried_JJ pinto_NN beans_NNS 6_CD ancho_JJ chiles_NNS ,_, stems_NNS and_CC seeds_NNS removed_VBD 6_CD cloves_NNS of_IN garlic_NN ,_, minced_VBD 1_CD onion_NN ,_, diced_VBD 1_CD 15_CD oz_NN ._. can_MD of_IN tomatoes_NNS (_( or_CC 2_CD medium-sized_JJ tomatoes_NNS ,_, peeled_VBD )_) 1_CD teaspoon_NN brown_NN sugar_NN 1_CD teaspoon_NN apple_NN cider_NN vinegar_NN 1_CD teaspoon_NN paprika_FW 1_CD teaspoon_NN cumin_NN 1/2_CD teaspoon_NN oregano_NN 1_CD cup_NN of_IN water_NN 6_CD cups_NN of_IN beef_NN broth_NN Salt_NNP and_CC black_JJ pepper_NN to_TO taste_VB Method_NNP :_: Soak_NNP the_DT beans_NNS covered_VBN in_IN water—either_JJ overnight_NN or_CC the_DT quick_JJ soak_NN method_NN in_IN which_WDT you_PRP place_VBP the_DT beans_NNS in_IN a_DT pot_NN ,_, cover_NN with_IN water_NN ,_, bring_VBG to_TO a_DT boil_NN ,_, cover_NN and_CC remove_VB from_IN heat_NN and_CC let_VB sit_NN for_IN one_CD hour_NN ._. Drain_VB the_DT soaked_JJ beans_NNS ._. In_IN a_DT cast-iron_JJ skillet_NN heated_VBN up_RP to_TO medium_VB high_JJ ,_, cook_VB the_DT anchos_NN on_IN each_DT side_NN for_IN a_DT couple_NN of_IN minutes_NNS (_( or_CC until_IN they_PRP start_VBP to_TO bubble_VB and_CC pop_NN )_) ,_, turn_VBP off_RP the_DT heat_NN and_CC fill_VB the_DT skillet_NN with_IN warm_JJ water_NN ._. Let_VB them_PRP sit_VB until_IN soft_JJ and_CC rehydrated_VBN ,_, which_WDT should_MD happen_VB after_IN half_PDT an_DT hour_NN or_CC so_RB ._. In_IN the_DT pot_NN you_PRP ’_VBP ll_JJ be_VB cooking_VBG your_PRP$ beans_NNS ,_, heat_NN up_RP a_DT teaspoon_NN of_IN canola_JJ oil_NN and_CC cook_VB the_DT onions_NNS for_IN ten_JJ minutes_NNS on_IN medium_NN ._. Add_VB the_DT garlic_JJ and_CC cook_NN for_IN another_DT minute_NN ._. Throw_VB the_DT cooked_JJ onions_NNS and_CC garlic_NN in_IN a_DT blender_NN and_CC add_VB the_DT tomatoes_NNS ,_, brown_JJ sugar_NN ,_, apple_NN cider_NN vinegar_NN ,_, paprika_FW ,_, cumin_NN ,_, oregano_NN ,_, water_NN and_CC hydrated_VBD ancho_JJ chiles_NNS ._. Puree_NNP until_IN smooth_NNP ._. Add_VB the_DT pinto_NN beans_NNS and_CC beef_NN broth_NN to_TO the_DT pot_NN and_CC stir_NN in_IN the_DT chile_NN puree_NN ._. On_IN high_JJ ,_, bring_VBG the_DT pot_NN to_TO a_DT boil_NN and_CC then_RB cover_NN ;_: turn_VB the_DT heat_NN down_RP to_TO low_JJ and_CC simmer_NN for_IN two_CD and_CC a_DT half_NN hours_NNS ,_, stirring_VBG occasionally_RB ._. At_IN this_DT point_NN ,_, I_PRP check_VBP my_PRP$ beans_NNS for_IN tenderness_NN as_IN depending_VBG on_IN the_DT freshness_NN of_IN the_DT beans_NNS I_PRP find_VBP that_IN the_DT cooking_JJ time_NN can_MD be_VB as_RB short_JJ as_IN two_CD and_CC a_DT half_JJ hours_NNS and_CC as_RB long_RB as_IN four_CD hours_NNS ._. When_WRB you_PRP 're_VBP satisfied_JJ that_IN the_DT beans_NNS are_VBP done_VBN ,_, salt_NN and_CC pepper_NN to_TO taste_NN ._. Feeds_NNS four_CD to_TO six_CD ._. Notes_NNS :_: If_IN you_PRP can_MD ’_VB t_JJ find_VB dried_JJ ancho_JJ chiles_NNS ,_, you_PRP can_MD substitute_VB either_DT ancho_JJ chile_NN powder_NN or_CC regular_JJ chili_NN powder_NN ._. I_PRP ’_VBP d_JJ use_NN 1/4_CD of_IN a_DT cup_NN ._. These_DT are_VBP not_RB fiery_JJ beans_NNS ,_, but_CC if_IN you_PRP want_VBP a_DT bit_NN more_RBR heat_NN I_PRP 'd_MD throw_VB in_IN a_DT bit_NN of_IN Cayenne_NNP ._. And_CC I_PRP always_RB add_VBP a_DT pinch_NN of_IN baking_VBG soda_NN to_TO my_PRP$ soaking_VBG beans_NNS to_TO help_VB with_IN digestion_NN issues_NNS ._. You_PRP may_MD do_VB the_DT same_JJ ._. --_: --_: --_: --_: --_: --_: --_: --_: -_: Are_VBP you_PRP on_IN Facebook_NNP ?_. A_DT reader_NN recommended_VBD I_PRP set_VBP up_RP a_DT Homesick_NNP Texan_NNP fan_NN page_NN ,_, so_IN I_PRP did_VBD ._. Please_VB stop_JJ by_IN and_CC feel_VB free_JJ to_TO share_NN links_NNS ,_, upload_JJ photos_NN or_CC just_RB say_VB howdy_NN !_. Homesick_NNP Texan_NNP fan_NN page_NN If_IN you_PRP were_VBD in_IN Houston_NNP in_IN the_DT 1980_CD ’_NNP s_NN ,_, it_PRP was_VBD hard_JJ to_TO escape_VB the_DT ubiquitous_JJ tacos_NN al_NN carbon_NN ._. Ninfa_NNP Laurenzo—of_NNP the_DT eponymous_JJ Ninfa_NNP ’_NNP s—made_VBD them_PRP her_PRP$ signature_NN dish_NN and_CC as_IN with_IN her_PRP$ green_JJ sauce_NN ,_, many_JJ Houston_NNP Mexican_NNP restaurants_NNS soon_RB added_VBD these_DT tacos_NNS to_TO their_PRP$ menus_NN as_IN well_RB ._. Tacos_NNP al_JJ carbon_NN became_VBD a_DT defining_VBG characteristic_NN of_IN Houston_NNP Tex-Mex_NNP But_CC what_WP exactly_RB are_VBP tacos_JJ al_IN carbon_NN ?_. The_DT term_NN al_NN carbon_NN is_VBZ the_DT Spanish_JJ phrase_NN for_IN cooking_VBG over_IN coal_NN ,_, so_IN you_PRP should_MD expect_VB grilled_VBD meats_NNS inside_IN a_DT tortilla_NN ._. If_IN you_PRP have_VBP tacos_VBN al_JJ carbon_NN in_IN Mexico_NNP ,_, you_PRP will_MD indeed_RB find_VB a_DT variety_NN of_IN meats_NNS wrapped_VBN in_IN either_DT corn_NN or_CC flour_NN tortillas_NNS depending_VBG on_IN where_WRB you_PRP are_VBP geographically_RB ._. But_CC in_IN Texas_NNP tacos_NN al_NN carbon_NN came_VBD to_TO mean_VB one_CD thing_NN :_: cuts_NNS of_IN grilled_JJ beef_NN ,_, nestled_VBN in_IN a_DT fluffy_JJ flour_NN tortilla_NN ._. But_CC wait_VBP ,_, isn_JJ ’_NNP t_NN that_IN a_DT fajita_NN ?_. Now_RB this_DT is_VBZ where_WRB it_PRP gets_VBZ confusing_VBG ._. So_IN what_WP 's_VBZ the_DT difference_NN between_IN fajitas_NNS and_CC tacos_JJ al_NN carbon_NN ?_. As_IN I_PRP understand_VBP it_PRP ,_, very_RB little_JJ ._. Fajitas_NNP ,_, which_WDT translates_VBZ to_TO little_JJ belts_NNS ,_, are_VBP traditionally_RB made_VBN with_IN the_DT tough_JJ diaphragm_NN cut_NN of_IN beef_NN known_VBN as_IN skirt_NN steak_NN ,_, which_WDT is_VBZ a_DT long_JJ and_CC narrow_JJ ,_, much_JJ like_IN a_DT belt_NN ._. The_DT meat_NN is_VBZ often_RB marinated_VBN and_CC then_RB grilled_VBD or_CC griddled_VBN ,_, and_CC it_PRP ’_NNP s_VBZ served_VBN with_IN a_DT prescribed_JJ array_NN of_IN condiments_NNS such_JJ as_IN guacamole_NN ,_, pico_FW de_FW gallo_FW ,_, sour_JJ cream_NN and_CC a_DT stack_NN of_IN flour_JJ tortillas_NNS ,_, all_DT used_VBN to_TO roll_VB your_PRP$ own_JJ tacos_NN ._. And_CC yes_UH ,_, you_PRP can_MD make_VB fajitas_NNS ,_, the_DT dish_NN ,_, out_IN of_IN shrimp_NN or_CC chicken_NN ,_, but_CC since_IN the_DT word_NN itself_PRP refers_VBZ to_TO the_DT cut_NN of_IN beef_NN ,_, technically_RB it_PRP should_MD be_VB called_VBN something_NN else_RB ._. Tacos_NNP al_JJ carbon_NN ,_, however_RB ,_, can_MD be_VB made_VBN with_IN any_DT type_NN of_IN meat_NN ,_, not_RB just_RB the_DT traditional_JJ skirt_NN steak_NN ._. And_CC unlike_IN fajitas_NNS ,_, the_DT tacos_NNS are_VBP already_RB made_VBN instead_RB of_IN being_VBG a_DT do-it-yourself_JJ affair_NN ._. I_PRP think_VBP this_DT is_VBZ the_DT main_JJ difference_NN ,_, but_CC even_RB for_IN me_PRP it_PRP ’_VBZ s_VBZ a_DT bit_NN of_IN a_DT semantic_JJ stretch_NN ._. Small_JJ differences_NNS aside_RB ,_, I_PRP still_RB prefer_VBP tacos_JJ al_NN carbon_NN to_TO fajitas_VB ._. Sure_NNP ,_, fajitas_NNS are_VBP a_DT quite_RB the_DT spectacle_NN ,_, but_CC sometimes_RB you_PRP crave_VBP a_DT more_RBR refined_JJ presentation_NN ._. (_( Or_CC perhaps_RB I_PRP prefer_VBP tacos_JJ al_NN carbon_NN because_IN I_PRP burned_VBD myself_PRP on_IN the_DT sizzling_VBG fajita_JJ skillet_NN one_CD too_RB many_JJ times_NNS !_. )_) But_CC no_DT matter_NN how_WRB you_PRP serve_VBP it_PRP ,_, it_PRP ’_VBZ s_RB hard_JJ to_TO resist_VB a_DT fresh_JJ flour_NN tortilla_NN wrapped_VBD around_IN succulent_JJ beef_NN so_RB flavorful_JJ you_PRP can_MD eat_VB the_DT two_CD together_RB unadorned_JJ ._. I_PRP live_VBP in_IN a_DT small_JJ apartment_NN without_IN any_DT outdoor_JJ space_NN so_RB there_RB ’_JJ s_NN no_DT cooking_NN over_RP coal_NN for_IN me_PRP ._. But_CC if_IN I_PRP get_VBP my_PRP$ cast-iron_JJ skillet_NN hot_JJ enough_RB and_CC then_RB slide_VB my_PRP$ steak_NN under_IN the_DT broiler_NN ,_, I_PRP get_VBP a_DT nice_JJ charred_VBN crust_NN that_WDT ’_VBZ s_RB almost_RB as_RB good_JJ as_IN what_WP I_PRP could_MD get_VB on_IN a_DT grill_NN ._. So_RB yes_RB ,_, technically_RB these_DT aren_NNS ’_VBP t_JJ true_JJ tacos_NN al_NN carbon_NN (_( they_PRP 're_VBP more_RBR like_JJ tacos_NN a_DT la_NN plancha_NN ,_, which_WDT means_VBZ tacos_NN of_IN the_DT griddle_NN )_) ._. But_CC I_PRP don_VBP ’_JJ t_NN mind_NN because_IN after_IN one_CD bite_NN I_PRP ’_VBP m_JJ back_RB in_IN that_DT little_JJ restaurant_NN on_IN Navigation_NNP where_WRB the_DT beef_NN is_VBZ juicy_NN ,_, the_DT tortillas_NNS are_VBP soft_JJ and_CC the_DT green_JJ sauce_NN is_VBZ plentiful_JJ ._. Tacos_NNP al_JJ carbon_NN ,_, small-apartment_JJ style_NN Ingredients_NNS :_: 2_CD pounds_NNS skirt_JJ steak_JJ Juice_NNP of_IN 4_CD limes_NNS (_( about_IN 1/2_CD cup_NN )_) 4_CD cloves_NNS of_IN garlic_JJ 1/4_CD cup_NN cilantro_NN 1_CD jalapeno_NN 1_CD teaspoon_NN cumin_NN 1_CD teaspoon_NN salt_VBD 1_CD tablespoon_NN black_JJ pepper_NN 1_CD teaspoon_NN of_IN canola_JJ oil_NN or_CC nonstick_NN cooking_NN spray_NN Four_CD green_JJ onions_NNS (_( optional_JJ )_) Method_NN :_: To_TO make_VB the_DT marinade_NN ,_, in_IN a_DT blender_NN mix_NN all_PDT the_DT ingredients_NNS except_IN for_IN the_DT skirt_NN steak_NN ,_, canola_JJ oil_NN and_CC green_JJ onions_NNS ._. Pour_NNP over_IN skirt_JJ steak_NN and_CC let_VB it_PRP marinate_VB for_IN 2_CD to_TO 8_CD hours_NNS in_IN the_DT refrigerator_NN ._. Before_IN cooking_NN ,_, rinse_VB off_RP the_DT marinade_NN and_CC let_VB the_DT steak_NN come_NN to_TO room_NN temperature_NN ._. Heat_NNP on_IN high_JJ for_IN 10_CD minutes_NNS a_DT large_JJ cast-iron_JJ skillet_NN or_CC grill_NN pan_NN (_( you_PRP may_MD have_VB to_TO cut_VB the_DT steak_NN in_IN half_NN to_TO fit_VB )_) ._. Also_RB ,_, turn_VB on_IN the_DT broiler_NN in_IN your_PRP$ oven_NN ._. When_WRB the_DT skillet_NN is_VBZ hot_JJ (_( to_TO test_VB I_PRP throw_VBP in_IN a_DT drop_NN of_IN water_NN and_CC it_PRP should_MD immediately_RB evaporate_VB )_) ,_, grease_VB your_PRP$ pan_NN with_IN either_CC the_DT oil_NN or_CC nonstick_NN cooking_NN spray_NN and_CC add_VB your_PRP$ steak_NN ._. Cook_VB on_IN one_CD side_NN for_IN two_CD minutes_NNS then_RB turn_VBP and_CC cook_VBP on_IN the_DT other_JJ side_NN for_IN two_CD minutes_NNS ._. After_IN it_PRP ’_VBD s_JJ cooked_VBN on_IN both_DT sides_NNS ,_, place_VBP the_DT green_JJ onions_NNS in_IN the_DT skillet_NN with_IN the_DT steak_NN still_RB in_IN it_PRP and_CC place_VB the_DT skillet_NN under_IN the_DT broiler_NN for_IN two_CD minutes_NNS ._. Remove_VB steak_NN from_IN pan_NN and_CC let_VB it_PRP rest_VB for_IN 10_CD minutes_NNS ._. If_IN onions_NNS aren_VBP ’_JJ t_NN charred_VBD enough_RB ,_, slide_VB the_DT skillet_NN back_RB under_IN the_DT broiler_NN ._. After_IN meat_NN has_VBZ rested_VBN ,_, slice_VBZ the_DT meat_NN against_IN the_DT grain_NN and_CC roll_NN in_IN fluffy_NN ,_, flour_JJ tortillas_NN with_IN green_JJ onions_NNS on_IN the_DT side_NN ._. Serves_VBZ 4-6_JJ ._. Notes_NNS :_: I_PRP don_VBP ’_JJ t_NNS have_VBP a_DT grill_NN or_CC outdoor_JJ space_NN ,_, so_IN I_PRP don_VBP ’_JJ t_NN know_VBP as_RB much_JJ as_IN I_PRP ’_VBP d_NNS like_IN to_TO about_IN the_DT subject_NN ,_, but_CC to_TO cook_VB the_DT steaks_NNS truly_RB al_JJ carbon_NN ,_, I_PRP ’_VBP ve_RB been_VBN told_VBN five_CD minutes_NNS per_IN side_NN should_MD do_VB the_DT trick_NN ._. --_: --_: --_: --_: -_: Homesick_NNP Texan_NNP has_VBZ been_VBN nominated_VBN for_IN best_JJS regional_JJ food_NN blog_NN in_IN Savuer_NNP ’_NNP s_VBD First_NNP Annual_NNP Best_NNP Food_NNP Blog_NNP Awards_NNP ._. I_PRP ’_VBP m_RB pleased_JJ as_IN punch_NN about_IN this_DT nod_NN as_IN it_PRP just_RB confirms_VBZ what_WP we_PRP ’_VBP ve_IN all_DT known_VBN for_IN a_DT long_JJ time_NN :_: Texas_NNP food_NN is_VBZ wonderful_JJ !_. Please_NNP be_VB sure_JJ and_CC check_VB out_RP all_PDT the_DT excellent_JJ blogs_NNS nominated_VBN --_: it_PRP 's_VBZ quite_RB a_DT round_NN up_RB !_. And_CC if_IN you_PRP ’_VBP re_NNS so_RB inclined_JJ I_PRP ’_VBP d_JJ love_VB your_PRP$ vote_NN ,_, which_WDT you_PRP can_MD place_VB right_RB here_RB ._. Thank_NNP you_PRP !_. I_PRP ’_VBP m_JJ roasting_NN chiles_NNS and_CC frying_VBG up_RP bacon_NN ._. What_WP am_VBP I_PRP making_VBG ,_, you_PRP might_MD ask_VB ?_. What_WP everybody_NN wants_VBZ to_TO eat_VB after_IN being_VBG ill_JJ for_IN a_DT few_JJ days_NNS :_: chipotle_JJ macaroni_NN and_CC cheese_NN ._. With_IN bacon_NN ,_, of_IN course_NN ._. OK_UH ,_, so_IN this_DT might_MD seem_VB a_DT bit_NN heavy_JJ for_IN a_DT re-entry_NN into_IN the_DT land_NN of_IN the_DT normal_JJ eating_NN ,_, but_CC let_VB me_PRP tell_VB you—I_RB ’_NNP m_NN hungry_NN !_. And_CC while_IN the_DT best_JJS thing_NN I_PRP can_MD say_VB about_IN not_RB feeling_VBG well_RB is_VBZ that_IN your_PRP$ skinny_JJ jeans_NNS are_VBP suddenly_RB a_DT viable_JJ option_NN in_IN your_PRP$ wardrobe_NN ,_, in_IN the_DT end_NN I_PRP ’_VBP d_JJ rather_RB be_VB well_RB than_IN ill_NN ._. Though_IN who_WP wouldn_VBP ’_VB t_NN ?_. But_CC let_VB ’_NNP s_VB talk_NN about_IN chipotle_NN macaroni_NN and_CC cheese_NN ,_, shall_MD we_PRP ?_. My_PRP$ family_NN ,_, much_RB like_IN yours_NNS I_PRP reckon_VBP ,_, has_VBZ always_RB made_VBN homemade_NN macaroni_NN and_CC cheese_NN ._. Sure_JJ ,_, we_PRP ’_VBP d_NNS have_VBP the_DT box_NN stuff_NN on_IN hand_NN for_IN after-school_JJ snacks_NNS or_CC donations_NNS to_TO the_DT church_NN food_NN pantry_NN ,_, but_CC in_IN my_PRP$ house_NN the_DT real_JJ ,_, homemade_VBD stuff_NN was_VBD what_WP was_VBD preferred_VBN ._. Mom_NNP makes_VBZ her_PRP$ macaroni_NN and_CC cheese_NN in_IN a_DT variety_NN of_IN ways_NNS ,_, but_CC my_PRP$ favorite_JJ is_VBZ a_DT casserole_NN of_IN pasta_NN suspended_VBN in_IN a_DT luscious_JJ sauce_NN comprised_VBN of_IN egg_NN yolks_NNS ,_, cheese_NN and_CC heavy_JJ cream_NN ._. And_CC just_RB when_WRB you_PRP think_VBP it_PRP couldn_VBZ ’_JJ t_RB be_VB any_DT more_RBR extravagant_JJ ,_, she_PRP throws_VBZ in_IN diced_JJ ,_, thick_JJ ham_NN and_CC tops_NNS it_PRP off_RP with_IN buttery_NN breadcrumbs_NN ._. Yes_UH ,_, this_DT is_VBZ an_DT excellent_JJ dish_NN ,_, but_CC because_IN of_IN its_PRP$ richness_NN I_PRP only_RB advise_VBP serving_VBG it_PRP on_IN special_JJ occasions_NNS ._. When_WRB it_PRP comes_VBZ to_TO a_DT more_RBR everyday_JJ ,_, simple_JJ macaroni_NN and_CC cheese_NN ,_, I_PRP turn_VBP to_TO a_DT method_NN I_PRP learned_VBD in_IN the_DT New_NNP York_NNP Times_NNP ._. This_DT recipe_JJ requires_VBZ little_JJ effort_NN besides_IN pouring_VBG cottage_NN cheese_NN blended_VBD with_IN milk_NN over_IN dry_JJ pasta_NN ,_, tossing_VBG in_IN some_DT shredded_JJ cheese_NN and_CC baking_VBG it_PRP for_IN an_DT hour_NN ._. No_DT endless_JJ stirring_VBG a_DT sauce_NN or_CC boiling_VBG a_DT batch_NN of_IN pasta_NN ,_, which_WDT makes_VBZ it_PRP a_DT cinch_NN to_TO make_VB ._. The_DT Times_NNPS version_NN kept_VBD it_PRP plain_NN ,_, but_CC I_PRP ’_VBP ve_RB made_VBN it_PRP my_PRP$ own_JJ by_IN adding_VBG chipotle_NN and_CC garlic_NN ._. And_CC I_PRP top_VBP it_PRP with_IN bacon_NN and_CC cotija_NN ,_, which_WDT adds_VBZ contrast_NN to_TO the_DT oozing_VBG cheese_NN and_CC soft_JJ pasta_NN ._. I_PRP realize_VBP that_IN my_PRP$ macaroni_NN and_CC cheese_NN may_MD appear_VB decadent_NN as_RB decadent_NN as_IN my_PRP$ monm_NN 's_POS ,_, but_CC feel_VBP free_JJ to_TO convince_VB yourself_PRP that_IN it_PRP ’_VBZ s_VBZ a_DT touch_NN more_RBR healthy_JJ due_JJ to_TO the_DT cottage_NN cheese_NN and_CC all_DT ._. I_PRP do_VBP ._. But_CC you_PRP know_VBP what_WP ?_. We_PRP ’_VBP re_JJ nearing_VBG the_DT end_NN of_IN a_DT long_JJ ,_, cold_JJ winter_NN and_CC sometimes_RB you_PRP just_RB need_VB to_TO pamper_VB yourself_PRP ._. And_CC for_IN me_PRP ,_, comfort_NN comes_VBZ clothed_VBN in_IN chipotle_JJ chiles_NNS ,_, cheese_NN and_CC bacon_NN ._. Chipotle_NNP macaroni_NN and_CC cheese_NN with_IN bacon_NN (_( adapted_VBN from_IN the_DT NY_NNP Times_NNP )_) Ingredients_VBZ :_: 2_CD cups_NNS of_IN dry_JJ elbow_NN pasta_NN 2_CD cups_NNS of_IN milk_NN 1_CD cup_NN of_IN cottage_NN cheese_JJ 1_CD chipotle_NN chile_NN in_IN adobo_JJ 1_CD teaspoon_NN mustard_NN powder_NN 1_CD clove_NN of_IN garlic_NN ,_, roughly_RB chopped_VBD Pinch_NNP of_IN cumin_NN Salt_NNP and_CC black_JJ pepper_NN to_TO taste_VB 3_CD cups_NNS of_IN shredded_JJ cheese_NN ,_, a_DT mix_NN of_IN cheddar_NN and_CC Monterey_NNP Jack_NNP 1/4_CD cup_NN of_IN crumbled_JJ cotija_NN cheese_NN (_( optional_JJ ,_, but_CC delicious_JJ !_. )_) 4_CD pieces_NNS of_IN cooked_JJ bacon_NN ,_, chopped_VBD 1_CD tablespoon_NN of_IN butter_NN Method_NNP :_: Heat_NNP the_DT oven_NN to_TO 375_CD degrees_NNS ._. Grease_VB a_DT 9-inch_JJ cast-iron_JJ skillet_NN or_CC a_DT 9-inch_JJ square_NN or_CC round_NN baking_NN pan_NN with_IN the_DT butter_NN ._. Add_VB the_DT dry_JJ pasta_NN ._. In_IN a_DT blender_NN ,_, mix_VB together_RB the_DT milk_NN ,_, cottage_NN cheese_NN ,_, chipotle_JJ chile_NN ,_, mustard_NN powder_NN ,_, garlic_NN ,_, cumin_NN ,_, salt_NN and_CC black_JJ pepper_NN until_IN it_PRP ’_VBZ s_JJ smooth_NN ._. Pour_JJ mixture_NN over_IN dry_JJ pasta_NN and_CC stir_NN until_IN sauce_NN is_VBZ evenly_RB distributed_VBN ._. Stir_NNP in_IN two_CD cups_NNS of_IN the_DT shredded_JJ cheese_NN ,_, cover_VB the_DT pan_NN with_IN foil_NN and_CC bake_NN for_IN 30_CD minutes_NNS ._. After_IN 30_CD minutes_NNS ,_, remove_VB the_DT foil_NN and_CC stir_VB the_DT macaroni_NN and_CC cheese_VB a_DT couple_NN of_IN times_NNS ._. Top_NN with_IN the_DT remaining_VBG 1_CD cup_NN of_IN shredded_JJ cheese_NN and_CC chopped_VBD bacon_NN and_CC cook_NN for_IN another_DT 25_CD minutes_NNS uncovered_VBD or_CC until_IN brown_JJ and_CC bubbling_VBG ._. Remove_VB from_IN oven_RB ,_, sprinkle_NN with_IN cotija_NN and_CC serve_NN ._. Note_NN :_: If_IN you_PRP ’_VBP re_VB not_RB familiar_JJ with_IN cotija_JJ cheese_NN ,_, it_PRP ’_VBZ s_VBZ a_DT Mexican_JJ hard_JJ cheese_NN that_WDT ’_VBZ s_NNS like_IN a_DT cross_NN between_IN feta_NN and_CC parmesan_NN ._. It_PRP ’_VBZ s_JJ become_VB increasingly_RB more_RBR common_JJ ,_, so_IN you_PRP can_MD find_VB it_PRP at_IN many_JJ regular_JJ grocery_NN stores_NNS and_CC Hispanic_JJ markets_NNS ._. And_CC if_IN you_PRP live_VBP in_IN New_NNP York_NNP City_NNP ,_, I_PRP found_VBD at_IN Mexicana_NNP Bakery_NNP in_IN Jackson_NNP Heights_NNP at_IN 86-06_NNP Roosevelt_NNP a_DT wonderful_JJ cotija_NN coated_VBN in_IN dried_JJ chiles_NNS ._. Also_RB ,_, chipotle_JJ bacon_NN jam_NN might_MD go_VB dandy_JJ with_IN this_DT as_RB well_RB !_. The_DT day_NN before_IN Ash_NNP Wednesday_NNP ?_. Yep_NNP ,_, I_PRP ’_VBP m_VB a_DT pancake_NN eater_NN ._. I_PRP grew_VBD up_RP in_IN an_DT Episcopalian_JJ family_NN and_CC that_IN ’_NNP s_VB how_WRB we_PRP rolled—in_VBP warm_JJ griddlecakes_NNS and_CC cold_JJ glasses_NNS of_IN milk_NN ._. And_CC even_RB though_IN most_JJS of_IN my_PRP$ friends_NNS prepare_VBP for_IN Lent_NNP in_IN a_DT more_RBR colorful_JJ style_NN ,_, old_JJ traditions_NNS are_VBP hard_JJ to_TO shake_VB and_CC I_PRP still_RB enjoy_VB a_DT tall_JJ stack_NN of_IN pancakes_NNS on_IN Shrove_NNP Tuesday_NNP ._. Pancakes_NNS might_MD not_RB be_VB shiny_JJ beads_NNS ,_, feathered_VBN costumes_NNS ,_, fevered_VBD dancing_NN or_CC boisterous_JJ singing_NN ,_, but_CC they_PRP don_VBP ’_JJ t_NNS have_VBP to_TO be_VB completely_RB boring_JJ ._. I_PRP ’_VBP ve_RB been_VBN known_VBN to_TO serve_VB gingerbread_JJ pancakes_NNS ,_, buttermilk_NN pancakes_NNS ,_, banana_NN nut_NN pancakes_NNS and_CC chocolate_VB chip_NN pancakes_NNS ._. But_CC to_TO truly_VB get_VB in_IN the_DT frenzied_JJ spirit_NN on_IN the_DT eve_NN of_IN Lent_NNP ,_, Uncle_NNP Austin_NNP ’_NNP s_VBD coconut_NN pancakes_NNS (_( more_RBR colorfully_RB known_VBN as_IN Uncle_NNP Austin_NNP 's_POS Mexican_NNP pancakes_NNS )_) are_VBP a_DT definite_JJ must_MD ._. When_WRB I_PRP was_VBD young_JJ ,_, Austin_NNP would_MD make_VB these_DT pancakes_NNS for_IN us_PRP on_IN special_JJ occasions_NNS ._. Their_PRP$ main_JJ attraction_NN was_VBD their_PRP$ size—he_JJ ’_NNP d_NN make_VBP one_CD pancake_NN the_DT entire_JJ width_NN of_IN a_DT 10-inch_JJ pan_NN ._. And_CC you_PRP didn_VBP ’_JJ t_NN even_RB have_VBP to_TO share_NN this_DT big_JJ baby—no_NN way—this_VBD over-sized_JJ coconut_NNS pancake_NN was_VBD all_DT for_IN you_PRP !_. But_CC incredible_JJ heft_NN aside_RB ,_, Austin_NNP ’_NNP s_VBD Mexican_NNP pancakes_NNS were_VBD sweet_JJ with_IN fresh_JJ coconut_NN ,_, and_CC some_DT family_NN members_NNS allege_VBP that_IN there_EX was_VBD chocolate_NN and_CC nuts_NNS in_IN them_PRP as_RB well_RB ._. I_PRP asked_VBD Austin_NNP for_IN his_PRP$ recipe_NN ,_, but_CC he_PRP said_VBD that_IN not_RB only_RB had_VBD he_PRP not_RB made_VBD these_DT in_IN 30_CD years_NNS ,_, but_CC also_RB that_IN he_PRP never_RB really_RB had_VBD one_CD ._. Instead_RB ,_, he_PRP just_RB took_VBD my_PRP$ grandpa_JJ ’_NNP s_NN basic_JJ pancake_NN recipe_NN and_CC dolled_VBD it_PRP up_RP a_DT bit_NN with_IN the_DT shredded_JJ coconut_NN ,_, chunks_NNS of_IN brown_JJ sugar_NN and_CC extra_JJ pats_NNS of_IN butter_NN ._. Curious_JJ why_WRB they_PRP were_VBD known_VBN as_IN Mexican_NNP pancakes_NNS ,_, he_PRP admitted_VBD that_IN there_EX was_VBD nothing_NN authentically_RB Mexican_NNP about_IN them_PRP ,_, but_CC it_PRP was_VBD very_RB ,_, very_RB important_JJ to_TO be_VB listening_VBG to_TO Tejano_NNP music_NN ,_, preferably_RB loud_JJ ,_, while_IN making_VBG them_PRP ._. He_PRP stressed_VBD ,_, however_RB that_IN the_DT main_JJ excitement_NN was_VBD in_IN the_DT flipping_NN of_IN the_DT 10-inch_JJ pancake—the_NN messier_NN the_DT better_JJR !_. If_IN you_PRP ’_VBP re_JJ celebrating_VBG pancake_NN Tuesday_NNP ,_, why_WRB not_RB try_VB Uncle_NNP Austin_NNP ’_NNP s_VBD Mexican_NNP coconut_NN pancakes—they_NN ’_NNP re_NN far_RB more_RBR adventurous_JJ than_IN your_PRP$ usual_JJ buttermilk_NN pancakes_NNS ._. And_CC with_IN the_DT Tejano_NNP thumping_NN and_CC the_DT pancake_NN batter_NN flying_VBG ,_, it_PRP may_MD be_VB the_DT most_RBS thrilling_JJ pancake_NN supper_NN you_PRP ’_VBP ve_JJ ever_RB had_VBD !_. What_WP 's_VBZ your_PRP$ favorite_JJ pancake_NN recipe_NN ?_. Coconut_NNP pancakes_NNS (_( Uncle_NNP Austin_NNP ’_NNP s_VBD Mexican_NNP pancakes_NNS )_) Ingredients_NNS :_: 1_CD egg_NN 1_CD 1/2_CD cups_NNS of_IN milk_NN 2_CD cups_NN of_IN flour_JJ 1_CD tablespoon_NN of_IN whole-wheat_JJ flour_NN 1_CD tablespoon_NN of_IN fresh_JJ baking_NN powder_NN 1/2_CD tsp_NN salt_VBD 1/4_CD cup_NNS brown_JJ sugar_NN 1/2_CD cup_NN fresh_NN shredded_VBD coconut_JJ Juice_NNP from_IN one_CD lime_NN (_( about_IN 2_CD tablespoons_NNS )_) plus_CC 1/2_CD teaspoon_NN of_IN lime_JJ zest_JJS 1/4_CD teaspoon_NN of_IN cinnamon_NN 4_CD tablespoons_NNS of_IN melted_JJ butter_NN Method_NNP :_: Beat_NNP together_RB the_DT egg_NN and_CC the_DT milk_NN ._. Stir_NNP in_IN the_DT rest_NN of_IN the_DT ingredients_NNS and_CC mix_NN until_IN smooth_FW ._. If_IN too_RB thick_JJ ,_, add_VB more_JJR milk_NN For_IN regular-sized_JJ pancakes_NNS ,_, pour_VBP 1/4_CD cup_NN of_IN batter_NN onto_IN greased_JJ skillet_NN heated_VBN at_IN medium_NN low_NN ._. For_IN Austin-sized_NNP pancakes_NNS ,_, pour_VBP about_IN 1_CD 1/2_CD cups_NNS to_TO 2_CD cups_NNS of_IN batter_NN into_IN pan_NN ._. Cook_NNP for_IN a_DT few_JJ minutes_NNS on_IN one_CD side_NN ,_, until_IN edges_NNS are_VBP brown_JJ and_CC bubbles_NNS form_VBP in_IN batter_NN ._. Flip_NNP and_CC cook_NN on_IN other_JJ side_NN a_DT couple_NN more_JJR minutes_NNS ._. Makes_NNS about_IN 12_CD small_JJ pancakes_NNS or_CC 3_CD extra-large_JJ pancakes_NNS ._. Note_NN :_: Chopped_NNP pecans_NNS and_CC chocolate_VB chips_NNS are_VBP an_DT excellent_JJ addition_NN if_IN you_PRP like_VBP ._. Austin_NNP recommends_VBZ serving_VBG them_PRP with_IN pineapple_NN and_CC I_PRP agree_VBP ._. I_PRP also_RB top_VBP my_PRP$ pancakes_NNS with_IN yogurt_NN ,_, but_CC honey_NN or_CC syrup_NN would_MD be_VB dandy_JJ as_IN well_RB ._. And_CC Austin_NNP didn_VBP ’_NNP t_NN add_NN limejuice_NN or_CC cinnamon_NN in_IN his_PRP$ original_JJ recipe—that_NN was_VBD my_PRP$ doing_VBG ._. When_WRB I_PRP was_VBD invited_VBN to_TO a_DT party_NN where_WRB Southern_NNP pork_NN dishes_NNS were_VBD being_VBG celebrated_VBN ,_, the_DT decision_NN on_IN what_WP to_TO bring_VB was_VBD a_DT no-brainer_JJ :_: Mexican_JJ chocolate_NN pralines_NNS ._. Now_RB before_IN you_PRP call_VBP my_PRP$ contribution_NN a_DT little_JJ odd_JJ ,_, let_VB me_PRP explain_VB myself_PRP ._. My_PRP$ first_JJ (_( and_CC more_RBR obvious_JJ )_) choice_NN was_VBD to_TO make_VB cookies_NNS with_IN lard_NN ._. I_PRP didn_VBP ’_JJ t_NNS have_VBP any_DT lard_NN on_IN hand_NN ,_, however_RB ,_, so_IN I_PRP went_VBD to_TO the_DT Union_NNP Square_NNP farmers_NNS ’_VBP market_NN to_TO pick_VB up_RP a_DT tub_NN ._. But_CC a_DT snowstorm_NN had_VBD threatened_VBN to_TO blanket_VB the_DT city_NN and_CC my_PRP$ preferred_JJ lard_JJ vendor_NN wasn_NN ’_NNP t_NN there_RB ;_: clearly_RB ,_, I_PRP had_VBD to_TO come_VB up_RP with_IN another_DT plan_NN ._. I_PRP ’_VBP ve_RB been_VBN spending_VBG lots_NNS of_IN time_NN lately_RB reading_VBG old_JJ cookbooks_NNS ._. I_PRP ’_VBP m_RB curious_JJ to_TO see_VB what_WP our_PRP$ ancestors_NNS ate_VBP and_CC to_TO see_VB when_WRB certain_JJ dishes_NNS may_MD have_VB come_VBN into_IN the_DT common_JJ culinary_JJ vernacular_NN ._. When_WRB looking_VBG for_IN inspiration_NN ,_, I_PRP recalled_VBD that_IN I_PRP had_VBD recently_RB come_VBN across_IN an_DT old_JJ Mexican-candy_JJ recipe_NN that_WDT called_VBD for_IN piloncillo_NN (_( or_CC brown_VBN sugar_NN )_) to_TO be_VB cooked_VBN with_IN water_NN and_CC a_DT strip_NN of_IN raw_JJ bacon_NN ._. Now_RB ,_, I_PRP know_VBP bacon_RB in_IN a_DT dessert_NN is_VBZ a_DT trendy_JJ thing_NN these_DT days_NNS ,_, but_CC I_PRP was_VBD intrigued_VBN to_TO see_VB it_PRP listed_VBN in_IN a_DT 100-year-old_JJ recipe_NN ._. And_CC while_IN I_PRP didn_VBP ’_JJ t_NNS have_VBP lard_VBN to_TO make_VB cookies_NNS ,_, bacon_NN was_VBD easily_RB attainable_JJ ._. In_IN another_DT cookbook_NN ,_, I_PRP had_VBD seen_VBN a_DT recipe_NN for_IN Mexican-chocolate_NNP pralines_NNS ._. So_RB for_IN the_DT pork-themed_JJ feast_NN ,_, I_PRP decided_VBD to_TO combine_VB the_DT two_CD thoughts_NNS and_CC make_VB Mexican-chocolate_JJ pralines_NNS with_IN bacon_NN ._. Making_VBG a_DT first-time_JJ dish_NN to_TO share_NN at_IN a_DT large_JJ gathering_NN is_VBZ always_RB brave_VB if_IN not_RB foolish_JJ ._. And_CC while_IN the_DT flavor_NN of_IN these_DT pralines_NNS was_VBD pleasing_VBG ,_, the_DT texture_NN was_VBD too_RB delicate_JJ ._. So_RB instead_RB of_IN pattie</t>
-  </si>
-  <si>
-    <t>As_IN i_NN was_VBD considering_VBG that_IN Germany_NNP has_VBZ had_VBD its_PRP$ fair_JJ share_NN of_IN cannibals_NNS recently_RB and_CC so_RB maybe_RB the_DT German_JJ girls_NNS may_MD know_VB some_DT good_JJ recipes_NNS ,_, the_DT boat_NN steered_VBD toward_IN the_DT mangrove_NN trees_NNS and_CC amazingly_RB a_DT small_JJ channel_NN opened_VBD up_RP in_IN them_PRP -_: a_DT gap_NN barely_RB wider_RBR than_IN the_DT boat_NN was_VBD long_JJ and_CC studded_VBN with_IN brown_NN ,_, decaying_VBG teeth_NNS of_IN rocks_NNS that_WDT were_VBD gnashing_VBG at_IN us_PRP ,_, foaming_VBG the_DT water_NN and_CC making_VBG me_PRP feel_VB like_IN this_DT island_NN was_VBD laughing_VBG at_IN us_PRP ._. Evilly_RB ._.</t>
-  </si>
-  <si>
-    <t>I_PRP 've_VBP been_VBN inundated_VBN with_IN emails_NNS and_CC notes_NNS from_IN various_JJ Alzheimer_NNP 's_POS charities_NNS and_CC groups_NNS about_IN their_PRP$ promotions_NNS leading_VBG up_RB to_TO World_NNP Alzheimer_NNP 's_POS Day_NNP on_IN September_NNP 21_CD ._. We_PRP 're_VBP right_JJ around_IN the_DT 2_CD year_NN anniversary_NN of_IN when_WRB my_PRP$ dad_NN was_VBD violently_RB taken_VBN from_IN the_DT house_NN after_IN trying_VBG to_TO kill_VB my_PRP$ mom_NN ,_, and_CC thus_RB he_PRP started_VBD on_IN the_DT horrible_JJ spiral_NN that_WDT led_VBD to_TO his_PRP$ death_NN 2_CD months_NNS later_RB ._. I_PRP ca_MD n't_RB bear_VB to_TO read_VB it_PRP again_RB ,_, maybe_RB I_PRP never_RB will_MD ,_, but_CC if_IN you_PRP are_VBP interested_JJ it_PRP starts_VBZ here_RB ._. I_PRP ca_MD n't_RB imagine_VB when_WRB I_PRP will_MD ever_RB be_VB able_JJ to_TO look_VB back_RB at_IN the_DT months_NNS of_IN September_NNP ,_, October_NNP and_CC November_NNP 2007_CD without_IN pain_NN ._. Some_DT days_NNS I_PRP ca_MD n't_RB even_RB bear_VB to_TO think_VB about_IN my_PRP$ father_NN ._. It_PRP 's_VBZ usually_RB when_WRB I_PRP am_VBP alone_RB ,_, driving_VBG ,_, when_WRB it_PRP hits_VBZ me_PRP --_: a_DT song_NN on_IN the_DT radio_NN ,_, passing_VBG a_DT store_NN or_CC restaurant_NN he_PRP liked_VBD ,_, or_CC even_RB a_DT random_NN chain_NN of_IN thoughts_NNS that_WDT leads_VBZ me_PRP to_TO think_VB my_PRP$ dad_NN was_VBD stolen_VBN from_IN me_PRP and_CC no_DT matter_NN what_WP drugs_NNS they_PRP come_VBP up_RP with_IN now_RB ,_, I_PRP can_MD never_RB ever_RB get_VB him_PRP back_RB ._. Then_RB I_PRP drive_VBP the_DT long_JJ way_NN home_NN ,_, until_IN I_PRP finish_VBP crying_VBG ._. Which_NNP is_VBZ my_PRP$ excuse_NN ,_, I_PRP guess_VBP ,_, for_IN neglecting_VBG this_DT blog_NN ._. I_PRP think_VBP about_IN writing_NN ,_, but_CC it_PRP stirs_VBZ everything_NN up_RP ,_, and_CC then_RB I_PRP end_VBP up_RP in_IN front_NN of_IN my_PRP$ computer_NN crying_VBG into_IN my_PRP$ cat_NN 's_POS fur_NN ._. Here_RB are_VBP some_DT of_IN the_DT campaigns_NNS that_WDT have_VBP been_VBN brought_VBN to_TO my_PRP$ attention_NN lately_RB ._. If_IN I_PRP missed_VBD yours_NNS ,_, let_VB me_PRP know_VB !_.</t>
-  </si>
-  <si>
-    <t>I_PRP really_RB think_VBP the_DT show_NN would_MD be_VB better_JJR if_IN they_PRP kept_VBD the_DT boys_NNS and_CC girls_NNS separate_VBP until_IN the_DT top_JJ two_CD ._. A_DT two-hour_JJ show_NN at_IN this_DT point_NN is_VBZ impossible_JJ to_TO sit_VB through_IN ,_, even_RB with_IN the_DT help_NN of_IN Tivo_NNP ._. Tonight_NNP 's_POS comments_NNS from_IN the_DT judges_NNS were_VBD pretty_RB good_JJ for_IN the_DT most_JJS part_NN ._. My_PRP$ comments_NNS ,_, in_IN order_NN of_IN appearance_NN :_: Michael_NNP Lynch_NNP is_VBZ by_IN far_RB the_DT best_JJS of_IN the_DT guys_NNS and_CC will_MD make_VB it_PRP to_TO the_DT top_JJ few_JJ (_( although_IN DialIdol.com_NNP disagrees_NNS )_) .Didi_NN was_VBD better_JJR than_IN expected_VBN again_RB ._. She_PRP 's_VBZ not_RB my_PRP$ choice_NN by_IN a_DT long_JJ shot_NN ,_, but_CC is_VBZ safe_JJ for_IN at_IN least_JJS another_DT 3_CD weeks.Casey_NN was_VBD better_RBR this_DT week_NN ,_, but_CC I_PRP 'm_VBP not_RB sure_JJ how_WRB long_RB he_PRP will_MD last_JJ ._. His_PRP$ song_NN choice_NN was_VBD not_RB right_JJ for_IN him_PRP</t>
-  </si>
-  <si>
-    <t>Well_RB for_IN those_DT that_WDT do_VBP n't_RB know_VB I_PRP am_VBP taking_VBG 10_CD freshman_JJ kids_NNS from_IN school_NN to_TO the_DT Grand_NNP Canyon_NNP over_IN spring_NN break_NN !_. Yes_UH I_PRP have_VBP lost_VBN my_PRP$ mind_NN ..._: ._. No_DT I_PRP really_RB am_VBP excited_JJ ..._: I_PRP think_VBP !_. We_PRP leave_VBP early_JJ Monday_NNP morning_NN for_IN the_DT airport_NN to_TO fly_VB to_TO Las_NNP Vegas_NNP ._. Then_RB we_PRP fly_VBP out_RP the_DT red_JJ eye_NN friday_NN night_NN !_. So_IN yes_JJ I_PRP am_VBP spending_VBG my_PRP$ Spring_NN Break_NNP with_IN KIDS_NNP what_WP am_VBP I_PRP thinking_VBG ?_. I_PRP am_VBP sure_JJ it_PRP will_MD be_VB a_DT vacation_NN I_PRP will_MD never_RB forget_VB !_.</t>
-  </si>
-  <si>
-    <t>heY_NN tHIs_VBP GaL_NNP S_NNP a_DT SwEEt_NNP cARinG_NN fRIenD_NN oF_NN mINe_NN ._. How_WRB V_JJ bEcAMe_NN fRIenDs_NN iS_VBZ rEAlly_RB a_DT coMEdy_NN ._. wE_WDT trIEd_VBP to_TO sOLve_VB fIGht_NN bETwEEn_NN tWO_NN pEOple_NNS and_CC wE_NN beCAme_VBP rEAlly_RB clOSe.sHe_VBN iS_VBZ a_DT pERsOn_NN whO_JJ cARes_VBZ moRE_JJR aBOut_IN hEr_PRP$ fRIends_NNS thAN_VBP aNYtHIng_RB in_IN THis_NNP wORld_NN ._. iF_VB sHe_JJ cARes_NN For_IN A_NNP peRSon_NN tHEN_NN she_PRP wiLL_VBZ do_VBP aNYThiNg_VB for_IN thEM_NN ._. sHE_NN alwAYs_VBD cARes_VBP a_DT lOT_NN for_IN mE_NN wHIch_NN i_NN dONt_VBP do_VBP thAT_IN oFTen.sHE_NN is_VBZ an_DT eMOTional_JJ peRSon_NN bUT_NN loVES_VBZ to_TO bE_VB hAPPy_JJ aND_NNS maKE_VBP oTHErs_NN hAPPy_NN</t>
-  </si>
-  <si>
-    <t>A_DT man_NN stumbles_VBZ up_RP to_TO the_DT only_RB other_JJ patron_NN in_IN a_DT bar_NN and_CC asks_VBZ if_IN he_PRP could_MD buy_VB him_PRP a_DT drink_NN ._. ``_`` Why_WRB of_IN course_NN ,_, ''_'' comes_VBZ the_DT reply_NN ._. The_DT first_JJ man_NN then_RB asks_VBZ :_: ``_`` Where_WRB are_VBP you_PRP from_IN ?_. ''_'' ``_`` I_PRP 'm_VBP from_IN Ireland_NNP ,_, ''_'' replies_VBZ the_DT second_JJ man_NN ._. The_DT first_JJ man_NN responds_VBZ :_: ``_`` You_PRP do_VBP n't_RB say_VB ._. &amp;_CC nbsp_JJ ;_: I_PRP 'm_VBP from_IN Ireland_NNP too_RB !_. Let_NNP 's_POS have_VB another_DT round_NN to_TO Ireland_NNP ._. ''_'' ``_`` Of_IN course_NN ,_, ''_'' replies_VBZ the_DT second_JJ man_NN ._. Curious_JJ ,_, the_DT first_JJ man_NN then_RB asks_VBZ :_: ``_`` Where_WRB in_IN Ireland_NNP are_VBP you_PRP from_IN ?_. ''_'' ``_`` Dublin_NNP ,_, ''_'' comes_VBZ the_DT reply_NN ._. ``_`` I_PRP ca_MD n't_RB believe_VB it_PRP ,_, ''_'' says_VBZ the_DT first_JJ man._NN &amp;_CC nbsp_NN ;_: ``_`` I_PRP 'm_VBP from_IN Dublin_NNP too_RB !_. Let_NNP 's_POS have_VB another_DT drink_NN to_TO Dublin_NNP ._. ''_'' ``_`` Of_IN course_NN ,_, ''_'' replies_VBZ the_DT second_JJ man_NN ._. Curiosity_NNP again_RB strikes_NNS and_CC the_DT first_JJ man_NN asks_VBZ :_: ``_`` What_WP school_NN did_VBD you_PRP go_VB to_TO ?_. ''_'' ``_`` Saint_NNP Mary_NNP 's_POS ,_, ''_'' replies_VBZ the_DT second_JJ man._NN &amp;_CC nbsp_NN ;_: ``_`` I_PRP graduated_VBD in_IN '62_NN ._. ''_'' ``_`` This_DT is_VBZ unbelievable_JJ !_. ''_'' the_DT first_JJ man_NN says._NN &amp;_CC nbsp_NN ;_: ``_`` I_PRP went_VBD to_TO Saint_NNP Mary_NNP 's_POS and_CC I_PRP graduated_VBD in_IN '62_CD ,_, too_RB !_. ''_'' About_IN that_DT time_NN in_IN comes_VBZ one_CD of_IN the_DT regulars_NNS and_CC sits_VBZ down_RB at_IN the_DT bar._NN &amp;_CC nbsp_NN ;_: ``_`` What_WP 's_VBZ been_VBN going_VBG on_IN ?_. ''_'' he_PRP asks_VBZ the_DT bartender_NN ._. ``_`` Nothing_NNP much_JJ ,_, ''_'' replies_VBZ the_DT bartender_NN ._. ``_`` The_DT O'Malley_NNP twins_NNS are_VBP drunk_RB again_RB ._. ''_'' Happy_JJ St._NNP Patrick_NNP 's_POS Day_NNP ..._: !_. And_CC remember_VB ,_, on_IN St._NNP Patrick_NNP 's_POS Day_NNP ,_, everybody_NN 's_POS Irish_NNP ._. The_DT human_JJ mind_NN is_VBZ a_DT very_RB strange_JJ place_NN ,_, and_CC I_PRP ca_MD n't_RB begin_VB to_TO understand_VB some_DT of_IN the_DT strange_JJ things_NNS that_WDT have_VBP happened_VBN to_TO me_PRP ._. I_PRP am_VBP a_DT pragmatic_JJ sort_NN of_IN person_NN ,_, and_CC I_PRP do_VBP n't_RB believe_VB in_IN the_DT supernatural_JJ ,_, or_CC psychic_JJ occurrences_NNS ,_, and_CC yet_RB these_DT things_NNS keep_VBP happening_VBG ._. One_CD day_NN a_DT few_JJ years_NNS ago_RB I_PRP was_VBD on_IN an_DT inter-city_NN bus_NN ,_, going_VBG to_TO visit_VB my_PRP$ brother_NN who_WP at_IN that_DT time_NN lived_VBD in_IN a_DT suburb_NN of_IN Vancouver_NNP ._. As_IN the_DT bus_NN turned_VBD a_DT corner_NN a_DT few_JJ blocks_NNS from_IN his_PRP$ house_NN ,_, I_PRP began_VBD to_TO feel_VB strange_JJ ._. I_PRP had_VBD the_DT feeling_NN I_PRP was_VBD in_IN a_DT speeding_NN car_NN ,_, and_CC I_PRP had_VBD no_DT control_NN ._. I_PRP began_VBD to_TO have_VB a_DT feeling_NN of_IN panic_NN as_IN the_DT car_NN entered_VBD a_DT tunnel_NN ._. My_PRP$ breathing_NN began_VBD to_TO quicken_VB and_CC the_DT feeling_NN of_IN panic_NN overwhelmed_VBD me_PRP ._. At_IN the_DT next_JJ stop_NN ,_, I_PRP got_VBD off_RP the_DT bus_NN and_CC composed_VBD myself_PRP ,_, walking_VBG for_IN a_DT few_JJ minutes_NNS and_CC breathing_VBG the_DT fresh_JJ air_NN ._. When_WRB I_PRP got_VBD to_TO my_PRP$ brother_NN 's_POS place_NN ,_, the_DT feeling_NN had_VBD passed_VBN and_CC I_PRP was_VBD completely_RB myself_PRP again_RB ._. My_PRP$ brother_NN offered_VBD me_PRP a_DT cup_NN of_IN coffee_NN and_CC a_DT snack_NN ,_, and_CC we_PRP chatted_VBD ,_, and_CC I_PRP felt_VBD as_IN if_IN nothing_NN had_VBD happened_VBN ._. But_CC the_DT strange_JJ event_NN stayed_VBN with_IN me_PRP ,_, and_CC I_PRP could_MD not_RB forget_VB it_PRP ._. When_WRB I_PRP got_VBD home_RB a_DT few_JJ hours_NNS later_RB ,_, I_PRP switched_VBD on_IN the_DT television_NN to_TO see_VB the_DT news_NN report_NN of_IN the_DT death_NN of_IN Diana_NNP ,_, Princess_NNP of_IN Wales_NNP ,_, in_IN a_DT tunnel_NN in_IN Paris_NNP ._. With_IN the_DT time_NN difference_NN between_IN Vancouver_NNP and_CC Paris_NNP ,_, I_PRP determined_VBD that_IN the_DT accident_NN had_VBD happened_VBN at_IN precisely_RB the_DT same_JJ moment_NN I_PRP had_VBD had_VBN my_PRP$ strange_JJ incident_NN on_IN the_DT bus_NN ._. I_PRP had_VBD never_RB felt_VBN a_DT connection_NN with_IN Diana_NNP ,_, and_CC I_PRP wondered_VBD why_WRB our_PRP$ minds_NNS had_VBD chosen_VBN to_TO connect_VB across_IN the_DT universe_NN at_IN just_RB that_DT moment_NN in_IN time_NN ._. And_CC then_RB I_PRP thought_VBD perhaps_RB we_PRP are_VBP all_DT connected_VBN on_IN some_DT level_NN --_: with_IN one_CD consciousness_NN ._. Some_DT of_IN the_DT strange_JJ thoughts_NNS that_WDT pop_VBP in_IN and_CC out_IN of_IN our_PRP$ heads_NNS may_MD actually_RB be_VB the_DT echoes_NNS of_IN other_JJ people_NNS 's_POS thoughts_NNS --_: a_DT sudden_JJ craving_NN for_IN a_DT Crispy_NNP Crunch_NNP chocolate_NN bar_NN ,_, a_DT piece_NN of_IN music_NN ,_, thoughts_NNS of_IN a_DT friend_NN who_WP is_VBZ just_RB about_RB to_TO phone_NN us_PRP ,_, and_CC we_PRP pick_VBP up_RP the_DT phone_NN knowing_NN who_WP it_PRP is_VBZ ._. These_DT things_NNS happen_VBP to_TO us_PRP every_DT day_NN ,_, and_CC they_PRP remain_VBP a_DT mystery_NN to_TO all_DT of_IN us_PRP ._. There_EX 's_VBZ a_DT new_JJ series_NN on_IN NBC_NNP called_VBD ``_`` Who_WP Do_VBP You_PRP Think_VB You_PRP Are_VBP ?_. ''_'' based_VBN on_IN the_DT popular_JJ BBC_NNP series_NN that_WDT has_VBZ been_VBN running_VBG since_IN 2004_CD ._. The_DT premise_NN of_IN the_DT show_NN is_VBZ to_TO trace_VB the_DT family_NN trees_NNS of_IN celebrities_NNS ._. I_PRP have_VBP always_RB been_VBN interested_JJ in_IN genealogy_NN ,_, and_CC I_PRP would_MD love_VB to_TO trace_VB my_PRP$ family_NN tree_NN ._. My_PRP$ mother_NN always_RB claimed_VBD her_PRP family_NN was_VBD descended_VBN from_IN French_JJ barons_NNS and_CC baronesses_NNS ,_, and_CC my_PRP$ father_NN always_RB used_VBD to_TO counter_VB with_IN ,_, ``_`` Well_UH ,_, that_WDT makes_VBZ up_RP for_IN the_DT fact_NN that_IN my_PRP$ family_NN is_VBZ descended_VBN from_IN Irish_JJ horse_NN thieves_NNS ._. ''_'' I_PRP think_VBP for_IN both_DT of_IN them_PRP ,_, the_DT truth_NN lies_VBZ somewhere_RB in_IN between_IN ._. As_IN with_IN all_DT families_NNS ,_, if_IN we_PRP shake_VBP our_PRP$ family_NN trees_NNS ,_, we_PRP will_MD shake_VB out_RP a_DT few_JJ famous_JJ people_NNS ,_, and_CC a_DT few_JJ infamous_JJ ._. Last_JJ week_NN 's_POS episode_NN featured_VBD Sarah_NNP Jessica_NNP Parker_NNP ._. She_PRP was_VBD amazed_VBN to_TO discover_VB that_DT one_CD of_IN her_PRP$ ancestors_NNS was_VBD Esther_NNP Elwell_NNP ,_, her_PRP$ tenth_JJ great_JJ grandmother_NN ,_, who_WP had_VBD been_VBN arrested_VBN for_IN practicing_VBG witchcraft_NN during_IN the_DT Salem_NNP Witch_NNP trials_NNS ._. Esther_NNP ,_, along_IN with_IN two_CD other_JJ women_NNS ,_, had_VBD been_VBN accused_VBN of_IN performing_VBG witchcraft_NN on_IN their_PRP$ neighbor_NN ,_, Mary_NNP Fitch_NNP ,_, causing_VBG her_PRP$ death_NN ._. However_RB ,_, the_DT date_NN of_IN the_DT deposition_NN ,_, November_NNP 8th_CD ,_, 1692_CD ,_, happened_VBD after_IN the_DT dissolution_NN of_IN the_DT Court_NNP of_IN Oyer_NNP and_CC Terminer_NNP and_CC her_PRP$ case_NN never_RB went_VBD to_TO trial_NN ._. Esther_CC lived_VBD to_TO be_VB 82_CD years_NNS old_JJ ,_, and_CC she_PRP was_VBD the_DT last_JJ woman_NN to_TO be_VB accused_VBN of_IN witchraft_NN in_IN Salem_NNP ._. How_WRB much_JJ of_IN our_PRP$ ancestors_NNS '_POS DNA_NN do_VBP we_PRP inherit_VB ?_. I_PRP have_VBP always_RB felt_VBN a_DT very_RB close_JJ affinity_NN with_IN Queen_NNP Elizabeth_NNP the_DT First_NNP ._. When_WRB I_PRP read_VBP about_IN her_PRP ,_, and_CC the_DT time_NN in_IN which_WDT she_PRP lived_VBD ,_, I_PRP have_VBP a_DT very_RB strong_JJ feeling_NN of_IN déjà_NN vu_NN ._. It_PRP 's_VBZ almost_RB as_IN if_IN I_PRP can_MD remember_VB things_NNS from_IN that_DT period_NN of_IN history_NN ._. And_CC she_PRP was_VBD a_DT redhead_NN ,_, and_CC there_EX are_VBP a_DT large_JJ number_NN of_IN redheads_NNS in_IN our_PRP$ family_NN ._. As_RB well_RB as_IN our_PRP$ physical_JJ attributes_NNS ,_, are_VBP our_PRP$ ancestors_NNS '_POS memories_NNS encoded_VBD in_IN their_PRP$ DNA_NN and_CC passed_VBD on_IN to_TO us_PRP ?_. If_IN so_RB ,_, what_WP memories_NNS are_VBP we_PRP passing_VBG on_IN to_TO our_PRP$ descendants_NNS ?_. When_WRB Sarah_NNP Jessica_NNP Parker_NNP was_VBD learning_VBG about_IN her_PRP$ ancestors_NNS lives_NNS ,_, she_PRP felt_VBD an_DT emotional_JJ connection_NN with_IN them_PRP ._. Does_VBZ the_DT silver_NN thread_NN that_WDT connects_VBZ us_PRP remain_VBP unbroken_JJ throughout_IN the_DT generations_NNS ?_. Are_VBP we_PRP the_DT sum_NN of_IN our_PRP$ ancestors_NNS '_POS lives_NNS and_CC experiences_NNS ?_. Perhaps_RB we_PRP are_VBP more_RBR closely_RB connected_VBN to_TO these_DT strangers_NNS than_IN we_PRP realize_VBP ._. Who_WP do_VBP you_PRP think_VB you_PRP are_VBP ?_. Do_VBP n't_RB forget_VB to_TO move_VB your_PRP$ clocks_NNS forward_RB tonight_VBD ._. I_PRP have_VBP been_VBN uncharacteristically_RB busy_JJ the_DT past_JJ couple_NN of_IN days_NNS ,_, and_CC I_PRP do_VBP apologize_VB for_IN not_RB having_VBG time_NN to_TO respond_VB ,_, or_CC to_TO visit_VB you_PRP ._. I_PRP 'll_MD be_VB back_RB soon_RB ._. Cheers_NNS ,_, During_IN the_DT recent_JJ health_NN care_NN debates_VBZ in_IN a_DT certain_JJ country_NN just_RB south_RB of_IN us_PRP --_: which_WDT country_NN shall_MD remain_VB nameless_JJ --_: Canada_NNP was_VBD used_VBN as_IN an_DT example_NN of_IN a_DT country_NN with_IN bad_JJ health_NN care_NN ._. The_DT insurance_NN companies_NNS in_IN that_DT country_NN south_NN of_IN us_PRP do_VBP n't_RB want_VB folks_NNS to_TO know_VB that_IN not_RB only_RB is_VBZ health_NN care_NN in_IN Canada_NNP some_DT of_IN the_DT best_JJS in_IN the_DT world_NN ,_, Canadian_JJ residents_NNS do_VBP n't_RB have_VB to_TO mortgage_NN their_PRP$ homes_NNS or_CC go_VB bankrupt_RB in_IN order_NN to_TO pay_VB for_IN medical_JJ procedures_NNS ,_, medications_NNS or_CC treatment_NN ._. I_PRP work_VBP in_IN the_DT health_NN care_NN system_NN ,_, and_CC I_PRP see_VBP first-hand_JJ how_WRB caring_VBG the_DT doctors_NNS and_CC health_NN care_NN professionals_NNS are_VBP ,_, and_CC how_WRB they_PRP will_MD move_VB mountains_NNS if_IN necessary_JJ to_TO help_VB anyone_NN who_WP needs_VBZ help_NN ._. If_IN you_PRP think_VBP that_IN sounds_VBZ a_DT bit_NN melodramatic_JJ ,_, it_PRP 's_VBZ not_RB ._. I_PRP have_VBP seen_VBN doctors_NNS spend_VBP hours_NNS with_IN patients_NNS who_WP have_VBP been_VBN diagnosed_VBN with_IN serious_JJ or_CC life-threatening_JJ illnesses_NNS ,_, making_VBG sure_JJ the_DT patients_NNS get_VBP the_DT help_NN they_PRP need_VBP with_IN medical_JJ attention_NN ,_, diagnostic_JJ examinations_NNS ,_, treatment_NN and_CC even_RB providing_VBG outreach_NN workers_NNS to_TO help_VB the_DT patients_NNS psychologically_RB in_IN addition_NN to_TO their_PRP$ medical_JJ help_NN ._. In_IN British_JJ Columbia_NNP ,_, a_DT patient_NN can_MD have_VB an_DT x-ray_JJ done_VBN at_IN a_DT northern_JJ outpost_NN ,_, the_DT x-ray_NN can_MD be_VB posted_VBN to_TO a_DT grid_NN and_CC read_VB instantly_RB by_IN a_DT radiologist_NN in_IN Vancouver_NNP ._. The_DT same_JJ applies_NNS to_TO other_JJ laboratory_NN and_CC diagnostic_JJ tests_NNS ._. And_CC if_IN treatment_NN is_VBZ required_VBN ,_, the_DT patient_NN receives_VBZ it_PRP immediately_RB ._. There_EX is_VBZ a_DT province-wide_JJ computer_NN network_NN of_IN all_DT patients_NNS '_POS medications_NNS ,_, so_IN no_DT patient_NN can_MD ``_`` doctor_VB shop_NN ''_'' for_IN duplications_NNS of_IN medications_NNS ,_, or_CC inadvertently_RB take_VB medications_NNS that_WDT have_VBP adverse_JJ effects_NNS on_IN each_DT other_JJ ._. In_IN other_JJ words_NNS ,_, we_PRP have_VBP actually_RB progressed_VBN from_IN leeches_NNS and_CC blood-letting_NN ._. So_IN ,_, I_PRP was_VBD quite_RB pleased_JJ to_TO read_VB the_DT following_JJ article_NN in_IN today_NN 's_POS Vancouver_NNP Sun_NNP newspaper_NN :_: (_( Vancouver_NNP –_NNP March_NNP 10_CD )_) Research_NN published_VBN today_NN in_IN the_DT New_NNP England_NNP Journal_NNP of_IN Medicine_NNP sheds_VBZ new_JJ light_NN on_IN which_WDT Hodgkin_NNP lymphoma_NN patients_NNS are_VBP likely_JJ to_TO relapse_VB after_IN receiving_VBG treatment_NN ._. BC_NNP Cancer_NNP Agency_NNP researchers_NNS have_VBP discovered_VBN that_IN the_DT number_NN of_IN macrophages_NNS –_VBP a_DT type_NN of_IN white_JJ blood_NN cell_NN that_WDT normally_RB scavenges_VBZ foreign_JJ material_NN –_NN found_VBD in_IN a_DT patient_NN ’_NN s_VB tumour_NN had_VBD a_DT strong_JJ correlation_NN to_TO treatment_NN outcome_NN ._. The_DT greater_JJR the_DT number_NN of_IN macrophages_NNS ;_: the_DT greater_JJR the_DT likelihood_NN of_IN a_DT relapse_NN ._. Hodgkin_NNP lymphoma_NN is_VBZ a_DT cancer_NN of_IN lymphocytes_NNS which_WDT typically_RB affects_VBZ young_JJ adults_NNS ,_, but_CC can_MD occur_VB at_IN any_DT age_NN ._. It_PRP is_VBZ a_DT highly_RB treatable_JJ form_NN of_IN cancer_NN ,_, with_IN about_RB 75_CD to_TO 85_CD percent_NN of_IN patients_NNS cured_VBN with_IN initial_JJ treatment_NN ._. However_RB ,_, if_IN the_DT first_JJ therapy_NN fails_NNS ,_, secondary_JJ treatment_NN usually_RB includes_VBZ a_DT bone_NN marrow_NN transplant_NN ,_, which_WDT is_VBZ only_RB successful_JJ for_IN about_IN one-half_NN of_IN these_DT cases_NNS ._. “_VB The_DT study_NN demonstrates_VBZ that_IN high_JJ numbers_NNS of_IN macrophages_NNS are_VBP associated_VBN with_IN treatment_NN resistance_NN in_IN Hodgkin_NNP lymphoma_NN suggesting_VBG a_DT way_NN to_TO identify_VB the_DT 25_CD percent_NN of_IN patients_NNS who_WP currently_RB don_VBP ’_JJ t_NN respond_NN well_RB ,_, ”_NNP says_VBZ Dr._NNP Joseph_NNP Connors_NNP ,_, one_CD of_IN the_DT study_NN researchers_NNS and_CC clinical_JJ director_NN of_IN the_DT BC_NNP Cancer_NNP Agency_NNP ’_NNP s_NN Centre_NNP for_IN Lymphoid_NNP Cancer_NNP ._. The_DT research_NN was_VBD conducted_VBN with_IN funding_NN from_IN the_DT Canadian_NNP Institutes_NNPS of_IN Health_NNP Research_NNP with_IN additional_JJ funding_NN from_IN BC_NNP Cancer_NNP Agency_NNP Centre_NNP for_IN Lymphoid_NNP Cancer_NNP ,_, the_DT Michael_NNP Smith_NNP Foundation_NNP for_IN Health_NNP Research_NNP ,_, the_DT Lymphoma_NNP Research_NNP Foundation_NNP ,_, and_CC the_DT Cancer_NNP Research_NNP Society_NNP of_IN Canada_NNP ._. In_IN a_DT perfect_JJ world_NN ,_, no_DT one_NN would_MD ever_RB get_VB sick_JJ ,_, but_CC unfortunately_RB that_DT 's_VBZ not_RB the_DT case_NN ._. As_IN I_PRP have_VBP said_VBD many_JJ times_NNS before_IN ,_, I_PRP am_VBP puzzled_VBN as_IN to_TO why_WRB a_DT wealthy_JJ country_NN like_IN that_DT big_JJ country_NN to_TO the_DT south_NN of_IN us_PRP has_VBZ such_JJ spotty_JJ health_NN care_NN --_: two_CD different_JJ systems_NNS for_IN the_DT haves_NNS and_CC the_DT have-nots_NNS ._. We_PRP love_VBP our_PRP$ cousins_NNS to_TO the_DT south_NN ;_: they_PRP 're_VBP Canada_NNP 's_POS best_JJS friends_NNS ,_, and_CC we_PRP hope_VBP they_PRP get_VBP their_PRP$ health_NN care_NN problem_NN fixed_VBN ,_, and_CC we_PRP hope_VBP they_PRP get_VBP it_PRP right_RB ._. Whatever_WDT works_VBZ for_IN them_PRP is_VBZ definitely_RB the_DT best_JJS solution_NN ._. And_CC what_WP works_VBZ in_IN Canada_NNP may_MD not_RB work_VB for_IN them_PRP ,_, but_CC perhaps_RB we_PRP here_RB in_IN the_DT backwoods_NNS Canada_NNP may_MD have_VB something_NN to_TO show_VB them_PRP ,_, if_IN they_PRP 'll_MD let_VB us_PRP ._. Cheers_NNS ,_, Do_VBP you_PRP ever_RB have_VBP completely_RB insane_JJ dreams_NNS ,_, and_CC you_PRP wake_VBP up_RP the_DT next_JJ morning_NN and_CC think_VB ..._: ``_`` What_WP the_DT h-ll_NN ..._: ?_. ''_'' I_PRP have_VBP been_VBN doing_VBG that_IN a_DT lot_NN lately_RB ._. The_DT other_JJ night_NN I_PRP dreamt_VBP I_PRP was_VBD in_IN a_DT tsunami_NN ._. It_PRP 's_VBZ sort_NN of_IN a_DT recurring_VBG dream_NN ,_, because_IN I_PRP was_VBD once_RB actually_RB in_IN a_DT tsunami_NN and_CC it_PRP was_VBD very_RB frightening_VBG ._. Last_JJ night_NN I_PRP dreamt_VBP I_PRP was_VBD walking_VBG along_IN the_DT banks_NNS of_IN the_DT Somass_NNP River_NNP in_IN Port_NNP Alberni_NNP ,_, and_CC I_PRP was_VBD with_IN David_NNP Duchovny_NNP ._. We_PRP were_VBD on_IN a_DT high_JJ cliff_NN ,_, and_CC I_PRP was_VBD showing_VBG him_PRP how_WRB crystal_JJ clear_JJ the_DT water_NN was_VBD ._. He_PRP leaned_VBD over_RP a_DT little_JJ too_RB far_RB ,_, and_CC I_PRP said_VBD ``_`` Careful_NNP ,_, do_VBP n't_RB fall_VB in_IN ..._: ''_'' and_CC just_RB at_IN that_DT moment_NN he_PRP fell_VBD head_NN first_RB over_IN the_DT cliff_NN and_CC into_IN the_DT water_NN ._. There_EX was_VBD a_DT group_NN of_IN people_NNS picnicking_VBG on_IN the_DT shore_NN ,_, and_CC I_PRP hollered_VBD at_IN them_PRP ``_`` Call_VB 911_CD !_. Call_VB 911_CD !_. ''_'' And_CC then_RB I_PRP woke_VBD up_RP ._. David_NNP Duchovny_NNP ..._: !_. ?_. David_NNP Duchovny_NNP does_VBZ n't_RB cross_VB my_PRP$ mind_NN from_IN one_CD year_NN to_TO the_DT next_JJ --_: I_PRP have_VBP never_RB even_RB watched_VBD ``_`` The_DT X_NN Files_NNP ''_'' and_CC it_PRP was_VBD filmed_VBN here_RB in_IN Vancouver_NNP --_: how_WRB did_VBD he_PRP get_VB into_IN my_PRP$ dream_NN ?_. And_CC why_WRB were_VBD we_PRP walking_VBG along_IN the_DT banks_NNS of_IN the_DT Somass_NNP River_NNP ?_. I_PRP also_RB dreamt_VBD last_JJ night_NN that_IN I_PRP was_VBD caught_VBN in_IN a_DT huge_JJ blizzard_NN ._. I_PRP had_VBD gone_VBN shopping_NN for_IN groceries_NNS ,_, and_CC while_IN I_PRP was_VBD in_IN the_DT store_NN ,_, snow_NN had_VBD started_VBN falling_VBG ._. As_IN I_PRP went_VBD outside_RB ,_, the_DT wind_NN was_VBD howling_VBG and_CC the_DT snow_NN was_VBD knee_JJ deep_JJ ._. I_PRP remember_VBP trudging_VBG across_IN the_DT road_NN thinking_NN ,_, ``_`` Why_WRB did_VBD n't_RB I_PRP wear_VBP my_PRP$ boots_NNS ?_. ''_'' Where_WRB do_VB we_PRP go_VB when_WRB we_PRP dream_VBP ?_. The_DT scientific_JJ explanation_NN for_IN dreams_NN is_VBZ that_IN the_DT synapses_NNS in_IN our_PRP$ brains_NNS are_VBP processing_VBG things_NNS that_WDT have_VBP occurred_VBN during_IN the_DT day_NN ._. In_IN his_PRP$ book_NN ``_`` The_DT Interpretation_NNP of_IN Dreams_NNP ''_'' ,_, Sigmund_NNP Freud_NNP once_RB called_VBD our_PRP$ dreams_NNS ,_, ``_`` The_DT royal_NN road_NN to_TO the_DT unconscious_JJ ._. ''_'' He_PRP also_RB said_VBD ,_, ``_`` ..._: every_DT dream_NN will_MD reveal_VB itself_PRP as_IN a_DT psychological_JJ structure_NN ,_, full_JJ of_IN significance_NN ,_, and_CC one_CD which_WDT may_MD be_VB assigned_VBN to_TO a_DT specific_JJ place_NN in_IN the_DT psychic_JJ activities_NNS of_IN the_DT waking_VBG state_NN ._. ''_'' I_PRP do_VBP believe_VB there_EX is_VBZ a_DT scientific_JJ reason_NN for_IN our_PRP$ dreams_NNS ._. But_CC why_WRB for_IN goodness_NN sake_NN was_VBD I_PRP dreaming_VBG about_IN David_NNP Duchovny_NNP ?_. The_DT truth_NN is_VBZ out_RP there_RB ..._: Yesterday_NN I_PRP had_VBD the_DT opportunity_NN to_TO see_VB the_DT movie_NN ``_`` Precious_JJ ''_'' ,_, and_CC apart_RB from_IN being_VBG the_DT most_RBS disturbing_JJ movie_NN I_PRP have_VBP ever_RB seen_VBN ,_, it_PRP also_RB opened_VBD a_DT window_NN to_TO a_DT world_NN I_PRP did_VBD not_RB know_VB even_RB existed_VBN ._. In_IN fact_NN ,_, the_DT movie_NN was_VBD so_RB disturbing_JJ ,_, I_PRP had_VBD to_TO turn_VB it_PRP off_RP a_DT few_JJ times_NNS before_IN I_PRP could_MD continue_VB watching_VBG it_PRP ._. And_CC please_JJ note_NN ,_, if_IN you_PRP decide_VBP to_TO watch_VB it_PRP ,_, make_VB sure_JJ any_DT family_NN members_NNS under_IN the_DT age_NN of_IN 18_CD are_VBP out_IN of_IN the_DT house_NN ._. I_PRP do_VBP n't_RB think_VB anyone_NN should_MD be_VB subject_JJ to_TO that_DT sort_NN of_IN language_NN or_CC visual_JJ content_NN until_IN they_PRP are_VBP mature_JJ enough_RB not_RB be_VB traumatized_VBN ._. I_PRP 'm_VBP only_RB slightly_RB younger_JJR than_IN Methuselah_NNP ,_, and_CC it_PRP traumatized_VBD me_PRP ._. I_PRP had_VBD definite_VBN mixed_JJ feelings_NNS about_IN the_DT film_NN ,_, and_CC about_IN Gabourey_NNP Sidibe_NNP 's_POS performance_NN ._. She_PRP was_VBD perfectly_RB cast_VBN in_IN the_DT role_NN ,_, but_CC it_PRP was_VBD obvious_JJ she_PRP had_VBD not_RB had_VBN much_JJ acting_JJ experience_NN ._. In_IN most_JJS of_IN her_PRP$ scenes_NNS ,_, I_PRP had_VBD difficulty_NN hearing_VBG what_WP she_PRP was_VBD saying_VBG ._. She_PRP seemed_VBD to_TO do_VB what_WP most_JJS new_JJ actors_NNS do_VBP --_: she_PRP spoke_VBD a_DT little_JJ too_RB quickly_RB and_CC she_PRP mumbled_VBD ._. Only_RB in_IN her_PRP$ voice-overs_NNS was_VBD I_PRP able_JJ to_TO clearly_RB hear_VB her_PRP ._. I_PRP wanted_VBD to_TO love_VB her_PRP$ performance_NN ,_, but_CC I_PRP did_VBD n't_RB ._. I_PRP loved_VBD her_PRP character_NN ,_, though_IN ,_, and_CC Precious_NNP is_VBZ a_DT true_JJ hero_NN overcoming_VBG almost_RB insurmountable_JJ odds_NNS ._. The_DT film_NN was_VBD produced_VBN by_IN Oprah_NNP Winfrey_NNP and_CC Tyler_NNP Perry_NNP ,_, and_CC directed_VBN by_IN Lee_NNP Daniels_NNP ._. A_DT reviewer_NN by_IN the_DT name_NN of_IN Armond_NNP White_NNP who_WP writes_VBZ for_IN the_DT New_NNP York_NNP Press_NNP had_VBD this_DT to_TO say_VB :_: ``_`` Winfrey_NNP ,_, Perry_NNP and_CC Daniels_NNP make_VBP an_DT unholy_JJ triumvirate_NN ._. They_PRP come_VBP together_RB at_IN some_DT intersection_NN of_IN race_NN exploitation_NN and_CC opportunism_NN ._. ''_'' Another_DT reviewer_NN called_VBD the_DT movie_NN ``_`` Social_JJ pornography_NN at_IN its_PRP$ worst_JJS ,_, festering_VBG in_IN racial_JJ self-loathing_NN and_CC oblivious_JJ to_TO a_DT system_NN that_WDT ignores_VBZ its_PRP$ neediest_NN ._. ''_'' I_PRP felt_VBD that_DT way_NN too_RB ,_, but_CC I_PRP think_VBP the_DT movie_NN touched_VBD a_DT chord_NN with_IN Oprah_NNP because_IN it_PRP must_MD have_VB felt_VBN slightly_RB autobiographical_JJ for_IN her_PRP$ ._. Mariah_NNP Carey_NNP was_VBD amazing_VBG as_IN Precious_NNP 's_POS social_JJ worker_NN ,_, and_CC she_PRP stole_VBD every_DT scene_NN she_PRP was_VBD in_IN ._. The_DT nuances_NNS of_IN emotions_NNS that_WDT ran_VBD across_IN her_PRP$ face_NN and_CC through_IN her_PRP$ eyes_NNS was_VBD wonderful_JJ ._. Who_WP knew_VBD Mariah_NNP Carey_NNP was_VBD such_JJ a_DT good_JJ actress_NN ._. Did_NNP she_PRP know_VBD she_PRP was_VBD such_JJ a_DT good_JJ actress_NN ?_. Do_VBP we_PRP see_VB an_DT Oscar_NN in_IN her_PRP$ future_NN ?_. Well_UH ,_, I_PRP hope_VBP we_PRP see_VBP more_JJR roles_NNS with_IN Mariah_NNP Carey_NNP ._. And_CC of_IN course_NN Mo'Nique_NNP 's_POS performance_NN was_VBD in_IN a_DT whole_JJ other_JJ stratosphere_NN ._. She_PRP should_MD have_VB won_VBD the_DT Academy_NNP Award_NNP for_IN Best_NNP Actress_NNP ._. I_PRP did_VBD n't_RB like_IN the_DT movie_NN ``_`` Precious_JJ ''_'' ,_, but_CC then_RB ,_, I_PRP did_VBD n't_RB like_IN ``_`` The_DT Hurt_NNP Locker_NNP ''_'' either_CC and_CC it_PRP won_VBD Best_NNP Picture_NN ._. Maybe_RB I_PRP need_VBP to_TO put_VB my_PRP$ rose_VBD colored_VBN glasses_NNS back_RB on_IN ._. Too_NNP often_RB I_PRP am_VBP able_JJ to_TO see_VB exploitation_NN and_CC propaganda_NN where_WRB other_JJ people_NNS are_VBP not_RB ._. My_PRP$ emotions_NNS are_VBP not_RB easily_RB manipulated_VBN ,_, and_CC it_PRP kind_NN of_IN ruins_NNS the_DT fun_NN ._. As_IN one_CD reviewer_NN said_VBD about_IN the_DT movie_NN ``_`` Precious_JJ ''_'' ,_, ``_`` There_EX is_VBZ a_DT thin_JJ line_NN between_IN compassion_NN and_CC voyeurism_NN ;_: soul-searing_JJ drama_NN and_CC overwrought_JJ melodrama_NN ;_: opera_NN and_CC Oprah_NNP ._. This_DT film_NN tramples_VBZ all_DT over_IN it_PRP ._. ''_'' I_PRP 'm_VBP afraid_JJ I_PRP agree_VBP ..._: I_PRP wanted_VBD to_TO like_VB this_DT movie_NN ,_, but_CC I_PRP did_VBD n't_RB care_VB for_IN it_PRP ._. I_PRP work_VBP with_IN several_JJ Iraqi_NNP and_CC Iranian_JJ doctors_NNS ,_, as_RB well_RB as_IN doctors_NNS from_IN Saudia_NNP Arabia_NNP and_CC the_DT United_NNP Arab_NNP Emirates_NNP ._. They_PRP enjoy_VBP telling_VBG me_PRP stories_NNS of_IN growing_VBG up_RP in_IN their_PRP$ countries_NNS ,_, what_WP their_PRP$ family_NN lives_NNS were_VBD like_JJ and_CC what_WP is_VBZ was_VBD like_IN going_VBG to_TO school_NN in_IN their_PRP$ home_NN countries_NNS ._. Talking_VBG with_IN them_PRP has_VBZ been_VBN a_DT real_JJ education_NN for_IN me_PRP so_RB ,_, I_PRP thought_VBD perhaps_RB I_PRP would_MD share_NN some_DT of_IN what_WP I_PRP have_VBP learned_VBN with_IN folks_NNS who_WP perhaps_RB do_VBP n't_RB know_VB a_DT great_JJ deal_NN about_IN those_DT mysterious_JJ places_NNS in_IN the_DT Middle_NNP East_NNP ._. Before_IN I_PRP go_VBP any_DT further_RB ,_, let_VB me_PRP say_VB this_DT is_VBZ not_RB about_IN politics_NNS ,_, so_RB please_JJ do_VBP n't_RB misunderstand_VB me_PRP ._. I_PRP do_VBP n't_RB completely_RB comprehend_VB the_DT complex_JJ politics_NNS of_IN the_DT Middle_NNP East_NNP ,_, and_CC for_IN the_DT purposes_NNS of_IN this_DT post_NN ,_, they_PRP are_VBP not_RB relevant_JJ ._. Until_IN 1920_CD ,_, the_DT country_NN of_IN Iraq_NNP did_VBD not_RB exist_VB ._. It_PRP was_VBD created_VBN out_IN of_IN the_DT spoils_NNS of_IN the_DT First_NNP World_NNP War_NNP ._. The_DT Ottoman_NNP Empire_NNP was_VBD carved_VBN up_RP and_CC France_NNP was_VBD given_VBN mandate_NN over_IN Syria_NNP and_CC Lebanon_NNP ,_, while_IN Great_NNP Britain_NNP was_VBD given_VBN mandate_NN over_IN Jordan_NNP ,_, Palestine_NNP and_CC Iraq_NNP ,_, of_IN which_WDT Baghdad_NNP is_VBZ the_DT largest_JJS city_NN ._. The_DT roots_NNS of_IN Baghdad_NNP go_VBP back_RB to_TO 1200_CD years_NNS B.C._NNP ,_, but_CC in_IN the_DT 8th_JJ Century_NNP A.D._NNP ,_, it_PRP became_VBD an_DT important_JJ centre_NN of_IN commerce_NN and_CC education_NN ._. One_CD university_NN ,_, Bayt_NNP al-Hikmah_NN ,_, attracted_VBD scholars_NNS from_IN all_DT over_IN the_DT world_NN ,_, where_WRB students_NNS translated_VBD Greek_JJ manuscripts_NNS ,_, preserving_VBG them_PRP for_IN all_DT time_NN ._. It_PRP was_VBD home_NN to_TO great_JJ philosophers_NNS ,_, scientists_NNS ,_, astronomers_NNS ,_, mathematicians_NNS ,_, doctors_NNS ,_, lawyers_NNS ,_, engineers_NNS ,_, artists_NNS ,_, scientists_NNS and_CC religious_JJ leaders_NNS ._. They_PRP studied_VBD the_DT works_NNS of_IN Aristotle_NNP ,_, Plato_NNP and_CC Hippocrates_NNP ._. While_IN Europe_NNP was_VBD still_RB in_IN the_DT Dark_NNP Ages_NNP ,_, Baghdad_NNP was_VBD the_DT centre_NN of_IN a_DT rich_JJ ,_, intellectual_JJ civilization_NN ._. Today_VB the_DT museums_NNS in_IN Baghdad_NNP house_NN thousands_NNS of_IN priceless_JJ ancient_JJ artifacts_NNS ,_, but_CC the_DT museums_NNS have_VBP been_VBN closed_VBN to_TO the_DT public_NN since_IN the_DT invasion_NN in_IN 2003_CD in_IN order_NN to_TO protect_VB the_DT treasures_NNS ._. Baghdad_NNP is_VBZ built_VBN on_IN the_DT banks_NNS of_IN the_DT Tigris_NNP River_NNP --_: one_CD of_IN the_DT four_CD rivers_NNS from_IN the_DT Garden_NNP of_IN Eden_NNP --_: and_CC it_PRP has_VBZ a_DT population_NN of_IN approximately_RB 7,000,000_CD ,_, almost_RB the_DT size_NN of_IN New_NNP York_NNP City_NNP ._. Baghdad_NNP has_VBZ existed_VBN through_IN dozens_NNS of_IN sieges_NNS over_IN the_DT centuries_NNS ,_, and_CC it_PRP will_MD survive_VB the_DT current_JJ one_NN as_RB well_RB ._. Iraq_NNP is_VBZ a_DT country_NN with_IN a_DT very_RB different_JJ culture_NN from_IN ours_NNS ._. We_PRP in_IN North_NNP America_NNP do_VBP not_RB fully_RB understand_VB it_PRP ,_, nor_CC are_VBP we_PRP expected_VBD to_TO understand_VB it_PRP ._. The_DT doctors_NNS with_IN whom_WP I_PRP work_VBP tell_VB me_PRP of_IN their_PRP$ religious_JJ traditions_NNS ,_, their_PRP$ family_NN traditions_NNS and_CC their_PRP$ cultural_JJ traditions_NNS ._. Their_PRP$ customs_NNS seem_VBP so_RB foreign_JJ to_TO me_PRP ,_, as_IN my_PRP$ customs_NNS are_VBP foreign_JJ to_TO them_PRP ._. They_PRP bring_VBP to_TO the_DT office_NN wonderful_JJ things_NNS to_TO eat_VB --_: kebbabs_VB ,_, bamia_NN ,_, falafel_NN ,_, dolma_NN ,_, and_CC delicious_JJ pastries_NNS made_VBN with_IN phyllo_JJ dough_NN ,_, pistachio_NN nuts_NNS and_CC honey_NN ._. There_EX are_VBP special_JJ dishes_NNS for_IN special_JJ feasts_NNS ,_, and_CC some_DT of_IN the_DT recipes_NNS go_VBP back_RB 10,000_CD years_NNS ._. I_PRP find_VBP the_DT Iraqis_NNP to_TO be_VB very_RB warm_JJ ,_, generous_JJ people_NNS and_CC they_PRP love_VBP to_TO hug_VB ._. All_DT I_PRP can_MD think_VB is_VBZ how_WRB unfortunate_JJ it_PRP is_VBZ when_WRB we_PRP all_DT have_VBP so_RB much_JJ to_TO share_NN ,_, that_IN we_PRP should_MD spend_VB so_RB much_JJ time_NN in_IN unecessary_JJ hostilities_NNS ._. We_PRP here_RB in_IN North_NNP America_NNP can_MD be_VB somewhat_RB naïve_JJ at_IN times_NNS ,_, and_CC often_RB we_PRP do_VBP n't_RB know_VB as_RB much_JJ about_IN the_DT rest_NN of_IN the_DT world_NN and_CC the_DT people_NNS who_WP inhabit_VBP it_PRP as_IN we_PRP think_VBP we_PRP do_VBP ._.</t>
-  </si>
-  <si>
-    <t>Again_RB ,_, Lights_VBZ Out_RP San_NNP Francisco_NNP was_VBD a_DT huge_JJ success_NN ,_, thanks_NNS to_TO all_DT of_IN you_PRP !_. We_PRP 'd_MD also_RB like_VB to_TO extend_VB a_DT special_JJ thank_NN you_PRP to_TO the_DT photographers_NNS who_WP took_VBD some_DT amazing_JJ before_NN and_CC after_IN photos_NNS for_IN us_PRP ._. If_IN you_PRP liked_VBD what_WP you_PRP saw_VBD in_IN Dolores_NNP Park_NNP last_JJ Saturday_NNP ,_, check_VB out_RP what_WP else_RB Teacher_VBZ with_IN the_DT Bus_NNP has_VBZ to_TO offer_VB ._. Building_NNP off_IN of_IN all_PDT the_DT positive_JJ responses_NNS we_PRP 've_VBP received_VBN from_IN folks_NNS across_IN the_DT country_NN and_CC even_RB around_IN the_DT world_NN ,_, we_PRP 're_VBP moving_VBG forward_RB with_IN Lights_NNP Out_NNP America_NNP ._. Please_NNP join_VB us_PRP in_IN taking_VBG it_PRP to_TO the_DT next_JJ level_NN by_IN participating_VBG in_IN Lights_NNP Out_NNP America_NNP on_IN March_NNP 29th_CD ,_, 2008_CD !_. A_DT big_JJ thanks_NNS to_TO all_DT who_WP participated_VBD in_IN Lights_NNP Out_NNP last_JJ night_NN !_. We_PRP are_VBP especially_RB grateful_JJ to_TO Jens-Peter_NNP Jungclaussen_NNP the_DT Teacher_NNP With_IN The_DT Bus_NNP and_CC all_DT of_IN our_PRP$ volunteers_NNS who_WP made_VBD the_DT event_NN a_DT great_JJ success_NN ._. We_PRP had_VBD a_DT good_JJ time_NN in_IN Dolores_NNP Park_NNP ,_, and_CC we_PRP hope_VBP that_IN you_PRP had_VBD some_DT fun_NN in_IN the_DT dark_NN too_RB ._. Here_RB are_VBP some_DT photos_NNS from_IN before_IN and_CC during_IN the_DT event_NN at_IN Dolores_NNS :_: Ok_NN this_DT is_VBZ very_RB cool_JJ ..._: our_PRP$ friends_NNS at_IN Google_NNP have_VBP ``_`` turned_VBN out_RP the_DT lights_NNS ''_'' on_IN their_PRP$ homepage_NN for_IN users_NNS in_IN the_DT Bay_NNP Area_NNP ._. I_PRP can_MD see_VB it_PRP but_CC some_DT friends_NNS are_VBP not_RB seeing_VBG it_PRP yet_RB ._. It_PRP may_MD take_VB some_DT time_NN for_IN the_DT page_NN to_TO find_VB its_PRP$ way_NN to_TO all_PDT the_DT local_JJ servers_NNS ?_. They_PRP have_VBP written_VBN a_DT special_JJ page_NN for_IN us_PRP as_RB well_RB :_: http_NN :_: //www.google.com/lightsoutsf/_JJ Thanks_NNS Google_VBP !_. Turn_NNP off_RP your_PRP$ lights_NNS from_IN 8-9pm_JJ and_CC do_VBP one_CD of_IN the_DT following_JJ ,_, or_CC think_VB up_RP your_PRP$ own_JJ way_NN to_TO make_VB good_JJ things_NNS happen_VBP in_IN the_DT dark_NN !_. -Treat_NN yourself_PRP (_( and_CC someone_NN else_RB )_) to_TO a_DT candlelight_NN dinner_NN at_IN one_CD of_IN our_PRP$ participating_VBG restaurants_NNS ._. -Help_VB us_PRP out_RP by_IN taking_VBG photos_NNS and_CC emailing_VBG them_PRP to_TO pictures_VB @_NNP lightsoutsf.org_NN ._. -JOIN_VB US_NNP IN_NNP DOLORES_NNP PARK_NNP FOR_NNP FREE_NNP MUSIC_NNP !_. !_. !_. Yet_RB another_DT signal_NN of_IN support_NN from_IN our_PRP$ fearless_JJ leader_NN in_IN Sacramento_NNP ._. Governor_NNP Schwarzenegger_NNP shares_NNS his_PRP$ support_NN for_IN Lights_NNS Out_NNP San_NNP Francisco_NNP ._. He_PRP calls_VBZ it_PRP an_DT ``_`` illuminating_NN ''_'' event_NN !_. We_PRP just_RB learned_VBD that_IN our_PRP$ very_RB own_JJ ,_, Speaker_NNP of_IN the_DT House_NNP ,_, Nancy_NNP Pelosi_NNP issued_VBD a_DT statement_NN in_IN support_NN of_IN Lights_NNS Out_NNP ._. Thanks_VB very_RB much_RB for_IN the_DT support_NN ..._: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: --_: Pelosi_NNP Statement_NNP on_IN Lights_NNP Out_NNP San_NNP Francisco_NNP Washington_NNP ,_, D.C._NNP –_NNP Speaker_NNP Nancy_NNP Pelosi_NNP issued_VBD the_DT following_JJ statement_NN regarding_VBG Lights_NNS Out_RP San_NNP Francisco_NNP ,_, a_DT city-wide_JJ conservation_NN event_NN in_IN which_WDT organizers_NNS are_VBP inviting_VBG the_DT entire_JJ San_NNP Francisco_NNP community_NN to_TO install_VB one_CD compact_JJ fluorescent_NN light_NN bulb_NN (_( CFL_NNP )_) and_CC turn_VB off_RP all_DT non-essential_JJ lighting_NN from_IN 8_CD p.m._NN to_TO 9_CD p.m._NN :_: ``_`` Climate_NNP change_NN presents_VBZ a_DT challenge_NN to_TO the_DT survival_NN of_IN our_PRP$ planet_NN ._. While_IN there_EX is_VBZ an_DT urgent_JJ need_NN for_IN decisive_JJ action_NN to_TO address_VB climate_NN change_NN and_CC greenhouse_NN gas_NN reduction_NN nationally_RB and_CC globally_RB ,_, we_PRP must_MD act_VB locally_RB as_RB well_RB ._. ``_`` Solutions_NNS to_TO the_DT climate_NN crisis_NN must_MD be_VB as_RB local_JJ as_IN our_PRP$ neighborhoods_NNS and_CC as_RB global_JJ as_IN the_DT planet_NN ._. By_IN taking_VBG part_NN in_IN Lights_NNP Out_NNP San_NNP Francisco_NNP ,_, each_DT resident_NN will_MD be_VB taking_VBG a_DT positive_JJ step_NN towards_NNS reducing_VBG green_JJ house_NN gases_NNS emissions_NNS on_IN a_DT local_JJ level_NN ._. ``_`` Thank_NNP you_PRP to_TO the_DT visionary_JJ organizers_NNS of_IN Lights_NNS Out_NNP San_NNP Francisco_NNP and_CC to_TO the_DT many_JJ businesses_NNS ,_, residents_NNS and_CC visitors_NNS who_WP will_MD participate_VB in_IN turning_VBG out_RP the_DT lights_NNS in_IN San_NNP Francisco_NNP and_CC helping_VBG to_TO reduce_VB the_DT energy_NN consumption_NN in_IN our_PRP$ city_NN ._. ''_'' This_DT just_RB in_IN ._. Our_PRP$ good_JJ friends_NNS at_IN Craigslist_NNP posted_VBD a_DT link_NN from_IN their_PRP$ homepages_NNS in_IN San_NNP Francisco_NNP and_CC LA_NNP ._. Thanks_NNP guys_NNS ..._: this_DT will_MD definitely_RB help_VB raise_VB awareness_NN of_IN our_PRP$ event_NN and_CC save_VB energy_NN ._. A_DT big_JJ thanks_NNS to_TO Raymond_NNP ,_, Ryan_NNP and_CC their_PRP$ friends_NNS at_IN Holy_NNP Name_NNP School_NNP !_. They_PRP helped_VBD us_PRP pass_VB out_RP CFLs_NNP and_CC information_NN about_IN LOSF_NNP at_IN their_PRP$ elementary_JJ school_NN ._. You_PRP guys_VBP have_VBP been_VBN a_DT great_JJ help_NN !_.</t>
-  </si>
-  <si>
-    <t>There_EX are_VBP a_DT variety_NN of_IN anti_JJ aging_VBG skin_NN care_NN products_NNS available_JJ in_IN the_DT market_NN ,_, be_VB it_PRP anti-wrinkle_JJ creams_NNS or_CC face-lifting_JJ skin_NN care_NN formulations_NNS ._. Anti_NNP aging_VBG products_NNS claim_NN to_TO prevent_VB and/or_JJ erase_VB the_DT common_JJ signs_NNS of_IN aging_VBG like_IN wrinkles_NNS and_CC fine_JJ lines_NNS and_CC enhance_VB the_DT overall_JJ skin_NN quality_NN ._. Often_NNP ,_, women_NNS become_VBP increasingly_RB concerned_VBN with_IN their_PRP$ skin_JJ condition_NN as_IN they_PRP grow_VBP older_JJR ,_, and_CC as_IN a_DT result_NN they_PRP try_VBP out_RP various_JJ anti_NNS aging_VBG skin_NN care_NN formulations_NNS to_TO correct_VB the_DT situation_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP 've_VBP written_VBN before_IN about_IN how_WRB I_PRP 'm_VBP now_RB at_IN the_DT age_NN where_WRB I_PRP 've_VBP become_VBN part_NN of_IN an_DT obvious_JJ ``_`` targeted_JJ demographic_NN ''_'' when_WRB it_PRP comes_VBZ to_TO television_NN commercials_NNS and_CC advertisements_NNS ._. Being_VBG in_IN my_PRP$ mid-40_NN 's_POS I_PRP am_VBP in_IN prime_JJ shape_NN to_TO be_VB taken_VBN in_IN by_IN ads_NNS that_WDT promise_VBP everything_NN from_IN being_VBG able_JJ to_TO re-grow_VB hair_NN to_TO being_VBG able_JJ to_TO ``_`` be_VB ready_JJ ''_'' for_IN up_IN to_TO 36_CD hours_NNS ,_, should_MD I_PRP choose_VB to_TO become_VB intimate_NN with_IN someone_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP did_VBD n't_RB start_VB watching_VBG AD_NNP until_IN way_NN after_IN the_DT show_NN was_VBD over_RB ._. Better_RBR late_RB than_IN never_RB ?_. !_. I_PRP do_VBP n't_RB know_VB why_WRB or_CC how_WRB I_PRP even_RB began_VBD to_TO watch_VB this_DT show_NN ,_, but_CC I_PRP 'm_VBP glad_JJ I_PRP did_VBD ._. After_IN watching_VBG a_DT few_JJ episodes_NNS online_VBP (_( probably_RB Hulu_NNP )_) ,_, I_PRP immediately_RB took_VBD myself_PRP to_TO Target_VB to_TO purchase_VB the_DT seasons_NNS ._. I_PRP had_VBD always_RB seen_VBN the_DT DVDs_NNP at_IN Target_NNP ,_, just_RB never_RB really_RB knew_VB what_WP it_PRP was_VBD about_RB ._. Maybe_NNP that_WDT 's_VBZ why_WRB I_PRP started_VBD watching_VBG it_PRP ,_, out_IN of_IN curiousity_NN ._. This_DT is_VBZ hands_VBZ down_RB ,_, one_CD of_IN my_PRP$ favorite_JJ shows_NNS ._.</t>
-  </si>
-  <si>
-    <t>Sure_RB ,_, it_PRP is_VBZ a_DT new_JJ world_NN out_IN there_RB !_. Especially_RB if_IN you_PRP owned_VBD Yahoo_UH !_. stock_NN last_JJ night_NN ._. After_IN an_DT overnight_JJ gain_NN of_IN 48_CD %_NN following_VBG Microsoft_NNP 's_POS bid_NN offer_NN to_TO buy_VB yahoo_NNP ,_, I_PRP do_VBP n't_RB blame_VB you_PRP if_IN you_PRP have_VBP a_DT grin_NN the_DT size_NN of_IN a_DT football_NN field_NN ._. Anyway_RB ,_, this_DT only_JJ brings_VBZ to_TO focus_VB the_DT new_JJ dynamics_NNS of_IN the_DT game_NN -_: How_WRB software_NN and_CC business_NN have_VBP changed_VBN over_IN the_DT past_JJ to_TO adapt_VB and_CC embrace_VB the_DT medium_NN of_IN the_DT Internet_NNP ._. So_RB ,_, if_IN you_PRP are_VBP a_DT CS/IT_NNP or_CC a_DT business_NN student_NN ,_, you_PRP will_MD do_VB well_RB to_TO take_VB these_DT points_NNS into_IN consideration_NN :_: 1_CD ._. The_DT net_JJ is_VBZ now_RB the_DT universal_NN computer_NN -_: the_DT machine_NN where_WRB we_PRP run_VBP software_NN and_CC store_NN data_NNS ._. When_WRB was_VBD the_DT last_JJ time_NN you_PRP accessed_VBD an_DT encyclopedia_NN or_CC a_DT dictionary_JJ in_IN print_NN or_CC DVD_NNP form_NN ,_, or_CC get_VB an_DT entire_JJ roll_NN of_IN film_NN or_CC card_NN full_JJ of_IN images_NNS printed_VBN ?_. With_IN online_JJ applications_NNS like_IN Wikipedia_NNP ,_, Facebook_NNP and_CC Flickr_NNP ,_, we_PRP are_VBP buying_VBG less_JJR and_CC less_RBR packaged_VBN software_NN and_CC going_VBG online_PRP more_JJR and_CC more_JJR for_IN our_PRP$ computation_NN needs_NNS ._. With_IN traditionally_RB packaged_VBN software_NN such_JJ as_IN Office_NNP being_VBG available_JJ for_IN use_NN online_NN as_IN well_RB ,_, it_PRP definitely_RB signals_VBZ the_DT ``_`` Net_NN is_VBZ the_DT Computer_NNP ''_'' era_NN ._.</t>
-  </si>
-  <si>
-    <t>It_PRP 's_VBZ unrealistic_JJ to_TO think_VB that_IN we_PRP could_MD easily_RB change_VB to_TO a_DT national_JJ health_NN care_NN plan_NN in_IN this_DT country_NN ._. It_PRP would_MD involve_VB wiping_VBG out_IN all_DT insurance_NN companies_NNS ,_, and_CC creating_VBG one_CD enormous_JJ new_JJ government_NN entity_NN ._. Instead_RB ,_, we_PRP need_VBP to_TO work_VB within_IN the_DT system_NN we_PRP have_VBP to_TO reduce_VB costs_NNS and_CC increase_VB coverage_NN ._. So_CC my_PRP$ suggestion_NN ?_. Start_NNP controlling_VBG the_DT insurance_NN and_CC drug_NN companies_NNS ,_, and_CC stop_VB letting_VBG them_PRP control_VB us_PRP ._. Or_CC more_RBR specifically_RB ,_, stop_VB letting_VBG them_PRP control_NN you_PRP ,_, our_PRP$ government_NN ._.</t>
-  </si>
-  <si>
-    <t>Whenever_WRB you_PRP go_VBP to_TO the_DT Our_PRP$ Cancer_NNP group_NN ,_, you_PRP 'll_MD always_RB see_VB most_RBS recent_JJ blog_NN posts_NNS first_RB ._. Just_RB to_TO the_DT right_NN of_IN the_DT latest_JJS blog_NN post_NN ,_, you_PRP 'll_MD see_VB two_CD tabs_NNS ;_: one_CD for_IN blogs_NNS and_CC the_DT other_JJ for_IN discussions_NNS ._. If_IN you_PRP want_VBP to_TO see_VB recent_JJ discussions_NNS ,_, just_RB click_NN that_IN tab_NN and_CC it_PRP will_MD switch_VB to_TO the_DT discussion_NN ._. There_EX 's_VBZ also_RB a_DT ``_`` view_NN all_DT ''_'' button_NN for_IN both_DT blog_NN entries_NNS and_CC discussions_NNS so_IN you_PRP can_MD browse_VB recent_JJ submissions_NNS from_IN other_JJ community_NN members_NNS ._.</t>
-  </si>
-  <si>
-    <t>The_DT Beach_NNP Body_NNP P90X_NNP workout_IN program_NN is_VBZ an_DT intense_JJ ,_, yet_RB lasting_VBG way_NN to_TO get_VB your_PRP$ body_NN and_CC life_NN back_RB in_IN shape_NN ._. I_PRP transformed_VBD the_DT way_NN my_PRP$ body_NN looked_VBD ,_, adding_VBG toned_VBN muscles_NNS and_CC feeling_VBG full_JJ of_IN energy_NN with_IN this_DT program_NN ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ facebook_NN has_VBZ me_PRP remember_VB how_WRB worthless_JJ the_DT people_NNS were_VBD who_WP I_PRP grew_VBD up_RP with_IN still_RB are_VBP ,_, except_IN the_DT very_RB few_JJ ,_, (_( two_CD out_IN of_IN hundreds_NNS !_. !_. !_. )_) ,_, and_CC myspace_NN I_PRP have_VBP found_VBN handfuls_NNS of_IN insightful_JJ ,_, intelligent_JJ ,_, talented_VBN ,_, humorous_JJ ,_, and_CC invigorating_VBG people_NNS I_PRP thought_VBD I_PRP had_VBD lost_VBN ,_, and_CC others_NNS I_PRP probably_RB would_MD have_VB never_RB met_VBN on_IN this_DT planet_NN ._. Due_JJ to_TO this_DT ,_, I_PRP realize_VBP I_PRP could_MD have_VB done_VBN things_NNS differently_RB ,_, but_CC that_DT does_VBZ n't_RB mean_VB more_JJR worthwhile_NN ._. And_CC with_IN the_DT stimulation_NN of_IN new_JJ friends_NNS ,_, I_PRP have_VBP something_NN stirring_NN in_IN my_PRP$ soul_NN that_IN I_PRP have_VBP n't_RB felt_VBN for_IN way_NN too_RB long_RB ..._: confidence_NN to_TO achieve_VB whatever_WP the_DT hell_NN I_PRP want_VBP !_. Just_RB thinking_VBG about_IN the_DT possibilities_NNS possible_JJ ,_, makes_VBZ me_PRP feel_VB like_IN the_DT old_JJ me_PRP that_IN I_PRP admired_VBD ._. The_DT old_JJ me_PRP that_WDT was_VBD about_IN fun_NN for_IN everyone_NN ._. The_DT old_JJ me_PRP that_WDT could_MD find_VB a_DT use_NN of_IN the_DT info_NN I_PRP aquired_VBD that_DT could_MD benefit_VB all_DT ._. The_DT old_JJ me_PRP that_IN felt_VBD good_JJ about_IN myself_PRP ._. Hell_NNP with_IN a_DT new_JJ me_PRP ,_, I_PRP 'll_MD keep_VB the_DT old_JJ me_PRP ._.</t>
-  </si>
-  <si>
-    <t>We_PRP are_VBP leaving_VBG bright_JJ and_CC early_JJ tomorrow_NN morning_NN to_TO visit_VB Aaron_NNP 's_POS mom_NN for_IN a_DT week_NN ._. It_PRP 's_VBZ going_VBG to_TO be_VB super_JJ cold_NN ,_, so_IN we_PRP were_VBD trying_VBG to_TO pack_VB appropriately_RB when_WRB we_PRP both_DT looked_VBD at_IN each_DT other_JJ and_CC said_VBD ,_, ``_`` We_PRP do_VBP n't_RB really_RB have_VB any_DT cold_JJ weather_NN clothes_NNS !_. ''_'' That_DT 's_VBZ what_WP living_NN in_IN a_DT mild_NN climate_NN year_NN round_NN will_MD get_VB you_PRP ._. Ah_NNP well_RB ,_, I_PRP 'm_VBP sure_JJ we_PRP 'll_MD be_VB good_JJ ._. Lots_NNS of_IN layers_NNS ,_, right_RB ?_. My_PRP$ other_JJ concern_NN is_VBZ of_IN course_NN little_JJ girl_NN ._. I_PRP have_VBP actually_RB flown_VBN with_IN her_PRP several_JJ times_NNS and_CC she_PRP 's_VBZ been_VBN great_JJ ,_, but_CC those_DT were_VBD all_DT at_IN 1_CD yr_NN or_CC less_JJR of_IN age_NN ,_, so_IN she_PRP was_VBD much_RB less_JJR mobile_JJ and_CC nursing_NN put_VBD her_PRP$ right_NN to_TO sleep_VB ._. I_PRP 'm_VBP not_RB so_RB sure_JJ how_WRB good_JJ she_PRP will_MD do_VB now_RB ._. At_IN least_JJS it_PRP is_VBZ a_DT fairly_RB short_JJ flight_NN ,_, and_CC Daddy_NNP is_VBZ going_VBG too_RB ._. Man_NN ,_, they_PRP 're_VBP terrible_JJ ._. And_CC she_PRP 's_VBZ not_RB even_RB two_CD yet_RB !_. But_CC I_PRP know_VBP most_JJS of_IN this_DT is_VBZ my_PRP$ fault_NN ._. I_PRP give_VBP in_IN to_TO her_PRP$ much_JJ too_RB often_RB ,_, and_CC now_RB I_PRP am_VBP suffering_VBG the_DT consequences_NNS ._. It_PRP 's_VBZ really_RB hard_JJ to_TO hold_VB fast_RB when_WRB you_PRP know_VBP you_PRP might_MD be_VB in_IN for_IN a_DT 10_CD ,_, 15_CD minute_NN tantrum_NN and_CC even_RB those_DT only_JJ end_NN when_WRB you_PRP give_VBP in_IN and_CC say_VB ,_, ``_`` Okay_NNP ,_, come_VB here_RB ._. I_PRP can_MD see_VB you_PRP need_VBP help_VB settling_VBG down_RP ._. Do_VB you_PRP want_VB some_DT milk_NN ?_. ''_'' She_PRP never_RB ,_, I_PRP mean_VBP never_RB ,_, comes_VBZ out_IN of_IN a_DT tantrum_NN on_IN her_PRP$ own_JJ ._. At_IN what_WP point_NN is_VBZ it_PRP cruel_JJ to_TO be_VB ignoring_VBG her_PRP$ ?_. In_IN any_DT case_NN ,_, if_IN you_PRP were_VBD wondering_VBG what_WP set_VBD her_PRP off_RP today_NN ,_, 1_CD )_) Wanting_VBG to_TO open_VB the_DT tums_NNS she_PRP saw_VBD when_WRB I_PRP grabbed_VBD a_DT towel_NN from_IN the_DT closet_NN ._. 2_CD )_) Wanting_VBG to_TO walk_VB in_IN the_DT kitchen_NN where_WRB there_EX were_VBD broken_JJ bits_NNS of_IN a_DT bowl_NN I_PRP was_VBD cleaning_VBG up_RB ._. 3_CD )_) The_DT dog_NN took_VBD his_PRP$ toy_NN that_IN she_PRP had_VBD grabbed_VBN from_IN him_PRP ._. It_PRP really_RB is_VBZ just_RB the_DT small_JJ stuff_NN ._. How_WRB can_MD I_PRP help_VB my_PRP$ little_JJ girl_JJ release_NN her_PRP$ frustrations_NNS more_RBR calmly_RB ?_. ?_. Or_CC is_VBZ that_IN even_RB possible_JJ ?_.</t>
-  </si>
-  <si>
-    <t>I_PRP am_VBP a_DT vicious_JJ drinker_NN ,_, but_CC a_DT gentile_JJ drunk_NN ._. I_PRP have_VBP more_JJR stress_JJ than_IN people_NNS realize_VBP ,_, with_IN the_DT potential_JJ to_TO let_VB just_RB about_IN anything_NN roll_NN off_IN my_PRP$ back_NN ._. Gross_NNP things_NNS that_WDT normal_JJ people_NNS would_MD barf_VB over_RP do_VBP n't_RB bother_VB me_PRP ,_, but_CC I_PRP ca_MD n't_RB stand_VB a_DT messy_JJ house_NN ._. I_PRP ’_VBP m_JJ randomly_RB on_IN time_NN ,_, but_CC I_PRP always_RB show_VBP up_RP ._. Being_VBG stuck_VBN in_IN boring_JJ conversation_NN makes_VBZ me_PRP want_VB a_DT revolver_NN stuck_NN to_TO my_PRP$ head_NN ,_, but_CC I_PRP love_VBP carousing_VBG threw_VBD crowds_NN to_TO find_VB new_JJ topics_NNS ._. I_PRP have_VBP acute_JJ paranoia_NN ,_, but_CC am_VBP very_RB trusting_VBG ._. I_PRP 'm_VBP bigger_JJR better_RBR stronger_JJR faster_RBR ,_, yet_RB streamlined_VBN refined_VBN downtown_NN and_CC on_IN the_DT ground_NN ._. my_PRP$ nose_JJ is_VBZ too_RB big_JJ ,_, but_CC fits_NNS my_PRP$ face_NN well_RB ._. My_PRP$ eyes_NNS are_VBP brown_JJ ,_, my_PRP$ hair_NN black_JJ ,_, and_CC skin_NN hairy_NN and_CC pale_NN ._. I_PRP ’_VBP m_JJ irish_NN ,_, german_JJ ,_, and_CC native_JJ american_JJ ,_, that_IN I_PRP know_VBP of_IN ._. my_PRP$ temper_NN is_VBZ very_RB big_JJ while_IN my_PRP$ fuse_NN is_VBZ miles_NNS long_RB ._. i_NNS have_VBP entirely_RB too_RB much_JJ time_NN on_IN my_PRP$ hands_NNS ,_, but_CC not_RB enough_JJ money_NN to_TO make_VB it_PRP count_NN ._. I_PRP like_VBP breakfast_NN in_IN the_DT evening_NN ,_, and_CC dinner_NN in_IN the_DT morning_NN ._. my_PRP$ thought_JJ processes_NNS often_RB hinder_VBP me_PRP ,_, due_JJ to_TO the_DT fact_NN that_IN I_PRP think_VBP way_NN too_RB much_JJ ._. I_PRP hold_VBP those_DT close_JJ to_TO me_PRP dear_VB in_IN my_PRP$ heart_NN ,_, but_CC purposefully_RB fail_VBP to_TO love_VB those_DT undeserving_NN of_IN my_PRP$ affection_NN ._. I_PRP 'm_VBP your_PRP$ worst_JJS nightmare_NN ,_, your_PRP$ best_JJS friend_NN ,_, public_JJ enemy_NN ,_, and_CC hero_NN of_IN the_DT day_NN ._. violence_NN tends_VBZ to_TO grab_VB me_PRP ,_, and_CC loss_NN of_IN freedom_NN sickens_NNS me_PRP ._. Some_DT might_MD say_VB I_PRP 'm_VBP philosopher_RB ,_, while_IN others_NNS would_MD claim_VB I_PRP ’_VBP m_VB a_DT moron_NN ._. I_PRP value_NN intelligence_NN ,_, while_IN spitting_VBG on_IN stupidity_NN ._. You_PRP ’_VBP ll_RB know_VBP everything_NN you_PRP need_VBP to_TO know_VB about_IN me_PRP in_IN 30_CD mins._NN ,_, then_RB I_PRP will_MD proceed_VB to_TO surprise_VB you_PRP the_DT rest_NN of_IN your_PRP$ life_NN ._. I_PRP 'm_VBP the_DT best_JJS there_EX is_VBZ at_IN what_WP I_PRP do_VBP ._. Oze_VB</t>
-  </si>
-  <si>
-    <t>So_RB ,_, I_PRP 've_VBP been_VBN asking_VBG k_NN for_IN a_DT new_JJ ring_NN with_IN my_PRP$ birthstone_NN in_IN it_PRP ever_RB since_IN my_PRP$ old_JJ one_CD got_VBD yucky_JJ and_CC gave_VBD my_PRP$ ring_NN finger_NN a_DT weird_JJ looking_VBG wrinkle_NN ._. He_PRP has_VBZ tried_VBN all_DT techniques_NNS that_WDT husbands_VBZ employ_DT --_: agreeing_NN and_CC then_RB pretending_VBG that_IN he_PRP forgot_VBD ,_, plain_VB dilly-dallying_JJ ,_, pretending_VBG to_TO focus_VB on_IN blank_JJ spot_NN with_IN more_JJR intensity_NN ,_, changing_VBG the_DT topic_NN to_TO li'l_VB r_NN (_( This_DT is_VBZ a_DT good_JJ one_CD ,_, I_PRP fall_VBP for_IN it_PRP almost_RB all_PDT the_DT time_NN )_) ,_, asking_VBG me_PRP about_IN myself_PRP or_CC my_PRP$ blogs_NNS (_( This_DT one_NN works_VBZ well_RB too_RB )_) ,_, throwing_VBG in_IN random_NN related_JJ questions_NNS ,_, ``_`` Yeah_UH ,_, you_PRP think_VBP we_PRP should_MD check_VB out_RP the_DT rings_NNS in_IN the_DT mall_NN ?_. ''_'' and_CC then_RB ,_, ``_`` What_WP 's_VBZ for_IN dinner_NN ?_. ''_'' He_PRP is_VBZ too_RB smart_JJ to_TO refuse_VB because_IN he_PRP knows_VBZ the_DT consequences_NNS of_IN said_VBD refusal_NN but_CC at_IN this_DT point_NN I_PRP am_VBP weary_JJ and_CC annoyed_VBD that_IN my_PRP$ delicate_JJ ring_NN finger_NN still_RB does_VBZ not_RB sport_VB a_DT glittering_NN sapphire_NN (_( or_CC whatever_WDT my_PRP$ birth_NN stone_NN is_VBZ )_) ring_VBG shining_VBG with_IN the_DT promised_VBN love_NN of_IN our_PRP$ marriage_NN ._. And_CC so_RB ,_, I_PRP tried_VBD a_DT different_JJ tactic_NN the_DT other_JJ night_NN :_:</t>
-  </si>
-  <si>
-    <t>There_EX 's_VBZ hardly_RB any_DT sport_NN that_WDT is_VBZ n't_RB better_RBR on_IN horseback_NN ._. Hockey_NNP on_IN horseback_NN ?_. It_PRP 's_VBZ called_VBN ``_`` Polo_NNP ._. ''_'' Instant_JJ win_NN ._. Horseback_NNP riding_VBG on_IN horseback_NN ?_. Even_RB better_RBR ._. But_CC no_DT sport_NN could_MD benefit_VB more_JJR than_IN figure_NN skating_VBG ._. How_WRB many_JJ times_NNS have_VBP you_PRP seen_VBN the_DT same_JJ dips_NNS ,_, backwards_NNS skates_NNS and_CC triple_JJ jumps_NNS ?_. Boring_NNP ._. Now_RB imagine_VBP all_DT of_IN that_DT ..._: But_CC on_IN a_DT horse_NN ._. Everything_NNP old_JJ is_VBZ new_JJ again_RB !_.</t>
-  </si>
-  <si>
-    <t>I_PRP teach_VBP school_NN in_IN a_DT small_JJ rural_JJ school_NN and_CC love_VB it_PRP !_. We_PRP have_VBP been_VBN married_VBN to_TO the_DT Cowboy_NNP of_IN my_PRP$ dream_NN since_IN Aug_NNP 06_CD ._. We_PRP live_VBP on_IN his_PRP$ families_NNS orginal_JJ homeplace_NN and_CC moved_VBD a_DT old_JJ ranch_NN house_NN onto_IN it_PRP to_TO remodel_VB (_( still_RB in_IN the_DT process_NN of_IN finishing_VBG )_) .Cowboy_NN Steve_NNP ,_, dayworks_NN ,_, runs_VBZ beef_NN cattle_NNS and_CC farms_NNS cotton_NN ,_, wheat_NN and_CC hay_NN grazer_NN ._. I_PRP am_VBP a_DT very_RB outspoken_JJ or_CC blunt_JJ women_NNS and_CC was_VBD raised_VBN to_TO stand_VB up_RP for_IN myself_PRP ._. I_PRP am_VBP proud_JJ to_TO be_VB independent_JJ ._. I_PRP love_VBP living_VBG on_IN a_DT ranch/farm_NN and_CC I_PRP am_VBP loving_VBG being_VBG a_DT mom_NN !_.</t>
-  </si>
-  <si>
-    <t>The_DT occasion_NN today_NN is_VBZ to_TO celebrate_VB Hero_NNP 's_POS 75th_JJ Birthday_NN and_CC we_PRP had_VBD a_DT family_NN dinner_NN in_IN some_DT traditional_JJ Chinese_JJ Restaurant_NNP in_IN town_NN which_WDT my_PRP$ sister_NN recommended_VBD ._. Having_VBG squeezed_VBN in_IN the_DT past_JJ during_IN such_JJ dinners_NNS to_TO much_JJ discomfort_NN ,_, she_PRP decided_VBD that_IN this_DT time_NN around_RB ,_, we_PRP 'd_MD separate_VB into_IN 2_CD tables_NNS with_IN the_DT siblings_NNS and_CC Hero_NNP in_IN 1_CD table_NN ,_, the_DT kids_NNS and_CC 3_CD maids_NNS in_IN the_DT other_JJ table_NN ._. This_DT arrangement_NN made_VBD perfect_JJ sense_NN because_IN the_DT kids_NNS are_VBP grown-ed_JJ up_IN and_CC its_PRP$ really_RB impossible_JJ to_TO squeeze_VB in_IN at_IN the_DT 'main_NN '_POS tables_NNS anymore_RB ._. Food_NNP wise_NN ,_, we_PRP ordered_VBD identical_JJ fare_NN for_IN both_DT tables_NNS ._.</t>
-  </si>
-  <si>
-    <t>The_DT other_JJ day_NN I_PRP was_VBD so_RB lucky_JJ as_IN to_TO be_VB able_JJ to_TO spend_VB time_NN at_IN one_CD of_IN my_PRP$ favorite_JJ places_NNS ._. It_PRP 's_VBZ a_DT place_NN I_PRP hope_VBP to_TO spend_VB the_DT vast_JJ majority_NN of_IN my_PRP$ summer_NN ._. (_( Second_JJ to_TO work_VB ,_, I_PRP suppose_VBP ,_, but_CC let_VB 's_PRP not_RB think_VB about_IN that_DT now_RB )_) Shortly_RB after_IN arriving_VBG ,_, I_PRP ran_VBD into_IN a_DT friend_NN and_CC inquired_VBD as_IN to_TO his_PRP$ well_NN being_VBG ._. He_PRP replied_VBD ,_, ``_`` Oh_UH ,_, perfect_JJ !_. If_IN I_PRP won_VBD the_DT lottery_NN ,_, it_PRP 'd_MD be_VB a_DT step_NN down_RP !_. ''_'' I_PRP love_VBP it_PRP ._. I_PRP feel_VBP the_DT same_JJ way_NN ,_, surrounded_VBN by_IN such_JJ awesome_JJ people_NNS in_IN my_PRP$ life_NN ._.</t>
-  </si>
-  <si>
-    <t>Alone_RB for_IN so_RB long_JJ walking_VBG down_RP the_DT path_NN of_IN darkness_NN with_IN a_DT lamp_NN to_TO guide_VB my_PRP$ journey_NN of_IN life_NN ,_, the_DT fates_NNS gust_VBP by_IN the_DT light_NN goes_VBZ out_IN and_CC I_PRP stand_VBP alone_RB in_IN the_DT darkness_NN wondering_VBG why.I_JJ continue_NN to_TO walk_VB down_RP the_DT path_NN not_RB seeing_VBG anything_NN but_CC shadows_NNS and_CC figures_NNS that_IN speak_NN of_IN evil_NN of_IN man_NN ._. I_PRP pray_VBP and_CC hope_VBP for_IN an_DT angel_NN to_TO walk_VB with_IN me_PRP as_IN a_DT guide_NN and_CC friend_NN ,_, soon_RB in_IN the_DT midst_NN of_IN the_DT darkness_NN a_DT glow_NN begins_VBZ ,_, a_DT path_NN is_VBZ laid_VBN before_IN me_PRP showing_VBG me_PRP a_DT place_NN to_TO call_VB home_NN ._. As_IN I_PRP walk_VBP down_IN this_DT path_NN I_PRP come_VBP upon_IN a_DT woman_NN with_IN a_DT bright_JJ smile_NN that_IN let_NN 's_POS my_PRP$ heart_NN know_VBP all_DT will_MD be_VB good_JJ ._. at_IN first_JJ she_PRP was_VBD a_DT stranger_NN who_WP offered_VBD nothing_NN but_CC kindness_NN and_CC love_NN ._. My_NNP angel_JJ shares_NNS her_PRP$ heart_NN and_CC pain_NN with_IN me_PRP as_IN we_PRP walk_VBP beside_RB each_DT other_JJ on_IN this_DT path_NN ._. I_PRP never_RB knew_VBD of_IN such_JJ kindness_NN and_CC love_NN ,_, a_DT mother_NN ’_NN s_VBP love_NN I_PRP never_RB known_VBP the_DT scars_NNS and_CC fears_NNS that_WDT led_VBD to_TO the_DT dark_JJ path_NN I_PRP took_VBD ._. Slowly_NNP the_DT angel_NN became_VBD my_PRP$ best_JJS friend_NN and_CC mother_NN ._. Thankful_NNP for_IN the_DT blessings_NNS and_CC kindness_VB she_PRP gave_VBD to_TO me_PRP ._. Through_IN are_VBP pains_NNS together_RB she_PRP has_VBZ loved_VBN and_CC stood_VBN by_IN me_PRP ,_, its_PRP$ fate_NN that_IN the_DT woman_NN who_WP lost_VBD her_PRP son_NN found_VBD one_CD and_CC the_DT son_NN who_WP never_RB had_VBD a_DT mother_NN found_VBD his_PRP$ ._. The_DT path_NN is_VBZ brighter_RBR and_CC easier_JJR now_RB that_IN my_PRP$ mother_NN angel_NN is_VBZ with_IN me_PRP .I_NNP has_VBZ found_VBN peace_NN in_IN my_PRP$ life_NN through_IN the_DT love_NN and_CC friendship_NN of_IN another_DT who_WP was_VBD hurt_VBN and_CC lost_VBN likes_NNS I_PRP ._. My_PRP$ mother_NN angel_NN is_VBZ my_PRP$ guardian_JJ ,_, my_PRP$ keeper_NN ,_, my_PRP$ mother_NN and_CC best_JJS friend_NN ._. I_PRP thank_VBP god_NN for_IN the_DT blessings_NNS I_PRP have_VBP in_IN this_DT path_NN I_PRP take_VBP ._. My_PRP$ biggest_JJS blessing_NN is_VBZ the_DT mother_NN I_PRP 've_VBP found_VBN to_TO me_PRP that_WDT 's_VBZ the_DT greatest_JJS gift_NN of_IN all_DT ._.</t>
-  </si>
-  <si>
-    <t>Well_RB ,_, let_VB 's_POS see_VB ._. I_PRP am_VBP nothing_NN special_JJ ._. Just_NNP an_DT ordinary_JJ girl_NN ._. The_DT only_JJ thing_NN that_WDT makes_VBZ me_PRP special_JJ are_VBP my_PRP$ family_NN ,_, friends_NNS and_CC my_PRP$ smoking_NN hot_JJ boyfriend_NN Ernie_NNP ._. Along_IN with_IN my_PRP$ mother_NN I_PRP own_VBP and_CC operate_VBP a_DT automotive_JJ upholstery_NN shop_NN ._. We_PRP Rock_NNP ._. Yes_IN we_PRP are_VBP that_IN damned_VBD good_JJ at_IN what_WP we_PRP do_VBP ._. I_PRP do_VBP n't_RB always_RB like_IN it_PRP ,_, but_CC I_PRP do_VBP it_PRP well_RB and_CC I_PRP am_VBP proud_JJ of_IN the_DT work_NN we_PRP do_VBP ._. I_PRP have_VBP two_CD boys_NNS ._. 15_CD and_CC 9_CD ._. They_PRP are_VBP the_DT force_NN that_WDT holds_VBZ my_PRP$ universe_JJ together_RB ._. My_PRP$ duct_NN tape_NN ._. Both_DT are_VBP beautiful_JJ ,_, intelligent_JJ ,_, caring_VBG wonderful_JJ kids_NNS and_CC I_PRP am_VBP blessed_VBN to_TO have_VB them_PRP ._. There_EX is_VBZ also_RB my_PRP$ niece_NN who_WP is_VBZ 15_CD ._. She_PRP lives_VBZ here_RB off_RB and_CC on_IN ,_, and_CC we_PRP love_VBP her_PRP$ like_JJ crazy_NN ._. I_PRP have_VBP a_DT ton_NN of_IN other_JJ nieces_NNS as_RB well_RB ._. All_DT are_VBP special_JJ and_CC I_PRP would_MD n't_RB know_VB what_WP to_TO do_VB without_IN any_DT of_IN them_PRP ._. My_PRP$ friends_NNS have_VBP saved_VBN me_PRP more_JJR than_IN once_RB ._. The_DT ones_NNS here_RB and_CC the_DT ones_NNS that_WDT live_VBP 10_CD miles_NNS up_IN the_DT road_NN ._. Always_CC there_EX for_IN me_PRP to_TO lend_VB a_DT helping_VBG hand_NN or_CC an_DT ear_NN ._. They_PRP are_VBP fun_JJ and_CC crazy_JJ and_CC understand_JJ my_PRP$ weird_JJ sense_NN of_IN humor_NN or_CC else_RB they_PRP are_VBP just_RB laughing_VBG at_IN me_PRP ._. Thank_VB you_PRP all_DT ._. Ernie_NNP came_VBD along_IN when_WRB I_PRP least_VBP expected_VBN it_PRP and_CC grabbed_VBD hold_NN of_IN my_PRP$ heart_NN ._. I_PRP hope_VBP he_PRP never_RB lets_VBZ go_VB ._. He_PRP has_VBZ added_VBN joy_NN to_TO my_PRP$ life_NN I_PRP did_VBD n't_RB even_RB know_VB was_VBD missing_VBG ._. And_CC I_PRP met_VBD him_PRP right_RB here_RB on_IN Myspace_NNP ._. Guess_NNP that_IN means_VBZ I_PRP should_MD be_VB nicer_VBN to_TO Tom_NNP ,_, huh_NN ?_.</t>
-  </si>
-  <si>
-    <t>I_PRP truly_RB miss_VBP ``_`` love_VB ''_'' ._. Young_NNP love_NN was_VBD a_DT beautiful_JJ thing_NN ._. It_PRP was_VBD the_DT most_RBS comforting_JJ thing_NN I_PRP have_VBP ever_RB felt_VBN ._. I_PRP was_VBD never_RB the_DT relationship_NN type_NN of_IN guy_NN ._. I_PRP did_VBD n't_RB even_RB romantically_RB or_CC sexually_RB care_VB for_IN females_NNS ._. But_CC ,_, after_IN experiencing_VBG so-called_JJ ,_, ``_`` love_NN ''_'' ._. I_PRP do_VBP n't_RB want_VB to_TO be_VB without_IN it_PRP ._. I_PRP do_VBP wish_JJ ,_, that_IN I_PRP had_VBD found_VBN love_IN with_IN someone_NN smarter_NN ._. Someone_NN who_WP had_VBD a_DT brighter_NN thought_NN pattern_NN ._. And_CC what_WP upsets_NNS me_PRP the_DT most_RBS is_VBZ that_IN i_NN had_VBD worked_VBN hard_RB ._. But_CC ,_, it_PRP all_DT went_VBD to_TO waste_NN ._. And_CC now_RB ,_, I_PRP have_VBP to_TO rebuild_VB it_PRP with_IN someone_NN new_JJ someday_NN ._. I_PRP have_VBP no_DT patience_NN for_IN that_DT ._. I_PRP just_RB want_VBP to_TO skip_VB to_TO a_DT time_NN when_WRB I_PRP have_VBP it_PRP next_JJ ._. I_PRP do_VBP n't_RB want_VB some_DT gross_JJ ass_NN bitch_NN ._. I_PRP do_VBP n't_RB want_VB some_DT dumbass_NN slutty-type_JJ little_JJ GIRL_NNP ._. I_PRP want_VBP a_DT beautiful_NN ,_, intelligent_NN ,_, mellow_NN ,_, logical_JJ ,_, selfless_JJ ,_, understanding_JJ ,_, ladie-like_JJ female_NN ._. Someone_NN who_WP does_VBZ n't_RB involve_VB herself_PRP with_IN a_DT grimey_NN crowed_VBN ._. And_CC does_VBZ not_RB use_VB drugs_NNS or_CC alcohol_NN ._. Someone_NN ,_, I_PRP can_MD respect_VB ._. Who_WP stays_VBZ covered_VBD up_RP ._. And_CC makes_VBZ logical_JJ decisions_NNS and_CC considers_NNS most_RBS to_TO all_DT factors_NNS in_IN a_DT situation_NN ._. Someone_NN who_WP can_MD appreciate_VB all_DT things_NNS and_CC keep_VB me_PRP happy_JJ as_RB well_RB as_IN me_PRP keep_VB her_PRP$ happy_JJ ._. I_PRP am_VBP afraid_JJ that_IN I_PRP will_MD never_RB find_VB that_IN ._. I_PRP hate_VBP that_IN I_PRP WANT_VBP to_TO find_VB love_NN again_RB ._. But_CC ,_, the_DT truth_NN is_VBZ ,_, love_EX is_VBZ a_DT wonderful_JJ thing_NN ._. I_PRP do_VBP n't_RB know_VB what_WP else_JJ to_TO say_VB ._. I_PRP 'm_VBP sure_JJ that_IN 'God_NNP '_POS has_VBZ someone_NN in_IN mind_NN for_IN me_PRP ._. And_CC has_VBZ had_VBN someone_NN in_IN mind_NN for_IN me_PRP in_IN a_DT while_NN ._. The_DT only_JJ problem_NN I_PRP have_VBP is_VBZ that_IN I_PRP have_VBP become_VBN very_RB impatient_JJ and_CC depressed_JJ ._. Time_NN has_VBZ become_VBN my_PRP$ enemy_NN ._. And_CC that_DT is_VBZ causing_VBG me_PRP issues_NNS ._. I_PRP have_VBP writer_NN 's_POS block_NN ._. Goodbye_NNP for_IN now_RB ._.</t>
-  </si>
-  <si>
-    <t>Today_NN 's_POS menu_NN :_: Rib-a-cue_JJ ,_, whole_JJ wheat_NN bun_NN ,_, corn_NN ,_, apple_NN ,_, (_( milk_NN )_) ._. So_IN the_DT ``_`` rib-a-cue_JJ ''_'' looks_VBZ bad_JJ ,_, but_CC when_WRB I_PRP opened_VBD the_DT package_NN ,_, it_PRP smelled_VBD terrific_NN and_CC it_PRP actually_RB tasted_VBD really_RB good_JJ ._. Today_NN I_PRP was_VBD offered_VBN a_DT choice_NN (_( !_. !_. )_) of_IN the_DT rib-a-cue_NN or_CC lasagna_NN ._. I_PRP did_VBD n't_RB see_VB the_DT lasagna_NN sitting_VBG out_IN so_RB I_PRP decided_VBD on_IN the_DT rib-a-cue_NN ,_, which_WDT was_VBD sitting_VBG in_IN a_DT big_JJ stack_NN for_IN the_DT kids_NNS to_TO take_VB ._. I_PRP 'm_VBP starting_VBG to_TO become_VB friends_NNS with_IN the_DT lunch_NN room_NN personnel_NNS ._. I_PRP was_VBD always_RB nice_JJ to_TO them_PRP before_IN but_CC we_PRP 're_VBP definitely_RB establishing_VBG a_DT relationship_NN !_. Someone_NN commented_VBD that_IN I_PRP 'm_VBP eating_VBG lunch_NN everyday_NN ..._: ._. if_IN they_PRP only_RB knew_VBD the_DT whole_JJ story_NN !_.</t>
-  </si>
-  <si>
-    <t>Let_VB 's_POS see_VB ..._: ._. Today_NN we_PRP talked_VBD a_DT bit_NN about_IN reconciling_VBG a_DT Buddhist_NNP practice_NN or_CC way_NN of_IN life_NN with_IN Western_JJ culture_NN ;_: not_RB easy_JJ stuff_NN ._. I_PRP 'm_VBP really_RB not_RB the_DT best_JJS to_TO describe_VB this_DT ,_, either_RB ,_, as_IN I_PRP live_VBP in_IN kind_NN of_IN my_PRP$ own_JJ world_NN of_IN philosophy_NN ,_, which_WDT is_VBZ itself_PRP somewhat_RB cut_VBD off_RP from_IN contemporary_JJ culture_NN ._. If_IN you_PRP have_VBP you_PRP 're_VBP own_JJ reflections_NNS on_IN trying_VBG to_TO incorporate_VB Buddhist_NNP ideals_NNS in_IN life_NN ,_, please_VB hit_VB the_DT 'comment_NN '_POS button_NN and_CC let_VB us_PRP know_VB ._.</t>
-  </si>
-  <si>
-    <t>Finally_RB ,_, the_DT sky_NN was_VBD splashed_VBN with_IN the_DT red_JJ pallet_NN of_IN the_DT setting_NN sun_NN ._. We_PRP were_VBD at_IN sea_NN before_IN dawn_NN until_IN dusk_NN ._. But_CC it_PRP was_VBD worth_JJ a_DT trip_NN ._. It_PRP was_VBD a_DT refreshing_JJ encounter_NN with_IN nature_NN ,_, from_IN free-roaming_JJ animals_NNS at_IN Calauit_NNP ,_, to_TO the_DT coral_JJ gardens_NNS around_IN the_DT islands_NNS ,_, to_TO the_DT fish_JJ species_NNS indigenous_JJ to_TO the_DT area_NN ._.</t>
-  </si>
-  <si>
-    <t>Last_JJ week_NN ,_, Hard_NNP Assets_NNP Investor_NNP published_VBD another_DT one_CD of_IN my_PRP$ articles_NNS ._. In_IN it_PRP ,_, I_PRP compared_VBN the_DT correlations_NNS between_IN several_JJ energy_NN ETFs_NNP and_CC the_DT prices_NNS of_IN commodities_NNS they_PRP are_VBP tracking_VBG ._. The_DT takeaway_JJ message_NN is_VBZ that_IN ,_, for_IN the_DT most_JJS part_NN ,_, ETFs_NNP do_VBP a_DT bad_JJ job_NN tracking_VBG commodities_NNS prices_NNS ._. There_EX are_VBP a_DT few_JJ reasons_NNS for_IN this_DT ._. The_DT first_JJ ,_, and_CC primary_JJ reason_NN why_WRB the_DT correlation_NN is_VBZ less_JJR than_IN perfect_NN ,_, is_VBZ that_IN the_DT front-month_JJ futures_NNS contract_NN for_IN every_DT commodity_NN is_VBZ constantly_RB changing_VBG ._. Since_IN most_JJS ETFs_NNP hold_VBP only_RB the_DT front-month_JJ contract_NN ,_, this_DT means_VBZ that_IN sometime_NN before_IN expiration_NN ,_, the_DT fund_NN must_MD sell_VB its_PRP$ holding_NN of_IN one_CD (_( soon_RB to_TO expire_VB )_) contract_NN and_CC then_RB purchase_VB another_DT (_( soon_RB to_TO be_VB front-month_JJ )_) contract_NN ._. There_EX is_VBZ almost_RB always_RB a_DT significant_JJ discrepency_NN between_IN the_DT two_CD prices_NNS ,_, particularly_RB if_IN it_PRP 's_VBZ a_DT commodity_NN that_WDT does_VBZ n't_RB deliver_VB every_DT month_NN ._. Take_VB a_DT look_NN at_IN the_DT futures_NNS chains_NNS on_IN the_DT CME_NNP group_NN website_NN for_IN crude_JJ oil_NN ,_, gold_NN ,_, and_CC corn_NN ._. As_IN of_IN writing_NN ,_, the_DT difference_NN between_IN the_DT front_JJ month_NN and_CC second_JJ month_NN contract_NN is_VBZ about_IN 40¢_CD ,_, $_$ 1_CD ,_, and_CC 10¢_CD ,_, respectively_RB ._. That_DT may_MD not_RB seem_VB like_IN much_JJ ,_, but_CC that_IN price_NN difference_NN represents_VBZ a_DT pure_JJ loss_NN in_IN the_DT value_NN of_IN the_DT fund_NN with_IN every_DT roll_NN that_WDT takes_VBZ place_NN ._. Just_NN to_TO prevent_VB declines_NNS ,_, the_DT fund_NN would_MD ,_, on_IN average_NN ,_, have_VBP to_TO be_VB increasing_VBG in_IN value_NN between_IN 1_CD and_CC 5_CD %_NN a_DT month_NN ._. That_DT means_VBZ that_IN ,_, depending_VBG on_IN the_DT commodity_NN and_CC the_DT fund_NN ,_, a_DT monthly_JJ percentage_NN increase_NN ,_, if_IN not_RB sufficiently_RB high_JJ ,_, may_MD actually_RB mean_VB you_PRP 're_VBP losing_VBG money_NN ._. The_DT second_JJ problem_NN with_IN ETFs_NNP is_VBZ that_IN they_PRP create_VBP a_DT secondary_JJ market_NN on_IN top_NN of_IN what_WP is_VBZ already_RB a_DT volatile_JJ market_NN in_IN its_PRP$ own_JJ right_NN ._. And_CC ,_, while_IN the_DT underlying_JJ instruments_NNS are_VBP the_DT same_JJ for_IN both_DT ,_, (_( futures_NNS contracts_NNS )_) the_DT factors_NNS driving_VBG the_DT supply_NN and_CC demand_NN may_MD be_VB drastically_RB different_JJ ._. For_IN example_NN ,_, while_IN natural_JJ gas_NN might_MD be_VB moving_VBG up_RP on_IN strong_JJ demand_NN resulting_VBG from_IN a_DT particular_JJ weather_NN forecast_NN ,_, if_IN the_DT primary_JJ participants_NNS are_VBP energy_NN hedgers_NNS ,_, no_DT such_JJ demand_NN would_MD exist_VB for_IN UNG_NNP ,_, the_DT world_NN 's_POS biggest_JJS natural_JJ gas_NN etf_NN ._. As_IN such_JJ ,_, UNG_NNP might_MD theoretically_RB follow_VB the_DT price_NN of_IN gas_NN with_IN something_NN of_IN a_DT lag_NN ,_, rather_RB than_IN actually_RB track_VB the_DT price_NN in_IN real_JJ time_NN ._. Do_VBP n't_RB take_VB my_PRP$ word_NN for_IN it_PRP ,_, take_VB a_DT look_NN at_IN this_DT graph_NN comparing_VBG oil_NN price_NN movements_NNS with_IN the_DT price_NN of_IN USO_NNP ,_, the_DT world_NN 's_POS biggest_JJS crude_NN oil_NN ETF_NNP ,_, over_IN the_DT last_JJ four_CD years_NNS :_: Click_NNP here_RB to_TO download_VB Flash_NNP Player_NNP now_RB View_VBP the_DT full_JJ Crude_NNP vs_NN USO_NNP chart_NN at_IN Wikinvest_NNP Now_RB ,_, you_PRP might_MD be_VB saying_VBG ``_`` those_DT charts_NNS seem_VBP to_TO follow_VB each_DT other_JJ reasonably_RB well_RB ''_'' but_CC that_DT 's_VBZ the_DT problem_NN ._. Reasonably_RB well_RB is_VBZ n't_RB good_JJ enough_RB ._. An_DT investor_NN buying_VBG a_DT share_NN or_CC shares_NNS in_IN a_DT commodity_NN ETF_NNP that_WDT puportedly_RB tracks_VBZ the_DT price_NN of_IN a_DT commodity_NN wants_VBZ her_PRP$ investment_NN to_TO actually_RB do_VB just_RB that_DT ,_, not_RB merely_RB track_VBP the_DT price_NN ``_`` reasonably_RB well_RB ''_'' ._. It_PRP 's_VBZ true_JJ that_IN there_EX are_VBP some_DT ETFs_NNP ,_, especially_RB those_DT dealing_VBG with_IN precious_JJ metals_NNS ,_, that_WDT eliminate_VBP the_DT problem_NN of_IN the_DT roll_NN yield_NN altogether_RB simply_RB by_IN buying_VBG and_CC hoarding_VBG the_DT commodity_NN in_IN question_NN and_CC storing_VBG it_PRP in_IN a_DT vault_NN somewhere_RB ;_: no_DT futures_NNS contracts_NNS required_VBN ._. While_IN certainly_RB effective_JJ in_IN mitigating_VBG the_DT problem_NN ,_, this_DT only_JJ works_VBZ for_IN a_DT very_RB specific_JJ subset_NN of_IN commodities_NNS that_WDT do_VBP not_RB have_VB a_DT cliff_NN for_IN their_PRP$ usefulness_NN ._. Other_JJ than_IN those_DT few_JJ cases_NNS ,_, in_IN general_JJ ,_, the_DT moral_JJ is_VBZ that_IN if_IN you_PRP really_RB ,_, truly_RB want_JJ exposure_NN to_TO commodities_NNS ,_, do_VBP n't_RB waste_VB your_PRP$ time_NN with_IN an_DT ETF_NNP ._. As_IN they_PRP stand_VBP ,_, very_RB few_JJ of_IN them_PRP can_MD be_VB relied_VBN upon_IN to_TO achieve_VB their_PRP$ goals_NNS ._. Though_IN that_DT may_MD change_VB in_IN the_DT future_NN ,_, for_IN now_RB ,_, your_PRP$ best_JJS bet_NN is_VBZ get_VB into_IN the_DT futures_NNS market_NN directly_RB ._. Last_JJ week_NN ,_, a_DT couple_NN of_IN the_DT major_JJ commodities_NNS exchanges_NNS announced_VBD the_DT addition_NN of_IN some_DT new_JJ futures_NNS contracts_NNS to_TO help_VB producers_NNS and_CC consumers_NNS of_IN raw_JJ goods_NNS hedge_VBP their_PRP$ expenses_NNS ,_, and_CC simultaneously_RB give_VB commodities_NNS traders_NNS three_CD more_JJR reasons_NNS to_TO develop_VB stress-related_JJ ulcers_NNS ._. First_NNP ,_, across_IN the_DT pond_NN ,_, the_DT world_NN 's_POS foremost_JJ metals_NNS market_NN ,_, the_DT London_NNP Metal_NNP Exchange_NNP (_( LME_NNP )_) yesterday_NN opened_VBD trading_NN of_IN cobalt_NN and_CC molybdenum_NN futures_NNS ._. In_IN shocking_VBG concordance_NN with_IN my_PRP$ previous_JJ post_NN about_IN the_DT emerging_VBG need_NN for_IN a_DT lithium_NN futures_NNS contract_NN ,_, the_DT cobalt_NN contract_NN is_VBZ designed_VBN specifically_RB with_IN battery_NN manufacturers_NNS in_IN mind_NN ,_, cobalt_NN being_VBG a_DT major_JJ input_NN to_TO rechargeable_VB batteries_NNS in_IN things_NNS like_IN laptops_NNS and_CC cellphones_NNS ._. Molybdenum_NNP ,_, which_WDT I_PRP had_VBD never_RB heard_VBN of_IN before_IN this_DT Wall_NNP Street_NNP Journal_NNP article_NN ,_, is_VBZ apparently_RB used_VBN in_IN the_DT production_NN of_IN stainless_JJ steel_NN ._. Meanwhile_RB ,_, here_RB in_IN the_DT States_NNPS ,_, the_DT ever-growing_JJ Chicago_NNP Mercantile_NNP Exchange_NNP announced_VBD that_IN it_PRP will_MD be_VB adding_VBG a_DT contract_NN for_IN distiller_NN 's_POS dried_VBN grain_NN (_( DDG_NNP )_) ,_, a_DT by-product_NN of_IN corn_NN ethanol_NN production_NN ._. This_DT is_VBZ interesting_JJ because_IN ,_, with_IN the_DT addition_NN of_IN the_DT contract_NN ,_, which_WDT will_MD begin_VB trading_VBG in_IN April_NNP ,_, ethanol_VBZ producers_NNS can_MD now_RB effectively_RB hedge_NN every_DT step_NN of_IN their_PRP$ production_NN ._. For_IN example_NN ,_, before_IN the_DT harvest_NN you_PRP might_MD buy_VB a_DT corn_NN contract_NN so_RB as_IN to_TO protect_VB yourself_PRP from_IN unexpected_JJ price_NN swings_NNS at_IN your_PRP$ local_JJ grain_NN elevator_NN ._. Then_RB ,_, once_RB you_PRP 've_VBP got_VBN your_PRP$ corn_NN and_CC begin_VB distilling_VBG ethanol_NN ,_, you_PRP can_MD sell_VB both_DT a_DT DDG_NNP and_CC ethanol_VB contract_NN to_TO lock_VB in_IN prices_NNS for_IN your_PRP$ two_CD resultant_JJ byproducts_NNS ._. Further_NNP ,_, you_PRP can_MD buy_VB or_CC sell_VB oil_NN ,_, gas_NN ,_, or_CC natural_JJ gas_NN contracts_NNS to_TO take_VB advantage_NN of_IN spread_JJ deviations_NNS between_IN the_DT fuels_NNS ._. This_DT is_VBZ also_RB interesting_JJ because_IN the_DT DDG_NNP contract_NN may_MD become_VB a_DT major_JJ hedge-staple_NN for_IN corporations_NNS that_WDT produce_VBP ethanol_DT for_IN non-fuel_JJ purposes_NNS ..._: you_PRP know_VBP ,_, like_IN Jack_NNP Daniel_NNP 's_POS ._. The_DT government_NN ,_, and_CC now_RB the_DT private_JJ markets_NNS ,_, are_VBP conspiring_VBG to_TO make_VB ethanol_VB a_DT real_JJ and_CC viable_JJ energy_NN source_NN with_IN plenty_NN of_IN economic_JJ safegaurds_NNS ._. A_DT bizarre_JJ reaction_NN to_TO these_DT announcements_NNS is_VBZ concern_NN that_IN opening_VBG these_DT contracts_NNS to_TO the_DT public_NN will_MD increase_VB volatility_NN in_IN the_DT prices_NNS of_IN the_DT commodities_NNS and_CC could_MD potentially_RB drive_VB them_PRP too_RB far_RB one_CD way_NN or_CC the_DT other_JJ ._. Yes_UH ,_, that_DT is_VBZ true_JJ ,_, prices_NNS will_MD become_VB more_RBR volatile_JJ ..._: but_CC only_RB for_IN the_DT traders_NNS ._. The_DT hedgers_NNS (_( people_NNS producing_VBG and_CC consuming_VBG ethanol_NN )_) actually_RB need_VBP volatility_NN to_TO protect_VB themselves_PRP from_IN things_NNS like_IN price-fixing_NN and_CC sudden_JJ ,_, unexpected_JJ swings_NNS ._. Without_IN and_CC open_JJ public_JJ market_NN ,_, there_EX 's_VBZ no_DT way_NN to_TO plan_VB for_IN and_CC predict_VB what_WP DDG_NNP would_MD and_CC will_MD cost_VB ._. Also_RB ,_, hedgers_NNS are_VBP not_RB entering_VBG and_CC exiting_VBG positions_NNS over_IN and_CC over_IN to_TO make_VB a_DT quick_JJ buck_NN ,_, they_PRP are_VBP locking_VBG prices_NNS in_IN ,_, exiting_VBG positions_NNS ,_, and_CC taking_VBG the_DT difference_NN as_IN market_NN protection_NN ._. As_IN per_IN my_PRP$ post_NN last_JJ night_NN ,_, and_CC today_NN 's_POS news_NN on_IN housing_NN starts_NNS ,_, I_PRP certainly_RB ought_MD to_TO eat_VB a_DT little_JJ crow_NN ;_: according_VBG to_TO the_DT Census_NNP Bureau_NNP ,_, January_NNP housing_NN starts_NNS were_VBD up_RB from_IN December_NNP ,_, as_RB well_RB as_IN January_NNP 2009_CD ._. Specifically_RB ,_, according_VBG to_TO the_DT Bureau_NNP 's_POS report_NN :_: Privately-owned_JJ housing_NN starts_NNS in_IN January_NNP were_VBD at_IN a_DT seasonally_RB adjusted_VBN annual_JJ rate_NN of_IN 591,000_CD ._. This_DT is_VBZ 2.8_CD percent_NN (_( ±11.5_CD %_NN )_) above_IN the_DT revised_JJ December_NNP estimate_NN of_IN 575,000_CD and_CC is_VBZ 21.1_CD percent_NN (_( ±12.3_CD %_NN )_) above_IN the_DT January_NNP 2009_CD rate_NN of_IN 488,000_CD ._. So_RB yes_RB ,_, it_PRP appears_VBZ I_PRP was_VBD wrong_JJ with_IN my_PRP$ initial_JJ assessment_NN and_CC the_DT housing_NN market_NN indeed_RB showed_VBD signs_NNS of_IN picking_VBG up_RP in_IN January_NNP ,_, potentially_RB contributing_VBG to_TO the_DT Lumber_NNP run-up_NN of_IN the_DT last_JJ month_NN ._. However_RB ,_, the_DT actual_JJ meaning_NN of_IN the_DT housing_NN start_NN increase_NN is_VBZ slightly_RB more_RBR complicated_JJ than_IN the_DT above_JJ quoted_VBN numbers_NNS and_CC ,_, I_PRP would_MD make_VB the_DT case_NN ,_, much_RB less_RBR meaningful_JJ than_IN reports_NNS are_VBP making_VBG it_PRP out_IN to_TO be_VB ._. Let_VB me_PRP explain_VB ._. First_NNP ,_, regarding_VBG the_DT meaning_NN of_IN the_DT number_NN itself_PRP ,_, the_DT 2.8_CD %_NN increase_NN in_IN housing_NN starts_NNS is_VBZ an_DT increase_NN in_IN the_DT seasonally_RB adjusted_VBN housing_NN start_NN rate_NN ._. Because_IN the_DT US_NNP Housing_NNP market_NN is_VBZ highly_RB seasonal_JJ (_( i.e_JJ ._. more_RBR building_JJ projects_NNS begin_VBP in_IN the_DT spring_NN and_CC summer_NN months_NNS )_) examining_VBG trends_NNS on_IN a_DT purely_RB month_NN to_TO month_NN basis_NN is_VBZ not_RB meaningful_JJ when_WRB analyzing_VBG long-term_JJ trends_NNS ._. Housing_VBG starts_NNS will_MD almost_RB always_RB go_VBP up_RP in_IN March_NNP ,_, and_CC they_PRP will_MD almost_RB always_RB go_VBP down_RP in_IN October_NNP ._. As_IN such_JJ ,_, the_DT US_NNP Census_NNP Bureau_NNP developed_VBD a_DT statistical_JJ method_NN called_VBN X12_NNP (_( and_CC its_PRP$ predecessor_NN X11_NN )_) used_VBD to_TO remove_VB the_DT expected_JJ seasonal_JJ effects_NNS of_IN this_DT type_NN of_IN data_NNS ._. The_DT best_JJS article_NN I_PRP could_MD find_VB describing_VBG the_DT algorithm_NN is_VBZ ,_, oddly_RB enough_RB ,_, on_IN an_DT old_JJ Federal_NNP Reserve_NNP Bank_NNP of_IN Dallas_NNP webpage_NN ,_, but_CC suffice_NN to_TO say_VB the_DT algorithm_NN is_VBZ designed_VBN to_TO remove_VB expected_VBN seasonal_JJ effects_NNS for_IN a_DT given_VBN data_NN series_NN ,_, thereby_RB showing_VBG the_DT actual_JJ overarching_NN trend_NN ._. Thus_RB ,_, the_DT published_VBN number_NN is_VBZ a_DT point_NN estimate_NN for_IN what_WP the_DT current_JJ annual_JJ housing_NN start_NN rate_NN is_VBZ ;_: in_IN this_DT case_NN ,_, 591,000_CD housing_NN units_NNS started_VBD per_IN year_NN ._. As_IN with_IN any_DT statistical_JJ analysis_NN ,_, there_EX is_VBZ a_DT margin_NN of_IN error_NN to_TO that_DT point_NN estimate_NN ,_, and_CC the_DT margin_NN is_VBZ given_VBN right_RB in_IN the_DT reporting_NN sentence_NN ._. ``_`` This_DT is_VBZ 2.8_CD percent_NN (_( ±11.5_CD %_NN )_) above_IN the_DT revised_JJ December_NNP estimates_NNS ..._: ''_'' Wait_VBP a_DT minute_NN ,_, 2.8_CD %_NN ±11.5_CD %_NN ?_. That_DT should_MD give_VB us_PRP a_DT range_NN of_IN –8.7_NNP %_NN to_TO +14.3_VB %_NN and_CC ,_, if_IN I_PRP 'm_VBP not_RB mistaken_VBN ,_, –8.7_NNP ≤_VBZ 0_CD ≤_NN 14.3_CD ._. As_IN any_DT statistician_JJ can_MD tell_VB you_PRP ,_, a_DT confidence_NN range_NN that_WDT includes_VBZ zero_NN is_VBZ not_RB statistically_RB significant_JJ at_IN all_DT ._. And_CC the_DT Census_NNP Bureau_NNP uses_VBZ a_DT 90_CD %_NN confidence_NN interval_NN in_IN their_PRP$ calculations_NNS ,_, so_IN it_PRP 's_VBZ not_RB as_IN though_IN they_PRP 're_VBP being_VBG overly_RB conservative_JJ with_IN their_PRP$ estimates_NNS and_CC confidence_NN ranges_NNS ._. In_IN other_JJ words_NNS ,_, this_DT number_NN is_VBZ fundamentally_RB meaningless_JJ ._. In_IN fact_NN ,_, if_IN you_PRP actually_RB bothered_VBD to_TO read_VB the_DT report_NN (_( as_IN apparently_RB no_DT one_NN in_IN the_DT media_NNS did_VBD )_) you_PRP 'd_MD see_VB that_IN the_DT ``_`` ±11.5_JJ %_NN ''_'' figure_NN is_VBZ asterisked_VBN with_IN a_DT footnote_NN that_WDT reads_VBZ as_IN follows_VBZ :_: ``_`` 90_CD %_NN confidence_NN interval_NN includes_VBZ zero_NN ._. The_DT Census_NNP Bureau_NNP does_VBZ not_RB have_VB sufficient_JJ statistical_JJ evidence_NN to_TO conclude_VB that_IN the_DT actual_JJ change_NN is_VBZ different_JJ from_IN zero._NN ``_`` So_RB ,_, in_IN other_JJ words_NNS ,_, there_EX is_VBZ no_DT evidence_NN that_IN there_EX was_VBD a_DT change_NN in_IN the_DT seasonally_RB adjusted_VBN rate_NN WHATSOEVER_NNP ._. This_DT number_NN is_VBZ meaningless_JJ ._. Moving_VBG on_IN ,_, despite_IN the_DT lack_NN of_IN evidence_NN for_IN a_DT month_NN over_IN month_NN change_NN ,_, the_DT increase_NN in_IN rate_NN from_IN January_NNP last_JJ to_TO now_RB does_VBZ appear_VB to_TO be_VB truly_RB significant_JJ ,_, with_IN a_DT confidence_NN interval_NN of_IN 21.1_CD percent_JJ ±12.3_CD %_NN (_( between_IN 8.8_CD %_NN and_CC 33.4_CD %_NN )_) for_IN the_DT change_NN from_IN January_NNP 2009_CD 's_POS seasonally_RB adjusted_VBN rate_NN ._. (_( Note_NN that_IN that_DT range_NN does_VBZ not_RB cross_VB zero_NN ._. )_) The_DT report_NN also_RB lists_VBZ the_DT raw_JJ housing_NN start_NN numbers_NNS (_( those_DT that_WDT have_VBP n't_RB been_VBN seasonally_RB adjusted_VBN )_) ._. Here_RB are_VBP the_DT highlights_NNS (_( all_DT numbers_NNS pulled_VBN from_IN the_DT aforementioned_JJ report_NN )_) :_: 2008_CD Year_NN in_IN full_JJ :_: 905,500_CD 2009_CD Year_NN in_IN full_JJ :_: 554,500_CD January_NNP 2009_CD :_: 31,900_CD November_NNP 2009_CD :_: 42,300_CD December_NNP 2009_CD :_: 37,100_CD January_NNP 2010_CD :_: 37,800_CD The_DT takeaway_NN from_IN all_DT of_IN this_DT is_VBZ that_IN the_DT housing_NN market_NN has_VBZ improved_VBN significantly_RB since_IN 2009_CD ._. In_IN fact_NN ,_, using_VBG either_CC the_DT December_NNP or_CC January_NNP estimate_NN for_IN the_DT seasonally_RB adjusted_VBN housing_NN start_NN rate_NN yields_NNS a_DT significant_JJ improvement_NN over_IN the_DT 2009_CD total_JJ figure_NN ._. However_RB ,_, there_EX is_VBZ not_RB sufficient_JJ evidence_NN to_TO suggest_VB that_IN any_DT further_JJ progress_NN has_VBZ been_VBN made_VBN over_IN the_DT last_JJ two_CD or_CC three_CD months_NNS ,_, the_DT numbers_NNS (_( both_DT seasonally_RB adjusted_VBN and_CC raw_JJ )_) do_VBP not_RB demonstrate_VB sufficient_JJ statistical_JJ significance_NN to_TO draw_VB that_DT conclusion_NN ._. Starker_NNP still_RB ,_, is_VBZ that_IN the_DT market_NN today_NN remains_VBZ at_IN about_RB 65_CD %_NN of_IN where_WRB it_PRP was_VBD in_IN 2008_CD ._. How_WRB did_VBD the_DT Lumber_NNP market_NN today_NN respond_VB to_TO all_PDT this_DT ?_. Somehow_NNP ,_, despite_IN the_DT hype_NN ,_, prices_NNS moved_VBD mostly_RB sideways_VBZ ;_: either_CC this_DT information_NN was_VBD already_RB priced_VBN in_IN ,_, or_CC it_PRP does_VBZ n't_RB really_RB exist_VB ._. Full_JJ Disclosure_NN :_: As_IN of_IN writing_NN ,_, author_NN is_VBZ short_JJ May_NNP 2010_CD Lumber_NNP (_( LBK10_NNP )_) Today_NNP 's_POS Wall_NNP Street_NNP Journal_NNP ran_VBD a_DT great_JJ article_NN on_IN the_DT recent_JJ surge_NN in_IN Lumber_NNP prices_NNS ._. (_( Though_IN ,_, sadly_RB ,_, the_DT online_JJ version_NN 's_POS headline_NN was_VBD changed_VBN from_IN the_DT print_NN 's_POS pun-tastic_JJ ``_`` Builders_NNS Nailed_VBN by_IN Lumber_NNP Prices_NNPS ''_'' to_TO the_DT infinitely_RB more_RBR boring_JJ ``_`` High_JJ Lumber_NNP Prices_NNP Threaten_NNP Housing_VBG Market_NN ''_'' ._. )_) The_DT article_NN does_VBZ a_DT fantastic_JJ job_NN explaining_VBG the_DT why_WRB 's_POS behind_IN the_DT recent_JJ insane_NN price_NN movements_NNS in_IN the_DT lumber_NN market_NN ,_, which_WDT I_PRP have_VBP discussed_VBN at_IN length_NN in_IN a_DT previous_JJ post_NN ._. In_IN that_DT post_NN I_PRP laid_VBD out_RP my_PRP$ then_RB somewhat_RB limited_JJ understanding_NN of_IN the_DT reasons_NNS for_IN lumber_NN 's_POS price_NN increase_NN ,_, which_WDT the_DT WSJ_NNP article_NN largely_RB confirms_NNS and_CC significantly_RB expands_VBZ upon_NN ._. Basically_NNP ,_, here_RB 's_VBZ what_WP happened_VBD :_: Due_NNP to_TO a_DT dramatic_JJ falloff_NN in_IN demand_NN ,_, largely_RB the_DT result_NN of_IN a_DT depressed_JJ housing_NN market_NN ,_, lumber_VBP mills_NNS and_CC loggers_NNS have_VBP significantly_RB decreased_VBN production_NN ._. According_VBG to_TO the_DT WSJ_NNP article_NN ,_, lumber_VBP output_NN fell_VBD 45_CD %_NN (_( !_. !_. !_. )_) between_IN 2005_CD and_CC 2009_CD ._. As_IN the_DT housing_NN market_NN remained_VBD stagnant_JJ ,_, lumber_JJ wholesalers_NNS saw_VBD no_DT need_NN to_TO maintain_VB large_JJ inventories_NNS throughout_IN 2009_CD ,_, further_RB disincentivizing_VBG output_NN from_IN loggers_NNS and_CC mills_NNS ._. Because_IN of_IN the_DT lack_NN of_IN demand_NN and_CC low_JJ prices_NNS ,_, several_JJ lumber_VBP mills_NNS have_VBP indefinitely_RB shuttered_VBN ._. This_DT ,_, of_IN course_NN ,_, in_IN itself_PRP drove_VBD prices_NNS higher_RBR ._. The_DT article_NN specifically_RB mentions_NNS Canfor_NNP Corporation_NNP ,_, a_DT Vancouver-based_JJ producer_NN responsible_JJ for_IN half_PDT a_DT percent_NN of_IN total_JJ North_JJ American_JJ lumber_NN output_NN ,_, who_WP indefinitely_RB ceased_VBD operation_NN on_IN January_NNP 5th_JJ 2010_CD as_IN one_CD of_IN the_DT major_JJ mills_NNS to_TO shut_VB down_RP amid_IN the_DT sluggish_JJ market_NN ._. Annually_RB ,_, home_NN builders_NNS restock_VBP their_PRP$ lumber_NN supplies_NNS in_IN January_NNP and_CC February_NNP in_IN anticipation_NN of_IN the_DT upcoming_JJ spring_NN building_NN season_NN ._. As_IN supply_NN was_VBD already_RB incredibly_RB tight_JJ and_CC production_NN was_VBD being_VBG scaled_VBN back_RP across_IN the_DT board_NN ,_, wholesale_JJ buying_NN triggered_VBD a_DT supply_NN shock_NN up_IN the_DT chain_NN ,_, sending_VBG prices_NNS higher_RBR ._. Additionally_NNP ,_, some_DT firms_NNS continued_VBD buying_VBG on_IN anticipation_NN of_IN consumers_NNS taking_VBG advantage_NN of_IN the_DT federal_JJ home-buying_JJ tax_NN credit_NN before_IN it_PRP expires_VBZ ._. As_IN the_DT industry_NN was_VBD not_RB in_IN any_DT place_NN to_TO suddenly_RB ramp_VB up_RP production_NN ,_, the_DT market_NN created_VBD something_NN of_IN a_DT feedback_NN loop_NN ,_, driving_VBG prices_NNS higher_RBR from_IN January_NNP through_IN to_TO today_NN ._. Exacerbating_VBG the_DT problem_NN is_VBZ that_DT shuttered/suspended_VBD mills_NNS do_VBP not_RB have_VB the_DT capital_NN (_( or_CC guarantee_NN of_IN near-term_JJ capital_NN )_) to_TO quickly_RB start_VB up_RP operations_NNS again_RB ._. What_WP is_VBZ perhaps_RB most_RBS interesting_JJ about_IN this_DT is_VBZ that_IN everyone_NN seems_VBZ to_TO be_VB in_IN agreement_NN that_IN the_DT surge_NN is_VBZ entirely_RB supply_JJ driven_RB ._. To_TO the_DT question_NN of_IN demand_NN ,_, the_DT article_NN says_VBZ the_DT following_NN :_: ``_`` The_DT supply_NN crunch_NN is_VBZ striking_VBG because_IN ,_, just_RB a_DT few_JJ years_NNS ago_RB ,_, the_DT North_JJ American_JJ lumber_NN industry_NN was_VBD able_JJ to_TO supply_VB enough_RB wood_NN to_TO start_VB more_JJR than_IN two_CD million_CD homes_NNS a_DT year_NN ._. That_DT was_VBD nearly_RB four_CD times_NNS the_DT pace_NN of_IN home_NN starts_NNS in_IN December_NNP ._. ''_'' In_IN other_JJ words_NNS ,_, home-building_JJ demand_NN has_VBZ n't_RB simply_RB petered_VBN out_RP ,_, it_PRP 's_VBZ fallen_VBN off_RB 75_CD %_NN ,_, and_CC still_RB ,_, the_DT price_NN goes_VBZ up_RP purely_RB as_IN supply_NN stays_NNS tight_VBN ._. But_CC perhaps_RB the_DT most_RBS interesting_JJ quote_NN ,_, in_IN my_PRP$ mind_NN anyway_RB ,_, comes_VBZ towards_IN the_DT end_NN of_IN the_DT article_NN ,_, in_IN a_DT discussion_NN of_IN near-term_JJ production_NN prospects_NNS :_: ``_`` The_DT ongoing_JJ recession_NN will_MD keep_VB production_NN light_NN ,_, said_VBD Matt_NNP Layman_NNP ..._: who_WP called_VBD this_DT the_DT only_JJ sustained_VBD supply-driven_RB rally_NN he_PRP has_VBZ seen_VBN in_IN 30_CD years_NNS of_IN trading_NN lumber_NN ._. ''_'' Thirty_CD years_NNS is_VBZ a_DT long_JJ time_NN ,_, and_CC Mr._NNP Layman_NNP 's_POS quote_NN only_RB serves_VBZ to_TO highlight_VB just_RB how_WRB strange_JJ this_DT market_NN rally_NN seems_VBZ on_IN the_DT surface_NN ._. My_PRP$ readers_NNS already_RB know_VBP that_IN I_PRP 'm_VBP bearish_JJ on_IN Lumber_NNP ,_, but_CC honestly_RB ,_, everything_NN about_IN this_DT rally_NN seems_VBZ crazy_JJ to_TO me_PRP ._. At_IN least_JJS now_RB we_PRP understand_VBP the_DT circumstances_NNS that_WDT pushed_VBD prices_NNS high_JJ in_IN the_DT first_JJ place_NN ,_, but_CC for_IN this_DT kind_NN of_IN rally_NN to_TO be_VB sustained_VBN ..._: I_PRP 'm_VBP just_RB not_RB sure_JJ what_WP it_PRP would_MD take_VB short_NN of_IN a_DT spectacular_JJ resurgence_NN in_IN the_DT housing_NN industry_NN ._. Tomorrow_NNP ,_, the_DT US_NNP Census_NNP Bureau_NNP will_MD announce_VB the_DT figures_NNS for_IN January_NNP housing_NN starts_NNS ._. A_DT slight_JJ bump_NN will_MD be_VB good_JJ news_NN for_IN the_DT lumber_NN bulls_NNS ,_, a_DT downtick_NN could_MD mean_VB the_DT beginning_NN of_IN the_DT rally_NN 's_POS end_NN ._. I_PRP 'll_MD put_VB a_DT post_NN up_RP as_RB soon_RB as_IN we_PRP see_VBP what_WP happens_VBZ ,_, and_CC what_WP it_PRP 's_VBZ immediate_JJ effect_NN may_MD be_VB ._. Sorry_NNP about_IN the_DT dearth_NN of_IN posts_NNS lately_RB ,_, but_CC I_PRP 've_VBP been_VBN out_IN of_IN town_NN ._. Speaking_NN of_IN ..._: I_PRP just_RB got_VBD back_RB from_IN a_DT trip_NN to_TO beautiful_VB Whitefish_JJ Montana_NNP ._. If_IN you_PRP 're_VBP a_DT skier_NN and/or_NN outdoor_NN enthusiast_NN ,_, I_PRP ca_MD n't_RB recommend_VB the_DT city_NN highly_RB enough_RB ._. On_IN the_DT train_NN ride_NN out_IN there_RB ,_, I_PRP ended_VBD up_RP having_VBG dinner_NN with_IN a_DT couple_NN of_IN Montanans_NNPS who_WP own_VBP and_CC work_VBP a_DT farm_NN on_IN the_DT eastern_JJ edge_NN of_IN the_DT state_NN ._. We_PRP got_VBD to_TO talking_VBG and_CC I_PRP asked_VBD them_PRP what_WP they_PRP raise_VBP ,_, to_TO which_WDT the_DT response_NN came_VBD from_IN the_DT husband_NN :_: ``_`` Durum_NNP wheat_NN ,_, peas_NN ,_, and_CC chickpeas_NNS ._. ''_'' On_IN hearing_VBG the_DT word_NN wheat_NN ,_, my_PRP$ interest_NN was_VBD piqued_VBN ,_, so_IN I_PRP asked_VBD :_: ``_`` I_PRP 'm_VBP curious_JJ ,_, do_VBP you_PRP ever_RB use_VBP futures_NNS contracts_NNS to_TO hedge_VB your_PRP$ crops_NNS ?_. ''_'' To_TO which_WDT he_PRP jumped_VBD into_IN a_DT very_RB long_RB ,_, very_RB interesting_JJ discussion_NN about_IN the_DT commodities_NNS markets_NNS ._. The_DT short_JJ answer_NN to_TO my_PRP$ question_NN was_VBD no_DT ,_, because_IN there_EX is_VBZ no_DT durum_NN wheat_NN futures_NNS contract_NN ,_, he_PRP does_VBZ n't_RB really_RB have_VB the_DT option_NN to_TO hedge_VB in_IN the_DT commodities_NNS markets_NNS ,_, however_RB ,_, he_PRP can_MD often_RB lock_VB prices_NNS in_IN advance_NN with_IN individually_RB agreed_VBN upon_IN ``_`` forward_NN ''_'' agreements_NNS with_IN grain_NN purchasers_NNS ,_, though_IN he_PRP admitted_VBD that_IN this_DT is_VBZ not_RB as_RB useful_JJ as_IN a_DT true_JJ futures_NNS contract_NN because_IN there_EX is_VBZ less_JJR liquidity_NN in_IN the_DT market_NN ._. ``_`` If_IN you_PRP ca_MD n't_RB deliver_VB your_PRP$ full_JJ crop_NN ,_, ''_'' he_PRP said_VBD ``_`` you_PRP 'd_MD better_VB have_VB the_DT cash_NN ''_'' ._. Following_VBG this_DT conversation_NN ,_, the_DT man_NN 's_POS wife_NN asked_VBD me_PRP :_: ``_`` How_WRB do_VB you_PRP know_VB so_RB much_JJ about_IN wheat_NN ?_. ''_'' I_PRP explained_VBD that_IN I_PRP was_VBD a_DT commodities_NNS investor_NN and_CC sometime_JJ analyst_NN ,_, to_TO which_WDT she_PRP said_VBD ,_, ``_`` Wow_UH ,_, because_IN you_PRP sound_VBP exactly_RB like_IN our_PRP$ son_NN ._. ''_'' ``_`` What_WP does_VBZ your_PRP$ son_NN do_VB ?_. ''_'' ``_`` He_PRP 's_VBZ a_DT wheat_NN farmer_NN ._. ''_'' The_DT commodities_NNS markets_NNS have_VBP always_RB fascinated_VBN me_PRP because_IN ,_, in_IN some_DT sense_NN ,_, it_PRP is_VBZ one_CD of_IN the_DT last_JJ ,_, pure_JJ markets_NNS in_IN the_DT country_NN ._. When_WRB you_PRP put_VBP a_DT bid_NN in_IN for_IN a_DT commodity_NN like_IN wheat_NN ,_, you_PRP 're_VBP not_RB betting_VBG on_IN earnings_NNS reports_NNS or_CC interest_NN rates_NNS ,_, CEO_NNP scandals_NNS ,_, cash_NN flow_NN statement_NN readjustments_NNS ,_, corporate_JJ lawsuits_NNS ,_, etc_FW ._. etc_FW ._. You_PRP are_VBP simply_RB betting_VBG on_IN the_DT price_NN of_IN a_DT bushel_NN of_IN wheat_NN ._. It_PRP is_VBZ one_CD of_IN the_DT few_JJ places_NNS in_IN the_DT world_NN of_IN business_NN where_WRB the_DT Montana_NNP Farmer_NNP and_CC Wall_NNP Street_NNP Analyst_NNP are_VBP not_RB just_RB peers_NNS ,_, but_CC equal_JJ experts_NNS ,_, and_CC it_PRP is_VBZ a_DT market_NN that_WDT is_VBZ open_JJ to_TO EVERYONE_NNP ._. If_IN that_DT does_VBZ n't_RB stir_VB your_PRP$ inner_JJ capitalist_NN ,_, I_PRP do_VBP n't_RB know_VB what_WP would_MD ._. By_IN bearish_JJ ,_, of_IN course_NN ,_, I_PRP mean_VBP pessimistic_JJ ._. In_IN other_JJ words_NNS ,_, I_PRP expect_VBP the_DT price_NN to_TO go_VB down_RP ._. Here_RB 's_VBZ a_DT chart_NN of_IN Lumber_NNP futures_NNS prices_NNS over_IN the_DT last_JJ month_NN :_: Click_NN here_RB to_TO download_VB Flash_NNP Player_NNP now_RB View_VBP the_DT full_JJ FUTURE_NNP :_: LB00_NNP chart_NN at_IN Wikinvest_NNP Of_IN particular_JJ interest_NN is_VBZ the_DT big_JJ upward_JJ movement_NN starting_VBG on_IN January_NNP 28th_CD ._. Between_NNP then_RB and_CC this_DT last_JJ Friday_NNP ,_, lumber_NNP TWICE_NNP went_VBD up_RP the_DT session_NN limit_NN of_IN $_$ 10_CD /_NNP thousand_CD board_NN feet_NNS (_( mBF_NN )_) ._. At_IN the_DT beginning_NN of_IN the_DT month_NN ,_, I_PRP was_VBD bearish_JJ on_IN Lumber_NNP because_IN I_PRP suspected_VBD housing_NN starts_NNS have_VBP not_RB actually_RB increased_VBN whatsoever_NN (_( and_CC at_IN the_DT time_NN I_PRP took_VBD a_DT short_JJ position_NN ,_, only_RB to_TO be_VB stopped_VBN out_RP in_IN accordance_NN with_IN my_PRP$ personal_JJ trading_NN philosophy_NN )_) ,_, however_RB ,_, now_RB I_PRP am_VBP even_RB more_RBR bearish_JJ because_IN I_PRP do_VBP n't_RB think_VB this_DT pricing_NN run_VB up_RP either_DT makes_VBZ sense_NN or_CC is_VBZ in_IN any_DT way_NN sustainable_JJ ._. Quick_NNP background_NN about_IN the_DT market_NN ,_, the_DT random_NN length_NN lumber_NN futures_NNS contract_NN (_( what_WP most_JJS people_NNS mean_VBP when_WRB they_PRP say_VBP ``_`` lumber_JJ ''_'' )_) is_VBZ used_VBN extensively_RB by_IN lumber_NNS industry_NN participants_NNS ,_, that_DT is_VBZ timber_JJ harvesters_NNS and_CC construction_NN companies_NNS ,_, to_TO hedge_VB against_IN erratic_JJ price_NN movements_NNS in_IN the_DT cash_NN market_NN (_( the_DT price_NN you_PRP get_VBP at_IN your_PRP$ local_JJ mill_NN on_IN any_DT given_VBN day_NN )_) ._. The_DT biggest_JJS factor_NN affecting_VBG lumber_JJ prices_NNS is_VBZ the_DT US_NNP housing_NN market_NN ._. When_WRB the_DT housing_NN market_NN is_VBZ booming_VBG ,_, lumber_JJ skyrockets_NNS ._. When_WRB home_NN construction_NN is_VBZ depressed_VBN ,_, so_RB too_RB the_DT lumber_JJ market_NN ._. There_EX is_VBZ very_RB little_JJ else_JJ driving_VBG lumber_NN prices_NNS ,_, as_IN most_JJS of_IN the_DT lumber_NN we_PRP use_VBP is_VBZ grown_VBN domestically_RB ,_, we_PRP export_VBP almost_RB none_NN of_IN it_PRP ,_, and_CC what_WP lumber_VBP we_PRP do_VBP import_VB comes_VBZ almost_RB exclusively_RB from_IN Canada_NNP ._. Now_RB that_IN that_DT 's_VBZ out_IN of_IN the_DT way_NN ..._: a_DT recent_JJ article_NN from_IN Reuters_NNP basically_RB comes_VBZ to_TO the_DT following_JJ conclusions_NNS as_IN to_TO why_WRB the_DT price_NN has_VBZ shot_VBN up_RP :_: There_EX are_VBP fewer_JJR mills_NNS currently_RB in_IN operation_NN (_( many_JJ had_VBD closed_VBN down_RP when_WRB the_DT housing_NN market_NN dried_VBD up_RB )_) ,_, creating_VBG a_DT minor_JJ supply_NN shock_NN in_IN the_DT cash_NN market_NN and_CC sending_VBG prices_NNS up_RB ._. There_EX is_VBZ an_DT expected_JJ increase_NN in_IN demand_NN as_IN the_DT result_NN of_IN the_DT approaching_VBG ``_`` Spring_NN building_NN season_NN ''_'' ._. A_DT ``_`` realtor_NN survey_NN ''_'' showed_VBD pending_JJ home_NN sales_NNS were_VBD up_RB 1_CD %_NN in_IN December_NNP ._. My_PRP$ reason_NN for_IN being_VBG bearish_JJ on_IN Lumber_NNP right_NN now_RB is_VBZ that_IN I_PRP believe_VBP there_EX is_VBZ a_DT logical_JJ fallacy_NN at_IN play_NN in_IN the_DT market_NN ._. Follow_VB me_PRP here_RB on_IN this_DT treatise_NN :_: If_IN the_DT housing_NN market_NN picks_VBZ up_RP (_( i.e_NN ._. demand_NN increases_NNS )_) Lumber_NNP inventories_NNS (_( i.e_NN ._. supply_NN )_) should_MD be_VB pressured_VBN and_CC may_MD diminish_VB ._. If_IN inventories_NNS stay_VBP the_DT same_JJ or_CC diminish_VB The_DT price_NN should_MD go_VB up_RP ._. This_DT is_VBZ basic_JJ supply_NN and_CC demand_NN ,_, but_CC I_PRP 've_VBP made_VBN each_DT bullet_NN cascading_VBG to_TO point_VB out_RP the_DT conditional_JJ nature_NN of_IN how_WRB the_DT market_NN ,_, in_IN theory_NN ,_, responds_VBZ ._. The_DT other_JJ way_NN for_IN the_DT price_NN to_TO go_VB up_RP would_MD be_VB as_IN follows_VBZ :_: If_IN lumber_JJ inventories_NNS diminish_VBP (_( i.e_NN ._. supply_NN decreases_VBZ )_) If_IN the_DT housing_NN market_NN moves_VBZ sideways_RB or_CC picks_VBZ up_RP (_( i.e_NN ._. demand_NN stays_VBZ the_DT same_JJ or_CC increases_NNS )_) The_DT price_NN should_MD go_VB up_RP ._. Note_VB the_DT difference_NN between_IN the_DT two_CD cases_NNS ._. In_IN the_DT first_JJ ,_, demand_NN is_VBZ the_DT driving_JJ conditional_NN ;_: in_IN the_DT second_JJ ,_, supply_NN ._. Also_RB note_VBP ,_, and_CC this_DT is_VBZ what_WP 's_VBZ important_JJ ,_, that_DT demand_NN ,_, and_CC demand_NN alone_RB ,_, has_VBZ an_DT effect_NN on_IN the_DT other_JJ predictive_JJ variable_NN in_IN the_DT equation_NN ._. That_DT is_VBZ to_TO say_VB ,_, when_WRB demand_NN changes_NNS ,_, there_EX is_VBZ NECESSARILY_NNP an_DT effect_NN upon_IN the_DT supply_NN ._. (_( Yes_UH ,_, I_PRP know_VBP ,_, it_PRP 's_VBZ possible_JJ that_IN demand_NN has_VBZ been_VBN perfectly_</t>
-  </si>
-  <si>
-    <t>My_PRP$ mother_NN was_VBD a_DT contrarian_JJ ,_, she_PRP was_VBD ._. For_IN instance_NN ,_, she_PRP always_RB wore_VBD orange_NN on_IN St._NNP Patrick_NNP 's_POS Day_NNP ,_, something_NN that_IN I_PRP of_IN course_NN did_VBD not_RB understand_VB at_IN the_DT time_NN ,_, nor_CC ,_, come_VB to_TO think_VB of_IN it_PRP do_VBP I_PRP understand_VB today_NN ._. Protestants_NNS wear_JJ orange_NN in_IN Ireland_NNP ,_, not_RB here_RB ,_, but_CC I_PRP 'm_VBP pretty_JJ sure_JJ my_PRP$ mother_NN had_VBD nothing_NN against_IN the_DT Catholics_NNPS ,_, so_RB why_WRB did_VBD she_PRP do_VB it_PRP ?_. Maybe_RB it_PRP had_VBD to_TO do_VB with_IN the_DT myth_NN about_IN Patrick_NNP driving_VBG the_DT snakes_NNS ,_, a.k.a_NN ._. pagans_NNS ,_, out_IN of_IN Ireland_NNP ._. Or_CC maybe_RB it_PRP was_VBD something_NN political_JJ ._. I_PRP have_VBP no_DT idea_NN and_CC since_IN my_PRP$ mother_NN is_VBZ long_RB gone_VBN from_IN this_DT earth_NN ,_, I_PRP guess_VBP I_PRP 'll_MD never_RB know_VB ._.</t>
-  </si>
-  <si>
-    <t>As_IN the_DT company_NN credited_VBD with_IN practically_RB inventing_VBG the_DT Netbook_NNP category_NN ,_, it_PRP 's_VBZ no_DT surprise_NN Asus_NNP makes_VBZ some_DT of_IN the_DT most_RBS popular_JJ mini_NN notebooks_NNS around_IN ._. Top_NNP among_IN these_DT is_VBZ the_DT Eee_NNP PC_NN 1005_CD series_NN ._. Combining_VBG low_JJ (_( but_CC not_RB the_DT lowest_JJS )_) prices_NNS with_IN great_JJ battery_NN life_NN and_CC good_JJ overall_JJ design_NN ,_, the_DT 1005_CD has_VBZ become_VBN the_DT Netbook_NNP reference_NN design_NN for_IN the_DT entire_JJ industry_NN ._. The_DT newest_JJS version_NN ,_, the_DT $_$ 379_CD Eee_NNP PC_NN 1005PE_CD ,_, is_VBZ the_DT first_JJ Netbook_NNP to_TO reach_VB our_PRP$ labs_NN with_IN Intel_NNP 's_POS new_JJ Atom_NNP N450_NNP processor_NN --_: the_DT long-awaited_JJ sequel_NN to_TO the_DT Atom_NNP N270_NNP and_CC N280_NNP CPUs_NNP found_VBD in_IN nearly_RB every_DT other_JJ Netbook_NNP ._. This_DT new_JJ 1005_CD model_NN ,_, thanks_NNS to_TO the_DT re-engineered_JJ Atom_NNP platform_NN ,_, is_VBZ extremely_RB efficient_JJ ,_, and_CC ran_VBD for_IN more_JJR than_IN 8_CD hours_NNS on_IN our_PRP$ grueling_VBG battery_NN drain_NN test_NN ._. That_DT 's_VBZ extremely_RB impressive_JJ ,_, although_IN the_DT N450_NNP was_VBD more_JJR of_IN a_DT mixed_JJ bag_NN in_IN our_PRP$ performance_NN tests_NNS ,_, beating_VBG other_JJ Netbooks_NNP in_IN some_DT categories_NNS ,_, but_CC matching_VBG or_CC falling_VBG slightly_RB behind_IN in_IN others_NNS ._. Beyond_NN that_IN ,_, the_DT 1005PE_CD eschews_NNS most_RBS of_IN the_DT recent_JJ trends_NNS in_IN Netbook_NNP design_NN ,_, sticking_VBG with_IN a_DT 10-inch_JJ 1,024x600_CD pixel_NN display_NN ,_, 1GB_CD of_IN RAM_NNP ,_, and_CC Windows_VBZ 7_CD Starter_NNP ._. We_PRP 've_VBP become_VBN accustomed_JJ to_TO the_DT high-def_JJ 1,366x768_CD pixel_JJ resolution_NN screens_NNS found_VBN on_IN 11-_JJ ,_, 12-_JJ ,_, and_CC even_RB some_DT 10-inch_JJ Netbooks_NNP ,_, so_IN this_DT lower_JJR resolution_NN feels_NNS cramped_VBN and_CC dated_VBN in_IN comparison_NN ._. Nvidia_NNP 's_POS Ion_NNP GPU_NNP is_VBZ also_RB becoming_VBG a_DT go-to_JJ part_NN for_IN upscale_JJ Netbooks_NNP ,_, but_CC is_VBZ not_RB included_VBN here_RB ._. The_DT Eee_NNP PC_NN 1005PE_CD definitely_RB scores_VBZ points_NNS for_IN being_VBG the_DT first_JJ laptop_JJ out_IN of_IN the_DT gate_NN with_IN the_DT new_JJ N450_NNP CPU_NNP ,_, and_CC its_PRP$ battery_NN life_NN is_VBZ nothing_NN short_JJ of_IN amazing_JJ --_: making_VBG this_DT a_DT very_RB useful_JJ system_NN for_IN serious_JJ road_NN warriors_NNS ._. But_CC we_PRP would_MD have_VB liked_VBN to_TO see_VB a_DT 1005_CD that_WDT was_VBD more_RBR fully_RB upgraded_JJ across_IN the_DT board_NN ._.</t>
-  </si>
-  <si>
-    <t>Friends_NNS hereabouts_NNS are_VBP starting_VBG to_TO email_VB out_RP pictures_NNS of_IN their_PRP$ 2010_CD crop_NN of_IN foals_NNS ._. That_DT 's_VBZ Miniature_NNP horse_NN foals_NNS ._. Most_JJS of_IN the_DT pictures_NNS show_VBP the_DT newborn_NN in_IN the_DT arms_NNS of_IN their_PRP$ new_JJ owners_NNS (_( the_DT owners_NNS standing_VBG ,_, holding_VBG the_DT foals_NNS like_IN newborn_JJ puppies_NNS ._. )_) Since_IN a_DT Miniature_NNP horse_NN foal_NN is_VBZ about_IN twenty_JJ pounds_NNS and_CC seventeen_JJ inches_NNS tall_VBP or_CC so_RB ._. Miniature_NN horses_NNS do_VBP n't_RB know_VB they_PRP 're_VBP little_JJ ,_, just_RB as_IN Chihuahuas_NNP do_VBP n't_RB know_VB they_PRP 're_VBP no_DT bigger_JJR than_IN the_DT squirrels_NNS they_PRP chase_VBP ._. My_PRP$ main_JJ man_NN ,_, a_DT stallion_NN named_VBN Fyr_NNP ,_, is_VBZ a_DT wild_JJ and_CC fierce_JJ as_IN a_DT Montana_NNP mustang_NN ,_, and_CC he_PRP 's_VBZ a_DT whopping_JJ thirty_NN inches_NNS tall_JJ ,_, full_JJ grown_NN ._. We_PRP 're_VBP coming_VBG into_IN another_DT Spring_NN breeding_NN season_NN ,_, and_CC as_IN the_DT mares_NNS start_VBP to_TO think_VB about_IN being_VBG receptive_JJ ,_, Fyr_NNP snorts_NNS and_CC prances_NNS and_CC is_VBZ READY_NNP to_TO do_VB battle_NN with_IN anything_NN or_CC anyone_NN that_WDT gets_VBZ between_IN him_PRP and_CC the_DT loves_NNS of_IN his_PRP$ life_NN ._. I_PRP have_VBP another_DT stallion_NN ,_, Talisman_NNP ._. One_CD day_NN ,_, unthinking_VBG me_PRP ,_, left_VBD the_DT wrong_JJ gate_NN open_JJ ,_, and_CC both_DT stallions_NNS jump-started_VBD out_RP into_IN the_DT main_JJ psture_NN ._. All_PDT those_DT 'wimmin_NNP '_POS and_CC two_CD stallions_NNS ;_: and_CC the_DT war_NN was_VBD one_CD ._. Screaming_VBG in_IN rage_NN ,_, rearing_VBG pawing_VBG the_DT dirt_NN ,_, twisting_VBG their_PRP$ heads_NNS in_IN that_DT way_NN stallions_NNS have_VBP ,_, and_CC shouting_VBG obscenities_NNS at_IN each_DT other_JJ ._. They_PRP dug_VBP in_IN like_IN two_CD drivers_NNS about_IN to_TO play_VB ``_`` chicken_VBN ''_'' and_CC charged_VBN ._. It_PRP was_VBD a_DT wild_JJ battle_NN ._. The_DT mares_NNS looked_VBD and_CC gathered_VBD close_RB (_( no_DT doubt_NN gossiping_VBG about_IN which_WDT 'hunk_NNP '_POS appealed_VBD to_TO them_PRP most_JJS ._. )_) The_DT stallions_NNS screamed_VBD and_CC lashed_VBD out_RB at_IN each_DT other_JJ ,_, and_CC bit_NN and_CC tumbled_VBD and_CC ,_, it_PRP was_VBD most_RBS ferocious_JJ ._. Dirt_NNP flew_VBD ,_, bits_NNS of_IN horse_NN hair_NN were_VBD spat_VBN out_RP ,_, the_DT barn_NN cats_NNS raced_VBD to_TO higher_JJR ground_NN ,_, the_DT barn_NN roof_NN ,_, to_TO watch_VB ._. I_PRP finally_RB decided_VBD I_PRP had_VBD to_TO brave_VB the_DT flying_VBG hooves_NNS and_CC lunging_VBG teeth_NNS ,_, waded_VBN in_IN and_CC grabbed_VBD each_DT halter_NN ._. ``_`` Knock_NNP it_PRP off_RP ,_, you_PRP guys_VBP ._. ''_'' It_PRP was_VBD like_IN breaking_VBG up_RP a_DT battle_NN between_IN two_CD four_CD year_NN old_JJ kids_NNS ._. I_PRP got_VBD them_PRP separated_VBN and_CC put_VBN back_RB where_WRB each_DT belonged_VBN ._. There_EX they_PRP were_VBD ,_, safely_RB in_IN their_PRP$ own_JJ paddocks_NNS again_RB ._. Pacing_VBG the_DT fence_NN ,_, screaming_VBG at_IN each_DT other_JJ ,_, ``_`` wait_VBP 'till_MD next_JJ time_NN ,_, dude_NN ._. ''_'' The_DT mares_NNS wandered_VBD away_RB ,_, probably_RB disappointed_JJ ._.</t>
-  </si>
-  <si>
-    <t>I_PRP currently_RB find_VBP myself_PRP in_IN a_DT much_RB better_JJR place_NN than_IN where_WRB I_PRP was_VBD a_DT week_NN ago_RB ._. Sure_NNP ,_, the_DT pain_NN is_VBZ still_RB there_EX –_RB but_CC it_PRP is_VBZ neither_CC as_IN intense_JJ nor_CC as_RB constant_JJ as_IN it_PRP was_VBD just_RB a_DT few_JJ days_NNS ago_RB ._. Up_RP until_IN a_DT few_JJ months_NNS ago_RB ,_, when_WRB I_PRP was_VBD in_IN this_DT same_JJ situation_NN ,_, I_PRP would_MD have_VB still_RB been_VBN struggling_VBG for_IN the_DT pain_NN to_TO go_VB away_RP completely_RB ._. Even_RB though_IN the_DT worst_JJS of_IN the_DT flare_NN had_VBD subsided_VBN ,_, my_PRP$ feelings_NNS of_IN anger_NN and_CC sadness_NN would_MD continue_VB to_TO grow_VB ._. I_PRP (_( mistakenly_RB )_) believed_VBD that_IN I_PRP could_MD not_RB be_VB happy_JJ until_IN my_PRP$ rheumatoid_NN arthritis_NN went_VBD away_RB completely_RB ._. Now_RB ,_, if_IN the_DT pain_NN is_VBZ somewhat_RB moderate_JJ and_CC focused_VBD on_IN only_RB a_DT few_JJ joints_NNS ,_, I_PRP find_VBP this_DT a_DT blessing_NN ._. Better_NNP yet_RB ,_, I_PRP find_VBP myself_PRP at_IN peace…and_NN happy_JJ ._. Just_NN yesterday_NN ,_, when_WRB I_PRP was_VBD at_IN physical_JJ therapy_NN ,_, my_PRP$ therapist_NN and_CC I_PRP were_VBD talking_VBG at_IN how_WRB well_RB I_PRP handled_VBD this_DT latest_JJS flare_NN ._. Sure_JJ ,_, there_EX were_VBD a_DT few_JJ moments_NNS when_WRB the_DT pain_NN seemed_VBD too_RB much_JJ to_TO bear…but_VB as_RB soon_RB as_IN they_PRP passed_VBD ,_, I_PRP got_VBD back_RB on_IN track_NN and_CC focused_VBD more_JJR on_IN doing_VBG the_DT things_NNS that_IN I_PRP needed_VBD to_TO do_VB to_TO take_VB care_NN of_IN myself_PRP ._.</t>
-  </si>
-  <si>
-    <t>I_PRP got_VBD into_IN watching_VBG the_DT Doctor_NNP Who_NNP showd_VBD a_DT few_JJ years_NNS back_RB and_CC found_VBD myself_PRP glued_VBN to_TO the_DT screen_NN because_IN the_DT show_NN is_VBZ super_JJ &amp;_CC has_VBZ peaked_VBN my_PRP$ desire_NN for_IN more_JJR ._.</t>
-  </si>
-  <si>
-    <t>Yes_UH ._. Men_NNP do_VBP typically_RB lose_VB weight_NN faster_RBR and_CC easier_JJR than_IN women_NNS ._. This_DT phenomenon_NN is_VBZ due_JJ to_TO a_DT man_NN 's_POS on_IN average_NN higher_JJR metabolism_NN ._. A_DT man_NN 's_POS higher_JJR metabolism_NN comes_VBZ from_IN a_DT typically_RB higher_JJR muscle_NN mass_NN and_CC muscle_NN burns_NNS more_JJR calories_NNS ._. Also_RB ,_, men_NNS are_VBP typically_RB larger_JJR than_IN women_NNS and_CC just_RB maintaining_VBG biomass_NN is_VBZ an_DT increase_NN on_IN calorie_JJ demand_NN therefore_IN a_DT calorie_NN burner_NN ._. On_IN the_DT other_JJ side_NN of_IN the_DT coin_NN ,_, women_NNS have_VBP other_JJ biological_JJ goals_NNS than_IN men_NNS do_VBP and_CC that_DT would_MD be_VB to_TO have_VB reserves_NNS in_IN order_NN to_TO support_VB the_DT creation_NN ,_, development_NN and_CC birth_NN of_IN children_NNS as_RB well_RB as_IN provide_VBP those_DT children_NNS with_IN milk_NN ._.</t>
-  </si>
-  <si>
-    <t>welllll_NN UD_NNP as_IN i_NN call_VBP him_PRP is_VBZ a_DT cutest_JJ pal_NN of_IN mine_NN ..._: ..._: .._NN im_NN still_RB puzzled_VBN of_IN how_WRB v_JJ both_DT became_VBD frns_NNS coz_VB thro_RB some_DT big_JJ network_NN i_NN came_VBD to_TO know_VB him.._PDT this_DT guy_NN is_VBZ so_RB obessed_JJ with_IN branded_JJ stuff_NN ..._: ..._: he_PRP is_VBZ affable_JJ ,_, loyal_JJ ,_, blah_JJ blah_NN ..._: .._RB but_CC this_DT idiot_NN always_RB pulls_VBZ my_PRP$ leg_NN ..._: ..._: .till_RB now_RB v_VBP havnt_NNS fought_VBN for_IN anythin_NN ..._: ..._: (_( touch_JJ wood_NN !_. !_. !_. )_) v_NN have_VBP a_DT damn_NN gud_JJ chemistry_NN ,_, physics_NNS ..._: n_RB al_IN the_DT most_RBS unforgettable_JJ moment_NN was_VBD last_JJ but_CC the_DT year_NN before_IN ..._: on_IN his_PRP$ birthday_NN ..._: ..._: ..v_RB celebrated_VBD it_PRP at_IN the_DT beach_NN ..._: abt_VBZ 7_CD of_IN us_PRP ..._: ._. awesome_VB ,_, kewl_VB ,_, relished_VBN moment_NN ..._: i_NN sometimes_RB shed_VBD tears_NNS for_IN those_DT cherished_JJ moments_NNS !_. !_. !_. lots_NNS of_IN love_NN !_. !_. !_. miss_JJ u_NN so_RB much_JJ !_. !_. !_. friends_NNS forever_RB !_. !_. !_. dear_JJ frns_NNS al_NN of_IN u_JJ pls_NNS ask_VBP him_PRP y_VB i_NN call_VBP him_PRP UD.._NNP lol_NN !_. !_. !_. !_. !_. !_. !_. !_.</t>
-  </si>
-  <si>
-    <t>It_PRP 's_VBZ kind_NN of_IN funny_JJ how_WRB everything_NN in_IN life_NN can_MD alter_VB itself_PRP so_RB instantaneously_RB ._. I_PRP 've_VBP felt_VBN so_RB beat-down_JJ and_CC broken_VBN for_IN the_DT past_JJ few_JJ days_NNS that_IN it_PRP 's_VBZ not_RB even_RB funny_VBP ;_: and_CC seriously_RB ,_, I_PRP do_VBP n't_RB even_RB care_VB anymore_RB ._. Everything_NN that_WDT has_VBZ happened_VBN to_TO me_PRP recently_RB and_CC everything_NN that_WDT will_MD continue_VB to_TO happen_VB to_TO me_PRP as_IN a_DT repercussion_NN of_IN those_DT recent_JJ events_NNS ,_, I_PRP will_MD endure_VB and_CC overcome_VB ._. I_PRP believe_VBP that_IN it_PRP 's_VBZ all_DT happened_VBD for_IN a_DT reason_NN ._. I_PRP 'm_VBP stronger_JJR and_CC smarter_JJR than_IN half_NN of_IN the_DT stupid_JJ fucks_NNS that_WDT surround_VBD me_PRP and_CC I_PRP 'm_VBP done_VBN dealing_VBG with_IN their_PRP$ shit_NN ._. I_PRP think_VBP the_DT outcome_NN of_IN all_DT of_IN this_DT will_MD prove_VB to_TO be_VB advantageous_JJ as_RB long_RB as_IN I_PRP look_VBP at_IN everything_NN in_IN the_DT right_JJ state_NN of_IN mind_NN ,_, stray_NN from_IN the_DT negative_JJ ,_, and_CC do_VBP things_NNS to_TO better_VB myself_PRP rather_RB than_IN give_VB two_CD shits_NNS for_IN other_JJ people_NNS ._. I_PRP just_RB ca_MD n't_RB believe_VB that_IN it_PRP 's_VBZ taken_VBN me_PRP since_IN July_NNP to_TO realize_VB it_PRP ._. I_PRP no_RB longer_RBR need_VB to_TO engross_VB my_PRP$ mind_NN with_IN senseless_NN bullshit_NN brought_VBD on_IN by_IN other_JJ people_NNS ._. I_PRP do_VBP n't_RB want_VB or_CC need_VB a_DT friend_NN that_WDT 's_VBZ going_VBG to_TO be_VB over-dramatic_JJ and_CC have_VBP a_DT blood_NN and_CC thunder_VB attitude_NN all_PDT the_DT time_NN ._. Especially_RB if_IN all_DT she/he_NN does_VBZ is_VBZ try_VB to_TO make_VB me_PRP feel_VB jealousy_JJ ,_, tries_NNS to_TO make_VB me_PRP feel_VB like_IN I_PRP 'm_VBP worthless_JJ ,_, and_CC tries_NNS to_TO make_VB me_PRP experience_VB guilt_NN for_IN things_NNS that_WDT are_VBP n't_RB of_IN my_PRP$ own_JJ doing_VBG –or_JJ even_RB issues_NNS with_IN any_DT sort_NN of_IN validity_NN for_IN that_DT matter_NN !_. I_PRP do_VBP n't_RB need_VB to_TO feel_VB detestable_JJ because_IN people_NNS do_VBP n't_RB feel_VB the_DT same_JJ way_NN about_IN me_PRP anymore_RB ,_, whether_IN it_PRP be_VB a_DT girlfriend_NN ,_, friend_NN or_CC an_DT acquaintance_NN ._. Are_VBP you_PRP done_VBN with_IN me_PRP ?_. Have_VBP you_PRP had_VBD enough_VBN yet_RB ?_. Perfect_JJ then_RB !_. I_PRP 'm_VBP fucking_VBG finished_VBN with_IN you_PRP and_CC I_PRP realize_VBP now_RB that_IN I_PRP have_VBP been_VBN for_IN a_DT while_NN !_. It_PRP 's_VBZ time_NN for_IN me_PRP to_TO move_VB on_IN ._. I_PRP feel_VBP like_IN I_PRP need_VBP change_NN again_RB ._. I_PRP ca_MD n't_RB handle_VB this_DT cut_NN of_IN situations_NNS by_IN the_DT same_JJ means_NNS and_CC methodology_NN that_IN I_PRP used_VBD to_TO deal_VB with_IN them_PRP –depression_NN ,_, hostility_NN ,_, frustration_NN ,_, violence_NN ,_, rage…_VB It_PRP gets_VBZ really_RB old_JJ really_RB fucking_VBG fast_NN ._. I_PRP 'm_VBP done_VBN with_IN the_DT conflict_NN ._. I_PRP 'm_VBP done_VBN with_IN the_DT brawling_NN ._. I_PRP 'm_VBP done_VBN with_IN holding_VBG myself_PRP down_RP with_IN everybody_NN else_RB 's_POS problems_NNS ._. Count_VB me_PRP the_DT fuck_NN out_RP ._. It_PRP 's_VBZ time_NN I_PRP live_VBP my_PRP$ life_NN for_IN myself_NN and_CC for_IN nobody_NN else_RB ._.</t>
-  </si>
-  <si>
-    <t>Neither_CC do_VBP i_NNS have_VBP that_DT deep_VBP a_DT knowledge_NN about_IN the_DT game_NN to_TO understand_VB nuances.._NNS nor_CC am_VBP i_JJ sharp_JJ enough_RB to_TO rattle_VB out_RP how_WRB many_JJ runs_NNS India_NNP won_VBD the_DT nth_JJ match_NN of_IN the_DT xth_NNP world_NN cup_NN by_IN ._. This_DT blog_NN is_VBZ not_RB about_RB that.._VB This_DT blog_NN is_VBZ to_TO say_VB ``_`` Thankyou_NNP Sourav_NNP ''_'' for_IN making_VBG cricket_NN that_IN ``_`` extra_JJ special_JJ ''_'' ._. I_PRP dont_VBP know_VBP if_IN it_PRP would_MD have_VB been_VBN the_DT same_JJ for_IN me_PRP without_IN you_PRP ._. Yesterday_NN ,_, as_IN I_PRP was_VBD watching_VBG the_DT India_NNP -_: Eng_NNP ODIs_NNP i_NN felt_VBD something_NN strange_NN ..._: Its_PRP$ something_NN i_NNS have_VBP been_VBN doin_VBN over_IN the_DT last_JJ 8_CD odd_JJ years_NNS ,_, looking_VBG at_IN you_PRP on_IN the_DT field.._JJ changing_VBG field_NN placements_NNS ,_, smiling_VBG ,_, frowning_VBG ,_, exalting_VBG ,_, shirt_NN waving_NN ,_, jumping_NN ,_, puching_NN ,_, yelling_NN ,_, scolding_VBG and_CC what_WP not.._NN and_CC every_DT moment.._NN was_VBD pure_JJ joy_NN ._. I_PRP did_VBD read_VB somewhere.._NN ``_`` Sourav_NNP Ganguly_NNP pulled_VBD at_IN the_DT heartstrings_NNS of_IN the_DT masses_NNS like_IN no_DT other_JJ cricketer_NN had_VBD done_VBN before_IN ''_'' and_CC I_PRP definitely_RB agree.Being_VBG responsible_JJ for_IN the_DT collective_JJ mood_NN of_IN a_DT nation_NN ,_, over_IN such_PDT a_DT long_JJ duration_NN -_: fabulous_JJ job_NN done_VBN ._.</t>
-  </si>
-  <si>
-    <t>The_DT Nexus_NNP One_NNP is_VBZ coming_VBG to_TO Verizon_NNP —_NNP no_RB ,_, really_RB ,_, two_CD months_NNS after_IN a_DT deal_NN was_VBD announced_VBN by_IN Google_NNP ,_, the_DT device_NN is_VBZ on_IN its_PRP$ way_NN ._. HTC_NNP has_VBZ begun_VBN shipping_VBG the_DT CDMA_NNP version_NN of_IN Google_NNP ’_NNP s_VBD Nexus_NNP One_CD to_TO Verizon_NNP Wireless_NNP ,_, according_VBG to_TO a_DT report_NN in_IN the_DT Chinese-language_JJ Economic_NNP Daily_NNP News_NNP (_( hat_WP tip_NN ,_, Digitimes_NNP )_) ._. The_DT nation_NN ’_NNP s_RB largest_JJS carrier_NN will_MD begin_VB selling_VBG the_DT gadget_NN in_IN the_DT next_JJ few_JJ weeks_NNS ,_, joining_VBG T-Mobile_NNP USA_NNP ,_, which_WDT has_VBZ supported_VBN the_DT “_NNP Google_NNP phone_NN ”_NN since_IN its_PRP$ January_NNP launch_NN ._. But_CC that_IN won_VBD ’_NNP t_NN do_VBP much_RB to_TO boost_VB Google_NNP ’_NNP s_VBP mobile_JJ effort_NN unless_IN Mountain_NNP View_NNP throws_VBZ some_DT real_JJ marketing_NN muscle_NN behind_IN the_DT Nexus_NNP One_NNP ._. There_EX ’_JJ s_NN a_DT lot_NN to_TO like_VB about_IN the_DT Nexus_NNP One_NNP ,_, which_WDT Om_NNP has_VBZ praised_VBN as_IN “_NN the_DT best_JJS Android_NNP phone_NN yet._NN ”_VBD The_DT phone_NN rocks_VBZ the_DT powerful_JJ 1_CD GHz_NNP Qualcomm_NNP Snapdragon_NNP processor_NN and_CC solid_JJ mobile_NN browser_NN ,_, and_CC is_VBZ closely_RB integrated_JJ with_IN applications_NNS from_IN both_DT Google_NNP and_CC third-party_JJ developers_NNS ._. But_CC sales_NNS have_VBP been_VBN tremendously_RB disappointing_JJ ,_, prompting_VBG Goldman_NNP Sachs_NNP last_JJ week_NN to_TO slash_VB its_PRP$ 2010_CD sales_NNS estimates_VBZ for_IN the_DT Nexus_NNP One_CD by_IN a_DT whopping_JJ 70_CD percent_NN ._. That_DT lack_NN of_IN movement_NN can_MD be_VB directly_RB traced_VBN to_TO an_DT almost_RB utter_JJ lack_NN of_IN marketing_NN for_IN the_DT phone_NN ._. (_( That_IN ’_VBZ s_VB a_DT lesson_NN Palm_NNP has_VBZ learned_VBN with_IN its_PRP$ Pre_NNP ._. Twice_NNP ._. )_) Google_NNP ’_NNP s_JJ promotion_NN of_IN its_PRP$ flagship_NN device_NN consisted_VBD largely_RB of_IN a_DT placing_VBG a_DT modest_JJ link_NN on_IN its_PRP$ home_NN page_NN ,_, and_CC carriers_NNS —_VBP which_WDT are_VBP rightly_RB terrified_VBN of_IN their_PRP$ brands_NNS being_VBG elbowed_VBN out_IN of_IN the_DT way_NN —_NN have_VBP only_RB minimally_RB backed_VBD the_DT gadget_NN ._. Worse_JJR ,_, the_DT phone_NN is_VBZ available_JJ only_RB through_IN Google_NNP ’_NNP s_JJ online_NN store_NN ,_, which_WDT most_JJS smartphone_NN shoppers_NNS surely_RB don_VBP ’_JJ t_NN even_RB know_VBP exists_NNS ._. And_CC that_IN model_NN isn_NN ’_NNP t_VBZ likely_JJ to_TO change_VB with_IN Verizon_NNP Wireless_NNP ,_, as_IN Kevin_NNP at_IN jkOnTheRun_NN noted_VBN last_JJ week_NN ._. Google_NNP has_VBZ said_VBD since_IN January_NNP that_IN the_DT Nexus_NNP One_NNP would_MD be_VB coming_VBG to_TO Verizon_NNP Wireless_NNP ,_, and_CC the_DT company_NN is_VBZ wise_JJ to_TO combine_VB its_PRP$ impressive_JJ hardware_NN with_IN Verizon_NNP ’_NNP s_VBD rock-solid_JJ network_NN ._. But_CC if_IN Google_NNP is_VBZ really_RB going_VBG to_TO move_VB the_DT needle_NN with_IN its_PRP$ flagship_NN device_NN ,_, it_PRP ’_VBZ s_RB going_VBG to_TO have_VB to_TO back_VB it_PRP with_IN some_DT big-budget_JJ marketing_NN campaigns_NNS ._.</t>
-  </si>
-  <si>
-    <t>This_DT was_VBD a_DT second_JJ cruise_NN for_IN my_PRP$ husband_NN and_CC I_PRP and_CC a_DT first_JJ with_IN the_DT kids_NNS ._. Our_PRP$ first_JJ cruise_NN was_VBD on_IN a_DT different_JJ line_NN and_CC it_PRP pales_VBZ compared_VBN to_TO the_DT Disney_NNP cruise_NN experience_NN ._. Our_PRP$ kids_NNS are_VBP 4_CD and_CC 6_CD and_CC they_PRP had_VBD a_DT great_JJ time_NN ._. As_RB soon_RB as_IN we_PRP got_VBD in_IN the_DT car_NN to_TO come_VB home_NN they_PRP asked_VBD ,_, ``_`` When_WRB are_VBP we_PRP going_VBG again_RB ?_. ``_`` We_PRP fed_VBP the_DT stingrays_NNS in_IN Nassau_NNP and_CC that_DT was_VBD a_DT perfect_JJ excursion_NN for_IN young_JJ kids_NNS ._. My_PRP$ youngest_JJS was_VBD scared_VBN to_TO be_VB in_IN the_DT water_NN with_IN them_PRP ,_, but_CC she_PRP loved_VBD watching_VBG them_PRP from_IN the_DT shore_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP have_VBP n't_RB purchased_VBN a_DT pack_NN or_CC any_DT single_JJ cards_NNS from_IN a_DT Topps_NNP Heritage_NNP product_NN in_IN over_IN two_CD years_NNS (_( the_DT last_JJ one_CD I_PRP collected_VBD was_VBD Heritage_NNP '59_NNP ,_, in_IN 2008_CD )_) ._. I_PRP did_VBD this_DT for_IN a_DT variety_NN of_IN reasons_NNS ,_, most_JJS notably_RB because_IN I_PRP just_RB did_VBD n't_RB have_VB the_DT income_NN to_TO justify_VB collecting_VBG another_DT new_JJ set_NN ._. I_PRP also_RB stood_VBD (_( and_CC continue_VB to_TO stand_VB )_) firmly_RB in_IN the_DT belief_NN that_IN the_DT Heritage_NNP brand_NN should_MD 've_VBP ended_VBN with_IN the_DT Heritage_NNP '59_NNP (_( 2008_CD )_) set_VBN ,_, and_CC that_IN Topps_NNP should_MD 've_VBP rechristened_VBN the_DT subsequent_JJ sets_NNS as_IN ``_`` Topps_NNP Classic_NNP ._. ''_'' In_IN any_DT event_NN ,_, I_PRP 've_VBP been_VBN thinking_VBG about_IN this_DT year_NN 's_POS Heritage_NNP (_( '61_POS )_) ,_, and_CC I_PRP think_VBP I_PRP 've_VBP hit_VBN upon_IN a_DT way_NN to_TO make_VB the_DT brand_NN more_RBR appealing_NN ._. The_DT Heritage_NNP checklister_NN has_VBZ done_VBN an_DT admirable_JJ job_NN ``_`` updating_JJ ''_'' checklists_NNS from_IN the_DT original_JJ sets_NNS and_CC filling_VBG in_IN each_DT spot_NN with_IN its_PRP$ twenty-first_JJ century_NN player_NN equivalent_NN ._. They_PRP have_VBP n't_RB gotten_VBN everything_NN right_NN (_( as_IN an_DT homage_NN to_TO 1960_CD 's_POS card_NN #_# 1_CD ,_, Cy_NNP Young-winner_NNP Early_NNP Wynn_NNP of_IN the_DT White_NNP Sox_NNPS ,_, 2009_CD 's_POS card_NN #_# 1_CD was_VBD Mark_NNP Buerhle_NNP of_IN the_DT White_NNP Sox_NNPS ;_: it_PRP should_MD have_VB been_VBN one_CD of_IN the_DT reigning_VBG Cy_NNP Young_NNP winners_NNS ,_, Cliff_NNP Lee_NNP or_CC Tim_NNP Lincecum_NNP )_) ,_, but_CC 100_CD %_NN accuracy_NN is_VBZ not_RB something_NN any_DT card_JJ company_NN should_MD be_VB expected_VBN to_TO achieve_VB ._. But_CC a_DT sly_RB wink_NN and_CC an_DT inside_JJ joke_NN to_TO an_DT original_JJ checklist_NN is_VBZ no_DT longer_RB enough_RB to_TO buoy_VB a_DT set_NN ._. The_DT company_NN has_VBZ to_TO continue_VB to_TO push_VB the_DT envelope_NN or_CC else_RB they_PRP 'll_MD begin_VB to_TO lose_VB the_DT audience_NN ,_, or_CC make_VB them_PRP cynical_JJ about_IN the_DT checklisting_NN tactics_NNS used_VBN (_( ``_`` Thom_NNP ''_'' Glavine_NNP ,_, anyone_NN ?_. How_WRB about_IN those_DT annoying_VBG black_JJ backs_NNS versus_VBP green_JJ backs_NNS from_IN the_DT Heritage_NNP '59_MD set_VB ?_. )_) ._. The_DT next_JJ logical_JJ step_NN is_VBZ the_DT photo_NN homage_NN ._. Not_RB just_RB one_CD or_CC two_CD photos_NNS sprinkled_VBD over_IN the_DT checklist_NN ,_, either_RB ._. If_IN they_PRP made_VBD every_DT photograph_NN on_IN every_DT card_NN an_DT homage_NN to_TO its_PRP$ checklist_NN buddy_NN from_IN the_DT original_JJ set_NN ,_, that_WDT would_MD be_VB something_NN to_TO write_VB home_NN about_IN ,_, something_NN that_WDT would_MD elevate_VB the_DT Heritage_NNP brand_NN out_IN of_IN the_DT retro-design_JJ doldrums_NNS ._. Of_IN course_NN ,_, to_TO accomplish_VB this_DT ,_, the_DT Topps_NNP photographers_NNS would_MD have_VB to_TO actually_RB study_VB the_DT original_JJ set_NN and_CC pose_VB their_PRP$ subjects_NNS down_RB to_TO the_DT minutest_JJS detail_NN ._. They_PRP 'd_MD also_RB have_VB to_TO shoot_VB their_PRP$ photos_NNS with_IN an_DT idea_NN of_IN recreating_VBG the_DT photographic_JJ standards_NNS of_IN the_DT 1960s_NNS ._. Presumably_RB ,_, color-correcting_NN of_IN this_DT caliber_NN is_VBZ something_NN that_WDT Adobe_NNP Photoshop_NNP could_MD assist_VB in_IN accomplishing_VBG ._. I_PRP 've_VBP never_RB been_VBN a_DT huge_JJ fan_NN of_IN the_DT 1961_CD set_NN ._. I_PRP think_VBP the_DT design_NN is_VBZ one_CD of_IN Topps_NNP '_POS weakest_JJS of_IN the_DT decade_NN and_CC the_DT era_NN ,_, and_CC the_DT photos_NNS fairly_RB unimaginative_JJ ._. Really_RB ,_, the_DT only_JJ great_JJ part_NN of_IN the_DT set_NN are_VBP the_DT subsets_NNS (_( the_DT Brady_NNP Bunch-esque_NNP League_NNP Leaders_NNP ,_, the_DT MVPs_NNP ,_, the_DT All-Stars_NNP ,_, the_DT combo_NN cards_NNS —_VBP ``_`` Lindy_NNP Shows_NNP Larry_NNP ''_'' ,_, anyone_NN ?_. —_IN the_DT World_NNP Series_NNP cards_NNS ,_, and_CC the_DT Historical_NNP Highlights_NNP )_) ,_, an_DT idea_NN that_WDT exploded_VBD in_IN 1961_CD and_CC came_VBD to_TO dominate_VB the_DT Topps_NNP Sixties_NNPS ._. It_PRP would_MD be_VB great_JJ to_TO get_VB ``_`` Josh_NNP Shows_NNP Daisuke_NNP ''_'' in_IN my_PRP$ pack_NN of_IN Heritage_NNP '61_POS and_CC not_RB have_VB it_PRP be_VB two_CD silhouetted_JJ shots_NNS of_IN the_DT individuals_NNS placed_VBD near_IN each_DT other_JJ ._. I_PRP 'd_MD appreciate_VB the_DT homage_NN much_RB more_RBR if_IN Josh_NNP Beckett_NNP was_VBD smiling_VBG awkwardly_RB while_IN showing_VBG Daisuke_NNP Matsuzaka_NNP how_WRB to_TO throw_VB a_DT curve_NN ._.</t>
-  </si>
-  <si>
-    <t>listening_VBG to_TO kidd_VB kradick_NN in_IN the_DT morning_NN today_NN (_( kiddlive.com_NN )_) i_VBZ heard_VBP them_PRP discussing_VBG that_IN today_NN is_VBZ the_DT day_NN that_IN you_PRP are_VBP able_JJ to_TO begin_VB ``_`` pre-ordering_JJ ''_'' apples_VBZ new_JJ product_NN ,_, the_DT ipad_NN !_. ..._: .yay_NN ..._: ._. i_VB am_VBP not_RB sure_JJ on_IN how_WRB to_TO feel_VB about_IN this_DT new_JJ product_NN ._. of_IN course_NN many_JJ people_NNS love_VBP it_PRP (_( though_IN they_PRP havent_VBP tried_VBD it_PRP )_) and_CC have_VBP to_TO buy_VB it_PRP (_( though_IN the_DT ridiculous_JJ price_NN )_) but_CC ..._: there_EX are_VBP some_DT major_JJ downfalls_NNS to_TO it_PRP i_JJ feel_NN :_: 1_CD )_) you_PRP ca_MD n't_RB multitask_VB !_. i_NN do_VBP n't_RB know_VB about_IN yall_NN ,_, but_CC when_WRB i_JJ 'm_VBP on_IN my_PRP$ computer_NN i_NN have_VBP my_PRP$ internet_NN up_RP (_( with_IN multiple_JJ tabs_NNS of_IN course_NN !_. )_) my_PRP$ media_NNS player_NN playing_NN music_NN ,_, sometimes_RB microsoft_JJ word_NN up_RB ,_, along_IN with_IN photoshop_NN and_CC many_JJ other_JJ programs_NNS ._. but_CC not_RB uh_JJ ,_, no_DT sir_NN ,_, this_DT ipad_NN is_VBZ going_VBG to_TO help_VB keep_VB you_PRP focused_VBN on_IN one_CD thing_NN ,_, because_RB well_RB ,_, it_PRP 's_VBZ only_RB capable_JJ of_IN letting_VBG you_PRP do_VBP one_CD thing_NN ._. 2_CD )_) no_DT cd_NN drive_NN ._. or_CC any_DT other_JJ drive_NN at_IN that_DT ._. basically_RB its_PRP$ a_DT touch_JJ screen_JJ version_NN of_IN the_DT mac_NN book_NN air_NN ..._: .without_IN the_DT function-ability_NN of_IN the_DT air_NN ._. and_CC it_PRP weighs_VBZ more_RBR ._. yay_NN ._. 3_CD )_) well_RB im_RB still_RB working_VBG on_IN the_DT rest_NN of_IN my_PRP$ complaints_NNS which_WDT i_VBP will_MD update_VB you_PRP on_IN later_JJR but_CC for_IN now_RB i_JJ 'll_MD leave_VB it_PRP at_IN the_DT name_NN ._. the_DT ipad_NN ._. next_JJ thing_NN you_PRP know_VBP theyre_RB going_VBG to_TO have_VB the_DT itampon_NN ._.</t>
-  </si>
-  <si>
-    <t>Thanks_NNS to_TO BT_NNP FON_NNP ,_, BT_NNP ’_NNP s_NN WiFi_NNP Network_NNP Reaches_NNP One_CD Million_NNP Hotspots_NNP Together_NNP with_IN FON_NNP ,_, our_PRP$ partner_NN BT_NNP ,_, has_VBZ reached_VBN its_PRP$ goal_NN of_IN building_VBG a_DT million-strong_JJ WiFi_NNP hotspot_NN network_NN in_IN the_DT UK_NNP ._. The_DT vast_JJ majority_NN (_( more_JJR than_IN 85_CD %_NN )_) of_IN BT_NNP ’_NNP s_VBD WiFi_NNP hotspots_NNS are_VBP BT_NNP FON_NNP hotspots_NNS and_CC a_DT direct_JJ result_NN of_IN a_DT vision_NN Ian_NNP Livingston_NNP ,_, BT_NNP ’_NNP s_NN CEO_NNP ,_, and_CC Gavin_NNP Patterson_NNP ,_, BT_NNP ’_NNP s_VBD CEO_NNP Retail_NNP ,_, and_CC I_PRP ,_, FON_NNP ’_NNP s_NN CEO_NNP ,_, had_VBD just_RB three_CD years_NNS ago_RB ._. Back_RP then_RB BT_NNP only_RB had_VBD some_DT Openzone_NNP hotspots_NNS in_IN commercial_JJ areas_NNS ._. In_IN order_NN to_TO quickly_RB build_VB a_DT truly_RB ubiquitous_JJ WiFi_NNP network_NN in_IN the_DT UK_NNP ,_, BT_NNP needed_VBD a_DT new_JJ approach_NN ._. BT_NNP needed_VBD FON_NNP ._. Teaming_VBG up_RP with_IN FON_NNP ,_, BT_NNP added_VBD FON_NNP WiFi_NNP sharing_VBG functionality_NN directly_RB into_IN BT_NNP Home_NNP Hubs_NNP ._. This_DT made_VBD it_PRP easy_JJ for_IN BT_NNP subscribers_NNS to_TO become_VB members_NNS of_IN the_DT FON_NNP community_NN ._. As_IN members_NNS ,_, BT_NNP broadband_NN customers_NNS who_WP elect_VBP to_TO safely_RB share_NN a_DT little_RB of_IN their_PRP$ home_NN WiFi_NNP with_IN others_NNS ,_, get_VB access_NN to_TO the_DT world_NN ’_NNP s_RB largest_JJS WiFi_NNP network_NN in_IN return_NN ._. Instantly_RB ,_, BT_NNP customers_NNS who_WP opted_VBD in_IN to_TO FON_NNP received_VBD more_JJR access_NN to_TO WiFi_NNP ,_, and_CC the_DT joint_JJ BT_NNP FON_NNP network_NN took_VBD off_RP ,_, growing_VBG faster_RBR than_IN anyone_NN expected_VBN ._. In_IN the_DT past_JJ six_CD months_NNS alone_RB ,_, BT_NNP ’_NNP s_NN WiFi_NNP network_NN has_VBZ doubled_VBN ._. We_PRP expect_VBP it_PRP to_TO continue_VB growing_VBG even_RB faster_RBR in_IN 2010_CD ,_, thanks_NNS in_IN large_JJ part_NN to_TO FON_NNP ._.</t>
-  </si>
-  <si>
-    <t>evlon_NN challenges_VBZ its_PRP$ customers_NNS to_TO “_VB Get_NNP Cheeky_NNP ”_NNP with_IN their_PRP$ new_JJ Pinch_NNP Me_NNP Sheer_NNP Gel_NNP Blush_NNP ._. Being_VBG the_DT makeup_NN junkie_NN that_IN I_PRP am_VBP ,_, I_PRP rose_VBD to_TO the_DT challenge_NN and_CC decided_VBD to_TO give_VB this_DT new_JJ product_NN a_DT try_NN ._. I_PRP did_VBD hesitate_VB for_IN a_DT brief_JJ minute_NN since_IN I_PRP ’_VBP d_JJ never_RB heard_VBD anything_NN positive_JJ about_IN blush_NN gels_NNS ,_, but_CC ultimately_RB I_PRP decided_VBD to_TO jump_VB on_IN in_IN ._. I_PRP ’_VBP m_JJ glad_NN that_IN I_PRP did_VBD !_.</t>
-  </si>
-  <si>
-    <t>If_IN you_PRP 're_VBP reading_VBG this_DT ,_, you_PRP 're_VBP no_DT doubt_NN asking_VBG yourself_PRP ,_, ``_`` Why_WRB did_VBD this_DT have_VB to_TO happen_VB ?_. ''_'' The_DT simple_JJ truth_NN is_VBZ that_IN it_PRP is_VBZ complicated_VBN and_CC has_VBZ been_VBN coming_VBG for_IN a_DT long_JJ time_NN ._. The_DT writing_NN process_NN ,_, started_VBD many_JJ months_NNS ago_RB ,_, was_VBD intended_VBN to_TO be_VB therapy_VBN in_IN the_DT face_NN of_IN the_DT looming_VBG realization_NN that_IN there_EX is_VBZ n't_RB enough_JJ therapy_NN in_IN the_DT world_NN that_WDT can_MD fix_VB what_WP is_VBZ really_RB broken_JJ ._. Needless_NN to_TO say_VB ,_, this_DT rant_NN could_MD fill_VB volumes_NNS with_IN example_NN after_IN example_NN if_IN I_PRP would_MD let_VB it_PRP ._. I_PRP find_VBP the_DT process_NN of_IN writing_VBG it_PRP frustrating_JJ ,_, tedious_JJ ,_, and_CC probably_RB pointless…_VB especially_RB given_VBN my_PRP$ gross_JJ inability_NN to_TO gracefully_RB articulate_VB my_PRP$ thoughts_NNS in_IN light_NN of_IN the_DT storm_NN raging_NN in_IN my_PRP$ head_NN ._. Exactly_RB what_WP is_VBZ therapeutic_JJ about_IN that_DT I_PRP 'm_VBP not_RB sure_JJ ,_, but_CC desperate_JJ times_NNS call_VBP for_IN desperate_JJ measures_NNS ._. We_PRP are_VBP all_DT taught_NN as_IN children_NNS that_IN without_IN laws_NNS there_EX would_MD be_VB no_DT society_NN ,_, only_RB anarchy_NN ._. Sadly_RB ,_, starting_VBG at_IN early_JJ ages_NNS we_PRP in_IN this_DT country_NN have_VBP been_VBN brainwashed_VBN to_TO believe_VB that_DT ,_, in_IN return_NN for_IN our_PRP$ dedication_NN and_CC service_NN ,_, our_PRP$ government_NN stands_VBZ for_IN justice_NN for_IN all_DT ._. We_PRP are_VBP further_RB brainwashed_VBN to_TO believe_VB that_IN there_EX is_VBZ freedom_NN in_IN this_DT place_NN ,_, and_CC that_IN we_PRP should_MD be_VB ready_JJ to_TO lay_VB our_PRP$ lives_NNS down_RP for_IN the_DT noble_JJ principals_NNS represented_VBN by_IN its_PRP$ founding_NN fathers_NNS ._. Remember_NNP ?_. One_CD of_IN these_DT was_VBD ``_`` no_DT taxation_NN without_IN representation_NN ''_'' ._. I_PRP have_VBP spent_VBN the_DT total_JJ years_NNS of_IN my_PRP$ adulthood_NN unlearning_NN that_WDT crap_NN from_IN only_RB a_DT few_JJ years_NNS of_IN my_PRP$ childhood_NN ._. These_DT days_NNS anyone_NN who_WP really_RB stands_VBZ up_RP for_IN that_DT principal_NN is_VBZ promptly_RB labeled_VBN a_DT ``_`` crackpot_NN ''_'' ,_, traitor_NN and_CC worse_NN ._.</t>
-  </si>
-  <si>
-    <t>According_VBG to_TO my_PRP$ psychiatrist_NN SID_NNP is_VBZ a_DT dysfunction_NN disorder_NN under_IN ADD/ADHD_NNP ._. I_PRP found_VBD a_DT site_NN about_IN it_PRP ,_, after_IN researching_VBG why_WRB I_PRP had_VBD such_JJ sensativity_NN to_TO smell_VB ,_, sound_NN and_CC touch_NN ._. The_DT sight_NN calls_VBZ it_PRP Sensory_NNP Processing_NNP Disorder_NNP ,_, instead_RB of_IN SID_NNP ,_, now_RB ._. There_EX are_VBP different_JJ check_NNS list_NN pages_NNS to_TO see_VB if_IN you_PRP or_CC a_DT loved_JJ one_NN might_MD meet_VB the_DT criteria_NNS ._. When_WRB I_PRP did_VBD it_PRP ,_, I_PRP was_VBD amazed_VBN ._. I_PRP met_VBD almost_RB everything_NN ._. Its_PRP$ very_RB interesting_JJ ,_, I_PRP wondered_VBD ,_, since_IN I_PRP take_VBP ADD_JJ medication_NN if_IN that_DT could_MD actually_RB make_VB the_DT sensory_JJ sensitivity_NN worse_NN ._. I_PRP also_RB have_VBP PTSD_NNP ._. But_CC after_IN 9_CD years_NNS of_IN being_VBG misdiagnosed_VBN ,_, I_PRP am_VBP happy_JJ to_TO be_VB functioning_VBG pretty_RB well_RB with_IN the_DT ADD_NNP medication_NN ._. As_RB long_RB as_IN I_PRP dont_VBP let_VB a_DT rebound_JJ effect_NN take_NN over_IN ,_, I_PRP metabalize_VBP the_DT stuff_NN fast_NN ,_, and_CC that_IN even_RB if_IN it_PRP is_VBZ XR_NNP ._. I_PRP can_MD also_RB take_VB a_DT Clonazapam_NNP to_TO relieve_VB my_PRP$ oversensitivity_NN at_IN those_DT times_NNS ._. For_IN me_PRP the_DT ADD_NNP medication_NN ,_, while_IN still_RB activly_VBZ working_VBG in_IN my_PRP$ brain_NN ,_, even_RB makes_VBZ the_DT SID_NNP normal_JJ ._. All_DT of_IN the_DT meds_NNS and_CC diagnosis_NN are_VBP tricky_JJ and_CC time_NN consuming_NN ,_, plus_CC alot_NN of_IN trial_NN and_CC error_NN and_CC if_IN lucky_JJ a_DT positive_JJ !_. !_.</t>
-  </si>
-  <si>
-    <t>If_IN the_DT answers_NNS to_TO these_DT questions_NNS are_VBP mostly_RB negative_JJ then_RB it_PRP could_MD be_VB a_DT sign_NN that_IN your_PRP$ relationship_NN is_VBZ on_IN the_DT rocks_NNS ._. It_PRP 's_VBZ certainly_RB not_RB healthy_JJ for_IN a_DT relationship_NN to_TO consist_VB of_IN frequent_JJ arguments_NNS ,_, violence_NN or_CC demeaning_VBG behaviour_NN ._. If_IN you_PRP are_VBP experiencing_VBG any_DT emotional_JJ ,_, verbal_JJ or_CC physical_JJ abuse_NN ,_, then_RB it_PRP 's_VBZ definitely_RB time_NN to_TO call_VB it_PRP quits_VBZ ._.</t>
-  </si>
-  <si>
-    <t>Haciendas_WDT were_VBD the_DT landed_JJ estates_NNS of_IN Mexico_NNP given_VBN to_TO conquistadors_NNS in_IN excange_NN for_IN military_JJ and_CC social_JJ services_NNS to_TO the_DT Spanish_JJ crown_NN ._. The_DT Hacienda_NNP de_FW Guaracha_NNP was_VBD mostly_RB aquired_VBN through_IN illegal_JJ means_NNS and_CC by_IN taking_VBG over_RP land_NN owned_VBN by_IN the_DT The_DT symbol_NN of_IN Sahuayo_NNP native_JJ people_NNS ,_, also_RB forcing_VBG them_PRP to_TO work_VB on_IN the_DT Hacienda_NNP ._. In_IN 1643_CD Pedro_NNP de_FW Salada_NNP was_VBD able_JJ to_TO legalise_VB the_DT Hacienda_NNP ._. Around_IN this_DT disease_NN was_VBD decimating_VBG the_DT native_JJ population_NN and_CC black_JJ slaves_NNS were_VBD brought_VBN in_IN to_TO continue_VB working_VBG the_DT land_NN ._.</t>
-  </si>
-  <si>
-    <t>On_IN Friday_NNP evening_NN ,_, I_PRP found_VBD the_DT mother_NN lode_NN of_IN pain_NN located_VBN –_NNP conveniently_RB enough_RB –_NN in_IN my_PRP$ right_JJ wrist_NN ._. The_DT most_RBS intense_JJ episode_NN lasted_VBD about_IN an_DT hour_NN ._. When_WRB it_PRP passed_VBD ,_, I_PRP proudly_RB reminded_VBD myself_PRP about_IN how_WRB such_JJ episodes_NNS in_IN the_DT past_NN used_VBN to_TO emotionally_RB knock_VB me_PRP down_RP for_IN days_NNS ,_, which_WDT did_VBD not_RB seem_VB to_TO be_VB the_DT case_NN anymore_RB ._. Sure_JJ ,_, these_DT episodes_NNS continue_VBP to_TO be_VB difficult_JJ to_TO get_VB through_IN ,_, but_CC at_IN least_JJS I_PRP seem_VBP to_TO be_VB a_DT little_JJ more_JJR “_NNS prepared_VBD ”_NNP for_IN them_PRP ._. Yesterday_NN afternoon_NN ,_, when_WRB I_PRP was_VBD at_IN physical_JJ therapy_NN ,_, we_PRP once_RB again_RB reached_VBD the_DT point_NN where_WRB the_DT maximum_JJ electrotherapy_JJ current_JJ was_VBD being_VBG delivered_VBN to_TO my_PRP$ ankles_NNS ,_, and_CC I_PRP could_MD n't_RB feel_VB a_DT thing_NN ._. In_IN the_DT past_JJ ,_, I_PRP used_VBD to_TO break_VB down_RP right_RB at_IN that_DT moment_NN ,_, as_IN it_PRP served_VBD as_IN a_DT objective_NN and_CC stark_JJ reminder_NN of_IN exactly_RB how_WRB much_JJ pain_NN I_PRP was_VBD in_IN ._. Yesterday_NN ,_, I_PRP held_VBD my_PRP$ head_NN up_RB high_JJ as_IN I_PRP remembered_VBD this_DT ,_, and_CC told_VBD myself_PRP that_IN I_PRP would_MD get_VB through_IN this_DT episode_NN as_IN I_PRP have_VBP gotten_VBN through_IN other_JJ episodes_NNS ._. Later_RB during_IN the_DT day_NN ,_, I_PRP completely_RB lost_VBD the_DT use_NN of_IN my_PRP$ left_JJ hand_NN for_IN more_JJR than_IN an_DT hour_NN ._. As_IN luck_NN would_MD have_VB it_PRP ,_, this_DT coincided_VBN with_IN the_DT time_NN when_WRB we_PRP sat_VBD down_RB to_TO eat_VB a_DT meal_NN ._. In_IN the_DT past_JJ ,_, I_PRP would_MD have_VB have_VB been_VBN reluctant_JJ to_TO ask_VB for_IN help_NN and_CC would_MD have_VB instead_RB struggled_VBN to_TO cut_VB my_PRP$ own_JJ food_NN ,_, resulting_VBG in_IN even_RB more_JJR pain_NN ._. Yesterday_NN ,_, I_PRP calmly_VBP asked_VBN for_IN help_NN ,_, and_CC even_RB through_IN I_PRP am_VBP left-handed_JJ ,_, I_PRP used_VBD my_PRP$ right_JJ hand_NN to_TO lift_VB my_PRP$ fork_NN ._. When_WRB a_DT small_JJ glass_NN of_IN jello_NN was_VBD served_VBN for_IN dessert_NN ,_, I_PRP propped_VBD it_PRP up_RP in_IN between_IN my_PRP$ knees_NNS and_CC scooped_VBD it_PRP up_RP with_IN a_DT spoon_NN –_NN without_IN so_RB much_JJ as_IN a_DT second_JJ thought_NN ._. I_PRP once_RB again_RB felt_VBD proud_NN of_IN myself_NN ._.</t>
-  </si>
-  <si>
-    <t>A_DT study_NN published_VBN in_IN the_DT December_NNP issue_NN of_IN the_DT Annals_NNP of_IN Rheumatic_NNP Disease_NNP describe_VBD what_WP many_JJ people_NNS with_IN who_WP have_VBP had_VBN RA_NNP may_MD already_RB know_VB ;_: that_IN new_JJ drugs_NNS and_CC more_RBR aggressive_JJ treatment_NN with_IN these_DT drugs_NNS has_VBZ improved_VBN the_DT health_NN status_NN of_IN people_NNS with_IN RA_NNP over_IN the_DT last_JJ 15_CD years_NNS ._. The_DT Norwegian_JJ study_NN surveyed_VBD almost_RB 1,000_CD people_NNS with_IN RA_NNP four_CD times_NNS over_IN a_DT period_NN of_IN 10_CD years_NNS (_( 1994-2004_JJ )_) and_CC found_VBD that_IN the_DT health_NN status_NN of_IN these_DT patients_NNS consistently_RB improved_VBN over_IN that_DT time_NN ,_, in_IN terms_NNS of_IN physical_JJ health_NN ,_, global_JJ health_NN and_CC pain_NN ._. The_DT believe_NN that_IN the_DT improvement_NN is_VBZ the_DT result_NN of_IN more_RBR aggressive_JJ early_JJ treatment_NN and_CC better_JJR access_NN overall_JJ to_TO drugs_NNS for_IN patients_NNS ,_, as_RB well_RB as_IN closer_RBR management_NN of_IN the_DT treatment_NN regime_NN by_IN physicians_NNS ._. Another_DT recent_JJ study_NN from_IN Spain_NNP also_RB found_VBD that_IN the_DT best_JJS results_NNS come_VBP from_IN more_RBR effective_JJ management_NN of_IN drug_NN treatment_NN ,_, rather_RB than_IN access_NN to_TO new_JJ therapies_NNS ._. The_DT team_NN of_IN researchers_NNS followed_VBD almost_RB 800_CD patients_NNS in_IN Spain_NNP from_IN 2000-2004_JJ ._. The_DT study_NN ,_, published_VBN online_NN in_IN Arthritis_NNP Research_NNP and_CC Therapy_NNP concluded_VBD that_IN while_IN the_DT clinical_JJ development_NN of_IN drugs_NNS has_VBZ made_VBN great_JJ advances_NNS ,_, it_PRP is_VBZ the_DT physician_NN 's_POS management_NN of_IN the_DT available_JJ drugs_NNS ,_, old_JJ and_CC new_JJ ,_, that_WDT makes_VBZ the_DT most_RBS difference_NN ._. The_DT researchers_NNS in_IN Spain_NNP found_VBD that_IN clinical_JJ trial_NN results_NNS tend_VBP to_TO show_VB levels_NNS of_IN remission_NN and_CC halts_NNS in_IN disease_NN progression_NN that_WDT are_VBP not_RB enjoyed_VBN by_IN patients_NNS in_IN real_JJ life_NN ._. The_DT authors_NNS stated_VBD that_IN this_DT difference_NN could_MD be_VB due_JJ to_TO patients_NNS included_VBN in_IN clinical_JJ trials_NNS being_VBG younger_JJR on_IN average_NN ,_, having_VBG fewer_JJR comorbidities_NNS and_CC being_VBG selected_VBN for_IN trial_NN because_IN they_PRP have_VBP a_DT higher_JJR level_NN of_IN disease_NN activity_NN than_IN real-life_JJ patients_NNS ._. The_DT authors_NNS found_VBD that_IN real-life_JJ RA_NNP patients_NNS (_( with_IN both_DT severe_JJ and_CC mild_JJ disease_NN )_) improved_VBN in_IN terms_NNS of_IN disease_NN activity_NN ,_, disability_NN and_CC radiological_JJ progression_NN independently_RB of_IN the_DT availability_NN of_IN new_JJ therapies_NNS ._. The_DT study_NN seemed_VBD to_TO conclude_VB that_IN better_JJR management_NN by_IN doctors_NNS in_IN the_DT future_NN ,_, meaning_VBG better_JJR selection_NN of_IN patients_NNS for_IN early_JJ biologic_NN treatment_NN ,_, will_MD improve_VB patients_NNS '_POS therapeutic_JJ response_NN to_TO treatment_NN ,_, their_PRP$ functional_JJ outcomes_NNS ,_, and_CC will_MD improve_VB cost-effectiveness_NN of_IN these_DT drugs_NNS avoiding_VBG unnecessary_JJ prescriptions_NNS ._.</t>
-  </si>
-  <si>
-    <t>Junior_JJ right-hander_NN Jose_NNP Macias_NNP (_( Bronx_NNP ,_, N.Y._NNP )_) threw_VBD a_DT no-hitter_NN on_IN Monday_NNP afternoon_NN to_TO lead_VB the_DT No_NNP ._. 14/20_CD nationally_RB ranked_VBN Franklin_NNP Pierce_NNP University_NNP baseball_NN team_NN to_TO an_DT 11-0_JJ victory_NN over_IN Saint_NNP Michael_NNP 's_POS in_IN neutral-site_JJ ,_, non-conference_JJ play_NN at_IN Santaluces_NNP Sports_NNP Complex_NNP ._. Earlier_RBR in_IN the_DT day_NN ,_, junior_JJ third_JJ baseman_NN Derek_NNP Ingui_NNP (_( Sterling_NNP ,_, Mass_NNP ._. )_) clubbed_VBD a_DT two-run_JJ home_NN run_NN as_IN the_DT Ravens_NNP rallied_VBD from_IN a_DT 4-2_JJ deficit_NN to_TO defeat_VB Nyack_NNP ,_, 5-4_JJ ._. With_IN the_DT wins_NNS ,_, Franklin_NNP Pierce_NNP improves_VBZ to_TO 9-1_CD (_( 0-0_JJ Northeast-10_NNP )_) and_CC extends_VBZ its_PRP$ winning_VBG streak_NN to_TO six_CD games_NNS ._. In_IN the_DT second_JJ game_NN of_IN the_DT day_NN ,_, Franklin_NNP Pierce_NNP scored_VBD the_DT only_JJ two_CD runs_NNS it_PRP would_MD need_VB in_IN the_DT bottom_NN of_IN the_DT first_JJ inning_NN ._. With_IN two_CD outs_NNS ,_, junior_JJ left_VBD fielder_NN Mike_NNP Munoz_NNP (_( Bronx_NNP ,_, N.Y._NNP )_) reached_VBD on_IN a_DT single_JJ and_CC immediately_RB came_VBD around_IN to_TO score_VB on_IN a_DT double_JJ by_IN senior_JJ right_JJ fielder_NN Phil_NNP Hendricks_NNP (_( Pittsfield_NNP ,_, Maine_NNP )_) ._. Hendricks_NNP in_IN turn_NN scored_VBN on_IN an_DT RBI_NNP single_JJ by_IN graduate_NN student_NN first_RB baseman_VBZ Mike_NNP Augustine_NNP (_( Kingston_NNP ,_, N.Y._NNP )_) ._. Later_RBR in_IN the_DT game_NN ,_, Franklin_NNP Pierce_NNP would_MD score_VB three_CD runs_NNS in_IN the_DT fifth_NN ,_, two_CD in_IN the_DT sixth_JJ and_CC four_CD in_IN the_DT seventh_JJ to_TO create_VB the_DT 11-0_JJ final_JJ ._. Munoz_NNP knocked_VBD a_DT two-run_JJ single_JJ in_IN the_DT fifth_NN ,_, while_IN Ingui_NNP drove_VBD home_NN a_DT run_NN with_IN a_DT single_JJ in_IN the_DT sixth_JJ ._. In_IN the_DT seventh_JJ ,_, freshman_JJ center_NN fielder_NN Nick_NNP LaCroix_NNP (_( Grafton_NNP ,_, Mass_NNP ._. )_) had_VBD an_DT RBI_NNP single_JJ ,_, freshman_JJ shortstop_JJ Dan_NNP Kemp_NNP (_( Sturbridge_NNP ,_, Mass_NNP ._. )_) clubbed_VBD a_DT run-scoring_JJ double_NN and_CC senior_JJ second_JJ baseman_NN Cody_NNP Kauffman_NNP (_( Blue_NNP Bell_NNP ,_, Pa._NNP )_) hit_VBD an_DT RBI_NNP single_JJ as_IN part_NN of_IN the_DT four-run_JJ inning_NN ._. Meanwhile_RB ,_, Macias_NNP was_VBD sparkling_VBG on_IN the_DT mound_NN for_IN Franklin_NNP Pierce_NNP ._. He_PRP allowed_VBD only_RB three_CD baserunners_NNS on_IN a_DT first-inning_JJ error_NN and_CC both_DT a_DT hit_NN batsman_NN and_CC a_DT walk_NN in_IN the_DT second_JJ ._. Thanks_NNS to_TO a_DT pickoff_NN ,_, he_PRP faced_VBD 29_CD batters_NNS ,_, only_RB two_CD over_IN the_DT minimum_JJ ,_, during_IN the_DT game_NN ,_, issued_VBD one_CD walk_NN and_CC struck_VBD out_RP 12_CD ._. He_PRP struck_VBD out_RP the_DT side_NN in_IN order_NN in_IN the_DT fifth_NN as_IN part_NN of_IN five_CD consecutive_JJ strikeouts_NNS and_CC later_RB struck_VBD out_RP five_CD of_IN the_DT final_JJ eight_CD batters_NNS of_IN the_DT game_NN ._. It_PRP was_VBD the_DT sixth_JJ no-hitter_NN in_IN Franklin_NNP Pierce_NNP history_NN ,_, as_RB well_RB as_IN the_DT fourth_JJ thrown_VBN by_IN the_DT Ravens_NNP against_IN Division_NNP II_NNP competition_NN ._. It_PRP marks_VBZ the_DT third_JJ no-hitter_JJ in_IN four_CD years_NNS for_IN the_DT Ravens_NNP and_CC the_DT second_JJ year_NN in_IN a_DT row_NN with_IN a_DT no-no_JJ for_IN the_DT program_NN ._. Last_JJ season_NN ,_, Mike_NNP Adams_NNP and_CC Kyle_NNP Vazquez_NNP combined_VBD to_TO throw_VB a_DT no-hitter_NN for_IN Franklin_NNP Pierce_NNP at_IN Dowling_NNP on_IN Feb._NNP 21_CD ._. Before_IN that_DT ,_, Andrew_NNP McNulty_NNP did_VBD the_DT deed_NN against_IN Bloomfield_NNP on_IN March_NNP 16_CD ,_, 2007_CD ._. Senior_JJ right-hander_NN Mike_NNP Robert_NNP started_VBD on_IN the_DT hill_NN and_CC took_VBD the_DT loss_NN (_( 0-1_JJ )_) for_IN Saint_NNP Michael_NNP 's_POS ._. Over_IN 5.1_CD innings_NNS ,_, he_PRP was_VBD touched_VBN up_RP for_IN six_CD runs_NNS on_IN eight_CD hits_NNS and_CC issued_VBD a_DT pair_NN of_IN walks_NNS ._. In_IN the_DT first_JJ game_NN of_IN the_DT day_NN ,_, Franklin_NNP Pierce_NNP found_VBD itself_PRP trailing_VBG 4-2_JJ heading_NN into_IN the_DT seventh_JJ inning_NN ._. Kauffman_NNP led_VBD off_RP the_DT inning_NN and_CC started_VBD the_DT rally_NN off_RP by_IN working_VBG a_DT walk_NN ._. Ingui_NNP followed_VBD and_CC drilled_VBD a_DT two-run_JJ ,_, game-tying_JJ home_NN run_NN ,_, his_PRP$ first_JJ round-tripper_NN of_IN the_DT season_NN ._. Sophomore_NNP catcher_NN Mike_NNP Dowd_NNP (_( East_NNP Bridgewater_NNP ,_, Mass_NNP ._. )_) followed_VBD ,_, was_VBD hit_VBN by_IN a_DT pitch_NN and_CC moved_VBD around_RB to_TO third_VB while_IN Munoz_NNP reached_VBD on_IN an_DT error_NN ._. Dowd_NNP would_MD then_RB score_VB the_DT eventual_JJ game-winning_JJ run_NN on_IN a_DT sacrifice_NN fly_NN by_IN Hendricks_NNP ._. After_IN freshman_JJ right-hander_NN Rob_NNP Blanc_NNP (_( Sandy_NNP Hook_NNP ,_, Conn._NNP )_) worked_VBD a_DT scoreless_NN eighth_JJ inning_NN to_TO run_VB his_PRP$ relief_NN appearance_NN to_TO 2.2_CD shutout_NN innings_NNS ,_, junior_JJ right-hander_NN Rob_NNP Nicholas_NNP (_( Southborough_NNP ,_, Mass_NNP ._. )_) pitched_VBD a_DT 1-2-3_JJ ninth_NN to_TO chalk_VB up_RP his_PRP$ third_JJ save_NN of_IN the_DT season_NN ._. Senior_JJ right-hander_JJ Heath_NNP Wasylow_NNP (_( Rehoboth_NNP ,_, Mass_NNP ._. )_) started_VBD on_IN the_DT hill_NN and_CC did_VBD not_RB factor_NN in_IN the_DT decision_NN for_IN Franklin_NNP Pierce_NNP in_IN the_DT first_JJ game_NN ._. Over_IN 5.1_CD innings_NNS ,_, he_PRP allowed_VBD four_CD runs_NNS on_IN eight_CD hits_NNS ,_, did_VBD not_RB issue_VB a_DT walk_NN and_CC struck_VBD out_RP five_CD ._. Blanc_NN picked_VBD up_RP the_DT win_NN (_( 1-0_JJ )_) in_IN relief_NN ,_, as_IN he_PRP allowed_VBD three_CD hits_NNS and_CC one_CD walk_NN over_IN his_PRP$ 2.2_CD innings_NNS ._. Sophomore_NNP Kevin_NNP Earlie_NNP went_VBD the_DT distance_NN on_IN the_DT mound_NN and_CC took_VBD the_DT loss_NN for_IN Nyack_NNP ._. The_DT Ravens_NNPS return_NN to_TO the_DT field_NN on_IN Tuesday_NNP ,_, March_NNP 16_CD ,_, when_WRB they_PRP travel_VBP to_TO Nova_NNP Southeastern_NNP for_IN a_DT non-conference_JJ contest_NN ._. First_NNP pitch_NN is_VBZ scheduled_VBN for_IN 6_CD p.m._NN at_IN NSU_NNP Baseball_NNP Complex_NNP in_IN Fort_NNP Lauderdale_NNP ,_, Fla_NNP ._.</t>
-  </si>
-  <si>
-    <t>the_DT job_NN entails_VBZ responsibility_NN ,_, sacrifice_NN and_CC phenomenal_JJ communication_NN skills_NNS ._. Being_VBG a_DT leader_NN comes_VBZ in_IN handy_JJ from_IN life_NN 's_POS smallest_JJS events_NNS ,_, from_IN organizing_VBG playground_NN games_NNS in_IN elementary_JJ school_NN ,_, to_TO grand_JJ events_NNS when_WRB you_PRP 're_VBP older_JJR ._. Some_DT people_NNS are_VBP natural_JJ leaders_NNS ,_, some_DT are_VBP quiet_JJ ,_, wise_JJ leaders_NNS ,_, some_DT are_VBP charismatic_JJ and_CC others_NNS have_VBP the_DT ability_NN to_TO persuade_VB and_CC lead_JJ people_NNS ._. However_RB ,_, these_DT characteristics_NNS aside_RB ,_, I_PRP think_VBP what_WP sets_VBZ apart_RB a_DT good_JJ leader_NN from_IN a_DT great_JJ one_CD is_VBZ vision_NN ._.</t>
-  </si>
-  <si>
-    <t>At_IN nearly_RB 19_CD feet_NNS long_JJ and_CC dripping_VBG with_IN what_WP seems_VBZ like_IN 500_CD pounds_NNS of_IN chrome_NN ,_, the_DT Cadillac_NNP Escalade_NNP ESV_NNP Platinum_NNP is_VBZ the_DT biggest_JJS ,_, glitziest_JJS ,_, most_RBS conspicuously_RB consumptive_JJ vehicle_NN in_IN General_NNP Motors_NNPS ’_NNP lineup_NN ._. The_DT stretched_JJ ESV_NNP variant_NN is_VBZ almost_RB 20_CD inches_NNS longer_JJR than_IN the_DT regular_JJ Escalade_NNP ,_, with_IN the_DT range-topping_JJ Platinum_NNP package_NN (_( available_JJ on_IN both_DT lengths_NNS )_) adding_VBG a_DT new_JJ CTS-inspired_JJ grille_NN and_CC front_JJ fascia_NN ,_, along_IN with_IN super-bright_NN LED_NNP headlights_NNS and_CC unique_JJ 22-inch_JJ wheels_NNS ._.</t>
-  </si>
-  <si>
-    <t>We_PRP were_VBD shocked_VBN to_TO see_VB that_DT accident_NN of_IN our_PRP$ new_JJ vehicle_NN ,_, which_WDT we_PRP came_VBD to_TO take_VB our_PRP$ home_NN ._. We_PRP were_VBD emotionally_RB hurt_VBN by_IN this_DT incident_NN ._. Immediately_RB ,_, we_PRP rushed_VBD to_TO the_DT Sales_NNS Manager_NNP of_IN BIMAL_NNP ,_, Mr.Dhanraj_NNP ._. Since_IN ,_, he_PRP was_VBD not_RB available_JJ in_IN the_DT showroom_NN one_CD of_IN his_PRP$ executive_NN connected_VBD us_PRP over_IN the_DT phone_NN to_TO talk_VB to_TO him_PRP ._. We_PRP narrated_VBD the_DT whole_JJ incident_NN to_TO Mr.Dhanraj_NNP ._. He_PRP started_VBD shouting_VBG at_IN us_PRP and_CC asked_VBD to_TO get_VB out_IN of_IN the_DT showroom_NN taking_VBG the_DT same_JJ vehicle_NN in_IN the_DT same_JJ condition_NN ._. Giving_VBG the_DT reason_NN that_IN the_DT ownership_NN of_IN the_DT vehicle_NN is_VBZ being_VBG transferred_VBN by_IN making_VBG registration_NN of_IN the_DT vehicle_NN ,_, Mr.Dhanraj_NNP told_VBD that_IN he_PRP is_VBZ no_DT more_RBR responsible_JJ for_IN anything_NN that_DT happened_VBD ._. When_WRB we_PRP requested_VBD him_PRP to_TO come_VB to_TO the_DT spot_NN and_CC rectify_VB the_DT problem_NN ,_, he_PRP started_VBD abusing_VBG us_PRP telling_VBG that_IN he_PRP is_VBZ having_VBG a_DT family_NN and_CC not_RB to_TO disturb_VB him_PRP on_IN his_PRP$ holiday_NN ._. We_PRP tried_VBD calling_VBG him_PRP again_RB and_CC again_RB ,_, he_PRP did_VBD not_RB respond_VB to_TO our_PRP$ call_NN ._. Further_NNP ,_, a_DT tedious_JJ struggle_NN began_VBD to_TO reach_VB some_DT other_JJ senior_JJ officers_NNS of_IN BIMAL_NNP Auto_NNP Agency_NNP ,_, but_CC none_NN of_IN the_DT executives_NNS gave_VBD any_DT information_NN about_IN their_PRP$ seniors_NNS ._.</t>
-  </si>
-  <si>
-    <t>Sometime_RB in_IN December_NNP I_PRP decided_VBD to_TO find_VB out_RP how_WRB long_JJ it_PRP would_MD take_VB to_TO put_VB together_RB a_DT set_NN by_IN simply_RB buying_VBG wax_NN packs_NNS ._. Of_IN course_NN ,_, the_DT holidays_NNS were_VBD fast_RB approaching_JJ ,_, so_RB this_DT became_VBD a_DT project_NN for_IN after_IN the_DT madness_NN passed_VBD ._. And_CC now_RB here_RB we_PRP are_VBP ._. A_NNP few_JJ days_NNS ago_RB ,_, I_PRP put_VBD out_RP a_DT message_NN on_IN Facebook/Twitter_NNP asking_VBG for_IN help_NN :_: Which_JJ set_NN should_MD I_PRP put_VB together_RB ?_. The_DT choices_NNS were_VBD 1981_CD Fleer_NNP ,_, 1990_CD Topps_NNP ,_, 1991_CD Topps_NNP ,_, 1992_CD Upper_NNP Deck_NNP ,_, 1994_CD Fleer_NNP ,_, and_CC a_DT random_JJ 1980s_CD Topps_NNP sticker_NN set_NN ._. I_PRP got_VBD a_DT lot_NN of_IN response_NN ,_, mostly_RB choosing_VBG a_DT sticker_NN set_VBN (_( 5_CD votes_NNS )_) ,_, 1981_CD Fleer_NNP (_( 2_CD votes_NNS )_) ,_, or_CC 1990_CD Topps_NNP (_( 2_CD votes_NNS )_) ._. After_IN much_JJ deliberation_NN ,_, here_RB 's_VBZ the_DT set_NN I_PRP 'll_MD be_VB aiming_VBG to_TO complete_VB :_: 1982_CD Topps_NNP Stickers_NNPS ._. I_PRP chose_VBD 1982_CD because_IN of_IN the_DT availability_NN of_IN unopened_JJ sticker_NN packs_NNS and_CC unused_JJ sticker_NN albums_NNS ._. After_IN I_PRP complete_VBP the_DT sticker_NN album_NN ,_, I_PRP will_MD attempt_VB to_TO complete_VB 1991_CD Topps_NNP ,_, a_DT set_NN I_PRP never_RB liked_VBD and_CC never_RB bought_VBD when_WRB it_PRP came_VBD out_RP ._. After_IN 1991_CD Topps_NNP ,_, who_WP knows_VBZ ._. Here_RB are_VBP the_DT rules_NNS :_: No_DT trading_NN ._. No_UH buying_NN of_IN opened_JJ lots_NNS on_IN eBay_NN ._. I_PRP will_MD only_RB buy_VB packs_NNS ._. I_PRP also_RB plan_VBP on_IN tracking_VBG sticker/card_NN sequencing_VBG in_IN packs_NNS ._. I_PRP will_MD then_RB fill_VB in_IN each_DT page_NN of_IN the_DT sticker_NN album_NN as_IN best_JJS I_PRP can_MD ._. I_PRP still_RB have_VBP n't_RB figured_VBN out_RP what_WP to_TO do_VB with_IN the_DT sticker_NN doubles_VBZ ,_, but_CC I_PRP think_VBP some_DT sort_NN of_IN public_JJ art_NN around_IN Boston_NNP will_MD be_VB on_IN tap_NN ._.</t>
-  </si>
-  <si>
-    <t>Coming_VBG from_IN a_DT warm_JJ country_NN ,_, the_DT slight_NN chilly_RB San_NNP Francisco_NNP air_NN was_VBD already_RB freezing_VBG me_PRP ._. Good_JJ thing_NN I_PRP have_VBP a_DT comfortable_JJ room_NN with_IN a_DT soft_JJ bed_NN and_CC plenty_NN of_IN pillows_NNS that_WDT warmed_VBD me_PRP during_IN the_DT night_NN ._.</t>
-  </si>
-  <si>
-    <t>Windows_NNP Phone_NNP 7_CD Series_NNP ._. Get_NNP used_VBD to_TO the_DT name_NN ,_, because_IN it_PRP 's_VBZ now_RB a_DT part_NN of_IN the_DT smartphone_NN vernacular_NN ..._: however_RB verbose_IN it_PRP may_MD seem_VB ._. Today_NNP Microsoft_NNP launches_VBZ one_CD of_IN its_PRP$ most_RBS ambitious_JJ (_( if_IN not_RB most_JJS ambitious_JJ )_) projects_NNS :_: the_DT rebranding_NN of_IN Windows_NNP Mobile_NNP ._. The_DT company_NN is_VBZ introducing_VBG the_DT new_JJ mobile_JJ OS_NN at_IN Mobile_NNP World_NNP Congress_NNP 2010_CD ,_, in_IN Barcelona_NNP ,_, and_CC if_IN the_DT press_NN is_VBZ anything_NN to_TO be_VB believed_VBN ,_, this_DT is_VBZ just_RB the_DT beginning_NN ._. The_DT phone_NN operating_VBG system_NN does_VBZ away_RB with_IN pretty_RB much_JJ every_DT scrap_NN of_IN previous_JJ mobile_JJ efforts_NNS from_IN Microsoft_NNP ,_, from_IN the_DT look_NN and_CC feel_VB down_RB to_TO the_DT underlying_JJ code_NN --_: everything_NN is_VBZ brand_NN new_JJ ._. 7_CD Series_NN has_VBZ rebuilt_VBN Windows_NNP Mobile_NNP from_IN the_DT ground_NN up_RB ,_, featuring_VBG a_DT completely_RB altered_VBN home_NN screen_NN and_CC user_JJ interface_NN experience_NN ,_, robust_JJ Xbox_NNP LIVE_NNP and_CC Zune_NNP integration_NN ,_, and_CC vastly_RB new_JJ and_CC improved_VBN social_JJ networking_NN tools_NNS ._. Gone_NN is_VBZ the_DT familiar_JJ Start_NNP screen_NN ,_, now_RB replaced_VBN with_IN ``_`` tiles_NNS ''_'' which_WDT scroll_VBP vertically_RB and_CC can_MD be_VB customized_VBN as_IN quick_JJ launches_NNS ,_, links_NNS to_TO contacts_NNS ,_, or_CC self_PRP contained_VBN widgets_NNS ._. The_DT look_NN of_IN the_DT OS_NNP has_VBZ also_RB been_VBN radically_RB upended_JJ ,_, mirroring_VBG the_DT Zune_NNP HD_NNP experience_NN closely_RB ,_, replete_JJ with_IN that_DT large_JJ ,_, iconic_JJ text_NN for_IN menus_NN ,_, and_CC content_NN transitions_NNS which_WDT elegantly_RB (_( and_CC dimensionally_RB )_) slide_VB a_DT user_NN into_IN and_CC out_IN of_IN different_JJ views_NNS ._. The_DT OS_NNP is_VBZ also_RB heavily_RB focused_VBN on_IN social_JJ networking_NN ,_, providing_VBG integrated_VBN contact_NN pages_NNS which_WDT show_VBP status_NN updates_NNS from_IN multiple_JJ services_NNS and_CC allow_VB fast_RB jumps_NNS to_TO richer_VB cloud_JJ content_NN (_( such_JJ as_IN photo_NN galleries_NNS )_) ._. The_DT Xbox_NNP integration_NN will_MD include_VB LIVE_NNP games_NNS ,_, avatars_NNS ,_, and_CC profiles_NNS ,_, while_IN the_DT Zune_NNP end_NN of_IN things_NNS appears_VBZ to_TO be_VB a_DT carbon_NN copy_NN of_IN the_DT standalone_NN device_NN 's_POS features_NNS (_( including_VBG FM_NNP radio_NN )_) ._. Besides_NNP just_RB flipping_VBG the_DT script_NN on_IN the_DT brand_NN ,_, the_DT company_NN seems_VBZ to_TO be_VB taking_VBG a_DT much_RB more_RBR vertical_JJ approach_NN with_IN hardware_NN and_CC user_JJ experience_NN ,_, dictating_VBG rigid_JJ specs_NN for_IN 7_CD Series_NNS devices_NNS (_( a_DT specific_NN CPU_NNP and_CC speed_NN ,_, screen_JJ aspect_NN ratio_NN and_CC resolution_NN ,_, memory_NN ,_, and_CC even_RB button_VB configuration_NN )_) ,_, and_CC doing_VBG away_RB with_IN carrier_NN or_CC partner_NN UI_JJ customizations_NNS such_JJ as_IN Sense_NN or_CC TouchWiz_NNP ._. That_DT 's_VBZ right_JJ --_: there_EX will_MD be_VB a_DT single_JJ Windows_NNP Phone_NNP identity_NN regardless_NN of_IN carrier_NN or_CC device_NN brand_NN ._. Those_DT new_JJ phones_NNS will_MD likely_RB look_VB similar_JJ at_IN first_JJ ,_, featuring_VBG a_DT high_JJ res_NNS touchscreen_VBP ,_, three_CD front-facing_JJ buttons_NNS (_( back_RB ,_, start_NN ,_, and_CC perhaps_RB not_RB shockingly_RB ,_, a_DT Bing_NNP key_NN )_) ,_, and_CC little_JJ else_RB ._. Carrier_NNP partnerships_NNS are_VBP far_RB and_CC wide_JJ ,_, including_VBG AT_NNP &amp;_CC T_NNP ,_, Deutsche_NNP Telekom_NNP AG_NNP ,_, Orange_NNP ,_, SFR_NNP ,_, Sprint_NNP ,_, Telecom_NNP Italia_NNP ,_, Telefónica_NNP ,_, Telstra_NNP ,_, T-Mobile_NNP USA_NNP ,_, Verizon_NNP Wireless_NNP and_CC Vodafone_NNP ,_, while_IN hardware_JJ partners_NNS include_VBP Dell_NNP ,_, Garmin-Asus_NNP ,_, HTC_NNP ,_, HP_NNP ,_, LG_NNP ,_, Samsung_NNP ,_, Sony_NNP Ericsson_NNP ,_, Toshiba_NNP and_CC Qualcomm_NNP ._. We_PRP 're_VBP told_VBD that_IN we_PRP likely_RB wo_MD n't_RB get_VB to_TO see_VB any_DT third-party_JJ devices_NNS at_IN MWC_NNP ,_, though_IN Microsoft_NNP is_VBZ showing_VBG off_RP dev_JJ units_NNS of_IN unknown_JJ origin_NN ,_, and_CC the_DT first_JJ handsets_NNS are_VBP supposed_VBN to_TO hit_VB the_DT market_NN by_IN the_DT holidays_NNS of_IN this_DT year_NN ._.</t>
-  </si>
-  <si>
-    <t>hiiiiii_NN ..._: orite_RB ..._: .ppl_NN ..._: .lisen_VBZ up_RP ..._: Till_NNP date_NN I_PRP ve_VBP nt_RB been_VBN able_JJ to_TO write_VB him_PRP a_DT testi_NN as_IN i_JJ jst_VBP cud_NN nt_NN get_VBP hold_NN of_IN enough_JJ bad_JJ words_NNS to_TO fill_VB d_JJ page_NN ..._: ..._: Bt_NNP tod_IN wen_NN I_PRP think_VBP of_IN writin_NNS abt_IN him_PRP i_VB can_MD not_RB get_VB myself_PRP to_TO write_VB anythin_JJ bad_JJ abt_NN him_PRP as_IN hez_NN ..._: ..._: ..._: ..._: ..a_RB wonderful_JJ frnd.._NN Tis_NNP Person_NNP !_. !_. !_. nt_JJ esy_NN to_TO explain_VB ._. bt_NN i_NN 'll_MD try_VB hmm_NN ..._: .He_JJ njoys_JJ hz_NN lyf_VBZ a_DT lot_NN n_JJ mks_NN ppl_NN arnd_VBD him_PRP so_RB cmfrtble_JJ tat_NN u_JJ realy_NN lyk_NN to_TO b_VB arnd_NN ..._: Hez_NNP cool_NN ,_, full_JJ of_IN humour_JJ n_NNS relly_RB no_DT one_NN can_MD feel_VB bore_RB in_IN his_PRP$ cmpny_NN ..._: ._. all_DT i_NN can_MD say_VB s_JJ hez_PDT a_DT very_RB humble_JJ person_NN ,_, really_RB supportive_JJ ,_, generous_JJ n_FW a_DT beautiful_JJ human_JJ being_VBG ..._: ._. darling_NN ..._: ..._: ._. cute_NN ..._: ..._: sveeet_NN ..._: ..._: nyc_NN ..._: luvin_NN ..._: dese_JJ oll_NN r_VB his_PRP$ qualitiess_NN ..._: veneva_NN u_JJ need_VBP him_PRP ..._: he_PRP 'll_MD nver_RB b_VB dere_RB ..._: .lolz_NN ..._: js_NN kiddin.._NN hez_VBD a_DT vry_NN fun_NN lvng_NN guy_NN n_NN has_VBZ a_DT gr8_JJ sense_NN of_IN humor_NN ..._: ..._: hes_VBZ definetely_RB sweeeet_JJ ..._: n_RB protective_VBP ..._: .._JJ n_JJ luvs_NN his_PRP$ girl_NN a_DT lot_NN (_( dass_IN the_DT cutest_JJS part_NN )_) ..oo_NN ..._: he_PRP he…_VBD I_PRP ll_VBP never_RB forget_VB my_PRP$ days_NNS wit_VBP u…_JJ lots_NNS of_IN fun.._JJ tis_NN creature_NN s_VBZ really_RB a_DT chatterbox.._NN nvr_NN stops.._NN always_RB keep_VB smiling_VBG baby_NN ..._: lots_NNS luv_VBP ..._:</t>
-  </si>
-  <si>
-    <t>Yes_UH ,_, you_PRP read_VBP it_PRP right_RB ,_, unusual_JJ things_NNS happening_VBG today.Like_IN am_VBP posting_VBG more_JJR than_IN a_DT post_NN on_IN same_JJ day_NN in_IN an_DT otherwise_RB very_RB much_JJ inactive_JJ blog_NN ,_, i_NN also_RB did_VBD a_DT trek_NN to_TO Skandagiri_NNP ._. (_( Kalavaarahalli_NNP betta_NN )_) It_PRP was_VBD all_DT decided_VBD on_IN a_DT conf_NN call_NN on_IN thursday_JJ night_NN ._. Friday_NNP night_NN 9_CD pm_NN :_: -_: Dinesh_NN picked_VBD me_PRP and_CC we_PRP were_VBD heading_VBG to_TO Praveen_NNP place_NN at_IN nagawara_NN and_CC went_VBD to_TO Praveen_NNP ’_NNP s_VBD place.Raj_NN joined_VBD as_IN around_IN 1030_CD ._. We_PRP were_VBD chatting_VBG till_NN 1230_CD at_IN his_PRP$ place_NN and_CC then_RB started_VBD ._. The_DT road_NN going_VBG towards_NNS airport_NN was_VBD awesome_JJ ._. Dinesh_NNP frequently_RB touched_VBD 87_CD and_CC occasionally_RB 90+_CD ._. Then_RB we_PRP had_VBD a_DT break_NN just_RB before_IN Airport_NNP flyover_NN and_CC had_VBD tea_NN ._. Started_VBN around_IN 2:45_CD from_IN there_EX and_CC started_VBD towards_NNS ChikBallapur_NNP ._. The_DT road_NN wasnt_NN that_WDT great_JJ as_IN it_PRP was_VBD from_IN Hebbal_NNP flyover_NN till_NN Airport_NNP Flyover.Steadily_NNP went_VBD in_IN 40-50_JJ and_CC reached_VBD the_DT town_NN of_IN ChikBallapur_NNP around_IN 330_CD ._. [_NN We_PRP were_VBD assisted_VBN by_IN Google_NNP Maps_NNP to_TO reach_VB ChikBallapur_NNP ,_, For_IN those_DT who_WP dont_VBP have_VBP ,_, just_RB go_VB straight_RB on_IN NH7_NNP and_CC after_IN Devenahalli_NNP untill_NN you_PRP cross_VBP 3rd_CD level_NN crossing_NN ,_, you_PRP reach_VBP ChikBallapur_JJ ]_IN We_PRP struggled_VBD which_WDT way_NN to_TO go_VB to_TO reach_VB the_DT downhill_NN from_IN there_RB ._. Different_JJ people_NNS had_VBD different_JJ answers_NNS and_CC we_PRP dont_VBP know_JJ whom_WP to_TO believe.Worse_VB is_VBZ more_JJR than_IN half_NN of_IN them_PRP dont_VBP know_VB that_DT such_PDT a_DT place_NN exist_NN ._. Finally_RB we_PRP reached_VBD the_DT downhill_NN at_IN 4_CD ._. There_EX we_PRP need_VBP to_TO register_VB for_IN forest_JJ entry_NN and_CC optionally_RB take_VB a_DT guide_NN (_( 200_CD Rs_NNP )_) ._. From_IN then_RB on_IN its_PRP$ walk_NN walk_NN walk_NN ._. Initial_JJ enthusiasm_NN lasted_VBD till_RB 530_CD am_VBP and_CC after_IN that_DT i_NN was_VBD like_IN tired_JJ ._. We_PRP sat_VBD and_CC had_VBD snacks_NNS we_PRP had_VBD taken_VBN ,_, glucose_JJ and_CC continued_JJ ._. Finally_RB reached_VBD the_DT peak_NN at_IN 615_CD am_VBP looking_VBG for_IN sunrise_NN ._. But_CC sun_NN was_VBD late_JJ and_CC didnt_JJ come_NN till_NN even_RB 740_CD ._. We_PRP had_VBD nice_JJ photo_NN sessions_NNS and_CC were_VBD chatting.Photos_NNS to_TO be_VB uploaded_JJ soon_RB to_TO my_PRP$ picasaweb_NN ._. It_PRP was_VBD a_DT well_RB needed_VBN rest_NN i_NN must_MD say_VB and_CC the_DT climate_NN was_VBD awesome.Wind_NN was_VBD very_RB strong.Completed_JJ all_PDT that_IN we_PRP had_VBD bought_VBN and_CC were_VBD reluctantly_RB started_VBN moving_VBG down_RB ._. Moving_VBG down_RP was_VBD little_JJ bit_NN of_IN tough_JJ task_NN as_IN the_DT fog_NN had_VBD settled_VBN in_IN and_CC made_VBD the_DT rocks_NNS slippery_NN ._. Yours_CC truly_RB slipped_VBD at_IN lot_NN of_IN places_NNS and_CC at_IN one_CD place_NN was_VBD saved_VBN by_IN dinesh_NN who_WP had_VBD slipped_VBN just_RB before_IN me_PRP and_CC was_VBD in_IN a_DT position_NN to_TO reach_VB me_PRP easily_RB ._. Then_RB we_PRP moved_VBD down_RB slowly_RB and_CC finally_RB reached_VBN at_IN 915_CD ._.</t>
-  </si>
-  <si>
-    <t>Dear_NNP Mom_NNP ,_, Mental_NNP illness_NN runs_VBZ in_IN our_PRP$ family_NN ._. You_PRP mom_VBP ,_, Dianne_NNP was_VBD Bipolar_NNP ._. Her_PRP$ mom_NN was_VBD clinically_RB depressed_JJ and_CC stoned_VBD constantly_RB ._. Her_PRP$ husband_NN ,_, or_CC your_PRP$ grandpa_NN was_VBD also_RB Bipolar_NNP ._. Me_NNP ,_, though_RB have_VBP not_RB yet_RB had_VBD a_DT therapist_NN tell_IN me_PRP I_PRP have_VBP a_DT disorder_NN ._. Knock_NNP on_IN wood_NN ._. I_PRP could_MD never_RB wrap_VB my_PRP$ mind_NN around_IN your_PRP$ illness_NN ,_, but_CC now_RB I_PRP can_MD recognize_VB it_PRP more_RBR clearly_RB ._. You_PRP always_RB told_VBD me_PRP about_IN mental_JJ illness_NN ,_, but_CC I_PRP never_RB understood_VBD yours_NNS ._. I_PRP remember_VBP coming_VBG home_NN from_IN school_NN ,_, and_CC trying_VBG to_TO talk_VB to_TO you_PRP ,_, but_CC you_PRP would_MD n't_RB respond_VB ,_, you_PRP would_MD just_RB sit_VB there_RB ._. Your_PRP$ eyes_NNS were_VBD angry.I_JJ asked_VBN why_WRB you_PRP were_VBD so_RB mad_JJ at_IN me_PRP ,_, and_CC you_PRP would_MD n't_RB say_VB a_DT word_NN ._. I_PRP never_RB knew_VBD ._. Then_RB you_PRP would_MD get_VB up_RB and_CC slam_JJ things_NNS like_IN doors_NNS ._. I_PRP shook_VBP every_DT time_NN you_PRP slammed_VBD a_DT door_NN ._. You_PRP would_MD take_VB glasses_NNS and_CC throw_VB them_PRP at_IN me_PRP ,_, and_CC I_PRP would_MD dodge_VB them_PRP ._. I_PRP remember_VBP the_DT day_NN one_CD hit_NN me_PRP ._. You_PRP were_VBD screaming_VBG at_IN your_PRP$ boyfriend_NN and_CC trying_VBG to_TO rip_VB out_RP your_PRP$ hair_NN ._. You_PRP were_VBD yelling_VBG and_CC hitting_VBG your_PRP$ self_NN with_IN your_PRP$ fists_NNS in_IN your_PRP$ head_NN ._. I_PRP begged_VBD you_PRP to_TO stop_VB ,_, I_PRP tried_VBD to_TO grab_VB your_PRP$ hands_NNS ,_, but_CC you_PRP would_MD just_RB get_VB madder_NN ._. I_PRP cried_VBD hysterically_RB ._. Your_PRP$ make_VBP up_RP was_VBD running_VBG all_DT down_IN your_PRP$ face_NN and_CC smears_NNS of_IN black_JJ and_CC red_JJ covered_VBD your_PRP$ face_NN ._. You_PRP told_VBD me_PRP to_TO leave_VB ,_, that_IN you_PRP hated_VBD me_PRP ,_, that_IN you_PRP did_VBD n't_RB want_VB me_PRP anymore_RB ._. This_DT probably_RB intended_VBN to_TO make_VB me_PRP stop_VB crying_NN ,_, made_VBD me_PRP cry_JJ harder_NN ._. You_PRP went_VBD to_TO the_DT wall_NN and_CC started_VBD banging_VBG on_IN it_PRP ._. You_PRP told_VBD your_PRP$ boyfriend_NN what_WP a_DT piece_NN of_IN shit_NN he_PRP was_VBD ._. You_PRP took_VBD the_DT light_JJ bulb_NN right_VBD out_IN of_IN the_DT lamp_NN and_CC threw_VBD it_PRP on_IN the_DT ground_NN ._. I_PRP yelled_VBD at_IN you_PRP to_TO stop_VB once_RB more_JJR ._. You_PRP walked_VBD into_IN the_DT kitchen_NN ,_, where_WRB I_PRP was_VBD standing_VBG and_CC grabbed_VBD a_DT glass_NN you_PRP threw_VBD it_PRP at_IN me_PRP ,_, but_CC missed_VBD and_CC hit_VBD the_DT window_NN ._. You_PRP turned_VBD around_IN and_CC I_PRP thought_VBD you_PRP were_VBD done_VBN but_CC then_RB you_PRP turned_VBD again_RB ,_, picked_VBD up_RP another_DT glass_NN and_CC threw_VBD it_PRP ._. I_PRP could_MD n't_RB dodge_VB that_DT one_CD ,_, and_CC it_PRP hit_VBD me_PRP in_IN the_DT neck_NN and_CC chin_NN and_CC fell_VBD to_TO the_DT ground_NN ,_, where_WRB it_PRP shattered_VBD ._. I_PRP broke_VBD down_RB and_CC fell_VBD to_TO the_DT ground_NN ,_, around_IN all_PDT the_DT glass_NN ._. That_DT 's_VBZ when_WRB you_PRP stood_VBP there_EX and_CC stared_VBD ._. Then_RB you_PRP walked_VBD away_RB and_CC left_VBD ._. You_PRP slammed_VBD the_DT door_NN again_RB ._. I_PRP laid_VBD on_IN the_DT floor_NN crying_NN and_CC your_PRP$ boyfriend_NN tried_VBD to_TO get_VB me_PRP to_TO stand_VB up_RP but_CC I_PRP would_MD n't_RB ._. I_PRP fell_VBD asleep_RB there_RB ._. When_WRB I_PRP woke_VBD up_RP I_PRP decided_VBD to_TO pick_VB up_RP the_DT mess_NN ._. I_PRP saw_VBD a_DT pool_NN of_IN blood_NN next_JJ to_TO the_DT light_JJ bulb_NN you_PRP had_VBD cracked_VBN earlier_RBR ._. When_WRB I_PRP went_VBD to_TO clean_VB it_PRP up_RP with_IN a_DT towel_NN I_PRP threw_VBD up_RP ._. I_PRP saw_VBD so_RB disgusted_JJ ._. I_PRP still_RB can_MD not_RB stomach_VB blood_NN ._. I_PRP finally_RB got_VBD myself_PRP together_RB and_CC finished_VBD the_DT mess_NN ._. You_PRP walked_VBD in_IN later_NN that_WDT night_NN and_CC left_VBD the_DT lights_NNS off_IN ._. I_PRP was_VBD in_IN my_PRP$ homemade_NN bed_NN on_IN the_DT floor_NN when_WRB you_PRP laid_VBP down_RB and_CC curled_VBD up_RP next_JJ to_TO me_PRP ._. I_PRP was_VBD awake_RB ,_, but_CC you_PRP did_VBD n't_RB know_VB that_DT ._. I_PRP could_MD smell_VB the_DT alcohol_NN on_IN your_PRP$ breathe_NN ,_, it_PRP was_VBD outrageous_JJ ._. I_PRP 'm_VBP almost_RB afraid_JJ to_TO say_VB that_IN I_PRP think_VBP your_PRP$ illness_NN raised_VBD me_PRP ._. Love_VB ,_, your_PRP$ daughter_NN ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ name_NN is_VBZ Ryan_NNP ._. I_PRP like_IN snowboarding_VBG ,_, hiking_VBG ,_, hunting_VBG ,_, fishing_NN ..._: well_RB anything_NN that_WDT is_VBZ outdoors_NNS ._. I_PRP am_VBP pretty_RB straight_JJ forward_RB ._. If_IN i_JJ am_VBP thinking_VBG something_NN i_NN am_VBP going_VBG to_TO tell_VB you_PRP ._. I_PRP joined_VBD the_DT military_JJ back_NN in_IN march_NN and_CC currently_RB doing_VBG job_NN training_NN for_IN the_DT next_JJ year_NN ._. I_PRP love_VBP what_WP my_PRP$ job_NN is_VBZ in_IN the_DT military_JJ ._. Thats_NNPS all_DT i_NN can_MD say_VB about_IN that_DT ._. If_IN there_EX is_VBZ anything_NN else_RB you_PRP want_VBP to_TO know_VB about_IN me_PRP just_RB ask_VB ._. Who_WP I_PRP 'd_MD like_VB to_TO meet_VB :_: I_PRP have_VBP all_PDT the_DT people_NNS in_IN my_PRP$ life_NN now_RB that_IN i_NN want_VBP ._. I_PRP just_RB wish_VBP i_NNS could_MD be_VB closer_JJR to_TO all_DT of_IN them_PRP ._.</t>
-  </si>
-  <si>
-    <t>I_PRP use_VBP all_DT of_IN hylands_NNS products_NNS !_. I_PRP love_VBP the_DT arnica_NN and_CC any_DT time_NN someone_NN is_VBZ hurt_VBN I_PRP give_VBP it_PRP to_TO them_PRP ._. I_PRP also_RB love_VBP the_DT fact_NN that_IN it_PRP is_VBZ safer_JJR than_IN name_NN brand_NN products_NNS you_PRP see_VBP in_IN the_DT store_NN ._. About_IN four_CD years_NNS ago_RB my_PRP$ daughter_NN fell_VBD and_CC hit_VBD a_DT sprinkler_NN so_RB hard_RB that_IN it_PRP snapped_VBD in_IN half_NN ._. My_PRP$ parents_NNS were_VBD going_VBG to_TO give_VB her_PRP$ tylenol_NN and_CC I_PRP said_VBD NO_UH !_. !_. The_DT bruise_NN was_VBD about_IN four_CD inches_NNS all_PDT the_DT way_NN around_IN ._. I_PRP had_VBD my_PRP$ mom_NN give_VB her_PRP$ arnica_NN tablets_NNS three_CD times_NNS a_DT day_NN and_CC then_RB apply_VB arnica_RB cream_NN to_TO the_DT bruise_NN in_IN the_DT morning_NN and_CC then_RB again_RB at_IN night_NN ._.</t>
-  </si>
-  <si>
-    <t>Here_RB in_IN Austin_NNP ,_, I_PRP just_RB finished_VBD introducing_VBG SparkHelp_NNP ,_, the_DT project_NN Mashable_NNP has_VBZ decided_VBN to_TO support_VB for_IN the_DT Pepsi_NNP Refresh_NNP SxSW_NNP Challenge_NNP ._. We_PRP ’_VBP re_JJ competing_VBG against_IN two_CD other_JJ teams_NNS over_IN the_DT next_JJ few_JJ days_NNS to_TO help_VB get_VB our_PRP$ idea_NN $_$ 50,000_CD in_IN funding_NN ,_, which_WDT will_MD help_VB make_VB it_PRP a_DT reality_NN ._. The_DT Project_NN After_IN lots_NNS of_IN great_JJ submissions_NNS from_IN our_PRP$ readers_NNS ,_, we_PRP settled_VBD on_IN SparkHelp_NNP ’_NNP s_NN simple_NN and_CC timely_JJ concept_NN that_IN we_PRP think_VBP stands_NNS to_TO make_VB a_DT huge_JJ social_JJ impact_NN with_IN the_DT resources_NNS of_IN Pepsi_NNP and_CC our_PRP$ support_NN ._. Here_RB ’_JJ s_VB how_WRB SparkHelp_NNP explains_VBZ their_PRP$ concept_NN :_: “_NN SparkHelp_NNP ’_NNP s_NN idea_NN is_VBZ to_TO encourage_VB local_JJ communities_NNS to_TO band_VB together_RB with_IN a_DT Foursquare_NNP (_( Foursquare_NNP )_) meets_NNS Craigslist_NNP (_( Craigslist_NNP )_) application_NN ._. The_DT idea_NN is_VBZ simple_JJ :_: anyone_NN can_MD place_VB a_DT call_NN for_IN help_NN and_CC anyone_NN can_MD answer_VB that_DT call_NN ._. Help_NN can_MD be_VB sought_VBN for_IN anything_NN :_: fence_NN repair_NN ,_, car_NN repair_NN ,_, computer_NN work_NN ,_, dog_NN walking_NN ,_, etc_FW ._. ”_NN</t>
-  </si>
-  <si>
-    <t>:_: :_: nesting_JJ newbies_NNS :_: :_: :_: :_: destined_VBN to_TO design_VB :_: :_: :_: :_: the_DT drifter_NN and_CC the_DT gypsy_NN :_: :_: :_: :_: sweet_JJ fine_JJ day_NN :_: :_: :_: :_: yatzer_NN :_: :_: ok_NN so_IN here_RB 's_VBZ the_DT real_JJ deal_NN ,_, I_PRP am_VBP obsessed_VBN with_IN my_PRP$ blogroll_NN !_. ok_NN ,_, not_RB the_DT literal_JJ roll_NN but_CC the_DT incredible_JJ blogs_NNS listed_VBN on_IN it_PRP !_. and_CC not_RB because_IN I_PRP think_VBP they_PRP are_VBP great_JJ but_CC because_IN I_PRP think_VBP they_PRP are_VBP great_JJ and_CC I_PRP enjoy_VBP them_PRP ,_, I_PRP am_VBP inspired_VBN by_IN them_PRP and_CC I_PRP happily_RB follow_VBP them_PRP daily_RB ._. my_PRP$ blogroll_NN is_VBZ not_RB just_RB a_DT place_NN to_TO share_NN what_WP I_PRP love_VBP to_TO read_VB with_IN you_PRP lovelies_NNS but_CC a_DT place_NN for_IN me_PRP to_TO actually_RB sort_VB out_RP what_WP I_PRP love_VBP to_TO read_VB ._. i_NNS have_VBP a_DT little_JJ method_JJ -_: I_PRP bookmark_VBP inspiring_VBG blogs_NNS and_CC sites_NNS and_CC then_RB update_VB my_PRP$ blogroll_NN every_DT few_JJ months_NNS so_RB I_PRP do_VBP n't_RB lose_VB them_PRP in_IN my_PRP$ -_: what_WP I_PRP thought_VBD was_VBD a_DT streamlined_JJ -_: bookmarking_NN system_NN ._. I_PRP realized_VBD a_DT few_JJ weeks_NNS ago_IN that_IN all_DT of_IN my_PRP$ bookmark_NN folders_NNS have_VBP ,_, oh_UH ,_, tons_NNS and_CC tons_NNS of_IN sites_NNS marked_VBN and_CC I_PRP can_MD (_( sadly_RB )_) lose_VBP track_NN of_IN what_WP I_PRP actually_RB bookmarked_VBD to_TO enjoy_VB ._. I_PRP just_RB updated_VBD my_PRP$ blogroll_NN (_( now_RB over_IN 165_CD sweet_JJ blogs_NNS and_CC sites_NNS )_) with_IN a_DT bunch_NN of_IN new_JJ fab_JJ additions_NNS and_CC wanted_VBD to_TO share_NN a_DT few_JJ with_IN you_PRP -_: they_PRP are_VBP lovely_RB !_. !_. enjoy_NN ,_, support_NN ,_, love_NN and_CC inspire_NN ._. nesting_JJ newbies_NNS :_: :_: new_JJ online_NN lifestyle_JJ magazine_NN run_VBN by_IN two_CD amazing_JJ women_NNS with_IN a_DT spread_NN of_IN food_NN ,_, entertaining_NN ,_, home_NN design_NN and_CC more_JJR ._. and_CC the_DT online_NN mag_NN has_VBZ streaming_VBG video_NN in_IN the_DT articles_NNS -_: super_NN creative_NN ._. destined_VBN to_TO design_VB :_: :_: an_DT la_NN gal_NN that_WDT is_VBZ inspired_VBN everyday_JJ and_CC shares_NNS it_PRP through_IN her_PRP$ lovely_JJ blog_NN ._. the_DT drifter_NN and_CC the_DT gypsy_NN :_: :_: the_DT sweet_JJ micaela_NN 's_POS blog_NN is_VBZ full_JJ of_IN design_NN ,_, photography_NN and_CC cool_JJ words_NNS ._. she_PRP also_RB happens_VBZ to_TO be_VB a_DT recent_JJ Blog_NNP Out_NNP Loud_NNP panelist_NN ._. sweet_JJ fine_JJ day_NN :_: :_: an_DT owner_NN of_IN a_DT confectionery_NN 's_POS blog_NN ?_. !_. yes_UH !_. sweet_NN ,_, pretty_RB and_CC lovely_RB photos_NNS to_TO boot_VB ._. yatzer_NN :_: :_: my_PRP$ new_JJ fave_JJ innovative_JJ and_CC eclectic_JJ ``_`` finger_NN on_IN the_DT pulse_NN ''_'' design_NN mag_VBD that_IN curates_VBZ cool_JJ stuff_NN ._. :_: :_: all_DT images_NNS from_IN their_PRP$ respective_JJ blogs_NNS :_: :_: last_JJ week_NN at_IN Blog_NNP Out_NNP Loud_NNP 5_CD ,_, one_CD of_IN the_DT lovely_JJ items_NNS in_IN our_PRP$ goodie_NN bags_NNS were_VBD cookies_NNS ,_, generously_RB donated_VBN from_IN Sweet_NNP Ambs_NNP ._. ok_NN ,_, people_NNS ,_, these_DT cookies_NNS are_VBP -seriously-_JJ gorgeous_JJ !_. I_PRP felt_VBD bad_JJ eating_VBG it_PRP (_( but_CC I_PRP did_VBD :_: )_) I_PRP especially_RB love_VBP the_DT cameo_NN cookie_NN and_CC was_VBD inspired_VBN to_TO pull_VB another_DT banquette_NN seating_VBG image_NN ,_, one_CD of_IN my_PRP$ fave_JJS small_JJ space_NN ideas_NNS ._. Spring_NN is_VBZ almost_RB here_RB and_CC I_PRP am_VBP so_RB excited_JJ for_IN sunny_JJ long_JJ days_NNS and_CC San_NNP Francisco_NNP fun_NN !_. :_: :_: cookies_NNS by_IN Sweet_NNP Ambs_NNP and_CC kitchen_VBN by_IN decorpad_NN :_: :_: it_PRP 's_VBZ such_JJ a_DT pretty_JJ day_NN in_IN San_NNP Francisco_NNP today_NN and_CC spring_NN is_VBZ on_IN it_PRP 's_VBZ way_NN !_. I_PRP have_VBP been_VBN thinking_VBG about_IN coral_JJ and_CC white_JJ -_: clean_NN ,_, romantic_JJ colors_NNS that_IN feel_VBP good_JJ all_PDT the_DT time_NN ._. I_PRP love_VBP this_DT striped_VBD pillow_NN from_IN Williams-Sonoma_NNP Home_NNP ._. Changing_VBG out_RP your_PRP$ throw_NN pillow_IN covers_NNS is_VBZ an_DT easy_JJ and_CC affordable_JJ way_NN to_TO change_VB the_DT entire_JJ vibe_NN of_IN your_PRP$ small_JJ space._NN &amp;_CC nbsp_NN ;_: Many_NNP of_IN us_PRP have_VBP family_NN heirlooms_NNS and_CC fond_NN knick_NN knacks_NNS in_IN our_PRP$ small_JJ spaces_NNS ._. I_PRP definitely_RB believe_VBP in_IN creating_VBG a_DT home_NN with_IN items_NNS that_WDT make_VBP you_PRP feel_VB good_JJ !_. Another_DT way_NN to_TO create_VB a_DT vibe_NN is_VBZ to_TO include_VB furniture_NN and_CC decor_NN that_WDT sparks_VBZ inspiration_NN ._. I_PRP am_VBP loving_VBG these_DT colorful_JJ side_NN tables_NNS with_IN vintage_NN cigar_NN vignettes_NNS ._. They_PRP remind_VBP me_PRP of_IN an_DT outdoor_JJ cafe_NN in_IN Paris_NNP !_. Oh_NNP la_FW la_NN !_. What_WP do_VBP you_PRP have_VB in_IN your_PRP$ small_JJ space_NN that_WDT creates_VBZ a_DT certain_JJ vibe_NN and/or_NN style_NN ?_. :_: :_: top_JJ image_NN via_IN Flickr/d'alk_NNP and_CC the_DT other_JJ two_CD by_IN me_PRP :_: :_: Looking_VBG forward_RB to_TO seeing_VBG you_PRP there_EX !_. !_. &amp;_CC nbsp_NN ;_: And_CC if_IN you_PRP want_VBP to_TO follow_VB us_PRP live_JJ ,_, you_PRP can_MD starting_VBG around_RB 7pm_CD PST_NNP !_. Just_NNP head_NN over_IN to_TO -_: twitter.com/blogoutloud_NN or_CC #_# blogoutloud_JJ Check_NNP out_IN the_DT BOL_NNP blog_NN tomorrow_NN for_IN photos_NNS and_CC recaps_NNS from_IN tonight_NN 's_POS event_NN !_. i_NN love_VBP that_DT line_NN in_IN the_DT Sex_NN and_CC the_DT City_NNP episode_NN when_WRB Carrie_NNP is_VBZ writing_VBG for_IN Vogue_NNP and_CC she_PRP makes_VBZ a_DT comment_NN about_IN not_RB ``_`` having_VBG a_DT {_( vague_JJ }_) idea_NN ''_'' ._. When_WRB I_PRP was_VBD about_RB in_IN my_PRP$ new_JJ city_NN ,_, I_PRP spotted_VBD this_DT neat_JJ backdrop_NN featuring_VBG vintage_NN Vogue_NNP covers_NNS and_CC had_VBD to_TO share_NN it_PRP with_IN you_PRP guys_VBP ._. How_WRB neat_JJ would_MD this_DT be_VB framed_VBN ,_, leaning_VBG against_IN a_DT wall_NN ?_. Or_CC hung_NN on_IN wall_NN as_IN a_DT backdrop_NN to_TO a_DT desk_NN area_NN ?_. I_PRP bet_VBP this_DT could_MD be_VB an_DT easy_JJ DIY_NNP too_RB ._. Just_NNP find_VB some_DT vintage_NN magazine_NN images_NNS and_CC make_VB your_PRP$ own_JJ collection_NN ._. Call_VB a_DT sign_NN company_NN and_CC see_VB how_WRB much_JJ it_PRP would_MD be_VB to_TO print_VB the_DT size_NN you_PRP need_VBP ._. Hmmm_NNP ,_, more_JJR to_TO come_VB on_IN this_DT one_NN in_IN my_PRP$ own_JJ small_JJ space_NN !_. &amp;_CC nbsp_RB ;_: like_IN many_JJ of_IN you_PRP ,_, I_PRP heart_NN target_NN !_. i_JJ get_VBP lost_VBN in_IN the_DT aisles_NNS of_IN goodies_NNS and_CC love_VB their_PRP$ designer_NN series_NN across_IN the_DT board_NN ._. plus_CC they_PRP have_VBP the_DT best_JJS pomegranate_NN scented_VBD candles_NNS -_: yes_UH !_. I_PRP just_RB spotted_VBD these_DT exclusive_JJ keys_NNS on_IN their_PRP$ site_NN ,_, thought_VBD they_PRP were_VBD super_JJ cute_NN and_CC wanted_VBD to_TO share_NN with_IN you_PRP guys_VBP ._. often_RB overlooked_JJ ,_, your_PRP$ key_JJ ring_NN is_VBZ your_PRP$ first_JJ step_NN into_IN your_PRP$ small_JJ space_NN so_RB add_VB a_DT key_JJ ring_NN that_WDT makes_VBZ you_PRP happy_JJ !_. &amp;_CC nbsp_JJ ;_: lately_RB I_PRP 've_VBP been_VBN seeing_VBG a_DT new_JJ crop_NN of_IN x-benches_NNS popping_VBG up_RP with_IN a_DT more_RBR industrial_JJ vibe_NN and_CC really_RB am_VBP considering_VBG this_DT look_NN -_: love_VB it_PRP !_. there_EX 's_VBZ something_NN classic_JJ about_IN this_DT style_NN yet_RB the_DT it_PRP 's_VBZ accessible_JJ and_CC cool_JJ !_. plus_CC these_DT pieces_NNS double_RB ,_, or_CC even_RB triple_JJ ,_, in_IN small_JJ spaces_NNS ._. i_NN am_VBP loving_VBG the_DT x-inspired_JJ bench_NN that_IN I_PRP spotted_VBD recently_RB on_IN a_DT blog_NN I_PRP recently_RB discovered_VBD ,_, Good_JJ Bones_NNS ,_, Great_NNP Spaces_NNPS ._. I_PRP love_VBP the_DT placement_NN under_IN the_DT window_NN and_CC that_IN it_PRP 's_VBZ a_DT bench_NN more_RBR then_RB an_DT ottoman_NN ._. actually_RB ,_, one_CD of_IN my_PRP$ first_JJ Apartment_NNP Therapy_NNP posts_NNS was_VBD about_IN x-inspired_JJ furniture_NN ._. :_: :_: image_NN via_IN Good_NNP Bones_NNP ,_, Great_NNP Spaces_NNPS :_: :_:</t>
-  </si>
-  <si>
-    <t>You_PRP 've_VBP heard_VBN the_DT expression_NN ``_`` I_PRP 've_VBP had_VBD it_PRP up_RP to_TO here_RB (_( hand_NN parallel_RB to_TO the_DT earth_NN while_IN levitating_VBG your_PRP$ hand_NN in_IN front_NN of_IN yer_NN brow_NN )_) ''_'' It_PRP is_VBZ like_IN we_PRP are_VBP a_DT vessel_NN that_WDT holds_VBZ negativity_NN ,_, and_CC when_WRB there_EX is_VBZ too_RB much_JJ ,_, we_PRP overfill_VBP and_CC ..._: then_RB ..._: we_PRP just_RB plain_VBP lose_JJ ourselves_NNS ._. But_CC when_WRB positive_JJ hits_NNS us_PRP ,_, the_DT vessel_NN drains_NNS ._. When_WRB I_PRP see_VBP the_DT level_NN lower_RBR ,_, I_PRP know_VBP that_IN sometime_RB ahead_RB ,_, negative_JJ will_MD inevitably_RB be_VB on_IN a_DT future_JJ path_NN ._. But_CC why_WRB let_VBP that_DT inevitability_NN lessen_VBD the_DT positive_JJ ?_. Savour_VBP the_DT great_JJ moments_NNS ,_, and_CC be_VB prepared_VBN to_TO not_RB give_VB the_DT full_JJ value_NN of_IN what_WP future_JJ negative_JJ intends_VBZ for_IN you_PRP ._. ``_`` If_IN one_CD person_NN ca_MD n't_RB make_VB a_DT difference_NN ,_, then_RB why_WRB does_VBZ it_PRP only_RB take_VB one_CD person_NN to_TO ruin_VB things_NNS for_IN everyone_NN else_RB ?_. ?_. ?_. ''_'' --_: --_: Joel_NNP Whitfield_NNP</t>
-  </si>
-  <si>
-    <t>Hi_NNP there_EX !_. &amp;_CC nbsp_JJ ;_: I_PRP 'm_VBP doing_VBG a_DT sweet_JJ little_JJ giveaway_NN on_IN the_DT Inkling_NNP Paper_NNP blog_NN this_DT week_NN for_IN one_CD of_IN my_PRP$ Limited_JJ Edition_NNP {_( Inspired_VBN By_IN }_) Palm_NNP Springs_NNP Packaging_NNP Kits_NNP !_. The_DT kit_NN includes_VBZ :_: (_( 5_CD )_) small_JJ white_JJ paper_NN bags_NNS (_( 1_CD )_) medium_NN white_JJ box_NN (_( 1_CD )_) small_JJ white_JJ box_NN (_( 2_CD )_) yards_NNS ribbon_NN ,_, white_JJ (_( 2_CD )_) yards_NNS ribbon_NN ,_, green_JJ (_( 2_CD )_) yards_NNS ribbon_NN ,_, yellow_NN (_( 5_CD )_) yards_NNS cotton_NN twine_NN ,_, yellow_NN (_( 5_CD )_) yards_NNS cotton_NN twine_NN ,_, turquoise_NN (_( 5_CD )_) yards_NNS cotton_NN twine_NN ,_, white_JJ (_( 5_CD )_) buttons_NNS (_( 2_CD )_) tiny_JJ white_JJ merchandise_NN tags_NN (_( 2_CD )_) 1.5_CD ''_'' round_NN flamingo_NN tags_NNS (_( 2_CD )_) 1.5_CD ''_'' round_NN metallic_JJ turquoise_NN tags_NNS (_( 2_CD )_) 1_CD ''_'' x_NN 5_CD ''_'' barrel_NN cactus_NN tags_NN &amp;_CC nbsp_NN ;_: All_PDT the_DT details_NNS can_MD be_VB found_VBN right_RB here_RB !_. &amp;_CC nbsp_JJ ;_: Good_JJ luck_NN !_. Inkling_VBG Paper_NNP :_: blog_NN ,_, shop_NN ,_, poppytalk_NN handmade_NN gallery_NN We_PRP 've_VBP been_VBN experimenting_VBG with_IN different_JJ surfaces_NNS to_TO print_VB on_IN ._. I_PRP love_VBP the_DT way_NN screen-printing_JJ looks_NNS on_IN cotton_NN ._. These_DT are_VBP up_RB in_IN the_DT shop_NN ._. Young_NNP Bull_NNP Cloth_NNP Bags_NNP Young_NNP Bull_NNP Onesie_NNP Golden_NNP Egg_NNP Easter_NNP Gift_NNP Bags_NNP HUMUNUKU_NNP SHOPPE_NNP hello_NN !_. my_PRP$ etsy_NN shop_NN is_VBZ turning_VBG 2_CD this_DT week_NN and_CC i_NN 'm_VBP celebrating_VBG with_IN a_DT print_NN sale_NN ._. the_DT details_NNS :_: buy_VB 1_CD print_NN ,_, get_VB 1_CD free_JJ until_IN march_JJ 13_CD ._. {_( 2nd_CD print_NN equal_JJ value_NN or_CC less_JJR }_) ._. gretchenmist_NN :_: etsy_NN shop_NN ,_, print_JJ section_NN :_: :_: blog_NN :_: :_: poppytalk_NN handmade_NN table_NN happy_JJ mid-week_NN ,_, belinda_NN Hi_NNP there_RB ._. I_PRP 'm_VBP popping_VBG in_IN here_RB to_TO let_VB you_PRP know_VB that_IN I_PRP 'm_VBP having_VBG a_DT great_JJ giveaway_NN this_DT week_NN that_WDT includes_VBZ one_CD of_IN my_PRP$ hand-printed_JJ journals_NNS and_CC a_DT set_NN of_IN six_CD mix_NN and_CC match_NN linen_NN napkins_NNS from_IN my_PRP$ new_JJ collection_NN ._. The_DT giveaway_NN also_RB includes_VBZ my_PRP$ favorite_JJ new_JJ gardening_VBG book_NN just_RB in_IN time_NN for_IN Spring_NN ._. All_PDT the_DT details_NNS are_VBP Right_NNP Here_RB ._. Good_JJ luck_NN !_. Inklore_NN :_: blog_NN ,_, website_NN ,_, poppytalkhandmade_NN table_NN Ask_NNP me_PRP anything_NN http_NN :_: //formspring.me/satsumapress_NN &amp;_CC nbsp_NN ;_: &amp;_CC nbsp_NN ;_: The_DT presence_NN of_IN art_NN in_IN everyday_JJ life_NN ,_, sunshine_NN ,_, the_DT lightness_NN of_IN Mediterranean_NNP living_NN and_CC the_DT beauty_NN of_IN watching_VBG kids_NNS discover_IN the_DT world_NN around_IN them_PRP ._. Trulakids_NNP Shop_NNP Trulakids_NNP Blog_NNP Humunuku_NNP Shoppe_NNP Items_NNP in_IN the_DT new_JJ issue_NN of_IN The_DT World_NNP on_IN Cheese_JJ Culture_NNP ._. Lot_NNP of_IN farm_NN animal_NN goodies_NNS in_IN the_DT here_RB ._. &amp;_CC the_DT je_NN t'aime_NN giveaway_NN winners_NNS here_RB ._. HUMUNUKU_NNP SHOPPE_NNP</t>
-  </si>
-  <si>
-    <t>How_WRB good_JJ is_VBZ a_DT good_JJ client_NN ?_. Posted_VBN by_IN Scott_NNP on_IN Mar_NNP 13_CD ,_, 2010_CD in_IN Marketing_VBG I_PRP have_VBP a_DT client_NN on_IN paper_NN that_WDT is_VBZ a_DT good_JJ client_NN ,_, however_RB in_IN actuality_NN I_PRP cringe_VBP every_DT time_NN she_PRP calls_VBZ or_CC when_WRB I_PRP see_VBP her_PRP ._. She_PRP has_VBZ three_CD kids_NNS and_CC we_PRP have_VBP photographed_VBN all_DT three_CD for_IN senior_JJ pix_NNS and_CC all_DT 3_CD kids_NNS she_PRP spent_VBD over_RB 3k_CD each_DT for_IN their_PRP$ senior_JJ orders_NNS ._. Plus_CC we_PRP have_VBP done_VBN their_PRP$ family_NN pictures_VBZ with_IN another_DT large_JJ order_NN ._. So_IN like_IN I_PRP said_VBD she_PRP ’_VBD s_RB good_JJ on_IN paper_NN ._. Why_WRB do_VBP I_PRP cringe…_VB Because_IN she_PRP follows_VBZ 0_CD %_NN of_IN our_PRP$ rules_NNS ._. She_PRP takes_VBZ months_NNS to_TO order_NN ,_, she_PRP pays_VBZ right_JJ away_RB but_CC then_RB takes_VBZ months_NNS to_TO place_VB the_DT order_NN and_CC when_WRB she_PRP does_VBZ she_PRP submits_VBZ partial_JJ orders_NNS and_CC then_RB wants_VBZ it_PRP in_IN like_IN two_CD days_NNS ._. She_PRP ’_VBD s_JJ always_RB calling_VBG needing_VBG something_NN done_VBN today_NN she_PRP pushes_VBZ everything_NN right_RB up_RB to_TO a_DT deadline_NN and_CC then_RB calls_VBZ us_PRP on_IN the_DT day_NN of_IN the_DT deadline_NN to_TO tell_VB us_PRP about_IN it_PRP ._. (_( like_IN image_NN submission_NN for_IN the_DT yearbook_NN for_IN all_DT three_CD kids_NNS she_PRP called_VBD us_PRP on_IN the_DT deadline_NN day_NN and_CC said_VBD I_PRP need_VBP this_DT now_RB )_) 3x_CD WTF_NNP and_CC this_DT year_NN she_PRP did_VBD it_PRP twice_RB because_IN the_DT first_JJ deadline_NN was_VBD for_IN the_DT regular_JJ pix_NN and_CC then_RB she_PRP called_VBD for_IN a_DT picture_NN ad_NN page_NN in_IN the_DT yearbook_NN with_IN a_DT different_JJ deadline_NN ._. She_PRP ’_VBD s_JJ always_RB changing_VBG her_PRP$ mind_NN and_CC has_VBZ an_DT attitude_NN because_IN she_PRP knows_VBZ she_PRP spends_VBZ a_DT lot_NN of_IN money_NN here_RB so_RB she_PRP thinks_VBZ she_PRP owns_VBZ me_PRP ._. I_PRP hate_VBP people_NNS like_IN that_DT ,_, she_PRP is_VBZ very_RB unorganized_JJ and_CC and_CC wreaks_NNS havoc_VBP on_IN our_PRP$ organized_JJ system_NN ._. Maybe_RB that_IN ’_NNP s_VB my_PRP$ main_JJ problem_NN with_IN her_PRP$ just_RB dealing_VBG with_IN her_PRP$ we_PRP just_RB feel_VBP like_IN we_PRP are_VBP always_RB fixing_VBG her_PRP$ messes_NNS ._. Kelly_NNP is_VBZ sick_JJ of_IN her_PRP$ ._. It_PRP was_VBD funny_VBG a_DT few_JJ months_NNS ago_IN she_PRP did_VBD a_DT typical_JJ move_NN on_IN placing_VBG a_DT partial_JJ order_NN and_CC Kelly_NNP asked_VBD me_PRP why_WRB I_PRP let_VBD her_PRP do_VB that_IN ?_. I_PRP said_VBD because_IN she_PRP ’_VBZ s_PRP a_DT good_JJ customer…_NN To_TO which_WDT Kelly_NNP replied_VBD without_IN missing_VBG a_DT beat_JJ “_NN like_IN hell_NN she_PRP is_VBZ ,_, she_PRP may_MD spend_VB a_DT lot_NN of_IN money_NN here_RB but_CC she_PRP ’_VBD s_RB far_RB from_IN being_VBG a_DT good_JJ customer_NN ”_VBD it_PRP was_VBD a_DT shocking_JJ thing_NN for_IN me_PRP to_TO realize_VB that_IN a_DT good_JJ customer_NN and_CC a_DT big_JJ spender_NN are_VBP two_CD completely_RB different_JJ things_NNS ._. And_CC in_IN her_PRP$ case_NN a_DT repeat_NN big_JJ spender_NN but_CC still_RB a_DT habitual_JJ ,_, chronic_JJ ,_, pain_NN in_IN our_PRP$ collective_JJ asses_NNS !_. Hehe_NNP can_MD you_PRP tell_VB she_PRP just_RB contacted_VBD me_PRP again_RB about_IN something…_JJ Don_NNP ’_NNP t_NN sell_VB your_PRP$ soul_NN or_CC spine_NN for_IN money_NN ._. “_VB this_DT is_VBZ how_WRB we_PRP do_VBP it_PRP ”_VB our_PRP$ relationship_NN with_IN her_PRP$ would_MD be_VB so_RB much_JJ better_JJR had_VBD I_PRP stuck_VBP to_TO our_PRP$ policies_NNS 4yrs_CD ago_RB when_WRB we_PRP photographed_VBD their_PRP$ first_JJ son_NN ._. Granted_VBN she_PRP loves_VBZ us_PRP because_IN I_PRP ’_VBP m_NNS like_IN no_DT problem.._NN Right_RB away…_JJ Sure…_NNP Yes_NNP anything_NN for_IN you…_NN Why_WRB am_VBP I_PRP such_PDT a_DT stupid_JJ person_NN when_WRB it_PRP comes_VBZ to_TO her_PRP$ ._. Kelly_NNP is_VBZ funny_JJ when_WRB she_PRP sees_VBZ her_PRP$ name_NN pop_NN up_RB on_IN the_DT caller_NN Id_NNP she_PRP says_VBZ “_NN you_PRP better_JJR answer_VB that_IN because_IN you_PRP don_VBP ’_JJ t_NN want_VBP me_PRP talking_VBG to_TO her_PRP$ ”_NNS so_RB if_IN you_PRP didn_VBP ’_JJ t_NN notice_NN Kelly_NNP has_VBZ bigger_JJR balls_NNS than_IN me_PRP ._. But_CC seriously_RB I_PRP created_VBD this_DT monster_NN and_CC this_DT is_VBZ their_PRP$ last_JJ kid_NN but_CC she_PRP ’_VBZ s_JJ already_RB been_VBN talking_VBG about_IN bringing_VBG in_IN future_JJ grand_JJ babies_NNS for_IN pix_NN ._. Oh_UH shoot_JJ me_PRP now_RB !_. !_. !_. I_PRP guess_VBP I_PRP will_MD have_VB to_TO deal_VB with_IN this_DT situation_NN I_PRP need_VBP a_DT client_NN intervention_NN ,_, and_CC some_DT bigger_JJR balls_NNS !_. lol_JJ 76_CD votes_NNS Buzz_NNP up_RB !_. 4_CD Working_VBG all_DT weekend…_NNS Posted_VBN by_IN Scott_NNP on_IN Mar_NNP 12_CD ,_, 2010_CD in_IN Marketing_VBG Well_NNP I_PRP did_VBD it_PRP to_TO myself_VB but_CC i_VB ’_NNP m_NN working_VBG all_DT weekend…_NN Saturday_NNP shooting_VBG seniors_NNS and_CC one_CD of_IN the_DT sessions_NNS is_VBZ an_DT outdoor_JJ session_NN and_CC it_PRP ’_NNP s_VBD supposed_VBN to_TO rain_VB ._. Then_RB I_PRP agreed_VBD to_TO shoot_VB a_DT family_NN on_IN Sunday_NNP ._. It_PRP ’_VBZ s_VBZ a_DT client_NN that_WDT has_VBZ been_VBN coming_VBG to_TO us_PRP for_IN almost_RB 10_CD years_NNS and_CC they_PRP own_VBP a_DT business_NN that_IN Sunday_NNP is_VBZ the_DT only_JJ day_NN they_PRP can_MD do_VB it…_VB seriously_RB ._. I_PRP know_VBP a_DT lot_NN of_IN clients_NNS claim_VBP they_PRP can_MD ’_VB t_JJ do_VB any-other_JJ day_NN but_CC a_DT Sunday_NNP but_CC these_DT guys_NNS are_VBP serious_JJ ._. It_PRP ’_VBD s_RB going_VBG to_TO be_VB a_DT very_RB good_JJ order_NN I_PRP ’_VBP m_JJ sure_NN ._. Maybe_RB enough_RB to_TO pay_VB for_IN a_DT year_NN of_IN college_NN for_IN the_DT kids_NNS LOL_NNP Day_NNP 3_CD of_IN P90x_NNP not_RB so_RB bad_JJ ,_, and_CC actually_RB my_PRP$ best_JJS day_NN ._. Kelly_NNP and_CC I_PRP are_VBP doing_VBG it_PRP together_IN it_PRP is_VBZ fun_JJ ,_, so_RB even_RB if_IN you_PRP hear_VBP me_PRP complaining_VBG it_PRP is_VBZ kicking_VBG my_PRP$ butt_NN but_CC still_RB fun_VB ._. Not_RB as_IN fun_NN a_DT Sweatin_NNP to_TO the_DT oldies_NNS would_MD be…_VB I_PRP need_VBP to_TO get_VB me_PRP a_DT Richard_NNP Simmons_NNP outfit_NN to_TO workout_VB in…_JJ Oh_NNP that_WDT would_MD be_VB sweet_JJ !_.</t>
-  </si>
-  <si>
-    <t>Incorporating_VBG common_JJ genetic_JJ risk_NN factors_NNS into_IN the_DT models_NNS typically_RB used_VBN to_TO calculate_VB a_DT women_NNS 's_POS breast_NN cancer_NN risk_NN has_VBZ little_JJ impact_NN on_IN clinical_JJ decision-making_NN ,_, such_JJ as_IN whether_IN an_DT individual_NN should_MD consider_VB earlier_JJR or_CC more_RBR frequent_JJ mammography_NN or_CC prophylactic_JJ drugs_NNS ,_, according_VBG to_TO a_DT paper_NN published_VBN today_NN in_IN the_DT New_NNP England_NNP Journal_NNP of_IN Medicine_NNP ._. The_DT results_NNS follow_VBP similar_JJ studies_NNS for_IN diabetes_NNS and_CC cardiovascular_JJ disease_NN ,_, echoing_VBG what_WP has_VBZ now_RB become_VBN a_DT common_JJ criticism_NN of_IN genome-wide_JJ association_NN studies_NNS ;_: that_IN this_DT approach_NN is_VBZ unlikely_JJ to_TO identify_VB genetic_JJ risk_NN factors_NNS of_IN diagnostic_JJ value_NN ._. Over_IN the_DT last_JJ few_JJ years_NNS ,_, researchers_NNS have_VBP used_VBN DNA-studded_NNP microarrays_NNS to_TO quickly_RB search_VB tens_NNS of_IN thousands_NNS of_IN human_JJ genomes_NNS for_IN common_JJ genetic_JJ variations_NNS linked_VBN to_TO various_JJ diseases_NNS ,_, dubbed_VBN genome-wide_JJ association_NN studies_NNS ._. Despite_IN the_DT enormous_JJ size_NN of_IN these_DT studies_NNS ,_, they_PRP have_VBP only_RB identified_VBN a_DT fraction_NN of_IN the_DT source_NN of_IN the_DT genetic_JJ risk_NN of_IN disease_NN ._. And_CC the_DT vast_JJ majority_NN account_NN for_IN a_DT very_RB small_JJ change_NN in_IN risk_NN in_IN a_DT given_VBN individual_NN ._. (_( This_DT is_VBZ in_IN contrast_NN to_TO rare_VB genetic_JJ variants_NNS ,_, like_IN BRCA1_NNP ,_, which_WDT substantially_RB increase_VB a_DT women_NNS 's_POS risk_NN of_IN developing_VBG breast_NN cancer_NN ._. )_)</t>
-  </si>
-  <si>
-    <t>hmm_NN ..._: ..._: he_PRP has_VBZ been_VBN one_CD of_IN my_PRP$ favorite_JJ seniors_NNS ..._: ..._: .besht_VBP one_CD ever_RB ..._: ..AM_VBZ PARTICULARLY_NNP JEALOUS_NNP OF_IN HIS_NNP CHARM_NNP AND_NNP BEAUTY_NNP (_( but_CC thats_VBZ secondary_JJ )_) ..._: .his_JJ heart_NN is_VBZ wat_JJ affects_NNS people_NNS most_RBS ..._: ..the_VBP valuable_JJ advises_NNS he_PRP gave_VBD me_PRP ..._: ..literally_RB changed_VBN my_PRP$ life_NN a_DT lot_NN ..._: really_RB thank_VB u_JJ na_NNS ..._: ..for_VBP all_PDT the_DT supprt_JJ u_NN gave_VBD me_PRP ..._: ..._: ..._: ..._: he_PRP was_VBD someone_NN who_WP spoke_VBD to_TO me_PRP in_IN person._NN ,_, pointed_VBD out_RP my_PRP$ faults_NNS and_CC told_VBD me_PRP how_WRB to_TO improve_VB myself_PRP and_CC got_VBD me_PRP a_DT good_JJ name_NN ..._: ..brimming_VBG with_IN confidence_NN and_CC merriness_NN ..._: its_PRP$ just_RB enough_RB to_TO have_VB him_PRP by_IN ur_JJ side_NN ..._: ..._: u_NN will_MD neva_VB feel_VB sad_JJ ..._: ..._: ..._: ..he_JJ makes_VBZ any_DT meeting_NN into_IN a_DT damn_NN big_JJ hit_NN ..._: .excwellent_JJ tabalist_NN with_IN magical_JJ skill_NN ..._: .cummon_CC na_TO ..._: .go_NN to_TO classes_VB again_RB and_CC become_VB a_DT maestro_NN ..._: .i_NN wasnt_NN ever_RB able_JJ to_TO even_VB a_DT single_JJ fault_NN with_IN anna_NN ..._: ..._: .he_NN is_VBZ perfect_JJ in_IN everything_NN ..._: ..._: ..._: ..._: .and_VBP one_CD more_JJR thing_NN ..._: ..._: ..._: ..his_JJ heart_NN is_VBZ as_RB beautiful_JJ as_IN his_PRP$ face./_NN ..._: ..._: ..._: guys_NNS go_VBP for_IN his_PRP$ heart._NN ,_, ..._: ..._: ..._: ..._: ..._: .girls_NNS go_VBP for_IN both_DT ._.</t>
-  </si>
-  <si>
-    <t>hello_JJ world_NN of_IN bloggers_NNS !_. this_DT blog_NN will_MD bring_VB to_TO you_PRP my_PRP$ adventures_NNS with_IN photography_NN :_: )_) photography_NN has_VBZ truly_RB opened_VBN my_PRP$ eyes_NNS to_TO the_DT beauty_NN in_IN this_DT world_NN ._. and_CC i_JJ live_VBP to_TO capture_VB this_DT ._. everything_NN and_CC everyone_NN on_IN this_DT earth_NN inspires_VBZ me_PRP ,_, there_EX is_VBZ so_RB much_JJ inspiration_NN in_IN every_DT part_NN of_IN life_NN ,_, and_CC i_JJ strive_NN for_IN everyone_NN to_TO see_VB how_WRB amazing_JJ life_NN really_RB is_VBZ ._. a_DT little_JJ about_IN me_PRP ;_: australia_CC is_VBZ my_PRP$ home_NN ._. but_CC new_JJ zealand_NNP really_RB amazes_VBZ me_PRP ._. i_VB 'm_VBP going_VBG to_TO escape_VB to_TO new_JJ zealand_NN with_IN my_PRP$ brother_NN sometime_RB in_IN the_DT future_NN ,_, the_DT prospect_NN of_IN visiting_VBG so_RB many_JJ stunning_VBG landscapes_NNS is_VBZ exciting_VBG !_. !_. eighteen_JJ years_NNS young_JJ and_CC luckily_JJ twins_NNS with_IN one_CD of_IN the_DT loveliest_JJS men_NNS anyone_NN could_MD ever_RB meet_VB :_: )_) so.._NN i_JJ hope_VBP you_PRP enjoy_VBP viewing_VBG my_PRP$ passion_NN for_IN capturing_VBG life_NN through_IN photography_NN as_RB much_JJ as_IN i_JJ love_VBP taking_VBG them_PRP ._.</t>
-  </si>
-  <si>
-    <t>Being_VBG busy_JJ with_IN a_DT lot_NN of_IN open_JJ projects_NNS at_IN work_NN and_CC school_NN has_VBZ made_VBN me_PRP a_DT bit_NN tired_JJ ._. I_PRP get_VBP off_IN work_NN and_CC have_VB to_TO go_VB to_TO school_NN ._. I_PRP finish_VBP an_DT exam_NN at_IN school_NN and_CC I_PRP have_VBP to_TO deal_VB with_IN a_DT tight_JJ deadline_NN at_IN work_NN ._. Sometimes_RB ,_, I_PRP want_VBP to_TO “_VB pause_NN ”_IN what_WP ’_NNP s_VBD going_VBG on_IN around_IN me_PRP and_CC go_VB and_CC walk_VB for_IN couple_NN of_IN hours_NNS ._. I_PRP need_VBP to_TO get_VB my_PRP$ thoughts_NNS organized_VBN and_CC defragged_VBN ._. I_PRP feel_VBP a_DT subtle_JJ touch_NN of_IN fear_NN in_IN missing_VBG deadlines_NNS or_CC missing_VBG important_JJ tasks_NNS ._. I_PRP ’_VBP m_JJ always_RB repeating/reviewing_VBG my_PRP$ Todo_NNP ’_NNP s_JJ list_NN in_IN an_DT effort_NN to_TO prevent_VB any_DT missed_JJ task_NN ._. I_PRP hope_VBP I_PRP can_MD stretch_VB my_PRP$ mind_NN over_IN all_PDT these_DT tasks_NNS and_CC get_VB to_TO a_DT level_NN where_WRB I_PRP can_MD handle_VB Multi-_NNP Multi_NNP -tasking_VBG ._. As_IN Oliver_NNP Wendell_NNP Holmes_NNP puts_VBZ :_: A_DT mind_NN that_WDT is_VBZ stretched_VBN by_IN a_DT new_JJ experience_NN can_MD never_RB go_VB back_RB to_TO its_PRP$ old_JJ dimension_NN</t>
-  </si>
-  <si>
-    <t>To_TO balance_VB out_RP the_DT disappointing_JJ preschool_NN stuff_NN ,_, I_PRP should_MD mention_VB that_IN both_DT boys_NNS are_VBP making_VBG unprecedented_JJ progress_NN at_IN home_NN and_CC ABA_NNP ._. Yesterday_NN the_DT ABA_NNP therapists_NNS said_VBD that_IN they_PRP 'd_MD tried_VBN G._NNP on_IN matching_VBG words_NNS to_TO pictures_NNS ,_, and_CC he_PRP seemed_VBD to_TO get_VB it_PRP ._. He_PRP wo_MD n't_RB do_VB picture-matching_JJ tasks_NNS --_: we_PRP think_VBP he_PRP just_RB does_VBZ n't_RB see_VB the_DT point_NN ._. They_PRP also_RB started_VBD working_VBG on_IN writing_VBG letters_NNS ._. When_WRB they_PRP originally_RB tried_VBD to_TO get_VB him_PRP to_TO trace_VB letters_NNS ,_, he_PRP got_VBD very_RB upset_JJ ,_, I_PRP guess_VBP because_IN it_PRP was_VBD messing_VBG up_RP a_DT perfectly_RB good_JJ letter_NN ._. But_CC writing_VBG his_PRP$ own_JJ letter_NN is_VBZ n't_RB so_RB upsetting_JJ ,_, or_CC so_RB we_PRP hope_VBP !_. B._NNP is_VBZ singing_VBG up_RP a_DT storm_NN ._. He_PRP is_VBZ stuck_VBN on_IN the_DT line_NN ``_`` the_DT mommies_NNS on_IN the_DT bus_NN go_VBP ``_`` shush_NN ,_, shush_NN ,_, shush_NN ''_'' ,_, for_IN whatever_WDT reason_NN (_( ?_. ?_. )_) ,_, and_CC he_PRP also_RB keeps_VBZ repeating_VBG ``_`` I_PRP like_VBP to_TO eat_VB ,_, eat_NN ,_, eat_NN apples_NNS and_CC bananas_NNS ''_'' ._. Either_CC one_CD of_IN those_DT things_NNS would_MD have_VB seemed_VBN impossible_JJ a_DT few_JJ months_NNS ago_RB ._. And_CC with_IN some_DT encouragement_NN ,_, he_PRP 'll_MD point_VB to_TO the_DT sentence_NN strips_NNS I_PRP have_VBP around_IN the_DT kitchen_NN and_CC mutter_NN ,_, ``_`` Wan_NNP nuk_NN (_( milk_NN )_) ,_, peezh_JJ ''_'' or_CC ``_`` Wan_NNP na_TO cookie_NN ''_'' ._. That_DT is_VBZ really_RB ,_, really_RB amazing_VBG for_IN me_PRP to_TO hear_VB ._.</t>
-  </si>
-  <si>
-    <t>Sous-Vide_JJ and_CC Low-Temp_JJ Primer_NNP Part_NNP I_PRP February_NNP 12th_CD ,_, 2010_CD ·_NNP sous_JJ vide_RB posted_VBN by_IN Dave_NNP Arnold_NNP We_PRP have_VBP had_VBD a_DT lot_NN of_IN requests_NNS to_TO make_VB last_JJ week_NN ’_VBD s_JJ low-temp_JJ charts_NNS available_JJ for_IN download_NN ._. Here_RB you_PRP go_VBP :_: Click_NN here_RB to_TO download_VB the_DT sous_JJ vide_NN charts_NNS ._. We_PRP are_VBP often_RB accused_VBN of_IN being_VBG long-winded_JJ ._. Guilty_NNP ._. When_WRB we_PRP looked_VBD at_IN the_DT sous-vide_JJ primer_NN ,_, however_RB ,_, even_RB we_PRP thought_VBD it_PRP was_VBD too_RB long—so_JJ we_PRP decided_VBD to_TO break_VB it_PRP into_IN parts_NNS ._. We_PRP hope_VBP to_TO put_VB out_RP a_DT new_JJ section_NN every_DT week_NN (_( or_CC so_RB )_) ._. This_DT is_VBZ how_WRB we_PRP plan_VBP on_IN breaking_VBG it_PRP down_IN :_: I_PRP ._. Introduction_NN to_TO Low-Temperature_JJ Cooking_NNP and_CC Sous-Vide_NNP (_( Today_NNP ’_NNP s_FW Installment_NNP )_) II_NNP ._. Use_NNP and_CC Abuse_NNP of_IN the_DT Vacuum_NNP Machine_NNP and_CC Packing_NNP for_IN Low-Temp_NNP Without_IN the_DT Vac_NNP III_NNP ._. Vacuum_NNP Tricks_NNP IV_NNP ._. Temperature_NN Control_NNP and_CC Safety_NNP V._NNP Cooking_NNP Meats_NNP and_CC Poultry_NNP VI_NNP ._. Cooking_VBG Fish_JJ VII_NNP ._. Cooking_VBG Everything_NN Else_RB Today_NNP we_PRP have_VBP the_DT introduction_NN ._. It_PRP provides_VBZ an_DT overview_NN for_IN everything_NN else_RB ._. There_EX won_VBD ’_NNP t_NN be_VB any_DT specific_JJ applications_NNS or_CC how-to_JJ ’_NN s_NN in_IN this_DT section_NN ._. That_DT is_VBZ for_IN later_RB ._. Part_VB I_PRP ._. Introduction_NN to_TO Low-Temperature_JJ Cooking_NNP and_CC Sous-Vide_NNP I_PRP ._. Getting_VBG the_DT Terms_NNS Right_NNP Low-Temperature_NN Cooking_NNP Defined_VBD Sous-Vide_NNP Defined_NNP II_NNP ._. Some_DT Uses_NNS and_CC Advantages_NNS of_IN Low_JJ Temperature_NNP Cooking_NNP Uniform_NNP Cooking_NNP ,_, Increased_VBD Consistency_NNP ,_, and_CC Shifting_VBG Control_NNP to_TO the_DT Chef_NNP Shifting_NNP Work_NNP from_IN Service_NNP to_TO Prep_NNP (_( or_CC from_IN Party_NNP to_TO Prep_NNP at_IN Home_NNP )_) Low-Temp_NNP for_IN Insurance_NNP Low-Temp_NNP for_IN New_NNP and_CC Novel_NNP Textures_NNP Low-Temp_NNP for_IN Increased_NNP Tenderness_NNP III_NNP ._. Low_JJ Temperature_NN Cooking_NNP Disadvantages_NNP Surface_NNP Browning_NNP ,_, the_DT Maillard_NNP Reaction_NNP ,_, and_CC the_DT Challenges_NNP of_IN Low-Temperature_NNP Cooking_NNP Uniformity_NNP of_IN Texture_NNP IV_NNP ._. Why_WRB do_VBP Chefs_NNP Use_NNP Sous_NNP Vide_NNP ?_. Sous-Vide_NNP for_IN Economy_NNP Storage_NNP Organization_NNP Sous-Vide_NNP for_IN Effect_NNP Texture_NNP Modification_NNP Flash_NNP Pickling_NNP and_CC Vacuum_NNP Marination_NNP Forming_NNP De-airing_NNP I_PRP ._. GETTING_VBG THE_DT TERMS_NNP RIGHT_NNP :_: Sous-vide_JJ and_CC low-temperature_JJ cooking_NN are_VBP just_RB two_CD of_IN the_DT many_JJ techniques_NNS and_CC processes_NNS that_WDT are_VBP revolutionizing_VBG modern_JJ cooking_NN ._. Despite_IN their_PRP$ growing_VBG popularity_NN ,_, many_JJ remain_VBP confused_JJ about_IN the_DT difference_NN between_IN low-temperature_JJ cooking_NN and_CC sous-vide—including_JJ equipment_NN manufacturers_NNS ._. Between_IN the_DT two_CD ,_, low-temperature_JJ cooking_NN is_VBZ undoubtedly_RB the_DT more_RBR important_JJ ._. Low-Temperature_JJ Cooking_NN Defined_VBN :_: Cooking_VBG low_JJ temperature_NN does_VBZ not_RB mean_VB cooking_VBG food_NN to_TO a_DT lower_JJR internal_JJ temperature_NN than_IN is_VBZ traditional_JJ ._. Low-temperature_JJ cooking_NN refers_NNS to_TO the_DT temperature_NN of_IN the_DT cooking_NN medium_NN ,_, not_RB the_DT final_JJ temperature_NN of_IN the_DT food_NN being_VBG cooked_VBN ._. A_DT rare_JJ steak_NN has_VBZ the_DT same_JJ internal_JJ temperature_NN whether_IN cooked_JJ low-temperature_NN or_CC traditionally_RB ._. Low_JJ temperature_NN cooking_NN is_VBZ defined_VBN as_IN any_DT cooking_JJ procedure_NN where_WRB the_DT cooking_NN temperature_NN is_VBZ at_IN or_CC close_VB to_TO the_DT desired_VBN final_JJ internal_JJ temperature_NN ._. There_EX are_VBP two_CD basic_JJ requirements_NNS for_IN low-temperature_JJ cooking_NN :_: precise_NN and_CC accurate_JJ temperature_NN control_NN ;_: a_DT cooking_NN medium_NN which_WDT conducts_VBZ heat_NN more_RBR efficiently_RB and_CC accurately_RB than_IN dry_JJ air_NN ._. Water_NNP and_CC water_NN vapor_NN are_VBP typical_JJ ,_, but_CC oil_NN ,_, stock_NN ,_, or_CC any_DT other_JJ liquid_NN will_MD work_VB ._. By_IN way_NN of_IN example_NN :_: to_TO cook_VB a_DT steak_NN to_TO an_DT internal_JJ temperature_NN of_IN 55°C_CD (_( 131°F_CD )_) ,_, you_PRP could_MD either_RB sear_VB it_PRP and_CC put_VB it_PRP in_IN a_DT 205°C_CD (_( 400°F_CD )_) finishing_VBG oven_RB till_VB it_PRP reaches_VBZ 55°C_CD (_( 131°F_CD )_) (_( not_RB low_JJ temperature_NN cooking_NN )_) ,_, or_CC quickly_RB sear_VB it_PRP and_CC throw_VB it_PRP into_IN an_DT oil_NN bath_NN maintained_VBD at_IN 55°C_CD (_( 131°F_CD )_) (_( low_JJ temperature_NN cooking_VBG but_CC not_RB sous-vide_JJ )_) ._. In_IN traditional_JJ high-temperature_NN cooking_NN ,_, the_DT temperature_NN of_IN the_DT cooking_NN medium_NN is_VBZ almost_RB never_RB the_DT same_JJ as_IN the_DT desired_JJ temperature_NN of_IN the_DT food_NN ._. That_DT is_VBZ ,_, while_IN your_PRP$ oven_NN may_MD be_VB heated_VBN to_TO 205°C_CD (_( 400°F_CD )_) ,_, your_PRP$ fry_JJ oil_NN can_MD to_TO 190°C_CD (_( 375°F_CD )_) ,_, and_CC poaching_VBG water_NN to_TO 100°C_CD (_( 212°F_CD )_) ,_, a_DT steak_NN cooked_VBN in_IN those_DT mediums_NNS can_MD only_RB be_VB considered_VBN rare_JJ when_WRB it_PRP reaches_VBZ an_DT internal_JJ temperature_NN of_IN 54°C_CD (_( 129°F_CD )_) ._. The_DT difference_NN between_IN the_DT desired_VBN final_JJ food_NN temperature_NN and_CC the_DT temperature_NN of_IN the_DT cooking_NN medium_NN is_VBZ referred_VBN to_TO as_IN temperature_NN delta_NN ,_, or_CC ΔT_NNP (_( pronounced_VBN “_NNP delta_NN t_NN ,_, ”_VBP the_DT triangle_NN is_VBZ the_DT Greek_JJ letter_NN delta_NN )_) ._. You_PRP should_MD just_RB get_VB used_VBN to_TO referring_VBG to_TO ΔT_VB ’_NNP s_NN –like_NN ,_, “_NNP hey_NN ,_, you_PRP want_VBP that_IN squab_NN cooked_VBD to_TO 56°C_CD ?_. Do_VBP you_PRP want_VB to_TO use_VB a_DT ΔT_NN ?_. ”_JJ Sous-Vide_JJ Defined_VBN :_: In_IN contrast_NN ,_, the_DT simplest_JJS way_NN to_TO define_VB sous-vide_NN may_MD be_VB to_TO refer_VB to_TO its_PRP$ French_JJ meaning_NN ,_, “_NNP under_IN vacuum._NN ”_NNP Anything_NNP associated_VBN with_IN a_DT vacuum_NN machine_NN is_VBZ sous-vide_JJ ._. In_IN restaurants_NNS ,_, the_DT sous-vide_JJ process_NN usually_RB (_( but_CC not_RB always_RB )_) consists_VBZ of_IN :_: placing_NN products_NNS into_IN impervious_JJ plastic_NN bags_NNS putting_VBG those_DT bags_NNS under_IN vacuum_NN heat_NN sealing_VBG those_DT bags_NNS releasing_VBG the_DT vacuum_NN further_RBR manipulating_NN ,_, processing_NN ,_, or_CC storing_VBG This_DT is_VBZ where_WRB it_PRP gets_VBZ confusing_VBG :_: sous-vide_JJ techniques_NNS are_VBP often_RB used_VBN for_IN low_JJ temperature_NN cooking_NN ,_, but_CC not_RB all_DT sous-vide_JJ cooking_NN is_VBZ low-temperature_JJ cooking_NN ._. The_DT classic_JJ example_NN of_IN this_DT is_VBZ boil-in-bag_JJ meals_NNS ._. The_DT cooking_NN medium_NN is_VBZ boiling_VBG water—not_RB low_JJ temperature_NN ._. Yet_CC ,_, because_IN there_EX is_VBZ a_DT vacuum_NN process_NN involved_VBN ,_, it_PRP is_VBZ sous-vide_JJ ._. That_DT said_VBD ,_, sous-vide_JJ is_VBZ very_RB effective_JJ for_IN low-temp_JJ cooking_NN because_IN food_NN inside_IN the_DT bags_NNS neither_CC dries_NNS out_RP nor_CC loses_VBZ flavor_NN during_IN prolonged_JJ cooking_NN if_IN proper_JJ temperature_NN is_VBZ maintained_VBN ._. The_DT vacuum_NN bags_NNS also_RB eliminate_VBP evaporation_NN and_CC evaporative_JJ cooling_NN ._. The_DT temperature_NN of_IN the_DT food_NN ’_NNP s_VBD surface_NN becomes_RB identical_JJ to_TO the_DT cooking_NN temperature_NN after_IN a_DT short_JJ time_NN ._. Chefs_NNP and_CC diners_NNS alike_RB often_RB confuse_VBP sous-vide_JJ and_CC low-temperature_JJ cooking_NN ._. Sous-vide_JJ must_MD involve_VB a_DT vacuum_NN process_NN ;_: but_CC the_DT food_NN may_MD be_VB cooked_VBN at_IN high_JJ or_CC low_JJ temperatures_NNS ._. About_IN 90_CD %_NN of_IN what_WP cooks_VBZ want_VBP to_TO achieve_VB with_IN low_JJ temperature_NN cooking_NN can_MD be_VB achieved_VBN without_IN a_DT vacuum_NN ._. II_NNP ._. SOME_NNP USES_NNP AND_NNP ADVANTAGES_NNP OF_NNP LOW_NNP TEMPERATURE_NNP COOKING_NN :_: Uniform_NN Cooking_NNP ,_, Increased_VBD Consistency_NNP ,_, and_CC Shifting_VBG Control_NNP to_TO the_DT Chef_NN :_: Traditional_JJ steak_NN vs._IN low-temp_JJ steak_NN ._. Traditional_JJ cooking_NN typically_RB uses_VBZ a_DT high_JJ ΔT_NN ._. Foods_NNS cooked_VBD in_IN this_DT manner_NN display_VBD an_DT overcooked_JJ portion_NN on_IN the_DT exterior_NN ._. Meat_NN cooked_VBD at_IN high_JJ temperatures_NNS does_VBZ not_RB have_VB one_CD level_NN of_IN doneness—it_NN is_VBZ tasted_VBN as_IN an_DT average_NN ,_, from_IN the_DT well-done_JJ exterior_NN to_TO the_DT less_JJR cooked_JJ center_NN ._. Low-temperature_JJ cooking_NN is_VBZ less_RBR forgiving_JJ ,_, because_IN there_EX is_VBZ no_DT way_NN to_TO average_VB out_RP errors_NNS ._. In_IN a_DT steak_NN cooked_VBN at_IN a_DT low_JJ ΔT_NN ,_, the_DT steak_NN retains_VBZ the_DT same_JJ temperature_NN throughout_IN ._. The_DT difference_NN of_IN 2°C_CD can_MD make_VB a_DT large_JJ difference_NN in_IN texture_NN when_WRB there_EX is_VBZ no_DT averaging_VBG effect—you_RB need_VB good_JJ temperature_NN control_NN (_( The_DT entire_JJ range_NN of_IN steak_NN doneness_NN ,_, from_IN rare_JJ to_TO well-done_NN ,_, is_VBZ only_RB a_DT matter_NN of_IN 14°C_CD (_( 25°F_CD )_) ._. Luckily_RB ,_, modern_JJ equipment_NN easily_RB gives_VBZ us_PRP temperature_VB control_NN accurate_VBP down_RP to_TO a_DT tenth_NN of_IN a_DT degree_NN ,_, which_WDT means_VBZ we_PRP can_MD cook_VB products_NNS extremely_RB uniformly_JJ and_CC get_VB them_PRP right_RB 100_CD %_NN of_IN the_DT time_NN ._. Uniformity_NN can_MD be_VB a_DT disadvantage—no_JJ one_CD wants_VBZ a_DT giant_JJ piece_NN of_IN roast_NN beef_NN that_WDT is_VBZ one_CD color_NN all_PDT the_DT way_NN across—but_VBZ most_JJS of_IN the_DT time_NN uniformity_NN is_VBZ an_DT advantage_NN because_IN it_PRP leads_VBZ to_TO increases_VB consistency_NN ._. Your_PRP$ steaks_NNS will_MD never_RB be_VB over_IN or_CC under_IN –always_NNS just_RB right_RB ._. This_DT advantage_NN can_MD not_RB be_VB overstated_VBN ,_, and_CC it_PRP applies_VBZ to_TO restaurants_NNS or_CC home_NN cooks_NNS ._. Additionally_RB ,_, because_IN the_DT hard_JJ work_NN of_IN reaching_VBG the_DT correct_JJ internal_JJ temperature_NN is_VBZ being_VBG regulated_VBN by_IN an_DT accurate_JJ piece_NN of_IN equipment_NN ,_, the_DT responsibility_NN for_IN getting_VBG the_DT product_NN right_NN is_VBZ shifted_VBN away_RB from_IN the_DT line_NN cook_NN towards_IN the_DT chef_NN who_WP is_VBZ choosing_VBG the_DT temperature_NN and_CC setting_VBG the_DT machine_NN ._. Shifting_VBG Work_NN from_IN Service_NNP to_TO Prep_NNP (_( or_CC from_IN Party_NNP to_TO Prep_NNP at_IN Home_NNP )_) :_: We_PRP can_MD always_RB make_VB more_JJR prep_JJ time_NN ._. Service_NNP is_VBZ what_WP service_NN is_VBZ ._. Any_JJ time_NN we_PRP can_MD shift_VB work_VB away_RB from_IN service_NN towards_NNS prep_IN we_PRP win_VBP ._. Many_JJ low_JJ temp_NN techniques_NNS require_VBP more_JJR prep_JJ time_NN than_IN their_PRP$ traditional_JJ counterparts_NNS ;_: but_CC are_VBP blindingly_RB fast_RB to_TO finish_VB off_RP at_IN service_NN time_NN ._. The_DT high_JJ speed_NN finish_JJ derives_NNS from_IN the_DT fact_NN that_IN the_DT food_NN is_VBZ pre-cooked_JJ and_CC can_MD be_VB held_VBN warm_JJ and_CC ready_JJ to_TO go_VB ,_, only_RB needing_VBG a_DT few_JJ seconds_NNS of_IN finishing_JJ time_NN ._. Speed_NN finishing_NN is_VBZ a_DT boon_NN to_TO the_DT home_NN cook_NN as_RB well_RB ._. Parties_NNS are_VBP a_DT lot_NN more_JJR fun_NN when_WRB you_PRP can_MD hang_VB out_RP with_IN your_PRP$ guests_NNS and_CC all_DT your_PRP$ food_NN is_VBZ in_IN perfect_JJ finish_NN at_IN the_DT same_JJ time_NN ._. Low-Temp_NNP for_IN Insurance_NN :_: Low-temp_JJ cooking_NN can_MD provide_VB a_DT type_NN of_IN cooking_VBG insurance_NN by_IN guaranteeing_VBG a_DT minimum_JJ doneness_NN ._. Here_RB ’_JJ s_JJ how_WRB :_: 1_CD ._. Low_JJ temp_IN your_PRP$ food_NN to_TO the_DT rarest_NN you_PRP want_VBP it_PRP ._. The_DT food_NN is_VBZ now_RB uniformly_RB rare_JJ ._. 2_CD ._. Cool_VB the_DT product_NN completely_RB ._. 3_CD ._. Cook_VB the_DT product_NN traditionally_RB ,_, but_CC focus_VBZ only_RB on_IN obtaining_VBG the_DT perfect_JJ exterior_NN because_IN the_DT middle_NN is_VBZ already_RB cooked_VBN ._. You_PRP have_VBP insured_VBN that_IN the_DT inside_NN is_VBZ done_VBN ._. Here_RB are_VBP some_DT examples_NNS of_IN low-temp_NN for_IN insurance_NN :_: Roasts_NNS can_MD be_VB challenging_VBG ._. Often_NNP you_PRP get_VBP a_DT good_JJ crust_NN before_IN the_DT middle_NN is_VBZ done_VBN and_CC then_RB overcook_VB the_DT whole_JJ piece_NN to_TO bring_VB up_RP the_DT center_NN ._. Other_JJ times_NNS ,_, you_PRP focus_VBP on_IN getting_VBG the_DT middle_JJ perfect_NN but_CC end_VB up_RP with_IN a_DT poor_JJ crust_NN ._. Low-temp_JJ insurance_NN fixes_NNS that_WDT ._. Low_NNP temp_VBD the_DT roast_NN till_NN it_PRP is_VBZ rare_JJ and_CC cool_VB it_PRP down_RP ._. Put_VB the_DT roast_NN in_IN a_DT high_JJ oven_NN and_CC pull_VB it_PRP when_WRB the_DT crust_NN is_VBZ perfect—you_JJ have_VBP already_RB insured_VBN that_IN the_DT middle_NN is_VBZ done_VBN ._. On_IN a_DT beef_NN Wellington_NNP it_PRP is_VBZ very_RB difficult_JJ to_TO insure_VB that_IN the_DT puff_NN pastry_NN and_CC the_DT beef_NN come_VBN out_RP nicely_RB at_IN the_DT same_JJ time_NN ._. Usually_RB the_DT meat_NN is_VBZ overcooked_VBN or_CC the_DT pastry_NN is_VBZ too_RB blond_JJ ._. With_IN low-temp_JJ insurance_NN you_PRP sear_VBP and_CC pre-cook_NN and_CC cool_VB your_PRP$ tenderloin_NN and_CC then_RB wrap_VB it_PRP in_IN puff_JJ pastry_NN ._. Now_RB ,_, you_PRP can_MD turn_VB your_PRP$ oven_VBN up_RP and_CC just_RB focus_VB on_IN getting_VBG the_DT pastry_NN nice_JJ and_CC brown_JJ since_IN your_PRP$ meat_NN is_VBZ already_RB cooked_VBN ._. Sausages_NNS are_VBP often_RB poached_VBN before_IN being_VBG finished_VBN in_IN a_DT pan_NN on_IN the_DT grill_NN ._. This_DT is_VBZ high-temp_JJ cooking_NN insurance_NN ._. Instead_RB ,_, low_JJ temp-cook_NN the_DT sausages_NNS (_( 60-62°C_JJ is_VBZ usually_RB good_JJ )_) ,_, then_RB finish_VB them_PRP on_IN a_DT grill_NN or_CC in_IN the_DT pan_NN ._. The_DT low-temp_JJ pre-cook_NN doesn_NN ’_NNP t_NN overcook_VBD the_DT meat_NN and_CC rely_RB on_IN fat_JJ alone_RB to_TO provide_VB juiciness_NN ._. Duck_NNP breast_NN is_VBZ best_RBS cooked_JJ with_IN low-temp_JJ insurance_NN ._. Pre-cook_VB the_DT breast_NN to_TO 57°C_CD and_CC cool_VB it_PRP down_RP ._. Then_RB just_RB focus_VB on_IN crispy_NN skin_NN ._. Low-temp_NNP for_IN insurance_NN tends_NNS to_TO produce_VB items_NNS that_WDT have_VBP textures_NNS and_CC appearances_NNS very_RB close_RB to_TO traditionally_RB cooked_JJ items_NNS ,_, just_RB better_JJR and_CC more_RBR consistent_JJ ._. Because_IN the_DT products_NNS have_VBP a_DT traditional_JJ feel_NN ,_, many_JJ cooks_NNS like_IN this_DT technique_NN ._. Low-Temp_NNP for_IN New_NNP and_CC Novel_NNP Textures_NNS :_: Low-temperature_JJ cooking_NN also_RB allows_VBZ for_IN the_DT production_NN of_IN some_DT textures_NNS that_WDT were_VBD traditionally_RB unattainable_JJ ._. Three_JJ examples_NNS :_: Super-low_JJ temp_JJ fish_NN :_: Fish_JJ heated_VBN at_IN extremely_RB low_JJ temperatures_NNS ,_, around_IN 50°C_CD or_CC (_( 122°F_CD )_) to_TO an_DT internal_JJ temperature_NN of_IN 42°C_CD (_( 107°F_CD )_) ,_, has_VBZ a_DT dense_NN ,_, fudge-like_JJ or_CC custard_JJ quality_NN unattainable_JJ with_IN high_JJ ΔT_NN cooking_NN ._. This_DT type_NN of_IN cooking_NN is_VBZ controversial_JJ ;_: many_JJ chefs_NNS dislike_VBP the_DT texture_NN attained_VBN with_IN these_DT methods_NNS ,_, and_CC some_DT scientists_NNS believe_VBP the_DT techniques_NNS are_VBP unsafe_JJ ._. Other_JJ chefs_JJ believe_VBP that_IN the_DT traditional_JJ cooking_NN method_NN overcooks_VBZ fish_JJ and_CC that_IN the_DT low-temperature_JJ method_NN is_VBZ best_RBS ._. Low_JJ temperature_NN braises_NNS :_: In_IN a_DT typical_JJ braise_NN ,_, meat_NN with_IN a_DT lot_NN of_IN connective_JJ tissue_NN is_VBZ cooked_VBN at_IN a_DT high_JJ temperature_NN for_IN several_JJ hours_NNS ._. The_DT high_JJ temperature_NN and_CC several_JJ hours_NNS is_VBZ what_WP is_VBZ needed_VBN to_TO break_VB down_RP the_DT collagen_NN into_IN gelatin_NN ._. This_DT process_NN overcooks_VBZ the_DT muscle_NN and_CC dries_NNS it_PRP out_RP ._. Luckily_RB ,_, the_DT gelatin_NN re-moistens_VBZ the_DT overcooked_JJ meat_NN and_CC produces_VBZ a_DT delicious_JJ braise_NN ._. When_WRB a_DT meat_NN is_VBZ under-braised_JJ ,_, it_PRP seems_VBZ tough_JJ and_CC dry_JJ because_IN the_DT collagen_NN hasn_NN ’_NNP t_NN melted_VBD into_IN juicy_NN ,_, water_NN holding_VBG gelatin_NN ._. With_IN low_JJ temperature_NN cooking_NN ,_, however_RB ,_, we_PRP can_MD hold_VB a_DT tough_JJ piece_NN of_IN meat_NN at_IN a_DT very_RB precise_JJ temperature_NN for_IN a_DT very_RB long_JJ time_NN ._. If_IN a_DT short_JJ rib_NN is_VBZ held_VBN at_IN 6o°C_CD (_( 140°F_CD )_) it_PRP will_MD maintain_VB a_DT lightly_RB pink_NN ,_, medium-cooked_JJ color_NN for_IN days_NNS ._. The_DT texture_NN of_IN the_DT muscle_NN fiber_VBD itself_PRP will_MD also_RB remain_VB somewhat_RB static_JJ ._. The_DT connective_JJ tissue_NN ,_, on_IN the_DT other_JJ hand_NN ,_, won_VBD ’_JJ t_NN break_VBP down_RP over_IN the_DT course_NN of_IN 3_CD or_CC 4_CD hours_NNS at_IN this_DT temperature—you_NN need_VBP to_TO cook_VB it_PRP for_IN two_CD full_JJ days_NNS ._. At_IN the_DT end_NN of_IN these_DT two_CD days_NNS ,_, however_RB ,_, you_PRP will_MD have_VB a_DT completely_RB pink_NN ,_, completely_RB tender_VB short_JJ rib_NN that_WDT is_VBZ a_DT dream_NN to_TO slice_VB and_CC portion_NN ._. Creamy_NNP egg_NN yolks_NNS :_: When_WRB you_PRP heat_VBP a_DT whole_JJ in-shell_NN egg_NN in_IN water_NN to_TO 63°C_CD (_( 145°F_CD )_) ,_, the_DT yolk_NN becomes_VBZ creamy—not_JJ runny_NNS ,_, not_RB set_VBN ._. One_CD degree_NN lower_JJR is_VBZ a_DT runny_JJ yolk_NN ._. One_CD degree_NN higher_JJR is_VBZ a_DT set_NN yolk_NN ._. The_DT 63°C_CD egg_NN is_VBZ a_DT delight_NN and_CC completely_RB impossible_JJ to_TO make_VB traditionally_RB ._. More_JJR on_IN eggs_NNS later_RB ._. Low-Temp_NNP for_IN Increased_VBN Tenderness_NN :_: Low-temperature_JJ cooking_NN can_MD also_RB produce_VB meats_NNS that_WDT are_VBP more_JJR tender_NN than_IN normal_JJ ._. Enzymes_NNS responsible_JJ for_IN some_DT of_IN the_DT benefits_NNS of_IN dry-aging_JJ meat_NN increase_NN activity_NN as_IN the_DT temperature_NN rises_VBZ ._. These_DT enzymes_NNS are_VBP most_RBS active_JJ right_NN before_IN they_PRP denature_VBP ,_, between_IN 49°C_CD and_CC 54.4°C_CD (_( 120°F_CD and_CC 129.9°F_CD )_) ._. Because_IN low-temperature_JJ cooking_NN allows_VBZ meat_NN to_TO stay_VB in_IN this_DT zone_NN longer_JJR than_IN traditional_JJ cooking_NN ,_, meat_NN is_VBZ more_RBR tender_NN than_IN normal_JJ ._. Traditionally_RB ,_, a_DT large_JJ piece_NN of_IN meat_NN heated_VBN for_IN a_DT long_JJ period_NN of_IN time_NN ,_, such_JJ as_IN a_DT roast_NN ,_, remains_VBZ tender_NN ._. Low-temperature_JJ cooking_NN makes_VBZ it_PRP possible_JJ for_IN smaller_JJR pieces_NNS of_IN meat_NN to_TO be_VB held_VBN at_IN these_DT low_JJ temperatures_NNS for_IN longer_JJR periods_NNS of_IN time_NN ._. III_NNP ._. LOW_JJ TEMPERATURE_NNP COOKING_NNP DISADVANTAGES_NNP Surface_NNP Browning_NNP ,_, the_DT Maillard_NNP Reaction_NNP ,_, and_CC the_DT Challenges_NNP of_IN Low-Temperature_JJ Cooking_NN :_: Low-temperature_JJ cooking_NN does_VBZ not_RB produce_VB crisp_NN ,_, flavorful_JJ ,_, brown_JJ exteriors_NNS ,_, which_WDT are_VBP usually_RB obtained_VBN by_IN cooking_VBG at_IN high_JJ temperatures_NNS ._. Much_RB of_IN the_DT artistry_NN of_IN low-temp_JJ cooking_NN involves_VBZ getting_VBG around_IN this_DT limitation_NN ._. Some_DT techniques_NNS include_VBP :_: Using_NNP meaty_NN ,_, savory_JJ flavors_NNS like_IN soy_NN sauce_NN and_CC miso_NN (_( both_DT are_VBP high_JJ in_IN umami_NN )_) ._. Quick-searing_JJ meats_NNS for_IN flavor_NN either_CC before_IN they_PRP are_VBP cooked_VBN ,_, right_JJ before_IN they_PRP are_VBP served_VBN ,_, or_CC both_DT ._. Quick-searing_NN in_IN low-temperature_JJ cooking_NN is_VBZ performed_VBN at_IN a_DT higher_JJR than_IN normal_JJ temperature_NN to_TO develop_VB a_DT brown_JJ crust_NN without_IN overcooking_VBG the_DT interior_NN of_IN the_DT meat_NN ._. Browning_NNP bones_NNS ,_, fat_NN ,_, inexpensive_JJ pieces_NNS of_IN meat_NN ,_, or_CC vegetables_NNS and_CC putting_VBG them_PRP into_IN the_DT vacuum_NN bag_NN along_IN with_IN the_DT main_JJ food_NN before_IN cooking_NN ._. The_DT savory_JJ notes_NNS of_IN the_DT added_JJ pieces_NNS permeate_VBP the_DT food_NN over_IN time_NN ._. Roasted_VBN fat_NN is_VBZ especially_RB useful_JJ ,_, as_IN many_JJ of_IN the_DT characteristic_JJ flavors_NNS of_IN different_JJ meats_NNS are_VBP generated_VBN by_IN the_DT taste_NN of_IN cooked_NNS and_CC broken_VB down_RP fats_NNS ._. Uniformity_NN of_IN Texture_NN :_: The_DT biggest_JJS gripe_NN people_NNS have_VBP with_IN low-temp_JJ cooking_NN is_VBZ that_IN the_DT uniformity_NN of_IN texture_NN ._. Some_DT people_NNS say_VBP that_IN all_DT low_JJ temp_NN food_NN is_VBZ “_JJ mushy._NNS ”_VBP While_IN it_PRP is_VBZ true_JJ that_IN bad-low_JJ temp_NN food_NN is_VBZ mushy_JJ ,_, good_JJ low-temp_JJ food_NN doesn_NN ’_NNP t_NN have_VBP to_TO be_VB ._. One_CD of_IN the_DT ways_NNS to_TO guard_VB against_IN uniformity_NN is_VBZ to_TO provide_VB texture_NN in_IN the_DT finishing_NN step—usually_RB by_IN searing_VBG ._. Adding_VBG crunchy_JJ garnishes_NNS or_CC cooking_VBG portions_NNS of_IN the_DT food_NN separately_RB to_TO compensate_VB for_IN the_DT lack_NN of_IN textural_JJ variety_NN is_VBZ another_DT option_NN ._. A_DT chicken_JJ breast_NN cooked_VBD sous-vide_JJ ,_, for_IN example_NN ,_, might_MD be_VB served_VBN with_IN a_DT piece_NN of_IN crispy_NN fried_VBN chicken_JJ skin_NN (_( although_IN we_PRP have_VBP had_VBN good_JJ chicken_NN this_DT way_NN ,_, we_PRP find_VBP the_DT skin_NN served_VBD this_DT way_NN not_RB as_RB satisfying_VBG as_IN good-old_JJ crispy_NN skin_NN that_WDT is_VBZ still_RB stuck_VBN to_TO the_DT chicken_NN )_) ._. Lastly_RB ,_, European_JJ chefs_NNS often_RB cook_VBP with_IN a_DT moderate_JJ ΔT_NN (_( usually_RB 10-15_CD C_NNP )_) to_TO “_VB overcook_NN ”_IN the_DT outside_NN of_IN the_DT food_NN and_CC provide_VB some_DT textural_JJ variation_NN ._. Most_JJS Americans_NNPS don_VBP ’_JJ t_NN cook_NN this_DT way_NN because_IN it_PRP require_VBP precise_JJ temperature_NN measurement_NN ,_, precise_JJ timing_NN ,_, or_CC both_DT ._. Most_JJS Americans_NNPS cook_VBP with_IN 0_CD ΔT_NNS and_CC add_VB texture_NN in_IN the_DT finishing_JJ step_NN ._. IV_NNP ._. WHY_NNP DO_NNP CHEFS_NNP USE_NNP SOUS-VIDE_NNP ?_. SOUS-VIDE_NNP FOR_NNP ECONOMY_NNP AND_NNP SOUS-VIDE_NNP FOR_NNP EFFECT_NNP Chefs_NNP may_MD use_VB sous-vide_JJ techniques_NNS and_CC processes_NNS for_IN a_DT variety_NN of_IN reasons_NNS which_WDT roughly_RB break_VBP down_RP into_IN two_CD categories_NNS :_: sous-vide_JJ for_IN economy_NN and_CC sous-vide_JJ for_IN effect_NN ._. The_DT two_CD approaches_NNS are_VBP not_RB mutually_RB exclusive_JJ ,_, therefore_IN it_PRP ’_VBZ s_JJ important_JJ to_TO thoroughly_JJ understand_JJ both_DT ._. Sous-Vide_NN For_IN Economy_NN :_: Storage_NN :_: Traditionally_RB ,_, vacuum-packing_NN has_VBZ been_VBN used_VBN to_TO enhance_VB the_DT storage_NN life_NN of_IN cooked_JJ products_NNS ._. The_DT bacteria_NN that_WDT cause_NN food_NN spoilage_NN need_NN oxygen_NN to_TO survive_VB ._. Since_IN vacuum_NN packaging_NN removes_VBZ all_DT air_NN (_( and_CC therefore_RB oxygen_NN )_) from_IN food_NN ,_, spoilage_NN is_VBZ slowed_VBN drastically_RB if_IN the_DT proper_JJ steps_NNS are_VBP taken_VBN ._. Oxidation_NN is_VBZ also_RB greatly_RB reduced_VBN by_IN utilizing_VBG vacuum-packing_NN ._. Foods_NNS like_IN cut_NN apples_NNS and_CC artichokes_NNS do_VBP not_RB turn_VB brown_RP quickly_RB in_IN vacuum_NN pouches_NNS ._. In_IN long-term_JJ storage_NN ,_, vacuum_NN bags_NNS can_MD prevent_VB the_DT oxygen-produced_JJ rancidity_NN of_IN unsaturated_JJ fats_NNS ._. Low-moisture_JJ products_NNS like_IN dehydrated_JJ fruit_NN chips_NNS tend_VBP to_TO stay_VB crispy_VB indefinitely_RB in_IN the_DT low-moisture_JJ vacuum_NN environment_NN ._. Unfortunately_RB ,_, some_DT bacteria_NNS that_WDT cause_VBP illness_NN (_( pathogens_NNS )_) are_VBP not_RB inhibited_VBN by_IN a_DT lack_NN of_IN oxygen_NN ._. In_IN fact_NN ,_, some_DT of_IN the_DT most_RBS dangerous_JJ bacteria_NNS thrive_VBP only_RB in_IN the_DT absence_NN of_IN oxygen_NN ._. If_IN sous-vide_JJ products_NNS are_VBP kept_VBN in_IN unsafe_JJ conditions_NNS ,_, these_DT pathogens_NNS can_MD grow_VB to_TO dangerous_JJ levels_NNS without_IN the_DT simultaneous_JJ spoilage_NN that_WDT would_MD normally_RB signal_VB their_PRP$ presence_NN ._. This_DT is_VBZ why_WRB it_PRP is_VBZ important_JJ to_TO adhere_VB to_TO safety_NN rules_NNS when_WRB using_VBG sous-vide_RB ._. Organization_NN :_: Vacuum-packed_JJ pre-portioned_JJ foods_NNS are_VBP neat_JJ ,_, sanitary_JJ ,_, and_CC easy_JJ to_TO organize_VB ._. Many_JJ portions_NNS of_IN the_DT same_JJ product_NN can_MD be_VB fabricated_VBN at_IN the_DT same_JJ time_NN and_CC then_RB sealed_VBD ,_, which_WDT minimizes_VBZ cross-contamination_NN ._. The_DT food_NN is_VBZ handled_VBN minimally_RB before_IN being_VBG placed_VBN in_IN a_DT sterile_JJ environment_NN ._. Retrieving_VBG food_NN is_VBZ easy_JJ ,_, and_CC each_DT portion_NN is_VBZ individually_RB protected_VBN from_IN spills_NNS and_CC other_JJ dangers_NNS ,_, such_JJ as_IN a_DT raw_JJ product_NN dripping_VBG onto_IN a_DT cooked_JJ product_NN ._. Sous-Vide_JJ for_IN Effect_NN :_: Recently_RB ,_, the_DT unique_JJ properties_NNS of_IN the_DT sous-vide_JJ process_NN have_VBP inspired_VBN a_DT cooking_NN movement_NN that_WDT aims_VBZ solely_RB to_TO increase_VB the_DT quality_NN of_IN food_NN and_CC achieve_VBP special_JJ culinary_JJ effects_NNS ._. Think_NN of_IN this_DT as_IN sous-vide_NN for_IN effect_NN ._. Texture_NN Modification_NNP (_( aka_JJ Compression_NNP )_) :_: The_DT key_NN to_TO this_DT technique_NN is_VBZ long_RB vacuuming_VBG to_TO get_VB all_PDT the_DT air_NN out_IN of_IN the_DT inside_NN of_IN the_DT food_NN ._. After_IN the_DT food_NN is_VBZ sealed_VBN and_CC the_DT vacuum_NN released_VBN ,_, there_EX is_VBZ an_DT immediate_JJ observable_JJ change_NN in_IN the_DT product_NN as_IN the_DT voids_NNS that_WDT used_VBD to_TO contain_VB air_NN are_VBP compressed_VBN ._. On_IN some_DT products_NNS ,_, the_DT effects_NNS of_IN compression_NN are_VBP accentuated_VBN over_IN time_NN (_( pears_VBZ become_VBN more_RBR translucent_JJ after_IN several_JJ hours_NNS )_) ._. This_DT process_NN can_MD be_VB accelerated_VBN by_IN re-vacuuming_VBG the_DT sealed_JJ bag_NN until_IN the_DT bag_NN inflates_VBZ with_IN water_NN vapor_NN and_CC then_RB releasing_VBG the_DT vacuum_NN ._. Porous_JJ foods_NNS can_MD have_VB their_PRP$ texture_NN and_CC appearance_NN radically_RB modified_VBN by_IN vacuum-packaging_NN ._. Watermelon_NNP ,_, for_IN instance_NN ,_, becomes_VBZ denser_RB ,_, changing_VBG from_IN a_DT mealy_NN to_TO a_DT candy-like_JJ texture_NN ._. Pears_NNP ,_, cucumbers_NNS ,_, and_CC tomatoes_VBZ become_VBN translucent_JJ ._. Flash_NNP Pickling_NNP and_CC Vacuum_NNP Marination_NNP :_: Vacuum-packaging_JJ foods_NNS increases_VBZ the_DT uptake_NN of_IN flavorful_JJ liquids_NNS ,_, brines_NNS ,_, and_CC colors_NNS ._. The_DT more_RBR porous_JJ the_DT item_NN ,_, the_DT more_RBR dramatic_JJ the_DT end_NN results_NNS are_VBP ._. For_IN example_NN ,_, a_DT pear_NN can_MD be_VB colored_VBN with_IN port_NN in_IN an_DT hour_NN under_IN vacuum_NN ._. Cucumbers_NNS and_CC other_JJ vegetables_NNS can_MD be_VB flash_VBN pickled_VBN in_IN seconds_NNS ._. Meats_NNS can_MD be_VB brined_VBN in_IN much_JJ less_JJR time_NN than_IN at_IN atmospheric_JJ pressure_NN ._. Forming_NN :_: The_DT pressure_NN exerted_VBN by_IN the_DT atmosphere_NN can_MD be_VB used_VBN to_TO form_VB dishes_NNS ._. Layers_NNS of_IN food_NN can_MD be_VB pressed_VBN extremely_RB flat_JJ ._. Once_RB removed_VBN from_IN the_DT bag_NN ,_, these_DT compressed_JJ layers_NNS become_VBP easy_JJ to_TO slice_VB into_IN beautiful_JJ portions_NNS ._. Food_NN can_MD be_VB arranged_VBN as_IN in_IN a_DT terrine_NN ,_, vacuumed_VBD ,_, solidified_VBN ,_, and_CC sliced_VBD for_IN decorative_JJ effects_NNS ._. Some_DT effects_NNS formerly_RB achieved_VBN with_IN a_DT simple_JJ mold_NN and_CC a_DT weight_NN can_MD be_VB achieved_VBN more_RBR easily_RB with_IN a_DT vacuum_NN machine_NN ._. De-airing_NN :_: When_WRB thick_NN sauces_NNS and_CC purées_NNS are_VBP blended_VBN ,_, they_PRP often_RB have_VBP large_JJ amounts_NNS of_IN air_NN whipped_VBN into_IN them_PRP ._. Sometimes_RB this_DT air_NN is_VBZ undesirable_JJ ._. When_WRB chefs_NNS use_VBP modern_JJ thickeners_NNS and_CC gelling_VBG agents_NNS ,_, like_IN xanthan_NNP gum_NN ,_, trapped_VBD air_NN becomes_VBZ a_DT problem_NN ,_, as_IN it_PRP affects_VBZ the_DT body_NN of_IN the_DT sauce_NN and_CC its_PRP$ appearance_NN (_( liquids_NNS with_IN many_JJ air_NN bubbles_NNS appear_VBP white_JJ and_CC opaque_NN )_) ._. The_DT thicker_NN the_DT sauce_NN ,_, the_DT more_RBR difficult_JJ it_PRP is_VBZ to_TO remove_VB air_NN ._. Sauces_NNS that_WDT contain_VBP too_RB much_JJ air_NN can_MD be_VB made_VBN crystal_JJ clear_JJ by_IN removing_VBG the_DT air_NN bubbles_VBZ in_IN a_DT vacuum_NN machine_NN ._. Any_DT liquid_NN can_MD have_VB all_DT their_PRP$ bubbles_NNS removed_VBN in_IN a_DT vacuum_NN machine_NN ._. Place_VB the_DT liquid_NN in_IN an_DT appropriately_JJ wide_JJ container_NN (_( not_RB a_DT bag_NN )_) inside_IN the_DT vacuum_NN machine_NN ._. If_IN there_EX is_VBZ too_RB much_JJ liquid_NN in_IN the_DT container_NN ,_, the_DT mixture_NN will_MD boil_VB over_IN and_CC create_VB a_DT mess_NN during_IN the_DT process_NN ._. Close_VB the_DT chamber_NN and_CC introduce_VB a_DT vacuum_NN ;_: the_DT liquid_NN will_MD start_VB to_TO rise_VB and_CC bubble_JJ ._. Soon_NN after_IN ,_, the_DT initial_JJ bubbles_NNS will_MD break_VB and_CC the_DT liquid_NN will_MD enter_VB a_DT rolling_JJ boil_NN ._. At_IN this_DT point_NN the_DT vacuum_NN can_MD be_VB released_VBN and_CC the_DT liquid_NN will_MD have_VB cleared_VBN ._. This_DT procedure_NN is_VBZ one_CD scenario_NN where_WRB there_EX is_VBZ no_DT need_NN to_TO pre-chill_VB the_DT product_NN being_VBG vacuumed_VBN because_IN the_DT desired_JJ outcome_NN is_VBZ to_TO have_VB the_DT product_NN boil_NN ._.</t>
-  </si>
-  <si>
-    <t>You_PRP killed_VBD me_PRP last_JJ night_NN ._. In_IN a_DT dream_NN ._. There_EX was_VBD is_VBZ so_RB much_JJ anger_NN inside_IN you_PRP ._. I_PRP was_VBD sleeping_VBG ,_, Dakota_NNP laying_VBG close_RB to_TO my_PRP$ heart_NN ,_, his_PRP$ breath_NN strong_JJ and_CC easy_JJ against_IN my_PRP$ face_NN ._. In_IN contrast_NN ,_, it_PRP was_VBD the_DT sound_NN of_IN your_PRP$ haggard_NN ,_, fervent_JJ breath_NN closing_NN in_IN on_IN us_PRP ,_, that_IN woke_VBD me_PRP ._. Panic_JJ leaping_NN through_IN my_PRP$ body_NN ,_, racing_VBG to_TO my_PRP$ throat_NN ,_, choking_VBG off_RP words_NNS ._. The_DT look_NN in_IN your_PRP$ eyes_NNS ,_, so_RB much_JJ rage_NN ,_, passion_NN ,_, undeniable_JJ heat_NN ._. And_CC while_IN my_PRP$ heart_NN knew_VBD that_IN these_DT would_MD be_VB the_DT last_JJ few_JJ beats_NNS to_TO ever_RB pound_NN against_IN my_PRP$ fragile_JJ frame_NN ,_, I_PRP remember_VBP thinking_VBG ,_, where_WRB was_VBD that_IN intensity_NN ,_, that_IN blazing_VBG inferno_NN when_WRB I_PRP needed_VBD it_PRP most_JJS ?_. When_WRB I_PRP needed_VBD you_PRP most_JJS ?_. You_PRP killed_VBD me_PRP last_JJ night_NN month_NN ._. It_PRP was_VBD n't_RB a_DT dream_NN ._.</t>
-  </si>
-  <si>
-    <t>The_DT second_JJ installment_NN of_IN Stephenie_NNP Meyer_NNP 's_POS hugely_RB popular_JJ and_CC successful_JJ Twilight_NNP franchise_NN did_VBD exactly_RB what_WP it_PRP set_VBD out_RP to_TO do_VB :_: capitalize_VB on_IN its_PRP$ pre-existing_JJ fanbase_NN and_CC deliver_VB more_JJR vampire/human/werewolf_NN romantic_JJ intrigue_NN ._. Though_IN it_PRP only_RB scored_VBD an_DT overall_JJ 28_CD %_NN on_IN the_DT Tomatometer_NNP (_( compared_VBN to_TO the_DT first_JJ movie_NN 's_POS 50_CD %_NN rating_NN )_) ,_, The_DT Twilight_NNP Saga_NNP :_: New_NNP Moon_NNP was_VBD a_DT box_NN office_NN success_NN ,_, making_VBG close_JJ to_TO $_$ 300_CD million_CD ._. The_DT story_NN follows_VBZ the_DT continuing_VBG adventures_NNS of_IN everygirl_JJ Bella_NNP Swan_NNP ,_, whose_WP$ vampire_NN heartthrob_NN Edward_NNP Cullen_NNP leaves_VBZ town_NN in_IN order_NN to_TO keep_VB Bella_NNP safe_JJ from_IN his_PRP$ enemies_NNS ;_:</t>
-  </si>
-  <si>
-    <t>In_IN real_JJ life_NN ,_, when_WRB my_PRP$ friends_NNS split_VBP up_RB ,_, I_PRP have_VBP a_DT really_RB good_JJ track_NN record_NN of_IN staying_VBG friends_NNS with_IN both_DT sides_NNS ._. I_PRP have_VBP done_VBN it_PRP pretty_RB successfully_RB here_RB on_IN MySpace_NNP too_RB ._. We_PRP are_VBP all_DT flawed_VBN ,_, every_DT one_CD of_IN us_PRP ._. The_DT longer_RBR we_PRP know_VBP someone_NN and_CC the_DT more_RBR we_PRP see_VBP of_IN them_PRP ,_, the_DT more_RBR we_PRP learn_VBP about_IN their_PRP$ personality_NN ,_, quirks_NNS and_CC character_NN ._. We_PRP see_VBP the_DT good_JJ points_NNS and_CC the_DT bad_JJ points_NNS and_CC if_IN we_PRP love_VBP them_PRP ,_, we_PRP accept_VBP those_DT things_NNS as_IN all_DT ``_`` part_NN of_IN the_DT package_NN ''_'' ._. Recently_RB some_DT real-life_JJ friends_NNS of_IN mine_NN were_VBD going_VBG through_IN a_DT really_RB tough_JJ time_NN in_IN their_PRP$ relationship_NN ._. Stacey_NNP was_VBD afraid_JJ her_PRP$ boyfriend_NN was_VBD cheating_VBG on_IN her_PRP$ and_CC she_PRP was_VBD confiding_VBG in_IN me_PRP a_DT lot_NN ,_, because_IN she_PRP knew_VBD four_CD things_NNS :_: -_: that_IN she_PRP could_MD trust_VB me_PRP -_: that_IN I_PRP would_MD listen_VB but_CC not_RB tell_VB her_PRP$ what_WP to_TO do_VB -_: that_IN I_PRP loved_VBD her_PRP boyfriend_NN and_CC knew_VBD him_PRP very_RB well_RB -_: that_IN I_PRP would_MD tell_VB her_PRP$ the_DT truth_NN What_WP was_VBD really_RB interesting_JJ was_VBD the_DT out-of-character_JJ behavior_NN that_IN she_PRP displayed_VBD during_IN her_PRP$ melt-down_JJ ._. She_PRP became_VBD crazy_JJ jealous_JJ obsessed_VBN girlfriend_NN ._. She_PRP hacked_VBD into_IN his_PRP$ computer_NN ,_, his_PRP$ Facebook_NN and_CC his_PRP$ cell_NN phone_NN messages_NNS ._.</t>
-  </si>
-  <si>
-    <t>1_CD ._. Avoid_VB them_PRP ,_, or_CC 2_CD ._. Do_VB the_DT harder_NN thing_NN (_( Which_NNP ,_, in_IN my_PRP$ opinion_NN is_VBZ always_RB the_DT best_JJS )_) ,_, and_CC empathize_VB with_IN them_PRP and_CC their_PRP$ issue_NN ._. You_PRP ca_MD n't_RB change_VB anyone_NN ,_, but_CC I_PRP think_VBP if_IN you_PRP empathize_VBP ,_, that_DT builds_VBZ trust_NN ,_, and_CC you_PRP could_MD possibly_RB have_VB the_DT opportunity_NN to_TO offer_VB some_DT steps_NNS to_TO correct_VB the_DT looping_JJ path_NN away_RB from_IN the_DT issue_NN ._. I_PRP 'm_VBP not_RB a_DT professional_JJ counselor_NN (_( I_PRP 'm_VBP think_VB you_PRP might_MD not_RB be_VB either_RB )_) ,_, but_CC caring_VBG for_IN someone_NN and_CC their_PRP$ issue_NN can_MD open_VB up_RP your_PRP$ heart_NN and_CC mind_NN to_TO offer_VB caring_VBG advice_NN from_IN time_NN to_TO time_NN ._. Love_NNP and_CC empathy_NN can_MD help_VB you_PRP help_VB others_NNS ._. All_PDT this_DT is_VBZ hard_JJ ._. Life_VB itself_PRP is_VBZ hard_JJ ,_, but_CC sometimes_RB the_DT hardest_JJS lessons_NNS are_VBP the_DT most_RBS rewarding_JJ ._. Practice_NNP empathy_NN ._. Do_VB your_PRP$ best_JJS to_TO set_VB aside_RP the_DT instant_JJ platitude_NN ,_, listen_VB and_CC be_VB empathetic_JJ ._. The_DT world_NN is_VBZ full_JJ of_IN people_NNS going_VBG through_IN difficult_JJ times_NNS ,_, and_CC if_IN you_PRP take_VBP some_DT times_NNS to_TO start_VB to_TO practice_NN empathy_NN ,_, you_PRP could_MD have_VB the_DT opportunity_NN to_TO release_VB the_DT pain_NN of_IN one_CD person_NN ,_, and_CC that_DT could_MD have_VB a_DT positive_JJ ripple_NN effect_NN ._. I_PRP 'll_MD leave_VB you_PRP with_IN this_DT ._. This_DT has_VBZ happened_VBN to_TO me_PRP ._. Sometimes_VBZ the_DT people_NNS that_IN you_PRP help_VBP with_IN empathy_JJ ,_, can_MD turn_VB around_RP and_CC help_VB you_PRP in_IN a_DT future_JJ time_NN ._. We_PRP are_VBP not_RB on_IN this_DT planet_NN to_TO be_VB on_IN our_PRP$ own_JJ ,_, we_PRP need_VBP each_DT other_JJ ._. Have_VBP a_DT great_JJ week_NN ._. Another_DT little_JJ distraction_NN coming_VBG next_JJ Monday_NNP ._. Tell_VB a_DT friend_NN ._. :_: )_)</t>
-  </si>
-  <si>
-    <t>okay_RB im_RB not_RB as_IN good_JJ with_IN words_NNS as_IN you_PRP are_VBP OKAY_JJ !_. so_RB cut_VBD us_PRP some_DT slack_VBP this_DT means_VBZ i_JJ gota_NNS say_VBP sumthn_JJ nice_JJ ae_NN ?_. ?_. *clix*dammit_NN VIGAAAY_NNP !_. watz_NN gewd_NN in_IN d_JJ hood_NN !_. !_. LOL_NNP hmm_VBD met_VBD this_DT fella_NN last_JJ yr_NN ..comes_NNS to_TO my_PRP$ house_NN with_IN anna_NN and_CC impresses_NNS mum_VBP with_IN conversation_NN !_. haha_JJ suck_JJ upppp_NN !_. !_. imagine_NN this_DT !_. two_CD nri'z_JJ having_VBG an_DT argument_NN over_IN nothing_NN in_IN tamil_NN !_. haha_JJ yes_NN we_PRP both_DT flew_VBD frm_NN diff_NN parts_NNS of_IN the_DT world_NN to_TO meet_VB here_RB so_IN we_PRP can_MD have_VB our_PRP$ lil_JJ fights_NNS verbally_RB that_DT is_VBZ !_. and_CC me_PRP being_VBG me_PRP ALWAYS_NNP wins_VBZ !_. coz_NN im_JJ jus_NN da_NN BEST_NNP !_. gna_NN deny_NN this_DT buh_NN ..._: him_PRP n_RB anna_VBP have_VBP sumthn_VBN going_VBG on_IN haha_NN no_DT im_NN not_RB jealous_JJ !_. fabolous_JJ dancer_NN !_. lol_NN nearly_RB ..._: just_RB nearly_RB as_RB good_JJ as_IN me_PRP dw_VBZ youll_JJ get_NN there_EX one_CD day_NN !_. hehe_NN !_. quiet_JJ sensitive_JJ n_JJ very_RB open_JJ with_IN his_PRP$ opinions_NNS (_( evn_IN if_IN it_PRP means_VBZ dissn_JJ yur_RB own_JJ mate_NN out_IN for_IN me_PRP :_: P_VB ahem_IN ahem_NN )_) but_CC at_IN the_DT same_JJ time_NN likes_NNS to_TO pick_VB on_IN me_PRP !_. .._JJ daii_NN !_. !_. need_NN i_NNS say_VBP more_JJR ?_. ladiesz_JJ man_NN !_. lawlz_NN !_. very_RB good_JJ with_IN his_PRP$ words_NNS hasa_VBP way_NN of_IN getn_NN to_TO you_PRP !_. BE_VB AWARE_JJ !_. haha_NN naaww_NN !_. stay_VB the_DT same_JJ never_RB change_VBP tc_NNS Lalloo_NNP</t>
-  </si>
-  <si>
-    <t>I_PRP suppose_VBP my_PRP$ biggest_JJS piece_NN of_IN advice_NN for_IN applying_VBG is_VBZ (_( to_TO the_DT extent_NN possible_JJ )_) find_VBP someone_NN you_PRP know_VBP and_CC trust_VBP at_IN the_DT institution_NN and_CC try_VB to_TO figure_VB out_RP exactly_RB what_WP they_PRP 're_VBP looking_VBG for_IN ._. Obviously_RB you_PRP ca_MD n't_RB change_VB who_WP you_PRP are_VBP and_CC the_DT work_NN you_PRP 've_VBP done_VBN ,_, but_CC you_PRP definitely_RB can_MD sell_VB it_PRP in_IN slightly_RB different_JJ ways_NNS ._. This_DT is_VBZ why_WRB I_PRP essentially_RB had_VBD three_CD application_NN packages_NNS --_: the_DT material_NN was_VBD the_DT same_JJ ,_, the_DT focus_NN was_VBD different_JJ ._. But_CC ,_, importantly_RB ,_, they_PRP were_VBD all_DT true_JJ ._. The_DT more_RBR this_DT person_NN trusts_VBZ you_PRP ,_, the_DT more_JJR of_IN the_DT inside_NN scoop_NN they_PRP can_MD give_VB you_PRP ._. For_IN instance_NN ,_, we_PRP had_VBD a_DT robotics/ML_JJ position_NN open_FW (_( which_WDT ,_, sadly_RB ,_, we_PRP had_VBD to_TO close_VB due_JJ to_TO budget_NN issues_NNS )_) ,_, but_CC in_IN talking_VBG to_TO several_JJ ML_NNP people_NNS ,_, they_PRP felt_VBD that_IN they_PRP were_VBD n't_RB sufficiently_RB ``_`` robotics_NNS ''_'' enough_RB ;_: I_PRP think_VBP I_PRP was_VBD able_JJ to_TO dissuade_VB them_PRP of_IN this_DT opinion_NN and_CC we_PRP ended_VBD up_RP getting_VBG a_DT lot_NN of_IN excellent_JJ applicants_NNS before_IN we_PRP shut_VBP down_RP the_DT slot_NN ._. Related_VBN ,_, it_PRP 's_VBZ hard_JJ to_TO sell_VB yourself_PRP across_IN two_CD fields_NNS ._. At_IN the_DT time_NN I_PRP graduated_VBD ,_, I_PRP saw_VBD myself_PRP as_IN basically_RB straddling_VBG NLP_NNP and_CC ML_NNP ._. This_DT can_MD be_VB a_DT hard_JJ sell_NN to_TO make_VB ._. I_PRP feel_VBP in_IN retrospect_NN that_IN you_PRP 're_VBP often_RB better_JJR off_RP picking_VBG something_NN and_CC really_RB selling_VBG that_IN aspect_NN ._. From_IN the_DT other_JJ side_NN of_IN the_DT curtain_NN ,_, what_WP often_RB happens_VBZ is_VBZ that_IN you_PRP need_VBP an_DT advocate_NN (_( or_CC two_CD )_) in_IN the_DT department_NN to_TO which_WDT you_PRP 're_VBP applying_VBG ._. If_IN you_PRP sell_VBP yourself_PRP as_IN an_DT X_NNP person_NN ,_, you_PRP can_MD get_VB faculty_NN in_IN X_NNP behind_IN you_PRP ;_: if_IN you_PRP sell_VBP yourself_PRP as_IN a_DT Y_NNP person_NN ,_, you_PRP can_MD get_VB faculty_NN in_IN Y_NNP behind_IN you_PRP ._. However_RB ,_, if_IN you_PRP sell_VBP yourself_PRP as_IN a_DT mix_NN ,_, the_DT X_NNP faculty_NN might_MD prefer_VB a_DT pure_NN X_NN and_CC the_DT Y_NNP faculty_NN might_MD prefer_VB a_DT pure_NN Y_NNP ._. Of_IN course_NN ,_, this_DT is_VBZ n't_RB always_RB true_JJ :_: Maryland_NN is_VBZ basically_RB looking_VBG for_IN a_DT combined_JJ NLP/ML_NNP person_NN this_DT year_NN to_TO compliment_VB their_PRP$ existing_JJ strengths_NNS ._. Of_IN course_NN ,_, this_DT does_VBZ n't_RB always_RB hold_VB :_: this_DT is_VBZ something_NN that_IN you_PRP should_MD try_VB to_TO find_VB out_RP from_IN friends_NNS at_IN the_DT places_NNS to_TO which_WDT you_PRP 're_VBP applying_VBG ._. For_IN the_DT application_NN process_NN itself_PRP ,_, my_PRP$ experience_NN here_RB and_CC what_WP I_PRP 've_VBP heard_VBN from_IN most_JJS (_( but_CC not_RB all_DT )_) universities_NNS is_VBZ that_IN interview_NN decisions_NNS (_( who_WP to_TO call_VB in_IN )_) get_NN made_VBN by_IN a_DT topic-specific_JJ hiring_NN committee_NN ._. This_DT means_VBZ that_IN to_TO get_VB in_IN the_DT door_NN ,_, you_PRP have_VBP to_TO appeal_VB to_TO the_DT hiring_NN committee_NN ,_, which_WDT is_VBZ typically_RB people_NNS in_IN your_PRP$ area_NN ,_, if_IN it_PRP 's_VBZ an_DT area-specific_JJ call_NN for_IN applications_NNS ._. Typically_RB your_PRP$ application_NN will_MD go_VB to_TO an_DT admin_NN ,_, first_RB ,_, who_WP will_MD filter_VB based_VBN on_IN your_PRP$ cover_NN letter_NN to_TO put_VB you_PRP in_IN the_DT right_NN basket_NN (_( if_IN there_EX are_VBP multiple_JJ open_JJ slots_NNS )_) or_CC the_DT waste_NN basket_NN (_( for_IN instance_NN ,_, if_IN you_PRP do_VBP n't_RB have_VB a_DT PhD_NNP )_) ._. It_PRP then_RB goes_VBZ to_TO the_DT hiring_NN committee_NN ._. Again_NNP ,_, if_IN you_PRP have_VBP a_DT friend_NN in_IN the_DT department_NN ,_, it_PRP 's_VBZ not_RB a_DT bad_JJ idea_NN to_TO let_VB them_PRP know_VB by_IN email_NN that_IN you_PRP 've_VBP applied_VBN after_IN everything_NN has_VBZ been_VBN submitted_VBN (_( including_VBG letters_NNS )_) to_TO make_VB sure_JJ that_IN you_PRP do_VBP n't_RB end_VB up_RP in_IN the_DT waste_NN bin_NN ._.</t>
-  </si>
-  <si>
-    <t>The_DT other_JJ day_NN a_DT random_NN thought_NN crossed_VBN my_PRP$ mind_NN while_IN scanning_VBG through_IN some_DT photos_NNS of_IN a_DT friend…When_NN was_VBD the_DT last_JJ time_NN i_NN opened_VBD a_DT album_NN ?_. (_( i_JJ mean_VBP the_DT paperback_NN ones_NNS )_) God_NNP ,_, it_PRP ’_VBD s_RB been_VBN so_RB long_JJ ago..I_NN can_MD ’_VB t_VB even_RB remember_VB now..Digital_JJ camera_NN ’_NNP s_NN just_RB spoilt_VBD us_PRP crazy.._VBP I_PRP remember_VBP when_WRB we_PRP would_MD just_RB click_VB pictures_NNS with_IN our_PRP$ Minolta_NNP camera_NN and_CC wait_NN desperately_RB to_TO receive_VB the_DT photos_NN from_IN the_DT studio_NN just_RB to_TO see_VB how_WRB they_PRP turned_VBD out…That_WP excitement_NN is_VBZ dead_JJ now..No_JJ curiosity_NN ..nothing_VBG Forget_NNP the_DT inquisitiveness_NN ,_, that_WDT is_VBZ an_DT attribute_JJ long_JJ dead_JJ anyway…but_IN the_DT fact_NN that_IN you_PRP can_MD sit_VB on_IN your_PRP$ favourite_JJ chair_NN with_IN a_DT photo_NN album_NN and_CC a_DT cup_NN of_IN tea_NN to_TO remember_VB the_DT funny_NN and_CC happy_JJ times_NNS on_IN a_DT rainy_JJ evening..is_NN just_RB priceless…_NN I_PRP am_VBP not_RB against_IN digital_JJ camera_NN ’_NN s…I_NN love_VB them_PRP !_. But_CC the_DT feeling_NN when_WRB you_PRP can_MD open_VB an_DT album_NN and_CC reminisce_NN is_VBZ extraordinary…_RB Now_RB for_IN the_DT smart_JJ ones_NNS out_RP there..yeah_RB yeah..just_RB print_VB the_DT photo_NN out…_NN (_( i_NN know_VBP that_IN !_. )_) …but_VBP really_RB how_WRB many_JJ of_IN us_PRP do_VBP that_DT ?_. we_PRP just_RB keep_VB gaping_VBG at_IN the_DT photos_NN on_IN our_PRP$ laptops_NNS …_VBP !_. !_. !_. I_PRP miss_VBP having_VBG pictures_NNS adorning_VBG my_PRP$ wall_NN !_. Pictures_NNS of_IN you…and_NN me_PRP</t>
-  </si>
-  <si>
-    <t>Seeing_VBG as_IN there_EX is_VBZ a_DT dry_JJ ,_, sunny_JJ day_NN unfurling_VBG right_JJ outside_IN my_PRP$ window_NN ,_, Spring_NNP ca_MD n't_RB be_VB far_RB away_RB ,_, and_CC with_IN it_PRP the_DT long_JJ rumored_JJ Netflix_NNP Instant_NNP Streaming_NNP functionality_NN creeps_NNS ever_RB closer_VBP to_TO Wii_NNP owners_NNS ,_, and_CC yes_UH ,_, by_IN owners_NNS I_PRP mean_VBP me_PRP ._. Truth_NN be_VB told_VBN ,_, this_DT functionality_NN is_VBZ far_RB more_JJR than_IN a_DT rumor_NN ._. It_PRP was_VBD in_IN fact_NN confirmed_VBN on_IN the_DT Netflix_NNP Blog_NNP back_RB in_IN January_NNP ._. Also_RB ,_, of_IN course_NN Netflix_NNP streaming_NN is_VBZ nothing_NN new_JJ ,_, having_VBG been_VBN available_JJ for_IN a_DT good_JJ long_RB while_IN via_IN computer_NN and_CC a_DT pretty_JJ wide_JJ array_NN of_IN devices_NNS ,_, including_VBG Wii_NNP competitors_NNS Xbox_VBD 360_CD and_CC PlayStation_NNP 3_CD ._. The_DT question_NN has_VBZ got_VBN to_TO be_VB though_IN ,_, why_WRB did_VBD this_DT take_VB so_RB long_RB ?_. After_IN all_DT ,_, with_IN literally_JJ millions_NNS of_IN Wiis_NNP having_VBG been_VBN sold_VBN across_IN a_DT very_RB mainstream_JJ demographic_NN in_IN less_JJR than_IN four_CD years_NNS ,_, Nintendo_NNP 's_POS device_NN would_MD seem_VB the_DT perfect_JJ hardware_NN target_NN ._. It_PRP might_MD be_VB that_IN Netflix_NNP was_VBD bound_VBN by_IN exclusivity_NN agreements_NNS in_IN these_DT earlier_JJR deals_NNS ,_, or_CC perhaps_RB it_PRP is_VBZ that_IN Nintendo_NNP did_VBD n't_RB see_VB video_JJ functionality_NN as_IN worth_NN its_PRP$ time_NN ,_, considering_VBG the_DT Wii_NNP 's_POS modest_JJ processing_NN power_NN ,_, the_DT overall_JJ limited_JJ number_NN of_IN titles_NNS available_JJ via_IN the_DT service_NN and/or_NN that_IN they_PRP would_MD not_RB have_VB total_JJ control_NN ._. Along_IN with_IN possibly_RB a_DT little_JJ arrogance_NN on_IN Nintendo_NNP 's_POS part_NN ,_, all_DT of_IN these_DT are_VBP fairly_RB valid_JJ possibilities_NNS ._. What_WP is_VBZ certain_JJ though_IN is_VBZ that_IN a_DT large_JJ number_NN of_IN Netflix_NNP subscribers_NNS use_VBP the_DT streaming_NN service_NN ,_, not_RB to_TO replace_VB the_DT mail-based_JJ primary_JJ Netflix_NNP service_NN ,_, but_CC as_IN a_DT supplement_NN to_TO it_PRP ._. Myself_PRP ,_, I_PRP have_VBP an_DT Xbox_NN 360_CD in_IN one_CD room_NN and_CC a_DT PS3_NNP in_IN another_DT ,_, both_DT set_VBP up_RP for_IN streaming_VBG ._. Like_IN the_DT PS3_NNP ,_, Wii_NNP owners_NNS will_MD need_VB a_DT free_JJ Netflix-supplied_JJ disc_NN that_WDT must_MD be_VB inserted_VBN into_IN the_DT drive_NN in_IN order_NN to_TO stream_VB content_NN ._. (_( A_DT Netflix_NNP unlimited_JJ account_NN of_IN any_DT level_NN and_CC a_DT broadband_NN connection_NN are_VBP also_RB required_VBN )_) The_DT disc-in_JJ method_NN is_VBZ much_RB more_RBR clumsy_JJ than_IN those_DT utilized_VBN by_IN the_DT other_JJ devices_NNS ,_, which_WDT either_CC were_VBD manufactured_VBN with_IN Netflix_NNP streaming_VBG in_IN mind_NN or_CC were_VBD patched_VBN with_IN a_DT software_NN updates_VBZ ._. Using_VBG the_DT PS3_NNP as_IN an_DT example_NN ,_, it_PRP is_VBZ doubtless_JJ true_JJ that_IN the_DT disc_NN method_NN both_DT adds_VBZ a_DT little_JJ noise_NN to_TO the_DT viewing_VBG experience_NN and_CC uses_VBZ more_JJR energy_NN ._. The_DT Wii_NNP is_VBZ very_RB energy_NN efficient_NN and_CC pretty_JJ quiet_JJ though_IN ,_, so_IN there_EX should_MD be_VB few_JJ issues_NNS ._. In_IN addition_NN ,_, perhaps_RB Nintendo_NNP will_MD get_VB a_DT clue_NN and_CC add_VB a_DT Netflix_NNP channel_NN to_TO its_PRP$ Wii_NNP functionality_NN ,_, which_WDT could_MD eliminate_VB the_DT need_NN for_IN a_DT disc_NN down_RP the_DT road_NN ._. Until_IN then_RB a_DT disc_NN will_MD do_VB fine_VB ._.</t>
-  </si>
-  <si>
-    <t>When_WRB Mother_NNP ’_NNP s_VBD Day_NNP came_VBD around_IN ,_, I_PRP was_VBD weakened_VBN by_IN the_DT day_NN ._. I_PRP just_RB couldn_VBP ’_JJ t_NN face_NN my_PRP$ mother_NN or_CC Randa_NNP ’_NNP s_NN daughter_NN ._. How_WRB do_VBP you_PRP comfort_VB someone_NN ,_, when_WRB you_PRP need_VBP comforting_VBG yourself_PRP ?_. I_PRP called_VBD my_PRP$ mother_NN and_CC apologized_VBN ,_, but_CC I_PRP was_VBD grateful_JJ to_TO know_VB my_PRP$ mother_NN ’_JJ s_NN sister_NN ’_NNP s_NN came_VBD from_IN Ohio_NNP to_TO spend_VB the_DT day_NN with_IN my_PRP$ mother_NN ._. My_PRP$ mother_NN still_RB cries_VBZ every_DT time_NN I_PRP see_VBP her_PRP ._. I_PRP can_MD only_RB imagine_VB what_WP my_PRP$ mother_NN is_VBZ going_VBG through_IN ._. Randa_NNP ’_NNP s_VBP daughter_NN Mattilyn_NNP ,_, turned_VBD 7_CD in_IN April_NNP ,_, which_WDT is_VBZ the_DT same_JJ month_NN as_IN my_PRP$ birthday_NN ._. Although_IN my_PRP$ mother_NN did_VBD have_VB a_DT birthday_NN gathering_NN with_IN Matty_NNP ’_NNP s_NN friends_NNS ,_, I_PRP went_VBD there_RB to_TO help_VB my_PRP$ mother_NN ._. It_PRP was_VBD a_DT very_RB sad_JJ day_NN for_IN my_PRP$ mother_NN and_CC me_PRP ,_, because_IN we_PRP tried_VBD hard_JJ all_DT day_NN to_TO put_VB our_PRP$ best_JJS face_NN on_IN for_IN Matty_NNP ._. Matty_NNP ’_NNP s_VBD birthday_NN was_VBD considered_VBN a_DT huge_JJ holiday_NN for_IN Randa_NNP ._. I_PRP think_VBP Randa_NNP thought_VBD it_PRP should_MD have_VB been_VBN declared_VBN a_DT national_JJ holiday_NN ._. Randa_NNP would_MD immediately_RB start_VB thinking_NN of_IN Matty_NNP ’_NNP s_VBD next_JJ birthday_NN celebration_NN after_IN Matty_NNP ’_NNP s_VBD birthday_NN ._. It_PRP was_VBD difficult_JJ on_IN my_PRP$ birthday_NN as_IN well_RB ._. My_PRP$ family_NN and_CC I_PRP agreed_VBD not_RB to_TO buy_VB birthday_JJ gifts_NNS for_IN each_DT other_JJ ,_, since_IN our_PRP$ family_NN was_VBD increasing_VBG ._. We_PRP decided_VBD we_PRP would_MD only_RB buy_VB gifts_NNS for_IN the_DT children_NNS in_IN the_DT family_NN ,_, but_CC not_RB the_DT adults_NNS ._. Randa_NNP didn_NN ’_NNP t_NN agree_NN to_TO it_PRP ,_, because_IN every_DT time_NN our_PRP$ birthdays_NNS came_VBD around_RB ,_, Randa_NNP would_MD still_RB buy_VB gifts_NNS ,_, even_RB though_IN she_PRP lived_VBD on_IN a_DT minimal_JJ income_NN ._. Randa_NNP ’_NNP s_VBD heart_NN was_VBD a_DT giving_VBG one_CD ;_: that_WDT is_VBZ my_PRP$ sister_NN ;_: that_WDT is_VBZ my_PRP$ friend_NN ;_: that_WDT is_VBZ the_DT person_NN I_PRP want_VBP to_TO scream_VB to_TO the_DT people_NNS that_IN don_VBP ’_JJ t_NN know_VBP her_PRP$ ._. Easter_NN came_VBD around_RB as_RB well_RB ._. Randa_NNP had_VBD so_RB much_JJ faith_NN ._. I_PRP believe_VBP she_PRP had_VBD more_RBR faith_JJ than_IN my_PRP$ whole_JJ family_NN did_VBD ._. She_PRP was_VBD a_DT prayer_NN warrior_NN ._. I_PRP have_VBP not_RB been_VBN back_RB to_TO Church_NNP since_IN her_PRP$ disappearance_NN ._. It_PRP ’_VBD s_PRP not_RB that_IN I_PRP don_VBP ’_JJ t_NN believe_VBP anymore_RB ,_, but_CC I_PRP had_VBD prayed_VBN for_IN Randa_NNP the_DT morning_NN of_IN her_PRP$ disappearance_NN ,_, before_IN I_PRP had_VBD known_VBN she_PRP had_VBD disappeared_VBN ._. I_PRP just_RB believe_VB no_DT matter_NN how_WRB much_RB you_PRP pray_VBP for_IN someone_NN ,_, God_NNP is_VBZ still_RB going_VBG to_TO allow_VB things_NNS to_TO happen_VB anyway_RB ._. I_PRP do_VBP know_VB I_PRP still_RB love_VBD Him_NNP ,_, and_CC I_PRP don_VBP ’_JJ t_NN want_VBP to_TO live_VB without_IN faith_NN ,_, but_CC I_PRP can_MD ’_VB t_JJ understand_NN this_DT ._. I_PRP hear_VBP it_PRP all_PDT the_DT time_NN that_IN everything_NN happens_NNS for_IN a_DT reason_NN ,_, and_CC it_PRP is_VBZ always_RB for_IN the_DT best_JJS ,_, it_PRP is_VBZ for_IN something_NN we_PRP need_VBP to_TO learn_VB ,_, but_CC you_PRP have_VBP to_TO believe_VB ._. I_PRP don_VBP ’_JJ t_NN know_VBP what_WP I_PRP need_VBP to_TO learn_VB ,_, but_CC I_PRP do_VBP know_VB whatever_VB it_PRP is_VBZ I_PRP need_VBP to_TO learn_VB ,_, it_PRP is_VBZ not_RB worth_JJ the_DT pain_NN ,_, it_PRP ’_VBD s_PRP not_RB worth_IN losing_VBG my_PRP$ beautiful_JJ sister_NN ._. We_PRP celebrated_VBD Randa_NNP ’_NNP s_NN and_CC Ghada_NNP ’_NNP s_VBD birthday_NN in_IN June_NNP ,_, by_IN having_VBG a_DT prayer_NN vigil_NN for_IN Randa_NNP ._. That_DT day_NN just_RB didn_VB ’_JJ t_NN seem_VBP right_RB ,_, a_DT day_NN always_RB meant_VBD to_TO be_VB celebrated_VBN ,_, and_CC was_VBD celebrated_VBN by_IN a_DT vigil_NN ._. It_PRP was_VBD a_DT good_JJ reason_NN ,_, to_TO have_VB the_DT news_NN media_NNS come_VBP ,_, just_RB to_TO get_VB my_PRP$ sister_NN back_RB in_IN the_DT news_NN ._. Now_RB we_PRP look_VBP for_IN reason_NN to_TO get_VB Randa_NNP back_RB in_IN the_DT news_NN ._. We_PRP have_VBP one_CD billboard_NN in_IN Fenton_NNP ,_, on_IN the_DT expressway_NN ,_, and_CC hopefully_RB we_PRP ’_VBP ll_RB have_VBP another_DT one_CD up_RB on_IN another_DT expressway_NN ._. It_PRP is_VBZ the_DT billboard_NN that_WDT is_VBZ still_RB keeping_VBG the_DT public_NN aware_JJ my_PRP$ sister_NN is_VBZ still_RB missing_VBG ._. As_IN many_JJ times_NNS as_IN we_PRP have_VBP posted_VBN and_CC reposted_VBN flyers_NNS ,_, people_NNS still_RB bring_VBG them_PRP down_RP ._. The_DT billboard_NN and_CC flyers_NNS are_VBP difficult_JJ for_IN my_PRP$ family_NN and_CC me_PRP to_TO see_VB ._. It_PRP feels_VBZ like_IN a_DT stab_NN in_IN the_DT heart_NN every_DT time_NN we_PRP pass_VBP them_PRP ,_, but_CC it_PRP is_VBZ something_NN necessary_JJ when_WRB you_PRP have_VBP a_DT missing_VBG loved_VBD one_CD disappear_NN ._. Holidays_NNS are_VBP difficult_JJ ._. When_WRB someone_NN you_PRP ’_VBP ve_JJ loved_VBN your_PRP$ whole_JJ life_NN is_VBZ missing_VBG ._. My_PRP$ family_NN and_CC I_PRP have_VBP not_RB celebrated_VBN anything_NN ._. I_PRP don_VBP ’_JJ t_NN want_VBP to_TO celebrate_VB anything_NN ._. I_PRP don_VBP ’_JJ t_NNS ever_RB want_VBP to_TO take_VB another_DT family_NN picture_NN again_RB ,_, I_PRP just_RB can_MD ’_VB t_RB do_VBP it_PRP ._. The_DT prayer_NN vigil_NN for_IN Randa_NNP was_VBD the_DT first_JJ and_CC last_JJ time_NN my_PRP$ family_NN has_VBZ been_VBN together_RB in_IN one_CD place_NN ._. That_DT was_VBD appropriate_JJ ,_, I_PRP could_MD handle_VB that_IN ,_, but_CC I_PRP can_MD ’_VB t_JJ handle_VB a_DT family_NN gathering_VBG right_RB now_RB with_IN Randa_NNP still_RB missing_VBG ._. My_PRP$ favorite_JJ holiday_JJ memory_NN that_IN I_PRP have_VBP of_IN Randa_NNP ,_, is_VBZ New_NNP Years_NNP Eve_NNP ._. We_PRP had_VBD a_DT family_NN member_NN that_WDT had_VBD been_VBN struggling_VBG with_IN drug_NN addiction_NN who_WP was_VBD in_IN rehab_NN at_IN the_DT time_NN ._. Randa_NNP and_CC I_PRP dedicate_VBP that_WDT night_NN to_TO her_PRP$ ,_, and_CC said_VBD we_PRP would_MD not_RB drink_VB any_DT alcohol_NN all_DT evening_NN ._. While_IN everyone_NN in_IN club_NN was_VBD drinking_VBG and_CC acting_VBG stupid_JJ ,_, Randa_NNP and_CC I_PRP stuck_VBP to_TO our_PRP$ plan_NN ,_, and_CC had_VBD more_JJR fun_NN than_IN everyone_NN else_RB in_IN the_DT club_NN ._. I_PRP think_VBP we_PRP were_VBD the_DT only_JJ two_CD straight_JJ people_NNS there_RB ._. I_PRP miss_VBP her_PRP$ !_. !_. !_. Randa_NNP loved_VBD the_DT holidays_NNS because_IN she_PRP always_RB looked_VBD forward_RB for_IN any_DT reason_NN our_PRP$ family_NN would_MD get_VB together_RB ._. She_PRP just_RB loved_VBD hanging_VBG out_RP with_IN the_DT family_NN ._. My_PRP$ favorite_JJ present_NN that_IN I_PRP had_VBD given_VBN Randa_NNP ,_, and_CC my_PRP$ favorite_JJ present_JJ Randa_NNP has_VBZ given_VBN me_PRP ,_, is_VBZ the_DT love_NN that_IN we_PRP had_VBD for_IN each_DT other_JJ ._. I_PRP love_VBP her_PRP$ so_RB much_JJ ._. Randa_NNP is_VBZ a_DT beautiful_JJ jewel_NN in_IN the_DT midst_NN of_IN our_PRP$ family_NN ._. I_PRP have_VBP had_VBD a_DT history_NN of_IN painful_JJ events_NNS within_IN my_PRP$ lifetime_NN ,_, but_CC if_IN I_PRP added_VBD all_DT my_PRP$ painful_JJ events_NNS that_WDT have_VBP happened_VBN in_IN my_PRP$ lifetime_NN ,_, it_PRP would_MD not_RB equal_VB to_TO the_DT pain_NN of_IN not_RB knowing_VBG where_WRB Randa_NNP is_VBZ ,_, or_CC what_WP happened_VBD to_TO my_PRP$ sister_NN ._. This_DT is_VBZ different_JJ than_IN anything_NN I_PRP have_VBP ever_RB experienced_VBN ._. I_PRP wouldn_VBP ’_JJ t_NN wish_NN this_DT on_IN my_PRP$ worst_JJS enemy_NN ._. Life_NNP still_RB continues_VBZ to_TO go_VB on_IN ._. Sometimes_RB I_PRP wish_VBP the_DT world_NN would_MD just_RB stop_VB to_TO catch_VB my_PRP$ breath_NN ._. I_PRP am_VBP still_RB working_VBG ;_: I_PRP just_RB started_VBD to_TO go_VB back_RB to_TO school_NN ,_, which_WDT I_PRP was_VBD in_IN the_DT process_NN of_IN doing_VBG before_IN Randa_NNP ’_NNP s_VBD disappearance_NN ._. I_PRP had_VBD to_TO put_VB it_PRP on_IN the_DT back_NN burner_NN for_IN a_DT while_NN ._. I_PRP am_VBP trying_VBG to_TO keep_VB myself_PRP as_RB busy_JJ as_IN possible_JJ ,_, I_PRP think_VBP being_VBG busy_JJ is_VBZ good_JJ for_IN me_PRP ,_, but_CC no_DT matter_NN how_WRB busy_JJ I_PRP may_MD be_VB ,_, my_PRP$ sister_NN is_VBZ always_RB on_IN my_PRP$ mind_NN and_CC in_IN everything_NN I_PRP do_VBP ._. Sometimes_VB I_PRP can_MD do_VB nothing_NN but_CC feel_VB the_DT pain_NN of_IN Randa_NNP missing_VBG ._. This_DT is_VBZ pain_NN that_WDT is_VBZ indescribable_JJ ,_, I_PRP can_MD ’_VB t_RB explain_VB it_PRP ,_, I_PRP can_MD only_RB feel_VB it_PRP ._.</t>
-  </si>
-  <si>
-    <t>I_PRP had_VBD pretty_RB bad_JJ vision_NN since_IN I_PRP was_VBD in_IN 3rd_CD grade_NN ._. About_IN 5_CD years_NNS ago_RB ,_, after_IN watching_VBG many_JJ people_NNS around_IN me_PRP get_VB Lasik_NNP ,_, I_PRP decided_VBD to_TO take_VB the_DT plunge_NN ._. Because_IN this_DT was_VBD an_DT elective_JJ surgery_NN that_IN in_IN rare_JJ cases_NNS ,_, could_MD cause_VB damage_NN to_TO my_PRP$ eyes_NNS ,_, I_PRP decided_VBD to_TO find_VB the_DT absolute_NN best_JJS doctor_NN for_IN the_DT job_NN ._. I_PRP chose_VBD Dr_NNP Coleman_NNP Kraff_NNP and_CC he_PRP was_VBD amazing_VBG to_TO watch_VB ._. Very_NNP confident_JJ ,_, poised_VBN ,_, fast_RB ,_, and_CC focused_VBD ..._: .well_VBP like_IN a_DT laser_NN ._.</t>
-  </si>
-  <si>
-    <t>Last_JJ spring_NN ,_, Noah_NNP (_( Ethan_NNP 's_POS pistol_NN of_IN a_DT little_JJ brother_NN )_) wanted_VBD to_TO do_VB karaoke_VB at_IN are_VBP local_JJ amusement_NN park_NN ._. We_PRP said_VBD that_IN he_PRP 'd_MD have_VB to_TO learn_VB a_DT song_NN ,_, practice_NN ,_, and_CC then_RB he_PRP could_MD do_VB it_PRP ._. To_TO our_PRP$ surprise_NN ,_, Ethan_NNP told_VBD us_PRP that_IN he_PRP wanted_VBD to_TO do_VB it_PRP too_RB ._. Ethan_NNP loves_VBZ to_TO sing_VB and_CC watch_VB American_NNP Idol_NNP ,_, but_CC I_PRP was_VBD surprised_JJ that_IN he_PRP wanted_VBD to_TO go_VB up_RP on_IN stage_NN and_CC perform_NN ._. He_PRP 's_VBZ done_VBN plays_NNS at_IN school_NN and_CC always_RB learns_VBZ his_PRP$ lines/songs_NNS ,_, but_CC it_PRP was_VBD hard_JJ to_TO get_VB a_DT read_NN from_IN him_PRP as_IN to_TO whether_IN or_CC not_RB he_PRP enjoyed_VBD the_DT process_NN ._. It_PRP seemed_VBD like_IN he_PRP did_VBD ._. He_PRP learned_VBD a_DT song_NN (_( David_NNP Cook_NNP 's_POS light_NN on_IN )_) and_CC they_PRP both_DT did_VBD a_DT great_JJ job_NN ._. Then_RB last_JJ month_NN a_DT school_NN notice_NN went_VBD home_NN about_IN the_DT school_NN talent_NN show_NN ._. Little_JJ Noah_NNP loves_VBZ an_DT audience_NN and_CC said_VBD that_IN he_PRP wanted_VBD to_TO do_VB the_DT show_NN ._. Ethan_NNP ,_, once_RB again_RB said_VBD that_IN he_PRP 'd_MD like_VB to_TO be_VB in_IN it_PRP too_RB ._. They_PRP formed_VBD a_DT trio_NN with_IN their_PRP$ friend_NN Jake_NNP ,_, practiced_VBD with_IN the_DT whole_JJ crowd_NN of_IN kids_NNS for_IN 3_CD weeks_NNS ,_, and_CC performed_VBD ``_`` Just_RB One_CD Person_NNP ''_'' from_IN Snoopy_NNP the_DT musical_JJ ._. It_PRP 's_VBZ quite_RB moving_VBG to_TO think_VB about_IN Ethan_NNP enjoying_VBG performing_VBG ._. I_PRP always_RB enjoyed_VBD performing_VBG and_CC I_PRP think_VBP I_PRP 'd_MD have_VB a_DT hard_JJ time_NN explaining_VBG why_WRB I_PRP liked_VBD it_PRP so_RB ._. I_PRP liked_VBD the_DT process_NN ._. I_PRP liked_VBD having_VBG audience_NN reaction_NN ._. I_PRP wonder_VBP what_WP it_PRP is_VBZ ?_. But_CC in_IN any_DT case_NN both_DT my_PRP$ boys_NN enjoy_VB it_PRP too_RB ._. I_PRP 'll_MD also_RB admit_VB ,_, I_PRP 'm_VBP quite_RB emotionally_RB moved_VBD that_IN my_PRP$ little_JJ boy_NN who_WP would_MD n't_RB turn_VB his_PRP$ head_NN at_IN his_PRP$ name_NN ,_, who_WP did_VBD n't_RB call_VB me_PRP 'mommy_PRP '_'' until_IN 4_CD 1/2_CD years_NNS old_JJ ,_, and_CC who_WP seems_VBZ to_TO spend_VB so_RB much_JJ of_IN his_PRP$ time_NN in_IN his_PRP$ own_JJ little_JJ world_NN enjoys_VBZ performing_VBG and_CC did_VBD a_DT wonderful_JJ job_NN at_IN the_DT school_NN talent_NN show_NN ._. I_PRP 'm_VBP so_RB proud_JJ of_IN both_DT of_IN them_PRP ._.</t>
-  </si>
-  <si>
-    <t>here_RB im_JJ typing_VBG the_DT testimonial_NN for_IN my_PRP$ sweet_NN and_CC lovely_RB friend_NN ..._: ..._: ..what_WP to_TO say_VB ..._: ._. he_PRP looks_VBZ like_IN sharuk_NN ..._: .._VBZ so_RB why_WRB we_PRP call_VBP him_PRP as_IN khan_NN ..._: ._. he_PRP is_VBZ very_RB nice_JJ to_TO speak_VB ..._: ..._: me_PRP and_CC my_PRP$ friends_NNS really_RB wondered_VBD abt_IN his_PRP$ gym_NN body_NN ..._: ..._: and_CC his_PRP$ six_CD packs_NNS is_VBZ chanceless_JJ ..._: ..._: ._. he_PRP is_VBZ a_DT very_RB jovial_JJ at_IN the_DT mean_JJ time_NN he_PRP is_VBZ a_DT short_JJ temper_NN person_NN ..._: .._VBZ his_PRP$ knowledge_NN on_IN various_JJ fields_NNS is_VBZ simply_RB superb_JJ ..._: ..._: the_DT testimonial_JJ what_WP i_NN have_VBP written_VBN is_VBZ just_RB to_TO make_VB the_DT persons_NNS to_TO laugh_VB who_WP knows_VBZ nithin_NN ..._: ..._: ._. pothumada_VB ila_JJ innoru_JJ testimonial_JJ eluthanumna_NN sollu_NN</t>
-  </si>
-  <si>
-    <t>Washed_VBN scary_JJ pile_NN o_NN '_POS dishes_NNS ._. (_( Last_JJ week_NN 's_POS cold_NN resulted_VBD in_IN a_DT larger-than-normal_JJ pile_NN ,_, although_IN I_PRP did_VBD get_VB some_DT done_VBN around_IN Wednesday_NNP so_IN that_IN I_PRP 'd_MD have_VB enough_JJ bowls_NN and_CC cutlery_NN to_TO make_VB it_PRP through_IN the_DT week_NN ._. )_) Baked_VBD chocolate_JJ chip_NN banana_NN nut_NN muffins_NNS ,_, putting_VBG the_DT rest_NN of_IN the_DT nuts_NNS and_CC buttermilk_NN in_IN the_DT freezer_NN before_IN they_PRP spoiled_VBD ._. (_( Yay_NNP for_IN not_RB wasting_VBG food_NN !_. I_PRP 'm_VBP such_JJ a_DT slacker_NN ..._: )_) I_PRP even_RB started_VBD the_DT muffins_NNS before_IN the_DT dishes_NNS ,_, so_IN everything_NN except_IN the_DT muffin_NN tins_VBZ made_VBN it_PRP into_IN the_DT wash_NN ..._: and_CC the_DT muffin_NN tins_NNS could_MD have_VB ,_, but_CC I_PRP was_VBD pooped_VBN with_IN washing_VBG dishes_NNS by_IN the_DT time_NN the_DT muffins_NNS had_VBD cooled_VBN ._. Baked_VBN bread_NN to_TO replace_VB what_WP had_VBD been_VBN in_IN the_DT freezer_NN so_RB long_RB it_PRP was_VBD freezer-burned_JJ ._. (_( I_PRP *will*_VBP make_VBP hummus_NNS so_IN that_IN I_PRP can_MD actually_RB eat_VB this_DT batch_NN ._. )_) The_DT bread_NN dishes_NNS (_( except_IN for_IN the_DT bread_NN pan_NN )_) made_VBD it_PRP into_IN the_DT wash_NN too_RB ._. Watered_JJ houseplants_NNS ._. Cleaned_VBN silver_JJ spoons_NNS and_CC silver_NN necklaces_NNS ,_, using_VBG the_DT magic_JJ ``_`` aluminum_NN foil_NN ,_, baking_VBG soda_NN ,_, and_CC boiling_VBG water_NN ''_'' method_NN ._. It_PRP 's_VBZ an_DT awesome_JJ method_NN ._. I_PRP tried_VBD with_IN hot_JJ tap_JJ water_NN at_IN first_JJ ,_, but_CC it_PRP did_VBD n't_RB work_VB nearly_RB as_RB well_RB as_IN the_DT boiling_NN water_NN ,_, even_RB after_IN leaving_VBG it_PRP sit_NN while_IN I_PRP had_VBD a_DT shower_NN ._. Killed_VBN lots_NNS of_IN flies_NNS ,_, as_IN mentioned_VBN previously_RB ._. You_PRP know_VBP ,_, reading_VBG about_IN venus_NNS fly_VBP traps_NNS ,_, over-feeding_NN is_VBZ n't_RB a_DT good_JJ thing_NN ._. I_PRP suppose_VBP three-dozen_JJ flies_NNS at_IN once_RB probably_RB would_MD be_VB too_RB much_JJ ?_. Until_IN I_PRP find_VBP a_DT place_NN to_TO buy_VB a_DT venus_NN fly_NN trap_NN ,_, it_PRP 's_VBZ a_DT bit_NN of_IN a_DT moot_NN point_NN ,_, anyway_RB ._. (_( And_CC if_IN I_PRP bought_VBD a_DT sundew_NN too_RB ,_, it_PRP would_MD only_RB be_VB one_CD and_CC a_DT half_JJ dozen_NN each_DT ..._: )_)</t>
-  </si>
-  <si>
-    <t>If_IN you_PRP had_VBD to_TO pick_VB the_DT one_CD buzzword_NN that_WDT ’_VBZ s_JJ dominating_VBG social_JJ media_NNS chatter_NN today_NN ,_, it_PRP would_MD have_VB to_TO be_VB location_NN ._. Just_NNP over_IN a_DT year_NN ago_RB ,_, Foursquare_NNP burst_VBZ onto_IN the_DT scene_NN at_IN the_DT SXSW_NNP conference_NN in_IN Austin_NNP ,_, TX_NNP ._. Since_IN then_RB ,_, it_PRP ’_VBD s_PRP only_RB grown_VBP dramatically_RB ._. The_DT result_NN has_VBZ been_VBN a_DT battle_NN for_IN domination_NN in_IN the_DT geolocation_NN space_NN ._. While_IN many_JJ still_RB think_VBP Foursquare_NNP could_MD be_VB the_DT next_JJ Twitter_NNP ,_, rivals_NNS such_JJ as_IN Gowalla_NNP (_( Gowalla_NNP )_) are_VBP giving_VBG the_DT mobile_JJ startup_NN some_DT heat_NN ,_, and_CC big_JJ players_NNS such_JJ as_IN Facebook_NNP (_( Facebook_NNP )_) and_CC Twitter_NNP (_( Twitter_NNP )_) are_VBP launching_VBG location_NN features_NNS or_CC are_VBP about_IN to_TO launch_VB them_PRP ._. Our_PRP$ own_JJ Pete_NNP Cashmore_NNP sat_VBD down_RP with_IN Bloomberg_NNP ’_NNP s_VBD Cris_NNP Valerio_NNP to_TO discuss_VB the_DT location_NN trend_NN ,_, the_DT battle_NN brewing_NN between_IN Foursquare_NNP (_( Foursquare_NNP )_) and_CC Gowalla_NNP at_IN this_DT year_NN ’_VBZ s_JJ SXSW_NNP ,_, the_DT gold_NN mine_NN that_WDT is_VBZ location-based_JJ advertising_NN ,_, the_DT iPad_NN ,_, and_CC even_RB a_DT little_JJ bit_NN about_IN the_DT future_NN of_IN Mashable_NNP (_( Mashable_NNP )_) ._. It_PRP ’_VBD s_JJ quite_RB a_DT fascinating_JJ video_NN —_NN if_IN you_PRP do_VBP watch_VB it_PRP ,_, let_VB us_PRP know_VB what_WP you_PRP think_VBP of_IN the_DT location_NN trend_NN (_( and_CC Pete_NNP ’_NNP s_VBD on-air_JJ performance_NN )_) in_IN the_DT comments_NNS ._.</t>
-  </si>
-  <si>
-    <t>You_PRP all_DT know_VBP how_WRB I_PRP feel_VBP about_IN saving_VBG money_NN !_. I_PRP really_RB LOVE_VB it_PRP !_. It_PRP 's_VBZ my_PRP$ ``_`` thing_NN ''_'' !_. But_CC ,_, this_DT week_NN ,_, I_PRP was_VBD feeling_VBG pretty_RB cranky_VBN about_IN the_DT whole_JJ coupon_NN thing_NN ._. I_PRP had_VBD n't_RB been_VBN to_TO the_DT store_NN in_IN a_DT few_JJ weeks_NNS ,_, so_IN it_PRP was_VBD taking_VBG a_DT lot_NN of_IN time_NN and_CC brain_NN cells_NNS to_TO get_VB this_DT week_NN 's_POS preparations_NNS done_VBN ._. Last_JJ night_NN ,_, I_PRP just_RB quit_NN and_CC went_VBD to_TO bed_NN because_IN my_PRP$ brain_NN was_VBD n't_RB functioning_JJ and_CC just_RB could_MD n't_RB organize_VB anymore_RB ._. This_DT morning_NN ,_, I_PRP got_VBD up_RB at_IN 5_CD and_CC finished_VBD ,_, still_RB not_RB looking_VBG forward_RB to_TO whole_VB shopping_NN experience_NN ._. You_PRP see_VBP ,_, for_IN the_DT sales_NNS this_DT week_NN ,_, they_PRP would_MD take_VB $_$ 5_CD off_IN for_IN every_DT 10_CD of_IN the_DT special_JJ sale_NN items_NNS you_PRP purchase_VBP ,_, meaning_VBG that_IN I_PRP had_VBD to_TO keep_VB track_NN of_IN everything_NN while_IN I_PRP shopped_VBD ._. It_PRP is_VBZ a_DT real_JJ headache_NN sometimes_RB ._. Today_NN was_VBD no_DT exception_NN ._. I_PRP got_VBD to_TO the_DT store_NN early_JJ ,_, (_( to_TO beat_VB the_DT snowbirds_NNS )_) and_CC started_VBN in_IN on_IN it_PRP ._. About_IN 1/2_CD way_NN through_IN my_PRP$ shopping_NN ,_, my_PRP$ pen_NN (_( that_IN I_PRP was_VBD keeping_VBG my_PRP$ 10_CD item_NN tally_RB with_IN )_) ran_VBD out_IN of_IN ink_NN ._. Did_NNP I_PRP have_VBP another_DT pen_NN in_IN my_PRP$ purse_NN ?_. No_UH ._. I_PRP was_VBD SO_RB bugged_JJ !_. There_EX was_VBD no_DT amount_NN of_IN sucking_VBG or_CC shaking_VBG that_WDT would_MD make_VB my_PRP$ pen_JJ write_NN ._. Grrrr.._NNP So_IN I_PRP headed_VBD off_RB to_TO the_DT office_NN supply_NN aisle_NN to_TO begrudgingly_VB buy_VB a_DT pen_NN ._. Standing_VBG there_RB in_IN front_NN of_IN the_DT pens_NNS were_VBD 2_CD men_NNS having_VBG a_DT indepth_JJ discussion_NN about_IN pens_NNS ._. So_RB ,_, I_PRP reached_VBP around_IN them_PRP ,_, grabbed_VBD a_DT ``_`` sale_NN ''_'' pen_NN and_CC started_VBD to_TO head_VB off_RP ._. One_CD of_IN the_DT men_NNS asked_VBD if_IN I_PRP would_MD n't_RB mind_VB helping_VBG his_PRP$ friend_NN find_VB a_DT pen_NN ._. That_DT 's_VBZ when_WRB I_PRP noticed_VBD that_IN one_CD of_IN the_DT men_NNS was_VBD very_RB mentally_RB handicapped_VBN ,_, and_CC he_PRP was_VBD helping_VBG his_PRP$ blind_NN friend_NN try_NN to_TO find_VB pens_NNS ._. The_DT blind_NN man_NN said_VBD he_PRP wanted_VBD a_DT ``_`` Bic_NNP ''_'' pen_NN ,_, so_IN I_PRP told_VBD him_PRP about_IN a_DT few_JJ there_RB ,_, then_RB grabbed_VBD a_DT bag_NN of_IN the_DT ``_`` bulk_NN ''_'' pens_NNS from_IN the_DT bottom_NN ,_, which_WDT were_VBD what_WP he_PRP was_VBD looking_VBG for_IN ._. They_PRP were_VBD SO_NNP happy_JJ to_TO get_VB the_DT pens_NNS !_. They_PRP thanked_VBD me_PRP over_IN and_CC over_IN !_.</t>
-  </si>
-  <si>
-    <t>…And_NN as_IN the_DT rain_NN fell_VBD brilliantly_RB against_IN my_PRP$ window_NN on_IN a_DT Saturday_NNP afternoon_NN I_PRP noticed_VBD a_DT pattern_NN within_IN the_DT glitter_NN of_IN the_DT rain_NN drops_NNS ._. The_DT pattern_NN was_VBD of_IN a_DT face_NN that_IN I_PRP recognized_VBD as_IN life_NN and_CC we_PRP stared_VBD at_IN each_DT other_JJ ._. We_PRP wanted_VBD to_TO see_VB who_WP would_MD be_VB the_DT first_JJ to_TO blink_VB and_CC neither_DT of_IN us_PRP wanted_VBD to_TO be_VB the_DT first_JJ one_CD to_TO give_VB in_IN ._. What_WP I_PRP noticed_VBD in_IN life_NN ’_NNP s_JJ eyes_NNS were_VBD my_PRP$ many_JJ sacrifices_NNS as_IN I_PRP have_VBP had_VBN to_TO hurdle_VB the_DT jump_NN ropes_NNS of_IN reality_NN in_IN order_NN to_TO live_VB dreams_NNS without_IN having_VBG to_TO close_VB my_PRP$ eyes_NNS ._. And_CC in_IN this_DT life_NN ,_, my_PRP$ life_NN ,_, I_PRP have_VBP suffered_VBN to_TO be_VB able_JJ to_TO smile_VB ;_: I_PRP have_VBP cried_VBN to_TO be_VB able_JJ to_TO enjoy_VB my_PRP$ fate_NN ._. Acceptance_NN is_VBZ our_PRP$ greatest_JJ sacrifice_NN I_PRP ’_VBP ve_JJ come_NN to_TO learn_VB because_IN until_IN we_PRP accept_VBP our_PRP$ challenges_NNS we_PRP aren_VBP ’_JJ t_NN able_JJ to_TO come_VB up_RP with_IN a_DT game_NN plan_NN to_TO reach_VB our_PRP$ goals_NNS or_CC to_TO stimulate_VB our_PRP$ own_JJ identity_NN ._.</t>
-  </si>
-  <si>
-    <t>Below_NNP is_VBZ the_DT first_JJ part_NN of_IN an_DT unfinished_JJ presentation_NN I_PRP 'm_VBP writing_VBG for_IN my_PRP$ contemporary_JJ poetry_NN and_CC poetics_NNS seminar_VBP ._. I_PRP 'm_VBP enjoying_VBG writing_VBG it_PRP and_CC I_PRP thought_VBD some_DT of_IN you_PRP might_MD be_VB interested_JJ ._. The_DT Tapeworm_NNP Foundry_NNP is_VBZ a_DT conceptual_JJ long_JJ poem_NN (_( fuck_NN ,_, what_WP is_VBZ n't_RB )_) available_JJ on_IN UbuWeb_NNP ._. Link_NNP ._. It_PRP 's_VBZ strange_JJ that_IN my_PRP$ measure_NN of_IN 'presentability_NN '_'' is_VBZ whether_IN or_CC not_RB I_PRP 'm_VBP comfortable_JJ posting_VBG something_NN on_IN here_RB ._. ``_`` Is_VBZ it_PRP good_JJ enough/engaging_VBG enough_JJ to_TO be_VB posted_VBN on_IN my_PRP$ blog_NN ?_. !_. ''_'' versus_IN ``_`` is_VBZ it_PRP good_JJ enough_RB to_TO perform_VB in_IN front_NN of_IN 20_CD people_NNS ,_, including_VBG someone_NN who_WP will_MD give_VB me_PRP a_DT grade_NN ?_. ''_'' *rolls_VBZ eyes_NNS at_IN myself_PRP and_CC then_RB lights_VB a_DT cigarette*_NN Also_RB really_RB enjoyed_VBN this_DT blog_NN post_NN from_IN a_DT recently-discovered_JJ blog_NN that_WDT has_VBZ quickly_RB become_VBN one_CD of_IN my_PRP$ favourites_NNS ._. Wicked_VBD shit_JJ about_IN suicide-art_JJ Badiou_NNP embodiment_NN etc_NN ._. Also_RB just_RB wanted_VBN to_TO say_VB thank_NN you_PRP to_TO people_NNS who_WP read_VBP this_DT ._. My_NNP ,_, uh_UH ,_, readership_NN ,_, has_VBZ drastically_RB increased_VBN over_IN the_DT past_JJ 4_CD months_NNS and_CC I_PRP am_VBP genuinely_RB appreciative_JJ of_IN all_DT who_WP give_VBP a_DT shit_NN ._. *here_WRB I_PRP roll_VBP my_PRP$ eyes_NNS again_RB and_CC feel_VB sheepish*_RB the_DT word_NN 'sheepish_POS '_'' is_VBZ strange_JJ ,_, yeah_RB ?_. --_: -_: “_VBP The_DT issue_NN is_VBZ not_RB about_IN poetry_NN online_NN ._. It_PRP ’_VBZ s_PDT the_DT other_JJ thing_NN that_IN ’_VBZ s_NN at_IN issue_NN here_RB :_: online_JJ poetry_NN ,_, a_DT poetry_NN that_WDT explicitly_RB includes_VBZ the_DT processes_NNS of_IN coding_NN ,_, programming_VBG and_CC designing_VBG as_IN part_NN of_IN the_DT creative_JJ act_NN ;_: a_DT poetry_NN whose_WP$ content_NN is_VBZ ,_, to_TO some_DT degree_NN ,_, specific_NN to_TO the_DT qualities_NNS of_IN the_DT environment_NN in_IN which_WDT it_PRP exists._VBZ ”_JJ DWH_NNP ._. In_IN “_JJ Antifesto_NNP ,_, ”_NNP Darren_NNP Wershler-Henry_NNP refers_NNS to_TO creative_VB writing_NN as_IN “_JJ code._NN ”_VBD The_DT Tapeworm_NNP Foundry_NNP engages_VBZ with_IN this_DT idea_NN and_CC exemplifies_VBZ ``_`` our_PRP$ current_JJ confrontation_NN with_IN the_DT codes_NNS and_CC code-condition_NN of_IN language_NN ,_, poetry_NN ,_, and_CC digital_JJ media_NNS ''_'' (_( Drucker_NNP )_) ._. The_DT Tapeworm_NNP Foundry_NNP performs_VBZ this_DT process_NN of_IN coding/de-coding_VBG the_DT ideological_JJ and_CC material_JJ foundations_NNS of_IN creative_JJ production_NN ._. Each_DT page_NN functions_NNS like_IN a_DT screen_NN of_IN data_NNS that_WDT provides_VBZ an_DT inventory_NN of_IN information_NN ;_: a_DT list_NN of_IN proposals_NNS for_IN art_JJ projects_NNS and_CC instructions_NNS for_IN creating_VBG poetry_NN that_WDT subvert_VBZ the_DT traditional_JJ modernist_JJ definition_NN of_IN art_NN and_CC poetry_NN ._. In_IN this_DT sense_NN ,_, the_DT poem_NN is_VBZ radically_RB non-hierarchical_JJ ,_, combining_VBG low_JJ and_CC high_JJ culture_NN seamlessly_RB and_CC with_IN great_JJ humour_NN ._. Equally_RB demonstrative_JJ of_IN this_DT equalization_NN is_VBZ the_DT use_NN of_IN “_NNP andor_NN ”_NN to_TO separate_VB each_DT unit_NN ._. This_DT strategy_NN implies_VBZ an_DT opening_VBG up_NN of_IN language_NN ;_: the_DT poem_NN unfolds_VBZ itself_PRP and_CC the_DT reader_NN takes_VBZ up_RP its_PRP$ possibilities_NNS ._. This_DT focus_NN on_IN form_NN and_CC presentation_NN rather_RB than_IN content_NN emphasizes_VBZ the_DT materiality_NN of_IN language_NN and_CC poetry-construction/coding_NN ._. This_DT technique_NN is_VBZ reminiscent_JJ of_IN the_DT language_NN poets_VBZ attempt_JJ to_TO dislodge_VB the_DT signified_VBN from_IN the_DT signifier_NN ._. Similarly_RB ,_, Wershler-Henry_NNP shows_VBZ that_IN language_NN is_VBZ not_RB inherently_RB meaningful_JJ ;_: language_NN is_VBZ given_VBN meaning_VBG when_WRB positioned_VBN within_IN a_DT particular_JJ narrative_JJ context_NN ._. Although_IN traditional_JJ reading_NN and_CC writing_VBG codes_NNS typically_RB remain_VBP “_JJ invisible_JJ ”_NN and_CC unnoticed_JJ ,_, the_DT value_NN of_IN online_JJ poetry_NN is_VBZ that_IN the_DT coding/de-coding_NN is_VBZ explicit_JJ and_CC thus_RB functions_NNS as_IN a_DT critique_NN of_IN passive_JJ or_CC uncritical_JJ reading_NN ._. Thus_RB ,_, The_DT Tapeworm_NNP Foundry_NNP challenges_NNS and_CC subverts_VBZ the_DT traditional/modernist_NN narrative_JJ codes_NNS that_IN condition_NN readers_NNS to_TO consume_VB and_CC engage_VB with_IN a_DT text_NN in_IN a_DT predetermined_JJ ,_, prescribed_JJ framework_NN of_IN reference_NN ._. The_DT ceaseless_NN flow_NN of_IN text_JJ -_: each_DT unrelated_JJ component_NN -_: prevents_VBZ the_DT reader_NN from_IN superimposing_VBG a_DT linear_JJ and_CC all-encompassing_JJ narrative_JJ onto_IN the_DT poem_NN ._. As_IN a_DT result_NN ,_, we_PRP ca_MD n't_RB consume_VB the_DT text_NN as_IN we_PRP would_MD a_DT commodity_NN ._. Both_CC the_DT construction_NN of_IN the_DT text_NN as_IN material_NN object_NN and_CC as_IN a_DT narrative_JJ is_VBZ magnified_VBN ._. In_IN this_DT sense_NN ,_, Wershler-Henry_NNP decodes_VBZ how_WRB language_NN functions_NNS by_IN producing_VBG a_DT meta-code_NN that_WDT draws_VBZ attention_NN to_TO its_PRP$ own_JJ construction_NN in_IN order_NN to_TO critique_VB how_WRB code_JJ functions_NNS in_IN general_JJ ._.</t>
-  </si>
-  <si>
-    <t>In_IN our_PRP$ Scamville_NNP series_NN of_IN posts_NNS last_JJ October_NNP we_PRP exposed_VBD the_DT massive_JJ user_NN fraud_NN occurring_VBG Facebook_NNP and_CC MySpace_NNP social_JJ games_NNS ._. Fake_NNP quizzes_VBZ tied_VBN to_TO long_JJ term_NN mobile_JJ subscriptions_NNS ,_, malware-laden_JJ toolbar_NN downloads_NNS and_CC other_JJ scams_NNS were_VBD the_DT center_NN of_IN the_DT controversy_NN ._. The_DT industry_NN did_VBD a_DT lot_NN of_IN talking_VBG in_IN the_DT wake_NN of_IN those_DT posts_NNS and_CC some_DT long_JJ term_NN changes_NNS have_VBP been_VBN made_VBN ._. For_IN the_DT most_JJS part_NN ,_, for_IN example_NN ,_, Fake_NNP quizzes_VBZ and_CC the_DT Video_NNP Professor_NNP scam_NN are_VBP off_IN Facebook_NNP (_( but_CC see_VBP below_IN on_IN what_WP ’_NNP s_NN still_RB there_RB )_) ._. But_CC now_RB we_PRP ’_VBP re_JJ seeing_VBG the_DT same_JJ old_JJ scams_NN hit_VBD the_DT iPhone_NN ._. And_CC the_DT same_JJ players_NNS ,_, particularly_RB OfferPal_JJ Media_NNP and_CC SuperRewards_NNP and_CC now_RB Google_NNP ,_, are_VBP powering_VBG those_DT scams_NNS ._. Specifically_RB we_PRP ’_VBP re_JJ seeing_VBG SMS-subscription_NN offers_NNS ,_, which_WDT trick_VBZ users_NNS into_IN putting_VBG long_JJ term_NN subscriptions_NNS on_IN their_PRP$ mobile_JJ phones_NNS (_( or_CC their_PRP$ parent_NN ’_NN s_VBP mobile_JJ phones_NNS )_) ._. New_NNP Offerpal_NNP CEO_NNP George_NNP Garrick_NNP promised_VBD to_TO take_VB a_DT leadership_NN position_NN in_IN cleaning_VBG up_RP scammy_JJ ads_NNS ._. He_PRP said_VBD “_NN It_PRP will_MD be_VB a_DT fundamental_JJ part_NN of_IN the_DT Offerpal_NNP culture_NN that_IN any_DT offers_NNS we_PRP distribute_VBP meet_JJ stringent_JJ standards_NNS of_IN integrity_NN and_CC quality_NN ,_, as_IN specified_VBN by_IN our_PRP$ partners_NNS ,_, credible_JJ industry_NN experts_NNS ,_, and_CC good_JJ old_JJ common_JJ sense._NN ”_IN We_PRP ’_VBP ve_JJ seen_VBN very_RB misleading_JJ SMS_NNP subscription_NN ads_NNS on_IN a_DT variety_NN of_IN applications_NNS with_IN Admob_NNP ads_NNS ._. We_PRP ’_VBP ve_RB reached_VBN out_RP to_TO Google_NNP for_IN their_PRP$ comment_NN ._. Tap_NNP Defense_NNP ,_, an_DT iphone_NN game_NN created_VBN by_IN TapJoy_NNP ,_, contained_VBD multiple_JJ version_NN of_IN the_DT SMS_NNP subscription_NN scam_NN until_IN today_NN ._. The_DT offers_NNS were_VBD being_VBG run_VBN by_IN Offerpal_NNP ._. After_IN we_PRP contacted_VBD Offerpal_NNP about_IN this_DT story_NN the_DT offers_NNS were_VBD removed_VBN and_CC they_PRP gave_VBD us_PRP the_DT following_JJ statement_NN :_: Offerpal_NNP and_CC I_PRP have_VBP done_VBN everything_NN we_PRP said_VBD we_PRP would_MD do_VB following_VBG the_DT initial_JJ social-game_NN offer_NN controversy_NN back_RB in_IN November_NNP ._. We_PRP quickly_RB adopted_VBD strict_JJ compliance_NN rules_NNS modeled_VBN on_IN Facebook_NNP ’_NNP s_NN requirements_NNS ,_, and_CC we_PRP have_VBP been_VBN working_VBG closely_RB with_IN the_DT major_JJ social_JJ platforms_NNS and_CC game_NN developers_NNS to_TO ensure_VB that_IN only_RB the_DT highest_JJS quality_NN offers_NNS have_VBP been_VBN run_VBN and_CC we_PRP have_VBP succeeded_VBN ._. Our_PRP$ offers_NNS and_CC other_JJ “_NNP alt_NN pay_NN ”_NN options_NNS have_VBP been_VBN running_VBG continuously_RB and_CC there_RB have_VBP been_VBN no_DT compliance_NN issues_NNS since_IN ,_, and_CC these_DT “_JJ alt-pay_NN ”_NN offers_NNS are_VBP many_JJ times_NNS more_RBR popular_JJ than_IN cash_NN purchases_NNS with_IN social_JJ game_NN users_NNS ._. Consumers_NNS love_VBP them_PRP and_CC they_PRP provide_VBP additional_JJ monetization_NN for_IN developers_NNS We_PRP also_RB led_VBD the_DT formation_NN of_IN an_DT IAB_NNP standards_NNS board_NN to_TO set_VB industry_NN guidelines_NNS for_IN lead-gen_JJ offers_NNS on_IN social_JJ networks_NNS ,_, and_CC Offerpal_NNP is_VBZ the_DT ONLY_JJ offer-network_NN who_WP is_VBZ participating_VBG in_IN this_DT effort_NN ._. So_IN the_DT issue_NN of_IN offer_NN quality_NN on_IN social_JJ networks_NNS has_VBZ been_VBN properly_RB addressed_VBN and_CC is_VBZ considered_VBN by_IN the_DT industry_NN to_TO be_VB an_DT issue_NN of_IN the_DT past_NN ._. Recently_RB ,_, we_PRP have_VBP begun_VBN to_TO test_VB offers_NNS in_IN a_DT few_JJ mobile_JJ games_NNS and_CC apps_NN ,_, in_IN particular_JJ on_IN the_DT iPhone_NN ._. Offerpal_NNP has_VBZ been_VBN participating_VBG in_IN this_DT effort_NN at_IN the_DT request_NN of_IN a_DT couple_NN of_IN iPhone_NN developers_NNS and_CC we_PRP have_VBP also_RB just_RB opened_VBN a_DT direct_JJ dialogue_NN with_IN Apple_NNP to_TO jointly_RB establish_VB standards_NNS and_CC guidelines_NNS for_IN offers_NNS in_IN iPhone_NN apps_NN before_IN any_DT general_JJ rollout_NN ._. In_IN the_DT meantime_NN ,_, we_PRP have_VBP been_VBN applying_VBG the_DT same_JJ quidelines_NNS that_IN we_PRP have_VBP been_VBN successfully_RB using_VBG in_IN Social_NNP Games_NNPS to_TO the_DT few_JJ mobile_JJ apps_NN that_WDT are_VBP carrying_VBG offers_NNS ._. However_RB the_DT vast_JJ majority_NN of_IN the_DT “_NN offers_VBZ ”_IN that_DT are_VBP running_VBG in_IN iPhone_NN apps_NN are_VBP simply_RB installs_NNS of_IN other_JJ iPhone_NN apps_NN ,_, as_IN can_MD be_VB seen_VBN for_IN example_NN in_IN “_NNP Tap_NNP Tap_NNP Revenge_NNP 3_CD ”_NN ._. However_RB ,_, Mike_NNP has_VBZ raised_VBN the_DT question_NN of_IN whether_IN mobile_JJ quizzes_NNS and_CC other_JJ apps_NN resulting_VBG in_IN PSMS_NNP subscriptions_NNS may_MD still_RB not_RB be_VB clear_JJ enough_RB in_IN citing_VBG their_PRP$ terms_NNS since_IN users_NNS may_MD not_RB realize_VB they_PRP are_VBP opting_VBG in_IN for_IN an_DT ongoing_JJ PSMS_NNP subscription_NN ._. Although_IN such_JJ quizzes_NNS and_CC PSMS_NNP offers_NNS are_VBP currently_RB in_IN wide_JJ distribution_NN by_IN most_JJS of_IN the_DT major_JJ mobile_JJ ad_NN networks_NNS ,_, Mike_NNP raises_VBZ a_DT valid_JJ question_NN ._. So_RB in_IN the_DT interest_NN of_IN being_VBG conservative_JJ and_CC wanting_VBG to_TO operate_VB in_IN the_DT best_JJS interests_NNS of_IN the_DT collective_JJ mobile_JJ user_NN experience_NN ,_, we_PRP have_VBP immediately_RB removed_VBN the_DT quizzes_NNS in_IN question_NN and_CC any_DT offers_NNS resulting_VBG in_IN PSMS_NNP subscriptions_NNS from_IN distribution_NN pending_VBG a_DT further_JJ review_NN of_IN the_DT concerns_NNS Mike_NNP has_VBZ raised_VBN ._. Over_IN the_DT next_JJ week_NN or_CC so_RB we_PRP will_MD accumulate_VB as_IN much_JJ feedback_NN as_IN we_PRP can_MD from_IN developers_NNS ,_, publishers_NNS ,_, mobile_JJ platforms_NNS ,_, and_CC others_NNS in_IN the_DT industry_NN ,_, and_CC on_IN Monday_NNP March_NNP 22_CD we_PRP will_MD publish_VB on_IN our_PRP$ website_NN and_CC via_IN a_DT press_NN release_NN a_DT written_VBN statement_NN of_IN our_PRP$ guidelines_NNS and_CC policies_NNS regarding_VBG alt-pay_JJ offers_NNS in_IN mobile_JJ apps_NN ._. George_NNP Garrick_NNP Chairman_NNP and_CC CEO_NNP ,_, Offerpal_NNP ._.</t>
-  </si>
-  <si>
-    <t>So_RB far_RB ,_, like_IN this_DT year_NN 's_POS basketball_NN tournament_NN ,_, we_PRP 've_VBP had_VBD our_PRP$ share_NN of_IN upsets_NNS ._. For_IN those_DT of_IN you_PRP who_WP do_VBP n't_RB follow_VB basketball_NN ,_, although_IN the_DT upsets_NNS are_VBP usually_RB the_DT BEST_NNP PART_NN of_IN the_DT tournament_NN ,_, the_DT first_JJ round_NN of_IN both_DT March_NNP Madness_NNP and_CC Fug_NNP Madness_NNP are_VBP designed_VBN so_IN that_IN the_DT number_NN one_CD seeds_NNS (_( in_IN basketball_NN ,_, these_DT are_VBP the_DT best_JJS teams_NNS ;_: at_IN GFY_NNP ,_, it_PRP 's_VBZ most_RBS fugly_RB celebs_VBP )_) have_VBP an_DT easy_JJ couple_NN of_IN games_NNS and_CC do_VBP n't_RB meet_VB their_PRP$ biggest_JJS competition_NN until_IN later_RBR on_IN ,_, with_IN the_DT hope_NN that_IN the_DT FINAL_NNP game_NN will_MD pit_VB the_DT two_CD very_RB best_JJS (_( fugliest_JJS )_) in_IN one_CD final_JJ head-to-head_NN ._. That_DT 's_VBZ why_WRB someone_NN like_IN Mischa_NNP gets_VBZ someone_NN like_IN Camilla_NNP Belle_NNP in_IN her_PRP$ first_JJ game_NN ._. It_PRP 's_VBZ almost_RB like_IN a_DT gim_NN me_PRP for_IN the_DT one_CD seed_NN ..._: but_CC sometimes_RB ,_, the_DT underdog_JJ comes_VBZ from_IN behind_NN and_CC when_WRB that_DT happens_VBZ ,_, it_PRP 's_VBZ AWESOME_NNP ._. What_WP will_MD today_NN bring_VB ?_. We_PRP 'll_MD soon_RB find_VB out_RP ._. But_CC until_IN then_RB ,_, a_DT brief_JJ teaser_NN for_IN the_DT Fug_NNP Match-Ups_NNP you_PRP 'll_MD see_VB on_IN Monday_NNP :_: Well_RB ,_, this_DT ought_MD to_TO be_VB interesting_JJ :_: the_DT wackily-attired_JJ socialite_NN versus_IN the_DT barely-attired_JJ ``_`` actress_NN ._. ''_'' Place_NNP your_PRP$ bets_NNS now_RB ,_, but_CC I_PRP think_VBP this_DT one_NN could_MD go_VB down_RP to_TO the_DT wire_NN ._. In_IN the_DT first_JJ round_NN ,_, Fab_NNP blew_VBD through_IN Carrie_NNP Underwood_NNP like_IN she_PRP was_VBD the_DT favorite_NN and_CC not_RB Carrie_NNP --_: we_PRP like_VBP that_DT kind_NN of_IN confidence_NN from_IN a_DT bizarrely-garbed_JJ random_NN --_: and_CC Pammy_NNP spanked_VBD Drew_NNP Barrymore_NNP ,_, despite_IN the_DT fact_NN that_IN Drew_NNP looked_VBD like_IN a_DT lunatic_JJ most_NN of_IN next_JJ year_NN ,_, what_WP with_IN the_DT heinous_JJ leggings_NNS and_CC the_DT two-tone_JJ hair_NN ._. What_WP happens_VBZ when_WRB two_CD spoilers_NNS go_VBP up_RP against_IN each_DT other_JJ ?_. We_PRP 're_VBP about_IN to_TO find_VB out_RP ._. I_PRP 'm_VBP super_JJ excited_VBN to_TO see_VB how_WRB this_DT one_CD shakes_VBZ out_RP ._. Both_DT ladies_NNS handily_RB dispatched_VBD their_PRP$ round_NN one_CD opponents_NNS --_: Rumer_NNP Willis_NNP and_CC Nicole_NNP Kidman_NNP ,_, respectively_RB ._. Both_DT are_VBP musicians_NNS prone_VBP to_TO wearing_VBG SUPER_NNP CRAZY_NNP costumes_NNS and_CC neither_DT has_VBZ ever_RB met_VBN a_DT headdress_NN she_PRP did_VBD n't_RB immediately_RB put_VB on_IN and_CC wear_VB out_RP ._. Could_MD Juliette_NNP take_VB down_RP Katy_NNP ?_. Stranger_NNP things_NNS have_VBP happened_VBN ._.</t>
-  </si>
-  <si>
-    <t>The_DT curse_NN of_IN a_DT hurt_NN man_NN ..._: ._. Hi_NNP ,_, all…_NN I_PRP do_VBP not_RB appreciate_VB personal_JJ blogs_NNS which_WDT are_VBP just_RB related_VBN to_TO the_DT person_NN writing_VBG but_CC this_DT time_NN I_PRP cant_VBP help…_NN I_PRP have_VBP to_TO tell_VB this…_JJ Please_NNP read_VB it_PRP as_RB far_RB as_IN you_PRP could…_VBP ._. Its_PRP$ midnight_NN ,_, I_PRP m_VBP somewhere_RB between_IN Thursday_NNP and_CC Friday_NNP and_CC undoubtedly_RB one_CD of_IN the_DT happiest_JJS guy_NN ._. The_DT reason_NN is_VBZ very_RB very_RB simple_JJ but_CC quiet_JJ have_VBP a_DT history_NN of_IN its_PRP$ own_JJ ,_, SPS_NNP BULLS_NNP lost_VBD ._. Yes_UH you_PRP heard_VBP me_PRP right_JJ ,_, SPS_NNP BULLS_NNP lost_VBD and_CC I_PRP m_VBP lot_NN lot_NN more_JJR happier_JJR than_IN the_DT guys_NNS who_WP shot_VBP them_PRP down_RP ._. Its_PRP$ an_DT Oh_NN I_PRP Say_VBP !_. !_. !_. !_. Moment_NN for_IN me_PRP ,_, watching_VBG the_DT game_NN from_IN far_RB away_RB ,_, so_IN far_RB I_PRP do_VBP not_RB have_VB any_DT idea_NN of_IN score_NN and_CC knew_VBD only_RB when_WRB they_PRP lost_VBD but_CC ah_IN they_PRP lost…_VBP Nothing_VBG can_MD get_VB more_RBR gratifying_JJ then_RB this…_NN ._. Why_WRB do_VBP I_PRP need_VB to_TO be_VB so_RB happy_JJ ,_, it_PRP had_VBD to_TO happen_VB ._. They_PRP were_VBD destined_VBN for_IN the_DT defeat_NN and_CC I_PRP knew_VBD it_PRP very_RB early…_RB earlier_JJR than_IN this_DT fixture_NN was_VBD declared.._RB earlier_JJR than_IN this_DT tournament_NN began_VBD ,_, even_RB earlier_JJR than_IN last_JJ one…Once_NN upon_IN a_DT time_NN ,_, when_WRB i_NN was_VBD hurt_VBN ,_, i_NN was_VBD really_RB hurt_VBN by_IN many_JJ guys_NNS ,_, i_NN never_RB showed_VBD any_DT emotion_NN ,_, not_RB even_RB to_TO myself_VB in_IN alone…_NN But_CC today_NN i_VBP did…_VBP I_PRP laughed.._VBP I_PRP screamed_VBD and_CC if_IN there_EX exists_VBZ a_DT parallel_JJ universe_NN ,_, I_PRP want_VBP to_TO console_VB that_IN boy_NN who_WP is_VBZ alone_RB ,_, hurt_UH ,_, whose_WP$ ego_NN is_VBZ bruised_VBN and_CC who_WP can_MD not_RB do_VB anything_NN for_IN it_PRP but_CC to_TO keep_VB quiet…_JJ Time_NNP stood_NN by_IN me…_NN You_PRP all_DT see_VBP ,_, time_NN stood_NN by_IN my_PRP$ side_NN and_CC I_PRP m_VBP laughing_VBG with_IN him_PRP over_IN you_PRP assholes_NNS who_WP always_RB demanded_VBD without_IN even_RB thinking_VBG how_WRB much_JJ effort_NN I_PRP ever_RB put_VBD ._. Assholes_NNS who_WP always_RB wanted_VBD me_PRP to_TO keep_VB there_EX words_NNS but_CC never_RB kept_VBD my_PRP$ smallest_JJS of_IN feeling_NN ._. Who_WP were_VBD stars_NNS but_CC never_RB care_VB how_WRB much_JJ my_PRP$ hands_NNS are_VBP burnt_VBN in_IN this_DT stardom_NN ._. Don_NNP ’_NNP t_NN get_VB me_PRP wrong_JJ ,_, I_PRP never_RB asked_VBD for_IN credit_NN but_CC at_IN least_JJS listen_JJ before_IN discarding_VBG anyone_NN hardwork_NN just_RB because_IN it_PRP doesn_VBZ ’_JJ t_JJ fit_NN to_TO your_PRP$ moronism…_NN I_PRP don_VBP ’_JJ t_NNS need_VBP credit_NN ,_, I_PRP had_VBD enough…_VBN But_CC I_PRP can_MD never_RB forget_VB the_DT questions_NNS asked_VBD to_TO me_PRP ,_, especially_RB by_IN the_DT boy_NN whom_WP I_PRP always_RB took_VBD care_NN about…_NN He_PRP hurt_VBD me_PRP not_RB the_DT year_NN ago_RB but_CC way_NN before_IN than_IN that…_NN when_WRB we_PRP were_VBD in_IN 2nd_CD year_NN and_CC he_PRP wounded_VBD me_PRP so_RB much_JJ that_IN I_PRP did_VBD what_WP I_PRP never_RB even_RB thought_VBD of…_IN it_PRP was_VBD shameful_JJ but_CC I_PRP have_VBP no_DT control_NN over_IN the_DT fury_NN I_PRP had_VBD within…_NN ._. and_CC we_PRP both_DT knew_VBD it_PRP ..._: I_PRP don_VBP ’_JJ t_NN think_VBP anyone_NN else_RB than_IN me_PRP would_MD be_VB interested_JJ in_IN all_PDT the_DT things_NNS I_PRP wrote_VBD but_CC if_IN you_PRP are_VBP still_RB reading_VBG it_PRP means_VBZ you_PRP could_MD sense_VB what_WP I_PRP m_VBP talking_VBG about…_RP Exactly_RB an_DT year_NN ago_RB I_PRP had_VBD to_TO face_VB allegations_NNS ,_, serious_JJ ones_NNS from_IN the_DT guys_NNS who_WP do_VBP not_RB know_VB what_WP a_DT team_NN mean_NN ,_, who_WP have_VBP no_DT idea_NN how_WRB its_PRP$ made_VBN ,_, and_CC what_WP it_PRP takes_VBZ to_TO keep_VB a_DT team_NN alive_JJ ._. One_CD of_IN the_DT mediator_NN ,_, Sandeep_NNP asked_VBD me_PRP ,_, do_VBP i_NNS have_VBP any_DT answer_JJR to_TO these_DT allegements_NNS ,_, i_NN then_RB said_VBD i_NNS have_VBP 100_CD replies_NNS of_IN their_PRP$ each_DT question_NN but_CC i_NNS need_VBP not_RB to_TO answer_VB a_DT single_JJ of_IN them_PRP ,_, because_IN i_NN was_VBD million_CD percent_JJ confident_NN of_IN their_PRP$ fate_NN ._. i_NN would_MD have_VB confirmed_VBN their_PRP$ doom_NN that_IN week_NN itself_PRP but_CC Sandeep_NNP f_VBP betrayed_VBN me_PRP and_CC shamelessly_RB unwrapped_JJ my_PRP$ mission_NN of_IN making_VBG a_DT new_JJ team_NN and_CC its_PRP$ painfull.._NN more_JJR than_IN you_PRP could_MD ever_RB imagine…_VB They_PRP would_MD have_VB ate_VB the_DT dust_NN there_EX only_RB but_CC sandeep_RB exposed_VBD it_PRP before_IN time_NN and_CC I_PRP was_VBD ravaged…_VBN You_PRP might_MD be_VB thinking_VBG we_PRP are_VBP here_RB to_TO study_VB and_CC why_WRB the_DT hell_NN should_MD I_PRP take_VB Cricket_NNP so_RB seriously_RB ,_, but_CC no_DT ,_, it_PRP was_VBD serious_JJ ,_, more_JJR than_IN even_RB i_VB could_MD imagine_VB and_CC it_PRP was_VBD about_IN how_WRB we_PRP live_VBP and_CC how_WRB we_PRP think…_VBP but_CC I_PRP m_VBP happy_JJ that_IN serious_JJ cricket_NN is_VBZ over_IN and_CC my_PRP$ time_NN with_IN assholes_NNS too…_VBP Now_RB i_VBP m_VBP happily_RB semi_JJ retire_NN and_CC play_NN for_IN warriors_NNS ,_, a_DT lovely_JJ team_NN who_WP listen_VBZ me_PRP and_CC even_RB i_VB never_RB ever_RB shown_VBN my_PRP$ face_NN in_IN practice_NN and_CC friendly_JJ matches_NNS but_CC they_PRP want_VBP me_PRP in_IN their_PRP$ team_NN as_RB far_RB as_IN i_JJ think_VBP ._. Cricket_NNP as_IN a_DT game_NN is_VBZ over_RP for_IN me_PRP and_CC i_VB play_NN just_RB to_TO be_VB with_IN the_DT guys_NNS who_WP took_VBD me_PRP when_WRB other_JJ teams_NNS like_IN Broomsticks_NNP refused_VBD to_TO take_VB me_PRP in_IN their_PRP$ team_NN ._. Anyways_CC where_WRB the_DT hell_NN is_VBZ Broomsticks_NNP ?_. ?_. ?_. ?_. At_IN last_JJ about_IN SPS_NNP BULLS…_NNP i_NN have_VBP many_JJ things_NNS to_TO say_VB but_CC i_JJ don_VBP ’_JJ t_NN think_VBP anyone_NN would_MD be_VB interested_JJ ,_, you_PRP already_RB had_VBD enough_JJ reading_NN it_PRP till_VBZ here_RB and_CC i_VB can_MD not_RB ask_VB for_IN more.._NN There_EX dream_NN of_IN Major_JJ Tournament_NN is_VBZ over_IN in_IN 1st_CD round_NN and_CC i_JJ advice_NN to_TO them_PRP is_VBZ that_IN none_NN of_IN you_PRP ever_RB had_VBD strength_NN of_IN this_DT major_JJ tournament…_NN Try_NNP your_PRP$ luck_NN in_IN Super_NNP 6_CD in_IN Fuera_NNP ,_, I_PRP m_VBP not_RB going_VBG to_TO play_VB that_DT but_CC my_PRP$ good_JJ wishes_NNS for_IN that.._NN Those_DT guys_NNS didn_VBP ’_JJ t_NN won_VBD a_DT single_JJ game_NN after_IN ,_, not_RB a_DT single_JJ game_NN in_IN the_DT major_JJ tournament_NN and_CC stars_NNS of_IN yesterdays_NNS are_VBP out_RB in_IN 2_CD consecutive_JJ tournaments_NNS in_IN the_DT 1st_CD round…_NN ._. 1_CD year…_JJ 2_CD Tournament…_NNP 0_CD Wins…_NNP Well_NNP Done_NNP Boys_NNP !_. !_. !_. !_. After_IN all_DT you_PRP did_VBD this_DT without_IN me….._NN</t>
-  </si>
-  <si>
-    <t>Hello_NNP ,_, ladies_VBZ !_. It_PRP ’_VBZ s_JJ time_NN for_IN a_DT surprise_NN inspection_NN for_IN all_DT our_PRP$ favorite_JJ Sunday_NNP shows_VBZ !_. We_PRP ’_VBP re_JJ dropping_VBG in_IN to_TO see_VB how_WRB they_PRP ’_VBP re_JJ managing_VBG without_IN our_PRP$ weekly_JJ report_NN ._. CJP_NNP likes_VBZ to_TO make_VB sure_JJ women_NNS are_VBP well_RB represented_VBN on_IN the_DT weekly_JJ shows_NNS ._. On_IN with_IN the_DT inspection_NN !_. First_JJ Place_NN :_: Chris_NNP Matthews_NNP Show_NNP Chris_NNP is_VBZ keeping_VBG up_RP the_DT good_JJ work_NN over_IN on_IN CMS_NNP ._. Chris_NNP Matthews_NNP hosted_VBD Janes_NNP Helene_NNP Cooper_NNP of_IN the_DT New_NNP York_NNP Times_NNP and_CC Kelly_NNP O_NNP ’_NNP Donnell_NNP of_IN NBC_NNP news_NN along_IN with_IN The_DT Atlantic_NNP ’_NNP s_VBD Andrew_NNP Sullivan_NNP and_CC HDNet_NNP ’_NNP s_VBD Dan_NNP Rather_NNP ._. Two_CD of_IN four_CD is_VBZ good_JJ enough_RB for_IN first_JJ place…Congratulations_NNS ,_, CMS_NNP !_. Second_JJ Place_NNP Meet_NNP the_DT Press_NNP Meet_NNP the_DT Press_NNP hosted_VBD California_NNP First_NNP Lady_NNP Maria_NNP Shriver_NNP ,_, Senior_NNP White_NNP House_NNP Adviser_NNP Valerie_NNP Jarrett_NNP ,_, Sen._NNP Chris_NNP Dodd_NNP ,_, Sen._NNP John_NNP Kyl_NNP ,_, and_CC John_NNP Podesta_NNP ,_, President_NNP and_CC CEO_NNP of_IN the_DT Center_NNP for_IN American_NNP Progress_NNP on_IN this_DT week_NN ’_FW s_NN show_NN ._. Two_CD Janes_NNPS earns_NNS MTP_NNP a_DT Jane_NNP and_CC second_JJ place_NN this_DT week_NN ._. Good_JJ job_NN MTP_NNP !_. Tied_NNP for_IN Last_JJ Place_NNP Fox_NNP News_NNP Sunday_NNP Chris_NNP Wallace_NNP hosted_VBD Sen._NNP Kent_NNP Conrad_NNP ,_, Sen._NNP Arlen_NNP Specter_NNP ,_, Sen._NNP John_NNP Thune_NNP ,_, Terry_NNP McAuliffe_NNP former_JJ Chair_NNP of_IN the_DT Democratic_NNP Party_NNP and_CC Karl_NNP Rove_NNP former_JJ Senior_NNP Adviser_NNP to_TO President_NNP George_NNP W._NNP Bush_NNP ._. Not_RB a_DT Jane_NN in_IN the_DT bunch_NN so_RB that_IN puts_VBZ Chris_NNP and_CC FNS_NNP in_IN last_JJ place_NN ._. This_DT Week_JJ George_NNP Stephanopolous_NNP hosted_VBD White_NNP House_NNP Senior_NNP Adviser_NNP David_NNP Axelrod_NNP ._. Not_RB a_DT Jane_NN but_CC we_PRP will_MD give_VB George_NNP a_DT little_JJ credit_NN for_IN at_IN least_JJS including_VBG one_CD Jane_NNP in_IN his_PRP$ roundtable_JJ panel_NN ._. Face_IN the_DT Nation_NNP Bob_NNP Scheiffer_NNP hosted_VBD White_NNP House_NNP Chief_NNP of_IN Staff_NNP Rahm_NNP Emanuel_NNP ,_, Sen._NNP John_NNP Cornyn_NNP ,_, and_CC Sen._NNP John_NNP Kerry_NNP on_IN Sunday_NNP morning_NN ._. As_IN most_JJS of_IN you_PRP know_VBP ,_, we_PRP at_IN CJP_NNP are_VBP very_RB fond_RB of_IN Bob_NNP and_CC consider_VB him_PRP our_PRP$ Sunday_NNP boyfriend_NN ._. Needless_NN to_TO say_VB ,_, we_PRP ’_VBP re_RB disappointed_JJ ,_, Bob_NNP ._.</t>
-  </si>
-  <si>
-    <t>Excess_JJ -_: There_EX is_VBZ an_DT old_JJ saying_NN in_IN sanskrit_NN ,_, ``_`` Ati_NNP sarwagya_NN warjyate_NN ''_'' ._. That_DT means_VBZ excess_NN of_IN anything_NN is_VBZ bad_JJ ._. We_PRP can_MD handle_VB things_NNS in_IN two_CD ways_NNS ,_, one_CD is_VBZ using_VBG it_PRP and_CC another_DT is_VBZ misusing_VBG it_PRP ._. Nuclear_JJ reactions_NNS can_MD be_VB used_VBN for_IN getting_VBG power_NN (_( electricity_NN )_) and_CC also_RB can_MD be_VB used_VBN in_IN nuclear_JJ bombs_NN ._. One_CD of_IN my_PRP$ friend_NN had_VBD some_DT disease_NN in_IN which_WDT he_PRP was_VBD growing_VBG thinner_NN ._. Doctor_NNP suggested_VBD him_PRP to_TO drink_VB beer_NN ,_, 3_CD teaspoons_NNS daily_RB ._. Then_RB for_IN 5_CD years_NNS he_PRP drunk_VBZ beer_NN ,_, which_WDT gave_VBD him_PRP no_DT harm_NN ._. Medicines_NNS have_VBP alcohol_VBN in_IN them_PRP ,_, for_IN removing_VBG illness_NN ._. But_CC ,_, alcohol_RB taken_VBN in_IN EXCESS_NNP is_VBZ injurious_JJ to_TO health_NN ._. These_DT things_NNS were_VBD created_VBN or_CC invented_VBN for_IN some_DT good_JJ reason_NN ,_, but_CC everything_NN depends_VBZ in_IN the_DT way_NN we_PRP are_VBP using_VBG it_PRP ._. Sugar_NNP (_( glucose_NN )_) is_VBZ meant_VBN for_IN getting_VBG instant_JJ energy_NN ,_, but_CC excess_NN of_IN it_PRP can_MD cause_VB diabetes_NNS ._. Excess_NNP of_IN everything_NN is_VBZ bad_JJ ._. Teasing_VBG a_DT friend_NN in_IN front_NN of_IN all_DT other_JJ friend_NN for_IN fun_NN is_VBZ good_JJ and_CC grow_JJ relations_NNS closer_RBR ,_, but_CC excess_NN of_IN teasing_VBG can_MD make_VB the_DT person_NN angry_JJ and_CC can_MD break_VB friendship_NN ._. Excess_NNP of_IN gaming_NN ,_, sleeping_NN ,_, talking_VBG and_CC even_RB studying_VBG are_VBP also_RB not_RB good_JJ ._. Sometimes_RB excess_JJ of_IN love_NN is_VBZ also_RB not_RB good_JJ [_NNS ;_: )_) ]_NN ._. After_IN a_DT long_JJ time_NN ,_, when_WRB I_PRP went_VBD to_TO my_PRP$ home_NN ,_, my_PRP$ mom_NN fed_VBD me_PRP with_IN all_PDT the_DT stuffs_NNS ,_, which_WDT she_PRP knew_VBD I_PRP like_VBP ._. I_PRP was_VBD trying_VBG to_TO control_VB myself_PRP ,_, but_CC ,_, as_IN love_NN was_VBD involved_VBN in_IN it_PRP so_IN I_PRP could_MD n't_RB say_VB NO_UH ,_, and_CC ate_VB everything_NN ._. And_CC at_IN last_JJ I_PRP vomited_VBD all_DT of_IN it_PRP out_RP ._. Then_RB she_PRP realised_VBD ,_, its_PRP$ excess_NN ._.</t>
-  </si>
-  <si>
-    <t>Oh_UH how_WRB I_PRP love_VBP this_DT boy_NN !_. Gordon_NNP is_VBZ such_JJ a_DT sweet_JJ boy_NN ._. This_DT morning_NN when_WRB we_PRP were_VBD eating_VBG breakfast_NN I_PRP told_VBD them_PRP that_IN there_EX was_VBD no_DT fighting_VBG on_IN Valentine_NNP 's_POS Day_NNP ,_, only_RB loving_VBG and_CC kissing_VBG ._. Gordon_NNP immediately_RB got_VBD off_IN his_PRP$ chair_NN and_CC started_VBD kissing_VBG my_PRP$ arm_NN ._. He_PRP is_VBZ my_PRP$ little_JJ snuggle_JJ bug_NN ._. Not_RB a_DT day_NN goes_VBZ by_IN when_WRB he_PRP does_VBZ n't_RB curl_VB up_RB on_IN my_PRP$ lap_NN and_CC snuggle_NN with_IN me_PRP ._. If_IN anyone_NN comes_VBZ to_TO our_PRP$ house_NN ,_, Gordon_NNP will_MD undoubtedly_RB give_VB them_PRP a_DT hug_NN ._. He_PRP likes_VBZ to_TO play_VB house_NN and_CC is_VBZ always_RB the_DT baby_NN because_IN ``_`` the_DT baby_NN gets_VBZ to_TO be_VB held_VBN and_CC rocked_VBN and_CC loved_VBN ''_'' ._. (_( I_PRP think_VBP it_PRP might_MD also_RB have_VB something_NN to_TO do_VB with_IN the_DT fact_NN that_IN babies_NNS do_VBP n't_RB really_RB do_VB anything_NN ._. )_) Gordon_NNP has_VBZ recently_RB started_VBN reading_NN and_CC is_VBZ so_RB enthralled_JJ in_IN letters_NNS ._. He_PRP likes_VBZ to_TO sound_VB out_RP words_NNS and_CC his_PRP$ favorite_JJ word_NN to_TO spell_VB is_VBZ ``_`` pop_JJ ''_'' ._. We_PRP were_VBD talking_VBG about_IN the_DT nice_JJ things_NNS we_PRP could_MD do_VB for_IN the_DT others_NNS in_IN our_PRP$ family_NN and_CC Gordon_NNP whispered_VBD to_TO me_PRP ,_, ``_`` Can_MD I_PRP give_VB them_PRP pop_VB ?_. ''_'' I_PRP told_VBD him_PRP it_PRP would_MD be_VB fine_JJ and_CC now_RB we_PRP are_VBP all_DT finding_JJ little_JJ papers_NNS with_IN ``_`` pop_NN ''_'' written_VBN on_IN them_PRP from_IN Gordon_NNP ._. I_PRP love_VBP finding_VBG those_DT papers_NNS !_. We_PRP recently_RB registered_VBD Gordon_NNP for_IN Kindergarten_NNP ._. I_PRP know_VBP he_PRP is_VBZ excited_VBN to_TO go_VB and_CC I_PRP am_VBP sure_JJ he_PRP will_MD be_VB just_RB fine_JJ ._. I_PRP also_RB notice_VBP how_WRB different_JJ he_PRP is_VBZ from_IN the_DT other_JJ boys_VBZ his_PRP$ age_NN ._. While_IN they_PRP all_DT want_VBP to_TO play_VB Star_NNP Wars_NNP or_CC Batman_NNP ,_, Gordon_NNP is_VBZ happy_JJ to_TO talk_VB about_IN Winnie_NNP the_DT Pooh_NNP or_CC play_VB house_NN and_CC be_VB the_DT baby_NN ._. Hopefully_NNP the_DT law_NN is_VBZ n't_RB so_RB strict_JJ that_IN my_PRP$ ``_`` Touch_NNP Love_NNP Language_NNP ''_'' little_JJ boy_NN can_MD get_VB a_DT few_JJ hugs_NNS from_IN his_PRP$ teacher_NN ._. If_IN not_RB ,_, I_PRP will_MD be_VB handing_VBG them_PRP out_RP before_IN and_CC after_IN school_NN ._.</t>
-  </si>
-  <si>
-    <t>Today_NN I_PRP baked_VBD alive_JJ at_IN Brimfield_NNP Flea_NNP Market_NNP in_IN Brimfield_NNP ,_, Massachusetts_NNP ._. If_IN you_PRP 've_VBP never_RB been_VBN there_RB ,_, it_PRP 's_VBZ 17_CD open_JJ fields_NNS strung_VBD along_IN Route_NNP 20_CD ,_, which_WDT for_IN three_CD weeks_NNS of_IN each_DT year_NN are_VBP crammed_VBN full_JJ of_IN leathery-skinned_JJ antiques_NNS dealers_NNS ,_, junk_NN collectors_NNS ,_, hoboes_NNS ,_, drug_NN addicts_NNS ,_, and_CC certified_VBD weirdos_NN ._. And_CC a_DT good_JJ time_NN is_VBZ had_VBN by_IN all_DT ._. This_DT year_NN I_PRP went_VBD twice_RB (_( July_NNP and_CC September_NNP )_) ,_, each_DT time_NN filling_VBG up_RP on_IN weird_JJ stuff_NN ._. July_NNP 's_POS big_JJ score_NN was_VBD an_DT uncut_JJ sheet_NN of_IN Wacky_NNP Packages_NNP from_IN 1979_CD ._. This_DT time_NN around_IN I_PRP brought_VBD home_NN a_DT safe_JJ deposit_NN box_NN from_IN an_DT old_JJ bank_NN ,_, which_WDT coincidentally_RB is_VBZ the_DT perfect_JJ size_NN for_IN holding_VBG baseball_NN cards_NNS ._. I_PRP also_RB scored_VBD on_IN miscut_NN cards_NNS ._. On_IN top_NN of_IN the_DT major_JJ haul_NN from_IN Scott_NNP in_IN New_NNP Jersey_NNP (_( more_RBR on_IN Scott_NNP 's_POS Haul_NNP in_IN a_DT later_JJ post_NN )_) ,_, these_DT cards_NNS are_VBP helping_VBG make_NN miscuts_NNS my_PRP$ next_JJ big_JJ 'thing_NN ._. '_'' And_CC just_RB my_PRP$ luck_NN ,_, all_DT three_CD of_IN the_DT miscuts_NNS I_PRP found_VBD today_NN feature_NN Hall_NNP of_IN Famers_NNP ._.</t>
-  </si>
-  <si>
-    <t>OMG_NN !_. No_UH !_. Some_DT nurse_NN at_IN a_DT hospital_NN gave_VBD unethical_JJ advice_NN to_TO my_PRP$ grandfather_NN who_WP is_VBZ diabetic_JJ to_TO soak_VB his_PRP$ feet_NNS in_IN water_NN and_CC bleach_NN to_TO get_VB rid_JJ of_IN athletes_NNS feet_NNS cracked_VBD or_CC dry_JJ feet_NNS ._. After_IN a_DT month_NN of_IN listening_VBG to_TO this_DT retarded_JJ nurse_NN the_DT bleach_NN started_VBD soaking_VBG in_IN the_DT cracks_NNS of_IN his_PRP$ feet_NNS and_CC cause_VB it_PRP to_TO open_VB more_RBR ._. Later_RB he_PRP got_VBD an_DT infection_NN and_CC now_RB has_VBZ half_NN of_IN a_DT foot_NN ._. Bleach_NNP is_VBZ for_IN cleaning_VBG and_CC doing_VBG laundry_JJ only_RB !_. Please_NNP tell_VB me_PRP you_PRP have_VBP n't_RB tried_VBN this_DT yet_RB !_.</t>
-  </si>
-  <si>
-    <t>This_DT winter_NN ,_, as_IN we_PRP all_DT gathered_VBD at_IN my_PRP$ parent_NN 's_POS to_TO decide_VB what_WP excursions_NNS (_( onshore_IN activities_NNS )_) we_PRP 'd_MD be_VB signing_VBG up_RP for_IN ,_, we_PRP all_DT decided_VBD that_IN today_NN would_MD be_VB the_DT day_NN that_IN we_PRP do_VBP something_NN as_IN a_DT group_NN with_IN my_PRP$ parents_NNS ._. After_IN all_DT ,_, they_PRP were_VBD paying_VBG for_IN everything_NN ,_, and_CC neither_DT of_IN them_PRP were_VBD planning_VBG on_IN the_DT snorkeling/caving/speedboating_NN activities_NNS ._. So_IN we_PRP decided_VBD to_TO take_VB in_IN a_DT Mexican_JJ folklore_NN show_NN ,_, and_CC then_RB just_RB kick_VB back_RB and_CC check_VB out_RP the_DT shopping_NN and_CC eating_NN and_CC everything_NN else_RB we_PRP might_MD find_VB ._.</t>
-  </si>
-  <si>
-    <t>Jaden_NNP and_CC I_PRP usually_RB have_VBP our_PRP$ date_NN night_NN on_IN Fridays_NNP ,_, so_IN we_PRP just_RB had_VBD one_CD a_DT few_JJ hours_NNS ago_RB ._. As_IN usually_RB ,_, it_PRP was_VBD a_DT hit_NN ._. Jaden_NNP got_VBD to_TO pick_VB the_DT date_NN night_NN agenda_NN and_CC he_PRP picked_VBD books_NNS and_CC two_CD Pokemon_NNP movies_NNS ._. He_PRP asked_VBD if_IN we_PRP could_MD read_VB three_CD books_NNS together_RB and_CC he_PRP wanted_VBD me_PRP to_TO watch_VB two_CD Pokemon_NNP movies_NNS with_IN him_PRP ._. Well_RB ,_, he_PRP fell_VBD asleep_RB halfway_RB through_IN the_DT first_JJ movie_NN ._. I_PRP ended_VBD up_RP taking_VBG all_DT 65lbs_CD of_IN him_PRP upstairs_PRP to_TO his_PRP$ bed_NN ,_, but_CC it_PRP was_VBD still_RB such_JJ a_DT success_NN !_. He_PRP had_VBD the_DT biggest_JJS smile_NN on_IN his_PRP$ face_NN as_IN he_PRP was_VBD giving_VBG me_PRP the_DT 411_CD on_IN Charizard_NNP and_CC Pikachu_NNP ._.</t>
-  </si>
-  <si>
-    <t>It_PRP 's_VBZ been_VBN an_DT awesome_JJ ride_NN the_DT past_JJ 8_CD years_NNS ,_, purely_RB because_IN Shankar_NNP has_VBZ been_VBN riding_VBG wingman_NN with_IN me_PRP through_IN out_RB ._. The_DT similarities_NNS between_IN us_PRP are_VBP enough_JJ to_TO fit_VB in_IN a_DT book_NN sized_VBD similar_JJ to_TO the_DT Advanced_NNP Oxford_NNP English_NNP Dictionary_NNP and_CC i_VB guess_NN that_WDT is_VBZ what_WP has_VBZ made_VBN us_PRP such_JJ good_JJ friends_NNS ._. We_PRP live_VBP two_CD minutes_NNS away_RB from_IN each_DT other_JJ ,_, were_VBD back_RB benchers_NNS throughout_IN our_PRP$ school_NN days_NNS ,_, and_CC now_RB study_VB in_IN colleges_NNS 4_CD hours_NNS apart_RB ._. (_( the_DT last_JJ point_NN may_MD seem_VB out_IN of_IN place_NN ,_, but_CC considering_VBG the_DT fact_NN that_IN we_PRP both_DT are_VBP 48_CD hours_NNS from_IN home_NN it_PRP makes_VBZ sense_NN ._. )_) Non_NNP stop_VB nonsense_NN this_DT guy_NN can_MD churn_VB out_RP at_IN a_DT moments_NNS notice_NN ._. Has_VBZ the_DT ability_NN to_TO rip_VB anyone_NN 's_POS self_NN respect_NN to_TO threads_NNS ._. I_PRP have_VBP been_VBN on_IN the_DT receiving_VBG end_NN more_JJR than_IN once_RB and_CC I_PRP 'M_VBP known_VBN for_IN my_PRP$ ability_NN to_TO dish_VB it_PRP out_RP ._. Listing_VBG out_RP memories_NNS and_CC times_NNS we_PRP 've_VBP spent_VBN together_RB will_MD fill_VB out_RP like_IN a_DT 100_CD 1024_CD character_NN spaces_NNS ,_, so_IN i_JJ shall_MD refrain_VB ._. Anyway_NNP cheers_NNS to_TO you_PRP dude_VBP ._. Hope_NNP you_PRP do_VBP manage_VB to_TO set_VB all_DT your_PRP$ convoluted_VBN plans_NNS in_IN motion_NN and_CC someday_JJ manage_NN to_TO get_VB somewhere_RB in_IN life_NN</t>
-  </si>
-  <si>
-    <t>We_PRP were_VBD at_IN the_DT Union_NNP Station_NNP by_IN 6:30_CD ,_, an_DT hour_NN before_IN the_DT designated_JJ schedule_NN ._. We_PRP walked_VBD over_IN the_DT counter_NN to_TO show_VB my_PRP$ online_JJ reservation_NN ._. I_PRP asked_VBD the_DT guy_NN manning_VBG the_DT counter_NN if_IN I_PRP would_MD have_VB any_DT difficulty_NN with_IN my_PRP$ luggage_NN or_CC if_IN I_PRP need_VBP to_TO check_VB it_PRP in_IN ._. He_PRP took_VBD one_CD look_NN at_IN me_PRP and_CC my_PRP$ bags_NNS (_( there_EX was_VBD a_DT trolley_NN bag_NN ,_, a_DT backpack_NN ,_, and_CC a_DT shoulder_NN bag_NN )_) and_CC shrugged_VBN ,_, “_VB you_PRP ’_JJ ll_JJ do_VB just_RB fine._VB ”_NN He_PRP also_RB explained_VBD that_IN there_EX was_VBD one_CD leg_NN in_IN my_PRP$ itinerary_JJ wherein_NN checking_NN in_IN my_PRP$ luggage_NN wasn_NN ’_NNP t_VBZ an_DT option_NN ,_, so_IN it_PRP would_MD be_VB best_JJS if_IN I_PRP would_MD just_RB carry_VB them_PRP with_IN me_PRP ._. Anyway_RB ,_, there_EX would_MD be_VB baggage_NN compartments_NNS where_WRB I_PRP could_MD deposit_VB my_PRP$ things_NNS ._.</t>
-  </si>
-  <si>
-    <t>Shiloh_NNP is_VBZ the_DT story_NN of_IN a_DT girl_NN that_WDT endures_VBZ the_DT Holocaust_NNP and_CC struggles_VBZ to_TO rebuild_VB her_PRP$ life_NN once_RB liberated_VBN ._. The_DT Holocaust_NNP is_VBZ one_CD of_IN those_DT horrific_JJ moments_NNS in_IN history_NN ,_, one_CD that_WDT is_VBZ simply_RB too_RB overwhelming_JJ to_TO understand_VB and_CC filled_VBN with_IN such_JJ evil_NNS and_CC hate_NN ._. It_PRP is_VBZ difficult_JJ to_TO comprehend_VB the_DT depravity_NN that_WDT would_MD allow_VB such_PDT a_DT thing_NN to_TO happen_VB to_TO one_CD person_NN let_VB alone_RB six_CD million_CD ._. What_WP I_PRP find_VBP particularly_RB puzzling_NN is_VBZ the_DT aftermath_NN ._. Whole_JJ families_NNS devastated_VBN and_CC yet_RB these_DT people_NNS had_VBD the_DT courage_NN to_TO pick_VB up_RP what_WP was_VBD left_VBN of_IN their_PRP$ lives_NNS and_CC rebuild_NN ._. Shiloh_NNP is_VBZ the_DT recognition_NN of_IN this_DT rebuilding_NN ._. The_DT girl_NN in_IN the_DT story_NN suffers_NNS bitter_JJ abuse_NN at_IN the_DT hands_NNS of_IN her_PRP$ captors_NNS ._. Through_IN the_DT humiliation_NN and_CC wrenching_VBG pain_VBP the_DT girl_NN manages_VBZ to_TO endure_VB and_CC ,_, upon_IN liberation_NN ,_, begins_VBZ to_TO build_VB her_PRP$ life_NN from_IN what_WP was_VBD ._. The_DT story_NN of_IN Shiloh_NNP is_VBZ one_CD that_WDT has_VBZ been_VBN difficult_JJ to_TO write_VB thus_RB a_DT full_JJ novel_NN is_VBZ simply_RB out_IN of_IN the_DT question_NN !_. After_IN much_JJ deliberation_NN I_PRP decicded_VBD blogging_VBG the_DT story_NN of_IN Shiloh_NNP into_IN episodes_NNS would_MD be_VB beneficial_JJ ,_, would_MD give_VB this_DT story_NN its_PRP$ voice_NN ._. I_PRP hope_VBP you_PRP enjoy_VBP it_PRP ._. Thanks_NNS for_IN visiting_VBG !_. --_: Tim_VB</t>
-  </si>
-  <si>
-    <t>An_DT 11-year-old_JJ girl_NN --_: a_DT precocious_JJ reader_NN --_: was_VBD visiting_VBG my_PRP$ home_NN a_DT few_JJ weekends_NNS ago_RB ._. Over_IN the_DT past_JJ year_NN ,_, she_PRP 'd_MD devoured_VBN ``_`` The_DT Great_NNP Gatsby_NNP ,_, ''_'' ``_`` The_DT Joy_NNP Luck_NNP Club_NNP ''_'' and_CC ``_`` Huckleberry_NNP Finn_NNP ._. ''_'' She_PRP noticed_VBD the_DT review_NN copy_NN of_IN Picoult_NNP 's_POS 17th_CD novel_NN ,_, ``_`` House_NNP Rules_NNP ,_, ''_'' on_IN my_PRP$ coffee_NN table_NN and_CC said_VBD that_IN she_PRP 'd_MD liked_VB some_DT of_IN Picoult_NNP 's_POS other_JJ works_NNS ,_, especially_RB ``_`` My_PRP$ Sister_NNP 's_POS Keeper_NNP ''_'' and_CC ``_`` The_DT Tenth_NNP Circle_NNP ._. ''_'' I_PRP told_VBD her_PRP this_DT new_JJ novel_NN was_VBD wonderful_JJ ._. Big_JJ mistake_NN ._. Shyly_NNP ,_, she_PRP asked_VBD if_IN she_PRP could_MD borrow_VB it_PRP ._. I_PRP 'm_VBP an_DT educator_NN ,_, someone_NN who_WP ,_, by_IN training_NN and_CC disposition_NN ,_, is_VBZ inclined_VBN to_TO applaud_VB a_DT young_JJ person_NN 's_POS thirst_NN for_IN reading_NN ._. But_CC I_PRP grabbed_VBD that_IN fat_JJ review_NN copy_NN out_IN of_IN the_DT kid_NN 's_POS paws_NNS so_IN fast_JJ she_PRP did_VBD n't_RB have_VB time_NN to_TO blink_VB ._. The_DT possessive_JJ hoarder_NN who_WP wants_VBZ to_TO keep_VB all_DT good_JJ books_NNS within_IN reach_NN had_VBD been_VBN awakened_VBN ._. I_PRP muttered_VBD something_NN inane_NN about_IN the_DT reviewers_NNS '_POS code_NN of_IN honor_NN forbidding_VBG me_PRP to_TO lend_VB books_NNS before_IN they_PRP 've_VBP been_VBN published_VBN ._. Hey_NNP ,_, if_IN this_DT 11-year-old_JJ wunderkind_NN has_VBZ absorbed_VBN anything_NN from_IN her_PRP$ reading_NN ,_, she_PRP 's_VBZ surely_RB learned_VBN the_DT fundamental_JJ lesson_NN of_IN every_DT Jodi_NNP Picoult_NNP fictional_JJ family_NN :_: Life_NNP 's_POS tough_JJ ._. Throughout_IN the_DT long_JJ unfolding_NN of_IN ``_`` House_NNP Rules_NNP ,_, ''_'' Picoult_NNP keeps_VBD so_RB many_JJ storyline_NN streamers_NNS whirling_VBG in_IN the_DT air_NN that_IN it_PRP would_MD be_VB easy_JJ just_RB to_TO praise_VB her_PRP$ technical_JJ mastery_NN ._. But_CC though_IN the_DT multiple_JJ plots_NNS and_CC narrators_NNS are_VBP ,_, indeed_RB ,_, adroitly_RB managed_VBN ,_, what_WP most_JJS readers_NNS will_MD cherish_VB is_VBZ the_DT character_NN of_IN Jacob_NNP Hunt_NNP ,_, an_DT 18-year-old_JJ high_JJ school_NN student_NN with_IN Asperger_NNP 's_POS syndrome_NN ._. (_( Jacob_NNP ,_, in_IN goofy_NN teen_JJ fashion_NN ,_, jokes_NNS :_: ``_`` Asperger_NNP 's_POS ._. I_PRP mean_VBP ,_, does_VBZ n't_RB it_PRP sound_VB like_IN a_DT Grade_NNP Z_NNP cut_NN of_IN meat_NN ?_. Donkey_NNP on_IN the_DT barbecue_NN ?_. ''_'' )_) Asperger_NNP 's_POS rules_NNS Jacob_NNP 's_POS life_NN and_CC the_DT life_NN of_IN his_PRP$ family_NN ,_, which_WDT consists_VBZ of_IN his_PRP$ understandably_JJ resentful-but-guilty_NN younger_NN brother_NN ,_, Theo_NNP ,_, and_CC his_PRP$ wry_NN and_CC exhausted_VBD mom_NN ,_, Emma_NNP ._. (_( Although_IN Dad_NNP sends_VBZ child_JJ support_NN ,_, he_PRP fled_VBD the_DT coop_NN long_RB ago_RB ._. )_) Emma_NN ensures_VBZ that_IN a_DT sense_NN of_IN routine_NN --_: so_RB crucial_JJ to_TO Jacob_NNP 's_POS emotional_JJ well-being_NN --_: is_VBZ strictly_RB maintained_VBN from_IN week_NN to_TO week_NN ._. His_PRP$ clothes_NNS are_VBP color-coded_JJ in_IN his_PRP$ closet_NN ;_: daily_JJ meals_NNS are_VBP color-coded_JJ too_RB (_( Monday_NNP food_NN is_VBZ green_JJ ;_: Tuesday_NNP ,_, red_VBD ;_: Wednesday_NNP ,_, yellow_NN )_) ,_, and_CC his_PRP$ diet_NN is_VBZ restricted_VBN ,_, since_IN glutens_NNS and_CC caseins_NNS spark_JJ meltdowns_NNS ._. As_IN Emma_JJ observes_NNS :_: ``_`` Frankly_NNP ,_, with_IN 1_CD in_IN 100_CD kids_NNS in_IN the_DT United_NNP States_NNPS being_VBG diagnosed_VBN on_IN the_DT [_JJ autism_NN ]_NNP spectrum_NN ,_, I_PRP bet_VBP I_PRP could_MD have_VB a_DT top-rated_JJ show_NN on_IN the_DT Food_NNP Network_NNP :_: Alimentary_JJ Autism_NNP ._. Jacob_NNP does_VBZ n't_RB share_NN my_PRP$ culinary_JJ enthusiasm_NN ._. He_PRP says_VBZ that_IN I_PRP 'm_VBP what_WP you_PRP 'd_MD get_VB if_IN you_PRP crossed_VBD Jenny_NNP Craig_NNP with_IN Josef_NNP Mengele_NNP ._. ''_''</t>
-  </si>
-  <si>
-    <t>A_DT simple_JJ method_NN for_IN finding_VBG south_JJ using_VBG nothing_NN but_CC an_DT analog_NN wristwatch_NN and_CC the_DT sun_NN :_: Hold_VB a_DT watch_NN with_IN 12_CD o'clock_NN at_IN left_NN ._. Move_VB your_PRP$ arm_NN so_IN the_DT hour_NN hand_NN points_NNS at_IN the_DT sun_NN ._. The_DT spot_NN halfway_NN between_IN the_DT hour_NN hand_NN and_CC the_DT 12_CD is_VBZ south_VBN ._. A_DT few_JJ important_JJ caveats_NNS ._. First_NNP ,_, if_IN you_PRP 're_VBP in_IN the_DT southern_JJ hemisphere_NN ,_, you_PRP would_MD point_VB 12_CD o'clock_NN at_IN the_DT sun_NN but_CC still_RB split_VBD the_DT difference_NN between_IN 12_CD and_CC the_DT hour_NN hand_NN for_IN north_NN ._. Also_RB ,_, if_IN you_PRP practice_NN daylight_VBD saving_VBG time_NN ,_, you_PRP should_MD subtract_VB one_CD hour_NN from_IN the_DT hour_NN hand_NN ._. Use_VB your_PRP$ wristwatch_NN as_IN a_DT compass_NN ._. [_JJ Lifehacker_NNP ]_VBD The_DT PDF_NNP file_NN format_NN is_VBZ one_CD of_IN the_DT best_JJS ways_NNS to_TO publish_VB ,_, save_VB and_CC exchange_VB well-formatted_JJ documents_NNS that_WDT will_MD look_VB exactly_RB the_DT same_JJ regardless_NN of_IN the_DT device_NN or_CC computer_NN you_PRP open_VBP them_PRP on_IN ._. Whether_IN it_PRP 's_VBZ your_PRP$ resumé_NN ,_, a_DT tax_NN form_NN ,_, e-book_NN ,_, user_JJ guide_NN or_CC a_DT web_JJ page_NN ,_, you_PRP ca_MD n't_RB go_VB wrong_JJ using_VBG a_DT PDF_NNP ._. Chances_NNS are_VBP you_PRP 've_VBP already_RB got_VBD a_DT free_JJ PDF_NNP reader_NN installed_VBD on_IN your_PRP$ computer_NN ,_, but_CC you_PRP can_MD do_VB a_DT lot_NN more_RBR with_IN your_PRP$ PDF_NNP files_NNS than_IN you_PRP might_MD think_VB ._. Hit_VB the_DT jump_NN for_IN our_PRP$ top_JJ 10_CD list_NN of_IN techniques_NNS for_IN converting_VBG ,_, exchanging_VBG ,_, sharing_VBG ,_, managing_NN and_CC editing_VBG PDF_NNP documents_NNS ._. Top_JJ 10_CD PDF_NNP tricks_NNS ._. [_JJ Lifehacker_NNP ]_VBD A_DT little_JJ known_JJ school_NN of_IN scholars_NNS in_IN southwest_JJS India_NNP discovered_VBD one_CD of_IN the_DT founding_JJ principles_NNS of_IN modern_JJ mathematics_NNS hundreds_NNS of_IN years_NNS before_IN Newton_NNP according_VBG to_TO new_JJ research_NN ._. Dr_NNP George_NNP Gheverghese_NNP Joseph_NNP from_IN The_DT University_NNP of_IN Manchester_NNP says_VBZ the_DT 'Kerala_JJ School_NNP '_POS identified_VBD the_DT 'infinite_JJ series'-_JJ one_CD of_IN the_DT basic_JJ components_NNS of_IN calculus_JJ -_: in_IN about_IN 1350_CD ._. The_DT discovery_NN is_VBZ currently_RB -_: and_CC wrongly_RB -_: attributed_VBN in_IN books_NNS to_TO Sir_NNP Isaac_NNP Newton_NNP and_CC Gottfried_NNP Leibnitz_NNP at_IN the_DT end_NN of_IN the_DT seventeenth_JJ centuries_NNS ._. The_DT team_NN from_IN the_DT Universities_NNS of_IN Manchester_NNP and_CC Exeter_NNP reveal_VBP the_DT Kerala_NNP School_NNP also_RB discovered_VBD what_WP amounted_VBD to_TO the_DT Pi_NNP series_NN and_CC used_VBD it_PRP to_TO calculate_VB Pi_NNP correct_NN to_TO 9_CD ,_, 10_CD and_CC later_RB 17_CD decimal_JJ places_NNS ._. And_CC there_EX is_VBZ strong_JJ circumstantial_JJ evidence_NN that_IN the_DT Indians_NNPS passed_VBD on_IN their_PRP$ discoveries_NNS to_TO mathematically_RB knowledgeable_JJ Jesuit_NNP missionaries_NNS who_WP visited_VBD India_NNP during_IN the_DT fifteenth_JJ century_NN ._. Indians_NNPS predate_VBP Newton_NNP 'discovery_NNP '_POS by_IN 250_CD years_NNS ._. [_VB Physorg_NNP ]_NNP Deodorize_NNP ..._: Your_PRP$ kitchen_FW sink_VB Your_PRP$ freezer_VB Your_PRP$ car_NN Food_NN storage_NN containers_NNS Your_VBP clothes_NNS Your_PRP$ carpet_NN Your_PRP$ pet_NN 's_POS bedding_VBG Your_PRP$ basement_NN Eight_NNP surprising_NN household_NN deodorizers_NNS ._. [_JJ Real_JJ Simple_JJ ]_NNP Atlas_NNP of_IN World_NNP Faiths_NNP ._. [_VB spiegel.de_JJ ]_NN Of_IN all_PDT the_DT objects_NNS in_IN the_DT universe_NN ,_, the_DT human_JJ brain_NN is_VBZ the_DT most_RBS complex_JJ :_: There_EX are_VBP as_IN many_JJ neurons_NNS in_IN the_DT brain_NN as_IN there_EX are_VBP stars_NNS in_IN the_DT Milky_NNP Way_NNP galaxy_NN ._. So_IN it_PRP is_VBZ no_DT surprise_NN that_IN ,_, ­despite_VB the_DT glow_NN from_IN recent_JJ advances_NNS in_IN the_DT science_NN of_IN the_DT brain_NN and_CC mind_NN ,_, we_PRP still_RB find_VBP ourselves_PRP squinting_VBG in_IN the_DT dark_NN somewhat_RB ._. But_CC we_PRP are_VBP at_IN least_JJS beginning_VBG to_TO grasp_VB the_DT crucial_JJ mysteries_NNS of_IN neuroscience_NN and_CC starting_VBG to_TO make_VB headway_NN in_IN addressing_VBG them_PRP ._. Even_RB partial_JJ answers_NNS to_TO these_DT 10_CD questions_NNS could_MD restructure_VB our_PRP$ understanding_NN of_IN the_DT roughly_RB three-pound_JJ mass_NN of_IN gray_JJ and_CC white_JJ matter_NN that_WDT defines_VBZ who_WP we_PRP are_VBP ._. Ten_CD Unsolved_NNP Mysteries_NNPS of_IN the_DT Brain_NNP ._. [_NNP Discover_NNP Magazine_NNP ]_NNP Good_NNP news_NN ,_, everyone_NN !_. Here_RB is_VBZ a_DT story_NN about_IN building_VBG my_PRP$ very_RB own_JJ Bender_NNP ._. This_DT ,_, as_IN everyone_NN should_MD know_VB ,_, is_VBZ the_DT foul_NN mouthed_VBD ,_, cigar_NN smoking_NN ,_, booze_NN drinking_NN ,_, shiny_JJ metal_NN arsed_VBD ,_, bending_VBG robot_NN from_IN the_DT program_NN Futurama_NNP ._. More_JJR information_NN can_MD be_VB found_VBN in_IN the_DT Wikipedia_NNP Futurama_NNP entry_NN ._. Of_IN course_NN just_RB having_VBG a_DT Bender_NN that_WDT does_VBZ n't_RB do_VB anything_NN would_MD be_VB a_DT waste_NN of_IN time_NN so_IN mine_JJ shall_MD be_VB used_VBN for_IN a_DT practical_JJ purpose_NN ._. One_CD Bender_NN himself_PRP would_MD be_VB proud_JJ of_IN ._. I_PRP 'll_MD use_VB him_PRP to_TO make_VB beer_NN !_. This_DT was_VBD actually_RB done_VBN in_IN the_DT show_NN in_IN the_DT episode_NN ``_`` The_DT Route_NNP of_IN all_DT Evil_NNP ''_'' ._. The_DT idea_NN was_VBD suggested_VBN to_TO me_PRP by_IN my_PRP$ drinking_NN buddy_NN Dave_NNP ._. I_PRP did_VBD n't_RB remember_VB this_DT until_IN he_PRP provided_VBD the_DT proof_NN (_( typos_JJ and_CC all_DT )_) :_: [_$ 3/30/2007_CD 9:21:20_CD AM_NNP ]_NNP Simon_NNP Jansen_NNP says_VBZ :_: Everytime_NN I_PRP watch_VBP Futurama_NNP I_PRP want_VBP to_TO build_VB a_DT bender_NN ._. [_VB 3/30/2007_CD 9:24:14_CD AM_NNP ]_NNP David_NNP Moore_NNP says_VBZ :_: do_VB you_PRP remember_VB the_DT episode_NN where_WRB they_PRP brew_VBD beer_NN inside_IN Bender_NNP ?_. [_VBD 3/30/2007_CD 9:24:26_CD AM_NNP ]_NNP David_NNP Moore_NNP says_VBZ :_: you_PRP should_MD build_VB that_DT ..._: ._. a_DT Bender_NNP brewer_NN [_VBD 3/30/2007_CD 9:24:28_CD AM_NNP ]_NNP Simon_NNP Jansen_NNP says_VBZ :_: Vaguely.\_NNP [_VBD 3/30/2007_CD 9:24:37_CD AM_NNP ]_NNP David_NNP Moore_NNP says_VBZ :_: he_PRP gets_VBZ all_DT maternal_JJ [_NNP 3/30/2007_CD 9:24:42_CD AM_NNP ]_NNP Simon_NNP Jansen_NNP says_VBZ :_: I_PRP could_MD buil_VB done_VBN out_IN of_IN real_JJ steel_NN ._. [_VB 3/30/2007_CD 9:26:49_CD AM_NNP ]_NNP David_NNP Moore_NNP says_VBZ :_: season3_NN episode12_NN :_: The_DT Route_NNP of_IN All_NNP Evil_NNP [_VBD 3/30/2007_CD 9:26:56_CD AM_NNP ]_NNP David_NNP Moore_NNP says_VBZ :_: title_NN refers_NNS to_TO money_NN ,_, not_RB beer_NN [_VBD 3/30/2007_CD 9:27:27_CD AM_NNP ]_NNP Simon_NNP Jansen_NNP says_VBZ :_: How_WRB about_IN a_DT Bender_NNP beer_NN fridge_NN ?_. Get_NNP one_CD of_IN those_DT mini_NNS fridges_NNS and_CC build_VB that_DT into_IN him_PRP ?_. [_'' 3/30/2007_CD 9:28:00_CD AM_NNP ]_NNP David_NNP Moore_NNP says_VBZ :_: no_DT a_DT brewer_NN So_NNP ,_, credit_NN where_WRB credit_NN is_VBZ due_JJ !_. The_DT latest_JJS entry_NN is_VBZ from_IN August_NNP 5_CD ,_, 2007_CD -_: Check_NNP back_RB for_IN progress_NN reports_NNS ._. Building_NNP Beer_NNP ,_, Brewing_NNP Bender_NNP ._. [_VB asciimation.co.nz_JJ ]_NNP Sir_NNP Isaac_NNP Newton_NNP (_( 1642-1727_JJ )_) was_VBD the_DT greatest_JJS scientist_NN that_IN ever_RB lived_VBD ._. More_JJR than_IN any_DT other_JJ person_NN ,_, Newton_NNP was_VBD single-handedly_RB responsible_JJ for_IN laying_VBG the_DT the_DT groundwork_NN in_IN classical_JJ mechanics_NNS ,_, optics_NNS ,_, and_CC even_RB mathematics_NNS ._. Landing_VBG man_NN on_IN the_DT moon_NN ?_. Don_NNP ’_NNP t_VBD look_NN at_IN Einstein_NNP -_: it_PRP was_VBD all_DT done_VBN with_IN Newtonian_JJ physics_NNS ._. Even_RB though_IN every_DT high_JJ school_NN student_NN that_WDT has_VBZ ever_RB taken_VBN physics_NNS (_( should_MD )_) remember_VB Newton_NNP ’_NNP s_JJ contributions_NNS ,_, not_RB many_JJ know_VBP about_IN the_DT man_NN behind_IN the_DT science_NN ._. For_IN example_NN ,_, did_VBD you_PRP know_VBP that_IN Sir_NNP Isaac_NNP was_VBD an_DT alchemist_NN ?_. Or_CC that_IN ,_, like_IN Einstein_NNP ,_, he_PRP didn_VBZ ’_JJ t_NNS have_VBP a_DT very_RB promising_JJ start_NN ?_. Or_CC that_IN he_PRP was_VBD obsessed_VBN with_IN the_DT Bible_NNP and_CC tried_VBD to_TO predict_VB Armageddon_NNP ?_. Read_NNP on_IN for_IN more_JJR obscure_JJ facts_NNS about_IN the_DT life_NN of_IN Isaac_NNP Newton_NNP ,_, the_DT world_NN ’_NNP s_NN greatest_JJS scientist_NN ..._: Ten_NNP Strange_NNP Facts_NNP About_IN Newton_NNP ._. [_VB Neatorama_NNP ]_NN</t>
-  </si>
-  <si>
-    <t>Beyond_IN Getting_VBG There_EX :_: What_WP Travel_NNP Days_VBZ Show_NNP Us_NNP Today_NNP ’_NNP s_VBD guest_JJS post_NN is_VBZ by_IN Gillian_JJ at_IN One-Giant-Step.com_NNP sums_NNS up_RP for_IN me_PRP that_IN imperceptible_JJ change_NN that_WDT happens_VBZ when_WRB you_PRP travel…_VBP you_PRP start_VBP appreciating_VBG things_NNS you_PRP never_RB thought_VBD you_PRP would_MD ._. In_IN that_DT process_NN ,_, maybe_RB you_PRP even_RB learn_VBP a_DT new_JJ way_NN to_TO see_VB the_DT world_NN ._. Who_WP is_VBZ it_PRP that_WDT said_VBD “_IN It_PRP ’_NNP s_VBZ not_RB about_IN the_DT destination_NN ,_, it_PRP ’_VBZ s_JJ about_IN the_DT journey_NN ”_NN ?_. Nine_NNP months_NNS of_IN full_JJ time_NN traveling_VBG has_VBZ proven_VBN to_TO me_PRP that_IN this_DT is_VBZ absolutely_RB true_JJ ._. Before_IN leaving_VBG on_IN this_DT trip_NN the_DT thought_NN of_IN an_DT 8_CD or_CC 10_CD hour_NN bus_NN trip_NN was_VBD pretty_RB daunting_VBG ._. The_DT longest_JJS trips_NN we_PRP ’_VBP d_RB taken_VBN were_VBD on_IN planes_NNS ,_, where_WRB they_PRP serve_VBP drinks_NNS and_CC meals_NNS and_CC we_PRP can_MD pass_VB the_DT time_NN watching_VBG movies_NNS ._. Eight_CD hours_NNS on_IN a_DT bus_NN ,_, without_IN the_DT same_JJ amenities_NNS sounded_VBD like_IN torture_NN but_CC we_PRP jumped_VBD in_IN right_NN from_IN the_DT start_NN with_IN a_DT 22_CD hour_NN ride_NN from_IN Lima_NNP to_TO Cusco_NNP that_IN ,_, while_IN not_RB the_DT most_RBS comfortable_JJ ride_NN ,_, got_VBD us_PRP into_IN the_DT swing_NN of_IN things_NNS pretty_RB quickly_RB ._. Once_IN we_PRP got_VBD a_DT routine_JJ down…snacks_NN packed_VBD ,_, books_NNS prepared_VBD ,_, podcasts_NNS ready…and_VBP had_VBD determined_VBN our_PRP$ favorite_JJ seats…on_NN the_DT drivers_NNS side_VBP ,_, no_DT window_NN bar_NN blocking_VBG the_DT view_NN ,_, no_DT children_NNS nearby…bus_RB journeys_NNS became_VBD easy_JJ and_CC now_RB travel_VBP days_NNS are_VBP some_DT of_IN my_PRP$ favorite_JJ days_NNS ._. They_PRP are_VBP a_DT chance_NN for_IN quiet_JJ reflection_NN ,_, to_TO leave_VB behind_IN what_WP is_VBZ past_JJ ,_, to_TO think_VB about_IN the_DT place_NN we_PRP are_VBP leaving_VBG and_CC start_VB thinking_VBG about_IN how_WRB we_PRP will_MD remember_VB our_PRP$ experiences_NNS there…that_RB great_JJ evening_NN we_PRP had_VBD at_IN the_DT market_NN ,_, the_DT interesting_JJ people_NNS we_PRP met_VBD at_IN the_DT cooking_NN course_NN ,_, the_DT horrible_JJ bed_NN at_IN the_DT guesthouse_NN ._. They_PRP are_VBP a_DT chance_NN to_TO look_VB forward_RB ,_, to_TO anticipate_VB what_WP is_VBZ coming_VBG ,_, and_CC to_TO plan_VB ahead…where_RB will_MD we_PRP go_VB next_RB ,_, how_WRB will_MD we_PRP get_VB there…where_RB will_MD we_PRP stay_VB ._. They_PRP are_VBP a_DT chance_NN to_TO stare_VB out_RP the_DT window_NN and_CC think_VB about_IN where_WRB we_PRP ’_VBP ve_RB been_VBN and_CC where_WRB we_PRP ’_VBP re_JJ going_VBG ,_, about_IN past_JJ successes_NNS and_CC future_JJ plans…when_NN else_RB is_VBZ there_EX a_DT chance_NN to_TO do_VB nothing_NN but_CC quietly_RB think_VB ?_. Travel_NNP days_NNS let_VB us_PRP learn_VB a_DT little_JJ bit_NN about_IN the_DT people_NNS and_CC culture_NN of_IN the_DT places_NNS we_PRP visit_VBP ._. Sitting_VBG in_IN an_DT airport_NN ,_, bus_NN station_NN or_CC train_NN depot_NN gives_VBZ me_PRP a_DT great_JJ vantage_NN point_NN to_TO see_VB how_WRB people_NNS relate_VBP to_TO each_DT other_JJ ._. Who_WP is_VBZ traveling_VBG with_IN who_WP ?_. Where_WRB might_MD they_PRP be_VB going_VBG ,_, and_CC why_WRB ?_. Are_VBP they_PRP traveling_VBG for_IN work_NN ,_, or_CC holiday_NN ,_, or_CC to_TO visit_VB family_NN ?_. Who_WP are_VBP they_PRP meeting…or_VBP leaving_VBG behind_IN ?_. In_IN a_DT small_JJ northern_JJ Turkish_JJ town_NN we_PRP witnessed_VBD a_DT heart-wrenching_JJ goodbye_NN between_IN two_CD young_JJ men_NNS ._. Turkish_JJ men_NNS are_VBP very_RB close_RB -_: it_PRP is_VBZ normal_JJ to_TO see_VB them_PRP holding_VBG hands_NNS and_CC embracing_VBG each_DT other_JJ –_NN and_CC this_DT couple_NN seemed_VBD heartbroken_JJ to_TO be_VB leaving_VBG each_DT other_JJ ._. One_CD boy_NN sat_VBD in_IN the_DT seat_NN ahead_RB of_IN us_PRP ,_, perhaps_RB on_IN his_PRP$ way_NN to_TO school_NN or_CC military_JJ service_NN ,_, his_PRP$ friend_NN stood_VBD outside_IN the_DT bus_NN ._. They_PRP spent_VBD their_PRP$ remaining_JJ time_NN together_RB with_IN hands_NNS pressed_VBN against_IN the_DT glass_NN ,_, trying_VBG to_TO talk_VB through_IN the_DT window_NN and_CC texting_VBG each_DT other_JJ on_IN their_PRP$ phones_NNS ._. I_PRP don_VBP ’_JJ t_NN understand_VBP Turkish_JJ but_CC is_VBZ was_VBD clear_JJ they_PRP were_VBD going_VBG to_TO miss_VB each_DT other_JJ terribly_RB ._. I_PRP like_IN the_DT act_NN of_IN traveling_VBG ,_, the_DT moving_VBG forward_RB ,_, the_DT getting_VBG somewhere_RB ._. I_PRP love_VBP watching_VBG the_DT scenery_NN slowly_RB change_NN from_IN rolling_VBG hills_NNS to_TO flat_JJ plains_NNS ,_, along_RB high_JJ twisty_NN mountain_NN roads_NNS or_CC perfectly_RB straight_JJ desert_NN highways_NNS –_VBP there_EX is_VBZ always_RB lots_NNS to_TO see_VB ._. One_CD of_IN my_PRP$ favorite_JJ bus_NN rides_NNS is_VBZ still_RB that_IN first_JJ 22_CD hour_NN ride_NN between_IN Lima_NNP and_CC Cusco_NNP ._. I_PRP will_MD always_RB remember_VB dawn_NN breaking_NN over_IN the_DT altiplano_NN ,_, the_DT smoke_NN rising_VBG from_IN the_DT llama_NN herder_NN shacks_NNS and_CC the_DT sun_NN glinting_VBG off_RP the_DT frost_NN that_WDT covered_VBD the_DT ground_NN ._. There_EX are_VBP plenty_NN of_IN stories_NNS to_TO be_VB told_VBN about_IN dodgy_NN bus_NN trips_NNS ,_, or_CC awful_JJ plane_NN rides_NNS ,_, or_CC the_DT never-ending_JJ tuk_NN tuk/minivan/bus/boat_NN combination…what_WDT would_MD we_PRP do_VB without_IN those_DT stories_NNS ?_. But_CC there_EX are_VBP also_RB plenty_NN of_IN journeys_NNS that_WDT are_VBP made_VBN perfectly_RB lovely…the_JJ lemon_NN spritz_NN on_IN Turkish_JJ buses_NNS ,_, the_DT meals_NNS served_VBD on_IN Argentinean_NNP buses_NNS ,_, or_CC the_DT comfy_NN bed_NN on_IN the_DT overnight_JJ Thailand_NNP train_NN ._. Travel_NNP days_NNS are_VBP an_DT integral_JJ part_NN of_IN travel_NN ._. They_PRP are_VBP filled_VBN with_IN possibility_NN and_CC anticipation_NN of_IN what_WP lies_VBZ ahead_RB ._. I_PRP like_IN the_DT optimism_NN they_PRP have_VBP ,_, the_DT sense_NN that_WDT fun_NN and_CC adventure_NN lie_NN ahead_RB ._. No_UH matter_NN how_WRB long_RB or_CC short_VB the_DT journey_NN they_PRP will_MD always_RB be_VB my_PRP$ favorites_NNS ._.</t>
-  </si>
-  <si>
-    <t>No_DT this_DT is_VBZ not_RB True_NNP ._. But_CC what_WP is_VBZ ,_, is_VBZ we_PRP have_VBP a_DT stronger_JJR will_MD power_NN ._. Women_NNS have_VBP a_DT Tendance_NN to_TO cheat_VB on_IN their_PRP$ diets_NNS ._. I_PRP went_VBD on_IN a_DT slim_JJ fast_NN diet_NN and_CC lost_VBD 50lb_CD in_IN 30_CD days_NNS ,_, so_IN it_PRP dose_JJ work_NN and_CC I_PRP kept_VBD it_PRP off_RP for_IN more_JJR then_RB 6_CD years_NNS ._. And_CC so_RB can_MD everyone_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP wish_VBP I_PRP had_VBD taken_VBN a_DT more_RBR proactive_JJ approach_NN to_TO my_PRP$ son_NN 's_POS eating_JJ habits_NNS ._. Being_VBG the_DT first-time_JJ new_JJ mom_NN I_PRP did_VBD not_RB know_VB what_WP the_DT right_JJ quantity_NN of_IN food_NN that_WDT should_MD be_VB given_VBN to_TO an_DT infant_JJ nor_CC did_VBD I_PRP know_VB how_WRB and_CC when_WRB to_TO feed_VB the_DT infant_NN ._. Now_RB after_IN a_DT year_NN and_CC 5_CD months_NNS I_PRP realize_VBP a_DT few_JJ things_NNS which_WDT I_PRP wish_VBP I_PRP had_VBD known_VBN earlier_RB ._. These_DT would_MD have_VB helped_VBN my_PRP$ son_NN be_VB a_DT better_JJR eater_NN and_CC me_PRP a_DT more_RBR satisfied_JJ mom_NN ._. 1_CD ._. Never_NNP force_VBP feed_VB your_PRP$ baby_NN even_RB when_WRB they_PRP are_VBP tiny_JJ babies_NNS ._. That_DT habit_NN must_MD start_VB from_IN the_DT cradle_NN ._. 2_CD ._. Kids_NNS know_VBP when_WRB they_PRP are_VBP hungry_JJ ._. So_RB force_JJ feeding_NN will_MD kill_VB their_PRP$ basic_JJ instinct_NN ._. (_( It_PRP is_VBZ very_RB difficult_JJ to_TO get_VB back_RP that_DT instinct_NN )_) ._. And_CC they_PRP will_MD start_VB developing_VBG hatred_JJ towards_NNS food_NN ._. 3_CD ._. If_IN you_PRP start_VBP force_VB feeding_NN during_IN the_DT baby_NN days_NNS ,_, you_PRP will_MD probably_RB end_VB up_RP like_IN me_PRP -_: always_RB running_VBG behind_IN your_PRP$ child_NN during_IN meal_JJ times_NNS ._. I_PRP dread_VBP meal_JJ times_NNS !_. Phew_NN !_. It_PRP breaks_VBZ my_PRP$ back_NN ._. 4_CD ._. Kids_NNS are_VBP not_RB machines_NNS or_CC ``_`` gunny_NN bags_NNS ''_'' to_TO eat_VB some_DT standard_JJ quantity_NN of_IN food_NN at_IN regular_JJ intervals_NNS ._. They_PRP will_MD have_VB their_PRP$ own_JJ pattern_NN ._. We_PRP could_MD possibly_RB produce_VB food_NN in_IN front_NN of_IN them_PRP every_DT three_CD hours_NNS or_CC so_RB and_CC let_VB them_PRP eat_VB sitting_VBG in_IN one_CD place_NN ._. This_DT pathetic_JJ habit_NN of_IN showing_VBG some_DT entertainment_NN while_IN eating_VBG -_: SUCKS_NN !_. Do_VBP n't_RB even_RB try_VB it_PRP ._. 5_CD ._. This_DT really_RB limits_VBZ my_PRP$ ability_NN to_TO travel_VB with_IN my_PRP$ son_NN and_CC generally_RB doing_VBG other_JJ things_NNS because_IN a_DT )_) it_PRP is_VBZ hell_JJ time_NN consuming_VBG b_NN )_) I_PRP don_VBP ’_JJ t_NN think_VBP I_PRP have_VBP the_DT energy_NN left_VBD to_TO do_VB anything_NN else_RB after_IN a_DT war_NN with_IN my_PRP$ son_NN ._. Phew_NN !_. I_PRP wish_VBP some_DT day_NN my_PRP$ son_NN and_CC I_PRP would_MD break_VB this_DT lousy_JJ habit_NN of_IN running_VBG around_RB and_CC chasing_VBG each_DT other_JJ while_IN eating_VBG and_CC I_PRP wish_VBP we_PRP would_MD have_VB happier_JJR and_CC peaceful_JJ mealtimes_NNS ._. God_NNP help_VB me_PRP !_.</t>
-  </si>
-  <si>
-    <t>Microsoft_NNP faces_VBZ a_DT tough_JJ assignment_NN in_IN trying_VBG to_TO get_VB back_RB in_IN the_DT smartphone_NN game_NN ._. Nokia_NNP ’_NNP s_NN Symbian_NNP maintains_VBZ a_DT massive_JJ presence_NN in_IN overseas_JJ markets_NNS ,_, while_IN Apple_NNP ’_NNP s_VBD iPhone_NN and_CC Google_NNP ’_NNP s_NN Android_NNP have_VBP gained_VBN tremendous_JJ momentum_NN in_IN the_DT superphone_NN era_NN ._. And_CC Windows_NNP Mobile_NNP will_MD only_RB continue_VB to_TO lose_VB ground_NN in_IN advance_NN of_IN the_DT debut_NN of_IN Windows_NNP Phone_NNP later_RB this_DT year_NN thanks_VBZ to_TO the_DT fact_NN that_IN the_DT two_CD platforms_NNS will_MD be_VB incompatible_JJ ._. But_CC there_EX ’_NNP s_VBD no_DT shortage_NN of_IN players_NNS hoping_VBG that_IN Redmond_NNP can_MD breathe_VB new_JJ life_NN into_IN its_PRP$ mobile_JJ business_NN ._. The_DT following_JJ are_VBP just_RB a_DT few_JJ of_IN the_DT entities_NNS with_IN a_DT vested_JJ interest_NN in_IN seeing_VBG Windows_NNP Phone_NNP succeed_VB :_: *_JJ Corporate_NNP IT_NNP departments_VBZ —_JJ Business_NNP users_NNS are_VBP increasingly_RB turning_VBG to_TO consumer-friendly_JJ smartphones_NNS like_IN the_DT iPhone_NN and_CC forcing_VBG IT_NNP staffers_NNS to_TO support_VB their_PRP$ new_JJ gadgets_NNS ._. But_CC the_DT emergence_NN of_IN a_DT phone_NN that_WDT offers_VBZ both_DT Microsoft_NNP ’_NNP s_NN seamless_NN integration_NN with_IN Exchange_NNP Server_NNP and_CC consumer-friendly_JJ features_NNS and_CC applications_NNS would_MD go_VB a_DT long_JJ way_NN toward_IN making_VBG life_NN easier_JJR for_IN IT_NNP workers_NNS ._. *_VB HTC_NNP –_VB The_DT Taiwan-based_JJ handset_NN manufacturer_NN is_VBZ fully_RB aboard_IN the_DT Android_NNP bandwagon_NN ,_, but_CC hitching_VBG your_PRP$ wagon_NN to_TO a_DT single_JJ OS_NNP is_VBZ a_DT dangerous_JJ strategy_NN for_IN a_DT mobile_JJ OEM_NNP ._. So_IN the_DT longtime_JJ Windows_NNP Mobile_NNP supplier_NN is_VBZ one_CD of_IN the_DT launch_JJ partners_NNS for_IN Windows_NNP Phone_NNP and_CC vows_NNS to_TO develop_VB an_DT “_NN HTC_NNP Hub_NNP ”_NNP for_IN the_DT platform_NN ._. *_CC Motorola_NNP —_NNP Although_IN it_PRP joined_VBD the_DT Android_NNP crowd_NN late_RB last_JJ year_NN in_IN a_DT big_JJ way_NN ,_, releasing_VBG both_PDT the_DT Cliq_NNP and_CC the_DT Droid_NNP ,_, as_IN Om_NNP noted_VBD in_IN January_NNP ,_, Motorola_NNP was_VBD left_VBN out_RP in_IN the_DT cold_NN when_WRB HTC_NNP was_VBD tapped_VBN to_TO produce_VB Google_NNP ’_NNP s_VBD flagship_JJ device_NN ._. The_DT struggling_VBG company_NN will_MD continue_VB to_TO churn_VB out_RP Android_NNP handsets_NNS ,_, but_CC Windows_NNP Phone_NNP has_VBZ caught_VBN its_PRP$ eye_NN ._. Look_VB for_IN increasing_VBG interest_NN —_NN and_CC maybe_RB a_DT hardware_NN commitment_NN —_VBZ out_IN of_IN Motorola_NNP as_IN the_DT OS_NNP nears_VBZ its_PRP$ launch_NN later_RBR this_DT year_NN ._. *_CC Application_NNP developers_NNS —_VBP Microsoft_NNP is_VBZ wooing_VBG developers_NNS by_IN forcing_VBG manufacturers_NNS to_TO comply_VB with_IN strict_JJ guidelines_NNS regarding_VBG screen_NN sizes_NNS ,_, buttons_NNS and_CC features_NNS ._. That_DT will_MD make_VB it_PRP easier_JJR for_IN developers_NNS to_TO deploy_VB apps_JJ across_IN a_DT range_NN of_IN Windows_NNP Phone_NNP gadgets_NNS without_IN having_VBG to_TO tweak_VB each_DT app_NN for_IN each_DT handset_NN ._. And_CC longtime_JJ Windows_NNP Mobile_NNP developers_NNS are_VBP sure_JJ to_TO be_VB pleased_VBN by_IN a_DT platform_NN that_WDT combines_VBZ high-tech_JJ entertainment_NN features_NNS with_IN Microsoft_NNP ’_NNP s_VBD business-focused_JJ technology_NN ._. *_JJ Gamers_NNP —_NNP Integrating_NNP Windows_NNP Phone_NNP with_IN Xbox_NNP and_CC Windows_NNP is_VBZ an_DT interesting_JJ move_NN for_IN a_DT company_NN whose_WP$ mobile_NN strategy_NN has_VBZ long_RB focused_VBN on_IN the_DT enterprise_NN ._. But_CC it_PRP ’_NNP s_VBZ also_RB a_DT strategy_NN that_WDT could_MD finally_RB push_VB mobile_NN gaming_VBG beyond_IN casual_JJ ,_, pick-up-and-play_JJ titles_NNS and_CC toward_IN more_RBR immersive_JJ ,_, console-type_JJ experiences_NNS ._.</t>
-  </si>
-  <si>
-    <t>After_IN being_VBG disappointed_VBN by_IN Jodi_NNP Picoult_NNP 's_POS previous_JJ book_NN ,_, ``_`` Handle_NNP With_IN Care_NNP ,_, ''_'' I_PRP dug_VBD into_IN her_PRP$ newest_JJS effort_NN hoping_VBG for_IN the_DT best_JJS ._. While_IN ``_`` House_NNP Rules_NNP ''_'' treads_VBZ some_DT familiar_JJ ground_NN when_WRB it_PRP comes_VBZ to_TO plot_VB devices_NNS ,_, her_PRP$ examination_NN of_IN a_DT family_NN dealing_VBG with_IN the_DT form_NN of_IN autism_NN called_VBN Asperger_NNP 's_POS syndrome_NN will_MD touch_VB all_DT but_CC the_DT coldest_JJS heart_NN ._. Picoult_NNP quickly_RB introduces_VBZ us_PRP to_TO the_DT three_CD members_NNS of_IN the_DT Hunt_NNP family_NN :_: Emma_NN and_CC her_PRP$ sons_NNS ,_, Jacob_NNP and_CC Theo_NNP ._. At_IN 18_CD ,_, Jacob_NNP 's_POS intelligence_NN paired_VBD with_IN his_PRP$ Asperger_NNP 's_POS makes_VBZ life_NN in_IN the_DT Hunt_NNP home_NN difficult_JJ ._. For_IN the_DT Hunts_NNP ,_, autism_NN rules_NNS their_PRP$ life_NN ._. Meals_NNS are_VBP color-coded_JJ (_( only_RB green_JJ food_NN on_IN Monday_NNP ,_, red_JJ on_IN Tuesday_NNP and_CC so_RB on_IN )_) ,_, and_CC TV_NN watching_VBG revolves_NNS around_IN a_DT crime-solving_JJ show_NN ._. Emma_NNP long_JJ ago_RB gave_VBD up_RP dating_NN ,_, friends_NNS or_CC any_DT remnants_NNS of_IN a_DT social_JJ life_NN ._. The_DT boys_NN '_POS father_NN bailed_VBD years_NNS ago_RB ,_, although_IN he_PRP does_VBZ appear_VB late_RB in_IN the_DT book_NN ._. The_DT book_NN 's_POS title_NN defines_VBZ the_DT problems_NNS ,_, as_RB well_RB ,_, for_IN Theo_NNP ,_, who_WP is_VBZ 15_CD ._. He_PRP must_MD abide_VB by_IN the_DT house_NN rules_NNS that_WDT make_VBP life_NN run_VB smoothly_RB for_IN Jacob_NNP ._. Making_VBG things_NNS go_VBP well_RB for_IN Jacob_NNP ,_, however_RB ,_, comes_VBZ at_IN great_JJ cost_NN to_TO Theo_NNP ._. His_PRP$ much-delayed_JJ trip_NN to_TO the_DT DMV_NNP for_IN his_PRP$ learner_NN 's_POS permit_NN is_VBZ still_RB on_IN hold_NN ;_: classmates_NNS heckle_VBP him_PRP over_IN his_PRP$ special_JJ needs_VBZ brother_NN ;_: he_PRP 's_VBZ endured_JJ injuries_NNS when_WRB the_DT sound_NN of_IN crumpling_VBG paper_NN or_CC a_DT change_NN in_IN Jacob_NNP 's_POS routine_JJ upsets_NNS him_PRP to_TO the_DT point_NN of_IN becoming_VBG violent_NN ._. (_( Here_RB is_VBZ where_WRB the_DT plot_NN borrows_VBZ heavily_RB from_IN ``_`` My_PRP$ Sister_NNP 's_POS Keeper_NNP ,_, ''_'' where_WRB a_DT younger_JJR sibling_NN is_VBZ held_VBN hostage_NN to_TO the_DT needs_NNS of_IN her_PRP$ older_JJR sister_NN ._. )_) This_DT time_NN ,_, though_RB ,_, Picoult_NNP puts_VBZ Jacob_NNP at_IN peril_NN via_IN a_DT murder_NN of_IN an_DT attractive_JJ young_JJ graduate_NN student_NN ,_, Jess_NNP ,_, who_WP has_VBZ been_VBN working_VBG as_IN his_PRP$ tutor_NN ._. At_IN first_JJ ,_, her_PRP$ boyfriend_NN draws_VBZ the_DT attention_NN of_IN police_NN ,_, but_CC quickly_RB enough_IN the_DT focus_NN swings_NNS to_TO Jacob_NNP ._. And_CC no_DT wonder_NN ,_, because_IN he_PRP has_VBZ taken_VBN to_TO showing_VBG up_RP at_IN crime_NN scenes_NNS around_IN town_NN and_CC fills_NNS dozens_NNS of_IN notebooks_NNS with_IN the_DT plot_NN and_CC details_NNS of_IN every_DT episode_NN of_IN ``_`` CrimeBusters_NNS ._. ''_'' He_PRP even_RB stages_VBZ murder_NN crime_NN scenes_NNS at_IN home_NN ,_, which_WDT Emma_NNP has_VBZ willingly_RB gone_VBN along_RB with_IN —_NN until_IN he_PRP 's_VBZ arrested_VBN for_IN Jess_NNP '_POS murder_NN ._.</t>
-  </si>
-  <si>
-    <t>Each_DT chart_NN takes_VBZ an_DT array_NN passed_VBD into_IN its_PRP$ data_NNS property_NN ._. For_IN Line_NNP and_CC Bar_NNP charts_NNS ,_, this_DT is_VBZ an_DT array_NN of_IN Numbers_NNPS ._. These_DT two_CD charts_NNS are_VBP set_VBN to_TO autoScale_VB =_NNP true_JJ by_IN default_NN ._. But_CC you_PRP can_MD set_VB that_DT to_TO false_VB and_CC provide_VB minimum_NN and_CC maximum_JJ values_NNS ._. Set_NNP showScaleLabels_NNS to_TO true_JJ to_TO show_VB the_DT max_NN and_CC min_NN values_NNS in_IN labels_NNS off_IN to_TO the_DT left_NN as_IN in_IN the_DT examples_NNS ._. The_DT labelPrecision_NN property_NN can_MD be_VB used_VBN to_TO determine_VB how_WRB these_DT are_VBP rounded_VBN off_RP if_IN necessary_JJ ._. The_DT Bar_NNP Chart_NNP ’_NNP s_VBD bar_NN colors_NNS can_MD be_VB specified_VBN with_IN barColor_NN ,_, and_CC the_DT Line_NNP Chart_NNP ’_NNP s_NN lines_NNS can_MD be_VB customized_VBN with_IN lineColor_NN and_CC lineWidth_NN ._. In_IN the_DT Pie_NNP Chart_NNP ,_, you_PRP can_MD also_RB pass_VB an_DT array_NN Numbers_NNPS to_TO data_VB ,_, or_CC you_PRP can_MD pass_VB an_DT array_NN of_IN Objects_NNS ,_, where_WRB each_DT object_NN has_VBZ a_DT value_NN property_NN ,_, and_CC optionally_RB a_DT label_NN and_CC color_NN property_NN ._. If_IN no_DT label_NN is_VBZ provided_VBN ,_, the_DT value_NN is_VBZ used_VBN as_IN a_DT label_NN ,_, rounded_VBD off_RP again_RB using_VBG labelPrecision_NN ._. If_IN you_PRP don_VBP ’_JJ t_NN want_VBP any_DT label_NN ,_, pass_NN in_IN an_DT empty_JJ string_NN ._. If_IN no_DT color_NN is_VBZ provided_VBN ,_, each_DT pie_NN slice_NN will_MD use_VB predetermined_JJ color_NN values_NNS ._. You_PRP can_MD also_RB pass_VB in_IN an_DT array_NN of_IN color_NN values_NNS to_TO the_DT colors_NNS property_NN to_TO use_VB those_DT instead_RB ._. If_IN you_PRP run_VBP out_IN of_IN color_NN values_NNS ,_, random_NN colors_NNS will_MD be_VB assigned_VBN ._. Sorting_VBG of_IN your_PRP$ data_NNS needs_NNS to_TO be_VB done_VBN manually_RB ,_, if_IN you_PRP want_VBP the_DT slices_NNS to_TO appear_VB in_IN order_NN of_IN size_NN ._. By_IN default_NN ,_, the_DT first_JJ slice_NN starts_NNS at_IN an_DT angle_NN of_IN zero_NN degrees_NNS ._. You_PRP can_MD change_VB this_DT with_IN beginningAngle_NN ,_, which_WDT is_VBZ in_IN degrees_NNS ._. There_EX is_VBZ no_DT limit_NN to_TO the_DT number_NN of_IN slices_NNS you_PRP can_MD have_VB ,_, but_CC too_RB many_JJ will_MD make_VB the_DT labels_NNS overlap_VBP ._. And_CC more_JJR than_IN that_DT ,_, you_PRP won_VBD ’_NNP t_VBD even_RB be_VB able_JJ to_TO see_VB the_DT smaller_JJR slices_NNS ._. There_EX is_VBZ no_DT consolidation_NN or_CC hiding_NN of_IN tiny_JJ slices_NNS ._. That_DT ’_VBD s_VB up_RP to_TO you_PRP to_TO handle_VB by_IN tweaking_VBG your_PRP$ data_NNS first_RB ._.</t>
-  </si>
-  <si>
-    <t>After_IN our_PRP$ sumptuous_JJ meal_NN ,_, we_PRP proceeded_VBD to_TO our_PRP$ respective_JJ huts_NNS on_IN stilts_NNS and_CC fell_VBD into_IN sound_JJ sleep_NN ._. The_DT morning_NN chill_NN and_CC the_DT light_JJ peaking_VBG through_IN the_DT bamboo_JJ slits_NNS of_IN our_PRP$ window_NN woke_VBD us_PRP up_RP ._. Dawn_NNP has_VBZ come_VBN but_CC it_PRP seemed_VBD the_DT sun_NN was_VBD nowhere_RB in_IN sight_NN ._. We_PRP dressed_VBD up_RB and_CC went_VBD out_IN of_IN our_PRP$ cottages_NNS to_TO be_VB greeted_VBN by_IN the_DT breathtaking_VBG view_NN of_IN the_DT water_NN ._. So_RB ,_, this_DT is_VBZ Malatapay_NNP Beach_NNP ._.</t>
-  </si>
-  <si>
-    <t>Flirting_VBG is_VBZ fun_NN ._. It_PRP provides_VBZ verification_NN for_IN us_PRP as_IN being_VBG attractive_JJ to_TO the_DT opposite_JJ sex_NN ._. It_PRP also_RB provides_VBZ the_DT Macaroni_NNP to_TO our_PRP$ steak_NN dinner_NN now_RB and_CC then_RB that_DT gives_VBZ us_PRP the_DT spice_NN in_IN our_PRP$ lives_NNS to_TO constantly_RB strive_VB to_TO renew_VB our_PRP$ sexual_JJ relationship_NN at_IN home_NN ._. My_NNP wife_NN and_CC I_PRP broke_VBD through_IN the_DT monotony_NN of_IN our_PRP$ everyday_JJ relationship_NN by_IN discovering_VBG the_DT joys_NN of_IN “_NNP sexing_VBG ”_RB ._. We_PRP had_VBD forgotten_VBN the_DT joys_NN of_IN flirting_VBG between_IN each_DT other_JJ when_WRB ;_: after_IN all_DT ,_, our_PRP$ whole_JJ RELATIONSHIP_NNP was_VBD based_VBN on_IN our_PRP$ first_JJ flirting_JJ exchange_NN ._. If_IN you_PRP are_VBP married_VBN ,_, that_DT is_VBZ your_PRP$ goal_NN ._. To_TO take_VB the_DT innocent_JJ flirtations_NNS of_IN everyday_JJ life_NN home_NN ,_, and_CC use_VB them_PRP to_TO further_VB your_PRP$ relationship_NN there_RB ._. We_PRP get_VBP stale_JJ ,_, and_CC sometimes_RB that_IN one_CD smile_NN from_IN a_DT returned_VBN flirtation_NN gives_VBZ us_PRP the_DT confidence_NN to_TO go_VB home_NN and_CC show_VB our_PRP$ S.O_NNP ._. just_RB how_WRB desirable_JJ we_PRP can_MD be_VB ._. If_IN you_PRP guys_VBP are_VBP single_JJ ,_, get_VB to_TO it_PRP ._. There_EX is_VBZ nothing_NN more_RBR attractive_JJ than_IN someone_NN who_WP has_VBZ mastered_VBN the_DT art_NN of_IN flirting_VBG with_IN confidence_NN ._. If_IN you_PRP need_VBP help…as_JJ always…I_NN am_VBP here_RB for_IN you_PRP to_TO try_VB out_RP your_PRP$ flirting_VBG on_IN ._.</t>
-  </si>
-  <si>
-    <t>When_WRB I_PRP was_VBD of_IN early_JJ school-age_NN ,_, my_PRP$ family_NN did_VBD not_RB have_VB a_DT lot_NN of_IN money_NN ._. The_DT reason_NN I_PRP know_VBP that_DT is_VBZ not_RB because_IN I_PRP knew_VBD explicitly_RB that_IN there_EX was_VBD no_DT money_NN ._. In_IN fact_NN ,_, I_PRP only_RB came_VBD to_TO understand_VB that_IN later_RB over_IN time_NN ._. Looking_VBG back_RP my_PRP$ favorite_JJ food_NN was_VBD baked_VBN beans_NNS and_CC my_PRP$ sibling_NN 's_POS was_VBD macaroni_NN and_CC cheese_NN ._. So_IN I_PRP did_VBD n't_RB have_VB high_JJ brow_NN taste_NN as_IN a_DT kid_NN ._. The_DT ``_`` organic_JJ ''_'' and_CC the_DT ``_`` slow_JJ food_NN ''_'' movement_NN was_VBD not_RB around_RP back_RB in_IN the_DT 1980_CD 's_POS when_WRB I_PRP was_VBD in_IN grade_JJ school_NN ._. However_RB ,_, my_PRP$ mother_NN never_RB got_VBD us_PRP fast_VB food_NN and_CC I_PRP did_VBD n't_RB even_RB sip_VB soda_NN until_IN I_PRP was_VBD 5_CD years_NNS old_JJ ._. Because_IN of_IN my_PRP$ mom_NN 's_POS vigilance_NN ,_, I_PRP do_VBP n't_RB drink_VB soda_NN (_( maybe_RB root_VBP beer_NN every_DT six_CD months_NNS )_) and_CC I_PRP only_RB eat_VBD fast_RB food_NN if_IN it_PRP 's_VBZ the_DT only_JJ option_NN (_( again_RB once_RB every_DT couple_JJ months_NNS )_) ._. When_WRB I_PRP make_VBP dinner_NN for_IN my_PRP$ husband_NN and_CC my_PRP$ toddler_NN ,_, I_PRP focus_VBP on_IN very_RB simple_JJ ,_, quick_JJ meals_NNS ._. Normally_RB I_PRP try_VBP to_TO make_VB sure_JJ we_PRP have_VBP one_CD thing_NN from_IN the_DT following_VBG food_NN groups_NNS :_: one_CD grain_NN ,_, one_CD veggie_NN ,_, and_CC one_CD meat_NN ._. Sometimes_RB I_PRP do_VBP make_VB our_PRP$ meal_NN with_IN something_NN from_IN a_DT can_MD (_( actually_RB baked_VBN beans_NNS maybe_RB once_RB a_DT month_NN )_) ,_, but_CC more_RBR likely_JJ I_PRP get_VBP our_PRP$ food_NN from_IN the_DT freezer_NN (_( especially_RB frozen_JJ veggies_NNS )_) ._. We_PRP also_RB like_VBP to_TO go_VB out_RP to_TO eat_VB for_IN dinner_NN once_RB every_DT weekend_NN and_CC usually_RB got_VBD out_RP for_IN Thai_NNP food_NN ._.</t>
-  </si>
-  <si>
-    <t>About_IN a_DT month_NN ago_RB or_CC so_RB I_PRP went_VBD on_IN trek_NN to_TO Sinhagar_NNP fort_NN near_IN Pune_NNP ._. I_PRP was_VBD so_RB excited_JJ about_IN the_DT trek_NN (_( as_IN usual_JJ )_) because_IN I_PRP had_VBD heard_VBN so_RB much_JJ about_IN the_DT place_NN ._. But_CC I_PRP couldn_VBP ’_JJ t_NNS make_VBP it_PRP to_TO the_DT fort_NN in_IN last_JJ five_CD years_NNS ._. Well_RB in_IN retrospect_NN ,_, I_PRP must_MD say_VB that_IN it_PRP was_VBD good_JJ that_IN I_PRP didn_VBP ’_JJ t_NN go_VBP visit_IN the_DT place_NN ._. WHY_WRB ?_. Okay_UH ._. Let_VB me_PRP be_VB sure_JJ that_IN you_PRP are_VBP asking_VBG me_PRP why_WRB I_PRP think_VBP so_RB ?_. Please_NNP have_VBP a_DT look_NN at_IN the_DT following_JJ pictures_NNS ._. But_CC at_IN the_DT same_JJ time_NN I_PRP am_VBP ashamed_VBN to_TO share_NN these_DT pictures_NNS with_IN you_PRP all_DT ._. Shivaji_NNP Maharaj_NNP –_VBZ a_DT name_NN every_DT Indian_JJ feels_NNS proud_VBP to_TO be_VB associated_VBN with_IN ,_, one_CD of_IN the_DT most_RBS clever_JJ emperors_NNS in_IN Indian_JJ history_NN –_NN had_VBD never_RB thought_VBN of_IN this_DT kind_NN of_IN treatment_NN to_TO his_PRP$ picture_NN that_WDT too_RB in_IN his_PRP$ own_JJ territory_NN ._. Well_NNP ,_, I_PRP don_VBP ’_JJ t_NN want_VBP to_TO exaggerate_VB it_PRP any_DT further_JJ ._. Just_RB have_VBP a_DT look_NN and_CC let_VB me_PRP know_VB your_PRP$ opinion_NN about_IN it_PRP ._.</t>
-  </si>
-  <si>
-    <t>Clifford_NNP ’_NNP s_VBD own_JJ connection_NN to_TO soup_VB is_VBZ profound_JJ ._. As_IN a_DT ten-year_JJ old_JJ vacationing_NN in_IN Spain_NNP ,_, he_PRP is_VBZ taken_VBN for_IN his_PRP$ first_JJ meal_NN in_IN a_DT fine_JJ dining_NN restaurant_NN :_: A_DT bowl_NN of_IN soup_NN can_MD be_VB a_DT powerful_JJ dish_NN ._. It_PRP recalls_VBZ memories_NNS ,_, warm_VBP the_DT heart_NN and_CC soul_NN ,_, and_CC can_MD use_VB up_RP plenty_NN of_IN leftovers_NNS in_IN our_PRP$ cupboards_NNS and_CC refrigerators_NNS ._. Clifford_NNP Wright_NNP ’_NNP s_VBD The_DT Best_JJS Soups_NN in_IN the_DT World_NNP (_( Wiley_NNP 2010_CD )_) appeals_NNS to_TO all_PDT these_DT aspects_NNS of_IN soup_NN ._. His_PRP$ book_NN delivers_NNS recipes_VBP from_IN around_IN the_DT world_NN with_IN intelligent_JJ commentary_NN ._. Even_RB as_IN the_DT weather_NN warms_VBZ up_RP this_DT Spring_NN ,_, get_VB out_RP the_DT soup_NN pot_NN and_CC make_VB some_DT soup_NN ._. It_PRP starts_VBZ as_IN almost_RB all_DT soup_NN books_NNS do_VBP ,_, with_IN basic_JJ broths_NNS (_( p._VB 9_CD )_) followed_VBN by_IN clear_JJ soups_NNS (_( p._VB 19_CD )_) ._. The_DT real_JJ action_NN is_VBZ in_IN the_DT next_JJ chapter_NN on_IN chunky_NN meat_NN soups_NNS (_( p._VB 41_CD )_) The_DT first_JJ recipe_NN isn_NN ’_NNP t_NN for_IN a_DT standard_JJ beefy_NN mushroom_NN soup_NN ,_, but_CC for_IN Blackfoot_NNP Bison_NNP and_CC Blackberry_NNP Soup_NNP (_( p._VB 42_CD )_) for_IN which_WDT you_PRP need_VBP buffalo_JJ bones_NNS ,_, suet_NN and_CC meet_NN and_CC spicebush_NN berries_NNS ,_, all_DT of_IN which_WDT might_MD be_VB hard_JJ to_TO find_VB ._. Clifford_NNP calls_VBZ the_DT recipe_NN a_DT “_JJ curiosity_NN ”_NNP ,_, but_CC he_PRP expects_VBZ the_DT reader_NN to_TO make_VB the_DT soup_NN ,_, even_RB with_IN the_DT substitute_NN ingredients_NNS of_IN beef_NN bones_NNS ,_, suet_NN and_CC meat_NN ,_, and_CC juniper_JJ berries_NNS ._. What_WP is_VBZ really_RB interesting_JJ is_VBZ that_IN in_IN the_DT recipe_NN notes_VBZ he_PRP writes_VBZ about_IN who_WP the_DT Blackfoot_NNP Nation_NNP are_VBP (_( three_CD different_JJ tribes_NNS )_) and_CC a_DT bit_NN of_IN their_PRP$ culinary_JJ culture_NN ._. He_PRP follows_VBZ with_IN a_DT recipe_NN for_IN Shchi_NNP (_( p._VB 44_CD )_) ,_, the_DT Russian_JJ beef_NN and_CC sauerkraut_NN (_( or_CC fresh_JJ cabbage_NN )_) soup_NN that_WDT has_VBZ a_DT thousand_JJ variations_NNS ,_, and_CC Borshch_NNP (_( p._VB 46_CD )_) ,_, along_IN with_IN an_DT essay_NN on_IN “_NN Everything_NNP You_PRP Want_VBP to_TO Know_VB About_IN Borshch_NNP ”_NNP that_IN covers_VBZ the_DT history_NN of_IN borshch_NN and_CC the_DT boscht_NN belt_NN ._. From_IN there_EX Clifford_NNP roams_VBZ the_DT world_NN ,_, from_IN Greece_NNP with_IN Avgolemono_NNP Meatball_NNP Soup_NNP (_( p._VB 50_CD )_) to_TO Polish_VB Zurek_NNP (_( p._VB 54_CD )_) to_TO Turkmen_NNP Boiled_NNP Soup_NNP (_( p._VB 63_CD )_) ._. There_EX are_VBP side_JJ essays_NNS that_WDT fill_VBP you_PRP in_IN about_IN soup_NN practices_NNS in_IN Africa_NNP or_CC specific_JJ kinds_NNS of_IN obscure_JJ soups_NNS ._. Although_IN there_EX is_VBZ a_DT wealth_NN of_IN information_NN ,_, the_DT recipes_NNS dominate_VBP –_NN this_DT is_VBZ a_DT book_NN to_TO cook_VB with_IN and_CC enjoy_VB ._.</t>
-  </si>
-  <si>
-    <t>Well_RB ,_, we_PRP just_RB got_VBD a_DT little_JJ up_RP close_RB and_CC personal_JJ with_IN HTC_NNP 's_POS ``_`` superphone_NN ,_, ''_'' the_DT Desire_NNP ._. What_WP you_PRP 're_VBP looking_VBG at_IN is_VBZ basically_RB the_DT Nexus_NNP One_NNP ,_, sans_VBZ trackball_NN (_( though_IN plus_CC an_DT optical_JJ touch_JJ area_NN )_) ._. Certainly_RB the_DT specs_NN are_VBP the_DT same_JJ ,_, though_IN you_PRP 've_VBP got_VBN the_DT new_JJ Sense_NNP UI_NNP on_IN board_NN for_IN good_JJ measure_NN ._. At_IN a_DT glance_NN the_DT phone_NN actually_RB does_VBZ n't_RB seem_VB as_RB snappy_JJ as_IN we_PRP were_VBD expecting_VBG ,_, and_CC there_EX are_VBP obviously_RB a_DT few_JJ kinks_NNS to_TO work_VB out_RP with_IN some_DT of_IN the_DT new_JJ Sense_NN concepts_NNS (_( Leap_NNP for_IN instance_NN --_: the_DT pinch-to-card_JJ view_NN --_: was_VBD giving_VBG our_PRP$ demo_NN person_NN some_DT trouble_NN )_) ._. Still_RB ,_, the_DT Desire_NNP is_VBZ definitely_RB high_JJ on_IN our_PRP$ gadget_NN lust_JJ list_NN right_RB now_RB ._. We_PRP 're_VBP obviously_RB reserving_VBG final_JJ judgment_NN for_IN a_DT later_JJ date_NN ,_, but_CC until_IN we_PRP get_VBP some_DT more_JJR time_NN with_IN this_DT guy_NN ,_, feast_RB your_PRP$ eyes_NNS on_IN the_DT gallery_NN below_IN ._. Update_NN :_: Added_VBD a_DT quick_JJ video_NN after_IN the_DT break_NN showing_VBG the_DT Sense_NNP UI_NNP ..._: not_RB behaving_VBG ._. Update_JJ 2_CD :_: We_PRP 've_VBP been_VBN told_VBN by_IN an_DT HTC_NNP rep_NN that_IN the_DT Sense_NNP build_NN on_IN the_DT Desire_NNP unit_NN we_PRP played_VBD with_IN is_VBZ actually_RB quite_RB early_JJ ,_, so_IN it_PRP 's_VBZ probably_RB not_RB indicative_JJ of_IN the_DT actual_JJ performance_NN of_IN the_DT pinch-to-card_JJ view_NN ._. We_PRP played_VBD with_IN a_DT Legend_NNP that_WDT had_VBD a_DT later_RBR ,_, nearly_RB final_JJ build_NN of_IN the_DT UI_NNP and_CC it_PRP was_VBD definitely_RB snappier_JJR and_CC more_RBR responsive_JJ ._.</t>
-  </si>
-  <si>
-    <t>How_WRB can_MD I_PRP change_VB the_DT volume_NN licensing_VBG product_NN key_NN on_IN a_DT Windows_NNP XP_NNP SP1-Based_JJ Computer_NNP ?_. Because_IN of_IN changes_NNS in_IN Windows_NNP XP_NNP Service_NNP Pack_NNP 1_CD (_( SP1_NNP )_) ,_, Windows_VBZ XP-based_JJ computers_NNS that_WDT use_VBP a_DT leaked_JJ product_NN key_NN that_WDT is_VBZ known_VBN to_TO be_VB available_JJ to_TO the_DT general_JJ public_NN may_MD not_RB be_VB able_JJ to_TO install_VB SP1_NNP or_CC automatically_RB obtain_VB updates_NNS from_IN the_DT Windows_NNP Update_NNP Web_NNP site_NN ._. For_IN an_DT easy_JJ and_CC quick_JJ method_NN of_IN obtaining_VBG your_PRP$ own_JJ CD_NN Key_NNP please_NN read_VBD Quickly_NNP Retrieve_NNP Windows_NNP CD_NNP Key_NNP ._.</t>
-  </si>
-  <si>
-    <t>Something_VBG I_PRP am_VBP pursuing_VBG is_VBZ graphic_JJ design_NN ._. Here_RB is_VBZ a_DT banner_NN I_PRP am_VBP making_VBG for_IN Sphere_NNP of_IN Hip_NNP Hop_NNP ._. Maybe_RB they_PRP 'll_MD use_VB it_PRP ?_. This_DT was_VBD made_VBN not_RB with_IN Adobe_NNP Illustrator_NNP but_CC with_IN a_DT program_NN like_IN Illustrator_NNP called_VBD Xara_NNP ._. I_PRP 'm_VBP still_RB trying_VBG to_TO figure_VB out_RP the_DT program_NN ,_, for_IN example_NN there_EX are_VBP some_DT lines_NNS I_PRP 'd_MD like_VB to_TO get_VB rid_JJ of_IN so_IN that_IN it_PRP would_MD be_VB easier_JJR to_TO see_VB that_IN the_DT abstract_JJ figures_NNS in_IN the_DT background_NN spell_NN ``_`` Sphere_NNP of_IN Hip_NNP Hop_NNP ''_'' ._. UPDATE_NN :_: did_VBD just_RB that_IN this_DT morning_NN ._. This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_NN Use_NNP your_PRP$ resources_NNS in_IN planning_VBG an_DT event_NN ._. Without_IN the_DT help_NN of_IN my_PRP$ friends_NNS and_CC people_NNS they_PRP knew_VBD ,_, the_DT event_NN planning_NN for_IN Hip_NNP Hop_NNP Hunger_NNP would_MD not_RB have_VB gone_VBN as_RB well_RB as_IN it_PRP did_VBD ._. Your_PRP$ resources_NNS will_MD of_IN course_NN be_VB different_JJ than_IN mine_NN ,_, but_CC I_PRP thought_VBD it_PRP would_MD be_VB helpful_JJ for_IN me_PRP to_TO provide_VB this_DT list_NN ._. Here_RB is_VBZ a_DT list_NN of_IN my_PRP$ resources_NNS for_IN promotion_NN and_CC how_WRB I_PRP used_VBD them_PRP :_: Situational_JJ :_: [_JJ ]_NN RHS_NNP (_( Rogers_NNP High_NNP School_NNP )_) Leadership_NNP 's_POS room_NN for_IN making_VBG posters_NNS and_CC lunchtime_JJ announcements_NNS ._. [_JJ ]_NN Making_VBG a_DT watercolor_NN picture_NN advertising_VBG the_DT event_NN as_IN a_DT project_NN for_IN Art_NNP Class_NNP ._. [_VB ]_JJ Inviting_NNP friends_NNS from_IN church_NN and_CC school_NN ._. [_CC ]_JJ Meeting_NNP and_CC inviting_VBG friends_NNS '_POS friends_NNS from_IN church_NN and_CC school_NN ._. [_CC ]_JJ Meeting_NNP and_CC inviting_VBG friends_NNS '_POS friends_NNS '_POS friends_NNS from_IN church_NN and_CC school_NN (_( okay_IN you_PRP get_VBP the_DT point_NN )_) ._. Helpful_JJ People_NNS :_: [_JJ ]_NN Teachers_NNP '_POS and_CC students_NNS '_POS wisdom_NN with_IN experience_NN [_NN ]_NNP Musical_NNP Artists_NNP I_PRP mostly_RB had_VBD already_RB had_VBN some_DT form_NN of_IN communication_NN with_IN [_NNP ]_VBP The_DT RHS_NNP school_NN newspaper_NN calendar_NN [_NNP ]_NN Students_NNS in_IN my_PRP$ leadership_NN class_NN and_CC friends_NNS who_WP added_VBD unique_JJ colors_NNS to_TO the_DT black_JJ and_CC white_JJ posters_NNS ._. NOTE_NN :_: if_IN you_PRP 're_VBP planning_VBG on_IN doing_VBG this_DT event_NN at_IN your_PRP$ school_NN ,_, you_PRP may_MD want_VB to_TO ask_VB someone_NN in_IN charge_NN if_IN it_PRP 's_VBZ okay_JJ to_TO make_VB the_DT event_NN information_NN available_JJ to_TO everyone_NN in_IN and_CC out_IN of_IN school_NN or_CC to_TO what_WP groups_NNS can_MD you_PRP advertise_VB the_DT event_NN ._. Online_NN I_PRP used_VBD :_: [_NN ]_VBZ The_DT Hip_NNP Hop_NNP Is_NNP Music_NNP forums_NNS (_( for_IN asking_VBG questions_NNS on_IN how_WRB to_TO promote_VB an_DT event_NN )_) [_NN ]_NNP BLOGGER.com_NNP for_IN making_VBG a_DT website_NN to_TO promote_VB the_DT event_NN [_NNP ]_NNP Local_NNP Community_NNP Websites_NNP [_NNP ]_NNP Facebook_NNP for_IN inviting_VBG friends_NNS to_TO come_VB [_NNP ]_NNP The_DT News_NNP Tribune_NNP 's_POS (_( local_JJ paper_NN )_) online_IN calendar_NN [_NNP ]_NNP Upcoming_NNP Yahoo_NNP !_. 's_POS online_JJ events_NNS listing_VBG [_JJ ]_NNP ClubFlyers.com_NNP for_IN flyers_NNS (_( thanks_NNS Leonard_NNP for_IN recommending_VBG this_DT !_. )_) [_VBP ]_$ Sphere_NNP of_IN Hip_NNP Hop_NNP 's_POS forums_NNS for_IN advertising_NN Other_JJ posts_NNS in_IN this_DT series_NN :_: Introduction_NNP to_TO Series_NNP Step_NNP 1_CD -_: Brainstorm_NN and_CC Timeline_NNP Step_NNP 2_CD -_: Communication_NN Tips_NNP -_: Resources_NNPS for_IN Promotion_NNP This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_JJ Communication_NNP is_VBZ not_RB really_RB a_DT ``_`` step_NN ,_, ''_'' but_CC it_PRP is_VBZ one_CD of_IN the_DT most_RBS important_JJ things_NNS ._. In_IN the_DT Hip_NNP Hop_NNP Hunger_NNP event_NN ,_, it_PRP was_VBD my_PRP$ fault_NN that_IN for_IN the_DT longest_JJS time_NN I_PRP did_VBD n't_RB know_VB that_IN my_PRP$ school_NN 's_POS portable_JJ stage_NN was_VBD n't_RB stable_JJ enough_RB for_IN rapping_VBG and_CC dancing_NN ,_, so_IN I_PRP found_VBD that_IN out_RP with_IN only_RB a_DT week_NN before_IN the_DT event_NN will_MD happen_VB ._. As_IN I_PRP write_VBP this_DT (_( I_PRP 'm_VBP writing_VBG this_DT on_IN Friday_NNP ,_, Feb_NNP 22_CD )_) I_PRP 'm_VBP wondering_VBG if_IN someone_NN will_MD be_VB able_JJ to_TO donate_VB a_DT portable_JJ stage_NN on_IN Wednesday_NNP ._. Other_JJ than_IN this_DT ,_, things_NNS have_VBP ran_VBN smoothly_RB because_IN of_IN early_JJ communication_NN ._. If_IN this_DT is_VBZ your_PRP$ first_JJ event_NN you_PRP 're_VBP planning_VBG ,_, you_PRP should_MD probably_RB talk_VB with_IN some_DT people_NNS you_PRP know_VBP who_WP have_VBP event_NN experience_NN and_CC ask_VB them_PRP if_IN they_PRP can_MD give_VB you_PRP advice_NN ._. My_PRP$ friends_NNS who_WP are_VBP in_IN a_DT rock_NN band_NN called_VBN Supersonia_NNP have_VBP had_VBD many_JJ successful_JJ events_NNS ,_, about_RB two_CD per_IN year_NN from_IN sophomore_JJR year_NN to_TO senior_JJ year_NN ._. Before_IN I_PRP planned_VBD the_DT Hip_NNP Hop_NNP Hunger_NNP Event_NNP I_PRP sat_VBD down_RB with_IN one_CD of_IN them_PRP at_IN a_DT coffee_NN shop_NN and_CC took_VBD notes_NNS about_IN how_WRB to_TO plan_VB an_DT event_NN ._. So_RB if_IN you_PRP know_VBP someone_NN at_IN your_PRP$ school_NN who_WP 's_VBZ done_VBN something_NN remotely_RB similar_JJ to_TO what_WP you_PRP are_VBP planning_VBG ,_, then_RB talk_NN with_IN them_PRP ._. Forms_NNS of_IN Communication_NNP The_DT type_NN of_IN communication_NN you_PRP have_VBP with_IN people_NNS will_MD depend_VB on_IN your_PRP$ event_NN and_CC your_PRP$ goals_NNS ._. In_IN the_DT Hip_NNP Hop_NNP Hunger_NNP event_NN ,_, it_PRP was_VBD my_PRP$ goal_NN to_TO get_VB some_DT big_JJ name_NN acts_VBZ at_IN it_PRP ,_, and_CC I_PRP used_VBD email_NN with_IN them_PRP ._. It_PRP does_VBZ n't_RB hurt_VB to_TO ask_VB especially_RB if_IN it_PRP 's_VBZ for_IN charity_NN ._. It_PRP does_VBZ n't_RB hurt_VB to_TO have_VB at_IN least_JJS that_IN small_JJ connection_NN with_IN someone_NN in_IN which_WDT you_PRP invited_VBD them_PRP to_TO come_VB but_CC they_PRP could_MD n't_RB make_VB it_PRP ._. If_IN the_DT event_NN is_VBZ for-profit_JJ (_( as_IN opposed_VBN to_TO for-charity_NN )_) you_PRP will_MD have_VB to_TO figure_VB out_RP your_PRP$ budget_NN because_IN then_RB it_PRP is_VBZ likely_JJ you_PRP would_MD pay_VB the_DT artists_NNS ._. (_( If_IN the_DT event_NN is_VBZ not_RB some_DT sort_NN of_IN fundraiser_NN or_CC charity_NN event_NN and_CC you_PRP want_VBP to_TO do_VB it_PRP at_IN school_NN ,_, you_PRP might_MD have_VB to_TO pay_VB the_DT school_NN or_CC venue_NN ._. )_) I_PRP also_RB contacted_VBD people_NNS at_IN my_PRP$ school_NN ,_, and_CC when_WRB I_PRP talked_VBD to_TO them_PRP ,_, I_PRP just_RB spoke_VBD and_CC exchanged_VBD phone_NN numbers_NNS ._. Also_RB it_PRP 's_VBZ good_JJ to_TO figure_VB out_RP what_WP is_VBZ the_DT best_JJS way_NN of_IN communication_NN for_IN the_DT artist/event-crew-person_NN ._. If_IN you_PRP 're_VBP using_VBG email_NN and_CC you_PRP have_VBP their_PRP$ phone_NN number_NN ,_, and_CC it_PRP takes_VBZ awhile_NN for_IN them_PRP to_TO respond_VB ,_, then_RB try_VB calling_VBG !_. Also_RB if_IN you_PRP get_VBP stuck_VBN in_IN a_DT game_NN of_IN phone_NN tag_NN or_CC if_IN the_DT other_JJ person_NN prefers_NNS email_VBP ,_, then_RB email_NN is_VBZ a_DT good_JJ choice_NN ._. The_DT best_JJS way_NN of_IN course_NN ,_, is_VBZ to_TO speak_VB face-to-face_NN ,_, and_CC if_IN that_DT 's_VBZ an_DT option_NN it_PRP 's_VBZ good_JJ to_TO do_VB it_PRP at_IN least_JJS twice_RB before_IN the_DT event_NN ._. Tone_NN and_CC Attitude_NNP Here_RB is_VBZ a_DT good_JJ article_NN about_IN writing_VBG effective_JJ emails_NNS :_: CD_NN Baby_NNP on_IN Writing_NNP Good_NNP Emails_NNP ._. In_IN whatever_WDT way_NN you_PRP contact_VBP someone_NN ,_, your_PRP$ attitude_NN should_MD be_VB that_IN you_PRP are_VBP requesting_VBG and_CC not_RB forcing_VBG anything_NN on_IN someone_NN ._. Also_RB ,_, if_IN someone_NN agrees_VBZ to_TO help_VB you_PRP ,_, even_RB if_IN it_PRP 's_VBZ their_PRP$ job_NN ,_, you_PRP should_MD approach_VB them_PRP with_IN the_DT attitude_NN that_IN they_PRP are_VBP doing_VBG something_NN extra_JJ for_IN you_PRP ._. Your_VB heart_NN should_MD be_VB thankful_JJ and_CC if_IN you_PRP are_VBP ,_, they_PRP will_MD remember_VB that_DT ._. Other_JJ posts_NNS in_IN this_DT series_NN :_: Introduction_NNP to_TO Series_NNP Step_NNP 1_CD -_: Brainstorm_NN and_CC Timeline_NNP Step_NNP 2_CD -_: Communication_NN Tips_NNP -_: Resources_NNPS for_IN Promotion_NNP This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_NN Hey_NNP Everyone_NNP ,_, I_PRP am_VBP introducing_VBG a_DT blog_NN post_NN series_NN about_IN planning_VBG events_NNS and_CC concerts_NNS ._. When_WRB I_PRP was_VBD planning_VBG the_DT Hip_NNP Hop_NNP Hunger_NNP event_NN ,_, I_PRP looked_VBD online_NN for_IN something_NN about_IN planning_VBG events_NNS and_CC I_PRP could_MD n't_RB find_VB anything_NN ._. But_CC ,_, I_PRP talked_VBD with_IN friends_NNS and_CC people_NNS I_PRP knew_VBD who_WP had_VBD more_JJR experience_NN ,_, and_CC I_PRP learned_VBD a_DT lot_NN ._. While_IN I_PRP am_VBP no_DT expert_NN ,_, I_PRP think_VBP I_PRP can_MD share_NN some_DT helpful_JJ information_NN that_WDT is_VBZ worth_JJ considering_VBG ._. Keep_VB in_IN mind_NN that_IN you_PRP should_MD probably_RB take_VB the_DT advice_NN of_IN someone_NN wiser_NN than_IN me_PRP ,_, but_CC hopefully_RB this_DT will_MD get_VB you_PRP started_VBN ._. To_TO get_VB you_PRP started_VBN here_RB is_VBZ step_JJ 1_CD ,_, when_WRB I_PRP make_VBP a_DT new_JJ post_NN in_IN this_DT series_NN ,_, I_PRP will_MD bump_VB this_DT post_NN up_RB and_CC write_VB a_DT phrase_NN that_WDT summarizes_VBZ the_DT new_JJ post_NN :_: Other_JJ posts_NNS in_IN this_DT series_NN :_: Introduction_NNP to_TO Series_NNP Step_NNP 1_CD -_: Brainstorm_NN and_CC Timeline_NNP Step_NNP 2_CD -_: Communication_NN Tips_NNP -_: Resources_NNPS for_IN Promotion_NNP This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_VB The_DT first_JJ question_NN to_TO be_VB answered_VBN in_IN event_NN planning_NN is_VBZ ``_`` What_WP will_MD this_DT event_NN be_VB and_CC what_WP is_VBZ it_PRP for_IN ?_. ''_'' So_IN start_JJ broad_JJ and_CC think_NN of_IN all_PDT the_DT ideas_NNS you_PRP can_MD ,_, figure_VB out_RP where_WRB you_PRP 're_VBP going_VBG with_IN it_PRP and_CC go_VB from_IN there_RB ._. Someone_NN emailed_VBD me_PRP with_IN a_DT question_NN about_IN planning_VBG events_NNS ,_, and_CC this_DT is_VBZ how_WRB I_PRP responded_VBD :_: The_DT first_JJ step_NN is_VBZ to_TO brainstorm_VB and_CC write_VB down_RP every_DT idea_NN you_PRP can_MD think_VB of_IN ._. The_DT ideas_NNS can_MD be_VB as_RB out-of-the-box_JJ as_IN you_PRP want_VBP because_IN having_VBG something_NN unique_JJ helps_VBZ ._. Then_RB I_PRP 'd_MD say_VB to_TO go_VB over_IN your_PRP$ and_CC your_PRP$ friends_NNS '_POS ideas_NNS ,_, if_IN you_PRP 're_VBP doing_VBG this_DT with_IN a_DT group_NN ,_, and_CC pick_JJ something_NN ._. Then_RB after_IN you_PRP figure_VBP out_RP what_WP it_PRP is_VBZ exactly_RB you_PRP want_VBP to_TO do_VB ,_, you_PRP should_MD talk_VB with_IN the_DT activities_NNS coordinator_VBP at_IN your_PRP$ school_NN [_NN or_CC an_DT equivalent_JJ key_NN person_NN if_IN it_PRP 's_VBZ not_RB at_IN school_NN ]_NN with_IN a_DT few_JJ event_NN dates_NNS in_IN mind_NN and_CC find_VB out_RP if_IN any_DT of_IN them_PRP will_MD work_VB ._. Once_RB you_PRP have_VBP the_DT event_NN day_NN chosen_VBN ,_, you_PRP will_MD want_VB to_TO make_VB a_DT timeline_NN stating_VBG when_WRB you_PRP want_VBP to_TO contact_VB all_PDT the_DT artists/performers_NNS and_CC important_JJ elements_NNS of_IN the_DT show_NN such_JJ as_IN sound_NN ,_, lights_NNS ,_, and_CC a_DT stage_NN ._. Earlier_NNP is_VBZ better_JJR of_IN course_NN and_CC it_PRP 's_VBZ good_JJ to_TO plot_VB this_DT out_RP ._. For_IN the_DT Hip_NNP Hop_NNP Hunger_NNP event_NN ,_, I_PRP started_VBD contacting_VBG artists_NNS around_IN November_NNP of_IN 2007_CD even_RB though_IN the_DT concert_NN was_VBD n't_RB until_IN February_NNP 08_CD ._. If_IN the_DT event_NN is_VBZ something_NN you_PRP 're_VBP passionate_VB about_IN that_DT will_MD make_VB it_PRP better_JJR ,_, it_PRP has_VBZ to_TO be_VB something_NN you_PRP 'll_MD be_VB willing_JJ to_TO go_VB outside_IN of_IN your_PRP$ comfort_NN zone_NN for_IN ._. Once_NNP you_PRP go_VBP outside_IN your_PRP$ comfort_NN zone_NN enough_JJ times_NNS ,_, you_PRP 'll_MD forget_VB it_PRP was_VBD there_RB and_CC that_DT will_MD make_VB things_NNS easier_JJR in_IN the_DT future_NN ._. Other_JJ posts_NNS in_IN this_DT series_NN :_: Introduction_NNP to_TO Series_NNP Step_NNP 1_CD -_: Brainstorm_NN and_CC Timeline_NNP Step_NNP 2_CD -_: Communication_NN Tips_NNP -_: Resources_NNPS for_IN Promotion_NNP This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_NN As_IN an_DT artist_NN and_CC a_DT student_NN ,_, keeping_VBG my_PRP$ priorities_NNS straight_VBN is_VBZ important_JJ ._. So_IN any_DT free_JJ time_NN in_IN which_WDT I_PRP 'm_VBP not_RB doing_VBG rapping_NN ,_, which_WDT wo_MD n't_RB be_VB much_JJ time_NN ,_, will_MD be_VB the_DT time_NN that_IN I_PRP update_VBP the_DT blog_NN ._. Obviously_RB I_PRP love_VBP blogging_VBG but_CC it_PRP would_MD n't_RB make_VB sense_NN to_TO spend_VB more_JJR time_NN blogging_VBG than_IN making_VBG music_NN ,_, right_RB ?_. The_DT future_NN of_IN this_DT blog_NN ._. Someone_NN made_VBD a_DT very_RB good_JJ point_NN that_IN I_PRP should_MD upload_VB some_DT of_IN my_PRP$ music_NN on_IN the_DT site_NN or_CC at_IN least_JJS link_NN to_TO a_DT site_NN that_WDT does_VBZ have_VB some_DT of_IN my_PRP$ music_NN ._. I_PRP have_VBP n't_RB been_VBN in_IN a_DT recording_NN studio_NN yet_RB but_CC I_PRP hope_VBP to_TO sometime_VB in_IN March_NNP and_CC then_RB I_PRP will_MD have_VB some_DT music_NN to_TO put_VB online_NN ._. But_CC that_IN might_MD come_VB after_IN the_DT initial_JJ wave_NN of_IN attention_NN ._. Maybe_NNP someone_NN will_MD record_VB a_DT video_NN from_IN the_DT Hip_NNP Hop_NNP Hunger_NNP event_NN ?_. Another_DT thing_NN I_PRP might_MD do_VB is_VBZ a_DT blog_NN post_NN series_NN on_IN how_WRB to_TO have_VB a_DT successful_JJ event_NN and_CC what_WP goes_VBZ into_IN that_DT ._. Hip_NNP Hop_NNP Hunger_NNP is_VBZ the_DT first_JJ event_NN I_PRP 've_VBP ever_RB planned_VBN and_CC I_PRP learned_VBD a_DT lot_NN that_IN I_PRP think_VBP I_PRP could_MD share_NN with_IN people_NNS ._. When_WRB I_PRP was_VBD planning_VBG the_DT event_NN I_PRP looked_VBD for_IN things_NNS online_JJ and_CC I_PRP did_VBD n't_RB come_VB across_RB much_JJ on_IN event_NN planning_NN ,_, so_IN I_PRP talked_VBD with_IN people_NNS and_CC that_DT was_VBD very_RB helpful_JJ ._. A_DT last_JJ thing_NN might_MD be_VB to_TO publish_VB some_DT some_DT short_JJ stories_NNS if_IN I_PRP have_VBP time_NN ,_, but_CC do_VBP n't_RB hold_VB your_PRP$ breath_NN ,_, that_DT 's_VBZ at_IN the_DT bottom_NN of_IN my_PRP$ ``_`` to-do_JJ ''_'' list_NN ._. Thanks_NNS for_IN reading_VBG !_. This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_NN I_PRP 've_VBP been_VBN blogging_VBG off_RB and_CC on_IN for_IN about_IN 3_CD years_NNS and_CC this_DT was_VBD a_DT surprise_NN that_WDT I_PRP do_VBP n't_RB think_VB you_PRP can_MD prepare_VB for_IN ._. When_WRB I_PRP first_RB saw_VBD that_IN my_PRP$ site_NN was_VBD a_DT blog_NN of_IN note_NN ,_, I_PRP did_VBD n't_RB know_VB how_WRB to_TO react_VB ,_, because_IN I_PRP only_RB created_VBD the_DT Hip_NNP Hop_NNP Hunger_NNP website_NN to_TO promote_VB a_DT single_JJ event_NN ._. I_PRP guess_VBP that_DT shows_VBZ how_WRB much_JJ a_DT difference_NN site_NN design_NN can_MD make_VB ._. In_IN a_DT semi-panic_JJ ,_, I_PRP made_VBD a_DT post_NN explaining_VBG exactly_RB what_WP the_DT site_NN was_VBD and_CC who_WP I_PRP am_VBP ,_, and_CC then_RB thanks_NNS to_TO peoples_NNS '_POS suggestions_NNS ,_, I_PRP put_VBD a_DT link_NN in_IN the_DT upper-right_JJ of_IN the_DT blog_NN so_IN that_IN people_NNS could_MD donate_VB to_TO the_DT charity_NN WorldVision_NNP because_IN I_PRP realized_VBD that_IN a_DT lot_NN of_IN people_NNS seeing_VBG the_DT site_NN would_MD not_RB be_VB able_JJ to_TO come_VB to_TO the_DT event_NN ._. Also_RB I_PRP think_VBP I_PRP did_VBD not_RB react_VB the_DT best_JJS way_NN I_PRP could_MD have_VB but_CC being_VBG a_DT blogger_NN and_CC an_DT artist_NN you_PRP could_MD say_VB that_IN I_PRP wanted_VBD to_TO connect_VB with_IN some_DT people_NNS and_CC address_VB them_PRP and_CC talk_VB about_IN myself_PRP ,_, which_WDT does_VBZ n't_RB really_RB fit_VB for_IN the_DT Hip_NNP Hop_NNP Hunger_NNP website_NN ,_, which_WDT is_VBZ not_RB supposed_VBN to_TO be_VB a_DT blog_NN ,_, but_CC a_DT website_NN for_IN an_DT event_NN that_WDT is_VBZ about_IN something_NN much_RB bigger_JJR than_IN me_PRP ._. So_RB ,_, I_PRP wanted_VBD to_TO add_VB something_NN to_TO the_DT top_NN of_IN the_DT welcome_JJ message_NN to_TO put_VB the_DT focus_NN of_IN that_DT site_NN back_RB where_WRB it_PRP should_MD be_VB ,_, which_WDT is_VBZ that_IN this_DT event_NN is_VBZ for_IN charity_NN ,_, specifically_RB for_IN hunger_NN in_IN Africa_NNP ._. Someone_NN brought_VBD up_RP some_DT good_JJ points_NNS about_IN food_NN aid_NN on_IN the_DT site_NN at_IN The_DT Cause_NNP section_NN ._. You_PRP can_MD follow_VB the_DT conversation_NN there_RB ._. I_PRP tried_VBD to_TO answer_VB questions_NNS the_DT best_JJS I_PRP could_MD ._. This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_NN I_PRP know_VBP ,_, it_PRP sounds_VBZ like_IN some_DT sort_NN of_IN nerdy_JJ liscense-plate_JJ frame_NN but_CC it_PRP 's_VBZ true_JJ ._. The_DT funny_JJ part_NN is_VBZ that_IN it_PRP is_VBZ n't_RB even_RB really_RB a_DT blog_NN !_. What_WP I_PRP did_VBD was_VBD I_PRP hacked_VBD the_DT blogger_NN format_NN to_TO create_VB a_DT webpage_NN for_IN my_PRP$ Hip_NNP Hop_NNP event_NN known_VBN as_IN Hip_NNP Hop_NNP Hunger_NNP ._. I_PRP put_VBD a_DT lot_NN into_IN the_DT design_NN of_IN that_DT site_NN but_CC not_RB a_DT lot_NN of_IN writing_NN ,_, and_CC this_DT blog_NN ,_, however_RB ,_, is_VBZ the_DT opposite_JJ :_: a_DT lot_NN of_IN writing_VBG and_CC not_RB a_DT lot_NN of_IN design_NN ,_, yet_RB ._. But_CC it_PRP 's_VBZ the_DT writing_NN that_WDT really_RB counts_VBZ ._. As_IN an_DT artist_NN and_CC blogger_NN ,_, I_PRP am_VBP thankful_JJ for_IN this_DT publicity_NN ,_, but_CC it_PRP 's_VBZ too_RB bad_JJ I_PRP do_VBP n't_RB have_VB any_DT music_NN samples_NNS of_IN my_PRP$ rapping_NN for_IN y'all_NN to_TO listen_VB to_TO !_. Well_NNP ,_, I_PRP 'll_MD give_VB what_WP I_PRP can_MD ,_, and_CC that_DT is_VBZ my_PRP$ excitement_NN ._. I_PRP 'm_VBP excited_JJ about_IN my_PRP$ future_NN as_IN a_DT rapper_NN and_CC I_PRP am_VBP definitely_RB a_DT beginner_NN but_CC I_PRP 'm_VBP learning_VBG and_CC taking_VBG it_PRP a_DT step_NN at_IN a_DT time_NN ._. Each_DT time_NN I_PRP reach_VBP a_DT milestone_NN I_PRP 'm_VBP going_VBG to_TO ``_`` document_NN ''_'' it_PRP here_RB for_IN me_PRP to_TO look_VB back_RB on_IN ,_, and_CC if_IN that_DT peaks_VBZ anyone_NN 's_POS interest_NN well_RB I_PRP hope_VBP somehow_RB God_NNP could_MD use_VB these_DT words_NNS on_IN a_DT screen_NN two_CD feet_NNS in_IN front_NN of_IN you_PRP to_TO affect_VB us_PRP positively_RB ._. This_DT post_NN originally_RB appeared_VBD on_IN http_NN :_: //surveihiphop.blogspot.com_NN</t>
-  </si>
-  <si>
-    <t>Aha_NNP ,_, here_RB I_PRP am_VBP again_RB ._. Medicine_NNP Run-down_JJ –_NN 90mg_CD Cymbalta_NNP ,_, 20mg_CD Abilify_NNP ,_, 12.5mg_CD Ambien_NNP ,_, and_CC 200mg_CD Lamictal_NNP ._. 900000_CD mg_JJ nicotine_NN from_IN my_PRP$ cigs_NNS I_PRP am_VBP just_RB coming_VBG out_RB of_IN a_DT major_JJ depressive_NN bout_NN ._. I_PRP must_MD say_VB it_PRP was_VBD a_DT rough_JJ one_NN ._. I_PRP 've_VBP been_VBN drawing_VBG some_DT though_IN and_CC trying_VBG to_TO keep_VB spirits_NNS up_RB ._. I_PRP usually_RB do_VBP n't_RB do_VB well_RB this_DT time_NN of_IN year_NN ._. From_IN the_DT day_NN the_DT time_NN changed_VBD I_PRP have_VBP been_VBN up_RB and_CC down_RB and_CC mainly_RB down_RB ._. I_PRP think_VBP I_PRP am_VBP finally_RB adjusting_VBG ._. Ive_NNP been_VBN drawing_VBG a_DT lot_NN ._. If_IN anyone_NN is_VBZ interested_JJ ,_, check_VB out_RP some_DT stuff_NN I_PRP did_VBD at_IN deviantart_NN ._. Its_PRP$ at_IN http_NN :_: //sunraven0.deviantart.com_NN Tonight_NNP we_PRP have_VBP to_TO go_VB to_TO a_DT Christmas_NNP Party_NNP ._. My_PRP$ stomach_NN has_VBZ been_VBN acting_VBG up_RP ,_, so_IN I_PRP do_VBP n't_RB exactly_RB know_VB how_WRB I_PRP 'll_MD make_VB it_PRP ,_, but_CC I_PRP will_MD ._. It_PRP will_MD probably_RB be_VB fun_VBN ,_, and_CC hey_NN –_VBP Olive_NNP Garden_NNP is_VBZ always_RB good_JJ ._. Anyway_RB ,_, my_PRP$ mood_NN feels_VBZ a_DT bit_NN more_RBR stable_JJ ._. My_PRP$ Abilify_NNP was_VBD increased_VBN a_DT bit_NN ,_, so_IN I_PRP guess_VBP that_DT helped_VBD ._. I_PRP 've_VBP also_RB been_VBN trying_VBG to_TO drink_VB more_JJR water_NN and_CC watch_VB my_PRP$ wheat_NN intake_NN ._. I_PRP do_VBP n't_RB know_VB if_IN it_PRP will_MD help_VB ,_, but_CC hell_RB ,_, its_PRP$ got_VBD to_TO be_VB good_JJ for_IN you_PRP ._. Hope_VB all_DT is_VBZ well_RB with_IN everyone_NN ._. I_PRP am_VBP trying_VBG to_TO think_VB of_IN things_NNS to_TO read_VB and_CC draw_VB so_RB any_DT suggestions_NNS are_VBP welcome_JJ ._. If_IN I_PRP draw_VBP something_NN you_PRP suggest_VBP ,_, I_PRP 'll_MD post_VB it_PRP on_IN deviantart_NN so_IN you_PRP can_MD see_VB it_PRP ._.</t>
-  </si>
-  <si>
-    <t>Two_CD months_NNS ago_RB ,_, Google_NNP threatened_VBD to_TO shut_VB down_RP its_PRP$ China_NNP search_NN engine_NN over_IN censorship_NN ._. Yet_CC until_IN today_NN ,_, its_PRP$ China_NNP search_NN engine_NN has_VBZ stayed_VBN up_RP with_IN results_NNS still_RB censored_VBN ._. Now_RB the_DT search_NN company_NN is_VBZ finally_RB expected_VBN to_TO announce_VB that_IN it_PRP ’_VBZ s_RB going_VBG to_TO actually_RB follow_VB through_IN and_CC slowly_RB shut_VBD down_RP its_PRP$ China_NNP search_NN engine_NN ._. So_RB why_WRB does_VBZ it_PRP feel_VB like_IN Google_NNP ’_NNP s_NN (_( Google_NNP )_) impending_VBG decision_NN will_MD not_RB have_VB the_DT impact_NN it_PRP could_MD have_VB had_VBN two_CD months_NNS ago_RB ?_. When_WRB Google_NNP first_RB made_VBD its_PRP$ declaration_NN ,_, the_DT implications_NNS seemed_VBD enormous_JJ ._. One_CD of_IN the_DT world_NN ’_NNP s_RB largest_JJS technology_NN companies_NNS was_VBD reigniting_VBG the_DT censorship_NN debate_NN ._. Governments_NNS and_CC activists_NNS would_MD query_VB China_NNP over_IN the_DT Google_NNP attacks_NNS and_CC the_DT state_NN of_IN free_JJ speech_NN in_IN its_PRP$ country_NN ,_, while_IN Google_NNP would_MD be_VB taking_VBG the_DT moral_JJ high_JJ ground_NN as_IN it_PRP walked_VBD away_RB from_IN one_CD of_IN the_DT world_NN ’_NNP s_VBZ largest_JJS markets_NNS due_JJ to_TO principle_VB ._. Instead_RB ,_, we_PRP ’_VBP ve_NNS had_VBD a_DT two_CD month_NN “_NNS will_MD they_PRP or_CC won_VBD ’_NNS t_IN they_PRP ?_. ”_'' type_NN of_IN affair_NN that_IN even_RB Google_NNP ’_NNP s_VBD co-founder_NN said_VBD could_MD take_VB a_DT year_NN or_CC two_CD to_TO resolve_VB ._. Now_RB that_IN the_DT end_NN game_NN may_MD be_VB close_RB ,_, what_WP will_MD happen_VB when_WRB Google_NNP actually_RB pulls_VBZ out_IN of_IN the_DT world_NN ’_NNP s_VBZ most_JJS populated_JJ nation_NN ?_. The_DT answer_NN ,_, sadly_RB ,_, is_VBZ not_RB much_JJ ._.</t>
-  </si>
-  <si>
-    <t>This_DT hive_NN started_VBD from_IN a_DT swarm_NN I_PRP collected_VBD several_JJ years_NNS ago_RB ._. It_PRP has_VBZ always_RB been_VBN a_DT strong_JJ hive_NN and_CC has_VBZ a_DT fierce_JJ independence_NN about_IN it_PRP ._. I_PRP was_VBD n't_RB sure_JJ how_WRB well_RB they_PRP were_VBD doing_VBG when_WRB I_PRP opened_VBD the_DT hive_JJ today_NN for_IN the_DT first_JJ time_NN and_CC saw_VBD all_PDT these_DT dead_JJ SHBs_NN on_IN the_DT tops_NNS of_IN the_DT bars_NNS ._. We_PRP have_VBP had_VBD a_DT cold_JJ ,_, cold_JJ end_NN of_IN February_NNP and_CC I_PRP imagine_VBP they_PRP could_MD n't_RB live_VB through_IN the_DT weather.This_NN is_VBZ the_DT first_JJ year_NN of_IN my_PRP$ five_CD beekeeping_NN years_NNS that_IN I_PRP am_VBP still_RB seeing_VBG live_JJ SHBs_NNP in_IN the_DT hives_NNS ._. Usually_RB they_PRP all_DT die_VBP off_RP during_IN the_DT winter_NN and_CC then_RB reappear_VB at_IN the_DT end_NN of_IN June_NNP ._. But_CC they_PRP are_VBP alive_JJ in_IN both_DT of_IN my_PRP$ hives_NNS -_: not_RB a_DT lot_NN -_: the_DT bees_NNS are_VBP managing_VBG them_PRP -_: but_CC they_PRP are_VBP there_RB ._.</t>
-  </si>
-  <si>
-    <t>62_CD years_NNS have_VBP paused_VBN and_CC many_JJ teams_NNS have_VBP been_VBN formed_VBN and_CC yet_RB the_DT congress_NN can_MD not_RB even_RB think_VBP of_IN a_DT democratic_JJ set_NN up_RP as_IN yet_RB ._. Performance_NN ,_, if_IN you_PRP measure_VBP in_IN terms_NNS of_IN increase_NN in_IN the_DT growth_NN of_IN BPL_NNP families_NNS over_IN these_DT period_NN ,_, is_VBZ no_DT solace_NN either_RB ._. Neither_CC can_MD you_PRP boast_VB of_IN a_DT free_JJ and_CC fair_JJ society_NN when_WRB the_DT terror_NN is_VBZ lurking_VBG on_IN your_PRP$ head_NN at_IN any_DT moment_NN and_CC the_DT economic_JJ growth_NN that_WDT is_VBZ being_VBG tomtomed_VBN is_VBZ confined_VBN only_RB to_TO a_DT few_JJ business_NN houses_NNS growing_VBG richer_JJR and_CC richer_JJR while_IN the_DT divide_NN between_IN the_DT haves_NNS and_CC have-nots_NNS is_VBZ growing_VBG wider_RBR ._. Whereas_IN you_PRP are_VBP questioning_VBG the_DT new_JJ team_NN of_IN BJP_NNP where_WRB there_EX is_VBZ atleast_IN the_DT democracy_NN at_IN its_PRP$ root_NN ._. Please_NNP give_VB them_PRP the_DT breathing_NN time_NN and_CC then_RB judge_VB their_PRP$ performance_NN rather_RB than_IN anticipating_VBG miracles_NNS overnight_RB ._.</t>
-  </si>
-  <si>
-    <t>I_PRP recently_RB received_VBD a_DT couple_NN of_IN Elizabeth_NNP Arden_NNP ’_NNP s_VBD new_JJ ,_, very_RB covetable_JJ ,_, eyeshadow_JJ compacts_NNS ._. Color_NNP Intrigue_NNP Eyeshadow_NNP Duos_NNP come_VBP in_IN an_DT elegant_JJ compact_NN printed_VBN with_IN an_DT inspiring_VBG quote_NN from_IN Elizabeth_NNP Arden_NNP :_: “_NN To_TO be_VB beautiful_JJ and_CC natural_JJ is_VBZ the_DT birthright_NN of_IN every_DT woman._NN ”_NN While_IN the_DT compact_JJ itself_PRP is_VBZ certainly_RB worthy_JJ of_IN beauty_NN lust_NN ,_, the_DT eyeshadow_JJ inside_NN makes_VBZ these_DT duos_JJ worth_NN buying.I_NN reviewed_VBD Color_NNP Intrigue_NNP eyeshadow_NN before_IN and_CC I_PRP ’_VBP m_VB a_DT fan_NN of_IN the_DT product_NN ’_NNP s_VBZ beautifully_RB smooth_JJ ,_, blendable_JJ ,_, crease-free_JJ formula.I_NN tried_VBD two_CD of_IN the_DT duos_NN ,_, both_DT of_IN which_WDT are_VBP ultra-wearable_JJ and_CC will_MD flatter_VB most_RBS skin_JJ tones_NNS ._. “_JJ Autumn_NNP Leaves_NNP ”_NNP is_VBZ a_DT silky_JJ matte_NN duo_NN that_WDT pairs_VBZ a_DT warm_JJ shade_NN of_IN peach_NN with_IN the_DT perfect_JJ shade_NN of_IN cocoa_NN brown_NN ._.</t>
-  </si>
-  <si>
-    <t>I_PRP have_VBP known_VBN Ramya_NNP for_IN the_DT past_JJ 4_CD yrs_NN and_CC she_PRP 's_VBZ one_CD of_IN my_PRP$ very_RB good_JJ friends_NNS at_IN SSN_NNP ..._: to_TO describe_VB her_PRP ,_, she_PRP is_VBZ Ms_NNP ._. Cool_NNP ,_, Ms_NNP ._. Confident_NNP and_CC Ms._NNP Theramai_NNP of_IN EEE_NNP B_NNP ._. Has_VBZ a_DT great_JJ spirit_NN ..._: She_PRP always_RB tries_VBZ to_TO give_VB her_PRP$ best_JJS in_IN whatever_WDT she_PRP tries_VBZ ,_, ends_VBZ up_RP with_IN great_JJ mokkais_NNS most_JJS of_IN the_DT times_NNS ..._: Often_VBZ a_DT target_NN of_IN bantering_VBG in_IN our_PRP$ class_NN ..._: but_CC she_PRP never_RB has_VBZ bothered_VBN about_IN these_DT and_CC endures_NNS everything_NN with_IN a_DT silly_JJ smile_NN ..._: Few_NNP could_MD match_VB her_PRP$ dress_NN sense_NN ..._: pink_NN ,_, red_JJ ,_, orange_NN being_VBG some_DT of_IN her_PRP$ favourite_JJ colors_NNS ..._: you_PRP could_MD easily_RB point_VB her_PRP out_RP in_IN any_DT crowd_NN for_IN she_PRP stands_VBZ out_RP with_IN her_PRP$ color_NN sense_NN ..._: Has_VBZ this_DT habit_NN of_IN using_VBG words_NNS like_IN altruism_NN ,_, philanthropist_NN ,_, etc_FW ._. often_RB in_IN slam_JJ books_NNS and_CC testimonials_NNS and_CC only_RB god_VB knows_NNS if_IN she_PRP knows_VBZ the_DT meaning_NN of_IN these_DT words_NNS ..._: I_PRP have_VBP enjoyed_VBN her_PRP$ company_NN in_IN all_DT vetti_NNS and_CC crazy_JJ activities_NNS we_PRP 've_VBP done_VBN viz_NN tours_NNS ,_, IVs_NNP ,_, symposiums_NNS ,_, so_RB called_VBD 'operations_NNS '_POS and_CC will_MD always_RB cherish_VB those_DT moments_NNS ..._: All_PDT the_DT very_RB best_JJS in_IN whatever_WDT u_JJ do_VBP ..._:</t>
-  </si>
-  <si>
-    <t>“_IN The_DT web_NN is_VBZ becoming_VBG a_DT live_JJ medium_NN —_NN sales_NNS and_CC auctions_NNS happen_VB in_IN time_NN ,_, product_NN launches_NNS ,_, chats_NNS with_IN celebrities_NNS ,_, live_VBP video_NN events_NNS and_CC audio_NN ,_, games_NNS ,_, events_NNS in_IN virtual_JJ worlds_NNS —_IN there_EX are_VBP a_DT huge_JJ amount_NN of_IN scheduled_JJ things_NNS taking_VBG place_NN ,_, ”_NNP says_VBZ Nova_NNP Spivack_NNP ,_, who_WP recently_RB sold_VBD off_RP his_PRP$ semantic_JJ web_NN search_NN engine_NN Twine_NNP to_TO Evri_NNP ._. Now_RB he_PRP ’_MD s_VB setting_VBG out_RP to_TO create_VB a_DT massive_JJ programming_NN guide_NN to_TO those_DT live_JJ online_JJ events_NNS ,_, called_VBN Live_NNP Matrix_NNP ._. Spivack_NNP last_JJ year_NN brought_VBD on_IN Sanjay_NNP Reddy_NNP ,_, who_WP ’_VBP d_VB done_VBN corporate_JJ development_NN at_IN Gemstar-TV_NNP Guide_NNP and_CC led_VBD its_PRP$ sale_NN to_TO Macrovision_NNP for_IN $_$ 2.8_CD billion_CD ._. Reddy_NNP knew_VBD from_IN experience_NN that_WDT TV_NN watchers_NNS spend_VBP 10_CD percent_NN of_IN their_PRP$ time_NN watching_VBG TV_NN on_IN the_DT interactive_JJ programming_NN guide_NN (_( per_IN set-top_NN box_NN data_NNS )_) ._. The_DT web_NN has_VBZ much_RB more_RBR going_VBG on_IN at_IN any_DT one_CD time_NN ,_, but_CC nothing_NN like_IN an_DT IPG_NNP ._. Does_VBZ that_IN metaphor_NN carry_NN over_IN ?_. That_DT ’_VBZ s_VBP what_WP Spivack_NNP ,_, who_WP ’_VBP s_JJ serving_NN as_IN Live_NNP Matrix_NNP chairman_NN ,_, and_CC Reddy_NNP ,_, the_DT CEO_NNP ,_, want_VBP to_TO find_VB out_RP ._. They_PRP plan_VBP to_TO launch_VB in_IN May_NNP and_CC gave_VBD me_PRP a_DT look_NN at_IN the_DT pre-release_JJ site_NN under_IN the_DT condition_NN that_IN I_PRP not_RB release_VB screenshots_NNS ._. I_PRP ’_VBP ll_RB tell_VBP you_PRP a_DT bit_RB more_RBR about_IN what_WP they_PRP ’_VBP re_JJ doing_VBG and_CC describe_VB in_IN words_NNS what_WP it_PRP looks_VBZ like_IN ._. First_NNP of_IN all_RB ,_, there_EX ’_VBZ s_PDT the_DT prototypical_JJ grid_NN interface_NN —_NNP though_IN instead_RB of_IN listing_VBG channels_NNS due_JJ to_TO preset_VB numbers_NNS like_IN on_IN TV_NN ,_, they_PRP ’_VBP re_VB dynamically_RB ordered_VBN based_VBN on_IN demand_NN ._. Log_NNP in_IN during_IN March_NNP Madness_NNP ?_. That_DT ’_VBZ s_RB going_VBG to_TO be_VB on_IN top_JJ ._. If_IN a_DT web_NN metaphor_NN is_VBZ more_RBR your_PRP$ style_NN ,_, you_PRP can_MD look_VB at_IN all_PDT the_DT events_NNS in_IN a_DT Digg-like_JJ interface_NN ._. Users_NNS can_MD pull_VB events_NNS into_IN a_DT personal_JJ playlist_NN and_CC receive_JJ reminders_NNS when_WRB they_PRP start_VBP ._. If_IN you_PRP actually_RB want_VBP to_TO watch_VB something_NN ,_, Live_NNP Matrix_NNP sends_VBZ you_PRP to_TO the_DT host_NN site_NN rather_RB than_IN framing_VBG the_DT content_NN ._.</t>
-  </si>
-  <si>
-    <t>Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Una_NNP verdadera_NN pasarela_NN de_IN los_FW mejores_NNS fotógrafos_VBP fue_JJ necesaria_NNS para_VBP coleccionar_JJ 30_CD hermosas_JJ fotografías_NN de_IN casas_NN abandonadas_NNS ._. Todas_NNP las_JJ fotografías_NN ,_, han_NN sido_NN alojadas_NN en_IN Flickr_NNP por_NN quienes_NNS las_RBR han_JJ tomado_NN y_NN han_NN decidido_NN compartirlas_NN ._. Luego_NNP ,_, fue_RB PhotographyBlogger_NNP quien_NN se_NN dio_VBZ a_DT la_JJ tarea_NN de_IN ponerlas_FW en_FW un_FW solo_NN lugar_NN para_NN todos_NN ustedes_NNS ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP fotografias_JJ de_FW casas_FW abandonadas_NNS ,_, haz_NN click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP imágenes_NNS de_FW la_FW vida_FW es_FW hermosa_NN o_JJ life_NN is_VBZ beautiful_JJ ,_, haz_JJ click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP fotografías_NN de_FW mujeres_NNS muy_VBP lindas_NNS ,_, haz_NN click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Joergen_NNP Geerds_NNP ,_, es_VBZ un_JJ excelente_NN fotógrafo_NN que_NN ha_NN coleccionado_NN al_NN paso_NN del_NN tiempo_NN una_JJ serie_NN de_IN fotos_FW bien_NN guapas_NN sobre_NN la_FW ciudad_FW de_FW Nueva_NNP York_NNP ._. Se_NNP trata_NN de_FW una_FW extraordinaria_FW recopilación_FW de_FW fotos_FW nocturnas_FW que_NN él_NNP ha_NN titulado_NN '_POS Luminous_JJ New_NNP York_NNP '_POS ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP fotografías_JJ nocturnas_FW de_FW la_FW ciudad_FW de_FW Nueva_NNP York_NNP ,_, haz_NN click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP imágenes_NNS de_FW caídas_FW fatales_NNS o_VBP Fatal_NNP Falling_NNP ,_, haz_NN click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Interesante_NNP recopilación_FW de_FW fotografías_FW la_FW que_FW ha_FW logrado_FW reunir_FW Corcholat_NNP donde_NN nos_NNS ilustra_VBP un_JJ poco_NN sobre_NN los_NN personajes_NN que_NN tienen_NN el_NN poder_NN sobre_NN las_NN naciones_NNS ._. Esta_NNP colección_NN ,_, incluye_JJ fotos_NN de_IN los_FW presidentes_NNS y_VBP presidentas_NNS más_VBP famosas_JJ e_NN información_NN sobre_NN el_NN país_NN en_IN el_FW que_NN gobiernan_NN ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP fotografías_NN de_IN los_FW Rostros_NNP del_FW Poder_NNP ,_, haz_NN click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. Hermosa_NNP colección_NN de_IN imágenes_NNS donde_NNS predominan_VBP los_JJ paisajes_NN naturales_NNS ,_, paraísos_NN terrenales_NNS y_VBP escenarios_JJ campestres_NNS ._. En_NNP esta_JJ ocasión_NN y_NN estrenando_NN nuevo_JJ estilo_NN en_IN la_FW presentación_FW de_FW nuestras_FW galerías_NN ,_, le_JJ ofrecemos_NN dos_NN páginas_NN que_NN incluyen_JJ la_NN colección_NN completa_NN ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP imágenes_NNS de_FW Paisajes_NNP de_FW la_FW República_NNP Checa_NNP ,_, deberás_JJ hacer_NN click_NN aquí_NN para_NN ver_NN la_FW página_NN número_RB 1_CD ._. Luego_NNP ,_, puedes_VBZ hacer_NN click_NN aquí_NN para_NN ver_NN la_FW segunda_JJ página_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._. www.BancoImágenesGratuitas.com_NN Nota_NN :_: Haz_NNP click_VBP aquí_NN o_NN sobre_NN la_NN imagen_NN para_NN entrar_NN y_NN ver_NN todas_VBP las_JJ fotografías_NN ._. El_NNP día_NN de_FW hoy_NN ,_, miré_FW un_JJ documental_JJ sobre_NN los_NN hermosos_NN y_NN tiernos_NNS osos_JJ polares_NNS ._. Eso_NNP fue_JJ lo_NN que_NN me_PRP dio_JJ la_FW idea_NN de_IN traer_FW ante_JJ ustedes_NNS el_VBP acceso_JJ directo_NN para_NN ver_NN más_NN de_IN 5,000_CD imágenes_NNS ,_, fotos_NNS y_VBP dibujos_NN de_FW estos_FW simpáticos_FW animalitos_NNS peludos_VBP que_JJ habitan_NN precisamente_NN en_FW el_FW Polo_NNP Norte_NNP ._. Si_NNP deseas_JJ ver_NN todas_NNS las_VBP imágenes_NNS ,_, dibujos_NN y_NN fotos_NN de_IN osos_FW polares_NNS ,_, haz_NN click_NN aquí_NN ._. Si_NNP prefieres_VBZ regresar_VB a_DT la_NN página_NN principal_NN ,_, haz_NN click_NN acá_NN ._. Gracias_NNP ._.</t>
-  </si>
-  <si>
-    <t>How_WRB on_IN earth_NN did_VBD the_DT present_JJ model_NN of_IN life_NN evolve_NN ?_. It_PRP appears_VBZ flawed_VBN in_IN not_RB inconsiderable_JJ ways_NNS ._. This_DT post_NN will_MD touch_VB upon_IN one_CD of_IN the_DT more_JJR popular_JJ models_NNS ;_: the_DT one_CD based_VBN on_IN employment_NN ._. Employment_NNP ,_, job_NN ,_, work_NN ,_, career-call_JJ it_PRP what_WP you_PRP will-is_VBP at_IN the_DT core_NN of_IN this_DT model_NN ._. By_IN that_DT I_PRP mean_VBP more_JJR than_IN 50_CD %_NN of_IN waking_VBG hours_NNS of_IN those_DT living_VBG this_DT model_NN is_VBZ consumed_VBN by_IN the_DT employment_NN factor_NN ._. Employment_NNP typically_RB takes_VBZ place_NN in_IN organizations_NNS ._. The_DT goal_NN of_IN an_DT organization_NN is_VBZ to_TO maximize_VB shareholder_NN wealth_NN ._. I_PRP am_VBP not_RB going_VBG to_TO examine_VB that_DT goal_NN ._. Looking_VBG at_IN things_NNS from_IN an_DT employee_NN perspective_NN ,_, I_PRP find_VBP that_IN organizations_NNS function_VBP on_IN mind_NN bogglingly_RB flawed_VBD principles_NNS ._.</t>
-  </si>
-  <si>
-    <t>I_PRP have_VBP become_VBN full_JJ of_IN hated_JJ ._. As_IN if_IN I_PRP am_VBP 12_CD again_RB ._. It_PRP us_PRP a_DT terrible_JJ feeling_NN ._. I_PRP want_VBP to_TO be_VB irresponsible_JJ and_CC stupid_JJ ._. I_PRP want_VBP to_TO hurt_VB certain_JJ people_NNS ._. And_CC I_PRP want_VBP to_TO ruin_VB lives_NNS ._. Including_VBG my_PRP$ own_JJ ._. You_PRP were_VBD that_IN needle_JJ that_IN broke_VBD my_PRP$ god_NN damn_VBZ back_RB ._. And_CC all_DT of_IN the_DT sorries_NNS in_IN the_DT world_NN could_MD n't_RB fix_VB this_DT ._. I_PRP have_VBP become_VBN so_RB upset_JJ ,_, that_IN I_PRP want_VBP to_TO insult_VB you_PRP ._. And_CC emotionally_RB hurt_VB you_PRP ._. But_CC ,_, that_WDT is_VBZ not_RB who_WP I_PRP am_VBP ._. But_CC ,_, I_PRP am_VBP fighting_VBG myself_PRP to_TO not_RB just_RB do_VB it_PRP ._. You_PRP have_VBP made_VBN me_PRP sick_JJ ._. You_PRP know_VBP who_WP you_PRP are_VBP ._. And_CC you_PRP may_MD never_RB see_VB this_DT ._. I_PRP feel_VBP strongly_RB enough_RB to_TO say_VB that_IN I_PRP might_MD hate_VB you_PRP ._. Fuck_NNP ._.</t>
-  </si>
-  <si>
-    <t>Pre-r_NNP (_( which_WDT is_VBZ how_WRB I_PRP am_VBP going_VBG to_TO call_VB my_PRP$ pre-parent_JJ days_NNS )_) ,_, I_PRP used_VBD to_TO notice_VB one_CD common_JJ characteristic_NN among_IN parents_NNS ._. Whenever_WRB they_PRP had_VBD their_PRP$ baby_NN with_IN them_PRP ,_, they_PRP would_MD try_VB to_TO convince_VB the_DT baby_NN to_TO do_VB something_NN fascinating_VBG like_IN saying_VBG the_DT alphabets_NNS or_CC singing_VBG a_DT song_NN or_CC even_RB dancing_VBG a_DT particular_JJ piece_NN ._. It_PRP almost_RB never_RB worked_VBN ._. The_DT kid_NN would_MD look_VB shy_JJ and_CC hide_VB behind_IN the_DT parent_NN or_CC would_MD just_RB look_VB blank_JJ and_CC do_VB nothing_NN ._. I_PRP would_MD excitedly_RB wait_VB for_IN the_DT kid_NN to_TO do_VB its_PRP$ wonder_NN but_CC could_MD n't_RB help_VB wondering_VBG what_WP made_VBD the_DT parents_NNS want_VBP so_RB desperately_RB for_IN the_DT kid_NN to_TO perform_VB ._. I_PRP believed_VBD them_PRP ,_, that_IN the_DT kid_NN can_MD say_VB its_PRP$ alphabets_NNS or_CC sing_VBG a_DT little_JJ jingle_NN or_CC tap_NN dance_NN ;_: then_RB why_WRB the_DT attempts_NNS to_TO coerce_VB the_DT unwilling_JJ kid_NN to_TO do_VB that_DT ?_.</t>
-  </si>
-  <si>
-    <t>Absolutely_RB stunning_JJ digital_JJ rendering_NN :_: [_NN Wow_NNP ,_, that_WDT is_VBZ really_RB stunning_JJ work_NN ,_, and_CC very_RB creative_JJ ._. ]_VB A_DT quote_NN from_IN the_DT author_NN Staszek_NNP Marek_NNP :_: The_DT most_RBS beautiful_JJ places_NNS that_WDT come_VBP to_TO mind_VB always_RB have_VBP water_NN ,_, steep_JJ cliffs_NNS and_CC tropics_NNS in_IN common_JJ ._. Lush_JJ turquoise_NN colors_NNS emphasizing_VBG positive_JJ vibes_NNS ,_, something_NN I_PRP 've_VBP never_RB seen_VBN ._. I_PRP wanted_VBD to_TO achieve_VB complete_JJ integration_NN of_IN future_JJ architecture_NN with_IN nature_NN ,_, complete_JJ with_IN green_JJ parks_NNS ,_, trees_NNS and_CC gardens_NNS ._. What_WP caught_VBD my_PRP$ eye_NN and_CC train_NN of_IN thought_NN right_RB away_RB was_VBD his_PRP$ remarks_NNS about_IN how_WRB big_JJ an_DT influence_NN the_DT landscape_NN is_VBZ ,_, in_IN relationship_NN to_TO the_DT architecture_NN ._. Renderings_NNS like_IN this_DT ._. ._. ._. the_DT creativity_NN needs_VBZ to_TO be_VB shared_VBN ._. There_EX are_VBP a_DT number_NN of_IN other_JJ entries_NNS here_RB ,_, be_VB prepared_VBN to_TO be_VB amazed_VBN ._. Powered_VBN by_IN ScribeFire_NNP ._. Great_NNP story_NN in_IN the_DT NYTimes_NNP about_IN Laura_NNP Spector_NNP who_WP goes_VBZ out_RP into_IN the_DT woods_NNS alone_RB and_CC cuts_NNS down_RP all_DT the_DT vine_NN (_( s_NN )_) she_PRP can_MD pull_VB out_RP to_TO make_VB something_NN great_JJ out_IN of_IN something_NN very_RB bad_JJ ._. [_NN From_IN the_DT Laura_NNP Spector_NNP website_NN ._. ]_NN Apparently_RB she_PRP targets_VBZ Bitttersweet_NNP or_CC Asiatic_NNP vine_NN Celastrus_NNP orbiculata_NN which_WDT has_VBZ run_VBN amok_RB in_IN her_PRP$ part_NN of_IN the_DT ``_`` woods_NNS ''_'' ._. Her_PRP$ specialty_NN ,_, apparently_RB a_DT little_JJ of_IN everything-sconces_NNS ,_, mirrors_NNS ,_, arches_NNS ,_, furniture_NN ,_, etc_FW ._. Good_JJ for_IN her_PRP$ !_. From_IN the_DT story_NN :_: “_NN I_PRP go_VBP out_RP into_IN the_DT woods_NNS alone_RB ,_, everywhere_RB ,_, ”_NNP she_PRP said_VBD ._. “_NN And_CC I_PRP go_VBP deep_RB ,_, a_DT mile_NN or_CC two_CD in_IN from_IN roads_NNS ._. The_DT hardest_JJS part_NN is_VBZ schlepping_VBG the_DT stuff_NN out_IN alone_RB ._. I_PRP have_VBP letters_NNS of_IN permission_NN from_IN places_NNS like_IN the_DT Aspetuck_NNP Land_NNP Trust_NNP and_CC Aquarion_NNP ,_, the_DT water_NN company_NN ._. They_PRP ’_VBP re_VB happy_JJ to_TO lead_VB me_PRP to_TO the_DT worst_JJS infestations_NNS ,_, as_RB long_RB as_IN I_PRP indemnify_VBP them_PRP in_IN case_NN I_PRP fall._VBP ”_RB Here_RB 's_VBZ another_DT great_JJ piece_NN from_IN Laura_NNP 's_POS website_NN ;_: which_WDT I_PRP am_VBP linking_VBG you_PRP to_TO ,_, the_DT NYTimes_NNP does_VBZ not_RB ._. [_VB One_CD of_IN Laura_NNP 's_POS benches_NNS ,_, I_PRP love_VBP that_IN Koa_NNP wood_NN slab_NN ._. ]_JJ Great_NNP stuff_NN ,_, really_RB great_JJ imagination_NN ._. In_IN her_PRP$ own_JJ words_NNS :_: My_PRP$ work_NN is_VBZ unique_JJ in_IN that_DT it_PRP is_VBZ influenced_VBN by_IN the_DT rich_JJ and_CC decorative18th_JJ Century_NNP British_NNP Romantic_NNP tradition_NN ._. British_JJ rustic_NN is_VBZ unique_JJ from_IN its_PRP$ more_JJR familiar_JJ American_JJ cousin_NN ,_, in_IN that_DT its_PRP$ graceful_NN lines_NNS follow_VBP nature_NN ’_NN s_NN whimsy_NN yet_RB suggest_VBP the_DT complexity_NN of_IN wrought_JJ ironwork_NN ._. Finally_RB this_DT piece_NN of_IN railing_NN :_: [_JJ Very_NNP nice_RB ,_, keep_VB up_IN the_DT good_JJ work_NN Laura_NNP ._. ]_NN Powered_VBN by_IN ScribeFire_NNP ._. I_PRP noticed_VBD that_IN folks_NNS are_VBP still_RB stopping_VBG by_IN looking_VBG for_IN info_NN on_IN Pergola_NNP 's_POS and_CC such_JJ ._. Be_VB advised_VBN that_IN I_PRP have_VBP indeed_RB been_VBN at_IN this_DT new_JJ site_NN for_IN quite_RB awhile_JJ ._. Still_RB discussing_VBG pergola_NN 's_POS renderings_NNS ,_, landscape_NN construction_NN ,_, drawings_NNS ,_, waterfeatures_NNS ,_, ponds_NNS ,_, landscape_NN construction_NN ,_, etc_FW ._. Even_RB though_IN I_PRP enjoyed_VBP my_PRP$ time_NN here_RB and_CC appreciated_VBD the_DT recognition_NN of_IN the_DT Blogger_NNP staff_NN I_PRP moved_VBD over_RB to_TO Wordpress_NNP .com_NNP ._. It_PRP was_VBD not_RB an_DT easy_JJ decision_NN because_IN I_PRP had_VBD to_TO hand_NN export_NN over_IN 250_CD post_NN ,_, and_CC find_VB a_DT way_NN to_TO move_VB comments_NNS also_RB ._. It_PRP was_VBD the_DT opportunity_NN to_TO have_VB several_JJ pages_NNS to_TO add_VB additional_JJ info_NN ._. ._. ._. which_WDT also_RB allowed_VBD me_PRP to_TO clean_VB up_RP the_DT front_JJ page_NN of_IN my_PRP$ Blog_NNP ._. I_PRP do_VBP n't_RB know_VB if_IN I_PRP 'm_VBP a_DT minimalist_NN at_IN heart_NN ,_, but_CC my_PRP$ inner_JJ designer_NN likes_NNS clean_JJ and_CC simple_JJ ._. So_IN here_RB I_PRP am_VBP gone_VBN ._. ._. ._. to_TO Wordpress_NNP ._. Here_RB again_RB ,_, is_VBZ the_DT new_JJ site_NN ._. If_IN you_PRP were_VBD kind_NN enough_JJ to_TO set_VB up_RP a_DT link_NN to_TO this_DT page_NN from_IN your_PRP$ Blog_NNP or_CC page_NN I_PRP would_MD appreciate_VB it_PRP if_IN you_PRP would_MD change_VB that_IN to_TO my_PRP$ new_JJ Blog_NNP site_NN over_IN at_IN Wordpress_NNP ._. I_PRP appreciate_VBP the_DT fact_NN the_DT you_PRP thought_VBD enough_RB of_IN what_WP I_PRP am_VBP doing_VBG to_TO link_VB to_TO my_PRP$ page_NN and_CC I_PRP hope_VBP that_DT will_MD continue_VB over_IN at_IN my_PRP$ new_JJ site_NN ._. Again_NNP ,_, thanks_VBZ a_DT lot_NN in_IN advance_NN ._. I_PRP look_VBP forward_RB to_TO your_PRP$ readership_NN ,_, comments_NNS ,_, and_CC feedback_NN ._. Landscape_NNP Design_NNP ,_, and_CC Design_NNP is_VBZ important_JJ to_TO our_PRP$ lives_NNS ,_, and_CC good_JJ design_NN makes_VBZ our_PRP$ life_NN more_RBR enjoyable_JJ ,_, more_RBR pleasant_JJ ,_, and_CC more_JJR civilized_JJ ._. I_PRP will_MD continue_VB to_TO write_VB about_IN what_WP I_PRP see_VBP ,_, hear_VBP ,_, learn_VBP ,_, and_CC ponder_NN about_IN as_IN I_PRP continue_VBP my_PRP$ life_NN 's_POS work_NN ._. My_PRP$ friends_NNS ._. ._. ._. ._. have_VBP all_DT chimed_VBN in_IN ,_, one_CD way_NN or_CC another_DT ,_, and_CC have_VBP decided_VBN they_PRP like_IN the_DT Wordpress_NNP look_NN better_RBR ._. So_CC I_PRP will_MD respect_VB their_PRP$ opinions_NNS and_CC move_NN ._. The_DT only_JJ real_JJ question_NN left_VBD for_IN me_PRP is_VBZ do_JJ I_PRP stay_VB at_IN Wordpress.com_NNP or_CC do_VBP I_PRP move_VB entirely_RB over_IN to_TO another_DT type_NN of_IN site_NN ._. As_IN in_IN a_DT paying_VBG site_NN ._. Where_WRB I_PRP can_MD have_VB the_DT blog_NN hosted_VBD ,_, and_CC at_IN the_DT same_JJ time_NN move_VB the_DT WCI_NNP website_NN to_TO also_RB ._. There_EX are_VBP (_( for_IN me_PRP )_) plus'es_NN and_CC minus'es_NN to_TO both_DT sides_NNS of_IN this_DT equation_NN ._. All_DT of_IN this_DT is_VBZ going_VBG to_TO have_VB to_TO wait_VB until_IN I_PRP get_VBP back_RB from_IN the_DT Mgmt_NNP ._. Clinic_NNP in_IN Louisville_NNP ,_, KY._NNP this_DT coming_VBG week_NN ._. I_PRP trip_NN I_PRP am_VBP looking_VBG forward_RB to-this_NN is_VBZ a_DT very_RB good_JJ conference_NN ,_, lots_NNS of_IN high_JJ energy_NN ._. So_IN for_IN now_RB dear_JJ readers_NNS keep_VBP catching_VBG me_PRP over_IN at_IN the_DT other_JJ site_NN where_WRB I_PRP am_VBP posting_VBG like_IN mad_NN ,_, like_IN mad_JJ I_PRP tell_VBP you_PRP ._. ._. ._. yes_UH actually_RB mad_JJ ._. I_PRP wonder_VBP ._. ._. ._. how_WRB do_VBP you_PRP spell_VB plus'es_NNS and_CC minus'es_NN ?_. Well_UH I_PRP have_VBP almost_RB everything_NN moved_VBD over_RB to_TO the_DT Wordpress_NNP site_NN ._. I_PRP am_VBP almost_RB certain_JJ I_PRP am_VBP moving_VBG over_IN there_RB ._. The_DT swag_NN ,_, chiclets_NNS (_( sp_VB ?_. )_) ,_, and_CC buttons_NNS are_VBP not_RB over_IN there_RB and_CC I_PRP am_VBP not_RB sure_JJ how_WRB that_DT is_VBZ going_VBG to_TO work_VB out_RP ._. I_PRP really_RB do_VBP not_RB want_VB to_TO add_VB anymore_RB to_TO the_DT sidebar_NN ._. If_IN needed_VBN I_PRP will_MD add_VB those_DT to_TO another_DT page_NN ._. I_PRP have_VBP added_VBN everyone_NN 's_POS link_NN in_IN the_DT link_NN page_NN and_CC think_VB it_PRP looks_VBZ good_JJ ,_, and_CC those_DT links_NNS look_VBP easy_JJ to_TO find_VB ._. The_DT page_NN loads_VBZ faster_RB over_IN there_RB ,_, and_CC I_PRP like_VBP the_DT cleaner_JJR look-hey_JJ !_. I_PRP 'm_VBP a_DT Designer_NN !_. I_PRP Design_NNP ,_, I_PRP like_VBP clean_JJ simple_JJ lines_NNS ._. Just_JJ look_NN at_IN my_PRP$ work_NN ._. Now_RB I_PRP know_VBP graphic_JJ design_NN is_VBZ entirely_RB different_JJ than_IN Landscape_NNP Design_NNP ,_, but_CC aesthetics_NNS are_VBP aesthetics_NNS ._. ._. ._. are_VBP n't_RB they_PRP ?_. Take_VB a_DT look_NN ,_, but_CC I_PRP am_VBP pretty_RB sure_JJ this_DT is_VBZ a_DT done_VBN deal_NN ,_, unless_IN a_DT flood_NN of_IN folks_NNS say_VBP different_JJ ._. The_DT biggest_JJS reason_NN not_RB to_TO leave_VB is_VBZ that_IN Google_NNP loves_VBZ me_PRP ,_, it_PRP really_RB loves_VBZ me_PRP ._. I_PRP hope_VBP it_PRP happens_VBZ at_IN the_DT Wordpress_NNP site_NN ._. We_PRP shall_MD see_VB ._. I_PRP have_VBP moved_VBN my_PRP$ Blog_NNP to_TO a_DT Word_NNP Press_NNP site_NN ._. To_TO see_VB ,_, just_RB how_WRB it_PRP would_MD look_VB in_IN a_DT different_JJ type_NN of_IN setting_VBG ._. To_TO streamline_VB ,_, to_TO pull_VB back_RB on_IN sidebar_NN stuff_NN ._. So_IN I_PRP am_VBP looking_VBG for_IN some_DT feedback_NN ,_, via_IN e-mail_NN or_CC comment_NN ._. Which_NNP style_NN of_IN blog_NN seems_VBZ to_TO fit_VB what_WP I_PRP am_VBP trying_VBG to_TO do_VB ?_.</t>
-  </si>
-  <si>
-    <t>If_IN you_PRP allow_VBP yourself_PRP to_TO be_VB open_JJ to_TO the_DT struggles_NNS of_IN humanity_NN ,_, it_PRP can_MD sometimes_RB be_VB difficult_JJ to_TO remain_VB hopeful_JJ and_CC positive_JJ ._. I_PRP try_VBP to_TO educate_VB myself_PRP on_IN what_WP is_VBZ going_VBG on_IN in_IN the_DT world_NN ._. I_PRP try_VBP to_TO remember_VB that_IN as_IN I_PRP type_VBP away_RB ,_, in_IN the_DT comfort_NN of_IN my_PRP$ sitting_VBG room_NN ,_, with_IN my_PRP$ A/C_NNP and_CC chai_NN latte_NN ,_, there_EX are_VBP many_JJ things_NNS simultaneously_RB occurring_VBG that_DT are_VBP unfathomable_JJ and_CC devastating_VBG ._. I_PRP try_VBP to_TO remind_VB myself_PRP daily_RB of_IN how_WRB blessed_JJ I_PRP am_VBP ._. I_PRP 'm_VBP pretty_RB good_JJ at_IN remaining_VBG grateful_JJ ._. I_PRP can_MD look_VB at_IN my_PRP$ family_NN ,_, friends_NNS and_CC animals_NNS ,_, and_CC know_VBP that_IN they_PRP are_VBP all_PDT a_DT reflection_NN of_IN what_WP is_VBZ good_JJ in_IN life_NN ._. It_PRP might_MD seem_VB weird_IN that_DT I_PRP 'm_VBP starting_VBG a_DT post_NN about_IN the_DT All-Star_JJ Game_NNP with_IN the_DT above_JJ paragraph_NN ,_, but_CC honestly_RB ,_, my_PRP$ experience_NN at_IN the_DT All-Star_NNP Game_NNP always_RB invokes_VBZ a_DT feeling_NN of_IN gratitude_NN ._. It_PRP is_VBZ a_DT reminder_NN that_WDT ,_, not_RB only_RB am_VBP I_PRP blessed_VBD to_TO be_VB given_VBN the_DT opportunities_NNS bestowed_VBD upon_IN me_PRP ,_, but_CC also_RB that_IN I_PRP am_VBP blessed_VBN to_TO have_VB been_VBN born_VBN into_IN this_DT country_NN ._. Baseball_NNP is_VBZ an_DT escape_NN for_IN me_PRP ._. I_PRP get_VBP lost_VBN in_IN it_PRP ._. Baseball_NNP is_VBZ the_DT coming_VBG together_RB of_IN unlike_IN minds_NNS for_IN a_DT like_JJ purpose_NN ._. Every_DT moment_NN before_IN a_DT pitch_NN is_VBZ thrown_VBN has_VBZ its_PRP$ own_JJ pulse_NN ._. Looking_VBG at_IN a_DT field_NN and_CC seeing_VBG all_PDT the_DT greats_NNS in_IN the_DT game_NN ,_, in_IN all_DT their_PRP$ shapes_NNS and_CC sizes_NNS --_: their_PRP$ different_JJ cultural_JJ backgrounds_NNS ,_, history_NN and_CC cellular_JJ make_VBP up_RP --_: is_VBZ a_DT reminder_NN that_WDT anyone_NN ,_, from_IN anywhere_RB ,_, can_MD play_VB the_DT game_NN of_IN baseball_NN ._. You_PRP do_VBP n't_RB have_VB to_TO be_VB seven_CD feet_NNS tall_JJ or_CC seven_CD feet_NNS wide_JJ ._. It_PRP is_VBZ the_DT Everyman_NNP 's_POS sport_NN ._. Regardless_NNP of_IN any_DT controversy_NN that_IN surrounds_VBZ baseball_NN ,_, this_DT is_VBZ what_WP I_PRP think_VBP of_IN when_WRB I_PRP look_VBP at_IN all_PDT the_DT greats_NNS on_IN one_CD field_NN ._. I_PRP had_VBD a_DT beautiful_JJ time_NN in_IN St._NNP Louis_NNP ._. On_IN Sunday_NNP ,_, I_PRP did_VBD an_DT autograph_NN session_NN at_IN the_DT stadium_NN ,_, where_WRB I_PRP got_VBD to_TO meet_VB some_DT awesome_JJ people_NNS ._.</t>
-  </si>
-  <si>
-    <t>So_RB far_RB no_DT international_JJ classification_NN for_IN hotels_NNS exists_NNS ,_, but_CC that_IN hasn_JJ ’_NNP t_NN stopped_VBD ambitious_JJ hotel_NN marketers_NNS from_IN slapping_VBG any_DT number_NN of_IN stars_NNS ,_, diamonds_NNS ,_, or_CC cacti_VB on_IN their_PRP$ properties_NNS and_CC touting_VBG them_PRP as_IN 5-_JJ ,_, 6-_JJ or_CC even_RB 7-star_JJ properties_NNS ,_, whatever_WDT that_DT may_MD mean_VB in_IN real_JJ service_NN and_CC amenities.I_JJ think_VBP the_DT ratings_NNS inflation_NN trend_NN began_VBD with_IN the_DT Xanadu-like_JJ building_NN frenzy_NN in_IN Dubai_NNP ,_, especially_RB with_IN the_DT luxury_NN hotel_NN Burj_NNP Al_NNP Arab_NNP (_( Tower_NNP of_IN the_DT Arabs_NNPS )_) ,_, built_VBN on_IN an_DT artificial_JJ island_NN and_CC billed_VBD as_IN a_DT 7-star_JJ stay_NN by_IN the_DT the_DT Dubai_NNP government_NN ’_NNP s_NN Development_NNP and_CC Investment_NNP Office.conomy.Wikipedia_NNP says_VBZ there_EX are_VBP only_RB three_CD seven-star_JJ hotels_NNS in_IN the_DT world_NN (_( Town_NNP House_NNP Galleria_NNP in_IN Milan_NNP ;_: the_DT Burj_NNP and_CC Emirates_NNP Palace_NNP in_IN Abu_NNP Dhabi_NNP )_) ,_, but_CC that_IN hasn_JJ ’_NNP t_NN stopped_VBD Drake_NNP and_CC Cavendish_NNP Luxury_NNP Hotel_NNP and_CC Travel_NNP Guide_NNP ._. From_IN publishing_VBG its_PRP$ list_NN of_IN Six_NNP Star_NNP hotels_NNS ,_, here_RB ’_VBZ s_NN when_WRB we_PRP say_VBP this_DT is_VBZ hotel_NN rating_NN inflation_NN bordering_VBG on_IN fraud_NN !_. We_PRP ’_VBP re_JJ told_NN ,_, though_IN we_PRP can_MD ’_VB t_JJ confirm_NN it_PRP ,_, that_IN one_CD so-called_JJ six_CD star_NN resort_NN actually_RB offers_VBZ a_DT poolside_JJ valet_NN to_TO polishguests_NNS '_POS sunglasses_NNS and_CC eliminate_VB all_DT that_WDT pesky_JJ poolside_NN humidity.But_VBD a_DT Mobil_NNP Travel_NNP Guide_NNP official_NN told_VBD us_PRP that_IN when_WRB you_PRP achieve_VBP five_CD stars_NNS ,_, that_IN ’_NNP s_VBD perfection_NN ._. Forget_VB the_DT other_JJ hype_NN ,_, he_PRP said.One_VBD reviewer_NN in_IN Norway_NNP stayed_VBD at_IN the_DT self-designated_JJ Six_NNP Star_NNP Ai_NNP Bahia_NNP Principe_NNP Costa_NNP Adeje_NNP ,_, Spain_NNP ,_, and_CC went_VBD on_IN to_TO say_VB the_DT hotel_NN lacked_VBD room_NN service…_NN but_CC who_WP cares_VBZ ,_, the_DT reviewer_NN said_VBD ,_, because_IN “_NNP you_PRP ’_VBP re_JJ asleep_NN during_IN the_DT night_NN anyway_RB ._. ”_VB</t>
-  </si>
-  <si>
-    <t>Last_JJ Saturday_NNP we_PRP went_VBD to_TO a_DT so_RB called_JJ Gypsy_NNP Fair_NNP ,_, which_WDT was_VBD more_RBR market_NN for_IN weird_JJ stuff_NN then_RB actual_JJ fair_NN ._. But_CC the_DT “_NNP house_NN trucks_NNS ”_VBP were_VBD interesting_VBG to_TO look_VB at_IN ._. If_IN you_PRP imagine_VBP an_DT old_JJ gypsy_NN wagon_NN then_RB transpose_VBD it_PRP onto_IN an_DT older_JJR style_NN truck_NN you_PRP kind_NN of_IN can_MD imagine_VB what_WP they_PRP were_VBD like_JJ ._. But_CC overall_JJ it_PRP was_VBD rather_RB disappointing_JJ ,_, as_IN much_JJ is_VBZ becoming_VBG here_RB ._. Like_IN Greg_NNP ’_NNP s_VBD aspirations_NNS for_IN work_NN ._. For_IN weeks_NNS he_PRP diligently_RB prepped_VBD his_PRP$ resume_NN ,_, reviewed_VBN immigration_NN information_NN and_CC made_VBD profiles_NNS on_IN various_JJ job_NN search_NN websites_VBZ ._. But_CC often_RB when_WRB he_PRP went_VBD back_RB to_TO those_DT websites_NNS he_PRP couldn_VBZ ’_JJ t_NN use_IN his_PRP$ log_NN in_IN information_NN and_CC so_RB emailed_VBD the_DT websites_NNS for_IN assistance_NN ._.</t>
-  </si>
-  <si>
-    <t>Todd_NNP Haynes_NNP ,_, who_WP has_VBZ already_RB mastered_VBN this_DT genre_NN with_IN Far_NNP From_NNP Heaven_NNP ,_, directs_NNS and_CC has_VBZ adapted_VBN James_NNP M_NNP Cain_NNP ’_NNP s_VBD novel_JJ ._. Sounds_VBZ intriguing_JJ —_NN and_CC it_PRP ’_NNP s_VBZ also_RB proof_NN of_IN Winslet_NNP ’_NNP s_VBZ ability_NN with_IN mature_NN roles_NNS ._. Crawford_NNP was_VBD 41_CD when_WRB she_PRP got_VBD her_PRP Oscar_NNP ;_: Winslet_NNP is_VBZ just_RB 34_CD ._. He_PRP ’_VBD s_RB been_VBN dead_JJ for_IN 30_CD years_NNS now_RB ,_, but_CC Alfred_NNP Hitchcock_NNP is_VBZ currently_RB the_DT most_RBS fashionable_JJ of_IN all_DT film_NN directors_NNS ._. In_IN Shutter_NNP Island_NNP ,_, Martin_NNP Scorsese_NNP clearly_RB tips_VBZ his_PRP$ fedora_NN to_TO Hitch_NNP repeatedly_RB ._. The_DT Ghost_NNP Writer_NNP ,_, directed_VBN by_IN Roman_NNP Polanski_NNP ,_, another_DT devotee_NN ,_, positively_RB throbs_JJ with_IN Hitchcockian_JJ suspense_NN ._. On_IN April_NNP 2_CD ,_, to_TO mark_VB the_DT 50th_JJ anniversary_NN of_IN its_PRP$ release_NN ,_, Universal_NNP re-releases_VBZ Hitchcock_NNP ’_NNP s_VBD suspenseful_JJ horror_NN classic_JJ Psycho_NNP ._. Also_RB released_VBD that_IN same_JJ day_NN is_VBZ the_DT curious_JJ Double_NNP Take_NNP ,_, which_WDT uses_VBZ archival_JJ footage_NN of_IN Hitchcock_NNP (_( mainly_RB from_IN the_DT set_NN of_IN The_DT Birds_NNP )_) ._. This_DT filmed_VBD essay_NN relates_VBZ a_DT (_( dubious_JJ )_) story_NN of_IN a_DT meeting_NN with_IN his_PRP$ double_NN ,_, and_CC pauses_VBZ to_TO contemplate_VB the_DT Cold_NNP War_NNP ,_, paranoia_NN in_IN modern_JJ life_NN and_CC TV_NN commercials_NNS from_IN the_DT Sixties_NNPS ._. Playful_NNP ,_, elusive_JJ and_CC mysterious_JJ ,_, it_PRP ’_VBD s_RB directed_VBN by_IN Belgian_JJ Johan_NNP Grimonprez_NNP ._. One_CD feels_JJ Hitch_NNP would_MD have_VB approved_VBN ._. Could_NNP silent_JJ film_NN ,_, like_IN 3D_CD ,_, be_VB about_IN to_TO enjoy_VB a_DT surprising_JJ comeback_NN ?_. It_PRP ’_VBZ s_RBR entirely_RB possible_JJ ._. One_CD of_IN the_DT spring_NN ’_NN s_JJ coolest_NN events_NNS is_VBZ a_DT tour_NN of_IN that_DT creepy_JJ expressionist_NN masterpiece_VBD The_DT Cabinet_NNP of_IN Dr_NNP Caligari_NNP (_( 1919_CD )_) ._. It_PRP will_MD be_VB screened_VBN in_IN 11_CD cities_NNS (_( starting_VBG in_IN Bath_NNP tomorrow_NN )_) between_IN now_RB and_CC early_RB May_NNP ._. The_DT twist_NN is_VBZ that_IN a_DT “_JJ re‑scoring_NN orchestra_NN ”_NNP has_VBZ composed_VBN a_DT soundtrack_NN ,_, and_CC play_VB live_JJR at_IN all_PDT the_DT screenings_NNS ._. They_PRP sound_VBD unmistakably_RB modern_JJ ,_, but_CC capture_VBP the_DT film_NN ’_NNP s_NN disturbing_VBG mood_NN perfectly_RB ._. Sad_NNP news_NN about_IN Kate_NNP Winslet_NNP ’_NNP s_JJ marriage_NN break-up_NN last_JJ week_NN –_NN yet_RB in_IN the_DT wake_NN of_IN The_DT Reader_NNP and_CC Revolutionary_NNP Road_NNP ,_, her_PRP$ ability_NN to_TO snag_VB juicy_NN film_NN parts_NNS remains_VBZ undimmed_JJ ._. She_PRP has_VBZ taken_VBN the_DT title_JJ role_NN in_IN Mildred_NNP Pierce_NNP ,_, a_DT remake_NN of_IN one_CD of_IN the_DT greatest_JJS “_JJ women_NNS ’_VBP s_JJ pictures_NNS ”_NNP ,_, which_WDT earned_VBD Joan_NNP Crawford_NNP an_DT Oscar_NNP in_IN 1945_CD ._. This_DT time_NN round_NN ,_, it_PRP ’_VBZ s_PRP a_DT multi-part_JJ series_NN for_IN HBO_NNP ,_, with_IN Winslet_NNP cast_NN as_IN the_DT single_JJ mother_NN with_IN huge_JJ ambitions_NNS for_IN her_PRP$ ungrateful_JJ daughter_NN (_( Evan_NNP Rachel_NNP Wood_NNP )_) ._.</t>
-  </si>
-  <si>
-    <t>Well_RB ,_, first_RB of_IN all_DT ,_, I_PRP have_VBP been_VBN sick_VBN with_IN some_DT sort_NN of_IN nasty_JJ combination_NN of_IN an_DT upper_JJ respiratory_NN infection_NN and_CC a_DT sinus_JJ infection_NN ..._: it_PRP literally_RB put_VBD me_PRP out_IN of_IN commission_NN for_IN about_RB 2_CD weeks_NNS ._. I_PRP went_VBD to_TO the_DT doctor_NN twice_RB -_: the_DT first_JJ time_NN he_PRP told_VBD me_PRP to_TO take_VB over_RP the_DT counter_NN cold_JJ medicine_NN and_CC drink_VB hot_JJ tea_NN ._. The_DT second_JJ time_NN ,_, about_IN a_DT week_NN and_CC a_DT half_NN later_RB ,_, when_WRB I_PRP went_VBD again_RB because_IN I_PRP was_VBD getting_VBG worse_JJR and_CC worse_JJR ,_, he_PRP finally_RB gave_VBD me_PRP antibiotics_NNS ._. I_PRP started_VBD feeling_VBG better_RB within_IN a_DT day_NN or_CC two_CD but_CC then_RB felt_VBD nauseous_JJ for_IN the_DT next_JJ few_JJ days_NNS due_RB to_TO the_DT antibiotics_NNS ._. Now_RB I_PRP 'm_VBP finally_RB feeling_VBG better_RBR and_CC no_DT longer_JJR feel_VBP like_IN I_PRP 'm_VBP going_VBG to_TO faint_VB while_IN trying_VBG to_TO work_VB ,_, which_WDT is_VBZ always_RB nice_JJ ._.</t>
-  </si>
-  <si>
-    <t>Over_IN the_DT past_JJ year_NN ,_, there_EX were_VBD many_JJ moments_NNS when_WRB I_PRP just_RB wanted_VBD to_TO be_VB left_VBN alone_RB ._. I_PRP did_VBD n't_RB want_VB to_TO hear_VB any_DT type_NN of_IN advice_NN ._. Words_NNS of_IN encouragement_NN were_VBD often_RB transformed_VBN midair_NN into_IN little_JJ daggers_NNS that_WDT somehow_VBP made_VBN me_PRP feel_VB worse_JJR instead_RB of_IN better_JJR ._. On_IN top_NN of_IN struggling_VBG with_IN a_DT major_JJ progression_NN of_IN my_PRP$ rheumatoid_NN arthritis_NN ,_, I_PRP was_VBD also_RB having_VBG a_DT difficult_JJ time_NN accepting_VBG the_DT full_JJ extent_NN of_IN my_PRP$ depression_NN ._. And_CC as_IN is_VBZ often_RB the_DT case_NN with_IN depression_NN ,_, my_PRP$ mind_NN was_VBD constantly_RB tricking_VBG itself_PRP into_IN believing_VBG that_IN I_PRP was_VBD more_RBR comfortable_JJ staying_VBG where_WRB I_PRP was_VBD ,_, than_IN trying_VBG to_TO dig_VB myself_PRP out_IN of_IN the_DT emotional_JJ hole_NN that_IN I_PRP was_VBD in_IN ._. “_VB Too_NNP difficult_JJ ”_NNP ,_, “_NNP not_RB possible_JJ ”_NN and_CC “_NN I_PRP ca_MD n't_RB ”_VB were_VBD phrases_NNS that_IN all_DT too_RB often_RB floated_VBN around_IN in_IN my_PRP$ head_NN ._. So_RB when_WRB helping_VBG hands_NNS were_VBD offered_VBN ,_, I_PRP often_RB found_VBD it_PRP much_RB easier_JJR to_TO snap_VB at_IN them_PRP ._. “_VB I_PRP do_VBP n't_RB need_VB help_NN ._. I_PRP can_MD help_VB myself._VB ”_NNP So_NNP true_JJ ,_, yet_RB so_RB false_JJ at_IN the_DT same_JJ time_NN ._. I_PRP could_MD help_VB myself…but_VB I_PRP would_MD need_VB help_NN in_IN doing_VBG so_RB ._. I_PRP started_VBD seeking_VBG the_DT help_NN that_IN I_PRP needed_VBD ._.</t>
-  </si>
-  <si>
-    <t>At_IN the_DT start_NN of_IN Yasuko_NNP Yokoshi_NNP ’_NNP s_VBD “_NNP Tyler_NNP Tyler_NNP ,_, ”_VBZ a_DT woman_NN in_IN a_DT long_JJ ,_, full_JJ skirt_NN enters_NNS with_IN slow_NN ,_, almost_RB ritualistic_JJ pacing_NN and_CC places_VBZ a_DT tiny_JJ toy_NN piano_NN on_IN the_DT floor_NN ._. A_DT man_NN (_( Kuniya_NNP Sawamura_NNP )_) in_IN traditional_JJ costume_NN kneels_NNS close_RB to_TO her_PRP$ and_CC begins_VBZ to_TO move_VB with_IN subtle_JJ twistings_NNS and_CC dippings_NNS of_IN the_DT upper_JJ body_NN as_IN she_PRP sings_VBZ in_IN Japanese_JJ ._. In_IN the_DT next_JJ scene_NN ,_, Ms._NNP Yokoshi_NNP reverses_VBZ that_IN scenario_NN :_: The_DT man_NN ,_, Naoki_NNP Asaji_NNP ,_, sits_VBZ at_IN the_DT piano_NN but_CC sings_VBZ the_DT Carpenters_NNP ’_NNP “_NNP Yesterday_NN Once_RB More_JJR ”_JJ as_IN the_DT woman_NN (_( Julie_NNP Alexander_NNP )_) performs_VBZ sweeping_JJ ,_, dramatic_JJ runs_NNS and_CC falls_NNS ,_, her_PRP$ legs_NNS whipping_VBG up_RP ,_, skirt_NN swirling_NN ._. Kayvon_NNP Pourazar_NNP ,_, in_IN jeans_NNS and_CC blue_JJ shirt_NN ,_, kneels_NNS ,_, his_PRP$ contained_JJ hand_NN gestures_NNS suggestive_VBP of_IN a_DT tea-drinking_JJ ceremony_NN ._. The_DT game_NN plan_NN is_VBZ clear_JJ :_: “_NN Tyler_NNP Tyler_NNP ,_, ”_NNP which_WDT opened_VBD at_IN Dance_NNP Theater_NNP Workshop_NNP on_IN Wednesday_NNP night_NN ,_, will_MD explore_VB the_DT conflation_NN of_IN traditional_JJ Japanese_JJ and_CC contemporary_JJ Western_JJ dances_NNS and_CC cultures_NNS ._. And_CC Ms._NNP Yokoshi_NNP maintains_VBZ tight_JJ control_NN of_IN that_DT objective_NN as_IN ,_, with_IN calculated_JJ slowness_NN ,_, she_PRP draws_VBZ her_PRP$ audience_NN ever_RB closer_RBR to_TO the_DT opaque_JJ deliberations_NNS taking_VBG place_NN onstage_NN ._. “_CC Tyler_NNP Tyler_NNP ”_NNP makes_VBZ you_PRP notice_VBP the_DT nuances_NNS of_IN the_DT traditional_JJ dance_NN Kabuki_NNP Su-odori_NNP ,_, which_WDT Ms._NNP Yokoshi_NNP learned_VBD from_IN the_DT master_NN teacher_NN Masumi_NNP Seyama_NNP ._. It_PRP is_VBZ revered_VBN for_IN its_PRP$ purity_NN and_CC simplicity_NN ,_, performed_VBN without_IN the_DT facial_JJ makeup_NN and_CC dramatic_JJ gestures_NNS of_IN traditional_JJ Kabuki_NNP ._. The_DT dance_NN at_IN first_JJ looks_VBZ minimal_JJ ;_: a_DT matter_NN of_IN tiny_JJ ,_, incremental_JJ shifts_NNS of_IN position_NN ._. Then_RB you_PRP begin_VBP to_TO see_VB the_DT smooth-as-silk_JJ wrists_NNS that_IN twist_NN and_CC unfold_VB their_PRP$ fans_NNS with_IN purpose_NN ,_, the_DT minute_NN adjustments_NNS of_IN posture_NN and_CC inclination_NN ,_, the_DT hinted-at_JJ emotions_NNS ,_, the_DT perfect_JJ necessity_NN of_IN each_DT gesture_NN ._. Against_IN this_DT ,_, the_DT contemporary_JJ dance_NN passages_NNS —_VBP small_JJ ,_, intent_JJ movements_NNS from_IN Ms._NNP Alexander_NNP and_CC Mr._NNP Pourazar_NNP (_( who_WP also_RB perform_VBP in_IN the_DT Su-odori_NNP style_NN )_) —_NN feel_VBP far_RB more_JJR lightweight_JJ ,_, even_RB though_IN the_DT correspondences_NNS between_IN the_DT two_CD forms_NNS are_VBP notable_JJ ._. In_IN the_DT most_RBS theatrical_JJ passage_NN ,_, Ms._NNP Yokoshi_NNP memorably_RB fuses_VBZ both_DT elements_NNS as_IN Mr._NNP Asaji_NNP recites_VBZ a_DT passage_NN from_IN the_DT 12th-century_JJ epic_NN “_VBZ The_DT Tale_NNP of_IN the_DT Heike._NNP ”_NNP There_EX are_VBP parts_NNS of_IN “_NNP Tyler_NNP Tyler_NNP ,_, ”_NNP which_WDT has_VBZ been_VBN beautifully_RB lighted_VBN by_IN Ayumu_NNP (_( Poe_NNP )_) Saegusa_NNP ,_, that_IN feel_NN less_CC coherent_NN ._. But_CC all_DT in_IN all_DT ,_, the_DT work_NN is_VBZ a_DT considerable_JJ achievement_NN that_WDT takes_VBZ up_RP residence_NN in_IN the_DT memory_NN and_CC lingers_NNS ,_, its_PRP$ details_NNS slowly_RB becoming_VBG clearer_NN ,_, its_PRP$ mysteries_NNS more_RBR resonant_JJ ._.</t>
-  </si>
-  <si>
-    <t>so_IN me_PRP came_VBD finally_RB !_. !_. !_. !_. ere_RB i_JJ am_VBP to_TO write_VB testi_NN bout_IN this_DT RA_NNP RA_NNP of_IN our_PRP$ col_NN ..._: so_RB wer_JJR to_TO start_VB ?_. ?_. ?_. ?_. ok_JJ let_VB me_PRP start_VB my_PRP$ script.._NN She_PRP is_VBZ a_DT great_JJ dancer.._NN always_RB dances_VBZ in_IN the_DT class.._NN big_JJ eyes_NNS !_. !_. and_CC accordin_VB to_TO SVCE_NNP she_PRP is_VBZ the_DT topper_NN of_IN our_PRP$ class.._NN ever_RB enthusiastic_JJ person.._NN keeps_NNS kalaichifyin_VBD everyone.._CC its_PRP$ fun_NN to_TO be_VB with_IN her.._JJ first_JJ bencher_NN of_IN our_PRP$ class_NN ..._: wat_NN else_RB ?_. ?_. ?_. very_RB studious.._JJ no_DT one_NN can_MD beat_VB her_PRP$ involvement_NN in_IN mass_NN transfer_NN class.._NN i_NN sit_NN behind_IN her_PRP$ and_CC she_PRP turns_VBZ out_RP to_TO be_VB the_DT one_NN who_WP gets_VBZ disturbed_VBN by_IN me_PRP the_DT max.._NN we_PRP were_VBD the_DT ones_NNS who_WP fight_VBP a_DT lot_NN durin_VBZ the_DT early_JJ days_NNS of_IN our_PRP$ col_NN but_CC now_RB i_JJ kno_VBP we_PRP have_VBP come_VBN a_DT long_JJ way_NN as_IN good_JJ frens.._NN Sathish_NNP sir_NN turns_VBZ out_RP to_TO be_VB her_PRP$ favourite_JJ play_NN spot.._NN she_PRP does_VBZ al_JJ mix_NN and_CC match_NN with_IN her_PRP$ dresses.._NN she_PRP has_VBZ won_VBN lots_NNS of_IN awards_NNS in_IN roastin_NN nuts_NNS ..._: geth_VBZ girl_NN of_IN our_PRP$ class_NN ..._: i_JJ think_VBP i_JJ av_VBP given_VBN a_DT sketch_NN bout_IN this_DT girl_NN !_. !_. !_. !_. al_IN the_DT best_JJS dear.._NN ave_VBP a_DT colourful_JJ future_NN and_CC dont_NN forget_VB me_PRP yaar_VB</t>
-  </si>
-  <si>
-    <t>It_PRP was_VBD suggested_VBN by_IN a_DT close_JJ friend_NN that_IN I_PRP add_VBP Google_NNP AdSense_NNP to_TO the_DT blog_NN and_CC then_RB donate_VB the_DT proceeds_NNS to_TO a_DT Farm_NN to_TO School_NNP initiative_NN or_CC another_DT group_NN ._. I_PRP 'm_VBP getting_VBG enough_JJ traffic_NN here_RB that_IN I_PRP could_MD raise_VB a_DT couple_NN hundred_CD dollars_NNS per_IN month_NN just_RB based_VBN upon_IN people_NNS landing_VBG on_IN the_DT site_NN (_( clicking_VBG not_RB required_VBN )_) ._. Although_IN I_PRP like_VBP the_DT idea_NN of_IN donating_VBG to_TO a_DT worthy_JJ cause_NN ,_, I_PRP do_VBP n't_RB feel_VB comfortable_JJ adding_VBG ads_NNS to_TO the_DT blog_NN ._. To_TO me_PRP having_VBG ads_NNS undermines_IN the_DT whole_JJ point_NN of_IN what_WP I_PRP 'm_VBP doing_VBG as_IN an_DT individual_NN to_TO raise_VB awareness_NN ._. On_IN the_DT other_JJ hand_NN ,_, giving_VBG money_NN to_TO something_NN that_WDT does_VBZ agree_VB with_IN the_DT tenets_NNS of_IN the_DT blog_NN is_VBZ appealing_VBG ._. But_CC then_RB who_WP would_MD I_PRP choose_VB and_CC should_MD I_PRP rotate_VB on_IN a_DT monthly_JJ basis_NN to_TO various_JJ agencies_NNS ..._: ._. I_PRP 'd_MD like_VB to_TO have_VB a_DT ``_`` show_NN of_IN hands_NNS ''_'' of_IN my_PRP$ readership_NN so_IN I_PRP 'm_VBP going_VBG to_TO add_VB a_DT poll_NN to_TO the_DT right-hand_JJ side_NN of_IN the_DT blog_NN ._. You_PRP are_VBP welcome_JJ to_TO comment_VB as_RB well_RB ._.</t>
-  </si>
-  <si>
-    <t>I_PRP certainly_RB hope_VBP AIPAC_NNP comes_VBZ to_TO its_PRP$ senses_NNS soon_RB ._. But_CC I_PRP suspect_VBP it_PRP wants_VBZ a_DT showdown_NN with_IN the_DT Obama_NNP Administration_NNP ,_, which_WDT ,_, unlike_IN its_PRP$ Bush_NNP predecessor_NN ,_, has_VBZ stood_VBN with_IN the_DT rest_NN of_IN the_DT world_NN in_IN requesting_VBG that_IN Israel_NNP adhere_RB to_TO Road_NNP Map_NNP laid_VBD out_RP by_IN the_DT so-called_JJ quartet_NN (_( the_DT U.S._NNP ,_, E.U._NNP ,_, U.N._NNP and_CC Russia_NNP )_) ,_, a_DT plan_NN the_DT West_NNP Bank_NNP Palestinians_NNP seem_VBP to_TO be_VB taking_VBG seriously_RB ._. This_DT is_VBZ an_DT attempt_NN by_IN AIPAC_NNP to_TO show_VB muscle_NN and_CC force_VB the_DT Obama_NNP Administration_NNP to_TO back_VB down_RP :_: Israel_NNP has_VBZ tremendous_JJ support_NN in_IN the_DT United_NNP States_NNPS ,_, especially_RB among_IN Evangelicals_NNS (_( who_WP believe_VBP that_IN the_DT achievement_NN of_IN a_DT Greater_NNP Israel_NNP --_: that_WDT is_VBZ ,_, the_DT annexation_NN of_IN Palestinian_JJ lands_NNS --_: would_MD be_VB a_DT precursor_NN of_IN the_DT Rapture_NNP )_) ._.</t>
-  </si>
-  <si>
-    <t>I_PRP 've_VBP been_VBN reading_VBG Marya_NNP 's_POS book_NN again_RB ._. The_DT last_JJ time_NN I_PRP read_VBP it_PRP ,_, it_PRP triggered_VBD me_PRP into_IN a_DT summer_NN of_IN long-term_JJ fasts_NNS (_( lost_VBN 20_CD pounds_NNS in_IN 3_CD months_NNS )_) ,_, so_IN I_PRP 'm_VBP wondering_VBG what_WP will_MD happen_VB to_TO me_PRP now_RB that_IN ``_`` I_PRP 've_VBP been_VBN rehabilitated_VBN ._. ''_'' It_PRP 's_VBZ such_JJ a_DT wonderful_JJ account_NN of_IN her_PRP$ journey_NN ._. Those_DT of_IN you_PRP who_WP 've_VBP commented_VBN that_IN you_PRP enjoy_VBP reading_VBG my_PRP$ stuff_NN ,_, I_PRP HIGHLY_VBP recommend_VB you_PRP read_VB this_DT book_NN ._. She_PRP 's_VBZ a_DT fucking_JJ fantastic_JJ writer_NN ._. She_PRP 's_VBZ a_DT freakin_NN '_'' phenom_NN ,_, and_CC I_PRP aspire_VBP to_TO be_VB her_PRP$ one_CD day_NN ._. I_PRP 'm_VBP not_RB in_IN ana-mode_JJ right_NN now_RB ._. No_UH ._. Not_RB that_IN I_PRP do_VBP n't_RB want_VB to_TO ._. I_PRP 've_VBP been_VBN back_RB out_IN on_IN my_PRP$ own_JJ for_IN several_JJ months_NNS now_RB ,_, but_CC I_PRP 'm_VBP still_RB not_RB entirely_RB sure_JJ that_IN I_PRP 'm_VBP not_RB being_VBG watched_VBN ._. But_CC I_PRP can_MD see_VB the_DT ana_NN creeping_VBG back_RB in_IN ._. I_PRP 'm_VBP back_RB to_TO my_PRP$ daily_JJ routine-making_NN ,_, gaining_VBG control_NN ._. I_PRP 've_VBP been_VBN having_VBG a_DT bowl_NN of_IN cereal_NN for_IN breakfast_NN (_( 300_CD cals_NNS )_) ,_, a_DT salad_NN for_IN lunch_NN (_( 440_CD cals_NNS )_) ,_, and_CC a_DT latte_NN for_IN dinner_NN (_( 260_CD cals_NNS )_) ,_, followed_VBN by_IN 8-10_JJ miles_NNS at_IN the_DT gym_NN (_( 950_CD cals_NNS )_) every_DT day_NN for_IN the_DT past_JJ few_JJ weeks_NNS ._. Some_DT days_NNS work_NN has_VBZ gotten_VBN in_IN the_DT way_NN ,_, and_CC I_PRP 've_VBP had_VBN to_TO switch_VB to_TO have_VB the_DT latte_NN for_IN lunch_NN and_CC the_DT salad_NN for_IN dinner_NN ._. And_CC weekends_NNS are_VBP way_NN harder_NN when_WRB I_PRP 'm_VBP out_RP with_IN friends_NNS ._. But_CC for_IN the_DT most_JJS part_NN I_PRP 've_VBP been_VBN able_JJ to_TO stick_VB to_TO it_PRP ._. I_PRP 'm_VBP not_RB weighing_VBG myself_PRP ._. The_DT scale_NN is_VBZ in_IN the_DT bathroom_NN ,_, and_CC it_PRP 's_VBZ a_DT struggle_NN in_IN my_PRP$ head_NN every_DT morning_NN deciding_VBG whether_IN to_TO look_VB or_CC not_RB ._. I_PRP do_VBP n't_RB want_VB to_TO know_VB ._. I_PRP just_RB know_VBP that_IN I_PRP 'm_VBP not_RB even_RB close_RB to_TO my_PRP$ all-time_JJ low_JJ weight_NN ,_, so_IN I_PRP know_VBP I_PRP 'll_MD hate_VB myself_PRP and_CC relaspe_VB for_IN sure_JJ if_IN I_PRP look_VBP ._. I_PRP 'm_VBP scared_JJ to_TO look_VB ._. But_CC I_PRP 'm_VBP dying_VBG to_TO know_VB ._. I_PRP hate_VBP myself_PRP ._. A_DT little_JJ bit_NN of_IN trauma_NN in_IN my_PRP$ life_NN lately_RB ._. Same_NNP boy_NN who_WP left_VBD me_PRP for_IN ``_`` fat_JJ cow_NN ''_'' ,_, then_RB broke_VBD up_RP with_IN her_PRP$ in_IN November_NNP just_RB shortly_RB after_IN I_PRP got_VBD sent_VBN away_RB ,_, then_RB tried_VBD to_TO get_VB back_RB with_IN me_PRP when_WRB I_PRP got_VBD out_RP ..._: has_VBZ n't_RB talked_VBN to_TO me_PRP for_IN about_IN 3_CD months_NNS ._. I_PRP was_VBD ok_JJ with_IN that_DT ._. Until_IN last_JJ week_NN when_WRB he_PRP randomly_RB decided_VBD to_TO call_VB me_PRP up_RP for_IN dinner_NN ,_, only_RB to_TO let_VB me_PRP know_VB that_IN he_PRP 'd_MD met_VB another_DT girl_NN and_CC he_PRP 's_VBZ going_VBG to_TO marry_VB her_PRP ._. (_( SFX_NNP bomb-drop_NN )_) Not_RB that_IN I_PRP ever_RB really_RB expected_VBN to_TO marry_VB him_PRP ,_, but_CC shit_RB ._. Who_WP decides_VBZ to_TO marry_VB someone_NN after_IN only_RB 3_CD or_CC 4_CD dates_NNS ?_. Apparently_RB he_PRP does_VBZ ._. So_VB yeah_UH ,_, that_DT 's_VBZ been_VBN a_DT little_JJ bit_NN triggering_VBG ._. Had_VBD a_DT helluva_JJ 11-mile_JJ run_NN at_IN the_DT gym_NN that_WDT night_NN ._. But_CC unfortunately_RB that_IN tipped_VBD me_PRP over_IN the_DT edge_NN :_: I_PRP twisted_VBD my_PRP$ right_JJ hip_NN and_CC it_PRP 's_VBZ been_VBN aggravated_VBN since_IN ,_, keeping_VBG me_PRP from_IN going_VBG to_TO the_DT gym_NN the_DT past_JJ 5_CD days_NNS ._. So_RB trauma_JJ is_VBZ just_RB that_RB much_RB more_JJR ..._: shitty_NN ._. I_PRP hate_VBP this_DT life_NN ._. Why_WRB do_VBP I_PRP bother_VB to_TO persist_VB ?_.</t>
-  </si>
-  <si>
-    <t>If_IN you_PRP have_VBP a_DT portable_JJ computer_NN I_PRP 'd_MD recommend_VB using_VBG Avast_NNP Anti-Virus_NNP with_IN Windows_NNP Defender_NNP (_( install_JJ by_IN default_NN on_IN Vista_NNP &amp;_CC Win7_NNP )_) ._. Also_RB make_VBP sure_JJ you_PRP keep_VBP update_JJ date_NN with_IN all_DT system_NN patches_NNS by_IN using_VBG Windows_NNP Update_NNP (_( if_IN using_VBG windows_NNS )_) ,_, or_CC using_VBG the_DT updater_NN provided_VBD with_IN Mac_NNP or_CC Linux_NNP ._. You_PRP can_MD get_VB ClamAV_NNP for_IN Linux_NNP ,_, I_PRP do_VBP n't_RB really_RB know_VB what_WP you_PRP could_MD use_VB for_IN ,_, I_PRP 'm_VBP sure_JJ someone_NN else_RB could_MD recommend_VB for_IN Mac_NNP :_: )_) ._. As_IN for_IN a_DT firewall_NN I_PRP just_RB rely_RB on_IN Avast_NNP (_( Free_NNP )_) to_TO block_VB intrusions_NNS on_IN my_PRP$ laptop_NN ,_, normally_RB picks_VBZ them_PRP up_RP well_RB especially_RB with_IN its_PRP$ new_JJ silent_JJ firewall_NN ._. Both_DT Avast_NNP and_CC ClamAV_NNP have_VBP free_JJ versions_NNS ._. I_PRP like_IN the_DT free_JJ Avast_NNP as_RB well_RB as_IN it_PRP 's_VBZ not_RB too_RB intrusive_JJ in_IN the_DT way_NN that_IN it_PRP tries_VBZ to_TO advertise_VB its_PRP$ paid_JJ versions_NNS unlike_IN other_JJ AVs_NNP ._.</t>
-  </si>
-  <si>
-    <t>Even_RB though_IN I_PRP do_VBP n't_RB have_VB time_NN to_TO sit_VB and_CC write_VB ,_, I_PRP am_VBP gon_VBG na_TO do_VB it_PRP anyway_RB ._. Maybe_RB after_IN the_DT New_NNP Year_NNP ,_, I_PRP 'll_MD get_VB back_RB to_TO writing_VBG ._. I_PRP know_VBP I_PRP 've_VBP said_VBD it_PRP before_IN but_CC I_PRP can_MD feel_VB words_NNS developing_VBG in_IN my_PRP$ mind_NN and_CC an_DT urge_NN to_TO sit_VB and_CC write_VB is_VBZ stirring_VBG a_DT little_JJ ._. It_PRP 's_VBZ been_VBN a_DT difficult_JJ year_NN ._. May_NNP be_VB 2010_CD will_MD be_VB brighter_RB ._. I_PRP know_VBP some_DT major_JJ changes_NNS will_MD be_VB made_VBN and_CC have_VBP already_RB started_VBN ..._: Granny_NNP is_VBZ now_RB in_IN a_DT nursing_NN home_NN that_WDT has_VBZ a_DT special_JJ Alzheimer_NNP 's_POS unit_NN ._. The_DT Friday_NNP after_IN T-day_NNP ,_, she_PRP got_VBD out_RB of_IN her_PRP$ house_NN at_IN 12:30_CD am_VBP and_CC was_VBD n't_RB found_VBN until_IN 8:30_CD am_VBP ._. Her_PRP$ core_NN temp_NN was_VBD 91_CD and_CC she_PRP was_VBD in_IN intensive_JJ care_NN for_IN a_DT few_JJ days_NNS ._. Luckily_NNP she_PRP survived_VBD ._. It_PRP was_VBD cold_VBN but_CC not_RB below_IN freezing_VBG all_PDT that_DT night_NN ._. The_DT irony_NN of_IN it_PRP all_DT was_VBD that_IN she_PRP had_VBD ventured_VBN across_IN the_DT road_NN over_IN towards_NNS where_WRB some_DT construction_NN had_VBD been_VBN going_VBG on_IN ._. She_PRP fell_VBD behind_IN some_DT heavy_JJ brush_NN and_CC could_MD n't_RB get_VB up_RP ._. It_PRP 's_VBZ amazing_JJ she_PRP lived_VBD ,_, especially_RB since_IN she_PRP was_VBD only_RB wearing_VBG a_DT thin_JJ nightie_NN ,_, no_DT shoes_NNS or_CC socks_NNS ._. But_CC luckily_RB for_IN us_PRP she_PRP is_VBZ in_IN good_JJ hands_NNS now_RB and_CC has_VBZ no_DT major_JJ damage_NN done_VBN to_TO her_PRP$ body_NN due_JJ to_TO the_DT hyperthermia_NN she_PRP sufferred_VBD ._. Mom_NN was_VBD told_VBN that_IN Granny_NNP has_VBZ the_DT vitals_NNS of_IN a_DT teenager_NN ._. You_PRP know_VBP ..._: God_NNP does_VBZ take_VB care_NN of_IN his_PRP$ own_JJ ._. Granny_NNP was_VBD a_DT very_RB religious_JJ lady_NN all_DT of_IN her_PRP$ life_NN and_CC God_NNP wo_MD n't_RB forget_VB that_DT ._. Sam_NNP 's_POS better_JJR and_CC was_VBD working_VBG yesterday_NN ._. I_PRP did_VBD n't_RB have_VB time_NN to_TO call_VB and_CC check_VB on_IN him_PRP ._. Nor_CC have_VBP I_PRP had_VBD time_NN to_TO do_VB anything_NN fun_NN with_IN my_PRP$ chick_JJ friends_NNS ._. We_PRP may_MD have_VB dinner_NN one_CD night_NN this_DT week_NN to_TO share_NN a_DT drink_NN and_CC to_TO laugh_VB together_RB one_CD last_JJ time_NN before_IN the_DT New_NNP Year_NNP ._. My_PRP$ wish_JJ for_IN all_DT is_VBZ to_TO be_VB happy_JJ and_CC to_TO embrace_VB those_DT around_IN you_PRP whom_WP you_PRP love_VBP ._. Life_NNP is_VBZ so_RB short_JJ and_CC can_MD change_VB in_IN a_DT heartbeat_NN ._.</t>
-  </si>
-  <si>
-    <t>Feel_NNP Good…._NNP !_. !_. !_. :_: )_) Recently_RB i_VBN have_VBP seen_VBN a_DT video_NN which_WDT says_VBZ abt_IN the_DT secret_NN of_IN life_NN ..._: ._. tat_NN video_NN has_VBZ inspired_VBN me_PRP a_DT lot.._NN This_DT is_VBZ wat_JJ all_DT of_IN the_DT video_NN is_VBZ about_IN ..._: One_CD of_IN the_DT best_JJS feelings_NNS that_IN one_CD can_MD enjoy_VB is_VBZ to_TO Feel_VB Good_NNP ._. Feeling_VBG Good_JJ gives_VBZ all_PDT the_DT good_JJ feelings_NNS one_CD can_MD experience_VB in_IN life_NN ..._: either_CC could_MD be_VB ..._: ._. happiness_NN ,_, joy_NN ,_, love_NN ,_, gratitude_NN ,_, Appreciation_NNP ,_, optimism_NN ,_, belief_NN ,_, hope_NN ,_, contentment_NN ,_, passion_NN ..._: watever_RB Feeling_NNP Good_NNP makes_VBZ oneself_PRP to_TO aspire_VB watever_NN he_PRP or_CC she_PRP wants_VBZ to_TO be_VB ..._: ._. :_: )_) it_PRP involves_VBZ a_DT lot_NN of_IN positive_JJ energy_NN in_IN it_PRP ..._: to_TO make_VB tat_JJ happen_VB ..._: These_DT are_VBP the_DT toughest_JJS times_NNS the_DT world_NN is_VBZ facing_VBG now_RB ..._: ._. the_DT terrorism_NN ,_, the_DT financial_JJ crisis_NN ..._: or_CC anything_NN which_WDT disrupts_VBZ peace_NN ..._: presently_RB the_DT world_NN is_VBZ ever_RB bounding_VBG with_IN all_DT forms_NNS of_IN negative_JJ feeling.._NN either_DT could_MD be_VB greed_VBN ,_, guilt_NN ,_, revenge_NN ,_, jealous_JJ ,_, hatred_VBD ,_, frustration_NN .._IN these_DT forms_NNS of_IN feelings_NNS in_IN oneself_NN is_VBZ directly_RB or_CC indirectly_RB responsible_JJ for_IN the_DT present_JJ situation_NN of_IN the_DT world_NN ..._: so_RB let_VB all_DT of_IN us_PRP stop_VB blaming_VBG others_NNS ..._: stop_VB feeling_NN sad_JJ or_CC dejected_VBN of_IN the_DT current_JJ situation_NN ..._: stop_VB discussing_VBG abt_IN the_DT hard_JJ times_NNS ..._: stop_VB all_PDT the_DT negative_JJ things_NNS ..._: let_VB us_PRP all_DT be_VB +ve_VBN enough_RB to_TO encourage_VB about_IN the_DT good_JJ in_IN this_DT abundant_JJ world_NN ..._: ._. let_VB us_PRP all_DT feel_VBP good_JJ ..._: feeling_VBG good_JJ creates_NNS a_DT healthier_JJR society_NN ..._: and_CC thus_RB a_DT better_JJR world_NN ..._: so_RB from_IN now_RB on_IN ..._: feel_VB good_JJ about_IN everything_NN that_IN you_PRP are_VBP ..._: and_CC sure_VB the_DT world_NN around_IN you_PRP is_VBZ going_VBG to_TO change.._VB and_CC u_VB can_MD even_RB see_VB the_DT change_NN in_IN the_DT world_NN too_RB ..._: ._. :_: )_) FEEL_NNP GOOD_NNP ..._: TO_NNP HAVE_NNP A_NNP BETTER_NNP WORLD_NNP ..._: !_. !_. !_. NOTE_NN :_: CONCENTRATE_NN ON_RP WHAT_NNP YOU_NNP WANT_VBP RATHER_NNP THAN_NNP WHAT_NNP YOU_NNP DONT_NNP WANT_NNP ..._: thats_VBZ the_DT secret_NN of_IN life_NN ..._: ._. Spend_VB some_DT time_NN in_IN finding_VBG wat_NN you_PRP want_VBP in_IN life_NN ..._: ._. we_PRP have_VBP been_VBN always_RB spending_VBG time_NN thinking_VBG abt_JJ wat_NN we_PRP dont_VBP want_VBP in_IN life_NN ..._: i_JJ dont_VBP want_VBP less_JJR marks_NNS in_IN my_PRP$ exams_NN i_VBP dont_NN want_VBP to_TO lose_VB my_PRP$ job_NN ..._: we_PRP dont_VBP want_JJ wars_NNS to_TO happen_VB ..._: we_PRP hate_VBP terrorism_NN ..._: by_IN this_DT way_NN we_PRP all_DT are_VBP encouraging_VBG the_DT world_NN with_IN t_PDT the_DT thoughts_NN we_PRP have_VBP ..._: ._. ''_'' ALL_PDT THAT_IN WE_NNP ARE_NNP IS_VBZ THE_NNP RESULT_NNP OF_NNP WHAT_NNP WE_NNP HAVE_VBP THOUGHT_VBN ''_'' SO_IN OUR_NNP THOUGHTS_NNP DEFINE_NNP OUR_NNP WORLD_NNP</t>
-  </si>
-  <si>
-    <t>Third-pharmaceutical_JJ companies_NNS in_IN the_DT US_NNP subsidize_VB the_DT lower_JJR cost_NN of_IN research_NN drugs_NNS for_IN the_DT rest_NN of_IN the_DT world-especially_JJ those_DT countries_NNS with_IN universal_JJ coverage_NN ._. US_NNP pharmaceutical_JJ companies_NNS do_VBP all_PDT the_DT R_NNP &amp;_CC D_NNP and_CC FDA_NNP approval_NN process-other_NN countires_NNS are_VBP then_RB allowed_VBN to_TO buy_VB from_IN the_DT pharmaceutical_JJ companies_NNS in_IN bulk-increasing_JJ their_PRP$ residents_NNS savings_NNS ._. Allow_NNP pharmecutical_JJ companies_NNS a_DT percentage_NN cap_NN of_IN profit_NN for_IN US_JJ citizens_NNS say_VBP 10_CD %_NN -thus_JJ forcing_VBG them_PRP to_TO reap_VB their_PRP$ profits_NNS from_IN the_DT other_JJ countries_NNS around_IN the_DT world_NN ._. Make_VB other_JJ countries_NNS subsidize_VBP their_PRP$ share_NN of_IN the_DT pharmecutical_JJ companies_NNS ._. Once_RB they_PRP pay_VBP their_PRP$ fair_JJ share-they_NNS may_MD not_RB be_VB so_RB quick_JJ to_TO tout_VB the_DT benefits_NNS of_IN universal_JJ coverage_NN ._.</t>
-  </si>
-  <si>
-    <t>That_DT 's_VBZ the_DT second_JJ book_NN in_IN Timothy_NNP Zahn_NNP 's_POS trilogy_NN ._. I_PRP bet_VBD y'all_RB thought_VBN that_IN I_PRP 'd_MD forgotten_VB about_IN you_PRP concerning_VBG our_PRP$ fun_NN trips_NNS ._. I_PRP realize_VBP that_IN it_PRP 's_VBZ been_VBN a_DT while_NN since_IN our_PRP$ vacation_NN ,_, but_CC I_PRP might_MD as_RB well_RB post_IN the_DT pictures_NNS that_IN I_PRP was_VBD planning_VBG ._. The_DT delay_NN has_VBZ been_VBN caused_VBN by_IN our_PRP$ Village_NNP Missions_NNP conference_NN and_CC my_PRP$ presence_NN here_RB at_IN Zachary_NNP and_CC Brenda_NNP 's_POS house_NN ._. Hopefully_NNP I_PRP 'll_MD be_VB able_JJ to_TO post_VB some_DT pictures_NNS of_IN this_DT fun_NN soonish_JJ ,_, but_CC until_IN then_RB ,_, without_IN further_JJ ado_NN ,_, the_DT unveiling_NN of_IN our_PRP$ Seaworld_NNP pictures_VBZ ._. I_PRP 'm_VBP a_DT big_JJ fan_NN of_IN the_DT Orcas_NNP ._. They_PRP are_VBP much_RB more_RBR majestic_JJ than_IN their_PRP$ cousins_NNS :_: regulation_NN orcs_NN ._. I_PRP was_VBD pretty_RB sure_JJ ,_, beforehand_NN ,_, that_IN whaling_VBG was_VBD illegal_VBN in_IN most_JJS states_NNS these_DT days_NNS ,_, but_CC I_PRP certainly_RB enjoyed_VBD my_PRP$ portion_NN ._. There_EX 's_VBZ a_DT likelihood_NN that_IN I_PRP was_VBD a_DT bigger_JJR fan_NN of_IN the_DT Belugas_NNP than_IN of_IN anything_NN else_RB ._. For_IN whatever_WDT reason_NN ,_, the_DT all-white_JJ whales_NNS (_( or_CC the_DT all-black_JJ Pilot_NNP Whales_NNP which_WDT I_PRP have_VBP no_DT pictures_NNS of_IN )_) just_RB greatly_RB entertain_VBP me_PRP ._. Perchance_VB my_PRP$ monochromatic_JJ preferences_NNS reflect_VBP my_PRP$ worldview_NN ?_. Here_RB 's_VBZ a_DT good_JJ pic_NN of_IN Emily_NNP and_CC her_PRP$ Grandma_NNP looking_VBG at_IN said_VBD whales_NNS ._.</t>
-  </si>
-  <si>
-    <t>The_DT Mughals_NNP had_VBD a_DT dress_NN code_NN and_CC would_MD not_RB wear_VB the_DT pant/shirt_NN cause_NN mostly_RB non-believers_NNS would_MD wear_VB them_PRP ._. However_RB ,_, now_RB a_DT days_NNS even_RB our_PRP$ so-called_JJ Islamically_NNP established_VBN states_NNS have_VBP the_DT concept_NN of_IN the_DT western_JJ pant/shirt_NN deeply_RB engraved_VBN in_IN their_PRP$ societies_NNS ._. So_IN what_WP now_RB ?_. What_WP do_VB our_PRP$ youth_NN do_VB ?_. A_DT solution_NN can_MD be_VB to_TO take_VB these_DT western_JJ concepts_NNS and_CC ``_`` Islamisize_NNP ''_'' them_PRP ._. A_DT good_JJ example_NN would_MD be_VB clothing_VBG ._. Take_VB the_DT western_JJ pant/shirt_NN and_CC make_VB them_PRP longer_JJR ,_, and_CC looser_RB ._. As_IN Muslims_NNP we_PRP should_MD look_VB decent_JJ and_CC healthily_JJ smart_NN ,_, not_RB overly_RB dressed_VBN to_TO the_DT extreme_NN ._. And_CC Muslims_NNP we_PRP should_MD not_RB lose_VB our_PRP$ identity_NN in_IN the_DT process_NN ._.</t>
-  </si>
-  <si>
-    <t>Six_CD years_NNS later_RB I_PRP lay_VBP at_IN night_NN and_CC think_VB about_IN love_NN and_CC I_PRP have_VBP moved_VBN on_IN to_TO find_VB happiness_NN cause_NN that_WDT 's_VBZ what_WP she_PRP would_MD have_VB wanted_VBN ._. There_EX is_VBZ some_DT one_NN that_WDT I_PRP do_VBP love_RB now_RB ,_, and_CC would_MD give_VB her_PRP$ my_PRP$ heart_NN ._. I_PRP know_VBP I_PRP 'm_VBP not_RB handsome_JJ or_CC the_DT man_NN that_IN I_PRP was_VBD 6_CD yrs_NNS ago_RB with_IN my_PRP$ looks_NNS ._. But_CC my_PRP$ heart_NN is_VBZ big_JJ and_CC kind_NN ._. I_PRP would_MD never_RB be_VB mean_JJ to_TO her_PRP$ nor_CC make_VB her_PRP$ feel_NN sad_NN or_CC down_RB ._. I_PRP would_MD give_VB her_PRP$ the_DT world_NN and_CC so_RB much_JJ happiness_NN if_IN she_PRP would_MD be_VB mine_JJ ._. I_PRP know_VBP she_PRP 's_VBZ been_VBN hurt_VBN and_CC afraid_JJ but_CC with_IN me_PRP I_PRP would_MD protect_VB her_PRP$ and_CC be_VB there_RB every_DT day_NN ._. I_PRP lay_VBD awake_NN and_CC count_VB the_DT stars_NNS wondering_VBG why_WRB I_PRP 've_VBP been_VBN alone_RB for_IN so_RB long_JJ ._. I_PRP would_MD give_VB her_PRP$ my_PRP$ heart_NN cause_NN its_PRP$ who_WP she_PRP is_VBZ that_IN I_PRP care_VBP so_RB much_JJ about_IN ._. For_IN my_PRP$ heart_NN beats_VBZ for_IN her_PRP$ ._. I_PRP just_RB wonder_VB if_IN her_PRP$ heart_NN will_MD beat_VB next_JJ to_TO mine_VB ._.</t>
-  </si>
-  <si>
-    <t>With_IN Easter_NNP almost_RB on_IN it_PRP 's_VBZ way_NN I_PRP wanted_VBD to_TO be_VB sure_JJ that_IN I_PRP made_VBD some_DT beaded_VBN eggs_NNS this_DT year_NN ._. So_IN I_PRP thought_VBD what_WP better_JJR way_NN to_TO use_VB up_RP some_DT of_IN my_PRP$ Bead_NNP Stash_NNP ._. I_PRP used_VBD the_DT flower_NN motif_NN for_IN one_CD and_CC added_VBD some_DT daisies_NNS ._. The_DT other_JJ is_VBZ just_RB free_JJ form_NN ._. I_PRP do_VBP still_RB want_VB to_TO make_VB a_DT few_JJ more_JJR before_IN Easter_NNP if_IN I_PRP find_VBP the_DT time_NN ,_, but_CC here_RB 's_VBZ a_DT couple_NN of_IN them_PRP for_IN starters_NNS ._.</t>
-  </si>
-  <si>
-    <t>Mind_NNP keep_VB chewing_VBG old_JJ thoughts_NNS ,_, random_NN memories..turning_VBG the_DT essence_NN like_IN juice_NN savored_VBD slowly_RB swirled_VBN around_IN the_DT tongue…some_NN fragments_NNS stay_VBP stuck_VBN in_IN crevices_NNS between_IN teeth…lips_NNS smile_RB at_IN the_DT taste_NN of_IN the_DT memory…living_NN in_IN a_DT tiny_JJ body_NN perched_VBN on_IN a_DT tiny_JJ planet_NN rotating/revolving_NN in_IN a_DT set_NN path_NN in_IN a_DT universe_NN that_WDT is_VBZ moving_VBG in_IN a_DT hurry_NN somewhere_RB at_IN breakneck_NN speed….the_NN mind_NN gets_VBZ disoriented…too_RB many_JJ things_NNS flash_NN by_IN through_IN the_DT window_NN to_TO the_DT eternal_JJ space….even_NN though_IN there_EX is_VBZ stillness_JJ around…..we_RB live_VBP stacked_VBN upon_IN each_DT other_JJ and_CC feelings_NNS and_CC thoughts_NNS struggle_NN in_IN the_DT crowd_NN to_TO breathe_VB ,_, suddenly_RB there_EX comes_VBZ a_DT break_NN as_IN when_WRB the_DT train_NN rushes_NNS suddenly_RB through_IN a_DT country_NN side…we_VBZ breathe_JJ fresh_JJ air….like_IN caressing_VBG strands_NNS of_IN old_JJ music_NN drifting_VBG aimlessly_RB with_IN the_DT breeze_NN ,_, like_IN an_DT unanticipated_JJ unadulterated_JJ kiss_NN in_IN the_DT middle_NN of_IN a_DT mundane-any-other-day_JJ ,_, like_IN the_DT fleeting_NN smile_NN on_IN the_DT lips_NNS of_IN a_DT sleeping_NN puppy_NN ..._: the_DT stink_NN becomes_VBZ just_RB a_DT memory_NN for_IN a_DT few_JJ seconds….and_NN eyes_NNS begin_VBP to_TO sparkle_VB looking_VBG ahead…making_VBG soft_JJ dreams_NNS out_IN of_IN all_DT that_WDT is_VBZ left_VBN and_CC all_DT that_WDT is_VBZ gathered_VBN new_JJ ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ name_NN is_VBZ Lala_NNP Ema_NNP ._. I_PRP ’_VBP m_JJ French_JJ with_IN Malagasy_NNP origins_NNS ._. I_PRP was_VBD born_VBN and_CC raised_VBN in_IN Aix-en-Provence_NNP then_RB lived_VBD in_IN Paris_NNP until_IN I_PRP moved_VBD to_TO the_DT south_NN of_IN Granada_NNP in_IN Andalucia_NNP (_( Spain_NNP )_) ._. I_PRP love_VBP this_DT city_NN and_CC although_IN I_PRP sometimes_RB miss_VBP the_DT buzz_NN of_IN the_DT city_NN life_NN and_CC my_PRP$ dear_JJ old_JJ Paris_NNP ,_, my_PRP$ heart_NN is_VBZ taken_VBN for_IN ever_RB by_IN Andalucia_NNP and_CC my_PRP$ Spanish_JJ boyfriend.I_NN 'm_VBP a_DT designer_NN and_CC recently_RB started_VBD an_DT activity_NN as_IN a_DT wedding_NN planner_NN in_IN Granada_NNP ._.</t>
-  </si>
-  <si>
-    <t>Then_RB I_PRP went_VBD out_RP a_DT bought_VBD a_DT new_JJ truck_NN that_WDT had_VBD XM_NNP built_VBN in_IN ._. At_IN first_JJ I_PRP missed_VBD being_VBG able_JJ to_TO see_VB the_DT name_NN of_IN the_DT artist_NN and_CC the_DT song_NN at_IN the_DT same_JJ time_NN ,_, and_CC I_PRP missed_VBD not_RB being_VBG able_JJ to_TO set_VB it_PRP to_TO tune_VB to_TO certain_JJ songs_NNS or_CC artists_NNS that_IN I_PRP liked_VBD to_TO hear_VB more_JJR than_IN others_NNS ..._: but_CC I_PRP got_VBD over_IN it_PRP !_.</t>
-  </si>
-  <si>
-    <t>If_IN you_PRP ’_VBP re_VB showcasing_VBG a_DT product_NN on_IN your_PRP$ website_NN or_CC in_IN a_DT print_NN ad_NN ,_, you_PRP can_MD make_VB it_PRP look_VB more_RBR professional_JJ by_IN giving_VBG it_PRP a_DT decent_JJ background_NN and_CC by_IN adding_VBG a_DT few_JJ special_JJ effects_NNS ._. For_IN my_PRP$ “_JJ product_NN ,_, ”_VBP I_PRP ’_VBP m_JJ using_VBG a_DT photograph_NN of_IN a_DT non-descript_JJ media_NNS player_NN which_WDT I_PRP downloaded_VBD for_IN free_JJ ,_, here_RB from_IN Stock_NNP Xchng_NNP ._. Thanks_NNS to_TO Pzado_NNP ._. 1_CD ._. Create_VB a_DT new_JJ Photoshop_NNP document_NN ._. For_IN this_DT example_NN ,_, set_VB it_PRP to_TO 800_CD x_NNS 600_CD pixels_NNS with_IN a_DT resolution_NN of_IN 72ppi_CD ._. 2_CD ._. Fill_VB the_DT entire_JJ document_NN with_IN black_JJ by_IN pressing_VBG D_NNP to_TO set_VB the_DT Foreground_NNP color_NN to_TO black_JJ and_CC then_RB pressing_VBG Alt_NNP +_NNP Backspace_NNP (_( windows_NNS )_) or_CC Option_NNP +_NNP Delete_NNP (_( Mac_NNP )_) ._. 3_CD ._. Select_VB the_DT Elliptical_NNP Marquee_NNP tool_NN from_IN the_DT toolbar_NN and_CC draw_VB out_RP a_DT circular_JJ marquee_NN ._. Hold_VB down_RP Shift_NNP to_TO constrain_VB it_PRP to_TO a_DT perfect_JJ circle_NN as_IN you_PRP drag_VBP ._. Fill_NNP the_DT circle_NN with_IN white_JJ ._. Press_NN Ctrl_NNP +_NNP D_NNP (_( windows_NNS )_) or_CC Cmd_NNP +_NNP D_NNP (_( Mac_NNP )_) to_TO deselect_VB the_DT circle_NN ._. 15_CD ._. Now_RB to_TO make_VB the_DT reflection_NN fade_VBD away_RP a_DT little_RB more_RBR authentically_RB ,_, we_PRP ’_VBP ll_JJ add_VB a_DT layer_NN mask_NN ._. Make_NNP sure_JJ your_PRP$ reflected_JJ layer_NN is_VBZ selected_VBN in_IN the_DT layers_NNS palette_VBP ,_, then_RB click_VB on_IN the_DT Add_NNP Layer_NNP Mask_NNP icon_NN at_IN the_DT bottom_NN of_IN the_DT Layers_NNP palette_NN ._. A_DT white_JJ thumbnail_NN appears_VBZ on_IN the_DT layer_NN ._. Click_NNP on_IN the_DT thumbnail_NN to_TO select_VB it_PRP ._. Now_RB select_VBP the_DT Gradient_NNP tool_NN and_CC choose_VB a_DT Foreground_NNP to_TO Background_NNP gradient_NN ._.</t>
-  </si>
-  <si>
-    <t>Does_NNP life_NN behind_IN the_DT mouthpiece_NN sometimes_RB feel_VBP like_IN there_EX 's_VBZ a_DT camera_NN on_IN the_DT front_NN of_IN your_PRP$ bell_NN ,_, and_CC you_PRP 're_VBP on_IN a_DT high_JJ speed_NN bobsled_VBD going_VBG ninety_NN miles_NNS an_DT hour_NN ?_. All_PDT the_DT notes_NNS are_VBP flying_VBG by_IN faster_JJR than_IN they_PRP can_MD be_VB processed_VBN ._. We_PRP 're_VBP on_IN a_DT race_NN desperately_RB trying_VBG to_TO maintain_VB control_NN ,_, dropping_VBG more_RBR notes_NNS than_IN we_PRP nail_VBP ._. Is_VBZ this_DT a_DT trumpet_NN or_CC a_DT runaway_JJ Toyota_NNP ?_. Somebody_NN help_NN !_. Remember_VB what_WP Dad_NNP did_VBD when_WRB the_DT family_NN would_MD get_VB lost_VBN on_IN vacation_NN trips_NNS ?_. He_PRP drove_VBD faster_RBR !_. Why_WRB is_VBZ it_PRP that_IN the_DT harder_JJR the_DT passage_NN ,_, the_DT faster_NN we_PRP go_VBP ?_. Instead_RB of_IN the_DT panic_JJ button_NN ,_, we_PRP should_MD hit_VB the_DT brakes_NNS ._. With_IN treacherous_JJ curves_NNS at_IN every_DT turn_NN ,_, cooler_JJR heads_NNS and_CC slower_JJR practice_NN speeds_NNS ought_MD to_TO prevail_VB ._. Dr._NNP Phil_NNP has_VBZ a_DT two-word_JJ remedy_NN for_IN this_DT ailment_NN :_: SLOW_NNP DOWN_NNP !_. Everything_NN improves_VBZ at_IN slower_JJR speeds_NNS ._. Notes_NNS can_MD be_VB seen_VBN ,_, heard_NN and_CC controlled_VBD much_RB better_RBR in_IN slow_JJ motion_NN ._. Think_NNP paycheck_NN ._. You_PRP only_RB get_VB paid_VBN for_IN well-played_JJ notes_NNS ,_, period_NN ._. Why_WRB not_RB perfect_VB as_IN many_JJ notes_NNS as_IN you_PRP can_MD at_IN your_PRP$ own_JJ comfortable_JJ tempo_NN ?_. High_JJ speeds_NNS may_MD be_VB resumed_VBN when_WRB conditions_NNS are_VBP safe_JJ ._.</t>
-  </si>
-  <si>
-    <t>An_DT ``_`` essential_JJ oil_NN ''_'' is_VBZ an_DT aromatic_JJ oil_NN extracted_VBN from_IN a_DT plant_NN ,_, the_DT concentrated_JJ essence_NN of_IN that_DT plant_NN ,_, and_CC these_DT oils_NNS (_( also_RB known_VBN as_IN volatile_JJ oils_NNS )_) are_VBP used_VBN in_IN aromatherapy_NN ,_, as_RB well_RB as_IN perfumes_NNS and_CC food_NN flavorings_NNS ._. In_IN aromatherapy_NN they_PRP are_VBP used_VBN in_IN a_DT number_NN of_IN different_JJ ways_NNS to_TO have_VB a_DT healing_JJ effect_NN on_IN the_DT body_NN ._. As_RB well_RB as_IN having_VBG a_DT physical_JJ benefit_NN ,_, using_VBG an_DT essential_JJ oil_NN in_IN massage_NN is_VBZ thought_VBN to_TO improve_VB a_DT person_NN ’_JJ s_JJ physical_JJ ,_, psychological_JJ and_CC emotional_JJ well_NN being_VBG in_IN different_JJ ways_NNS ,_, depending_VBG on_IN the_DT specific_JJ essential_JJ oil_NN (_( or_CC combination_NN of_IN oils_NNS )_) being_VBG used_VBN ._.</t>
-  </si>
-  <si>
-    <t>sundar_NN ..._: .wow_JJ u_NN will_MD really_RB njoy_VB being_VBG with_IN him_PRP ..._: .i_NN hav_NN not_RB been_VBN so_RB close_JJ with_IN himiin_JJ our_PRP$ school_NN days_NNS but_CC in_IN our_PRP$ higher_JJR secondary_JJ classes_NNS we_PRP had_VBD an_DT excellent_JJ time_NN together_RB ..._: he_PRP will_MD be_VB sitting_VBG right_JJ back_NN of_IN me_PRP and_CC keep_VB waiting_VBG to_TO comment_VB on_IN my_PRP$ words_NNS ..._: so_RB i_JJ hav_VBP to_TO look_VB around_IN to_TO see_VB if_IN he_PRP is_VBZ not_RB there_RB and_CC then_RB comment_NN ..._: :_: )_) ..._: .he_NN is_VBZ such_JJ a_DT talented_JJ guy_NN ..._: and_CC i_VB feel_VBP like_IN missing_VBG him_PRP a_DT lot_NN nowadays_NNS ..._: never_RB takes_VBZ anything_NN serious_JJ ..._: mmm_NN then_RB wat_VBD else_RB ..._: ma_PRP favourite_VBP in_IN school_NN ..._: ._. wan_VB na_JJ hav_NN happy_JJ moments_NNS in_IN ur_JJ life..make_NN this_DT fellow_JJ ur_JJ frnd_NN ..._: forget_VB me_PRP not_RB in_IN ur_JJ life_NN da_NN ..._: ..keep_JJ rocking_NN always_RB ..._: .._NN :_: )_) :_: )_) :_: )_) :_: )_)</t>
-  </si>
-  <si>
-    <t>Is_VBZ it_PRP all_DT really_RB for_IN everyone_NN else_RB ?_. Sometimes_RB at_IN University_NNP ,_, we_PRP discuss_VBP about_IN modern_JJ society_NN ._. It_PRP 's_VBZ a_DT Journalism_NNP course_NN ,_, so_IN we_PRP tend_VBP to_TO have_VB classes_NNS about_IN Sociology_NNP ,_, Midia_NNP and_CC Antropology_NNP as_RB well_RB ._. And_CC often_RB ,_, there_EX is_VBZ a_DT moment_NN where_WRB I_PRP am_VBP let_VB to_TO think_VB that_IN everything_NN we_PRP do_VBP ,_, all_PDT the_DT stuff_NN we_PRP buy_VBP and_CC the_DT way_NN we_PRP want_VBP our_PRP$ bodies_NNS to_TO look_VB is_VBZ not_RB for_IN us_PRP ,_, it_PRP is_VBZ not_RB something_NN only_RB for_IN our_PRP$ good_JJ ._. It_PRP is_VBZ for_IN everyone_NN else_RB ._. Our_PRP$ personality_NN ,_, what_WP we_PRP own_VBP and_CC how_WRB we_PRP look_VBP only_RB really_RB means_VBZ something_NN when_WRB the_DT other_JJ person_NN notices_NNS those_DT things_NNS ._. We_PRP live_VBP in_IN a_DT society_NN ;_: it_PRP 's_VBZ where_WRB we_PRP interact_VB ,_, share_NN moments_NNS ,_, live_VBP ._. And_CC how_WRB we_PRP are_VBP seen_VBN by_IN everyone_NN else_JJ matters_NNS ._. It_PRP really_RB does_VBZ ._. We_PRP want_VBP to_TO feel_VB part_NN of_IN the_DT whole_JJ group_NN ._. The_DT last_JJ thing_NN we_PRP want_VBP is_VBZ to_TO feel_VB left_VBN out_RP ._. So_IN we_PRP behave_VBP ,_, buy_VB and_CC aim_VB the_DT same_JJ goals_NNS in_IN life_NN ._. We_PRP all_DT want_VBP a_DT job_NN that_WDT will_MD make_VB us_PRP all_DT earn_VBP good_JJ money_NN ,_, we_PRP all_DT want_VBP to_TO look_VB good_JJ ._. We_PRP all_DT want_VBP to_TO be_VB accepted_VBN ._. Is_VBZ that_IN a_DT good_JJ thing_NN ?_. Those_DT who_WP go_VBP the_DT opposite_JJ way_NN tend_VBP to_TO be_VB belong_JJ to_TO the_DT groups_NNS most_JJS people_NNS would_MD n't_RB want_VB to_TO be_VB part_NN of_IN :_: the_DT poor_JJ ,_, the_DT fat_NN ,_, the_DT insane_NN ._. Is_VBZ it_PRP really_RB like_IN that_DT ?_. I_PRP would_MD like_VB to_TO think_VB we_PRP are_VBP better_JJR than_IN that_DT ._. We_PRP want_VBP to_TO belong_VB and_CC feel_VB welcome_JJ ,_, that_WDT is_VBZ true_JJ ._. But_CC do_VBP we_PRP really_RB need_VB to_TO consume_VB and_CC feel_VB like_IN the_DT way_NN we_PRP look_VBP always_RB need_VB improvement_NN ?_. Sometimes_RB ,_, would_MD n't_RB you_PRP just_RB like_IN to_TO not_RB care_VB ?_.</t>
-  </si>
-  <si>
-    <t>The_DT America-Israel_NNP Public_NNP Affairs_NNPS Committee_NNP (_( AIPAC_NNP )_) has_VBZ done_VBN a_DT very_RB unwise_JJ thing_NN :_: It_PRP has_VBZ issued_VBN a_DT statement_NN criticizing_VBG the_DT Obama_NNP Administration_NNP ,_, rather_RB than_IN Israel_NNP ,_, for_IN its_PRP$ reaction_NN to_TO the_DT Netanyahu_NNP government_NN 's_POS recent_JJ announcement_NN of_IN more_JJR illegal_JJ settlement_NN blocks_NNS in_IN East_NNP Jerusalem_NNP --_: an_DT announcement_NN that_WDT was_VBD made_VBN during_IN Vice_NNP President_NNP Joe_NNP Biden_NNP 's_POS visit_NN last_JJ week_NN ,_, an_DT act_NN of_IN extreme_JJ rudeness_NN on_IN top_NN of_IN its_PRP$ unquestioned_JJ illegality_NN ._.</t>
-  </si>
-  <si>
-    <t>Slickly_NNP produced_VBD programs_NNS were_VBD provided_VBN on_IN chairs_NNS ,_, but_CC it_PRP was_VBD too_RB dark_JJ for_IN ad_NN broads_NNS to_TO read_VB ,_, even_RB by_IN the_DT light_NN of_IN their_PRP$ iphones_NNS ._. So_RB I_PRP had_VBD no_DT idea_NN that_WDT Ad_NNP Broad_NNP was_VBD a_DT finalist_NN ._. Honestly_NNP ,_, had_VBD n't_RB seriously_RB considered_VBN that_IN a_DT blogspotter_NN who_WP ca_MD n't_RB speak_VB a_DT speck_NN of_IN html_NN could_MD be_VB thought_VBN of_IN as_IN a_DT ``_`` hero_NN of_IN the_DT internet_NN ._. ''_'' Halfway_NNP through_IN the_DT ceremony_NN ,_, my_PRP$ companion_NN and_CC housing_NN host_NN announced_VBD she_PRP was_VBD n't_RB well_RB (_( maybe_RB the_DT chicken-fried_JJ chicken_NN ?_. )_) and_CC I_PRP drove_VBD her_PRP home_NN ._. What_WP a_DT thrill_NN to_TO receive_VB news_NN (_( via_IN twitter_NN of_IN course_NN )_) that_WDT Ad_NNP Broad_NNP won_VBD in_IN the_DT Advertising_NNP blog_NN category.Congrats_NNS to_TO all_DT winners_NNS including_VBG Deep_JJ Focus_NNP ,_, Firstborn_NNP ,_, RGA_NNP and_CC others_NNS ._. Lucky_NNP for_IN us_PRP and_CC appropriate_VB to_TO the_DT category_NN that_IN prizes_NNS are_VBP items_NNS more_RBR practical_JJ than_IN dust-gathering_JJ engraved_JJ statuettes_NNS :_: flash_NN drives_NNS ._. Thanks_NNS to_TO you_PRP who_WP kindly_RB voted_VBD on_IN this_DT proposed_VBN panel_NN last_JJ Fall_NNP ,_, I_PRP 'm_VBP on_IN my_PRP$ way_NN to_TO Austin_NNP where_WRB @_NNP BettyDraper_NNP will_MD be_VB presenting_VBG a_DT session_NN on_IN Brand_NNP Fiction_NNP :_: what_WP the_DT heck_NN is_VBZ it_PRP ?_. What_WP can_MD it_PRP do_VB for_IN your_PRP$ brand_NN ?_. How_WRB to_TO integrate_VB it_PRP into_IN current_JJ marketing_NN efforts_NNS ?_. It_PRP 's_VBZ been_VBN recommended_VBN as_IN a_DT top_JJ SXSW_NNP panel_NN for_IN business_NN and_CC highlighted_VBN in_IN SXSWorld_NNP and_CC by_IN the_DT sharp_JJ folks_NNS at_IN Razorfish_NNP ._. If_IN you_PRP 're_VBP putting_VBG your_PRP$ SXSW_NNP schedule_NN together_RB ,_, hope_VBP you_PRP 'll_MD consider_VB joining_VBG @_NN Roger_Sterling_NNP (_( Michael_NNP Bissell_NNP )_) and_CC me_PRP at_IN 3:30_CD on_IN Saturday_NNP for_IN ``_`` Rules_NNP of_IN Brand_NNP Fiction_NNP from_IN Twittering_VBG Mad_NNP Men_NNP ._. ''_'' A_DT little_JJ fun_NN before_IN happy_JJ hour_NN !_. Brilliant_JJ marketing_NN move_NN for_IN two_CD companies_NNS :_: the_DT newest_JJS line_NN of_IN Barbies_NNS will_MD include_VB men-Mad_JJ Men_NNP ._. According_VBG to_TO the_DT New_NNP York_NNP Times_NNP today_NN</t>
-  </si>
-  <si>
-    <t>The_DT dinner_NN plates_VBZ began_VBD to_TO go_VB cold_JJ ._. Some_DT would_MD say_VB eat_NN while_IN you_PRP can_MD ._. Others_NNS would_MD say_VB as_RB long_RB as_IN you_PRP can_MD is_VBZ all_DT that_IN matters_NNS ._. The_DT masters_NNS of_IN the_DT world_NN know_VBP that_IN the_DT key_NN to_TO life_NN is_VBZ in_IN their_PRP$ hands_NNS ._. So_RB ,_, they_PRP pull_VBP the_DT strings_NNS and_CC manipulate_NN ._. Because_IN ,_, they_PRP know_VBP you_PRP 'll_MD jump_VB through_IN hoops_NNS to_TO get_VB what_WP they_PRP have_VBP ._. The_DT game_NN of_IN life_NN used_VBN to_TO be_VB survival_JJ ._. And_CC now_RB ,_, the_DT game_NN of_IN life_NN is_VBZ slavery_JJ ._. Ha_NNP ._. They_PRP say_VBP life_NN is_VBZ unfair_JJ ._. Well_NNP ,_, why_WRB do_VBP you_PRP think_VB that_DT is_VBZ ?_. Give_VB me_PRP more_JJR Britney_NNP Spears_NNP ._. Give_VB me_PRP more_JJR MTV_NNP and_CC TMZ_NNP ._. Tune_VB me_PRP into_IN your_PRP$ programs_NNS ._. My_PRP$ brain_NN is_VBZ still_RB unclean_JJ ._. It_PRP needs_VBZ more_RBR washing_NN ._. Whatta_NNP '_POS ya_NN '_'' say_VBP ,_, Uncle_NNP Sam_NNP ?_. Whatta_NNP '_POS ya_NN '_'' say_VBP Obama_NNP ?_. Ha_NNP ._. I_PRP 'm_VBP being_VBG puppeteered_VBN by_IN the_DT puppet_NN ._. You_PRP win_VBP America_NNP ._. We_PRP are_VBP your_PRP$ slaves_NNS ._. Now_RB hand_NN me_PRP that_IN big_JJ check_NN that_WDT is_VBZ n't_RB quite_RB big_JJ enough_RB and_CC dangle_VB the_DT food_NN above_IN me_PRP ._. Just_NNP do_VBP n't_RB get_VB comfortable_JJ ._. Karma_NNP will_MD come_VB to_TO collect_VB ._. Lololololololololzzzzzzzzzzzzzz_NNP ._. Fruits_NNS ._.</t>
-  </si>
-  <si>
-    <t>Aside_RB from_IN health_NN care_NN being_VBG a_DT right_NN not_RB a_DT privilege_NN we_PRP need_VBP to_TO get_VB a_DT CAP_NNP put_NN on_IN prescription_NN drug_NN prices_NNS ._. I_PRP recently_RB lost_VBD a_DT job_NN and_CC almost_RB had_VBD to_TO start_VB paying_VBG for_IN my_PRP$ injections_NNS out_IN of_IN pocket_NN (_( $_$ 498_CD per_IN injection_NN )_) one_CD per_IN week_NN ._. That_DT is_VBZ $_$ 1500_CD per_IN month_NN for_IN only_RB one_CD of_IN my_PRP$ prescriptions_NNS ._. When_WRB I_PRP took_VBD into_IN consideration_NN all_DT 5_CD of_IN them_PRP it_PRP would_MD cost_VB me_PRP almost_RB $_$ 3000_CD per_IN month_NN !_. What_WP would_MD be_VB the_DT alternative_JJ if_IN my_PRP$ husband_NN was_VBD not_RB able_JJ to_TO get_VB his_PRP$ insurance_NN to_TO pick_VB me_PRP up_RP ?_. Suffer_NNP and_CC die_VB ?_. No_DT wonder_NN you_PRP see_VBP so_RB many_JJ elderly_JJ people_NNS giving_VBG up_RP and_CC going_VBG into_IN crime_NN ._. WAKE_VB UP_RP BUSCH_NNP !_. !_. !_.</t>
-  </si>
-  <si>
-    <t>I_PRP was_VBD headed_VBN into_IN an_DT inferno_NN ,_, at_IN least_JJS ,_, that_DT was_VBD what_WP the_DT news_NN story_NN on_IN the_DT Internet_NNP led_VBD me_PRP to_TO believe_VB ._. It_PRP was_VBD old_JJ news_NN really_RB ,_, I_PRP remembered_VBD first_RB hearing_VBG about_IN the_DT fires_NNS burning_VBG across_IN the_DT Peloponnesian_NNP Peninsula_NNP when_WRB I_PRP was_VBD in_IN Rhodes_NNP a_DT few_JJ weeks_NNS before_IN ._. I_PRP had_VBD never_RB even_RB considered_VBN changing_VBG my_PRP$ plans_NNS due_JJ to_TO the_DT fires_NNS ,_, though_RB ._. After_IN all_DT ,_, I_PRP had_VBD lived_VBN for_IN many_JJ years_NNS in_IN California_NNP where_WRB forest_JJS fires_NNS were_VBD commonplace_NN and_CC I_PRP was_VBD only_RB going_VBG to_TO get_VB one_CD chance_NN of_IN ‘_NNP seeing_VBG ’_JJ six_CD of_IN the_DT Seven_NNP Wonders_NNP of_IN the_DT World_NNP before_IN it_PRP was_VBD time_NN to_TO go_VB home_NN ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ last_JJ three_CD flights_NNS booked_VBN on_IN JetBlue_NNP were_VBD all_DT cancelled_VBN ._. Without_IN notice_NN ._. Without_IN warning_VBG ._. No_DT phone_NN call_NN ._. No_DT email_NN ._. It_PRP has_VBZ been_VBN extremely_RB frustrating_JJ ._. While_IN I_PRP know_VBP flight_NN cancellations_NNS happen_VB ,_, I_PRP do_VBP expect_VB to_TO be_VB notified_VBN so_RB I_PRP do_VBP n't_RB get_VB all_DT the_DT way_NN to_TO the_DT airport_NN before_IN I_PRP find_VBP out_RP !_.</t>
-  </si>
-  <si>
-    <t>Lenovo_NNP has_VBZ built_VBN a_DT reputation_NN for_IN constructing_VBG quality_NN laptop_JJ keyboards_NNS ,_, as_IN evidenced_VBN by_IN those_DT found_VBN in_IN its_PRP$ ThinkPad_NNP and_CC IdeaPad_NNP lines_NNS ._. But_CC a_DT good_JJ keyboard_NN has_VBZ somehow_RB eluded_VBN its_PRP$ 10-inch_JJ netbook_NN line_NN until_IN now_RB ._. In_IN addition_NN to_TO getting_VBG new_JJ Intel_NNP parts_NNS ,_, the_DT Lenovo_NNP IdeaPad_NNP S10-3_NNP (_( $_$ 370_CD direct_NN )_) has_VBZ received_VBN a_DT full-size_JJ keyboard_NN and_CC the_DT kind_NN of_IN typing_VBG experience_NN that_WDT has_VBZ garnered_VBN praise_NN for_IN netbooks_NNS like_IN the_DT Editors_NNS '_POS Choice_NNP Toshiba_NNP mini_VBD NB305-N410_NNP (_( $_$ 400.00_CD Direct_NNP ,_, )_) and_CC the_DT HP_NNP Mini_NNP 5102_CD (_( $_$ 400_CD Direct_NNP ,_, )_) ._. Unfortunately_RB ,_, while_IN the_DT Toshiba_NNP NB305_NNP and_CC HP_NNP 5102_CD ,_, which_WDT have_VBP a_DT roomy_NN touchpad_NN and_CC soft_JJ mouse_NN buttons_NNS to_TO compliment_VB the_DT keyboards_NNS ,_, the_DT S10-3_NNP 's_POS one-piece_JJ touchpad_NN does_VBZ the_DT opposite_NN ._.</t>
-  </si>
-  <si>
-    <t>My_PRP$ heart_NN is_VBZ beating_VBG whenever_WRB I_PRP see_VBP him_PRP ,_, It_PRP ’_VBD s_RB too_RB hard_JJ to_TO hide_VB it_PRP ._. I_PRP don_VBP ’_JJ t_NN remember_NN since_IN when_WRB ._. He_PRP was_VBD not_RB my_PRP$ type_NN ._. He_PRP is_VBZ too_RB tall_JJ for_IN me_PRP and_CC I_PRP ’_VBP m_RB not_RB good_JJ at_IN typical_JJ handsome_NN boys_NNS ._. Might_NNP be_VB I_PRP like_IN him_PRP ._. He_PRP makes_VBZ me_PRP smile_VB a_DT lot_NN ._. He_PRP makes_VBZ me_PRP happy_JJ always_RB ._. I_PRP wish_VBP he_PRP wouldn_VBZ ’_JJ t_JJ pretend_NN ._. I_PRP can_MD ’_VB t_NNS make_VBP him_PRP smile_JJ and_CC 'm_VBP not_RB his_PRP$ interest_NN ._. It_PRP ‘_VBD s_JJ sad_NN ._.</t>
-  </si>
-  <si>
-    <t>Yesterday_NN i_NN was_VBD sitting_VBG and_CC waiting_VBG for_IN few_JJ friends_NNS in_IN a_DT Chinese_JJ restaurant_NN ._. Waiting_NNP is_VBZ the_DT annoying_VBG thing_NN I_PRP happen_VBP to_TO do_VB very_RB often_RB since_IN I_PRP am_VBP always_RB ahead_RB of_IN time_NN ._. So_RB now_RB my_PRP$ friends_NNS are_VBP partially_RB to_TO be_VB blamed_VBN for_IN my_PRP$ habit_NN ._. I_PRP end_VBP up_RP catching_VBG a_DT conversation_NN between_IN a_DT 40_CD something_NN year_NN old_JJ man_NN and_CC a_DT 12_CD to_TO 14_CD year_NN old_JJ boy_NN ._. The_DT book_NN I_PRP was_VBD trying_VBG to_TO read_VB was_VBD bad_JJ anyway_RB ._. I_PRP heard_VBD the_DT dad_NN asking_VBG his_PRP$ son_NN about_IN school_NN and_CC friends_NNS ._. That_IN grabbed_VBD my_PRP$ attention_NN ._. The_DT son_NN patiently_RB answered_VBD like_IN he_PRP really_RB wanted_VBD to_TO share_NN ._. How_WRB many_JJ teenagers_NNS do_VBP that_IN ?_. (_( Not_RB like_IN i_NN am_VBP the_DT 40_CD year_NN old_JJ dad_NN )_) Then_RB the_DT topic_NN turned_VBD to_TO women_NNS ._. Father_NNP asked_VBD if_IN the_DT son_NN liked_VBD anyone_NN in_IN school_NN ._. The_DT son_NN just_RB giggled_VBN ._. I_PRP wanted_VBD to_TO pull_VB that_DT kid_NN ’_VBZ s_JJ cheeks_NNS ._. Now_RB lets_VBZ just_RB focus_VB on_IN non_JJ creepy_JJ side_NN of_IN me_PRP ._.</t>
-  </si>
-  <si>
-    <t>Everyone_NN knows_VBZ motherhood_NN is_VBZ tough_JJ ._. That_IN it_PRP takes_VBZ as_RB much_JJ out_IN of_IN you_PRP as_IN it_PRP gives_VBZ ..._: both_DT in_IN time_NN and_CC joy_NN ._. One_CD invests_VBZ so_RB much_JJ time_NN and_CC energy_NN into_IN being_VBG that_IN perfect_NN mother_SYM -_: the_DT kind_NN who_WP bakes_VBZ cupcakes_NNS on_IN Saturdays_NNS just_RB because_IN it_PRP is_VBZ Saturday_NNP ,_, who_WP stays_VBZ awake_VB late_JJ into_IN the_DT night_NN folding_VBG onesies_NNS and_CC stitching_VBG fancy_JJ buttons_NNS on_IN a_DT costume_JJ -_: there_EX are_VBP moments_NNS that_IN one_CD forgets_NNS to_TO be_VB a_DT daughter_NN ._.</t>
-  </si>
-  <si>
-    <t>You_PRP never_RB know_VBP the_DT person_NN that_IN you_PRP see_VBP on_IN the_DT street_NN ._. You_PRP never_RB know_VBP the_DT person_NN that_WDT is_VBZ behind_IN or_CC before_IN you_PRP in_IN the_DT line_NN at_IN the_DT grocery_NN store_NN ._. You_PRP never_RB know_VBP what_WP the_DT person_NN has_VBZ gone_VBN through_IN ,_, or_CC what_WP they_PRP 're_VBP going_VBG through_IN right_RB now_RB ._. Sometimes_RB You_PRP never_RB even_RB know_VBP what_WP 's_VBZ going_VBG on_IN in_IN your_PRP$ life_NN ._. I_PRP 'm_VBP taking_VBG steps_NNS ._. The_DT steps_NNS maybe_RB small_JJ ,_, but_CC eventually_RB they_PRP will_MD get_VB me_PRP a_DT heckuva_NN lot_NN further_RBR then_RB I_PRP am_VBP now_RB ._. I_PRP 'm_VBP taking_VBG steps_NNS ._. I_PRP never_RB want_VBP to_TO feel_VB ``_`` comfortable_JJ ''_'' where_WRB I_PRP am_VBP ,_, for_IN if_IN I_PRP were_VBD that_DT way_NN ,_, I_PRP would_MD not_RB be_VB in_IN the_DT Geographical_NNP State_NNP that_IN I_PRP 'm_VBP in_IN ._. I_PRP 'm_VBP taking_VBG steps_NNS ._. To_TO reach_VB out_RP and_CC meet_VB new_JJ people_NNS ._. Sometimes_RB You_PRP never_RB even_RB know_VB where_WRB your_PRP$ life_NN would_MD be_VB if_IN you_PRP did_VBD n't_RB take_VB that_DT extra_JJ step_NN ._. So_RB take_VB a_DT step_NN ,_, and_CC see_VB what_WP happens_VBZ !_. (_( I_PRP dare_VBP ya_RB !_. )_)</t>
-  </si>
-  <si>
-    <t>I_PRP hope_VBP everyone_NN is_VBZ surviving_VBG this_DT cold_JJ blast_NN ._. In_IN Washington_NNP ,_, it_PRP is_VBZ unseasonably_JJ warm_JJ but_CC (_( as_IN expected_VBN )_) very_RB wet_JJ ._. This_DT week_NN we_PRP had_VBD a_DT check_NN up_RP with_IN the_DT rehab_NN med_VBD doc_NN to_TO see_VB how_WRB Darsie_NNP 's_POS Botox_NNP injections_NNS were_VBD performing_VBG ._. The_DT muscles_NNS are_VBP all_DT loose_JJ (_( yay_JJ !_. )_) but_CC because_IN of_IN their_PRP$ memory_NN ,_, they_PRP are_VBP still_RB pulling_VBG her_PRP$ foot_NN inwards_NNS ._. So_RB ,_, he_PRP wants_VBZ our_PRP$ PT_NNP to_TO proceed_VB with_IN serial_JJ casting_NN ._. We_PRP had_VBD good_JJ luck_NN with_IN the_DT serial_JJ casting_NN during_IN the_DT last_JJ round_NN of_IN Botox_NNP ,_, but_CC we_PRP still_RB have_VBP to_TO decide_VB if_IN we_PRP want_VBP to_TO do_VB it_PRP again_RB ._. It_PRP definitely_RB complicates_VBZ life_NN for_IN all_DT of_IN us_PRP ._. However_RB ,_, I_PRP do_VBP want_VB to_TO take_VB 100_CD %_NN advantage_NN of_IN the_DT Botox_NNP ._. Bert_NNP turned_VBD two_CD months_NNS !_. Is_VBZ n't_RB it_PRP amazing_VBG how_WRB fast_JJ time_NN flies_NNS ?_. He_PRP is_VBZ such_JJ a_DT BOY_NNP ,_, too_RB ._. I_PRP look_VBP at_IN photos_NNS of_IN other_JJ babies_NNS the_DT same_JJ age_NN and_CC he_PRP just_RB seems_VBZ older_JJR ._. I_PRP was_VBD reading_VBG a_DT blog_NN post_NN about_IN a_DT family_NN that_WDT got_VBD stuck_VBN at_IN someone_NN 's_POS house_NN due_JJ to_TO a_DT snow_JJ storm_NN and_CC they_PRP had_VBD to_TO put_VB her_PRP$ in_IN a_DT size_NN 3_CD diaper_NN (_( same_JJ age_NN as_IN Bert_NNP by_IN a_DT few_JJ days_NNS )_) and_CC I_PRP just_RB laughed_VBD ._. Bert_NNP is_VBZ officially_RB in_IN size_NN 3_CD diapers_NNS ._. I_PRP do_VBP n't_RB know_VB if_IN it_PRP is_VBZ because_IN he_PRP is_VBZ a_DT big_JJ boy_NN (_( appointment_JJ next_IN week_NN )_) or_CC just_RB because_IN he_PRP is_VBZ a_DT big-time_JJ blower-out_NN of_IN diapers_NNS ._. Jeff_NNP turned_VBD 33_CD !_. We_PRP spread_VBD his_PRP$ birthday_JJ celebration_NN from_IN morning_NN 'til_CD night_NN and_CC I_PRP have_VBP a_DT special_JJ adventure_NN planned_VBN on_IN Saturday_NNP ._. As_NNP well_RB ,_, we_PRP have_VBP a_DT birthday_NN dinner_NN with_IN his_PRP$ family_NN on_IN Sunday_NNP ._. Nothing_NN like_IN a_DT week_NN long_JJ celebration_NN ,_, right_RB ?_. I_PRP think_VBP we_PRP all_DT deserve_VBP it_PRP ._. And_CC last_JJ ,_, Bert_NNP has_VBZ now_RB started_VBN rolling_VBG from_IN tummy_NN to_TO back_RB !_. My_NNP baby_NN really_RB is_VBZ growing_VBG up_RP !_. All_DT remains_VBZ well_RB with_IN Elise_NNP and_CC me_PRP ,_, too_RB ._. Just_NNP nothing_NN new_JJ to_TO report_VB !_.</t>
-  </si>
-  <si>
-    <t>What_WP an_DT amazing_JJ adventure_NN ._. I_PRP 'd_MD say_VB we_PRP crammed_VBD one_CD month_NN into_IN a_DT week_NN as_IN the_DT Snoopy_NNP Goes_NNP To_TO Cuba_NNP tour_NN rolled_VBD through_IN Havana_NNP ._. Our_PRP$ little_JJ squad_NN of_IN American_JJ cartoonists_NNS visited_VBD with_IN Cuban_NNP counterparts_NNS at_IN newspapers_NNS ,_, animation_NN studios_NNS and_CC design_NN schools_NNS ._. We_PRP dropped_VBD in_IN at_IN Hemingway_NNP 's_POS house_NN but_CC he_PRP was_VBD n't_RB home_NN ._. We_PRP even_RB looked_VBD for_IN him_PRP at_IN all_PDT his_PRP$ favorite_JJ bars_NNS in_IN downtown_JJ Havana_NNP but_CC he_PRP was_VBD n't_RB there_RB either_RB ._. The_DT Cuban_NNP people_NNS could_MD n't_RB have_VB been_VBN sweeter_RB ,_, prompting_VBG my_PRP$ new_JJ expression_NN :_: ``_`` You_PRP do_VBP n't_RB meet_VB people_NNS in_IN Cuba_NNP ..._: you_PRP fall_VBP in_IN love_NN with_IN them_PRP ._. ''_'' The_DT narrow_JJ streets_NNS of_IN the_DT city_NN are_VBP filled_VBN with_IN people_NNS (_( as_IN opposed_VBN to_TO cars_NNS )_) ,_, not_RB to_TO mention_VB music_NN and_CC dancing_NN ._. I_PRP have_VBP never_RB felt_VBN so_RB safe_JJ walking_VBG around_RB in_IN dark_JJ alleys_NNS at_IN midnight_NN ._. The_DT poverty_NN and_CC deprivation_NN are_VBP obvious_JJ everywhere_RB but_CC are_VBP not_RB enough_RB to_TO dampen_VB their_PRP$ spirits_NNS ._. These_DT photos_NNS include_VBP Jeannie_NNP Schulz_NNP and_CC me_PRP with_IN old_JJ Havana_NNP in_IN the_DT background_NN ._.</t>
-  </si>
-  <si>
-    <t>HMMMMMMMMM_NN ..._: ..._: ..d_VBP first_JJ thing_NN i_NN would_MD lik_VB 2_CD say_VBP tis_NN guy_NN s_NN sry..fr_NN d_NN delay_NN in_IN writin_NN a_DT testi_NN fr_NN u_NN ..._: i_NN would_MD really_RB lik_VB 2_CD thank_NN orkut_NN coz_NN i_NN gt_VBP such_PDT a_DT swt_NN ,_, carin_NN ,_, charmin_JJ frend_NN ..._: wel_NN wt_VBZ 2_CD say_NN abt_NN sandy_NN ..._: very_RB talkitive_JJ ..._: .over_RB a_DT ice_NN vaipan_NN so_RB guys_JJ b_NN careful_NN ..._: ..vry_VBZ frendly_RB in_IN nature..seriously_RB u_JJ cn_NN trust_NN him..i_NN knw_NN dis_NN testi_NN s_VBD 2_CD shrt_NN ..._: (_( part_NN 2_CD )_) COMING_NNPS SOOOOOOOON_NNP ..._: tc_NN</t>
-  </si>
-  <si>
-    <t>Some_DT rooms_NNS were_VBD empty_JJ of_IN souls_NNS ._. They_PRP held_VBD apparatus_NN ,_, desks_NNS and_CC chairs_NNS ,_, straps_NNS ._. Organized_VBN neatly_RB and_CC forgotten_VB this_DT was_VBD where_WRB monsters_NNS were_VBD born_VBN ._. In_IN those_DT rooms_NNS ,_, those_DT forgotten_JJ rooms_NNS ,_, the_DT men_NNS and_CC women_NNS of_IN the_DT crisp_NN uniforms_NNS slated_VBD their_PRP$ lust_NN on_IN one_CD another_DT gutting_VBG their_PRP$ appetites_NNS salaciously_RB ._. They_PRP gave_VBD no_DT care_NN to_TO vow_VB or_CC matrimony_VB worshipping_VBG their_PRP$ flesh_NN on_IN the_DT altar_NN of_IN their_PRP$ uniforms_NNS ._. Bent_NNP lines_NNS and_CC grinning_VBG death_NN ’_NN s_NN heads_NNS ,_, blood_NN and_CC silver_NN shining_VBG brightly_RB on_IN the_DT horizon_NN of_IN arm_NN bands_NNS and_CC lapels_NNS ._. Superiors_NNS turned_VBD a_DT blind_JJ eye_NN to_TO these_DT diversions_NNS ._. Outside_NNP ,_, passing_VBG these_DT pores_NNS ,_, down_RB the_DT flanks_NNS and_CC near_IN the_DT edge_NN of_IN the_DT building_NN ’_NNP s_NN furthest_JJS corner_NN two_CD soldiers_NNS hovered_VBD over_IN their_PRP$ cigarettes_NNS ._. Smoke_NNP hung_NN like_IN great_JJ thoughts_NNS of_IN suicide_NN ._. “_NN I_PRP hear_VBP rumors_NNS ,_, ”_VBP one_CD soldier_NN said_VBD to_TO the_DT other_JJ ._. “_VB Some_DT are_VBP saying_VBG you_PRP have_VBP a_DT whore_NN locked_VBN away_RB for_IN your_PRP$ personal_JJ use._JJ ”_VBP The_DT other_JJ pulled_VBD a_DT long_JJ glowing_NN drag_NN from_IN his_PRP$ cigarette_NN ._. Smoke_NNP tumbled_VBD from_IN his_PRP$ nose_NN and_CC he_PRP breathed_VBD out_RP fumes_NNS from_IN casually_RB pursed_VBN lips_NNS ._. “_VB What_WP of_IN it_PRP ?_. ”_CC he_PRP asked_VBD dismissively_RB not_RB looking_VBG at_IN the_DT other_JJ ._. “_IN These_DT are_VBP rumors_NNS ._. So_IN what_WP ?_. ”_NN he_PRP said_VBD with_IN a_DT shrug_NN ._. The_DT other_JJ leaned_VBN in_IN close_RB ._. “_NN You_PRP know_VBP it_PRP is_VBZ against_IN the_DT law_NN to_TO bed_VB these_DT filthy_JJ animals_NNS !_. You_PRP know_VBP a_DT child_NN produced_VBN this_DT way_NN would_MD only_RB be_VB partially_RB human_JJ !_. Can_MD you_PRP imagine_VB ?_. ”_CC He_PRP pulled_VBD again_RB on_IN his_PRP$ cigarette_NN ,_, heard_JJ paper_NN crumble_NN into_IN smoke_NN under_IN his_PRP$ inhalation_NN ._.</t>
-  </si>
-  <si>
-    <t>dis_NN cuty_NN pie_NN does_VBZ deserve_VB a_DT testi_NN (_( tho_JJ i_NN myt_MD not_RB b_VB xactly_RB d_JJ perfect_JJ person_NN 2_CD pen_NN it_PRP down_RP !_. !_. )_) mathuuuuuuuuuuuuu_NN ..._: itz_NN amazin_IN how_WRB she_PRP can_MD play_VB a_DT determined_JJ young_JJ lady_NN 4_CD a_DT stance_NN an_DT a_DT luk_JJ lyk_NN a_DT total_JJ freak_NN out_IN d_JJ very_RB next_JJ moment_NN !_. damn_NN carin_NN ..._: she_PRP can_MD give_VB u_JJ goose_JJ pimples_NNS by_IN d_JJ way_NN she_PRP screams_VBZ at_IN u_JJ out_RP f_JJ affection_NN wen_NN u_NN land_VBP up_RP doin_JJ smth_NN stupid_NN (_( which_WDT i_RB do_VBP every_DT other_JJ nano_JJ second_NN )_) ..has_VBZ a_DT knack_NN f_NN makin_FW her_PRP$ probs_NN (_( no_DT matter_NN how_WRB miuscule_NN de_IN r_NN )_) sound_NN lyk_JJ climbin_NN everest_JJS ..._: dis_VBZ 5_CD foot_NN (_( or_CC les_VBZ )_) barbie_IN doll_NN can_MD b_VB damn_NN stubborn_JJ wen_NN it_PRP cumz_VBZ 2_CD doin_NN wat_NN she_PRP want_VBP ..._: u_JJ surely_RB cant_JJ make_VBP her_PRP$ mov_NN a_DT pin_NN if_IN she_PRP doesn_VBD wanna..bottom_NN of_IN her_PRP$ profile_NN ..._: she_PRP s_VBD a_DT PADIPS..an_NNP lyk_NN ne_RB other_JJ person_NN accused_VBN of_IN d_NN crime_NN she_PRP wud_VBD defy_NN it_PRP ..._: wid_VBZ such_JJ intensity_NN and_CC grave_VB reasonin_NN (_( which_WDT on_IN post-mortum_NN s_NN always_RB illogical_JJ )_) dat_VBZ it_PRP wud_JJ make_VB u_JJ suspect_JJ ur_JJ own_JJ senses_NNS !_. !_. an_DT if_IN u_JJ r_NN lukin_VBD 4_CD a_DT really_RB carin_JJ companion_NN hu_NN can_MD makin_VB u_JJ feel_NN u_JJ r_NN d_NN best_RBS arnd_NN (_( evn_JJ if_IN u_JJ aint_NN newer_NN near_IN dat_NN )_) den_NN mathu_NN fitz_NN ur_JJ needs_VBZ perfectly_RB !_. hope_NN 2_CD hv_NN u_JJ arnd_RB 4evr_CD an_DT evr_NN an_DT evr_NN !_. !_. cheerz_NN swtz_NN</t>
-  </si>
-  <si>
-    <t>Power_NN of_IN Sattva_NNP ..._: Unleashed_VBN in_IN Mumbai_NNP 23_CD to_TO 26_CD Dec_NNP 2009_CD witnessed_VBD 490_CD people_NNS experiencing_VBG the_DT Part_NNP 2_CD course_NN in_IN the_DT famous_JJ Yogi_NNP Sabhagraha_NNP Swaminarayan_NNP Hall_NNP in_IN Dadar_NNP ._. Sattva_NNP personified_VBD Rishi_NNP Vidhyadharji_NNP mesmerised_VBD all_DT of_IN us_PRP with_IN his_PRP$ Satsang_NNP Aerobics_NNPS Yoga_NNP at_IN midnight_NN (_( 6_CD am_VBP for_IN me_PRP is_VBZ midnight_NN ..._: he_PRP he_PRP )_) ,_, his_PRP$ brilliant_JJ Sadhana_NNP sequence_NN and_CC his_PRP$ Q_NNP &amp;_CC A_NNP sessions_NNS in_IN the_DT satsangs_NNS early_RB morning_NN (_( if_IN you_PRP have_VBP slept_VBN from_IN 4_CD to_TO 6_CD pm_NNS then_RB 8_CD pm_JJ feels_NNS like_IN early_JJ morning_NN )_) ._. Rishiji_NNP would_MD conduct_VB the_DT course_NN from_IN 6_CD am_VBP to_TO 9.30_CD pm_NN ._. Inspite_NNP of_IN such_JJ a_DT busy_JJ schedule_NN he_PRP offered_VBD 2_CD hour_NN knowledge_NN sessions_NNS on_IN 2_CD days_NNS from_IN 6_CD to_TO 8_CD pm_NNS to_TO YES_VB !_. +_JJ volunteers_NNS ._. Some_DT snippets_NNS :_: (_( NOT_NNP verbatim_VB ..._: just_RB jotting_VBG the_DT essence_NN from_IN what_WP I_PRP remember_VBP )_) This_DT should_MD be_VB your_PRP$ goal_NN :_: Becoming_NNP 'MUKT_NNP '_POS (_( free_JJ )_) from_IN the_DT 5_CD deepest_JJS ,_, strongest_JJS and_CC oldest_JJS impressions_NNS :_: Food_NNP ,_, Sleep_NNP ,_, Sex_NNP ,_, Fear_NNP and_CC Laziness_NNP ._. He_PRP added_VBD that_IN once_RB you_PRP have_VBP become_VBN free_JJ from_IN these_DT impressions_NNS then_RB you_PRP will_MD know_VB what_WP your_PRP$ real_JJ purpose_NN in_IN life_NN is_VBZ ._. The_DT humour_NN and_CC liveliness_NN with_IN which_WDT he_PRP explained_VBD this_DT was_VBD exemplary_JJ ._. Q_NN :_: How_WRB to_TO avoid_VB being_VBG conscious_JJ when_WRB amongst_NN people_NNS ?_. A_DT :_: Rather_NN than_IN bothering_VBG about_IN looking_VBG good_JJ ,_, focus_VB on_IN feeling_VBG good_JJ ._. In_IN looking_VBG good_JJ you_PRP lose_VBP your_PRP$ naturalness_NN and_CC peace_NN ._. When_WRB you_PRP feel_VBP good_JJ then_RB you_PRP will_MD NOT_VB become_VB a_DT football_NN of_IN others_NNS opinions_NNS and_CC will_MD be_VB more_RBR effective_JJ ._. Q_NNS :_: Should_MD we_PRP be_VB perfectionists_NNS ?_. A_DT :_: Rather_NN than_IN looking_VBG for_IN perfection_NN ,_, be_VB with_IN that_DT which_WDT is_VBZ perfect_JJ Q_NNP :_: How_WRB to_TO handle_VB competition_NN as_IN it_PRP involves_VBZ comparison_NN with_IN others_NNS ?_. A_DT :_: Competition_NN is_VBZ sugar_RB coated_VBN greed_NN and_CC jealousy_NN ._. A_DT person_NN who_WP is_VBZ caught_VBN in_IN competition_NN is_VBZ a_DT victim_NN of_IN greed_NN and_CC jealousy_NN ._. He_PRP tries_VBZ to_TO do_VB several_JJ things_NNS 100_CD %_NN and_CC gets_VBZ stressed_VBN ._. Its_PRP$ important_JJ to_TO BE_NNP (_( not_RB necessarily_RB DO_NNP )_) 100_CD %_NN in_IN whatever_WDT you_PRP do_VBP ._. Q_VB :_: I_PRP am_VBP confused_VBN about_IN marriage_NN ._. How_WRB to_TO decide_VB whether_IN to_TO marry_VB or_CC not_RB ?_. If_IN one_CD or_CC more_JJR of_IN the_DT following_JJ five_CD are_VBP of_IN concern_NN (_( needs_NNS )_) for_IN a_DT girl_NN ,_, then_RB she_PRP should_MD marry_VB :_: Security_NN ,_, Companionship_NNP ,_, Sex_NNP ,_, Progeny_NNP and_CC learning_VBG surrender_JJR If_IN one_CD or_CC more_JJR of_IN the_DT following_JJ four_CD are_VBP of_IN concern_NN (_( needs_NNS )_) for_IN a_DT boy_NN ,_, then_RB he_PRP should_MD marry_VB :_: Companionship_NN ,_, Sex_NNP ,_, Progeny_NNP and_CC learning_VBG surrender_NN Q_NNS :_: While_IN on_IN my_PRP$ way_NN to_TO meet_VB Guruji_NNP ,_, the_DT excitement_NN I_PRP feel_VBP ,_, is_VBZ it_PRP feverishness_RBR or_CC longing_VBG ?_. A_DT :_: While_IN on_IN your_PRP$ way_NN if_IN you_PRP are_VBP relaxed_JJ then_RB its_PRP$ longing_NN ,_, else_RB its_PRP$ feverishness_NN ._. And_CC on_IN meeting_VBG him_PRP ,_, if_IN Guruji_NNP does_VBZ n't_RB look_VB at_IN you_PRP and_CC you_PRP do_VBP n't_RB mind_VB it_PRP as_IN you_PRP are_VBP happy_JJ that_IN YOU_NNP saw_VBD HIM_NNP ,_, then_RB it_PRP was_VBD longing_VBG and_CC if_IN you_PRP feel_VBP upset_JJ or_CC disappointed_JJ that_IN HE_NNP did_VBD n't_RB look_VB at_IN YOU_NNP ,_, then_RB it_PRP was_VBD feverishness_RB ._. Check_VB out_IN the_DT photos_NNS in_IN the_DT adjoining_NN slideshow_NN Jai_NNP Gurudev_NNP !_.</t>
-  </si>
-  <si>
-    <t>Format_NN :_: Trade_NNP Paperback_NNP ,_, 208_CD pages_NNS Publisher_NN :_: Other_JJ Press_NNP ISBN_NNP :_: 978-1-59051-326-2_CD (_( 1-59051-326-6_CD )_) Pub_NN Date_NN :_: June_NNP 30_CD ,_, 2009_CD Price_NN :_: $_$ 18.95_CD In_IN recent_JJ years_NNS ,_, there_EX has_VBZ been_VBN no_DT shortage_NN of_IN expat-written_JJ nonfiction_NN books_NNS set_VBN in_IN Beijing_NNP ,_, but_CC fiction_NN in_IN the_DT same_JJ category_NN is_VBZ hard_JJ to_TO come_VB by_IN ._. That_DT is_VBZ why_WRB Jonathan_NNP Tel_NNP 's_POS new_JJ story_NN collection_NN ,_, The_DT Beijing_NNP of_IN Possibilities_NNP ,_, caught_VBD my_PRP$ eye_NN the_DT moment_NN I_PRP saw_VBD it_PRP on_IN the_DT Commonwealth_NNP Writers_NNP '_POS Prize_NNP 2010_CD short_JJ list_NN (_( thanks_NNS ,_, Leela_NNP Soma_NNP and_CC Rob_NNP )_) ._. It_PRP 's_VBZ a_DT slim_JJ little_JJ volume_NN with_IN a_DT most_RBS intriguing_JJ cover_JJ art_NN of_IN a_DT pretty_JJ Chinese_JJ lady_NN with_IN what_WP appears_VBZ to_TO be_VB sightless_JJ eyes_NNS ._. When_WRB friends_NNS and_CC I_PRP first_RB saw_VBD the_DT cover_NN design_NN we_PRP had_VBD a_DT nice_JJ discussion_NN of_IN what_WP that_WDT might_MD signify_VB ..._: was_VBD she_PRP looking_VBG ``_`` inside_IN ''_'' herself_PRP or_CC was_VBD she_PRP deliberately_RB refusing_VBG to_TO ``_`` see_VB ''_'' that_IN which_WDT is_VBZ obvious_JJ to_TO everyone_NN else_RB ?_. Do_VBP n't_RB you_PRP just_RB love_VB cover_RB art_NN that_IN intrigues_NNS ?_. I_PRP did_VBD some_DT research_NN on_IN the_DT art_NN and_CC found_VBD out_IN it_PRP has_VBZ been_VBN taken_VBN from_IN the_DT Reed_NNP Darmon_NNP collection_NN ._. Reed_NNP Darmon_NNP is_VBZ the_DT person_NN responsible_JJ for_IN the_DT ``_`` Made_NNP in_IN China_NNP ''_'' graphics_NNS book_NN and_CC you_PRP can_MD learn_VB more_JJR about_IN it_PRP here_RB ._. To_TO come_VB back_RB to_TO the_DT stories_NNS ..._: all_DT twelve_VBP invoke_NN Beijing_NNP in_IN some_DT way_NN or_CC the_DT other_JJ even_RB if_IN the_DT stories_NNS themselves_PRP vary_VBP widely_RB in_IN time_NN period_NN and_CC location_NN ._. The_DT most_RBS notable_JJ aspect_NN of_IN Tel_NNP 's_POS storytelling_NN is_VBZ how_WRB he_PRP recounts_VBZ modern_JJ facts_NNS about_IN China_NNP but_CC interwoven_RB with_IN Chinese_JJ folk_NN tales_NNS (_( and_CC superstitions_NNS )_) ._. The_DT Monkey_NNP Legend_NNP seems_VBZ to_TO be_VB his_PRP$ favorite_JJ one_CD and_CC the_DT first_JJ story_NN of_IN the_DT collection_NN ``_`` Year_NN of_IN the_DT Gorilla_NNP ''_'' begins_VBZ with_IN the_DT sentence_NN ,_, ``_`` It_PRP 's_VBZ been_VBN a_DT while_NN since_IN the_DT Monkey_NNP King_NNP set_VBD out_RP on_IN his_PRP$ Journey_NNP to_TO the_DT West_NNP ''_'' ,_, with_IN ``_`` A_NNP Journey_NNP to_TO the_DT West_NNP ''_'' being_VBG the_DT title_NN of_IN this_DT much-loved_JJ legend_NN and_CC folk_JJ tale_NN ._. Another_DT trait_NN I_PRP noticed_VBD is_VBZ his_PRP$ ability_NN to_TO blend_VB old_JJ China_NNP with_IN the_DT new_JJ and_CC no_DT story_NN illustrates_VBZ that_IN better_JJR than_IN ``_`` The_DT Most_RBS Beautiful_NNP Woman_NNP In_IN China._NNP ”_NNP which_WDT links_VBZ together_RB two_CD thousand_CD years_NNS of_IN Chinese_JJ history_NN ,_, while_IN being_VBG set_VBN in_IN Beijing_NNP today_NN !_. One_CD generic_JJ character_NN that_WDT makes_VBZ his_PRP$ or_CC her_PRP$ appearance_NN in_IN many_JJ of_IN the_DT stories_NNS is_VBZ the_DT 'Chinese_JJ migrant_NN '_POS and_CC after_IN reading_VBG a_DT lot_NN of_IN topical_JJ articles_NNS on_IN China_NNP I_PRP have_VBP come_VBN to_TO the_DT realization_NN that_IN Beijing_NNP ,_, even_RB more_JJR than_IN Shanghai_NNP ,_, is_VBZ a_DT mecca_NN for_IN the_DT Chinese_JJ people_NNS ..._: it_PRP is_VBZ the_DT land_NN of_IN opportunity_NN ,_, the_DT land_NN where_WRB dreams_VBZ come_VB true_JJ or_CC as_IN Tel_NNP himself_PRP describes_VBZ in_IN the_DT title_NN ,_, it_PRP is_VBZ the_DT land_NN full_JJ of_IN possibilities_NNS ._. ``_`` Beijing_NNP is_VBZ the_DT center_NN of_IN the_DT universe_NN ._. Ask_NNP anybody_NN who_WP lives_VBZ there_RB ._. “_VB The_DT true_JJ Beijinger_NNP secretly_RB believes_VBZ that_IN people_NNS living_VBG anywhere_RB else_RB have_VBP to_TO be_VB ,_, in_IN some_DT sense_NN ,_, kidding._VB ”_NNP —in_VB a_DT foreword_NN by_IN Helan_NNP Xiao_NNP One_CD of_IN my_PRP$ favorite_JJ migrant_JJ characters_NNS in_IN this_DT collection_NN is_VBZ from_IN the_DT title_NN story_NN ._. Miss_NNP Xu_NNP is_VBZ a_DT fisherman_NN 's_POS daughter_NN but_CC ``_`` foster_JJ ''_'' mother_NN to_TO the_DT child_NN of_IN a_DT young_JJ couple_NN in_IN Beijing_NNP ._. The_DT couple_NN have_VBP hired_VBN Miss_NNP Xu_NNP to_TO look_VB after_IN their_PRP$ as-yet-unborn_JJ child_NN because_IN they_PRP are_VBP too_RB busy_JJ to_TO care_VB for_IN the_DT child_NN themselves..in_NN ten_NN or_CC twelve_VB years_NNS time_NN they_PRP 'll_MD be_VB ready_JJ to_TO take_VB the_DT child_NN to_TO live_VB with_IN them_PRP ._. Unfortunately_RB the_DT child_NN dies_VBZ before_IN they_PRP could_MD hand_NN it_PRP over_IN to_TO Miss_NNP Xu_NNP but_CC because_IN she_PRP had_VBD been_VBN registered_VBN in_IN Bejing_NNP as_IN a_DT ``_`` foster_NN mother_NN ''_'' Miss_NNP Xu_NNP lands_VBZ herself_PRP an_DT unexpected_JJ ticket_NN to_TO residency_VB in_IN Beijing_NNP which_WDT is_VBZ to_TO most_RBS Chinese_JJ what_WP an_DT American_JJ green_JJ card_NN is_VBZ to_TO refugees_VB !_. Ofcourse_NNP ,_, being_VBG a_DT ``_`` hick_NN ''_'' from_IN Hainan_NNP (_( a_DT sleepy_NN little_JJ fishing_JJ village_NN )_) she_PRP was_VBD treated_VBN as_IN an_DT outcast_NN in_IN Beijing_NNP which_WDT makes_VBZ for_IN a_DT very_RB moving_JJ story_NN ._. Tel_NNP also_RB has_VBZ this_DT ability_NN to_TO infuse_VB his_PRP$ stories_NNS with_IN playful_JJ plots_NNS and_CC language_NN ._. Amusing_NNP ,_, but_CC a_DT little_JJ sad_JJ too_RB ,_, is_VBZ ``_`` The_DT Book_NNP of_IN Auspicious_NNP and_CC Inauspicious_NNP Dreams_NNP ''_'' where_WRB a_DT young_JJ ,_, modern_JJ couple_NN ,_, during_IN renovations_NNS to_TO their_PRP$ 1960_CD 's_POS home_NN ,_, chance_NN upon_IN a_DT rusty_JJ tin_NN of_IN souvenirs_NNS buried_VBN in_IN a_DT wall_NN of_IN their_PRP$ suburban_JJ Beijing_NNP house_NN ._. Realizing_VBG it_PRP must_MD belong_VB to_TO the_DT previous_JJ owner_NN they_PRP do_VBP everything_NN to_TO try_VB to_TO return_VB the_DT tin_NN ,_, only_RB to_TO be_VB met_VBN with_IN exclamations_NNS of_IN protests_NNS from_IN the_DT previous_JJ owner_NN who_WP insisted_VBD she_PRP had_VBD never_RB laid_VBN eyes_NNS on_IN the_DT tin_NN before_IN and_CC that_IN she_PRP ``_`` loved_VBD Chairman_NNP Mao_NNP more_JJR than_IN her_PRP$ own_JJ mother_NN and_CC father_NN ''_'' which_WDT reminds_VBZ the_DT reader_NN of_IN a_DT turbulent_JJ time_NN in_IN China_NNP 's_POS history_NN where_WRB to_TO be_VB a_DT lover_NN of_IN the_DT arts_NNS or_CC to_TO have_VB ``_`` western_JJ ''_'' things_NNS meant_VBP having_VBG a_DT ``_`` bourgeois_NN ''_'' background_NN which_WDT in_IN turn_NN meant_JJ being_VBG sent_VBN to_TO the_DT villages_NNS for_IN ``_`` reeducation_NN ''_'' ..._: something_NN that_WDT was_VBD a_DT tough_JJ and_CC humiliating_VBG experience_NN for_IN most_JJS intellectuals_NNS ._. I_PRP found_VBD a_DT couple_NN of_IN the_DT stories_NNS had_VBD the_DT overall_JJ effect_NN of_IN looking_VBG at_IN a_DT subtly_RB distorted_VBN mirror_NN but_CC for_IN the_DT most_JJS part_NN Tel_NNP 's_POS prose_NN and_CC plots_NNS are_VBP smart_JJ ,_, entertaining_JJ ,_, observant_JJ and_CC insightful_JJ ._. It_PRP 's_VBZ most_RBS definitely_RB a_DT collection_NN to_TO cherish_VB ._. Oh_UH ,_, and_CC before_IN I_PRP go_VBP ..._: I_PRP have_VBP n't_RB been_VBN able_JJ to_TO explain_VB the_DT girl_NN on_IN the_DT cover_NN ._. My_PRP$ best_JJS guess_NN is_VBZ that_IN she_PRP is_VBZ ``_`` Little_JJ Yu_NN ''_'' from_IN the_DT heart_NN warmingly_RB sad_JJ story_NN ,_, ``_`` The_DT Three_NNP Lives_NNP of_IN Little_NNP Yu_NNP ''_'' about_IN a_DT childless_JJ couple_NN who_WP adopt_VBZ a_DT little_JJ girl_NN whom_WP they_PRP call_VBP ``_`` Yu_NNP ''_'' only_RB to_TO have_VB her_PRP$ snatched_VBN away_RB by_IN the_DT god_NN of_IN death_NN ._. They_PRP adopt_VBP a_DT second_JJ girl_NN and_CC call_VB her_PRP$ ``_`` Yu_NNP ''_'' too_RB ,_, but_CC the_DT same_JJ fate_NN awaits_VBZ her_PRP$ ._. When_WRB the_DT third_JJ girl_NN ,_, again_RB called_VBD ``_`` Yu_NNP ''_'' enters_NNS their_PRP$ family_NN it_PRP is_VBZ implied_VBN that_IN she_PRP is_VBZ a_DT reincarnation_NN of_IN the_DT previous_JJ little_JJ girls_NNS ._. So_RB could_MD the_DT girl_NN on_IN the_DT cover_NN have_VBP been_VBN Yu_NNP between_IN her_PRP$ lives_NNS on_IN earth_NN ?_. I_PRP guess_VBP I_PRP am_VBP getting_VBG carried_VBD away_RB ._. I_PRP 'll_MD bet_VB you_PRP not_RB even_RB Jonathan_NNP Tel_NNP thought_VBD about_IN his_PRP$ cover_NN as_RB much_JJ as_IN I_PRP have_VBP !_. :_: )_) Oh_UH and_CC whatever_WDT you_PRP do_VBP ,_, do_VBP n't_RB miss_VB the_DT last_JJ story_NN ..._: .there_EX 's_VBZ a_DT nice_JJ twist_NN in_IN the_DT tale_NN there_RB ,_, a_DT brilliant_JJ narrative_JJ coup_NN !_. Two_CD insightful_JJ reviews_NNS that_WDT might_MD interest_NN you_PRP are_VBP :_: L._NNP Dean_NNP Murphy_NNP at_IN The_DT Book_NNP Reporter_NNP and_CC Happy_JJ Reader_NNP at_IN Book_NNP Closet_NNP And_CC finally_RB ,_, some_DT entertainment_NN !_. A_DT clip_NN from_IN the_DT pop_NN opera_NN ,_, ``_`` Monkey_NN :_: Journey_NN to_TO the_DT West_NNP ''_'' (_( Coming_VBG soon_RB :_: 08_CD April_NNP in_IN the_DT UK_NNP and_CC 29June_CD in_IN the_DT US_NNP )_) For_IN a_DT polygamist_NN like_IN Baba_NNP Segi_NNP ,_, his_PRP$ collection_NN of_IN wives_NNS and_CC a_DT gaggle_NN of_IN children_NNS are_VBP the_DT symbol_NN of_IN prosperity_NN ,_, success_NN and_CC validation_NN of_IN his_PRP$ manhood_NN ._. Everything_NNP runs_VBZ reasonably_RB smoothly_RB in_IN the_DT patriarchal_JJ home_NN ,_, until_IN wife_NN number_NN four_CD intrudes_NNS on_IN this_DT family_NN romance_NN ._. Bolanle_NNP ,_, a_DT graduate_NN amongst_IN the_DT semi-literate_JJ wives_NNS ,_, is_VBZ hated_VBN from_IN the_DT start_NN ._. Baba_NNP Segi_NNP 's_POS glee_NN at_IN bagging_VBG a_DT graduate_NN does_VBZ n't_RB help_VB matters_NNS ._. Worse_JJR ,_, Bolanle_NNP 's_POS arrival_NN threatens_VBZ to_TO do_VB more_JJR than_IN simply_RB ruffle_JJ feathers_NNS ._. She_PRP 's_VBZ unwittingly_RB set_VBN to_TO expose_VB a_DT secret_JJ that_IN her_PRP$ co-wives_NNS intend_NN to_TO protect_VB ,_, at_IN all_DT costs_NNS ._. Lola_NNP Shoneyin_NNP 's_POS light_NN and_CC ironic_JJ touch_NN exposes_VBZ not_RB only_RB the_DT rotten_JJ innards_NNS of_IN Baba_NNP Segi_NNP 's_POS polygamous_JJ household_NN in_IN this_DT cleverly_RB plotted_JJ story_NN ;_: it_PRP also_RB shows_VBZ how_WRB women_NNS no_DT educated_VBD or_CC semi-literate_JJ ,_, women_NNS in_IN contemporary_JJ Nigeria_NNP can_MD be_VB as_IN restricted_VBN ,_, controlled_VBN and_CC damaged_VBN by_IN men_NNS -_: be_VB they_PRP fathers_NNS ,_, husbands_NNS ,_, uncles_NNS ,_, rapists_VBZ -_: as_IN they_PRP 've_VBP never_RB been_VBN ._. Harper_NNP Collins_NNP Canada_NNP Downtown_NNP Mogadishu_NNP today_NN is_VBZ beat-up_JJ and_CC bone-white_JJ from_IN the_DT sun_NN and_CC a_DT coating_NN of_IN dust_NN ._. It_PRP is_VBZ overlaid_VBN with_IN a_DT deceptive_JJ grid_NN of_IN empty_JJ streets_NNS ._. Most_JJS buildings_NNS are_VBP ransacked_VBN shells_NNS frozen_RBR in_IN time_NN or_CC have_VBP simply_RB vanished_VBN ._. Today_NN ,_, when_WRB we_PRP think_VBP of_IN Somalia_NNP we_PRP think_VBP civil_JJ war_NN ,_, Somali_NNP pirates_VBZ ,_, Islamic_NNP fundamentalism_NN ,_, so_IN how_WRB very_RB refreshing_VBG to_TO chance_NN upon_IN ``_`` Black_NNP Mamba_NNP Boy_NNP ''_'' which_WDT takes_VBZ us_PRP back_RB to_TO a_DT thriving_VBG Somalia_NNP of_IN yesteryear_NN ,_, and_CC not_RB just_RB Somalia_NNP ,_, but_CC Djibouti_NNP ,_, Sudan_NNP ,_, Eritrea_NNP ,_, Egypt_NNP ..._: a_DT veritable_JJ tour_NN of_IN North-East_NNP Africa_NNP in_IN the_DT mid-30_NN 's_POS ._. Let_VB me_PRP explain_VB :_: ``_`` Black_NNP Mamba_NNP Boy_NNP ''_'' by_IN Somali-British_JJ author_NN Nadifa_NNP Mohamed_NNP is_VBZ based_VBN on_IN the_DT true_JJ story_NN of_IN the_DT author_NN ’_NNP s_VBZ father_RB ’_JJ s_JJ life_NN ._. Opening_NN in_IN 1930_CD 's_POS Aden_NNP we_PRP are_VBP introduced_VBN to_TO Jama_NNP ,_, a_DT ten_JJ year-old_JJ Somali_NNP boy_NN ,_, a_DT street_NN kid_NN ,_, whose_WP$ mother_NN dies_VBZ unexpectedly_RB thus_RB leaving_VBG him_PRP alone_RB in_IN this_DT world._NN ``_`` Jama_NNP is_VBZ forced_VBN home_NN to_TO his_PRP$ native_JJ Somalia_NNP ,_, the_DT land_NN of_IN his_PRP$ nomadic_JJ ancestors_NNS ._. War_NNP is_VBZ on_IN the_DT horizon_NN and_CC the_DT fascist_JJ Italian_JJ forces_NNS who_WP control_VBP parts_NNS of_IN east_NN Africa_NNP are_VBP preparing_VBG for_IN battle_NN ._. Yet_CC Jama_NNP can_MD not_RB rest_VB until_IN he_PRP discovers_VBZ whether_IN his_PRP$ father_NN ,_, who_WP has_VBZ been_VBN absent_VBN from_IN his_PRP$ life_NN since_IN he_PRP was_VBD a_DT baby_NN ,_, is_VBZ alive_JJ somewhere_RB ._. And_CC so_RB begins_VBZ an_DT epic_NN journey_NN which_WDT will_MD take_VB Jama_NNP north_CC through_IN Djibouti_NNP ,_, war-torn_JJ Eritrea_NNP and_CC Sudan_NNP ,_, to_TO Egypt_NNP ._. And_CC from_IN there_RB ,_, aboard_IN a_DT ship_NN transporting_VBG Jewish_JJ refugees_NNS just_RB released_VBN from_IN German_JJ concentration_NN camp_NN ,_, across_IN the_DT seas_NNS to_TO Britain_NNP and_CC freedom_NN ._. ''_'' OK_UH ,_, my_PRP$ challenge_NN here_RB as_IN a_DT ``_`` reviewer_NN ''_'' is_VBZ how_WRB to_TO give_VB you_PRP my_PRP$ impressions_NNS without_IN gushing_VBG or_CC using_VBG a_DT great_JJ many_JJ superlatives_NNS ,_, so_IN I_PRP 'll_MD just_RB say_VB this_DT :_: if_IN you_PRP choose_VBP to_TO read_VB the_DT book_NN ,_, you_PRP 're_VBP in_IN for_IN an_DT amazing_JJ ride_NN through_IN the_DT dusty_NN ,_, noisy_RB but_CC bustling_VBG streets_NNS of_IN the_DT some_DT of_IN the_DT most_RBS important_JJ cities_NNS of_IN North_NNP East_NNP Africa_NNP in_IN the_DT '30_NN 's_POS ._. From_IN the_DT vast_JJ sandy_JJ deserts_NNS of_IN Sudan_NNP to_TO narrow_VB busy_JJ alleys_NNS in_IN Somalia_NNP ,_, from_IN the_DT tree-lined_JJ manicured_JJ boulevards_NNS of_IN Djibouti_NNP to_TO the_DT emerald-green_JJ landscape_NN with_IN juicy_NN mango_NN trees_NNS of_IN Abyssinia_NNP ,_, you_PRP will_MD see_VB it_PRP all_DT !_. Mohamed_NNP 's_POS prose_JJ zings_NNS with_IN the_DT vibrancy_NN of_IN North_JJ African_JJ life_NN ,_, an_DT unfamiliar_JJ landscape_NN of_IN strange_JJ tribes_NNS and_CC tongues_NNS ,_, bizarre_JJ rituals_NNS ,_, superstitions_NNS and_CC tribal_JJ kinship_NN ._. The_DT sensitive_JJ way_NN in_IN which_WDT she_PRP handles_VBZ Jama_NNP 's_POS relationships_NNS with_IN his_PRP$ family_NN and_CC kinsmen_NNS ,_, tugs_NNS at_IN one_CD 's_POS heartstrings_NNS ._. In_IN a_DT historical_JJ context_NN I_PRP can_MD not_RB vouch_VB for_IN Mohamed_NNP 's_POS accuracy_NN because_IN I_PRP know_VBP so_RB little_JJ about_IN that_DT area_NN and_CC in_IN that_DT time_NN period_NN ,_, but_CC it_PRP is_VBZ told_VBN so_RB well_RB ,_, you_PRP get_VBP completely_RB swept_VBN up_RP by_IN the_DT events_NNS and_CC happenings_NNS ._. But_CC central_JJ to_TO the_DT story_NN is_VBZ suffering_VBG ..._: the_DT suffering_NN of_IN the_DT African_JJ people_NNS at_IN the_DT hands_NNS of_IN their_PRP$ colonizers_NNS ._. Mohamed_NNP 's_POS acute_NN and_CC unsparing_JJ descriptive_JJ powers_NNS render_VBP vivid_NNS everything_NN from_IN Aden_NNP street_NN chaos_NN to_TO traditional_JJ Palestinian_JJ wedding_NN in_IN Khan_NNP Younis_NNP ,_, but_CC her_PRP$ clipped_JJ depiction_NN of_IN the_DT death_NN by_IN torture_NN of_IN a_DT young_JJ Somalian_JJ man_NN at_IN the_DT hands_NNS of_IN two_CD drunk_NN Italians_NNS made_VBD me_PRP gasp_VB out_RP loud_JJ and_CC pushed_VBD me_PRP way_NN out_IN of_IN my_PRP$ comfort_NN zone_NN into_IN a_DT place_NN I_PRP was_VBD n't_RB sure_JJ I_PRP wanted_VBD to_TO be_VB ._. And_CC that_DT 's_VBZ not_RB a_DT bad_JJ thing_NN because_IN when_WRB I_PRP read_VBP I_PRP want_VBP to_TO be_VB astonished_VBN ,_, I_PRP want_VBP to_TO be_VB moved_VBN ,_, I_PRP want_VBP to_TO be_VB shaken_VBN to_TO the_DT core_NN and_CC Mohamed_NNP succeeds_VBZ in_IN doing_VBG this_DT ._. Having_NNP said_VBD all_PDT this_DT though_NN ,_, for_IN me_PRP ,_, the_DT most_RBS moving_JJ part_NN of_IN the_DT account_NN is_VBZ when_WRB Jama_NNP finds_VBZ employment_NN as_IN a_DT deck_NN hand_NN on_IN board_NN the_DT ``_`` Runnymede_NNP Park_NNP ''_'' at_IN Haifa_NNP ,_, Palestine_NNP ._. ``_`` Runnymede_NNP Park_NNP ''_'' was_VBD a_DT British_JJ prison_NN ship_NN carrying_VBG thousands_NNS of_IN Jewish_JJ refugees_NNS originally_RB from_IN Auschwitz_NNP ,_, Bergen-Belsen_NNP and_CC Treblinka_NNP who_WP were_VBD denied_VBN permission_NN to_TO disembark_VB in_IN Palestine_NNP (_( their_PRP$ Promised_VBN Land_NNP )_) but_CC instead_RB taken_VBN back_RB to_TO Europe_NNP to_TO be_VB made_VBN an_DT example_NN out_IN of_IN (_( thereby_JJ deterring_VBG other_JJ would-be_JJ Jewish_JJ immigrants_NNS from_IN making_VBG the_DT trip_NN to_TO Palestine_NNP )_) ._. Her_PRP$ descriptions_NNS of_IN the_DT agony_NN (_( physical_JJ and_CC mental_JJ )_) that_IN the_DT poor_JJ refugees_NNS suffered_VBD are_VBP so_RB vivid_JJ ,_, I_PRP could_MD literally_RB hear_VB the_DT crash_NN of_IN broken_JJ dreams_NNS and_CC feel_VB the_DT dejection_NN in_IN my_PRP$ own_JJ chest_NN ._. If_IN you_PRP enjoy_VBP Africa_NNP ,_, history_NN ,_, travel_NN (_( the_DT story_NN weaves_VBZ its_PRP$ way_NN through_IN a_DT labyrinth_NN of_IN countries_NNS )_) ,_, stories_NNS of_IN exile_NN and_CC survival_NN ..._: this_DT one_CD is_VBZ definitely_RB for_IN you_PRP !_. Hardcover_NN :_: 368_CD pages_NNS Publisher_NN :_: Little_JJ ,_, Brown_NNP and_CC Company_NNP ;_: 1_CD edition_NN (_( Jun_NNP 9_CD 2008_CD )_) Language_NN :_: English_JJ ``_`` Luxurious_JJ Hearses_NNS ''_'' is_VBZ this_DT (_( ``_`` Say_NNP You_PRP 're_VBP One_CD of_IN Them_NNP ''_'' )_) collection_NN 's_POS fourth_JJ and_CC longest_JJS story_NN but_CC perhaps_RB its_PRP$ most_RBS important_JJ ._. I_PRP see_VBP it_PRP as_IN important_JJ because_IN more_JJR than_IN any_DT other_JJ story_NN I_PRP have_VBP read_VBN here_RB so_RB far_RB ,_, it_PRP is_VBZ this_DT one_NN that_WDT brings_VBZ to_TO life_NN the_DT political_JJ ,_, economic_JJ and_CC religious_JJ strife_NN we_PRP read_VBP so_RB much_JJ about_IN in_IN Africa_NNP ._. The_DT story_NN ,_, set_VBN in_IN Nigeria_NNP ,_, illuminates_VBZ the_DT political_JJ situation_NN of_IN Nigeria_NNP ,_, the_DT poverty_NN of_IN the_DT people_NNS in_IN the_DT Nigerian_JJ Delta_NNP ,_, the_DT tension_NN between_IN the_DT Muslims_NNP in_IN the_DT North_NNP and_CC the_DT Christians_NNPS in_IN the_DT south_NN and_CC what_WP happens_VBZ when_WRB innocent_JJ people_NNS get_VBP caught_VBN in_IN between_IN ._. After_IN you_PRP read_VBP this_DT longish_JJ nouvella_NN you_PRP come_VBP away_RB ,_, seeing_VBG with_IN new_JJ eyes_NNS why_WRB every_DT now_RB and_CC again_RB Nigeria_NNP plunges_VBZ into_IN Muslim-Christian_JJ riots_NNS and_CC why_WRB ,_, despite_IN all_PDT the_DT oil_NN that_IN Nigeria_NNP possesses_VBZ ,_, its_PRP$ people_NNS are_VBP so_RB poor_JJ ._. Our_PRP$ protagonist_NN in_IN this_DT story_NN is_VBZ a_DT 16-year_JJ old_JJ boy_NN called_VBN Jubril_NNP who_WP is_VBZ forced_VBN to_TO head_VB south_NN (_( towards_IN the_DT Christian_NNP part_NN of_IN Nigeria_NNP )_) after_IN riots_NNS broke_VBD out_RP in_IN his_PRP$ very-Muslim_JJ city_NN of_IN Khamfa_NNP which_WDT is_VBZ in_IN the_DT north_NN ._. Ordinarily_NNP Jubril_NNP may_MD not_RB have_VB had_VBN to_TO run_VB away_RB ,_, but_CC when_WRB his_PRP$ own_JJ Muslim_NNP friends_NNS turned_VBD against_IN him_PRP for_IN having_VBG a_DT Christian_JJ father_NN (_( whom_WP he_PRP had_VBD never_RB seen_VBN or_CC known_VBN )_) he_PRP decided_VBD that_IN if_IN he_PRP was_VBD interested_JJ in_IN saving_VBG his_PRP$ life_NN it_PRP would_MD be_VB prudent_JJ for_IN him_PRP to_TO leave_VB his_PRP$ town_NN and_CC Muslim_NNP mother_NN (_( and_CC her_PRP$ family_NN )_) and_CC head_$ south_NN to_TO be_VB reunited_VBN with_IN his_PRP$ Christian_JJ dad_NN ._. The_DT story_NN of_IN his_PRP$ journey_NN from_IN the_DT North_NNP to_TO South_NNP in_IN the_DT midst_NN of_IN some_DT of_IN the_DT worst_JJS religious_JJ riots_NNS Nigeria_NNP has_VBZ ever_RB seen_VBN with_IN a_DT host_NN of_IN wonderfully-_JJ colourful_JJ characters_NNS that_WDT are_VBP his_PRP$ bus_JJ companions_NNS ;_: his_PRP$ fears_NNS and_CC insecurities_NNS about_IN heading_VBG to_TO a_DT part_NN of_IN the_DT country_NN that_WDT is_VBZ so_RB alien_JJ to_TO him_PRP and_CC his_PRP$ perpetual_JJ fear_NN of_IN being_VBG found_VBN out_RP as_IN a_DT Muslim_NNP in_IN bus_CC full_JJ of_IN Christian_JJ refugees_NNS is_VBZ riveting_VBG ,_, suspenseful_JJ and_CC unputdownable_JJ !_. The_DT reader_NN is_VBZ as_RB tense_JJ as_IN Jubril_NNP who_WP is_VBZ forced_VBN to_TO try_VB and_CC blend_VB in_IN with_IN the_DT other_JJ people_NNS on_IN the_DT bus_NN ,_, a_DT task_NN made_VBD much_RB more_RBR difficult_JJ because_IN his_PRP$ right_JJ hand_NN was_VBD lopped_VBN off_RP when_WRB he_PRP was_VBD arrested_VBN for_IN stealing_VBG a_DT goat_JJ months_NNS before_RB ._. As_IN always_RB ,_, Akpan_NNP 's_POS writing_NN holds_VBZ you_PRP spellbound_VBP ._. Most_JJS of_IN the_DT story_NN takes_VBZ place_NN on_IN the_DT bus_NN with_IN occasional_JJ flashbacks_NNS to_TO Jubrail_NNP 's_POS life_NN in_IN Khamfa_NNP before_IN he_PRP had_VBD to_TO flee_VB ._. As_IN a_DT reader_NN you_PRP are_VBP privy_JJ to_TO all_PDT the_DT conversations_NNS that_WDT place_VBP on_IN the_DT bus_NN ..._: the_DT fears_NNS ,_, egos_NNS ,_, anger_NN and_CC other_JJ emotions_NNS that_IN the_DT passengers_NNS bring_VBP with_IN them_PRP ;_: power_NN dynamics_NNS between_IN the_DT well_NN off_IN and_CC the_DT not_RB so_RB well_RB off_IN ,_, the_DT sick_NN and_CC the_DT healthy_JJ ._. Many_VB a_DT time_NN ,_, like_IN Oprah_NNP ,_, I_PRP got_VBD so_RB claustrophobic_JJ from_IN being_VBG on_IN that_IN bus_NN I_PRP had_VBD this_DT strong_JJ urge_NN to_TO jump_VB off_RP and_CC yet_RB ,_, the_DT writing_NN and_CC the_DT thought_NN of_IN what_WP might_MD happen_VB next_JJ kept_IN me_PRP glued_VBD to_TO the_DT pages_NNS ._. ``_`` An_DT Ex-Mas_JJ Feast_NN ''_'' was_VBD audacious_JJ ,_, ``_`` The_DT Fattening_NNP of_IN Gabon_NNP ''_'' was_VBD downright_RB sad_JJ ,_, but_CC ``_`` Luxurious_JJ Hearses_NNS ''_'' is_VBZ gruesome_JJ ._. You_PRP 're_VBP going_VBG to_TO need_VB a_DT strong_JJ stomach_NN to_TO endure_VB the_DT second_JJ half_NN of_IN the_DT novel_NN ._. Gruesome_VB it_PRP might_MD be_VB but_CC at_IN no_DT point_NN do_VBP you_PRP get_VB the_DT feeling_VBG the_DT author_NN is_VBZ aiming_VBG for_IN sensationalism_NN ,_, instead_RB ,_, you_PRP come_VBP away_RB feeling_VBG deeply_NN for_IN the_DT characters_NNS ,_, the_DT victims_NNS and_CC the_DT persecutors_NNS alike_RB ,_, for_IN you_PRP come_VBP to_TO understand_VB that_IN each_DT man_NN is_VBZ simply_RB doing_VBG all_DT he_PRP can_MD to_TO survive_VB ._. Since_IN each_DT of_IN the_DT five_CD stories_NNS in_IN this_DT book_NN are_VBP set_VBN in_IN different_JJ countries_NNS in_IN Africa_NNP ,_, you_PRP might_MD want_VB to_TO use_VB Howard_NNP French_NNP 's_POS ``_`` A_NNP Continent_NN for_IN the_DT Taking_NNP ''_'' or_CC even_RB Richard_NNP Dowden_NNP 's_POS ``_`` Africa_NNP :_: Altered_NNP States_NNPS ,_, Ordinary_JJ Miracles_NNS ''_'' as_IN a_DT companion_NN read_NN ._. I_PRP found_VBD both_DT very_RB helpful_JJ in_IN explaining_VBG Africa_NNP to_TO me_PRP ._. ``_`` Fattening_VBG for_IN Gabon_NNP ''_'' is_VBZ Uwem_NNP Akpan_NNP 's_POS second_JJ story_NN (_( nouvella_JJ length_NN at_IN 130_CD pages_NNS )_) in_IN the_DT collection_NN ,_, ``_`` Say_NNP You_PRP 're_VBP One_CD of_IN Them_NNP ''_'' ._. It_PRP starts_VBZ off_RP innocently_RB enough_RB with_IN a_DT young_JJ (_( 10-year_JJ old_JJ )_) boy_NN narrating_VBG how_WRB his_PRP$ maternal_JJ uncle_NN offers_NNS to_TO take_VB him_PRP and_CC his_PRP$ 5-year_JJ old_JJ sister_NN to_TO live_VB with_IN him_PRP on_IN the_DT border_NN of_IN Benin_NNP and_CC Gabon_NNP because_IN the_DT boy_NN 's_POS parents_NNS are_VBP dying_VBG of_IN AIDS_NNP and_CC too_RB poor_JJ and_CC sick_JJ to_TO look_VB after_IN the_DT children_NNS ,_, but_CC the_DT story_NN very_RB gradually_RB starts_VBZ to_TO take_VB on_IN a_DT sinister_NN tone_NN which_WDT gets_VBZ completely_RB brutal_JJ towards_IN the_DT end_NN ._. “_JJ Selling_VBG your_PRP$ child_NN or_CC nephew_NN could_MD be_VB more_RBR difficult_JJ than_IN selling_VBG other_JJ kids_NNS ”_NNS :_: that_DT is_VBZ the_DT blunt_NN line_NN with_IN which_WDT “_VBP Fattening_VBG for_IN Gabon_NNP ”_NNP begins_VBZ ._. I_PRP wish_VBP so_RB much_JJ Akpan_NNP had_VBD n't_RB used_VBN that_IN opening_VBG line_NN because_IN it_PRP really_RB does_VBZ give_VB it_PRP all_DT away_RB ._. The_DT story_NN is_VBZ so_RB beautifully_RB written_VBN that_IN had_VBD Akpan_NNP waited_VBD to_TO reveal_VB this_DT ,_, say_VBP about_IN halfway_RB through_IN the_DT story_NN ,_, I_PRP think_VBP the_DT reader_NN would_MD have_VB been_VBN shaken_VBN to_TO the_DT core_NN (_( and_CC which_WDT reader_NN does_VBZ n't_RB mind_VB being_VBG shaken_VBN ?_. )_) Anyway_RB ,_, what_WP 's_VBZ done_VBN is_VBZ done_VBN and_CC this_DT other_JJ child-narrated_JJ story_NN succeeds_VBZ in_IN provoking_VBG the_DT whole_JJ gamut_NN of_IN emotions_NNS ,_, from_IN incredulity_NN to_TO disgust_VB and_CC from_IN confusion_NN to_TO absolute_VB fear_NN in_IN the_DT reader_NN ._. For_IN me_PRP ,_, the_DT biggest_JJS issue_NN here_RB was_VBD child_JJ manipulation_NN ,_, I_PRP could_MD have_VB screamed_VBN at_IN all_DT of_IN the_DT adults_NNS in_IN this_DT story_NN and_CC cheerfully_RB lined_VBD up_RP against_IN a_DT wall_NN to_TO be_VB shot_VBN ._. I_PRP know_VBP ,_, I_PRP know_VBP some_DT of_IN you_PRP might_MD think_VB I_PRP am_VBP over_IN reacting_VBG but_CC you_PRP know_VBP ,_, when_WRB Uwem_NNP Akpan_NNP was_VBD interviewed_VBN he_PRP stated_VBD that_IN all_PDT these_DT stories_NNS were_VBD drawn_VBN from_IN real_JJ people_NNS he_PRP met_VBD and_CC counselled_VBD in_IN his_PRP$ years_NNS as_IN a_DT Jesuit_NNP Priest_NNP ._. Just_NNP to_TO know_VB that_IN there_EX are_VBP adults_NNS like_IN this_DT makes_VBZ my_PRP$ blood_NN boil_NN ._. Again_NNP ,_, as_IN in_IN the_DT previous_JJ story_NN ,_, one_CD of_IN Akpan_NNP 's_POS strengths_NNS is_VBZ in_IN how_WRB he_PRP slips_VBZ into_IN the_DT skins_NNS of_IN his_PRP$ characters_NNS no_DT matter_NN what_WP gender_NN or_CC age_NN they_PRP might_MD be_VB ._. He_PRP also_RB has_VBZ such_JJ a_DT gift_NN for_IN description_NN and_CC narration_NN ._. There_EX are_VBP several_JJ scenes_NNS that_WDT stand_VBP out_RP for_IN me_PRP in_IN this_DT story_NN ,_, the_DT main_JJ one_CD being_VBG the_DT Thanksgiving_NNP service_NN at_IN church_NN that_IN Fofo_NNP Kpee_NNP (_( the_DT uncle_NN )_) organizes_VBZ in_IN order_NN to_TO give_VB thanks_NNS for_IN his_PRP$ (_( ill-begotten_JJ )_) gain_NN ._. Akpan_NNP describes_VBZ the_DT procession_NN ,_, the_DT dancing_NN ,_, the_DT characters_NNS ,_, their_PRP$ clothes_NNS ,_, the_DT gifts_NNS ,_, the_DT priest_NN 's_POS invocations_NNS ,_, the_DT offertory_NN to_TO god_VB and_CC the_DT elation_NN the_DT family_NN feels_NNS to_TO be_VB given_VBN so_RB much_JJ importance_NN on_IN that_DT day_NN ,_, so_RB vividly_RB it_PRP is_VBZ literally_RB like_JJ watching_VBG the_DT service_NN unfold_NN on_IN a_DT cinematic_JJ screen_NN ._. What_WP a_DT writer_NN this_DT man_NN is_VBZ !_. Something_VBG I_PRP liked_VBD very_RB much_JJ (_( and_CC that_DT 's_VBZ probably_RB because_IN I_PRP listened_VBD to_TO this_DT on_IN audio_NN as_RB well_RB as_IN read_NN it_PRP in_IN print_NN )_) is_VBZ Akpan_NNP 's_POS frequent_JJ use_NN of_IN the_DT local_JJ dialect_NN in_IN the_DT dialogue_NN ._. Four_CD colloquial_JJ languages_NNS were_VBD used_VBN in_IN this_DT particular_JJ story_NN ..._: English_NNP ,_, French_JJ Idaatcha_NNP and_CC Egun_NNP sometimes_RB in_IN the_DT same_JJ paragraph_NN ._. I_PRP have_VBP spoken_VBN to_TO people_NNS who_WP found_VBD that_IN distracting_VBG ..._: not_RB me_PRP !_. !_. !_. I_PRP guess_VBP knowing_VBG a_DT little_JJ French_JJ does_VBZ help_VB speed_VB the_DT read_NN along_IN ._. Last_JJ ,_, but_CC not_RB least_JJS ..._: the_DT title_NN is_VBZ very_RB conversation-worthy_JJ ..._: but_CC that_IN ,_, I_PRP 'm_VBP afraid_JJ ,_, will_MD be_VB a_DT whole_JJ different_JJ post_NN !_. If_IN you_PRP would_MD like_VB to_TO read_VB an_DT excerpt_NN from_IN ``_`` Fattening_NNP of_IN Gabon_NNP ''_'' ..please_NN go_VB here_RB Or_NNP you_PRP might_MD want_VB to_TO watch_VB the_DT Oprah_NNP Book_NNP Club_NNP interview_NN and_CC book_NN discussion_NN with_IN the_DT author_NN here_RB Hardcover_NNP :_: 368_CD pages_NNS Publisher_NN :_: Little_JJ ,_, Brown_NNP and_CC Company_NNP ;_: 1_CD edition_NN (_( Jun_NNP 9_CD 2008_CD )_) Language_NN :_: English_JJ ``_`` Say_NNP You_PRP Are_VBP One_CD of_IN Them_NNP ``_`` by_IN Uwem_NNP Akpan_NNP (_( a_DT former_JJ Jesuit_NNP Priest_NNP )_) is_VBZ a_DT short_JJ story_NN collection_NN (_( picked_VBN by_IN Oprah_NNP for_IN her_PRP$ book_NN club_NN )_) that_WDT pays_VBZ tribute_NN to_TO the_DT wisdom_NN and_CC resilience_NN of_IN children_NNS ,_, even_RB in_IN the_DT face_NN of_IN the_DT most_RBS agonizing_JJ circumstances_NNS ._. All_PDT the_DT stories_NNS in_IN this_DT collection_NN can_MD be_VB read_VBN as_IN stand-alone_JJ stories_NNS and_CC because_IN they_PRP are_VBP all_DT so_RB stunning_JJ ,_, revealing_VBG and_CC heartbreaking_VBG I_PRP feel_VBP like_IN they_PRP deserve_VBP to_TO be_VB written_VBN about_IN individually_RB rather_RB than_IN together_RB ,_, so_IN I_PRP here_RB I_PRP go_VBP with_IN a_DT few_JJ thoughts_NNS on_IN the_DT first_JJ story_NN and_CC a_DT link_NN to_TO where_WRB you_PRP can_MD read_VB the_DT story_NN for_IN yourself_NN :_: ``_`` An_DT Ex-Mas_JJ Feast_NN ''_'' ,_, about_IN a_DT very_RB young_JJ child_NN prostitute_NN and_CC set_NN in_IN a_DT slum_NN in_IN Nairobi_NNP ,_, can_MD be_VB a_DT tough_JJ story_NN to_TO read_VB and_CC if_IN you_PRP 're_VBP feeling_VBG particularly_RB fragile_JJ it_PRP is_VBZ ,_, perhaps_RB ,_, not_RB a_DT story_NN you_PRP will_MD want_VB to_TO read_VB ._. It_PRP 's_VBZ about_IN tough_JJ situations_NNS and_CC people_NNS just_RB trying_VBG to_TO do_VB their_PRP$ best_JJS with_IN the_DT rotten_JJ cards_NNS they_PRP 've_VBP been_VBN dealt_RB ._. Although_IN the_DT lives_NNS of_IN these_DT protagonists_NNS and_CC their_PRP$ stories_NNS will_MD leave_VB you_PRP shaking_VBG your_PRP$ head_NN ,_, Akpan_NNP makes_VBZ no_DT judgement_NN on_IN his_PRP$ characters_NNS and_CC neither_DT must_MD you_PRP ._. Although_IN this_DT is_VBZ a_DT short_JJ story_NN ,_, Akpan_NNP manages_VBZ to_TO bring_VB up_RP several_JJ important_JJ issues_NNS like_IN the_DT importance_NN of_IN education_NN in_IN finding_VBG a_DT way_NN out_IN of_IN poverty_NN ,_, hunger_NN ,_, survival_NN ,_, family_NN bonds_NNS and_CC the_DT importance_NN of_IN family_NN especially_RB at_IN festival_JJ time_NN ._. To_TO read_VB the_DT full_JJ story_NN in_IN the_DT New_NNP Yorker_NNP ,_, please_NN go_VB here_RB For_IN an_DT indepth_JJ review_NN of_IN this_DT particular_JJ story_NN please_NN go_VB here_RB Paperback_NNP :_: 272_CD pages_NNS Publisher_NN :_: You_PRP Write_VBP On_IN (_( 8_CD Dec_NNP 2008_CD )_) Language_NNP English_NNP Oft_NNP late_RB ,_, there_EX has_VBZ been_VBN a_DT surge_NN of_IN books_NNS that_WDT claim_VBP to_TO strike_VB at_IN the_DT heart_NN of_IN the_DT Indian_JJ immigrant_NN experience_NN and_CC many_JJ of_IN them_PRP do_VBP ,_, like_IN Jhumpa_NNP Lahiri_NNP 's_POS ``_`` Unaccustomed_NNP Earth_NNP ''_'' ,_, Manju_NNP Kapur_NNP 's_POS ``_`` The_DT Immigrant_NNP ''_'' ,_, Bharati_NNP Mukherjee_NNP 's_POS ``_`` Desirable_JJ Daughters_NNPS ''_'' etc_NN ._. But_CC most_JJS of_IN these_DT novels_NNS are_VBP set_VBN either_RB in_IN the_DT US_NNP or_CC in_IN England_NNP ,_, so_IN when_WRB I_PRP heard_VBP about_IN Indo-Scot_NNP writer_NN Leela_NNP Soma_NNP 's_POS novel_NN set_VBN both_DT in_IN Glasgow_NNP and_CC Chennai_NNP (_( Madras_NNP )_) ,_, I_PRP knew_VBD it_PRP was_VBD going_VBG to_TO be_VB unusual_JJ and_CC different_JJ because_IN I_PRP do_VBP n't_RB think_VB I_PRP 've_VBP ever_RB read_VB the_DT experiences_NNS of_IN an_DT Indian_JJ immigrant_NN in_IN Glasgow_NNP before_IN !_. The_DT central_JJ characters_NNS ,_, Ram_NNP and_CC Sita_NNP ,_, are_VBP brought_VBN together_RB by_IN their_PRP$ families_NNS in_IN what_WP is_VBZ commonly_RB known_VBN as_IN an_DT ``_`` arranged_JJ marriage_NN ''_'' in_IN India_NNP ._. Although_IN Sita_NNP is_VBZ a_DT well_RB educated_VBN ,_, independent_JJ young_JJ woman</t>
-  </si>
-  <si>
-    <t>Another_DT view_NN of_IN the_DT Maluti_NNP Mountains_NNP from_IN Three_NNP Fountains_NNP in_IN the_DT Free_JJ State_NNP ._. For_IN more_JJR super_JJ sky_NN pictures_NNS go_VBP to_TO the_DT Skywatch_NNP site_NN ._. Sunrise_NN over_IN the_DT Maluti_NNP Mountains_NNP in_IN Lesotho_NNP taken_VBN from_IN the_DT Three_NNP Fountains_NNP View_NNP in_IN the_DT Free_JJ State_NNP ._. Go_VB to_TO Skywatch_NNP for_IN many_JJ more_JJR great_JJ pictures_NNS from_IN around_IN the_DT world_NN ._. These_DT huts_NNS &amp;_CC nbsp_NN ;_: silhouetted_VBN against_IN the_DT sunset_NN &amp;_CC nbsp_NN ;_: give_VB an_DT interesting_JJ view_NN of_IN a_DT &amp;_CC nbsp_NN ;_: village_NN &amp;_CC nbsp_NN ;_: in_IN Lesotho_NNP ._. Go_VB to_TO the_DT Skywatch_NNP site_NN for_IN more_JJR great_JJ &amp;_CC nbsp_JJ ;_: photos_NNS from_IN around_IN the_DT world_NN ._. Make_NNP mine_NN a_DT dubble_JJ or_CC should_MD I_PRP say_VB dubbel_NN or_CC is_VBZ it_PRP double_JJ ..._: ..._: ._. ?_. I_PRP guess_VBP it_PRP does_VBZ n't_RB matters_NNS ._. A_DT specialist_NN in_IN court_NN cases_NNS too_RB ?_. I_PRP think_VBP I_PRP may_MD stand_VB a_DT better_JJR chance_NN with_IN my_PRP$ with_IN my_PRP$ lawyer_NN ._. ._. ``_`` Froggy_NNP ,_, froggy_NN may_MD we_PRP cross_VB your_PRP$ golden_JJ river_NN ?_. ''_'' ``_`` No_DT !_. ''_'' ``_`` Why_WRB do_VBP n't_RB you_PRP rather_RB stop_VB for_IN a_DT while_NN and_CC admire_VB my_PRP$ beauty_NN ?_. ``_`` &amp;_CC nbsp_NN ;_: It_PRP 's_VBZ amazing_VBG what_WP you_PRP can_MD find_VB lurking_JJ beside_IN the_DT river_NN banks_NNS ._. You_PRP can_MD see_VB the_DT big_JJ picture_NN or_CC if_IN you_PRP look_VBP more_RBR closely_RB ,_, you_PRP &amp;_CC nbsp_NNS ;_: may_MD see_VB the_DT little_JJ one_NN as_RB well_RB ._. I_PRP came_VBD across_IN this_DT little_JJ fellow_JJ alongside_IN a_DT river_NN in_IN Lesotho_NNP and_CC &amp;_CC nbsp_NN ;_: identified_VBD him_PRP as_IN an_DT Ornate_NNP frog_NN (_( Hildebrandtia_NNP ornata_RB )_) ._. If_IN you_PRP are_VBP interested_JJ in_IN knowing_VBG more_JJR about_IN these_DT frogs_NNS click_VBP here_RB ._. This_DT is_VBZ the_DT second_NN of_IN my_PRP$ donkey_JJ sunsets_NNS taken_VBN in_IN Lesotho_NNP ._. Come_NNP and_CC enjoy_VB the_DT worldwide_JJ skywatch_NN experience_NN at_IN the_DT SkyWatc_NNP h_NN site_NN ._. This_DT bald_NN ibis_VBZ vey_JJ obligingly_RB posed_VBN for_IN me_PRP the_DT other_JJ day_NN in_IN Lesotho_NNP ._. I_PRP found_VBD this_DT sign_NN on_IN a_DT roadside_NN shop_NN &amp;_CC nbsp_NN ;_: in_IN Lesotho_NNP quite_RB amusing_VBG ._. I_PRP know_VBP what_WP chips_NNS are_VBP ,_, but_CC can_MD only_RB guess_VB what_WP fats_NNS are_VBP ..._: ..._: ..._: .needless_NN to_TO say_VB that_IN with_IN my_PRP$ no_DT fat_JJ and_CC low_JJ cholesterol_NN diet_NN I_PRP was_VBD not_RB tempted_VBN ._. Aside_RB from_IN the_DT humour_NN ,_, it_PRP also_RB shows_VBZ an_DT entrepreneurial_JJ spirit_NN in_IN a_DT harsh_JJ environment_NN ,_, where_WRB there_EX is_VBZ a_DT daily_JJ struggle_NN to_TO earn_VB a_DT living_NN ._. This_DT seemed_VBD like_IN a_DT desparate_NN ,_, or_CC should_MD I_PRP say_VBP novel_JJ ,_, &amp;_CC nbsp_RB ;_: appeal_NN for_IN business_NN in_IN Molteno._NNP &amp;_CC nbsp_NN ;_: I_PRP also_RB see_VBP that_IN some_DT of_IN the_DT petals_NNS on_IN the_DT flower_NN were_VBD sacrificed_VBN ,_, to_TO improve_VB the_DT view_NN of_IN the_DT sign_NN ._. Having_VBG just_RB eaten_VB a_DT big_JJ breakfast_NN at_IN Aliwal_NNP North_NNP we_PRP did_VBD not_RB stop_VB ._. Then_RB about_IN 50_CD kilometres_NNS from_IN Cradock_NNP we_PRP stopped_VBD at_IN the_DT Daggaboer_NNP Farm_NNP Stall_NNP to_TO browse_VB ._. For_IN the_DT unenlightened_JJ ``_`` dagga_NN ''_'' is_VBZ ``_`` marijuana_JJ ''_'' and_CC ``_`` boer_NN ''_'' is_VBZ ``_`` farmer_JJ ''_'' ._. Yes_UH ,_, that_WDT is_VBZ the_DT name_NN of_IN the_DT farm_NN ._. Apparently_RB the_DT name_NN has_VBZ four_CD possible_JJ origins_NNS ,_, but_CC only_RB one_CD relates_VBZ to_TO dagga_VB ._. If_IN you_PRP want_VBP &amp;_CC nbsp_VBP ;_: to_TO hear_VB these_DT accounts_NNS you_PRP will_MD have_VB to_TO pop_VB into_IN the_DT &amp;_CC nbsp_NN ;_: farm_NN stall_NN and_CC ask_VB the_DT owner_NN ._. &amp;_CC nbsp_NN ;_: It_PRP is_VBZ well_RB worth_IN a_DT visit_NN and_CC I_PRP can_MD highly_RB recommend_VB the_DT homemade_NN pineapple_NN juice_NN and_CC ginger_NN beer_NN and_CC the_DT roosterbrood_NN (_( griddle_JJ bread_NN )_) And_CC then_RB ,_, before_IN resuming_VBG the_DT journey_NN ,_, you_PRP can_MD always_RB stop_VB in_IN at_IN the_DT local_JJ loo_NN ,_, to_TO have_VB an_DT ``_`` enjoyable_JJ farm_NN pee_NN ''_'' ._. &amp;_CC nbsp_RB ;_: There_EX is_VBZ a_DT lot_NN of_IN humour_NN at_IN the_DT Daggaboer_NNP Farm_NNP Stall_NNP ._. You_PRP can_MD also_RB visit_VB them_PRP on_IN the_DT net_JJ ._. At_IN one_CD time_NN our_PRP$ travel_NN was_VBD aimed_VBN at_IN getting_VBG from_IN point_NN A_DT to_TO point_NN B_NNP as_RB quicly_RB as_IN possible_JJ ._. These_DT days_NNS we_PRP kind_NN of_IN dawdle_NN along_IN and_CC emjoy_VB the_DT ride_NN ,_, looking_VBG for_IN the_DT these_DT types_NNS of_IN roadside_NN gems_NNS ._.</t>
-  </si>
-  <si>
-    <t>en_IN years_NNS back_RB kids_NNS playing_VBG cricket_NN on_IN the_DT street_NN monisha_NN :_: i_NN wan_VBP na_TO play_VB along_RP with_IN you_PRP manoj_VBP (_( to_TO his_PRP$ friends_NNS with_IN irritation_NN )_) :_: get_VB her_PRP$ out_RP in_IN the_DT first_JJ ball_NN da_NN monisha_NN goes_VBZ back_RB home_NN crying_NN six_CD years_NNS back_RB bang_RB !_. boom_NN !_. crack_NN !_. splonch_NN !_. manoj_NN :_: you_PRP are_VBP my_PRP$ punching_VBG bag_JJ monisha_NN :_: god_NN will_MD punish_VB you_PRP (_( my_PRP$ usual_JJ dialouge_NN )_) manoj_NN :_: @_JJ #_# $_$ %_NN ^_NN !_. *_NNP &amp;_CC monisha_NNP learns_VBZ new_JJ words_NNS amma_VBP 's_POS voice_NN in_IN the_DT background_NN ``_`` ssssssaaaaaaaaiiiiiiiii_NN ''_'' this_DT is_VBZ how_WRB we_PRP were_VBD ._. but_CC now_RB we_PRP 've_VBP become_VBN sama_JJ close_JJ sama_NN friendly.the_NN covalent_NN bond_NN has_VBZ been_VBN transformed_VBN to_TO the_DT ionic_JJ bond_NN ._. and_CC now_RB coming_VBG to_TO the_DT main_JJ highlight_NN of_IN his_PRP$ life_NN ._. he_PRP being_VBG sama_JJ handsome_NN is_VBZ always_RB surrounded_VBN by_IN his_PRP$ female_JJ fans_NNS !_. !_. proof_NN for_IN being_VBG called_VBN handsome_NN :_: my_PRP$ relatives_NNS complimented_VBN hinm_NN saying_VBG he_PRP looked_VBD like_IN a_DT bollywood_NN hero_NN ,_, then_RB his_PRP$ friend_NN 's_POS mom_NN had_VBD said_VBD that_IN he_PRP looks_VBZ like_IN hrithik_NN who_WP comes_VBZ in_IN some_DT ad.aiyo_NN aiyo_NN and_CC once_RB he_PRP becomes_VBZ a_DT hero_NN i_NN get_VBP to_TO be_VB the_DT cinematographer_NN for_IN a_DT movie_NN</t>
-  </si>
-  <si>
-    <t>Sorrow_NNP and_CC pity_NN are_VBP natural_JJ responses_NNS to_TO disability_NN in_IN children_NNS –_VBP but_CC they_PRP are_VBP misplaced_VBN ,_, researchers_NNS say_VBP ._. There_EX is_VBZ no_DT need_NN to_TO feel_VB sad_JJ about_IN youngsters_NNS with_IN cerebral_JJ palsy_NNS because_IN they_PRP experience_VBP life_NN much_RB as_IN other_JJ children_NNS do_VBP –_VB with_IN all_DT its_PRP$ joys_NNS and_CC sadnesses_NNS ,_, successes_NNS and_CC failures_NNS ._. Able-bodied_JJ adults_NNS tend_VBP to_TO view_VB such_JJ children_NNS in_IN terms_NNS of_IN the_DT struggle_NN they_PRP face_VBP and_CC their_PRP$ lost_VBN potential_NN for_IN a_DT full_JJ and_CC active_JJ life_NN ._. But_CC that_DT is_VBZ not_RB how_WRB the_DT children_NNS see_VBP themselves_PRP ,_, according_VBG to_TO researchers_NNS from_IN Newcastle_NNP University_NNP ._. A_NNP study_NN of_IN 500_CD children_NNS with_IN cerebral_JJ palsy_NN in_IN seven_CD European_JJ countries_NNS has_VBZ found_VBN that_IN across_IN a_DT range_NN of_IN measures_NNS ,_, including_VBG psychological_JJ wellbeing_NN ,_, self-perception_NN and_CC social_JJ support_NN ,_, their_PRP$ levels_NNS of_IN satisfaction_NN are_VBP as_RB high_JJ as_IN in_IN other_JJ children_NNS ._. Though_IN disadvantaged_JJ ,_, in_IN some_DT cases_NNS seriously_RB ,_, their_PRP$ impairment_NN is_VBZ incorporated_VBN into_IN their_PRP$ sense_NN of_IN themselves_PRP from_IN birth_NN and_CC they_PRP embrace_VBP life_NN and_CC all_DT it_PRP has_VBZ to_TO offer_VB with_IN the_DT same_JJ excitement_NN as_IN other_JJ children_NNS ._. Professor_NNP Allan_NNP Colver_NNP of_IN Newcastle_NNP University_NNP ,_, who_WP led_VBD the_DT study_NN ,_, published_VBN in_IN The_DT Lancet_NNP ,_, said_VBD it_PRP contained_VBD an_DT important_JJ message_NN for_IN parents_NNS ._. “_JJ Parents_NNS can_MD be_VB upset_VBN when_WRB their_PRP$ child_NN is_VBZ diagnosed_VBN with_IN cerebral_JJ palsy_NNS but_CC they_PRP can_MD now_RB be_VB reassured_VBN that_IN most_JJS children_NNS with_IN the_DT condition_NN who_WP are_VBP capable_JJ of_IN providing_VBG information_NN at_IN the_DT age_NN of_IN eight_CD to_TO 12_CD have_VB a_DT similar_JJ quality_NN of_IN life_NN to_TO other_JJ children._JJ ”_NN In_IN earlier_JJR research_NN ,_, he_PRP had_VBD shown_VBN that_IN disabled_JJ children_NNS participated_VBD less_RBR in_IN activities_NNS than_IN other_JJ children_NNS ,_, because_IN of_IN the_DT restrictions_NNS imposed_VBN by_IN their_PRP$ disability_NN ._. But_CC they_PRP were_VBD no_DT less_RBR happy_JJ ._. The_DT new_JJ study_NN showed_VBD their_PRP$ quality_NN of_IN life_NN ,_, as_IN reported_VBN by_IN themselves_PRP ,_, was_VBD no_DT different_JJ ._. “_VB A_DT father_NN came_VBD up_RB to_TO me_PRP after_IN we_PRP reported_VBD the_DT results_NNS and_CC said_VBD ,_, 'You_'' have_VBP already_RB made_VBN me_PRP think_VB differently_RB about_IN my_PRP$ child_NN '_'' ,_, ”_NNP Professor_NNP Colver_NNP said_VBD ._. The_DT findings_NNS reinforced_VBD the_DT need_NN for_IN disabled_JJ children_NNS to_TO be_VB integrated_VBN into_IN society_NN ,_, he_PRP added_VBD ._. “_VB The_DT change_NN now_RB needed_VBN concerns_NNS attitudes_NNS ._. Pity_NNP and_CC sorrow_VB should_MD not_RB be_VB directed_VBN to_TO disabled_VB children_NNS because_IN our_PRP$ findings_NNS indicate_VBP that_IN they_PRP experience_VBP life_NN as_IN do_JJ non-disabled_JJ children_NNS ._. Maximum_JJ effort_NN is_VBZ needed_VBN to_TO ensure_VB their_PRP$ rights_NNS as_IN citizens_NNS ,_, rather_RB than_IN as_RB disabled_JJ children_NNS ,_, to_TO participate_VB in_IN society_NN as_RB fully_RB as_IN other_JJ children._NN ”_NNP Julie_NNP Johnson_NNP of_IN Gateshead_NNP whose_WP$ 10-year-old_JJ son_NN ,_, Nathan_NNP ,_, was_VBD diagnosed_VBN with_IN cerebral_JJ palsy_NNS at_IN four_CD months_NNS ,_, said_VBD :_: “_NN I_PRP treat_VBP Nathan_NNP and_CC his_PRP$ brother_NN the_DT same_JJ and_CC I_PRP have_VBP found_VBN that_IN both_DT of_IN them_PRP rise_VBP to_TO their_PRP$ own_JJ challenges_NNS ._. Nathan_NNP has_VBZ problems_NNS with_IN his_PRP$ left_JJ hand_NN but_CC quite_RB simple_JJ steps_NNS have_VBP enabled_VBN him_PRP to_TO attend_VB a_DT mainstream_JJ school_NN ._. He_PRP is_VBZ an_DT active_JJ ,_, happy_JJ child._NN ”_NNP Nathan_NNP said_VBD :_: “_NN I_PRP like_IN all_DT my_PRP$ teachers_NNS and_CC I_PRP have_VBP a_DT big_JJ group_NN of_IN friends_NNS at_IN school_NN ._. I_PRP have_VBP a_DT special_JJ board_NN which_WDT helps_VBZ me_PRP to_TO write_VB neater_NN ._. At_IN playtime_NN we_PRP play_VBP tag_JJ and_CC football_NN ._. ”_NN</t>
-  </si>
-  <si>
-    <t>My_PRP$ coversations_NNS with_IN God_NNP 1_CD God_NNP are_VBP you_PRP smiling_VBG ?_. I_PRP am_VBP sure_JJ its_PRP$ fun_NN for_IN You_PRP ;_: )_) but_CC but..I_$ hope_VBP You_PRP make_VBP sure_JJ its_PRP$ just_RB fun_NN for_IN me_PRP too..You_NNS have_VBP seen_VBN me_PRP do_VB this_DT before..are_NN You_PRP not_RB bored_VBD of_IN it_PRP ?_. Please_NNP keep_VB me_PRP closer..you_VB know_VBP when_WRB I_PRP need_VBP you_PRP to_TO give_VB me_PRP a_DT tight_JJ hug_NN !_. Love_NNP you_PRP ._. Contd_NNP ._. 23_CD Aug_JJ 2009_CD God_NNP please_VB plase_NN give_VB me_PRP the_DT mind_NN to_TO be_VB able_JJ to_TO concentrate_VB on_IN the_DT dissertation_NN for_IN this_DT week_NN and_CC wrap_VB it_PRP off_RP ._. I_PRP really_RB really_RB want_VBP to_TO have_VB some_DT time_NN off_IN it_PRP in_IN Manchester_NNP ._. And_CC I_PRP am_VBP trying_VBG to_TO beat_VB all_DT physical_JJ distractions_NNS ._. But_CC God_NNP you_PRP will_MD have_VB to_TO take_VB care_NN of_IN my_PRP$ mind..you_NN know_VB how_WRB useless_JJ it_PRP is_VBZ ;_: )_) Please..I_NNP hope_VBP you_PRP are_VBP not_RB having_VBG a_DT good_JJ laugh_NN right_RB now_RB !_. !_. [_IN The_DT emoticon_NN I_PRP want_VBP to_TO use_VB here_RB is_VBZ :_: P_NN but_CC I_PRP think_VBP you_PRP might_MD not_RB like_VB it_PRP !_. !_. ]_JJ Contd_NNP ._. 24th_CD Aug_JJ 2009_CD God_NNP that_WDT was_VBD a_DT hearty_JJ laugh_NN I_PRP had_VBD ,_, thanks_NNS !_. And_CC the_DT time_NN after_IN that_DT -_: I_PRP dont_VBP want_VBP to_TO be_VB this_DT ._. Can_MD you_PRP help_VB ?_. please_VB ._. Imagine_NNP -_: I_PRP cant_VBP continue_VBP like_IN this_DT forever_NN ;_: )_) isnt_VB it_PRP ?_. So_RB please_JJ make_VB sure_JJ I_PRP have_VBP plenty_NN of_IN it_PRP around_IN me_PRP :_: D_NNP And_CC yeah_UH ,_, thanks_NNS for_IN being_VBG so_RB attentive_JJ to_TO details_NNS -_: you_PRP know_VBP what_WP I_PRP mean_VBP ._. I_PRP will_MD flatter_VB myself_PRP and_CC think_VB that_IN you_PRP have_VBP all_PDT the_DT time_NN in_IN the_DT world_NN (_( pun_NN intended_VBN )_) to_TO actually_RB post_VB url_JJ errors_NNS to_TO me_PRP -_: Marvellous_JJ ._. Lots_NNS of_IN love_NN !_. Contd_NNP ._. 27th_CD Aug_JJ 2009_CD God_NNP this_DT better_JJR be_VB good..I_JJ am_VBP really_RB really_RB tired_JJ ._. I_PRP dont_VBP feel_VBP like_IN I_PRP am_VBP putting_VBG my_PRP$ best_JJS foot_NN forward..I_NN really_RB really_RB really_RB need_VB a_DT big_JJ tight_NN hug..please_NN help_VB me_PRP out..please_VB make_VB me_PRP work_VB through_IN it..please_NN pretty_RB please.._JJ</t>
-  </si>
-  <si>
-    <t>In_IN my_PRP$ last_JJ post_NN ,_, http_NN :_: //jahaines.blogspot.com/2010/03/performance-tuning-101-what-you-will.html_JJ I_PRP talked_VBD about_IN performance_NN tuning_VBG queries_NNS that_WDT appear_VBP to_TO be_VB well_RB tuned_VBN ._. There_EX are_VBP a_DT lot_NN of_IN optimization_NN techniques_NNS available_JJ unbeknownst_JJ to_TO most_JJS developers_NNS that_WDT do_VBP not_RB require_VB indexes_NNS or_CC radical_JJ code_NN changes_NNS ._. These_DT are_VBP the_DT optimizations_NNS that_IN I_PRP will_MD be_VB talking_VBG about_IN in_IN this_DT post_NN ._. There_EX is_VBZ absolutely_RB no_DT way_NN I_PRP could_MD go_VB over_RP every_DT possible_JJ optimization_NN technique_NN available_JJ ,_, but_CC I_PRP will_MD do_VB my_PRP$ best_JJS to_TO present_VB as_RB much_JJ content_NN here_RB today_NN ,_, and_CC will_MD make_VB future_JJ posts_NNS on_IN other_JJ techniques_NNS ._.</t>
-  </si>
-  <si>
-    <t>Thats_VB how_WRB long_JJ it_PRP is_VBZ untill_JJ we_PRP move_VBP ._. We_PRP have_VBP been_VBN packing_VBG like_IN crazy_NN ,_, and_CC getting_VBG the_DT kids_NNS prepared_VBD ._. We_PRP have_VBP lots_NNS of_IN people_NNS coming_VBG to_TO help_VB us_PRP on_IN Saturday_NNP ,_, so_IN i_JJ think_VBP it_PRP will_MD go_VB smoothly_RB ._. hopefully_RB fast_RB too_RB ._. I_PRP cant_VBP believe_VBP its_PRP$ so_RB soon_RB ,_, but_CC yet_RB ,_, i_NN cant_VBP wait_NN for_IN this_DT week_NN to_TO be_VB over_IN ._. I_PRP dont_VBP want_VBP to_TO be_VB in_IN this_DT house_NN anymore_RB ._. i_VB am_VBP ready_JJ to_TO move_VB on_IN ._. I_PRP got_VBD the_DT results_NNS of_IN logans_JJ latest_JJS EEG_NN ,_, and_CC it_PRP came_VBD back_RB completely_RB normal_JJ ._. no_DT seizure_NN activity_NN at_IN all_DT has_VBZ shown_VBN up_RP ._. so_RB now_RB we_PRP have_VBP to_TO figure_VB out_RP what_WP is_VBZ going_VBG on_IN with_IN him_PRP ._. he_PRP is_VBZ failing_VBG at_IN school_NN ,_, and_CC i_JJ dont_NN know_VBP what_WP more_RBR i_JJ can_MD do_VB ._. we_PRP always_RB do_VBP homework_VB with_IN him_PRP ._. he_PRP dosnt_VBD miss_JJ alot_NN of_IN school_NN ._. i_NN just_RB dont_RB know_VBP i_JJ got_VBD the_DT boys_JJ school_NN papers_NNS to_TO help_VB with_IN the_DT transfer_NN process_NN ._. they_PRP are_VBP getting_VBG really_RB excited_VBN about_IN the_DT move_NN ._. they_PRP have_VBP been_VBN ``_`` helping_VBG ''_'' me_PRP pack_VBP ._. they_PRP did_VBD well_RB with_IN their_PRP$ rooms_NNS ._. there_EX is_VBZ going_VBG to_TO be_VB alot_NN of_IN last_JJ minute_NN stuff_NN to_TO do_VB ._. Nick_NNP and_CC i_VB packed_VBD all_DT day_NN today_NN ,_, we_PRP got_VBD alot_RB done_VBN ,_, but_CC there_EX is_VBZ alot_RB more_JJR to_TO go_VB ._. and_CC i_JJ work_VBP the_DT next_JJ 3_CD nights_NNS ,_, so_RB not_RB as_IN much_JJ is_VBZ going_VBG to_TO get_VB done_VBN ._. i_NN will_MD update_VB more_RBR after_IN the_DT move_NN ,_, right_RB now_RB my_PRP$ mind_NN is_VBZ just_RB spinning_VBG and_CC i_JJ cant_JJ think_NN of_IN everything_NN i_NN want_VBP to_TO put_VB here..lol_NN</t>
-  </si>
-  <si>
-    <t>I_PRP am_VBP an_DT almost-life-long_JJ Montanan_NNP ;_: a_DT baptized_JJ Catholic_NNP ;_: an_DT ardent_JJ Atheist_NN ;_: a_DT practicing_JJ Buddhist_NNP ;_: a_DT lover_NN of_IN Wisdom_NNP ._. I_PRP find_VBP solitude_JJ to_TO be_VB as_RB essential_JJ as_IN air_NN ,_, though_IN I_PRP am_VBP at_IN times_NNS gregarious_JJ ,_, and_CC very_RB often_RB joyful_JJ ,_, alone_RB and_CC with_IN others_NNS ._. I_PRP laugh_VBP at_IN my_PRP$ own_JJ jokes_NNS ,_, love_VB learning_NN ,_, and_CC love_VBP those_DT who_WP truly_RB love_VBP ..._: ._. anything_NN ._. I_PRP have_VBP certainty_VBN in_IN little_JJ ,_, and_CC little_JJ time_NN for_IN those_DT who_WP are_VBP certain_JJ of_IN much_JJ ,_, though_IN admire_NN those_DT whose_WP$ certainty_JJ leads_VBZ to_TO service_NN of_IN humankind_NN ._. I_PRP have_VBP a_DT BA_NNP and_CC almost_RB an_DT MA_NN in_IN (_( Western_JJ )_) Philosophy_NNP ,_, an_DT MA_NNP in_IN Buddhist_NNP Studies_NNPS ,_, and_CC am_VBP working_VBG on_IN a_DT Ph.D._NNP in_IN Buddhist_NNP Ethics_NNS at_IN the_DT U_NNP of_IN London_NNP ._.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonight_NNP I_PRP took_VBD a_DT step_NN back_RB in_IN time_NN ._. I_PRP took_VBD a_DT dance_NN class_NN ._. Since_IN the_DT age_NN of_IN six_CD ,_, I_PRP took_VBD dance_NN classes_NNS ,_, and_CC the_DT dance_NN studio_NN became_VBD a_DT haven_NN for_IN me_PRP ._. Home_NNP was_VBD confusing_VBG or_CC frightening_NN ,_, school_NN was_VBD awkward_RB and_CC stressful_JJ ,_, but_CC the_DT dance_NN studio_NN was_VBD just_RB comfort-_JJ something_NN I_PRP was_VBD good_JJ at_IN that_DT gave_VBD me_PRP the_DT opportunity_NN to_TO divert_VB my_PRP$ attention_NN away_RB from_IN everything_NN else_RB ._. You_PRP can_MD ’_VB t_JJ focus_NN on_IN anything_NN else_RB during_IN a_DT dance_NN class—nothing_NN but_CC the_DT music_NN ,_, the_DT steps_NNS and_CC your_PRP$ own_JJ rhythm_NN ._. I_PRP continued_VBD taking_VBG classes_NNS all_DT through_IN high_JJ school_NN and_CC even_RB into_IN college_NN ,_, but_CC the_DT last_JJ time_NN I_PRP was_VBD in_IN a_DT studio_NN in_IN a_DT class_NN was_VBD over_IN 18_CD years_NNS ago_RB ._. EIGHTEEN_NNP ._. I_PRP thought_VBD about_IN that_DT number_NN in_IN the_DT car_NN on_IN the_DT way_NN to_TO the_DT studio_NN ._. 18_CD years_NNS ._. That_DT was_VBD probably_RB going_VBG to_TO be_VB the_DT age_NN of_IN most_JJS of_IN the_DT women_NNS in_IN the_DT class_NN ._. So_IN they_PRP were_VBD NEWBORNS_NNP the_DT last_JJ time_NN I_PRP was_VBD in_IN a_DT studio_NN ._. I_PRP was_VBD lucky_JJ enough_RB to_TO find_VB an_DT adult_NN class_NN in_IN the_DT first_JJ place_NN ,_, much_RB less_JJR only_RB a_DT mile_NN from_IN my_PRP$ house_NN ._. I_PRP knew_VBD I_PRP needed_VBD to_TO go_VB ._. I_PRP called_VBD months_NNS ago_IN about_IN the_DT class_NN and_CC every_DT week_NN ,_, something_NN came_VBD up_RB (_( real_JJ or_CC not-so-real_JJ )_) that_WDT kept_VBD me_PRP from_IN going_VBG ._. I_PRP know_VBP I_PRP need_VBP to_TO exercise_VB and_CC be_VB healthy_JJ ._. I_PRP want_VBP to_TO lose_VB weight_NN ._. And_CC the_DT only_JJ type_NN of_IN exercising_VBG that_DT appeals_NNS to_TO me_PRP is_VBZ the_DT main_JJ form_NN I_PRP spent_VBD most_JJS of_IN my_PRP$ young_JJ life_NN doing_VBG ._. So_RB taking_VBG a_DT cue_NN from_IN my_PRP$ last_JJ blog_NN post—I_NN ran_VBD out_IN of_IN reasons_NNS to_TO wait_VB ._. I_PRP got_VBD to_TO the_DT studio_NN early_JJ and_CC was_VBD almost_RB overwhelmed_VBN at_IN the_DT response_NN I_PRP had_VBD just_RB moments_NNS in_IN the_DT door_NN ._. A_DT ballet_NN class_NN was_VBD finishing_VBG up_RP ,_, the_DT students_NNS all_DT around_IN the_DT age_NN of_IN 14_CD ._. I_PRP felt_VBD such_PDT a_DT sense_NN of_IN familiarity_NN and_CC nostalgia_JJ standing_NN there_RB ,_, the_DT music_NN blaring_NN ,_, watching_VBG these_DT girls—remembering_VBG when_WRB this_DT was_VBD all_DT second_JJ nature_NN to_TO me—when_VB being_VBG in_IN a_DT dance_NN studio_NN was_VBD when_WRB I_PRP felt_VBD the_DT most_RBS “_JJ right_JJ ”_NN and_CC comfortable_JJ ._. That_DT was_VBD when_WRB I_PRP started_VBD asking_VBG myself_PRP why_WRB I_PRP had_VBD waited_VBN so_RB long_RB to_TO come_VB back_RB to_TO dance_NN ._. I_PRP knew_VBD I_PRP wasn_VBP ’_JJ t_NN going_VBG to_TO be_VB as_RB light_JJ on_IN my_PRP$ feet_NNS ,_, or_CC walk_VB into_IN the_DT studio_NN with_IN the_DT confidence_NN I_PRP used_VBD to_TO ._. I_PRP knew_VBD I_PRP was_VBD out_IN of_IN shape_NN and_CC a_DT LOT_NNP older_JJR than_IN I_PRP was_VBD the_DT last_JJ time_NN I_PRP was_VBD here…but_VBG it_PRP was_VBD a_DT part_NN of_IN me—who_NN I_PRP am—who_VBP I_PRP was_VBD --_: -a_JJ part_NN of_IN my_PRP$ life_NN I_PRP loved_VBD and_CC enjoyed_VBD very_RB much_JJ for_IN many_JJ years_NNS ._. I_PRP was_VBD a_DT bundle_NN of_IN nerves_NNS watching_VBG the_DT students_NNS file_VBP in_IN for_IN my_PRP$ class_NN ._. All_DT younger_JJR ,_, most_JJS with_IN tiny_JJ dancer_NN frames_NNS ,_, with_IN varying_VBG levels_NNS of_IN experience_NN ._. I_PRP actually_RB had_VBD butterflies_NNS when_WRB the_DT teacher_NN came_VBD to_TO the_DT front_NN of_IN the_DT room_NN to_TO begin_VB ._. For_IN a_DT second_JJ I_PRP eyed_VBD the_DT door_NN ,_, afraid_JJ I_PRP would_MD make_VB a_DT fool_NN of_IN myself_PRP ._. Then_RB ,_, the_DT teacher_NN jumped_VBD right_RB in_IN ,_, starting_VBG the_DT music_NN from_IN a_DT remote_NN in_IN her_PRP$ hand_NN ,_, and_CC I_PRP didn_VBP ’_JJ t_NNS have_VBP time_NN to_TO think_VB ._. It_PRP was_VBD hard_JJ ._. I_PRP definitely_RB learned_VBD how_WRB out_IN of_IN shape_NN I_PRP was—and_VBP the_DT figure_NN I_PRP saw_VBD in_IN the_DT mirror_NN seemed_VBD foreign_JJ to_TO me—having_VBG stared_VBN at_IN my_PRP$ much_JJ younger_JJR and_CC thinner_VB self_NN in_IN dance_NN studio_NN mirrors_NNS for_IN so_RB many_JJ years_NNS ._. But_CC I_PRP was_VBD keeping_VBG up_RP and_CC sticking_VBG it_PRP out_IN ._. I_PRP had_VBD told_VBN myself_PRP beforehand_VBP that_IN no_DT matter_NN what_WP ,_, I_PRP had_VBD to_TO make_VB it_PRP through_IN the_DT whole_JJ class_NN ._. And_CC although_IN I_PRP was_VBD sweating_VBG and_CC breathing_VBG harder_JJR than_IN I_PRP had_VBD in_IN awhile_NN ,_, there_EX was_VBD no_DT question_NN about_IN me_PRP making_VBG it_PRP through_IN the_DT entire_JJ class_NN because_IN I_PRP was_VBD having_VBG such_JJ a_DT great_JJ time_NN ._. I_PRP remembered_VBD why_WRB I_PRP loved_VBD dancing_VBG so_RB much_RB ._. The_DT freedom_NN of_IN expression-_NN that_WDT beautiful_JJ unison_NN of_IN a_DT group_NN of_IN dancers_NNS in_IN sync_NN ,_, creating_VBG something_NN graceful_JJ while_IN exercising_VBG out_RP stress_NN ,_, worry_NN ,_, and_CC excess_JJ energy_NN ._. The_DT other_JJ thing_NN I_PRP used_VBD to_TO love_VB was_VBD the_DT kinship_NN between_IN dancers—an_NN unspoken_JJ respect_NN for_IN each_DT other—and_CD an_DT understanding_NN of_IN the_DT desire_NN to_TO make_VB each_DT step_NN right_RB ,_, have_VBP each_DT beat_NN spoken_VBN for_IN ._. And_CC tonight_NN ,_, one_CD of_IN the_DT most_RBS wonderful_JJ surprises_NNS came_VBD from_IN my_PRP$ fellow_JJ students_NNS ._. I_PRP was_VBD definitely_RB the_DT lowest_JJS level_NN dancer_NN there_RB ,_, had_VBD trouble_NN with_IN some_DT steps_NNS ,_, couldn_VBP ’_JJ t_NN find_VB my_PRP$ footing_NN in_IN more_JJR than_IN a_DT few_JJ instances_NNS ._. The_DT younger_JJR girls_NNS especially_RB were_VBD so_RB sweet_JJ and_CC encouraging—cheering_VBG when_WRB I_PRP got_VBD a_DT tough_JJ combination_NN (_( finally_RB )_) that_IN we_PRP had_VBD to_TO do_VB one_CD by_IN one_CD across_IN the_DT floor_NN ._. Not_RB an_DT ounce_NN of_IN judgment_NN or_CC questioning_VBG why_WRB I_PRP was_VBD in_IN “_NNP their_PRP$ ”_JJ class_NN ._. So_CC touching_JJ and_CC exactly_RB what_WP I_PRP remembered_VBD from_IN my_PRP$ fellow_JJ dancers_NNS so_RB many_JJ years_NNS ago_RB ._. I_PRP know_VBP tomorrow_NN morning_NN I_PRP will_MD be_VB reminded_VBN of_IN just_RB how_WRB out_IN of_IN shape_NN I_PRP am_VBP ,_, and_CC will_MD discover_VB pain_NN in_IN muscles_NNS I_PRP didn_VBP ’_JJ t_NN know_VBP I_PRP had_VBD ._. But_CC I_PRP will_MD also_RB remember_VB how_WRB I_PRP felt_VBD when_WRB I_PRP walked_VBD in_IN that_DT studio_NN earlier_RB tonight_JJ and_CC heard_VBD those_DT first_JJ beats_NNS of_IN music_NN ._. I_PRP was_VBD ready_JJ to_TO step_VB back_RB out_RP on_IN the_DT dance_NN floor_NN ._. In_IN early_JJ 2008_CD ,_, I_PRP was_VBD talking_VBG to_TO a_DT friend_NN about_IN the_DT writing_VBG career_NN I_PRP wanted_VBD that_IN I_PRP feared_VBD would_MD never_RB happen_VB ._. She_PRP looked_VBD at_IN me_PRP ,_, incredulous_JJ ,_, and_CC asked_VBD ,_, “_VB What_WP are_VBP you_PRP waiting_VBG for_IN ?_. ''_'' The_DT words_NNS couldn_VBP ’_JJ t_NNS have_VBP been_VBN simpler_VBN ._. And_CC I_PRP didn_VBP ’_JJ t_NN have_VBP an_DT answer_NN ._. What_WP was_VBD I_PRP doing_VBG ,_, really_RB ?_. Was_NNP I_PRP hoping_VBG that_IN magically_RB it_PRP would_MD just_RB happen_VB ?_. I_PRP couldn_VBP ’_JJ t_NN believe_VBP how_WRB focused_JJ that_DT moment_NN made_VBD me_PRP feel_VB ._. I_PRP had_VBD been_VBN expressing_VBG how_WRB much_JJ I_PRP wanted_VBD something_NN for_IN years_NNS ,_, but_CC what_WP was_VBD I_PRP really_RB doing_VBG about_IN it—except_IN wishing_VBG ?_. And_CC so_RB ,_, I_PRP did_VBD start_VB writing_NN ,_, focusing_VBG ,_, setting_VBG small_JJ goals_NNS and_CC meeting_VBG them_PRP ._. And_CC although_IN JK_NNP Rowling_NNP and_CC I_PRP aren_VBP ’_JJ t_NN sharing_VBG an_DT agent_NN (_( yet_RB )_) ,_, I_PRP feel_VBP closer_RB to_TO my_PRP$ goal_NN than_IN ever_RB ._. And_CC I_PRP know_VBP those_DT five_CD words_NNS started_VBD it_PRP ._. As_IN of_IN late_JJ ,_, I_PRP have_VBP felt_VBN other_JJ parts_NNS of_IN my_PRP$ life_NN coming_VBG together—or_NNS at_IN least_JJS beginning_VBG to_TO ._. And_CC I_PRP realize_VBP how_WRB much_JJ time_NN I_PRP have_VBP wasted_VBN over_IN the_DT years_NNS waiting_VBG &amp;_CC nbsp_NN ;_: for_IN so_RB many_JJ things_NNS ._. Waiting_VBG for_IN a_DT boys_NNS to_TO call_VB ,_, waiting_VBG for_IN the_DT right_JJ moment_NN to_TO do_VB this_DT or_CC try_VB that_DT ,_, waiting_VBG for_IN a_DT job_NN I_PRP hated_VBD to_TO get_VB better_JJR ,_, waiting_VBG for_IN my_PRP$ family_NN to_TO change_VB so_RB I_PRP could_MD heal_VB ,_, waiting…waiting…_VB Some_DT waiting_NN is_VBZ necessary_JJ ._. You_PRP can_MD ’_VB t_VB control_NN everything_NN ._. But_CC too_RB many_JJ times_NNS in_IN my_PRP$ life_NN I_PRP took_VBD a_DT passive_JJ role_NN when_WRB I_PRP was_VBD scared_VBN or_CC unsure_NN of_IN myself_PRP ._. Too_VB many_JJ times_NNS I_PRP thought_VBD I_PRP would_MD wait_VB just_RB a_DT little_JJ longer_JJR ,_, just_RB in_IN case—even_JJ though_IN I_PRP knew_VBP in_IN my_PRP$ heart_NN that_IN nothing_NN was_VBD going_VBG to_TO change_VB ,_, or_CC that_IN I_PRP needed_VBD to_TO head_VB in_IN the_DT opposite_JJ direction_NN ._. There_EX are_VBP also_RB small_JJ instances_NNS of_IN waiting_VBG that_IN I_PRP watch_VBP myself_PRP and_CC others_NNS I_PRP am_VBP close_RB to_TO fall_VB back_RB on_IN every_DT day_NN ._. The_DT little_JJ things_NNS we_PRP put_VBD off_RP that_DT lead_NN to_TO big_JJ things_NNS ..._: I_PRP will_MD start_VB eating_VBG healthier_JJR next_JJ week_NN ,_, I_PRP will_MD actually_RB take_VB a_DT vacation_NN next_IN year_NN ,_, I_PRP will_MD start_VB exercising_VBG when_WRB the_DT weather_NN is_VBZ better_RBR ,_, I_PRP will_MD take_VB that_DT art_NN class_NN I_PRP have_VBP always_RB wanted_VBN to_TO when_WRB I_PRP have_VBP more_JJR time…_NNS For_IN the_DT last_JJ few_JJ years_NNS ,_, I_PRP didn_VBP ’_JJ t_NN want_VBP photos_NNS taken_VBN of_IN me—because_NN I_PRP felt_VBD so_RB self_RB conscious_JJ about_IN my_PRP$ weight_NN ._. I_PRP would_MD purposely_RB avoid_VB all_DT pictures—including_VBG some_DT at_IN very_RB large_JJ company_NN events_NNS I_PRP was_VBD so_RB proud_JJ to_TO have_VB pulled_VBN off_RP and_CC some_DT very_RB special_JJ occasions_NNS with_IN dear_JJ friends_NNS that_IN I_PRP just_RB couldn_VBP ’_JJ t_NN bear_NN to_TO be_VB photographed_VBN in_IN ._. As_IN a_DT result_NN ,_, there_EX are_VBP years_NNS now_RB with_IN holes—memories_NNS without_IN me_PRP in_IN them_PRP when_WRB I_PRP was_VBD a_DT central_JJ part—all_NN because_IN I_PRP was_VBD waiting_VBG until_IN I_PRP felt_VBD better_RBR about_IN how_WRB I_PRP looked_VBD to_TO include_VB myself_PRP in_IN recording_VBG them_PRP ._. I_PRP realize_VBP now_RB how_WRB silly_RB that_DT sounds—and_VBP the_DT reasons_NNS run_VBP deeper_JJR than_IN appearance_NN ._. But_CC I_PRP was_VBD once_RB again_RB waiting_VBG for_IN something_NN to_TO get_VB better—for_VB ME_NNP to_TO get_VB better_JJR before_IN I_PRP allowed_VBD myself_PRP to_TO enjoy_VB life_NN fully_RB ._. Waiting_VBG can_MD feel_VB safe_JJ ,_, but_CC now_RB I_PRP am_VBP training_VBG myself_PRP to_TO ask_VB if_IN I_PRP feel_VBP safe_JJ and_CC comfortable—or_NN scared_VBN ._. Am_VBP I_PRP waiting_VBG for_IN the_DT right_JJ reasons_NNS ?_. As_IN some_DT parts_NNS of_IN my_PRP$ life_NN begin_NN to_TO feel_VB safe_JJ and_CC dependable_JJ in_IN the_DT best_JJS senses_NNS of_IN the_DT word_NN ,_, I_PRP am_VBP learning_VBG what_WP I_PRP can_MD trust_VB and_CC who_WP I_PRP can_MD lean_VB on—what_IN parts_NNS of_IN my_PRP$ life_NN I_PRP can_MD sink_VB into_IN and_CC enjoy_VB ,_, knowing_VBG I_PRP am_VBP in_IN the_DT right_JJ place_NN ._. There_EX are_VBP areas_NNS of_IN my_PRP$ life_NN that_WDT are_VBP still_RB broken_VBN and_CC in_IN need_NN of_IN repair_NN and_CC that_DT may_MD take_VB time_NN ._. But_CC I_PRP am_VBP no_RB longer_RB relying_VBG on_IN some_DT magic_JJ solution_NN to_TO make_VB it_PRP all_DT happen_VB ._. I_PRP am_VBP living_VBG in_IN all_DT of_IN the_DT moments-_NN scared_VBD ,_, painful_JJ ,_, happy_JJ ,_, uncertain_JJ ,_, perfect_JJ or_CC broken_VBN ._. And_CC life_NN is_VBZ more_JJR real_JJ and_CC vivid_NN than_IN it_PRP has_VBZ ever_RB been—and_VBN incredibly_RB unpredictable_JJ ._. Just_VB what_WP I_PRP have_VBP been_VBN waiting_VBG for_IN ._. ``_`` You_PRP must_MD be_VB the_DT change_NN you_PRP wish_VBP to_TO see_VB in_IN the_DT world_NN ._. ''_'' -Mahatma_VBZ Gandhi_NNP With_IN all_PDT the_DT gloom_NN in_IN the_DT headlines_NNS as_IN of_IN late_JJ ,_, I_PRP came_VBD upon_IN this_DT story_NN about_IN The_DT Same_NNP Café_NNP in_IN Denver_NNP ,_, Colorado_NNP where_WRB everyone—regardless_NN of_IN their_PRP$ ability_NN to_TO pay—gets_VB a_DT beautiful_JJ meal_NN ,_, some_DT comfort_NN ,_, a_DT great_JJ does_VBZ of_IN dignity_NN ,_, and_CC probably_RB most_RBS important_JJ of_IN all—a_JJ moment_NN as_IN part_NN of_IN their_PRP$ community_NN instead_RB of_IN a_DT statistic_JJ or_CC problem_NN to_TO be_VB solved_VBN ._. My_PRP$ words_NNS won_VBD ’_JJ t_NN add_VB too_RB much_JJ impact_NN to_TO the_DT story_NN itself_PRP ,_, except_IN to_TO say_VB I_PRP am_VBP inspired_VBN ,_, and_CC when_WRB I_PRP watch_VBP something_NN like_IN this_DT I_PRP try_VBP and_CC think_VBP of_IN just_RB one_CD small_JJ thing_NN I_PRP can_MD do_VB to_TO make_VB some_DT kind_NN of_IN difference_NN for_IN anyone—within_IN the_DT next_JJ day_NN or_CC week_NN ._. It_PRP reminds_VBZ me_PRP why_WRB I_PRP love_VBP that_DT quote_NN in_IN the_DT first_JJ place_NN ._. It_PRP is_VBZ a_DT reminder_NN and_CC a_DT challenge—a_NN call_NN to_TO action_NN ._. A_DT call_NN these_DT owners_NNS have_VBP taken_VBN to_TO heart_NN --_: and_CC have_VB given_VBN as_IN a_DT gift_NN to_TO their_PRP$ community_NN ._. For_IN more_JJR great_JJ stories_NNS like_IN this_DT about_IN people_NNS making_VBG a_DT difference_NN ,_, you_PRP can_MD follow_VB the_DT MSNBC_NNP series_NN Making_VBG a_DT Difference_NN on_IN twitter_NN here_RB ._. Over_IN the_DT years_NNS ,_, throughout_IN the_DT six_CD or_CC so_RB cities_NNS I_PRP have_VBP called_VBN home_NN ,_, a_DT letter_NN or_CC email_NN would_MD come_VB from_IN my_PRP$ high_JJ school_NN reunion_NN committee_NN ._. For_IN awhile_NN ,_, they_PRP even_RB seemed_VBD to_TO lose_VB track_NN of_IN me—not_NN a_DT hard_JJ thing_NN to_TO do—as_VB I_PRP have_VBP moved_VBN more_RBR than_IN any_DT one_CD person_NN I_PRP know_VBP ._. I_PRP was_VBD fine_JJ with_IN that_DT ._. I_PRP really_RB had_VBD no_DT desire_NN to_TO revisit_VB an_DT extremely_RB awkward_JJ time_NN in_IN my_PRP$ life—and_NN all_PDT the_DT players_NNS seemed_VBD frozen_JJ in_IN time-just_JJ as_IN we_PRP all_DT were_VBD then_RB ._. That_DT was_VBD fine_JJ by_IN me_PRP ,_, too_RB ._. In_IN a_DT way_NN ,_, it_PRP made_VBD me_PRP feel_VB better_RB ._. At_IN least_JJS back_RB then_RB ,_, so_RB many_JJ people_NNS expected_VBD so_RB much_JJ of_IN me—so_JJ many_JJ high_JJ hopes_NNS ._. If_IN no_DT one_CD knew_VBD differently_RB ,_, I_PRP had_VBD achieved_VBN everything_NN I_PRP was_VBD supposed_VBN to_TO ._. So_RB much_JJ so_IN that_IN I_PRP couldn_VBP ’_JJ t_NN be_VB bothered_VBN to_TO make_VB it_PRP into_IN town_NN for_IN a_DT visit_NN with_IN old_JJ friends_NNS ,_, past_JJ acquaintances_NNS ,_, and_CC school_NN crushes_NNS ._. The_DT truth_NN was_VBD ,_, of_IN course_NN ,_, completely_RB the_DT opposite_NN ,_, at_IN least_JJS in_IN my_PRP$ eyes_NNS ._. I_PRP imagined_VBD a_DT party—all_NN the_DT familiar_JJ faces_VBZ ,_, and_CC whispers_NNS behind_IN plastic_JJ drinking_NN cups_NNS about_IN one_CD another_DT ._. How_WRB wonderful_JJ so-and-so_JJ looked_VBD ._. How_WRB so-and-so_JJ hadn_NN ’_NNP t_NN changed_VBD a_DT bit_NN ._. And_CC of_IN course_NN what_WP people_NNS would_MD think_VB of_IN me_PRP ._. Not_RB married_VBN ,_, a_DT bit_NN uncertain_JJ of_IN my_PRP$ future_NN ,_, and_CC weighing_VBG a_DT few_JJ more_JJR pounds_NNS than_IN I_PRP would_MD have_VB liked_VBN ._. So_RB when_WRB several_JJ close_RB friends_NNS began_VBD encouraging_VBG me_PRP to_TO join_VB Facebook_NNP ,_, I_PRP wasn_VBP ’_JJ t_IN the_DT least_JJS bit_NN interested_JJ ._. At_IN the_DT time_NN ,_, the_DT only_JJ real_JJ social_JJ networking_NN I_PRP was_VBD familiar_JJ with_IN was_VBD My_NNP Space_NNP ,_, mainly_RB through_IN my_PRP$ friend_NN ’_VBZ s_JJ teenage_NN children_NNS ,_, and_CC the_DT thought_NN of_IN anyone_NN my_PRP$ age_NN spending_NN time_NN online_NN for_IN such_PDT a_DT purpose_NN seemed_VBD ludicrous_JJ ._. I_PRP couldn_VBP ’_JJ t_NN imagine_NN why_WRB anyone_NN would_MD want_VB to_TO do_VB such_PDT a_DT thing_NN ._. What_WP a_DT waste_NN of_IN time_NN ._. As_IN one_CD of_IN my_PRP$ friends_NNS went_VBD on_IN to_TO explain_VB status_NN updates_NNS and_CC how_WRB you_PRP could_MD share_NN what_WP you_PRP were_VBD doing_VBG at_IN any_DT given_VBN moment—I_NNS thought_VBD surely_RB she_PRP had_VBD lost_VBN her_PRP$ mind_NN ._. Who_WP does_VBZ this_DT ?_. I_PRP can_MD ’_VB t_JJ remember_VB when_WRB I_PRP &amp;_CC nbsp_RB ;_: finally_RB took_VBD the_DT leap_NN ,_, although_IN I_PRP think_VBP it_PRP might_MD have_VB been_VBN to_TO prove_VB to_TO that_DT very_RB friend_NN (_( and_CC myself_PRP )_) what_WP a_DT bunch_NN of_IN nonsense_NN the_DT whole_JJ thing_NN was_VBD ._. And_CC at_IN first_JJ ,_, it_PRP did_VBD seem_VB that_DT way_NN to_TO me_PRP ._. Then_RB ,_, a_DT few_JJ friend_NN requests_NNS popped_VBD up_RP ._. Some_DT faces_VBZ I_PRP instantly_RB recognized_VBD ,_, others_NNS sent_VBD me_PRP to_TO my_PRP$ bookshelf_NN to_TO find_VB my_PRP$ yearbooks_NNS ,_, turning_VBG pages—remembering—and_NN a_DT bit_NN shocked_VBD that_IN some_DT of_IN these_DT people_NNS remembered_VBD me_PRP at_IN all_DT ._. I_PRP had_VBD felt_VBN invisible_JJ for_IN a_DT lot_NN of_IN high_JJ school_NN and_CC there_EX was_VBD something_NN revealing_NN in_IN knowing_VBG I_PRP was_VBD seen_VBN ._. As_IN my_PRP$ friend_NN list_NN grew_VBD ,_, I_PRP rekindled_VBD relationships_NNS with_IN people_NNS from_IN my_PRP$ past_NN ,_, kindergarten_VB classmates_NNS ,_, friends_NNS of_IN friends…acquaintances_NNS I_PRP met_VBD through_IN past_JJ jobs_NNS ,_, through_IN travel_NN ,_, and_CC through_IN the_DT other_JJ random_JJ moments_NNS in_IN life_NN ._. I_PRP found_VBD children_NNS I_PRP was_VBD a_DT nanny_NN for_IN in_IN college_NN ,_, all_DT grown_VBN up_RP with_IN the_DT same_JJ three_CD year_NN old_JJ grin_NN hidden_NN somewhere_RB in_IN their_PRP$ expression_NN ,_, and_CC magically_RB recreated_VBN in_IN their_PRP$ own_JJ toddler_NN ’_NNP s_NN faces_VBZ ._. It_PRP became_VBD all_PDT a_DT little_JJ bit—captivating_NN ._. No_RB longer_JJR were_VBD all_PDT these_DT people_NNS frozen_VBP in_IN time_NN --_: -judging_VBG me_PRP and_CC what_WP I_PRP hadn_VBP ’_JJ t_NN done—it_NN startles_NNS me_PRP to_TO think_VB how_WRB self_NN centered_VBD and_CC more_JJR than_IN a_DT little_JJ paranoid_NN that_IN thinking_NN was_VBD ._. My_PRP$ own_JJ fears_NNS made_VBD me_PRP believe_VB no_DT one_NN could_MD see_VB past_RB well_RB ,_, the_DT past_NN ,_, when_WRB it_PRP was_VBD me_PRP that_IN was_VBD stuck_VBN in_IN time_NN ,_, forgetting_VBG that_IN we_PRP all_DT step_VBP through_IN trap_NN doors_NNS ,_, miss_VB our_PRP$ chances_NNS ,_, take_VBP new_JJ directions_NNS ._. We_PRP all_DT do_VBP ._. And_CC we_PRP become_VBP who_WP we_PRP are_VBP because_IN of_IN it_PRP ._. Even_RB my_PRP$ closest_JJS friends_NNS that_IN I_PRP stay_VBP in_IN constant_JJ contact_NN with_IN have_JJ become_VBN dearer_NN to_TO me_PRP ._. I_PRP do_VBP know_VB what_WP they_PRP are_VBP doing_VBG at_IN any_DT given_VBN moment_NN when_WRB they_PRP feel_VBP like_IN sharing_NN ,_, and_CC it_PRP is_VBZ a_DT gift_NN ._. I_PRP no_RB longer_RBR just_RB hear_VB from_IN Judith_NNP through_IN emails_NNS or_CC the_DT occasional_JJ call_NN ._. I_PRP know_VBP that_IN she_PRP just_RB got_VBD great_JJ news_NN ,_, or_CC shares_NNS pictures_NNS of_IN her_PRP$ son_NN ’_NN s_JJ visit_NN from_IN college_NN ,_, and_CC I_PRP get_VBP to_TO be_VB a_DT part_NN of_IN her_PRP$ life_NN again—just_NN as_IN I_PRP did_VBD when_WRB I_PRP lived_VBD around_IN the_DT corner_NN from_IN her_PRP$ in_IN Atlanta_NNP ,_, even_RB though_IN we_PRP now_RB live_VBP five_CD hours_NNS apart_RB ._. I_PRP join_VBP in_IN my_PRP$ friends_NNS '_POS joy_NN as_IN they_PRP add_VBP to_TO their_PRP$ families_NNS and_CC share_NN pictures_NNS of_IN moments_NNS I_PRP would_MD have_VB otherwise_RB completely_RB missed_VBN ._. I_PRP see_VBP us_PRP all_DT growing_VBG up_RP ,_, doing_VBG everything_NN all_DT over_IN the_DT map_NN ._. And_CC all_DT my_PRP$ paranoid_JJ visions_NNS of_IN judgment_NN are_VBP laughable_JJ now_RB ._. The_DT love_NN and_CC support_NN from_IN people_NNS I_PRP once_RB only_RB knew_VB from_IN Algebra_NNP class_NN and_CC school_NN field_NN trips_NNS now_RB encourage_VBP me_PRP before_IN a_DT job_NN interview_NN or_CC send_VB snarky_JJ comments_NNS to_TO me_PRP when_WRB I_PRP need_VBP to_TO laugh_VB ._. My_NNP heart_NN swells_VBZ when_WRB someone_NN is_VBZ in_IN crisis_NN ,_, or_CC worries_NNS in_IN the_DT ER_NNP for_IN a_DT sick_JJ child_NN ,_, and_CC a_DT group_NN of_IN Facebook_NNP warriors_NNS from_IN all_DT across_IN the_DT globe_NN keep_VB thoughts_NNS and_CC prayers_NNS flowing_VBG through_IN message_NN after_IN message_NN lighting_VBG up_RP the_DT screen_NN at_IN all_DT hours_NNS ._. It_PRP has_VBZ been_VBN a_DT learning_JJ experience_NN ,_, and_CC for_IN any_DT naysayers_NNS about_IN social_JJ media_NNS ,_, there_EX is_VBZ something_NN so_RB connected_JJ ,_, real_JJ and_CC genuine_JJ about_IN it_PRP all_DT ,_, and_CC I_PRP can_MD honestly_RB say_VB it_PRP has_VBZ enriched_VBN my_PRP$ life_NN ._. In_IN those_DT small_JJ snippets_NNS of_IN text_NN that_WDT grace_VBP the_DT main_JJ pages_NNS ,_, there_EX is_VBZ humor_NN ,_, wisdom_NN ,_, sadness_NN ,_, and_CC acceptance_NN ._. And_CC for_IN me_PRP ,_, there_EX has_VBZ been_VBN more_JJR ._. It_PRP is_VBZ how_WRB I_PRP met_VBD the_DT person_NN I_PRP love_VBP ._. Through_IN careful_JJ steps_NNS ,_, shared_VBN memories_NNS ,_, and_CC more_JJR than_IN a_DT little_JJ trepidation_NN ,_, we_PRP got_VBD to_TO know_VB each_DT other_JJ ._. And_CC I_PRP am_VBP absolutely_RB certain_JJ I_PRP would_MD never_RB have_VB been_VBN able_JJ to_TO open_VB my_PRP$ heart_NN any_DT other_JJ way_NN ._. Coming_VBG from_IN a_DT shared_VBN background_NN ,_, knowing_VBG his_PRP$ past_NN ,_, him_PRP knowing_VBG mine_NN ,_, others_NNS knowing_VBG both_DT of_IN us_PRP (_( and_CC encouraging_VBG a_DT romance_NN )_) —it_NN was_VBD the_DT perfect_JJ formula_NN for_IN me_PRP to_TO step_VB back_RB into_IN the_DT world_NN of_IN trust_NN ._. And_CC I_PRP did_VBD ,_, one_CD status_NN update_NN at_IN a_DT time_NN ._. I_PRP constantly_RB search_VBP for_IN a_DT way_NN to_TO quiet_VB my_PRP$ mind_NN once_IN it_PRP starts_VBZ whirling—a_JJ way_NN to_TO stop_VB thinking_NN ,_, worrying_NN ,_, and_CC fretting_VBG ._. At_IN times_NNS when_WRB I_PRP feel_VBP overwhelmed_JJ ,_, I_PRP need_VBP something_NN to_TO escape_VB into_IN ._. For_IN many_JJ years_NNS ,_, cooking_NN has_VBZ been_VBN a_DT source_NN of_IN passion_NN and_CC comfort_NN for_IN me_PRP --_: a_DT way_NN to_TO sink_VB into_IN something_NN else_RB and_CC change_VB my_PRP$ focus_NN ._. Having_VBG been_VBN single_JJ for_IN more_JJR years_NNS than_IN I_PRP would_MD like_VB to_TO count_VB ,_, it_PRP has_VBZ too_RB often_RB seemed_VBD a_DT waste_NN ,_, or_CC at_IN times_NNS too_RB costly_JJ to_TO do_VB the_DT kind_NN of_IN cooking_VBG I_PRP like_VBP to_TO do_VB ._. Nothing_NN makes_VBZ me_PRP happier_JJR than_IN a_DT crowd_NN to_TO cook_VB for_IN ._. I_PRP love_VBP all_DT of_IN it—the_NN planning_NN ,_, choosing_VBG recipes_NNS ,_, finding_VBG out_RP who_WP likes_VBZ what_WP ,_, and_CC then_RB the_DT shopping_NN ,_, preparation_NN and_CC unveiling_VBG the_DT finished_JJ product_NN ._. To_TO me_PRP it_PRP is_VBZ sharing_VBG love_NN ,_, giving_VBG of_IN myself_PRP ,_, and_CC I_PRP enjoy_VBP so_RB much_JJ watching_VBG others_NNS enjoy_VBP a_DT good_JJ meal—and_NN the_DT camaraderie_NN and_CC laughter_NN that_WDT accompany_VBZ it_PRP ._. I_PRP never_RB questioned_VBD whether_IN or_CC not_RB I_PRP would_MD be_VB able_JJ to_TO cook…it_VB was_VBD something_NN I_PRP saw_VBD my_PRP$ mother_NN and_CC my_PRP$ grandmother_NN instinctively_RB do—with_VBZ rarely_RB a_DT cookbook_NN or_CC recipe_VB card_NN in_IN sight_NN ._. I_PRP assumed_VBD it_PRP was_VBD a_DT learned_JJ behavior_NN like_IN reading_VBG or_CC riding_VBG a_DT bike_NN ._. I_PRP do_VBP believe_VB that_IN part_NN of_IN that_DT mentality_NN is_VBZ from_IN a_DT southern_JJ upbringing_NN ._. At_IN least_JJS from_IN my_PRP$ mother_NN 's_POS point_NN of_IN view_NN ,_, it_PRP seemed_VBD expected_VBN for_IN a_DT woman_NN to_TO be_VB a_DT good_JJ cook—it_NN was_VBD all_DT part_NN of_IN getting_VBG (_( and_CC keeping_VBG )_) a_DT husband_NN ._. But_CC for_IN all_DT of_IN the_DT backwards_NNS and_CC sometimes_RB time-warped_JJ southern_JJ traditions_NNS ,_, I_PRP am_VBP thankful_JJ that_IN learning_VBG to_TO cook_VB --_: feeling_VBG the_DT need_NN to_TO cook_VB is_VBZ in_IN my_PRP$ DNA_NN ._. In_IN my_PRP$ grandmother_NN ’_NN s_NN tiny_JJ mountain_NN cabin_NN ,_, which_WDT lacked_VBD a_DT full_JJ plumbing_NN system_NN ,_, and_CC barely_RB enough_JJ room_NN for_IN all_DT of_IN us_PRP to_TO stand-_JJ let_VB alone_JJ sit-_NN in_IN her_PRP$ house_NN ,_, she_PRP created_VBD aromas_NN I_PRP am_VBP not_RB sure_JJ have_VBP been_VBN replicated_VBN to_TO date_NN ,_, even_RB though_IN my_PRP$ mother_NN holds_VBZ many_JJ of_IN the_DT recipes_NNS ._. Her_PRP$ gravy_NN and_CC biscuits_NNS still_RB makes_VBZ me_PRP ache_VB for_IN Sunday_NNP mornings_NNS ,_, and_CC even_RB though_IN I_PRP have_VBP watched_VBN my_PRP$ mother_NN countless_NN times_NNS ,_, and_CC have_VBP made_VBN more_RBR attempts_NNS than_IN I_PRP care_VBP to_TO mention_VB ,_, I_PRP can_MD ’_VB t_NNS make_VBP them_PRP taste_VB the_DT same_JJ ._. Because_IN my_PRP$ mother_NN grew_VBD up_RP very_RB poor_JJ ,_, my_PRP$ grandmother_NN ’_NN s_NN cooking_VBG skills_NNS were_VBD put_VBN even_RB more_RBR to_TO the_DT test_NN ,_, trying_VBG to_TO stretch_VB a_DT thin_JJ budget_NN to_TO feed_VB five_CD children_NNS ._. Even_RB still_RB ,_, my_PRP$ mother_NN recalls_VBZ my_PRP$ grandmother_NN ’_NN s_NN dishes_NNS with_IN great_JJ admiration_NN and_CC nostalgia_NN ,_, and_CC these_DT same_JJ dishes_NNS have_VBP graced_VBN our_PRP$ table_NN over_IN the_DT years_NNS ._. And_CC while_IN growing_VBG up_RP things_NNS in_IN my_PRP$ house_NN were_VBD strained_VBN ,_, tough_JJ ,_, and_CC at_IN times_NNS incredibly_RB unhappy—some_IN of_IN the_DT few_JJ peaceful_JJ times_NNS we_PRP shared_VBD as_IN our_PRP$ disconnected_JJ silhouette_NN of_IN a_DT family_NN were_VBD around_IN the_DT dinner_NN table_NN ._. Looking_VBG back_RB ,_, it_PRP was_VBD almost_RB as_IN if_IN when_WRB the_DT kitchen_NN timer_NN sounded—all_PDT the_DT chaos_NN took_VBD a_DT time_NN out_RP for_IN dinner_NN ._. My_PRP$ mother_NN was_VBD and_CC has_VBZ always_RB been_VBN an_DT excellent_JJ cook_NN ,_, and_CC many_JJ nights_NNS out_IN of_IN the_DT week_NN ,_, we_PRP sat_VBD down_RB to_TO a_DT great_JJ meal_NN ._. There_EX is_VBZ a_DT calming_JJ effect_NN with_IN food—the_JJ anticipation_NN ,_, savoring_VBG ,_, the_DT focus_NN ._. In_IN the_DT midst_NN of_IN the_DT end_NN of_IN a_DT workday_NN ,_, an_DT argument_NN ,_, or_CC just_RB a_DT swirl_NN of_IN activity_NN ,_, everything_NN has_VBZ to_TO slow_VB down_RP ,_, at_IN least_JJS somewhat_RB ._. For_IN me_PRP ,_, cooking_VBG was_VBD always_RB a_DT little_JJ for_IN daydreaming_VBG ,_, too_RB ._. I_PRP always_RB imagined_VBD honing_VBG my_PRP$ skills_NNS ,_, and_CC how_WRB I_PRP would_MD one_CD day_NN be_VB a_DT wife_NN and_CC mother_NN ,_, preparing_VBG meals_NNS for_IN my_PRP$ family—my_JJ fresh_JJ start—to_NN heal_NN and_CC begin_VB anew_RB ._. Over_IN the_DT years_NNS as_IN that_DT seemed_VBD further_RB from_IN reality_NN ,_, I_PRP still_RB took_VBD comfort_NN in_IN cooking_VBG for_IN my_PRP$ friends_NNS ,_, coworkers_NNS ,_, and_CC my_PRP$ surrogate_JJ family_NN members_NNS throughout_IN all_PDT the_DT cities_NNS I_PRP lived_VBD in_IN ._. And_CC so_RB many_JJ times_NNS when_WRB I_PRP was_VBD concentrating_VBG on_IN the_DT dreams_NNS that_WDT I_PRP didn_VBP ’_JJ t_NNS see_VBP coming_VBG true_JJ ,_, I_PRP didn_VBP ’_JJ t_NN realize_NN that_IN in_IN many_JJ of_IN my_PRP$ closest_JJS friend_NN ’_NN s_NN houses_NNS ,_, the_DT kitchen_NN brought_VBD me_PRP a_DT sense_NN of_IN family_NN ._. I_PRP think_VBP of_IN Judith_NNP ’_NNP s_VBD kitchen_NN in_IN Atlanta_NNP ,_, sharing_VBG so_RB many_JJ meals_NNS in_IN her_PRP$ home_NN ,_, the_DT back_NN of_IN the_DT house_NN awash_NN with_IN light_NN over_IN early_JJ dinners_NNS of_IN “_NNP mom_NN ’_NNP s_VBZ special_JJ dish_JJ ”_NN (_( her_PRP$ son_NN ’_NN s_JJ favorite_NN )_) ._. I_PRP think_VBP of_IN “_NNS Nanny_NNP Rice_NNP ”_NNP made_VBD with_IN so_RB much_JJ love_NN in_IN Debby_NNP ’_NNP s_VBD kitchen_NN in_IN NC_NNP that_IN I_PRP grew_VBD up_RP associating_VBG it_PRP with_IN comfort_NN and_CC her_PRP$ heart_NN for_IN me_PRP ._. I_PRP think_VBP of_IN cooking_VBG meals_NNS at_IN Patrick_NNP and_CC Kristin_NNP ’_NNP s_NN house_NN for_IN friends_NNS and_CC for_IN their_PRP$ little_JJ girls_NNS ,_, remembering_VBG when_WRB they_PRP still_RB sat_VBD in_IN booster_NN seats_NNS giggling_VBG at_IN me_PRP from_IN across_IN the_DT table_NN ._. And_CC in_IN just_RB the_DT last_JJ few_JJ weeks_NNS ,_, my_PRP$ best_JJS friend_NN Kim_NNP and_CC I_PRP have_VBP shared_VBN and_CC made_VBN each_DT other_JJ ’_JJ s_JJ recipes_NNS more_RBR than_IN once_RB ._. She_PRP is_VBZ my_PRP$ teacher_NN as_IN of_IN late_JJ ,_, and_CC I_PRP love_VBP knowing_VBG I_PRP have_VBP her_PRP$ expertise_NN at_IN any_DT moment_NN ._. As_IN I_PRP made_VBD a_DT pot_NN of_IN homemade_NN soup_NN tonight_NN at_IN the_DT end_NN of_IN a_DT stressful_JJ day—after_NN too_RB many_JJ worries_NNS about_IN money_NN ,_, work_NN ,_, and_CC tough_JJ decisions-_NN I_PRP found_VBD myself_PRP slowing_VBG down_RP ,_, as_IN I_PRP chopped_VBD and_CC sliced_VBD ,_, sautéed_NN and_CC stirred_VBN ._. And_CC a_DT little_JJ bit_NN of_IN each_DT of_IN those_DT kitchens—from_NNS my_PRP$ grandmother_NN ’_NN s_NN to_TO Judith_NNP ’_NNP s_NN to_TO Debby_NNP ’_NNP s—and_NN finally_RB ,_, my_PRP$ own_JJ --_: helped_VBD me_PRP ease_VB my_PRP$ mind_NN and_CC feel_VB a_DT sense_NN of_IN comfort_NN and_CC family_NN ._. And_CC there_EX is_VBZ nothing_NN more_RBR delicious_JJ than_IN that_DT ._. There_EX are_VBP times_NNS when_WRB &amp;_CC nbsp_VBP ;_: I_PRP spend_VBP hours_NNS on_IN a_DT blog_NN post_NN ,_, sorting_VBG through_IN all_DT my_PRP$ thoughts_NNS and_CC sentences_NNS ,_, wearing_VBG the_DT pages_NNS of_IN my_PRP$ thesaurus_NN thin_NN ,_, not_RB able_JJ to_TO connect_VB the_DT exact_JJ meaning_NN with_IN my_PRP$ keystrokes_NNS ._. I_PRP always_RB have_VBP a_DT feeling_NN of_IN accomplishment_NN when_WRB I_PRP am_VBP done_VBN --_: believing_VBG at_IN least_JJS that_IN I_PRP have_VBP gotten_VBN as_RB close_JJ as_IN I_PRP can_MD ._. Sometimes_VB the_DT words_NNS resonate_VBP with_IN readers_NNS and_CC sometimes_RB they_PRP do_VBP n't_RB ,_, but_CC I_PRP know_VBP I_PRP said_VBD what_WP I_PRP wanted_VBD or_CC needed_VBN to_TO say_VB ._. Then_RB ,_, there_EX are_VBP times_NNS when_WRB the_DT words_NNS flow_NN ,_, when_WRB I_PRP ca_MD n't_RB get_VB them_PRP down_RP fast_RB enough_RB ..._: it_PRP is_VBZ almost_RB stressful_JJ to_TO write_VB at_IN a_DT quick_JJ enough_JJ pace_NN before_IN I_PRP forget_VBP where_WRB my_PRP$ mind_NN is_VBZ heading_VBG ._. More_RBR often_RB than_IN not_RB ,_, these_DT writing_VBG bursts_NNS happen_VB late_RB at_IN night_NN (_( or_CC early_RB in_IN the_DT morning_NN )_) --_: as_IN my_PRP$ nightowl_NN tendencies_NNS lend_VBP me_PRP to_TO greater_JJR creative_JJ connectivity_NN past_IN the_DT hours_NNS of_IN midnight_NN ._. And_CC many_JJ times_NNS ,_, those_DT streaming_VBG thoughts_NNS are_VBP the_DT ones_NNS that_WDT seem_VBP to_TO connect_VB --_: I_PRP know_VBP there_EX is_VBZ more_JJR of_IN a_DT purity_NN there_RB ._. My_PRP$ last_JJ post_NN ,_, No_DT Other_JJ Way_NNP ,_, &amp;_CC nbsp_NN ;_: was_VBD one_CD of_IN </t>
-  </si>
-  <si>
-    <t>our_PRP$ class_NN rep._NN is_VBZ the_DT top_JJ padips_NN of_IN my_PRP$ class_NN ..._: .she_NN is_VBZ pretty_JJ diplomatic_JJ in_IN the_DT way_NN she_PRP moves_VBZ with_IN outside_JJ ppl_NN ..._: and_CC is_VBZ really_RB a_DT gud_NN friend_NN to_TO move_VB with_IN ..._: and_CC is_VBZ one_CD among_IN those_DT who_WP keeps_VBP commitment_NN higher_JJR than_IN anything_NN else_RB in_IN life_NN !_. ..._: .and_NN ofcourse_NN is_VBZ also_RB the_DT famous_JJ vasool_NN rani_NN of_IN the_DT class_NN ..._: anybody_NN aspiring_VBG to_TO become_VB one_CD ..._: do_VBP contact_VB her_PRP$ !_. !_. !_. !_. !_.</t>
-  </si>
-  <si>
-    <t>I_PRP 'm_VBP writing_VBG in_IN again_RB ..._: something_NN must_MD be_VB really_RB wrong_JJ with_IN me_PRP ..._: (_( just_RB kidding_VBG )_) .._FW Hmmm_NNP ..._: .people_VBZ she_PRP 's_VBZ great_JJ fun_NN to_TO be_VB with_IN ..._: .very_NN caring_NN ..._: highly_RB mischievous_JJ ..._: hard_RB core_NN entertainer_NN ..._: I_PRP always_RB associate_VBP u_JJ with_IN Hubli_NNP ..._: those_DT days_NNS were_VBD so_RB much_JJ fun_NN ..._: pulling_VBG each_DT others_NNS leg.._VBP The_DT so_RB called_VBN combined_VBN studies_NNS which_WDT were_VBD more_RBR concentrated_VBN on_IN general_JJ issues_NNS rather_RB than_IN on_IN studies_NNS ..._: we_PRP used_VBD to_TO talk_VB the_DT whole_JJ day_NN in_IN college_NN but_CC would_MD still_RB have_VB a_DT lot_NN left_VBD to_TO talk_VB over_IN the_DT phone_NN after_IN college_NN ..._: n_RB those_DT rides_NNS on_IN ur_JJ bike_NN (_( spirit_NN )_) ..._: putting_VBG us_PRP on_IN high_JJ spirits.._NN superb_NN fun_NN that_WDT was_VBD ..._: how_WRB much_JJ i_NN miss_VBP all_PDT that_DT ..._: !_. !_. !_. but_CC i_JJ 'm_VBP glad_JJ that_IN i_NN was_VBD a_DT part_NN of_IN all_PDT the_DT fun_NN ..._: but_CC what_WP i_NN do_VBP n't_RB like_VB is_VBZ u_JJ irritating_VBG me_PRP when_WRB i_JJ start_VBP telling_VBG about_IN Maddy_NNP ..._: i_NN 'm_VBP used_VBN to_TO it_PRP though_IN ..._: i_JJ think_VBP i_NNS have_VBP covered_VBN most_JJS of_IN the_DT things..will_NN keep_VB updating_VBG when_WRB new_JJ things_NNS come_VBP in.._JJ miss_NN u_NN loose_NN ..._: .very_RB much_RB ..._: ._. take_VB care_NN ..._: ._.</t>
-  </si>
-  <si>
-    <t>I_PRP have_VBP had_VBD the_DT honor_NN to_TO smell_VB the_DT trash_NN bins_NNS first_JJ hand_NN ._. Let_VB me_PRP ensure_VB you_PRP it_PRP is_VBZ a_DT pleasant_JJ way_NN to_TO jumpstart_VB one_CD ’_NNP s_NN morning_NN ._. Yes_UH we_PRP should_MD all_DT have_VB the_DT great_JJ pleasure_NN in_IN taking_VBG out_RP our_PRP$ garbage_NN in_IN the_DT morning_NN ,_, like_IN good_JJ little_JJ tenants_NNS trying_VBG to_TO stave_VB off_RP small_JJ vermin_NN and_CC cockroaches_NNS ,_, and_CC get_VB hit_VBN with_IN a_DT wall_NN of_IN putrid_JJ tang_NN nastiness_NN ._. Yes_UH we_PRP should_MD all_DT have_VBP that_DT pleasure_NN ._. Further_NNP ,_, I_PRP have_VBP previously_RB matched_VBN the_DT stench_NN of_IN the_DT rubbish_JJ bin_NN 's_POS odoriferous_JJ emanations_NNS to_TO the_DT ones_NNS festering_VBG behind_IN your_PRP$ own_JJ kitchen_NN door_NN ._. Though_IN I_PRP am_VBP not_RB a_DT creature_NN with_IN specially-honed_JJ olfactory_NN cells_NNS ,_, I_PRP ensure_VB you_PRP that_IN the_DT special_JJ brand_NN of_IN stench_NN you_PRP create_VBP is_VBZ unmistakable_JJ ._.</t>
-  </si>
-  <si>
-    <t>I_PRP was_VBD sorting_VBG through_IN some_DT papers_NNS I_PRP need_VBP to_TO file_VB away_RB and_CC I_PRP came_VBD across_IN this_DT picture_NN I_PRP cut_VBD out_RB of_IN a_DT gardening_JJ magazine_NN ._. I_PRP may_MD have_VB shown_VBN you_PRP this_DT one_CD before_IN ._. I_PRP think_VBP it_PRP is_VBZ a_DT gorgeous_JJ combination_NN ._. As_IN I_PRP admired_VBD it_PRP all_DT over_RB again_RB ,_, I_PRP realized_VBD that_IN I_PRP had_VBD just_RB ordered_VBN one_CD of_IN those_DT big_JJ black_JJ elephant_NN ears_NNS !_. Whoo_NNP hooo_NN ..._: .I_CC am_VBP going_VBG to_TO create_VB a_DT look_NN alike_RB of_IN this_DT planter_NN ._. I_PRP even_RB have_VBP a_DT container_NN in_IN a_DT similar_JJ blue_NN color_NN ._. This_DT one_CD ..._: ._. I_PRP think_VBP it_PRP will_MD work_VB ,_, though_IN it_PRP 's_VBZ a_DT bit_RB smaller_JJR than_IN I_PRP would_MD like_VB ._. Now_RB I_PRP just_RB need_VB to_TO find_VB some_DT Hakone_NNP grass_NN (_( Hakonechloa_NNP macra_NNP 'All_POS Gold_NNP '_POS )_) ._. I_PRP think_VBP I_PRP saw_VBD it_PRP for_IN sale_NN around_IN here_RB last_JJ year_NN ._. Of_IN course_NN that_WDT does_VBZ not_RB mean_VB I_PRP will_MD find_VB it_PRP now_RB that_IN I_PRP want_VBP it_PRP ._. I_PRP often_RB buy_VBP a_DT plant_NN and_CC the_DT next_JJ year_NN it_PRP 's_VBZ no_DT where_WRB to_TO be_VB found_VBN ._. I_PRP guess_VBP I_PRP could_MD use_VB any_DT plant_NN with_IN grass-like_JJ foliage_NN in_IN a_DT chartreuse_NN color_NN ..._: of_IN course_NN ,_, I_PRP ca_MD n't_RB think_VB of_IN any_DT other_JJ ..._: ..._: ..._: .can_JJ you_PRP ?_. I_PRP am_VBP really_RB beginning_VBG to_TO get_VB excited_VBN for_IN planting_VBG time_NN !_. For_IN the_DT past_JJ two_CD years_NNS I_PRP have_VBP been_VBN wanting_VBG a_DT black_JJ (_( really_RB it_PRP 's_VBZ dark_JJ purple_NN )_) elephant_NN ear_NN plant_NN ._. I_PRP could_MD not_RB find_VB one_CD any_DT place_NN in_IN my_PRP$ town_NN ._. So_IN when_WRB I_PRP got_VBD Breck_NNP 's_POS offer_NN today_NN ,_, I_PRP immediately_RB ordered_VBD this_DT collection_NN :_: I_PRP will_MD get_VB one_CD each_DT of_IN the_DT following_JJ varieties_NNS :_: Hilo_NNP Beauty_NNP -_: heart-shaped_JJ leaves_NNS in_IN a_DT unique_JJ camouflaged_JJ pattern_NN Black_NNP Magic_NNP -_: mysterious_JJ dark_JJ purple_NN foliage_NN up_RB to_TO 2_CD feet_NNS in_IN length_NN Persian_JJ Palm_NNP -_: serrated_VBD leaves_VBZ up_IN to_TO 42_CD inches_NNS long_RB pointing_VBG outward_RP As_IN an_DT added_JJ bonus_NN ,_, they_PRP include_VBP a_DT free_JJ Polly_NNP Elephant_NNP Ears_NNP ._. They_PRP are_VBP small_JJ ;_: just_RB 18inches_CD or_CC so_RB high_JJ ._. I_PRP already_RB have_VBP one_CD of_IN these_DT in_IN a_DT combination_NN planter_NN I_PRP bought_VBD last_JJ year_NN and_CC keep_VB inside_NN ._. I_PRP did_VBD not_RB know_VB what_WP it_PRP was_VBD until_IN today_NN ._. Elephant_JJ ears_NNS go_VBP quite_RB nicely_RB with_IN my_PRP$ other_JJ tropicals_NNS --_: cannas_NNS and_CC calla_NN lilies_NNS ._. If_IN I_PRP spent_VBD $_$ 50_CD ,_, I_PRP got_VBD $_$ 25_CD off_IN ,_, so_IN I_PRP also_RB ordered_VBD another_DT Rembrandt_NNP Dahlia_NNP collection_NN ._. It_PRP was_VBD basically_RB free_JJ -_: just_RB tax_NN and_CC shipping_NN ._. I_PRP really_RB enjoyed_VBD the_DT splotchy_JJ paint-like_JJ splatters_NNS on_IN the_DT ones_NNS I_PRP got_VBD two_CD years_NNS ago_RB ._. So_RB now_RB I_PRP am_VBP gung-ho_JJ on_IN planting_VBG the_DT deck_NN containters_NNS ._. It_PRP 's_VBZ still_RB two_CD months_NNS away_RB for_IN me_PRP ,_, but_CC it_PRP will_MD go_VB by_IN fast_RB ._. I_PRP probably_RB wo_MD n't_RB be_VB buying_VBG any_DT annuals_NNS again_RB this_DT year_NN because_IN I_PRP wo_MD n't_RB have_VB room_NN for_IN any_DT ._. Anybody_NN else_RB ordering_VBG flower_NN bulbs_NN ,_, corms_NNS ,_, etc_FW ?_. I_PRP have_VBP had_VBN my_PRP$ eye_NN on_IN this_DT vivid_NN flower_NN pin_NN for_IN some_DT time_NN ._. I_PRP think_VBP it_PRP 's_VBZ cute_JJ as_IN a_DT bug_NN 's_POS ear_NN ,_, as_IN they_PRP say_VBP down_RP south_RB ._. It_PRP 's_VBZ 3.5_CD x_NN 4_CD inches_NNS across_IN ._. It_PRP 's_VBZ made_VBN to_TO pin_VB to_TO a_DT jacket_NN or_CC sweater_NN and_CC wear_VBP like_IN a_DT brooch_NN ._. But_CC that_DT is_VBZ not_RB what_WP I_PRP plan_VBP to_TO do_VB with_IN it_PRP ._. My_PRP$ thought_NN is_VBZ to_TO affix_VB it_PRP to_TO a_DT big_JJ hair_NN barrette_NN and_CC wear_VB it_PRP with_IN some_DT of_IN my_PRP$ bright_JJ spring_NN jackets_NNS when_WRB I_PRP pull_VBP my_PRP$ hair_NN into_IN a_DT short_JJ ,_, stubby_JJ ponytail_NN ._. I_PRP think_VBP it_PRP will_MD go_VB with_IN that_DT bright_JJ star_NN handbag_NN I_PRP made_VBD a_DT few_JJ weeks_NNS ago_RB ._. This_DT one_CD ..._: Whoa_NN ..._: ..._: they_PRP will_MD see_VB me_PRP coming_VBG for_IN a_DT mile_NN in_IN all_DT directions_NNS !_. If_IN I_PRP like_VBP it_PRP ,_, I_PRP will_MD make_VB a_DT bunch_NN more_JJR of_IN them_PRP ._. It_PRP looks_VBZ like_IN it_PRP 's_VBZ pretty_JJ easy_JJ to_TO make_VB ._. My_PRP$ plan_NN is_VBZ to_TO use_VB denim_NN and_CC matching_VBG fabrics_NNS for_IN the_DT bags_NNS I_PRP 've_VBP made_VBN ._. And_CC if_IN I_PRP do_VBP n't_RB like_VB it_PRP ..._: ..well_RB ,_, it_PRP was_VBD on_IN clearance_NN for_IN only_RB $_$ 4.99_CD ,_, so_IN I_PRP wo_MD n't_RB be_VB out_RB much_JJ ._. Thank_VB you_PRP all_DT for_IN the_DT kind_NN comments_NNS on_IN my_PRP$ last_JJ post_NN !_. I_PRP am_VBP finding_VBG it_PRP very_RB rewarding_VBG to_TO make_VB bags_NNS to_TO match_VB individual_JJ outfits_NNS ._. I_PRP have_VBP not_RB actually_RB used_VBN any_DT yet_RB ,_, but_CC they_PRP are_VBP fun_JJ to_TO design_VB and_CC sew_VB ._. They_PRP are_VBP not_RB the_DT kind_NN of_IN bags_NN I_PRP would_MD take_VB to_TO work_VB ,_, but_CC I_PRP think_VBP I_PRP will_MD have_VB a_DT ball_NN using_VBG them_PRP for_IN my_PRP$ leisure_NN activities_NNS this_DT spring/summer_NN ._. I_PRP was_VBD surprised_VBN to_TO see_VB a_DT comment_NN from_IN my_PRP$ Mom_NNP asking_VBG for_IN a_DT bag_NN ._. Yes_UH ,_, Mother_NNP ,_, I_PRP would_MD be_VB happy_JJ to_TO make_VB you_PRP a_DT handbag_NN ._. Just_NNP let_VB me_PRP know_VB which_WDT color_NN tulip_NN you_PRP would_MD like_VB ._. I_PRP can_MD be_VB your_PRP$ personal_JJ handbag_NN designer_NN --_: -Look_VB out_RP Louis_NNP Vuitton_NNP --_: Zoey_NNP bags_NNS may_MD soon_RB be_VB all_PDT the_DT rage_NN !_. Since_IN I_PRP am_VBP answering_VBG questions_NNS in_IN this_DT post_NN ,_, I_PRP shall_MD answer_VB one_CD more_JJR :_: Yes_UH ,_, Dianne_NNP ,_, that_IN umbrella_NN seems_VBZ to_TO be_VB full_JJ size_NN ._. If_IN anyone_NN makes_VBZ one_CD of_IN these_DT ,_, please_NN let_VB me_PRP know_VB ._. I_PRP would_MD love_VB to_TO see_VB what_WP yours_VB looks_VBZ like_IN !_. Of_IN course_NN ,_, if_IN I_PRP do_VBP make_VB one_CD ,_, I_PRP will_MD let_VB you_PRP know_VB how_WRB it_PRP turned_VBD out_RP ._. I_PRP ordered_VBD a_DT safari_JJ print_NN jacket_NN this_DT week_NN ._. It_PRP has_VBZ not_RB arrived_VBN yet_RB ,_, but_CC I_PRP printed_VBD its_PRP$ picture_NN and_CC began_VBD searching_VBG my_PRP$ stash_NN to_TO see_VB what_WP I_PRP could_MD find_VB to_TO make_VB a_DT coordinating_NN handbag_NN ._. I_PRP found_VBD all_DT of_IN this_DT stuff_NN that_IN I_PRP think_VBP will_MD work_VB --_: animal_JJ print_NN fabric_NN ,_, leather_NN ,_, black_JJ bead_NN trim_NN and_CC even_RB a_DT black_JJ boa_NN !_. I_PRP just_RB might_MD run_VB that_IN around_IN the_DT top_NN of_IN the_DT bag_NN ._. I_PRP even_RB have_VBP handles_NNS that_WDT are_VBP perfect_JJ -_: black_JJ and_CC bronze_JJ beads_NNS ._. So_IN far_RB I_PRP have_VBP only_RB been_VBN looking_VBG for_IN items_NNS to_TO use_VB --_: I_PRP have_VBP not_RB even_RB begun_VBN to_TO make_VB the_DT bag_NN ._. I_PRP 'm_VBP still_RB in_IN the_DT mental_JJ designing_NN mode_NN ._. I_PRP probably_RB should_MD wait_VB until_IN the_DT jacket_NN arrives_VBZ before_IN going_VBG further_JJ ._. Sometimes_RB the_DT colors_NNS are_VBP quite_RB different_JJ when_WRB I_PRP get_VBP the_DT jacket_NN than_IN they_PRP looked_VBD on_IN my_PRP$ monitor_NN ._. So_RB far_RB this_DT week_NN I_PRP have_VBP made_VBN two_CD bags_NNS and_CC have_VBP all_PDT the_DT materials_NNS to_TO make_VB #_# 3_CD and_CC I_PRP have_VBP not_RB had_VBN to_TO go_VB out_RP and_CC buy_VB a_DT single_JJ thing_NN !_. I_PRP love_VBP using_VBG up_RP my_PRP$ stashed_JJ items_NNS --_: especially_RB all_PDT those_DT handles_NNS I_PRP bought_VBD last_JJ fall_NN when_WRB Joanne_NNP 's_POS had_VBD a_DT 50_CD %_NN off_IN sale_NN ._. I_PRP have_VBP almost_RB used_VBN them_PRP all_DT up_RB ._. I_PRP hope_VBP they_PRP have_VBP another_DT sale_NN soon_RB !_. Is_VBZ this_DT not_RB the_DT cutest_JJS ,_, most_RBS creative_JJ use_NN of_IN an_DT umbrella_NN you_PRP 've_VBP ever_RB seen_VBN ?_. It_PRP was_VBD in_IN this_DT month_NN 's_POS issue_NN of_IN Midwest_NNP Living_NNP along_IN with_IN this_DT watering_NN can_MD creation_VB ._. I_PRP think_VBP they_PRP are_VBP both_DT simply_RB adorable_JJ and_CC I_PRP will_MD probably_RB be_VB making_VBG them_PRP soon_RB ._. In_IN the_DT meantime_NN I_PRP am_VBP still_RB recycling_VBG slightly_RB used_VBN jeans_NNS into_IN handbags_NN ._. I_PRP made_VBD this_DT one_NN with_IN leather_NN accents_NNS first_RB :_: Last_JJ night_NN I_PRP finished_VBD this_DT tulip/denim_NN handbag_NN ._. Ca_VB n't_RB you_PRP just_RB see_VB this_DT one_CD with_IN denim_NN capris_NN ,_, navy_CC shell_NN and_CC pink_VB jacket_NN ?_. Maybe_RB some_DT denim_NN flip_JJ flops_NNS with_IN 10_CD pink-topped_JJ toes_NNS ..._: .Ah_RB ,_, what_WP fun_VBD I_PRP am_VBP having_VBG making_VBG these_DT to_TO coordinate_VB with_IN the_DT clothes_NNS I_PRP already_RB own_VBP ._. I_PRP hardly_RB ever_RB wear_VBP those_DT jean_JJ jackets_NNS in_IN the_DT first_JJ picture_NN ..._: I_PRP rarely_RB wear_VBP jeans_NNS ,_, but_CC I_PRP think_VBP that_DT may_MD change_VB this_DT year_NN ._. I_PRP am_VBP so_RB happy_JJ to_TO report_VB that_IN I_PRP received_VBD my_PRP$ 1_CD Cent_NNP USB_NNP cable_NN from_IN Amazon_NNP and_CC it_PRP works_VBZ !_. So_RB now_RB I_PRP can_MD get_VB back_RB to_TO blogging_VBG on_IN a_DT more_RBR regular_JJ basis_NN ._. The_DT cable_NN postage_NN was_VBD only_RB $_$ 1.56_CD ,_, so_RB I_PRP guess_VBP you_PRP guys_NNS were_VBD correct_JJ in_IN saying_VBG they_PRP made_VBD their_PRP$ profit_NN from_IN the_DT shipping_NN (_( $_$ 7.49_CD )_) ._. But_CC still_RB it_PRP was_VBD a_DT reasonable_JJ price_NN and_CC I_PRP am_VBP a_DT happy_JJ customer_NN !_. I_PRP am_VBP still_RB waiting_VBG for_IN the_DT camera_NN cord_NN ._. I_PRP got_VBD an_DT email_NN stating_VBG that_IN it_PRP has_VBZ shipped_VBN ,_, so_IN I_PRP am_VBP pretty_RB sure_JJ it_PRP 's_VBZ not_RB a_DT scam_NN ._. It_PRP said_VBD it_PRP would_MD arrive_VB between_IN Feb._NNP 28_CD and_CC March_NNP 15_CD ._. March_NNP 15_CD !_. I_PRP hope_VBP it_PRP 's_VBZ not_RB that_IN long_RB ._. In_IN the_DT meantime_NN ,_, I_PRP found_VBD a_DT friend_NN 's_POS laptop_NN to_TO use_VB to_TO pull_VB up_RP my_PRP$ pics_NNS without_IN the_DT cable_NN ._. I_PRP 've_VBP been_VBN cooking_VBG a_DT lot_NN ._. Last_JJ Sunday_NNP I_PRP had_VBD an_DT oven_JJ full_JJ of_IN ribs_NN ,_, baked_VBD chicken_NN ,_, blueberry_NN muffins_NNS and_CC oven-roasted_JJ carrots_NNS ._. There_EX is_VBZ nothing_NN like_IN an_DT oven_RB roasted_VBN carrot_NN --_: they_PRP were_VBD like_IN eating_VBG candy_NN !_. All_DT I_PRP do_VBP is_VBZ toss_VB with_IN a_DT bit_NN of_IN vegetable_JJ oil_NN ,_, salt_NN and_CC pepper_NN and_CC bake_NN in_IN 350_CD -_: 400_CD degree_JJ oven_RB ._. This_DT time_NN I_PRP used_VBD 350_CD since_IN that_DT 's_VBZ what_WP the_DT other_JJ items_NNS needed_VBN ._. I_PRP had_VBD them_PRP on_IN the_DT top_JJ shelf_NN before_IN I_PRP put_VBD the_DT ribs_NN in_IN ._. We_PRP 've_VBP been_VBN eating_VBG this_DT food_NN all_DT week_NN ._. I_PRP wo_MD n't_RB have_VB to_TO cook_VB until_IN Friday_NNP night_NN when_WRB I_PRP have_VBP to_TO do_VB fish_VB ._. No_DT cooking_NN during_IN the_DT week_NN gives_VBZ me_PRP more_JJR time_NN to_TO play_VB after_IN work_NN ._. I_PRP made_VBD this_DT handbag_NN and_CC am_VBP now_RB working_VBG on_IN some_DT denim_JJ projects_NNS ._. I_PRP ca_MD n't_RB believe_VB that_IN this_DT week_NN is_VBZ almost_RB over_IN already_RB !_. Who_NNP sells_VBZ a_DT $_$ 40_CD cable_NN for_IN one_CD cent_NN ?_. Is_VBZ it_PRP just_RB a_DT mistake_NN ?_. My_NNP Kodak_NNP camera_NN USB_NNP cord_NN has_VBZ a_DT short_JJ or_CC something_NN because_IN I_PRP have_VBP not_RB been_VBN able_JJ to_TO pull_VB pictures_NNS from_IN my_PRP$ camera_NN for_IN the_DT past_JJ week_NN ._. Every_DT time_NN I_PRP plug_VBP it_PRP in_IN ,_, it_PRP kills_VBZ the_DT USB_NNP port_NN (_( and_CC my_PRP$ Internet_NNP access_NN )_) and_CC I_PRP have_VBP to_TO restart_VB the_DT computer_NN to_TO reset_VB the_DT USB_NNP and_CC internet_JJ access_NN ._. I_PRP am_VBP not_RB sure_JJ it_PRP 's_VBZ the_DT cable_NN ._. The_DT camera_NN itself_PRP could_MD be_VB toast_VBN ,_, That_DT 's_VBZ why_WRB I_PRP have_VBP not_RB been_VBN posting_VBG ._. What_WP 's_VBZ a_DT post_NN without_IN a_DT picture_NN ?_. I_PRP bought_VBD my_PRP$ camera_NN about_IN two_CD years_NNS ago_RB at_IN Staples_NNP ._. I_PRP went_VBD there_RB today_NN and_CC they_PRP were_VBD no_DT help_NN at_IN all_DT ._. The_DT young_JJ man_NN said_VBD they_PRP could_MD not_RB order_NN a_DT new_JJ cable_NN ._. What_WP 's_VBZ up_RP with_IN that_DT ?_. I_PRP bought_VBD it_PRP locally_RB instead_RB of_IN online_NN so_IN I_PRP could_MD get_VB service_NN ._. I_PRP guess_VBP I_PRP may_MD as_RB well_RB just_RB buy_VB online_NN ._. If_IN I_PRP can_MD find_VB a_DT cable_NN ,_, they_PRP should_MD be_VB able_JJ to_TO ._. After_IN I_PRP got_VBD home_NN ,_, I_PRP googled_VBD it_PRP and_CC found_VBD that_IN Amazon_NNP had_VBD the_DT USB_NNP cable_NN and_CC it_PRP was_VBD 1_CD cent_NN ._. Yes_UH ,_, 1_CD cent_NN !_. I_PRP thought_VBD this_DT must_MD be_VB a_DT mistake_NN ,_, but_CC I_PRP ordered_VBD it_PRP anyway_RB ,_, thinking_VBG that_IN if_IN it_PRP 's_VBZ really_RB a_DT few_JJ dollars_NNS more_RBR ,_, that_DT 's_VBZ O.K_NNP ._. because_IN I_PRP need_VBP it_PRP ._. Who_WP would_MD bother_VB to_TO sell_VB something_NN for_IN one_CD cent_NN ?_. It_PRP 's_VBZ not_RB even_RB worth_JJ typing_VBG out_RP the_DT address_NN label_NN for_IN one_CD cent_NN ._. When_WRB I_PRP finished_VBD the_DT order_NN it_PRP indeed_RB came_VBD up_RP as_IN one_CD cent_NN +_VBD $_$ 7.49_CD Shipping_NNP ._. The_DT total_JJ price_NN charged_VBN to_TO my_PRP$ credit_NN card_NN was_VBD $_$ 7.50_CD ._. Now_RB I_PRP am_VBP worried_JJ that_IN it_PRP 's_VBZ some_DT sort_NN of_IN scam_NN ._. Does_NNP Amazon_NNP have_VB scams_VBN ?_. Do_VBP you_PRP think_VB I_PRP will_MD really_RB get_VB this_DT item_NN ?_. My_PRP$ time_NN has_VBZ been_VBN consumed_VBN with_IN getting_VBG the_DT piecing_NN of_IN this_DT quilt_JJ top_NN finished_VBN ._. It_PRP consists_VBZ of_IN 196_CD 3-inch_JJ pieces_NNS ,_, which_WDT took_VBD a_DT lot_NN longer_JJR than_IN I_PRP anticipated_VBD and_CC I_PRP can_MD not_RB find_VB the_DT words_NNS to_TO convey_VB my_PRP$ level_NN of_IN happiness_NN to_TO be_VB finished_VBN with_IN the_DT piecing_NN !_. I_PRP tossed_VBD it_PRP over_IN the_DT table_NN to_TO see_VB how_WRB it_PRP looked_VBD with_IN my_PRP$ Valentine_JJ flowers_NNS ._. In_IN between_IN sewing_VBG bouts_NNS ,_, I_PRP read_VBP blogs_NNS ,_, where_WRB through_IN the_DT wonder_NN of_IN the_DT Internet_NNP ,_, I_PRP learned_VBD a_DT new_JJ skill_NN ._. Not_RB in_IN a_DT million_CD years_NNS would_MD I_PRP have_VB thought_VBN that_IN I_PRP would_MD be_VB surfing_VBG the_DT recent_JJ updates_NNS to_TO quilting_VBG blogs_NNS and_CC learn_VB how_WRB to_TO do_VB this_DT ..._: Yes_UH ,_, I_PRP learned_VBD how_WRB to_TO fold_VB the_DT dangling_VBG end_NN of_IN my_PRP$ TP_NNP into_IN this_DT lovely_JJ little_JJ fan_NN ._. What_WP fun_NN !_. Now_RB that_DT is_VBZ worthy_JJ of_IN a_DT Domestic_NNP Goddess_NNP label_NN !_. :_: )_) I_PRP ca_MD n't_RB wait_VB to_TO have_VB company_NN over_IN so_IN I_PRP can_MD test_VB out_RP their_PRP$ reaction_NN ._. ._. ._. LOL_NNP ._. I_PRP can_MD just_RB hear_VB my_PRP$ burly_JJ brother-in-law_NN if_IN he_PRP should_MD be_VB lucky_JJ guest_JJS number_NN 1_CD (_( because_IN it_PRP 's_VBZ only_RB good_JJ for_IN the_DT first_JJ person_NN in_IN and_CC then_RB it_PRP 's_VBZ gone_VBN )_) ._. You_PRP can_MD learn_VB how_WRB to_TO do_VB this_DT ,_, too_RB ._. Just_JJ visit_NN this_DT post_NN at_IN Spun_NNP Sugar_NNP Qults_NNP ._. One_CD afternoon_NN I_PRP streamlined_VBD my_PRP$ morning_NN jewelry_NN hunt_NN ._. I_PRP was_VBD storing_VBG all_DT my_PRP$ costume_JJ jewelry_NN in_IN the_DT little_JJ boxes_NNS they_PRP came_VBD in_IN ._. The_DT trouble_NN was_VBD that_IN I_PRP had_VBD to_TO open_VB them_PRP all_DT to_TO find_VB out_RP what_WP was_VBD inside_RB ._. That_DT was_VBD n't_RB so_RB bad_JJ when_WRB I_PRP only_RB had_VBD a_DT few_JJ ._. But_CC as_IN you_PRP can_MD see_VB I_PRP have_VBP amassed_VBN quite_RB a_DT collection_NN in_IN the_DT past_JJ two_CD years_NNS ._. I_PRP did_VBD not_RB even_RB remember_VB what_WP I_PRP had_VBD ._. Now_RB they_PRP are_VBP all_DT out_IN of_IN the_DT boxes_NNS and_CC into_IN clear_JJ bags_NNS so_IN I_PRP can_MD tell_VB at_IN a_DT glance_NN what_WP there_RB ._. Now_RB that_IN I_PRP have_VBP finished_VBN the_DT quilt_NN ,_, I_PRP hope_VBP to_TO be_VB a_DT better_JJR blogger_NN ._.</t>
-  </si>
-  <si>
-    <t>Suvendu_NNP Roy_NNP ,_, of_IN Titan_NNP Industries_NNP shares_NNS his_PRP$ inspirational_JJ encounter_NN with_IN a_DT rickshaw_NN driver_NN in_IN Mumbai_NNP :_: Last_JJ Sunday_NNP ,_, my_PRP$ wife_NN ,_, kid_NN ,_, and_CC I_PRP had_VBD to_TO travel_VB to_TO Andheri_NNP from_IN Bandra_NNP ._. When_WRB I_PRP waved_VBD at_IN a_DT passing_JJ auto_NN rickshaw_NN ,_, little_JJ did_VBD I_PRP expect_VBP that_IN this_DT ride_NN would_MD be_VB any_DT different_JJ ..._: As_IN we_PRP set_VBD off_RP ,_, my_PRP$ eyes_NNS fell_VBD on_IN a_DT few_JJ magazines_NNS (_( kept_VB in_IN an_DT aircraft_NN style_NN pouch_NN )_) behind_IN the_DT driver_NN 's_POS back_RB rest_NN ._. I_PRP looked_VBD in_IN front_NN and_CC there_EX was_VBD a_DT small_JJ TV_NN ._. The_DT driver_NN had_VBD put_VBN on_IN the_DT Doordarshan_NNP channel_NN ._. My_PRP$ wife_NN and_CC I_PRP looked_VBD at_IN each_DT other_JJ with_IN disbelief_NN and_CC amusement_NN ._. In_IN front_NN of_IN me_PRP was_VBD a_DT small_JJ first-aid_JJ box_NN with_IN cotton_NN ,_, dettol_NN and_CC some_DT medicines_NNS ._. This_DT was_VBD enough_RB for_IN me_PRP to_TO realise_VB that_IN I_PRP was_VBD in_IN a_DT special_JJ vehicle_NN ._. Then_RB I_PRP looked_VBD round_NN again_RB ,_, and_CC discovered_VBD more_JJR -_: there_EX was_VBD a_DT radio_NN ,_, fire_NN extinguisher_NN ,_, wall_NN clock_NN ,_, calendar_NN ,_, and_CC pictures_NNS and_CC symbols_NNS of_IN all_DT faiths_NNS -_: from_IN Islam_NNP and_CC Christianity_NNP to_TO Buddhism_NNP ,_, Hinduism_NNP and_CC Sikhism_NNP ._. There_EX were_VBD also_RB pictures_NNS of_IN the_DT heroes_NNS of_IN 26/11-_JJ Kamte_NNP ,_, Salaskar_NNP ,_, Karkare_NNP and_CC Unnikrishnan_NNP ._. I_PRP realised_VBD that_IN not_RB only_RB my_PRP$ vehicle_NN ,_, but_CC also_RB my_PRP$ driver_NN was_VBD special_JJ ._. I_PRP started_VBD chatting_VBG with_IN him_PRP and_CC the_DT initial_JJ sense_NN of_IN ridicule_NN and_CC disbelief_NN gradually_RB diminished_VBN ._. I_PRP gathered_VBD that_IN he_PRP had_VBD been_VBN driving_VBG an_DT auto_NN rickshaw_NN for_IN the_DT past_JJ 8-9_JJ years_NNS ;_: he_PRP had_VBD lost_VBN his_PRP$ job_NN when_WRB hisemployer_NN 's_POS plastic_JJ company_NN was_VBD shut_VBN down_RB ._. He_PRP had_VBD two_CD school-going_JJ children_NNS ,_, and_CC he_PRP drove_VBD from_IN 8_CD in_IN the_DT morning_NN till_NN 10_CD at_IN night_NN ._. No_DT break_NN unless_IN he_PRP was_VBD unwell_RB ._. ``_`` Sahab_NNP ,_, ghar_NN mein_NN baith_NN ke_NN T.V_NNP dekh_NN kar_NN kya_NN faida_NN ?_. Do_NNP paisa_VBD income_NN karega_NN toh_JJ future_NN mein_NN kaam_VBD aayega_JJ ._. ''_'' We_PRP realised_VBD that_IN we_PRP had_VBD come_VBN across_IN a_DT man_NN who_WP represents_VBZ Mumbai_NNP -_: the_DT spirit_NN of_IN work_NN ,_, the_DT spirit_NN of_IN travel_NN and_CC the_DT spirit_NN of_IN excelling_VBG in_IN life_NN ._. I_PRP asked_VBD him_PRP whether_IN he_PRP does_VBZ anything_NN else_RB as_IN I_PRP figured_VBD that_IN he_PRP did_VBD not_RB have_VB too_RB much_JJ spare_JJ time_NN ._.</t>
-  </si>
-  <si>
-    <t>How_WRB was_VBD everyone_NN 's_POS weekend_NN ?_. Well_NNP last_JJ week_NN I_PRP did_VBD promise_NN I_PRP would_MD 'do_VB '_'' a_DT post_NN (_( is_VBZ that_DT proper_JJ blog-inology_NN ?_. )_) about_IN my_PRP$ Television_NN work_NN in_IN Australia_NNP and_CC the_DT US_NNP over_IN the_DT past_JJ 6_CD years_NNS ,_, so_RB here_RB goes_VBZ !_. At_IN the_DT ripe_JJ age_NN of_IN 20_CD ,_, fresh_JJ out_IN of_IN Griffith_NNP University_NNP where_WRB I_PRP studied_VBD Film_NNP and_CC Media_NNP (_( there_EX you_PRP go_VBP Simon_NNP Cowell_NNP ,_, I_PRP am_VBP well_RB educated_VBN :_: )_) ,_, I_PRP landed_VBD my_PRP$ first_JJ major_JJ gig_NN hosting_VBG a_DT daily_JJ kids_NNS show_VBP on_IN the_DT Nine_NNP Network_NNP Aust_NNP ._. called_VBN 'Hot_CD Source_NNP '_POS ._. This_DT was_VBD my_PRP$ training_NN ground_NN for_IN hosting_VBG ,_, editing_VBG ,_, segment_NN producing_VBG ,_, and_CC script_NN writing.My_VBP next_JJ major_JJ move_NN was_VBD hosting_VBG the_DT daily_JJ show_NN 'Studio_VBZ Disney_NNP '_POS on_IN the_DT Disney_NNP Channel_NNP ._. I_PRP LOVED_VBP loved_VBN loved_VBD this_DT job_NN so_RB much_JJ !_. I_PRP was_VBD lucky_JJ enough_RB to_TO travel_VB around_IN the_DT world_NN and_CC Australia_NNP ,_, and_CC work_NN with_IN the_DT most_RBS amazing_JJ team_NN ._. Disney_NNP really_RB taught_VBD me_PRP a_DT lot_NN about_IN the_DT international_JJ TV_NN industry_NN ,_, and_CC the_DT work_NN ethics_NNS and_CC brand_NN values_NNS they_PRP hold_VBP are_VBP second_JJ to_TO none_NN ._.</t>
-  </si>
-  <si>
-    <t>Any_DT universal_JJ health_NN care_NN system_NN will_MD have_VB to_TO be_VB two_CD fold_JJ ._. Public_NNP and_CC private_JJ ._. Privately_RB insured_JJ and_CC government_NN funded_VBD ._. The_DT government_NN funded_VBD would_MD have_VB to_TO have_VB some_DT form_NN of_IN bulk_NN billing_NN by_IN doctors_NNS and_CC hospitals_NNS to_TO keep_VB the_DT overall_JJ cost_NN down_RB ._. Services_NNPS would_MD have_VB to_TO be_VB combined_VBN as_RB well_RB wherever_IN possible_JJ to_TO prevent_VB double_JJ billing_NN ._. ie_NN ..._: seeing_VBG a_DT GP_NNP for_IN a_DT problem_NN then_RB being_VBG referred_VBN to_TO a_DT specialist_NN ,_, then_RB having_VBG to_TO return_VB to_TO the_DT GP_NNP for_IN further_JJ direction_NN ._. And_CC of_IN course_NN ,_, no_DT universal_JJ health_NN care_NN would_MD be_VB effective_JJ unless_IN it_PRP included_VBD dental_JJ coverage_NN as_IN many_JJ health_NN problems_NNS are_VBP related_VBN to_TO poor_JJ oral_JJ care_NN ._. The_DT major_JJ drug_NN manufacturing_NN companies_NNS have_VBP to_TO be_VB on_IN board_NN as_IN well_RB if_IN this_DT were_VBD to_TO succeed_VB ._.</t>
-  </si>
-  <si>
-    <t>I_PRP 'm_VBP writing_VBG this_DT blog_NN post_NN from_IN Sun_NNP City_NNP Center_NNP ,_, Florida_NNP which_WDT has_VBZ been_VBN unseasonably_RB cold_JJ since_IN I_PRP got_VBD here_RB on_IN Tuesday_NNP night_NN ._. I_PRP am_VBP here_RB until_IN this_DT coming_VBG Tuesday_NNP visiting_VBG my_PRP$ parents_NNS on_IN vacation_NN ._. I_PRP had_VBD planned_VBN on_IN keeping_VBG my_PRP$ vacation_NN pretty_RB simple_JJ and_CC had_VBD hoped_VBN to_TO spend_VB most_JJS of_IN the_DT time_NN in_IN the_DT pool_NN !_. It_PRP 's_VBZ been_VBN way_NN too_RB cold_JJ to_TO go_VB in_IN the_DT pool_NN !_. !_. I_PRP had_VBD also_RB planned_VBN NOT_NNP to_TO work_VB while_IN I_PRP was_VBD here_RB !_. !_. !_. I_PRP have_VBP been_VBN forced_VBN to_TO re-evaluate_VB my_PRP$ plan_NN !_. Well_UH ,_, here_RB it_PRP is_VBZ Sunday_NNP and_CC after_IN 4_CD days_NNS of_IN not_RB working_VBG ,_, I_PRP 'm_VBP back_RB at_IN work_NN !_. !_. My_PRP$ creative_JJ ideas_NNS and_CC my_PRP$ excitement_NN are_VBP flowing_VBG ._. I_PRP am_VBP choosing_VBG to_TO go_VB with_IN go_NN with_IN the_DT flow_NN and_CC get_VB back_RB to_TO work_NN ._. One_CD of_IN the_DT things_NNS I_PRP am_VBP really_RB excited_VBN about_NN is_VBZ a_DT new_JJ ADHD_NNP Coaching_NNP option_NN that_IN I_PRP will_MD begin_VB to_TO offer_VB on_IN March_NNP 15th_CD !_. As_IN many_JJ of_IN you_PRP know_VBP ,_, Terry_NNP Matlen_NNP and_CC I_PRP offer_VBP online_JJ coaching_NN through_IN the_DT ADD_NNP Action_NNP Club_NNP ._. As_IN an_DT ADHD_NNP Coach_NNP I_PRP really_RB love_VB the_DT ADD_NNP Action_NNP Club_NNP and_CC the_DT online_NN coaching_NN format_NN ._. In_IN addition_NN to_TO the_DT ADD_NNP Action_NNP Club_NNP will_MD also_RB be_VB offering_VBG individual_JJ online_NN Coaching_NNP too_RB ._. Keep_VB an_DT eye_NN out_RP for_IN more_JJR information_NN about_IN my_PRP$ new_JJ Unlimited_NNP Online_NNP ADHD_NNP Coaching_NNP package_NN ._.</t>
+    <t xml:space="preserve">Immediately following his well-attended GDC panel, Nintendo's Yoshio Sakamoto talked with us about (what else?) Metroid: Other M. In addition to all sorts of questions on the unique Team Ninja collaboration, we asked Sakamoto about the long-rumored Metroid Dread  project and, barring a confirmation of that product, when we'd see another 2D handheld Metroid.
+Joystiq: Speaking of the core Metroid development team that last worked on the GBA, there have been rumors of a game known as 'Metroid Dread' – purportedly a 2D Metroid game for DS. First question: Was 'Dread' a real project? Second question: If not, where is a 2D Metroid on DS?
+Yoshio Sakamoto: It seems we get a lot of questions about Metroid Dread, especially at interviews following E3 for example. But nothing's ever been announced about this game; it's all just been rumors so far. So we never know exactly how to respond to questions like this.
+While there actually was a point where some teams were meeting to discuss if it was possible to create a 2D Metroid for DS using a relatively small team size, it's not something that we ever really announced or thought of as "Metroid Dread." But whenever people bring out that idea, we recognize that the basic concept is something that we can't say never existed. But at the same time, we can't of course, make any official comment about a Metroid Dread-like project coming out.
+Our main goal [with Metroid: Other M] is to, as I said earlier, first raise knowledge about the Metroid universe and the Samus character before we start to introduce different elements like online or even going back to another handheld game for the next in the series. So there's nothing coming immediately, we want to think about these new challenges first.
+But, of course, we never say never. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hate to vent on the blog because people who vent are sad, lonely creatures who cannot handle their emotions and/or thoughts in a socially acceptable way, thus inflicting their stresses upon the many terabytes of data floating in this universe causing an as-yet-unknown form of verbal pollution.
+But I have to vent.
+Recently, I've been going out with angmohgais / guai loh / expats. Am I an SPG (Sarong Party Girl)? Yes. In fact, twice when I went out with angmohgais, I wore sarongs. The point is, its not that I don't care - because I do. I am hardly independent enough to not need validation from my fellow countrymen. But I resent this greatly.
+Of course, we could do this the legal pad way. Pros and Cons, Compare and Contrast, et al. But why would I when the comparisons are so painfully obvious? Because, otherwise, I would get such hair-raisingly predictable responses that I would forever regret this diatribe.
+</t>
+  </si>
+  <si>
+    <t>Windows Phone 7 Series. Get used to the name, because it's now a part of the smartphone vernacular... however verbose it may seem. Today Microsoft launches one of its most ambitious (if not most ambitious) projects: the rebranding of Windows Mobile. The company is introducing the new mobile OS at Mobile World Congress 2010, in Barcelona, and if the press is anything to be believed, this is just the beginning. The phone operating system does away with pretty much every scrap of previous mobile efforts from Microsoft, from the look and feel down to the underlying code -- everything is brand new. 7 Series has rebuilt Windows Mobile from the ground up, featuring a completely altered home screen and user interface experience, robust Xbox LIVE and Zune integration, and vastly new and improved social networking tools. Gone is the familiar Start screen, now replaced with "tiles" which scroll vertically and can be customized as quick launches, links to contacts, or self contained widgets. The look of the OS has also been radically upended, mirroring the Zune HD experience closely, replete with that large, iconic text for menus, and content transitions which elegantly (and dimensionally) slide a user into and out of different views. The OS is also heavily focused on social networking, providing integrated contact pages which show status updates from multiple services and allow fast jumps to richer cloud content (such as photo galleries). The Xbox integration will include LIVE games, avatars, and profiles, while the Zune end of things appears to be a carbon copy of the standalone device's features (including FM radio).
+Besides just flipping the script on the brand, the company seems to be taking a much more vertical approach with hardware and user experience, dictating rigid specs for 7 Series devices (a specific CPU and speed, screen aspect ratio and resolution, memory, and even button configuration), and doing away with carrier or partner UI customizations such as Sense or TouchWiz. That's right -- there will be a single Windows Phone identity regardless of carrier or device brand. Those new phones will likely look similar at first, featuring a high res touchscreen, three front-facing buttons (back, start, and perhaps not shockingly, a Bing key), and little else.
+Carrier partnerships are far and wide, including AT&amp;T, Deutsche Telekom AG, Orange, SFR, Sprint, Telecom Italia, Telefónica, Telstra, T-Mobile USA, Verizon Wireless and Vodafone, while hardware partners include Dell, Garmin-Asus, HTC, HP, LG, Samsung, Sony Ericsson, Toshiba and Qualcomm. We're told that we likely won't get to see any third-party devices at MWC, though Microsoft is showing off dev units of unknown origin, and the first handsets are supposed to hit the market by the holidays of this year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time I lose a phone (this happens a lot to me), I go through this immense confusion when deciding on the next one.  These are my usual choices. The good old Nokia basic models – These are highly functional, dexterous, full of no-nonsense and your trusted friend. Mainly because they are resilient to all kinds of mishandling and continue to serve you faithfully.  They still have your favorite snake games, and let you type SMSes at lightning speed. Of course, they can mean three things about you: either you are super-bogged by too many features and want to keep it simple, or you do not want to move on to newer technology no-matter-what, or just that you can’t afford a high-end phone. Be wary of these judgments and make sure you know your slot.  :) The latest on the menu – iPhones, Nexus Ones, HTCs and Blackberries of the world. Hmmm. I am not a fan of these phones. Mainly because the features are so many and so distracting that you don’t feel like doing simple things -  like checking your email on your laptop and replying at your own snail-ish and convenient pace, after  giving a thought about how and what to write. I remember, in my primary school, we were taught by our IT teacher that the main advantage of an email is: “An email service doesn’t have the dangling urgency of a telephone call”. So why change the way nature (err… ) used to work, and get hooked to replying to emails at lightning speed? Why obliviate all those expensive MP3 players, IPods, Cameras and Laptops that you invested in? Use them too fellas! Don’t give it all to your mobile communicating device.
+</t>
+  </si>
+  <si>
+    <t>hey!! Niyaz here ur junior!! U studyin in UIC only le? I got admit in UIC fr CS. But I have got limited standing status. They have not mentioned antg abt the courses I have to take for changing from limited to full. I need more info on that wat shud I do now? Give me ur email Id ill send the details of my admit letter.</t>
+  </si>
+  <si>
+    <t>Many cultures have used honey for medicinal purposes. Some use it as a healing paste for dealing with the pain of arthritis. Some oriental cultures use honey in their tea to help reduce the amount of bad cholesterol. Some believe in its ability to soothe sore throats and treat common head colds, and others that it can help with upset stomachs, indigestion, and even gastroenteritis and diarrhoea. There is also evidence that honey has cleansing properties to keep the human body healthy and in tip-top working order all year round.</t>
+  </si>
+  <si>
+    <t>I have had CTS for 15 years and it is often aggravated by yard work (rake &amp; shovel are worst) more than computer work, even though I work on a keyboard all day. After a hard day of work in the yard I find that icing the top &amp; bottom of my wrists for about 45 mins per side can really help. I keep the ice on one spot for 10-15 mins, then move it to the other side of the same wrist, and repeat until the 45 mins are up. Then I'll do the other hand/wrist. I do the icing routine right after I finish in the yard, and then again the next morning when I get up. All that being said, I am getting close to the point of being unable to keep the CTS at bay through reducing yard work and icing. Steroid shots in the wrist broke a couple of really bad cycles for me as well, but I am close to taking the advice from my friends who've had the surgery and are now symptom-less, and just getting the thing done...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well nearly a year has passed..which makes me another year older, but I won’t dwell on that. Daren't.
+In a lot of ways nothing has changed, life has trundled on as it has a habit of doing, but I suppose the changes were just gradual and with me not writing about them, I simply didn’t notice.
+And writing is something I miss. If I had the time I like to think I’d still be writing, but I suppose I do have the time, just that other things are more appealing at the given moment...
+I’m no longer working. I gave it up about a month ago. Maybe longer, I’m not sure as I’m not counting – which is bliss! Some of my friends thought I might get bored being a full time mom again, but I’ve never been the type of person who can’t find something to do!
+So my days are now filled with cleaning, and painting the house. And a bit of that online game I mentioned last year, possibly even a ‘bit’ too much. But we each find ways of escaping, and that’s mine.
+On the family front, the eldest lad R, is off to America this Christmas, on his own, to see his ex- girlfriend. And yes that’s a tale all of its own I may cover sometime...
+The second son P, has started secondary school, is in the top group, and is getting As (who would have thought it possible?? Long may it last...) He re-sat the entrance exam to the other school he still wants to go to last Saturday, and –yet again- we sit here waiting to find out if he passed. And then, whether there will be a place for him
+Eldest daughter J, is as beautiful as ever, still as confident and popular as ever, and I still wonder where she gets it from, cause it sure ain’t me!
+And the youngest daughter S...well, heaven help us all, she’s a law unto herself. She doesn’t give a fig for school, other than it’s handy for socialising; always looked like she got dressed in the dark; and still sounds like a 3 year old with her high pitched squeaky voice (my mother says wants her to have elocution lessons ;))
+Which brings us back to me. I gave up smoking at the start of the year. But I took up drinking instead – which frankly did nothing for me! Don’t get me wrong, I don’t mean I turned into a demon when tipsy, in fact the kids adored me drinking as they said I was so much nicer....but I put on some weight. More than when I was pregnant! And I never stopped missing the cigarettes. So a couple of weeks ago, I swapped back. Now I smoke, and again don’t drink. I prefer it like this. And the weight is coming off fast :)
+There really isn’t a lot more going on in my life these days. Oh..I’ve taken over the running of the school uniform shop – but that’s hardly great gossip or intriguing tales for here.
+But who knows, maybe something interesting or funny will happen tomorrow...^^
+</t>
+  </si>
+  <si>
+    <t>For Christmas My Dad gave me some money so I bought a full size basketball net. I have been practising it nearly everyday and I can throw the ball a bit further now and more accurate. Next Topic is my hoodies, I always wear my hood for protection, (I feel safer when i wear it)apart from in shops where they will tell me to take it off again. So If people saw me in the street they would think Im a hoody who is going to get them but people who know me know different. I need to try and take off my hood more often. thanks for reading bye..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elegance is a comfortaqble, cdlassic, sturdily built gaff-rigged ketch - an ideal boat for leisurely cruising. The cheeky little boat on the near side of the jetty actually folds flat and can be carried away in one hand; it is light and strong, will take two people and can be slung from davits at Elegance's stern.  Well, no prizes for guessing where I spent the weekend. My son Etienne is engaged on a series of experiments with the strangest boats, dinghies and speed-on-the-water sailing machines. This odd one, with a sampan type sail and "training wheels" (to save him from frequent involuntary swims) was quicker and more comfortable than it looks! Tomorrow I'll show a very elegant invention, a boat that folds flat and can be carried in one hand...  Yes, that's Alice, with three admirers, on the threshhold of Aurora's notional air strip. Unfortunately Alice is parked in her hangar at present because her owner - one of the three admirers - is away on a short contract in Zimbabwe. I miss seeing her all wrapped up in protective clothing and tied down, on the edge of the strip, or saying a cheerful "good morning" overhead. One of the nicest things about Aurora is that there are a couple of people here who own aeroplanes or microlights, or both, and sail joyfully overhead bringing the wonder of flight to a place not long out of ox-wagons.  When the Fisheries Museum moved from Hout Bay to Laaiplek this specimen had been identified as a fossilised dolphin snout but a recent visitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every six months or so, Flip Video--slated to be absorbed by Cisco by the end of the year--puts out a new model or two of its popular YouTube-friendly point-and-shoot mini camcorders. Late last year it was the MinoHD. Now, for spring 2009, the company brings us two updated versions of the Ultra: a higher-end model, the UltraHD, which shoots 720p (1,280x720) high-definition video, and a less expensive Ultra, which shoots 640x480 VGA video.
+On the outside at least, not much has changed from Flip's first-generation Ultra. But there are a couple of notable differences. For starters, the transflective LCD on the back is bigger, measuring 2 inches, compared with 1.5 inches. The buttons are also bigger and the UltraHD, which comes in black or white, has a sort of rubberized, matte finish that allows you to grip the device a bit more easily.
+Most importantly, this model comes with a set of AA-size NiMH rechargeable batteries you can charge in the unit by simply connecting the camcorder (via its trademark flip-out USB connector) to the USB port on your computer. Alternatively, you can swap in a pair of standard AA alkaline batteries if you don't have time to charge. That standard battery backup option is a nice convenience, but there's a drawback: the batteries are bulkier and heavier than the slim lithium ion type built into the MinoHD. So by default you're getting a bigger, heavier camcorder--the UltraHD weighs 6.1 ounces versus 3.3 ounces for the MinoHD. That said, the UltraHD is still pocket-friendly, just not as pocket-friendly as the MinoHD.
+One thing we don't like about the new design is the chrome plastic trim on the sides of the unit. It looks good but you'll find your self continually wiping off fingerprint smudges with the soft, velvety pouch that ships with the product. We would have preferred some sort of brushed metal, or a brushed-metal look. Another minor ding: there's an HDMI output on the side for HDTV connections, but no bundled cable. That's not a huge deal, but Kodak, for instance, includes an HDMI cable with the Zx1, which retails for about $50 less. </t>
+  </si>
+  <si>
+    <t>This was an awesome show that I was turned on to a little late.  I did not start watching until the 3rd season and was immediately hooked.  Awesome show that shows what it really is like to grow up in the streets of Baltimore, shady politicians, and corrupt officers.  It also show the good and the people who really try to make a difference despite the obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It really was just a bag of bones on the catwalk. Young bones. Good looking bones. But bones nonetheless. Living skeletons strutting their stuff in the name of fashion.
+Why is it that fashion designers use shapeless, skinny women to show off their wares. They were there in Paris Fashion Week, last week and there they will be in all the other fashion weeks in Europe, and I have no doubt it is the same in New York, Chicago, Los Angeles, Toronto and anywhere else where expensive women’s designer clothes go on show.
+Clothes for the rich are not, apparently, made for normal women. Women who are woman shaped, with waistlines, boobs, legs. Women like you. Not living skeletons who live on crackers and lettuce leaves.
+I don’t actually know any women who look like that and, frankly, if I did I would be tempted to stuff a few good burgers into them along with several portions of fries. Ok, so its junk food but if you are that skinny you need something to bulk you out a bit.
+More seriously, of course, is the fact that too many teenage girls on both sides of the Atlantic view these women as role models. They envy their status. They envy their earnings and they envy the glamour.
+They don’t care about the cut-throat nature of modelling, or just how difficult it is to become a Kate Moss, Naomi Campbell or Cindy Crawford. They just see the glamour.
+And if the way to a glamorous career is to be slim, so be it. And that is the trail they go down. Missing meals; an obsession with weight; starvation; even to the point of lying and cheating to conceal the fact they are not eating.  
+Inevitably the result all too often is one of the slimming diseases that need medical intervention. Sadly, even that is sometimes too late and girls and young women die.
+Die in the name of glamour, of being cool and slim.
+Die because the fashion industry persists in showing women that are completely untypical of women who walk the streets, hold down jobs and bring up families.
+It is time to celebrate real women – woman who are egg-timer shaped. Women with appetites. Women who are proud of who they are.
+Which is not to say that being overweight is normal or cool either. It isn’t. We are talking about extremes here. Both are bad and both are potentially life threatening. 
+I should know because I was somebody who was overweight because of giving up smoking. This week I am celebrating losing a total of 47 lbs to bring me to 210lbs – still overweight but I am getting there.
+It is time to start a campaign for ordinary women. Maybe T-shirts or badges proclaiming “I am normal”. It is certainly time the fashion industry began showing normal women on the catwalk and maybe even making clothes that the girl in the street is likely to wear rather than the bizarre creations they sometimes come up with.
+You must have seen them on TV.
+Garments you would not be seen dead in – even at a fancy dress party. Certainly not clothes you would go to work in - not unless you want to make a name for yourself.
+So let’s hope our young women find themselves new role models to admire. Women who have achieved things in life; in business; in sport and not on the catwalk.
+Most of all it is time to relegate the bag of bones to the cupboard of history.
+Which is where they belong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is my benchmate from day 1 of college... first lady of our class... rite now shes doin a great job as our class rep... the only person i have seen being so possessive abt papers in her notebook... an awesome veena player... give her a tune and d next moment she wil play it for u... had lotsa fun wit her in college...innocent,caring,friendly and also a bit sensitive... she can very well take classes on 'how to blush' coz she does tat a lot.. one of my best friends in college and its good to have a friend like her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The representation put forward for this story is something like: (1) negative-for-John (the car won't start), which leads to (2) motivation-for-John (to get it started, which leads to (3) positive-for-John (it's started), when then links back and resolves (1). You can also analyze the story from Paul's perspective, and then add links that go between the two characters showing how things interact. The rest of the paper describes how these relations work, and how they can be put together into more complex event sequences (such as "promised request bungled"). Again, a high level representation of how stories work from the perspective of the characters. So now I, W, hope that you, R, have an increased belief in the title of the post. Why do I think this is interesting? Because at this point, we know a lot about how to deal with structure in language. From a machine learning perspective, if you give me a structure and some data (and some features!), I will learn something. It can even be unsupervised if it makes you feel better. So in a sense, I think we're getting to a point where we can go back, look at some really hard problems, use the deep linguistic insights from two decades (or more) ago, and start taking a crack at things that are really deep. Of course, features are a big problem; as a very wise man once said to me: "Language is hard. The fact that statistical association mining at the word level made it appear easy for the past decade doesn't alter the basic truth. :-)." We've got many of the ingredients to start making progress, but it's not going to be easy! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My thoughts often go to the obscure. Not the "big picture" of what we were doing or what we were seeing but some oddity that stands out in my mind. A year ago today we were standing in front of the Taj Mahal. You can read about that on Marty's blog from a year ago. I'm remembering Agra; home to the Taj. </t>
+  </si>
+  <si>
+    <t>We see this when He demands of us the impossible. Jesus told people to "go and sin no more." (Jn. 5:14, 8:11) Not, go and sin less. Sin no more. Impossible. "Husbands, love your wives as Christ loved the church." (Eph. 5:25) "Be perfect as your heavenly Father is perfect." (Matt. 5:48) God asks of us the impossible, we fail, we sin - we separate from God because we can't do the impossible. 
+But God can. All things, it says in Matthew 19 when speaking of salvation (something impossible for us to achieve on our own), are possible with God.
+The Bible starts with this very thing: In the beginning God created. God was there when time began and created. How? By the impossible task of creation through speaking. I can't get my daughters to turn off the lights in their room with my words, but God said, "let there be light." AND THERE WAS LIGHT! Not just a 50w bulb here; there was LIGHT. From His voice! The Psalmist says God breathed out stars and gathers the waters of the seas into jars. (Ps. 33:6-7) And this is just the start. God is so big he deals in the realm of the impossible.
+And so it's no surprise that Christmas is an impossible night. Let's turn to John 1, starting in verse 10:
+He was in the world, and though the world was made through him, the world did not recognize him. He came to that which was his own, but his own did not receive him. Yet to all who received him, to those who believed in his name, he gave the right to become children of God— children born not of natural descent, nor of human decision or a husband's will, but born of God. 
+The Word became flesh and made his dwelling among us. We have seen his glory, the glory of the One and Only, who came from the Father, full of grace and truth.
+Impossibly, God the creator entered into His creation at Christmas (well, technically, at Jesus' conception.) The world was made through him (Jesus), and He became flesh and made his dwelling among us. As our pastor, Jason, reminded us this morning [12/20 sermon], God did not just drop in for a visit. He was born into our world. He became one of us. God became a man: impossible. He was born to a virgin. Impossible. He came that we might be saved. Impossible.
+Impossible for man, but with God all things are possible. Angels appeared to shepherds. Angels appeared to Mary &amp; Joseph. Sages from far away read Jesus' birth in the stars. The creator God of the universe who is big enough to breathe out stars became a baby, wrapped in laid in the humblest of mangers. Proclaimed by angels, worshipped by shepherds and foreigners - Jesus entered His creation, became Immanuel: God with us. He made it possible for us to become born again, something which again is impossible - without God. A little baby displayed the glory of God. The smallest of infants demonstrated, through His impossible birth and through the bigness of who this baby was, the immensity of God's grace, His mercy, His love.
+This is why Christmas is a reason to worship, to celebrate, to be in awe of this GREAT BIG GOD who came for us who deals in the (what is for us) impossible in impossible ways – that’s the message of Christmas and it’s what we rejoice in at Christmas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master-piece  I stare at the canvas in front of me. This large painting sheet in front of me. All filled with colors. Some bright, some dull, some stark and loud, some mellow and somber. Colors carefully put in by me, and some splashed recklessly.   I am breathing hard, at wits end, on a mindless mission to color some more. The parts I like, I touch them not. While feverishly trying to add some sense to the spaces that make me not so happy anymore.
+And as much as I try, the colors just run, and mix up with others to make all look as one. I gasp for breath and cry for a pause, and then I see the top right corner on the canvas wall.
+There in the corner was a whiteness I had never seen. Where did that come from, that glossy sheen? Staring at it, such beauty I saw. All innocently and in awe.
+Oh! it actually was left all alone. Untouched by colors, untouched by me, this little section was the "Master"-piece.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, as you might have guessed, I wasn’t exactly Mr. Popular growing up. At recess the kids used to crowd around me and start chanting “Wordy-Wordy-Word-Butt” and claim they’d only stop it if I said the “F” word. Of course, as soon as I did that, they’d grab it and show it to the teacher and I’d end up with detention for a week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dogs have been in and out all morning, but for the most part are playing indoors as we all watch the snow falling - pretty, like falling snow should be.
+We still don't have much furniture in our living/dining room, which makes it a fun playroom with its slick wood laminate floor. They all love tossing and running after their balls.
+Every once in awhile I have to get up and help retrieve a ball that has rolled under the computer desk or behind the oak dining chairs against the wall, in line to be repaired. The last time I was assisting Chelsea and Harley over in the far corner, I picked up the folded vinyl tablecloth that had been knocked off a box, and then gathered up the gauzy curtains that had slithered off a chair.
+"Sorry, babies, I don't see your ball anywhere down here," I sympathized, and started back across the room to my desk. 
+On one of the futon chairs in front of the TV table lay Frankie, relaxing for a change and calmly watching the other dogs as they searched high and low. He rested his chin on one big front paw, stretching the other paw out beside him, guarding not one, but two small rubber balls.
+We made eye contact as I passed by, and the sparkle of amusement was unmistakable.
+That boy!
+</t>
+  </si>
+  <si>
+    <t>Twitter founder Evan Williams was widely expected to announce an advertising platform at the SXSW conference, but while he announced something with dozens of major media partners, it wasn’t an ad platform — it was something called @anywhere. And what is @anywhere? Good question. In fact, that’s just one of the many good questions that attendees hoped in vain would be asked by Umair Haque of Harvard Business Review, whose interviewing skills received less-than-critical acclaim  during and after the keynote.
+The official Twitter blog entry about the launch of @anywhere isn’t much help when it comes to answering the question of what the new service is — or at least it’s not as much help as you might expect it to be, what with this being one of the most hotly awaited SXSW keynotes in recent memory. The blog post describes the service as recreating the kind of “open, engaging interactions” between users that Twitter provides, but integrating that into any web site through Javascript, and thus “providing a new layer of value for visitors without sending them to Twitter.com.”
+And that’s pretty much it. No descriptions of what this might involve, no screenshots of what it might look like (although the Los Angeles Times seems to have whipped up its own), just some logos of partners like eBay and Yahoo and Digg. The way Twitter has described it, @anywhere will allow readers of articles at the New York Times and other sites to click and follow writers directly from their bylines, and — judging by what Evan Williams told Anil Dash on Twitter — will also let them click and see information about popular Twitter users who are mentioned on a participating site, by way of a popup window triggered by mousing over a link, similar to the hover popups at Twitter.com. Embedded below is a video clip that Kirsten Cluthe of MediaBistro shot of the Twitter founder describing how sites will use @anywhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following the death of the world's last Bo speaker (picture courtesy of BBC News) at the start of the month, the blogosphere was inundated with comments, questions and arguments about the importance of minority languages. To my dismay, a lot of people (many of whom seemed to hail from deepest inland US of A) seemed to think that language is nothing more than a method of communication. That the fewer languages the better. That, seeing as language is nothing more than a form of communication, why can't everybody just speak English?
+As a linguist (albeit a poor one) I was saddened by these sorts of views. To reduce  language to the mere some of its parts, to a collection of words used to indicate something is to discount the awesome development of humankind. At the basest level of argument, language is what differentiates us from animals. At the highest, according to Jean-Jacques (not Henri) Rousseau, from its first moments of existence language has been the downfall of humanity from a pure and natural state and has a lot to bloody well answer for.
+</t>
+  </si>
+  <si>
+    <t>Working for hours on end with a computer is now a fact of life. Whether it's an aspect of your work or whether you use computers just for fun, there are certain risks involved with prolonged computer use. This simple 7 point checklist will help you recognize and avoid the most common problems:
+C ontact stress
+O rganisation
+M onotony
+P osture
+U ncomfortable environment
+T etchiness
+E xercise Contact Stress and Computers
+Contact stress refers to the pressure that is put on different parts of the body whilst in a relatively fixed position. Wrist and hand problems are common with computers. For example, 'floating' your hand over the mouse for long periods leads to strain on the ligaments in the back of the hand and the wrist. The sensation is not unlike gripping a pen for long periods. Leaning wrists against hard surfaces such as the edge of the desk leads to similar problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 x 5" About five years back, when I was just starting to paint, I emailed a well-known artist and asked him to take a look at my work and tell me what I was missing. He offered one comment that stuck with me - to pay as much attention to the edges as the content. I was too tight - too illustrative. And it's not what I wanted to achieve - I wanted to find the balance of details needed and leave the rest to impression. With each and every painting, I have to pay great attention to that fine line - not to say there are days when I desire to tighten up and other times I desire to really lay on the painterly strokes. I don't have a favorite feature in this new piece - I love all of it. That final dab of light blue on the bathing suit mattered, although I don't know what made me do it other than intuition. The edges are just as I want - allowing some to be rough and some soft. Please click here for a larger view and purchase information. 12 x 12" Front and center, on the third floor of the Art Institute, hangs Gustave Caillebotte's enormous painting 'Paris Street, Rainy Day' - certainly the biggest crowd-pleaser in the museum. There's plenty of room to not only get up close, but to back up a good 30 - 40 feet and take it all in. When I was a teenager, I would sit on the floor in front of this masterpiece and draw dozens of versions of parts of this urban scene - not knowing I'd paint it dozens of times thirty years later. My favorite feature of this new piece is the man on the far right, on his way out. I have wanted to add more movement in figures - a slight blur or even a ghost of a shape - just knowing when it's right is the tough part. And knowing how to get the idea across, without looking like my hand smudged the paint unintentionally is even harder. It's something I'm working on more and more, mostly behind the scenes. Please click here for a larger view and purchase information. 16 x 16" This new painting is the largest piece in the show - done on a cradled masonite panel - and like the painting 'Below the Belt' , I added a paprika-like ground color on top of the black and let that vibrant, warm tone show through in many of the edges as well as the floor, which is what I love most about the end result. The two figures were wonderful to paint, especially the woman who has that great S-shaped posture. Included front and center is Georgia O'Keeffe's 'Black Cross, New Mexico', one of my all-time personal favorites in the Art Institute of Chicago. Please click here for a larger view and purchase information. 9 x 12" How about a moment of Zen - forget the cold, wet, dreary weather outside and imagine yourself soaking up the warm sun on the beach all by yourself. And remember, brighter days are ahead. Not soon enough - but it's coming. My first thought about this new painting is it can best be appreciated in person. The vibrancy of the skin tones, the yellow towel and especially the turquoise water and multi-blues sky - the texture and warmth in the sand, which I used a palette knife for most of that - yes, I wish I could hold up the real thing right in front of you. As with most paintings. In the process of painting this, I did the figure first, the water next, the people walking about and in the ocean way in the distance - and then wiped the whole thing off. Those moments are funny - here I just spent hours on what I thought was nearly complete and it's as if my hand just took over and grabbed a rag and, in seconds, trashed it. So I sit there stunned for a minute, hearing that little voice that assures me it wasn't right and get over it. Just as quick as it disappeared, I start it all over again - lessons learned - which usually makes the second attempt much more successful. Now.... mix yourself a margarita and click here for a larger view and purchase information. 12 x 12" I may have said this before - when I'm in a museum, I find myself so focused on looking at people rather than the art. It's been an obsession since I was a kid - watching the human figure and studying how we move, stand, balance, sit ...... all of it. And when I start a painting, there's always something that stands out right away - a feature that is essentially why I'm interested in the photograph in the first place. In this case, I saw this gentleman and his clothes as one united, interesting form - I felt the weight of the fabric, the heavy load of the backpack and especially the zigzags created by the folds of the pants. I just love that feature. I also saw the warmth of the overall tones - the golds, reds, greys - and chose to paint a rich, paprika-like color on top of the black surface I usually start with and hoped it would peek through in parts as long as I didn't go too far and cover it all up. The challenge being to let the edges do what they do, without nit picking. Like here in the legs ..... I was so happy with the some of the red showing through the creamy wall and the looseness of the shadows around the Picasso - again allowing edges to overlap and disappear into each other. That's what I get when I stay away from small brushes - I'm forced to take more control of the strokes but I can't over-paint it. This young man was studying Picasso's 'Mother and Child', which hangs in the Modern Wing in the Art Institute of Chicago. Please click here for a larger view and purchase information. Booster Seat I and II each is 8 x 10" Whew ! All of the new paintings are officially in the Morris &amp;amp; Whiteside Gallery , currently being hung for the three-artists-show opening Friday, the 26th and I feel I can relax a little bit. And I'm very happy to start showing you each and every painting - and if you don't mind - I want to add to that some of my favorite details or 'sweet spots' that make them special. Let me start with the paintings you see above - two women taking a rest on a bench in the Art Institute of Chicago. It's where thousands of visitors take a load off and hopefully get a boost of energy to get back to exploring. Now, you may recognize the woman on the right, I had painted her a few years back - but with this new piece, actually both paintings - I applied the oils with a palette knife, nice and thick, then carved into it with a brush, adding more detail and control. I can attest to this being more difficult and frustrating - but the challenge lies in moving the paint around, almost sculpting it in parts. Some areas have slabs of color on top of color, like in the pants and the back wall and the swirling of thick paint to move with the folds of the clothes. You may also notice, even though I'm one of three artists in this show, I titled my work "The Tute and a Tan". Let me explain how my brain works, with respect to getting the job done. I can move forward, fairly quick, if I have a specific direction. In this case, I chose to paint scenes from two of my favorite people-watching spots - the Art Institute of Chicago aka the 'Tute' - and the beach. Once I can visualize a grouping that marries well with each other, I start working. There isn't an artist that doesn't get stuck not knowing what to paint next - and this way of thinking and preparing helps me motivate. All of my paintings in the show can be viewed here - and thank you for looking. A short video can be viewed here as well. Hope you enjoy. 'Cruise Control' sold This might be a workshop meant for you - my second Field Expedition this year taking place November 1st - 5th at the Arts Center of Coastal Carolina on Hilton Head Island in South Carolina. I've seen the studio space, it's fabulous - and like the New York City workshop, we'll be painting in the early part of the day and photographing in the afternoons. I picked this location because it has provided me with loads of imagery for paintings - the beach, the low-country landscapes and Savannah and Charleston are near enough for a short road trip for more. Also, the fine people at the Morris &amp;amp; Whiteside Gallery will be hosting an evening get-together at their gallery for our group and you may also be interested in scooting over to Charleston after the workshop is over, for their Palette and Palate Stroll during the weekend. Should be great fun. More information can be found here and you can call Vince Fazio at the Sedona Arts Center for further details and registration. 6 x 6" oil on masonite sold I am sure there's many of you out there that aren't embracing the snow right now. But remember, I live in the deep south, and this is not only a rare occurrence, it's an unusual opportunity for me to paint something different, and I love that. It is staggering to see my world blanketed in white - almost no hint of color anywhere - the muted, silver sky - the amazing quiet. If it wasn't for my slipping on the ice and dropping my camera right smack in the snow, I would say that day was a perfect day. I also get to play with thick, blended, warm and cool white paints - laid on thick and as heavy as the snow itself. So much fun. And I promise - the 18 new paintings you'll see in a few weeks will warm you up and remind you that brighter days are ahead. </t>
+  </si>
+  <si>
+    <t>This Saturday, February 13th from 11-5PM is the first LA Street Food Fest. I will be setting up the Mr Toast booth This is going to be a crazy cool show with 30 food trucks and 30 designer vendors (including our friends Spicy Brown). It is $5 to get in and they are expecting a crowd! It is near downtown at the Center Studios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellz Fucking Ya!! Dude that shit rawked!!!. Shinedown~ WOW!!! Those guys. Were the shit. I didn’t know too much of their songs. But 45. RAWKED majorly. Was so fucking packed. That the crowd on the floor BROKE the bairacage. A7X had to stop the show for about 20minutes so that they could fix the damn thing. WOW those guys are HOT as FUCK. After A7X. BUCKCHERRY. WOW. Lead singer. Fucking Gorgeous. To see him humping the air when he was talking about "Crazy Bitch" WOW. Not only was I hot.. but my sister's mouth hit the floor.. We Rawked our asses off.
+To all those Lame ass bitches that backed out on me. Your Fucking Bogus!!.. There’s One TRUE friend that actually went with me. That’s my stoner Buddy Bruce.. Props to you man..
+So all in all. Was a great fucking night. I had a ball. To all those that missed it. You suck.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The Mis-Education of the Negro", by Carter G. Woodson.
+This is going to be a great book and will make for a great topic of discussion in our next meeting. In my opinion this is a must read for all African Americans. It will bring insight into a lot of issues that plight us as a people. And what you will find even more interesting is that this book was published in 1933 but still incredibly relevant to the problems we face today almost 80 years later. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmmm sriram...he s one sweet gud guy...kinda those few transparent n straightfrwd guys lik whom to find s difficult in orkut...we ve been chattng fr few months nw n found him to be pretty cool...does lotsa coll wrk in d weekdays n lotsa chattng in d weekend...gud balance dude...lol...jus kiddng ;0
+k i ll write a much bigger n more intrstng testi wen v both kno each othr much more as days go by...tc... :)
+-MADHU :0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I turned the water on as hot as I could stand it. Steam quickly filled the room and choked out the air as I stepped naked into the shower. (The next part is embarrassing and humiliating to admit.) Facing the water, I closed my eyes. I took a deep breath and held it as I interlocked my fingers tightly behind my head and leaned forward into the stream pouring down. Titling my head toward the ground, I allowed the water to wash over my neck and back, hoping to release the built-up tension in my shoulders and constriction looming deep within my chest. Then a giant exhale. With my forehead now resting against the shower wall and my forearms squeezing the blood surrounding my temples, I remembered to relax. To stop trying to hold on to it. To let it flow through me like rain. And it did. And as a result, I kind of lost it. I started to cry - a very rare occurrence for me! Although I can't be sure if they were tears or just water droplets from the showerhead falling to my feet. Either way, it doesn't matter and neither does this confession. This story has nothing to do with blogging. Although it does help explain some of the recent events happening in my life which have led to a few decisions, including this one... Today marks my 999th post here on The Rest Is Still Unwritten . It also marks the day I say goodbye to blogging. I've always said that the day blogging ceases to be fun for me is the day I step away. That day has come. So I'm stepping back (backspacing?) from writing. I've enjoyed the 5+ year journey, but I no longer feel inspired to write. Lots of things still left to say, just no energy or will to say them. What was once a creative outlet that I've describe as "therapeutic," now feels excruciatingly painful for me to continue. The joy just simply isn't there...and neither are the words. It should go without saying, this makes me incredibly sad. This isn't an impulse decision. It's something I've been mulling over for some time now, evidence of this Tweet (pictured above) from last week. I considered deleting the entire blog and not saying a word as to why, but I felt that wouldn't be fair to you, the reader. Plus, I didn't want to deal with answering countless questions of what happened, people thinking it was just a system glitch. Instead I'm allowing my little corner of the web to stand as is. You're welcome to browse through the rather extensive Archive . But I can't say when, if ever, I'll return. My realization is one that is not...umm, happy. In the past, I've seen writing as a gift. For it has given me the ability to express the things in my everyday life that are often too difficult for me to verbalize. So I put pen to paper in my coveted Moleskine or I blog about it here. I write it all out and I write through it. This time it's different. This time I can't write about it and what's even more difficult is that I've realized I have no one to even talk about it with to help me cope. I don't have that type of relationship with any of my buddies or even with anyone in my family. It's like emotional paralysis where feeling too much is leaving me numb. So instead I'm choosing to share nothing. I'm keeping quiet and keeping to myself. And if the day comes that I feel the urge to write here again, there won't be some lame teaser Tweet to build up online anticipation or a dramatic comeback post! I'll simply slide in just as quietly and unannounced as I slid out. Because in the end, I want to live by my motto - Write Like No One Is Reading. xoxo, David PS (Please don't e-mail me wanting to suddenly be my friend and offer your ear. While I appreciate the kind gesture and I'm sure you mean well, this letter is not my plea for help. It's more or less a PSA as to what is happening on my blog. Also, I'm sorry if this news leaves anyone feeling disappointed. But understand that life happens. And when it does, we cope the best way we know how. Perhaps this will only be a short hiatus. So keep me in your reader, keep me linked and check back soon. Again, my apologies.) ---NOTE--- The follow-up from 1/21/10 - Release After the Melissa Blake fiasco , I swore I would never guest post for anyone ever again! And I didn't, until my friend Elisa Doucette from OpheliasWebb.com convinced me otherwise. Since February is dubbed "the month of love," Elisa put together a great blog series project all about love. She selected 28 bloggers to guest post on the topic and has published their words throughout the entire month of February. 1 Blog. 1 Topic. 1 Month. 28 Days. 28 Guest Bloggers. Although a lie, I like to pretend she saved the best for last by making me the final guest blogger in the series with this post below. Clarity "I want you to get swept away out there. I want you to levitate. I want you to...sing with rapture and dance like a dervish. Be deliriously happy, or at least leave yourself open to be. I know it's a cornball thing. But love is passion, obsession, someone you can't live without. I say, fall head over heels. Find someone you can love like crazy and who will love you the same way back. How do you find him? Well, you forget your head, and you listen to your heart. And I'm not hearing any heart. 'Cause the truth is, honey, there's no sense living your life without this. To make the journey and not fall deeply in love, well, you haven't lived a life at all. But you have to try, 'cause if you haven't tried, you haven't lived." - Anthony Hopkins role as "Bill Parrish" in the movie Meet Joe Black, heart to heart father/daughter talk Love is a crazy, dizzy thing. Sometimes it’s all so beautiful I can hardly stand it. I want to capture it. So I take a photograph. To make time stand still. I freeze the moment for all eternity and hang that memory on a wall. But then that doesn’t seem like enough. The photograph allows me to recall that exact same vision I once had, but it doesn’t give me the movement. The way that one strand of hair kept blowing across her face, attempting to unite with her bottom lip. Or the way the early morning sunlight pardoned the rain, reflecting and dancing across the small of her back from the dusty windowpane. ...read the rest of my Guest Post here. Also, be sure to check out the other bloggers (some really talented writers included) who participated in the series. Elisa’s "All You Need Is Love" blog series project will definitely get you thinking and questioning love and your own life. "If a tree falls in a forest and no one is around to hear it, does it make a sound?" Is is a philosophical riddle that raises questions regarding observation and knowledge of reality. That theory is called "subjective idealism" and refers to a time in which objects cease to exist once there is nobody around to perceive them. However, one may argue that... "if a tree falls in the forest and no one hears it, did it really fall?" Meaning - the objects of sense exist only when they are perceived. The common sense answer is yes. It obviously makes a sound since we know that a tree falling makes noise regardless of whether anyone is around or not. The metaphysical answer is no. The tree does not make a sound if no one is there to witness it falling. And indeed the act of making a sound isn't even a quandary, all that matters is that the tree in fact ceases to exist if no one is there to witness it. The production of sound requires 3 things: a source, a medium, and a receiver. But what about happiness? It also needs the same 3 elements. So is happiness only real when shared? There is the possibility of unperceived existence. That something can exist without being perceived. If no one is around to see, hear, or feel your happiness, does it not exist? Does happiness need a witness? Someone to validate it? Someone to share in it to make it real? For years I didn't realize how unhappy I was until I was happy. And you never realize how happy you were until that happiness disappears from your life. Happiness is not tangible, but yet it feels very fragile in our hands. Hold too tightly and you smother it. Hold too carelessly and you lose it. Unclasp your hands and you share it. Open your heart and you receive it. I believe happiness can exist alone in ourselves, but I feel it is far more satisfying when shared. In an ideal world, we would share a piece of happiness with someone everyday. Touch them in some way to let them know their existence matters. However, life is anything but ideal. It is often difficult to prove to someone how happy they make you. Whether that happiness is mutually shared or not, the only thing concrete about the emotion is that YOU know it to exist. I know it exists because I can feel it, like 10-million fireflies filling my chest cavity. I may not always be able to explain it or even prove it. But trust me, it exists and it's incredibly real. So what do you think? True or false? Is happiness only real when shared? There is a reason the young are naive. It protects us from the harsh truths and cold realities of a life we are not yet ready to see. As children, we aren't prepared to deal with the heartbreak and confusion that later reveals itself with age and wisdom. Like every kid, I looked up to my father. I idolized him. Worshiped him! He was my Superman. A man that could do no wrong. A man that was always right. A man that knew best. And a man that was in fact human. It often takes years before we see our parents for who they really are. Not these fictitious superheroes we have built-up in our mind and heart, but rather people. People that make mistakes. It was only a year after I graduated college that I learned that painful lesson. That the man I had admired and role modeled myself after for 20+ years of my life had been telling me embellished truths. While the phrase "embellished truth" sounds more pleasing to the ear than the word "lie," both are essentially the same. To embellish is to enhance (a statement or narrative) with fictitious additions, to beautify it. Simply put, it's a fancy lie. If you have ever seen the movie "Resurrecting The Champ," you'll be familiar with parts of what I'm about to say... A writer, like a boxer, must stand alone. Having your words published, like entering a ring, puts your talents on display. And there's nowhere to hide. I don’t intend to write a story about myself or my father. Or about love. Or the lies that can sometimes come from love. We live in that fear. I will tell you this about the man I call Dad. He is, against all reason, my friend. And he is also a liar. But was that because he was trying to make himself better than who he was? Or was it because the one force more powerful than a son wanting the admiration of his father is the father wanting the admiration of his son? Sometimes we need the help of our imagination to achieve that status. For it is no easy task being the strongest, wisest and most beloved man in all the land. And what is sadder is that moment when our children discover that we are not the illusory superman we've created, but rather, as Herman Melville once wrote..."men drained of valor." The lies that come from love can devastate as much as those that come from malice. Dad's legacy, I suppose is the inspiration for truth. A beauty that lets our children admire us unconditionally as I love my father. Today is my BFF's 3rd birthday! Yes, my BFF is a dog. Or at least to you he's a dog. To me he is sooo much more than I can even put into words! Actually, I can attempt to put it into words and I very much wanted to do just that today in celebration of his birthday. However, time is of the essence. And because I would rather spend more time playing WITH him on his birthday than blogging ABOUT him, I'm going to keep this post short and sweet. I'm re-posting the poem I posted on his 1st birthday. Then I'm cutting out of work early, taking him on a shopping spree at Petsmart , to the dog park to play with his friends, then home to do a little backyard sledding/snowboarding (his favorite), and finally inside by the fire to warm up couch cuddling. Go ahead and laugh. Think I'm crazy or think I'm joking. I'm neither. This is how I want to spend my Friday night. Like a fine aged wine, our love only gets better with time. And there's no one else I rather spend my days with. Happy birthday to my favorite chunk of meat. I love you, Diesel! A Boy And His Dog by Edgar Guest A boy and his dog make a glorious pair No better friendship is found anywhere For they talk and they walk and they run and they play And they have their deep secrets for many a day And that boy has a comrade who thinks and who feels Who walks down the road with a dog at his heels He may go where he will and his dog will be there May revel in mud and his dog will not care Faithful he'll stay for the slightest command And bark with delight at the touch of his hand Oh, he owns a treasure which nobody steals Who walks down the road with a dog at his heels No other can lure him away from his side He's proof against riches and station and pride Fine dress does not charm him, and flattery's breath Is lost on the dog, for he's faithful to death He sees the great soul which the body conceals Oh, it's great to be young with a dog at your heels! ---NOTE--- 12/7/05 - Define Sexy (Recommended reading before you start the post below.) Everyone has a different definition of sexy. Five years ago on my blog I attempted to define what the word "sexy" meant to me. However, I left out one keyword - independent. At the time I was working under a female boss and despite the fact she was in her mid-40s and old enough to be my Mother, I felt this very strong attraction to her. She was attractive, but her physical appearance is not what drew me to her. It was a quality she possessed, the type of lifestyle she lived. She was an independent woman and it was so incredibly sexy to me! The best thing about being single and dating is that through the years you discover exactly what it is that you really want...or in my case, what I didn’t want. I’m not a MILF hunter or cougar lover. I date girls my own age. However, I've come to realize that the vast majority of girls I had dated and had relationships with have not been independent women. Perhaps that is partially why none of those relationships worked out. Or perhaps getting a taste of what a relationship with an independent woman is really like is all that I needed to wet my appetite and have me craving my very own Miss Independent. It’s a well known fact that most guys are intimidated by powerful women. They simply can’t handle it. For some, a woman that is fully capable of taking care of herself and doesn’t need a man in her life is a giant blow to the male ego. It takes a very confident man to be with an independent woman. He has to be secure with who he is and rarely doubt his ability to please her. He must understand that although he may not be needed in her life, he is wanted in her life. I love independent women, but I would be lying if I said moments of doubt and bits of insecurity don’t creep into my head when it comes to being with a Miss Independent. There are so many 20-somethings (both guys and girls) out there that don’t have a clue what they are doing! They are in dept up to their eyeballs, but instead of working to pay off that debt, they decide to just travel the world and live this carefree "I’m going to find myself" lifestyle. Sure that modern day hippie/slacker shit sounds all poetic and fun, but it’s not long before reality comes along to slap them in the face, waking them from their dreamy state. They don’t know what they want to be when they grow up, despite the fact they’ve been a grownup for years! They teeter back and forth about going to school or going back to school. They really haven’t given much thought to the future or set any long term goals. Most haven’t even set short term goals! So they drift aimlessly from one location to the next, one job to the next, and one relationship to the next. And when it comes to love, their track record consists of binge drinking and hooking up, rather than any actual dating or a real relationship past. This is why an independent woman is sooo refreshing! I want a 20-something girl that has direction in her life and not only knows what she wants, but is already well on that path to achieving it. She knows who she is, where she’s been, and where she is going. And she wears $800 stilettos during every step of the way, not to flaunt her success, but because she’s worth it! She has earned it. She is strong. She is sexy. She is Miss Independent. And yes, although a rare breed, she does exist. "Miss Independent" by Ne-Yo Ooh, it's something about, just something about the way she move. I can't figure it out. There's something about her. Said ooh, it's something about kinda woman that want you, but don't need you. Hey, I can't figure it out. There's something about her. 'Cause she walk like a boss, talk like a boss. Manicured nails to set the pedicure off. She's fly effortlessly. And she move like a boss, do what a boss do. She got me thinking about getting involved. That's the kinda girl I need. (Chorus) She got her own thing, that's why I love her. Miss Independent, won't you come and spend a little time? She got her own thing, that's why I love her. Miss Independent, ooh the way we shine. Miss Independent, yeah. Ooh, there's something about kinda woman that can do for herself. I look at her and it makes me proud. There's something about her. There's something oh so sexy about kinda woman that don't even need my help. She said, she got it, she got it. No doubt, there's something about her. 'Cause she work like a boss, play like a boss. Car and a crib she bout to pay 'em both off. And her bills are paid on time. She made for a boss, only a boss. Anything less she telling them to get lost. That's the girl that's on my mind. (Repeat Chorus) Mmm, her favorite thing to say, don't worry I got it. Mmm, and everything she got best believe she bought it. Mmm, she going steal my heart, ain't no doubt about it. Girl, you're everything I need. Said you're everything I need. (Repeat Chorus) Miss Independent. That's why I love her. I never understood people who are into celebrity gossip. Who is crushing on who. Whose marriage is on the rocks. Or who is secretly tying the knot. I mean really, who cares? It's TMI. I subscribe to the belief that what happens behind closed doors is no one's damn business...uh, that's why the door is closed! This is exactly why I rarely ask any of my buddies who they are dating. It's not uncaring of me, it's respectful. Of course I will go into "slumber party mode" with female friends so they can get all girly, giggly and giddy gushing over some boy. I am happy for them and they are welcome to share their excitement with me. Although, for the most part, other people's romantic/sexual interests don't interest me. We live in a world of information overload these days. So I'm perfectly happy and content NOT knowing who is banging who. In fact, I prefer it that way. Besides, what purpose does that information serve me or anyone else for that matter? It would only satisfy the nosey. Don't be nosey. Don't Ask, Don't Tell (DADT) is the common term for the policy stopping openly gay, lesbian, and bisexual individuals from serving in the United States military. This federal law is in place because they claim "it would create an unacceptable risk to the high standards of morale, good order, discipline, and unit cohesion that are the essence of military capability." Therefore the act prohibits any homosexual or bisexual person from disclosing his or her sexual orientation or from speaking about any homosexual relationships while serving in the United States armed forces. My thoughts on the topic surrounding ANYONE'S personal relationship business, regardless if the person is gay or straight...Don't Ask. Don't Tell. Don't Care. And if it slips out, still I don't care. It doesn't affect my life in the least and it doesn't make me think any more or less about you as a person. It is what it is. I don't care if you're gay. I don't care if you're straight. I don't care if you're married, divorced, single, or have 2.5 kids. I don't care if you're black. I don't care if you're white. I don't care who you slept with, how many people you slept with, or how long it's been since you slept with anyone! All I care about is if you can do your job. If you can cover my back when bullets and bombs fly. Can you do that? Will you do that? If you answered yes to both questions, then what's the problem here? Why not let gays in the military? Who you are attracted to shouldn't make you less of a solider. Just like being attracted to big bottomed brunettes instead of big breasted blondes wouldn't make you any less of a solider either. We just have different tastes, that's all. It should be noted that there are already gay people in our military, but they are in there because they've kept their sexual preferences hush-hush. But when did who you are attracted to have anything to do with the capabilities of performing your job? A problem is often complicated, but the solution is often simple. What's difficult is the follow through. And in this case, getting the rest of the country to see it as such. The fact is this - no one is condoning giant orgies to facilitate in the Army Barracks. And regardless of what your occupation is, very few employers are accepting of romantic/sexual relationships taking place at work. So I think we could all understand and completely accept a rule/law stating that any type of romantic/sexual relationship is forbidden to form in our U.S. military. But to deny someone the opportunity to serve our country simply because they like boys instead of girls seems unbelievable to me! What really irritates me is many of the homophobes who are complaining about having gays in the military, saying "they aren't man enough to serve," lack the balls to serve themselves! I hate to quote a Hollywood scripted movie when trying to relate to a real world issue, but I have to say that Jack Nicholson as Col. Jessep in "A Few Good Men" summed this up best when he declared... "I have neither the time nor the inclination to explain myself to a man who rises and sleeps under the blanket of the freedom I provide and then questions the manner in which I provide it! I would rather you just said thank you and went on your way. Otherwise, I suggest you pick up a weapon and stand a post. Either way, I don't give a damn what you think you are entitled to!" ---NOTE--- Related post of interest... 11/5/08 - One Giant Leap Forward And One Giant Leap Backwards When this year’s Super Bowl matchup was announced, Saints vs Colts, I renamed it to the Super Snooze. I felt it would lack that action packed, hard-nosed, 60 minutes of thrilling NFL football I was accustom to watching. I’m happy to report that I was wrong. The game was actually competitive and pretty exciting! And the commercials weren’t too shabby either...or at least that was my personal opinion when I went into work on Monday morning. I figured there would be Peyton Manning fans whining, but what I didn't expect were women to be shouting sexism! Sexism, really? I’m sorry, the ads are only seen as sexist if you twist the humor out of them. So lighten up. They aren’t sexist. They are geared toward men! So if you’re not a man, there is a good chance you wouldn’t enjoy something geared to men. Correct? That’s why women subscribe to Cosmo and not Maxim. So what makes you think the Super Bowl should be the exception to that rule? I wouldn’t tune into the Oxygen channel or the Lifetime Movie Network and expect the commercials there to be geared toward me. Let me make something clear to everyone. Football, just like any other televised event/show, has a target audience. The NFL marketing demographic is aimed at males ages 18-34. That is their target audience, who is tuning into the games. So it's only smart business for advertisers to create commercials that appeal to the vast majority of NFL fans, males ages 18-34. Needless to say, young adult males are into beer, tits, technology, cars, and potty humor. This is why when you watch football, and especially the Super Bowl, you see ads for Bud, big breasted GoDaddy.com girls and muscle cars. Sexist? No. Smart! The cost for a 30-second commercial during this year's Super Bowl was $2.6 million! Do you really think any company would waste that kind of cash on a commercial that doesn't grab the attention of males ages 18-34, their target audience? If you were selling Tampax tampons, you would air your ad during "Oprah." If you were selling Viagra, you would air your ad during re-runs of "Murder She Wrote." And if you were selling Zhu-Zhu Pets you would air your ad during "Dora The Explorer." Women, you’re more than welcome to watch the game with men. Although you will never see any man scream "SEXIST" if a woman makes a remark about how tight the QB’s butt looks or how you live in Florida, but you’re rooting for the NY Jet’s simply because Mark Sanchez is cute. Football is a game filled with testosterone, blood and sweat. Men behaving like beasts! Wrestling and roughing each other up in a battle of strength and strategy. So don’t be surprised (or complain) that watching football makes me want to eat meat, drink beer and burp. It brings out the animal in us. Personally, I think it’s healthy to hang with the boys and yell "FUCK" during bad ref calls. I also think it’s perfectly normal for me to drool over two hot chicks in lingerie making out. And it’s perfectly normal that I want to jump up and cheer when I see a man taking a stand for himself instead of being emasculated by an over controlling woman. If that makes me a caveman or a sexist pig, so be it. FloTV (watch here) takes a regular Joe Schmoe and states that his girlfriend removed his spine, made him go shopping instead of "letting him" stay home to watch the game. They then encourage him to change out of his skirt and get a FloTV so he can watch sports on the go, AKA in the mall. In another ad, Dockers (watch here) incorporates a slogan that is as old as the day is long when it comes to relationships. They’re calling all men and instructing them that "it’s time to wear the pants." We all know what that means! But it was Dodge Chrysler's Super Bowl spot (watch here) that got feminists fired up the most! Titled "Man's Last Stand," the narrator is as bold as they come, saying... I will get up and walk the dog at 6:30AM. I will eat some fruit as part of my breakfast. I will shave. I will clean the sink after I shave. I will be at work by 8am. I will sit through two hour meetings. I will say yes when you want me to say yes. I will be quiet when you don't want to hear me say no. I will take your call. I will listen to your opinion of my friends. I will listen to your friends' opinions of my friends. I will be civil to your mother. I will put the seat down. I will separate the recycling. I will carry your lip balm. I will watch your vampire TV shows with you. I will take my socks off before getting into bed. I will put my underwear in the basket. And because I do this, I will drive the car I want to drive. Know why this is funny? Because ALL men have felt this way before! If you haven't, then you must not be married, haven't talked to married men, or haven't been in any type of relationship long enough to experience this robot-like lifestyle. It's like being a shell of a man where you lose the balls to say no or disagree. You simply do as you're told because thinking on your own and doing what you want causes too much drama in your relationship. And you hate drama! Therefore you rather just say "yes dear" and go with whatever she says like a zombie. You do this because you love her and want to make her happy, even though living this way makes you miserable! Then finally something comes along, in this case the car you've always wanted, that makes you finally put your foot down. You realize you take enough shit and do enough for her. So it's time to do something for yourself. I WILL DRIVE THE CAR I WANT TO DRIVE! I can't say I like Dodge Chargers, but I love this commercial because I've always said I will refuse marriage or get divorced before any woman forces me to buy a car I don't want. I will NEVER own a minivan! There are lots of things I will compromise on, but my car is just not one of them. And I don’t care if any women thinks my Ducati is impractical either. My sportbike is like my Bulldog. Both will stay and you will go. I am man. Hear me roar. PS (I secretly loved the Google commercial best of all! It made me feel all warm and fuzzy inside. I guess that makes me a sexist pig with a soft center?) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a second cruise for my husband and I and a first with the kids.  Our first cruise was on a different line and it pales compared to the Disney cruise experience.  Our kids are 4 and 6 and they had a great time.  As soon as we got in the car to come home they asked, "When are we going again?"We fed the stingrays in Nassau and that was a perfect excursion for young kids.  My youngest was scared to be in the water with them, but she loved watching them from the shore. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While you might be upset about the way that things have turned out, you need to remember that being calm is the best way to see things more clearly. Try lowering your voice when you talk - it automatically lowers your blood pressure and your anger. Try to take a few deep breaths before you say anything - this will help you to be clear and calm as you speak. Many people perceive becoming flustered or upset as being angry, and that can lead to a poor environment for working through issues. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a normal sight at our house. My husband, at work. He's definitely not one to leave it at the office. Relaxing just isn't in his blood. He cannot do something halfway, and doesn't understand how anyone else can, either. When he doesn't have anything to do, he goes and learns something. Like one of 5 programming languages he taught himself in the 90's. How to repair his own bike. How to build a computer. How to speak French. Extensive reading on Buddhist philosophy. Sailing in the 1800's. Sci Fi. Or changing his career path entirely, from Art (Yes, Art!!!) to Geology and Mineralogy to Geomicrobiology to Environmental Chemistry and Technology to Nanotechnology to Thinfilms to Solar Technology to Materials Science to Architecture and Sustainability to who knows what.
+And he doesn't stop there. He not only learned French, he worked to get us a position there so I would be able to realize my dream of living in France one day. And now, he wants to find a way to go back.
+A vacation for him is not laying on a beach with a beer. (Though he'd happily walk through a museum with a beer.) On our honeymoon in New Orleans, he went to every museum there was. Thankfully, we're well matched. I love that, too.
+He's kind of maxed out on the academics--though I guess he could get a second PhD (don't tell him, please!) As a professor, he's constantly busy teaching, recruiting, researching, mentoring, leading a solar decathlon team, and now heading up an entirely new degree program. He's not tenure-track, but even if he was and got it, he said he wouldn't change a thing. It's who he is. The idea of taking it easy just isn't a part of his DNA. He can't not do his best. I love that about him. I love how hard he works, both for his calling's sake and for his family's sake. I love that when he believes in something, it is with every fiber of his being. I love his devotion.
+This week, he figured something out. For the first time in 36+ years, he's bored.
+Heaven help us.
+</t>
+  </si>
+  <si>
+    <t>The anoo files:) part2: well to b really frank i dint know much abt tis gal wen i wrote the 1st testi for her...but now i ve learnt a lot abt her and from her :) one very interestin thing tat i would lik to say is dat she has bcome a very close frend of mine oly recently... esp after joinin Cognizant...i should mention she has grown up to b a very matured gal..i was surprised by the fact tat she trusted me so much dat she told me many of her secrets and personal matters :D...thanks for dat man :)to b very frank no other person has been lik dat to me....and definitely she also took some pains to understand a complex person lik me :) v ve shared a lot of things abt each other and she s one person who knows me really well :) and wenever v meet v ve sometin to talk abt, either abt ourselves or abt others[gossip i mean ;)]... she is def one of the sweetest and cutetest :) gals i ve come across..and one of the few ppl who supports me and tells good things abt me.... thanks for all dat, i really appreciate it :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch-screen technology has become wildly popular, thanks to smart phones designed for nimble fingers. But most touch screens have a major drawback: you need to keep a close eye on the screen as you tap, to make sure that you hit the right virtual buttons. As touch screens become more popular in other contexts, such as in-car navigation and entertainment systems, this lack of sensory feedback could become a dangerous distraction. Now researchers at Carnegie Mellon University have developed buttons that pop out from a touch-screen surface. The design retains the dynamic display capabilities of a normal touch screen but can also produce tactile buttons for certain functions.
+Graduate student Chris Harrison and computer-science professor Scott Hudson have built a handful of proof-of-concept displays with the morphing buttons. The screens are covered in semitransparent latex, which sits on top of an acrylic plate with shaped holes and an air chamber connected to a pump. When the pump is off, the screen is flat; when it's switched on, the latex forms concave or convex features around the cutouts, depending on negative or positive pressure.
+To illuminate the screens and give them multitouch capabilities, the researchers use projectors, infrared light, and cameras positioned below the surface. The projectors cast images onto the screens while the cameras sense infrared light scattered by fingers at the surface.
+The idea of physically dynamic interfaces isn't new, and in recent years, researchers have explored using screens made from polymers that can alter their shape when exposed to heat, light, and changes in a magnetic field. However, these materials are still experimental and relatively expensive to make. </t>
+  </si>
+  <si>
+    <t>I've only ever really had like maybe 7 people actually read my story and talk to me about it or mention something about it. Other then that. Everyone else I gave my story too never once even mentioned it. The two girls I worked with back in college always read my stuff and walk talk to me about the chapter. My one writing buddy. He and I used to exchange stories all the time and help each other out. My ex back in college. She actually would sit there and read my story next to me and then talk a little about it.</t>
+  </si>
+  <si>
+    <t>Wow, what a weekend!!! Let me start off by saying that we will NEVER fly using Southwest Airlines ever again! All 17 of us flew out of Islip Airport in Long Island on Thursdays and arrived in Chicago at Midway Airport. My sister in law, Eileen, and her husband's 2 suitcases, missing and NEVER arrived for the whole weekend. They had to go out and buy clothes for the wedding (which they were reimbursed for) and then yesterday, lets see.... finding out that one of Eileen's bags had been found in Florida, my other sister in law, Kerry's boyfriend's luggage not arriving with his flight, my brother in law, Christopher (THE GROOM'S) luggage not making it to their honeymoon destination and to top it off, they lost Joey's carseat!!! Keep in mind, on the way home, there was 3 different flights and on each flight, someone lost luggage. And I wouldn't have been so mad about our's, but come on, a car seat?! Thankfully, they had loaner carseats so we were able to go home and also thankfully, Joey's carseat was found by the time my in-laws flew in last night so they were able to bring his carseat home with them and Southwest Airlines is going to pay to have the loaner carseat FedEx'ed back to them.</t>
+  </si>
+  <si>
+    <t>I'm sure you've heard of extrasensory perception (ESP). Well, what I have is EAP, or extra-allergy perception. When you have allergic-asthma as long as I have, this is a skill you develop. Okay, so I suppose you're wondering what EAP is. Well, it's the ability to know when something around you is one of your allergy triggers. It's the ability to know what places you need to avoid. Actually, it's quite a neat skill. As far as I know, I'm the only person alive with this skill. I'll give you an example. As I enter another person's home, I can "sense" as soon as I walk in if that person has a dog. And I know I need to either get out, or prepare myself for an allergy or asthma attack. As I enter my dad's cabin, for example, I can sense that there are a lot of dust mites and molds, and that I must not stay long. I also get this feeling as I enter certain homes. My EAP is pretty accurate too. For example, when I went to Florida a few years ago, my wife wanted to spend the night at her cousins. Well, as soon as I entered that house I had this feeling I was going to have trouble. I told her I was going to have a rough night. "Oh, you'll be fine. It's all in your head," she said. Voila, at bedtime, my allergies and early warning signs showed their ugly faces. I was puffing on my inhaler all night, and I was tired the entire next day. When I got to my parents home the next day I received no such sensation. I knew I'd be safe during the rest of the vacation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A question for God looms in my mind like water rolling and spinning; chortling into an abyss of time. When I was nineteen I was dying so that I could live. I survived this challenge to come through this lifetime with the knowledge that God is within.
+I was a college student, home for the summer and had gone to a party. At that party there was drinking and pot smoking. A good friend’s boy friend had come on to me and I was tempted to flirt back. In fact, I did flirt back. I was young. I was beautiful and I was an atheist. 
+A year earlier my longest childhood friend had a swimming pool accident which left her a paraplegic. My friend, the athlete was changed forever and I felt guilty. It was the unreasonable kind of guilt that summons over the young just because it can and it did. My friend was changed and I too changed. I grew angry, and in a way I became uncaring about life itself.
+I learned years later that often when we have profound thoughts they can manifest into reality. My thoughts at that time were, “Why didn’t it happen to me?”
+That night of drunken partying with a cute boy who was supposedly attached to a good friend I got into my car to drive home and through no fault of my own was hit. Suddenly my car flew out of control spinning around and around in the darkened summer night. I sat in the driver’s seat with voices going through my mind of my father and my brother, “Don’t do this....Do that!” Paralyzed I began to pray, “Dear God! I don’t know what to do! Help me!” In that moment I gave up my arrogance and went into complete surrender and when I did that an extreme and blinding white shield of light came directly out of my chest surrounding me like an egg shell.
+The car continued to spin and finally slammed into an apartment building narrowly missing a telephone pole. I jumped out of the car mainly to see if I could still walk. My car was totaled, but I was okay. 
+The man who had hit me had been “joy racing” with another driver going over 90 miles per hour and I had inadvertently gotten into his way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Sad Death Of The Queen Of The Skies
+When Zagat first started their consumer-driven restaurant guide, I was one of their very first reviewers. I ate out a lot-- and in a lot of cities. A few years ago they started another guide, one for airlines. I fly a lot too, and they asked me to be one of the initial reviewers. There are 6,000 reviewers now and tihs past year I once again voted for British Air as my favorite overall airline. That's probably the last time they'll be getting a positive score from me. For decades I've thought of them as the gold standard of high quality, professional service. I like Singapore and Virgin well enough and Cathay has been pretty good-- if headed in the wrong direction lately-- but all the airlines that are good, always seem to be imitating and trying to catch up with B.A. Those days are over.
+B.A. is hurting. Financially they're a mess and abysmal management has driven the company into a hole they're not going to recover from witouth a complete managerial overhaul. Yesterday I flew from L.A. to Rome. Instead of it being the first fabulous part of a trip-- the way I've always considered flying on B.A. flights-- it was a horror show from beginning to end.
+Early in the day, the flight attendants union voted to strike on December 21 and come back on January 2. When I called for advice about what to do to prevent myself from being stranded abroad, I could have been talking with someone from Delta, American or United or any airline that puts its customer service department through a rigorous training procedure on how to frustrate and infuriate customers. I spent well over an hour on hold and talking with two customer service clerks and in the end, got nowhere. They said that I could cancel my tickets but since the airline hadn't "officially" cancelled my flight home-- and probably wouldn't until I got to the airport in January-- it would cost me $250 to cancel. And I was lucky because I had purchased a refundable ticket!
+I decided to take the gamble-- while the company's disastrous boss, Willie Walsh, postured and acted the tough anti-union thug in public-- and I was immediately sorry when I got on board the flight. Only one of the 3 restrooms was functioning in the business class cabin-- and it was in a sorry state of cleanliness right from the beginning. The whole cabin was in a shoddy condition in fact, way below the B.A. standards that have always attracted me to the airline. It looks like one of the cost savings was those paper toilet seat covers. The crew was the dregs, the sound system wasn't functioning enough to understand a word anyone ever said. And, the food was as bad as you can expect from a third-rate flying garbage truck. Poor British Air!
+And poor me! The flight was late getting in and although I made it-- with a second or two to spare-- onto my connecting flight from London, my checked luggage didn't. It still hasn't. They claim it arrived in Rome but they seem to have lost it again. "Seem to," because communication is not a strong point. Last night I stayed in all night waiting for the promised bag; didn't even have dinner. But this morning-- still no idea where my bag is or when-- or even if-- I'll ever get it back.
+As the Guardian put it today "the way Willie Walsh has handled this dispute will end up in the MBA textbooks-- as how not to do it. Just over two years ago, the BA boss hailed a new era in its often-troubled industrial relations. Now the atmosphere between management and workforce has become more poisonous than ever. Both sides risk sleepwalking into a strike that neither really wants. They should be forced-- by government if necessary-- to negotiate with each other. Carelessness is no excuse for destroying a business." Too late for that; they need to rid themselves of Walsh and get back to the days when they understood what it meant to build customer loyalty instead of contempt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before you make any pre-judgements about Animal Planet ordering a reality show about Mike Tyson and pigeons, let's take a look at some the titles that make up their current programming roster; Animal Precinct, Monsters Inside Me, Jessica the Hippo and Pit Bulls and Parolees. Now with that frame of reference, is "Mike Tyson Playing with Pigeons" really that bizarre?Actually the current working title of Animal Planet's Mike Tyson pigeon racing project is Taking on Tyson.  Not what I would have gone with, but that's probably because for me, the real draw is racing pigeons not Mike Tyson.  </t>
+  </si>
+  <si>
+    <t>Verbose vs heap-dump I have always shown people 'verbose' that is the way the heap is utilized when threads are acting on application. You have good tools to read verbose file generated by servers and plot it for better UI(I prefer IBM PMAT, pattern modelling and analysis tool).
+A more intelligent set of people (esp in java) will not be all happy with this only. They would ask .."Which objects are there in heap?" ..Verbose has no answer. A Heap-dump would be having the answer.
+The heap dump refers to a file (hprof or txt or phd file) that CAN be collected during the application-run. This is 'stop-the-world' and lengthy process and it will force JVM for compaction also, that means its not a thing to trigger every 10 minutes...although it can be! (For some servers, this has to be enabled before starting the server)
+A heap dump obtained is a big file with cryptographic data present in it if opened in simple text editors. This can be read here but beyond my scope at this point. This has to be opened by specialized tool for reading heapDumps (like MDD4J, IBM-HeapDumpAnalyzer, Eclipse MAT --The best so far I found). 
+Once opened, you will find a lot of object names present at heap when the snapshot was taken. The UI will show number of each objects, size of each object. Thats ok. The best thing it has is the chain. Not all objects are created directly by the programmer. And once the class unloads, all its objects are cleared..great! No!.. Some objects due to bad coding remains forever.
+Example: Cache Objects(implemented without soft referencing)
+Other important object that stays in heap are due to big architectural dependencies, these are the objects like Connection, which gets created from a pool (usually) and is binded to various objects, something like Driver/Factory binding. so basically some object (say A) is created by B (directly) and registered by C (indirectly like binding). As B unloads, A remains in the heap as it has reference(C) living, that will kill automatic cleaning up feature of JVM.
+There can be various other things available for keeping the object alive. The worst part is, in a heap you cant find the age of the object (I couldn't). Each big object (size wise and number wise) must be traversed to its dominator (parent object) to catch the leak....leak???... yes all the time B loads, it creates A' and A'' A''' A'''' and we have a lot of A's in heap (since C is something that HAS to be on heap and it holds ref. to A's) and one day our Java code will throw "OutOfMemoryException" ...yes thats like loop forever and create new Object in a loop!
+God gifted quality of bad coding practices can lead to disaster.. this is not functional defect... This is quality defect!.. The code is perfect if code just means giving desired output. Yes it gives desired output but may fail to do so forever and absolutely not when concurrently accessed by million users forever. 
+To find these errors, we cant go through code and find defect..Not possible, We might find practice to be perfect but results are disastrous ...so ONLY one hope...."HEAP" dear coders.... please start reading heap! 
+I am doing these nowadays..Once I get more info... I ll share! thanks!
+ZeeK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The new addiction was... 1&amp;nbsp;peeled grapefruit 1&amp;nbsp;cucumber 2 apples 2 carrots 2 bunches parsley Juiced But now that I see this photo, the new addiction is officially... Learning&amp;nbsp;how&amp;nbsp;to focus this (old, but still new and unused)&amp;nbsp;lens I never bothered (to learn how) to use.&amp;nbsp; Why, oh why?&amp;nbsp; Because I'm so&amp;nbsp;afraid of such technology...until my default&amp;nbsp;technology dies on me I see the colors. Oh my.&amp;nbsp; The colors. Lovely Donkey reminds me to tell you (while he spies,&amp;nbsp;so far away,&amp;nbsp;from his field) that on Tuesday, I saw a special someone, who smiles as wide as I do. :o) This is the church... where masked bandits go. {To steal more food.} I'd like to introduce you to my masked bandits.&amp;nbsp; They're siblings.&amp;nbsp; In action. Moments before, they were standing&amp;nbsp;very tall on tippy toe hind feet, poking their heads in my window and demanding food.&amp;nbsp; I screamed. Then I told them to warn me next time, so I can&amp;nbsp;make sure the correct lens is&amp;nbsp;in the camera.&amp;nbsp; {I like to document said thievery.} They said, "Hey, we're just sniffing out those amazing raw sunflower seed burgers you're fixin' up.&amp;nbsp; Hand&amp;nbsp;'em over, please.&amp;nbsp; Now."&amp;nbsp; {Those vegan burgers do&amp;nbsp;rock.} Then I pulled out the camera. That's when they said, "Hey, that's not fair...some of you people shoot us with things like that."&amp;nbsp; Which is true, and why you see them&amp;nbsp;scurrying&amp;nbsp;down&amp;nbsp;to make some ruckus under the safety of the cabin. This is what happens when you don't have pets.&amp;nbsp; Because when you have pets, the sweet baby raccoons don't give a hoot about the humans.&amp;nbsp;&amp;nbsp;They just want to wrangle with the pets.&amp;nbsp;&amp;nbsp;And climb the house. But I live in a cabin.&amp;nbsp; Without pets.&amp;nbsp; So they try to wrangle with me, instead.&amp;nbsp; Of course,&amp;nbsp;they don't get fed. And I like it. {Let's just hope they keep coming back for more.} My brand new medical doctor is the best medical doctor in the whole entire world. And I don't say this lightly. Especially since I&amp;nbsp;usually prefer a ND ( Naturopathic Physician ) as my primary care (insurance covered) physician. But due to circumstance, this is not an easy (insurance covered) option, on the island.&amp;nbsp;Yet I'm a very, very, very&amp;nbsp;lucky girl, anyway.&amp;nbsp; Because&amp;nbsp;(since I last saw my pediatrician, back in the seventies...or was that the eighties?),&amp;nbsp;I've finally found my&amp;nbsp; forever doctor.&amp;nbsp;&amp;nbsp;It's a long wait,&amp;nbsp;sometimes, for a really good thing.&amp;nbsp;&amp;nbsp;And&amp;nbsp;I'll&amp;nbsp;still&amp;nbsp;wait patiently for&amp;nbsp;local (insurance covered) ND care.&amp;nbsp; After all, I need them both.&amp;nbsp; Like&amp;nbsp;a&amp;nbsp;Mom and a Dad. This is&amp;nbsp;why I think&amp;nbsp;my brand new medical doctor is the best medical doctor in the whole entire world (and of course, I know there are more of them out there!)... -He is&amp;nbsp;genuinely kind. -He is genuinely welcoming. -He let's me know that&amp;nbsp;he appreciates that I'm there. -He believes me. -He spends an hour with me. -He listens patiently, when I remember what I forgot to share. -He is&amp;nbsp;kind in a way that tells me I needn't worry about how I talk (so much, but I still panic and try to fix this). -He is extra thankful for the really old (expensive) hospital test results I&amp;nbsp;found...'cause they really help. -He draws diagrams to help me understand what he suspects might be going wrong now. -He wants to find out for sure...what's behind this. -He orders more blood testing, without hesitation, to&amp;nbsp;check and see where we're at. -He orders more hospital testing, without hesitation, to check and see how things are functioning. -He asks me&amp;nbsp;how I'd next like to proceed. -He is totally okay with the fact that I have no idea how I'd next like to proceed. -He lets me know that he'll handle things and get back to me, soon. -He tries not to notice the entire office saying what a kind, thoughtful and thorough doctor he is. -He works really, really, really&amp;nbsp;hard and to make personal family time for his sweet loved ones, too. May all humans be blessed with such goodness. Forever and ever , Amen. It's Sunday.&amp;nbsp; So I'm confessing. I'd like to think I'm doing this on my own accord, but a Blackhawk&amp;nbsp;has been&amp;nbsp;circling&amp;nbsp;the cabin for hours now, so here we are.&amp;nbsp; I'm giving up. February was not my month.&amp;nbsp; I didn't realize it until yesterday.&amp;nbsp; It didn't sink in until today. And boy, howdy, it's time for me to&amp;nbsp;make some changes. First,&amp;nbsp;I didn't see the need to worry about&amp;nbsp;Valentine's Day this year.&amp;nbsp; Because as much as I love learning about love, I&amp;nbsp;never really worry about&amp;nbsp;Valentine's Day.&amp;nbsp;&amp;nbsp;I like to think everyday is Valentine's Day. While recently&amp;nbsp;discussing this&amp;nbsp;thing called February and&amp;nbsp;love,&amp;nbsp;I had no idea I'd&amp;nbsp;discover a month filled with my very own emotional triggers.&amp;nbsp; Where should I begin?&amp;nbsp; Oh, I know... Once upon a time,&amp;nbsp;I was engaged.&amp;nbsp; On Valentine's Day.&amp;nbsp; (Sort of.) It wasn't really a surprise engagement and it wasn't really emotionally connective.&amp;nbsp; Meaning...maybe you could say...it wasn't romantic.&amp;nbsp; But slightly uncomfortable and embarrassing.&amp;nbsp; Dutiful.&amp;nbsp; Obligatory.&amp;nbsp; The next expected step in that thing called relationship.&amp;nbsp; It was&amp;nbsp;a&amp;nbsp;decision that was jointly made, two weeks prior, while rings were browsed. And then I was married. But&amp;nbsp;I didn't want to walk down that aisle.&amp;nbsp;&amp;nbsp;I didn't want to be there.&amp;nbsp;&amp;nbsp;I didn't want to spend all that money or invite lots of people.&amp;nbsp; I didn't want to be stared at.&amp;nbsp; I really didn't want to do all those obligatory wedding things.&amp;nbsp; At all. For a girly girl who's extra mushy about&amp;nbsp;intimate connection&amp;nbsp;and who loves to learn about love, this wedding experience baffled me. I didn't have the words to figure this situation out.&amp;nbsp;&amp;nbsp;I decided&amp;nbsp;I must be experiencing&amp;nbsp;what it feels like&amp;nbsp;when you don't want&amp;nbsp;the big wedding.&amp;nbsp; When you're&amp;nbsp;practical.&amp;nbsp; When&amp;nbsp;you don't want to&amp;nbsp;be the center of the event.&amp;nbsp;&amp;nbsp;So I plugged along.&amp;nbsp; I didn't really&amp;nbsp;think I had a choice.&amp;nbsp; (I thought I was a victim of circumstance...that it was my duty to&amp;nbsp;be good and behave...and to entertain.) Then&amp;nbsp;a&amp;nbsp;confusing&amp;nbsp;thought&amp;nbsp;began to creep up inside of me.&amp;nbsp; The thought...that I did not know...what I did not know. Profound.&amp;nbsp; I did not know what I did not know. I was immediately lost.&amp;nbsp;&amp;nbsp;What was this stuff, anyway?&amp;nbsp; That I supposedly did not know?&amp;nbsp; How could I not know it?&amp;nbsp; How could I find out what it was, if I didn't even know what it was?&amp;nbsp; Why was&amp;nbsp;such a&amp;nbsp;revelation just then camping out&amp;nbsp;on the tip of my tongue?&amp;nbsp; At that pivotal &amp;nbsp;time?&amp;nbsp; Yet I&amp;nbsp;couldn't even find it...to learn it...to know&amp;nbsp;it...and ASAP!&amp;nbsp; How did that happen?&amp;nbsp; To me?!&amp;nbsp; What should one do? How could I possibly hurry and figure&amp;nbsp;it all&amp;nbsp;out, before walking down the isle? Or is that what marriage&amp;nbsp;is for?&amp;nbsp; Figuring such stuff out?&amp;nbsp; Together? A good therapist&amp;nbsp;would have been a proper solution.&amp;nbsp; Religious clergy would have helped, pronto, too. &amp;nbsp;But I didn't know about the importance of&amp;nbsp;such things back then.&amp;nbsp; So I decided it must be anxiety.&amp;nbsp; And that marrige was for figuring&amp;nbsp;such&amp;nbsp;stuff out,&amp;nbsp;together...after the wedding. I was going with that theory, anyway.&amp;nbsp; I really should have asked more questions. Wait.&amp;nbsp; I did.&amp;nbsp; I just didn't&amp;nbsp;hear the answers that were right for me. (My fault.&amp;nbsp; I thought I was supposed to support,&amp;nbsp;believe and believe&amp;nbsp;in another, no matter what.&amp;nbsp; Even if&amp;nbsp;what worked for them was not right for me.) I thankfully mustered up the courage to leave.&amp;nbsp; Years later.&amp;nbsp; In February.&amp;nbsp; Soon after Valentine's Day. Years after that, I still felt like&amp;nbsp;a monkey was clinging to my back and I couldn't shake&amp;nbsp;him off.&amp;nbsp; As if I were still trapped. (And that was after lots of talking.&amp;nbsp; About him.&amp;nbsp; Had I&amp;nbsp;gone straight to talking about me and my issues, things might have progressed more swifty.) There was another long-term&amp;nbsp;relationship,&amp;nbsp;where things appeared&amp;nbsp;and felt very different, but where things&amp;nbsp;turned&amp;nbsp;out to be&amp;nbsp;very much the same. &amp;nbsp;(Don't worry, a good therapist can explain how this happens.&amp;nbsp;&amp;nbsp;Not so tricky, let me tell you.)&amp;nbsp;&amp;nbsp;The month of February, a few years ago, was the last contact. Long(er) story short(er), February is a month&amp;nbsp;that&amp;nbsp;marks my&amp;nbsp;freedom from&amp;nbsp;things not good for me.&amp;nbsp;&amp;nbsp;I just didn't realize it until now.&amp;nbsp; February is also a month which is supposed to be a symbol of&amp;nbsp;love.&amp;nbsp; Place these two&amp;nbsp;together and one can feel confused.&amp;nbsp; Or&amp;nbsp;right on. The big little&amp;nbsp;miracle:&amp;nbsp; This February,&amp;nbsp;I realize, is the very first February I don't&amp;nbsp;feel&amp;nbsp;trapped.&amp;nbsp; Not by&amp;nbsp;memories,&amp;nbsp;feelings or&amp;nbsp;experiences.&amp;nbsp; I'm free.&amp;nbsp; Those monkey's are off my back.&amp;nbsp; Finally. And those changes I need to make?&amp;nbsp; Starting tomorrow, March 1st,&amp;nbsp;I'm solidly committing to these... 1)&amp;nbsp; No more expectations.&amp;nbsp; About anyone or anything.&amp;nbsp;&amp;nbsp;Surprises are much more fun. 2)&amp;nbsp; No more waiting.&amp;nbsp; For others to join in, to&amp;nbsp;proceed.&amp;nbsp;&amp;nbsp; Independent progress is good for me. 3)&amp;nbsp; No discussing others (keep it on&amp;nbsp;the issues, not the people).&amp;nbsp; If&amp;nbsp;I feel pulled in,&amp;nbsp;left or lost, it's time&amp;nbsp;to let others&amp;nbsp;be.&amp;nbsp; No more victim in me. ( #3 is a bit military for me, as I've previously embraced the idea that we should&amp;nbsp;have&amp;nbsp;one private person&amp;nbsp;in our life, with whom we can confidentially and safely&amp;nbsp;discuss anything.&amp;nbsp;&amp;nbsp;But I've since learned that if that private&amp;nbsp;confidant isn't a therapist or if they don't embrace "I" statements, confusion can occur.&amp;nbsp; So I'm streamlining&amp;nbsp;my focus.&amp;nbsp; No discussing others.&amp;nbsp;It'll be issues , instead.) This, for me,&amp;nbsp;is about leaving February's foibles behind. This is about (re)dedicating myself to searching out&amp;nbsp;those who share&amp;nbsp;similar struggles and a similar will to learn, grow and evolve.&amp;nbsp; Healthfully. This is about searching out those who look at you and feel good and strong about themselves, not uncomfortable. Not that any of us are perfect.&amp;nbsp; People fail daily.&amp;nbsp; Especially me. But if the mutual goal is to&amp;nbsp;continually improve...that is where I'll now dutifully be. I'm march ing on.&amp;nbsp; And you are always invited to join me. (Especially since I'll need all the&amp;nbsp;help I can get.&amp;nbsp; :o) We can taste. We can see. We can spend all day turning down an eternity with those we know are not meant to be. Ours. Privately. And then we somehow quickly forget. All of them. We&amp;nbsp;instead fret. About that one special someone. Here or not yet here. Ready or not. And we blindly go forth. Lovingly. -ID ___________________________ Crazy Little Thing Called Love&amp;nbsp; by Queen This thing called love.&amp;nbsp; I just can't handle it.&amp;nbsp; This thing called love.&amp;nbsp; I must get round to it.&amp;nbsp; I ain't ready.&amp;nbsp; Crazy little thing called love.&amp;nbsp; This (this thing).&amp;nbsp; Called love (called love).&amp;nbsp; It cries (like a baby).&amp;nbsp; In a cradle all night.&amp;nbsp; It swings (ooh ooh).&amp;nbsp; It jives (ooh ooh).&amp;nbsp; It shakes all over like a jelly fish.&amp;nbsp; I kinda like it.&amp;nbsp; Crazy little thing called love.&amp;nbsp; There goes my baby.&amp;nbsp; She knows how to rock n roll.&amp;nbsp; She drives me crazy.&amp;nbsp; She gives me hot and cold fever.&amp;nbsp; Then she leaves me in a cool cool sweat.&amp;nbsp; I gotta be cool.&amp;nbsp; Relax.&amp;nbsp; Get hip.&amp;nbsp; Get on my tracks.&amp;nbsp; Take a back seat.&amp;nbsp; Hitch-hike.&amp;nbsp; And take a long ride on my motor bike.&amp;nbsp; Until I'm ready.&amp;nbsp; Crazy little thing called love.&amp;nbsp; Yeah.&amp;nbsp; I gotta be cool.&amp;nbsp; Relax.&amp;nbsp; Get hip.&amp;nbsp; Get on my tracks.&amp;nbsp; Take a back seat (ah hum).&amp;nbsp; Hitch-hike (ah hum).&amp;nbsp; And take a long ride on my motor bike.&amp;nbsp; Until I'm ready (ready Freddie).&amp;nbsp; Crazy little thing called love.&amp;nbsp; This thing called love.&amp;nbsp; I just can't handle it.&amp;nbsp; This thing called love.&amp;nbsp; I must get round to it.&amp;nbsp;&amp;nbsp;I ain't ready (ooh) ooh ooh.&amp;nbsp; Crazy little thing called love.&amp;nbsp; Crazy little thing called love, yeah yeah. A brand new explorer.&amp;nbsp; On an island&amp;nbsp;beach. Is there a greater gift, than to encourage this in one another?&amp;nbsp; Explore.&amp;nbsp; Adventure.&amp;nbsp; Play. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruches - beehives Originally uploaded by parisdelhi Reconciling life in Togo and life in the US hasn't been fun. Contrary to what one would think given how the whole world is trying to train Africa out of its supposed backwardness, I have more or less come to the conclusion that the culture, eating habits, amount of physical activity, societal structure and the general way of life of my village in Togo are much healthier than those of the US. In the US we have plenty of money but we no longer know how to live, for the most part we are unhealthy and lost in modern life, and what is worse is that the rest of the world is trying to copy us. In Togo, for the most part people know how to live well. The only thing that is missing is a bit more money. That is where beekeeping becomes useful... One could very well argue that in the end money will manage to strip Africa of its knowledge of how to live well. In that case money is the culprit. pitching in Originally uploaded by parisdelhi To conclude TV or Radio news stories about climate change and the declining livability of the planet, the same message is often repeated: that scientists agree that recycling and more efficient cars and equipment will not suffice to greatly improve the prospects of maintaining a highly livable planet and avoiding the worst consequences of climate change. What is truly needed to improve our chances, scientists conclude, is for humans to fundamentally change their behavior. While listening to international dialog about the human-planet relationship, I hear talk of more efficient power plants and more recycling centers, that help us to comsume more with less or allow us to pollute less or as much while consuming more, I don't hear much serious talk about the scientific community approved idea of societal behavior change or cultural change. In very many ways, I find village life with its hard work, basic foods, and rudimentary entertainment, to be much more healthy than life in the modern desire-driven world. I am fully aware that clean water, good sources of nutrition, and health care are necessary, but how much more than that is NECESSARY? And to what extent does having MORE than that actually have a NEGATIVE impact on our mental and physical health, and on the health of our surrounding world? It is my belief that we spend much more money and resources solving problems created by modernity's attempt to satisfy desires than we spend solving the problem of fundmental needs. Finding fulfillment in the satisfaction of those fundamental needs and foregoing our 24/7 all you can eat "desire saticiety," is a road that interests me. What does humanity want? Health, happiness, and the fulfillment of fundamental needs or the fulfillment of unending fleeting desires, less happiness, and declining human and environmental health? I'll end with a quote from Thomas Merton: "No man can serve two masters. Your life is shaped by the end you live for. You are made in the image of what you desire." Humanity must decide what it wants and then make a conscious effort to pursue what it wants even if that entails modifying very dear cultural behaviors... DSC01635 Originally uploaded by parisdelhi While I was in Togo I had many personal debates taking place and some of them made their way onto this blog. Some debates encouraged external help coming to Africa and others would seem to discourage external aid. I am happy that I had all of those debates because they allowed me to explore international development, Africa, social change, and more, but I want to make clear that there is a place, a lot of places, for well conceived external help that responds to real needs. I will do my best to meet a few of those needs on a small scale where I can be competent. In the photo you see a young veterinary technician in his rural pharmacy. DSC01631 Originally uploaded by parisdelhi Coming back to the US can be damn hard. Once you are in the States, some wonderful feelings are felt but, no doubt, with the lack understanding ears, one can certainly become mildly and temporarily depressed. Finding the cultural continuity that I described in an earlier entry can be very helpful to recent Returned Peace Corps Volunteers (RPCVs), but in the interest of fellow RPCVs I would mention the possibility of collaborating to launch a small project back in your Peace Corps country. As we know, one must have some very effective ways to insure correct use of funds but with strong contacts on the ground and in our world of cell phones and western union, I have found that possible. Designing and providing funds for a small beekeeping project has given me the opportunity to do something meaningful. I planned this project with two fellow community members from my Togolese village and did not launch it to keep my emotions up. I helped plan it because I believed in it. I believe that this project will be effective, and that it will not create dependence, given the way we designed it. Because I believe so strongly in the effectiveness of the project and that I am doing the right thing in implementing it, it has given me a mission when my overseas Peace Corps mission has just officially ended. This project has also made me feel present in my Togolese community and happy to still be a member of that community and an active participant in its welfare. I may no longer be a Peace Corps Volunteer but I am still and will always be an Affem Boussou community member. DSC_0046-2.jpg Originally uploaded by JCTownsley I just heard Cornel West say "Fetishism of commodities." He said "It is also among the destitute because the destitute have a fetishism of commodities, a fetishism of success [and think] 'all I need is success, and then somehow I am a better person.'" I think it is hard for Togolese to escape the "fetishism of commodities" as they peer out into the world through TVs and Radios and I think it is very connected to what the Ugandan Farmer Said in my last entry. He said "They shared a lot of things together...But now things have changed. Each person is on their own. A few people who have acquired material wealth are very scared of sliding back into poverty. They do not want to look like us." It is hard to not be a commodity fetisher in Togo as you learn of the rest of the world. And I believe the young generation will be heavily influenced by commodity fetishism but I also saw a lot of spiritually learned Muslims in Togo refuse commodity fetishism by emphasizing how fleeting and ephemeral earthly life is and how useless that makes attachment to money and things. A nomadic herder, himself a muslim, asked me, as I handed him money for taking me and my friends out in the bush with his cows, "Do you think the prize is down here [on earth] Kabirou? Forget about the money." That came from a man that can live on 20 dollars a month and to whom I was handing 30 dollars. His photo accompanies this entry. I have seen less of that mysticism and refusal of worldly goods in the Christian areas of Togo, but I spent less time there. It is hard for Togolese to escape the "Fetishism of commodities," in the the Commodity Fetisher Gala that is our world. That is sometimes hard to deal with as a Peace Corps volunteer who may have been able to join the Peace Corps in part because you have rejected commodity fetishism. You find that you and the Togolese are going in opposite directions, them toward and you away from commodities... The following two points of view get at a very sociological and anthropological aspect of "Development": How have Western fueled development and westward emigration affected home-grown development in Africa? Togo led me to ponder this question more and more as time went by. "Poverty has always been with us in our communities. It was here in the past, long before the Europeans came, and it affected many - perhaps all of us. But it was a different type of poverty. People were not helpless. They acted together and they never allowed it to squeeze any member of the community. They shared a lot of things together: hunting, grazing animals, harvesting. There was enough for basic survival. But now things have changed. Each person is on their own. A few people who have acquired material wealth are very scared of sliding back into poverty. They do not want to look like us." - Ugandan farmer cited in Voices of the Poor, by Deepa Narayan; Oxford University Press: 2000. On a very similar note, In a 2006 article entitled "OPEN THE BLINDS", now RPCV Dan Mueller tells us of a fictional African village that was developing at its own pace before the world started trying to develop Africa. It would seem that Mueller is saying that organic grassroots development is made impossible or improbable by the promise of the developed world driving up in a 4 x 4 and magically developing the village with money. That prospect drastically changes the rules of the game of getting ahead and tears apart the fabric of the developing society. Mueller continues, saying that the prospect of emigrating to the "developed" rich world and living the good life blinds Africans and leads them to forget the organic development that their ancestors, like ancestors all over the world, were engaged in. Mueller sees this state of affairs as being quite obvious to the observant development worker. Eid al-Adha in village Life back in the US has offered me two satisfying moments of craved Togolese and Muslim cultural continuity. The first moment was meeting two Togolese men who are originally from the area of Togo where I lived. They speak the language of Kotokoli that I learned to an intermediate level while in Togo. Speaking Kotokoli, with all of the cultural importance that is placed on certain subject matters and moments in communication, renders unto the last two and a half years of my life the feeling of richness that memories of those years deserve. Richness that, with no fault to anyone, dissipates like fog in the US context. The second moment of cultural continuity came when I went to Friday prayer at a mosque here in Oregon. There were small differences, none of the Muslim rosaries that were ubiquitous in Togolese mosques, folks were Middle Eastern and Eastern European instead of African, and the sermon, that spoke to God's view on interest or making money off money, made reference to the Western cultural context of being Muslim in the US, to the credit crisis, Plato, and the Catholic church. Not only did I agree with the sermon's message, that we must refuse to make money our first priority, but, as speaking Kotokoli did, the sermon and the prayer that followed rendered the memory of life in Togo full and rich. Living in the US, It is easy for my life in Togo to be drained of its meaning and utility like a motor of its oil. Moments of cultural continuity put oil back in my motor. A poster of Barack sold in Togolese markets Originally uploaded by parisdelhi The morning following the election of Barack Obama, I heard two themes in the reactions of Togolese: 1) This election is a lesson in meritocratic democracy and social equality. 2) This election represents the official removal of the glass ceiling that many assumed would always differentiate the place of blacks and the place of whites in the world. The election certainly proved everything that I had said to Togolese about my experience of America and about what I believed that America was. It was very nice to walk around an American in Africa for that reason and for the reason that my country had just accomplished the feat of making an expression of love and humanity be heard unmuffled. I was proud. I was disappointed, however, that many assumed that I would vote for John McCain but I understand that assumption. While giving a class in a Togolese middle school on the US election process and on the 2008 campaign, I asked the students who they would vote for. They responded that they would vote for Obama. I asked them why and they caught themselves and we laughed as they scurried to find policy reasons for voting Obama. When asked who I would vote for, I joked with the students that "of course I would vote for John McCain given my race." They understood that I was making the point that race or ethnicity should not determine who one votes for and we had another good laugh. </t>
+  </si>
+  <si>
+    <t>We have exciting news, Janessa made Jetettes and for those of you that don't know that is the drill team at Dixie High School where she will be attending next year. She has been in a dance class at the high school this year that Ms. P the advisor teaches so I think she had a little of an advantage. Well that and being 5'10" and all legs, being able to do the head stand, kicking to the ceiling lights and pulling off red lipstick lips most of the criteria for being a jetette oh yeah, and a mom with an ATM card. According to Craig Hammer I will be using that quite frequently! (thanks Craig)
+Our sweet friend Hailey Hammer is a co-captain and she is adorable, it is such a great group of girls I'm excited for the new year. Late nights, early mornings, car washes, selling cookie dough, drama, fund raisers, birthday's for girls, selling concessions, traveling for competition, feeding 22 hungry girls, football games, basketball games, parades and these are the only ones I know about I'm sure there's plenty more to learn about being a jetette mom but I have to great friends to help me Marcia and Tresa have it all figured out!
+(PS the picture of Janessa and Malory is for real, they are best friends and what Mal lacks in height she makes up for in heart &lt;3!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subtitle: Small Worlds and the Groundbreaking Science of Networks I am fascinated by networks. Certainly the social networking websites currently available are revealing in a less abstract manner how far our connections are really spread. The most rewarding aspect of joining these sites was the initial 30 minutes after having signed-up when you were quickly reconnected with ex-colleagues and long-forgotten high school acquaintances. From there it is mostly downhill and I am still amazed by those who find so many non-commercial ways to occupy their time posting, tweeting and chatting away. I spend little time on these sites and am becoming more and more skeptical that they will be able to retain their entertainment value (and massive subscriber growth) before being besieged by individuals and companies trying to push their products and services on you. A recent interview from a Pepsi marketing manager I unfortunately saw on CNN should give a clear indication of what is to come. Pepsi's desire to have a "conversation" with its customers does not bode well to those who find a large aspect of Facebook's appeal to be the limited advertisements pasted on its pages. However, I do confess to having a soft spot for LinkedIn. It has focused on the business community from day and is now evolving into a profitable company with a clear business model. By being a site catering to business users, it is somehow more justified to find ways to drive revenue - a luxury not necessarily granted to Facebook. LinkedIn is so great because it allows the users to really see the reach of their networks. By using the "people" search function on the site, I discover to have contacts in Madagascar, Saudi Arabia and Suriname and all of them are only one contact removed from me - meaning that they are connected to someone in my own 170-person network. 20 years ago these same networks existed but it was just much harder to visibly construct them. The premise of Nexus is that there is scientific evidence demonstrating how the network that links the six billion of us is not completely random in nature but actually has a certain structural configuration. The author then demonstrates how such network structures are not just relevant for human acquaintanceship. Buchanan introduces the argument by referring to a fascinating experiment conducted by the psychologist, Stanley Milgram in the 1960s. I was familiar with Milgram for the famous test that bears his name yet was unaware he was also credited what came to be know the "six-degrees of separation". In the Six-Degrees test, Milgram mailed at random letters to people living in Omaha, Nebraska and asked them to forward the letter to a stockbroker friend of his in Boston. He provided no address for the stockbroker but instead asked them to send it to someone who they believed to be "socially closer" to him than they were. Most of the letters made it to his friend as each subsequent recipient forwarded the letter to the next person applying the same request. The most surprising aspect was that it did not take hundreds of mailings but six. It was then the work of two other academics, Watts and Strogatz, who when further studying Milgram's test, found these six-degree connections to be neither orderly nor random but somewhere in between. These patterns took on an even greater significance when they started examining other types of networks such as electric power grids, human brain cells or the world wide web only to discover clear similarities in all of them. Before returning to the book, let's look at an example given by one of my professors, Dr. Karen Stephenson, during my graduate studies that should help in understanding how these networks are patterned: Think of the organization you work in. Most likely it has some type of hierarchical structure of management. Yet by looking at this pyramid, does it really show how the organization is networked together? It is true that the person at the top holds a lot of decision making power but it is certainly bound to be the case that individuals scattered throughout the ranks wield a disproportional amount of network power. These linchpins are the types of people you go to for questions, information or advice and most certainly others turn to them as well. If every person in the organization drew lines to each person they contacted throughout the day for a question or advice and then all of these drawing were compiled together, you would see a web-like structure emerge. In this web certain people would be crucial "hubs" as they would appear as being connected to a lot of other people as well. Interestingly enough, it is probably the people towards the top of the pyramid who have the fewest connections to others in the organization. This type of network formation exists in all the communities we interact with on a daily basis. Yet how is it that we are connected in such a short number of steps to people on the other side of the globe if we interact only with our local communities? It is by people acting as "bridges" to other groups far beyond the ones we are involved with at a local level. The exchange student you still keep in touch a couple times a year via email serves as a bridge to her entire network of friends and family back home. Lose connection with her and this whole world (even if you are in no way actively apart of it) disappears. As stated earlier, this network layout applies to other areas of science as well. One of the more vivid examples is the development of the world wide web. Internet pages are being developed randomly and frequently. However if you look at the links between all of the billions of web pages, you find once again Internet pages acting as "hubs" and a certain order to the random development. What it also means based on the study that examined the network of the web is that even as another billion webpages are added, the number of clicks required to navigate will not change by more than one or two clicks. These "small world networks" thus make information, electricity or gossip travel much faster than a world without them. When I was home in Seattle a few months ago I took a trip to my favorite book store, The Elliott Bay Book Company , in Pioneer Square - the city's most historic neighborhood. Unfortunately, it was most likely my last visit at its current location. The bookstore is preparing to move to another part of the city. Considering the fate of many independent bookstores, this outcome is far terrible. And reflecting on it objectively, I should actually be happy. For those of you unfamiliar with Seattle, Pioneer Square captures perhaps the last glimpse into the origins of our modern city. While I have a hard time believing the commercial- residential buildings constructed in the last decade that include a Quizno's Subs and tanning salon on the ground floor will withstand the tests of time from an architectural standpoint, Pioneer Square with its brownstone edifices offered something different. This "difference" also included the aroma of stale beer and urine on the vast majority of its sidewalks. Yes, Pioneer Square is truly dying and with the loss of Elliot Bay it's destined to become an urban carcass of its former self. Notwithstanding the verbal assault by numerous panhandlers and con artists, I thoroughly enjoyed the trips into Pioneer Square to visit the bookstore. There is a certain sense of loss. Yet as I already said, the move will actually benefit me because Elliot Bay will now be located in an area I actually do frequent for its nightlife. It was exactly for this reason that Elliot Bay was forced to move locations after a very difficult last 12 months in terms of sales. An independent bookstore relies on foot traffic, especially in the evening. And you can trust me that those going out in Pioneer Square after dark were not the same market segment likely to pop into the reading room to hear an author present her latest work. I respect Elliot Bay's store as well as its business model and wish it the best of success! We should all be cheering it on as the outcome "post-move" will tell us a lot about what businesses will work and which will fail in the future. One mantra of business strategy is based around the belief that a company must either focus on being a cost leader or a high value-add specialist. Finding yourself in the middle is a recipe for disaster due to the competition you will face from both sides. Elliot Bay Bookstore does not discount its books. In the days of Amazon, I know it is a hard concept to grasp that a bookstore may actually sell its goods at the list price found in small print on the back of the cover. But it is the case. They do this because they clearly recognize that a war based on price cannot be won against the likes of online retailers or massive chain stores. What they do offer is exceptional staff who know what they are talking about. My favorite thing to do there (and what can also be done in an excellent music or wine shop) is to go in with a set amount you want to spend, say $100, and let them recommend different books for you based on your interest. It is a great way to get guidance in new directions you may have not normally ventured and it is not something Amazon can offer you - even though they try. However, as this move is eluding to, the specialization they are offering may still not be enough. It is my belief that our ever enduring quest for low prices is devastating large aspects of value and we are not fully aware of it. This value is what lies between a normal versus a basement bottom price. Before parting on too extreme of a tangent, I will just say that the subject of pricing will be further addressed in an upcoming post. And how is this connected to The Girl with the Dragon Tattoo ? I was in Madrid last July. It was a balmy afternoon and we had made an appointment to meet a friend who was getting off work for her lunch hour. She arrived toting the huge, hardback copy of this book. She was in full addiction mode and was unwilling to part with it even on her lunch break. During my discussion with a salesperson at Elliot Bay a few months back, I noticed my basket of books becoming disproportionately overrepresented with non-fiction and I therefore asked him for a good piece of 2009 fiction. He pointed me towards this book and thinking back on my friend in Madrid, I grabbed it without hesitating. It is certainly an engrossing story which combines mystery, sex, violence and Sweden. I consumed it in a couple of days much in the same way I would plow through a good TV series if I had the whole thing on DVD. It is entertainment above all else. Subtitle: Thoughts on Humans and Other Animals I have confessed in other postings that my background in philosophy is far from profound. However, it is a subject (in a very broad definition) that is calling out to me with greater regularity. I have read few of the great works and each attempt to do so thus far has been a struggle. On the other hand, I am always in search of modern day thinkers from whatever academic discipline who are writing about society in a more robust, and shall we say, philosophical context. It is very difficult to do so without tying in the arguments of some of history's great minds and therefore provides me a way to slowly develop a better understanding of some of their principle theses. Wrapped in the discussion of modern society makes it a much less abrupt approach. One of my favorite current writers is Nassim Taleb , renown author of Fooled By Randomness and later The Black Swan . In an interview I saw of him he recommended two modern scholars - Karen Armstrong and John Gray - for their intellectual excellence in their respective fields. Gray is the former professor of European Thought at the London School of Economics and author of several books. He has written on globalization, religion and philosophy. As is often the case, shorty after being introduced to him and his works, I came across several articles reviewing a recently published book of his. Straw Dogs was published in 2002. It is a collection of musings stitched together by Gray's underlying belief that humans, in their rather modern distortion of humanist thought, have essentially created a new faith but fails to recognize it as such. This form of humanity, grounded in its roots of Christianity, is based on progress and mankind's ability through such progress to create a better world. Gray argues that "to believe in progress is to believe that, by using the new powers given to us by growing scientific knowledge humans can free themselves from the limits that frame the lives of other animals."T his humanistic vision of progress, outside of science, is a myth fabricated only recently in Western society. It was not long ago when humans thought of themselves as equal to other animals. In many cultures they were even worshiped by humans. Gray recognizes that humans are a highly developed, and incredibly destructive species. Since our arrival in the New World 12,000 years ago, approximately 70% of the world's species have been eliminated which is quickly approaching the same number caused by whatever event, most likely a meteor, wiped out the dinosaurs 65 million years ago. At the same time, our destructive species is raging on in fierce debate about how - through science - we can save the earth from the overheating caused by greenhouse gases. Perhaps it is Earth's means of ridding itself us? Ironic to me is how many of the central responses to climate change revolve around the use of elaborately developed technological tools to save us from such overheating. Humans have never been farther removed from nature as they are now. It is through the abandonment of certain forms of technology that we will make the easiest and fastest gains in this battle. Changing the way we eat based on a diet of local vegetables and occasional meat consumption and distancing ourselves from the meat industry would make enormous gains. Walking or bicycling as opposed to the frequent use of the automobile is a very simple concept that proves incredibly difficult to grasp. In a later chapter Gray reminds us that the average American puts in 1600 hours in the car to get 7500 miles: less than five miles per hour. Not much more than what someone would walk in the same time. It is obvious the automobile represents more to us than a form of transportation. Straw Dogs is not a book on environmentalism, however the example demonstrates a certain fallacy in human thought based on scientific progress. Many other such anecdotes make up the remainder of the book though I found they begin to stray more and more from his central thesis along the way. Nonetheless, they are fascinating and provocative. It is a book that does not need to be read from start to end but can be "dipped into at will" as well. Either way, it will get you thinking. After three rather arduous non-fiction reads, I was more than eager for a quick injection of crime mystery, one of my favorite fictional genres. Hammett, most famous for The Maltese Falcon , is certainly one of the most well-regarded American mystery writers. And it was a late night viewing of The Maltese Falcon with its solid performance from Bogart and a quirky and devilish Peter Lorre as Joel Cairo that prompted me to dive further into the works of Hammett. It is clear that Hammett knows what he is writing about after having been a private investigator for many years. His writing style is tight, direct with no superfluous words. In both The Maltese Falcon and The Dain Curse the stories move at a breakneck speed. To be honest, some time the speed and number of characters in the latter was too much for me. I often had to flip back a few chapters to remind myself who was who and what had they done. The book does not disappointment but it did not leave me floored either. What crime/mystery writers do you like? Subtitle: Investment Strategies for the Age of Global Economic Change As 2009 comes to a close and we prepare for the unknowns of 2010, it seems a just time to quickly summarize the current status of our global economy. There is a global shift taking place from the traditional power centers - the U.S. and to a lesser degree Western Europe - towards heavily populated, emerging players. This shift, which would have taken place even without the near collapse of our financial system, is now intertwined with the decisions made to stave off disaster over the last year. The United States acted as the motor for growth and consumption over the last fifty years. The American consumer has driven this consumption, especially over the last twenty years, through debt. We are all aware this can no longer occur and a shift towards savings and debt repayment means consumption will have to come from elsewhere. This U.S. led consumption has made an enormous impact on other countries as well. By importing more goods than it exported, the U.S. generated a large current account deficit resulting in the sending of vast sums of US dollars to the exporting countries. Oil producing nations have likewise accumulated hundreds of billions of dollars due to the exporting of oil to the U.S. and other rich world countries. Amassed with US dollars these countries through vehicles such as sovereign wealth fund, are seeking a home for their liquid dollar assets - from homes on the French Riviera to large stakes in Morgan Stanley. As exporting nations have been producing goods for the U.S. at low cost, they have put ever more demand on natural resources (commodities). They have begun to see an upward pressure on wages as their local economies grow. Both of these factors, demand for commodities and increasing wages, will fuel inflation. Add on top of this the government spending in the rich world in the forms of various stimulus plans and inflationary concerns abound even though we are currently in a quasi-deflationary period. Basic demographics are also changing with Europe's population getting older, the US being in between and countries such as Brazil possessing a rather young population. Governments will have to respond accordingly as they struggle to provide the services these population segments require. Demands for certain goods and services will become more relevant based on these shifts. The above encapsulation of global economics is the context within which El-Erian, the world's largest bond investor, and former directer of Harvard's Endowment fund, frames this concise and relevant text. The majority of the book is spent setting the stage for what is to come and what has developed over the last few eventful years. He then attempts to outline measures that can be taken to benefit from these shifts taking place. How as investors can we accumulate the wealth needed to support a prosperous future? And, equally as important, how can we counter balance our portfolios to prevent massive loss through huge downswings in markets or erosion of certain asset classes due to inflationary effects? I am no longer in possession of the book so I can only recall what stayed with me since I read it over one month ago. This will have certainly been meshed together with my own beliefs. Perhaps this is a more useful exercise. Some points for investing in the future: 1. Develop a view of the global economy and dedicate a certain percentage of assets to the shifts you believe likely to occur. If inflation is a concern due to rising wages in Southeast Asia, commodities, real estate or inflation protected securities will be safer bets than cash or certain types of equities. 2. Watch out for "home bias". Investors have the tendency to buy stocks from their home country, especially in the U.S. but also in other countries as well. Active Swedish investors place 48% of their invested money in Swedish stocks even though Sweden makes up 1% of the global economy (Thaler &amp;amp; Sunstein, 2008). Investing in what you know makes sense up to a certain degree but does not warrant such a disproportional approach. This is equally true in the States where a robust and transparent equity market warrants a large percentage of investment focus but not the absurdly high percentages most Americans have in their home market. 3. Emerging Market Government Bonds can essentially be grouped with more traditional bond types as their government balance sheets are in healthier shape than many more traditional markets, e.g. Greece and Ireland. To claim The Prize to be a book on the history of oil already by such definition limits the impact this commodity has had on the development of society over the last 150 years. What it really is is an analysis of global economic and military history over this time period framed within the context of oil. The book begins by concentrating on the historic period before World War I when Winston Churchill, as civilian head of the Royal Navy, began to see the importance of replacing the coal fired fleets of the British navy with those using oil in order to gain in speed and agility. Yergin chooses this as his starting point, even though he then moves back 60 years to the true founding, because this was an important turning point in how oil was used. It was at this time when oil became a "disruptive technology" as it moved from an energy source mainly used for providing light to one that would become the standard form of fuel for all transportation. After this introduction, The Prize returns to its chronological unfolding using as the starting point a key series of scientific discoveries regarding oil's potential uses and then later to the first wave of major U.S. discoveries. Though oil's history can be dated back long before this, the foundation of oil as an industry and major fuel source has an American heritage. . In 1859 the Drake Well in central Pennsylvania was hit thus sparking the first wave of oil mania. This mania brought all types of people from expert scientists and geologists to green thumb enthusiasts with nothing to lose. The creation of boom towns in desolate parts of the U.S. became common. These towns would quickly be erected often to satisfy the needs of the fortune seekers (booze and prostitution). Means for distributing the oil would be hastily devised with a very short term approach to get the black liquid to far off markets. Once the source showed signs of reduced volumes or a bigger source was discovered elsewhere, the towns would quickly find their streets and brothels empty. The comparisons between the boom towns and the massive cookie cutter neighborhoods erected in the last five years in the States during our latest housing boom are strikingly similar. The next part of the book explores how the fragmented industry, from finding the oil to distributing it, paved the way for on opportunity of massive levels of consolidation and vertical integration. It was seized and later exploited mainly by one man - John Rockefeller of Standard Oil. Rockefeller bought other oil companies both large and small, keeping the efficient ones and merely closing down the others to limit any potential threat of competition. Standard Oil was the first true monopoly in the U.S., controlling 90% of the oil derivative, kerosene. Its dominance led way to growing discontent of the American public who lacked alternatives to Standard Oil products and became more aware of the incredible fortune being amassed by Rockefeller as a result. In 1911 the Supreme Court ruled that Standard Oil be split into 32 different regional companies who would then compete with each other for customers and markets. World War I was a very labor intensive struggle fought and won in the trenches with limited reliance on machinery. World War II, as painted by Yergin , was a war in which oil played a decisive role in the outcome. Both Japan and Germany lacked domestic sources of oil and were therefore dependent on other countries, namely Romania and Indonesia, to provide the oil needed to power their ships, planes and tanks. The lack of this crucial resource and the failure in certain cases to effectively distribute it to the divisions in need led to losses at key junctures in World War II events . An interesting example is how German troops, led by the brilliant Rommel, were unable to seize control North Africa to the extent desired because at key battles they were without fuel needed to power their panzer tanks. The U.S. and Russia were instead at a particular advantage because they could rely on domestic fuel sources. An agreement between the U.S. and the U.K. also meant Britain, whose North Sea source would not be found until decades later, was also able to receive its needed share of American oil. However, having access domestically is only one part needed for success. How you manage your operations is another. Yergin's description of a floating fuel station comprised of numerous ships and tankers that were able to provide fuel to other ship fleets in the South Pacific was fascinating. Though the author dedicated several chapters explaining why Japan and Germany were greatly hindered by their lack of oil, I found the book thin on other examples of Allied success. The post-World War II era led to the rise of what Yergin defines as the "the Hydrocarbon man", i.e. the individual consumer who developed an ever growing thirst for oil. It also was the period of the oil producing dominance of the Middle East region. The book is probably at its strongest here. It brilliantly explains how the major oil companies established themselves with marketing (downstream) channels in the consuming countries and favorable partnerships with Middle Eastern countries. By providing technical expertise in this region they were given a disproportionately large share of the revenue generated from each new barrel. Later Yergin clearly explains how OPEC was born and the economic significance it played in the market - essentially by controlling two levers - setting supply levels as well as prices per barrel. The 800-page book is referred to as "the Bible" of oil history. The magnitude of this industry in terms of global scale and historical importance over the last 150 years means that in order to effectively write one, all-encompassing volume a certain high level approach and style is necessary. Yergin succeeds in incorporating the macro level history and economic connections oil has played over this time period. However, by taking such an approach it is inevitable that some other aspects regarding such an important subject will be less adequately addressed. I respect the focus Yergin took in writing the book and his unrelenting ability not to defer from it. However, there were two main faults I found in doing so. The impression he gave when discussing the "hydrocarbon man" and his insatiable thirst for oil was that the oil companies were passively responding to the demand for their product that was being begged for by consumers. However it was never discussed how this demand was stimulated to such excessive levels. What was lacking in the text was an adequate explanation as to why consumption levels grew at such astounding rates over these years. What were the relationships like between the auto manufactures and the oil companies? Certainly these industries were strongly connected to the centers of power in Washington D.C. yet was never mentioned. Hydrocarbon man became dependent on the automobile due to lack of alternatives. The classic example of the removal of all tram lines in Los Angeles certainly encouraged such behavior yet it, nor any other relevant example was even eluded to. And why were such large vehicles in such demand? Yergin refers to the adaption of the first fuel economy standards in 1975 of 27.5 mile per gallon within 10 years as revolutionary step which led to a drastic reduction in oil consumption. Though the book was published in 1990, a few years prior to the SUV boom, it is hard for his praise of such regulation not to ring hollow considering the impressive gas mileage of the Ford Expeditions and other "light trucks" exempt from these standards. Such SUVs went on to make up 50% of all vehicle sales in the U.S. The automakers gained on the higher profit margins of these vehicles as well as special deprecation status they were granted for business purposes. Oil companies also make more money the more often consumers need to fill up their cars. Such a thrust by automakers towards these types of vehicles certainly pushed hydrocarbon man's demand for oil. These type of factors were absent in his book. The focus of The Prize as a work of economic history also meant that the small time victims of such a massive industry were ignored. As someone who is far from an expert on the industry, I am still aware of tragic stories such as the one of Ken Saro - Wiwa's , who fought against Shell and the Nigerian government because of the environmental damage the oil drilling was causing in the Niger delta. A reference, at least collectively, to the victims of the oil industry as well as the environmental impact it has made was something due in the book yet was nowhere to be found. Regardless, The Prize is required reading for those on all sides of the debate as it provides the foundation to what has become the lubricant of our daily lives. Ah, France! This novel, with such French attitude, scoffs at the wealthy for their shallowness, as well as their unmerited sense of cultural superiority over the social classes below them. Barbery does this by focusing her story around two central characters: the door-woman of an elegant resident building in central Paris and the twelve year old daughter of one of the families living in the building. Both of these characters are made to be the most culturally and intellectually astute individuals in the novel, much more so than the barbarians that grace the floors of the building. It would be easy to dismiss the stereotypes portrayed of French society as cliche', however, they are made so apparent throughout the novel that their blatancy somehow makes them comical. Instead, the subtler aspects of the book touch on more philosophical arguments regarding such subjects as art, beauty, the purpose of life, and human existence - shall we say the pain et beurre of French intellectual thought. The story is simple and for this reason pleasurable. The door-woman, Ms. Michel, lives what at first glance appears to be a monotonous life, ignored by the inhabitants of the building. However, she finds comfort in this solitude and actually makes all efforts possible to draw as little attention to herself as possible. To do so she must hide all her intellectual pursuits as not to raise any questions in the eyes of the pseudo-intellects around her. However, they are probably too stupid to pick up on them anyway. When Ms. Michel is not reading Russian literature, she is hammering away at the shallow and miserable lives of the rich around her. There is a certain sense of irony here since the pursuits such as shopping, shampooing hair multiple times and wearing make- up are looked down upon by her that is until she catches the eye of a new resident to the building - Mr. Oke , a retired Japanese. Mr. Oke , being someone truly steeped in culture and intellectual capacity is quickly able to see how the door-woman is not a typical type. He then begins inviting her to various activities much as Richard Gere did to Julia Roberts in Pretty Woman . The response of Ms. Michel is not much different in that those superficial activities of the wealthy become appealing as soon as someone comes along who is interested in her. When compared to modern American novels, this book is more layered in that it offers a straightforward story of its characters but also dives deeper into more philosophical discussions. There are a lot of cultural references as well. What I see as being the major difference when compared to modern American novels is how Barberry writes to a more educated, cultured audience than most writers do in the States. As this book was the bestselling one in France over the last couple of years, we can assume therefore, that it was read by people of all socioeconomic backgrounds. Heaven help us if it had only remained in the upper echelons of French society! The subtitle is "making art and commerce thrive in the hybrid economy" I do not want to start off this post by saying something cliche' like any working in ecommerce , new media, or Internet services should read this book though the temptation is there. Instead I will say that in my own line of work this book has already given me a new way to approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Things have been crazy. I've been of course working on my 365days project but a new distraction has come up. The Sims 3. I'm re-addicted to this game. In fact right after I post this I'm going to play it. But it's fine because my homework is done, room semi-clean, and chores have been complete. Now I'm off! Goodbye for now! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam is a gud person..
+He's cool . never gets tensed..
+Humorous ..But very cunning person..
+Use to be a gud boy in Skool days . He is one of my best friends .we ver class mates in skool. Likes to criticize everyone.
+Different person.. Very Smart (about 10 % of my smartness i think)
+Trust me he's a gud person.
+Overall - 85/100 Very gud </t>
+  </si>
+  <si>
+    <t>SO I TOTALLY DID THE PRESCRIBED WEIGHT FOR WOMEN OF 95#s!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!
+I am really proud of me. Like really, really really. It was tough. By round 5 I was mentally drained; I couldn't believe that I had 5 more rounds to do. What did I eat today? Not much.
+I had Scrambled eggs with Parmesan cheese, bacon, and basil.
+A decaf latte.</t>
+  </si>
+  <si>
+    <t>We actually haven't seen any official shots of the Office apps for Windows Phone 7 Series, but now that Microsoft's emulator has been hacked and unlocked, we've got a glimpse of what creating a Word doc in OneNote looks like -- and while there's a high probability that this a super-early version of the app, it's still revealing in how drastically minimal it is. Microsoft says most people just want to make minor edits and leave comments to Office docs while on the go, not make large edits with copy and paste, so we'd expect to see track changes in the final version, but something tells us the main interface isn't going to look tremendously different than this. One more shot and the video with Word after the break -- hit the source for the second vid with Excel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was blessed with two children with two very different personalities. La, who my oldest, is sweet, sensitive, high maintenance, and bursting with energy (ALL the time). KiKi, the younger one is laid back, kind, pensive, and very generous. The both have qualities that I love in small children. They are not perfect either. Sometimes they have me so frustrated that I want to pull my hair out in clumps. 
+There are also moments that I have, like today, where my heart wants to burst of my chest with the amount of pride I feel for my child. This morning I was dropping of KiKi at her nursery school on my way to church. The teacher was in the class buzzing about, greeting children, diffusing the small problems that each child had. Normal morning there. Then she stopped, turned to me and said "I just want to let you know what a joy it is to have KiKi in class. She is such a sweet child. She is so laid back and she shares with everyone. I just wanted you to know that."
+It is just so nice to hear someone say that about your child. 
+This afternoon I have LaLa's parent consultation. Let's hope I get that feeling twice in one day. Cross your fingers, toes and touch wood.
+</t>
+  </si>
+  <si>
+    <t>Singapore is a gastronomic paradise to suit any budget. In a city that can quickly put pressure on your wallet from accommodation to shopping, food is the one area where you can splurge for cheap. Throughout the city, street stalls have been collected and thrown together into outside eateries offering Chinese, Indian, Singaporean (whatever that means) and general Southeast Asian fare. Or you can head down to the Muslim district and eat Murtabak Prata in one of the many shops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+while many teachers do not think about their high school days whilst teaching their students. I find myself constantly looking back at that 2 years of my life and wonder just what did I do? How did I feel at that time? Did the same thing happen to me? What are those students thinking? Can I get a clue from what I went through? I always end up feeling that somehow, i missed some experiences I should have had.
+I look into their earnest faces, their artlessness, their simpleness and I wonder if I still had that intact when I was their age. I doubt it. I’m not saying they are angels. but their calculations, strategies are so transparent I always want to ask them who they are trying to fool. Except that it is just too amusing.
+I’ve always felt that that 2 years of my life was pretty much wasted. beside the fact that I made a few friends I would keep for life, joined the drama club and made precious memories of becoming someone I just wasn’t, and breaking out of my shell while in character… i was always too self conscious to really enjoy school. too… negative… too… non-chalent… too cynical… too fatalistic. I never valued the activities there were. Even now, I probably think sports day was lame, national day with a march pass was lame… boys were lame…
+I always felt that entering NUS was a kind of liberation from jc.
+Upon reflection, i think some of the factors that acted as barriers were
+1) the fear that I would not enter university after screwing my ‘O’s and entering CJC. I have to say that i had never (and probably will never) study as hard and memorise as many facts as I did for my ‘A’s. I studied and forgot about the experience
+2) lack of confidence. i assumed i was invisible and thus became invisible
+3) the idea that many of the things we had to do was lame (besides watching plays and studying literature)
+4) the idea that many things didn’t matter in the larger scheme of life. I forgot how experiences could and will shape a person
+5) the lack of interest in almost everything
+6) the lack of many familiar faces around me
+i look at my students and find myself wishing i could go back to the time when I was 17. the time when I didn’t know better, the age of wide-eyed innocence.
+Alas, the best we can do is to live in the present and live to the fullest to avoid making the same mistake. Carpe Diem.
+</t>
+  </si>
+  <si>
+    <t>okie so i guess i have to be really nice n write all d good things about my evil cousin!!! besides being my cousin he is a great friend... he is one person who can handle my non stop bickering...the best part is he always listens(a good listener), i can practically confide ne thing in him,u just start talking to him n u feel so much at ease that things just keep coming out,he is very relaxed n chilled out n very fun loving! he has an amazing sense of humour.. its very difficult to be in his company n not laugh.. he always brings a smile to my face..he can be amazingly cute at one point n the next minute he would do something to really piss me off! we have our fights (but thats fun). i am really proud of him considering a big brain that he is(always showered with scholarships n stuff)..since i dont stay in chennai so ne updates regarding d latest tamil music or movies he is the one to let me know.in  all a great friend,big brother,cousin,really fun to hang out with,has always been dere for me..A COOL DUDE!!!</t>
+  </si>
+  <si>
+    <t>Prologue - Colin returns from the groceries store...opens his apartment door...and what does he see?
+Dignam waiting with a suppressed pistol all geared up for a perfect kill. He raises his pistol and points at Colin.
+Colin,who takes a moment to register the situation, reacts with "OK"(accepting it, sort of).
+Dignam fires...
+Wat was the reason for Colin's indifferent reaction?
+1--&gt;He was pissed off with his damn life
+2--&gt;He thought he deserved (with a sense of guilt) to die...
+3--&gt;He knows there is no way out of it
+...........................
+...........................
+okay folks... you can stop scratching your heads now coz this is definitely not some cat compre question! ;P
+Its the final scene from the movie 'The Departed'(...rings a bell?) and if u haven't watched the movie, i suggest u do (one of Martin Scorsese's best). So, you might wonder, what has it got to do with what im about to write? n what the heck is genoesis?!? (atleast i got you wondering now :P)
+Well, it all started with one of those regular "debates"(u can substitute "combats" :P)with a friend of mine. Being big time movie analysers(what to do...gotta find some work! ;P), we were arguing about Matt Damon's(Colin's) reaction in the final scene of the movie . "Colin accepted his fate with remorse(ready to die) for all that he has done n happened..." was my fren's side of the argument..in contrast to mine that he(Colin) accepted his fate coz he knows thers no escape under the circumstance. Each of us tried to convince the other but only in vain.The argument, of course ended up with no conclusion..
+Now you may have your own version(i wonder what the original version is if there is one) of this depending on what you infer and all of us may feel correct at our own reasons . The reasons which are the psychological result of learning and perception ....the perception of one's mind which involves one's life in the making.. n life which varies from person to person(deep huh?). This very insight gives an insight into how distinct the psychology of a homosapien can be from a  fellow homosapien..
+So, here i am, coming up with the name GENOESIS(GEet(a)+ NOESIS)...unique n me, on a journey...where im not only the player, exploring and exploiting the 'noesis' part of me, but also a spectator just watching the way it leads to.</t>
+  </si>
+  <si>
+    <t>At IX Marks Liam quoted a few times from Spurgeon which made me realise that I haven't read any Spurgeon for a sometime. Why I would neglect something that is soooooo beneficial to the heart, soul and head is beyond me. Just a few pages in on his Soul winning book and I find this gem of a quote:We do not go out snow-balling on Sunday's, we go fire-balling, we ought to hurl grenades into the enemy's ranks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic Love
+You turn.
+There is such grace and beauty in that torqued motion,
+in the way you look at us all.
+I am going to dim my light.
+So I can dissolve in yours.
+I look at the vast stretch of barren fields that separate us.
+I see many others have dimmed theirs too.
+Is there a way to measure love?
+Because you have conquered us all.
+------------------------------------------------------------------------
+Zoom-in: 
+A woman, turned away, and dressed in white.A bright shade of yellow light fills the gaps, silhouetting her.
+Zoom-out: 
+The landscape melts into the frame. The woman is standing near a tree, and she is in the middle of an olympian field. 
+Lights, camera, action!
+A man comes running from behind, the penumbra of yellow light being gradually covered by the the man's presence.
+Shift camera angle to man's view point:
+He gazes at her, as if he wants this image to stay in his mind forever. She turns, and this movement of hers could kill him! This is abstractly portrayed by his decision to "dim his light", or his 'aura' (and therefore, arguably, his ego).
+</t>
+  </si>
+  <si>
+    <t>The pending arrival of the 4G wireless technologies, particularly LTE-A but in general even the ‘4G-Lite’ versions of LTE and WiMax, foreshadows a fundamental change for the mobile phone industry.  I’m not just talking about the move to flatter, IP-based architectures, or mobile connections approaching (or exceeding) 100Mbps, or the popularity of 3DTV.  I’m talking about the demise of the mobile plan based on voice minutes.  It is already becoming standard practice for the Operators to mandate data plans with the purchase of the latest smartphones. 
+In the next two years we are looking at a 50% growth in phones with Advanced OS (Android, iPhone, Blackberry OS, Symbian S60) which will continue to drive the push for mandatory data plans.  These are data plans with values that can easily exceed the value of the voice plan for the same device.  And they should – for a growing segment of the population, voice usage is dropping dramatically while data usage is skyrocketing (tell me something I don’t know, right?).  So at what point do the voice minute plans become irrelevant for these data-oriented devices and voice-only plans become the entry-level point for the operators for base devices?
+Operators could continue to offer ‘voice minutes’ as part of their plan but to what effect?  When voice truly moves to IP, whether it is VoIP via Skype or some other program, just how does the operator actually MEASURE and thus value voice traffic?  A circuit that can be measured in time is no longer set up, packets are sent only when there is something to be transmitted, so ‘time’ as a measure of a voice call becomes irrelevant. So how do you measure the value of the mobile connection?  You COULD still use minutes to measure plan value, but with certain demographics using less and less ‘voice’ and more and more ‘data’ it would seem this is so, well, sooo 2010 and not 2012.  Or soo 2G and not 4G.  I’ll be watching to see how these plans develop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our coral watching continued as we proceeded to the Coral Garden. It was a sloping reef that also had several coral varieties. It was truly like a garden beneath the sea. Spiky corals, fluffy ones, round ones—you name it and you’ll find them dancing with the waves underwater. </t>
+  </si>
+  <si>
+    <t>Break up :( - well after two blogs which were depressing and political and i know many people do not have any interest in politics. Now you must be thinking politics was less depressing than break up (if you have gone through it).Well before break up I wanted to go through the journey of love. What is love? According to oxford dictionary love is an intense feeling of deep affection and great interest in something or someone. But what I guess is that while I am writing this blog really I am not having any words to describe it. really it is an awesome feeling . really yaar its just a great feeling, your life changes.
+You travel through ups and downs of life during love. well I wanted to say I do not think that break up is a depressing word. What do you think of? A very great philosopher said that “true love starts when nothing is looked for in return”. So if you are a true lover then praise break up also .you must be thinking that I have gone mad but what I want to say is that why to live in illusion when you have the option to cut it out.
+Please do not think that I am encouraging everyone for break up. I just want to say that please do not make love a burden. It is a gift given by god. If you are not in true love you will feel that you were in a mess. I used to believe in first sight love and still I do in spite of the fact that mostly first sight love is infatuation. Please do not go for love on basis of appearance. It is my request. Somethings are ought to be attained with patience. Look for the better part of break up. Understand each other better. Make sure that this is the person you are looking for and bells must be ringing for the person in your heart .
+Well after a long lesson I am just sorry if I have offended any body. Please forgive me it was just overflow of emotions. Do not take it otherwise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It's been roughly nine months since I got a sweet F-bomb out of Gordon Ramsay over the name of my blog, "That would put a f---ing glass eye to sleep!" Three girls and I had dinner at Mojito in Brooklyn, one of Ramsay's fixer-uppers on "Kitchen Nightmares," and tonight's the night it all goes down live on Fox. Tune in at 9 p.m. ET/8C. It scares me to tell you to watch it, without having seen it myself, but it's sure to give you a good laugh. Let me know what you think, and if you've just recently discovered my blog, click here for the colorful write-up of that eventful evening. Unless you read her book, of course. I finished reading "My Life in France" two days ago and the movie " Julie &amp;amp; Julia " just ended on my DVR. I wanted to know Julia Child through her own words first so I could test the movie against them (or the words she wrote with her beloved husband Paul Child's grand-nephew Alex Prud'homme). "My Life in France" was a delightful read. It made me nostalgic for my three adolescent years growing up in Paris while it also inspired me to take cooking classes. I don't know if I'm cut out for Le Cordon Bleu , but an introductory course somewhere might do. If you're at all interested in food or cooking I highly advise reading it from cover to cover. I can't wait to buy "Mastering the Art of French Cooking" (Volumes I and II) and "From Julia Child's Kitchen" (a book Julia calls her "favorite"). I'm still uninterested, however, in reading the blog-turned-book "Julie &amp;amp; Julia" written by Julie Powell. I liked Powell's husband in the movie way more than I liked Powell (and I adore Amy Adams). I decided to share a few items that I found fascinating from Julia's tale. Here is a taste: 10. Julia attended Smith College. She majored in history and graduated in 1934. Her plan after college was to become a famous woman novelist. She sought employment at Time, Newsweek and The New Yorker and when she didn't get a job at either magazine, she worked in the advertising department at the W. &amp;amp; J. Sloane furniture store. She made $25 a week. 9. Julia met Paul while working for the Office of Strategic Services (OSS) and "looking for adventure." The OSS was an intelligence agency formed during World War II. The two met in Ceylon (what is now Sri Lanka) in 1944; both were transferred with the OSS to Kunming, China; and in September of 1946 they were married. Paul had a black belt in judo and was a "physical person." He was a photographer and "his pleasure was in the act of creating." Paul took many of the photographs Julia used to inspire the artwork in her "Mastering" cookbook. Julia and Paul never got around to sending Christmas cards so instead they sent their family and friends homemade Valentine's Day cards. The more ridiculous the better. They seemed to be an adorable couple and I hope for that kind of married happiness someday. 8. One of Julia and Paul's first meals in France was at Restaurant La Couronne in Rouen, the city where St. Joan of Arc was burned at the stake. Julia described it as "the most exciting meal" of her life. She feasted on sole meuniere and oysters. The restaurant is considered to be the oldest inn in France established just a few years ago in 1345. 7. Julia was big on nicknames. Her sister Dorothy -- five years her junior -- was nicknamed "Dort the Wort" while Julia was called "Julia Pulia" and at some times even "Juke the Puke." Julia became a very good friend of the legendary James Beard (he asked Julia to call him Jim) and whenever they cooked together they were known as GiGi, as in Jim and Julie with the letter "j" pronounced the French way. 6. Julia attended her first cooking class at Le Cordon Bleu with 11 GIs who were "studying cooking under the auspices of the GI Bill of Rights." She was the star student, although she began unable to properly scramble an egg. 5. Julia sought a diploma from Le Cordon Bleu so she could teach but she failed the first exam. It was made of two parts: a written and practical exam. She aced the written but didn't know how to cook a single item on the practical exam. It included the following: an oeuf mollet , a veau "en surpise ," and caramel custard. Her teacher Chef Bugnard insisted that despite this debacle, Child was qualified to be a chef. She aced the second exam and became a graduate of Le Cordon Bleu. 4. On November 6, 1959, after more than seven years of collaboration, Julia's manuscript for a cookbook, co-written with two of her French friends Simone "Simca" Beck (later Madame Jean Fischbacher) and Louisette Bertholle, was rejected by the editor-in-chief at Houghton Mifflin for being "a big, expensive cookbook of elaborate information" that "might well prove formidable to the American housewife. She might easily clip one of these recipes out of a magazine but be frightened by the book as a whole." 3. The woman who would later be Julia's editor, Judith Jones, left New York for Paris in 1948 at the age of 24 for a three-week vacation, got her purse stolen and never left (her return ticket was in her purse). She was working for Doubleday in New York at the time and ended up getting a job as an editorial assistant to a Doubleday editor in Paris. She just so happened to pick up a book her boss was planning to reject, urged him to give it a second go and when he did, Doubleday bought it and it became a worldwide sensation. You may have heard of it: "Ann Frank: The Diary of a Young Girl." A similar situation happened with Julia's manuscript. Jones tested several of the recipes, realized what an incredible feat it was and insisted to her bosses it be published. In May 1960 Jones sent Julia the good news. "We have come to the conclusion it is a unique book that we would be very proud to have on the Knopf list." 2. The original title of "Mastering" was "French Recipes for American Cooks" and Jones said no way. Early contenders were "The Master French Cookbook" and "The French Cooking Master." Until finally "Mastering the Art of French Cooking." Et voila! Bon appetit! 1. Julia and Paul called their homes by names. They lived at 81 Rue de L'Universite in Paris and they called it "Rue de Loo." They called their property in Provence La Pitchoune or "Little Thing." Julia held onto La Peetch for nearly 30 years -- from 1965 until June 1992. Paul was 90 and living in a nursing home outside Boston at the time when she decided to move on from their "spiritual home." When asked if she was going to miss it, Julia replied, "I've always felt that when I'm done with something I just walk away from it -- fin !" She added, "the heart had gone out of it for me now." Sad, in a way, but I know exactly what she meant. Aphrodisiac: a food, drink or drug that stimulates sexual desire; a thing that causes excitement. We've all heard of the term, and at one point or another, I'm sure we've all consumed one or several of them. Has it made you hornier or more of a sex machine? The jury's out, but for a different take on the Valentine's Day list of restaurants, here's my top 10 sexual helpers paired up with the places you can find them in New York City. Have fun and best of luck with finding love and some heat this weekend. 10. Asparagus Asparagus “stirs up lust in man and woman," wrote a 17th century herbalist. Asparagus is a great source of potassium, fiber, vitamin B6, vitamins A and C, and thiamin and folic acid. Folic acid is known for boosting histamine production necessary for the ability to reach orgasm in both sexes. You'll find the best asparagus dish in the city at Riposo 72 . The sleeper wine bar on the Upper West Side grills its asparagus and wraps them in prosciutto and a thin layer of melted parmesan. It's to die for. 9. Avocado Like the asparagus, the avocado is rich in folic acid. And just look at it. Its shape alone is sexual. So much so that Catholic priests in Spain once forbade it. The best way to eat avocado is sliced on a sandwich, in sushi or chopped up in guacamole. For the first, head to Cafe Ronda for their chipotle sandwich with chicken, onions and avocados. For sushi head to BondSt for their salmon avocado roll. You'll find the best guacamole in the city at Mama Mexico on the Upper West Side or at any Rosa Mexicano location. The freshly-made guac is the stuff and both of these Mexican-themed restaurants chop the avocado right in front of you. 8. Bananas In addition to potassium, bananas contain chelating minerals and the bromeliad enzyme, that are believed to enhance the male libido. Look at your significant other, start pealing one and eat it in front of him or her with a straight face. Have fun with that. The only bananas I've eaten in this city, excluding the ones for 60 cents at my office cafeteria, have been on pancakes. Head to Norma's for a sick short stack. Their banana-macadamia nut flap jacks with whipped banana and brown sugar butter are off the charts. 7. Foie Gras I've never been a huge fan of foie gras (or how they treat the ducks in the process), but if you're a Francophile in search of some loving, hit up Bar Boulud . They have an excellent selection of foie gras and pates. Try their country pate foie gras with truffle juice and port. Whether it's the ingredients or the fine food's mystique that grabs you, if eating it makes you feel sexy, go for it. 6. Basil Smelling basil alone puts me under. Head to Kuma Inn for their steamed edamame with Thai basil-lime oil. If you prefer going the Italian route, head to Gradisca for a couple of options. Not only is this one of my favorite Italian spots in the city, but it's romantic as well and you can try their caprese salad with basil or the cavatelli pasta with tomato, eggplant and basil. 5. Pine Nuts Pine nuts are high in zinc -- a mineral necessary to maintain male potency. Kefi has an incredible dish with pine nuts: the sheep's milk dumplings with tomatoes, pine nuts and warm, soft feta. If I could I would eat at Kefi once a week. An alternative to the dumplings would be Frederick's caprese salad with pine nuts sprinkled on top. 4. Chocolate Chocolate contains chemicals thought to effect neurotransmitters in the brain. The Aztecs once called chocolate the "nourishment of the gods." Sfoglia serves an incredible pasta dish with chocolate: its gnocchi with mushroom and chocolate shavings. If you'd rather have chocolate in a sexy dessert, head to Artisanal for their romantic chocolate fondue. 3. Garlic The "heat" in garlic is said to stir sexual desires. I eat garlic in just about anything, but one of my favorite dishes in the city is at Esperanto . They serve mussels on the half shell, roasted with garlic, topped with parmesan and paprika. Pair the mussels with one of Esperanto's exceptional Brazilian cocktails and you're sure to score big this weekend. Good also flaunts its mussels with tons of garlic in addition to white wine, herbs and grilled country bread. 2. Wine We all know red wine can be awfully seductive and this city has its fair share of places to find it. Though wine bars have a rather effeminate sound to them, don't fear, gents, bring your gal to one of these low-key spots and you'll be a hit. Riposo 72 makes it on the aphrodisiac list twice. You don't even have to taste the wine here to feel sexy -- you'll feel hot just holding their huge wine glasses. Their cozy warm atmosphere is heavy on the romance as well. Taste is another favorite of mine for vino. For more generous pours head to i Trulli , Peasant , Bar Boulud , Grape and Grain , and clo wine bar at Columbus Circle. If you want to stay in with your honey, head to Morrell's in Rockefeller Center or 67 Wine for my two favorite wine stores in the city. 1. Oysters The Romans were the first to label oysters as an aphrodisiac. There are many places to find oysters in New York City. The best in my book is Aquagrill in the West Village. Some runners-up would be Grand Central Oyster Bar , Jack's Luxury Oyster Bar and Morimoto . If you're in the mood for surf and turf, grab some oysters at my new favorite steakhouse Keen's . "ARE YOU ALIVE?????? WHEN CAN WE GET DINNER?!?!??" asked FunStar. She's always so dramatic. She produces a cable news show and they type the rundown in all caps and I think she forgets to turn off her work type from time to time. I still love her. FunStar sent me a few of these e-mails starting back in November and it took us until the first week in January to get together. She always has a wish list of places to try -- a few years back she had an Excel spreadsheet -- so I asked her to e-mail me the ones at the top of this list. Excel or no excel, when I saw Momofuku Ssam Bar on the list, I got fired up. Johnny Depp is to the Academy Award as I formerly was to David Chang's restaurants. (If you don't know Chang, please read this article before you proceed. You will not regret it. I wish Larissa MacFarquhar did profiles on all of New York City chefs. I've had a crush on the guy ever since.) Momofuku restaurants have been eluding me for years. Much like Babbo once was to me, the restaurants in the Momofuku family had an unattainable quality to them. I would hear someone asking if I'd tried Momofuku Ko, if I liked Momofuku Noodle Bar, if I wanted to go to Ssam Bar and I'd throw my head back, roll my eyes and give them a loud "Pfffhhaa! Good luck." I am the first to admit that if a restaurant is notoriously hard to get into I will avoid it at all costs, or wait around until it's uncool to try it. Sadly, neither Momofuku Ssam Bar nor any of its sister restaurants are getting any uncooler so FunStar gave me the kick in the pants I needed to swallow my ferocious pride and give it a whirl. There was one slight problem. Over the past four months I've been eating strictly vegetarian. I feared eating at one of Chang's spots would be a total disaster. I even asked my Twitter followers and @eaterny if there was a point in me trying Momofuku Ssam Bar. The responses were mixed. One person wrote: don't go to momo if you're a vegetarian there are better choices. Another wrote: pork buns and spicy rice cakes...and compost cookies. Drool. While a third wrote: There are fish options and a veg or 3. I consulted the menu and it looked doable. We would dine at Momofuku Ssam Bar despite FunStar being concerned about her having to eat all the meat dishes by herself. I told her she'd live. I showed up at 8:25-ish. The place was a zoo, yet the hostess came and found me like a magnet. When I told her I was waiting for my friend running late from work, she pointed me in the direction of the Milk Bar and said she'd come in to check on me to see if my second party had arrived. I couldn't get over how friendly she was. I was surprised by the simplicity of the decor in Ssam Bar. The tables were like picnic benches with an Asian flare. The chairs were backless. Folks at tables were to the right side (and there weren't a lot of them) and to the other side was the bar. It seemed like some of the tables were communal. Both the bar and table areas took up an equal amount of space in the dining room. The decor wasn't the hype here, or the coziness. The food was. Backless chairs don't lend well to settling in and hanging around for hours. The horizontal wood paneling and table design reminded me of that of the Chelsea pizzeria Co. I wasn't entirely sure what the hostess meant by the Milk Bar. I knew it was attached but visually I couldn't see what she meant. I just kept following the narrow space between the bar and the tables, saw the bright light of the open kitchen at the far end of the dining room and found another hallway. At the end of this hallway there were large groups of people standing in line for bakery items, ranging from cookies and cakes to ice cream and soft serve. I guess it doubled as the waiting room. I plopped my pur-ggage on the table with a thud and made it clear I'd be staying for a while. I whipped out Julia Child's "My Life in France" and began to alternate between reading a few paragraphs and checking out the commotion around me. I heard about four different accents in the span of 20 minutes: Bostonian, Australian, German and French. This place was no secret to foreigners. Everyone knew and idolized Chang. The four young 20-something dudes behind me were drooling over what pork plate they were going to get, how Chang's fried chicken was "bad ass," and how they wanted a compost cookie for later. What the hell was a compost cookie? I looked up and saw it had pretzels, potato chips, butterscotch, coffee, oats and chocolate and any other crumbs lying around the kitchen Chang and his chefs could find. This was right up my alley. A petite blond college student in front of me was going on and on to her two friends about balancing studying with her long-distance boyfriend and how she was really more into hooking up locally with randoms than having a committed relationship with someone who was far away. Her boring "far away" man was in Boston. I was tempted to blurt out her ridiculous whining on Overheardinnewyork.com , but I decided to continue reading instead. Where was FunStar? The hostess came to check on me at least one more time before FunStar arrived. I couldn't believe how incredible the service was. She could have just dumped me in the back and waited for me to come find her when FunStar got there but no. She kept her word and made sure I was still solo. When FunStar did come she went and found our hostess. I almost told her not to worry she was looking out for us but I was getting pretty hungry at this point after all the compost talk so if FunStar could expedite the seat process I'd be thrilled. "Mona!" She waved at me at the end of the hallway connecting the Milk Bar to Ssam. "Really? Ready? Coming!" I shoved my book and gloves and hat and scarf in my pur-ggage and flew off to start our Ssam adventure. We snagged a great front seat at the bar. This was perfect. We could look at the menu, ask questions and watch the bartenders at work -- one of my favorite things to do. "So...I need an update. Like NOW!" "OK, OK... Christmas was incredible. We had the best time," I replied. "Can I get you guys a drink?" Asked a tall thin guy with a chunk of his blond hair spiked in the front and pointing off to the right like an arrow. He was wearing an interesting two-toned green T-shirt and when he stepped away it reminded me of the old hyper-color tees. "Oh shoot. We haven't gotten that far yet," I responded. "OK, let's choose our drinks and then you'll tell me what happened," said FunStar. FunStar told me about a drink she'd had recently called a French 75. Her version was made of Champagne, gin (though some recipes call for cognac or brandy) and lemon juice. We asked the bartender if he could make one. There were cocktails with Champagne on the menu, but he had an idea they weren't supposed to use Champagne for cocktails they didn't have on the menu. It sounded strange to us, but he was very smiley and friendly so we didn't think twice about it. I asked him about the seasonal pickle brine martini with Plymouth gin. To this dirty martini nut it sounded delish. I chose the classic with gin and FunStar went with a vodka version. "OK. Spill it!" "So... we met at our friend's wedding --" "Dude. I know that part. Fast forward to more recent," she ordered. "Ha! OK, OK. I don't remember what you know and what you don't know. We've seen each other four times now. He came to New York once and I went to Los Angeles twice--" "So you met him and you've seen him three times since and you're totally gonzo!?" "I know, I know. It must sound totally insane. But I'm totally insane about him. If you asked me to describe my dream man physically and emotionally it would be him. I just feel so lucky!" "I'm so happy for you!" "Christmas was a total whirlwind. We went whale-watching with his parents. Our parents met at dinner. Everyone got along super well. I spent a week with the fam and then I flew down to L.A. to be with him for four days. It was so awesome." "Wow," she responded. "Do you guys have any questions about the menu?" "Oh... we haven't even looked. Sorry..." "Let's pick out food and we'll keep talking after," suggested FunStar. "Done and done." We looked at the menu and there were a bunch of items that jumped out at us. We tried as much as we could between two girls, one being a vegetarian. As our first cocktails dried up, the bartender informed us he'd inquired about making the French 75 and that he could in fact use the champagne for items not on the drinks menu. It was very sweet of him to pursue this further, because we had certainly forgotten, so we ordered up a round of French 75s and kept ogling at the menu. We copied our neighbors and tried the cured hamachi with edamame, horseradish and pea leaves. The horseradish was charred black and I could have eaten the crumbles by the pint. The hamachi was light and fresh with an edamame sauce. The horseradish saved this dish from being bland. Next we tried the cracked Jonah crab claws with harissa mayo. Like I mentioned below at Choptank , crab claws don't really do it for me. I tried to suck all the meat and juice out of the smallest claw and it was a lot of work for not a lot of substance. Next time I eat a crab it'll be a full sucker. FunStar wasn't impressed either. FunStar tried the steamed pork buns with hoisin, cucumbers and scallions. Ever since eating at Kuma Inn I've loved the white gooey, almost marshmallow-like bun with pork belly. I kept to my vegetarian ways and just tried a sliver of the foamy bread and wished I could have had a plain side of the bun. I bet if I'd asked I could have. Rats. We finished up with the bread and butter plate with two types of butter: sea salt from Vermont and whipped lardo. The bread was disappointing. It was thick and heavy on the tough crust with too little soft on the inside. Maybe Chang should outsource the one thing he's not an expert in -- French bread (sorry FCI). S'il est deja en train de faire ceci, je suis tres desole. The butter, however, was ridiculous, especially the lardo. It was so rich it could have been cheese. I almost wanted to eat it plain with a spoon. I knew it would give me a heart attack so I refrained, but man. Who knew butter could be so flavorful? Chang. That's who. Last and definitely not least, we tried the fried brussels sprouts with mint and a fish sauce vinaigrette. With all the hype surrounding Momofuku we hadn't been all that moved by the food... until the brussels sprouts. I don't care if you've never liked or tried a brussels sprout in your life, this is one of New York's finest dishes. No joke. I couldn't figure out if I wanted to just inhale them or eat them slowly so they'd last longer. A couple sitting next to us asked what they should get and besides the pork belly and the hamachi I yelled with brussels sprouts hanging out of my mouth, "THUH BRUHTHULL THPROUTHS!" "So? Tell me more about MaineMan!!?" Throughout dinner it was a battle to consume what was in front of us and each other's lives over the past six months. "So... what is it about him, Mona?" I think I have a face now whenever someone mentions him. It's called MaineMan face and I get called out on it constantly. I light up like the tree and ice skating rink at Rockefeller Center. "I always told my mom I needed to find myself a mountain man, a manly man, someone who was tough as nails on the outside, but a soft, sensitive guy on the inside. MaineMan is that guy." "I love it!" "I don't know. I'll always be an athlete at heart. And I've always needed someone equally as tough as me, both emotionally and physically, and I always found it hard to be attracted to someone who wasn't. This probably sounds ridiculous..." "NO! Go on." "I couldn't date a wuss or a whiner. I've never met someone tougher, more active and more ready for an adventure than he is. I asked him if he wanted to do a marathon and he said, 'Yeah, sure!' without a second thought. Are you kidding me!?" "I know exactly what you mean. We're both tough cookies. I needed that too," she added. It was a huge relief that what I was saying wasn't gibberish. "Right?! Yet, at the same time, he's a complete love... a total softie. So anyway...he's amazing and there isn't a second of any day where I don't doubt or question what he's thinking or feeling. Because he tells me all the time. It's never a mystery. And he lives across the country! I dated someone who I practically lived with who never said the sweet things MaineMan says to me. I really can't..." "Mona!" "... believe how lucky I am to have found..." "Mona!" "...him. I just feel so..." "Mona!" "Oh god, sorry. What?" "You're totally glowing. It's so great. GLOW-ING! I'm sooooo soooo happy for you." "Aww, thanks FunStar! It's just crazy. And I totally get it now." We wrapped up dinner, thanked our bartender profusely for taking such good care of us and headed to the Milk Bar for some dessert. FunStar had tried the cookies before and kept saying "blueberry blueberry blueberry" in my ear. I barely like fruit as it is so the thought of eating blueberries in a cookie just sounded borderline revolting. MaineMan teases me for being the only vegetarian he knows who doesn't like vegetables and fruit. After staring at the blackboard for a good solid five minutes and not really registering what was happening I gave in. We went with the blueberry and cream cookie and the compost cookie. These are the only two cookies you're allowed to try if you go to Chang's Milk Bar. They were soft, gooey, chewy and I wanted to wrap myself in them. Just how a cookie ought to be. "We’re not the best cooks," Chang once told The New Yorker back in March 2008. "We’re not the best restaurant -- if you were a really good cook you wouldn’t be working here, because really good cooks are a--holes. But we’re gonna try our best, and that’s as a team." Chang is no bulls--- artist. And his food is no bulls--- either. I don't know if I'll ever be ready to fight the minions to get into Momofuku Ko, but I am psyched to know I can count on a bar stool at Ssam for brussels sprouts, lardo, a strong cocktail, great service and a warm compost cookie for dessert. Drool indeed. 207 2 Avenue, at 13th St. 212) 254-3500 Worked on this opus for 12 long hours yesterday. I found some great new friends on the Web, while reaching out to some old friends as well. I hope you enjoy these recipes! I'm seriously rethinking my decision to become a vegetarian after compiling this (but I won't, Winette, don't fret). I'm off to sunny Orlando with @Jcole this weekend. Disneyworld wedding, here we come. Until next week, friends. And you can click here for last year's rendition for another 10 gluttonous dishes. "Hey! We're going to grab dinner tonight at Choptank. Would you guys like to join? It looks v. yummy, classic B'more food," wrote Fashionista. "Only if you promise the hush puppies will be authentic. I'm in," said BYOWino. Fashionista made reservations for five of us at Choptank, the new Chesapeake Bay-themed restaurant in the west village. She's a sucker for anything that says Maryland or crabs so I knew it wouldn't be long until we ended up there, whether it was for FTDC or another occasion. My friend Sunkist was visiting from Colorado and I asked Fashionista if we could crash her and JerseyBoy's date night at Choptank. Every Friday they are in town they pick a restaurant off Eater's 38 (their list of essential New York dining spots). For this place they were making an exception. I wanted Fashionista to meet Sunkist and after a full day of back-to-back dance classes, I knew Sunkist would be up for a good, hearty meal. Sunkist and I went to school together in Charlottesville and we moved to Snowmass, Colo., after 9/11. Sunkist went from being the star of Aspen's Crystal Palace to producing her own children's plays in Aspen. She is opening up a dance studio as well and part of her goal in coming to New York was to brushen up on some of the hottest trends in dance. I could devote an entire post to our hip hop class at the Ailey Dance Studio , but I'll save that humiliation and embarrassment for only my closest friends (and the unlucky passersby who got to watch my sorry butt wiggle and wag in the Ailey fishbowl studio). Unfortunately, Sunkist had a class that night that went until nine. Reservations were at 8:30. "We can shower at the studio so we can be quick to meet up," she texted. I don't think Sunkist understood the whole New York reservation situation. I told her we'd play it by ear, knowing that we'd probably end up eating and meeting her somewhere after. Little Annie's in Aspen may let you hang out and casually wait for friends to arrive, but New York tables didn't quite work that way. I'd already asked Fashionista to change her reservation once and I didn't feel like making her do it again. I e-mailed a few friends who I thought would be interested in dinner and we had one taker: BYOWino. Sunkist would join us later after her class and either sit with us or at the bar, depending on the space. I was the first one to show up at Choptank. Since I'd been the annoying friend adjusting and readjusting our reservation, I was not going to be the annoying late friend. I walked in and felt sort of lost in the overly large empty space at the front for standing, checking in and waiting. There were two high tables with stools on either side of the door by the windows. One couple sat with their Blackberries lit on the table. He would answer, she would stare off into space, he would hang up; she would answer, he would stare off into space, she would hang up. This little dance continued for about 10 minutes. They seemed to be meeting more people like I was, yet they had drinks and I did not. Hmmph. After checking in I sat down opposite them and watched the place in action. The entrance space was straight up awkward. The bar behind the check-in table was a good four or five stairs up from ground level. They should have expanded the bar further towards the window and increased their stool surface area, while decreasing the over-sized pointless space in front. As soon as Fashionista, JerseyBoy and BYOWino arrived, we exchanged hugs, left our tired winter coats with a host and headed off to our table. The main dining area scored high on the cool meter. Choptank was dominated by its two huge square-shaped bars in the middle of the room. The space with tables (and those who weren't cool enough to make the cut at bar seats) seemed like a lame after-thought. If you go to Choptank, eat at the bar. I immediately wished I was meeting one person instead of three so I could sit in front of the bartenders, drink out of a big wine glass and stare at the oysters all night. The place was completely packed, yet somehow we scored the best table in the place - the end table right by the window. The dining area loops around to the left. After you pass the two bars you head down a few stairs again for the five or six tables on ground level. We were big fans of the corkboard on each wall. "I think we need to come in next time with a photo of all of us and just stick it up there," said Fashionista. "Hells YES! Right in the middle of all the beach and sand scenes," said BYOWino. "I love this plan," I added. I hope the wall has since filled up since we visited. It was looking a little sparse. Our waitress came to the table for our drink order. Fashionista and I ordered a couple of cocktails while the boys ordered beers. Our waitress was friendly and mildly attentive, but as sharp as a used piece of chewing gum. "What happened to the hush puppies? That was one of the reasons I came," said BYOWino, half-jokingly, half-serious. "Well...they had those in the beginning for our soft opening, then the chef must have taken them off the menu." "Why?" "I have no idea." "Does the crab chowder have corn in it?" Fashionista asked. "I have no idea." "Do you mind...err... finding out?" "Oh, you want me to find out? OK, sure." The cocktails were pretty intense. Mine was the size of a pint-glass and half-filled with ice. Potent. Fashionista's came out and I wanted to ask, "That's it?" It looked awfully silly next to my gargantuan drink. She tasted hers and was unhappy. It was a bit too heavy on the gin and you could barely taste the St. Germain, not to mention it was warm and would have tasted a million times better chilled. I liked mine, mostly for the ginger and huge ice cubes, and would definitely order it again. For starters we tried the crab claws. We tried ordering the crab dip and chips off the menu, but the waitress informed us each table got a complimentary order. This was a nice gesture, but perhaps best to take that off th</t>
+  </si>
+  <si>
+    <t>I have been working in a corporate office for 2.5 years now and have made many real friends. But this is not I am about tell you now. I am going to tell about a set of pseudo buddies you make because you cannot control your body’s metabolism. Yes! Restroom buddies! You still may think it is some people you befriend in the restroom. No! these are pseudo! Over the past 2.5, I have seen a pattern, the same set of people seem to be present in the restroom when I enter the restroom, regardless of what time I enter, be it morning, noon, afternoon, 3 PM 4 PM whatever odd time, they are there! And even on the same day, they are there everytime you go! Then you realise, that these are the people whose bodies may probably function similar to yours, may be they have the same rate of metabolism, may be they have the same bodily cycles. It makes me get a friendly feeling towards them. After all, who does not like similar people!? Something like a stockholm syndorme. But the friendly feeling is not because you see them everyday, it is because deep down you know that you may be physically similar people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday I finally got the result of Toefl ibt. It was really good: 109. I was so nervous before I pressed the button to reach out the score and there were thousands of butterflies in my stomach. But eventually that was it. In an instant I broke down because of the joy actually.
+Now I am on the way to my dream. I have finished the first step of preparation of going abroad, which is to take part in English exams and make the best of myself out of it.In some sense, I believe God is blessing me or I should say my grandpa, who passed away all of a sudden five years ago.He is in the heaven and is watching on me all the time.
+It perhaps sounds familiar to most of my friends because it was ever classic line in a Korean TV series. I didn't get the opportunity to see the series until recently in my leisure time have access to it on the school net. I was so intensely touched and deeply moved that I couldn't help crying out from time to time.
+Then I draw the conclusion from it that one, who is full of love inside his or her heart, is not pathetic at all even if they live lonely in the world without any companions. True love will leave a long-lasting impression to those who engaged in even with the limited and transient time to share with one another.
+I am sorry I can' t stay with you in this world, but please remember I love you forever wherever I go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Greetings from the President of the United States.” That's what it said when my draft notice came in the mail, a couple of wars ago. But instead of thinking about how hard it would be to leave my family and friends for months, or years, I had another thought that ping-ponged around inside my head. What to do with my beloved and pampered 1965 Mustang? It was just too dear to my heart to part with, and I didn't dare leave it for my parents to drive—or worse yet, my little brother. It would just have to be pickled, and put up on blocks for the duration. That was a long time ago, and I wish I had done a better job of preserving that car, so I could drive it today. Yes, I miss that Mustang. There are lots of men and women serving in our armed forces around the globe. And I receive plenty of mail from them asking me how they should store their cars while they are overseas. The rules of vehicular cold storage are the same no matter why the car is left behind. But storage isn't always kind to vehicles. Corrosion and decay take their toll on engines, bodies and interiors. Time itself can ruin tires, and even a car stored inside a garage can attract some unwanted furry house guests. Here's how to protect and store your car, truck or motorcycle—the right way. Store or Sell? Unless there's something very special about a particular car, I don't suggest placing a car in storage for more than a year. Special-interest and collector cars, like that 1966 Vette or antique Hispano-Suiza, might tug on your heartstrings (and purse strings) enough to keep them in the family, but anything that qualifies as practical daily transportation, no matter how nice it is, should be sold. You can replace it with another car when you're in need of a vehicle again. The loss in value of a car that accrues in another year from its manufacture, even if the odometer doesn't see any more miles, is too high. One option for shorter-term situations is to simply keep the car on the road. Find some responsible adult who will drive the car every two or three weeks for an hour or more. This will keep the drivetrain lubricated and the battery charged. An engine that doesn't run regularly collects moisture and internal rust, especially on the portions of the cylinder walls not covered by the pistons, valves, camshafts and valve springs. Ditto for the brake discs, which are made from easy-to-rust cast iron. A car that's driven far enough to get completely warm and remain that way for an hour or more will drive off the moisture, coat any lubricated surfaces with oil again, and sweep the rust off the discs before they start to pit. And keep your insurance active: In some states, dropping your car insurance, even if you're not going to be driving, will make it nearly impossible or very expensive to get insurance again when you're ready. Check with your insurance agent; he may be able to reduce your coverage or transfer it to some less expensive option. At the very least, you'll want theft and vandalism coverage—just in case. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have always wanted to see Stargate SG-1, but didn't want to get into it so late in the show.  I ended up finding all 10 seasons on DVD.  This is such a great value.  There are over 200 hours of SG-1 and plenty of great special features.  If you want to watch this series for the first time or want to own it for your collection this is the way to go.  </t>
+  </si>
+  <si>
+    <t>I can still remember hearing about Terrorist attacks against Westerners in Saudi Arabia while I was in boarding school and wondering if my parents and brother and sister were alright. Both my parents seemed to be vulnerable at different times to being in the wrong place at the wrong time. It was always such a relief to hear their voice after one of the attacks that got close.</t>
+  </si>
+  <si>
+    <t>Saturday, November 07, 2009
+Missin' Music
+My piano is in a warehouse, but two guitars are leaned up against the wall of my living room. I listen to music, but I haven't played in so long. The strings on my guitars glare at me, and dare me to tune them. 
+I stopped in the music store across from my office, and walked through.
+"Feel free to try anything you like out..." the guy running the place said. So I wandered about, and tried a Fender or or two. Wandered out again, and drove home. Looked at my guitars, and tuned one and strummed a bit. 
+Later this evening, I stopped at the Blues Benefit for the Delta County Humane Society. And wow...I sat through some good tunes. I was only there for about an hour and a half, but my toes tapped the whole time. I wish I knew someone who'd come with me...but I don't know anyone here yet that likes that sort of thing, so I went solo. 
+Course, when there's live music, I'm rarely lonely!
+posted by Michele Burley @ 9:12 PM 0 comments links to this post 
+Thursday, November 05, 2009
+November 2009
+I rode my bike on November 1 in Escanaba, MI! The wind ripped into every nearly-open article of clothing I wore...and I wore MANY layers. However, it was sunny, not snowing, and I was a bit stir crazy. So off I went!
+To be honest, it was the first bike ride I'd taken since moving here a little over a month ago. Biking is a great way to really make sense of neighborhoods, and so as each weekend approached, I thought I'd get the chance to go...but then it would rain, or I'd have to run somewhere. So on Sunday afternoon, I had my big chance. I had great aspirations, and took off toward the lake, but the wind intensified. I coasted as long as I could, and was thankful when it was time to turn around. However, I did it, and it was a pretty good ride. 
+My bike is parked along the side of the wall in the garage...next to the snow shovel. However this weekend is supposed to be warmer than normal, so it might get more road time in a couple of days. Yea!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I said I would be posting something when inspiration struck me - didn't think it would take this long. I have finally written something, so thought I'd post it... A small boy on a beach ran to me last week and gave me a winkle. A winkle, such a strange and sad little object. I shook and then brushed the sand from it. Poor creature, I thought. I took the shell and listened but I could not hear the sound of the sea blowing from within. Instead, I fancied I heard crying. Yes, there was a dry sob, sob, sob coming deep from within. So strange. I immediately wished to smash the shell, to dash it on the deck like a greedy gull, but fought the urge. One thought was playing in my head, like a record, jumping and stuck on the same syllables; like a drifting soul song trapped in purgatory. "Plant me." "Plant me," it spoke. "Plant me." So I did. I scrabbled in the dirt, tossing the clods and broken earthworms aside. In my bluster I'd chopped these worms in half or worse. No matter, I thought - they'll grow anew. Regeneration you see - I'm creating new life and new worth. Dropping the shell into the moist hollow I carefully recovered the jumble of soil and cloven earthworms, imprisoning the gentle winkle. And then I waited. I waited for it to grow. And the rains came and the sun shone down and the winds blew the blossom from the boughs. All seemed but in requiem to the sad little shell. The thought dawned upon me, smiling grimly, spreading icily across my body like electrical current. I had not planted, but had rather buried the poor creature. Now, beneath the dying pink flowers, it was lost to me. I must be mad, I thought. Really, I must now be insane. Hi, Just thought I'd say, you can catch up with me on Twitter. I'll be posting random bits of writing here: http://twitter.com/paulbernard Cheers, Paul. Hi guys, Well, I returned from my week away from blogging refreshed and considering my next move. It's been six months since I started The Daily Tale and I thought it might be a good idea to freshen the format up, try something a little different. So I have created a new blog called The Daily Postcard where I will do my daily blogging from now on. The Daily Tale was an unexpected success and I'd like to thank everyone for taking the time to support me by reading the stories and leaving such great comments. However, I think the format had gone as far as it could and I was chomping at the bit to try something a little different. I'm quite into photography and wanted to devote some time to that, along with writing. So that's kind of what the concept of The Daily Postcard is - a photo and a short tale to accompany the image. I hope it will become something the browser can either just dip in and out of when they feel like, or alternatively let their imagination become swept up in the twin assault of the image and the words. My reasoning for starting it on another blog site was so that I could leave The Daily Tale blog here as an archive for anyone who wanted to flick back and read their favourite stories again. When I've finished my Postcard project I will seek to do the same with that too. So that's all, I think. I hope you'll join me in The Daily Postcard . See you on the other side... Please follow the link to The Daily Postcard: http://thedailypostcard.blogspot.com/ Hello all, I am taking a short hiatus from my Daily Tale-ing. I will be on holiday for a week and then, when I return there will be a revamp in order for my daily blog. I hope you'll be back in a week to experience it... Paul. " 'Cos I heard it in the wind and I saw it in the sky, And I thought it was the end, I thought it was the fourth of July " Chris Cornell I saw a firework, dead, burnt, on the street. I reflected on how sad its resting place, how briefly it had burned and now how ignominious its fall. At one time it had potential. Potential to explode and cause delight. Always while it had potential it was a special thing. A device of magic, waiting to bring wonder. In its short life of usefulness it was above us all. It could fly, it could shower us with metallic petals of light. Great golden arcs that would shard in the sky. And then, dropping black and crippled onto an unlit street corner it could now only move if kicked or gusted by a force of nature. Still, at least it had fulfilled its potential. She looked at the image long and hard. She scratched her head to show him that she was thinking about, thinking long and hard. She moved her head around to jaunty angles, ways that she almost never moved her neck. No matter what she did, or how she considered the possible illumination of the piece of artwork he displayed proudly before her she couldn’t ascertain any relevant meaning from it. It really was just a mess of paint to her. She contemplated telling him this. Maybe he’d appreciate what it said to her, but she bit her tongue. She bit her fingernail as well and then stopped in case he was looking at her. He wasn’t looking. He was sat on an old red sofa, spotted with paint and ripped open in places so that the stuffing poured out like fat. The sofa was turned away from the easel, away from where he worked so that he could at least try to switch off from his mind’s displays for a while. The radio was on at that low volume that is as annoying as too loud. He was thinking, this artist, about something someone had said to him earlier. He stared at the music coming from the radio. He found that he often realised that something interesting, something insightful about another person, had been revealed to him in conversation and he would only pick up on it later. By this time, the conversation had long faded to dust and there was little chance to query the interesting party. Another wasted opportunity. “Celine,” he called without taking his eyes from the stereo. “What do you think?” She stopped looking at the splurge on the canvas before her and bit her nail again. “Well, I loved the funny picture of the radioactive clown,” she said. “Very surreal!” He smiled and nodded. He was pleased enough, but he found himself fighting not to ask her about the latest piece, the work he was proudest of. “I’m glad you liked it,” he said. “Honestly, I am.” She moved uncomfortably in her jeans. They were just a little too tight and she felt it now as she walked back to the couch. The room was lit by just the spotlights pointing on the two easels and as she stepped away from these she felt more confident. She picked up her long drink and nibbled the edge of the glass. There was room to sit next to the artist, on the couch, but Celine opted for a leather armchair facing him. She sat down slowly with her knees together and sipped her drink. The spotlights flared in her ice-cubes as she tipped the glass back. “It’s a shame,” said the man, “that you didn’t like The Vision.” He referred here to the title of the strange abstract painting, and not in some grandiose way to his overall method or philosophy of painting. The girl gulped her drink hard and swallowed an ice cube. It stuck in her chest and made her entire body tense up. She gritted her teeth against the cold. “It’s not that I didn’t like it,” she said. “It’s that I didn’t understand it.” She fumbled now as the ice moved on away from her chest, “I’m sorry, sorry about that Robert. I just didn’t quite get it, maybe.” “It’s a shame for us both, that you preferred the clown,” he said. His words barely hung there for a second before her reply: “Why, Robert?” Robert shook his head, then dropped it to the side a little and raised his eyes to look at her. His eyes looked softly and sadly upon her. “Maybe you don’t know why yet. But you will later,” he said. They didn’t say anything for a minute or so. Just looked. A buzzer sounded at the door. A man spoke. “It’s David,” Celine said. “Shall I tell him to come up?” “No, it’s fine. I have to finish up here. I’m tired. Goodnight Celine.” Celine stood awkwardly and put down her glass. She looked down at Robert for a moment and then turned and stepped carefully across the wooden floor to the door, unbolted its latch and pulled hard. The great old metal door swung on creaking hinges. “Goodnight Robert. I really did like your pictures, you know?” Robert nodded. “Don’t forget to lock the door behind me,” she said, stepping out of one world and into another. A man standing on a beach casts his pet octopus into the sea. He holds it by three of its legs and swings it in dizzying circles before letting go to send it flinging back into the sea where it was spawned. As it plops into the water, a red ball, he hopes it’s the last he’ll see of that octopus. Sinking into its new home, the octopus lingers in the swell, growing accustomed to the new tastes and sights, but soon it spreads its legs and swims off into the deeper waters, in search of dark rocks and things to eat. The man sits down on the sand. He has had that octopus for three years. It was a treasured gift of a former lover, now gone. The waves break ever so gently on this shore. So gently, in fact, that the short breakers have created a tiny shelf at the point where the sand remains dry and full. Upon this shelf climbs a green crab. It has come from the sea, allowing itself to be deposited there by the tide. It sidles towards the man, unnoticed, then nips at his sandals and toes. “Woah!” the man lets out expressions of concern. He looks for some flotsam to flick this crab away or something heavy with which to crush its shell. But before he can find this he hears a voice. “Brian, what have you done?” He stares down at the green crab. “You have cast away your only friend.” The crab speaks. And it addresses him by name. “Strange creature,” says Brian. “How came you to speak so, and know my given name?” The green crab replied that he was one of the great seers of the sea, and with the lobster, the ray and the narwhal, views all that occurs both above and below the waves. “The cockles sang to me, from the rocks over there,” continued the green crab. “And then the sprats and starfish whispered to each other that the octopus had returned to us, before his time.” The green crab explained that the octopus was a great talisman, a conduit between the realms of sea and land. Such creatures were placed in homes throughout all the continents of the world, allowing the seers to get a clear view of the airy world above them, helping them make decisions and policies for life under the sea. “Even your partner, Selkie, was put into your life by us. Once she thought a bond had been established between you and the octopus she knew she had to return to the ocean.” “Now, you must go and retrieve your octopus, Brian. You must try. Only you can find it.” And with these words the green crab motioned with its right claw, beckoning Brian towards the sea. Brian stood up, proudly and with purpose, now. He had to do this, he knew, though it seemed impossible. He would swim and swim, and search and search, until he found his red octopus once more. He stepped into the light foam of the surf and pushed on until he was waist deep. Then he turned back towards the crab and waved. The green grab seemed to be waving too. Brian lifted his legs from the sandy sea bed and started to swim and swim. It was difficult to move his arms though, and his legs cut sluggishly through the water. He looked to his arm as he tried to take it from the water. Fifteen small octopuses of various colours were clinging to it, dragging on it. As he stopped swimming he felt the myriad suckers of a thousand tentacles attaching themselves to his body. Hundreds of octopuses grappled with him and he began to feel sharp stinging sensations across his body. A larger tentacle then wrapped about his head and Brian slowly disappeared beneath the blue waters. The green crab, safe on the shore, stopped waving and skittered off across the wet sand, feeling satisfied and looking out for a warm rock pool to hunt in. The three lads, bounding through the weeds at the trackside stopped for breath. Johnny, the youngest, legs wobbling with the effort, wanted to sit down but he fought that feeling with all his might. He was out with his dad now. His brother, Michael, stood up as straight as he could, sucked in a lungful of air and puffed out his chest proudly. His father patted his head rather heavily. Dad had come to see them today and their mother had rolled her eyes. It was their uncle’s birthday, their dad had said, and so he had thought of something for them all to do. ‘A family outing’, he called it. They’d crawled under wire fences, scrambled down dirty banks and jumped from heights that Johnny had previously thought impossible to survive. These were all things his mother and his teachers had told him never to do, but here he found himself, on an overgrown railway embankment, with his father, watching the trains go by. “Not far to go now, guys,” said Peter. He was revelling in his new found role of leader, a figure to be feared and obeyed. “Just round the next bend,” he said, “that’s where it happened.” They hacked onward with their feet until they came to a brown stone wall. Peter led them slowly down the bank and onto the gravel at the side of the railway track. A curving tunnel opened cavernously before them. “Right,” he said. “When I say the word we’re going to run for it. There shouldn’t be another train for 10 minutes anyway, but we’re better safe than sorry.” Michael looked a little incredulous at this, but Johnny pushed in front of him, eager to race away into the darkness at his father’s command. “Now come on, son. Michael’s first up and then you follow him on. I’ll be close behind you, okay?” Johnny nodded; Michael said nothing and just stared ahead into the gloom and then at his shoes. “Alright go,” said Peter, but Michael didn’t move. “Come on Mike, head up and run for it.” Michael’s body moved, almost imperceptibly, but again he held himself back. “For God’s sake Mikey, fucking go for it you prick!” His father raised his voice and his hand and Michael was away. He ran blindly into the darkness, stumbling upon the rail and then vanishing. His father screamed after him to bear left and not to trip on the tracks, his voice echoing about him in madness. Peter held Johnny by the shoulders as the child strained to follow his brother. As soon as his son stopped struggling, Peter plunged ahead of him onward into the tunnel. He found it curved round gently and then light flooded back into its far mouth. Out into the daylight, not far up the track, Michael sat on the rail, crying. Peter ran on, out of the tunnel towards his eldest son but his mind was gripped by responsibilities and he turned around to see what he’d forgotten. Johnny came then, whimpering out of the darkness, rubbing his red eyes and peering at his father with that look of fear and disappointment that can tear at a man’s chest. Peter strode towards him, picked the boy up with one arm and then stumbled across the thickly piled gravel at the railside until they reached Michael. He resisted the urge to grab the lad roughly with his spare arm, instead holding out a hand to him. “Come on,” he urged, adding: “I’m sorry.” Michael looked up graciously and took the hand. Soon they were all sitting on the grass bank looking back at the railway. “This is it,” said their father. “This is the spot where your uncle Mikey died.” They all stared at a spot on the track and imagined it happening there. Noticing there were two different sets of tracks before him, Johnny spoke up with a sniff: “Dad, which side was it, that uncle Mikey got hit by the train?” His father looked long and hard at the two sets of track and didn’t answer for a minute. He realised he couldn’t remember. He had no idea any more. Peter scratched his beard a little, turned to his boys and pointed at the track nearest them. Three pairs of eyes converged on that point. A horn sounded in the tunnel and a train rushed by. “It’s early,” said Michael. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holiday Sneer 
+It's always funny to me when people wish me a merry Christmas. I mean, I can understand the whole holiday spirit and cheer and whatever, but the whole thing means nil to me. However, I did watch so many hours on the Discovery Channel about the life of Jesus, Mary, and everything else surrounding the New Testament that the Disocovery Channel could muster. I watched so many hours, in fact, that I had a dream last night that I was Mary, Noah (of the Arc), and Jesus rolled into one. 
+For Xmas eve I went over to my friend Ridge's house in Queens. We watched Peanuts cartoons, Edward Scissorhands, and ate Jumbalya or whatever it's called/spelled. Afterwards I headed back into the city a little earlier than planned and had a quick drink with Marc. I also tried to climb into his suitcase so he could take me to Australia with him for when he goes to interview the Vines. As I was heading back home, my brother Lawrence called me just as I was driving past him on the street in my cab. I jumped out and joined him for a drink at some cheesy club that was hosting a Matzoh Ball. It was so incredibly lame (I yelled out "Sausage Fest!" as i walked in and got shot with dirty looks all around) that we left after 20 minutes. He headed off to the new Crobar and I went home. Apparently the Lubuvatch Organization were in their Mitzvah Mobile outside of Crobar trying to recruit new followers of the ultra-orthodox jewish cult-like group. When I was little my mom used to take me to visit Rabbi Schneerson (sp?) who is the person the Lubuvatch's look up to as a sort of profit. We'd wait in a long line in Brooklyn for hours and hours and walk up to him, hand him a dollar, he'd give us a blessed dollar in return, mumble something or another, and then we'd go off on our way. I was about 8 years old when we did this, so my memory is a bit cloudy... however, I'm sure he brought happiness to a lot of people. I'm just confused by what the Lubuvatch community is trying to do with their Mitzvah Mobiles... i should do some research. 
+Speaking of Lawrence, he changed his friendster photo to images from high school. He was so fucking cute and new wave. Look!. 
+Yesterday, for Xmas Day, Nate the fabulous Roommate, cooked an amazing meal for his bandmates. It looked amazing... I couldn't eat it cause it wasn't kosher, but basically it was chicken rolled with ricotta and feta cheese, mashed potatoes, and asparagus. Nate cooks! He's like the best boy in the whole world. He also got a Christmas tree for the apartment which he decorated with white lights and blue balls (to pay respect to Hannukah), and we made an angle for the top using an image of Thom Yorke i found in Blender magazine. 
+After dinner I went to the movies with Karen and Jordan to see "Big Fish" (I was crying like a pms-ing girl who has just watched a Sally Struthers "kids in africa need your money" commercial at the end... not to mention squealing everytime Ewan came on screen). We all noticed Drew and Fab in line for popcorn behind us and so this prompted Jordan to ask quite loudly while we were sitting down "I THOUGHT DREW AND FAB WERE OVER?" not noticing them sitting two rows directly in front of us. God Bless Jordan for delivering the quote of the night. So Drew and Fab are back on! 
+When I got home, after going to Lit, I watched the World Idol competition that i had taped while at the movies. I'm totally in love with Kurt from Norway's performance. He was so utterly amazing. He sounded a lot like the singer of Kent. I think i'm gonna buy his album. 
+Free Jack White items are for sale just in time for belated holiday gifts. Incase anyone is interested, i'm a women's medium. Thanks to Rachel for that link. 
+Finally -- I'm DJing at Don Hills on New Years Eve. The party is apparently gonna be really great, so if anyone reading this needs something to do that night, you should go. Come and say hi to me if you do! I will probably be very drunk and possibly try to make out with you and then you'll also discover my inability to remember anything and total need to document everything with my digital camera as a result. I promise to also play "Ice Ice Baby."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When a partner isn't fully in the moment of trying to fix a relationship, the work becomes a one-sided affair. You need to be able to fully be there for your partner when you need to work through tough times. This might mean that you need to take a few days off work or devote certain times to discussing ways to fix your relationship. These times should be uninterrupted by work obligations or time commitments so that neither person feels rushed or distracted. </t>
+  </si>
+  <si>
+    <t>One of my favorites from my garden this year are the Hyacinth Bean Vines that I planted from beans that I got from my sister who lives in the western part of NC. I was not even sure they would grow here closer to the coast...but it's beautiful and the butterflies love the blossoms.</t>
+  </si>
+  <si>
+    <t>Recently Presidential Special Advisor David Axelrod has been painted as a beleaguered figure, upset at the world he sees around him. Today he told the Republicans to "make my day" and the Israelis a new policy announcement was an "insult."
+Axelrod and White House Press Secretary Robert Gibbs were doing the rounds on the Sunday talk shows to talk about healthcare reform, among other topics. Gibbs told Fox News Sunday that Democrats would have enough votes to pass the bill in the next week or so and that soon we wouldn't be "talking about health care as a proposal, but as the law of the land."
+Tom Brokaw, on Meet the Press, asked David Axelrod about the political cost of that reform for upcoming elections. Axelrod leapt up on the table, and began savagely beating him (metaphorically):
+    If the Republican Party wants to go out and say to that child who now has insurance or say to that small business that will get tax credits this year if he signs the bill to help their employees get health care. If they want to say to them, "You know what? We're actually gonna take that away from you. We don't think that's such a good idea." I say, let's have that fight. Make my day. I'm ready to have that. And every member of Congress ought to be willing to have that debate as well.
+Enough ass-kicking work for one day? Not for fuck-you-Axelrod. Israel have potentially torpedoed delicate negotiations with Palestine by announcing a plan to build 1600 new homes in Jerusalem. He told ABC's This Week that the move was both an "affront" and an "insult."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I knew i liked volunteering at the bird centre but i never realized how much until i started as a full time employee 4 weeks ago. i have never felt more passionate about anything. this really is what i need to do with my life. animal care is my calling. i go in on my days off, i put in unpaid overtime, i go home and cry because i've fallen in love with the sick, it's stressful and overwhelming but there is no where else i'd rather be. i learn new things every hour, and there's still so so much i don't know. i just know i feel as though this is where i belong. now if only i could somehow satisfy that pang in the back of my chest that wants me to wander the planet for months on end...
+my social life is mostly on hold. one or two times a week i manage to show my face around town but i mostly work and sleep. my next task is finding more time for my pony. 
+i think i'll be going to mtl this sunday evening for A Camp. hope to see some ladies i like
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A couple of recent news items caught my eye, one with profound conservation implications, the other without. The Department of Interior has been considering listing the Greater Sage Grouse ( Centrocercus urophasianus - above) under the Endangered Species Act, and last Friday it announced its decision. Beyond their spectacle and interesting biology, Sage Grouse are notable for being completely dependent on the sagebrush steppes that covered much of the western United States until recently. As livestock grazing, development and extractive industries degraded these communities, a population of around 16 million birds has dwindled to well under 5% of that number today. Halting the grouse decline means maintaining healthy, virgin sagebrush habitat and disallowing the practices, essential to continual economic growth, that destroy them. The situation is a microcosm of the global conservation situation: meaningful conservation and the paradigm of continued economic growth are incompatible. This incompatibility is the metaphorical elephant in the sitting room of public conservation discourse. Secretary of the Interior Ken Salazar's limp-wristed decision last Friday, to assign the Sage Grouse “warranted but precluded” status (meaning essentially that the bird deserves protection, but won't get it, although its status will be re-reviewed annually), is a clear sign that moneyed interests will continue their reign and the DOI intends to continue denying that elephant. For more on sage brush ecology and conservation, see here, here, here, and here . The second story describes the rediscovery of the “extinct” Australian Yellow-spotted Bell Frog ( Litoria castanea – above), which hadn't been seen since 1980. Six tadpoles were collected and transferred to the Taronga Zoo near Sydney, where a captive propagation effort will be implemented. This species and several close relatives, all found in the southeastern quadrant of the continent, are rather hard to untangle taxonomically. The whole complex has seen a rather steep population decline in recent years, the causes of which are not clear, although chytridiomycosis has been implicated, as have chemical pollutants and invasive Gambusia fish. The Yellow-spotted Bell Frog's small range in the highlands of SE Australia is not well-studied, and contrary to the popular press implication, it was never declared extinct because the possibility of this news has always been considered very real. The discovery of this population, and the hope it represents for survival of this species, while happy news, tells us nothing about the broader picture of worldwide frog decline. _____________________ upper: WINTER SAGE GROUSE (1989) acrylic 14" x 14" lower: Photo of Litoria castanea by AP, lifted from the Internet The time has come, once again, for one of the country's biggest sale exhibitions of small artworks. Masterworks In Miniature opens tomorrow, March 5th at Gallery One in Mentor, OH. Among the 150 or so paintings on view will be my Red-breasted Paradise Kingfisher (above). _____________________ illustration: RED-BREASTED PARADISE KINGFISHER (2010) acrylic 10" x 8" I'll say it again: the paucity of good mainstream science journalism is more than regrettable. Science blogs represent the best source for intelligent assessment of science news, but sorting the good ones from the bad can be a trick. So I was pleased to serve as a judge for the latest Open Laboratory , a compendium of the best science blogging of 2009. It's now available in print for $14.50 or as a pdf download for $7.50. Few species have been featured on this blog more than California Condors (Gymnogyps californianus). There is no better school for conservation than the struggle over the past few decades to find a way to support these birds on a continent that no longer harbors much of a home for them. The recent trend has been a hopeful one; from a mere 22 individuals in the early '80s, a concerted management program has lifted the tally to nearly 350, over half of which live free in a sort of 3/4-wild state. Some bad news arrived yesterday, of the recent deaths of three members of the Arizona population. All three had succumbed to lead poisoning, a persistent plague in the region. The entire population was trapped and subjected to chelation therapy a few years ago, but obviously, more needs to be done. The Arizona and Utah Departments of Fish &amp;amp; Wildlife are stepping up efforts to change the habits of local hunters, including handing out coupons for free non-toxic ammunition. _____________________ illustration: CALIFORNIA CONDOR (2008) acrylic 30" x 20" One of my perennially favorite themes is the taking of outsize quarry by predatory birds. I was recently alerted to a couple of nice documentations, the first describing an apparent case of a Spectacled Owl ( Pulsatrix perpicillata ) preying on a Brown-throated Three-toed Sloth ( Bradypus variegatus ) that had come to the ground to defecate. Spectacled Owls are common through most of tropical America, although I've never found a nest nor handled one in captivity and have little knowledge of their behavior. They're medium-sized forest owls that I've always assumed subsisted mostly on lizards, arthropods and mouse-sized mammals. A grounded three-toed sloth is hardly an imposing foe (unlike its rather distant cousins the two-toed sloths), but the taking of anything that big by a Spectacled is quite surprising to me. Our second link documents an attemped predation on a White-tailed Deer ( Odocoileus virginianus ) by a Golden Eagle ( Aquila chrysaeto s), featuring some great shots accompanied by somewhat less great commentary, said to have been taken in Illiniois, of all places. While this behavior isn't typical, it's far from unheard of. It can't be denied that Golden Eagles are very powerful and effective predators. I have spent many hours watching wild Golden Eagles and have watched them hunt many different types of quarry. Some day I hope to witness something like this in person. While on the subject of large prey, I received an email yesterday with a series of photographs showing a Black-headed Python ( Aspidites melanocephalus ) swallowing what appears to be a dull-colored Gould's Monitor ( Varanus gouldii ). The email identified the location as Cloudbreak, Arizona, although it's clearly Australia. These photos may not be new, but they were of special interest to me, since they illustrate a situation similar to the one I painted in 1994 for the cover of Brian Kend's Pythons of Australia . My painting was criticized for showing the snake applying its belly to the prey instead the sides of its body. Some of the photographs, like the one in the upper left, clearly show the python using its sides, while in others the belly is against the prey. The entire photo series appears to show the process at a later stage than my painting (the prey seems to have already been killed in the former), but hope remains that Kend's book cover may actually be somewhat accurate. _____________________ upper: SPECTACLED OWL (2009) acrylic 10" x 8" I was asked the other day about the veracity of the cover of my book, Rigor Vitae . The painting (above) shows a trio of African Softshell Turtles ( Trionyx triunguis ) startled from their perch atop the back of a Hippopotamus ( Hippopotamus amphibius ) that appears to be lurching in a threatening way towards an unknown target. So how representative of reality is this painting? I can best answer this question be retracing my thinking in its conception. The adjectives that spring to mind when I think of softshell turtles are: active, fast, graceful, and above all, intelligent (as turtles go). The species T. triunguis is one of the smartest of the bunch; observations in both wild and captive specimens have shown they can spend over half their waking time engaged in play behavior. Even though this consists of underwater, hunting-related exercises, the knowledge inspired me to approach the piece with an air of whimsy. In my work, I nearly always try to deal with truths of natural history, but different truths call for different approaches. More often than not, the approach is a direct sort of story-telling that's not difficult to understand. When I invent a situation I've never seen nor heard of, biological credibility is an important consideration. The initial idea of this painting, African Softshells basking on a Hippo, is just such a situation, and the placing of my protagonists on that platform was done with a clear conscience. Although they spend a great deal of time basking, I don't feel that this static activity defines softshells' essence well at all. The painting called for fury and for speed, so I set the whole thing in motion, in that instant of my initial basking concept's irrevocable replacement with an absent hippo and the turtles returned to their brisk native depths. Caught in midair, the main subject's placement strains the limits of credibility, especially considering the fact he'd be more likely to favor a quick downward slide. In placing him, I tried to find the highest conceivable point such a reptile could reach if all factors of friction and inertia could be favorably aligned. The entire composition is built around enforcing the painting's movement: the surface ripples, the Papyrus stems, the flock of St. Helena Waxbills, and a mysterious arc of water all cooperate in a scene theoretically possible, yet so unlikely as to disqualify it as an illustration of animal behavior. But is it a betrayal of my “natural history truth” objective? I answer with a firm “No.” Exaggerated, contrived and skewed, I could never create a painting containing more truth about African Softshells. Anthropomorphism is a present danger whenever engaging in such exaggeration. My rule of thumb is to take care when when comparing a non-human's behavior to my own, but when the situation is reversed to throw caution to the wind. Emotions and instincts are identical in some cases, analogous in the rest, and indulging instincts accords a certain satisfaction. In Call of the Monsoon (above), a Couch's Spadefoot ( Scaphiopus couchii ) rises from subterranean summertime torpor to feed and breed in the monsoon moisture. Again, the subject's position here is anatomically possible, yet not typical, even a bit exaggerated: a bit like a purring cat. The intent is to stretch the immediate truth a bit to express a greater truth than a photographic representation could, without falling into the mire of anthropomorphism. _____________________ upper: HIPPOPOTAMUS &amp;amp; NILE SOFTSHELL TURTLES (1995) acrylic 20" x 30" lower: CALL OF THE MONSOON--COUCH'S SPADEFOOT (1996) acrylic 18" x 12" WHO PUT THE "GATE" IN THE CLIMATEGATE? Memories of the Copenhagen climate summit have dissipated with the contrails of the jets carrying the delegates back home, but the public discourse continues. For now we put the important talk on hold in favor of a silly strawman: the debate over climatological data. Special thanks to my right-wing pals D, J and S for keeping me abreast of the latest articles, blog posts and email forwards making the case that the evidence showing a general anthropogenic warming of the earth over the past 50 years is a hoax, disingenuously cobbled together by various entities of bad intent. Over the past year, I've studied their arguments, and regret to report that it's pretty weak stuff, misunderstanding the research at best, but more often intentionally misrepresenting it to support the preconceived resolution that the earth's climate is not warming, and even if it was, it wasn't caused by humans, and even if it was, it would make things better, not worse. I have a few arguments with the major voices on the other side, too, and will voice those in future posts, but for now, let's ask how we can get past this argument and why we haven't yet. Any discussion of climate change has policy implications, and it's only natural for one's political desires to color one's sight. Also, climatology is a difficult science to understand, involving lots of sophisticated statistics, and understanding it takes some work. Most science is sort of like looking at a yard through a picket fence; you can get a fairly good idea of what's back there, but you have to make some assumptions about what you can't see, some of which will likely be wrong. Looking through a single gap will yield a false impression. It can be tempting to consider each gap, seeking the one that best represents your assumptions about the yard, but that's a sure recipe for self-delusion. Only by taking them all into consideration will you approach a true understanding. Last, the sad paucity of good science journalism makes it extremely hard for us layfolks to keep up. I keep waiting for Science or Nature or even the Journal of Applied Meteorology to turn up on the racks at the local Barnes &amp;amp; Noble, to no avail. Peer-reviewed science journals, like Medieval bibles, are not meant for proletariat eyes. As an example of mainstream science journalism at its worst, I offer a tidbit from last Sunday's Daily Mail , the UK's 2 nd most widely-read daily paper. It describes a BBC interview with Phil Jones, the director of the University of East Anglia's Climate Research Unit (CRU), the group whose emails were hacked and made public on the eve of the international climate summit in Copenhagen. For those interested in wading through them, the emails can be accessed here . The evidence in these emails has been heralded as a “smoking gun,” proving the following wrongdoing by CRU researchers: 1. Attempting to bar research conflicting with their own from peer-reviewed journals. 2. Hiding incriminating evidence. 3. Manipulating data showing a cooling trend to make that trend disappear. Without going into depth, I'll just say that #1 was clearly discussed, although there's no evidence any action was ever taken. The evidence for #2 looks fairly damning—exactly what was deleted and what, if any, rules were broken remains unclear, at least to me. Jones says it was done out of frustration with a deluge of FOI requests that were impeding the actual work of the laboratory. The evidence for #3 is extremely weak, and can be interpreted in many ways. Overall, “Climategate,” as it's been dubbed, falls far short of discrediting any of the CRU's work, much less climatology in general. I hope you can take the time to read the Daily Mail article along with the original interview it claims to describe. While the Daily Mail headline states that Dr. Jones “admits there has been no global warming since 1995,” what he clearly says is that the data for that period are insufficient to make statistical sense of. Imagine a white wall with three small chips in its paint. Two chips show blue paint underneath, one shows red paint. Your data suggest that more of the wall is blue than red, but you have no idea what the true ratio is. This is the climatologist's dilemma. The CRU data appear to suggest a small warming trend from 1995 to the present and a small cooling trend from 2002 to the present, but they have no idea what color that wall is. (Data from other groups, such as the Goddard Institute for Space Studies , show slightly higher temperatures, but are still statistically insignificant when isolated). The Daily Mail article also misrepresents Jones' statements about the “Medieval Warming Period” as well as incorrectly suggesting that the CRU's surface temperature data were used to assemble the paleoclimatic model represented in the famous IPCC “hockey-stick graph.” It's hard to attribute the libelous errors in this article to a writer's inability to understand his subject. This isn't journalism, it isn't opinion. It's propaganda intended not to enlighten but to deceive. It's disheartening to see more and more of this from mainstream news organizations, and to realize that more eyes will read the bogus Daily Mail story than the interview it misrepresents. Climatologists simply try to understand the systems they study; it's plain to see from which side the real climatology hoax is perpetrated. _____________________ illustration: LESSER FLAMINGOS (2005) oil on canvas 72" x 96" At a party a couple of weeks back, I got into a discussion with an “evolution skeptic,” who trotted out that aggravating old line that evolution was only a “theory.” He, it seemed, was holding out for the day that the theory would be passed into “law.” This inspired me to offer a humble birthday present to good old Charles Darwin on his 201 st birthday: A very quick, very unsophisticated primer on the difference between theory and a law. A law is basically an observation of nature, and a theory explains an observation. Newton's Law of Universal Gravitation described the force of gravity, and his Theory of Gravitation, which has largely been superseded by Einsteins Theory of General Relativity, attempted to explain it. In this manner, the Law of Evolution could be stated that organisms change morphologically over time. Darwin's Theory of Mutation and Natural Selection explains the mechanics of that change. Theories don't become laws, they modify them. Class dismissed. Illustrating this post is a new painting of a Red-bellied Paradise Kingfisher ( Tanysiptera nympha ), one of six members of a New Guinean complex of streamer-tailed forest birds. It was in this region that Alfred Russell Wallace saw such simple island speciation and began to understand how it worked, just as speciation on the Galapagos awakened Darwin to the same ideas. _____________________ illustration: RED-BELLIED PARADISE KINGFISHER (2010) acrylic on clay board 10" x 8" </t>
+  </si>
+  <si>
+    <t>According to the calendar, winter is officially upon us. It began last week and will be with us for the next three months – Ugh! The arrival of Ole Man Winter is a bitter/sweet for me; more bitter than sweet. While I appreciate the beauty of a fresh, crisp snowfall, I do not welcome the cold. As I sit here by the fire, typing this blog, the snow is falling outside of my windows. It began a short while ago. The large flakes have already created a white blanket completely covering the ground and the trees are outlined with snow on every branch. It is absolutely gorgeous! It is picture perfect scenery that I will enjoy for about two weeks. Then I want it to be warm again. The winter season confines me and limits my activities more than any other time of the year. It is the season that reminds me of the things I cannot do rather than the things I can do. Arthritis alone limits mobility, making every task a challenge. But when joint replacements, fusions and reconstructed limbs are factored in, the challenges increase. Having limited range of motion, decreased strength and the need for adaptive equipment makes the equation even more complicated. Then add icy, slippery conditions, and the combination becomes high risk.</t>
+  </si>
+  <si>
+    <t>"bodhai"-(I shall not dwell into the details of how this name came about, right now) is a very down to earth guy...very intersting person to talk to...that is if u can understand him and if he is able to hear u properly ;-).good cricketer and a good friend...sometimes mokkai but has a good sense of humour otherwise...is a great fan of tamil film comedy(like me),goundamani especially.on the whole; a jovial,happy-go-lucky and cheerful guy(er..i forgot the other things he told me to write ;))....three cheers for our friendship machi!
+p.s.-it was during our class tour, one night he came to to one of our rooms in the middle of the night and started balbbering something like a drug addict...hence the name "bodhai"</t>
+  </si>
+  <si>
+    <t>reat post! Another disease with the heterozygote advantage is Cystic Fibrosis. It is a disease that infects the lungs, causing large amounts of sticky mucus to build up in the pancreas as well. In the lungs it can block airways and make it difficult to breathe. If the pancreas is infected the digestive track can be clogged and digestion stopped. Although people with cystic fibrosis have a shorter life expectancy than normal, as treatments improve the life expectancy is rising. Also the earlier you get treatment the longer you will live. Symptoms of cystic fibrosis is salty tasting skin, wheezing, coughing, and short breath, excessive appetite but little weight gain. You can be tested from a sweat test or prenatal screening, or newborn screening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The other aspect is of course personal but with my wife and I both doing reiki, this makes for some interesting dinner conversations. I must say that our relationship over the same cycle as my improvements in general mood has also improved. I guess a good way to put it is that we feel more kindrid. yes that's it. Laughing and doing as we please. That's a good thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, it's 2010. A new year, and a new start most would say! But is that actually the way it goes? Not often! My Christmas was quite good, I spent it at home with the family as mentioned in my previous blog. It was nice enough, only a small amount of us. The younger siblings got what they wanted, and I got some small but pleasant enough things also :) I didn't do much to celebrate new year. I've never been one to go out and spend £40 or so on drinking myself into a stupor, to celebrate the coming of a new number on a calendar etc..Why do people feel the need to celebrate new years? What exactly are we celebrating? The coming of a good year? How do we know it'll be good!? I've never understood it. I'd rather celebrate at the end of the year, to how good/bad the year just ending was. That makes more sense in my book. So this year was just a quiet one, sat in watching the fireworks in London on the TV. Do I have any New Year's resolutions I hear you ask? No! Well, that is a lie to some extent. I have no *new* New Year's resolutions. Over the past few years I've said the same every midnight of the last night of December.
+"This year I vow to lose some more weight, eat healthier and be happier"
+I think it's fair to say that this year, I intend to do the same all over again! 
+When I look back at 2009, I half cringe, and half grin. I was a little lost at the beginning of 2009; I didn't know what I wanted, where I wanted to be, who I was. My life started to take shape by the end of the year, I made some *genuine* friends who cared more about life than drinking, I got close to some very special people, and I changed as a person, which I'm happy about. What more could I say I want from 2010 than to develop on this? Whether it's to do with my new found changes in myself, or just a growing maturity that's hit lately, I'm starting to notice the little things in life a lot more than I ever have before. Today I was walking to my house, the ground was white from where the snow had landed, and I noticed the crunching noise that you get under your feet from walking on snow. This evening I cooked myself an unbelievably nice tea, consisting of salmon, new potato's and veg, and I noticed how healthy the food tasted, how it lacked that horrible fatty lethargic feeling that's left behind after your average pie and chips. If there is anything I want from 2010, it's to have a bigger appreciation for the little things in life, for the people around me, and for what I have. That's my 2010 resolution.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfectly timed for the week President Barack Obama is pushing the House to vote on ObamaCare, on tonight’s (Tuesday) episode of CBS’s The Good Wife, set at a Chicago law firm, the lawyers “battle a health insurance company that refuses to pay for urgent in-utero surgery.” The CBS.com plug for the March 16 episode: “In an emergency courtroom set up in a hospital, Alicia and Will battle Patti Nyholm and an insurance company that refuses to pay for life-saving in-utero surgery.”
+The last time I critiqued The Good Wife (“CBS Drama Showcases Blank Book that Mocks Palin as Empty-Headed Dunce”), NewsReal blog’s David Forsmark contended the program “is both politically and (more importantly) dramatically complex” and deserves credit for showcasing liberal hypocrisy.
+So, I’ll hold out hope this episode will deliver more than just simplistic vilification of an insurance company and might, given the plot involves “in-utero surgery,” also forward pro-life perspectives. Watch and see.
+Read more: http://newsbusters.org/blogs/brent-baker/2010/03/16/prime-time-cbs-drama-target-health-insurance-company#ixzz0iPO585aO
+</t>
+  </si>
+  <si>
+    <t>Unfortunately, the only real relief is anti-inflammatory meds, keeping it elevated and......rest. Anything to keep the wrist from bending too much and putting strain on those soft tissues is beneficial such as a wrist brace. At one point, mine was so bad that I could not hang onto a drinking glass...my hand would just "let go". I did eventually have surgery and it was the best thing I could have done as I was on the verge of nerve damage from all the years with cts. And yes, yard work made it much worse, especially the string trimmer. I also know that being overweight causes the pain/discomfort to increase.</t>
+  </si>
+  <si>
+    <t>Men and women who have excess fat deposits and loose skin in their abdomen and who find it difficult to lose the excess fat through pills, exercise and dieting opt for abdominoplasty. Women who have had multiple pregnancies and stretched abdominal muscles and skin and are unable to return to their original shape can also choose abdominoplasty.Women planning to become pregnant should not go for abdominoplasty, as the muscles in the abdomen would expand during pregnancy. People who have had any type of abdominal surgery should not opt for abdominoplasty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEFFI-My sweetheart my best friend a person whom i have never met but still feel gotta have some karmic connection with her......I met her in Nagercoil community n we both hit off from day one itself...cos i was her saviour he he he.....jokes apart....never met her just talked wit her on the phone...a very very very sweet cute lovable bubbly girl who enjoys n lives her life to the fullest.....hanging out with friends is her favourite hobby(her photos itself speak)...studies a lot thats y she is now in USA...loves her USA chitthi n .... a lot(u only fill up the ... da he he he)...I shld really thank orkut for giving me such a good friend like steffi who even though miles apart has always been supportive n encouraging...A very lively girl with a constant smile on her face....her scraps n msgs in orkut itself gives me the feeling she is always smiling..she has a heart of gold/silver/diamond dese have prices but ur heart is priceless...contd.... </t>
+  </si>
+  <si>
+    <t>I have had the honor to smell the trash bins first hand. Let me ensure you it is a pleasant way to jumpstart one’s morning. Yes we should all have the great pleasure in taking out our garbage in the morning, like good little tenants trying to stave off small vermin and cockroaches, and get hit with a wall of putrid tang nastiness. Yes we should all have that pleasure. Further, I have previously matched the stench of the rubbish bin's odoriferous emanations to the ones festering behind your own kitchen door. Though I am not a creature with specially-honed olfactory cells, I ensure you that the special brand of stench you create is unmistakable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really hope that I start to feel better in month 4. Everyone keeps telling me I'll start feeling better soon. Please?! Let it be true! Right now I am so excited that I am going to have a child, but I've hated being pregnant. So I'm really hoping that the 2nd and 3rd trimester will be easier to love being pregnant. I am excited for my baby bump! I want it now :)I started my 'Belly Book' last week and I'm excited to see how this baby grows! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the basic tenets of the Tao of McGriff... Be consistent. Example: Fred McGriff performed in post-season play the same way he did during the regular season: consistently well. Or, I consistently get my hopes up, only for it to result in heartbreak. Staying up late to watch the Red Sox crush the will of the Anaheim of Los Angeles of Interstate 5 of California Angels has given me ample time to contemplate Vlad Guerrero and the importance of post-season performance in the eyes of Hall of Fame voters. For all that has been said about Guerrero's post-season drought, I am completely convinced that, when he is first eligible for the Hall of Fame, he will be elected with one of the highest vote percentages in recent memory. I'm thinking in the neighborhood of 92-94% on the first ballot. I'm not entirely convinced that post-season exploits should weigh that much in the mind of the voter. Sure, it will help McGriff's case that his career postseason batting average is over .300 and he's socked 10 post-season home runs. Post-season success will also help someone like Curt Schilling. His performance with the Diamondbacks in 2001 and with the Red Sox in 2004 and 2007 will bolster his resume in the eyes of the HOF voters. But really if there's anything that should push Schilling into the Hall, it's his character; his playing through pain in clutch situations. I, for one, don't think I could walk around with a tendon stapled to my ankle, let alone pitch. (Well, I guess I could if I was allowed to bring a folding chair to the mound and pitch to Little Leaguers. And I was high on morphine.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> woke up in a bit of a grumpy mood this morning. I think because I had an absolute craptastic nights sleep due to excessive worrying and stressing over a friend in trouble at the moment, money issues, an ex that’s upset me and various other things that seem to nag and niggle at my brain when I lye down to try and sleep. It’s frustrating how at the very time you want to be relaxing, all these things start running around in your head and causing chaos. I think if anyone could actually read my thoughts they would get exhausted just listening in, I know I do. 
+Isn’t it bizarre how you can be lying there doing absolutely nothing however the over thinking and analyzing leaves you feeling utterly exhausted. I’ve always been a bit of a worrier if I’m honest with myself, because I tend to care way too much about everyone and everything that is going on. Most of the time though it doesn’t effect my sleep because I make myself daydream about wonderful things which then blocks out the stress and lulls me to sleep. Lately that hasn’t been working and I’m kind of at a loss of what to do.  Last night I read for three hours straight until I finally drifted off to sleep.  If anyone has some ideas on how to help do let me know.
+But anyways, on a happier note I’m really enjoying blogging. According to myspace my blog has had 70 views this week. That’s kind of cool. Pity there hasn’t been much of the way of comments because I would really love to get feed back from who ever is reading it, and from fellow lovers of all things creative. But then again I’m doing this for me, not for anyone else so either way I’m happy, it’s just a lot of fun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a fan of Elvis Presley. It's the fact that he was a bit of an ass, that he was a drug addict at the end, that he had three TV's, that he had a Jungle Room at Graceland, that he laughed and talked during live recordings, that he was fond of ridiculous jumpsuits and that his album cover art was so darn cool. I'm not talking about the original "Elvis Presley" self-titled album with the rock-a-billy photo and the green and pink text overlay that The Clash ripped off and seems an odd-yet-completely-legitimate choice of inspiration for the design of the 1984 Topps set. That album cover deserves its own, separate dissertation. I'm talking about the gold lamé army of Elvii raining down on the cover of "50,000,000 Elvis Fans Can't Be Wrong." I'm not sure that's even the name of the album, come to think of it. Doesn't matter. The point I'm trying to make is that if you squint real hard at the American League All-Star stickers that I'm finding at an alarmingly common rate, all decked out in their gold foil, if you try real hard, you can almost see Elvis smiling back. Key word there is "almost." I guess what I'm trying to say is that I'm as giddy as a schoolgirl after opening 10 packs of stickers and not finding a single double. Let that sink in. Ten packs of five stickers each and no doubles. I completed nearly 20% of the set in one fell swoop. Unheard of. Unbelievable. Especially in this box, this treacherous box of Dusty Bakers and Hosken Powells, Al Olivers and Chet Lemons. Here they are, in all their glory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a small little story about an outlandish girl named Victoria and a cheerleader named Kimiko. Even though they are different, they love each other. Read on about this little exert from their lives.
+Victoria stops her car at the top of the mountain on the ledge with the wooden fence at the end. She steps out of her old, beaten up, black Mustang and sits on the hood. Victoria stretches out her legs and lays back against the windshield.
+Kimiko very gracefully steps out of the passenger seat and sits on the edge of the hood of the car. “There’s a party at Jimmy’s place later. Maybe we can stop by?”
+“Why, Kimi? So all your Hollister addicted friends can ridicule me when we show up?”
+“You know, they don’t really hate you like you think they do.”
+“I don’t care.”
+Kimiko sighs. “I know.” Victoria reaches into the pocket of her black skinny jeans and pulls out a pack of cigarettes. She takes one of the white sticks and rests it in her mouth. She lights the tip and breaths in. “I wish you wouldn’t smoke. I hate that habit.”
+“What the hell are you saying? Aren’t you aware that basically all your friends at the party you want to go to smoke weed.”
+“Oh,” she adjusts her bra strap through her long-sleeved, pink, Abercrombie shirt and runs her fingers through her long, golden hair, “I never thought of that.”
+“Oh, what a surprise.” Kimiko looks down at the ground and kicks a rock. Victoria notices the change in mood. “I-I’m sorry, that was uncalled for.” She throws the cigarette on the dirt next to the car. “Come on, sit next to me,” Victoria pats the metal hood to the left of her.
+Kimiko smiles and sits next to Victoria. “You like my skirt?” she straightens out her light blue mini-skirt.
+“Surprisingly, yes. On anyone else, it would look horrible. You just make everything look good.” She straightens out her Johnny The Homicidal Maniac t-shirt.
+“You look good, too.”
+“You’re just saying that.” She scratches her head.
+“I’m not. You don’t really like compliments, so I would only say it if I really meant it.”
+“Heh. Thanks.” She puts her arm around Kimiko and they stare into the sky. “I love this spot. What about you, Kimi?”
+“It’s good.”
+“Good? Just good? This spots amazing, especially at night. Where the sky is bright with the stars and moon and we get to look down on the lights of the pathetic little city below.”
+“I’ve never viewed it that way.”
+“Yeah. No one’s seen it that way, especially your friends.”
+“Why do you hate them so much?”
+“They’ve treated me horrible since I’ve known them.”
+“I apologize for them.”
+“I wish that meant something.”
+Kimiko leans over and kisses Victoria on the lips. “I love you.”
+“I love you, too.”
+“Why do you love me? You hate my friends, my cloths, the fact that I’m a cheerleader, and just basically everything I represent. So, why do you love me?”
+“I don’t know. When I found out there was another lesbian in this town, I had to meet her. At first I really hated you just because of what you described. But, I kept talking to you and realized you were better than I thought and I really liked you. I’m really happy you aren’t like everyone else. On that note, why do you like me?”
+“You’re really cute and you’re really nice. Like, you don’t look like you’d be nice. But, you’re amazingly sweet. It was really surprising. No offense.”
+“Heh. None taken.” Victoria hugs Kimiko and holds her in her arms. “I really love you, Kimi.”
+“I love you, too.”
+A couple minutes of silence later, Victoria pats Kimiko on the back. “Come on, lets go.” She hops off the hood of the car.
+“What?” She follows.
+“It’s getting late. We should get going.”
+“Where are we going? To your place?”
+“Nah. You wanted to go to that party right? We’ll just go there. You’d be happy to see your friends.” She sits in the drivers seat.
+“But, you’d be miserable.” She opens the car door and gets in.
+“But, you’d be happy. And, that means more to me.” She turns the key and starts the car.
+“I’d rather go to your house. I’d have more fun there.” She fastens her seatbelt.
+“Alright. Let’s go there.”
+They drive back </t>
+  </si>
+  <si>
+    <t>To Nine.
+Thursday, 11 March 2010
+It is three minutes to nine. Soon the pendulum will strike true west, and mark another hour washed into the abyss of lost time condemned to eternal waste. Still I sit here active in inaction; pondering over my seventeen inch prison bars taunting me with meaningless pixilation of lights.
+Three minutes past nine. Six wasted minutes over three pointless sentences. Inspiration still hid behind the inexorable walls of Hadrian. The light of words-smiting lost behind barbarity of procrastination.
+Six minutes past nine. I wonder about the curious day past. Predicate, Delegate; I am drowning in my own world of algorithmic hypnotism.
+Tab, Tab, Enter, Type, Tab, Enter, Type, Tab, F5, Tab, Tab, Tab, Crash; eighteen minutes past nine and I am writing absolute nonsense.
+Posted by Takaloy at 22:19 2 comments
+Labels: Random
+Tuesday, 9 March 2010
+sanubari dimimpi tanpa haluan,
+udah mengenang derita di hati,
+riwayat rintis kehilang tujuan,
+merintik irama yang sudah mati.
+Posted by Takaloy at 23:07 0 comments
+Labels: Poetry
+The rose
+Monday, 8 March 2010
+beautiful beyond words and expression, but all I see is thorns.
+Posted by Takaloy at 22:07 0 comments
+Perhaps
+Saturday, 6 March 2010
+Spring might just be around the corner.
+Posted by Takaloy at 18:01 0 comments
+and lost again
+Monday, 22 February 2010
+"why do pride forever stop us taking words back,
+why do we still chain ourselves to begone past?"</t>
+  </si>
+  <si>
+    <t>So far, like this year's basketball tournament, we've had our share of upsets.  For those of you who don't follow basketball, although the upsets are usually the BEST PART of the tournament, the first round of both March Madness and Fug Madness are designed so that the number one seeds (in basketball, these are the best teams; at GFY, it's most fugly celebs) have an easy couple of games and don't meet their biggest competition until later on, with the hope that the FINAL game will pit the two very best (fugliest) in one final head-to-head. That's why someone like Mischa gets someone like Camilla Belle in her first game. It's almost like a gimme for the one seed...but sometimes, the underdog comes from behind and when that happens, it's AWESOME.  What will today bring? We'll soon find out. But until then, a brief teaser for the Fug Match-Ups you'll see on Monday: Well, this ought to be interesting: the wackily-attired socialite versus the barely-attired "actress." Place your bets now, but I think this one could go down to the wire. In the first round, Fab blew through Carrie Underwood like she was the favorite and not Carrie -- we like that kind of confidence from a bizarrely-garbed random -- and Pammy spanked Drew Barrymore, despite the fact that Drew looked like a lunatic most of next year, what with the heinous leggings and the two-tone hair. What happens when two spoilers go up against each other? We're about to find out. I'm super excited to see how this one shakes out. Both ladies handily dispatched their round one opponents -- Rumer Willis and Nicole Kidman, respectively. Both are musicians prone to wearing SUPER CRAZY costumes and neither has ever met a headdress she didn't immediately put on and wear out. Could Juliette take down Katy? Stranger things have happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like everything else, I could be weeks, months, or possibly even years late on this. Well, probably not years, because as far as I can tell, this is something new for 2008. I'm referring to a new promotion Topps is going to roll out for their football products in 2008, called Topps Player Collection. The gist of it is that the 30 best players will be found on the same checklist numbers in every Topps NFL set for 2008. It's an interesting idea, and you have to think that if it tests positive with dealers and collectors, something like this will end up as the practice for other sports. The problem I see with it carrying over to other sports is that it throws off the meritocratic checklisting system Topps baseball really just put back into circulation. Let's say Albert Pujols is #500 in 2009 Topps. Does this mean that every Topps baseball set will have at least 500 cards? Or is it much more likely that cards #1 through #30 are super stars? Also, here's a great piece by Tyler Kepner in today's New York Times about major leaguers and their fantasy football teams. </t>
+  </si>
+  <si>
+    <t>WrE To StArT hmmm...Ashmi i CaMe tO KnW HEr fRm Ma sChOoL(11th std) ShEz mY BeSt bEsT FrnD n ThOse DaYz..I UsEd To cALl hEr aS AsH...lolz..SuMtImEs sHe wIlL B LaZy Oh My GoD ShE UsEd tO Tk loTz Of LEaVe(MoSt f d tImES d ReAsOn wIlL B FeVeR loLZZ)bUt i hOpE DiZ LaZy gAl hAs cHnGd a lOt..ShE UsEd tO ShArE EvRyThNg wIt mE ShE WaS DeR wIt mE EvN n mA ToUgH tImEs...V HaD LoTz oF FuN dUrInG ThOSe daYzi sTiLl rMbR v bOtH UsEd tO StUdY ToGTHr fR PhYsics TuTiOn wRiTiNg pRaCtIsE sHe hAtE BiOlOgY OnLy fOr physics tUTiOn sHe wIlL SiT Nd sTuDy..DaTz wAs sUcH a MeMoRaBlE DaYz i StIlL CaNt 4gT aLl tHOsE DaYz...DiZ IdIoT SaId dAt sHe wIlL B In tOuCh aFt sChOoLING bUt ShE DiD EvN TuRn uP To cAlL Me...I wAs sEaRcHiNg HeR fOr A LoNg TiMe BuT AfT 4Yrs I fOuNd hEr tHrOuGh oRkUt..im rEaLlY hAPpY daT i GoT u bCk AgaIn..My sPeCiAl tHnKz tO orKuT...Nd ThNkZ Ma deAr AsH DaT u StIlL RmBr ME....yU KnW I mIsSeD Yu A LOt...</t>
+  </si>
+  <si>
+    <t>Senator John Barrasso M.D. (R-WY), ranking member of the Subcommittee on Oversight in the Senate Environment and Public Works Committee, recently released a report [PDF]on the subcommittee’s work in the first year of the Obama Administration. The report has less to it than might be imagined — in the first year, the subcommittee has failed to meet or to hold a single hearing of its own. “There were exactly two hearings in 2009,” Barrasso said, “a joint hearing with the full committee on June 9th, and a joint hearing with the Subcommittee on Water and Wildlife on July 8th.”
+The subcommittee was chartered by Senator Barbara Boxer (D-CA), chair of the Environment and Public Works Committee, to perform oversight on the science involved with environmental issues. “Senator Boxer wanted the subcommittee to perform oversight on the Bush Administration, not the current administration,” Senator Barrasso said.  “We have made repeated requests to the chairman of the subcommittee [Senator Sheldon Whitehouse (D-RI)] to hold hearings [in the past year] but no hearings have been held. It has been a lost year for science oversight in the Senate.”
+“There have been plenty of reasons to hold hearings,” Barrasso said. “For example, in April 2009, Shawn McGibbon, a career attorney with Small Business Administration, wrote part of a memo saying the EPA had not considered the economic consequences of an Endangerment Finding for carbon dioxide.” When the memo became known, McGibbons was “smeared as a ‘Bush holdover’” even though she was hired during the Clinton Administration. Later, McGibbons was replaced by President Obama.
+In another incident, Dr. Alan Carlin, a 39-year veteran of the EPA, prepared a report skeptical of the real human impact on the climate.  Carlin (who has since written several articles for Pajamas Media) was instructed not to disseminate the report and, as Kim Strassel reported in the Wall Street Journal, was denounced by “unnamed EPA officials” as a “climate change denier.” Dr. Carlin eventually left the EPA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleague baseball was first proposed in the 1930s. It took some 60 years for the first game to be played. What took so long? The answer lies in the traditionalist heart. The first Interleague game was in 1997, and was the brainchild of the owners to boost attendance and revenue. And although it gives us fans an opportunity to see players we wouldn't normally get to see, I'm going to go on record as saying I don't love Interleague games. Maybe I'm not a fan because I'm bitter that the American League dominates. Last year, the AL enjoyed a combined 149-103 edge. Boo! Or maybe I feel it takes away from the uniqueness of the All-Star Game or, more importantly, the drama of the World Series. Or maybe it is just a combination of all of it. I was reading Mark Newman's article on MLB.com today and learned that Interleague attendance just keeps growing. Mark states, "Total Interleague attendance has risen every year from 2002-08, going from 7,741,496 over 249 dates in 2002 to a little shy of one full ballpark under 9 million in 2008." Also in this article, Bud Selig is quoted as saying, "As long as I'm here, we will have Interleague Play. I love it." (Hmmm. My other least favorite thing in baseball -- home field advantage in the World Series based on the All-Star Game winner -- was introduced by Selig, too. Hmmm. But I digress.) Baseball attendance is down four percent this year, in my opinion, due to the economy. Baseball officials disagree, claiming that attendance is down due to the fact that the new Yankee Stadium and Citi Field each have 15,000 fewer seats. Whatever the reason, it will be interesting to see if the attendance for the scheduled Interleague games this season continues, on trend, to grow, or if Interleague attendance also declines. If regular season Interleague baseball is here to stay, there is something that has been proposed numerous times before by players, sports journalists and fans that I really think would make Interleague games more interesting. Play by the visiting team's league rules. For instance, if you are playing in a National League park against an American League team, use the designated hitter rule so that fans who don't normally get to see the other league's style of ball in their stadium get to see it first-hand. Just an idea. What are your thoughts on Interleague Play? Peace, Love, And Baseball, Alyssa </t>
+  </si>
+  <si>
+    <t>A real sport..but beware..she will give back as much as what she takes...she has this intimidating aura about her..in TV rating terms..she is strictly not for the weak hearted..but once you get to know her from close quarters,she is so down to earth..she is well conversant with high quality English as well as petta baashai..I have never seen her turn sentimental.. even if someone tries to ..she just laughs it off..of late she has become one of my most trusted friend, philosopher,guide,confidant all rolled into one..( I bet she will giggle even for this)...she is someone whom I instinctively message or call when I am feeling low..she can really life your spirits up in no time.. has a good dressing sense..presents herself aptly..she is BOLD,BEAUTIFUL,CONFIDENT,TOUGH and different from most people that I have met.. she is an enigma.. hate her or love her.. you just can't ignore her..all the best KAVYA RAJAPPA.. and KEEP FIGHTING!:)</t>
+  </si>
+  <si>
+    <t>Yesterday, I cleaned up Joyce Road , so today I cleaned my street ( Campbell) because it was full of trash and it was very awful and gross. I thought it is time for me to get up and clean up this street before it gets worse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arona It is still Winter here.Lake front, Arona ...where a 19th century prizewinning biscuit factory had to give way to modern equipped production facilities.City of Varese War Memorial Pallanza Verbania ...punctually on his bikeArona Arona Arona The building of the Simplon road&amp;nbsp;was ordered by&amp;nbsp;Napoleon Bonaparte on the 7th September 1800. The road starts at the Arch of Peace (Arco della Pace) in the City of Milan and ends at the Arc de Triomphe in&amp;nbsp;Paris. The road passes along the Piedmont side of Lake Maggiore - right through Arona - over the Simplon Pass into Switzerland and France.Belgirate, Lake Maggiore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I went shopping today for my diet food, and I was pleasantly surprised to find a huge selection of food that are not only low in calories and carbs, but that also actually taste good! I loaded up on plenty of fruit and the fruit bars that Special-K makes....They are super good! Between eating right (the biggest problem is cutting out all the Coke I drink!) and doing my two miles a day on the treadmill, I should be bikini/tattoo ready for Orlando! I'm one of those lucky woman that not only had seven kids who were all very large at birth, but I don't have one stretch mark on me....So I get the tummy flat and I'll look good in that two piece this June:)
+Mark is dieting with me, so it's making it so much easier. We ate salads for dinner last night, but tonight I think I'll try us out on some fresh fish and veggies, along with some Skinny Cow ice-cream treats for dessert. I think we can handle that:)
+OKay people, meet me back here in June and I'll show off my new body! I'm excited! I think this is going to be a great Summer.
+</t>
+  </si>
+  <si>
+    <t>Alright. In order to finally complete my application, I tried another photo on istockphoto.com. This time it's from the food and beverage category. Which is a wanted category of photographs as described in their tutorial or Photo Training Manual. If that pic doesn't fly, I guess I need new camera equipment. As you probably guessed by now, my approach to istockphoto is this. "Dude, you take thousands and thousands of photos every year, there must be some stock-worthy stuff in there."</t>
+  </si>
+  <si>
+    <t>Its been a lot of fun out here the past few days. I've had around 30 knots, I'm headed almost right for Cape Horn, and I'm going fast!! Yesterday I got up to 16.6 knots! Today has been a little lighter but not much. Though doing any work is pretty difficult and it had been gray and rainy, I'm really enjoying everything out here.
+I've got seas of about 15 feet, not that huge, but they definitely make for a bumpy ride! The cushion on my nav station seat keeps sliding under the desk everytime a big wave comes. Its making writing this a little difficult, typing a few sentences in between sliding under the desk.... I'll have to rig up something to hold it in place.
+I was informed by a friend the other day that its spring break, so I decided that its about time I pulled out the school books. That lasted for a good half hour, then I decided that I shouldn't over do it on the first day, climbed into all my foul weather gear and spent the next few hours up on deck. I love being outside weather its flat clam or rough. Its my favorite thing to do whether I'm working on something out there or just sitting on deck watching water rush under Wild Eyes. Even on the worst of days, when you're not feeling so great about being in the middle of the ocean all by your self, there is something about being up on deck that makes any sad or lonely thoughts disappear almost immediately.
+Yesterday I went out to try and get some good pictures for the blog. I ended up spending a good hour out there, getting soaked, and not getting one picture that showed what its really like out here right now. Pictures are great and do show what things are like out here better than I could ever describe them, but they still don't seem show it as it really is.
+Its about 70 degrees out right now!! Better go find my jacket!</t>
+  </si>
+  <si>
+    <t>Maddy is an ideal friend. He is a kind of a person which makes him comfortable with any person. Probably i like him a lot because he reminds me of myself when i was in school. He is very sincere,work-oriented,dedicated..... I still wonder if he will change like the way i did?? He can be tentative at times But thats jus quasi state.... We have had like a thousand and more discussions on philosophy,life etc. It is always fun to talk to him. He is very good listener submissive but not too passive to the extent of being boring. 
+he is very positive, driven and looks to improve constantly. But wen you find him in a group on a happy occasion you can see a different person in him. He is all out going and talkative. He should hav been my project mate!! After all the talk that started atleast eight months before :( However i always gets to be his friend. :)
+Show me your friend i will tell about you na... i will probably pick him !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well the flights are booked, the hotel is booked, the new poster is ready and all the visa waivers etc are in place. Montana here I come!
+Of course this means that the pile of work that needs to be done before I go is looking incredibly large and is marked with URGENT!!! It's a flippin' good job that I work well under pressure. I'm getting there with my dissertation though, and the reading at least looks interesting.
+In some ways I can't believe my time as an undergrad is almost over, three years has gone so fast. But also, now I think I'm ready for it to be finished. I've got my PhD research idea niggling away at me and I'm eager to get started. I'll be sad to leave UCLan and the friends I've made there, but I'm looking forward to a new beginning.
+In the meantime, I still have a couple of adventures left to share with the gang. Montana being the first! :D </t>
+  </si>
+  <si>
+    <t>I'm a web developer from Lincoln, NE. I kind of fell into programming, working with a friend in the mid 90's, trying to figure out what this internet thing was all about.&lt;br&gt;&lt;br&gt;		In college I was an economics major, a subject that is still of great interest to me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> because you can never have too much yarn porn. january 1, i started a 365 photo-a-day project. and, in consultation with many of your good selves, i created a&amp;nbsp; flickr group &amp;nbsp;to support it and for us to have a place to share our photos and give feedback to one another, with the idea of improving our photography. in the initial, heady days of january, it was so much fun! it seemed like the year would fly by and the inspiration would continue to flow like a fountain. all these people who knew one another from the blogosphere and a few new ones joined in and we became friends. and everyone learned and made explore and was happy. then february struck. most of those in the group live in the northern hemisphere, so it was the darkest, coldest, most dreary part of the winter and it was hard. now it's march and spring is taking its sweet time in coming, at least where i live. there are days when i look outside at the aging snowbanks and the bare trees and i think, "i can't possibly take a &amp;nbsp;picture of anything worthwhile today." but then i take a wander around the house or i look at the photos the others in the group have taken and i feel inspired by something someone else photographed, and i get through it. because i promised myself i would. and my promises to myself have to mean something. and you reach a point where you keep doing it BECAUSE it's hard and because doing things that are hard can be good for you, and because it makes you buy fresh flowers on a regular basis. my reasons for doing this have already changed in the 75 days it's been running. at the beginning, if i'm &amp;nbsp;honest, i wanted to show off my ability to take breathtaking pictures and develop more consistency in that. now, i realize that such a project is more about documenting what's going on in my life. and i admit that it's most decidedly not breathtaking on a daily basis. some days, i use my iPhone (thank goodness i've got&amp;nbsp; hipstamatic and camerabag and other apps to make that more interesting). when the weather gets good, i'm going to use some of my film cameras (they're best at outdoor photos). i realized that a profound macro of the inside of my cat's ear doesn't actually help me document my life on a daily basis, so i've worked at pushing myself away from those and towards things that will help me remember what was going on and what was important to me at a particular moment in time. i think ultimately i'll find that this project is about memory for me. the other reason i did this was to be more mindful of the world around me. to notice things. to see differently. last year at about this time, i got on a total eyeball kick , which i later realized was about my wanting to SEE differently. having to take a photo every day makes me look differently at the world. i'll admit it's hard for me not to see the current exodus from the group as a personal rejection of sorts, despite endless explanations to the contrary, but i'm trying. and until i can forget about it, that's all i can do.in the meantime, it makes me quite sad to see people give up and leave us, whatever their reasons. but although i'll admit it shakes my conviction, especially because it's people i love and respect, i remain committed. after all, i read recently about a guy who took a picture every single day from 1979 'til his death in 1997. now THAT's commitment. if you're not now totally put off the idea of taking a photo every day and you'd like to join us, please check out the blog camp 365 group on flickr. it's never too late to start! - - - and the picture at the top? what does it have to do with all of this? well, it was one of THOSE days, where i took what felt like 600 pictures of the new yarn that i'm going to use to make granny squares after kristina and ulrika teach me this coming weekend, and i wasn't pleased with how any of them turned out. but then, i played with them in lightroom and i think this one came out ok. a process that was good for me and which framboesa talks about very thoughtfully here . yesterday, in the flickr group, kristine had a shot of her passport and used it to tell the story of how she was soon moving on to her next assignment. i didn't have any idea what i was going to do for my photo, so i did one of those tribute shots , as they're called when you blatantly copy what someone did and give them credit. i located my old passport and my current one and, as can often be the case with these daily photos, took a little trip down memory lane. old on the left, current on the right my passports are fatter than your usual passport. and that's because both of them have had pages added to them. twice. you'll also notice that my old passport was green. it was my first one and i didn't know that most americans have a blue one. i was "lucky" and got the green one during a very small window when they issued ben franklin commemorative passports. it's actually thanks to benjamin franklin that we all have passports at all, as it was his idea. the unusual green passport caused me no end of grief when i was traveling a lot in the balkans in the late 90s. border guards constantly questioned its authenticity and one guard at the turkish-greek border actually said, "green passport, very bad, very bad," and made a slicing motion across his neck. i was quite alarmed, but the conversation stopped there as that was apparently the extent of his english and my turkish was nonexistent. i've survived to tell the tale, so i guess it wasn't really very bad. and i never did ever meet anyone else with a green one. as an american, you get stamped everywhere you go and you often need visas. the first passport filled up because the macedonian visa took a whole page every time and i had to have a new one if i popped down to thessaloniki for a weekend or up to belgrade for a coffee. it was early days after macedonia found themselves, rather to their surprise, with their own country, and it took them awhile to realize they could issue multiple-entry visas. i eventually got one of those, but not before they had used up ten pages of my passport. a number of countries - china and india come to mind - think nothing of taking up an entire page of your passport for the visa. and the visas are elaborately colorful and often feature shiny holograms. i guess they want you to feel you got your money's worth. on the bright side, they're usually good for a least six months, so you don't need a new one should you be sent those places again. &amp;nbsp;i did use up two whole pages on indian visas, as i had to go there frequently enough that one expired and i needed another. (audible sigh.) the bulk of my travel occurred during the bush administration and i clearly remember standing in lines at passport control, concealing my passport, as i felt a little sheepish about being american during those years. i happened to be in the philippines when obama was elected and i very clearly remember the sense of relief (tho' bush was still president) when i realized that i no longer had to hide my passport while i stood in line. on that occasion, people in line saw it and several actually smiled and gave me a thumbs up. with the incomprehensible debacle of health care reform (who would seriously not want to limit the influence of insurance companies on their personal health?) going on in the US right now, i'm not sure i wouldn't actually begin to conceal my passport again if i were queuing today. many of the pages are covered in stamps that say "københavn" because i get stamped every time i come back into the country if it's not from scandinavia or the schengen countries. it tapered off because eventually, i knew all of the guys at passport control and convinced them to not to stamp me every time. i've loved the travel opportunities i've had through my various jobs. the job i'm starting in april will not have so many travel opportunities, but i've been thinking about it and i'm really ok with that. looking at all of these stamps exhausts me a little bit. when i see the dates for the convoluted trip i took from copenhagen to singapore to heathrow to gatwick to budapest to constanza and back to copenhagen in one crazy week, it makes me tired. i hope companies today are using the possibilities afforded by electronic meeting software, rather than sending someone to give a 30 minute presentation in singapore on monday and the same one in romania on wednesday. i remember thinking it was all very exciting at the time (tho' having to switch from heathrow to gatwick was madness and an example of how bad the travel agent was). but today, i wouldn't even want to do it. and i would probably have the good sense to say no, but in those days (sounds like long ago, but it's not even three years ago), i actually quite liked it and of course, felt i had to do all of the things that were asked of me. these stamps document for me how far i've come not just literally, but metaphorically as well. i think i've learned to say no to such madness today. and i hope that one good thing to come out of economic crisis is that employees aren't asked to do trips like that these days, because companies think twice before spending 40,000 ($7,300) kroner on such a ticket. i'm going to lose my gold status on both SAS and KLM here in the next couple of months. and tho' there was a time, not so long ago, when that would have panicked me, i'm resting quite easily in the knowledge. the world is changing and times are changing and it's no longer environmentally defensible to pop over to london for lunch or take a private plane back from newcastle like we did in the mid-noughties. i loved those times and am grateful for all the places i've been, but i'm quite ready to stay a bit closer to home for awhile. and besides, taking the train down through europe is quite romantic. ~ i miss being in an academic environment. i miss the thrill of reading a really dense sentence and pulling meaning out of it that applies the world around me. i think it's why i used quotes from susan sontag's on photography on my 365 project photos during february . ~ husband looks like an entirely new person in his new glasses (must photograph him soon). but is it the glasses or his new job or our impending move giving him that glow? maybe it's all of it. ~ i learned that our new little samsung U10 HD flashcam can't really handle filming in the dimly-lit riding hall. ~ note: the flashcam doesn't violate the "not buying things in 2010" because i actually bought it back in december, but my sister only just sent it last week. ~ cleaning out the attic is like visiting a flea market and finding all kinds of treasures, only without spending any money. who knew we had all this cool stuff? ~ if you trip over a sweet little brass deer in the yard at a house you're contemplating, it's a sign, right? and if you accidentally take that little deer with you, it's not really stealing, right? since it was abandoned out in the yard at a house that stands empty? ~ one drawback of sunshine: it exposes just how much your windows need cleaning. ~ stieg larsson is sweden's answer to dan brown. only we won't be subjected to more of his hack writing since he died. but i'll admit that i like the characters of mikael blomqvist and lisbeth salander, so i (re)read on. sometimes, you just have to read trash. but arthur koestler's the ghost in the machine is next on my nightstand, so i shall redeem myself. ~ every day after husband and sabin leave, i think that i'll go back to bed, but i never do. and soon, i won't be able to, since i'll be headed off for work in an actual office myself. ~ sometimes i wonder if others can hear that ringing in my ears. ~ i packed marxism and theology books in the same box this weekend and wondered aloud if i would be going to hell for that (tho' thankfully i cannot, since i don't believe in hell and it's like santa claus, if you don't believe it in, it doesn't believe in you (thanks gwen )). husband's response: "god is more of a marxist than you think." and the more we discussed it, the more i think he's right, there is something of the new testament over the communist manifesto . i wish i'd written my dissertation on that. of course, i still could, since i haven't actually written it. yet. ~ i tucked all those little end bits of yarn into my scarf last night while watching hercule poirot (who is so gay, by the way, not that there's anything wrong with that). it was much easier than i thought it would be. now i hope i can figure out how to join the ends together when the time comes to do that. ~ i really wish i was on my way to the bookstore with trinsch &amp;nbsp;this morning. she's going to browse books on new media and then she gets to write about it. i'm so envious. it leaves me positively longing for academia. ~ i do love these little random thought downloads, they just completely clear my head and leave me feeling ready to face the week. pondering happiness quite a lot in the face of the excitement of moving to the other side of the country (which admittedly is like moving from one side of wisconsin to the other and not as big as it might sound). husband is like a little kid anticipating christmas. he actually fell asleep last night with a smile on his face. he's covering reams of paper with sketches of the possibilities for renovations. we're now betting on two horses, as it were, and have given an offer on a second place, since the dog sled transport to northern canada is apparently unreliable, or else the laid back realtor hasn't actually sent a dog sled or any thing else, as we've heard nothing regarding our first offer. not being ones to wait around, husband has now talked himself (and thereby both of us) into the second place being better anyway. and he's right, there are more possibilities for ripping out everything that's there and putting it back in as we would want it. now betting on this one as well. what's cool is that there's a lake on the property. and although the first thing it needs is a new roof, that does afford opportunities not afforded by the other place, which recently had a new roof, although the engineering calculations surrounding that new roof are openly suspect in several places. so i think husband is right, the second property is better for us anyway. but my point actually is that even just talking about all of this is making us so happy. leading me to think about what happiness is. it's an eternal question, isn't it? and we're eternally in search of happiness, tho' i'm not sure we always recognize it when we see it. for me, it's something different than contentment. contentment is a mild, tame form of happiness. a resting, easy thing. whereas, what i think makes us happy, makes us really tick, is having some enormous, seemingly impossible, daunting project on the horizon. i can definitely see that in husband. he's transformed and positively beaming at the prospect of this project. of course, it's also his new job that's transformed him - he was more than a little bored and frustrated at work and just going through the motions. he's looking forward to his new job, but even more, to the new house and all of the possibilities it represents. these projects also remind me of our strengths - i can see things in my mind and he can build them. i pick colors, he paints them. in other words, i get all the fun and he does all the work. i guess i'll probably spend another summer with no kitchen, cooking on an old stove out in the yard and eating lots of salads. maybe it'll be time to try that raw diet i've long wanted to try. perhaps it will clear my mind so that i'll make good choices on all of those colors that we'll need on the walls in the new house. whichever one it ends up being. at least the waiting paralysis of last week seems to have passed and an excited, expectant happiness has stepped in to replace it. and that makes me very happy. what made you happy this weekend? march 7 march 9 march 11 march 13 i'm especially pleased with that row of yellow. it's some yarn i bought last summer at the viking fair in roskilde. it's hand-dyed with natural plant dyes - gyldenris as it's called in danish (not sure what that is in english). &amp;nbsp;the colors are slightly less vibrant than this in real life. i've got the saturation dialed up a notch (or two) in my camera at the moment. i should have bought the entire basket of this yarn dyed with natural plant dyes - - - &amp;nbsp;a big congratulations to molly , my very first follower, and long lost sister in south africa.&amp;nbsp; she just had a beautiful baby girl. latte and a fabulous norwegian cinnamon bun for stephanie of concerning: pancakes . i'm back again already with another blog crush. i told you i had more of them brewing. this time, i'm utterly charmed by stephanie's blog, c oncerning: pancakes . you may remember her from my tagging her recently for 7 random things . and while i'm hoping she doesn't actually drink bud light with her peanut m&amp;amp;m's, i very much enjoyed her list. stephanie first came to my attention because she has also decided to spend less in 2010 (tho' i do believe she's taking a bit of a break at the moment, kinda like i did with the infamous orange coat incident). but thanks to the LinkWithin widget (love it now that they improved the code and hence the speed), i also found out that she's got a TLR camera &amp;nbsp;and likes to play with TtV photography. her cat, chairman meow , has a clever name and is cute as can be. she often blogs about cooking , which is always a plus in my book. i'm off to make her german pancakes now, since the pooka is home and feeling poorly. please do go check her out. around midmorning, right as i was putting the finishing touches on my to-do list, i got a monster headache. i blame the chocolate on toast that husband made me for breakfast. too much sugar, especially in the morning, will bring on a headache every time. it resisted all ibuprofen and the gallons of water i drank, so i finally took a nap. i couldn't even read, because it hurt too much to focus my eyes (there's that focus thing again). when sabin came home, i decided to hang out and watch project runway with her, despite the headache. while we watched the amusing catfighting and recriminations, &amp;nbsp;i worked a bit on my knitting. and that's when i saw this little giraffe herd go by...do you think headaches can make you hallucinate? some snow melted, but not all. and hoarfrost on the trees. hurry up spring! we've been waiting and waiting all week. and we've realized that waiting bites. and instead of being productive and getting things done, the waiting paralyzes you and you stare into space and can't think straight and your arm falls asleep while you're knitting (is that supposed to happen?). you wander listlessly around the house, thinking about how much packing there is to do, but it doesn't really result in you actually doing any of it. Your mind wanders off to that dog sled that should have reached that guy you want to buy the house from wherever he is in the northern reaches of canada. you talked to the realtor yesterday, but he was as laid back as his accent and not at all worried that the guy hadn't answered yet. you asked in a slightly hysterical voice if they had in fact really sent a dog sled. he pretends he knows what you're talking about and laughs. it seems that your new job will start a whole lot sooner than you thought, which is both good and bad. because you haven't used your time all that wisely and now suddenly you won't have any. but on the other hand, it will undoubtedly be good for you to dress in normal clothes, fix your hair and put on makeup and go out among people on a daily basis. your photo-a-day project may suffer and focus rather too frequently on the wind turbine just outside your new office window. but time will tell. time will tell on all of it and time takes its sweet time. so strange how it can both crawl at a snail's pace and race by in the same instant. but time is mysterious that way. and life is full of contradictions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This amazing piece of musical scholarship must be one of the most sublime pieces of obsession ever committed to print. Edited by Rutgers University scholar and musician (and Coltrane biographer) Lewis Porter, it is the work of a team of scholars and fans to collate everything known about saxophonist and composer John Coltrane. The book is broken down into two lengthy sections, Part One: The Chronology, which tracks Coltrane's life and music from his birth in Hamlet, North Carolina in 1926 to his death in Long Island in 1967. The Chronology tracks recording dates and personnel as well as tours and live concerts, and major events in Coltrane's life. The music is taken in even greater detail in Part Two: The Discography, which lists all known recording sessions and live performances in chronological order. While this would probably strike some as a dry list of facts, what makes this book even more valuable are the anecdotes that the researchers have collected from fellow musicians and from the media. For example, did you know that one evening at the Half Note in 1964 Coltrane wasn't feeling well after the first set of a gig, so he sat out the second set, allowing Eric Dolphy and Albert Ayler, who had apparently been practicing together earlier in the afternoon take his place. Can you imagine! The mind reels just thinking about it. Critic Gary Giddins's reaction to the "joyful, terrifying noise" of Coltrane's band in 1966 is fascinating as well as the re-prints of newspaper advertisements for the band's upcoming gigs. This was a fascinating book to flip through and a very impressive work of scholarship and research this is endlessly interesting for both music fans and scholars.Inspired by the work of the great Duke Ellington, and his combination of horns and reeds, bassist and composer Dave Holland formed an octet to investigate a wide range of musical textures and colors. Anchored by his quintet with Chris Potter on tenor and soprano saxophone, Steve Nelson on vibes and marimba, Nate Smith on drums and Robin Eubanks on trombone, he adds Antonio Hart on alto saxophone, Alex Sipiagin on trumpet and Gary Smulyan on baritone saxophone. The album was recorded live during a week long stand at Birdland in New York City. "Pathways" opens the album with deep baritone saxophone leading the melody. Smulyan solos with the rest of the horns filling in for support. The horns riff hard with vibes accenting before trumpet takes over. "How's Never" has a feature for solo bass before the band kicks in. Hart's alto saxophone digs deep in a strong solo, before making way for a cool vibraphone, bass and drums section and an exciting drum solo. Chris Potter and Robin Eubanks are featured on "Sea of Marmara" with Potter's soprano saxophone shimmering like a golden sunrise and then switching to tenor saxophone on "Ebb and Flow" to take a stirring feature propelled by blustery horns. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W elcome to the February 28, 2010 edition of Easy Street Carnival of Writing and Art. There was an electronic mountain of submissions this month. Sadly, most of them had little to do with original writing and art. What kept me going were the lovely submissions that did follow the guidelines and here they are. Do stop by their blogs to offer congratulations and encouragement. Creative Nonfiction Sarah Clark presents Sarah...Phenomenally: Divorce and Metamorphosis posted at Sarah...Phenomenally . Yvaine presents Too Much Snow posted at My Vanilla Nook , saying, "Snow is good, but you can only take so much." Fiction MaxwellDB presents Lake Ontario posted at MaxwellDB , saying, "Lake Ontario is a short science fiction story. It's an objectively-written piece about a man alone on Titan, one of Saturn's moon. He is a cog in an automated research machine-- something that causes him great difficulty." Tessa presents my roommate « kajoemanis posted at kajoemanis . drukdude presents The Fellowship of the Null-pointer | Story Collection posted at Story Collection , saying, "Spontaneous Short Stories by strangers gathered on the train!" Genre Bender Livia Blackburne presents A 100% Absolutely and Completely Realisitic Neuroscience Love Scene (Love At First Sight Blogfest) posted at Livia Blackburne . Poetry Madeleine Begun Kane presents Super Bowl Sunday Blues posted at Mad Kane's Humor Blog . ThoughtsBlogger presents Life's Defiants posted at Random Thoughts , saying, "A poem about the things that keep us going in the fight that is life." Robert Terrell presents galactic dreamers ? haiku posted at the existential poet , saying, "The Existential Poet Blog contains my original haiku poetry. I maintain a strict form, the 5-7-5 syllable structure, which suits my poetic creativity very well. I write about all sorts of subjects, with an existential (human feelings) attitude. Many of my haiku have seasonal references, and many focus on inner states of being. And, I love moon haiku!" That concludes this edition. Submit your blog article to the next edition of Easy Street Carnival of Writing and Art using our carnival submission form . Past posts and future hosts can be found on our blog carnival index page . surname . eulogy . overproductive sympathy . coerce . bucktoothed crackerjack . dismiss . designer prejudice . navigate . vaporize . lightheaded . fraction . sanctimonious strategist Be famous. Submit to the Easy Street Carnival of Writing and Art. Submission Guidelines Be famous. Submit to the Easy Street Carnival of Writing and Art. Submission Guidelines Be famous. Submit to the Easy Street Carnival of Writing and Art. Submission Guidelines Be famous. Submit to the Easy Street Carnival of Writing and Art. Submission Guidelines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The problem with universal health care is there inevitably becomes a huge backlog of patients waiting for surgery to be approved and there is the tendancy to use less expensive methods of treatment which can and often does, does nothing for the patient. (cancer treatments, heart, hiv/aids etc...)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK PEOPLE! Nothing is happening to mine and selenas friendship! They are just rumors!! Honestly i would like to meet the person who came up with that idea! it just irritates me so much when people do this to us! IT IS NOT TRUE ME AND HER ARE STILL SISTERS!! NO ONE OR THING WILL EVER COME BETWEEN US! if you hear something and don’t know ask me about it! 
+Please help spread the word!
+It will mean a lot to me and selena!
+I LOVE YOU SELENA.
+</t>
+  </si>
+  <si>
+    <t>When I think of the four months after that incident, I feel they were the happiest times in the factory for us. Paarthi became too silent, though he never openly acknowledged what happened that day. He still bossed around people but never came anywhere close to us. I left Johnny at my house and asked father to feed him in the afternoon. Every evening, after work, all six of us would walk to my house. We would play with Johnny for about an hour and then the other kids would walk back home. There were increasingly frequent occasions when the supervisor would leave the factory in the middle of the day and not return for a long time. We would all gather and start chatting idly about various things. The topics varied everyday – sometimes it would be about the latest movies, sometimes about movie stars, sometimes about people in the town, sometimes about our future, sometimes about the fantasies that we think of while working. That day Maari was narrating his dreams. “I want to own a car and drive it through our town, honking loud so that every body comes out to watch the procession. Maybe I would also hit the supervisor with it.” “I would want to buy a large house, like with swimming pool and everything.” Naesappan continued the dream. “And what? Fill it up with half-naked girls?” Mani asked. He usually did not like such talks. “Maybe I will do that too.” Naesappan replied though he did not seem sure of why anyone would want to fill up a swimming pool with naked girls. “Don't start your lecture now about how dreaming is bad.” Maari said with some apparent irritation. “Dreaming is one of the few things we've got here.” Sorna added. “Yes. It is the only thing we've got here. But know that your dreams would never happen. Or we'll end up being more disappointed than we are now.” Mani said.  “Why so? Why can't our dreams happen? We are not going to be in the factory all our lives.” I said.  “Maybe not. But we'd only end up in some other place doing something equally ordinary. Have you ever seen people from our village own cars or houses with swimming pools. Come on. Be practical.”  We all became silent. We all were asking the same question of why such dreams could not happen. It was difficult to digest the fact that we could end up doing such menial work all our lives. Though all of us sensed it, we wanted to still go on believing in the dreams we had. Maari changed the topic before the knot in our throats choked us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House guests this week. YAY for friends who make you giggle! Here is another ironic observation courtesy of Emily Dickinson. Enjoy! A Bird Came Down the Walk A bird came down the walk, He did not know I saw; He bit an angleworm in halves And ate the fellow, raw. And then he drank a dew From a convenient grass, And then hopped sidewise to the wall To let a beetle pass. by Emily Dickinson If I were a one-eyed-one-horned-flying-purple-people-eater," would that mean I am purple or that I eat purple people? You see, I love my job. But there's not enough of it. That's the problem. The economy is still sinking like a leaky dinghy, and my chances of getting even a part-time position with a 401k option is as unlikely as patching that hole at the bottom of the boat. It worries me that I have no retirement. It worries me that I don't earn enough. But then, what if I actually did land a traditional 9-5 job that offered benefits? But, then again, what if I couldn't learn the job? What if the job had minimal flexibility? What if the commute was hell? What if I couldn't stay awake? I would have to accept the position, but what about the kids? They have appointments and therapy and bad days at school. I have anxiety. But I don't want that to get in the way. Truth be told, I love what I do. I feel confident I could do more of it because it's what I know. I know how to work around my neurological challenges and my family's schedule. I know how to juggle priorities. I know how to expand my scope. I'm good at what I do. And I have awesome co-workers. This isn't a new situation for me. As an undergrad, I worked in Disability Services where I provided tutoring. I could schedule my work around my classes. The students benefited. So did I. I took on projects that no other tutor had in the past. My boss was amazing and flexible and supportive. I was motivated. But the job didn't pay enough, and I had no benefits. And then, I graduated. No more job. It was a student position. I've had other awesome bosses since then--understanding and supportive. They knew I was a little neurotic but that my neurosis didn't prevent me from doing my work. They also knew they could depend on me to be creative. Yesterday, I planned to go to a Federal Government job fair out in Stafford. Over 6,000 people turned out. The State Police had to direct long lines of traffic, and the lines at the booths were not much better. In fact, there were lines to get into the building. Not having experience in government, I wouldn't have much of a chance to land a position that worked out for the employer, me and my family. Now I might sound like I'm just being negative, but I'm not. I am being realistic. With all the competition around, who needs another writer, especially one that requires accommodations? I know I'm useful. I read so many poorly written communications that I wonder why organizations don't hire MORE writers and editors. I guess they don't want to spend the money. My perfect job? Write and edit mostly from home. Work flexible hours. Have a shot at accruing sick time, vacation time and a retirement fund. I don't need health insurance. I don't need huge amounts of supervision. I don't need a cubicle. I don't even need full-time. There are millions of people looking for jobs right now, and many are in worse shape than we are. Typically, that would put things in perspective, but it doesn't when I look at our paycheck-to-paycheck existence. And it's worse because I know I am the weak link here. I'm not depressed. I am anxious. I can't communicate this angst to hubby, or he WILL get depressed. I will never give up, because that's not how I am. But I can't get my hopes up, either. Er, anyone else scared? Sound like anyone you know? Caper Literary Journal publishes quality prose and poetry. I stumbled upon an archived piece that really struck me, especially considering our poor economy and the rise in the numbers of poverty stricken. Jame G. Piatt starts "A Letter to a Teacher" like this: Dear teacher: Do you know I can’t see the board from the back of the room because I need glasses, but my mom can’t afford to buy them? I really want to learn those important things you write on the board, but I am afraid to sit in the front with all of your good kids. Be sure the read the rest. This isn't just a message for teachers. It should be a billboard on the Interstates. How about a little more understanding? Normal 0 false false false EN-US X-NONE X-NONE MicrosoftInternetExplorer4 /- Style Definitions -/ table.MsoNormalTable {mso-style-name:"Table Normal"; mso-tstyle-rowband-size:0; mso-tstyle-colband-size:0; mso-style-noshow:yes; mso-style-priority:99; mso-style-qformat:yes; mso-style-parent:""; mso-padding-alt:0in 5.4pt 0in 5.4pt; mso-para-margin:0in; mso-para-margin-bottom:.0001pt; mso-pagination:widow-orphan; font-size:10.0pt; font-family:"Calibri","sans-serif";} Speaking of Earth My children speak of the Earth in the language of hopelessness: “No one will do anything anyway.” “We should all ride horses, replace cars. But no one listens.” “Wal-mart says they only use eco-friendly products. But their light bulbs aren’t.” “We don’t need any more houses. Why can’t they just stop building?” Mangy magazine pages and bread bags claim our bony trees, last year’s Robin’s eggs decay, a deck peels five years of paint, windows need replacing. My children’s retro music condenses on the glass: “Oh we’re never gonna survive.” --Katherine M. Gotthardt I would be remiss if I did not address the Bob Marshall incident on my own blog, particularly because Bob Marshall is my Delegate in state government; I have disabilities; both my children have disabilities. Marshall made the following comments regarding children with disabilities, implying that they are "punishment" for women who have had abortions. As stated in the Gainesville Times, here is the full quote, which Marshall conveniently leaves out in his “explanation” which is posted on FOX online: “The number of children who are born subsequent to a first abortion w ith handicaps has increased dramatically. Why? Because when you abort the first born of any, nature takes its vengeance on the subsequent children,” said Marshall, a Republican. “In the Old Testament, the first born of every being, animal and man, was dedicated to the Lord. There’s a special punishment Christians would suggest.” There is no doubt about it–he is “suggesting” women are punished with disabled children. Look at the juxtaposition of the words he used. Apparently, in his world, God takes his wrath out on children and mothers, whether they have had abortions or not. Marshall is trying to say that's not what he meant. I say he is full of shit. If Marshall wanted to address the issue of state funding for Planned Parenthood, which does provide abortion services in addition to other reproductive services, then that is what he should have addressed. Instead, he took what he deems the word of God and used that to condemn all women with children who have disabilities. In doing so, he condemns anyone with disabilities. In an astounding attempt to redeem himself, Marshall tries to explain the evils of Planned Parenthood by attacking minority communities: "“Thank you very much for coming here today. We are dealing with an attempt to defund , frankly, a malevolent organization. And I say that because you know people by their fruits. In 1960, 65, the out of wed-lock birthrate for blacks was 25 percent. I think it was about 23 percent in 1960 – it was 5 percent for all races. Now it’s 40 percent. It’s 72% for blacks, 51% for Latinas. These are the fruits of planned parenthood. OK. Nothing else. More heartache. More guys who are completely irresponsible and think that women have one function and one function only for a few minutes. OK. But this just isn ’t affecting our families, our inner cities, our communities and our state. This poison animates a world-wide population control program that the United States funds and which is unnecessarily making us enemies overseas. We are attacking traditional family structure in a way that no country should be doing." So now, Marshall targets minority communities and blames PP for the demise of the impoverished and vulnerable. Now let ME clarify I do not believe abortion should be publicly funded; I believe abortion is a moral, medical choice that no woman should ever have to make--not a governmental issue; I believe in education and prevention; I believe some reproductive counselors promote abortion; I would never condemn a woman who has had an abortion; I believe our adoption system is broken which only serves to encourage abortion. I've discussed abortion on this blog before, and I have discussed disabilities. I won't do it in depth again here. If anyone is really interested, search "abortion" and "disabilities" on this blog. Though I didn't agree with many of Marshall's issues positions before, I used to respect him as a smart man deserving of office. I no longer feel that way. I may add to this post later. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you like me? Unsure? Read on, and find out! Are you tired of all these self proclaimed self help books that discourage you from living in fear? Are you tired of being told that going out, doing things, and meeting real people, is for some reason, objectively better than your natural inclination to stay in every night? Are you tired of being made to feel like your desire to never leave the house again is wrong? Did you answer yes to one or more of these questions, but are afraid to admit to people that this is how you really feel? If so, good news! You are like me! And it truly is great news, because I've written just the book for me. Since also you're just like me, it's almost like you wrote this book, for you ! It's kind of sad that we're pioneering new ground in the "self help" industry by putting the "self" back in "self help". But hey, let them worry about it. I've entitled the book "I'm Afraid I'll Stay the Way I Am, Thank You Very Much" and between its' covers, you'll find all sorts of words, which I have arranged in a specific fashion,to empirically and conclusively demonstrate that what we may loosely define as "mental illness" is a quality to not only be embraced, but celebrated. I invite you to journey with me, from the first page to the last, and bear witness as I dispel some of the age old myths like -Real friends are better than imaginary ones -Healthy love involves at least two people -Talking is more than just noise -There's no reason to be afraid of spiders -A penny earned is a penny saved In addition, I will show you several secret techniques on how to: -Build a working E-meter -Construct an 'anxiety free zone' in the comfort of your own home, using only string and a pair of safety scissors -Take out your frustrations over your own ineptitude on moderately relevant acquaintances in meticulous plotted attacks -Instigate mass hysteria Listen. The only way they can keep you down is if you're playing their game. So do yourself a favor and stop it. Make your own game and play it instead. There's no reason that you should be afraid to be yourself. Fear change instead... it's way scarier. HI HI HI it is your old frend Joachim Jaeger here to make your new years with even more smiles. I am to be tasked with updating of this blog for entire year of 20 08, so let see how it go! Today It is wensday and that is meaning comics books day of the week. This week is very special comics books day because it is meaning Hulk #1 is for sale!!! Yes friends the hulk is return but all new, different than previous. Now hulk is red. yes red, like the colour you see. It is similar to orange, but not quite as yellow. What could happen to make such strange circumstance, you ask? It is fortunate you wonder on this for all you shall find here is solutions to your own imaginings. And it is this. The hulk is not the hulk. Brace Bannerman is locked up in arrmys aquarium. So who is to be this new hulk who burns with the fires of a thousand chernobyls? It is shitbag, rick jones. They dont SAY, but they say. It is mystery but I solve, okay? Overall, i do not buy. I leave on shelf and hope no one is saw me looking at it. It is too embarrass. Jeph Loeb if I was your son I would to be dead, too, as God is a father who do not write dumb books. Smiezt spadam on you. This space available. Call 515-250-3471 for details. Just a brief post today. Just askin'. They ended yesterday. Check back next year for more. It was an exciting day but only one man could walk away a champion. Let's check the numbers. Eccles - 7 Richardson - 21 Richardson walked away with this one, as many expected he would. Aboleth, Basilisk, Behir, Beholder, Brownie, Carrion Crawler, Catoblepas, Cockatrice, Dinosaurs, Displacer Beast, Dragons, Ettin, Formian, Gargoyle, Gelatinous Cube, Goblin, Grell, Griffon, Hippocampus, Hippogriff, Hobgoblin, Hydra, Intellect Devourer, Kobold, Kuo-Toa, Lizardman, Manticore, Merman, Mind Flayer, Minotaur, Modron, Nereid, Ogre, Orc, Para-Elemental, Pegasus, Quixotic Elf, Raging Roper, Storm Giant, Sahuagin, Tarrasque, troglodyte, Troll, Vargoille, Water Elemental, Werewolf, Xag-ya, Xeg-yi, Yugoloth, Zombie Kennedy, Roosevelt, Truman, Reagan, Nixon, Carter, Ford, Wilson, Clinton, Washington, Lincoln, Grant, Bush Cactus, Fern, Tree Easter, Faberge Ramadan (Categories: D&amp;D; Monsters, Former Presidents, Plants, Fancy Eggs, Islamic Holidays) Editors' Note: Technically, the "answers" for "Fancy Eggs" should have appeared first. Since all possible types of fancy eggs were listed, this is the subject about which the most is known. However, it was decided, at the last minute, that the categories would be arranged for an aesthetic sense of "most to least", rather than another arrangement based on some meaningful or informative criteria. </t>
+  </si>
+  <si>
+    <t>seriously these testimonials r nt enuf 4 me there r loads n loads 2 write abt my jutt dosth!bt wat 2 do? space s nt permittin me! i really love u my sweet fnd cum sister!may god bless u with all happiness n te world!u wil ve a very bright future da i can feel it!very soon wil catch u up with the rest of the things in my other testi bye 4 ne take care my dearie!!!!!!!!!!!! muaaaaaaaaaaaaaaaah dear! keep rockin v ve 2 enjoy each n every moment of our life!our worries all r over!tc my sweet heart!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last night, Sofia and I saw The Lightning Thief at midnight. For those who don't know, this movie is based on the book of the same name, about a character named Percy Jackson who learns that he is a demigod: half human, half Greek god. Sofia has loved the series of books for nearly five years. If you remember back to my blog last summer, I waited in line for two hours to get the author's autograph, since Sofia was in Costa Rica. She's crazy for the books.
+So it was only fitting that we go see the movie as soon as any non-theater employee/industry insider possibly could.
+Sofia didn't have school Friday, but I did. So I purposefully fell asleep when I lay down with Bella and Alex, and then woke up around 10:30 to get ready to go. Sofia also took a bit of a nap.
+We dressed, drove to the theater, got our popcorn and drinks, and found the perfect seat. The showing wasn't a sell-out, but it was pretty full.
+So now, for those interested, I present my review of The Lightning Thief. I'm always sensitive to spoilers, so when I get into spoiler territory, I'll change the color to almost match the background. If you don't want to read it, just skip it. But if you want to read them, click and drag your mouse across them and read them while they're highlighted.
+I haven't read a single review of the film yet, so I want to get my two cents posted before I check out what the critics are saying. I've read all the books, so my opinion will obviously be flavored with that perspective, but I'm not one of those people who hates when movies change the storyline or details. I know adapting a book to a movie is a bit of an art form in and of itself. I'm cool with that, as long as it's done well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwen has seen me through my worst; death of a loved one, broken heart, betrayal, you name it, she's been there. She's been one of the most sincere friends. She can tell me when I'm absolutely right, or when I'm absolutely wrong. She knows my mannerisms, she knows my personality in and out, she knows who I am and she still choses to stick around. That in my book, is dedication.
+On the flip side, I know Gwen. I know when she's being way too quiet (usually means something is up), or when she's trying to hide something. I know when she's about to cry, I know when her laugh is sincere. I understand the pain she goes through, in one way or another, because her pain is my pain. I find that I want the best for her, even if it means that some day she might not be as easily accessible as she is now.
+I guess when it comes down to it, we both have a love and respect for each other. I cant wait to see the old us, sitting around in a kitchen filled with pictures of children and grandchildren, talking about how we were and how we are. I cant wait to know that every part of my life that I have been through, I have shared it with someone who understood me so completely without having to explain anything at all. I cant wait to be an old bum with my best friend Gwen. </t>
+  </si>
+  <si>
+    <t>I was just flicking through my old hard drive and found some shit I had saved from years ago. Thought this was fucking hilarious.. a review of brighton's 'chav scene' back when times were tough among these troubled youth's spoken about in the text below... anyone got any ideas who wrote it? Can be viewed online here.
+"ah yes churchill square, home of the Too Messy Crew
+yea want to know something i was apart of this crew a few years back, and i know them all mostly (although we never speak cos we hate eachother)
+yes at night its there roaming spot, it used to be down by the king alfred in hove, thats where i first joined, but back then, it was just us all sitting around having a drink with a little bombfire, yes we caused trouble but we was young (i was never a chav, but my friends were) and the trouble we caused was play fighting in the middle of the road, blowing up lighters , a destroying the public toliets
+let me tell you something dont be scared of these people, they are weak a couple of years back i would of said “yes they are ‘ard, watch your step”
+but that was only cos i was part of them, most of them live in whitehawk, and hove, they are all fakes, they all live in nice big houses, with their mums and dads, and bros and sisters. well thats a lie they dont all live like that but they might aswell
+heres something to make u laugh, half of them are emotional idiots, the last day of my secondary school, i had a few of them around me drunk out of their minds, (as usual) with the ‘ardest girl crying on my shoulder saying she will miss me (even though i hated her, and she hated me and we both knew it) emotional wrecks too be honest.
+if i havent seen every guy in that ‘crew’ cry once, then ive seen it twice, and the girls even more.
+and chavs to the fullest, girls wearing mini skirts, and revealing tops and guys walking around with their hands down their trousers.
+while these…people (if they are even worth that name) can fight, its only because they are in a group, like on animal shows, they hunt in packs but alone they are just as much the prey as we are.
+but they prefer vocal bullying and the more of a reaction they get the funnier for them, the less reaction they get, then yes they will laugh but only at their own embarresment
+i was told to make this funny, but y make it funny, you can get all the laughs you want at looking at them."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was even exciting in our Coral Garden snorkeling activity was we saw a tortoise swimming near us. We had to be careful not to scare it away or we might impose some stress level on this marine animal. </t>
+  </si>
+  <si>
+    <t>The current push for government-run health care via the nuclear option  and last week’s Blair House TV snooze-orama are clear demonstrations that Barack Obama, Nancy Pelosi, and Harry Reid share Vladimir Lenin’s tenacity to impose radical change where it’s not welcome — in fact, where there’s downright hostility to change by a solid majority of Americans.  And make no mistake, Lenin was first and foremost about the will to power.
+Gale winds of public disapproval may be blowing against proposed government-run health care and its proponents, but Obama and congressional Democratic leaders plod forward with stolid determination, now extending by six weeks the time to work through an acceptable framework to pass so-called health care reform. If that extension fails to secure health care reform legislation, then these leaders may seek another extension, if possible, in an effort to wear down opposition to their designs.
+Before liberals level charges of red-baiting, I’ll offer that the differences between Lenin and the Bolsheviks and Obama and left-wing Democrats are significant, many, and varied. Through skullduggery, battle, and blood, Lenin established a dictatorship of the proletariat, which history has amply shown was a thinly veiled dictatorship by Lenin and his Communist Party heirs.  There was nothing “soft” about Lenin’s tyranny or Stalin’s. The mass graves of tens of millions of victims bear mute testament to these despots’ infamy.
+Obama, Pelosi, and Reid are decidedly pale reds, or as was said in an earlier generation, “pinkos.” But all three have grand ambitions, make no mistake, to achieve through imposition the social — or should it be said, socialist — democracy that lies with deadening weight across the width and breadth of Western Europe. These three Democratic leaders are working within our system of government to fundamentally alter government’s relationship to the people. If these three succeed, the American experiment in liberty will effectively end.
+The president and the two congressional leaders are so blinded by their ideology, so bullheaded in accomplishing a radical transformation of health care, that they’ve discarded the common sense and instinct for self-preservation that usually governs politicians’ actions. Instead, this triumvirate makes rationalizations for support of a proposal that’s been DOA almost from its inception.</t>
+  </si>
+  <si>
+    <t>OK.. So I came down to flordia to finially meet Nikki Wodrich who I have been talking online for 6 years. I came down here to hang out with her and and girlfriend Tina. So I get here and I end up sitting at there "daughter" Roo's girlfriends house the whole week. Next week I spend more time with Nikki's daughter then her. Nikki, promised sooo many times we'd go out and do things. And she lied every single time.. Some excuse after another came up. I had her pictured as this completely different person. She lies about everything. She even mooches off her own daughter and her daughter's girlfriend. To the point that her own daughter can't stand living with her. Nikki and Tina are getting kicked out because Roo and her girlfriend can't stand there asses anymore. They don't pay their bills haven’t paid rent since January. She's a lazy bitch that won't get off her fat ass and get a job. As for tina that bitches barely works. Don’t pay bills.. I just can't believe I wasted my time and money on these cuts. Seriously, this trip was one of the biggest mistakes of my life. I really wish I would have not ever started talking with nikki since the last time she became two-faced. Funny, how everyone that told me shit about her came true. She's selfish, Only cares about herself. Shit she proved that when she was bragging about cheating on tina. I thought that was kinda funny.. and yet she had the balls to tell me that tina was on a two week probation and that she doesn’t want to be with her anymore.. She only keeps tina around because tina FINALLY has a car and job. Which nikki had neither. She’s mooching off everyone she knows. It’s pretty fucking sad... she really needs to grow the fuck up. I just seriously can't believe that every single person I talked to about nikki told me the truth. After 6 years you think you know a person. Nope, I was wrong. Sad thing is that I started to see all this the 2nd day I was here. But, that’s okay. She’s no longer my friend. I don't want anything to do with these bitches ever again. as far as I am concerned they can fall off the face of the earth. I hope tina's car breaks down...I really believe they blew me off because I don't start drama, and I don't make nikki cheat on tina. That’s funny but whatever. Fuck it. No sweat off my nuts.. I hate this bitch... just goes to show don’t trust anyone who don't know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About five years ago I was referred to Dr Richard Reschke for some lower back issues I was having.  He is a naprapathist, which I believe means that he studied the muscular system.  In any case, he is a miracle worker.  He seemed to know exactly how all the muscles interact with each other and how to massage and manipulate them to give me relief and help me develop preventative stretches and exercises.  I absolutely swear by Dr Reschke. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When shooting outside at or around twilight, it’s pretty important to know where the sun’s going to go down (or where it’s going to come up). It’s easy enough to look up sunrise/sunset times, but the sunset/rise moves across the horizon throughout the year.
+This took some digging to find, but it’s actually very easy to figure this out. You’ll need:
+This link to the NOAA Solar Calculator
+A compass, which you can get pretty much anywhere.
+Then do this:
+Find your location (the location where you’ll be at sunse) on the map in that link
+Enter the date you’re interested in
+Note the sunset time. Under “AZ/EI” you’re getting a degree measurement, which is what we need eventually; but it’s actually showing the current azimuth instead of the azimuth at sunset.
+Enter the sunset time in the time fields next to the date fields. The AZ/EI field will update. That’s the number you’ll need.
+The number you’ve just found should be a degree measurement, between 0 and 360. This is the solar azimuth angle at sunset. Generically, an azimuth is an angular measurement in a spherical coordinate system. The solar azimuth is calculated (by the application at that link, anyway) as the number of degrees clockwise from true north that corresponds to the position on the horizon that the sun is directly above. If that seems confusing, it’s because it is. On the bright side: it’s really easy to work with when you get to where you want to shoot:
+When you get to your location, take out your trusty compass and:
+Align the compass with magnetic north
+Find the degree measurement on the compass that matches the number you got earler
+That direction is pointing toward where the sun will go down.
+There’s definitely a margin of error here. First, this doesn’t account for topography getting in the way (if you’re next to a mountain, the sun will go behind it long before it’s “down”, so the angle will be off). Second, the compass is reading magnetic north instead of due north, and the reported azimuth is measured from due north. But: it’s free, it’s pretty easy, and for my purposes, it’s good enough.</t>
+  </si>
+  <si>
+    <t>The Night Safari is something special. Showcasing nocturnal animals that sleep during normal zoo daytime hours, the dense humid surrounding jungle pulls you right into the safari experience. Take a train or walk the various paths past tigers, rhinos, deer, flying squirrels and hundreds of others.</t>
+  </si>
+  <si>
+    <t>There are currently... let's see... 1, 2, 3, 4, 5, 6, 7, 8, 9, maybe 10 persons (and that's without their affiliated persons) the thoughts of whom upset me in one way or another. With 6-7 or them it's really bad. With two of them it's decidedly painful. Rejection, deceit, jealousy, unrequited love, hopeless mutual love, loss, misunderstandings, conflict, hurtful words, unanswered questions, ignored requests, longing, regrets, uncertainty, anger, blame, self-questioning, guilt, unfulfilled desire, disregarded feelings, inability to understand... Keeping my thoughts away from them is exhausting. I need a place to rest my thoughts.</t>
+  </si>
+  <si>
+    <t>I'm the father of an 8 y/o boy with a learning disability. He has seen a child-psychologist and a neurologist. The neurologist saw my son when he was 6 years old and was very careful not diagnose him. He was under the impression that my son had Dyspraxia and now 2 years later the more we (my ex wife who is a family physician and I) learn on it the more we think our son has it. He is now in grade 2 but his reading and writing skills are at least 2 years behind curriculum. Our son show's no signs of hyperactivity and can concentrate very well when doing tasks such as building LEGO spaceships or Bionicles. He can sit still in front of the television and watch a program or movie for a long time. His mother has been wanting to try and put him on Ritalin in order to help his concentration at school. In light of the very latest news about Ritalin (CTV Canada AM: Tom Kennedy on rejecting Ritalin http://watch.ctv.ca/news/latest/rethinking-ritalin/#clip95418 ) I'm wondering if we really should try medication as the last option for our son and for now to really try to do classroom accommodations and try to see what we could do in order to maximize his learning. My ex also wanted to put our son on bio-feedback but I feel that he really would not understand the principles of bio-feedback at his age in order to make the best use of it. I'm just afraid that his mother might be trying to desperately seek anything that she might think might be useful for our son. I want to try to avoid the panic attacks and go methodically and slowly at what might work best for our son. Also I was wondering if Dyspraxia was a Sensory Integration Disorder. Your input would be greatly appreciated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busy. Busy. BUSY. 
+Little time to think, even less to feel. Except at night. Thank God you are too exhausted to keep your eyes open for very long, so the tears that fill your eyes don't make it to the pillow before you fall into restless sleep.
+You feel like your ass has been kicked emotionally and physically; that fall up the stairs was just what you needed to wrap up the week. 
+Sigh.
+Now it's Saturday night and.......
+</t>
+  </si>
+  <si>
+    <t>For most of the world, today is March 14th, or 3/14. To most, that date doesn’t have any special meaning. But to us math nerds, it means only one thing: today is Pi Day! Thankfully, it looks like Google has no shortage of number nerds, because the search giant is marking the occasion with a spiffy new logo filled with some of choice geometry formulas.
+π (Pi) is the mathematical constant that has helped school children and mathematics professors determine the circumference of a circle based on its diameter for centuries. The constant starts with 3.14 and continues forever (as it is an irrational number). Many math geeks celebrate the famous math constant (and mathematics in general) on every 14th of March because that date represents the first three digits of Pi.
+Google’s (Google) new logo, which you can see on the top right, contains not only the famous πr2 formula, but five other uses of π: measuring the volume of a sphere (V = 4⁄3 πr3), computing the circumference of a circle (C = 2πr), measuring the volume of a cylinder (V = πr2h), Archimedes’ calculation of Pi (223/71 &lt; π &lt; 22/7), and the periodic function of sin(x).
+As a former physics major and long-time math nerd, I love Pi Day, and I am very happy that Google not only celebrated the occasion but created such an intricate logo to mark this day. Almost everyone worldwide will see this logo: it’s Mothers Day in the UK (the fourth Sunday of Lent), and thus they have their own logo to celebrate it, which we have included below.
+How will you celebrate Pi Day? Please let us know in the comments!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laurie Hirth, you have made such giant strides moving on in your life without Neil. Then, boom ... two steps forward, ten steps back. Sasha, Eileen, Patty -- you get it. Whether you're anticipating what's coming or are in the heightened sense of sadness. You get it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " In the third season of Breaking Bad, Walt — an unrepentant "everyman" who has embraced his kingpin alter ego "Heisenberg" — continues to battle dueling identities: a desperate husband and father trying to provide for his family, and a newly appointed key player in the Albuquerque drug trade. As the danger around him escalates, Walt is now entrenched in the complex worlds of an angst-ridden family on the verge of dissolution, and the ruthless and unrelenting drug cartel. Beautifully shot against the desert landscapes of Albuquerque, NM, Breaking Bad Season 3 stars Emmy® winner Bryan Cranston, Emmy® nominee Aaron Paul (Big Love), Anna Gunn (Deadwood), Dean Norris (Little Miss Sunshine), Betsy Brandt (CSI), RJ Mitte (Hannah Montana, Weeds), Bob Odenkirk (Mr. Show with Bob and David), Giancarlo Esposito (Gospel Hill), and Jonathan Banks (Wiseguy). " -- iTunes Store Download for Free! Episode Summary A sneak peek of breaking bad's third season. the fine print : Downloads posted on the Free iTunes Downloads blog are usually free for ~1 week. After that, you'll have to pay for them. " From the super-stoic Vulcan Lt. Saavik in Star Trek II, to the super-sexy and neurotic barkeeper Rebecca Howe on Cheers, to her real-life role as an overweight and aging actress trying to revive her Hollywood career, Kirstie Alley has been through it all. With unprecedented access into Kirstie’s world, A&amp;amp;E follows the triumphs and tribulations of the actress, author, inventor, and mother as she navigates constant media scrutiny, an ongoing battle with weight loss, single parenthood, the reinvention of her career, and a return to the dating scene. From the hustle and bustle of Los Angeles to the peaceful seclusion of her home in Wichita, Kansas, Kirstie Alley’s Big Life provides an unabashed look into Kirstie’s world as the five-foot-eight firecracker sets out to lose 90 pounds — all while producing a feature film, patenting multiple inventions, launching a weight-loss program, and raising her two teenage children: Lillie, who dreams of becoming a designer, and True, an aspiring musician. With the help of her family and friends, including a sassy live-in assistant, a recruited chubby-buddy, and a host of fellow celebrities, Kirstie is ready to reclaim her life. Will she get the last laugh? Kirstie Alley’s Big Life premieres on A&amp;amp;E on March 21 at 10/9C. Check out a sneak peek now, and click “buy season” to receive a discount on every episode of this hilarious series! " -- iTunes Store Download for Free! Episode Summary From the super-stoic Vulcan Lt. Saavik in Star Trek II, to the super-sexy and neurotic barkeeper Rebecca Howe on Cheers, to her real-life role as an overweight and aging actress trying to revive her Hollywood career, Kirstie Alley has been through it all. With unprecedented access into Kirstie's world, A&amp;amp;E follows the triumphs and tribulations of the actress, author, inventor, and mother as she navigates constant media scrutiny, an ongoing battle with weight loss, single parenthood, the reinvention of her career and a return to the dating scene. From the hustle and bustle of Los Angeles to the peaceful seclusion of her home in Wichita, Kansas, Kirstie Alley's Big Life provides an unabashed look into Kirstie's world as the five-foot-eight firecracker sets out to lose 90 pounds - all while producing a feature film, patenting multiple inventions, launching a weight-loss program and raising her two teenage children: Lillie, who dreams of becoming a designer, and True, an aspiring musician. With the help of her family and friends, including a sassy live-in assistant, a recruited chubby-buddy, and a host of fellow celebrities, Kirstie is ready to reclaim her life. Will she get the last laugh? Kirstie Alley's Big Life premieres on A&amp;amp;E on March 21 at 10/9C. Don't forget to check out a sneak peek now, and click buy season to receive a discount on every episode of this hilarious series! the fine print : Downloads posted on the Free iTunes Downloads blog are usually free for ~1 week. After that, you'll have to pay for them. American Songwriter is giving away 20 free songs as part of the spring mixtape . Thanks again to Rachel for letting us know on the Free iTunes Downloads Facebook page ! Here are the songs that you can download for free: Yeasayer - O.N.E. Allison Moorer - Crows Beach House - Norway The Avett Brothers - Laundry Room The Duke &amp; The King - Union Street Spoon - Written In Reverse Lissie - Little Lovin Corb Lund - Devil’s Best Dress Ray Wylie Hubbard - Drunken Poet’s Dream Ben Sollee &amp; Daniel Martin Moore - Something Somewhere Sometime Matt Morris - The Un-American A.A. Bondy - I Can See The Pines Are Dancing Bahamas - Southern Drawl Charlie Mars - Meet Me By the Backdoor Drivin’ n’ Cryin’ - The Hardest Part Matthew Perryman Jones - Feels Like Letting Go Owen Pallet - Lewis Takes Action Joe Pug - Messenger Lightspeed - Champion Marlene Jeff the Brotherhood - Bone Jam Sora sends in a link to a 11-song SXSW sampler provided by NPR . Here are the tracks in the sampler: Written in Reverse by Spoon The High Road by Broken Bells I Learned the Hard Way by Sharon Jones And The Dap-Kings Canadian Girl by The Walkmen Girl In Love by Smith Westerns Airplanes by Local Natives Everywhere I Go by G-Side Cleo's Song by JBM Achille's Heel: IV. Shur Landing by Brooklyn Rider Hannah by Freelance Whales Swim by Surfer Blood Thanks Sora! " The lead single from the Ivy League-educated duo, Jukebox , is the antithesis of Paul Simon's “50 Ways to Leave Your Lover.” Atop a sparse club-banger with an undeniable, snaking bassline, rapper Naledge slithers around – doing his best to get pretty ladies to crack smiles (and hopefully more). With clever lines peppered throughout, the brash rapper just might have a winning chance. Double-O’s plush production on the duo’s latest full-length, Land of Make Believe, is completely sample-free, so that MC Lyte-assisted chorus on Jukebox actually features the femcee recreating a classic line from her 1989 track “Stop, Look, Listen.” " -- iTunes Store Genre: Hip Hop/Rap Download for Free! the fine print : Downloads posted on the Free iTunes Downloads blog are usually free for ~1 week. After that, you'll have to pay for them. " Iration hails from the Hawaiian Islands, and the group’s tunes embody an aloha spirit &amp;#8212; breezy rock rhythms mixed with a heaping dose of reggae and dub flavor. Falling is a boy-meets-girl, boy-falls-head-over-heels tale anchored by Micah Pueschel’s sweet, boy-next-door vocals and buoyant guitar riff. We suggest ordering an umbrella-laden beverage and letting Iration’s catchy melodies soak in. " -- iTunes Store Genre: Reggae Download for Free! the fine print : Downloads posted on the Free iTunes Downloads blog are usually free for ~1 week. After that, you'll have to pay for them. Genre: R&amp;amp;B/Soul Download for Free! the fine print : Downloads posted on the Free iTunes Downloads blog are usually free for ~1 week. After that, you'll have to pay for them. " Sarah Braverman, a financially strapped single mother, uproots her two teens, Amber and Drew, to move back home. Sarah is greeted by her father Zeek and mother Camille who are dealing with their own marital issues. Sister Julia is a successful corporate attorney trying to juggle work and motherhood alongside her stay-at-home husband, Joel. Younger brother Crosby must suddenly contend with accepting responsibility when an old flame Jasmine shows up and he must re-evaluate his priorities. And eldest brother Adam must relinquish his preconceived expectations about what constitutes a "normal" family when he and his wife Kristina and teen daughter Haddie learn that their eccentric son Max has been diagnosed with Asperger’s Syndrome. " -- iTunes Store Download for Free! Episode Summary Single mother Sarah (Lauren Graham, "Gilmore Girls") and her two children Amber (Mae Whitman, "In Treatment") and Drew (Miles Heizer, "ER") are moving back home with her parents Zeek (Craig T. Nelson, "Family Stone," "Coach") and Camille (Bonnie Bedelia, "Heart Like a Wheel"). Sarah's sister and complete antithesis, Julia (Erika Christensen, "Traffic") is a successful corporate attorney trying to juggle work and motherhood, alongside her stay-at-home husband, Joel (Sam Jaeger, "Eli Stone"). Commitment-phobe Crosby (Dax Shepard, "Baby Mama"), Sarah’s younger brother, must accept adult responsibility when an old flame Jasmine (Joy Bryant "Antwone Fisher") shows up unexpectedly. Meanwhile, Adam (Peter Krause, "Six Feet Under"), the oldest Braverman sibling, his wife Kristina (Monica Potter, "Trust Me") and teenage daughter, Haddie (Sarah Ramos, "American Dreams"), learn that their eccentric son and Haddie’s little brother, Max (Max Burkholder, "Brother and Sisters"), is diagnosed with Asperger’s Syndrome. Although each sibling and family has its own share of life to grapple with, perhaps this reunion is the push they need to help each other pick up the pieces and focus on the everyday challenges that families face while raising children and starting over. Savannah Paige Rae also stars. Directed by Thomas Schlamme. the fine print : Downloads posted on Free iTunes Downloads are usually free for ~1 week. After that, you'll have to pay for them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clifford’s own connection to soup is profound. As a ten-year old vacationing in Spain, he is taken for his first meal in a fine dining restaurant: A bowl of soup can be a powerful dish. It recalls memories, warm the heart and soul, and can use up plenty of leftovers in our cupboards and refrigerators. Clifford Wright’s The Best Soups in the World (Wiley 2010) appeals to all these aspects of soup. His book delivers recipes from around the world with intelligent commentary. Even as the weather warms up this Spring, get out the soup pot and make some soup. It starts as almost all soup books do, with basic broths (p. 9) followed by clear soups (p. 19). The real action is in the next chapter on chunky meat soups (p. 41) The first recipe isn’t for a standard beefy mushroom soup, but for Blackfoot Bison and Blackberry Soup (p. 42) for which you need buffalo bones, suet and meet and spicebush berries, all of which might be hard to find. Clifford calls the recipe a “curiosity”, but he expects the reader to make the soup, even with the substitute ingredients of beef bones, suet and meat, and juniper berries. What is really interesting is that in the recipe notes he writes about who the Blackfoot Nation are (three different tribes) and a bit of their culinary culture.
+He follows with a recipe for Shchi (p. 44), the Russian beef and sauerkraut (or fresh cabbage) soup that has a thousand variations, and Borshch (p. 46), along with an essay on “Everything You Want to Know About Borshch” that covers the history of borshch and the boscht belt. From there Clifford roams the world, from Greece with Avgolemono Meatball Soup (p. 50) to Polish Zurek (p. 54) to Turkmen Boiled Soup (p. 63). There are side essays that fill you in about soup practices in Africa or specific kinds of obscure soups. Although there is a wealth of information, the recipes dominate – this is a book to cook with and enjoy. </t>
+  </si>
+  <si>
+    <t>shanks a guy who doesn't fail to astonish people with his cool balance of life.. does "evrything" ther is to do in coll &amp; yet maintains a cool rapport about him..! easily judged for a carefree guy,.how wrong can U be.!!! his GK skills -&gt;&gt;infinity. has something to say about evrything!!. uses !lol! at the most inappropriate places while chatting..lol.!!.. very outspoken.,sometimes can be very obnoxious about how he uses his word power...!!(danger..!!his vocab is a double edged sword !!)
+His style of speech is somewhere between awesome &amp; too good.(ithu podhum nenaakuraen..)
+2 sum up one hell of a pirichivudals/ulitimate guy..!! lol !!!</t>
+  </si>
+  <si>
+    <t>Well this girl is very neat.., always arranging her shelves (even if they are clean) .. a good coook ..can never forget the times when we used to cook and ask our mothers to judge whose cooking is good.. the library we used to fly off when we get hols.. ( you still got to return ur sweet valley novels..) .. i still remember the days when we used to go to church every evening.., praying for us to get seats in good colleges.. simple superb de.. those are one of the best moments in my life..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK I thought the first post was long enough as it is, so here is the second part of my rig building process. The next component in question is the Power Supply a.k.a PSU. I never really thought I have to invest in something like a PSU. I didn't quite expect the choice of PSU to be of high importance and now after enough enlightenment from my fellow PC assemblers, I have learned to respect them. The choice of the PSU can either power your system or can blow your rig sky high or it can melt your motherboards beyond recognition. Power Supply Unit Corsair VX450W My New System , originally uploaded by Rakesh Ashok . As I was saying above the PSU is also a very important part of any rig. This wasn't the first choice that came to the mind of TE members when I asked for suggestions for PSU. The first was the Gigabyte Superb 460W and the second was Seasonic S12II-380W. Both these were really good products from what I read from reviews elsewhere. Then after assessing that the Seasonic was better than the Gigabyte product I decided to go with it. But unfortunately the place where I went to seek out this product haven't even of the name Seasonic. One guy even took and gave me a zebronics PSU. Zebronic and Seasonic does sound a lot similar don't they. Again I had to look out for alternatives. Thus I came upon the Corsair VX 450W. Well it was a bit too costly for me though. Nevertheless it is the perfect fit. Best features of this PSU are really quite fan and nylon sleeved wires for better wire management in your cabinet. Bought this PSU for a princely sum of 4050Rs in Richie Street. Though right now its an overkill for my current config without a GPU. But it definitely is a good choice considering the fact that I would definitely get myself a GPU probably the ATI Radeon HD5770 or the 5750. Here are some reviews to help you along with your decision. Corsair VX450W: Quiet Value PSU Corsair VX450W power supply review Will be continued... &lt;!-- Just finished adding the motherboard section in the review of My New System . &lt;!-- This is the song which I just can't seem to stop listening. I slept while hearing this and it was playing till morning :). The song lyrics are too good even though I had a hard time understanding most of the words since they don't seem to be the regular hindi words which I usually hear or some other kind of dialect, not really sure which one. But I love this song. Just this song alone has made me want to see this movie. So I'm definitely watching this movie. Also the picturization of the song is also too good plus the voice of Rahat Fateh Ali Khan and the laid back nature all makes this a song a super hit. Have to thank Vishal Bharadwaj for this beautiful music. Enjoy the song Dil To Bachcha Hai . I don't ever remember writing a post for a single song. But I haven't written about that many things either he he ... &lt;!-- My New System , originally uploaded by Rakesh Ashok . After nearly 9 years I have finally upgraded my system. Till now I was using a Pentium III computer which has survived well past its shelf life. I was also getting annoyed using that system since I can't watch HD video in it, I can't play some games if I get bored, I can't even multitask since it hangs if I do so. So I decided it is finally time to upgrade my system. And this is it. I assembled the entire rig on my own. I took liberal advice from my Tech Enclave friends to decide upon the components. Here are the individual components. Processor AMD Athlon II X4 620 Quad Core Image Source: bit-tech.net I remember myself hating AMD in the early days since it was dead slow and never performed as advertised (experience from using my friends computer). But what I hadn't realized is that AMD put away all those things behind them and have started delivering better goods for cheap and is right now giving Intel a run for its money. Now my CPU i.e. the Athlon II X4 is a Quadcore processor meaning it has four processors built in one chip. This is the first Quadcore in the market that sells at around 5K. The Intel Quadcore is nearly double or more. I was initially planning on a Intel based system but was blown away by the AMD offering. Here are some reviews about this CPU. AMD Athlon II X4 620: Quad Core For The Masses At $100 AMD Athlon II X4 620 &amp;amp; 630: The First $99 Quad Core CPU AMD Athlon II X4 620 CPU Review After reading all that review I'm sure you can imagine why I switched to AMD. I got it for 5200Rs in Chennai. The CPU doesn't get very hot so the stock CPU fan is enough for cooling it. It's totally unnecessary to waste money on CPU coolers for this CPU. The maximum temperature I have seen is around 40 degree but usually runs at around 32-34 degrees. Motherboard Asus M4A785TD-V EVO Image Source: unitycorp.co.jp Choosing the motherboard was the toughest decision I took while building my rig. For starters I had absolutely no idea about the various technologies involved. The brands, features it was mind numbing. So after hearing the first two or three suggestions from the TE gang, I started exploring those motherboards and their features. Almost all suggested the Gigabyte board, Gigabyte 785GMT-UD2H . This is a micro ATX board meaning a smaller sized board. I had decided to go with this board. When I reached Richie Street I was not able to find this board. Since I was at that time impatient I decided to go with an alternative having the exact same features. Thus I bought the Asus M4A785TD-V EVO. Well the name Asus is not new in the motherboard, infact it is among the top contenders in the market. The highlights of the board are Full ATX board supporting AM3 CPUs , DDR3, IGP (ATI HD4200), 128MB of DDR3 sideport memory, two PCI-e 2.0 slots lots of USB slots and lots more. The real plus point is that I can fit bigger GPUs in the future when I buy one. :) This board is quite heavy and it fills your Cabinet, so make sure you buy a bigger cabinet for this one. This is also the costliest component in my Rig excluding my monitor of course. It cost me 6600Rs . bit-tech.net Review - Asus M4A785TD-V Evo review Overclock3D :: Review :: Asus M4A785TD-V EVO 785G ATX Preview Read the second part of my rig building process &lt;!-- Its hard to come by wallpapers for my E51. So I have started downloading photos and making wallpapers by cropping them and editing to suit the looks. This one is actually a picture of Trisha from her upcoming movie Vinnaithandi Varuvaya. You can use this wallpaper for other Mobiles with 240 x 320 resolution too. &lt;!-- Good|SAM: a short film by Anthony Pierce and Hunter Richards from Hunter H. Richards on Vimeo . Voted Best short at the 2008 Salem Film Festival in the NW Shorts Category, winner if the The Northwest Emerging Artist Award. Good|SAM takes us to the long forgotten place of childhood innocence. This film reminds us that the ability to rise above circumstance is simply a matter of perspective. Written and Directed by Anthony Pierce Cinematography by Hunter Richards www.HunterHRichards.com Produced by Minimalist Films Features an Original Score by Andrew Michael Kangas &amp;amp; Bloodworth A really beautiful short film. I know For the last two months I haven't blogged at all. So here I am back from the so called busy life. &lt;!-- I am a big time fan of movie posters, that anyone could guess seeing my many posts on movie posters. They are the first thing which either attracts/repels you to/from the movie. So far I had been posting all international movie poster. Well I guess its time to showcase some of the local talents here as well. This poster to certain extent represents the movie's theme. We have a geeky looking Uday Chopra and an apparently ravishing Priyanka Chopra and there is this distance between the two characters, probably to suggest the difference in nature of the two characters. This movie probably takes place abroad which we can assume from the skyscrapers in the background. The butterfly and the flowers are just extras and doesn't add any meaning to the poster. I think this is my first movie poster review :). YAY! The poster doesn't seem to inspire me to go see the movie if it ever releases in Chennai ;). Let the movie release then we will come to know. &lt;!-- Well this is the song I sometimes hear when I drive. Really gets you going :). This song is from Nickelback's 2008 Album " Darkhorse ". &lt;!-- </t>
+  </si>
+  <si>
+    <t>What have you been cooking and eating lately? It's been a while since I shared with you what I've been making so I thought it might be fun to share my latest adventure. First of all, I took a pasta making class a couple weeks ago at a place in Waco called Gourmet Gallery. It's a cute little kitchen store and they also hold lots of classes where they teach you how to make things such as pasta, tamales, bread, Mediterranean food, Easter desserts...I mean it's quite the range of classes. It's amazing. The only negative thing is that it costs money to take these classes. (Shocking, I know!) And often more money than I have.</t>
+  </si>
+  <si>
+    <t>mahesh..met this guy in my 12th tution class..glad i did..
+very calm down to earth guy.teacher's pet.speaks only if u provoke him,.responsible person.
+v hav many common interests like politics, ppl v hate,(tat1 too):)..we equally detest those dumb-looking-clowns hookin wit ulti figs in our presence..
+a v passionate player of cricket..he'll kill u if u misfield or come late to the venue :)
+Talk to him thro electronic means n u'll feel he's v v cold.. actually he's not.he has a very gud sense of mokkai,.
+instant fren catcher and a big moral support for us,his frens.
+great writer too - he won the 2nd prize in essay writing n college talent hunt(mentioning coz most mite not no)..
+i can never forget the time we spent in so-cald combined studies kalasifying u all nite, hanging out wit our gang, playing endlessly n lots go unmentioned here!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I began this new decade with a three day cleansing fast of just water and tea. I used to fast regularly and was always amazed at how full I could feel from being empty.
+I used to suffer from immobilizing panic attacks. In retrospect, most of them were due to alcohol and/or xanax withdrawal, both of which I abused for most of my life, but I still sometimes get them. I haven't had one panic attack in three weeks, in spite of some heavy duty real life challenges.
+I think it is because the fast, as short as it was, put things in perspective. On the second day I was miserable and my ego was screaming at me to stop it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It takes a little extra work to get in touch with Andrea Boland. The Maine state representative answers e-mails and lists her business and home phone numbers on the Web. But unlike many politicians surgically attached to their BlackBerrys, she keeps her cell switched off unless she's expecting a call. And if she has her way, everyone in Maine — and perhaps, eventually, the rest of the U.S. — will similarly think twice before jabbering away on their mobiles.
+In March, Maine's legislature will begin debating a bill she submitted that would require manufacturers to put a warning label on every cell phone sold in the state declaring, ""This device emits electromagnetic radiation, exposure to which may cause brain cancer."" Her warning would continue, ""Users, especially children and pregnant women, should keep this device away from the head and body.""  For those of you now eyeing your cell phones suspiciously, it's worth noting that both the National Cancer Institute and the World Health Organization say there isn't evidence to support the assertion that cell phones are a public-health threat. But a number of scientists are worried that there has been a dangerous rush to declare cell phones safe, using studies they feel are inadequate and too often weighted toward the wireless industry's interests. An analysis published by University of Washington neurologist Henry Lai determined that far more independent studies than industry-funded studies have found at least some type of biological effect from cell-phone exposure. Several countries — including Finland, Israel and France — have issued guidelines for cell-phone use. And San Francisco Mayor Gavin Newsom, who began researching the issue when his wife was expecting their first child, is hoping his city will adopt legislation that would have manufacturers print radiation information on cell-phone packaging and manuals and require retailers to display the data on the sales floor.
+With 270 million Americans and 4 billion people around the world using cell phones — and more signing up every day — a strong link between mobiles and cancer could have major public-health implications. As cell phones make and take calls, they emit low-level radio-frequency (RF) radiation. Stronger than FM radio signals, these RF waves are still a billionth the intensity of known carcinogenic radiation like X-rays. The wireless industry contends that RF radiation lacks the strength to alter molecules in the human body; the Federal Communications Commission (FCC) maximum for cell-phone-signal exposure is intended to prevent RF radiation from heating tissue to the point that cells are damaged. Cell-phone RF radiation's ""effect on the body, at least at this time, appears to be insufficient to produce genetic damage typically associated with developing cancer,"" Dr. Robert Hoover, director of the National Cancer Institute's Epidemiology and Biostatistics Program, testified at a 2008 congressional hearing. But the body of research is far from conclusive. In 1995, Lai co-wrote a study showing that a single two-hour exposure of RF radiation — at levels considered safe by U.S. standards — produced the sort of genetic damage in rats' brain cells that can lead to cancer."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd like to have a comprehensive list of links on the side of the blog so that people interested in school lunches, nutrition, food politics, food journalism, food service, foodies, mommy meal planners, school gardeners, school lunch companies, etc. But I don't have time to hunt each of you down and figure out your blog URL, etc. If you want to have a link in a new list to the side of the blog, please comment below with your blog's name, URL and how it might possibly relate to the discussion we have as a community around school lunches. I'll add and update the link list slowly over time (you know, when I get some!) Thanks! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sriram aka mechsri is quite well known for his scholarly abilities &amp; very much unknown for his inhibited mischievous character.. Knowin dis guy since 1st yr has been really nice.. we r all one close knitted group over der n d kinda fun we have together goin out for movies, budget dinner... not to forget d trips we had,, memorable one to mention was our adventurous trip to Tiruchi in d 2nd yr holidays, then our enjoyment at REC-T .. whoa whoa.. he has so many fans spread around d city, state &amp; in d country (especially gal fans..).. We don't miss his treats every yr after he gets d merit scholarship.. so for d sake of d treat, v all pray for him!! (now don't hit me da)..
+last but not d least ppl don't under-estimate dis little guy from his appearance.. he is as explosive like a small atom (in all sense)-- dat explains more about his naivity &amp; innocence for guys n gals who think he is.. I wish him all d best in his endeavours &amp; keepin rockin dude(PS among male peers too).. Long live our f'ship..Cheers!! </t>
+  </si>
+  <si>
+    <t>Then there's my work life. I had an incredible review from my boss 2 weeks ago, and have been slowly adding more and more to my occupational plate as opportunities have been presenting themselves. I'm now going to be the head coach for 7th/8th grade girls' volleyball in the fall. I'm working at the Harlem School of the Arts this summer, just two mornings a week, but they've tentatively asked me if I'd be interested in working their Saturday program during the school year. I have three new piano students for the fall -- kids who are my students at school and will now also be my private piano students. I had my first lesson today with one of them, and it was incredible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started The Baseball Card Blog, funny enough, to blog about baseball cards. Collecting baseball cards, trading baseball cards, buying baseball cards. Dealing—tongue firmly in cheek—with the addiction of baseball cards. Openly questioning the sanity of my own fawning over sports stars and their small cardboard representations. But The Baseball Card Blog became other things as well, though I tried very hard to keep it on topic. This was not to be about my life, unless my life somehow had something to do with baseball cards. This was not to be a forum for ragging on private individuals; I made a point of keeping angry thoughts private. I poured a lot of time into this blog. I spent a lot of energy writing the stuff I wanted to write: dissertations I felt were needed on sparsely represented topics (hello, 1987 Topps); artistic interpretations to epic odes of futility (Casey at the Bat); giving away cards I liked (The Great Goudey Trade-away); highlighting funny things about utilitymen, bit players, managers, and bona fide stars. I enjoyed this kind of thing. And then I didn't. I explored selling the blog. I explored bringing in new writers. Ultimately, none of these were ideas I saw to completion. The Baseball Card Blog was retired. I added a link to the Wikipedia page for Casey at the Bat and nobody took it down. I stopped writing. But I didn't stop collecting. Or reading others' blogs. I kept up with Cardboard Junkie (still my favorite). I started collecting the T118 (World's Greatest Explorers) and T218 (Mecca/Hassan Athletic Champions) sets. I am just about 50% complete on the 1962 Post Cereal set. I started collecting 1956 Topps, 1967 Who Am I?, and lots of miscuts, printing errors and blank fronts and backs. I even got in touch with The Baseball Reliquary in Monrovia, California, about donating a hard copy of the baseball-card Casey at the Bat, but still haven't got my act together to send it along to them. And all of these things slowly made me want to start writing about it all again. Not religiously blogging three or four times a day so that it gets in the way of me living the rest of my life. But simply writing about baseball cards when I have the time. I had to take a year off. Now it's time to dust off the cobwebs, tinker with the setup, and see how long it will take me to put together a set by simply buying packs. BH January 1, 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I get so emotional and then I laugh, we humans are really something.
+I can enjoy reading debates on subjects that I have no opinion about but when it comes to subjects where I have choosen a point of view that is very deep in my heart I shun away and I can't continue reading. I do not want to comment.
+Right now people are fighting for the right to home school in Sweden, as some religious family made some bad choices based on their beliefs. There is an article about how children learn(link below) that I agree with. I wish I had the chance to live like this when I was young. I sometimes do not understand my own children´s choices to attend school and all the things (restrictions) that goes with that.
+Freedom for me is so important but I will respect my children´s choices now as well as when they grow up. Although every now and then (too often, Elena says) I ask if she wants to quit school and I reminded her how nice it was before school. FYI Elena started school when she was 9, and I am happy she waited that long at least.
+Anyway I am getting lots of emails from the Swedish homeschooling group about articles and ofcourse there is lots of comments on the subject. Some are so uphauling that it is just amazing to me how we as humans can have such extreme opposite beliefs. But that is really okay. What turns my stomach is how people can judge and condemn others for their beliefs.
+Well, I was just in the middle of it today and did not feel so good.
+I know it can be lonely to be a warrior (my favorite definition, from Stuart Wild, I mean different from mass consciousness) but it sure is worth it.
+</t>
+  </si>
+  <si>
+    <t>Super Mario Bros (the original Nintendo version) was the first game I can remember playing to the point of ridiculousness, and is an instant classic.  Super Mario Bros. 3 was my absolute favorite game for that console.  Alas, I didnt' get a super nintendo, so here we are over 10 years later to teh New Super Mario Bros. game for the Nintendo Wii.  WHAT A GAME!  The 4-player co-op can get confusing and messy, but that's what the Wii system is all about: managing multiple players and making video games an interactive experience</t>
+  </si>
+  <si>
+    <t>Living in a bicycle-friendly town like I do, I can live without the hassles and expense of owning a car because I use Zipcar for mega-buying and out of town adventures. Zipcar takes care of the maintenance and insurance and gives a generous allowance for gas (they provide a gas card and up to 180 miles per 24-hour reservation). It's also fun having a variety of cars to drive; most in my university town are compact, but there is also an SUV when needed.</t>
+  </si>
+  <si>
+    <t>Testimonials sometimes written out of compulsion or for Quid pro quo,but this is not the one.I met this gal thru orkut only and finally came 2 know she's ma junior.Just a junior for name sake and but she doesn't repects her seniors,especially me.may be tht's her uniqueness.many say she dances beautifully,but verily i dont think she does dance like tht hehehehe(lols!!!),may be i will change these comments,after seein her dance.A gr8 amigo to be with and makes many frnzz easily.important one an expert in fryin groundnuts,so boyz in orkut beware!!!!hope ur friendship continues evn after this testi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had all these ideas for blog posts about decorating my new house... err, I mean the house we want and are currently in escrow for. You see, this house is thirty years old and absolutely begging for cosmetic work, all in time of course ($$$!). However admist my day dreaming I realized that this house could very well not go through for lord knows what reason. And here I am, planning my life away like I always do. Let's focus on the present, April.
+So ladies and gents, I present you with my new blog layout. I made about five other collages for the header that I may take a vote on, or ask the hubs since my friends on here are quite lacking. Yes yes, I know I just renovated this place not too long ago, but I needed something to take my mind off of possibility. I am in control of this layout, you see, and it just feels right.
+Thoughts? I am feeling irritated. Perturbed. Surrounded by crazy folks (family, patients) and people who want my money (tax time and despicable landlords).  So this morning as a means to debrief I turned to a picture of my own version of Walden Pond, which led me to Thoreau; Walden and Civil Disobedience:
+</t>
+  </si>
+  <si>
+    <t>The Heavy Rain game is more of an interactive movie, in which a bloody origami is found near dead people, which suggests very interesting paper-y things happened to them to make their Facebook status a frowny face for a long time before they finally died.</t>
+  </si>
+  <si>
+    <t>After a very stressful few weeks, and a very naughty weekend, I am feeling quite... (how shall we say) unqualified to fit into my skinny jeans this week. So, now that I feel like a lot of the heat has let off, it's time for a good old-fashioned FAST. Just a little one, to see if anyone notices. It's 6 pm here on the east coast, and I have a party to go to tonight, followed by 2 auditions tomorrow, and another party tomorrow night. Evenings are usually my gym-time, so without an outlet for my persistent anxiety, I feel like I'd rather control my food intake if I can't get a grip on my energy output. To keep eyebrows from raising, I'm going to try to keep pushing the fluids, keeping a drink of some kind with me at all times, to give an illusion of intake. However, I will try to keep these calorie counts down as well. Mostly water, maybe a little bit of VitaminWater, a sip or two of soymilk for breakfast, and coke zero if I MUST have caffeination. But no food. Until at least midnight tomorrow (Monday night). I'm already anticipating the high!! And looking forward to telling ya'll how it went. God, I hope I get away with this. Depending on how it goes, who knows what I might do after this? Who's fasting with me? 30 hours food-free! Let's do it! Think beautiful thoughts, girls! XOXO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi di,
+Charanya Rajagopalan............................my best cousin........................
+she is a samma lazy but sumtimes over-hyper...........(i know it sounds contrary but dats her nature)......
+samma caring and selfless!!!!!!!
+just LOVES MOKKAI to the core....................lol!!!!!!!!!
+gives treats liberally and likes eating outside.......................
+she also knows to eamathafy a lot (hope u know wat i meant!!!!!!!!!!)...........
+thats it for now..........................will rite may more....................!!!!!!!!!
+ROCK ON DI!!!!!!!!!!
+-ANISH!!!!!!!!!!! </t>
+  </si>
+  <si>
+    <t>I've had Ulcerative Colitis for about 16 years, and I'm almost always in a flare up. I just starting using this website, which is wonderful! For the past week, I've been modifying my diet to include mostly anti-inflammatory foods, and I immediately started feeling an improvement. My constant bloating has diminished, and I'm anxious to see how this affects my health over the coming weeks and months. I wanted to know if there is a way to search ND to find foods within a range of IF ratings, for example -- be able to search for highly anti-inflammatory foods, or moderately anti-inflammatory foods. I can see the IF rating when I select a specific food, but it would be great if I could search for a list of foods based on IF rating. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here's an idea that is just begging to be implemented as a Firefox extension.
+You know how there's a while-you-type spell checker that's always on when you are editing text in a multi-line text box? There should be a feature that takes the last few words you're typing (or the entire current paragraph, or whatever works best), does a Google search, and presents snippets for the top few results in an unobtrusive pop-up window.
+Sure, maybe you're thinking "It looks like you're writing a letter. Do you want me to write it for you?" (the Microsoft paperclip). But using web search instead of a fixed set of patterns could actually make this useful. Imagine the number of messages to customer support forums that will never have to be sent because this feature pops up the answer the user was looking for. And so on.
+You might also think, "this already exists, it's called Google auto-suggest." But I specifically want it to work when I'm not (yet) actively searching, but just writing. (If it already existed, it might have stopped me from writing this blog post. :-) Twitter might also become a different place if users realized how many others have already entered the same item.
+Of course there's a little privacy issue. But still, if this existed, I'd opt in! (In fact, I did half a dozen searches while I was typing this. How much easier it would be if I didn't have to select text, switch to a different tab, paste, and hit enter, losing my writing context each tim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's our 20th episode and to help us celebrate, UGO's man about town, Parker Ward, dropped in to discuss the current holy TV trinity of Idol, Lost and the Olympics.  Are Simon and Ellen really mortal enemies or is their "feud" just another lame publicity stunt?  Does Survivor really suck?  Is Hoarders the best thing since Intervention?  And when will Claire quite yammering about her "bay-bay?"  All this and more answered to the best our ability on this week's cast!  Let us know your thoughts on these matter in our Facebook group and keep Toob Tied on constant rotation by subscribing to us on iTunes!
+</t>
+  </si>
+  <si>
+    <t>Never bunked like he used to, cared a lot abt attendance.
+After telling so much abt hari, if i don't mention abt his walk &amp; smile-its a cardinal sin:-))
+There r many fans for d way he smiles &amp; walks. Many try 2 imitate him rather with no success. 
+An ardent fan of Vijay. However worse d movie is, watches it 1st day 1st show (ena koduma sir ithu?)
+Then he is a flutist &amp; knows karate (ithelema avane sonathu, none has seen him in action)
+keeps singing one song r d othr during class hours (mayb tats d reason many lecturers leave d class asap:-p)
+joined a gym recently &amp; improved his strength immensly (tat was 2 kick guys like me, i guess-was lucky nt 2 get kicked thouhgh) wears tight shirts &amp; t shirts (u know y)
+Anyway this just a glimpse of what Hari is! L try covering him, maybe later sometime
+It was wonderful knowing u man:)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo's quietly unleashed three new 1080p resolution-boasting monitors. Up first, the 21.5-inch L2261 Wide LCD, a pretty basic affair with VGA and DVI inputs. The L2361p Wide is 23-inches, with a more stylized look than the L2261, with integrated speakers and microphone, a webcam, and three USB 2.0 ports. Finally, the real star of the show, the L2461X Wide is a 23.6-inch, multitouch  display. It also has integrated speakers and microphone, a 2 megapixel webcam. There is no official pricing or availability information for any of these bad boys yet, but there are two more images after the break. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These white papers attempt to capture and frame the issues and approaches particular to social interaction design (SxD for short). Each addresses a particular aspect of the design of social software. As they were written over the past three years, they progress from theoretical considerations, which drove the first papers, to the more design-oriented topics covered in recent papers.
+In the early papers I examine social software sites and online communities whose participation and user experience reflected the closed system character of sites like Friendster.com, MySpace.com, and Tribe.net. In particular, I was interested in the degree to which those sites produced rich relationships and mediated social interactions, including group and cultural dynamics. The later white papers take up social interaction on open systems and include discussions of Web 2.0 elements, navigation, and content organization. In these, interactions and user contributions are bound less by community membership and more by emerging social practices. Clearly, early adopters of sites like Friendster (one could go back to CMC systems, usenet, IRC chats and so forth of the 90s) helped to establish practices that have now been widely adopted by social media in general.
+I've tried to identify the "engines" of user participation at work in a variety of thematically-oriented social media systems, including the communication, transaction, social, and economic models behind each. I describe all of these systems as "talk systems," and model the user and social interactions manifest in each on conversation and speech, rather than publishing and writing. It seems clear that the Web's ability to make users visible through their own contributions involves a production of "presence" that leads inevitably to psychological, interpersonal, communicative, and social phenomena that we observe and assign to these systems, but which emerge at the second, not first, order of user interaction. Thus the problem of designing social software is a problem of applying leverage and guidance through the site's information architecture, navigation schema, use of communication tools, presentation of user contributions, and structuring of time (from permanent to fast-fading content). Social interaction design perhaps most resembles that of the urban architect: design, planning, modeling, and execution still cannot (thankfully!) regulate actual use. But walkways, open spaces, landscaping, use of light and surface, perspective and material do of course create context and environment.
+The user falls into a relationship with a site's other users, or audience, that sets his or her needs and expectations as much as the software design itself. Hence the importance of moving from a user-centric methodology to one that applies our understanding of communication and interaction as social practices. On social media systems, all action is socially informed. And yet the social cannot be engineered. Hence the importance of understanding and anticipating the social dimensions of activity on these sites.
+I hope you enjoy these, and as always I welcome feedback. Upcoming papers will cover recent trends in Web 2.0 sites and services, and directions for the development of future systems. I hope to also post in-depth UI critiques of popular web 2.0 and social media sites.
+Read more: http://www.gravity7.com/articles_whitepapers.html#ixzz0idxwXO3H
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was in a car accident and needed a rental car until mine was fixed. I called up Enterprise and they set me up with the same type of vehicle that I own, so I didn't have to get readjusted to another type of vehicle. They were fast, freindly, and very helpful. And just like the commercial says, I called Enterprise and they picked me up.  </t>
+  </si>
+  <si>
+    <t>Well..... i know this buddy for more than an year now, and i guess its time 4 me 2 tell u ppl abt this sweet female..... All tat i see in this Soul is a great attitude towards ppl tat is worth mentioning.... I guess she must b maintaining a dairy 4 remembering her nickNames, for she has got tooooo many, all around her circle.... the best 1 being RT (RAAK-SHA-SHE).... sorry buddy, i could not keep my lips tight.. :) This nickName(RT) seems 2 b an irony when seen with her approach towards me.... I can gaurentee u Guyzzz tat u will have great time talking 2 this female... A must b mentioned point bt this buddy is her crazeeeee in English moviesssss... i beleive tat she has got a very good taste in itttt as well..... Finallyyyyyyyyyy if u wana a female who is freeky in her approach and who is homely by her charecter, i recommend u alllllllll this "RT"(word stressed)............. THANKS 4 BEING MY MATE RT :) :) :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, I finally did it! I'm out of the stock sites. As some of you know, I have been experimenting with selling my artwork online through half a dozen stock photography and microstock sites for a couple of years. While they were generating income, the experience has never been ideal. Uploading was time-consuming, especially with so many sites. It was frustrating to have certain sites reject an image for utterly arbitrary reasons, while others accepted the very same image. And I certainly didn't enjoy giving away 50% of my income to these companies for the privilege of hosting my art. I felt none did a good job of marketing or promoting my work. I had already had my own site, Fractallicious, up and running for about a year, functioning primarily as a signpost to direct interested people to the various stock sites and other places, such as CafePress, where they could buy my fractal art. Fractallicious was successful in that regard, but once potential customers landed on one of the stock sites I had sent them to, I became a tiny fish in a huge ocean of competitors. Income trickled in in dribs and drabs. So I set out to be my own stock site. Turns out, I sadly under-estimated the challenge involved in turning a static web site into a full-blown ecommerce application. It's been a long tough slog, with numerous technical difficulties, but we're finally there! The company we chose, Volusion.com, provides a turnkey ecommerce platform, allowing you to create an online store with a powerful database back-end, shopping cart, and merchant account services. The Volusion technology is robust, complex, and highly configurable. Because of this very complexity, it's also far from intuitive and comes with a steep learning curve. The company scores an A+ for the superb quality of their 24/7 technical support. So, starting this week, I have eliminated the middleman! (And, no, this is NOT an April Fool's joke.) I'm partnering with my sister on this endeavour, and we're not only selling gorgeous (if I say so myself) high-quality image downloads, but also certain images printed on a variety of merchandise, CafePress-style. My rainbow designs have been very popular with the gay and lesbian community, and we're starting with three of them printed on 1" buttons, and attractively packaged as a three-pack for gift giving. Drop by Fractallicious.com, and have a look. If you like what you see, please feel free to spread the word! </t>
+  </si>
+  <si>
+    <t>I'm getting used to carlessness. As Mark Twain once said , "Be carless in your dress, if you will, but keep a tidy soul." Or something like that. It's all explained here . Today the FTC announced that Lifelock and the Commission settled claims related to the company's advertising. The action may sound serious and of course the press loves to sensationalize these types of stories. The truth, however, is far different than what the newspapers report. Obviously I'm biased, but judge for yourself... The FTC claims that Lifelock deceived the public by guaranteeing that it could protect consumers from identity theft, even though Lifelock's protection is not 100% effective in preventing ID theft, since it fails to stop fraud on existing credit card accounts. According to Illinois state attorney Attorney General Lisa Madigan: “Unfortunately, there’s nothing you can do or purchase that will protect you 100 percent from identity theft,” Madigan said. “Don’t be scared into spending your hard earned money.”&amp;nbsp; Now Lifelock has never claimed that it could prevent identity theft with 100% efficacy. What Lifelock has promised, and delivered, is a proactive identity theft protection service backed up by a guarantee that if the service fails (as any security mechanism will at times do), Lifelock will protect the subscriber's time and money by contributing the legal/accounting/forensic work necessary to set the record straight. And Lifelock's guarantee is 100% effective in protecting consumers from loss of time and money due to identity theft. (And no one even bothers filing claims about credit card fraud because the banks already cover those losses for the consumer.) And even if the FTC were right that Lifelock is not 100% effective, does that really mean that the service has no value -- that consumers shouldn't spend their "hard-earned money" on it? That would mean that consumers should never buy ANY security product at all, since nothing is 100% effective. Finally, the FTC thought that Lifelock's claims were too strong because we promised to "prevent" identity theft. And yet "prevention" is the promise of most every security product on the market:&amp;nbsp;According to the Symantec Store , Norton Internt Security&amp;nbsp;" prevents virus-infected emails and instant messages from spreading." According to McAfee , its Host Intrusion Prevention for Desktop product will " prevent loss of confidential data by securing desktops from targeted attacks." Experian (when they're not selling your data) also promises to " prevent fraud." This Google channel partner promises that Postini will "Stop Spam. Prevent Viruses." The truth is that the FTC doesn't care whether consumers need protection from Lifelock's ads. The FTC has clear direction from President Obama to demonstrate its dominion over financial services as he campaigns to establish a consumer protection agency, and so the FTC is prepared to enforce and potentially litigate even in cases they know they can't win. Lifelock understood this, and so even though $12 million is a LOT of money, it's nothing compared to what the lawyers will charge over the next 5 years to successfully defend against an FTC crusade. I'm proud of Lifelock's success, its team, and its technology. I'm a happy subscriber, along with 1.7 million other people. I know of no better way to protect my family from identity theft than Lifelock . &amp;lt;-- Friday Afternoon Nathalie and I were really glad we had decided to stay to the end. Saturday was a great day. Benoit Mandelbrot Score: 4 balloons I had so looked forward to hearing the inventor of fractals. Unfortunately, he did not deliver. He sat back and reflected on all his work, with a lot of jargon and an expectation that the audience was already familiar with chaos theory. George Whitesides Score: 6 balloons The Harvard chemist, whose publications are the most cited in the field, presented a talk on the two kinds of complexity -- emergent and stacked. Emergent complexity arises out of systems with many simple parts interacting and a steady supply of energy (the most prominent example is human life, which emerged from the evolution of competing cells). Stacked complexity -- like the internet -- emerges from exploiting predictably functional parts in systems with more and more layers of functionality (e.g. transistors, ICs, computers, networks). This talk should have preceded Mandelbrot's, which might have then made more sense. Sir Ken Robinson Score: 10 balloons As with Raghava KK's talk, we'd have never guessed beforehand from the speaker's bio or the content that this TED talk would score 10 balloons. But Sir Robinson , whose recent book The Element presents his theories on education, elocuted a summary of those ideas with compelling humor and wit. His primary message is that educators should prioritize the campaign to help students identify and ignite their passions, rather than pushing standard, tedious work. Philip Howard Score: 5 balloons Phil Howard, author of Life Without Lawyers , delivered a rousing rally against litigators. It was very well received (way more than my 5 balloons would suggest) but I think it lacked substance and instead merely tapped into mob psychology. Phil provoked anger at trial lawyers by illustrating examples of trivial litigation. But in my opinion he did not provide a balanced view -- even after cherry picking his examples, I think that they crumbled beneath some critical thought. For example, his flagship example was a schoolteacher he met in the woods one day who complained that she was under legal pressure to reverse her late penalty on a particular student's grade. Furthermore, when she wanted to drive two students to an extracurricular activity, the school prohibited it because of The Lawyers, insisting instead that they use a school bus. Imagine that! How shocking that parents will sue an earnest, hard-working schoolmum for teaching discipline, and prevent her from simply driving a couple of kids to a scholastic opportunity. Those lawyers are OUT OF CONTROL!! I don't know the details of the schoolteacher's case -- Howard did not share them. But I do know that in most of these cases where parents seek legal advocates relating to grades, the situation arose because the student -- usually a child on the autism spectrum -- has some learning difference that warrants accommodations in the classroom (such as extra time for homework). These accommodations are exactly the kind that Temple Gardin and Ken Robinson prescribed to standing ovations, not to mention that such accommodations are legally enforceable under federal law. But sadly, teachers who lack experience with learning disabilities sometimes see these accommodations as unfair, coddling, or inconvenient, and choose to ignore them, forcing the parents to either seek legal help or else watch their children unnecessarily fail at school. As for the school bus, I do not want teachers driving my kids around when a trained, licensed school bus driver is available. Do you? I am all for legal reform but let's approach it with balance and reason, rather than pitchforks and nooses. Anyway, here's the talk so you can decide for yourself... Alan Siegel Score: 9 balloons If by some chance this TED Member's 3-minute talk makes it into a video, watch it! It was a very compelling description of how this guy makes the world better by simplifying complicated forms. The world is too complex, Alan complains, with too much fine print. But instead of organizing a posse like Philip Howard, Alan does something practical -- he redesigns forms to be much simpler. This kind of transparency is not only good for avoiding legal disputes, but it's also good for business. The examples he showed were a clear, streamlined, one-page credit card agreement that every lender should use, and the second was a streamlined, easy-to-understand IRS form that will replace a gobbledygook 9-page notice that millions of taxpayers get today. Adora Svitak Score: 8 balloons Incredibly impressive 12 year old girl talks about her views on education. The content is secondary -- her charm, confidence, and eloquence are eery. John Kasaona Score: 9 balloons For many decades in John's homeland Namibia, the local "poachers" like John's father were prohibited from the wild game preserves ("This Land For Use Only By White Persons" read the signs) at the punishment of death. But the locals had lived alongside the wildlife for millennia, sharing a sustainable ecosystem. Under white rule, the game was hunted for trophy and profit, and the animals dwindled to the point where only 20 lions remained in northwest Namibia. Finally the Prime Minister overruled the colonialists and charged the local poachers with protecting the wildlife. John's father, and later John, were among the newly deputized conservators. According to John, they succeeded in restoring the animal populations, with 60 conservancies now operating across the nation. The program is funded by the newly enabled tourism, with surplus profits funding a thriving new school system. The call to action here was to learn from Namibia's example of how important it is to support the local human populations when trying to conserve ecosystems. James Cameron Score: 8 balloons The director of blockbuster films like Titanic and Avatar shared some great stories about his life and motivations. James described his younger self as an introverted sci-fi nerd who, for lack of access to space, resolved to learn scuba diving after seeing such alien life forms on the Jacques Cousteau programs. This was the inspiration for The Abyss, the first film to feature a character completely rendered by computer graphics. Cameron also confessed that he agreed to direct Titanic solely because he knew he could thus compel the studio to send him down to tour the real thing, which he did in a Russian submersible. It was on that trip, as he remotely controlled a video robot through the wreckage, that he first became interested in virtual agents and avatars. Cameron's message was that the most important ingredient for success -- at least in budding filmmakers -- is imagination. And that's what the world needs now. &amp;lt;= Friday Morning Saturday Morning =&amp;gt; Friday afternoon and evening were packed with official TED talks, TED member talks (3 minutes on stage), and entertainment. I'll cover the major stuff here but there were too many short format talks to cover them all. Raghava KK Score: 10 balloons This was the best full TED talk of the day-- a Slumdog Millionaire tale of an Indian cartoonist's coming of age. The delivery was masterful and funny. Watch it now... Denis Duton Score: 3 balloons Duton is a philosophy professor from New Zealand. The intriguing thesis of his book The Art Instinct is that appreciation for beauty is an evolutionary adaptation -- that we naturally find beauty in things and scenes that support our survival or reproduction. For example, he claims that people naturally prefer landscapes where the trees have low lying branches -- the better for escaping predators. Unfortunately his delivery was not up to TED standards. Marion Bantjes Score: 1 balloon A totally self-absorbed artist shares her doodles. Okay so lots of folks liked her and I'm just a Philistine. Still, ick. Temple Grandin Score: 7 balloons An autistic woman, whose autobiography is the subject of an upcoming film , presented her position on education. Temple has turned her intuitive understanding of animal cognition into a successful career improving slaughterhouses, and now she's preaching the importance of reforming education to accommodate learning differences. Amen! Specifically for kids on the autistic spectrum, schools should integrate mentorships, hands-on activities, and on-the-job internships, so that Asperger's kids can "one day make their way to Silicon Valley." David Rockwell Score: 4 balloons Architect designs innovative playground for kids. Crowd goes wild with sentiment. David Byrne, Thomas Dolby and Ethel Quartet Some great music to ease us in after the break. Natalie Merchant Score: 9 balloons Even after David Byrne, Robert Gupta and Sheryl Crowe, the best musical show of the week was Nathalie Merchant's performance of the classic poems she has put to music in her upcoming album Leave Your Sleep. Here's a nice one... "The Janitor’s Boy," Nathalia Crane (1913-1998) Oh I'm in love with the janitor's boy, And the janitor's boy loves me; He's going to hunt for a desert isle In our geography. A desert isle with spicy trees Somewhere near Sheepshead Bay; A right nice place, just fit for two Where we can live alway. Oh I'm in love with the janitor's boy, He's busy as he can be; And down in the cellar he's making a raft Out of an old settee. He'll carry me off, I know that he will, For his hair is exceedingly red; And the only thing that occurs to me Is to dutifully shiver in bed. The day that we sail, I shall leave this brief note, For my parents I hate to annoy: "I have flown away to an isle in the bay With the janitor's red-haired boy." Julia Sweeney Score: 10 balloons Julia Sweeney , aka "Pat" from SNL, is my heroine for writing and performing her theatrical production Letting Go of God (which you can see on Showtime next week ). In an impromptu 3-minute talk, Julia hopped on stage and recounted the birds-and-bees conversation she just had with her daughter. It was hysterical -- if this makes it into a TED video, watch it. Meanwhile you can check out her debut TED Talk from 2006: Eve Ensler Score: 9 balloons The woman behind The Vagina Monologues presented an outstanding reading from her new book I Am An Emotional Creature: The Secret Lives of Girls Around the World . We heard the tales of two young women -- one in an Asian sweat shop and one who was kidnapped by soldiers in Africa. Again, if this makes it onto video, watch it. Sarah Silverman Score: 4 balloons Silverman performed a stand-up shtick with shock comedy that became the subject of much controversy when Chris Anderson himself tweeted how god-awful she was. Later he deleted the tweet and apologized for sending it, but also apologized to TED for bringing Sarah in the first place. Silverman's supportive bloggers insist that she was simply shaking up the establishment, sticking it to The Man by using the word retarded . Now I'm all for shock comedy, and so I laughed hard at her jokes about poop, hot sex and Jews -- for the most part she met my high expectations. But when she mocked dying, retarded kids, she lost me and most of the room. Less polite audiences would have booed off her the stage, but TED still applauded. Now I'll never criticize a comic for making folks uncomfortable or offending sensibilities, but Silverman hurt a lot of parents in there, and (maybe even worse) the joke just wasn't funny . The controversy has fanned many anti-TED flames in the blogosphere, some of which I'm bound to attract because I admit I didn't laugh at one of Sarah's jokes. Apparently the detractors find TED to be elitist and self-important; we at TED don't produce fresh enough ideas, we take ourselves too seriously, and we're too crusty to get Silverman's sophisticated form of parody. The odd thing is that I only hear this from people who didn't attend TED. Really, who has time for this? The Party As usual TED hosted a Grand Party on that last night, which was okay (chilly, crowded and short on food). But the REAL party erupted, unplanned, in the lobby of the Westin, where Jake the Uke player held court among those of us who speculated that there just might be a repeat of last year's Westin lobby sing-a-long. As the hours passed, TED performers of all kinds must have read their tweets and made their way over, joining the impromptu jam session. Robert Gupta of the LA Philharmonic, the Ethel quartet, Louis the flamenco guitarist, Natalie Merchant, soundtrack composer Carter Burwell on the piano, and others joined the fray, riffing off each other's music and whipping up the crowd. At the pinnacle of the party, Harry Shum of LXD (and the cast of Glee) turned the lobby into a dance spectacle (check out the video below). This performance won't make it into a TED Talk video, but if you want to see it, I'm betting that Friday Night at the Westin has now become a TED institution. &amp;lt;-- Thursday Afternoon Friday Afternoon --&amp;gt; John Underkoffler Score: 7 balloons Fun demo of the hand-gesture UI developed at MIT Media Labs that Tom Cruise used in Minority Report. Blaise Aguera y Arcas Score: 8 balloons Very cool demo of Microsoft technology that synthesizes photos in the public domain, stitching together a navigable, 3D virtual street view product (without having to dispatch trucks everywhere). Watch it for yourself.... Bill Gates Score: 8 balloons BIll Gates gave a great talk on the landscape of choices facing us in the energy arena. Since renewables are intermittent, and all the batteries on Earth can store only 10 minutes worth of the world's energy usage, we need to make nuclear power work. Tothat end Gates has funded Terrapower, which aims to make fuel out of Uranium 235, which is far more abundant and safer than enriched Uranium 238. Sergey Brin Chris Anderson interviewed Sergey about Google's changing posture toward China (and you can watch it here ). Sergey responded openly about the difficulty of figuring out what is right to do as China enforces political censorship. "Some say I'm naive. That may well be true -- I wouldn't have started a search engine company in 1988 if I wasn't." However, Sergey wimpily dodged Chris' question as to whether Google found evidence that China was behind the cyber attack. Soon after a Googler came on stage to demonstrate the Nexus One, which seemed uncharacteristically commercial for TED, until the end when Chris announced that Sergey brought enough unlocked Nexus Ones for everyone! Really. Mike Feinberg and Dave Levin Score: 7 balloons The co-founders of the Kipps charter schools led what can best be described as a pep rally for educational reform -- low on content and but high on volume and fun. The Kipps schools target underprivileged neighborhoods, and so far their 82 schools are delivering phenomenal results that have raised the high school and college graduation rates to be on par with national averages. George Church Score: 2 balloons This Harvard biologist touched on many interesting topics, but did so incomprehensibly. He defines life as "replicated complexity" and discussed his work synthesizing molecules that somehow "mirror" organic compounds, but can't interact with the wild. Gary Lauder In the best short-format TED Talk so far, Gary Lauder reflects upon how we might organize traffic differently at a time when we care about carbon emissions. &amp;lt;--Thursday Morning Friday Morning --&amp;gt; David Byrne Score: 5 balloons David Byrne of Talking Heads fame gave an interesting talk about the impact of spaces on music -- how the elements of different musical genres can be traced back to the spaces in which that music was performed, or the technical capabilities of the delivery mechanism (e.g. radio, CD, car boom box, iPod). He draws examples from Baroque, Jazz, Choral and other styles, explaining they differ in their allowance of volume changes, key changes, held notes, musical detail and other stylistic effects based on the acoustics of the cathedral, palace room, smokey bar or other venue. Of course he also shared photos of his grungy basement, where he and his buddies first wrote and performed. Nathan Mhyrvold Score: 8 balloons To combat his reputation as patent troll , the former Microsoft CTO talked about his company's facility for invention, such as an optical scanner that can detect malaria by illuminatng hemozoin (waste from the malaria parasite), or a container that can dispense vaccines but keep the remaining ones cool inside -- without power -- for up to 6 months. But he brought his team's most awesome invention to demonstrate on stage; although it may not be the most practical intervention for African malaria, it is surely the coolest: a laser defense system from mosquitoes! Mhyrvold's machine, which we got to examine up close later in the lobby, was made purely of parts bought on eBay. At one of the stage he placed a fish tank with mosquitoes flying around. At the other end, a good 20 yards away, he placed his gizmo that tracks the mosquitoes through long range infra-red cameras, extrapolates their motion in a computer, and then illuminates them each, as they fly, with frickin' laser beams! To keep the demo going they used low energy levels so as not to burn the critters, though of course that's what the machine is built to do (and Nathan brought videos of the buggers smoking up just to prove it works). Even better, they use two different color lasers to distinguish the genders, so they could choose to kill only the infectious females! (I'm guessing no one would mind if they killed all the mosquitoes, but someone thought up a way to hear the difference and it was too cool a feature not to include.) Legion of Extraordinary Dancers I don't normally blog the entertainment, but the LXD are superheroes. Check them out... Mark Roth Score: 8 balloons Cancer researcher Mark Roth presented another candidate for the It-May-Not-Be-Pratical-But-It's-Cool-As-Shit Award. He and his team studies "metabolic flexibility", the phenomenon observed in rare medical cases where people are dead for hours -- usually in frozen conditions -- and then revived when their bodies are warmed. They hypothesized that our bodies may have some agent that can somehow lower our metabolism to the point where, under distress, we can do without oxygen for hours. The concept of inducing suspended animation is not pure science fiction. Human eggs survive up to 50 years inside ovaries, and plant spores can survive up to 250 million years. The number of cases where human beings returned from frozen death states with no heartbeat has inspired the saying, "You're not dead until you're warm and dead." Some of those cases involved industrial accidents in which workers collapsed after exposure to hydrogen sulfide, and were thought to be dead for hours until they were removed from the poisoned air and "woke up". Roth realized that we have trace amounts of hydrogen sulfide in our brains, and so perhaps this is the mystery agent. Early tests on rodents support the hypothesis, successfully "killing" the specimens until they are removed from the hydrogen sulfide chambers. So Roth's team is now in clinical trials with a drug that would place trauma victims in suspended animation for hours until their wounds can be properly treated. Really. Seth Berkley Score: 6 balloons AIDS Researcher Seth Berkley presented some startling statistics on flu pandemics, suggesting that we are likely to soon see another like the one in 1918 that killed 100 million people. Berkley also presented some promising research on a new vaccine to fight AIDS. He presented a great animation developed by XVIVO to illustrate the mechanism by which the memory cells that develop from vaccines can fight the AIDS infection. Stephen Wolfram Score: 8 balloons With Wolfram's characteristic ego, he launched his talk about "the biggest idea of the century" which is, if I understood him, computational complexity. Wolfram has made his career studying emergent complexity, as documented in his humbly titled volume A New Kind of Science. At TED he presented three things: an impressive demonstration of Wolfram Alpha , his web-based front-end to a computational engine; some background on mathematica, his attempt to build a structured, comprehensive computational engine; and his simulation of physical models designed to suss out those that reflect reality (I think he's basically trying to find the grand unification theory of physics through trial and error). Thursday Afternoon --&gt; Thursday morning was a celebration of reason -- my favorite part of the program. Michael Specter 8 (out of 10) balloons Michael Specter is a New Yorker journalist who lambasted the anti-science movement. He wrote the book Denialism: How Irrational Thinking Hinders Scientific Progress, Harms the Planet, and Threatens Our Lives . "Belief in magic instead of science leads to disease and war." With a passion befitting Christopher Hitchens he ripped apart the movements that oppose vaccination, engineered foods and western medicine. "Science is NOT a company." As a laymen he seemed to carry more credibility than those know-it-all scientists, though he wasn't as eloquent as a Dawkins or a Harris. In a 3-minute presentation, Graham Hill (founder of TreeHugger) reflected on a question he had asked himself last year: why couldn't he bring himself to be a vegetarian when it's so much better for his health, the animals, and the planet's climate? "I just couldn't imagine that THIS is the last burger I will ever eat." So he became a Weekday Vegetarian -- an 80/20 solution. He gets most of the benefits of vegetarianism without feeling deprived. Now I normally don't blog the 3 minute presentations, but based on the hallway chatter here at TED, his Weekday Veggie meme has spread very successfully. In another 3-minute diversion, Jim Daly taught us all about carnivorous plants, like the Venus Fly Trap native to North Carolina. These plants are quite beautiful, and one of them is now the basis of medical ant-bacterial research – it has a compound that kills its prey’s bacteria so that the bacteria can’t digest the bug's nutrients before the plant does. Sam Harris 9 balloons For the first time I got to hear Sam Harris, author of The End of Faith and Letter to a Christian Nation ! Sam's talk today attacked the sacred cow belief that science has nothing to say about moral values. Provocative and compelling, he offered up some great examples of how relevant the scientific method is when grappling with serious moral issues of the day such as economic disparities, pollution, and women's rights. He challenged the ethos of cultural relativity -- some behaviors are simply wrong no matter where you grew up, so we must overcome our fear of saying so. “Do we know enough to judge a father whose reaction to his daughter’s rape is to kill her?” He offered lots of examples. Is it right to apply corporal punishment in school (as endorsed by the law in 21 states)? Science can address this question by examining the well being and educational success of the children blessed with such discipline. “ How did we convince ourselves that every culture has a point of view on morality worth considering? The Taliban is ignorant on physics – how is their ignorance on human well being any less obvious?” One example he offered was, in my opinion a bad one. Science can tell us, he said, whether it’s a good idea for people to believe that the evil eye is watching and punishing us for what we say about others. He slipped here, confusing belief and action – we cannot select our beliefs based on what is good for society, lest you invite a demand for theism – despite the utter lack of evidence of for it – simply because it tricks some people into being good on Sundays. His conclusion: “It’s possible for entire cultures to care about the wrong things. Just admitting this will transform our society… we must converge on the most important questions about human life. We must first admit that these questions have answers.” Nicholas Christakis Score 8 balloons Christakis is a Harvard professor of medicine and sociology, and author of Connected. He studies the properties of social networks such as friend counts, centrality (are you in the thick of the social graph or on the fringe), and transitivity (are your friends connected to each other). In his talk he overlaid obesity as a property to analyze, and learned that obesity clusters in the social graph. If your friends are obese, you are 45% more likely to be obese yourself. If your friends’ friends are obese, you’re 25% more likely. Why would obesity cluster? Turns out that that are three reasons: friends are exposed to the same bad food choices based on their environments; friends encourage each other to make the same choices they make (“Let’s have muffins and beer!”); and people tend to befriend others like them. Elizabeth Pisani Score 7 balloons Pisani is an epidemiologist who studies the spread of AIDS in Africa. Her presentation centered on the hidden rationalities behind the choices people make that spread HIV -- kind of like behavioral healthcare. From afar, it’s easy to dismiss the intelligence and well being of junkies and prostitutes, but a closer understanding of their circumstances yields clues as to why they share needles and engage in unprotected sex. In Indonesia, for example, anyone stopped by the police with a needle will be arrested and imprisoned, so addicts have no choice but to share. Prostitutes in that country earn close to $10 per hour, rather than the 30 cents they would other otherwise earn. Pisani’s agenda is to encourage clean needle programs. In the UK, Australia and Netherlands, where clean needles are available, 3% of heroin addicts are HIV+. In New York, Jakarta and Moscow, where they are not available, 50% of heroin addicts are HIV+. Pisani is particularly frustrated by the short-sighted, moralistic arguments against the distribution of condoms and needles, dismissing the notion that they encourage destructive behavior. "Pope Benedict, if you're watching this TED talk: I carry condoms and I NEVER get laid!" Valerie Plame Wilson Score 7 balloons Wilson is an outed CIA agent who worked covertly to stem the proliferation of nuclear weapons. She explained why terrorism and accidents will likely lead to catastrophic nuclear explosions, and the Global Zero movement to eliminate nuclear weapons altogether. She showed a trailer of the film Countdown to Zero , aired at Sundance and previewed by TED Thursday night. Michael Sandel Score: 7 balloons Sandel is the renowned and dynamic Harvard philosopher, whom I was fortunate to have as my professor for Justice as an undergrad (watch one of his lectures below). To improve the quality of our public debates, he prescribes raising the level of dialogue from the specific issue to a discussion of the fundamental philosophies that underlie the arguments. The example he used was the controversy around Casey Martin's use of a golf cart due to his disability, and the application of Aristotle's philosophy to the question (despite Aristotle's notoriously high golf handicap). The TED talk was entertaining (e.g. mocking Justice Scalia), but it didn't tie together as well as the full lecture presented above, and Sandel was too wimpy to broach the underlying theistic philosophies that underlie arguments against gay marriage, stem cell therapy, and women's rights. Christopher "moot" Poole Score: 6 balloons Founder of 4chan , the immensely popular, anonymous, and often profane chat site. The teenage Poole talks about his accidental fame , and his commitment to preserving privacy on the internet. Kevin Bales Score: 8 balloons This sociology professor founded Free the Slaves , a movement to liberate the 27 million people around the world currently enslaved. Largely an unknown phenomenon, slavery exists in many nations where, for hte most part, bandits kidnap impoverished men, women and children, often under the guise of legitimate employment. I'd have given this guy the TED Prize. Stewart Brand Score: 7 balloons Brand presented the merits of nuclear power, followed by a spirited debate with Mark Jacobson. Nuclear power is clean and doesn't require the huge land resource footprint of solar power (50 square miles per gigawatt) or wind power (250 square miles per gigawatt--although he seems to have forgotten that wind farm land can still be used for agriculture). The debate exposed a lot of numbers and costs, and the answer really boils down to whether you think that nuclear power will inevitably lead to radioactive accidents or the use of nuclear weapons. If so, it's an awful choice but if not then it's a no-brainer. The audience came into the discussion 75% pro-nuclear and exited 65% pro-nuclear. Jane McGonigal Score: 4 balloons Game designer Jane McGonigal asserts that the 3 billion hours per year of computer game play prepares children well for the challenges that face our species. To win today's games, one must face daunting, world-shaking challenges despite awful odds, overcome failure numerous times, and innovate. Nathalie and I topped off the morning enjoying a picnic lunch in the sunshine with Dan Dennett (the world's pre-eminent authority on consciousness) and his wife Susan. Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calling all Moms
+I know it's been awhile since I've blogged. Things have been a little crazy lately. More on that later.
+Now, I have two questions for all you moms out there. Eli is turning 1 next month (how did that happen?!?) and so I need to start looking for a new car seat for him. I don't know much about the next size. I've heard things about 3-in-1 and booster-convertible or whatever, but I really know nothing. So, rather than researching like I should, I thought I would just ask:
+1) What kind of a carseat do you recommend for a 1+ year-old?
+I don't really want to spend a fortune, but at the same time, I know it will get used through the years, so I don't mind investing in something that will last.
+Next, I need ideas on food. I seem to be a little stumped on what to feed Eli lately. I know there are probably lots of things I'm not thinking of. He LOVES to feed himself and is not so keen on the purees anymore (mostly because I have to feed him), but he only has 4 teeth, and he's not a year old yet, so there are things he can't eat yet, so I need ideas. His favorite things lately (finger foods) are avocados, bananas, crackers, cheerios, and peas. I'm still breastfeeding, so he gets a lot of his nutrition from me, but we are nearing the weaning phase, so I need to find more balanced things to give him. So, the next question:
+2) What foods (finger foods mostly) do you recommend for a 10+ month-old?
+Okay, I'm ready for the suggestions now. :) I've seen other people do things like this on their blog, and I'm always amazed at the awesome responses, so I'm counting on you! Any and all comments are welcome (even if you don't have children). Thank you! :)</t>
+  </si>
+  <si>
+    <t>Well where I start. I received my nickname "Gump" from my beloved wife Pat 42 years ago. I met her while driving my 1967 GT Mustang around town. The traffic light at the corner next to the post office turned red. This little girl with blond hair and blue eyes sitting on the steps hollered hey guy how about a ride! The rest is history as it was truly love at first sight. Forty one beautiful years later after a marriage made in Heaven ended this past February 21st at 8:05 AM as the love of my life lost her long battle with cancer. She gave unconditional love to me, our children, grandchildren and family. She was in short, the heartbeat of the entire family. This past twelve months without her is still unbearable at times. Everything that once held meaning has lost it. If I am healing or coming to terms with it, it is going very slow with still daily bouts of tears and depression. She was like a moonbeam that you could not hold in your hand, but just enjoy every minute of her presence. So I trudge on alone now living one day at a time, sometimes an hour at a time. The good thing is I still have my family who loves me very much. I have two daughters, Missy and Tina. I also have a son, Richie. I tend to lean on Tina the most. She has been taking care of me every day. She truly reflects her mother’s love beyond measure. So why did I come to MySpace? Maybe to find new friends who have already made this journey. Someone to share their thoughts with me and in tern maybe I can be some help to them. I love music, poetry, love stories~with happy endings~ and life. Yes I still love life and all its beauty. I'm not sure what waits on the other side, but I enjoy life on this side. So as my journey continues until I am called Home, I'll do the best that I can do. It is the least that I can do for the memory of my beautiful wife Pat....</t>
+  </si>
+  <si>
+    <t>I know, I know. It's been about a year since I've last shared "Deep Thoughts by Yours Truly." I find that I am at my best when things are slow and calm. It is typically those times that my little head is able to process and turn events into crazy thoughts in my head. After what seems like a busy and crazy year I've decided to return to the daily grind and be better at updating. These next few entries will catch ya'll up on my life since Wednesday December 17, 2008, but, for now, I wanted to talk about my mid life purgatory.
+I don't think I will ever be a person who goes through a midlife crisis. I mean, I strongly believe that having an untraditionally tough childhood has led me to really, really, really appreciate the aging process. My life has increasingly gotten better and more fulfilling with age. But that absolutely does not stop me from having a mid-life purgatory.
+For those of you unfamiliar with such above mentioned illness it is when you are literally stuck between being a kid and being an adult. Some people look at this and think...yuck, purgatory stinks while others think its the perfect utopian life balance.
+I, on the other-hand, have no idea which one I am. Examples you ask???
+1- I walk into the school cafeteria and will shake my head in disgust at all the little children going to school in their pj's BUT find it difficult to leave with my cup of coffee because the TV is tuned into MTV's "True Life"
+2. I want to go back to school BUT only if it A.) pays me to study like an adult job does B.) does not require additional work when I am done with class like an adult job does and C.) Gives me 25 vacation days of my choice like my job does (I mean on top of daily classtime)
+3. I love hosting dinner parties and throwing keggers and literally having a hoe-down every weekend, BUT the idea of strangers peeing and puking in my sparkly white toilet bowl isn't as glamorous as it was before
+4. I attend the "young" events and feel it's too loud, too obnoxious, too hipstery and too, well, young BUT I attend the "adult" events and have a hard time contributing to mortgages, children and climbing the corporate ladder. I mean all I want to do is ask, "Can you believe Tamara in the Real Housewives last night??? I mean, for realz?"
+5. I still hate going to bed and will find myself making picture frames, playing Nintendo DS or watching TV til late at night, BUT still getting my purgatory ass out of bed by at least 9 am.
+6. On weekends I think about gardening, re-arranging the apartment or running errands BUT typically wake up hung over and wanting a greasy breakfast followed by a nap. (oh p.s. I don't know how to garden, am not too handy when it comes to decorating and really what are errands if not things that can be done tomorrow?)
+7. In the sense of cognitive awareness I know that I should be excercising more and eating healthier as I grow older BUT I continue to tell myself that Asians have an additional 5 year bump due to high metabolism and I live in a city that celebrates fine dining so I should never waste such opportunities.
+so there you have it dear avid readers. I have now bestowed upon you my deepest and most intimate thoughts. Trust me, more will be coming but, for now, I will leave you with this final thought.
+If you find yourself reading this and thinking "yes, yes, yes, I agree" then there is clearly only one solution for you. Move to Brooklyn (preferably as close to Metropolitan and Graham as possible) and let's start a club together where we we act like complete teenage fools with the dignitgy and experience of an adult in purgatory.</t>
+  </si>
+  <si>
+    <t>While I am giving the finishing touches at LineBall (yes, I found a sponsor), I want you to play ColorBallz. It’s a simple game I made in a couple of days starting from Basic Filler engine with Box2D – part 1, 2 and 3.
+All in all it’s almost the same game, I just added a twist introducing colors. You’ll get a bonus if you fill the area with the same percentage of red, green and cyan colors. Although I already have two games about to be published, this is the first of my 10 games to be released in 2010.
+It’s monetized with MochiAds but I’m also planning to sell the complete source code once it’s polished and fully commented.
+At the moment, after 6 days in the wild, it has more than 100K plays… hope to reach one million in a couple of weeks.
+Enjoy. Before you start reading this tutorial, there is something you must do.
+Turn off the lights, close your eyes, raise your hands, and say:
+« Hail, Lord of Flash Game. Shall I read this tutorial and forget it before I try to flood the web with another silly Coloring Book Game »
+Really, seriously… I am showing you how do it but please, please… don’t do it.
+Finding the right image
+If you can’t draw your image, you’ll have to download it from the web. Try to Google for coloring book and you’ll know what I mean.
+Just remember the “copyright” word… I don’t think you’re allowed to use Ben 10 or Hello Kitty images… but if you are about to create a Flash coloring book, you are an evil person and stealing artworks won’t be a problem.
+The image I’ll use is taken from www.coloringbook.info
+Main concept
+Every colorable part is a distinct movieclip, and its color is dynamically changed with Actionscript
+Converting the image
+First, you need to import it into Flash  It’s a Box2D library designed to allow game developers making 2D side-scrolling platform games, including a graphical level builder that allows you to drag, drop, and customize all of the game objects and art in your game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Added in a couple of items to the Tiny Lifestyle Changes today. One I’ve been doing for a while and it is working well for me. The other is a suggestion made by my associate rector, Matt, and it’s the kind of thing that would work for me if I did it regularly so I’m going to make the attempt to do that too. The one that I’m already doing is from my pastoral counselor. He suggested that to handle stress and anxiety, since it was keeping me awake at night, I should turn over to God the things that were bothering me most. He suggested a journal, but I’m just doing it in prayer. I’ve been negligent of my prayer life, so this is a good way to get back in the habit of talking to God. When I was a new believer I used to fall asleep reading his word. I sort of miss that comfort and I hope this tiny step will lead me back to that, or at least to more consideration in the quiet of the evening when I’m lying there trying to shut down my day. Last Sunday Matt gave a really good sermon on that included 2 midrash. That’s may not be spelled correctly and it’s not the plural form. He told us during the sermon but I didn’t get that bit down. One of the midrash talked about the space between the lines of text in the Torah being the place where the true meaning was to be found. Then he talked about the name of God as it is in Hebrew YHVH, which is never spoken, and what the sound might be if we did try to pronounce it. Without the vowels that Christians have added in it sounds sort of like breathy sounds that one hears. The PH sound, the H sound, maybe some of the S, those where you are exhaling strongly. I kind of laughed when he first did that and tried to say it without the vowels. It sounded like a bit from Harry Potter. Then as his lesson continued I came to think, the breath sound might represent the breath of life that God gives us or that energy which was sent forth from God when he made the world. If that’s what we find in the quiet spaces maybe it’s a good idea that I go back and reread my priests’ sermons so that I can reflect on their teachings and gain what is between the lines of text. And that’s the second item I added into Tiny Lifestyle Changes. Peace! Hope! &amp;amp; Joy! If you’ve read my blog a lot in the past you know I like to think back on things and see what effect they’ve had on my life. This is a skill I learned late in life. It was something I had to do for some college classes and believe I’m much the better for having gained it. The process was called reflection. Reflection has given me lots of awareness on how things affect others too. When I was a child I didn’t spend time analyzing other people’s actions or emotions until it affected me and then it was usually a frenzy of trying to look at why they did or said whatever it was that had hurt me so badly. That’s not socially helpful, but it let me express my angst till I’d owned it and come to a better understanding of the situation. Thankfully I’ve grown some since those anxious teenage years. These days I try to understand the other person’s needs or behaviors based on what I know of them and not how I feel. It helps a bunch because I’ve come to love harmony in my life, a gift from Mom, and hopefully that longing for peace and harmony makes me more of a peacemaker than an irritant to any situation I run into. This morning I was reading an article from WebMD that talked about a study researching the effects of darkness on people’s behavior. It said that when the room is darkened, not lightless but dim light, or people wore sunglasses they might behave in a less ethical manner. I found that very interesting and suddenly I was imagining what I might say to a child who wanted to wear sunglasses all the time because he, “thought it made him look cool” because another kid he knew wore them and he thought that kid was cool. I guess our teachers were right; you shouldn’t wear sunglasses all the time. Since the eyes are windows to our heart and mind, if someone feels you can’t see what he’s thinking or feeling he feels anonymous and can thus act in ways that might not be right but won’t be attributed to him because of that self perceived anonymity. I think I can understand how a kid might want to be anonymous if he’s constantly being corrected for things he does. We probably all experience times like that as adults too. But knowing this means it’s important to look people in the eyes to really know them, that it can’t be done by just hearing their words without knowing the emotions behind them, or maybe the experiences that have generated their response to a situation. That’s not always easy to know even when you do look someone in the eye, but it gives you the opportunity to ask them for more so that they can express themselves and feel heard. I think that’s called active listening today and we all know how much we want to be heard when we are struggling. I want to go back to that darkness article and think up some more ways that it can affect us so I guess I’ll find a friend I can discuss that with, or maybe my counselor since he’s good at role play too. If you read the article on darkness and come up with any insights I hope you’ll share them. Peace! Hope! &amp;amp; Joy! It’s true! I’m almost giddy I’m so happy. This isn’t because of anything that’s happened. No major event triggered this. I think it’s the result of some small changes I made in my routine recently that have just triggered a good feeling within my spirit. The changes I made were very small. I’ve been dealing with depression ever since my marriage broke up in ‘99. I have a good counselor and maybe a very smart psychiatrist who prescribes my medication. So for the past 3 days I’ve been on a very small dose of Bupropion. Just 100 mg a day, extended release. This dose is small enough to not cause that edgy feeling that this drug is known for but it helps lift my spirits. I think it is taking effect. But I don’t think that alone has triggered this surfeit of happiness. The next change I made was last night’s routine. It was cold in the apartment so I took out time in the middle of the evening to draw and take a warm bath. I washed my hair and when I was through I put on comfy clothes and went to bed at my usual time, hair still wet but combed. When I woke up this morning I had more time in my routine to do stuff I wanted to do instead of feeling the need to get ready for work. My hair was dry and fluffy, call that wash and sleep. LOL More time gives you a relaxed feeling about your day so that’s going to become a more regular change I think. Bath at night and ready faster in the morning. Plus I think I slept better for that. Good sleep gives me a much better mood. Then I elected to dress comfortably for work. I work in a business casual environment and some of my coworkers wear suits. I would have loved jeans today but it’s not jeans day so I pulled out an old pair of loose fitting pants that still looked good and topped them with one of those thin flannel shirts that gives you lots of room to move. Added a belt and I”m ready for for anything and can move comfortably without care to whether I’m sitting like a proper lady and feeling cuddled in that flannel. I think that finished the mood lift. So clean, rested, comfortable, and ready to face the day. I attribute some of this to the Happiness Project . And I’m going to continue to read that blog because I keep finding good suggestions in it that lift my mood. Hope your day goes as good as I anticipate mine will. Peace! Hope! &amp;amp; Joy! Even though they’d been sniffing noses through the screen door and seemed interested in being friends, when I adopted Hooboo, rescuing him from his “stray porch kitty” status, he and Hyram developed an instant competition. They fought, Hyram stole Hooboo’s food, Hooboo would steal the wrap around my ankles time, and they’d rarely share a bed together. Hyram actually kept watch for Hooboo’s arrival and left when he entered the room. That is until recently. I don’t know what changed but for the past two nights I’ve had both cats on the bed. Sunday night it was one on either side of me. Last night they were actually sharing the comforter and less than a foot apart. Dare I hope that I’ve now got a cat family? In other news I’m fighting a cold and it’s taking its usual course. Following a nurse friend’s advice I was trying to “let it run through me” and avoiding decongestants until the need for sleep precluded that and I gave in. Prayers for health are appreciated. Peace! Hope! &amp;amp; Joy! Recently I updated to the latest (greatest?) version of Firefox, that being version 3.6. It immediately disabled IE Tab and one or two other extensions a.k.a. add-ons. Oops! I’d been using IE Tab to see my blog because I thought there had been a problem with Firefox and Blogger. I’d been losing the right hand column of my blog in Firefox and IE Tab was my current workaround. Then last night I opened and read Sandi’s blog and heard her playlist which she has on the right side (same as I do) and wondered why I could hear her blog and not mine. So I started researching. The first thing I did was email Terry to see if he had any advice. He took a look, with 4 different browsers no less, and had no problems with my blog so he suggested I clear the cache. That’s Blogger’s usual advice too so I tried it but it didn’t help. Then I got a clever idea. Why not try disabling add-ons to see if any of them were the problem. Wow, what I discovered would make almost 2 posts. First off I had way too many Java Consoles installed. Apparently when you update Java it doesn’t overwrite the old console but just adds a new one on. I’m down to just the latest Java Console and the Java Quick Start add-on. That works fine so no problem there. Then I disabled everything else and restarted the browser. My blog showed fully and the playlist I’d been missing played beautifully. So I started enabling add-ons one at a time and found the culprit. It was Ad Block Plus. That’s a sweet add-on and I’m going to miss it because I hate ads being stuck willy nilly all over the pages I’m viewing and this baby took care of that. But lately it seems to be messing with Java and Flash content so I guess I’m better off without. Then I googled “Firefox add-ons that cause problems with blogger” and got this fantastic page by Mozilla. It lists the extensions that cause problems, what they mess up, and gives a workaround. How helpful of them to put that up. It was even dated as recent as December 10, 2009 so it’s very current. Yes, Adblock and Adblock Plus were on the list. It also told me why my browser sometimes gave a message of Firefox is still running when I’d shut it down and then tried to restart it. That little snafu was thanks to Cooliris which is another neat add-on but I can do without too. So that’s gone now too. Now my add-on list is much pared down and I’m happy with the way the browser is working again. I hope that link helps if you are having any problems with Firefox. Peace! Hope! &amp;amp; Joy! It’s raining this morning, and in addition to the loving behavior of my younger cat Hooboo making bread on my shoulder before settling down on top of me to await my arousal, I woke to thinking about blogging. It’s been more than a month since I wrote anything and I apologize to all of you who’ve been checking in from time to time. I titled this the “Season of Bloglessness” because I’m not the only one who hasn’t been blogging lately. My friend Susan just posted after an absence of over two weeks and my good friend Sandi has been absent from blog land for almost as long. I’ll let you read Susan’s blog to find out what she’s been up to. Sandi on the other hand is very busy with a no longer empty nest. Her son Wallace has moved back in. I’ll let Sandi tell you the story but you need to know that her life is doing all kinds of adjusting right now, so if you read her blog please take the time to drop by and give her support. I know she means to get back to blogging sometime soon but her computer is in what is now Wallace’s bedroom. My job is going well. I love what I’m doing and the people I’m working with. Thank you for being so faithful. I’ll try to write again soon with pictures of the Christmas Poinsettias I was gifted with. Blessings for now. Life got rather busy a few weeks ago. I mentioned in an earlier post that the Census had called and asked me to work for them again. The job kept getting postponed for a couple of weeks and that frustrated me some at the time. But the work finally started and it is still as much fun as it was earlier this year. The slow spell of the summer is over and we are gearing up to hire a lot of folk for the upcoming census taking. If you want a temporary job that pays fairly well and helps your government put resources where they are needed most then click here . One of the nice things I like about this job is there is so much to learn about the project. I’m a perpetual student and excel in learning environments. This one has a lot to teach me. The fact that we do a Census every 10 years is dictated by law. I believe it’s written into the Constitution. There is a deadline for it. The Census totals need to be on President Obama’s desk on a specific date in the middle of next December. The goal is to do a better job of counting every person in the country than they did in past decades. We are aiming for 100%! That 100 percent isn’t just those of us who live in houses or apartments. It includes trailer parks too. That I could have figured out. But for some reason I hadn’t figured on them counting campground dwellers, boat owners who live in them on the water, and people in care facilities like hospitals, retirement communities, and jails. And then there are the people who live in shelters, under bridges and overpasses, and in boxes. Yep, we plan on counting them too. That thought brings to mind an old black and white movie image of hoboes around a campfire. I wonder if they will search railroad cars for people. That’s the main news on my front. I’m busy and feeling good about it. Yay! Other news is that my list of friends on Facebook has grown. A bit of that is thanks to Classmates.com. I’m reconnected with a few folks in my high school graduating class. That’s kind of neat and I’ll probably try to go to a reunion when they hold it. On a more interactive front an old college chum got in touch with me the same way. I'd not heard from Harry in something close to 30 years but we were great friends when we attended the same college. He’s doing well and is in town for the holidays to see his Mum. We are meeting for lunch tomorrow. I wonder what we will talk about. My Dad sent me a box full of pictures from the family collection. He is scanning them into his computer and was just going to toss them so I asked if I could have them instead. Yeah, I love a digital image and can look at one for hours if it’s really good. But just like books, a real photograph printed on paper is somehow more tangible and generates strong memories and emotions. Guess I”m just an old fashioned girl when it comes to some things. I guess the last bit of news is that tonight I’m attending a Celtic Christmas Concert at my church. The music I’ll hear is going to be performed by Jeff Johnson, Brian Dunning, and Wendy Goodwin. I hope to come away with a CD or two of their music. If you want to listen to some clips of their stuff the website is here . I’ll try to write about the concert and my impressions later this week. Peace, Hope &amp;amp; Joy! Wednesday evening is practice night for my church choir, of which I’ve been a member for about a year. These days we are gearing up for the annual Lessons &amp;amp; Carols service. It’s exciting because there are always lots of new numbers to sing and it is the choir showcase service. We are also thinking ahead to Christmas Eve service which also has lots of music in it. Our choir director asked if any of us would be interested in doing some group numbers, not exactly solos but still out front and I said count me in. So this Christmas I may be part of a trio singing a medley of carols. When choir practice was over we had a birthday celebration for anyone who’s birthday is in November and those we’d missed earlier in the year. This is renewing an old tradition among our group that fell into disuse and I think we are all happy to have it back again. Everybody should have their special day. The members who volunteered to sponsor this month’s celebration brought wine, desserts, and some nice crackers, chips, and dips. It was all good. Then we left for the evening. Outside our sanctuary door there’s a motion activated security light. It’s dark earlier these days so I was glad that it came on as I headed out to my car. But apparently someone in the world wasn’t so happy. As I passed the tree on the corner of the building I heard a sound I’d never heard before. It was a sort of hooting. I stopped and listened and it happened again and again. It was an owl protesting about light disturbing his peace. In all my life I can’t remember ever having heard an owl before, but I recognized it immediately. Perhaps there’s no other bird that sounds like that. Maybe it’s so distinctive that once you’ve been told what an owl sounds like you can’t mistake that sound for any other bird. The moment made me feel very good. To know that nature was out there and active, that a bird I tend to think of as a wilderness creature was on our church grounds, made me aware of how special our sanctuary and grounds are. Whenever I’m on our campus I feel blessed. There’s this feeling that just seems to fill the grounds up, not just the sanctuary. We call ourselves reconcilers and I think that sound served to remind me that we reconcile ourselves to nature too. The Happiness Project had an interesting post the other day about de-cluttering. It was rules to not follow. In it Gretchen gave Eleven Myths of De-cluttering along with how we should not follow those old beliefs and why. I was surprised to find these out and have to admit that I’m guilty of believing and practicing many of them. Maybe I can try out these new methods and get better results. What do you think? Are you guilty of any of these? Peace! Hope! &amp;amp; Joy! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not usually a big fan of 'making of' videos - if I wanted to have the daylight poured in on magic, I'd buy myself a periscope and a ladder, and most album-making is like most other album-making - but Solex have come up with something a bit beyond the norm to promote their Solex VS Cristina Martinez &amp; Jon Spencer Amsterdam Throwdown King Street Showdown thing . This, to be precise, is what they've come up with: Solex VS Cristina Martinez &amp; Jon Spencer Comic Video from Bronzerat Records on Vimeo . There's been such a gush of affection for Galaxie 500 been inspired by the re-release of their catalogue you do wonder how it is they managed to not be solidly at number one for months at the end of the 1980s. Still, it's a good time for Damon and Naomi to be announcing a mini UK tour: April Friday 30 - Brighton - The Old Market £8. Doors: 7pm May Saturday 01 - London - The Luminaire £8. Doors: 7.30pm Sunday 02 - Manchester - St. Philips Church as part of 'Sounds From The Other City Festival' £15. Doors 3pm Monday 03 - Sheffield - The Harley £6. Doors 7pm Tuesday 04 - Glasgow - Mono, price and doors tbc Thursday 06 - Cardiff, - Arts Institute free. Doors 7pm Friday 07 - Bristol - The Fleece &amp; Firkin £8.50. Doors 8pm Bat For Lashes might have missed out on the Brits, but Natasha has picked up a prize at the UK Asian Music Awards . Which took place on Friday. First with the news as ever. Still, with the Asian Network doing so much great work for the Anglo Asian music scene, these awards are timely, giving a chance for the tireless team in Birmingham to be given a pat on the back; a chance to demonstrate some love for the AN. So who from the slate of Asian Network presenters won the best radio show category? Nihal - Radio 1 Oh. The winners in full: Best Album Jay Sean - All Or Nothing Best Female Act Amar Best Male Act Jay Sean Best Alternative Act Natasha Khan (Bat For Lashes) Best Club DJ DJ H Best Newcomer JK Best Producer Sukshinder Shinda Best International Act Rahat Fateh Ali Khan Best Desi Act Imran Khan Best Urban Act Jay Sean Best Radio Show Nihal - Radio 1 Best Video Jay Sean - Down Best International Album Miss Pooja - Romantic Jatt Outstanding Achievement Biddu Commitment to Scene Talvin Singh The supply of ass-kicking Japanese female-punked pop shows little sign of abating. Meet, as proof, The Suzan. To mark their appearance at SXSW, The Fader are hosting a free download of Home . If you'd like to try before you... well, not buy, as The Fader are doing it for free, but this is roughly the sort of thing to expect: Due 10th May: a new single from Nina Nistasia, Cry, Cry, Baby. Steve Albini is still producing for her. Better than that: there's a promise of a UK tour - brief, but with a fuller programme to come this Autumn. New-ish Placebo drummer Steve Forrest nearly set himself up for a sit com moment thanks to a scant knowledge of late 90s British androgopop : Yes, he tells my paper from Sydney, Australia, where Placebo were touring recently, he even thought lead androgynous singer Brian Molko, 37, was a girl. He recalls: "My tour manager played a Placebo CD and I said, 'This chick's cool. She has a really good voice'." It was only later, when Forrest met Molko in person, that he realised Molko is a guy. ... and only then after two or three weeks, when he realised he peed standing up. It says here. You'd have to think that Molko would probably be flattered and delighted if someone thought he was an actual girl. Providing it wasn't an ugly girl. Well, given that people are less keen on buying albums these days, you do need to have a second string to your bow. Will Oldham has just launched a limited-edition bottle stopper : Each bottle stopper was individually hand carved by the artist Scott Millar, so each one will be completely unique. Anyone ordering the bottle stopper from the mart will be sent an email to download all the album tracks on the release date, 29th March 2010. The idea is that if you don't want to finish a bottle of wine, you can use this stopper to reseal it. No, apparently, there are people who don't feel compelled to polish off a bottle once it's been opened. Here's a funny thing - Eddy Grant has accused Gorillaz of ripping off one of his tunes : Grant says Gorillaz copied his 1977 song Time Warp on their new single. "I am outraged that the Gorillaz have infringed the copyright of my song Time Warp, claiming their song Stylo to be an original composition," he said. Breach of copyright, eh? Now, there's something the RIAA are always quick to have something to say about. You only have to try and remember what a song sounds like, and the BPI will hit you with a lawsuit for copying the music to your cerebal cortex without the correct licence. Clearly, Grant's publisher, EMI, will be fuming over one of its artists having his copyright abused, right? [They] said it was "a private matter between Eddy Grant and Gorillaz". Oh. Um... well, what about Gorillaz's publishers? They, surely, won't sit back and be accused of stealing copyright - that's like stealing hangbags, remember? [They] said it was "a private matter between Eddy Grant and Gorillaz". Oh, yes. It turns out that, at least, the publishing arm of EMI aren't actually that upset at the thought of copyright being abused at all. Indeed, it's nothing more than a "private matter". Perhaps they might like to have come to this conclusion before the BPI tried to write UK legislation in the Digital Economy Bill. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike has seen a steady uphill trend in overall speeds over the course of the last several days.  Conditions have been getting cold, and I have not seen any high winds or evidence of big storms.  The Iditarod dogsled race and associated snow machine traffic might be helping as well.The upshot of all this is that he's caught up to his 2008 pace, which is most definitely a good thing considering how tight his food and fuel margins are.Here is little SPOT replay video I put together showing comparing 2008 and 2010.  You can see how much slower things were in the beginning, and even though 2008 stays in McGrath for some time, it isn't enough to catch up.  The "Endless Innoko" stretch of 2008 is where Mike really started gaining ground, whether from better conditions or avoiding the mental fog / demoralization that plagued him that year.  He then continues to gain or hold ground throughout the Yukon river stretch.Reviewing some of Mike's older posts, I came across this post talking about the dangers of the 'sledneck' traffic and how he has festooned his bike all sorts of reflective tape and fabric.  In 2008 he recounts some interesting encounters with locals on snow machines, mostly out watching the dogsled race come by.  One person he met even claimed to have run over and killed an entire pack of wolves.  His post is well worth reading and can be found here.He ends the post,The night passes as a series of brief, anxious 'sleep' episodes, each abruptly ended by the imagined scream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I'm in the corner tavern the other day, listening to these two enlightened, albeit, not very educated, idiots debating the need for a national health-care program.
+   Why is it that every booze hound is an expert on political issues? I go to the bar to drink, not talk, and certainly not to debate current affairs!!! I think from now on, I'll just stay home and drink in the privacy of my own home.
+   I really hate people, especially idiots and morons.......and pretty much everyone else!!!!!!!!!!!
+   Assholes!!!!!!!!!!!!!    
+</t>
+  </si>
+  <si>
+    <t>I had an unusual media epiphany last week, and it had nothing to do with Trafigura, Jan Moir or the balloon boy, whatever that last one was all about. No, what happened was this. I was sitting on a train, reading an article in the financial pages of the Guardian, on my way to a conference in Exeter. So far, so unremarkable. The article was about WH Smith's business plans. It's going to open 80 new outlets inside office buildings, based on the success of a number of shops it's set up inside hospitals. Profits are up at WH Smith, the article added, thanks to the canny strategies of its CEO, Kate Swann. It was at that point that I had my epiphany. Here was an article in a newspaper about a successful FTSE 250 company that happens to have a female CEO. Not only that, but it had been written by a female journalist (Julia Finch), and was being read by a female business person (me). And yet at no point was the gender of the reader, writer or subject made an issue. The article didn't appear in the women's pages, or in a glossy women's supplement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am honored to be here today and to have the opportunity to share this time with you. When Judge Mordue asked me to speak, I was delighted to accept. This venue combines two of my favorite groups; students and veterans. I am a history teacher at Cazenovia High School and truly believe helping and nurturing young scholars to be my reason for being. Young people like you are near and dear to my heart. With regard to veterans, I happen to be one, but that is secondary. For me, veterans are the embodiment of our nation’s virtues. They are also living repositories of history. You’re probably tired of hearing your teachers tell you that we need to learn from history, so let me phrase it differently – we can and should learn from those who have made history. Each year, I require my students to seek out and learn from veterans of our nation’s wars. How blessed you are to have veterans in your own family – I hope you will never stop learning from them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miss her so.
+A week prior the trip, I was advised by frds to inform the princess that "mama &amp; papa is gg away" and she needs to stay with popo &amp; yeye. I talk to her abt it many times a day, and each time, she will choose to pretend not to hear and give me smiley faces.
+She plays ignorant and it irks me becoz I know she understand what I am talking abt.
+2 days before the trip, she gotten really really sticky to us and was such a baby. She started throwing little tantrums and wakes up at night crying. A couple of times, she cried so pitifully after she woke up from her nap that it was heart wrenching to watch.(I informed daddyhan abt it, and I guess it affected him as well, becoz he actually went to check out the SQ website wanting to purchase another ticket to bring her along! Too bad the flight is full.) I understand that she is trying to cope with the news and it hurts me so. The day befre the trip, we brought her to the toy store so she can choose some toys to bring over to popo's hse to play. On the way back in the car, I turned over and told her, "ning, tonite you sleep with popo okie? Be good girl ya." She immediately gave me a sad face and in that whiney tone, said "I wanna sleep with mama"
+I cried.
+When daddyhan sent her to popo's place, I did not follow. I cannot handle that kinda emotional moments, so I choose to stay hm and kissed her goodbye. When daddyhan came home, he said ning was having so much fun there that she didnt even cy when he had to go. We had been calling back daily, and is glad to learn that she is having tons of fun, is behaving well and had not ask for us at all.
+My baby is all grown up now. She actually understands that we are going away and couldnt bring her along. I felt really really assured by her behaviour and is much more relaxed now. Now, if she understands that we are away and couldnt bring her along, then Im sure she understands what daddy meant when he promised to bring an elephant back for her.
+Where to find one now?</t>
+  </si>
+  <si>
+    <t>Action Life is all about our own actions.
+Actions are , "each and every" thing we do.Actions are the result of composition of different things, such as "Condition", "Choice" , " Habit", which favour the final action. Every individual action depends upon these three things. People will do the things if its their habit, or if the condition is favouring them to do so or if its the choice they have made for themselves for their good. So one person can admire you and another can be a person who treats you bad, or irritates you, does something wrong, will be considered as a bad person. But he is acting according to his condition, habit and mostly choice. According to him he is as good as Shri Rama in Ramayana. So all good and bad things are perspective.
+Every thing in this world depends upon the action. One's action can create some condition for another. One can regret about his own action. For doing any action, condition cant be changed , habit can only be change forcefully, but one can make right choice in perspective of everyone so that there will be no need of regretting for our own action.well, in the end I want to say that I was thinking to write a blog from long time which is turned into "action", because I was dying to ... ;) another factor of edmitting an action ;)</t>
+  </si>
+  <si>
+    <t>Two of your children get into an argument and when you can't figure out which one is fibbing, you send them into another room to "get their story straight" reminding them that whoever is at fault will be punished. When they return, they have both come to the conclusion that it was the child who was sitting beside you on the couch the whole time that was responsible for starting the fight.</t>
+  </si>
+  <si>
+    <t>After days of rain that dropped 5-8 inches in the Boston area, the sun is out, the waters are slowly receding and it's beginning to feel like spring! These beautiful crocus blossoms greeted me at my side door this morning as I was leaving for the office - I'm pleased to share them with you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A few weeks ago Bonnie, the more exciteable of the two puppies, charged at me in all her enthusiasm and bashed me in the nose. It bloody hurt. Enough that for the past few weeks I have been taking pain killers and nursing a very sore and tender nose. However, me being me, I thought, "it can't possibly be Bonnie's fault" and so I decided I had sinusitis! Stop laughing at the back .&amp;nbsp; Having never had it before I scoured the Internet for symptoms of which pretty much boiled down to the ones I had. Except today I couldn't stand it any longer and thought it best to see the doctor. So off I trudged, to his little TARDIS in the next village, and let him have a right good look up my hooter. Prodding and pressing, feeling and caressing, asking me about snot and things on my hankie, he confirmed that my sinuses are absolutely fine. "Have you knocked it recently?" he asked. "Oh, well one of my puppies did a bit since," I answered.&amp;nbsp; Some more feeling took place before he gave his final diagnosis. "You've broken your nose," he said. He explained how the bones and bits inside work and everything started making sense. It's slightly swollen but is now on the mend and apparently re-setting itself. And it still bloody hurts! And moving swiftly on, Amy drew out five names from her "see you, Jimmy" hat.&amp;nbsp; I will contact each one of you and ask for your address so that I can send a copy of my childrens book to you.&amp;nbsp; Here is the Vlog we did which shows Amy drawing the names from the hat.&amp;nbsp; If you didn't win a copy but would like to receive one, you can always buy one here .&amp;nbsp; Thank you for all your comments and for taking part in my little competition. What do you say to them when you realise that whatever you do say might not be understood.&amp;nbsp; Or will be, more times than not, a waste of time, and will make you feel worse than you probably do already.&amp;nbsp; Those beautiful malteser eyes stare up at me with huge great tears just bursting with volcanic resemblence, and I am supposed to decide in a split second whether this is an age issue, or one of autistic trait. Last week I lost the plot.&amp;nbsp; I guess sometimes even mums are allowed to have a tantrum, and that was what I did.&amp;nbsp; The door took most of it, but I must have looked like a mad woman; completely crazed by a child's rudeness.&amp;nbsp; I couldn't cry.&amp;nbsp; Tears wouldn't come to the surface even though I was sobbing inside.&amp;nbsp; I knew having a tantrum in front of my autistic daughter was the worst thing I could have done, and I'm still reliving it seven days later, when she tells me how crazy I was.&amp;nbsp; But then the inevitable happened; word from elsewhere that Amy had been telling her friends about our little tete-a-tete.&amp;nbsp; I was wrong to do what I did, I'm usually calm and walk away from a situation where I know I cannot win, but just occasionally, that little wire snaps, and bingo.&amp;nbsp; I'm a gonna. Of course things calmed down within the hour but I spent a few days beating myself up, thinking of new ways to tackle the issues which no doubt surround adolescence.&amp;nbsp; But what's not easy to get a handle on is adolescence vs autism.&amp;nbsp; As yet I do not know exactly what the next twelve months will bring, let alone the next five years of which I am sure will be just as hard for Amy as it will for me.&amp;nbsp; The school are helping, as is the school nurse, but right now, support is very thin on the ground.&amp;nbsp; And that, I am sorry to say, is nothing new. p.s. Book giveaway draw will take place either tomorrow or Wednesday; am trying to persuade reluctant child to help with filming it! Something amazing happened yesterday.&amp;nbsp; I knew at the beginning of the week that I was nearing the end of my novel, the one I have been writing on and off for the past two years.&amp;nbsp; The one in which I have fictionalised my own paranormal experiences, seeing them through Camilla's eyes.&amp;nbsp; I have lived her life, thought her thoughts, created her from my own imagination.&amp;nbsp; I have felt as if I owned her, as if she answered only to me.&amp;nbsp; I have visualised actors playing the parts of characters, Martin Shaw as the Reverand Oakley, Robson Green as Michael all verging on a complete fantasy of which I have seen played out before my eyes. But yesterday I realised that I had reached the light which marked the end of my work in progress.&amp;nbsp; I had said everything that needed to be said, got to the point where stretching out the novel for the sake of length would have been wrong and most likely spoilt the whole effect.&amp;nbsp; And so I closed the file and finished it.&amp;nbsp; I haven't typed the words, "The End" because I am sure there will be much to add, and too much to subtract.&amp;nbsp; I have put my little memory sticks on which the book is saved, into a drawer and locked it.&amp;nbsp; After the lambing I will open that drawer and begin the editing process which I know will be hard, but will mean another step nearer to presenting it for potential publication.&amp;nbsp; I suspect finding a publisher will be the most difficult part, but for now I shall enjoy achieving my goal of writing my paranormal novel. And so, in order to celebrate this achievement, I am giving away three copies of a children's book which I wrote myself and self-published.&amp;nbsp; The book, Adventures at Aaron Loch Farm, is a compilation of children's stories which I wrote a few years ago.&amp;nbsp; It's nothing fancy, but all my own work, including the book cover picture.&amp;nbsp; But I'm proud of it, because it was the first book I had published, albeit by myself.&amp;nbsp; I shall write all commenters names on a separate piece of paper then ask Amy to draw out three at random.&amp;nbsp; I'm more than happy to post anywhere in the world.&amp;nbsp; And if I get lots of comments I shall increase this giveaway to five copies, but if you would rather not receive a copy and you still want to leave a comment, just say, I won't in the least bit be offended.&amp;nbsp; You know me, I love my comments.&amp;nbsp; CJ xx We had one of those unforgettable family afternoons on Sunday.&amp;nbsp; The sky was blue, few clouds scattered in recognisable shapes, a distant micro-glider buzzing above the barley fields.&amp;nbsp; The Farmer was sawing down hedges, keeping himself busy in the Spring sun whilst Amy and I played hide and seek, her idea; mine was to sit down and play a board game.&amp;nbsp; One of Amy's hiding places was behind the greenhouse, made of glass. I had no problem finding her on that occasion. We decided to join the Farmer in the end, walking down the field to be greeted by 4 excited collies, bounding towards us.&amp;nbsp; I couldn't miss the opportunity of taking the camera and the camcorder, so here's a little vlog snippet for you, it's only a minute in length, without my ugly mug, so quite safe to watch. A long time ago, when I lived in the South East, I did some contract work for the Crown Prosecution Service; a very interesting job but one I couldn't have undertaken as a permanent post.&amp;nbsp; I saw many harrowing files, witnessed cases being brought to court, and even sat in on a murder trial to assist one of the law clerks.&amp;nbsp; It was pressure all the way, and even though I was young, married to my first husband with no children, I just wasn't cut out for the responsibility in which the job demanded.&amp;nbsp; Unfortunately, I made few friends and was quite relieved once my contract came to an end, lucky enough to find a permanent job not long after at Rothmans where I did make friends and felt much more at ease.&amp;nbsp; But even though my temporary post at the CPS didn't work out, I have always been interested in law; attending college to get the Institute of Export qualification thus making my job at Rothmans more successful. Now I find myself asking a question; as a defence lawyer, knowing your client is guilty, with strong evidence to prove it, how would you defend them?&amp;nbsp; You have a murderer or the like standing in the witness box, having just sworn on the bible, and refusing to accept responsibility for their actions, yet the lawyer knows otherwise.&amp;nbsp; Does the lawyer get his client off and risk that person being back on the streets to murder again?&amp;nbsp; What is classed as winning a case so far as the defence team are concerned?&amp;nbsp; When I was a little girl I used to love visiting my grandma.&amp;nbsp; She lived in a 3 bedroom 1930's semi on the outskirts of a small town.&amp;nbsp; The house also had a large back garden, seeming much bigger when I was a child.&amp;nbsp; We always used the back door which opened into a little porch, or lean-to as is sometimes known, which went straight into a small kitchen.&amp;nbsp; I remember the units being similar to the ones we used to have in the farm house kitchen before it was renovated.&amp;nbsp; Two doors in the kitchen, one leading into the back room which was used most of the time and the other going into the front room, a large sitting room with a sideboard, gramophone and a few other pieces of furniture of which I can't quite recall.&amp;nbsp; I do remember however, the photographs of which grandma had on display, sitting proudly in their frames on the sideboard. I used to love this room; I would spend most of our visits playing on my own with the brass ornaments grandma had on the fireplace.&amp;nbsp; I often got told not to touch but you know what kids are like.&amp;nbsp; But I was always so proud of the baby photo; I used to stare at it and ask my mum to tell me what I was like as a baby. The reason why I look so chubby was because my parents left me with my auntie for two weeks not long before it was taken.&amp;nbsp; My dad had to go to Germany on business and mum decided to go with him, taking my almost 4 year old brother with them.&amp;nbsp; When they returned they were shocked to see me as I lay in my pram, the only explanation being my auntie had fed me on bananas for the whole duration. Having been passsed the baton by Trish of Mum's Gone To , I now proudly present it to my taggee who can be found here .&amp;nbsp; This is a picture of the person in question, a little clue for you on the photograph. No matter how many times we wish we had the better option, we are always able to make do with what we have.&amp;nbsp; I have learnt over the years that the challenges and obstacles of which I have been faced with have not been bestowed on me because I couldn't cope.&amp;nbsp; We go through many testing times throughout our existence, some of us are faced with more than others, but these are only times which we can deal with, only tests in which we will, eventually, pass. We need people in our lives to help us cope with the days that we wish our parallel universe was a little nearer to reality.&amp;nbsp; It isn't easy sailing through life having nothing to worry about, and that is something most of us will never experience.&amp;nbsp; I worry if I haven't got something to worry about.&amp;nbsp; The responsibilities we take on during the course of our lives are often so great that it isn't uncommon for one to feel we are in it way over our heads, incapable of getting through a day. Life is a precious gift; imagine how incredible it would be if there were two of us.&amp;nbsp; A parallel existence in another universe could be all the things we always wanted to be, it could do everything we planned to do, visit all the places we want to see, have the perfect job, live in a perfect house.&amp;nbsp; Even though this wouldn't be reality, what would you want for your life in a parallel world?&amp;nbsp; Putting aside your contentment in this life, imagining you could choose another You. I had Amy's statement( of special education needs ) review recently. The first one at her new school. I came away with a spring in my step, totally in awe at the incredibly keen interest of which the school have taken towards her welfare. They can't do enough for her, ensuring she gets the maximum enjoyment and educational support she possibly can. I had my report to submit, along with reports from the school and her communications officer. And what I found comforting was the fact that we are all on the same wavelength. Nodding heads and lots of "yes, absolutely"'s and I felt good inside. Amy's growing up, and the school are acknowledging that head on. As you know, she has started doing life skills which comprise of swimming, helping at another school, cookery and soon to be helping at a library and possibly a nursery. The nursery arrangement concerned me a little due to Amy's difficulties in dealing with younger children ( she gets very aggressive towards them ) but the school once more came up trumps and ensured me she would be observed and supervised at all times. The current statement stipulates 26 hours support per week, but the authorities were suggesting that this be reduced to 20 hours as from 1st April. The school are in total disagreement with this plan and are insisting that 26 hours remains, if not to be increased. I was almost jumping up and down with thanks. It's so important that Amy doesn't lose any hours because, as the school agreed, the reason why she has been doing so well at middle school is because she has a good level of support. But it's all about funding. People don't matter anymore; and that's what we need to change. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I lost my mother to radical breast cancer which kept spreading throughout her body. She had five different operations and chemo therapy before she died. I just had radical prostate surgery a week ago Tuesday and today found out there is a 30% chance there is still some left but need to wait 6 weeks to see where we are. I have high hopes as I have 3 granddaughters and 1 grandson who are very concerned. We are keeping them informed and positive. I hope this is what you are looking for. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People often ask why Charlotte Martin hasn't got a boyfriend. She's an attractive 31-year-old from Hungerford in Berkshire with a successful career as a three-day  event rider and a busy social diary. "When they ask me why I'm single, I never know how to respond," she says. "It's more acceptable in London. Here in the country people wonder what's wrong with you. But I'd rather be on my own than with someone who isn't quite right. My friends say that I'll meet someone when I least expect it and I guess I just have to believe them. Horsey girls aren't that bad really."
+It shouldn't be difficult to meet a like-minded person in the countryside, given that there is a structured calendar of rural social events, including races and point-to-points. But according to Patricia Warren, a farmer's wife from Derbyshire who runs the Country Bureau, a rural introduction agency, the country dating scene can be bleak, whatever age you are. "Communities are small and people work long hours," she says. "There are amazing men out there who want a wife and children but feel as if they've been sitting on a tractor for the last 10 years and haven't met anyone."  Charlotte, however, is socially proactive. "I'm not a hermit, I go out all the time. I like having a full itinerary," she says. "I've gone to so many hunt balls this year, I've become a bit of a joke among my friends. But it's rare to be introduced to a new face and even if I am, the likelihood is that they'll know my friends." For many rural communities, the hunt ball is an annual highlight, organised ostensibly to raise money for the local hunt, but presenting locals with a rare opportunity to dress up and swing each other around on the dance floor. "I'd never go to one on my own," Charlotte says, "but as long as I have a wingman, I'm fine."
+This is exactly the right approach, according to dating expert Mary Balfour. "Find a dating buddy; someone who is in the same situation as you," she says. "Single friends will also give you moral support if you're feeling depressed about meeting the third frog in a row."  If you've been brought up in a country community, the chances are you will already know a lot of the people living locally. According to Patricia Warren, this can make socialising stale. "You need fresh blood," she says. Two of Charlotte's friends organised a singles party on Valentine's Day and 70 people turned up. "It was very refreshing to be sat next to two people I didn't know," Charlotte says. "But that kind of event doesn't happen every month; it takes a lot of effort to arrange."
+Determined to improve the chances of fresh encounters in the countryside, Lucy Reeves, 30, from Northamptonshire, founded rural matchmaking website Muddy Matches with her sister Emma in 2007. "I grew up in the countryside before moving to London and overseas. When I moved back to the country it occurred to me how hard it is to meet people. As soon as everyone starts to couple up and have children, meeting new people gets harder," she says. </t>
+  </si>
+  <si>
+    <t>the pune visit It has been really killing me. 6 months long semester is like marathon race and if you were taking mid sem exams on Saturdays and were kept on your toes on Sundays as well then you can understand what I went through. It wouldn’t be wrong if you say I was workaholic in last 7 months. So I decided to take 8 to 10 days break. And I decided to go for pune as I have always liked this place. So let’s see what happened there.
+I got ticket for a direct train from trichy to pune and I decided to board in that train in spite of the fact that I would reach there sharp 2 a.m. because that was the only train that has seats available. When it reached some place called Sholapur in Karnataka or Maharashtra people started closing and bolting the doors and windows. I asked what the matter was. Someone told me that some people may come to rob the train with swords and guns. He also told that last time he traveled through this train and robbers came and robbed the train. (What the hell. That is why I got the tickets for this train. There were 4 or 5 constables also in the train with guns to protect us). But I think it was my luck so nothing happened. I spent most of my journey reading my novel or watching out of the window. (No hot chicks to check out :().
+I was praying my train to be late as I was going to my sister’s home in pune and she and my jiju were to come after 12 in the noon. But they left keys for me with their neighbors. But I couldn’t have gone someone’s home at 3 a.m. in the morning to ask for the key. My train reached on time. So I thought I should rather wait on station. There is one nice restaurant on station (I don’t remember the name as usual). It is 24*7 restaurant and its kind a place where you would love to go and have something. I have never seen such restaurant on any other station. I went there to have something and pass my time. Suddenly when I was on counter I got a call from my friend. He is studying in Lonavala. Dude 2 a.m. in the morning and he is calling he must be here somewhere I thought. I picked and he was seating behind me. We had a long chat, some food and coffee. I was meeting him after 3.5 years. I guess the World is really small. He had his train at 4:30. So we chatted for 2.5 hrs. I left at 6 a.m. and reached home around 7 after struggling with auto walas.
+One day I spent sleeping and rest 3 were spend in seeing the beauty of pune. Now you must be wondering what is so beautiful in pune. Yup there are no tourist spots like in some other places. But city is full of youths and things that attract youths :). I played a lot with piyush (my nephew). Last time I saw him he was not even 1 year old. This summer he will turn 3. Kids and food are hard to resist. My taste buds were happy after long time. So I played a lot with him and also ate a lot. We sindhi are known for our passion for food and clothes. I haven’t seen anyone else spending as much money on food and clothes as we do. And our food can’t be finished without dessert. So I was loaded with a lot of stuff. I also went to my cousin. He is currently working in CRL (part of tata group)in pune. That is a lab where World’s 4th and Asia’s no. 1 supercomputer is kept. He told me a lot about his work and supercomputer. Though I couldn’t go to his lab as visitors were allowed on Saturdays only and I was heading for kalyan(1 hr form Bombay) before that. We went for movie (avatar) one evening. We thought as it is a week day we will get tickets. But we couldn’t get for evening as well as night show. We went for next day morning show (8:30 a.m.). Well pune girls were quite fashionable and I didn’t miss any opportunity to check them out. 2 years back when I went to pune their shorts used to be below knees but in these 2 years they have come above knees. I don’t know where they will be in next few years (lol :D :) ). Pune was chilly in morning and nights. But still when we went for the morning 8:30 show girls came wearing shorts and sleeveless. I realized that its quite tough to be a girl in a city like pune :D. These girls were no less than fire in a chilly morning. Anyways we went for the movie. I read a review of the movie somewhere before watching it and it said “you have never seen anything like this before” and yup these words were quite true. I saw it in 3D and found it to be really awesome.
+After spending 4 or 5 days I left for kalyan and spent couple of days there. I booked the window seat in the train so i could enjoy the beauty of Lonavala and Khandala. Both the places are beautiful but if you want to see its true colors you should go in rainy season. I also had plan for Bombay but couldn’t go. In kalyan again most of my time went in talking to my cousin and wandering in shops and streets. I and my cousin discussed a lot about our college lives and all the funny stuff. Couple of years ago we two were youngest in our family until some offspring came and snatched our title :(. Anyways we are still the rock star of our family I guess :). So we had good time.
+All good things come to an end. So was this trip. :(. But I had good time there and put on some wait too. :(. I hope mess food will bring me back to normal size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd dare say your not as good with women as you wish you were, you're looking for something that can take you above and beyond 99% of men for free, it's here, you just have to reach out and grab it </t>
+  </si>
+  <si>
+    <t>Sales &amp; IT have a lot in common. The thing that you learn from sales and can take back into the IT world is that every customer is different. Every customer has a unique set of challenges in terms of how you communicate, how you work with that individual company or customer.
+To be an effective CIO leader, you must understand the different parts of the various groups you serve. The way you speak to the head of sales is different from the way you speak to the head of operations, the CFO or the head of R&amp;D. In order to be effective leading IT, business transformation and change, you have to understand what various leaders are trying to do within their own business area, align with that, and then communicate the value that IT brings.
+If you start talking to the head of sales about IT or operational metrics, they’ll glaze over very quickly. If you go in talking to them about how am I going to help you drive sales, how am I going to help you drive sales productivity or lead management, you’ll have a much better reception than if you go in there and simply say we’re going to implement Salesforce.com and give them a project plan. You need to show them you understand their challenges as well as the value proposition of what IT can bring.
+Where a lot of IT guys get hung up is they talk about “the data center is up 7/24” and “I’ve got five nines reliability” or “I can role out projects…” But you know what? That’s a commodity these days. The real value that you have is where you understand a business unit and its key metrics. I’ll just take a real simple example: If you’re going to roll out a CRM project, the sales team, in general, is looking for… well, they’d say it’s really about lead management, it’s about getting my contacts in a single database, it’s about making my day easier. No it’s not! It’s about sales productivity and driving revenue.</t>
+  </si>
+  <si>
+    <t>Get wat u want :) - After a long time, i m bloggin n i wanted to talk on sumthin substantial n sumthin every1 ll relate to..... may b on t lines of ma first blog:)
+Ever done things on impulse,without caring for t consequences?
+Ever done things out of passion n dedication than compulsion?
+Ever done things out of love?
+Because wen u do things lik this, irrespective of whether u succeed or lose, there ll b a feeling of satisfaction and peace. may b i m being philosophical, but t truth is tat wen we ve all our heart in sumthin v ll always do it well....
+I once watched a documentary called "secret". It s a movie abt "law of attraction"(nw don let yr perverted minds do t thinkin :P ) its philosophical. there s somethinf g profoundly infulential about tat movie, that it changed t way i looked at life.. after tat movie, i was jus transformed. 
+Law of attraction s nothin but if u want sumthin, n want it wit all ur heart, imagine u already have it n visualize. u shud visualize in a way tat u can feel its presence in ur life n u already ve it. then t whole world ll conspire in its own ways to make u get it...
+Its true... let me quote an instance wen i made this law of attraction work without knowin abt it...
+guess it was 2002..don rember wen..champions trophy match,venue was s.lanka-india vs south africa semi final. india was in pathetic position...it was damn sure S.A wud win...bein a cricket freak n fanatic, i badly wanted india to win...
+in 34th over i went into pooja room n sat in front of gods n started prayin....i jus said to myself or rather to god- i ll sit here till t end of t match prayin without watchin t match till 50th over but pl make india win...my concentration was so high, i prayed so hard tat i actually visualised india winnin tat match... n u kno wat :) india did win tat match..guess part timers yuvi n sehwag got wickets out of t blue n india went on to win it...
+:) try t same in daily life, n there ll b no dearth for joy...jus wish, ask for it imagine u already ve it n u ll damn sure get it... anythin- be it a car or a job or a galfren or a house or money or respect or anythin...sumthin ll happen...world ll adjust accordingly to ur needs.. thats t marvel of t universe...
+nw u shudn b a cynic here n ask ll t world tailor itself to each n every1s need..S it ll...it works accordingly, balances everythin...it can synch wit everyone..Thats t power of it...in fact its scientifically proven too...
+bcos, wen u implement law of attaction, all u r doin s to create a positive charge around u, a positive feel,joy n happiness...naturally tat positiveness leads to enthusiasm, enthu leads to hope, hope leads to hardwork n hardwrk leads to success... so in essence t universe makes u wrk n it wrks for u.... 
+:D Try this once,n if possible try t watch this documentary... cheers ppl
+my nxt blog ll b on "The child in us"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's something about inhaling that fresh morning air. It's soothing and it heals. I feel like I'm taking in optimism and recharging the little batteries that keep me going through the drudge of the week. It's nice. </t>
+  </si>
+  <si>
+    <t>A study published in the December issue of the Annals of Rheumatic Disease describe what many people with who have had RA may already know; that new drugs and more aggressive treatment with these drugs has improved the health status of people with RA over the last 15 years. The Norwegian study surveyed almost 1,000 people with RA four times over a period of 10 years (1994-2004) and found that the health status of these patients consistently improved over that time, in terms of physical health, global health and pain. The believe that the improvement is the result of more aggressive early treatment and better access overall to drugs for patients, as well as closer management of the treatment regime by physicians. Another recent study from Spain also found that the best results come from more effective management of drug treatment, rather than access to new therapies. The team of researchers followed almost 800 patients in Spain from 2000-2004. The study, published online in Arthritis Research and Therapy concluded that while the clinical development of drugs has made great advances, it is the physician's management of the available drugs, old and new, that makes the most difference. The researchers in Spain found that clinical trial results tend to show levels of remission and halts in disease progression that are not enjoyed by patients in real life. The authors stated that this difference could be due to patients included in clinical trials being younger on average, having fewer comorbidities and being selected for trial because they have a higher level of disease activity than real-life patients. The authors found that real-life RA patients (with both severe and mild disease) improved in terms of disease activity, disability and radiological progression independently of the availability of new therapies. The study seemed to conclude that better management by doctors in the future, meaning better selection of patients for early biologic treatment, will improve patients' therapeutic response to treatment, their functional outcomes, and will improve cost-effectiveness of these drugs avoiding unnecessary prescriptions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But this is different: Israel is clearly in the wrong and, according to the Petraeus briefing, it is hurting American foreign policy in the region. In fact, Israel is doubly wrong: its non-stop lobbying for war with Iran is also exceedingly dangerous (the US Joint Chiefs of Staff have unanimously counseled against war with Iran). The fact that David Petraeus, a hero to many on the right, is concerned about Israel's intransigence should give AIPAC and the neocons pause. It won't, but it should. </t>
+  </si>
+  <si>
+    <t>I am a mother of a daughter with SID my husband also has suffered with severe ADD his entire life. Many people have told me my daughter probably has ADD as well. Its not that we dont want to have a doctor diagnose our daughter with ADD we just dont want the medications that go with it, in many cases parents are forced to give there children. But, since my daughter has been working with an OT she has truly showed quite the improvement. Her attention span has increased, her speach, her activity leavel is much closer the average child than before, and even her memory and interaction with people has improved. Even my husband has tried some strategies suggested by the OT and has felt better in his own body since doing so. He to has seriouse sensory issues though he is not diagnosed with SID he exibits many of the same sensory quarks my daughter does. As a mother and a wife I have seen great strides in both my daughter and husband with simple OT and no medication. I can first handedly see the link between ADD and SID.</t>
+  </si>
+  <si>
+    <t>i will never forget this guy for d disturbance that he used to create..but we all love him for his activities..in our class
+my wishes for ur succesful &amp; happiest life forever..i m damn sure abt some things...he can never harm anybody(can only disturb)...he wnts to enjoy his life in every sense and he will...he is a bit lazy but i don't mind..he is too too too frank(the quality every one like abt him)...he is too intelligent but never shows it off...he is one person in our class who will never miss even a day to turn up to coll,but will fair well in exams,a big time fan of ajith and dada(ganguly)i never seen someone being so crazy,all 2gthr a very interesting person to be in company off...every one like toooo disturb him, hit him,tease him but still he takes it in a sportive sense and enjoy's with all,he is a real entertaining factor,a very supportive person...bro u rock u have a very bright future,mr.butt we will always miss u
+*************u r very special**************
+!!!!!!!!keep smiling!!!!!!!</t>
+  </si>
+  <si>
+    <t>The world is full of some beautiful souls, and it surely seems that Olivier Dupon from Dossier37 is one of them. He is known to many Sydneysiders for his gorgeous shop Lola Et Moi, which he ran for about three years, and now the rest of the world is getting to know his quirky, colourful and inspired ways through his blog Dossier37. Olivier kindly shared these pics with Daily Imprint of his home in Pyrmont. As he describes it, "Great views, great light... We use the flat as a white blank canvas for our collections of antique and modern artworks and designer pieces."</t>
+  </si>
+  <si>
+    <t>The last few days have been an emotional rollercoaster for the team behind the show. The producer of the show Roshni Menon died twenty days before the opening night leaving them completely shocked and shattered. Until they realised that the best tribute they could give their friend was make her dream come true.
+“We had the first audition on the first weekend of November, and had a callback in the second weekend and started rehearsals by the third week. But before the rehearsals, I spoke to Shaun Roberts to get the music ready and Mike (Michael Muthu) about the set design,” recalls Denver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We chuckled with him when he talked about losing his hair and we told him there was no shame in admitting he was just plain scared. He came for advice and he got that, too. His journey was a short one, but he made an impression. He left his mark, and that's what it's all about.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I bought it for my friend daughter. I have two Britax car seats, the Decathalon and Roundabout.  These car seats seem to be the safest on the market.  I feel incredibly comfortable putting my children in these seats and they seem to provide the support in all the right places.  I also love how incredibly easy these are to clean.  I take them out every so often and vacumn them out completely and they look (almost) new.  The belt is very smooth moving, especially when you press the button to give you more belt when strapping the child in.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dinner News
+We cooked our first chicken....and no I don't have any pictures. My husband said it was time to get rid of a few roosters. He has experience in this, so he just jumped right in and started with "crooked tail." I told my family not to name the chickens, but some of them ended up with names anyway. Crooked tail was one that they incubated themselves. Something must have gone wrong in the egg turning department. He was crooked, he had a crooked tail (hence the name), he crowed crooked, he walked crooked, and a crooked breast bone. My kids unfortunately went outside at a bad time. Ben came in and said "I am mad at dad!" I tried to explain to him why it was happening, he responded "I am x-ing your words mom" Good thing I am not an Internet site to be x-ed off. They were both very upset but eventually they calmed down. I was very surprised at how little meat was on this chicken, not enough for dinner. The children have refused to eat any. I never thought that raising animals would encourage my children to become vegetarians. Time will only tell. I have a chicken recipe that I am hopeful will entice them to eat chicken again.
+A few nights ago over dinner my children started having a conversation about poop. Usually that kind of talk is only allowed in the bathroom at our house, but this conversation wasn't about human poop. Lucy was telling Ben about the nature walk she went on and some poop she saw. Excitedly he asked "what did it look like?" She went on to describe it and he confidently responded "it was fox poop!" My husband and I were trying to stifle our laughter long enough to ask them to change the subject. I never thought that I would hear my children having such a conversation. I am not an animal person, or a big outdoor person for that matter. But people change, learn, and grow. And these little people that have come into my life have their own interests and they love animals and the outdoors.
+Posted by Mimi Nowland at 9:11 AM 3 comments
+SUNDAY, JANUARY 24, 2010
+Eggs
+How much would you say these eggs cost?
+These are fresh, organic, free range eggs. And right now they cost about 6 dollars an egg. We are finally collecting eggs from our chickens. It took Jared a few days to find all of their spots, but now we are collecting between 8-10 eggs a day. I have to tell you they are pretty tasty, I don't know about $6 tasty. That price should go down as they continue to lay. It has been an adventure and will likely continue to be one! Bring on the egg recipes!</t>
+  </si>
+  <si>
+    <t>Instead of joining us on the right side of history, all the Republicans can come up with is, “slow down, stop everything, let’s start over.” If you think you’ve heard these same excuses before, you’re right. When this country belatedly recognized the wrongs of slavery, there were those who dug in their heels and said “slow down, it’s too early, things aren’t bad enough.”
+Most responses to Reid have furiously concentrated on his spurious slavery analogy, but I’d like to call attention to his expression of what has become a staple of liberal thought that is even more disturbing: the accusation that those who reject liberal nostrums are “on the wrong side of history.”
+For some reason, the Democratic caucus these days seems to be filled with deep thinkers who have cracked the code of the meaning and direction of history. Just a couple of weeks ago the sage of Ohio, Senator Sherrod Brown, told the New York Times that “I don’t think in the end, anybody here in our caucus wants to be on the wrong side of history.”
+This uncanny ability to get in step with history is, of course, not limited to Democrats who are elected. For example, a recent Nicholas Kristof column, “The Wrong Side of History,” charged that if moderate Democrats “flinch” and health care reform fails, “they’ll be on the wrong side of history.”
+In fact, it’s not limited to Democrats at all, as evidenced by John McCain’s comment on Face the Nation last June “that the United States needs to be on the ‘right side of history’ in responding to the disputed Iranian elections and ensuing protests.”
+Thus history, it must be noted, does not have a narrow, one-track mind. Its commands, clearly visible to those standing on its right, i.e., left, side, are not limited to the enactment of ObamaCare; they extend over the full range of the liberal agenda.
+For example, University of Chicago law professor Geoffrey Stone transmits the message from history’s lips to Huffington Post’s ears that all those who fail to accept “the moral analogy between discrimination against blacks and discrimination against gays … have simply blinded themselves to reason” and, you guessed it, “are on the wrong side of history.” (I have recently discussed this “moral analogy” and some questions it raises here.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is so much in health care that can be changed to improve care, but society's view of what is expected from a doctor, a nurse, a hospital, or rehab facility needs to be adjusted. Research is showing that people recouperate better in their own environment. Also, research shows, that longer hospital stays increase the chance of acquiring a hospital based infection. People need to know that staying in the hospital is not the best thing if they are medically stable and can be transferred to home or a rehab facility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After delivering a GDC panel on his cinematic inspiration, we met with Metroid: Other M  producer Yoshio Sakamoto to ask him about everything from collaborating with Team Ninja, lessons learned from Metroid Prime, the newfound focus on story in the Metroid universe, and whether or not he played Chair's Super Metroid love letter, Shadow Complex. Read on!
+Can you tell us about the process of working with Team Ninja. Who does what design-wise and technology-wise?
+Yoshio Sakamoto: The original design concept came from me, but then we went and assembled a team that could pull this off. And in this case it was people from Team Ninja, who we really thought was the best fit. But they've also provided a lot of core ideas that have influenced the direction of the game, particularly the director, Mr. Hayashi. So, as I mentioned in the speech today, it's not so much that we're dividing up tasks but collaborating as equals.
+After E3 and the initial announcement a lot of people were making comments like, "Oh, it seems like they've dumped Retro for this series and they want to go with another developer," as if it was a big switch-off. But, in actuality, that is far from the case; rather, we just wanted to put together the best team that we could to make this project, which turns out to be Project M.
+Gallery: Metroid: Other M
+Retro obviously produced the Metroid Prime series; very successful, very influential. Do you consider this a reboot of the series after Metroid Prime? Is this the direction for future Metroids or just another direction?
+The games that I've been involved with in the Metroid series have been on the NES, GameBoy, Super NES and the GBA. I actually didn't have a lot of input on the Prime series. But when they're doing with Other M here, it's not so much a different universe, it's just a different part of the story. You can't say that there's no relation here; it's probably best to think of them as being in parallel in this world.
+What, if anything, has the team learned from Prime?
+I've been working on 2D Metroid games all the way up until now, so when we had a chance to see the Prime games, which suddenly take the series to the 3D space, we realized people found it to have a really good visual impact, and they really did want that kind of enhanced visual experience. And so, I have to say I'm certainly influenced by people's desires in that direction.
+There are some points in Other M that are going to feel a bit like the Prime series in terms of the visual experience they offer. But what we're really trying to do is bring the ease of play you found in the 2D series forward. But certainly Prime was a very cool series and we've taken some notes there.
+Seeing as how Prime had a very Western focus,
+Other M is "a really good intro" to the Metroid universe.
+is Other M intended to revitalize the Metroid franchise in Japan?
+I have to say we're definitely thinking globally. We want to drive the elements that people have really attached fondness to in the Metroid series. And so we're actively working to find out what people want, but we're not just thinking about the ideas of gamers in Japan. We're definitley thinking about everyone.
+Will there be any online component to Other M? And, if not, why isn't online a priority?
+There's no online functionality in this title, and the reason for that is that Other M does not rely on that as one of the core design ideas. They're thinking more about the single-player style that you've seen in all Metroid games up until this point. And one of the specific goals here is to convey the charm of Samus as a character and to bring forth several perspectives on what kind of personality she has and how she reacts to situations. So online wouldn't really factor into that kind of character development as a core idea. If they were going to design a Metroid game with an online functionality it really would've had to have come in at the ground floor, when they come up with the design of the game.
+The understanding of the Metroid world is not something you can really take for granted among every single gamer out there. There are some people who are new to this series and some people who've been with it for a long time. So one of the first tasks is to bring everyone up to the same level of understanding in the Metroid universe. And this game focuses as a really good intro, as well as a really good new challenge to that world. Once you raise the level of awareness of what the Metroid universe is like, then you can start to think about bringing completely new gameplay ideas that haven't been present before. </t>
+  </si>
+  <si>
+    <t>OK, so I know that the blog is supposed to be about Psychology, but I have another passion, Photography. And sometimes the tog in me has to come out and play. Like one night last week, when Cas came home from school demanding to go out, and Gaz suggested we go for a walk. There's a resovoir not too far from us called Entwhistle, which is really pretty. So we decided to go there. I grabbed my camera bag with a "I'll only kick myself if I see a shot and haven't got my camera" and off we went. I was soooooo glad I'd grabbed my camera when we got there! The sun was setting and the lake was partly frozen. The light was amazing, the colours were incredible. It was a VERY slow walk, with my boys sighing every time I lifted the camera again. But I think it was worth it! Judge for yourself......</t>
+  </si>
+  <si>
+    <t>Happy bday jayashree... for ur good and caring heart ur life ll always be filled with fun and joy..god bless u..
+SSN life is over and u r one among my closed ones whom i miss lots..from the 3rd semester you ve been wit me in all my good and bad times..giving me the moral support.. cant forget my seventh sem reval.. u ve the lucky hands which filled my reval form..cant forget the final yr tour..the instincts we worked together.. the happy days dance on karthik pro show..our group of friends visit to ur hz on the farewel nit..and many many more are there tat happened this 8th sem..i ve mentioned everythin in ur slam...ill cherish those moments through out my life..i hope u enjoyed this year bday too....we really enjoyed it.. memorable day da..U r the one whom ill never miss in my life... every yr we ll surely rock ur bday.. cya..from ur loving brother bhuvi....</t>
+  </si>
+  <si>
+    <t>Rafael Omar Hernandez jr. Can't believe how time flies by just to think that it felt just like yesterday when I found I was having a symbol of mine n omars love. I remember seeing you through that black and white screen wondering about your sex. Miss when daddy and I use to sit around talking about you. 24/7 and watch my tummy move when you'd hear daddys voice. My life has changed completely when you entered this world.my heart grew .. What I'm saying is I can't believe how much your growing I get amazed on everything you do I wanna protect you on anything and everything that can harm you. don't want my baby boy to grow to fast even though its part of life and that's the routine.. I love you mi Gordo n your always gonna be my little boy just wish I could hold time and not have it go so fast. Love to treasure every moment with you hate that daddy is away at times to witness some of the things that makes my day and puts a smile in my face. Even though your such a daddys boy I know I'm in your heart. I love you Omar jr and words can't express what you mean to Me. Your my oxygen my heart and I couldn't survive a minute without that. You’re my angel! Te quiero mucho mi vida! With love always mommy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to thank you god for everything I have, I know I'm not a rich man, but I'm not poor either. There’s others who are worse of than I.I know when my time comes to leave this world, I hope I can lay not in a hospital bed but in my own, I won't lay in sadness or fear, nor hate as I made peace with those who speak out against me. When I grow old and time stands at a halt for those few seconds. I will take my last breaths and sing my death song and prepare for a better world. As my spirit leaves my fragile body I know you will guide me to a place where I will lay in peace.
+But I know I have a purpose on earth and a given time to do good things for those who need me. I'm not sad nor depress. I surrender myself to you lord and ready to fight the good fight and help those who walk into my life. I know I'm your lonely man lord no matter where I go I'm alone on this earth. But Lord you made me your patient man and I will stand the test of time to do what's right and to be good to others who need me. All I ask is a little time to have in this world and to be the man that I was meant to be. That’s all I want in life, that’s all I ask for.
+</t>
+  </si>
+  <si>
+    <t>MEN"O"PAUSE - Just don't freak out its just not another biology lecture. Not even the agony aunt section nether i am trying to tell you the psychological and vital stats of middle aged women... ( I know the title will force you to think so)
+" Aurat ko pav ki jhooti samajhna chod do"(Its a dialog from some yesteryear movie)
+Yes indeed I am talking about our very much prevalent "PATRIARCHAL SOCIETY" male dominance, power and superiority complex. It all started to monitor families more over it was about the family tree that followed which is why the oldest male member had the power to take major decisions to make life simple and methodical. Rules were different for different families. Its basic objective was to follow a routine and have discipline in life.
+But as lifestyle got more pacey homo sapiens, typical to there behavior are champions in escaping things. Like the rituals nowadays have become more simplistic even more are celebrated twice in just one year! Moreover this modifying trend and escapist behaviors is now seen everywhere even in are daily mundane chores. This is what we women have been the victim of ...
+First place a woman is a symbol of power, force,love and affection. We worship her in many forms like 'Durga', 'Kali' , even when we want wealth and prosperity its Goddess 'Laxmi' whose worshiped before Lord 'Kuber comes in the picture. Then why do have such hypocritical society with double standards, where at one place we give her status of the Almighty and also keep the odacity to harass, abuse and molest her.
+I might not be the one give the absolute decision, neither have I researched enough but I chose to speak my mind with perception and knowledge of my own. Patriarchal Society was just pictured and coined not to objectify women or manhandle them. It was just to protect them and allow them to do chores suited for them not because they are weak, but its a proven fact that physically they are not meant to do certain things. As men they are totally misinterpreted it and we have purda-system, female fetuscide and infanticide.
+Many conventional writers will freak out at the boldness of my statement but I think its time to say it and face it. other than eve's teasing, lecherous gaze,just being felt in public are the most humiliating experiences experienced by almost every women. But whats most humiliating is when that same women whose your mother, wife and sister is completely shunned for five days of the month.( Its just a situation I am mentioning have been among the luckiest one by not facing it) Now my logic to it is that those five days are for her to rest even the body purges itself. Its like giving her a small vacation from her daily chores. But again the theory of misinterpretation comes in, we absolutely shun her to be in complete isolation not even allowed to worship, why would God have a problem with it when he himself created it. :)
+One more dominant characteristic of this kind of society is they die for a son to carry on the lineage and the heir to the property. The most hilarious concept I have ever understood. What will the son do with the million and zillion of sperms when he will not the a women to bore it. After God its the immortal women are the ones who gives life and birth and ironically still seen as the fairer sex or the suppressed one.
+So men 'o' pause and together with the support of both the genders we can practice equality and not just talk equality.</t>
+  </si>
+  <si>
+    <t>The Invention of Hugo Cabret was one of the most amazing children’s books of the last 10 years. A beautifully illustrated book, told as much through its imagery as its narrative, it is also a book with a love for the early days of film, particularly French filmmakers.
+The book won the Caldecott Medal for “Best Illustrated Children’s Book,” but I don’t know which Scorsese will make the movie. Will it be the visual master of “Raging Bull” or the talented hack who made “Shutter Island”?</t>
+  </si>
+  <si>
+    <t>I flew on Jet Blue this summer with a group of teachers. I had heard a lot of bad things about Jet Blue and was hesistant to fly with them. The flight was booked through a trip coordinator so I had no day in the matter.
+I was so pleased with the service, the plane and the flight in general I would love to fly Jet Blue whenever possible. There was a wide variety of snacks to choose from and the flight attendants were very efficient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to figure out the market and where you should set the price there is the basic supply and demand graph. (Red is supply, blue is demand)
+This makes sense if there is more of an item, people will want/need less, so the price will have to go down to so people will again be enticed to buy and than the supply will go down creating a demand so what follows is the price going up.
+While there is many other flaws I will focus on the idea of Demand.
+What you may not have realized is that the idea of demand gets down to the social-psychology and the very nature of man. --or maybe you did think of that--
+Demand is: how much of a specific commodity can be sold in a definite market in a fixed period of time. Generally this is quanitified
+In order to measure demand
+A) the commodity in question needs to exist
+B) the commodity needs to be in play in that market for that fixed period of time.
+Often the idea of demand is paired with something like food, surely food is the oldest commodity and is present in every culture and market on the planet. BUT everyone values food differently and it is only partially paired with our biological need to eat. Crazy?
+From my experience (maybe not yours) I have met picky eaters, I have met healthy eaters, I have met meat eaters, and vegetarians, and those who like mexican and german and italian and ---you get the idea. Our demand for food is not just our body telling us to eat, its our "sense of self" telling us WHAT to eat. Yes, even our demand for food (at least in the modernized countries) is simply a product of our socialization and how we percieve reality. Demand has little relation to supply except for percieved scarcity and also a social constructed desire for that commodity.
+</t>
+  </si>
+  <si>
+    <t>There is one thing that I can remember that was consistent from birthday to birthday growing up. That was our birthday cakes. My mom would go to great lengths to make sure that our cake was perfect and she did a very VERY good job at it. One common theme from year to year was that they all were decorated with small toys. I don't really know why this is significant or why I remember it so much. I just remember the excitement of blowing out the candles looking at what was soon to be your new toy ... as soon as the frosting was licked off of the feet of course.
+As I type this, my hands smell of sweet frosting and I am excited and honored that it is my turn to pass on my sweet mom's cake tradition to my family. I am not trained in "the art of cake decorating" like my mom was. She worked for a bakery until I was born and was quite skilled. In the future, I'd LOVE to take a class or two on cake decorating skills. BUT for now, my kids get my novice approach to cake decorating. For one of my first cakes, I am quite pleased with the outcome!
+I look forward to tomorrow when Jace will gather with his family to celebrate his birthday. I also am looking forward to watching him thoroughly enjoy my hard work ... even if all he really notices or cares for is to satisfy his sweet tooth!
+My baby is one!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cannot believe that this weather is so stable at this time of the year.  It never even reached freezing last night.  The furnace is still going strong on the same load and this is day 3 since I loaded it.  It looks like the driveway is thawed out and dry already and this is only the middle of March.  If this keeps up the deer will be out of the yards and will start heading North where they will be sitting ducks for the first blizzard of the year.  You can bet that we still have another month of Winter coming and it is way too early to start spring chores.  This is not good news, it just portends a long and bad fire season.  
+The boss is off to Minnesota for a couple of days to take her niece to school and will probably do a little shopping in the Mall of America with her Sister-in-Law Becky.  I will be on my own with just the dogs for company.  This is an opportunity for me to get started on some outside chores if I can get the body in gear after sitting on my rear end for the last couple of months.  I can almost walk on bare ground all of the way out to the apple trees and now is the time to do some pruning before they start growing again.  I should get a fresh can of pruning paint as I don't remember if I used all of what I had or not.  I think I will also put in some fertilizer stakes to encourage new growth instead of more apples.
+I really want to change out the blower for the front loader just to force Mother Nature to dump more snow on us but then I would have to pay someone else to put the blower back on as that requires too much lifting for me to handle.  Without the loader I can't really do much cleanup from the winter as there is going to be a lot of lifting involved and I need to empty the trailer of the sugar beets before they start to ferment.  There are enough of them left over this year that the deer are going to have a real hangover if they try to pig out on them.  I just have to make sure that I get them far enough away from the house that the Brown dog will leave them alone.  I don't know what she would be like if she got into a bunch of fermented beets and I don't want to know either.  Just the thought of her drunk on beets is enough to give me a headache.
+I guess that I had better make myself a list of what I want to accomplish this summer, although I know that is just a dream, I can at least pretend to be productive.  First I have to allow time to watch the sun come up while enjoy a hot cup of coffee on the swing.  Later
+</t>
+  </si>
+  <si>
+    <t>For those of you who know me March is usually a very fun month for me. It has my very favorite Holiday- Love the Irish!!!, spring is starting to sprout, my beautiful baby was born, and well overall it just is.
+This year- not so much.
+Starting with the morning of the second day visit to the ER to the ensuing progression of difficulties (how is a person supposed to "kinda" be on bed rest with a two year old?). I like to think I work hard at looking at positives and when I can't find any I work till I feel better. Unfortunately, this is not so much an option with this baby.
+This weekend though did spark a bit of the old for me. Ryan and I were able to load up the car and little guy (with DVD player) and travel the five hours to Baker City to visit his Aunt and Uncle. We went because I had business in Ontario, but the real joy was the visiting. I love Baker! For me it is the idyllic little town, part of this I know is simply because we don't live there and see all the troubles and when we go we get to have relaxing meals with family and their retired friends sharing intellectual conversation and fun stories. It is so fun for me to be back in a Valley town with surrounding mountains and clear views of wilderness, anitque"y" stores and knowing almost everyone who comes through the coffee shop.
+It was also a wonderful sight to see my little Quinnster on the ground gently playing with Jinx, aunt Sandy's sweet tabby, or sitting on the front porch steps with Uncle Rod quizzing him on everything in the neighborhood. These like this help remind me that he isn't a little demon out to terrorize his mother, but rather just a sweet little kid exploring his world with a mischievous side to him too (genetically inherited from his father.)
+Of course it also helps that I can always count on Aunt Sandy to send me home with a great stack of books, that I quickly devour (yep, already down by one and it was a laugh out loud read- Thank you sooo much.)
+I am also very grateful that as the month is on the end stretch I have a trip to California this weekend coming. Can't wait to celebrate Quinn's second birthday at Disneyland with my family!
+Already have my massage scheduled for when I get in. Here's to hoping it will help me kick off a much better April- Go dtaitní an ghrian go bog bláth ar do chlár éadain!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:04 am, Los Angeles. I was just shaken awake by what I thought was someone grabbing the bottom of my bed and shaking it up and down. I went down the hall to the reception desk at the Comfort Inn in Monterey Park and I looked at the night clerk who is usually asleep and said, Did something just happen? Yes, he replied. That was an earthquake.
+I went back to my room and called Braff Zackton who was already at work in Chicago. Braff ran his earthquake search that he does every 30 minutes and informed me that I just rode a 4.4 in the Greater Los Angeles Area at 4:04am. It seems no one else is alarmed but me! That is completely whack and a first for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last night I was overjoyed to see that the snowpeas that I’ve been cultivating for about 4 months now are finally bearing fruit. Like me, they’ve had to show a lot of determination in a place with so little arable land! Boxed in next to my window in a little window-size container they are now happily producing. I can’t wait to taste them. To celebrate the occasion, I’ve asked two friends for dinner next week. I’ve already tried the lettuce I’ve been growing, and to be honest, it didn’t seem like anything special, but my friends pronounced it very “fresh!”
+It seems like things might be turning a corner for me as well. For most of this month I’ve been able to come home before the sky turned black, my email inbox has never gone over 101 unopened messages, I’ve finally gotten most of my address changes done and my Christmas decorations are finally down! I’m hopeful that my growing understanding of school life and the reduction of my weekly hours will enable me to have something left to give or do after the day’s work is over.
+Thank you, Lord! </t>
+  </si>
+  <si>
+    <t>Not sure where to start on this one, It moved me and brought me to tears. This young girl, Precious Jones, It starts off with her a 16 year old girl. She has no education, and is very overweight. Wannabe father molesting her, Her mother is a worthless abusive figure in her life that resents her for the father molesting her, and her bearing children of his. Precious is abused and discarded thru her life at home, brought me to tears the things her mother said to her. I can see why Monique won the Oscar, ( she played the mother) It had to been a hard role to act.</t>
+  </si>
+  <si>
+    <t>I am honored that my painting “The Divine Mother” (4' x 8', acrylics) has caused such controversy. The theme of the 2007 Artery Exhibit in Eureka Springs, AR was Icons, and I chose to paint what I believe to be one of the most beautiful and inspirational iconographic themes that transcends the world of art to include the history of mankind— the simple and beautiful image of a woman breastfeeding her child. The judges at the Portfolios.com Creative Awards, an international competition, also found this to be beautiful and gave me an award for this painting (Illustration '08).
+Since ancient times, people have been so inspired by the beauty of this image that incredible myths and religious stories and artwork have been created, even worshipped. This includes depictions of the Egyptian Goddess Isis breastfeeding baby Horus, an ancient myth which bears striking similarity to and which many scholars say inspired the Madonna del Latte or Maria Lactans imagery of Europe, which reached the height of its popularity in the middle ages.
+I title my painting “The Divine Mother,” though it is not a depiction of the Virgin Mary, as many people erroneously believe. The Virgin Mary is just one divine mother icon of many; my divine mother is one of unity, love, gentleness, compassion—and so she combines world traditions and religions, transcending time and space, melding pre-Christian religions with Christianity to be an icon we can all identify with and find peace and beauty with. Look closely at her face—it is half-blue (many Egyptian statues of Isis are blue) , and she is wearing Egyptian makeup.
+As many people have noticed, I put a new twist on this subject by adding the text “Does this halo make my face look fat?” to the painting. The Madonna Lactans and Isis imagery began as a way to show the compassion of the divine mother and therefore to make her more real, human, and accessible to us. Adding the text was my attempt to refresh and modernize this theme—to make her accessible, relevant, and real to a modern audience. The divine mother, in all her forms, is undeniably the greatest supermodel of the art world since the beginning of mankind—so I believe that like you, she worries about how she looks in a painting, photograph, or sculpture!</t>
+  </si>
+  <si>
+    <t>We’ve added a new cartoonist to cagle.com, Omar Abdallat from The Addustour newspaper in Jordan.  I’m sure Omar’s cartoons will make some of our readers angry as he often draws bloodthirsty-monster-Israel cartoons, which is common fare for cartoonists in Arab countries - but unlike some Arab cartoonists, Omar draws on other subjects too, and he has a nice style that our mostly American audience can easily understand.  (It isn’t easy to find foreign cartoonists that our American audience can understand!) I just got back from a cool editorial cartoonists conference in Colombia last week. I’m an editorial cartooning wonk and it was great fun to go to a conference where I didn’t know the cartoonists. In fact, the Colombian political cartoonists rarely get together themselves and it was interesting for them to meet each other. Bogota is a huge city of about 8.5 million people, full of universities and libraries and a thriving community of cartoonists. Colombian politics are crazy, bloody, complex and difficult for me to digest in just a week of cramming. Colombia is the second biggest country in South America and the third largest recipient in the world of US foreign aid, because of all the drug issues there. The US State Department brought me to Colombia on a speaking tour to attend the conference as the only American cartoonist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No matter what measuring stick we use, we have all come here and found a place that is our safehouse. We can talk about death, we can talk about treatments, we can laugh, and we certainly know we can cry together.  </t>
+  </si>
+  <si>
+    <t>On March 12th, Matt Damon and director Paul Greengrass will be together again in theaters for their latest action thriller, “Green Zone,” a film set in the chaotic early days of the Iraqi War when no one could be trusted and every decision could detonate unforeseen consequences. Damon and Greengrass have clearly proven that they’ve got chemistry, what with their work together on “The Bourne Supremacy” and “The Bourne Ultimatum,” and we’re obviously looking forward to checking it out, but…well, here’s the thing: Damon’s a great action hero, but he can be pretty hilarious, too, and “Green Zone” doesn’t exactly look like what you’d call a laff riot. 1. Glory Daze (1996): Okay, we’ll be honest with you: Damon’s barely in this film. It’s really a vehicle for his longtime buddy, Ben Affleck, who sports some seriously douche-tastic facial hair throughout the film. Although the remarkable number of recognizable faces to be found within the cast make it worth checking out (Sam Rockwell, Alyssa Milano, Matthew McConaughey, John Rhys-Davies, Kristin Bauer, French Stewart, Brendan Fraser, Leah Remini, Meredith Salinger, Mary Woronov, and Spaulding Gray all make appearances), the predominant reason we’ve included “Glory Daze” – which is, for the record, explores the hesitation all college graduates experience before entering the real world – is because no matter how many films he may eventually have to his credit, Matt Damon should never be allowed to escape the fact that, even though it was only for a few fleeting moments, he once played a character named Edward Pudwacker.</t>
+  </si>
+  <si>
+    <t>But this is no philosophy essay. After second year's 20th Century French Thought, I vowed never to delve into the subject in great depth ever again. However, I can say from experience that languages encapsulate humanity. The death of a language marks the death of an entire way of thinking, of self-justification, self-understanding and identity. Hector Kollias of King's French Department could do a much better job of explaining it than I ever could. You want more, email him.
+I have to spend my day speaking and understanding German and it is then that the true strength of a language to shape its speakers really comes into play. In English, you can beat about the bush. "Erm... excuse me, sorry, I was wondering... you wouldn't mind awfully if I happened to take this seat, would you?". It's a language of apology, indirectness and implications. German? No such luck. These structures simply don't work. If you want the chair, you bloody well ask if you can take the chair. No bones about it. You say what you mean and nothing else. Yes, of course they have their idiomatic phrases - have you had a nose full of someone recently? If you have an exam, do you press your thumbs for luck?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One thing I always wanted: a clear resin toilet seat, the kind that comes embedded with hundreds of pennies. You can find this type of thing in gigantic Las Vegas souvenir stores and other fine outlets of all-American kitsch. I mean, c'mon-- who doesn't like finding money where you least expect it? So then let's fast-forward to the end of September, when Topps releases Treasury Basketball, a product featuring cards literally stuffed with cash. Each box is guaranteed a rip card, with exactly 429 of them containing actual United States currency (neatly folded $10, $20, $50, $100, $500, and $1,000 bills). OK. I can find a lot of problems with this, the least of which being that Topps has to remove their pack disclaimer that they don't claim to know if cards will have any future value, since 429 cards will be worth at least $10. But that's petty in comparison to the pandora's box this opens. What Topps has created is a lottery. Not just a pseudo-lottery that the card industry has become in general, with packs containing rare autographs and game-used memorabilia, but an actual one with predictable odds and real money changing hands. Kind of scary, isn't it? Here's something else to consider: let's say you find one of the cards containing a $20 bill. Do you open it up? Or is it more valuable than $20 if you leave it intact? Also, what if it's stamped with a 1/50 serial number? Does that make it more valuable than $20? But perhaps the harshest indictment of the state of the card industry is this: Topps is proclaiming that finding actual cash in a pack is the next step in the evolution of the insert card. And they may have caught on to something: it is probably far cheaper to include cash in a product than spending lots more on securing contracts for autographs and game-used memorabilia. And besides, autos and relics have become so commonplace that finding one in a pack no longer carries the same weight it once did. If cash cards in a basketball product with limited originality or appeal works, the practice will soon become a staple of the hobby. </t>
+  </si>
+  <si>
+    <t>I've called this the "honorary" word of the day because it doesn't pertain to me, but to my sister. I couldn't pass it up because I'm so very excited about my niece-or-nephew-to-be, but if it were my only word of the day, it might cause some worry on the part of you, my dear readers, in terms of to whom the word refers... Hence, "honorary."</t>
+  </si>
+  <si>
+    <t>If you had to pick the one buzzword that’s dominating social media chatter today, it would have to be location. Just over a year ago, Foursquare burst onto the scene at the SXSW conference in Austin, TX. Since then, it’s only grown dramatically.
+The result has been a battle for domination in the geolocation space. While many still think Foursquare could be the next Twitter, rivals such as Gowalla (Gowalla) are giving the mobile startup some heat, and big players such as Facebook (Facebook) and Twitter (Twitter) are launching location features or are about to launch them.
+Our own Pete Cashmore sat down with Bloomberg’s Cris Valerio to discuss the location trend, the battle brewing between Foursquare (Foursquare) and Gowalla at this year’s SXSW, the gold mine that is location-based advertising, the iPad, and even a little bit about the future of Mashable (Mashable).
+It’s quite a fascinating video — if you do watch it, let us know what you think of the location trend (and Pete’s on-air performance) in the comments.</t>
+  </si>
+  <si>
+    <t>I want to run. To live. To live, every day. To see the world as full of beauty as it is. I don't want to surround myself with people who wonder why they exist. Who can't see the beauty; who don't see the purpose of it. I want to feel like dancing at my memories, dancing for my future, dancing in the moment. I want to giggle when I have no explanation for why.</t>
+  </si>
+  <si>
+    <t>At our Mobilize 09 conference, Frank Meehan, CEO of London-based INQ, told me that his company was going to follow on the heels of its successful Facebook phone with more devices, including lower-cost smartphones targeting fast-growing mobile markets such as India. Today, the company launched its social mobile phones in India — and INQ has roped in MS Dhoni, captain of Indian cricket team, as its spokesperson. Aircel, a mobile carrier, will be selling the device to its customers. The INQ Mini 3G and the INQ Chat 3G will be available in India. The INQ Chat 3G is a QWERTY device. The highly competitive Indian mobile market has made it difficult for carriers to bank solely on voice revenues. The INQ devices are being made available at a time when Indian carriers are looking for ways to goose their data revenues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Pettigrew dimly knows this woman as Mrs. Ali. She has been blending tea specially for him at the local convenience store. Since these two are not strangers, they cannot be experiencing love at first sight, even if discreet sparks fly between them. It’s the reader who is apt to be susceptible: read this one page, and you may find you’ve fallen head over heels for Ms. Simonson’s funny, barbed, delightfully winsome storytelling. Don’t say you weren’t warned.
+That “Major Pettigrew’s Last Stand” opens at a moment of heartbreak has no sobering effect whatsoever. Grief is what it took to make the rigidly correct Major notice Mrs. Ali, or anything else around him. This 68-year-old widower, a man who has taken some of his greatest satisfaction in reading and rereading his will and is proud to grow a type of clematis vine that his neighbors think is worth stealing, has long been immune to human companionship. He has preferred a style of such extreme correctness and gimlet-eyed detachment that all it takes to give this book its comic perspective is to present his point of view.
+Set in the kind of tidy, bigoted backwater where Mrs. Ali is understood to be either Indian or Pakistani even though she has never been further abroad than the Isle of Wight, “Major Pettigrew’s Last Stand” sounds British to the bone. It isn’t: Ms. Simonson was born in East Sussex but has spent two decades in the United States, a stint that has only heightened her ability to make jokes about American excesses as they are registered by Major Pettigrew. The book has a couple of broadly vulgar American characters, and they turn up in the Major’s village in what he regards as disturbingly rapid succession. For him “two Americans in as many weeks,” Ms. Simonson writes, was something “approaching a nasty epidemic.”
+As the story hums along, it contrasts change for the better with change for the worse. In the first category there is the Major’s extremely correct yet warm friendship with Mrs. Ali, who is 10 years his junior, is also conveniently widowed and shares many of the Major’s tastes, including a love of reading. He is duly impressed to find her carrying plastic-covered library books. He’s even happier when he learns that she shares his love of Kipling. In the second category is Roger, the Major’s hilariously obnoxious son, a striver who lives in London and once suggested that the Major get rid of books to make room for an enormous television, so that he “would have something to do in the evenings.” </t>
+  </si>
+  <si>
+    <t>The scenario is again played on a 2' x 2' skirmish board. The terrain is all woods, with a few odd boulders thrown in, and small stones used as encounter markers. Only Figaro and Manon start on the board (in the lower right-hand corner). There is a thick fog shifting and swirling about, so visibility is limited to d10+4" and changes each turn. The visibility on each turn is indicated in parentheses at the start of that turn's description.</t>
+  </si>
+  <si>
+    <t>When Mother’s Day came around, I was weakened by the day. I just couldn’t face my mother or Randa’s daughter. How do you comfort someone, when you need comforting yourself? I called my mother and apologized, but I was grateful to know my mother’s sister’s came from Ohio to spend the day with my mother. My mother still cries every time I see her. I can only imagine what my mother is going through.
+Randa’s daughter Mattilyn, turned 7 in April, which is the same month as my birthday. Although my mother did have a birthday gathering with Matty’s friends, I went there to help my mother. It was a very sad day for my mother and me, because we tried hard all day to put our best face on for Matty. Matty’s birthday was considered a huge holiday for Randa. I think Randa thought it should have been declared a national holiday. Randa would immediately start thinking of Matty’s next birthday celebration after Matty’s birthday.
+It was difficult on my birthday as well. My family and I agreed not to buy birthday gifts for each other, since our family was increasing. We decided we would only buy gifts for the children in the family, but not the adults. Randa didn’t agree to it, because every time our birthdays came around, Randa would still buy gifts, even though she lived on a minimal income. Randa’s heart was a giving one; that is my sister; that is my friend; that is the person I want to scream to the people that don’t know her.
+Easter came around as well. Randa had so much faith. I believe she had more faith than my whole family did. She was a prayer warrior. I have not been back to Church since her disappearance. It’s not that I don’t believe anymore, but I had prayed for Randa the morning of her disappearance, before I had known she had disappeared. I just believe no matter how much you pray for someone, God is still going to allow things to happen anyway. I do know I still love Him, and I don’t want to live without faith, but I can’t understand this. I hear it all the time that everything happens for a reason, and it is always for the best, it is for something we need to learn, but you have to believe. I don’t know what I need to learn, but I do know whatever it is I need to learn, it is not worth the pain, it’s not worth losing my beautiful sister.
+We celebrated Randa’s and Ghada’s birthday in June, by having a prayer vigil for Randa. That day just didn’t seem right, a day always meant to be celebrated, and was celebrated by a vigil. It was a good reason, to have the news media come, just to get my sister back in the news. Now we look for reason to get Randa back in the news. We have one billboard in Fenton, on the expressway, and hopefully we’ll have another one up on another expressway. It is the billboard that is still keeping the public aware my sister is still missing. As many times as we have posted and reposted flyers, people still bring them down. The billboard and flyers are difficult for my family and me to see. It feels like a stab in the heart every time we pass them, but it is something necessary when you have a missing loved one disappear.
+Holidays are difficult. When someone you’ve loved your whole life is missing. My family and I have not celebrated anything. I don’t want to celebrate anything. I don’t ever want to take another family picture again, I just can’t do it. The prayer vigil for Randa was the first and last time my family has been together in one place. That was appropriate, I could handle that, but I can’t handle a family gathering right now with Randa still missing.
+My favorite holiday memory that I have of Randa, is New Years Eve. We had a family member that had been struggling with drug addiction who was in rehab at the time. Randa and I dedicate that night to her, and said we would not drink any alcohol all evening. While everyone in club was drinking and acting stupid, Randa and I stuck to our plan, and had more fun than everyone else in the club. I think we were the only two straight people there. I miss her!!! Randa loved the holidays because she always looked forward for any reason our family would get together. She just loved hanging out with the family.
+My favorite present that I had given Randa, and my favorite present Randa has given me, is the love that we had for each other. I love her so much. Randa is a beautiful jewel in the midst of our family. I have had a history of painful events within my lifetime, but if I added all my painful events that have happened in my lifetime, it would not equal to the pain of not knowing where Randa is, or what happened to my sister. This is different than anything I have ever experienced. I wouldn’t wish this on my worst enemy. Life still continues to go on. Sometimes I wish the world would just stop to catch my breath. I am still working; I just started to go back to school, which I was in the process of doing before Randa’s disappearance. I had to put it on the back burner for a while. I am trying to keep myself as busy as possible, I think being busy is good for me, but no matter how busy I may be, my sister is always on my mind and in everything I do. Sometimes I can do nothing but feel the pain of Randa missing. This is pain that is indescribable, I can’t explain it, I can only feel it.</t>
+  </si>
+  <si>
+    <t>archana!!! to me a very good and silent girl!!! didnt know much of her even though we were in the same bus.. she always has a look as though she has just woken up from sleep lol!! has a nice set of friends.. just chatting with them makes me feel as though i have entered their gang..maybe she talks a lot only with her close friends.. on the whole good, silent, sleepy girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charanya is one of my best pal…..A very very good friend of mine..She is very friendly,caring,loving …She is my busmate,classmate and my neighbour too….She is also the previous Roll to me….This shows the bound between us..We have had lot of fun always together ,Whenever I go to her house ,Dono how time whiles away, Have great pleasure when I am with her…I jus know her after joinin college for the past three years,But we are good friends……Infact charanya does a lot of help for me…One thing abt her is that she is very studious,punctual,sincere in everything she does…I am exactly opposite of her,If I have not missed my coll bus in the morn,it should be cos of her , charu always gives me a call when the bus reaches her stop , after which I start from home..Nice to have a good friend like u charu..Hope we remain good friends till the end…. </t>
+  </si>
+  <si>
+    <t>I am going to vote on November 4. I never miss an opportunity to cast a ballot. Ever.
+I just want to make a quick comment on the state of slander in the Presidential race. I just can't imagine how far people are willing to go to make a demon of someone. If you don't want to vote for a particular candidate -- fine, but, the fact you aren't voting for that person does not make them a devil, the anti-christ, the precursor to the anti-christ, a marxist, a pal of terrorists, etc. on and on.
+Sickening to me.
+These are two brilliant, well-qualified men who are running for President. They have both distinguished themselves. They have different views of how to move the country forward. Discuss that. Stay on point. Then, go vote. The one who gets the most votes wins -- and then becomes our President like it or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just finished reading one of my textbooks, written by Eugene Peterson, and he was talking about discipling relationships and what people need.  I loved one of his quotes: 
+"Sometimes I need a teacher, someone to explain the Scriptures, to clarify the Christian belief in some circumstance or relationship.  But mostly I do not: I need to become what I already know.  Sometimes I need a helper, someone to assist me out of a jam, someone to keep me accountable to my commitments.  But mostly I do not: I need to enter into the reality that is already God in and around me."
+I am pretty passionate about mentorship relationships in the Christian context, and I think Peterson hits the nail on the head.  Too often when we are walking with people, we are trying to tell them how to be, when they already know.  We need to do more listening and ask more questions, aiming to help each other see the bigger picture of who we are in Christ.  It could really change things!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I was looking for my younger self’. Perhaps he is like the man in Chris Marker’s La Jetée, a film that he openly admired, about the mutability of memory. In La Jetée, the man, via the peculiarities of time travel, realises that as a boy he had witnessed his own death. In Miracles, via the peculiarities of auto(bio)graphy, Ballard time travels with the ongoing revelation that as a boy, Lunghua was the map of his future. Miracles, then, reunites his younger self with the older man, allowing Ballard to again see through young Jim’s eyes, viewing his own impending death with detached, yet remarkably clear vision. In 2006 I interviewed Jim Ballard. I was nervous at the thought of matching wits with this towering figure but my anxiety was quickly banished, for he was a charming and generous conversationalist. Although taxed from the recent discovery of the cancer that would claim him, he applied his blowtorch intelligence to everything from CSI and the ‘soft fascism’ of consumer culture to the surreality of having an English queen as an Australian head of state, weaving such cultural flashpoints in among the warps and wefts of a philosophy that has sustained his writing across 19 novels and around 100 short stories. Performing a similar function, but in reverse, his wonderful memoir contextualises some of the darkest and strangest corners of his fiction – as elements hotwired into his life.
+It was never easy, perhaps not even possible for Ballard to separate his life from his work. Nominally English, he was born in Shanghai and lived in the expatriate community there before being interned in 1943 with his family in Lunghua, a Japanese war camp. He didn’t see England until he was 16. Accordingly, the Shanghai years, and the squalor and horror of Lunghua, take up almost half of Miracles, an index to its deep psychological fissures. Marguerite Duras once said she only truly recognised herself in her novels, not the biographies written about her. Perhaps Ballard felt the same. Like Duras, who also wrote iterative, fictionalised accounts of her expatriate upbringing in Saigon, he has practised a form of time travel throughout his career, most famously in the 1984 novel Empire of the Sun, reinhabiting his Lunghua memories in numerous stories, blurring the edges in each incarnation, incrementally shifting the background scenery, erasing forever the demarcation between fiction and reality. The summoning of memory is a key theme in Miracles. But it is memory that becomes hopelessly, irrevocably contaminated with the writer’s imaginative life. The sudden death of his wife, Mary, in 1964 takes up barely a page, but Ballard’s dream of her returning to his world to say goodbye takes up considerably more, as does a discussion of his experimental novel The Atrocity Exhibition, which Ballard has said was in part his attempt to sublimate the hurt and anger he felt at losing Mary so unexpectedly. Motifs from Ballard’s fiction bleed into the autobiographical frame, reversing the process set in train by Empire.s"
+</t>
+  </si>
+  <si>
+    <t>I never watched The Wire when it was on TV, just didn't think I'd get into it~
+My husband Netflixed the entire series last summer and we watched it together and all I can say is WOW ~ How did this series not win all of the Emmy awards each season?
+We could hardly wait for each disc to arrive while we were watching it, not just for Season One either, for every single season~The drug trade and people on the streets were enacted so realistically that I actually felt like I was THERE with each episode~ I especially enjoyed the characters of Marlow, Stringer Bell, and all of the detectives and policemen.</t>
+  </si>
+  <si>
+    <t>That would be Sadie, the chinchilla.  So adorable, and soooo soft.  She was a little ball of crazy energy.
+Sunday morning Robb and I planned to go to church, so we got up at 8:30, realized it was actually 9:30, and went back to bed.  I hate rushing to get ready in the morning.  It puts me in a bad mood.  So I just decided we would skip church entirely.  Well...we slept until 11:45.  I hadn't slept well in almost a week, so it was a nice change.  And then I rushed to get ready for my writer's group, which was having a special meeting. 
+I drew this confused cat bird...sort of a way for me to sort out my feelings about a friend of mine who is newly transgendered.  It's really hard to stop calling him Ian and start calling her Elaine...and the pronouns...oh, the pronouns!  I'll get it right one day.
+So...after a full day, Robb and I ordered pizza.  I hadn't eaten all day, so we finished the whole thing.  That night, I had the happiest dream ever!  I got a pygmy hippo as a pet, and he LOVED cat food and potatoes.  So freaking adorable I could spit!
+And this morning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I've been enjoying so much new music lately that if I could find the time I'd have a song a day to post here. But given that I don't, I have to be content with once or twice a week, and in doing so I invariably skip over songs that I was enjoying earlier in the week. So, it's Sunday afternoon, and the sun is shining and the children are running around the garden in the hazy light that teases us with memories of summer. And this here is what is playing in my kitchen. A sweet, soulful, dreamy song that makes me feel as though we have all the time in the world. Hear more of The Low Anthem&amp;nbsp; here . The second song 'To Ohio' is another favourite I have on repeat, along with the above 'Charlie Darwin.' There is also a gorgeous stop-animation official video to this too which you can see&amp;nbsp; here , but my love of live music overrides even that, and I just had to post a live video. Hope you had a lovely weekend. Enjoy! Well, a few weeks ago I was alerted to the fact that my favourite shop&amp;nbsp;in the world now has a&amp;nbsp; blog . I can't remember when I first discovered&amp;nbsp; Pedlars , it was certainly a few years back and may have been in an interiors magazine that I first saw it mentioned. Over the years, from the time I first received their lovely catalogue into my letterbox, although I would not necessarily have been a big spender, I have bought a number of things and poured longingly over many more. I'm not sure what it is they have that makes it so appealing, but I suspect it has a lot to do with their manifesto: Stuff We Love That You'll Love Too. In other words, they buy and sell stuff they they love, and they happen to have the most amazing taste in the world, which in turn makes it so appealing to the likes of me!&amp;nbsp; One thing I immediately loved when I first flicked through their catalogue was not just the diversity of products, or the overriding sense of fun, or even the downright coolness of it, but the broad range of prices. Here was a shop that had divine lighting that cost hundreds, but they also had pocket-money stuff that not only could the kids afford, but that they actually really wanted! Of course a bit of investigating showed that of course they had lots of children themselves. And they lived in a beautiful house in the wilds of Scotland. As well as the most amazing holiday home &amp;nbsp;which you can rent.&amp;nbsp;And lots of dogs. And all I could think was, darn it, these guys have it perfect. (I'm sure they would laugh at that, but we have to have heros, don't we?) (By the way this is NOT the holiday home!) In their own words: ' we also have an organic farm in Scotland and a Christmas Tree farm, too. We have six children, four dogs, lots of horses and ponies and three chickens. We live in Scotland and in London and we have a fruit and vegetable farm in Wales. We are constantly on the look out for things that interests us.' Sigh... I love everything about Pedlars. They have amazing&amp;nbsp; Vintage finds , fantastic&amp;nbsp; homewares , brilliant&amp;nbsp; fun stuff &amp;nbsp;for all the family, as well as a&amp;nbsp; music club &amp;nbsp;that is right after my own heart. In fact there is so much more to see that I have to just recommend you take yourself on over there and have a look. And I do think&amp;nbsp;what they are doing&amp;nbsp;must be the greatest job in the world. Imagine! So if you get a chance do pop over and become a follower on their&amp;nbsp; blog , and you never know but you might actually win one hundred pounds to spend in their shop! (Because they are very clever.) And even though it's lame to say I was planning to do this post anyway, ever since discovering their blog, and definitely before I did win that very amount yesterday, it is true. Honestly! Nothing &amp;nbsp;more satisfying than finding something for next to nothing is there? Our local town recently had a new addition of a charity (thrift) shop! This is a very telling sign of the times and rather something as this particular well-to-do town is more home to the likes of up-market boutiques and I never thought I'd see a charity &amp;nbsp;shop there. But there it is, and I have to say the quality is delightfully up-market! But of course. And even better, the prices are proper charity shop prices, unlike certain other ones who have been taking the you-know-what of recent years. So I popped in the other day with very little in my purse and no intention really other than to have a look. But I did spend. A little. This sweet cardigan is so perfectly Julia Childs that I&amp;nbsp; couldn't resist it at just €3. I think it's the colour as much as anything. And although this skirt (for €5) doesn't look so great on a hanger, it's lovely on. It's years since I wore something so long and I bought it thinking I would alter it in some way, but it's too nice as it is!&amp;nbsp; But then, part of my intention not to spend was because earlier in the week&amp;nbsp; I had (fatally) gone to my favourite shop,&amp;nbsp; Avoca &amp;nbsp;for breakfast and as&amp;nbsp; usual stopped to look at their sale rail on the way out. Shopping with friends&amp;nbsp; can be bad for you. Persuasive friends. Friends who insist you try on that dress that made you gasp when you saw it, and then rave about how perfect it is on you...sigh... I am weak...I am. So I bought it. And, yes it was on the sale rail, but this is Avoca we are talking about...&amp;nbsp; So I won't be telling you how much I paid for it, even when one friend was cheeky enough to ask them to knock a bit more off it (which they did!).&amp;nbsp; It wasn't huge. It was less than €100. But still more than I would usually spend. But I had to. And I'm glad I did. Because it is just so lovely. A friend said it is like something out of Bagpuss, which is so apt because that is a world that still exists in my head. Some days I think in my head I am in that little shop: Bagpuss &amp;amp; Co. It's perfect. A shop that doesn't sell anything. It's just a place for lost things... Take a little peep here. This is&amp;nbsp;my childhood,&amp;nbsp;this is all that makes me who I am today. I cannot think of anything that captures it better. Listen here for more of Danny And The Champions Of The World. Here's a band we've been listening to over the last week or so, and I really wanted to share this video with you. I don't think it's an official video, I think it's probably fan made. But from the first time I watched it I've come back to it again and again. Because it is just so incredibly moving.&amp;nbsp; It's such an uplifting song, and coupled with footage that is simply people dancing, it somehow breaks my heart, in a good way. Dancing is such a human thing, and done with such quiet joy and confidence and honesty, with no self-consciousness, that it becomes a thing of great beauty. And watching it my heart is filled with such great love for humans. I can't explain it. But maybe one of you will get what I mean too. And even if you don't, it's a joy to watch, regardless.&amp;nbsp; And do turn up the volume a little! I can't believe I haven't posted here about this band before now! Back in November I was thrilled to read that on the back of their new album,&amp;nbsp; Midlake &amp;nbsp;were on tour, and coming to Dublin. I was still feeling grumpy that I had missed out on no less than four gigs by bands I would love to have seen, so I was determined not to miss this and bought tickets the day they came out. I've been listening to the new album and it is just gorgeous, with echoes of English Folk that just rolls over you like warm water. I wondered if I would like The Courage of Other's as much as I loved their previous album The Trials of Van Occupanther which is on my list of Albums I Never Get Tired Of, and so far I am loving it. (The above song is from the Van Occupanther album). Have a listen&amp;nbsp; here &amp;nbsp;for some more songs from The Courage of Other's. So, that's where we'll be tomorrow night, and I'm looking forward to it, to a night of meeting and eating with friend's, a night of live music, of being transported away for the evening. Happy Valentine's Day to you all, and I hope you get to do something lovely, wherever you are! Update:&amp;nbsp; It was amazing. They were brilliant. It really is something else to see seven incredible musician's up on stage, playing together like one fluid entity, each playing one unique layer of sound, yet knowing exactly where everyone else is, all in a perfect, seamless fusion of beautiful &amp;nbsp; music. And they did &amp;nbsp;take beloved songs and bring them to another level, and it was everything a live show should be. I have to say, the above song was one of the highlights for me. The drumming alone on this song was heady stuff, and just gorgeous. So, a happy girl I am. This will keep me warm for many weeks to come! And A Few Of My Favourite Things. I was never one for fashion magazines. Although if someone produced a Vintage/Thrift fashion magazine I would no doubt be a fan. The only exception might be the Irish magazine&amp;nbsp; Prudence &amp;nbsp;which is not only aimed at people who are broke, but it doesn't have a ridiculous price tag like most fashion mags do. I like that! This may be why I love places like Etsy &amp;nbsp;and ebay. But of course that takes time to browse, something I don't have an awful lot of. Which is why magazines are great, I guess! I do go through phases of buying Interiors magazines when I need inspiration, my favourites being Homes and Antiques , and&amp;nbsp; Living Etc. But my absolute, all-time-favourite, can't-live-without magazines have to be my monthly music regulars Uncut &amp;nbsp;and&amp;nbsp; Mojo . I just love to hide away with these and a cup of coffee&amp;nbsp;for an hour or so and devour every word I can. It's never enough, but there is a month's worth of reading in them and by the time the next one is out I have just about finished it. And you get a free cd each month too. My favourite pages are the music review pages, which is where I find all sorts of jewels, both new and old, new bands, new singers, new albums, rereleases. It's all there. And if I like the sound of it I'll take myself off to Spotify &amp;nbsp;to check them out. (Although sometimes you have to wait a couple of weeks for a new album to be available to listen to.) One thing I have discovered from reading these two magazines is the record label&amp;nbsp; Jagjaguwar , which is host to some of my all-time favourite bands like&amp;nbsp; Bon Iver &amp;nbsp;and&amp;nbsp; Volcano Choir . This months Uncut included a cd of songs from bands on this label, some of which I have heard of, some I haven't. And I wanted to share the one that jumped out for me, the one I am listening to on loop. From British Columbia,&amp;nbsp; Pink Mountaintops. Their sound reminds me somewhat of&amp;nbsp; Mazzy Star &amp;nbsp;gone somewhat gospel,&amp;nbsp;and someone else I can't put my finger on. Last year's album 'Outside Love' is just gorgeous. Have a&amp;nbsp; listen here . (The title track in particular is sublime). So, let the middle of the week just slide right on by us. I am focused on the weekend, with the right kind of laidback sounds to keep me company. And plenty of reading material, which I've no doubt will furnish a number of posts here on ~Carnival~. Hope your week is going swimmingly for you too. And what might you be listening to? I have been entranced. Yet again. On loop in my kitchen, in my car, is 'July Flame', the new album from the lovely Laura Veirs. A number of years back my sister, Emma, gave me a copy of 'Carbon Glacier' which she had picked up in the US. I loved it. From the first listen. And the following year went straight out and bought her follow up album 'Year of Meteors'. When she played in Whelan's the week before Emma went back to the states for good, we went to see her, sat right up the front, and I cried at least twice. She was amazing. And yes, I was emotional about saying goodbye to Emma. But Laura Veirs rocked. In a sweet sort of way. So, when I read the reviews in my favourite music magazines, Mojo and Uncut, and words like enchanted, suffused, and mysticism were used, I just had to check it out. And it didn't disappoint me. As I said. I have been entranced. And the inclusion of the likes of Laura Gibson and the mighty Jim James of My Morning Jacket just sends me into raptures! There is hardly a wrong note on the whole thing. Laura is on tour at the moment, though I was very sad to read they won't be coming to Dublin this time. But seeing as Laura is very pregnant I figured it wouldn't be fair to make a fuss! Do check out her&amp;nbsp; blog &amp;nbsp;over on her website. And while there you can have a look at some of their other&amp;nbsp; videos &amp;nbsp;too. You can also listen and buy her (six) other albums, as well as a recording of a young French choir who recorded nine of her songs, the result of which is a strangely moving experience. If you think you might be interested you can also listen to more from Laura Veirs&amp;nbsp; here . And read reviews or download songs&amp;nbsp; here . I so wish I could post the track called 'Little Deschutes' here for you to listen to. I am listening to it as I write, with goosebumps. It truly is sublime. But the album is so new I haven't found it anywhere that can post here. So have a listen if you come across it. ' I wanted to make something sweet, The blood inside the maple tree, the sunlight trapped inside the wood, make something good.' Nothing like a weekend away, is there? As I mentioned&amp;nbsp; over on Milkmoon , myself and Jay managed to escape for a long weekend to visit some friends, Marta and Sam, in Madrid. And as everyone knows, there is nothing better than having someone who knows the city for finding the best of everything! So, there was endless wanderings around the streets of Madrid, and on Saturday myself and Marta took ourselves off &amp;nbsp;and we found a number of vintage shops which I was very excited about. And let me say, the prices were amazing. This sweet dress was €18, and it's in mint condition. I am loving tweed and plaid at the moment, and I couldn't resist this rather school~mistressy kilt for €10! It's 100% wool and so warm , which was just what I needed as we traipsed about in the snow. And this gorgeous leather bag which we both admired in the window, Marta bought, and then gave to me (sweet thing that she is!) was €5.95!! I love it so much! I could have filled an entire suitcase with fabulous finds, but as we were restricted both financially and in terms of baggage I had to limit myself, sadly. But I am already planning my next trip, hopefully in June for Finn's 12th birthday. I promised her a Mum~and~me trip somewhere, and I think it might just be Madrid! With two empty suitcases... </t>
+  </si>
+  <si>
+    <t>Achu hmmm first thing that comes to mind is discipline( he is always late by ten to fifteen mins for any work).. sincere(this is not restricted just to studies).. hardworking he is, jst loves burning the midnight oil and makes sure the other guy(it was me back in school) also loses sleep.. 4ams were a routine
+beach,movies,football,basketball,tv,pc games,Mcrennet,zeta jones,411 if i can recollect r some of his fav pasttimes and hangouts.. and now he has a bike so imagine and yet he finds time to study.. i feel sad tht v dint end up in the same coll
+he has his own principles and his own ways of doing things and one has to respect him for tht.. when im down i do get some advice from him... very trustworthy and reliable... im sure he will make it big in the future..
+finally, bcos ur name appears first in my cell contacts and Y! messenger list(as it is for others) guys mistake it for some girl's and i get to be a bit popular and maintain some level of 'gethu'... one good reason to remain ur friend :-)</t>
+  </si>
+  <si>
+    <t>I worry about memories -- I know they are going to become more distant to me. I was thinking about this over the weekend -- we were telling Alan and Jennifer what we used to do before they were born -- i.e. make pizza dough from scratch, not use shortcuts while preparing dinner, etc. But, today, I was cleaning out some things from Alan's bedroom and I ran across something Alan did in the 6th grade -- it is his "autobiography". You can just imagine if he did it in the sixth grade how interesting it is!!! I had to take time out of cleaning and sit down and read it. I laughed....I cried.....I realized how much I didn't remember......I understood how important some little things we used to do were to Alan.....and I actually saw a glimpse of the man he is today. I'll keep this forever -- what a treat to find.</t>
+  </si>
+  <si>
+    <t>I got back last week from a great vacation in Maui visiting Anna! Mom and I went together and we spent the week sleeping on Anna's porch (so lovely!), hanging out on the Pacific Whale Foundation boat with Anna and watching whales, and watching the third season of Arrested Development while drinking gin &amp; tonics (a must-do activity for any hawaiian vacation!)
+After about the first hour of vacation I re-remembered that Anna is a much better photographer than I am - so I packed my camera away for the rest of the trip and am using only her pictures for my blog posts. =) She gave me about 270 pics on a CD, and while I'm not going to post all of them, even the weeded out assortment will take some time to post here so I'm going to put up pictures in phases.
+Here is a collection of my favorite whale pics that Anna sent me - they are not necessarily from the week we were there, but we did see all of these activities happen while we were out on the boat!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a medium saucepan, melt the remaining 2 tablespoons butter. Stir in the turkey and flour. Add the milk, and heat through. Stir the turkey mixture into the vegetable mixture, and cook until thickened. Cool slightly, then pour mixture into the unbaked pie shell. Roll out the top crust, and place on top of filling. Flute edges, and make 4 slits in the top crust to let out steam. </t>
+  </si>
+  <si>
+    <t>Buddha, one day, was on deep thought about the worldly activities and theways of instilling goodness in human.The following is the text of conversation between him and his disciple  One of his disciples approached him and said humbly " Oh my teacher ! While you are so much concerned about the world and others, why don't you look into the welfare and needs of your own disciples also."
+Buddha : "OK.. Tell me how I can help you?"
+Disciple : "Master! My attire is worn out and is beyond the decency to wearthe same. Can I get a new one, please."
+Buddha found the robe indeed was in a bad condition which needed replacement. He asked the store keeper to give the disciple a new robe towear on. The disciple thanked Buddha and retired to his room.
+Though he met his disciple's requirement, Buddha was not all that contended on hisdecision. He realized he missed out some point. A while after, he realized what he should have asked the disciple.
+He went to his disciple's place and asked him "Is your new attirecomfortable? Do you need anything more ?"
+Disciple : "Thank you my Master. The attire is indeed very comfortable. I need nothing more"
+Buddha : "Having got the new one, what did you do with your old attire?"
+Disciple : "I am using it as my bed spread"
+Buddha "Then.. hope you have disposed off your old bed spread"
+Disciple " No.. no.. master. I am using my old bedspread as my window curtain"
+Buddha " What about your old Curtain?"
+Disciple "Being used to handle hot utensils in the kitchen"
+Buddha : "Oh.. I see.. Can you tell me what did they do with the old cloth they used in Kitchen"
+Disciple : "They are being used to wash the floor."
+Buddha "Then, what about the old rug being used to wash the floor...???"
+Disciple "Master, since they were torn off so much, we could not find any better use, but to use as a twig in the oil lamp, which is right now lit inyour study room...."
+BUDDHA SMILED IN CONTENTMENT AND LEFT FOR HIS ROOM.
+We all are blessed to have a living example in our life in physical form.
+Jaigurudev !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women are built for fat storage to be able to survive &amp; care for children during famine. Their essential minimal fat stores are 5x higher than a males. Women were built to accumulate as much fat as possible and to not lose the accumulations for childbirth, milk production &amp; child rearing. Having year around unlimited carbs to create fat are against the natural order. </t>
+  </si>
+  <si>
+    <t>Hi I am writing this to one of my Best Friend and with whom i share most of my persona;l problems(I think he knows everything about me).He is a person who is having an easy take and easy go life.I can say that he is An apt person in this fast world.he has got a very great attitude and ambition and i feel that he will soon be a succesful enterprenur.everyone sees in him "the comedy nature" but only few know his 
+serious life.. i think he is one of the best coders that i have ever seen.he has never reacted sensitivily to the comments laid by others and thats his plus.... all the best macha.....You are really great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whereever I go, I seem to have this habit of comparing the place with chennai. In Hyd the roads are real good (if you are from chennai, roads will seem good whereever you go:-)). Bur seriously, the roads are good. But people drive recklessly. The last time I went, I witnessed bikes sprawling on the ground and sparks coming...It was scary! That way, I think chennai is better. Since the roads are bad, you cannot drive beyond a certain speed. And in Hyd, the auto meters work!!!!!
+</t>
+  </si>
+  <si>
+    <t>I did a lot of thinking about my business today. I got very close to taking the first step. I am not sure still. I think I need to finish this book I am trying to get through. It is basically about this kind of stuff, so I might learn something important. Jesus Christ! I thought I was just overreacting last time I complained about my parents watching movies to loud, because I have been watching my movies pretty loud too. But what the fuck. They are going to knock the fucking house down. Seriously, it is fucking 11:30pm and my brother is trying to sleep so he can wake up at 5 for school tomorrow. They have the volume way too loud.</t>
+  </si>
+  <si>
+    <t>anu this is our tenth year of friendship(can u believe it).. miss the chat food which we both used to have after school, our so called swimming classes, pizza corner,and our bitching abt others.. every moment was fun.. though we both were hardly in touch after i left school we r still friends till date and thats what matters a lot.. anu u r just the same as u were when i first met u... bubbly always, talkative is an under statement, fun loving,ur passion 4 music and dance, still crzy after Rahul dravid inspite of him becoming old now( ha ha i know u will screw me 4 that)..anu i love seeing u get angry when ever i talk abt ur best enemy ..its so much fun to see ur face red hot at that moment.. anyways one advice 4rom me is u trust every one blindly 4 god sake change that habbit ..don"t judge evry one so quickly.. all i can is remember i am alwys there 4 u when ever u need me.. and don"t scream at me 4 not calling u very often becos u know abt me right very lazy always.. anyways take care..</t>
+  </si>
+  <si>
+    <t>Hi...So mathura...One who always tells me that i study too much but the truth is she is studying too much...I never know who she was until one day...We were all busy completing the record. We both had Graphics toolkit an unusual project.I got all my doors shut for completing it in the last minute. It was that time she helped me to complete the record.Thank god i completed it..Ever since that she has been a good friend to me and had shared few things...Though we dont talk much she has always been there...
+She deserves a lot more for her talents and i hope she achieves it...Best of luck mathura..Great to have met u...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our culture, we often get criticized for making assumptions based on people's appearances. To some extent, it can be wrong, judgmental, and prejudicial. But, in other cases, we do it all the time. One of my sons, for example, is a very hard worker. It is obvious to almost everyone who meets him. His body is that of a man well experienced with good, old-fashioned, masculine labor. No one with a lick of sense could look at him and wrongly assume him to be some sort of typical teenager huddled in his room playing video games all day. In fact, people who meet him often ask me, "What kind of work does he do?" and then they nod, with an "Of course!" when they hear my answer. I teach martial arts. When people walk into the dojo, I'm usually not surprised to discover, once they join our class, how well they can or can't handle the physical effort required, or how willing they are to work hard. Hard work and exercise has an entirely different impact on our bodies --- and their appearance --- than does a soft, easy lifestyle involving minimal effort. As one of my students asked me early on, "If I was already working hard, do you think I would look like this?" One of the things I like about what I do is that I get to see formerly self-described lazy people "get off their duff" and leave their sedentary ways behind. Although I don't stress nutrition as much as I probably should, it's always rewarding to see my students realize that, if they are going to work hard, they need to start giving their bodies healthier "fuel". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"By popular request in comment threads and emails, I'll be putting together a Saturday digest of election-oriented diaries from now until November. This project emerged from the Community Power! Election Season diary written Feb. 20. Next week I'll introduce you to a couple of other Kossacks who will be joining me in running the project. Each digest will include a list of election diaries published during the previous week and categorized by region. A separate section will include diaries written in the previous week by incumbents, new candidates and wannabe candidates. (Diaries by incumbents may or may not be directly related to the coming elections.) Digests will also focus on a few tips for making diaries more persuasive, informative and written in a way that encourages everyone to read them even if they live 2000 miles away from the spotlighted contest. This week, we're talking headlines. Just as with a story in a newspaper or magazine, a headline can make or break a diary. That is, you can attract an audience or drive it away by the words and structure you choose. Crafting great headlines is something even some of the best writers never quite get the knack of, but everybody can train themselves to become better at it. Too many writers spend hours on research and writing their diaries, then slap on a 30-second headline. Spend some time at it. A good practice is to write three or four possible headlines and choose the best one. Happily for bloggers, some of the old rules from the old media – like character counts – don't apply in wwwLand. But some do. Here are 10 guidelines to think about: Headlines are bait. Instill curiosity: ""Paternity Test Demanded for Florida Abstinence Campaigner""; ""Voters Eager to Punish Liberals, Selves"" Conversational headlines appeal to the most readers.
+• Use the active voice. Good verbs work wonders. ""To be"" conjugations bore readers.
+• There's power in humor, but serious stories suffer from overly cute headlines. Headlines with a twist of an old cliché reel in readers. But take care not to twist too far.
+• Beware. Double entendres can help or hurt. ""Cops Pinch Lewd Nude"" works; however, ""Clinton Wins Budget; More Lies Ahead"" has problems.
+• Be succinct. Short headlines are punchier and easier to read. Ernest Hemingway told a whole story once in six words - ""For sale: baby shoes, never used."" A helluva good headline, too.
+• Match the headline to the story. Don't deceive. Nobody likes being taken for a fool. If the diary is about a candidate, the candidate's and/or district's name should usually appear in the headline. DON'T WRITE HEADLINES IN ALL CAPS. Besides ""shouting,"" they are hard to read. If it's not BREAKING! don't lie about it.
+From this week's collection of election diaries, I've picked what I think are four solid headlines. But even most of them could be tweaked: Human trafficking, much of it for sexual purposes, is a worldwide phenomenon. It can be found everywhere from Vietnam to the United States. Estimates of its victims run from 4 million to 27 million, which numbers provide a window on how difficult
+"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today's menu: peanut butter and jelly graham cracker sandwich, apple juice, fruit cup (peaches), milk I could barely eat this meal so I didn't. And then I was deliriously ravenous driving to get my little one. And then it got worse. I got sick when I got home. I can't say what exactly did it. Whether it was the lunch (I ate only half of one sandwich) or the not eating enough (also family history of vertigo) or taking a vitamin towards the end of the day without much in my stomach or just plain getting sick.... I feel better now. I probably didn't eat enough. You know, I think I'm going to pack a lunch for tomorrow. In general I don't look at the lunch menu for a extra "surprise," but I can't do it after this night in the bathroom. I can't make my husband do all the work two nights in a row. Until I feel better I'm doing the BRAT diet (bananas, rice, applesauce, toast) and I'm sure none of those foods are on the menu. I noticed a LOT of kids with packed lunches today. Maybe they knew something I didn't. *** Earlier in the day I asked the kids what they thought of the lunch. Some ate it and said they thought it was "good." A couple kids did not eat it. Tons of packed lunches though. Maybe 20%? Trust me, that's a lot. I asked a couple kids if they ate the peaches and they looked at me strangely and said, "no." I don't think they even opened the packages. *** I took a photo of the nutritional facts. Each sandwich was 318 calories. Because the other food items haven't listed the calories, I never knew. Looking at the calories made it hard for me to choke this one down. </t>
+  </si>
+  <si>
+    <t>CNN received two awards on March 13 from the Gay &amp; Lesbian Alliance Against Defamation (GLAAD) during its annual GLAAD Media Awards. The American Morning program received the "outstanding TV journalism segment" award for an interview of a child who refuses to say the Pledge of Allegiance until homosexuals have "equal rights," while Joy Behar received their "excellence in media" award for her HLN program.
+The homosexual activist organization's press release on the awards revealed that "CNN's American Morning producer Beth Marengo and Will Phillips accepted for the Outstanding TV Journalism Segment, 'Why Will Won't Pledge Allegiance' which featured Phillips and his father. In a rousing speech that elicited a standing ovation, 11-year-old Phillips said: 'I know there are certain political restraints that make action difficult, however lack of equality for some is lack of equality for all and I think its time for us all to get equal.'"
+Story Continues Below Ad ↓
+Anchor John Roberts interviewed Phillips and his father on the November 16, 2009 edition of American Morning. As NewsBuster Noel Sheppard pointed out, the two were given much better treatment than tea party protesters were given earlier in 2009.
+Behar received her "excellence" award from NBC Today show anchor Meredith Vieira. The GLAAD press released trumpeted how the HLN host "has shown a strong commitment to educating the public about the lives of gay and transgender people." The TVNewser blog on March 14 reported Behar's beyond positive reaction to the recognition: "I'd rather have that than the Oscar...It shows that people who struggle in this society with public image and being behind the eight ball with their rights, they recognize that someone like me who has the microphone can support them."</t>
+  </si>
+  <si>
+    <t>I'm writing in again...something must be really wrong with me...( just kidding)..
+Hmmm....people she's great fun to be with....very caring...highly mischievous...hard core entertainer... 
+I always associate u with Hubli...those days were so much fun...pulling each others leg..
+The so called combined studies which were more concentrated on general issues rather than on studies... we used to talk the whole day in college but would still have a lot left to talk over the phone after college...n those rides on ur bike(spirit)...putting us on high spirits.. superb fun that was...
+how much i miss all that... !!! but i'm glad that i was a part of all the fun ...
+but what i don't like is u irritating me when i start telling about Maddy...i'm used to it though...i think i have covered most of the things..will keep updating when new things come in..
+miss u loose....very much....
+take care....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, so this list is all food. But frankly, what else are you going to do here? Go to malls? :). There's definitely nice architecture to be seen; I would recommend the Mosque off of Arab street; of course you have to go to the Esplanade (the durian-looking building); etc. You can see a few photos from my last trip here. Now, I realize that most of the above list is not particularly friendly to my happy cow friends. Here's a list of restaurants that happy cow provides. There are quite a few vegetarian options, probably partially because of the large Muslim population here. There aren't as many vegan places, but certainly enough. For the vegan minded, there is a good blog about being vegan in Singapore (first post is about a recent local talk by Campbell, the author of The China Study, which I recommend everyone at least reads). I can't vouch for the quality of these places, but here's a short list drawn from Living Vegan: Mushroom hotpot at Ling Zhi Fried fake meat udon noodles (though frankly I'm not a big fan of fake meat) Green Pasture cafe; looks like you probably have to be a bit careful here in terms of what you order Yes Natural; seems like it has a bunch of good options Lotus Veg restaurant, seems to have a bunch of dim sum (see here, too) If you must, there's pizza And oh-my-gosh, there's actually veggie chicken rice, though it doesn't seem like it holds up to the same standards as real chicken rice (if it did, that would be impressive) Okay, you can find more for yourself if you go through their links :). Enjoy your time here! Quick update: Totally forgot about coffee. If you need your espresso kick, Highlander coffee (49 Kampong Bahru Road) comes the most recommended, but is a bit of a hike from the conference area. Of course, you could also try the local specialty: burnt crap with condensed milk (lots and lots of discussion especially on page two here). </t>
+  </si>
+  <si>
+    <t>What a night. Berry became the first African-American woman to win the best actress Oscar and Washington became only the second African-American man to win best actor, after Poitier. Berry won for portraying an angry black woman with a husband on death row and a child so overweight she beat and chastised him before his death. Washington won for a playing a crooked, thuggish cop—but still, a new chapter in black history had begun: African-Americans were finally being recognized and awarded for their work in film.
+A more diverse selection of "our stories" was sure to follow right?
+Not so much.
+This must be said: Mo'Nique and Gabourey Sidibe gave wonderfully flawless performances in Precious, a touching but incredibly disturbing film about an overweight, young inner-city girl abused by her mother and molested by her father. They both deserved every nomination and award they received. Lee Daniels directed the film, as he has with many others, with the skill and compassion that guaranteed a best director nomination. My issue is not with them or any minority performer, save for being a part of only the stories Hollywood deems interesting enough to tell.
+Defenders of the film have rebuffed the criticism of Precious. They argue that attacking its stereotypes and mainstream popularity is unfounded, given that the story is very much a reality in many inner-city African-American homes across the country. Unfortunately, it is a story that is all too familiar—but it's also one that's well known to all American households, thanks to its ubiquity in pop culture.</t>
+  </si>
+  <si>
+    <t>This has been the long, hot summer of ObamaCare. The president’s plan to change our health care system has led to ugly confrontations between ardent supporters and those who want no part of it. Repeatedly, arguments have broken out where opponents object to some provision and the president’s zealots retort that they’re lying or have been duped.
+I would like to suggest that such arguments are beside the point. The specifics of the legislation are shifting and liable to change. What’s really important is the overall concept. We’re used to hearing that “the devil is in the details,” but in this instance, we should instead concentrate on the big picture.
+Here is the big picture: Do we want a health care system that’s overwhelmingly political in nature? President Obama believes we need a system mainly directed by federal mandates and prohibitions. If he has his way, our already somewhat politicized system would become heavily politicized. Supposedly that would be in the public interest.
+There are many Americans, however, who think that a heavily politicized health care system would be much worse. I’m among them. We believe, fundamentally, that systems of any kind that are dominated by politics do not do a good job of satisfying human needs. Whether it’s health care, food, housing, or anything else, government intrusion leads to increasing costs, declining quality, and the loss of freedom.
+We get far better results from systems based on freedom and voluntary exchange. When individuals make decisions, they know their own circumstances and will either benefit from good choices or suffer the consequences of bad ones. That creates a strong incentive to make good choices and quickly change when you realize you’ve made a mistake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't let anyone tell you what is right or what is best for your life. Do what is best for yourself and follow your heart. Stand tall and stand by your decisions, but always be prepared to admit your mistakes and admit when you were wrong.
+I have made a big decision in my life about my future. My family and friends have been very supportive of that decision, but there are some people that haven't. At first I let it get me down until I realized that I am the one that has to live my life and no one else can do it for me. So, I shouldn't let a few non-supporters choose the direction of my future. I have to do what is best for me. You should do the same.
+</t>
+  </si>
+  <si>
+    <t>The next Reformation truth to explore is the Sovereignty of God.  The absolute supremacy of God over all of His creation and His creatures.  The absolute control of God over His creation and creatures is known as His providence.  God is God and does what He pleases. These are some of the truths that must be explored.
+ WCF 2.2- "He is the alone fountain of all being, of whom, through whom, and to whom are all things, and hath most sovereign dominion over them, to do by them, for them, or upon them whatsoever himself pleaseth."</t>
+  </si>
+  <si>
+    <t>Alex is now 3.5 months old and doing great. He has found his hands and they are normally in his mouth. He is great at assisted standing and sitting. He has all kinds of sounds. Goo, hoo, oooh and ahhh. Bouncing in the bath is his favorite activity. His friends Elliott (Zoe's brother) and Maude (Max's sister) were born at the end of November. So they are only a couple of months be hind him. Max had his second birthday right after Christmas. We got to see him open on present. Nathan helped with the rest. Alex loves to be held when awake. As soon as he is sleeping he wants to be put down in a quiet place. As far as sleep he does ok. Currently he is sleeping from 9pm-1am and then up again at 4 and 6 or 7. This would be fine with me but Nathan has been getting up at 3. Make for a long morning.</t>
+  </si>
+  <si>
+    <t>Dalai Lama and Sri Sri say the same thing… I was reading Art of Living famous Sri Sri's articles and then once I read this story of Dalai Lama. Both said exactly the same thing about forgiving...  How divine... spend a couple of minutes to think about it..  Excerpt from book : The wisdom of forgiveness (Page 47) 
+When I first met the Dalai Lama some three decades ago, he told me that he had for given the Chinese for what they have done to the Tibetans.At the time, I had been surprised. Now I wanted to learn more in the upcoming interview. As the Dalai Lama came into the audience hall and sat down across from me, I asked him without any preamble, "Your Holiness, I thought it natural that you'd harbor resentment toward the Chinese. Yet you've told me that this is not so. But do you, sometimes at least, experience deep feelings of animosity?""That almost never," the Dalai Lama replied. "I analyze like this: if I develop bad feelings toward those who make me suffer, this will only destroy my own peace of mind. But if I forgive, my mind becomes calm. Now, concerning our struggle for freedom, if we do it without anger, without hatred,but with true forgiveness, we can carry that struggle even more effectively. Struggle with calm mind, with compassion.Through analytical meditation, I now have full conviction that destructive emotions like hatred is no use. Nowadays,anger, hatred, they don't come. But little irritation some-times come."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Storm of the century
+I know that the "big" storm is old news, but we have been in California for two weeks visiting Jared's family (another post about that to come) and I haven't gotten a chance to tell our story. Thank goodness for all the modern technology that alerts us to the weather with enough warning to prepare. Wednesday night we made a trip to Sam's club to stock up on gas and food. It wasn't crazy crowded because this was two days before the storm is supposed to hit. My kids had been sick for about a week and Thursday night Ben was up complaining that his ear hurt. Friday morning we decide to take them to the Doctor before the storm. Snowflakes started to fall as we pulled into the parking lot. It was crowded, but they saw us and both my kids had ear infections. The doctor advised us to keep them inside for a few days. Then we had to get their prescriptions filled. Every pharmacy within a 10 mile radius had a 1-2 hour wait on prescriptions, people were panicking. We came home and Jared went out a little later to get their presciptions, are we seeing a pattern? He made it home safely. Everyone (but my youngest brother) was home and we just hunkered down for the storm. My sister and I had stocked up on some new toys that we pulled out for the occasion. Friday, all was well. We felt like we were prepared. I got up early Saturday morning, for no apparent reason, and my sister was up too. She was worried about us losing power. Having no electricity might not seem so bad considering that my parents have propane heat, but keep in mind that we are on a well here. A well with an electric pump. No power also means no running water for us. She had filled up the bathtub with water and I filled every camel back water bottle that we had (we have a lot of them between us all). Then we go back to bed. After I get up and eat breakfast, I start making bread. We didn't buy any bread because I was going to make some. Here are the pictures of the dough rising. 
+I was preheating the oven to bake my bread when the power went out. It was only 10 am. According to my husband, I was freaking out. I was worried about my bread and the fate of us all without bread to eat. But I really didn't need to worry. Jared and my brother-in-law dug out the gas grill and the fire pit and cooked that bread!
+I really was impressed. It snowed the entire time they were out there cooking the bread. The two loaves they cooked on the grill, and the three free form loaves they cooked in a dutch oven over a fire they built during a snow storm. The gas grill really saved us during the entire weekend. For lunch we had leftover lentil soup that they warmed up outside with fresh bread. For dinner we grilled up some venison, potatoes, and veggies. It did not feel like we were deprived of anything. But it sure gets dark early with no electricity. My brother-in-law popped popcorn on the gas grill, and we let the kids watch a show on our portable DVD player that has a 6 hour battery (which was fortunately fully charged). Jared had filled up lots of buckets of water and my sister had filled the tub, but with 12 people in the house you use a lot of water just flushing toilets. By Saturday night our bathroom water supply was almost depleted. We still had plenty of drinking water, thank goodness. My sister went outside and stuck all those empty buckets around the house to catch the water run-off, brilliant! Sunday morning, still no power. We used as many paper products as we could to avoid having too many dirty dishes laying around. Since it finally stopped snowing, the men went outside to assess the damage. Numerous trees had fallen, including three across our drive way. They spent most of Sunday cutting down the trees and shoveling a little bit. Once they got the driveway cleared they did some further exploring on our street. There are three ways to get to main roads from our house. Well, a power pole had fallen across the road one way, a tree branch had broken off, taking down some power lines with it the other direction, and the "secret back road" had a car stuck right in the middle of it. No power and no way out, we were totally cut off from the outside world. The phone stopped working on Sunday. Cell phones with no electricity to charge them were our only link to the outside world. I have a couple of siblings that live an hour away, and they didn't lose power. They offered to rescue us, but they couldn't get to us, we would have had to hike about a half mile in 30 inches of snow. My two kids have ear infections, my parents are in their 70's, not much hope of hiking out. Remember that the doctor had told us to keep our kids inside for a few days. That was a bit harder than I thought it was going to be. My brother grilled chicken and potatoes with some veggies for lunch. Sunday night before the kids went to bed we all hung out together in the living room, lighted by my dad's two oil lamps. My brother played guitar and we all sang while the kids danced around. It was a lot of fun and something that only happened because we had nothing else to do. Then we put the kids to bed. We were all a little disappointed that the power was not back on for the Superbowl, for which we had made sandwiches and had chips and dip. Then my brother-in-law and my dad rigged up a TV plugged into my mom's Prius. And it worked! We got to watch the Superbowl, I couldn't believe it. But then it was back to darkness. Monday morning the kids were getting a little stir crazy. My sister dug some toys out of storage that the kids haven't seen in two years. That helped buy us some time. After lunch the road was cleared one way, we could leave! Still no power mind you, but a way out. My sister called some friends in the ward that live in an apartment complex and she asked if we could all come over and shower at the club house. All 12 of us climbed into my sister's 4 wheel drive car that seats eight. We dropped my brother and his son off and we headed off to shower. We filled up all of our water bottles too. Keep in mind that another storm was coming with another predicted 10-20 inches. We went to a grocery store to get us through another storm. Then we went to the mall. It was almost surreal. We had felt so cut off for nearly three days and people were shopping at the mall like it was an ordinary day. I really felt like we had just come out of the dark ages. Which in a sense we had, I guess. Then we made it home, but we had to hike up the long and steep driveway with all our groceries. When we got home, the power was back on. I was so happy, I could go to the bathroom without a flashlight. My parents have a very unique house and all the bathrooms are in the center of the house without any windows. In other words, very dark even in the middle of the day. We hit the house with a vengeance, we did 3 loads of dishes that night alone and 4 loads of laundry. Can I just say that Jared is a survivor, I really don't need to worry with him around. My brother-in-law is the same way. They really saved the day. The story doesn't end there. With another storm looming in the horizon, everyone's plans changed. Two of my siblings (that live an hour away) decided to head to Florida. Their school district had already cancelled school for the whole week. One of them need my brother-in-law to house sit, so he was leaving. We were leaving for California on Wednesday. My dad said that if all his shovelers were leaving he had better go too! Tuesday morning they headed to the airport to see if they could get on a flight to Florida. At 9:40 am my mom calls from the airport. "Honey, the airport is closing after one today, do you want to try and get out to CA today?" Yes, I think I would. She handed her cell phone over to the Southwest agent. He was super friendly. His name was Eric and this is what he said to me "I can get you and your family on a flight leaving here at 11:40 am, can you make it here by then?" I paused for just a minute before I responded. I still had laundry, important laundry, drying. "Yes, we will be there." Then my mom talked to my sister "he says you and the kids can fly standby to Florida, to you want to come, the flight leaves at 10:50 am?" She said "yes" too. The whirlwind began. Bags packing, kids getting dressed, everyone hiking down the drive way. We booked it to the airport, as fast as you can book it in that much snow. My brother-in-law did a great job of driving us safely there. We literally ran through the airport with bags and kids in tow. I am not much for spur of the moment traveling, but it was an adrenaline high. Because the airport was closing in two hours, there weren't many lines, and they all let us go to the front of them. Very nice! We are helping my sister make it to her gate, my parents already on the plane. My sister is carrying one bag, Jared is carrying a bag and a kid. I am trying to herd the rest of them to the gate as fast as 4 and 5 year olds can run. She makes it to the gate and there is no one there. My parents are on the plane, sitting on the front row, saving her seats. The flight attendant prepares to close the door, my mom says "my daughter is coming!" The flight attendant tries to tell her that she didn't make it. My sister flagged an attendant and they tell her to just run onto the plane. I guess once they close the doors, they don't open them again. She made it! Then we had a few minutes before our flight took off. We barely had enough time to buy some lunch before we had to board the plane. But the kids were real troopers and we made it. They were so well behaved. It was awesome, traveling with kids does get easier. It took me awhile to come down off that high, but it was kind of fun. My brother was pretty surprised when he came home tuesday night to an empty house full of food. He had to hike the 1/2 mile because his ride couldn't make it down the road. That is our amazing story of survival. I hope you all were well during the storm of the century!
+Posted by Mimi Nowland at 4:46 AM 8 comments
+TUESDAY, FEBRUARY 2, 2010
+MDAC
+My older brothers, who are nine and ten years older then me, often babysat for me and my siblings. They invented many "interesting" games to keep us busy until my parents came home. The most popular one was called mattress diving association championship or MDAC for short. It involved a mini trampoline, numerous mattresses stacked on top of each other, music, and diving on the mattresses. We would run, jump on the trampoline, and dive on to the mattresses. It was fun. You would have to really know my brothers to understand how they could make that game so much fun. We all had nicknames, our signature jumps, and turns holding the title of MDAC. My brothers would also videotape the proceedings so that we could watch it afterward. The proceedings included interviews, statistics, jumps, and sometimes award ceremonies. Well, this past Saturday it was snowing again, all day long. Jared and I picked the wettest year to move back east. Imagine five children, eight adults inside all day long. So after dinner I decided it was time for MDAC the next generation. I figured it would let the kids burn off some energy. It worked. The kids loved it, but it wasn't quite the same without my brother commentating the whole thing. CJ cried when we cleaned up the mattresses, it was hit. My sister even did a few dives! Enjoy the video, although you would probably enjoy seeing the original footage of MDAC. Fortunately I don't own any of these videos and it is unlikely that any of my brothers would post it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So once again I have ended a shift at the place i work. It was less than fun and really made my head hurt.
+Now to my issues. I have found that people suck. I say have a good day and the reply is pretty much nothing. What causes people to be so rude? I am just some guy working at a store trying to make some sort of liveing. So the journey begins. I have started fresh upon this page. My ideas that shall flow upon here for all to see. This is the beginning of my thoughts lets see what dark ally we get lost in. For you have started a hike along the narrow path which is my inner most ideals. Lets see how far my mind can take us. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be my Valentine Lacey Heart I think this is really pretty. I found it here and there is a free chart! I was browsing the web and came across this site with some nice cross stitch patterns to download for free. You can find the list of free charts here: http://shopping.originpublishing.com/charts_category.asp?category=5 This is just one of the cute ones you could do up as a nice Christmas card. And here is the link: http://shopping.originpublishing.com/chart.asp?id=974&amp;amp;category=5 I came across some quick little Easter free pattern kits at Hobby Loco. Here is a preview of the pretty egg plus there are two bunnies and a chick there. Go Here to see these and download. This pair of hearts that would be a quick addition for Valentines Day! Find the free download pattern HERE at free-cross-stitch-pattern.com This cute 50's type silhouette image really caught my eye. It uses 14 count aida cloth and three colors of DMC thread. If I were stitching it I would probably not do the white stitches that are outside the design. Since it is done on white cloth, I would be lazy and skip this step. :-) Either way, 2 or 3 colors, it would be so easy to stitch up for Valentines Day ! You can find this design and pdf download HERE at Free Cross Stitch Pattern. Com. It will be in the romance category and it is called romantic dinner. I just checked Tereena Clarke's Artecy Cross Stitch and she has a beautiful free download up for grabs. I am partial to birds so naturally I really like this one, but I think you will too! It makes me want to get back to stitching! See it HERE. She also has a cute Santa so you have a whole year to do that one. Have fun. Sometimes it is difficult to take a good snapshot of something in a photo frame.&amp;nbsp; I snapped this view of a project that I completed way back when I was learning to cross stitch.&amp;nbsp; It is not the first, because as I said earlier on the blog that the barns were my first stitched projects.&amp;nbsp; This may be my second one, I don't remember for sure but it is somewhere in there as one of my first. I found this chart while browsing through the magazine Classic Stitches web site. There are several pretty free charts there to download. They will be within the stitching zone drop down button across the top of the page. I found this one listed in the flowers-fruit category and thought it was pretty enough to share. The design is worked throughout in cross stitch and back stitch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you desperate for an iPad-like device, short on cash, and long on the desire to completely jack up your netbook? Well you're in luck, friend, as the proprietor of MSI Wind fansite Insanely Wind has crafted a device which may satiate your tablety desires. By taking a U100, removing the keyboard, relocating a touchscreen display to the bottom half of the unit, and doing some simple rewiring, user alexbates has fashioned a tablet which he says bests a device like the iPad or JooJoo with "10 times the storage, twice the speed, external video (VGA), webcam, USB ports, and built-in multi card reader." Of course, as you can tell by the photos, this mod has a ways to go before it's got the fit and finish of the aforementioned devices, and you'll have rev up a compatible, hackintosh build of OS X to make it appropriately Apple-ish -- but it can clearly be done. While this isn't the first time we've seen this type of modification, it's nice to see the love spreading to various  devices (and done in a fashion that doesn't seem overly complicated). From the sounds of things, this project hasn't hit its zenith yet, so we'll be keeping our eyes peeled for a more complete variation of the Windlet (our name). For now, hit the read link and keep up with the unfolding saga. </t>
+  </si>
+  <si>
+    <t>mammmmmmmmmmaaaaaaaaaaaaaaaaaaaa ashok raj is really good friend of mine................he s padips of our class...........really good in programming........he always tells tat he din study anything(something fishy behind tat!!!!!!!!!!) but ll get gud marks...........he really cares for his friends.........helps a lot before exams(definitely not inside the hall)...........he s one of the sincere sigamani s who sit in the first row and listen interstingly to the boring lectures..............he s also good in sports (he s a district player in volleyball) and also a good badminton player....................and one more thing his friend circle is really huge.... he has friends all over chennai..............jus name an area n he ll be knowing someone there.........great machan u rock da......................</t>
+  </si>
+  <si>
+    <t>Our local public High School is pretty good. Nice facilities, gang &amp; drug problems that are either non-existent or invisible, and motivated teachers. My wife and I stay pretty involved in our kids educations. One of the things we do, when able and required, is to go over their tests with them to see where things went astray.</t>
+  </si>
+  <si>
+    <t>As the foreign arthouse market continues to shrink abroad, the Unifrance-sponsored Rendez-Vous With French Cinema in New York is strengthening its role as a launchpad for French pics' distribution in the U.S.
+Since its inception in 1995, the French love fest in New York has helped foreign sales agents get their films some exposure, network with U.S. distribs and eventually ink deals. In today's shifting specialty market, the Gallic promo org is also encouraging U.S. distribs to source their films earlier and use the fest to expand marketing dollars.
+This year, seven of the 18 pics unspooling at the event already have been nabbed for U.S. distribution, including spy spoof "OSS 117: Lost in Rio" to Ed Arentz's Music Box; Christophe Honore's "Making Plans for Lena" to IFC Films ; and Stephane Brize's "Mademoiselle Chambon" and war drama "The Army of Crime" to Lorber Films.
+"With P&amp;A (costs) skyrocketing and commercial cinema chains squeezing out arthouse films, alternative exhibition venues like the Rendez-Vous have become key in giving foreign films a good degree of exposure," says Kino Lorber co-prexy Richard Lorber.
+IFC Films acquisitions VP Arianna Bocco agrees, noting the company launched Cedric Klapisch's "Paris" two years ago at the Rendez-Vous and picked up Gerard Depardieu starrer "Bellamy" off last year's.
+"The Rendez-Vous has a twofold purpose," she explains. "It's a great platform to test your film before an audience and get a critical response, and it's a good place for acquisitions because we get to see films we haven't seen before."
+But Gallic sales execs worry about the contraction of the U.S. specialty market.
+"Currently, the U.S. distribution landscape is made up of three basic layers," observes Eric Lagesse, president of Paris-based shingle Pyramide. "At the bottom, you have a dozen small independent companies, like Strand Releasing, Kino Lorber and Music Box; then you have medium-size structures like IFC Films and Magnolia; and that leaves Sony Pictures Classics on top with the monopoly of big films."
+"For the past two years, we've had to learn to be more creative to compensate for the falling minimum guarantees," says Cecile Gaget, sales topper at Gaumont, which reps "OSS 117." "We negotiate for good backends."
+But even if theatrical advance offers have been shrinking, "a theatrical release in the U.S. is more crucial than ever to our filmmakers," says Harold Van Lier, international sales topper for StudioCanal.
+"That prestigious recognition confirms that their film travels well," he adds, "which usually sparks additional releases abroad."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As another cross blog venture, my good pals at The Philosophy of Time Travel and LastBestAngryMan have invited me to participate in a number of top 5 lists as this decade draws to a close. We have very different musical tastes in terms of our favorite stuff, but I also think we all are willing to listen to a lot of different stuff so there is some crossover. Lists like this are by their very nature completely subjective, but the point has always been to simply tell everybody they are wrong about everything. 5) Kid A by Radiohead This album represents for me the height of Radiohead's greatness - better than everything that came before and much better than everything that has come since. They take their first steps here into really stretching into experimentation but still keep some pop hooks, and the result is just tremendous. Everybody knows at least one or two songs by Radiohead just from osmosis, but what is interesting is that all these years later, you still have a chance of hearing something from The Bends or OK Computer on your radio but very little chance of hearing anything from this album which surely must be their best. 4) Yankee Hotel Foxtrot by Wilco This album is for Wilco what the Love Song of J. Alfred Prufrock must have been like for T.S. Eliot: once you produce something this good, how can you live up to it again? Keeping with that analogy, we still haven't seen Wilco's equivalent of The Waste Land . They are still making great music (and I just saw them in concert this year incidentally), but they've never been able to replicate the heights of fancy and genius they hit with this album early in the decade. That's not a knock against the band as few have ever hit heights like this. From the very beginning lyrics: "I am an American Aquarium drinker" you know you are going to get something a little bit different - but through it all it remains a coherent, sometimes heartbreaking but ultimately hopeful work that stands as something to be listened to from beginning to end. 3) Good Apollo, I'm Burning Star IV, Vol 1: From Fear Through the Eyes of Madness by Coheed and Cambria Rock Band was basically the greatest thing to happen to these guys in terms of popularity as the fantastic track "Welcome Home" from this particular album is featured in the game, and was also featured in the preview for the movie "9". But more than just that particular single, this is the 3rd album in a series of 4 that comprise an entire sci-fi rock opera by the group, telling a singular tale that, while often clumsy/impenetrable in terms of narrative, serves to tie the whole project together in a single thread. This 3rd volume is in my opinion the strongest with so many great tunes that stand alone, but in particular "Ten Speed (Of God's Blood and Burial)" and "Apollo I: The Writing Writer" rise to such bizarre heights of creativity in subject matter while at the same time keeping coherent metal hooks - it's just brilliant stuff all around. All 4 albums are terrific, but this one for me is the best of the project. 2) Takk.. by Sigur Ros Sigur Ros stands alone in their own category of music making right now for me insofar as I firmly believe they are the most important band out there today. You could argue there are other bands that are better but the reason Sigur Ros is so essential is they are in the unique position of being legitimately popular . How this, by pop standards, weird group from Iceland became pop icons is completely lost on me but I'm totally okay with it because it really shows that all is not lost - people WILL listen to truly great music given the opportunity. If you had told me when Agaetis Byrjun was released that "Svefn-g-englar" would feature prominently on an episode of the TV show "V", I would've told you that was patently absurd. It was very difficult to choose between this album and () (also called "Two Sausages Kissing" in jest) only because () was probably more important for the band's development, but I've listened to Takk.. too many times not to make this the album I choose. I remember hearing Glosoli for the first time when I saw the band in concert - they were touring just before the release of Takk.. - and having my mind utterly blown. When I think of the Platonic model of "hope", I think of that song. 1) Lateralus by Tool This is bar none my favorite band, and this is my favorite album by that band. I get it that Tool isn't for everybody (just people who know what they're talking about), but it is tough to find a musician anywhere who won't at least admit that these guys are all absolutely ridiculous when it comes to the technical talent on display at every instrument in this band. Perfect Circle is a nice project for Maynard and I enjoy them, but this is where Maynard's home is, and this is where he does his best work. It's amazing that this album came out in 2001 and nothing has come out that has been better, including Tool's own 10,000 Days which, while awesome, didn't quite hit the level of Lateralus simply because track for track there are absolutely no weaknesses on Lateralus. Perhaps the way I can most easily sum up the level of this band is to relay this story: after seeing this band in concert with one of my friends who is a musician, he simply turned to me and said "Well, that was intimidating." Indeed. Some context for below - tonight the local minor league team, the Wilmington Blue Rocks , are having "Cowboy Monkey Rodeo Night", which involves monkeys dressed as cowboys riding on dogs. This led to the chat below with a good friend: me: tonight is awesome &amp;nbsp;&amp;nbsp;Cowboy Monkey Rodeo night + fireworks &amp;nbsp;&amp;nbsp;Monkeys in cowboy outfits riding dogs Friend: shouldn;t they be called Dogboy Monkies? me: Cowboy Monkey will lasso you good for suggesting this &amp;nbsp;&amp;nbsp;they don't round up dogs &amp;nbsp;&amp;nbsp;they ride them Friend: yeah true &amp;nbsp;&amp;nbsp;what do they round up? Squirrels? &amp;nbsp;&amp;nbsp;COWS??? me: what they round up are good times &amp;nbsp;&amp;nbsp;Goodtimeboy Monkeys Friend: now that would be illegal - making monkeys round up squirrels while riding dogs &amp;nbsp;&amp;nbsp;then - you feed the losing team to a shark &amp;nbsp;&amp;nbsp;THAT'S good times me: I don't want to live in a country where you can't watch monkeys dressed as cowboys riding dogs herding squirrels tossing them to sharks &amp;nbsp;&amp;nbsp;and you can quote me on that One of the many things that makes baseball the greatest sport in the world is that it represents stability - every March, players start training for April. Every April, thousands of fans show up for Opening Day at their respective ballparks, filled with the hope of possibility - even if their team is predicted to lose 100 games this year, it hasn't happened yet: everybody starts 0-0. As the oft maligned former commissioner Bart Giamatti said: It breaks your heart. It is designed to break your heart. The game begins in the spring, when everything else begins again, and it blossoms in the summer, filling the afternoons and evenings, and then as soon as the chill rains come, it stops and leaves you to face the fall alone. In other words, it appeals because there is so little about the game that ever changes. It is as familiar as the spring, as familiar as the sun rising and setting. When Harry Kalas died yesterday, it surprised me that it hurt. It didn't seem to me at first like I had any right to really be affected: after all, I didn't know Harry personally. I never met the man. I was just a Phillies fan, one that probably took him for granted too often like many others, so used to him calling the games that it didn't even cross my mind that someday, he wouldn't be around to do it. Harry called every Phillies game of my entire life - his presence was as ubiquitous as the Phillies themselves, as baseball itself. I stare out the window at what is a gloomy day here in Delaware, and I know the spring will come. I know that everyone will eventually move on, myself included, because baseball, like life, goes on. But for right now, for this moment, Harry is gone, and with him the spring and the promise that both it and baseball bring. The promise they represent - that there are windows of opportunity in life where anything seems possible - for now seems to have disappeared. The feeling will pass, as all things do, and no matter how much we might want things to stay the same, no matter how much we might want to turn on the game tomorrow night and hear Harry call it, comforted by the familiarity of it all, it won't happen. We learn to adjust. Baseball represents that too, you know: the game may not change, but the people do. It's not a bad thing or a good thing, it just is. Right now though, I just want it to feel like spring, the way it did on Sunday when the Phillies won and Harry called the game, and everything was exactly as I thought it should be on an afternoon in April - and now can't ever be precisely the same again. I absolutely love movies, but I dislike going to the movie theater . In the past 2 years I've seen maybe a half dozen movies in the theater, and very rarely will I go on a busy movie day (like a Friday night) if I go at all. I like a nice Sunday matinee, but really with TVs and DVD players being what they are, with all of the easy access we have to movies via Netflix, movie channels, TiVo, Netflix on TiVo, etc. it just seems kind of silly sometimes to go to a movie theater when I (personally) can be guaranteed to enjoy the experience at home. Going to the movie theater is not a sure good time, mostly because of the occasional rudeness of other movie-goers. But sometimes you just can't avoid the hype and you find yourself unwilling to wait for the DVD release. My buddies at LastBestAngryMan and The Philosophy of Time Travel agreed we would all post our top 5 most anticipated films of 2009. Here's the top 5 movies I'm most likely to see in the theater in 2009, which by proxy means they are the most anticipated: 5) 9 - This film will mark the real feature film directing debut for Shane Acker , who really cut his teeth doing animation with Weta during the Lord of the Rings films. Here's the deal with this one - Acker made a 10 minute or so short film around the concept a few years ago. The movie is embedded below. The film coming out in theaters this year is the whole story. The visual style is super cool and I'm always a fan of animation in all its incarnations. Short film "9": Feature Film Trailer, featuring a terrific song by Coheed and Cambria : 4) The Lovely Bones - There are two big reasons I'm looking forward to seeing this. Number one, the book is absolutely terrific and for me exceeded the critical hype. Number two, Peter Jackson is directing, and the material from the book is something I think he could prepare a feast with. No trailer available yet. 3) The Wrestler - This movie is technically out right now in the US but only under limited release. I check every weekend to see if it is out around Delaware but so far no luck. The number one reason I want to see this: I haven't seen a Darren Aronofsky movie yet that I haven't loved. I also have a soft spot in my heart for the material here because when I was a kid I was a huge fan of pro wrestling. There's a lot of Oscar talk swirling around Mickey Rourke's performance in this one, if that kind of stuff matters to you. 2) Public Enemies - It's a 1930s crime drama starring Christian Bale and Johnny Depp directed by Michael Mann. If you need any more explanation than that I have no idea what to tell you. 1) Watchmen - I'm worried about this movie. Really, really worried. There is a very good reason that Watchmen is the only graphic novel on Time's 100 greatest novels list: it is an absolute masterpiece. It is also really, really complex and has always seemed like it would be a nightmare to faithfully translate to the big screen. We already know that at least one key element (the Tales of the Black Freighter framing device) will not be in the movie. There are more and more reports suggesting that the ending has been changed. The director's original 3 hour cut was apparently loathed by the studio and who knows if it will survive tampering. The whole thing is a recipe for a colossal disaster. But I had a lot of the same skepticism with Lord of the Rings , and boy was I completely wrong there. This easily gets #1 because it is probably the only movie I will definitely see this year in the theater, and that's because there's no way I'll be able to avoid it. A great deal of my friends love the graphic novel as much as I do, and I'll be unable to avoid discussions of this movie when it is finally out. Hopefully they will be discussions about how we were totally wrong about all our concerns over the movie. You don't need to know the ins and outs of the Israeli-Palestinian conflict to know that it's bad. In fact, it has been so bad for so long that whenever another bombing or act of terrorism is reported, it just seems to roll like water off a duck's back for most folks. It says something when a story of cooperation is more unexpected and surprising than a story of people blowing each other up. It says something sad about the way things are there. But it also says something awe inspiring at just how far some people will go to try to change things, even on the tiniest of levels. ------- When you say "football", people from different parts of the world will think of different things. Most, of course, will think of what we call in America "soccer". In Australia though, they think of their own variation of "rugby" - Australian rules football. In 2002, Australia hosted the first ever Australian Football International Cup . The idea was to promote interest in the sport in other countries by hosting a tournament that Australia itself would not participate in. It's the kind of thing I can't imagine America bothering to host - we'd want to win our own tournament, after all. But since Australia has the only professional league for their unique sport, it made sense to sit out this tournament because winning was almost guaranteed. Why not give other teams playing their sport in other countries a chance to compete and measure their talents? The tournament was enough of a success that it was hosted again in 2005, and now it will happen a third time here in 2008. This year 16 teams from around the world will compete for the trophy, the most since the tournament started. When you look at the list of teams competing , one jumps out at you: Peace Team . A strange name for a side participating in a rough and tumble game. ------- In January of 2008, Australian football legend Robert "Dipper" Dipierdomenico, along with some other league representatives, presented the rules of the game to a room full of 100 young men. Out of that 100, 40 were selected to participate in a 3 day clinic to learn the basics of the game. The unusual part of the story: these young men were a mix of Israelis and Palestinians, and the clinic was in Jerusalem. Perhaps crazy enough was the idea of getting a team of men completely unfamiliar with the sport ready to compete internationally in just under 8 months. But even crazier was the idea of trying to do it here, with these men. The team faced complications trying to train that would be completely unheard of elsewhere. The coach's instructions needed to be translated to both Hebrew and Arabic. The team was shut out of their Israeli training facility for 4 days during a visit by President Bush when all Palestinians were denied access, including Palestinian members of the team. Team members received threats from both sides of the conflict, either enduring the usual hate from one side or being called "traitor" by the other. Palestinian team members needed to obtain work permits for every training session, sometimes traveling upwards of 4 hours through various security checkpoints. The pressure was too much for a number of the players. Some of them, facing threats from their own friends and neighbors, left the team. In spite of all of this, a few kept practicing. A few kept playing. In spite of the lack of a proper field (they played on soccer fields) with proper goalposts (they had none), they kept learning. The first time the team had seen real goal posts was when they arrived in Australia a week ago. They play their first match of the tournament today against Great Britain. ------- New Zealand and Ireland will be the favorites going into the tournament. The Peace Team will probably be lucky to win a single match. But win or lose, they will do it together . "Everyone knows the story in Israel and Palestine, the occupation, the killings, bombings, we came here to show the people, we came for the peace, we need the peace," says Palestinian ruckman Fares Switte. In January, it's not likely Fares Switte knew what a ruckman was. But then again, in January, the whole notion of a team like this was pretty unlikely too. ------- After the tournament is over, the players on the Peace Team will return to their normal lives. They will return to face the same strife and conflict they faced before they started playing together. They might even return to find themselves reviled in their own homes. But they'll return changed in this small way, knowing this simple thing: if we can play together, we can live together. ------- Note: For a tremendous introduction to the various factions and pieces in play in the Israeli-Palestinian conflict, I can't recommend the game Peacemaker enough. It is easily the most engaging introduction I've ever seen, better even than any book I have read on the topic. And yes, it has a Mac version. It's an ever shrinking world. On the one hand it means we tend to fight a little more over resources that we all need. On the other hand, it means we have a better opportunity than ever to learn to live with each other. I'm a big fan of the Olympics. I'm talking about an event where we get to see sports that we probably won't see for another 4 years, but with a built in rooting interest. We root for our country. We root for the human interest stories. We root for the ideal that we can all, just maybe, get along for a couple weeks. Of course the ideal is not reality. The Olympics are bringing some of China's questionable government practices out into the world spotlight. The games are sometimes overshadowed by stories of the conflict in Georgia. In spite of these things, sport goes on. The beauty of sport as a fan is that, for the duration of the match, game, whatever, you aren't thinking about those things. It is not a good idea to ignore what goes on in this world. But it's not a bad thing to set it aside once in awhile. ----- Imagine you've got a tumor in your belly growing so large that it begins to push all of your internal organs, liver, intestine, kidneys... all to the sides of your body. Imagine that the hospital that is trying to treat you has just been taken over by a group that is likely to kill you if they see you. Imagine that it doesn't matter anyway, since the doctors have told you there is nothing they can do to save you. Imagine you are two years old. This boy exists, and he lives in Iraq, the child of a Sunni family whose hospital had been taken over by Shiite militia. On the other side of the world, in Boston, someone hears of this, a wealthy, 85 year old liquor tycoon whose own son died of an incurable form of cancer. The world is shrinking. The elderly fellow from Boston pays for the young boy's family to fly to Jordan where there is a very dim hope of treatment with the tumor so far advanced. The doctors in Jordan do not know what will happen, but it is the only hope. It is not a miracle what happens next . A miracle would be something that defies all explanation. I don't yet believe that acts of human kindness defy all explanation. ----- The pursuit of athletic excellence is an ideal, just like the pursuit of global peace. They may both be fleeting things sometimes, but that doesn't mean they don't occasionally exist, even if only in very small batches. For just a few moments, when Michael Phelps breaks another world record, for a fleeting moment he is the pinnacle of athletic excellence. For just a few moments, when a young Iraqi boy walks out of a hospital in Jordan after treatment paid for by a elderly man in Boston, they are world peace. The world is shrinking. And it is not a bad thing. Aaaaand we're back. So as of today I am 30 years old. Things couldn't be better. I've written before about what I think the advantages to getting older are and I still stand by those things. Bill Watterson once suggested that people who remember childhood as an idyllic time were probably never children, and that's a statement I agree with. It's not like being a kid was bad (it wasn't), but it's a pretty amazing (and sometimes scary) thing to have a modicum of control over your life. I also maintain it is awesome to be able to have the authority to scold those younger than you are. Age is the type of completely arbitrary authority that just increases with every passing day. Just this morning I pulled into the parking garage at work and there was a young fellow blasting music out of his car. Just the fact that I could legitimately think to myself: "That young punk, what's he doing playing music at that volume this early in the morning" and actually have a small part of that thought be automatically accurate (the part about him being "young" compared to me, not necessarily the part about being a punk, he's probably a real swell kid, I mean after all he is arriving at work at 7:30 AM just like I am, probably during his summer vacation) is the type of thing that I find internally amusing enough to keep me in a good mood. So, where have I been these past several months? Well, I haven't been doing anything particularly epic. Since getting married, Jules had been busy studying for the Delaware Bar Exam (a 3 day test which she finished taking last week, results in October) and I've been doing... whatever it is that I do. And frankly that's what I LIKE doing. There was a time in the heady days of my youth (you know, like 8 years ago) where I would have been terrified of the notion of working a 35-40 hour a week job, settling in to some kind of routine. Now it's really what I enjoy most. Some of my best times are just relaxing at home talking to Jules, reading a book or watching baseball on the tube together. I'm a much more boring guy than I used to be, but I consider that to be a good thing. So why haven't I been updating the blog then? What's the excuse? Well, there really isn't any. But I've been thinking during all those months I haven't been writing about what this blog is exactly. Is it a journal? Is it a blog about games? Shouldn't it have a theme of some kind? And I've kind of decided that there are enough blogs out there that spend their time discussing games, and enough blogs out there that are just journals. There are enough blogs out there that complain and mock various things, and really I'm not as good at any of that stuff as they are. So as of today, I'm going to try something new with the blog. I'm going to go for a general theme of optimism. A general theme that says "life can be pretty cool." That may still involve games that I think are fun and self-deprecating personal anecdotes and some of the other random stuff I throw up here... but the gist will be the type of kerfuffle that puts a smile on my face. We'll see, maybe it will put a smile on yours. And if you got this far, thanks for not unsubscribing from this thing. I'm starting to see the following expression used more and more in various publications these days, particularly by journalists: Searching for X on Google produces Y results in Z seconds. If you haven't seen this before, let me give you a couple of examples: From Law.com : Online virtual worlds are wildly popular, attracting millions of people every day, and a recent Google search for MMORPG yielded approximately 32 million results. From the Toronto Star : Partner new Blue Jay shortstop David Eckstein and the word "scrappy" and a Google search will advise you of some 5,300 possibilities. In just 0.38 seconds, too. From Jose Canseco's new steroid book, Vindicated : Put in 'Alex Rodriguez' and 'infidelity' and you'll get like fifty thousand hits. The gist I guess is that there is supposed to be some correlation between X and Y . People, please stop this madness. Maybe you think it's a cute gimmick and a nice alternative to the old stock " Meriam Webster defines 'infedility' as... " type of intro, but all it does is expose you as a complete idiot. For the love of god, there is no correlation between X and Y . It's a firk ding blasting search engine, it goes and gets as many results as it can. Allow me to demonstrate via the following examples of my own. If there was any question that more dinosaurs are wearing pink hats now than ever before, just pair "pink hat" with "dinosaur" in a Google search. You'll get 635,000 results in 0.17 seconds. I always thought bananas were funny looking, like they're from another planet. You might be surprised to hear that a Google search of "aliens plant bananas" yields 526,000 results in 0.29 seconds. Bananas may be the proof we need that we are not alone. Recycling for the planet is one thing, but what about recycling what our own body produces for ourselves? A quick Google search of "lose weight by drinking raw sewage" gives you 153,000 results in just 0.32 seconds. It's obviously an idea worth considering. To writers everywhere, I am begging you this last time to please stop this insanity, or so help me I will Google "[your name here] is completely brain dead", thus proving forever that somebody needs to pull your plug. </t>
+  </si>
+  <si>
+    <t>Simply put, Lavada is exactly what every women needs.  I read an article that said the makers of Lavada don't need to advertise and now I see why.  Once I took Lavada and felt the difference of being fresh, I couldn't help but share this secret with my friends.   Now they are the ones raving about Lavada. Plus they gave away a breast cancer awareness bracelet with my order to show support for the cause.  Very admirable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Rafael Palmiero was outed as having used steroids, there was a mix of apathy (since everyone knew) and disgust (since he had lied to Congress about it). When Tiger Woods was outed as an unfaithful husband, again, people were a little surprised, but again mostly disappointed that he tried to act like it didn't happen.
+Now it's Allen Iverson's turn. Iverson has always been a character, whether it's talking about practice or simply his bachelor lifestyle. Unfortunately for him, the latter appears to have caught up with him.
+Hearing that an NBA player has been banned from multiple casinos for his gambling and drinking problems isn't much of a surprise. It isn't even a huge surprise when you know that it's Iverson. However, to think that a man who is 34 years old, has five children, and has been a father since he was 19 has yet to take steps to deal with a problem that not only could but likely will tear his family apart is a bit surprising.
+ As Smith mentions, Iverson's career has been on a downturn in recent years. I suppose it should be no shock that the man who was too proud to further his career by taking a role as a backup should take this long to finally wrestle with his inner demons, but better late than never.
+</t>
+  </si>
+  <si>
+    <t>With Easter almost on it's way I wanted to be sure that I made some beaded eggs this year. So I thought what better way to use up some of my Bead Stash. I used the flower motif for one and added some daisies. The other is just free form. I do still want to make a few more before Easter if I find the time, but here's a couple of them for starters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People all over the blogosphere -- OK, some people -- have been asking about the mayor's leadership in the Google Fiber race. "Where's the mayor?" they ask.
+Amanda at Inside Scoop checks in.  Knight said he supports the idea, but has left the issue to council members like Zack Matheny, who can speak about it more proficiently that he can.
+I guess that makes sense. OK. so where's Zack? 
+I think what people are really wondering is who is the city's voice? Why are the elected officials -- whether they are from City Council, from the county commissioners or are Rep. Howard Coble -- so low-key on this issue, particularly when many other cities are hanging it all out there. Examples: renaming highways after Google; renaming cities after Google; urging firstborns to be renamed Google Fiber; and swimming with sharks for Google. 
+It is OK to have fun, isn't it?  
+We brought home a passel of awards last night from the AP and the N.C. Press Association. Several items worth noting:
+• Betsi Robinson won her second statewide editing award. Since 2003, Betsi and features editor Susan Ladd have won the editing award five times.
+• Lorraine Ahearn won three awards in three different categories.
+• Jerry Wolford won the photographer of the year award, continuing a darn good year.
+• Tim Rickard has won awards in seven of the last 10 contests.
+Most significant to me is that five of the awards were efforts by our entire staff.
+Full results of all papers here. Our specific size category here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, I'm not pregnant. I guess this is more Matthew's news that I get to share. He will be finishing his Masters program this year and for these past two years Matthew has had a tough time deciding what to do once he graduates. He has gone through many options like medical school, getting a doctorate in Neuroscience, dental school, and others. He really didn't feel quite right about any of them but knew he needed to make a decision. He sent out several dental school applications recently, however in the meantime found another option that he is really excited about. He found podiatry school. He sent out applications and within a week got 4 interviews. I really feel that this is the route we are suppose to take. I have never seen Matthew more excited about a career choice. He loves that he will be going to Medical School but will come out specialized in the foot and ankle instead of graduating from med school and then having to specialize after that. He also loves that he will be doing office visits and surgeries. Matthew has been interviewing and has been accepted to several places and we have made our decision....We will be moving to Arizona!! Matthew will be attending Midwestern University in Glendale, Arizona. We will be moving this summer. I am so proud of Matthew and all that he has done and we are both excited to start this new phase of our life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So tomorrow, is St. Patrick’s Day.  And here I am having given up alcohol for lent.  Someone didn’t think this thing all the way through.  I mean, who hell would put both my birthday AND St. Patrick’s Day right in the middle of lent?  That’s some stupid planning if you ask me.  
+Speaking of Ireland, as you guys probably know, way back in the day I sent out a plea into cyberland asking for information about my ancestors.  And, as you know, it was answered.  I got an email from someone who is a cousin (not sure how distant, these things confuse me) with some really cool information about the Loy family.  
+Loy family being my great great grandfather George Loy who was born in County Armagh Ireland.  We found out a few things like his father, Thomas Loy and several brothers and his many, many kids that he fathered. Also, interesting tidbits about George like a newspaper account of his doing time for assaulting someone.  Apparently I come from a pretty rowdy bunch.  Shocking, huh? 
+I also shared with you this picture….
+At the time we thought this was Thomas Loy, George’s brother.  Well, turns out it probably isn’t Thomas. 
+How do we know this?  Cause I got another email from another cousin with EVEN MORE information about my family!  How cool is that?  
+He has provided us with scans of all kinds of great stuff.  Baptismals, death notices, marriage certificates (mostly in Latin), census entries and even immigration entries.  All of it adds up to help create a great timeline and fill in some of the pieces of their lives. 
+Oh, and the guy in the pic?  We now believe it is John Loy, another brother of George Loy.  He was an army reservist in the 1st Regiment of Foot, aka The Royal Scots.  
+Tragically John died of drowning while bathing in the river Tees.  My newly found cousin sent the death certificate.  
+My newfound cousin even sent us information on my mother’s grandfather Edward Wilson.  We knew he was born in Belfast, but really had nothing at all.  My cousin was able to dig up information about Edward moving to England and when he immigrated to the US and all kinds of great stuff.  
+How cool is that?  Yeah, pretty damn cool.  
+Well, that’s it.  I just wanted to update you on the family search cause I know you were wondering how that was going. 
+Also… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">....Nothing much to write about today. Nothing has pissed me off, nothing making me feel like turning cartwheels. Although, if I turned a cartwheel right now, it would probably end up in a trip to the emergency room and that would piss me off. I just felt like typing so random stuff floating around in my head is ending up here. 
+Is that how you spell babbling? for some reason it doesn't look correct, but spell check says it is right. hmmm? Oh well.
+Why is it the games Dare likes the most are the ones with the most annoying sounds? Why is he soooo good at them?  I kinda miss the simple games I used to play. Especially the one where you shoot at the gopher stealing carrots out of your garden. If you hit him he would say "ugh, I'm hit. Going down." If you only came close he would jump up and down saying "what was that for you idiot?" and then flip you off. I missed on purpose often. Drove my mom insane.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stood, suspended on gossamer words,
+Trapped in sound and light they span out, simple
+With gently placed phrasings they could not but call
+And in these words, and motions, spinning truth
+A gentler rhythm, a kinder rhyme breathes
+Out, and in the audience, all air,
+Stilled, and charged, and frozen in it’s glory,
+As upon a platform below our feet
+But above our minds, in incandescence
+Framed in motions, truly daring in heart
+and soulful intent, we are all acting
+They seem to say, declaring it to us all,
+Ah, but oh, I hear us all exhaling
+What beauty in this act, there is, trailing. </t>
+  </si>
+  <si>
+    <t>Regular readers of this blog, and I am happy to say that it as many as five people, have been pointing out that it has remained unupdated for over two months. A very devoted reader, horror of horrors, even threatened blogultery, if I did not come up with a post soon. I know how hard I have toiled to build readership to such impressive levels and I feel terrified at the prospect of losing it all.
+I do have a good reason for not blogging. I was away on a holiday for three weeks and while I did contemplate writing about it, I decided against doing so. What, I felt, could I possibly say about London that hasn’t already been said? After all, the very wonderful city attracts an impressive 30 million tourists every year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. No ice… If your ice maker has stopped making ice then you need to check these things.
+         1. The lever that controls the ice maker has been pushed up which turns it off. If you have a red lever, pull it down to the wire and if you just have a wire then just pull down the wire to start your ice maker up.
+         2. Make sure the freezer temperature is below 10 degrees F If the freezer is too warm ice production will be poor because the ice maker will not cycle properly.
+         3. The ice maker fill tube may have ice formed in it, blocking it. Use a hair dryer to melt the ice. Watch out for the plastic parts, so that you do not melt the plastic. Also check the water inlet valve and the shut off valve, to make sure it is not plugged with debris. The openings in those valves are very small.
+         4. Check the gears in the ice makers to see if they are broken or stripped. Also look to see if the ice rake is broken. All parts in the ice maker are replaceable individually, If you find broken parts replace them.</t>
+  </si>
+  <si>
+    <t>Saga of the Golconda Fort!! "Everything that goes up comes down" said someone. The famous saying resonates in my mind each time I visit a fort. There are 2 reasons for it.
+1) The glory of the once glamorous fort becomes the memories of the bygone days where as the fort is a new example of gloom in the present.
+2)We climb a fort (panting) and come down (refreshed).
+The above thoughts revisited me today when I was at Golconda. It is a famous fort in Hyderabad. I visited it with a friend who is a history maniac :) so effortlessly I got to know about the Golconda without a real guide. He told me that he has been to Golconda 6 times before. In one of those times the guides to the fort thought he is a new guide and questioned him......Sometimes knowledge can land you in unforeseen circumstances.
+It was too hot in Hyderabad today as May is one of the hottest months here. The temperature and the staircase to the fort almost took my breathe. I was panting and my face all red. The brain demanding for more oxygen......Why I chose May to be here and why not some other cooler months...Huh! My dream to save myself was close now as I reached the top of the fort and there was a cold drink shop I can see vaguely. My friend Saptarshi climbed without much effort; would have become a habit.....how can I forget he has been here 6 times already.
+I sat down and requested him to get cold drink.....Drank...What a relief...Phew! :) After that we saw the whole Hyderabad from above the fort. It was beautiful. After all pain it was worth it. Captured the view in my eyes as we did not take Camera and we came down the fort........and hey I was running down the fort......"I hope you do not want your medical reimbursement tomorrow" he chuckled.
+There was a light and sound show in the eve which depicts the complete history of the Golconda fort in the voice of the Big B. We thought to go there before time so that we can get the front seats. Alas! we are late but not too late we got seats in the second row along with a Cat sitting beside me on a chair. I was fumbled when I saw that the cat`s fur, cat`s eyes and the chair colour matched. It was light brown.
+We two were waiting for the show to begin. Ahead of us was a gang of 5 people from a company and they were waiting for 3 girls who would join them. We never talked to them but since they talked loudly.......so I have ears people. The 3 beauties stepped in and one of them OMG I know her...............or may be I dont.....may be we both do not....or may be just me...."Thanks to orkut" I smirked and thought. She is the girlfriend of my school senior and I saw her in his photo album.
+After a long time thinking should I or should I not ask her I decided to ask her....I enquired "Hi ! Do you know ______? ". I felt her heart pounded and she asked who are you. I was his junior in school and blah blah explanation. I found her good. Good choice senior :)
+The show began finally.......It was awesome with voice of Amitabh Bachchan as a guide explaning to visitors. In between we had ghazals and bhajans sung by Jagjeet Singh and Kavita Krishnamoorthy(only the audio). The Golconda Fort came back to life with the lights specifying the stories narrated in the background. I could actually imagine the king , the queens, the soldiers, the plots, the plays. I got an Idea these people should include real actors as well to give more realistic images. May be I should send them this idea. All in all the SAGA of the Golconda fort came to an end with Aurangzeb the merciless ruler who destroyed the the prosperous regime of the Golconda empire. What a fantastic day for me! :D I came to know so many stories today. The rocks of the fort have seen them all but they stay calm and quite as ever.
+We returned the saga was over and now the butterflies of hunger were hurting my stomach. We had prawns and chicken and I came back home after that............and here I am writing down the experience.
+THE MIGHTY SAGA OF THE GOLCONDA FORT WILL LIVE FOREVER.......as the fort will never die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS VEGAS—Polaroid fans will be pleased with the company's new product line-up announced Wednesday at CES, which marks the long-awaited return of classic Polaroid instant film, along with a modern version of the OneStep instant film camera. In addition, the company launched new instant ZINK ("zero-ink") digital products, including a camera and a printer. The company also showed off its new photo-sharing site, The Polaroid Gallery.Polaroid will offer a modern version of the Polaroid OneStep camera, the PIC 1000, available in a range of colors and based on the classic Polaroid Color 600 Instant Film to produce the iconic instant pictures with white borders. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An 11-year-old girl -- a precocious reader -- was visiting my home a few weekends ago. Over the past year, she'd devoured "The Great Gatsby," "The Joy Luck Club" and "Huckleberry Finn." She noticed the review copy of Picoult's 17th novel, "House Rules," on my coffee table and said that she'd liked some of Picoult's other works, especially "My Sister's Keeper" and "The Tenth Circle." I told her this new novel was wonderful.
+Big mistake.
+Shyly, she asked if she could borrow it. I'm an educator, someone who, by training and disposition, is inclined to applaud a young person's thirst for reading. But I grabbed that fat review copy out of the kid's paws so fast she didn't have time to blink. The possessive hoarder who wants to keep all good books within reach had been awakened. I muttered something inane about the reviewers' code of honor forbidding me to lend books before they've been published. Hey, if this 11-year-old wunderkind has absorbed anything from her reading, she's surely learned the fundamental lesson of every Jodi Picoult fictional family: Life's tough.
+Throughout the long unfolding of "House Rules," Picoult keeps so many storyline streamers whirling in the air that it would be easy just to praise her technical mastery. But though the multiple plots and narrators are, indeed, adroitly managed, what most readers will cherish is the character of Jacob Hunt, an 18-year-old high school student with Asperger's syndrome. (Jacob, in goofy teen fashion, jokes: "Asperger's. I mean, doesn't it sound like a Grade Z cut of meat? Donkey on the barbecue?")
+Asperger's rules Jacob's life and the life of his family, which consists of his understandably resentful-but-guilty younger brother, Theo, and his wry and exhausted mom, Emma. (Although Dad sends child support, he fled the coop long ago.) Emma ensures that a sense of routine -- so crucial to Jacob's emotional well-being -- is strictly maintained from week to week. His clothes are color-coded in his closet; daily meals are color-coded too (Monday food is green; Tuesday, red; Wednesday, yellow), and his diet is restricted, since glutens and caseins spark meltdowns. As Emma observes: "Frankly, with 1 in 100 kids in the United States being diagnosed on the [autism] spectrum, I bet I could have a top-rated show on the Food Network: Alimentary Autism. Jacob doesn't share my culinary enthusiasm. He says that I'm what you'd get if you crossed Jenny Craig with Josef Mengele." </t>
+  </si>
+  <si>
+    <t>Hello everyone, My stepdad Timothy Blackburn A.K.A Mistrust has just recently done a remix for New Zealand band Pitch Black. The song that he has remixed is called “Rude Mechanicals” so please listen. The song is on Mistrust's Myspace page is a sample of the song because the full song is being released on 27th of October this year. So please listen and tell me what you think.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drunk Girls 
+Yesterday the fine people at Red Stripe sent me a case of their finest imported Jamaican beer. So I brought it home, called my friend Andy, and invited him over to enjoy the lager before heading out to meet up with Brian for some Kareoke at Lolita Tavern. 
+Andy came over with his med school friend Jared. We sat around drinking, smoking, and talking about the Olsen Twins. Jared's family is born-again Christian and I learned that he kept Kosher and celebrates Passover. Like me, he thinks that Hannukah isn't as important of a holiday as the media would like us to think. Whatever, the festival of lights was important, but in the grand scheme of things, the holiday gets more attention than it should because it falls in the same month of Christmas. I think that in my 23 years of living, I got about 3 gifts on Hannukah, and it was all coincedental because my mom just likes to shop. Last weekend she bought me a new comforter and Ralph Lauren sheets... but only because she loves to shop, not because she was posing as Hannukah Harry. 
+Anyway... on to the important stuff: 
+After the three of us had a few drinks we headed over to Lolita Tavern to meet up with Brian and participate in some Sid and Buddy Kareoke. [By the way, i think S&amp;B will be hosting the Aquarius Birthday Kareoke Bash that i'm having with Laura and Dan -- everyone is invited, of course]. Good times as usual. Jared joined me on stage to sing "Ziggy Stardust" ... I tried to serenade a drunk girl who was passed out, but even my off-key singing didnt wake her. So everyone posed with her. 
+Eventually I woke her up (which took a lot of shaking, prodding, etc), helped her up, and told her that she had to go. Andy brought her some water, she drank it and ran out. We tried to find her to put her in a taxi, but she literally disappeared into the night. Vanished. 
+0 different opinions from people other than me 12/22/2003 06:11:00 PM erratically written by Ultragrrrl 
+Dear The Flu 
+Dear The Flu, 
+Thanks for coming just in time for the holiday party season. I know that you and God had to do it to prevent me from drinking too much and dying from alcohol posioning at the holiday party. That's cool. I can live with that. Instead I sat in bed thinking that all i needed were drops of zinc to cure me until I woke up on friday afternoon and texted Lizzy to come into my room to see if I had a fever since I couldn't move. Determining that I was burning up, she brought me some NyQuil and Orange Juice. Then Damon came over to give me Theraflu. At about 2am, Marc jumped into my bed and found me heating up and sweaty. The next morning I woke up healthy! See ya next year! 
+Love, Sarah.</t>
+  </si>
+  <si>
+    <t>well this is the improved testi i promised.. well all the other testi's say almost everything abt arthi which r good. its true. i dont wanna repeat it.. so here r the other aspects not mentioned.. i feel that she gets along with everyone easily.people may feel she is close to them but she does not get really close to them unless she gets to know them well for a long time.self confidence is high.. but i feel a bit of proudness also shows up sometimes.. funny girl.. takes things easily. knows how to enjoy and spend time..performs in the end always in studies.. a girl with very good character</t>
+  </si>
+  <si>
+    <t>Oy, what a weekend! We headed up to the general Seattle area on Friday for the Seattle Kennel Club dog show. Kim was super nice and let us stay at her house again. Once we got the dogs and ourselves settled in, we had a few glasses of wine and chatted for a bit. I had been forewarned that this show tends to be a bit of a zoo. There's a fair amount of promotion done for the show to encourage spectators (I have a strong suspicion it has to do with the fact that they charge admission for this show) and that creates a few issues for the exhibitors that I was about to witness first hand the next day. But first, I have to explain our lovely sleepless night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A job I've always enjoyed is planning. In college I did the advertising and promotional planning for my school's campus movie theater, and one of my responsibilities at my old job was media planning for a variety of the firm's clients (media planning refers to deciding where and when an ad will run). In my new job I'll be doing more of the same, which is fine by me. There's just something about planning an event and then sitting back and watching it be a success that is exciting to me. I guess I've got a behind-the-scenes streak. You could make an argument that McGriff's career was all about excelling behind the scenes. Before winning the 1995 World Series as part of the Atlanta Braves, McGriff's defining achievement came in 1990, when he was traded by the Blue Jays to the Padres (with Tony Fernandez) for Joe Carter and Roberto Alomar. That was, without a doubt, one of the premier trades (if not the trade) of the early Nineties. And it wouldn't have happened without Fred McGriff. </t>
+  </si>
+  <si>
+    <t>Now, these may have been around for ages, we can't really be sure because, truth be told, it's pretty rare for us to troll the aisles of Kohl's makeup section looking for KIRFs. Regardless, a helpful, hawk-eyed reader snapped this shot of an eyeshadow palette -- called eyemobile -- that's got the distinct iPhone aura going on, though we're 100 percent certain this is an unauthorized use case. It's hard to say from the photo, but it also looks like there's a lip gloss palette in the background (which we assume is called lipmobile), and that, friends, we would pay money for. Lots of money.</t>
+  </si>
+  <si>
+    <t>Jody Gerut plays outfield for the Milwaukee Brewers. After a good return to the majors in 2008, in which he posted a .351 OBP, Gerut fell to .279 in 2009. At age 32, he can’t afford to play another season like that. Teams won’t continue to pay $2 million for that kind of performance. The interesting thing about 2009 was that Jody upped his line drive percentage. That usually leads to a higher BA, not a lower one. If he maintains that rate, there’s a good chance his luck changes and he winds up with a better 2010. New research shows that Hank Greenberg’s walk rate went way up at the end of 1938 season as he approached Babe Ruth’s single season home run record. Howard Megdal suggests that Greenberg’s religion caused the league to pitch around him, but Greenberg didn’t buy it at the time: Opposing teams tend to walk big home run hitters, and Greenberg showed a big leap in home runs in 1938, from a career high 40 the year before. Greenberg was also 27 that season, at the peak of his athletic performance. I think randomness is as good an explanation as antisemitism. As Megdal says in the article, “It is impossible to know what was in pitchers’ hearts…”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having mono during school has been really difficult for me. I am constantly tired. Not only is it hard for me to wake up in the morning, it's hard for me to find the motivation to go to class, study and get work done. The doctor said the fatigue could go away in 2 weeks and it could last for 3 months. It's been almost 3 weeks and I feel just as tired as before.
+I can already tell that this is not going to be a dean's list semester. I'm disappointed with myself, but I feel so helpless. I can't even ask my teachers for a break because UHS won't give me permission to miss any classes.
+Not only is my academic life suffering, but so is my social life and my emotional well-being. I don't have the energy to straighten my hair any more and my self-esteem takes a hit every time I look in the mirror. I think the huge bags underneath my eyes are permanent. The apartment is a mess too, which I can't live with. Cluttered house, cluttered mind. You're supposed to lose weight with mono, but all I can do is sit on the couch and I'm not allowed to exercise, so I fear I'm gaining weight.
+I need to turn this around. This is a challenge. If I got dean's list this semester, I would be incredibly proud of myself. I know I shouldn't be straining myself, but I need to push myself because right now, I'm not really pushing myself at all. </t>
+  </si>
+  <si>
+    <t>My hands keep working pretty well when I'm drinking. My ADHD mind is more problematic. I've tried to avoid this, largely because I think that according to whatever code of scribal ethics I do, or should, observe, it's reprehensible. Nonetheless — and this might well have summat to do with my having read about one of my literary heroes, W.H. Auden, sitting in a dive bar on St. Mark's Place sucking down the VSOP all day long, no doubt fending off propositions from Ginsberg, writing away. I can't do it. I believe I've made that clear. If I haven't, here's the dilly-o. My hands keep working pretty well when I'm drinking. My ADHD mind is more problematic. Of course, my mind is problematic in the best of situations. I sure as hell can't control it. So it's snowing here in Gotham. It would be an excellent night to find a nice ginmill and spend the rest of the evening consuming a pride of beers and a couple of packs of Marlboros. Except for (1) I don't smoke any more and (2) even if I did, you can't light up in bars here in the city. There were a couple of pints in the refrigerator when I got home from tai chi, and they went fast, so I had a couple more. All to the good. I can feel the universe narrowing, feel my interest in my own thoughts burgeoning, and feel the external noise fading away. The thirst is far from satisfied, amigos. But that's it for tonight. I know where I stand, and where I'd stand, or flop, if I had a couple more pints. Nowhere good, I assure you. The issue of creating, even on the abcedarian level at which I compose, and drinking is complex. It's like juggling sushi knives. One slip and you're not witty, you're exsanguinating. Remember the scene in Deer Hunter where Walken was playing Russian roulette? Not quite so severe, but a loss is a loss. So I'll be signing off now, chillin' like Bob Dylan. When I review this tomorrow, I may have more to say.</t>
+  </si>
+  <si>
+    <t>My mind feels like a bowl of noodles these days! So many thoughts entwined, none really leading to anywhere! And it’s difficult to pick up and talk about one...they just keep breaking! 
+There’s work, where my honeymoon period is over...and now there’s real stuff to deal with. The settling down bit which I don’t think I’ve ever done before. 
+There’s life as I knew it – travelling, blogging, photography and so much more...part of which I want again.
+There’s life as I’ve never known before, all thanks to somebody new. It’s a trance like state; I seem to have lost touch with everything else! And I am definitely not complaining!!!
+There are surprises every day, and so many stories to tell, which I hope I soon will :)
+For now I have decided to pick up the chopsticks and enjoy this bowl of sweet confusion!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the second half of 2009 I picked up the Scholar’s Library: Gold software package from Logos.com.  There are literally thousands of resources available within that package.  It makes a computer nerd like me very happy to be able to study from the comforts of my easy chair with my laptop warming the tops of my legs.  I read three chapters a day and try to do so in the morning before doing anything else.  Currently, I’m working through an Old Testament reading plan from YouVersion.com.  I start by reading an entire chapter.  Once finished with reading the text through, I open up a few different commentaries and read what they have to say.  Then I browse other miscellaneous resources that come with the software.  I’m always learning something interesting.  One recent example: it’s thought that Joshua was a skilled military leader long before taking over for Moses, and likely led the Egyptian army in battles.  Maybe it’s my inner nerd, but I find things like that fascinating.  It paints a more colorful picture when I read about his conquests leading Israel.
+“Sometimes you have to watch somebody love something before you can love it yourself. It is as if they are showing you the way.” Indeed, Mr. Miller, indeed.  And so by watching a man love the Bible, and trying to figure out WHY he loves it,  I too have discovered a love for the Bible.  Sometimes I’m frustrated that I can’t find the words to express this properly.  All I can say is, dig into it, and see for yourself.</t>
+  </si>
+  <si>
+    <t>Hey kids.. sorry, but you probably won't be seeing a post on my Daring Baker challenge this weekend. Unfortunately what I thought was a simple cold has gotten worse and it's about kicked my arse. Combine that with work and my procrastination issues and well.. no Tiramisu in my kitchen this month. :( I did buy all the ingredients, so I'm ready to go in that respect.. just need my nose to dry the freeg up and then figure out a way to assassinate the lil fuckers in my head who are pounding the backs of my eyeballs with sledgehammers. Gah. So we'll see.. In the meantime, check out the Daring Bakers blogroll for 1000's of creative and beautiful Tiramisu participants.. everyone did (as usual!!) an amazing job with the challenge! Huge hugs to both Deeba and Aparna for being wonderful hostesses this month.. they picked an awesome challenge of making homemade mascarpone and lady finger cookies! From what I've read in our private forums, both of the recipes are delicious! I REALLY want to find out for myself! xoxo I had heard of the croque-monsieur sandwich often in the past year or so.. apparently it's making the rounds in the foodie-blog world, since that's where I discover many foods I'd never heard of before. It sounded intriguing, something I might want to try one day, but nothing to add to the MUST MAKE list. I mean seriously, it's a grilled ham &amp;amp; cheese sammie. No big whoop. And then I was going through some magazine last week - for the life of me I can't remember what it was called - and saw this photo of the most awesome looking sandwich I'd ever seen. It had a fried egg on top! I don't think I've ever spoke of my obsession? fascination? complete and utter GLEE when it comes to the fried egg, specifically the yolk. But there's a twist. Yes, I love fried eggs for breakfast (or dinner) with the usual accoutrements - buttered toast, sausage or bacon, hashbrowns, you know.. heart attack on a plate? :) But this obsession - fascination - complete and utter glee that I feel when I see something topped with a friend egg, that normally wouldn't be topped with an egg.. I just.. can't find the words without sounding gross. Salivate upon seeing oozing yolk is what it is, but frankly, I just grossed myself out by saying that. Salivate and oozing really shouldn't be in the same sentence. Hopefully you yolk lovers out there will get where I'm coming from.. if not.. maybe try to block out what you've just read by closing your eyes tightly and singing LA LA LA LA LA I CAN'T HEAR YOU MISS GROSS-Y MCGROSSTER extremely loudly until the images go away. :P It was the mental vision of a crispy baked sammie loaded with cheese and that broken yolk oozing (I can't stop with the fakkin oozing! Someone give me a better word for crissakes - and don't say "runny" cuz that squicks me out too!) down the side of it that had me in such a tizz.. hell it could have been a rabbit turd &amp;amp; peat moss sandwich and I would have been drooling all because of that egg. I once saw a salad made of greens, roasted sweet potato chunks and a big old fried egg on top and although I haven't made it YET, I still drool over the thought of it. A salad with roasted chunks of sweet potato for crissakes? All because of that ooz glorious fried egg. Anyhoo... As I read the intro to the recipe and realized it was a croque-monsieur with a fried egg thrown on top, the sandwich jettisoned to the MUST MAKE list tout de suite. So I ripped the pages out, brought it home to show hubbs and he agreed, we needed to have this for dinner ASAP. Basically, if ya'll haven't heard of the croque-monsieur, it's ham &amp;amp; cheese (usually gruyère or emmental) between two slices of bread that have been slathered with a bechamel sauce, and then more cheese on top. It's baked until the edges are lightly browned and the cheese is melty and bubbly. Once it comes out of the oven, you slap a fried egg on top to create the croque- madame , throw a nice salad next to it and call it heaven on a plate. I made a few changes to the recipe. I couldn't find the jambon de Paris ham it called for, so I used prosciutto. I'm not a big bechamel sauce by itself kinda gal, so I decided to doctor it up by tossing in a couple generous handfuls of gruyère (I still had quite a bit left over from the bread ) and just the barest peench of ground mustard. I used a loaf of French miche, which I bought at Panera - miche, I assume, means fakking huge. It's a very large square loaf of French bread just perfect for grilling, baking, toasting and of course, making a croque-madame. :) Hubbs made a cucumber, tomato, olive &amp;amp; red onion salad in balsamic vinaigrette to go with and I think that's really a must. At least for us.. this sammie is rich, kids. It definitely needs a salad or other light side with it. I had considered frying potatoes &amp;amp; onions, making our dinner more breakfast-like, but am glad that I didn't. So who doesn't like a ham &amp; cheese sammie, eh? I like them, they are O.K., not my favorite but I've eaten many in my day. Who hasn't? Feel about the same way? Kinda meh? Yeah well.. make this kicked up hot ham &amp; cheese sandwich and I doubt you'll ever go back to the usual. We were both amazed at how good this was. Admittedly, the prosciutto wasn't the right ham. It was too salty, but that still didn't take away much from the sandwich in whole. And it was fun to eat a "gourmet" hot ham &amp; cheese with a fork &amp; knife! I suppose you could pick it up and eat it as you would any other sammie, but it'd be kinda messy.. but hey, if that's your thing, go for it. ;) I urge you all to go out and buy a good ham that's not too salty, a big chunk of gruyère or emmental (I'm sure Swiss would be just fine) and a dozen eggs and get to making this for your dinner this week - and then throw it into your rotation every once in a while. It's a bit of a splurge both in price and calories, but you won't be sorry after you take that first bite. Trust me. SO. FAKKIN. GOOD. Croque Monsieur or Madame Serves 4 For Bechamel sauce: 3 TBS. butter 1/4 c. all-purpose flour 3 c. whole milk (I used fat-free and it came out just fine) Pinch of freshly grated nutmeg Salt &amp; white ground pepper to taste For the sandwiches: 8 slices high-quality bread. (the recipe called for "Pullman" loaf, I used French) sliced 1/3 to 1/2 inch thick. 12 oz. thinly sliced jambon de Paris (high quality wet-cured ham, not too salty) 10 oz. Gruyère cheese, coarsely grated 4 whole eggs (for the madame) Over low heat, in a small saucepan, melt butter then whisk in flour until blended. Continue to whisk while pouring in milk to avoid lumps. Continue to cook, stirring constantly until thickened. This should take about 10 minutes. (If you are only making enough for 2 the sauce thickened within 2 minutes) Once thickened, season with nutmeg, salt &amp; pepper. (This is where I added a couple handfuls of grated gruyère and the smallest pinch of ground mustard) Take off heat, set aside. The recipe says you can make the bechamel sauce up to 24 hours early. Place plastic wrap directly on the sauce so it won't form a skin, then refrigerate. Gently reheat a few minutes before you are going to use it. Preheat the oven to 400º F. Place the 8 slices of bread in a single layer on a baking sheet covered with parchment paper. Spread the bechamel sauce evenly to the edges of all the slices (you may not need all of the bechamel). Divide ham between only 4 slices covered with bechamel, keeping the ham within 1/4 inch of the edges. Top all 8 slices with equal amounts of grated gruyère cheese, again spreading it evenly within 1/4 inch of the edges. Place the 4 slices with bechamel and cheese (cheese side up!) on top of the slices layered with ham. Bake until cheese topping is melted and golden brown about 10 to 15 minutes (it took about 20 minutes in my oven) To make the croque-madame, fry 4 eggs sunny-side up (I went with over easy, because egg slime is A VERY BAD THING) and place one on top of each sandwich. Sprinkle with salt &amp; pepper and serve immediately. xoxo Kids! I don't know what the hell has possessed me, but I've baked. And not for a Daring Baker's challenge, either. I baked on my own. WTF? Here's what I'm thinking.. ya'll should run out and buy lots of bottled water, saltine crackers, canned goods and toilet paper (never be without toilet paper!!). Dig yourself an underground shelter in the back yard and prepare yourself for some kind of natural disaster. I don’t bake unless it’s a DB challenge! Something bad is surely going to happen! And bread! Lord almighty I NEVER bake bread on a whim or on my own - NEVER. This disaster is going to be a doozy – I’m tellin’ yas! Wait.. don’t go getting all panic stricken just yet. I still have my usually long ass story to tell. Come back. Sit down. Join me in a glass (or twelve) of your favorite alcoholic beverage.. believe me, it’ll calm those shaking hands. Or is it just my hands that are shaking? Whatev. Anyhoo, something made me finally bake THIS RECIPE again. Go look. Because if you don't go look you won't understand what a wonderment this baking adventure was. Seriously. GO. LOOK. Did I lie? Is that not the most frightening things you've ever seen? It's like science fiction and pornography combined. And I ate those bad boys. All 4 of them. In like a week. If even. It was the best damn cheesy bread I've ever had and at that juncture in my life I didn't think anything could be as good as Panera's Asiago bread . But those 4 cheesy baked monstrosities were phenomenal. I kept saying that I would make them again.. but baking is sooooooooo fakking stressful for me. The Baking Gods hate my ever-livin guts. They laugh at me at every occasion. They mock me at the drop of a hat. They sneer and point at me while whispering behind my back. I don't know what the fakk I ever did to piss them off, but I obviously did. And now, what? 2 years later? Something possesses me to make them again. I made the starter last Thursday night. I was unsure how far ahead you can make a starter, so I enlisted the advice of my bread baking guru , Mary. She told me I can make it a few days ahead, which eased some pressure as I knew I wanted to make it this weekend, but was unsure of the exact day. HAR! Yeah.. in other words - how long could I procrastinate before my started died and I chickened out? Gah. Well.. come to find out the Baking Gods were watching - AS PER FUCKING USUAL. You see, the recipe calls for instant yeast. I didn't even comprehend that.. I used active yeast. So after 15+ hours (I had to work on Friday), it hadn't gotten very bubbly and pretty much looked just like a wad of dough. Not good. So I got on the King Arthur website and with an expert. It was immediately pointed out that I used the wrong yeast. Duh. I thanked her and then realized… Baking Gods – 1 / Lisa – BIGFATFUCKINGZERO. I didn't have instant yeast, so I sweet talked my beloved Hubbs into running out to get me some. Bless his cotton socks. Soon I had the correct yeast and more bread flour. I started again - this time around 6 a.m. Saturday morning. I figured it’d be good to go around 2ish that afternoon, then I’d make the dough and allow it to rise until Sunday morning. Way longer than what’s called for, but I’ve read that if you let your dough rise for a long time, the better the flavor of the bread.. and hell, any excuse to actually put off baking it. Yeah, the memory of the smoke detector going off and black billowy smoke spewing from my oven the last time I made this bread was pretty damn strong. Well my powers of procrastination are pretty damn.. uhmm.. powerful. I managed to conveniently “forget” the starter on Saturday afternoon. And Saturday night. On Sunday morning I remembered it and said to myself, “Hey dipshit, you need to make the bread today.” And then I blocked it out again. I had plans with my girlie friends to go shopping at Trader Joe’s.. and I’ve been out of Tejava tea for a month. Nectar of the (non-baking) Gods, I tell ya! So my mind was conveniently “elsewhere”. :P When I got home Sunday afternoon, I put away the groceries, poured myself a big glass of tea and got the flour out. I was going to make the dough! Go me! Making the dough took roughly 5 minutes. Mmmm hmm… 5 whole fakking minutes of my time. A spare 5 minutes that I just couldn’t seem to find all day Saturday and most of Sunday. You see this is how my mind works. And believe me, I know I ain’t right. Knowing full well how delicious the bread would end up, I still did everything I could to drag my big fat feet in making it. It’s like I’m a glutton for my own punishment. What. The. Freeg? Before I went to bed Sunday night, I punched the dough down because obviously I wasn’t going to make the bread. Today was a rare morning.. I actually woke up after my husband. That happens maybe twice a year? And I’m usually sick.. but whatev, I woke up later and the first thing out of his mouth wasn’t the usual grumble-speak “mrn’ng” or even “is the princess FINALLY up?” it was, “My goodness, doesn’t that freshly baked bread smell delicious?” What an ass. This was his way of telling me that the dough had been sitting out far too long and if I was going to bake bread then I better shit or get off the pot. Visual there.. sorry. Moving along.. A lovely collage of basically the same photo of the mini loaves/buns.. -slurp- I finally made my bread today. FOUR days after making the first batch of starter. FOUR. I had made two batches of dough so that I could make the mini “loaves” and a couple regular sized loaves. This time I cut the mini loaves much thinner.. and they came out more like bun size, which was perfect. Smaller means that the insides can’t rise out from the base reminiscent of the alien bursting out of that guy’s chest. I didn’t make flaccid geoduck/penis this time. They turned out bakery beautiful! I was AMAZED. I know today is a holiday for us in the US, but uhmm.. is this also a holiday for the Baking Gods? Or did I just take so damn long that I fooled them into believing that I’d never actually bake the dough?? Either way.. it all turned out great! Even the regular sized loaves, which I was unsure of because I hadn’t attempted that last time. Today is a day to mark on the books. Today I BEAT THE SHITE out of the Baking Gods. Today I made myself proud. Today something horrible is going to happen.. so really now.. get off your asses and start digging up your back yard. You can thank me for the head’s up after it’s all over. ;) xoxo The 2010 February Daring Cooks challenge was hosted by Michele of Veggie Num Nums . Michele chose to challenge everyone to make mezze based on various recipes from Claudia Roden, Jeffrey Alford and Naomi Dugid. This month's Daring Cook's challenge brought a whole new culture into my life. I've never eaten ANYTHING Middle Eastern before, although my sister loves it and has been telling me for months that I need to try it. I have to admit, Middle Eastern fare, never really thrilled me because when I think of that kind of food, I think of beans. -shudder- Chickpeas, lentils, black beans.. all of those lil pasty tastin' legumes. If you're new to this here lil blog, then you might not know of my strong dislike of beans. Frankly, I'd rather eat live bees. ;) But I am happy to say that I was completely wrong, which is nothing new. :P Yes, Middle Eastern food does contain beans, but there is so much of a variety of other foods - I had no idea! I wanted my Mezze to be special, so I called upon my home girls. My G's, if you will. June, Blimey &amp; Amy - 3 of my favorite people in alla world. As per usual, they were up for it and all agreed to find a Middle Eastern recipe to bring to the party. Yay! I decided to make a cold Lebanese carrot salad, green beans (one of the few that I'll eat) Lebanese style, Kalamata olive tapenade as well as the mandatory hummus and pita bread. June brought a delicious Tabouli and Amy brought a refreshing and really delicious cucumber Raita. Unfortunately, Blimey got sick so she couldn't join us, and we missed her tremendously. We piled everything onto the kitchen table and started eating immediately. SO GOOD! My absolute favorite was the green beans Lebanese style. Holy cow, I could eat that daily. I wouldn't even share much of the left overs with the gals because I HAD. TO. HAVE. IT. the next night with a roasted chicken. Delish! I really enjoyed the small bites of everything.. and liked to combine different dishes to see what went best with what. My favorite combo was a lil Kalamata tapenade on some pita followed with a lil dab of cucumber Raita. Salty with a nice tang. -slurp- As for cooking this feast - no problems really at all. I got a lil nervous when my pita didn't balloon up like Audax's and it didn't really brown up on top. The bottoms browned up nicely though. And although parts were flat and parts were bubbly it was really good pita. June was the resident Middle Eastern connoisseur and she said the pita was excellent and she loved the other dishes as well. Score! I know it was good food because I realized afterward that we had no meat and didn't even miss it! It wasn't consciously planned that way, but since it happened, I'm going to say we dedicated our vegetarian dinner to Michele. :D Eating this way is definitely fun - true party food. Next I want to do a Tapas night and then a dim sum night.. I'm looking forward! Michele, thanks so much for turning me on to this delicious food and showing me how easy it is to make pita bread! I'll definitely be making it again! You did an excellent job hosting! Love you! Check out all the rest of the amazing Mezze feasts from our Daring Cook troops ! Just seeing what they've uploaded to the forums makes me all kinds of hungry for Mezze all over again! ;) xoxo A few weeks ago, my friend Michele and I were talking about recipes and doughnuts came up, like they eventually always do if you're having a conversation with me. :P Ahh yes, I love me my doughnuts. But I won't let myself eat them very often. -sigh- I know how bad they are because of their deliciousness. Anything that tastes that good is definitely a heart attack or stroke disguised in fluffy goodness covered in powdery sugar or chocolate. Or maple. Or bacon. Or cinnamon sugar. Or whipped cream. Or just plain for those days when you're trying to eat healthy. ;) So we decided that we must make homemade donuts. This past Sunday was D-day. I went with Alton Brown's recipe . I was a little nervous because, yanno, Alton can bring in a lil too much science. But the recipe was straightforward, thank the baby Jebus. The only problems I ran into were bad timing and way too hot oil. The timing thing - you need to heat milk to melt the shortening. Then you have to wait until it cools to lukewarm because you'll be mixing it with the water/yeast mixture. Well the -first- time I did it, I started to heat my milk and immediately poured my yeast into the lukewarm water, not taking into account that after the milk melts the shortening it'll take some time for it to cool off enough to add it to the yeast. Doh! You wouldn't believe how fakkin long it takes for hot milk to cool the fug down. Jebus. My yeast/water mixture had already bubbled and was sitting on the bottom of my very cold metal Kitchenaid bowl. If you listened closely enough you could hear their itty bitty teeth chattering and their itsy bitsy knees knockin'. :( I was blowin' on the milk.. fanning it with a kitchen towel.. put it in the fridge for 10 minutes.. the bottom of the bowl wouldn't cool off. I mean this stuff was HOT. So finally, we (Hubbs was present) decided to put the damn bowl out in a snow drift. I mean, seriously. It's not like we were trying to cool off GALLONS of milk.. it was just a cup or so for crissakes, but it wouldn't cool down. And no, this had nothing to do with my desire to be eating warm, fluffy, mouth-wateringly, rings of yumminess. Much. 'kay well maybe it had a lot to do with my impatience over having to wait for the prize, but I tell you - that milk was volcano hot. Outside it went. :P Okay well what are two people to do while waiting on milk to cool? They get all caught up in Animal Planet's Puppy Bowl VI is what they do. We couldn't peel our eyes away from the cuteness if we tried. OHMYGOD. Chubby puppy bellies! Wagging puppy tails! Floppy puppy ears!!! Much more delicious than any doughnut! And when we finally did remember there was molten hot milk sitting in a snow drift on our back deck, this gal jumped up immediately, tripped over her dog, caught herself before completing a full face plant into the arm of the loveseat and then promptly tripped over the blanket she had been cuddled under while watching oodles of puppies attacking each other and stuffed footballs. That was more exercise than I've had in weeks. GAH. As you might have guessed, the shortening was no longer liquefied. It sat in greasy lumps in the ICE COLD milk. Mmm hmmm... Meanwhile.. my yeast had passed on to the great bread bakery in the sky. It was a pitiful scene. No bubbles. Just murky muck sitting on the bottom of the bowl. -sigh- So I cleaned up my lil yeasty dead soldiers, put the milk back on the burner until the shortening JUST started to melt. Waited 10 minutes and THEN brought yeast and lukewarm water back together again. After all of that, putting the dough together was a snap. The waiting was the hard part.. at one point I felt like standing in front of the bowl containing the dough ball and screaming "HURRY THE FAKK UP FOR CRISSAKES!! DOUGHNUTS! HUNGRY! NOM NOM NOM!!!" Once I had them shaped and rising the last time, I heated my oil in a wok. I knew it was kinda hot, but I didn't want a greasy doughnut, so I figured a little hotter than it called for would be a good thing. And it was. Although they came out a little darker than you'd see in a doughnut shop, they weren't burnt or greasy. They were light and fluffy and uber delish. I did a good job of refraining from putting a platter on the table, throwing my hair up into a ponytail, putting my hands behind my back and doing my best impression of a pig feeding in the trough. It was hard though. Delicious homemade doughnuts, still warm and covered in cinnamon sugar.. OH. MY. GOD. SOOOOOOOOOOOO GOOD. It's super easy to make doughnuts and home and really the waiting isn't all that bad - 1.5 hours total rise time is all it calls for. You can make several varieties with one batch of dough and depending on size, you can get quite a few doughnuts. The only way I can describe the size of mine is they were the size of doughnuts you buy prepackaged in a grocery store.. like from Pepperidge Farms if anyone is familiar. I didn't have a doughnut cutter, nor even a round cutter. So I used a wine glass and to cut the middles out, I used the cap of a 2 liter bottle of soda. HAR! Worked like a charm! :) I used the scraps to make twists. We were going to fill some of them, but that didn't happen for whatever reason. I know these doughnuts freeze well too. Course I wouldn't know that from this experience. I packaged them in freezer bags and left on the counter overnight because it was too dark for photos after they came out of the oil. And after I took photos the next day, I put them back into the bags and then something else caught my attention.. Oh look! A chicken! That night they were pretty much stale. So eat 'em quick or freeze 'em soon! Go check out Michele's doughnuts! She filled hers with yummy stuff! :) xoxoxo Okay not really.. but he's the only winter Olympian that I know of. And frankly, I'm not even sure he's in the Olympics this year.. is he? What I do know is I like his long wavy red hair. But I probably shouldn't say that out loud as I'm most likely old enough to be his Aunt. -cough- Anyhoo.. as per usual, I'm a day late and a dollar short. And once again I feel foolish because of it. This month's Daring Baker challenge was a breeze and the results were muy deliciouso! Wait, that's Spanish.. what would the Canadians say? Uhmm.. 'kay.. well.. the results were KICK ASS! (that's more of what I'd say because I don't know what a Canuck would say. Canuck.. is that PC?) The January 2010 Daring Bakers’ challenge was hosted by Lauren of Celiac Teen . Lauren chose Gluten-Free Graham Wafers and Nanaimo Bars as the challenge for the month. The sources she based her recipe on are 101 Cookbooks and www.nanaimo.ca. Lauren is from Canada and these Nanaimo bars are her tribute to the 2010 Winter Olympics held in Vancouver, Canada. Here's a funny.. and he's probably going to kill me.. but I received an email this morning from my friend John who had to tell me that while he was making his dough for the graham crackers he noticed that it smelled like graham crackers. And then he said, "Really?? You think??." Yes Gorgeous, the dough DOES smell like graham crackers and after baked, they taste better than any graham cracker I've ever had. Addicting is the word. More like Graham Crack. I kept hearing, er, reading in the forums that other members couldn't stop eating the graham crackers and my friend Michele said the same thing - but I had NO. IDEA. HOW. GOOD. they really are. I was almost sad to have to crumble a bunch of them for the Nanaimo bars. Seriously. But I did.. and then I kinda veered off the traditional route and went down my own road. I've made Nanaimo bars before and they were delish, you'll get no argument from me there. But they were a leeetle sweet so this time I wanted to make all of the components but in different flavors - specifically flavors that aren't as sweet. I started with the graham cracker crust, and omitted the nuts as we can't eat them. I also ground the coconut to almost a powder because I had to hide it as Hubbs hates coconut with a passion. He'll eat stuff flavored with coconut but hates real coconut. Go figger. And I added a generous peench of cinnamon. What I didn't do was add the cocoa. This was entirely an accident. I was so intent on grinding down that coconut and getting it into the crust before he came back into the kitchen that I completely forgot the damn cocoa. I really did want a chocolate crust. Then I moved on to the filling, which is what I found too sweet in the traditional bars. I decided I wanted a blast of coffee with the tang of cheese. Ideally I was going to do mascarpone/butter cream frosting flavored with espresso powder. But I never got the chance to get the mascarpone, so I had to do with cream cheese. Basically I made cream cheese frosting sans most of the sugar - I probably used 1/3 of what a basic cream cheese frosting would call for, then thinned it a bit with a boat load of espresso powder stirred into a small amount of hot heavy whipping cream. I can't find the words to express how fakking good it turned out and I really can't wait to use it on a cake! For the topping, ya'll know me, right? I don't say no to any kind of chocolate unless it's white - which is not chocolate anyways. BUT just a few weeks ago, I made a pan of what is essentially buckeyes (the lil round gobs of delicious sweetened peanut butter dipped in chocolate), but instead of rolling out the peanut butter into balls, because I'm a lazy mofo, I just spread it into an 8 x 8 pan and poured the chocolate over it. After refrigerating the chocolate became hard (duh) and well.. after forcing myself to eat 3/4 of the pan myself, I was kinda over hard chocolate with something mooshey underneath. :P So I went with a basic ganache over the top of my coffee/cream cheese filling. As you can see in this picture, there is a bite taken. That is the one and only taste of these that I've had (so far) and it took every fiber of restraint in this chubby body of mine to stop there to rush into my office to write this post a day late. And keep in mind, I don't own very many restraint fibers. :P Holy mother of a chinless baboon, these bars are FANFARKINGTASTIC. They aren't nearly as sweet as the traditional Nanaimo bars, but they are definitely rich, and I'm confident that I can get over that. :P The cinnamon &amp; coconut in the crust paired with the coffee and chocolate and the tang of the cream cheese is nothing if not heavenly. Lauren, thank you so much for choosing these recipes and for allowing us the creativity to choose different flavors. I just hope I can restrain myself until Saturday evening as I've promised these bars as dessert for friends who are coming over.. but then again if I just whip up another batch, who will be the wiser? ;) Pop on over HERE for the recipes for the grahams (gluten free and made with wheat flour versions) and the traditional Nanaimo bar recipes! xoxo Okay so I can't win. I either am stressing to get a Daring Kitchen challenge done at the last minute, or I get it done way early and then something happens where I can't get to my lil blog to post on the damn reveal date. WTF? The January 2010 Daring Cooks' challenge was hosted by Cuppy of Cuppylicious and she chose a delicious Thai-inspired recipe for Pork Satay from the book 1000 Recipes by Martha Day. Huge apologies to Cuppy - I feel as if I have failed our host(s) miserably when I'm late to get a post up.. this wasn't intentional! And now I am seriously pressed for time - but the good news is, there was no disaster this month, so I really don't have a long post full of expletives and "whoa is me" whining. ;) I made Chicken Satay using Cuppy's longer version marinade and it didn't even look remotely appetizing as I was transferring my chicken strips (breasts sliced into strips) from the bag of marinade to the broiling pan (grill was under 2 feet of snow..) all yellow and stuff. But I kept an open mind, Lord knows I've been happily surprised often in the past with these Daring Cooks challenges! I had made my peanut sauce earlier due to time constraints and was warming it up again, while the chicken was under the broiler, when it separated. I had a small pan of peanut solid and peanut oil. Ewww. I was very dismayed over it, but thanks to my experience of making buttercream 59 gajillion times, I decided not to panic and to just get out my trusty balloon whisk and start whisking. Luckily it all came together again - only now it was almost like peanut fudge, which isn't a bad thing - just something I wouldn't normally pair with chicken. ;) Thanks to the amazing support we receive on the private forums of the Daring Kitchen, my question of why it separated was answered by Robert of An Alaskan Cook's Exploration of Food and Technique - and he thought that I had too much heat going on. And he was most likely right, I did have the heat up pretty high now that I think of it. Stupid on my part. Again, I persevered and continued on with dinner, making a batch of Basmati rice to go with. Once it was all done, yeah it still didn't look that great. My chicken was even more yellow and my sauce was no longer sauce-y. At this point, I could have binned it all and declared it a disaster, but I was HUNGRY dammit. So I plated, called Hubbs to the kitchen and got a giggle from the expression on his face. He was not amused. He must have been hungry too. hehehe I decided to take my dinner into my office so I could watch a movie (and mainly because I wasn't in the mood to hear him bitch about how awful the food was). Surprisingly.. this dinner was OUT OF THIS WORLD. I cannot express how much I LURVED it! Suffice to say that it's been well over a week since I've made Chicken Satay with Peanut Sauce and a day hasn't gone by that I haven't craved it. Unfortunately, Hubbs wasn't as impressed (most likely because he turns his nose up at any form of chicken. He'll eat it but not happily.) and that's the only reason I haven't cooked this dinner several times since my first taste. But my cravings will win soon - they ALWAYS do - and he'll just have to get over it. ;) I always thank our hosts at the end of my posts, but this time I really need to lay on the lurve. Cuppy jumped in when, at the last minute, our slated January host couldn't do it. Cuppy had NO TIME and yet she came up with a well written recipe and plan for all diets. This was a quick challenge, that was most gratefully received after the busy and hectic holidays and I now have a new favorite quick meal to throw together after a stressful day at work. And yes, this recipe has been "westernized" and is not an authentic Thai recipe, but it's delicious regardless. I seriously cannot wait to make it again! Thanks so much, Cuppy!! :) xoxo The December 2009 Daring Bakers’ challenge was brought to you by Anna of Very Small Anna and Y of Lemonpi . They chose to challenge Daring Bakers’ everywhere to bake and assemble a gingerbread house from s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Architectural design is always about the future; when architects make a proposition they always assume that it takes place in some imagined future. Architects nearly always assume that this future will be ‘better’ than the present, often as a consequence of what is being proposed. Architecture is, by its very nature, utopian.
+Contemporary architecture, unlike earlier models of ‘utopian’ architecture, or perhaps because of the stigma attached to those models, has resisted an explicitly social and political agenda. Instead it has become driven by ‘ideal’ formalist agendas facilitated by the ‘shape-making’ potential of new computer-based design tools and funded by speculative finance.
+Indeed, the most important transformations that have occurred in architecture over the last 30 years have not been in the shifts in fashion marking out new typologies, new forms of representation, new materials or new forms of manufacture; the biggest single shift has been in the new economic relations within the building industry and the new forms of contractual relationships that this has brought about. The rise of fast-track construction in the 1980s heralded a major change in the motivations for construction and brought about a homogenisation of building output largely predicated on maximising the economic value of the project, often with little regard for its social value.
+And with the introduction of the Private Finance Initiative (PFI) the current UK government has turned even health-care and educational building programmes into a speculative enterprise. PFI has always been presented as a cost-effective way of financing large infrastructural projects; however, like the government’s recent bail out of the banks, it works on the principle of the public financing the risk while the private sector skims off the profit.[3] For a number of years the single model that has shaped the type of future that the architectural profession has based its assumptions on is one of unfettered consumer expansion. The majority of recent architectural debates have not tried to call into question the economic imperatives of late capitalism that drive financial speculation and generate the context within which private development is presented as the only option. Even the avant-garde architectural firms of the 1980s are now operating as large international commercial practices, and the Deconstructivists have proved to be more than enthusiastic capitalists. The critical and intellectual ambitions inspired by Jacques Derrida, Gilles Deleuze and Guy Debord have been replaced with the monetarist ideologies of Milton Friedman and Alan Greenspan.
+The architectural profession has embraced the late capitalist model enthusiastically and uncritically, while all the time pandering to the concepts of social and environmental responsibility. The fact is that this model has been funded through speculative investment, and now that the money has run out the profession is bereft of alternatives."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 10th December, 1831, Sahuayo was finally recognised as a legl entity. Throughout the reform age it was a refuge for conservative forces until 1861. At this time the owner of the Hacienda de Guaracha, Dona Anotonia Moreno, sold half the land to over 50 rich buyers. Shortly afterwards the Second French Empire began their invasion of Mexico led by Napolean III in an attempt to force the Mexicans to settle their debts to France, Spain and Britain who, until 1861, had been receiving interest Sahuayo payments from Mexico.Sahuayo and the neighbouring towns faced raids from both sides. On 13th April 1891 Sahuayo changed its name to Sahuayo de Porfirio Diaz after the then president of Mexico and the town was elevated to the status of villa. </t>
+  </si>
+  <si>
+    <t>President Obama has repeatedly said that failure to pass a health care reform bill is simply not an option.
+But Democratic leaders are facing an uphill battle in convincing some of their own members to push the legislation forward -- and hoping history doesn't repeat itself.
+There's a lot at stake for Obama's future, political observers say, including the ability to get other key pieces of his legislative agenda passed and signed into law: banking regulation, climate change, economic measures and immigration.
+Republicans have marched nearly lockstep against Obama's policy proposals, especially on financial matters, and indicate that they will continue to do so.
+The bill's failure could also spell trouble for Democrats facing tough election battles this year. Whether or not the bill is passed, Republicans have threatened to use it against Democratic opponents, noting its cost and effect on the deficit.
+As for the costs, the nonpartisan Congressional Budget Office estimates that the Democrats' revised health care bill will cost $940 billion over the next 10 years, a House Democratic source said Thursday. The bill cuts the deficit by $130 billion during that period, according to the source.
+The president has stepped up his efforts to sway worried Americans. He put his name on a health care reform proposal last month and then went on a campaign-like barnstorm across the country to warn Americans what will happen if reform isn't passed.
+"We need health insurance reform right now," the president said at a rally outside Cleveland, Ohio, on Tuesday. "This debate is about far more than politics. ... It comes down to what kind of country we want to be."
+Obama said the status quo on health care is "simply unsustainable," adding that Americans "cannot have a system that works better for the insurance companies than it does for the American people."
+Editorials in some of the nation's top newspapers have also railed against keeping the status quo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd like to see drug companies have less influence over consumers. Since they've been allowed to advertise their latest thing on television, patients are telling their doctors what to prescribe. Generic drugs may work just as well, but we are a brand loving society. Rather than sticking with the tested (and inexpensive) generics, we push our doctors to prescribe the new drug we saw on tv last night. Not only does this encourage people to spend more money on drugs unnecessarily, it encourages the drug companies to continue developing new versions of similar drugs. I read that we haven't developed a totally new antibiotic in decades. Rather than develop a drug that will be used once, drug companies focus on new variations of drugs for long term use, because they can make money off of it. And boy, can they make money! I know that the true cost includes both the development AND production of the drug, but it seems like the companies are making a heck of a profit. If they can sell the same drug for a fraction of the cost in other countries, why can't they sell it for a reasonable price here? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coast is a great sushi restaurant in the Damen/Armitage area of Bucktown.  The atomsphere is relaxed, modern, and dark and the sushi is top notch.  The only minor downside is that it's BYOB, and we never remember that.  Of course, there's a liquor store a block away if you need to snag a quick bottle of wine.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So that wasn't so bad. Have had already 5 glasses (small) of beer and feeling supremely woozy. World was all fuzzy, glasses came off (so I don't break it) and face was hot as heck. Things were suddenly really, really niiiiiiiiiiiiiiiiiiiiice.
+I was talking a fair bit of crap too. Can't remember what I said but judging from the delighted faces of my colleagues, it must have been awesome blackmail material.
+And so there I was, singing off-key, swaying to the music (I was swaying anyway from the alcohol) and having shit-loads of fun.
+Then the Black Russian came. He took the rest of me to the toilet. In a good way. (Yeah, that sounds dirty NOW.)
+But make no mistake. It was DAMN tasty too. (At this point, JA kidnapped my phone to update my Twitter in a most drunken manner, IT WASN'T ME.)</t>
+  </si>
+  <si>
+    <t>There are a few possibilities for this problem. The first one is that the little switch that is behind the burner knob either went bad or got water in it. To isolate the switch that is the problem you can pull one of the wires off of behind the burner knobs one at a time till it stops. That one is the one that is bad.</t>
+  </si>
+  <si>
+    <t>I arrived in Israel exactly a week ago and haven't been able to find enough time to sit at a computer or upload my photos. 
+I spent my first two days with family (grandparents, uncles aunts and cousins) in Tel Aviv. 
+Then I went off on a 2 day seminar in Jerusalem to prepare for my internship. All in all, those 2 days were mostly spent on touring Jerusalem and the old city. I felt like being on Birthright-Taglit again. A group of about 40 people from all over the world gathered to prepare for their next 2 months in Israel by learning about political issues, examining cultural differences, and learning about the Israeli workplace. 
+We toured Jerusalem in the old city and City of David. Jerusalem used to be completely religious. Today it is a mix of everything, but still keeping it's religious history, and marking it's name as the "holy city" for many religions. It's divided into four sections of Jews, Muslims, Christians, and Armenians. 
+I spent time on Ben-Yehuda street, a touristy spot with lots of restaurants, shops, and local music. The next day I went to the Western Wall (for the millionth time). We happened to go on a Thursday when lots of Bar-Mitzvahs were going on so it was very busy. It is common to write a note with a prayer or a wish and place it inside the blocks of the kotel (the Western Wall). Every time I go there I get annoyed that the wall is separated by men and women, yet he women's side is about half the size of the men's. I also tend to forget about small traditions in the kotel such as walking backwards as you leave the wall so you can face god.</t>
+  </si>
+  <si>
+    <t>The window is closing on comprehensive immigration reform. At least that's what the politicians in Washington are saying. They're afraid of more demagoguery. They're afraid of upcoming elections. They're afraid of the politics of fear. But I am more and more troubled by how little they seem concerned about the worsening plight of many of America's most vulnerable families -- about how families are being broken up by the U.S. government, forcibly separating children from their parents. And for the media, immigration reform is just another looming political conflict to report, more of the gamesmanship of Washington to cover.
+As always, the real stories of real people get lost in the win/lose politics of the nation's capital. Yes, the nation is going through some tremendous challenges right now. And we all know that Congress is hesitant to tackle tough issues before mid-term elections. But while politicians can write off one more piece of legislation on a packed agenda, they won't be able to write off, or ignore, a movement rooted in our faith communities. If our political leaders won't make room for the "strangers" among us, we will -- because Jesus commands us to do so.
+Significant social change does not begin with Congress, and it doesn't happen overnight; it usually takes a movement, and it always takes courage. Sojourners has been convening, educating, and mobilizing Christians nationwide through our Christians for Comprehensive Immigration Reform campaign for the past three years, and we are proud to be in good company with the growing interfaith movement fighting for dignity and justice for immigrants.
+On March 21, 2010, tens of thousands of supporters of immigration reform will join together in Washington, D.C. for the "March for America: Change Takes Courage." In the faith community, we have amended the tagline to read "Change Takes Courage and Faith" because courage truly does come from our faith.
+Changes to our immigration system will simply not happen without both courage and faith. For many of us, faith is a catalyst to action that can solve the really big issues -- and this is one of the biggest ones we face now. People of faith will look beyond the political calculations and see this for the moral and family crisis it is. It will take people of faith to knock down the doors of Congress and bring the stories of immigrant friends, neighbors, and family members as evidence of the injustices that are experienced on a daily basis. Finally, we need faith in a God who is larger than we can imagine, the God who cries as we humans build border walls to separate ourselves from our brothers and sisters on the other side, the God of justice who isn't persuaded by the political timetables of Washington, D.C.</t>
+  </si>
+  <si>
+    <t>That's how r~ says "Happy" when the "Happy Birthday" song plays on TV. When I turned 30, I acted like the typical drama queen -- resisting, reminiscing, wondering how this chunk of my life would turn out. But the big three-oh turned out to be fine mostly and in addition to a little love bundle in my arms, I managed to get a book out there. Check, check (as Monica would say). And now, I am at that crossroads again wondering what this year will bring. A published novel would be nice. It would be reaaallly nice. And then I would be one of those cool moms who could claim that they took care of their baby while working from home on something they were passionate about. But, I am not that mom now. I am just a mom who is turning a year older who is dreaming big dreams while her little one continues to throw delightful little challenges her way and melt her heart with her love (I could talk a lot more about r~ but I'll reserve that for my secret mommy blog ;)</t>
+  </si>
+  <si>
+    <t>it's sunday today. reporting from Adelaide, weather outside seems to be a little bit chill, but not cold as it were yesterday.
+i woke up early this morning. after performing my subuh prayer, sleep doesn't seem to please me at this very morning. then i decided to find something to read. luckily it appeared that one religious book entitled Muhammad, The Messenger of God amazes me this one fine morning. English version as it printed, but I managed to catch up with the pace of the way the book describes about Prophet Muhammad, all praise to him.
+now, it reminds me of how great he were on his era. Even the non-Muslims admit to his influence and remarkable power. His behavior were the greatest amongst all mankind. Al-Ameen which he had been called among his companions and enemies as he was a very truthful man, he meant every words he said and never lied about it. I'm ashamed of myself if I reckon myself to his.
+At least, I should have acted more matured in every way. Stop thinking bad things about other people as what he actually did to his enemy. He even prayed for the goodness of his enemies and marked no signs of avenged on his heart. It's a bad of me to getting strayed from the right path of truthfulness and i hope for a better man in me in the near future. It's not worth every seconds, wealth, or anything valuable than seek forgiveness from Allah, the Almighty God. This world is only temporary, what should we actually seek is the Hereafter which is permanent.
+there, i'm not trying to preach everyone here. But as i mentioned, i am amazed by the behavior of Prophet Muhammad s.a.w. and i hope to be like him someday. Surprise every living organism with full of amazing things.
+I bear witness that there is no God to be worshiped except Allah and I bear witness that Muhammad is the Messenger of God - kalimah shahadah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The other day I was so lucky as to be able to spend time at one of my favorite places. It's a place I hope to spend the vast majority of my summer. (Second to work, I suppose, but let's not think about that now) Shortly after arriving, I ran into a friend and inquired as to his well being.
+He replied, "Oh, perfect! If I won the lottery, it'd be a step down!" 
+I love it. I feel the same way, surrounded by such awesome people in my life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need your help. I've been page by page through the 2009 Standard Catalog of Baseball Cards, and I can't identify this. More precisely, I can't identify the player, the team, or the issue. I have a pretty good idea what era it's from (pre-1919), but even of that I'm uncertain. Some background: I've had this postcard at least 20 years. I can't remember exactly where I got it, but either a family friend who collected postcards and knew I liked baseball stuff, or from the Big Box of Awesome Tobacco Pins I inherited from my great-grandfather. Also, it's the size of a regular postcard, not a cabinet. That's all I know about it. My guess is that the uniform is from one of these types: industrial team, an amateur team, or some sort of low minor league. I've never seen any other cap with a number on it like this, nor do I have any idea what the "CAD" down the front of the flannel stands for. The back is almost blank, which isn't helpful, and there's no photographer's seal or trademark anywhere on the card, which isn't helpful either, but leads me to think this isn't part of a large (or any) set. So, what do I have here? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I may be the only person in the entire Middle East who routinely wears a Reds cap and t-shirt.  That being said, there is no shortage of folks wearing Bankee$ and Bread $ox gear.  In fact, the guy sitting right next to me is wearing the big red B on his head right now.I walked by a shoe shop the other day and there was a massive display of Bankee$ footwear in the window.  I'm talking the whole window, men's, women's, and children's shoes, all with the infamous NY Bankee$ logo stitched all over the place.Ugh.  Really?  Is that the best baseball can do?  Pollute the already troubled Middle East with the stamp of imperialism?  Isn't that NY the epitome of the economic system which has so incensed the have nots that they have taken up arms to defeat it?I have to do that Reds cap thing Jamey Ramsey does on his blog.  I'll get someone to take my photo in my Reds cap in front of some bombed out building or something.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identity Theft
+Posted by Scott on Mar 15, 2010 in Marketing
+Identity theft is something you always hear about that happens to other people. Well it’s happening to you right now and or you are doing it to someone else. I’m talking about a different kind of identity theft… Your businesses identity! Who is trying to make their business look and act just like yours? Or who are you trying to steal their identity? Who are you and your business and what do you want to be? I think many of us are in an identity crisis right now. Are you taking daily actions that are in-line with your identity? Never loose track of what you want to be. Photographers in your area will try to copy, impersonate, or just learn from your creativity. Now I have a lot of great local friends that are photographers and we respect each other. But some people with cameras have no morals or boundaries. The best advice I can give you is that that you should be flattered when people copy you…. Aww bull shit you should be pissed… Pissed enough to step up your game and make it harder for them to copy you next time. I don’t need to sugar coat life’s lessons like your momma did, make it light your fire.
+Identity crisis – is your business suffering from one? Most photographers are. Don’t try and be everything to everyone! Jack of all trades and master of none is very true all of the time! We even struggle with identity problems and the new studio is helping us look closer at the future that we want for our business. Boutique is a hot industry phrase but we are evolving into a newer version of an upscale portrait studio of the modern world. What would have been considered an upscale studio 10yrs ago is not the same look and environment that it would have today. “Modern” look is part of out identity and something that we will continue to push towards. Art and products are really a part of the modern look. Before I go to far into our struggles with identitiy… I think you should take a snapshot of your business and really see what your identity is. Not just a purdy picture of your entry, look at all of your marketing, clients, bank account, schedule, etc… Who are you and what is is the image that you business is really portraying? And to top it all off “what makes you different than your competition”?
+76
+votes
+Buzz up!
+2
+Not to shabby….
+Posted by Scott on Mar 14, 2010 in Marketing
+I had that family session today (Sunday) for a good client.  I knew it would be worth it.. They bought 2 gallery wrap wall portraits and a framed one,  plus an ablum, and 25 gift prints.  Cha-Ching not enough for college for the kids but at least enough to get them into a trade school.       I still hate working on Sundays but sometimes I need to put the business first.  I think I worked 3 Sundays this year but just for a couple of hours on each.  Ideally I would never do it, but if I want to claim to have great customer service I need to go above and beyone for a few special people.  However Sundays have a large minimum deposit required… You have to pay to play with me on my day off!
+76
+votes
+Buzz up!
+2
+Why am I pumped up?
+Posted by Scott on Mar 13, 2010 in Marketing
+With out sounding like Hans and Frans I am pumped up about the p90x.  Tonight will be day 4 and I actually can’t wait to do it.  I’m feeling good and I already did my 3mi run this morning, most of the soreness is at least bearable today LOL    I’m glad it’s going good so far.  I wonder how any days most people complete in a program like this before quitting?  My guess is less than 10 days but probably closer to 5.  Watch out for that first day missed, that’s where it all starts to go to hell in a hand-basket….You miss the first day and then two and then two turns to a week and bam you fell off the proverbial wagon.  How much like real life is that?  Something you want to do, or need to do and you start doing it and then you just let it all slip away….  Feel free to call me out if you don’t read about it for a day because I do plan on at least mentioning it on here.  I know some of you are starting it right along with us make sure you keep up posted.  Anyway day 4 is Yoga I think…. Maybe I should make a charity video of that performance…. NOT~!</t>
+  </si>
+  <si>
+    <t>Is it all really for everyone else?
+Sometimes at University, we discuss about modern society. It's a Journalism course, so we tend to have classes about Sociology, Midia and Antropology as well.
+And often, there is a moment where I am let to think that everything we do, all the stuff we buy and the way we want our bodies to look is not for us, it is not something only for our good. It is for everyone else.
+Our personality, what we own and how we look only really means something when the other person notices those things. We live in a society; it's where we interact, share moments, live. And how we are seen by everyone else matters. It really does.
+We want to feel part of the whole group. The last thing we want is to feel left out. So we behave, buy and aim the same goals in life. We all want a job that will make us all earn good money, we all want to look good.
+We all want to be accepted.
+Is that a good thing? Those who go the opposite way tend to be belong to the groups most people wouldn't want to be part of: the poor, the fat, the insane.
+Is it really like that? I would like to think we are better than that. We want to belong and feel welcome, that is true. But do we really need to consume and feel like the way we look always need improvement?
+Sometimes, wouldn't you just like to not care?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seems my sRGB conversion was causing that fireflies from previous images.
+Btw. I was wondering why the farthest I've ever get in ray tracing (excluding fixed path MLT in C++) was when I was using OCaml. Say what You want, but that functional language thing fitted ray tracing very well. Also, but that's maybe caused by my nature - now when I have dozens of ways to implement something I start to wonder what way to choose, what would lead to better design. Too many options confuse me, and slow me down big time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Firstly, I get to go on tour with my brother again. We're biking across BC and to the West Coast. woot woot! and I was just talking to both my brothers over the phone, so that's made me even more excited.
+Secondly, I don't have to be in school anymore! and I get to be active all day!!!! YES!!!! I mean, I LOVE LOVE LOVE physics 30, it's the most amazing course I've taken so far in my life and I would definitely go to university to get into noetic science and atomic physics and all that jazzzzzz. But that would mean that I would have to get high school diploma...and I'm too bored with school to do that. why go through everyone else's motions when I can just take my own path? I'll learn just as much this way. and if I have my way about it, I'll be talking to plenty of people who know about science in my lifetime. for the simple reason that I'm manifesting it. So. 
+Thirdly...it's freaking SUMMER. who ISN'T excited about it?? =P
+And in the next couple of years I'm hoping to be on the other land mass, touring around Europe and Africa and Asia and Australia AND, this is the one I want to go to most, ThE MiDdLe EaSt!!!!!!!!!!! I'm soooo excited to go to Israel and Afghanistan and India and Syria and Lebanon and TURKEY!!!! especially Turkey. 
+However, I'm feeling productive, so I believe I shall go sew something.
+Peace and Love, my dear friends!!!</t>
+  </si>
+  <si>
+    <t>That’s Bansko, a bit rough around the edges but friendly and accommodating at its center. And for those who want to stretch their wallet in luxury this is the place. Set in the southern Bulgarian mountains close to the border with Greece, Bankso has always been associated with cheap prices, but now it’s becoming known for world class skiing as well. A crash in real estate speculation in 2008 has helped keep the prices down, but the residents of this former communist state kept themselves busy upgrading the town and ski area with the latest equipment and amenities. The speculation years left their scars in the form of half built hotels and high rise condominiums, but the old section of town was preserved reasonably well. There is still a rare lived in feeling to the old-town which makes a charming contrast to ski area and new construction just across</t>
+  </si>
+  <si>
+    <t>I find spring here, by turns, overwhelming, irritating, and unbelievably beautiful. Every year, including this year of course, spring blows me away. There are days when I dance in shamanic alignment with the colors and shapes, when I become more vivid, put on a deep shade of pink lipstick and extra mascara. Other days I just want to run away from it all, go north or head out west past the Rockies, to places less verdant and therefore more peaceful.
+My respiratory system reacts as if it has been attacked which is the very reason I went forth this morning to buy bucketsfull of allergy meds. This year I'm trying Zyrtec, a more virile 24 hour concoction than the Claritin I usually take.
+I'm diving into the big antihistamines this year because I have a feeling that after our cold, snowy winter, this spring is going to be extra powerful. Judging by the way everything seems to be blooming all at once, I'm thinking my prediction is spot on.</t>
+  </si>
+  <si>
+    <t>Two recent shareposts, “The Depression-Mania Two Step” (Part I and Part II ), zeroed in on a crucial fact that tends to be overlooked by clinicians, namely: Despite the fact that depression and mania present as polar opposites, the two can hardly be viewed as unrelated. For our own health and safety, they need to be seen together as part of the same cycling phenomenon. Today's depression is tomorrow's mania, but there is another twist: Too often, depression fails to clear the room. Too often, mania doesn't wait to be invited in. The two show up at once. The dance is over. A free-for-all breaks out. The experts refer to the condition as a “mixed” episode or state. Sweet mania turns sour. Vegetative depression becomes animated. Those who have been through either describe the experience as akin to wanting to crawl out of your skin, of feeling the urge to grab the world by the throat and wring it. I used to joke: “I get road rage a lot - and I don't even drive.” Amazingly, for a condition so pronounced, that causes so much distress, the DSM-IV is inexcusably vague, and so will its successor, the DSM-5 (due out in 2013), based on draft proposals issued last month. The good news is that the DSM-5's criteria for a mixed state will be far less restrictive. In light of the fact that in all other respects DSM-IV bipolar and DSM-5 bipolar are virtually identical, this is a very significant development. The current DSM recognizes mixed states only when full-blown depression is accompanied by full-blown mania. Thus: at least five (of nine) depression symptoms accompanied by at least four (of seven) mania symptoms. Technically, then, only those with bipolar I qualify. But in the real world, individuals may experience depression accompanied by only two or three mania/hypomania symptoms. Or mania with just two or three depression symptoms. Don't these symptoms somehow count? Yes, says Ellen Frank PhD of the University of Pittsburgh. In an interview several years ago, Dr Frank explained to me that “even isolated symptoms that don't cluster together to create episodes may be important." A 2004 study she collaborated on with Giovanni Cassano MD of the University of Pisa found that just one symptom of mania (the symptom list in the study was much longer and more refined than the DSM list) in unipolar depression increased risk for suicidal ideation 4.2 percent. More symptoms kept upping the risk. So what do we do with these so-called unipolars? Treat them as if they had pure depression? According to Hagop Akiskal MD of UCSD, in a journal article, “the nonrecognition of depressive mixed state is nothing short of a clinical tragedy because these are the very 'unipolar' depressive patients who are likely to do poorly on antidepressants …” These would be your agitated depressions, an unbearable energized psychic pain. Looking at it from the mania/hypomania side of the divide: In a 2003 grand rounds lecture at UCLA, Trisha Suppes MD, PhD of Stanford described having an epiphany while reading the DSM criteria for hypomania. "I said, wait, where are all those patients of mine who are hypomanic and say they don't feel good?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even though, in most cases, obesity can be prevented or reversed by healthy eating and by exercise or physical work, I think it is wrong to assume, just by looking at an obese person, that he is a lazy glutton, given to excess eating and inactivity. If we don't know this person, we will most likely be entirely right about what made him obese in the first place, but we shouldn't assume that he has not already repented from this lifestyle. For example, take the picture that started the obesity discussion on the Bayly Blog. It's impossible to ignore that the man on the right is quite obese and seems pleased, even proud of the fact. He seems delighted to point out his resemblance to a pregnant woman. His condition --- which would be alarming if we had not already become so used to seeing obese men in our culture --- has gone way beyond a "few extra pounds" or a "little flab around the middle" that we might be able to blame on stress or joyous feasting with family over the holidays. His situation, like that of way too many others, is far more grave and serious than that. However, it is wrong, if we don't know this man and his history, to assume that he is currently still overeating and not exercising and/or working enough. When we see people in his condition, we don't always know what they were like some months back. For instance, I recently met a woman who is obese but who is also, at least for the past six months or so, one of the hardest working, most sensible eaters I've ever met. No one would guess it to look at her --- unless they had seen what she looked like six months ago. </t>
+  </si>
+  <si>
+    <t>Few years ago, an ex-manager of mine who happened to be a vegetarian had a customary dinner with one of his prestigious client. The client, being a very famous hotelier had taken personal interest in selecting the menu at one of his restaurants. My manager, who clearly didn’t expect the kind of hospitality was very embarassed to say that he was a vegetarian and proceeded with the dinner, without having a clue of what he ate. After the dinner, out of the ear shot of his client, he asked about the menu to one of the waiters. The waiter, who was beaming with pride on serving such a tasteful menu told him that the main item was an aligator. He had further told him that what my manager ate was the tail of the aligator, which was supposedly the ‘tastiest’ part of that animal. I am not sure if that bit of info pleased him or not, but he did realise that overnight he had come a long way from being a ‘pure vegetarian’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a few friends that question whether or not true and deep intimacy is possible between members of the opposite sex, even husbands and wives. Oh, sure, husbands and wives can share closeness, friendship, a strong emotional bond --- but can they be as intimate as two women friends? As vulnerable with one another? As understanding? As capable of sharing thoughts and feelings? As emotionally close? As willing to share the bad, as well as the good? When I was a new mother, I craved friendship with other mothers, and I enjoyed a level of intimacy with women that I'd never experienced before. It was a deep fellowship, a sharing of this overwhelming new adventure that had completely captured us. It was to my friends that I was able to admit a few "dark nights of the soul". At one point, I felt that maybe it was wrong for my fairly new friends to know me, the real me, so much better than my husband did, so I attempted to let him know how profound the experience of motherhood was for me. Unfortunately, we both ended up frustrated. He simply couldn't handle the fact that I was not only and always happy about every aspect of motherhood. He didn't want to hear about sleep deprivation, about the numbing mindlessness of many days, about changing two dozen diapers in just 24 hours. He also didn't want to hear that I sometimes went in just to see my sleeping baby (during those rare moments when he slept) and wept with joy at his beauty. He strongly suggested I needed more time with my women friends. He also wondered if my reaction to motherhood was normal. To him, it was all wacky and disturbing. Couldn't life just return to normal? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Occasionally, there is no question that the couple is moving toward divorce, but know it will take some time to work everything out. If their incomes are substantially different, it may be worth agreeing on a written separation agreement; that way the person paying any alimony can deduct it on his or her tax return. The paying spouse might be able to pay the receiving spouse more than enough to pay the tax on the alimony, and still come out ahead. Sometimes one of the spouses has a religious objection to divorce. A formal separation will allow the spouses to remain officially married even as they live separate lives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What else? Hmmmmm....oh, I had an interesting string of conversations with Alyssa recently. Apparently my aunt snapped a couple weeks ago and sent Aly the longest email ever as an attempt to make amends with her. They haven't gotten along for years and years. Alyssa was so upset by the email that she sent it to me for some advice. It was such a slap in the face. I talked on the phone with her for over an hour, two different days. Actually, both days I ended up sitting out in my car in the driveway. That is my weird solution to preventing myself from pacing when I'm on the phone for a long time. Eventually our conversation got away from the bullshit with her mom and we caught up about everything else. Alyssa is yet another person that I can talk to about anything. I guess I'm really lucky in that way. Why is it that so many great conversations take place while in the car? Maybe it's just me, but I've had some friendship-changing conversations on a late-night drive on a long road.
+I have a really fun week ahead of me. I'm seeing my very first Broadway show, and I'm taking a roadtrip to a place I've never been before.
+Hopefully some of the things that I've ordered as Christmas and Birthday (and baby shower) gifts will start showing up in the mail. I want a better idea of the dent I've made in my holiday shopping.
+Ok, soooooo, yeah. I guess that's all for now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a great experience and I have to thank Andreas Mitisek and the Long Beach Opera for allowing me to photograph behind the scenes of one of their recent rehearsals. Now, that being said, the person I owe the biggest thanks to is my favorite flautist, Teri Christian (aka FlutePrayer, who writes the blog, FlutePrayer ). I met Teri and her husband, Bob, through blogging and I've gotten to enjoy a couple of the performances (Opera and Municipal Band) they've been involved with down in Long Beach (Yay, Long Beach). I've been trying to work it out to to shoot one of the Long Beach Opera performances for quite a while. Teri has been the one working on getting me the okay to come in and snap away. I really hope I wasn't too much of a distraction. That was my biggest concern while shooting (well, that and also that I might suck at being a still photographer). No worries. Things seemed to work out fine. The orchestra and the all the performers had their game faces on and I did my best to ninja my way through the rehearsal. (Whoooo-WHA-KAI! Click, Click, Click! KI-YAAA!) God bless the Christians. (Heh-heh, doesn't that sound kind of redundant?) Our story was all about the coming boom in 3D entertainment technology.&amp;nbsp; I was working with Dave Malkoff (who should really consider spelling his name M-a-l-k-o-v because that would be totally retro mad scientist sci-fi). &amp;nbsp; We started in Burbank, shot an interview and b-roll for the piece, then drove over to the Burbank entertainment center to look for a good liveshot spot. We couldn't find a spot. Well, actually we found plenty of spots.&amp;nbsp; Just none that would give us anything visually related to the story we were working.&amp;nbsp; So, since we weren't going to be on TV until the later shows, we figured we should have plenty of time to dash over to LA Live. A good plan in theory. After battling crazy Friday evening traffic, we finally made it to a good spot for a liveshot.&amp;nbsp; We set up just to the North side of the Regal Theaters. Right next to the psychic's office.&amp;nbsp; Office?&amp;nbsp; Hmm, what would you call it? Anyway, we managed to cut a piece that touted the coming wave of home 3D entertainment.&amp;nbsp; No liveshot after all.&amp;nbsp; We needed to be back to the station before the end of my shift and I needed to do that without hitting the station with a meal penalty. So, it wasn't the most action packed exciting night at work for me.&amp;nbsp; Still, there's this one thing that I wanted to mention.&amp;nbsp; I wanted to say just how cool it is to see parts of LA that most people don't even know about. Take Mr. Sippee for example. You might never have the opportunity (or logical reason) to try fried chicken sold at a gas station.&amp;nbsp; Heck, right minds would tend to avoid something like that. Not me.&amp;nbsp; But, then again, I did qualify that (yeah, right minds). Quick history: I first found Mr. Sippee during the 1984 Olympics (held in Los Angeles, if you remember).&amp;nbsp; I was just out of school and working for ABC Sports.&amp;nbsp; I don't remember why I stopped here, but ever since then, every few years, I manage to grab some chicken and their broasted potatoes. It's not exactly good, but it does take me back to a simpler time in my younger days. I can remember when I used eat junk like that and enjoy it.&amp;nbsp; I'm glad I've grown up a little since then.&amp;nbsp; I'm older and smarter and. . . (sigh) Okay, let me have one leg and thigh combo with potatoes, to go. Blogged with the Flock Browser It's not an excuse for not posting (Come on, Blogging is never having to say, I'm sorry!), but truthfully, it's been a difficult couple of weeks for me. You know, sometimes the postings are slow because I don't have much to say.&amp;nbsp; Sometimes they're slow because nothing much interesting is happening. Sometimes they're slow because I'm dealing with things that don't leave me a lot of space to compose my thoughts in any form fit to share. That being said, today I'm trying to catch up on some the assignments I've had the last couple of weeks. Last Monday night, I found myself in a SAT truck covering a candlelight&amp;nbsp; vigil for Amber Dubois. There were thousands of people crowded into the courtyard of Escondido High School.&amp;nbsp; The vigil had started about 6:30pm.&amp;nbsp; I was about twenty minutes too late to catch the beginning by the time I arrived. It's a long drive from North Hollywood during the afternoon rush hour, but I had a pretty good idea of the route.&amp;nbsp; I'd passed through Escondido a week prior when I'd been assigned to cover the search for Chelsea King. Lots of time travelling there and back to think about things. Anyway, it was another couple of hours before things slowed enough for me to pull my DSLR out to snap a few still shots. By then vigil was over and most of the people had gone.&amp;nbsp; So, right then it wasn't exactly me alone with my thoughts, but it was far fewer than had been there just an hour or so earlier. There was a sadness that hung over the area. I believe we are the sum total of the things we experience.&amp;nbsp; Doing what I do as a news photographer I get to witness more grief than most people. Sometimes it's easier than others to keep that sadness from becoming my own.&amp;nbsp; It's a struggle.&amp;nbsp; Sometimes I win. Sometimes I don't. Blogged with the Flock Browser I wish this wasn't a part of my day. I'm running SNG for the Orange County bureau at the Amber Dubois memorial. Monsters do exist in our world. Stories like this happen and I know it's true. Posted via email from beFrank's posterous I'm not working the Oscars this weekend, so maybe I'll take some time to actually go to the movies.&amp;nbsp; Either I haven't been motivated to see much this year or there really hasn't been much I've wanted to see. I kind of think it was that second thing.&amp;nbsp; Also, I've been pretty busy with work (don't get me started on the family stuff). Way back last Monday, I got sent down to San Diego to follow the night search activities in the Chelsea King disappearance.&amp;nbsp; She was still missing at the time.&amp;nbsp; An initial arrest had been made, but her body hadn't been found yet. It was pretty grim.&amp;nbsp; Sure, all the news people talked and socialized a bit in the area where we were all parked.&amp;nbsp; Still, it just seemed like a dark and depressive evening. We were pretty close to the same area where David Westerfield and the parents of Danielle Van Dam lived.&amp;nbsp; Danielle Van Dam was a nine year old girl that Westerfield was convicted of abducting and murdering. Reporter Greg Mills and I had a simple story to put together for the ten and eleven o'clock newscasts.&amp;nbsp; There wasn't much to see from the media area that had been set up.&amp;nbsp; There also weren't a lot of people around to question. Most of the people we had access to were friends and family of the missing girl and for the most part they weren't willing to be interviewed on camera. That makes our job a lot more difficult. One friend of the family told us off-camera that they were still holding out hope that Chelsea would be found alive. I learned the next day that Chelsea's body had been recovered from a shallow grave near the area of the search. That was my Monday. It's been a week of ups and downs. I'm still standing, but very happy that today is Friday.&amp;nbsp; I see an ice cold beer in my future. Blogged with the Flock Browser Just a quick update. I'm in Hollywood hoping for a celebrity or two. Covering arrivals at a "green" carpet event. Posted via email from beFrank's posterous While passing through Temecula on the way to a story that will not likely end well, we saw this at a gas station. It made me smile. I'm thankful for that. I'm guessing there won't be many more of those tonight. -- Sent from my BlackBerry Posted via email from beFrank's posterous It's been a busy week.&amp;nbsp; I&amp;nbsp; could be posting a bit more, but most of the things I'd be inclined to write about aren't really news or photography related. Just so you know where I've been and what I've been working on, I'll try to post a few pictures and do some small bit of writing to put things in context. These shots were taken out at Huntington Beach because the city decided to remove a bunch of the fire pits that line the beach. I was working with Suzie Suh that night and I'll be honest.&amp;nbsp; I didn't think we were going to find anybody out using the fire pits.&amp;nbsp; The weather forecast was calling for rain, plus it's winter.&amp;nbsp; Who in their right mind heads down to the beach in the rain in the cold of winter? No people?&amp;nbsp; That would have made the story a bit more difficult to cover. As you can see from the previous pictures, there were people out making fires. The rain didn't hit as hard as I thought it might, but I did get caught by a light sprinkle. The rain chased away most of the bon fire bugs.&amp;nbsp; We were left with drunken young people who might not have been old enough to be out drinking. At least they stayed close to their fire and pretty much ignored us. I'm kind of glad we were out doing this story now and that it wasn't a warm summer night.&amp;nbsp; I'm pretty sure we would have gotten more attention if that were the case. It was too cold and wet to screw with the media. Blogged with the Flock Browser </t>
+  </si>
+  <si>
+    <t>Then he is one brainy fellow,being his sister people expect me to be like him,...
+topped in tenth in one subject in twelfth too,then 99.3 percentile n CAT,admit into NITIE, then his english which makes me sit gaping( ppl need to have an oxford dictionary when talking with hhim in english),his mokai hindi( mine is better than yours ), his "SO CALLED "dance which is a little better than bhagyaraj , then people around encouraging him for hissong(thatha called u m,adurai SOMU ) but only i know abouyt the complaints from the neighbours sayng their kid is crying listening to his songs , the way he mimcs pati , the way he pulls thatha's legs,the way we laugh at thatha's misprononunciation , theway he makes me undersatnd my mistake, the way he makes me laugh when i am about to cry (THAMBI pose ),the way welaugh at comedies,the way we share secrets,the way he encourages me, the way he took care of me the three uyears when appa amma were away( the time span which constituted the transformation</t>
   </si>
 </sst>
 </file>
@@ -1275,2490 +2101,4350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <v>1793</v>
+      </c>
+      <c r="D1">
+        <v>59.65189873417721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>924</v>
+      </c>
+      <c r="D2">
+        <v>49.69325153374233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>2805</v>
+      </c>
+      <c r="D3">
+        <v>66.37362637362637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>1598</v>
+      </c>
+      <c r="D4">
+        <v>56.12244897959184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>320</v>
+      </c>
+      <c r="D5">
+        <v>53.73134328358209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>533</v>
+      </c>
+      <c r="D6">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>903</v>
+      </c>
+      <c r="D7">
+        <v>54.25531914893617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>2736</v>
+      </c>
+      <c r="D8">
+        <v>48.95104895104895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>540</v>
+      </c>
+      <c r="D9">
+        <v>42.34234234234233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>1500</v>
+      </c>
+      <c r="D10">
+        <v>62.59541984732824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>2103</v>
+      </c>
+      <c r="D11">
+        <v>62.12534059945504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>364</v>
+      </c>
+      <c r="D12">
+        <v>50.74626865671642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>3279</v>
+      </c>
+      <c r="D13">
+        <v>54.00326797385621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>523</v>
+      </c>
+      <c r="D14">
+        <v>57.21153846153847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>1592</v>
+      </c>
+      <c r="D15">
+        <v>50.87108013937282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>305</v>
+      </c>
+      <c r="D16">
+        <v>50.78125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>3182</v>
+      </c>
+      <c r="D17">
+        <v>56.01001669449082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>920</v>
+      </c>
+      <c r="D18">
+        <v>52.54237288135593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>332</v>
+      </c>
+      <c r="D19">
+        <v>49.34210526315789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1235</v>
+      </c>
+      <c r="D20">
+        <v>54.11255411255411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>1913</v>
+      </c>
+      <c r="D21">
+        <v>60.90116279069767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>1064</v>
+      </c>
+      <c r="D22">
+        <v>68.10810810810811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>885</v>
+      </c>
+      <c r="D23">
+        <v>71.15384615384616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>9111</v>
+      </c>
+      <c r="D24">
+        <v>54.79885057471265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>327</v>
+      </c>
+      <c r="D25">
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>831</v>
+      </c>
+      <c r="D26">
+        <v>55.52147239263804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>456</v>
+      </c>
+      <c r="D27">
+        <v>55.17241379310344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>418</v>
+      </c>
+      <c r="D28">
+        <v>64.88095238095238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>28792</v>
+      </c>
+      <c r="D29">
+        <v>46.94096601073345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>478</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>494</v>
+      </c>
+      <c r="D31">
+        <v>47.77777777777777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1989</v>
+      </c>
+      <c r="D32">
+        <v>44.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1020</v>
+      </c>
+      <c r="D33">
+        <v>54.36893203883496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>1735</v>
+      </c>
+      <c r="D34">
+        <v>65.44117647058823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>516</v>
+      </c>
+      <c r="D35">
+        <v>41.82692307692308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>1202</v>
+      </c>
+      <c r="D36">
+        <v>55.94713656387665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>1470</v>
+      </c>
+      <c r="D37">
+        <v>43.09210526315789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>2057</v>
+      </c>
+      <c r="D38">
+        <v>49.8780487804878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>3920</v>
+      </c>
+      <c r="D39">
+        <v>53.00279329608938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>0</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>593</v>
+      </c>
+      <c r="D40">
+        <v>65.19607843137254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>3216</v>
+      </c>
+      <c r="D41">
+        <v>56.81818181818182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>0</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>12779</v>
+      </c>
+      <c r="D42">
+        <v>49.63369963369964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>12330</v>
+      </c>
+      <c r="D43">
+        <v>57.24804417855499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>0</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>1267</v>
+      </c>
+      <c r="D44">
+        <v>61.15702479338843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>32714</v>
+      </c>
+      <c r="D45">
+        <v>60.41998936735779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>0</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>326</v>
+      </c>
+      <c r="D46">
+        <v>44.6969696969697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>338</v>
+      </c>
+      <c r="D47">
+        <v>63.07692307692308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>0</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>348</v>
+      </c>
+      <c r="D48">
+        <v>47.69230769230769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>770</v>
+      </c>
+      <c r="D49">
+        <v>60.41666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>1179</v>
+      </c>
+      <c r="D50">
+        <v>49.09909909909909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>480</v>
+      </c>
+      <c r="D51">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>2339</v>
+      </c>
+      <c r="D52">
+        <v>50.32894736842105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>1022</v>
+      </c>
+      <c r="D53">
+        <v>48.29268292682927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>0</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>2325</v>
+      </c>
+      <c r="D54">
+        <v>56.42523364485982</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>408</v>
+      </c>
+      <c r="D55">
+        <v>55.48780487804878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>1078</v>
+      </c>
+      <c r="D56">
+        <v>54.78723404255319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>1961</v>
+      </c>
+      <c r="D57">
+        <v>59.43661971830986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>0</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>277</v>
+      </c>
+      <c r="D58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>1839</v>
+      </c>
+      <c r="D59">
+        <v>46.71232876712329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>0</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>32714</v>
+      </c>
+      <c r="D60">
+        <v>54.9919224555735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>1106</v>
+      </c>
+      <c r="D61">
+        <v>45.23809523809524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>0</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>1368</v>
+      </c>
+      <c r="D62">
+        <v>49.62962962962963</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>3028</v>
+      </c>
+      <c r="D63">
+        <v>53.83928571428572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>0</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>354</v>
+      </c>
+      <c r="D64">
+        <v>51.35135135135135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>378</v>
+      </c>
+      <c r="D65">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>2006</v>
+      </c>
+      <c r="D66">
+        <v>50.50125313283208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>15977</v>
+      </c>
+      <c r="D67">
+        <v>50.06349206349207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>4176</v>
+      </c>
+      <c r="D68">
+        <v>54.51127819548872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>464</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>282</v>
+      </c>
+      <c r="D70">
+        <v>52.67857142857143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>1560</v>
+      </c>
+      <c r="D71">
+        <v>57.71929824561403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>0</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>958</v>
+      </c>
+      <c r="D72">
+        <v>54.16666666666666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>17695</v>
+      </c>
+      <c r="D73">
+        <v>63.15967523680649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>1232</v>
+      </c>
+      <c r="D74">
+        <v>55.70776255707763</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>718</v>
+      </c>
+      <c r="D75">
+        <v>57.25190839694656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>755</v>
+      </c>
+      <c r="D76">
+        <v>61.69354838709678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>369</v>
+      </c>
+      <c r="D77">
+        <v>52.8169014084507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>0</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>2522</v>
+      </c>
+      <c r="D78">
+        <v>47.74951076320939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>1121</v>
+      </c>
+      <c r="D79">
+        <v>67.31843575418995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>0</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>614</v>
+      </c>
+      <c r="D80">
+        <v>53.6036036036036</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>558</v>
+      </c>
+      <c r="D81">
+        <v>59.44444444444444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>0</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>957</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>651</v>
+      </c>
+      <c r="D83">
+        <v>56.77966101694916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>0</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>445</v>
+      </c>
+      <c r="D84">
+        <v>31.38297872340425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>1606</v>
+      </c>
+      <c r="D85">
+        <v>61.94539249146757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>0</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>1651</v>
+      </c>
+      <c r="D86">
+        <v>48.24046920821115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>1530</v>
+      </c>
+      <c r="D87">
+        <v>58.64406779661017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>0</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>4122</v>
+      </c>
+      <c r="D88">
+        <v>51.45903479236813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>1</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>1435</v>
+      </c>
+      <c r="D89">
+        <v>67.01680672268907</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>0</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>1804</v>
+      </c>
+      <c r="D90">
+        <v>56.98757763975156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>1</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>1075</v>
+      </c>
+      <c r="D91">
+        <v>60.3448275862069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>0</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>907</v>
+      </c>
+      <c r="D92">
+        <v>80.26315789473685</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>2044</v>
+      </c>
+      <c r="D93">
+        <v>70.36516853932585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>0</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>2377</v>
+      </c>
+      <c r="D94">
+        <v>58.45238095238095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>1</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>942</v>
+      </c>
+      <c r="D95">
+        <v>46.64634146341464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>0</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>224</v>
+      </c>
+      <c r="D96">
+        <v>48.88888888888889</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>630</v>
+      </c>
+      <c r="D97">
+        <v>74.0566037735849</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>0</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>1041</v>
+      </c>
+      <c r="D98">
+        <v>50.23696682464455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>487</v>
+      </c>
+      <c r="D99">
+        <v>57.22891566265061</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>0</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>1810</v>
+      </c>
+      <c r="D100">
+        <v>49.29971988795518</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>937</v>
+      </c>
+      <c r="D101">
+        <v>47.22222222222222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>0</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>872</v>
+      </c>
+      <c r="D102">
+        <v>45.48022598870057</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>265</v>
+      </c>
+      <c r="D103">
+        <v>64.03508771929825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>0</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>20069</v>
+      </c>
+      <c r="D104">
+        <v>52.56078634247284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>2910</v>
+      </c>
+      <c r="D105">
+        <v>69.27710843373494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>0</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>2765</v>
+      </c>
+      <c r="D106">
+        <v>71.42857142857143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>299</v>
+      </c>
+      <c r="D107">
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>0</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>441</v>
+      </c>
+      <c r="D108">
+        <v>48.88888888888889</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>2450</v>
+      </c>
+      <c r="D109">
+        <v>50.52854122621565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>0</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>9058</v>
+      </c>
+      <c r="D110">
+        <v>51.99020208205756</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>4794</v>
+      </c>
+      <c r="D111">
+        <v>55.76923076923077</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>0</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>499</v>
+      </c>
+      <c r="D112">
+        <v>68.39622641509433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>1705</v>
+      </c>
+      <c r="D113">
+        <v>47.20588235294117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>0</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>1271</v>
+      </c>
+      <c r="D114">
+        <v>38.95348837209302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>2378</v>
+      </c>
+      <c r="D115">
+        <v>49.78768577494692</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>0</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>205</v>
+      </c>
+      <c r="D116">
+        <v>44.87179487179488</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>1</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>2392</v>
+      </c>
+      <c r="D117">
+        <v>66.87979539641944</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>0</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>2370</v>
+      </c>
+      <c r="D118">
+        <v>45.12448132780083</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>1</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>441</v>
+      </c>
+      <c r="D119">
+        <v>45.56962025316456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>0</v>
       </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>2096</v>
+      </c>
+      <c r="D120">
+        <v>53.38164251207729</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>1</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>297</v>
+      </c>
+      <c r="D121">
+        <v>71.73913043478261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>0</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>636</v>
+      </c>
+      <c r="D122">
+        <v>60.1010101010101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>1690</v>
+      </c>
+      <c r="D123">
+        <v>49.84276729559748</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>0</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>426</v>
+      </c>
+      <c r="D124">
+        <v>44.44444444444444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>1</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>1576</v>
+      </c>
+      <c r="D125">
+        <v>65.91695501730104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>0</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>268</v>
+      </c>
+      <c r="D126">
+        <v>52.12765957446808</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>9289</v>
+      </c>
+      <c r="D127">
+        <v>73.8049095607235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>0</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>1909</v>
+      </c>
+      <c r="D128">
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>1</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>641</v>
+      </c>
+      <c r="D129">
+        <v>58.55855855855856</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>0</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>493</v>
+      </c>
+      <c r="D130">
+        <v>44.79166666666666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>1</v>
       </c>
       <c r="B131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>8351</v>
+      </c>
+      <c r="D131">
+        <v>56.16438356164383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>0</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>627</v>
+      </c>
+      <c r="D132">
+        <v>45.08196721311475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>1</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>846</v>
+      </c>
+      <c r="D133">
+        <v>59.6774193548387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>0</v>
       </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>623</v>
+      </c>
+      <c r="D134">
+        <v>51.22950819672131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>1</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>3244</v>
+      </c>
+      <c r="D135">
+        <v>65.47388781431334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>0</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>631</v>
+      </c>
+      <c r="D136">
+        <v>60.83333333333333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>1</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>1016</v>
+      </c>
+      <c r="D137">
+        <v>59.5959595959596</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>0</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>676</v>
+      </c>
+      <c r="D138">
+        <v>52.32558139534883</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>1</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>2386</v>
+      </c>
+      <c r="D139">
+        <v>54.41860465116279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>0</v>
       </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>1619</v>
+      </c>
+      <c r="D140">
+        <v>43.40836012861736</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>1</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>530</v>
+      </c>
+      <c r="D141">
+        <v>64.36170212765958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>0</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>456</v>
+      </c>
+      <c r="D142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>602</v>
+      </c>
+      <c r="D143">
+        <v>57.87037037037037</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>0</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>1141</v>
+      </c>
+      <c r="D144">
+        <v>50.69767441860465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>255</v>
+      </c>
+      <c r="D145">
+        <v>63.33333333333333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>1299</v>
+      </c>
+      <c r="D146">
+        <v>50.79051383399209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>1</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>578</v>
+      </c>
+      <c r="D147">
+        <v>52.8169014084507</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>0</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>747</v>
+      </c>
+      <c r="D148">
+        <v>49.63768115942029</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>1</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>1478</v>
+      </c>
+      <c r="D149">
+        <v>46.86346863468634</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>0</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>607</v>
+      </c>
+      <c r="D150">
+        <v>63.42592592592592</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>1</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>834</v>
+      </c>
+      <c r="D151">
+        <v>60.42944785276073</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>0</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>602</v>
+      </c>
+      <c r="D152">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>3433</v>
+      </c>
+      <c r="D153">
+        <v>68.24324324324324</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>340</v>
+      </c>
+      <c r="D154">
+        <v>44.02985074626866</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>922</v>
+      </c>
+      <c r="D155">
+        <v>56.03448275862069</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>0</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>2444</v>
+      </c>
+      <c r="D156">
+        <v>54.76190476190476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>1</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>32714</v>
+      </c>
+      <c r="D157">
+        <v>62.32120224515662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>0</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>1686</v>
+      </c>
+      <c r="D158">
+        <v>42.23880597014925</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>1</v>
       </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>1851</v>
+      </c>
+      <c r="D159">
+        <v>52.72479564032697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>0</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>3633</v>
+      </c>
+      <c r="D160">
+        <v>49.34306569343066</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>1</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>1957</v>
+      </c>
+      <c r="D161">
+        <v>53.2051282051282</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>0</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162">
+        <v>18286</v>
+      </c>
+      <c r="D162">
+        <v>49.08098028769312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163">
+        <v>5479</v>
+      </c>
+      <c r="D163">
+        <v>61.62324649298597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>0</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164">
+        <v>1500</v>
+      </c>
+      <c r="D164">
+        <v>57.30337078651686</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>1</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165">
+        <v>532</v>
+      </c>
+      <c r="D165">
+        <v>52.22222222222223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>0</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166">
+        <v>1054</v>
+      </c>
+      <c r="D166">
+        <v>60.29411764705882</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>1</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167">
+        <v>959</v>
+      </c>
+      <c r="D167">
+        <v>46.17486338797814</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>0</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168">
+        <v>1994</v>
+      </c>
+      <c r="D168">
+        <v>39.35643564356435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>1</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169">
+        <v>1290</v>
+      </c>
+      <c r="D169">
+        <v>55.41125541125541</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>0</v>
       </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>391</v>
+      </c>
+      <c r="D170">
+        <v>41.0958904109589</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>1</v>
       </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171">
+        <v>291</v>
+      </c>
+      <c r="D171">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>0</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172">
+        <v>13247</v>
+      </c>
+      <c r="D172">
+        <v>50.21161985378993</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>1</v>
       </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173">
+        <v>489</v>
+      </c>
+      <c r="D173">
+        <v>43.01075268817205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>0</v>
       </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174">
+        <v>3023</v>
+      </c>
+      <c r="D174">
+        <v>51.06951871657753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>1</v>
       </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175">
+        <v>5193</v>
+      </c>
+      <c r="D175">
+        <v>51.63551401869159</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>0</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176">
+        <v>198</v>
+      </c>
+      <c r="D176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>1</v>
       </c>
       <c r="B177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177">
+        <v>1869</v>
+      </c>
+      <c r="D177">
+        <v>51.71503957783641</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>0</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178">
+        <v>2870</v>
+      </c>
+      <c r="D178">
+        <v>66.13190730837789</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>1</v>
       </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179">
+        <v>218</v>
+      </c>
+      <c r="D179">
+        <v>47.5609756097561</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>0</v>
       </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180">
+        <v>2154</v>
+      </c>
+      <c r="D180">
+        <v>72.71386430678466</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>1</v>
       </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181">
+        <v>499</v>
+      </c>
+      <c r="D181">
+        <v>62.2093023255814</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>0</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182">
+        <v>1027</v>
+      </c>
+      <c r="D182">
+        <v>49.21875</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>1</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183">
+        <v>1012</v>
+      </c>
+      <c r="D183">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>0</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184">
+        <v>571</v>
+      </c>
+      <c r="D184">
+        <v>65.53398058252428</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>1</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185">
+        <v>596</v>
+      </c>
+      <c r="D185">
+        <v>65.71428571428571</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>0</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186">
+        <v>281</v>
+      </c>
+      <c r="D186">
+        <v>33.62068965517241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>1</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187">
+        <v>544</v>
+      </c>
+      <c r="D187">
+        <v>42.42424242424242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>0</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188">
+        <v>2514</v>
+      </c>
+      <c r="D188">
+        <v>45.68421052631579</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>1</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189">
+        <v>2273</v>
+      </c>
+      <c r="D189">
+        <v>61.75115207373272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>0</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190">
+        <v>523</v>
+      </c>
+      <c r="D190">
+        <v>56.52173913043478</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>1</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191">
+        <v>4619</v>
+      </c>
+      <c r="D191">
+        <v>54.2824074074074</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>0</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192">
+        <v>797</v>
+      </c>
+      <c r="D192">
+        <v>41.5625</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>1</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193">
+        <v>871</v>
+      </c>
+      <c r="D193">
+        <v>61.80124223602484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>0</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194">
+        <v>1212</v>
+      </c>
+      <c r="D194">
+        <v>41.50197628458498</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>1</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195">
+        <v>1151</v>
+      </c>
+      <c r="D195">
+        <v>44.7565543071161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>0</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196">
+        <v>3449</v>
+      </c>
+      <c r="D196">
+        <v>50.40257648953301</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>1</v>
       </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197">
+        <v>489</v>
+      </c>
+      <c r="D197">
+        <v>68.36734693877551</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>0</v>
       </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198">
+        <v>435</v>
+      </c>
+      <c r="D198">
+        <v>60.46511627906977</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>1</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199">
+        <v>1745</v>
+      </c>
+      <c r="D199">
+        <v>54.76923076923077</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>0</v>
       </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200">
+        <v>1314</v>
+      </c>
+      <c r="D200">
+        <v>47.70114942528735</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201">
+        <v>2491</v>
+      </c>
+      <c r="D201">
+        <v>49.5136186770428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>0</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202">
+        <v>2322</v>
+      </c>
+      <c r="D202">
+        <v>51.21412803532009</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>1</v>
       </c>
       <c r="B203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203">
+        <v>658</v>
+      </c>
+      <c r="D203">
+        <v>48.46153846153846</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>0</v>
       </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204">
+        <v>1055</v>
+      </c>
+      <c r="D204">
+        <v>50.93023255813954</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>1</v>
       </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205">
+        <v>566</v>
+      </c>
+      <c r="D205">
+        <v>46.3302752293578</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>0</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206">
+        <v>2263</v>
+      </c>
+      <c r="D206">
+        <v>61.82519280205656</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>1</v>
       </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207">
+        <v>1347</v>
+      </c>
+      <c r="D207">
+        <v>63.46153846153846</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>0</v>
       </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208">
+        <v>216</v>
+      </c>
+      <c r="D208">
+        <v>31.70731707317074</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>1</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209">
+        <v>1587</v>
+      </c>
+      <c r="D209">
+        <v>59.44055944055944</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>0</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210">
+        <v>1191</v>
+      </c>
+      <c r="D210">
+        <v>52.57009345794393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>1</v>
       </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211">
+        <v>2075</v>
+      </c>
+      <c r="D211">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>0</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212">
+        <v>342</v>
+      </c>
+      <c r="D212">
+        <v>51.44927536231884</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>1</v>
       </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213">
+        <v>1030</v>
+      </c>
+      <c r="D213">
+        <v>63.04347826086956</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>0</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214">
+        <v>361</v>
+      </c>
+      <c r="D214">
+        <v>36.36363636363636</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>1</v>
       </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215">
+        <v>820</v>
+      </c>
+      <c r="D215">
+        <v>68.43971631205673</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>0</v>
       </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216">
+        <v>2513</v>
+      </c>
+      <c r="D216">
+        <v>59.48827292110875</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>1</v>
       </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217">
+        <v>442</v>
+      </c>
+      <c r="D217">
+        <v>65.85365853658537</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>0</v>
       </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218">
+        <v>5263</v>
+      </c>
+      <c r="D218">
+        <v>45.61320754716981</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>1</v>
       </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="C219">
+        <v>373</v>
+      </c>
+      <c r="D219">
+        <v>54.10958904109589</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>0</v>
       </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="C220">
+        <v>847</v>
+      </c>
+      <c r="D220">
+        <v>52.83018867924528</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>1</v>
       </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="C221">
+        <v>817</v>
+      </c>
+      <c r="D221">
+        <v>48.69281045751634</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>0</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222">
+        <v>971</v>
+      </c>
+      <c r="D222">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>1</v>
       </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223">
+        <v>3045</v>
+      </c>
+      <c r="D223">
+        <v>63.8996138996139</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>0</v>
       </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224">
+        <v>606</v>
+      </c>
+      <c r="D224">
+        <v>51.30434782608695</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>1</v>
       </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225">
+        <v>1077</v>
+      </c>
+      <c r="D225">
+        <v>47.44186046511628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>0</v>
       </c>
       <c r="B226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226">
+        <v>14606</v>
+      </c>
+      <c r="D226">
+        <v>50.15405682985279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>1</v>
       </c>
       <c r="B227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227">
+        <v>1014</v>
+      </c>
+      <c r="D227">
+        <v>56.21890547263681</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>0</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228">
+        <v>815</v>
+      </c>
+      <c r="D228">
+        <v>40.70512820512821</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>1</v>
       </c>
       <c r="B229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229">
+        <v>962</v>
+      </c>
+      <c r="D229">
+        <v>52.95698924731183</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>0</v>
       </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="C230">
+        <v>382</v>
+      </c>
+      <c r="D230">
+        <v>70.28985507246377</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>1</v>
       </c>
       <c r="B231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231">
+        <v>2037</v>
+      </c>
+      <c r="D231">
+        <v>52.45231607629427</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>0</v>
       </c>
       <c r="B232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232">
+        <v>370</v>
+      </c>
+      <c r="D232">
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>1</v>
       </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233">
+        <v>620</v>
+      </c>
+      <c r="D233">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>0</v>
       </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234">
+        <v>482</v>
+      </c>
+      <c r="D234">
+        <v>52.80898876404495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>1</v>
       </c>
       <c r="B235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235">
+        <v>637</v>
+      </c>
+      <c r="D235">
+        <v>39.4308943089431</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>0</v>
       </c>
       <c r="B236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236">
+        <v>1003</v>
+      </c>
+      <c r="D236">
+        <v>54.36893203883496</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>1</v>
       </c>
       <c r="B237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237">
+        <v>624</v>
+      </c>
+      <c r="D237">
+        <v>44.16666666666666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>0</v>
       </c>
       <c r="B238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="C238">
+        <v>1537</v>
+      </c>
+      <c r="D238">
+        <v>45.27972027972028</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>1</v>
       </c>
       <c r="B239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="C239">
+        <v>3119</v>
+      </c>
+      <c r="D239">
+        <v>61.35940409683427</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>0</v>
       </c>
       <c r="B240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="C240">
+        <v>1592</v>
+      </c>
+      <c r="D240">
+        <v>46.27329192546584</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>1</v>
       </c>
       <c r="B241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="C241">
+        <v>1786</v>
+      </c>
+      <c r="D241">
+        <v>68.15068493150685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>0</v>
       </c>
       <c r="B242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242">
+        <v>894</v>
+      </c>
+      <c r="D242">
+        <v>52.10843373493975</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>1</v>
       </c>
       <c r="B243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="C243">
+        <v>1898</v>
+      </c>
+      <c r="D243">
+        <v>59.42857142857143</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>0</v>
       </c>
       <c r="B244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244">
+        <v>1577</v>
+      </c>
+      <c r="D244">
+        <v>57.52895752895753</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>1</v>
       </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245">
+        <v>1751</v>
+      </c>
+      <c r="D245">
+        <v>54.27631578947368</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246">
         <v>0</v>
       </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="C246">
+        <v>660</v>
+      </c>
+      <c r="D246">
+        <v>38.68613138686131</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>1</v>
       </c>
       <c r="B247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="C247">
+        <v>531</v>
+      </c>
+      <c r="D247">
+        <v>53.64583333333334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>0</v>
       </c>
       <c r="B248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248">
+        <v>799</v>
+      </c>
+      <c r="D248">
+        <v>49.69325153374233</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>1</v>
       </c>
       <c r="B249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="C249">
+        <v>1451</v>
+      </c>
+      <c r="D249">
+        <v>51.94552529182879</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>0</v>
       </c>
       <c r="B250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250">
+        <v>11581</v>
+      </c>
+      <c r="D250">
+        <v>48.95136099955377</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>1</v>
       </c>
       <c r="B251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="C251">
+        <v>632</v>
+      </c>
+      <c r="D251">
+        <v>44.73684210526316</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>0</v>
       </c>
       <c r="B252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252">
+        <v>2446</v>
+      </c>
+      <c r="D252">
+        <v>54.59518599562364</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253">
         <v>1</v>
       </c>
       <c r="B253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253">
+        <v>1281</v>
+      </c>
+      <c r="D253">
+        <v>57.59493670886076</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>0</v>
       </c>
       <c r="B254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="C254">
+        <v>814</v>
+      </c>
+      <c r="D254">
+        <v>63.30645161290322</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>1</v>
       </c>
       <c r="B255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="C255">
+        <v>326</v>
+      </c>
+      <c r="D255">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256">
         <v>0</v>
       </c>
       <c r="B256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="C256">
+        <v>2613</v>
+      </c>
+      <c r="D256">
+        <v>67.8066037735849</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257">
         <v>1</v>
       </c>
       <c r="B257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="C257">
+        <v>25788</v>
+      </c>
+      <c r="D257">
+        <v>54.60224906289046</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>0</v>
       </c>
       <c r="B258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258">
+        <v>423</v>
+      </c>
+      <c r="D258">
+        <v>46.20253164556962</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>1</v>
       </c>
       <c r="B259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="C259">
+        <v>1239</v>
+      </c>
+      <c r="D259">
+        <v>49.78540772532189</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260">
         <v>0</v>
       </c>
       <c r="B260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="C260">
+        <v>348</v>
+      </c>
+      <c r="D260">
+        <v>51.31578947368421</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261">
         <v>1</v>
       </c>
       <c r="B261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="C261">
+        <v>1502</v>
+      </c>
+      <c r="D261">
+        <v>61.49425287356322</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262">
         <v>0</v>
       </c>
       <c r="B262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="C262">
+        <v>1374</v>
+      </c>
+      <c r="D262">
+        <v>46.21513944223108</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263">
         <v>1</v>
       </c>
       <c r="B263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263">
+        <v>2301</v>
+      </c>
+      <c r="D263">
+        <v>55.76470588235294</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264">
         <v>0</v>
       </c>
       <c r="B264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264">
+        <v>915</v>
+      </c>
+      <c r="D264">
+        <v>36.87150837988827</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265">
         <v>1</v>
       </c>
       <c r="B265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="C265">
+        <v>586</v>
+      </c>
+      <c r="D265">
+        <v>54.16666666666667</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266">
         <v>0</v>
       </c>
       <c r="B266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266">
+        <v>724</v>
+      </c>
+      <c r="D266">
+        <v>47.08029197080292</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267">
         <v>1</v>
       </c>
       <c r="B267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
+      <c r="C267">
+        <v>1036</v>
+      </c>
+      <c r="D267">
+        <v>51.7412935323383</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268">
         <v>0</v>
       </c>
       <c r="B268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
+      <c r="C268">
+        <v>4044</v>
+      </c>
+      <c r="D268">
+        <v>50.51546391752577</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269">
         <v>1</v>
       </c>
       <c r="B269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
+      <c r="C269">
+        <v>664</v>
+      </c>
+      <c r="D269">
+        <v>77.14285714285714</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270">
         <v>0</v>
       </c>
       <c r="B270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
+      <c r="C270">
+        <v>2462</v>
+      </c>
+      <c r="D270">
+        <v>62.55868544600938</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271">
         <v>1</v>
       </c>
       <c r="B271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
+      <c r="C271">
+        <v>378</v>
+      </c>
+      <c r="D271">
+        <v>66.19718309859155</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272">
         <v>0</v>
       </c>
       <c r="B272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
+      <c r="C272">
+        <v>2690</v>
+      </c>
+      <c r="D272">
+        <v>54.81335952848723</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273">
         <v>1</v>
       </c>
       <c r="B273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
+      <c r="C273">
+        <v>596</v>
+      </c>
+      <c r="D273">
+        <v>49.55357142857143</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274">
         <v>0</v>
       </c>
       <c r="B274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
+      <c r="C274">
+        <v>659</v>
+      </c>
+      <c r="D274">
+        <v>56.81818181818182</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275">
         <v>1</v>
       </c>
       <c r="B275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
+      <c r="C275">
+        <v>995</v>
+      </c>
+      <c r="D275">
+        <v>56.45161290322581</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276">
         <v>0</v>
       </c>
       <c r="B276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
+      <c r="C276">
+        <v>594</v>
+      </c>
+      <c r="D276">
+        <v>57.72727272727273</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277">
         <v>1</v>
       </c>
       <c r="B277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
+      <c r="C277">
+        <v>1165</v>
+      </c>
+      <c r="D277">
+        <v>65.43478260869566</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278">
         <v>0</v>
       </c>
       <c r="B278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
+      <c r="C278">
+        <v>1337</v>
+      </c>
+      <c r="D278">
+        <v>41.24087591240875</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279">
         <v>1</v>
       </c>
       <c r="B279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
+      <c r="C279">
+        <v>1894</v>
+      </c>
+      <c r="D279">
+        <v>46.64879356568365</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280">
         <v>0</v>
       </c>
       <c r="B280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
+      <c r="C280">
+        <v>817</v>
+      </c>
+      <c r="D280">
+        <v>47.57575757575758</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281">
         <v>1</v>
       </c>
       <c r="B281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
+      <c r="C281">
+        <v>1493</v>
+      </c>
+      <c r="D281">
+        <v>50.35971223021583</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282">
         <v>0</v>
       </c>
       <c r="B282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
+      <c r="C282">
+        <v>32714</v>
+      </c>
+      <c r="D282">
+        <v>52.275600505689</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283">
         <v>1</v>
       </c>
       <c r="B283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
+      <c r="C283">
+        <v>2995</v>
+      </c>
+      <c r="D283">
+        <v>67.24137931034483</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284">
         <v>0</v>
       </c>
       <c r="B284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
+      <c r="C284">
+        <v>745</v>
+      </c>
+      <c r="D284">
+        <v>68.11023622047244</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285">
         <v>1</v>
       </c>
       <c r="B285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
+      <c r="C285">
+        <v>1976</v>
+      </c>
+      <c r="D285">
+        <v>60.24464831804281</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>0</v>
       </c>
       <c r="B286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="C286">
+        <v>1104</v>
+      </c>
+      <c r="D286">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287">
         <v>1</v>
       </c>
       <c r="B287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:2">
+      <c r="C287">
+        <v>312</v>
+      </c>
+      <c r="D287">
+        <v>63.55932203389831</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288">
         <v>0</v>
       </c>
       <c r="B288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
+      <c r="C288">
+        <v>798</v>
+      </c>
+      <c r="D288">
+        <v>47.65100671140939</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289">
         <v>1</v>
       </c>
       <c r="B289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
+      <c r="C289">
+        <v>319</v>
+      </c>
+      <c r="D289">
+        <v>59.84848484848484</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290">
         <v>0</v>
       </c>
       <c r="B290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
+      <c r="C290">
+        <v>1594</v>
+      </c>
+      <c r="D290">
+        <v>60.79734219269103</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291">
         <v>1</v>
       </c>
       <c r="B291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
+      <c r="C291">
+        <v>2760</v>
+      </c>
+      <c r="D291">
+        <v>60.47008547008547</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292">
         <v>0</v>
       </c>
       <c r="B292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
+      <c r="C292">
+        <v>965</v>
+      </c>
+      <c r="D292">
+        <v>51.06951871657754</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293">
         <v>1</v>
       </c>
       <c r="B293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
+      <c r="C293">
+        <v>1845</v>
+      </c>
+      <c r="D293">
+        <v>54.54545454545455</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294">
         <v>0</v>
       </c>
       <c r="B294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
+      <c r="C294">
+        <v>442</v>
+      </c>
+      <c r="D294">
+        <v>46.23655913978494</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295">
         <v>1</v>
       </c>
       <c r="B295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:2">
+      <c r="C295">
+        <v>1131</v>
+      </c>
+      <c r="D295">
+        <v>50.66371681415929</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296">
         <v>0</v>
       </c>
       <c r="B296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:2">
+      <c r="C296">
+        <v>925</v>
+      </c>
+      <c r="D296">
+        <v>60.55555555555556</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297">
         <v>1</v>
       </c>
       <c r="B297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
+      <c r="C297">
+        <v>4221</v>
+      </c>
+      <c r="D297">
+        <v>51.01311084624552</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298">
         <v>0</v>
       </c>
       <c r="B298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
+      <c r="C298">
+        <v>1321</v>
+      </c>
+      <c r="D298">
+        <v>40.90909090909091</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299">
         <v>1</v>
       </c>
       <c r="B299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
+      <c r="C299">
+        <v>515</v>
+      </c>
+      <c r="D299">
+        <v>44.73684210526316</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300">
         <v>0</v>
       </c>
       <c r="B300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
+      <c r="C300">
+        <v>1366</v>
+      </c>
+      <c r="D300">
+        <v>47.43589743589743</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301">
         <v>1</v>
       </c>
       <c r="B301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
+      <c r="C301">
+        <v>861</v>
+      </c>
+      <c r="D301">
+        <v>60.78431372549019</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302">
         <v>0</v>
       </c>
       <c r="B302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
+      <c r="C302">
+        <v>948</v>
+      </c>
+      <c r="D302">
+        <v>52.90697674418605</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303">
         <v>1</v>
       </c>
       <c r="B303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
+      <c r="C303">
+        <v>3153</v>
+      </c>
+      <c r="D303">
+        <v>61.86131386861314</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304">
         <v>0</v>
       </c>
       <c r="B304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
+      <c r="C304">
+        <v>1604</v>
+      </c>
+      <c r="D304">
+        <v>48.51485148514851</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305">
         <v>1</v>
       </c>
       <c r="B305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:2">
+      <c r="C305">
+        <v>923</v>
+      </c>
+      <c r="D305">
+        <v>56.94444444444444</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306">
         <v>0</v>
       </c>
       <c r="B306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:2">
+      <c r="C306">
+        <v>1650</v>
+      </c>
+      <c r="D306">
+        <v>52.99003322259136</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307">
         <v>1</v>
       </c>
       <c r="B307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:2">
+      <c r="C307">
+        <v>626</v>
+      </c>
+      <c r="D307">
+        <v>51.37614678899082</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308">
         <v>0</v>
       </c>
       <c r="B308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:2">
+      <c r="C308">
+        <v>1379</v>
+      </c>
+      <c r="D308">
+        <v>50.92250922509225</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309">
         <v>1</v>
       </c>
       <c r="B309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:2">
+      <c r="C309">
+        <v>9274</v>
+      </c>
+      <c r="D309">
+        <v>52.64161220043573</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310">
         <v>0</v>
       </c>
       <c r="B310" t="s">
         <v>309</v>
+      </c>
+      <c r="C310">
+        <v>998</v>
+      </c>
+      <c r="D310">
+        <v>53.82513661202186</v>
       </c>
     </row>
   </sheetData>
